--- a/output/go_analysis/GOFUNCTION_gerp.xlsx
+++ b/output/go_analysis/GOFUNCTION_gerp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vistor/Documents/Work/GitHub/PhD/ms_load_grouse/output/go_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A2723D2-DB02-B446-80AE-0A617643BCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7298F8BD-2E91-7040-940E-5169CA29AE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{CB956500-DF9F-E147-BD5E-2E3247998DCF}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>GO Term</t>
   </si>
@@ -49,301 +49,142 @@
     <t>b</t>
   </si>
   <si>
-    <t>Genes</t>
-  </si>
-  <si>
     <t>GO:0003824</t>
   </si>
   <si>
     <t>catalytic activity</t>
   </si>
   <si>
-    <t>[PSMD14  -  proteasome (prosome, macropain) 26s subunit, non-atpase, 14, USP32  -  ubiquitin specific peptidase 32, TRIM55  -  tripartite motif containing 55, AADAC  -  arylacetamide deacetylase, MAPK15  -  mitogen-activated protein kinase 15, TRIM63  -  tripartite motif containing 63, e3 ubiquitin protein ligase, P4HA1  -  prolyl 4-hydroxylase, alpha polypeptide i, P4HB  -  prolyl 4-hydroxylase, beta polypeptide, KDM2B  -  lysine (k)-specific demethylase 2b, ABAT  -  4-aminobutyrate aminotransferase, ABCA2  -  atp-binding cassette, sub-family a (abc1), member 2, ABCA3  -  atp-binding cassette, sub-family a (abc1), member 3, ABCB7  -  atp-binding cassette, sub-family b (mdr/tap), member 7, ABCA4  -  atp-binding cassette, sub-family a (abc1), member 4, ABL1  -  c-abl oncogene 1, non-receptor tyrosine kinase, MCEE  -  methylmalonyl coa epimerase, ACACA  -  acetyl-coa carboxylase alpha, ACACB  -  acetyl-coa carboxylase beta, PAK1  -  p21 protein (cdc42/rac)-activated kinase 1, ACADL  -  acyl-coa dehydrogenase, long chain, MYO18B  -  myosin xviiib, PAK2  -  p21 protein (cdc42/rac)-activated kinase 2, PAK3  -  p21 protein (cdc42/rac)-activated kinase 3, ACADSB  -  acyl-coa dehydrogenase, short/branched chain, GPT2  -  glutamic pyruvate transaminase (alanine aminotransferase) 2, LNX1  -  ligand of numb-protein x 1, e3 ubiquitin protein ligase, ACAT2  -  acetyl-coa acetyltransferase 2, ATP6V0D2  -  atpase, h+ transporting, lysosomal 38kda, v0 subunit d2, PARK2  -  parkinson protein 2, e3 ubiquitin protein ligase (parkin), ATP6V1C2  -  atpase, h+ transporting, lysosomal 42kda, v1 subunit c2, PARN  -  poly(a)-specific ribonuclease, ACLY  -  atp citrate lyase, ACR  -  acrosin, ACO2  -  aconitase 2, mitochondrial, ACOX1  -  acyl-coa oxidase 1, palmitoyl, CNDP1  -  carnosine dipeptidase 1 (metallopeptidase m20 family), ACP1  -  acid phosphatase 1, soluble, ACP2  -  acid phosphatase 2, lysosomal, SETD4  -  set domain containing 4, ABCC4  -  atp-binding cassette, sub-family c (cftr/mrp), member 4, AKR7L  -  aldo-keto reductase family 7-like, USP30  -  ubiquitin specific peptidase 30, ACPP  -  acid phosphatase, prostate, B3GNT9  -  udp-glcnac:betagal beta-1,3-n-acetylglucosaminyltransferase 9, RNASEH1  -  ribonuclease h1, PCBD1  -  pterin-4 alpha-carbinolamine dehydratase/dimerization cofactor of hepatocyte nuclear factor 1 alpha, CHRAC1  -  chromatin accessibility complex 1, PCCA  -  propionyl coa carboxylase, alpha polypeptide, PCCB  -  propionyl coa carboxylase, beta polypeptide, UBE4B  -  ubiquitination factor e4b, PCK1  -  phosphoenolpyruvate carboxykinase 1 (soluble), PYROXD2  -  pyridine nucleotide-disulphide oxidoreductase domain 2, PCMT1  -  protein-l-isoaspartate (d-aspartate) o-methyltransferase, AGPAT9  -  1-acylglycerol-3-phosphate o-acyltransferase 9, CYCS  -  cytochrome c, somatic, CHMP1A  -  charged multivesicular body protein 1a, SPEG  -  speg complex locus, ACVR1  -  activin a receptor, type i, PCSK2  -  proprotein convertase subtilisin/kexin type 2, ACVR2B  -  activin a receptor, type iib, RTN4IP1  -  reticulon 4 interacting protein 1, CDK17  -  cyclin-dependent kinase 17, ACY1  -  aminoacylase 1, CDK18  -  cyclin-dependent kinase 18, ACYP2  -  acylphosphatase 2, muscle type, ADA  -  adenosine deaminase, ADAM10  -  adam metallopeptidase domain 10, ADAR  -  adenosine deaminase, rna-specific, ADARB1  -  adenosine deaminase, rna-specific, b1, PDE1C  -  phosphodiesterase 1c, calmodulin-dependent 70kda, ADARB2  -  adenosine deaminase, rna-specific, b2 (non-functional), HAO1  -  hydroxyacid oxidase (glycolate oxidase) 1, ABHD14B  -  abhydrolase domain containing 14b, PDE3A  -  phosphodiesterase 3a, cgmp-inhibited, ADCY1  -  adenylate cyclase 1 (brain), RAB19  -  rab19, member ras oncogene family, PDE3B  -  phosphodiesterase 3b, cgmp-inhibited, ADCY2  -  adenylate cyclase 2 (brain), ADCY3  -  adenylate cyclase 3, TCIRG1  -  t-cell, immune regulator 1, atpase, h+ transporting, lysosomal v0 subunit a3, PDE4B  -  phosphodiesterase 4b, camp-specific, HPDL  -  4-hydroxyphenylpyruvate dioxygenase-like, ADCY5  -  adenylate cyclase 5, LANCL1  -  lanc lantibiotic synthetase component c-like 1 (bacterial), DNAJC10  -  dnaj (hsp40) homolog, subfamily c, member 10, PDE4D  -  phosphodiesterase 4d, camp-specific, ADCY7  -  adenylate cyclase 7, ADCY8  -  adenylate cyclase 8 (brain), PDE6C  -  phosphodiesterase 6c, cgmp-specific, cone, alpha prime, ADCY9  -  adenylate cyclase 9, SSH1  -  slingshot protein phosphatase 1, PDE6H  -  phosphodiesterase 6h, cgmp-specific, cone, gamma, PDE7A  -  phosphodiesterase 7a, SMYD5  -  smyd family member 5, GFOD1  -  glucose-fructose oxidoreductase domain containing 1, PDE8A  -  phosphodiesterase 8a, PDE9A  -  phosphodiesterase 9a, AKR1A1  -  aldo-keto reductase family 1, member a1 (aldehyde reductase), PDGFRA  -  platelet-derived growth factor receptor, alpha polypeptide, PDGFRL  -  platelet-derived growth factor receptor-like, PTPN5  -  protein tyrosine phosphatase, non-receptor type 5 (striatum-enriched), PDGFRB  -  platelet-derived growth factor receptor, beta polypeptide, PDHA1  -  pyruvate dehydrogenase (lipoamide) alpha 1, MOV10L1  -  mov10l1, moloney leukemia virus 10-like 1, homolog (mouse), NEIL2  -  nei endonuclease viii-like 2 (e. coli), AGBL4  -  atp/gtp binding protein-like 4, TECRL  -  trans-2,3-enoyl-coa reductase-like, PDK3  -  pyruvate dehydrogenase kinase, isozyme 3, PDK4  -  pyruvate dehydrogenase kinase, isozyme 4, XRN1  -  5'-3' exoribonuclease 1, ENPP2  -  ectonucleotide pyrophosphatase/phosphodiesterase 2, ADPRH  -  adp-ribosylarginine hydrolase, ENPP3  -  ectonucleotide pyrophosphatase/phosphodiesterase 3, PARP1  -  poly (adp-ribose) polymerase 1, ANKIB1  -  ankyrin repeat and ibr domain containing 1, AIFM2  -  apoptosis-inducing factor, mitochondrion-associated, 2, ZDHHC12  -  zinc finger, dhhc-type containing 12, SERHL2  -  serine hydrolase-like 2, SPPL2A  -  signal peptide peptidase like 2a, RNF216  -  ring finger protein 216, IPMK  -  inositol polyphosphate multikinase, FBXO18  -  f-box protein, helicase, 18, LCLAT1  -  lysocardiolipin acyltransferase 1, CHPF2  -  chondroitin polymerizing factor 2, TRMT13  -  trna methyltransferase 13 homolog (s. cerevisiae), PEPD  -  peptidase d, ADRBK1  -  adrenergic, beta, receptor kinase 1, ATAD1  -  atpase family, aaa domain containing 1, ADRBK2  -  adrenergic, beta, receptor kinase 2, ADSL  -  adenylosuccinate lyase, TMTC4  -  transmembrane and tetratricopeptide repeat containing 4, NEURL1B  -  neuralized homolog 1b (drosophila), PEX1  -  peroxisomal biogenesis factor 1, RNFT2  -  ring finger protein, transmembrane 2, PEX6  -  peroxisomal biogenesis factor 6, TMX3  -  thioredoxin-related transmembrane protein 3, PRMT7  -  protein arginine methyltransferase 7, PEX12  -  peroxisomal biogenesis factor 12, SMOX  -  spermine oxidase, BPNT1  -  3'(2'), 5'-bisphosphate nucleotidase 1, TUBB3  -  tubulin, beta 3 class iii, MSRB3  -  methionine sulfoxide reductase b3, ZDHHC20  -  zinc finger, dhhc-type containing 20, RHOF  -  ras homolog family member f (in filopodia), AGA  -  aspartylglucosaminidase, ALG10  -  alg10, alpha-1,2-glucosyltransferase, CEPT1  -  choline/ethanolamine phosphotransferase 1, PFKFB2  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 2, AGL  -  amylo-alpha-1, 6-glucosidase, 4-alpha-glucanotransferase, PFKFB3  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 3, PFKFB4  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 4, PUS7  -  pseudouridylate synthase 7 homolog (s. cerevisiae), PFKL  -  phosphofructokinase, liver, PFKP  -  phosphofructokinase, platelet, METAP1D  -  methionyl aminopeptidase type 1d (mitochondrial), ASNSD1  -  asparagine synthetase domain containing 1, MIER2  -  mesoderm induction early response 1, family member 2, CDK14  -  cyclin-dependent kinase 14, PEMT  -  phosphatidylethanolamine n-methyltransferase, PGAM1  -  phosphoglycerate mutase 1 (brain), ST3GAL6  -  st3 beta-galactoside alpha-2,3-sialyltransferase 6, CPQ  -  carboxypeptidase q, PGD  -  phosphogluconate dehydrogenase, ATG4C  -  autophagy related 4c, cysteine peptidase, AK2  -  adenylate kinase 2, RC3H2  -  ring finger and ccch-type domains 2, AK4  -  adenylate kinase 4, PGM1  -  phosphoglucomutase 1, AKT1  -  v-akt murine thymoma viral oncogene homolog 1, PGM3  -  phosphoglucomutase 3, RNF169  -  ring finger protein 169, RNF186  -  ring finger protein 186, ALAD  -  aminolevulinate dehydratase, ALAS1  -  aminolevulinate, delta-, synthase 1, ABCB1  -  atp-binding cassette, sub-family b (mdr/tap), member 1, TESK2  -  testis-specific kinase 2, CGNL1  -  cingulin-like 1, PHYHD1  -  phytanoyl-coa dioxygenase domain containing 1, DDX49  -  dead (asp-glu-ala-asp) box polypeptide 49, ALDH2  -  aldehyde dehydrogenase 2 family (mitochondrial), PHEX  -  phosphate regulating endopeptidase homolog, x-linked, GXYLT2  -  glucoside xylosyltransferase 2, ARIH2  -  ariadne homolog 2 (drosophila), PHF2  -  phd finger protein 2, MCM9  -  minichromosome maintenance complex component 9, ALDH1A3  -  aldehyde dehydrogenase 1 family, member a3, UBASH3B  -  ubiquitin associated and sh3 domain containing b, ALDH3B1  -  aldehyde dehydrogenase 3 family, member b1, PHKA2  -  phosphorylase kinase, alpha 2 (liver), ALDH9A1  -  aldehyde dehydrogenase 9 family, member a1, ALDH3A2  -  aldehyde dehydrogenase 3 family, member a2, LYPLA1  -  lysophospholipase i, MEIOB  -  meiosis specific with ob domains, ABCD2  -  atp-binding cassette, sub-family d (ald), member 2, PHKG1  -  phosphorylase kinase, gamma 1 (muscle), EMG1  -  emg1 n1-specific pseudouridine methyltransferase, NUDT8  -  nudix (nucleoside diphosphate linked moiety x)-type motif 8, PHYH  -  phytanoyl-coa 2-hydroxylase, ALDOC  -  aldolase c, fructose-bisphosphate, AKR1B1  -  aldo-keto reductase family 1, member b1 (aldose reductase), ALK  -  anaplastic lymphoma receptor tyrosine kinase, ALOX5  -  arachidonate 5-lipoxygenase, ALOX5AP  -  arachidonate 5-lipoxygenase-activating protein, EGLN1  -  egl-9 family hypoxia-inducible factor 1, PPIE  -  peptidylprolyl isomerase e (cyclophilin e), ZDHHC23  -  zinc finger, dhhc-type containing 23, ECI2  -  enoyl-coa delta isomerase 2, PIGA  -  phosphatidylinositol glycan anchor biosynthesis, class a, ALPI  -  alkaline phosphatase, intestinal, PIGC  -  phosphatidylinositol glycan anchor biosynthesis, class c, PIGY  -  phosphatidylinositol glycan anchor biosynthesis, class y, INO80  -  ino80 complex subunit, MERTK  -  c-mer proto-oncogene tyrosine kinase, PIGH  -  phosphatidylinositol glycan anchor biosynthesis, class h, RERG  -  ras-like, estrogen-regulated, growth inhibitor, PIK3C2A  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 alpha, PHYKPL  -  5-phosphohydroxy-l-lysine phospho-lyase, PARP14  -  poly (adp-ribose) polymerase family, member 14, PIK3C2B  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 beta, AMD1  -  adenosylmethionine decarboxylase 1, PIK3C2G  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 gamma, PIK3CA  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit alpha, PIK3CB  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit beta, AMFR  -  autocrine motility factor receptor, e3 ubiquitin protein ligase, USP45  -  ubiquitin specific peptidase 45, UGT1A1  -  udp glucuronosyltransferase 1 family, polypeptide a1, PIK3CD  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit delta, PIK3CG  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit gamma, AMPD2  -  adenosine monophosphate deaminase 2, AMPD3  -  adenosine monophosphate deaminase 3, PLA2G4F  -  phospholipase a2, group ivf, PI4KB  -  phosphatidylinositol 4-kinase, catalytic, beta, UBE2E3  -  ubiquitin-conjugating enzyme e2e 3, RSBN1  -  round spermatid basic protein 1, AMT  -  aminomethyltransferase, CRLS1  -  cardiolipin synthase 1, GTPBP2  -  gtp binding protein 2, CROT  -  carnitine o-octanoyltransferase, PIP4K2A  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, alpha, PDP1  -  pyruvate dehyrogenase phosphatase catalytic subunit 1, ATCAY  -  ataxia, cerebellar, cayman type, GPN2  -  gpn-loop gtpase 2, PPIL4  -  peptidylprolyl isomerase (cyclophilin)-like 4, PKM  -  pyruvate kinase, muscle, STK25  -  serine/threonine kinase 25, OTUD4  -  otu domain containing 4, ENOX2  -  ecto-nox disulfide-thiol exchanger 2, RNF144B  -  ring finger protein 144b, PLA2G1B  -  phospholipase a2, group ib (pancreas), PLA2G4A  -  phospholipase a2, group iva (cytosolic, calcium-dependent), RAB39A  -  rab39a, member ras oncogene family, PLAT  -  plasminogen activator, tissue, PCSK9  -  proprotein convertase subtilisin/kexin type 9, APPBP2  -  amyloid beta precursor protein (cytoplasmic tail) binding protein 2, PLCB2  -  phospholipase c, beta 2, PLCB4  -  phospholipase c, beta 4, PLCD1  -  phospholipase c, delta 1, AOAH  -  acyloxyacyl hydrolase (neutrophil), PLCL1  -  phospholipase c-like 1, PLCG1  -  phospholipase c, gamma 1, AOX1  -  aldehyde oxidase 1, PLCG2  -  phospholipase c, gamma 2 (phosphatidylinositol-specific), DDX17  -  dead (asp-glu-ala-asp) box helicase 17, PLD1  -  phospholipase d1, phosphatidylcholine-specific, ALG2  -  alg2, alpha-1,3/1,6-mannosyltransferase, MYLK2  -  myosin light chain kinase 2, PLG  -  plasminogen, PAN3  -  pan3 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), ZRANB1  -  zinc finger, ran-binding domain containing 1, PITRM1  -  pitrilysin metallopeptidase 1, PLK1  -  polo-like kinase 1, ATG7  -  autophagy related 7, RNF111  -  ring finger protein 111, LEPREL2  -  leprecan-like 2, PLOD1  -  procollagen-lysine, 2-oxoglutarate 5-dioxygenase 1, XIAP  -  x-linked inhibitor of apoptosis, ALKBH4  -  alkb, alkylation repair homolog 4 (e. coli), GLRX3  -  glutaredoxin 3, TET2  -  tet methylcytosine dioxygenase 2, RGS8  -  regulator of g-protein signaling 8, NUDT14  -  nudix (nucleoside diphosphate linked moiety x)-type motif 14, PRDX4  -  peroxiredoxin 4, TRIT1  -  trna isopentenyltransferase 1, AGPAT1  -  1-acylglycerol-3-phosphate o-acyltransferase 1, AGPAT2  -  1-acylglycerol-3-phosphate o-acyltransferase 2, RPP30  -  ribonuclease p/mrp 30kda subunit, RPP38  -  ribonuclease p/mrp 38kda subunit, PML  -  promyelocytic leukemia, HELZ2  -  helicase with zinc finger 2, transcriptional coactivator, PMM1  -  phosphomannomutase 1, APRT  -  adenine phosphoribosyltransferase, PMM2  -  phosphomannomutase 2, DCLK3  -  doublecortin-like kinase 3, OLFM4  -  olfactomedin 4, ERCC6L  -  excision repair cross-complementing rodent repair deficiency, complementation group 6-like, SLU7  -  slu7 splicing factor homolog (s. cerevisiae), EXOSC10  -  exosome component 10, PMS2  -  pms2 postmeiotic segregation increased 2 (s. cerevisiae), ABCC6  -  atp-binding cassette, sub-family c (cftr/mrp), member 6, D2HGDH  -  d-2-hydroxyglutarate dehydrogenase, PNLIPRP2  -  pancreatic lipase-related protein 2, ZC3H12C  -  zinc finger ccch-type containing 12c, SSH2  -  slingshot protein phosphatase 2, BSPRY  -  b-box and spry domain containing, ARF4  -  adp-ribosylation factor 4, GFM1  -  g elongation factor, mitochondrial 1, POMT1  -  protein-o-mannosyltransferase 1, PLCXD2  -  phosphatidylinositol-specific phospholipase c, x domain containing 2, POLA1  -  polymerase (dna directed), alpha 1, catalytic subunit, TXNRD2  -  thioredoxin reductase 2, ARF6  -  adp-ribosylation factor 6, MTHFS  -  5,10-methenyltetrahydrofolate synthetase (5-formyltetrahydrofolate cyclo-ligase), ARG2  -  arginase 2, POLE  -  polymerase (dna directed), epsilon, catalytic subunit, POLE2  -  polymerase (dna directed), epsilon 2, accessory subunit, RHOB  -  ras homolog family member b, POLG  -  polymerase (dna directed), gamma, RNF214  -  ring finger protein 214, POLH  -  polymerase (dna directed), eta, PRPF8  -  pre-mrna processing factor 8, RND3  -  rho family gtpase 3, RHOG  -  ras homolog family member g, POLR2B  -  polymerase (rna) ii (dna directed) polypeptide b, 140kda, POLR2C  -  polymerase (rna) ii (dna directed) polypeptide c, 33kda, POLR2D  -  polymerase (rna) ii (dna directed) polypeptide d, ARHGAP5  -  rho gtpase activating protein 5, USP16  -  ubiquitin specific peptidase 16, POLR2F  -  polymerase (rna) ii (dna directed) polypeptide f, SHPRH  -  snf2 histone linker phd ring helicase, e3 ubiquitin protein ligase, ARHGDIB  -  rho gdp dissociation inhibitor (gdi) beta, POLR2H  -  polymerase (rna) ii (dna directed) polypeptide h, GDPD2  -  glycerophosphodiester phosphodiesterase domain containing 2, PGPEP1  -  pyroglutamyl-peptidase i, POLR2J  -  polymerase (rna) ii (dna directed) polypeptide j, 13.3kda, ARL1  -  adp-ribosylation factor-like 1, POLR2K  -  polymerase (rna) ii (dna directed) polypeptide k, 7.0kda, POLR2L  -  polymerase (rna) ii (dna directed) polypeptide l, 7.6kda, SNRK  -  snf related kinase, POLRMT  -  polymerase (rna) mitochondrial (dna directed), ARL3  -  adp-ribosylation factor-like 3, PNPT1  -  polyribonucleotide nucleotidyltransferase 1, PON2  -  paraoxonase 2, GGACT  -  gamma-glutamylamine cyclotransferase, POR  -  p450 (cytochrome) oxidoreductase, ARSA  -  arylsulfatase a, STAMBP  -  stam binding protein, POLR3F  -  polymerase (rna) iii (dna directed) polypeptide f, 39 kda, ARSD  -  arylsulfatase d, DPP8  -  dipeptidyl-peptidase 8, BCOR  -  bcl6 corepressor, PPA1  -  pyrophosphatase (inorganic) 1, NAV3  -  neuron navigator 3, NAV2  -  neuron navigator 2, NSUN2  -  nop2/sun rna methyltransferase family, member 2, MED1  -  mediator complex subunit 1, RGS14  -  regulator of g-protein signaling 14, ALKBH5  -  alkb, alkylation repair homolog 5 (e. coli), PPEF1  -  protein phosphatase, ef-hand calcium binding domain 1, MTMR10  -  myotubularin related protein 10, RNF43  -  ring finger protein 43, NPRL2  -  nitrogen permease regulator-like 2 (s. cerevisiae), ABCC10  -  atp-binding cassette, sub-family c (cftr/mrp), member 10, ASMT  -  acetylserotonin o-methyltransferase, ELOVL2  -  elovl fatty acid elongase 2, ASNS  -  asparagine synthetase (glutamine-hydrolyzing), PPID  -  peptidylprolyl isomerase d, CAMKK2  -  calcium/calmodulin-dependent protein kinase kinase 2, beta, ASPA  -  aspartoacylase, CDKAL1  -  cdk5 regulatory subunit associated protein 1-like 1, ASPH  -  aspartate beta-hydroxylase, ASS1  -  argininosuccinate synthase 1, WHSC1L1  -  wolf-hirschhorn syndrome candidate 1-like 1, PLCZ1  -  phospholipase c, zeta 1, CYP2W1  -  cytochrome p450, family 2, subfamily w, polypeptide 1, PPM1A  -  protein phosphatase, mg2+/mn2+ dependent, 1a, PPM1B  -  protein phosphatase, mg2+/mn2+ dependent, 1b, PPM1G  -  protein phosphatase, mg2+/mn2+ dependent, 1g, PPP1CB  -  protein phosphatase 1, catalytic subunit, beta isozyme, PPP1CC  -  protein phosphatase 1, catalytic subunit, gamma isozyme, DUS2  -  dihydrouridine synthase 2, PPP1R3C  -  protein phosphatase 1, regulatory subunit 3c, FARS2  -  phenylalanyl-trna synthetase 2, mitochondrial, PPP1R3D  -  protein phosphatase 1, regulatory subunit 3d, UBE3B  -  ubiquitin protein ligase e3b, ATIC  -  5-aminoimidazole-4-carboxamide ribonucleotide formyltransferase/imp cyclohydrolase, PPP1R8  -  protein phosphatase 1, regulatory subunit 8, ATM  -  ataxia telangiectasia mutated, PAPLN  -  papilin, proteoglycan-like sulfated glycoprotein, RRAGA  -  ras-related gtp binding a, MAGI3  -  membrane associated guanylate kinase, ww and pdz domain containing 3, GNA13  -  guanine nucleotide binding protein (g protein), alpha 13, GLB1L2  -  galactosidase, beta 1-like 2, PPP2CA  -  protein phosphatase 2, catalytic subunit, alpha isozyme, TRMT10C  -  trna methyltransferase 10 homolog c (s. cerevisiae), ATP1A1  -  atpase, na+/k+ transporting, alpha 1 polypeptide, EXD3  -  exonuclease 3'-5' domain containing 3, RSPRY1  -  ring finger and spry domain containing 1, DPH6  -  diphthamine biosynthesis 6, ATP12A  -  atpase, h+/k+ transporting, nongastric, alpha polypeptide, B3GNT2  -  udp-glcnac:betagal beta-1,3-n-acetylglucosaminyltransferase 2, GNB5  -  guanine nucleotide binding protein (g protein), beta 5, STEAP2  -  steap family member 2, metalloreductase, UBE3D  -  ubiquitin protein ligase e3d, PPP2R5A  -  protein phosphatase 2, regulatory subunit b', alpha, FUT9  -  fucosyltransferase 9 (alpha (1,3) fucosyltransferase), PPP2R5D  -  protein phosphatase 2, regulatory subunit b', delta, ATP2A3  -  atpase, ca++ transporting, ubiquitous, PPP3CA  -  protein phosphatase 3, catalytic subunit, alpha isozyme, ATP2B1  -  atpase, ca++ transporting, plasma membrane 1, CCT8  -  chaperonin containing tcp1, subunit 8 (theta), LPCAT2  -  lysophosphatidylcholine acyltransferase 2, CORIN  -  corin, serine peptidase, PPP3CC  -  protein phosphatase 3, catalytic subunit, gamma isozyme, ATP2B4  -  atpase, ca++ transporting, plasma membrane 4, PPP3R1  -  protein phosphatase 3, regulatory subunit b, alpha, ATP4B  -  atpase, h+/k+ exchanging, beta polypeptide, POLD3  -  polymerase (dna-directed), delta 3, accessory subunit, CERS1  -  ceramide synthase 1, HS6ST2  -  heparan sulfate 6-o-sulfotransferase 2, PPT1  -  palmitoyl-protein thioesterase 1, PARP16  -  poly (adp-ribose) polymerase family, member 16, POLQ  -  polymerase (dna directed), theta, MGEA5  -  meningioma expressed antigen 5 (hyaluronidase), PRCP  -  prolylcarboxypeptidase (angiotensinase c), UCKL1  -  uridine-cytidine kinase 1-like 1, YME1L1  -  yme1-like 1 atpase, PREP  -  prolyl endopeptidase, ATP6V1A  -  atpase, h+ transporting, lysosomal 70kda, v1 subunit a, KLHL13  -  kelch-like family member 13, CPSF3L  -  cleavage and polyadenylation specific factor 3-like, ATP6V1C1  -  atpase, h+ transporting, lysosomal 42kda, v1 subunit c1, ATP6V1E1  -  atpase, h+ transporting, lysosomal 31kda, v1 subunit e1, HS6ST3  -  heparan sulfate 6-o-sulfotransferase 3, ATP6V0B  -  atpase, h+ transporting, lysosomal 21kda, v0 subunit b, ATP6V0A1  -  atpase, h+ transporting, lysosomal v0 subunit a1, PRKAB2  -  protein kinase, amp-activated, beta 2 non-catalytic subunit, ATP7A  -  atpase, cu++ transporting, alpha polypeptide, PRKACB  -  protein kinase, camp-dependent, catalytic, beta, MAP3K2  -  mitogen-activated protein kinase kinase kinase 2, MASP2  -  mannan-binding lectin serine peptidase 2, ATP7B  -  atpase, cu++ transporting, beta polypeptide, ATR  -  ataxia telangiectasia and rad3 related, CAPN9  -  calpain 9, ATRX  -  alpha thalassemia/mental retardation syndrome x-linked, KIF1A  -  kinesin family member 1a, TRAF3IP2  -  traf3 interacting protein 2, PRKCA  -  protein kinase c, alpha, MED30  -  mediator complex subunit 30, PRKCB  -  protein kinase c, beta, OXSM  -  3-oxoacyl-acp synthase, mitochondrial, PRKCD  -  protein kinase c, delta, PRKCE  -  protein kinase c, epsilon, PRKCH  -  protein kinase c, eta, HBS1L  -  hbs1-like (s. cerevisiae), PKN2  -  protein kinase n2, PRKCQ  -  protein kinase c, theta, TRMT61B  -  trna methyltransferase 61 homolog b (s. cerevisiae), PRKCZ  -  protein kinase c, zeta, POP4  -  processing of precursor 4, ribonuclease p/mrp subunit (s. cerevisiae), PRKDC  -  protein kinase, dna-activated, catalytic polypeptide, PRKG1  -  protein kinase, cgmp-dependent, type i, MAPK1  -  mitogen-activated protein kinase 1, MAPK6  -  mitogen-activated protein kinase 6, NEK6  -  nima-related kinase 6, WDR4  -  wd repeat domain 4, MAPK8  -  mitogen-activated protein kinase 8, BARD1  -  brca1 associated ring domain 1, MAPK11  -  mitogen-activated protein kinase 11, MAPK9  -  mitogen-activated protein kinase 9, MAPK10  -  mitogen-activated protein kinase 10, MAPK13  -  mitogen-activated protein kinase 13, MAP2K1  -  mitogen-activated protein kinase kinase 1, BCAT1  -  branched chain amino-acid transaminase 1, cytosolic, BCHE  -  butyrylcholinesterase, MAP2K6  -  mitogen-activated protein kinase kinase 6, BCKDHB  -  branched chain keto acid dehydrogenase e1, beta polypeptide, MTHFD2  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 2, methenyltetrahydrofolate cyclohydrolase, CCND1  -  cyclin d1, EIF2AK2  -  eukaryotic translation initiation factor 2-alpha kinase 2, RPP40  -  ribonuclease p/mrp 40kda subunit, USP47  -  ubiquitin specific peptidase 47, MOCOS  -  molybdenum cofactor sulfurase, PROC  -  protein c (inactivator of coagulation factors va and viiia), PRODH  -  proline dehydrogenase (oxidase) 1, BCR  -  breakpoint cluster region, ATG16L1  -  autophagy related 16-like 1 (s. cerevisiae), BCS1L  -  bc1 (ubiquinol-cytochrome c reductase) synthesis-like, PRPS1  -  phosphoribosyl pyrophosphate synthetase 1, ANGEL2  -  angel homolog 2 (drosophila), PRPS2  -  phosphoribosyl pyrophosphate synthetase 2, PRPSAP1  -  phosphoribosyl pyrophosphate synthetase-associated protein 1, BDH1  -  3-hydroxybutyrate dehydrogenase, type 1, PRPSAP2  -  phosphoribosyl pyrophosphate synthetase-associated protein 2, BDKRB2  -  bradykinin receptor b2, PDPR  -  pyruvate dehydrogenase phosphatase regulatory subunit, FAXDC2  -  fatty acid hydroxylase domain containing 2, ENOX1  -  ecto-nox disulfide-thiol exchanger 1, LGMN  -  legumain, ZNF598  -  zinc finger protein 598, MASP1  -  mannan-binding lectin serine peptidase 1 (c4/c2 activating component of ra-reactive factor), OXR1  -  oxidation resistance 1, RELN  -  reelin, TMPRSS15  -  transmembrane protease, serine 15, ADCK2  -  aarf domain containing kinase 2, PRDM1  -  pr domain containing 1, with znf domain, DHX57  -  deah (asp-glu-ala-asp/his) box polypeptide 57, BLK  -  b lymphoid tyrosine kinase, FTCD  -  formimidoyltransferase cyclodeaminase, BLM  -  bloom syndrome, recq helicase-like, BLMH  -  bleomycin hydrolase, PSAP  -  prosaposin, BLVRA  -  biliverdin reductase a, CLPX  -  clpx caseinolytic peptidase x homolog (e. coli), PDE10A  -  phosphodiesterase 10a, CERS5  -  ceramide synthase 5, PSEN1  -  presenilin 1, DPP9  -  dipeptidyl-peptidase 9, PSEN2  -  presenilin 2 (alzheimer disease 4), BMP2  -  bone morphogenetic protein 2, TRIM47  -  tripartite motif containing 47, CYP46A1  -  cytochrome p450, family 46, subfamily a, polypeptide 1, BMPR1A  -  bone morphogenetic protein receptor, type ia, ADAM28  -  adam metallopeptidase domain 28, PSMA1  -  proteasome (prosome, macropain) subunit, alpha type, 1, BMPR2  -  bone morphogenetic protein receptor, type ii (serine/threonine kinase), PSMA2  -  proteasome (prosome, macropain) subunit, alpha type, 2, PSMA3  -  proteasome (prosome, macropain) subunit, alpha type, 3, USP20  -  ubiquitin specific peptidase 20, PSMA5  -  proteasome (prosome, macropain) subunit, alpha type, 5, USP19  -  ubiquitin specific peptidase 19, BNIP2  -  bcl2/adenovirus e1b 19kda interacting protein 2, PSMB1  -  proteasome (prosome, macropain) subunit, beta type, 1, ME3  -  malic enzyme 3, nadp(+)-dependent, mitochondrial, PSMB2  -  proteasome (prosome, macropain) subunit, beta type, 2, PSMB3  -  proteasome (prosome, macropain) subunit, beta type, 3, FGL2  -  fibrinogen-like 2, PSMB4  -  proteasome (prosome, macropain) subunit, beta type, 4, BPGM  -  2,3-bisphosphoglycerate mutase, BPHL  -  biphenyl hydrolase-like (serine hydrolase), FANCL  -  fanconi anemia, complementation group l, BRCA1  -  breast cancer 1, early onset, BRAF  -  v-raf murine sarcoma viral oncogene homolog b, BRCA2  -  breast cancer 2, early onset, PSMC1  -  proteasome (prosome, macropain) 26s subunit, atpase, 1, PSMC2  -  proteasome (prosome, macropain) 26s subunit, atpase, 2, PSMC3  -  proteasome (prosome, macropain) 26s subunit, atpase, 3, UAP1L1  -  udp-n-acteylglucosamine pyrophosphorylase 1-like 1, BST1  -  bone marrow stromal cell antigen 1, RAB10  -  rab10, member ras oncogene family, PSMC5  -  proteasome (prosome, macropain) 26s subunit, atpase, 5, MALT1  -  mucosa associated lymphoid tissue lymphoma translocation gene 1, FIGN  -  fidgetin, PSMD1  -  proteasome (prosome, macropain) 26s subunit, non-atpase, 1, MMP24  -  matrix metallopeptidase 24 (membrane-inserted), PSMD2  -  proteasome (prosome, macropain) 26s subunit, non-atpase, 2, ELP3  -  elongator acetyltransferase complex subunit 3, PSMD7  -  proteasome (prosome, macropain) 26s subunit, non-atpase, 7, RNF185  -  ring finger protein 185, BTK  -  bruton agammaglobulinemia tyrosine kinase, ZDHHC4  -  zinc finger, dhhc-type containing 4, PKDCC  -  protein kinase domain containing, cytoplasmic, P4HA3  -  prolyl 4-hydroxylase, alpha polypeptide iii, BUB1  -  bub1 mitotic checkpoint serine/threonine kinase, MTPAP  -  mitochondrial poly(a) polymerase, BUB1B  -  bub1 mitotic checkpoint serine/threonine kinase b, MAN1A2  -  mannosidase, alpha, class 1a, member 2, RSAD2  -  radical s-adenosyl methionine domain containing 2, PSPH  -  phosphoserine phosphatase, DARS2  -  aspartyl-trna synthetase 2, mitochondrial, RFWD3  -  ring finger and wd repeat domain 3, PTEN  -  phosphatase and tensin homolog, PAPOLA  -  poly(a) polymerase alpha, C1R  -  complement component 1, r subcomponent, C1S  -  complement component 1, s subcomponent, TDRD12  -  tudor domain containing 12, SMPDL3A  -  sphingomyelin phosphodiesterase, acid-like 3a, CAPN5  -  calpain 5, RALBP1  -  rala binding protein 1, PTGS1  -  prostaglandin-endoperoxide synthase 1 (prostaglandin g/h synthase and cyclooxygenase), PTGS2  -  prostaglandin-endoperoxide synthase 2 (prostaglandin g/h synthase and cyclooxygenase), PTK2  -  protein tyrosine kinase 2, PTK7  -  protein tyrosine kinase 7, RNF220  -  ring finger protein 220, POP1  -  processing of precursor 1, ribonuclease p/mrp subunit (s. cerevisiae), B4GALNT3  -  beta-1,4-n-acetyl-galactosaminyl transferase 3, MPPED2  -  metallophosphoesterase domain containing 2, MSL3  -  male-specific lethal 3 homolog (drosophila), MYRF  -  myelin regulatory factor, NADSYN1  -  nad synthetase 1, DAGLA  -  diacylglycerol lipase, alpha, ALKBH8  -  alkb, alkylation repair homolog 8 (e. coli), MYLK3  -  myosin light chain kinase 3, QSOX1  -  quiescin q6 sulfhydryl oxidase 1, PTPN1  -  protein tyrosine phosphatase, non-receptor type 1, PTPN2  -  protein tyrosine phosphatase, non-receptor type 2, MPPED1  -  metallophosphoesterase domain containing 1, PTPN3  -  protein tyrosine phosphatase, non-receptor type 3, PDIA5  -  protein disulfide isomerase family a, member 5, CA1  -  carbonic anhydrase i, PTPN4  -  protein tyrosine phosphatase, non-receptor type 4 (megakaryocyte), CA2  -  carbonic anhydrase ii, PTPN6  -  protein tyrosine phosphatase, non-receptor type 6, CA3  -  carbonic anhydrase iii, muscle specific, PTPN7  -  protein tyrosine phosphatase, non-receptor type 7, CA4  -  carbonic anhydrase iv, PTPN9  -  protein tyrosine phosphatase, non-receptor type 9, PTPN11  -  protein tyrosine phosphatase, non-receptor type 11, PTPN12  -  protein tyrosine phosphatase, non-receptor type 12, CA6  -  carbonic anhydrase vi, PTPN13  -  protein tyrosine phosphatase, non-receptor type 13 (apo-1/cd95 (fas)-associated phosphatase), CA7  -  carbonic anhydrase vii, CA8  -  carbonic anhydrase viii, SETD5  -  set domain containing 5, PTPRA  -  protein tyrosine phosphatase, receptor type, a, PTPRB  -  protein tyrosine phosphatase, receptor type, b, CA12  -  carbonic anhydrase xii, HECTD4  -  hect domain containing e3 ubiquitin protein ligase 4, LEPREL1  -  leprecan-like 1, KSR2  -  kinase suppressor of ras 2, PTPRE  -  protein tyrosine phosphatase, receptor type, e, PTPRF  -  protein tyrosine phosphatase, receptor type, f, GATC  -  glutamyl-trna(gln) amidotransferase, subunit c, PTPRG  -  protein tyrosine phosphatase, receptor type, g, ASCC3  -  activating signal cointegrator 1 complex subunit 3, TMLHE  -  trimethyllysine hydroxylase, epsilon, EXD2  -  exonuclease 3'-5' domain containing 2, PTPRJ  -  protein tyrosine phosphatase, receptor type, j, PTPRK  -  protein tyrosine phosphatase, receptor type, k, PTPRM  -  protein tyrosine phosphatase, receptor type, m, GXYLT1  -  glucoside xylosyltransferase 1, TMPRSS12  -  transmembrane (c-terminal) protease, serine 12, PTPRN2  -  protein tyrosine phosphatase, receptor type, n polypeptide 2, OXNAD1  -  oxidoreductase nad-binding domain containing 1, RAB32  -  rab32, member ras oncogene family, PTPRO  -  protein tyrosine phosphatase, receptor type, o, ETNK2  -  ethanolamine kinase 2, PTPRR  -  protein tyrosine phosphatase, receptor type, r, PTPRS  -  protein tyrosine phosphatase, receptor type, s, NAT10  -  n-acetyltransferase 10 (gcn5-related), PTPRZ1  -  protein tyrosine phosphatase, receptor-type, z polypeptide 1, PANK4  -  pantothenate kinase 4, COPS5  -  cop9 signalosome subunit 5, MTG1  -  mitochondrial ribosome-associated gtpase 1, USP40  -  ubiquitin specific peptidase 40, METAP2  -  methionyl aminopeptidase 2, DUSP27  -  dual specificity phosphatase 27 (putative), UBA6  -  ubiquitin-like modifier activating enzyme 6, OGFOD1  -  2-oxoglutarate and iron-dependent oxygenase domain containing 1, SIAH3  -  siah e3 ubiquitin protein ligase fam</t>
-  </si>
-  <si>
-    <t>ly member 3, SLC27A4  -  solute carrier family 27 (fatty acid transporter), member 4, CAPN13  -  calpain 13, KIF2C  -  kinesin family member 2c, ABCD4  -  atp-binding cassette, sub-family d (ald), member 4, NEIL3  -  nei endonuclease viii-like 3 (e. coli), TMEM129  -  transmembrane protein 129, PCMTD2  -  protein-l-isoaspartate (d-aspartate) o-methyltransferase domain containing 2, TLK2  -  tousled-like kinase 2, ALDH18A1  -  aldehyde dehydrogenase 18 family, member a1, TYW1  -  trna-yw synthesizing protein 1 homolog (s. cerevisiae), PCYT2  -  phosphate cytidylyltransferase 2, ethanolamine, CAMK4  -  calcium/calmodulin-dependent protein kinase iv, METTL18  -  methyltransferase like 18, PYGB  -  phosphorylase, glycogen; brain, CAMK2A  -  calcium/calmodulin-dependent protein kinase ii alpha, ZDHHC22  -  zinc finger, dhhc-type containing 22, ADI1  -  acireductone dioxygenase 1, CAMK2D  -  calcium/calmodulin-dependent protein kinase ii delta, CAMK2G  -  calcium/calmodulin-dependent protein kinase ii gamma, QDPR  -  quinoid dihydropteridine reductase, LIAS  -  lipoic acid synthetase, IFT27  -  intraflagellar transport 27 homolog (chlamydomonas), RAB35  -  rab35, member ras oncogene family, RAB3A  -  rab3a, member ras oncogene family, CAPN2  -  calpain 2, (m/ii) large subunit, ECHDC2  -  enoyl coa hydratase domain containing 2, CAPN3  -  calpain 3, (p94), RAB4A  -  rab4a, member ras oncogene family, OC90  -  otoconin 90, RAB31  -  rab31, member ras oncogene family, PGM2  -  phosphoglucomutase 2, CARS  -  cysteinyl-trna synthetase, QRSL1  -  glutaminyl-trna synthase (glutamine-hydrolyzing)-like 1, PIM3  -  pim-3 oncogene, CASP2  -  caspase 2, apoptosis-related cysteine peptidase, CASP3  -  caspase 3, apoptosis-related cysteine peptidase, RAC1  -  ras-related c3 botulinum toxin substrate 1 (rho family, small gtp binding protein rac1), CASP6  -  caspase 6, apoptosis-related cysteine peptidase, MGME1  -  mitochondrial genome maintenance exonuclease 1, UBE2W  -  ubiquitin-conjugating enzyme e2w (putative), RAC2  -  ras-related c3 botulinum toxin substrate 2 (rho family, small gtp binding protein rac2), DTD1  -  d-tyrosyl-trna deacylase 1, CASP7  -  caspase 7, apoptosis-related cysteine peptidase, RAC3  -  ras-related c3 botulinum toxin substrate 3 (rho family, small gtp binding protein rac3), CASP8  -  caspase 8, apoptosis-related cysteine peptidase, MID2  -  midline 2, CASP9  -  caspase 9, apoptosis-related cysteine peptidase, RHOT1  -  ras homolog family member t1, DPH7  -  diphthamide biosynthesis 7, CASR  -  calcium-sensing receptor, RAD51  -  rad51 recombinase, CAT  -  catalase, NUDT21  -  nudix (nucleoside diphosphate linked moiety x)-type motif 21, RAD51C  -  rad51 paralog c, RAD51D  -  rad51 paralog d, DDX52  -  dead (asp-glu-ala-asp) box polypeptide 52, ABHD2  -  abhydrolase domain containing 2, RAF1  -  v-raf-1 murine leukemia viral oncogene homolog 1, WWP1  -  ww domain containing e3 ubiquitin protein ligase 1, HELB  -  helicase (dna) b, RAG1  -  recombination activating gene 1, WWP2  -  ww domain containing e3 ubiquitin protein ligase 2, RAG2  -  recombination activating gene 2, PI4K2B  -  phosphatidylinositol 4-kinase type 2 beta, RALA  -  v-ral simian leukemia viral oncogene homolog a (ras related), DUS4L  -  dihydrouridine synthase 4-like (s. cerevisiae), RALB  -  v-ral simian leukemia viral oncogene homolog b, SPTLC3  -  serine palmitoyltransferase, long chain base subunit 3, RAN  -  ran, member ras oncogene family, CBL  -  cbl proto-oncogene, e3 ubiquitin protein ligase, CBLB  -  cbl proto-oncogene b, e3 ubiquitin protein ligase, RANBP2  -  ran binding protein 2, UBE2Q2  -  ubiquitin-conjugating enzyme e2q family member 2, FAM98B  -  family with sequence similarity 98, member b, CYB561D2  -  cytochrome b561 family, member d2, CBR1  -  carbonyl reductase 1, MARS2  -  methionyl-trna synthetase 2, mitochondrial, RAP1B  -  rap1b, member of ras oncogene family, CBS  -  cystathionine-beta-synthase, DUSP14  -  dual specificity phosphatase 14, RAP1GAP  -  rap1 gtpase activating protein, TPPP  -  tubulin polymerization promoting protein, B3GNT7  -  udp-glcnac:betagal beta-1,3-n-acetylglucosaminyltransferase 7, NT5C1B  -  5'-nucleotidase, cytosolic ib, ABCF3  -  atp-binding cassette, sub-family f (gcn20), member 3, UFSP2  -  ufm1-specific peptidase 2, TEX30  -  testis expressed 30, FBXL22  -  f-box and leucine-rich repeat protein 22, AGPAT5  -  1-acylglycerol-3-phosphate o-acyltransferase 5, ACER3  -  alkaline ceramidase 3, WDR5  -  wd repeat domain 5, ADAMTS13  -  adam metallopeptidase with thrombospondin type 1 motif, 13, CCNE1  -  cyclin e1, ADAMTS8  -  adam metallopeptidase with thrombospondin type 1 motif, 8, KDM5A  -  lysine (k)-specific demethylase 5a, ADAMTS5  -  adam metallopeptidase with thrombospondin type 1 motif, 5, RBBP4  -  retinoblastoma binding protein 4, PIGM  -  phosphatidylinositol glycan anchor biosynthesis, class m, RBBP5  -  retinoblastoma binding protein 5, PRSS23  -  protease, serine, 23, RBBP6  -  retinoblastoma binding protein 6, RBBP8  -  retinoblastoma binding protein 8, LSG1  -  large 60s subunit nuclear export gtpase 1, ATE1  -  arginyltransferase 1, PLCXD1  -  phosphatidylinositol-specific phospholipase c, x domain containing 1, KATNA1  -  katanin p60 (atpase containing) subunit a 1, PRDM5  -  pr domain containing 5, ABHD10  -  abhydrolase domain containing 10, PRDM4  -  pr domain containing 4, CHDH  -  choline dehydrogenase, HIBADH  -  3-hydroxyisobutyrate dehydrogenase, NUDT7  -  nudix (nucleoside diphosphate linked moiety x)-type motif 7, CIT  -  citron (rho-interacting, serine/threonine kinase 21), RBP3  -  retinol binding protein 3, interstitial, PTPRT  -  protein tyrosine phosphatase, receptor type, t, TPTE2  -  transmembrane phosphoinositide 3-phosphatase and tensin homolog 2, SDR42E1  -  short chain dehydrogenase/reductase family 42e, member 1, KIF3A  -  kinesin family member 3a, FADS6  -  fatty acid desaturase 6, POLR3A  -  polymerase (rna) iii (dna directed) polypeptide a, 155kda, TRMT10A  -  trna methyltransferase 10 homolog a (s. cerevisiae), CAPN10  -  calpain 10, RECQL  -  recq protein-like (dna helicase q1-like), TBCK  -  tbc1 domain containing kinase, ALG11  -  alg11, alpha-1,2-mannosyltransferase, IL1RAPL1  -  interleukin 1 receptor accessory protein-like 1, KAT7  -  k(lysine) acetyltransferase 7, DMC1  -  dna meiotic recombinase 1, UPF1  -  upf1 regulator of nonsense transcripts homolog (yeast), RET  -  ret proto-oncogene, REV3L  -  rev3-like, polymerase (dna directed), zeta, catalytic subunit, RFC1  -  replication factor c (activator 1) 1, 145kda, RFC2  -  replication factor c (activator 1) 2, 40kda, FICD  -  fic domain containing, RFC3  -  replication factor c (activator 1) 3, 38kda, RFC4  -  replication factor c (activator 1) 4, 37kda, ENTPD1  -  ectonucleoside triphosphate diphosphohydrolase 1, PTP4A3  -  protein tyrosine phosphatase type iva, member 3, ENTPD2  -  ectonucleoside triphosphate diphosphohydrolase 2, RFNG  -  rfng o-fucosylpeptide 3-beta-n-acetylglucosaminyltransferase, ENTPD6  -  ectonucleoside triphosphate diphosphohydrolase 6 (putative), CSGALNACT2  -  chondroitin sulfate n-acetylgalactosaminyltransferase 2, ENTPD3  -  ectonucleoside triphosphate diphosphohydrolase 3, RABL2A  -  rab, member of ras oncogene family-like 2a, ENTPD5  -  ectonucleoside triphosphate diphosphohydrolase 5, NEK8  -  nima-related kinase 8, PIGW  -  phosphatidylinositol glycan anchor biosynthesis, class w, NDUFAF7  -  nadh dehydrogenase (ubiquinone) complex i, assembly factor 7, NUDT6  -  nudix (nucleoside diphosphate linked moiety x)-type motif 6, EIF2AK4  -  eukaryotic translation initiation factor 2 alpha kinase 4, NUDT5  -  nudix (nucleoside diphosphate linked moiety x)-type motif 5, PARL  -  presenilin associated, rhomboid-like, NUDT3  -  nudix (nucleoside diphosphate linked moiety x)-type motif 3, ETNK1  -  ethanolamine kinase 1, RGS1  -  regulator of g-protein signaling 1, CHST12  -  carbohydrate (chondroitin 4) sulfotransferase 12, RGS3  -  regulator of g-protein signaling 3, RGS4  -  regulator of g-protein signaling 4, RGS7  -  regulator of g-protein signaling 7, RGS10  -  regulator of g-protein signaling 10, RGS12  -  regulator of g-protein signaling 12, ADAMTS7  -  adam metallopeptidase with thrombospondin type 1 motif, 7, ENDOV  -  endonuclease v, RGS16  -  regulator of g-protein signaling 16, DDX43  -  dead (asp-glu-ala-asp) box polypeptide 43, GDPD1  -  glycerophosphodiester phosphodiesterase domain containing 1, SMPD3  -  sphingomyelin phosphodiesterase 3, neutral membrane (neutral sphingomyelinase ii), RHEB  -  ras homolog enriched in brain, DHTKD1  -  dehydrogenase e1 and transketolase domain containing 1, MAP4K5  -  mitogen-activated protein kinase kinase kinase kinase 5, HTRA3  -  htra serine peptidase 3, CDC25A  -  cell division cycle 25a, CDC42  -  cell division cycle 42, SEC23IP  -  sec23 interacting protein, CHEK2  -  checkpoint kinase 2, ZADH2  -  zinc binding alcohol dehydrogenase domain containing 2, DNAH3  -  dynein, axonemal, heavy chain 3, GALNT10  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 10 (galnac-t10), RNASEL  -  ribonuclease l (2',5'-oligoisoadenylate synthetase-dependent), AKAP13  -  a kinase (prka) anchor protein 13, STAB2  -  stabilin 2, RNF2  -  ring finger protein 2, DDX20  -  dead (asp-glu-ala-asp) box polypeptide 20, DUSP10  -  dual specificity phosphatase 10, RNF6  -  ring finger protein (c3h2c3 type) 6, UBE2Q1  -  ubiquitin-conjugating enzyme e2q family member 1, RNPEP  -  arginyl aminopeptidase (aminopeptidase b), CDK3  -  cyclin-dependent kinase 3, BMP2K  -  bmp2 inducible kinase, CDK5  -  cyclin-dependent kinase 5, GALNT5  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 5 (galnac-t5), CDK6  -  cyclin-dependent kinase 6, ABCE1  -  atp-binding cassette, sub-family e (oabp), member 1, CDK8  -  cyclin-dependent kinase 8, POLG2  -  polymerase (dna directed), gamma 2, accessory subunit, CDK9  -  cyclin-dependent kinase 9, CDKN1A  -  cyclin-dependent kinase inhibitor 1a (p21, cip1), RNF139  -  ring finger protein 139, CA5B  -  carbonic anhydrase vb, mitochondrial, PADI2  -  peptidyl arginine deiminase, type ii, KIF21A  -  kinesin family member 21a, MTMR8  -  myotubularin related protein 8, KIF16B  -  kinesin family member 16b, MAN1B1  -  mannosidase, alpha, class 1b, member 1, TASP1  -  taspase, threonine aspartase, 1, TGS1  -  trimethylguanosine synthase 1, POMGNT1  -  protein o-linked mannose n-acetylglucosaminyltransferase 1 (beta 1,2-), ZDHHC7  -  zinc finger, dhhc-type containing 7, SMPD4  -  sphingomyelin phosphodiesterase 4, neutral membrane (neutral sphingomyelinase-3), ROCK1  -  rho-associated, coiled-coil containing protein kinase 1, EGLN3  -  egl-9 family hypoxia-inducible factor 3, LRRC40  -  leucine rich repeat containing 40, G2E3  -  g2/m-phase specific e3 ubiquitin protein ligase, USP18  -  ubiquitin specific peptidase 18, ERI2  -  eri1 exoribonuclease family member 2, CENPE  -  centromere protein e, 312kda, ROS1  -  c-ros oncogene 1 , receptor tyrosine kinase, DTD2  -  d-tyrosyl-trna deacylase 2 (putative), CHD7  -  chromodomain helicase dna binding protein 7, SLC25A42  -  solute carrier family 25, member 42, MGAT4B  -  mannosyl (alpha-1,3-)-glycoprotein beta-1,4-n-acetylglucosaminyltransferase, isozyme b, RAB20  -  rab20, member ras oncogene family, PIGV  -  phosphatidylinositol glycan anchor biosynthesis, class v, B4GALT7  -  xylosylprotein beta 1,4-galactosyltransferase, polypeptide 7, CTSC  -  cathepsin c, CFTR  -  cystic fibrosis transmembrane conductance regulator (atp-binding cassette sub-family c, member 7), LYPLA2  -  lysophospholipase ii, RPE65  -  retinal pigment epithelium-specific protein 65kda, PARK7  -  parkinson protein 7, RNF126  -  ring finger protein 126, HOGA1  -  4-hydroxy-2-oxoglutarate aldolase 1, MGAT4A  -  mannosyl (alpha-1,3-)-glycoprotein beta-1,4-n-acetylglucosaminyltransferase, isozyme a, DDX27  -  dead (asp-glu-ala-asp) box polypeptide 27, L3HYPDH  -  l-3-hydroxyproline dehydratase (trans-), CAPN14  -  calpain 14, GPN1  -  gpn-loop gtpase 1, DDX42  -  dead (asp-glu-ala-asp) box helicase 42, MFN1  -  mitofusin 1, RPUSD1  -  rna pseudouridylate synthase domain containing 1, CHAT  -  choline o-acetyltransferase, CHD2  -  chromodomain helicase dna binding protein 2, SCYL2  -  scy1-like 2 (s. cerevisiae), CHD4  -  chromodomain helicase dna binding protein 4, RNF13  -  ring finger protein 13, MGLL  -  monoglyceride lipase, TRMU  -  trna 5-methylaminomethyl-2-thiouridylate methyltransferase, KIF12  -  kinesin family member 12, NSUN5  -  nop2/sun domain family, member 5, CHKA  -  choline kinase alpha, CHM  -  choroideremia (rab escort protein 1), IARS2  -  isoleucyl-trna synthetase 2, mitochondrial, XRN2  -  5'-3' exoribonuclease 2, MTHFD2L  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 2-like, POLR3B  -  polymerase (rna) iii (dna directed) polypeptide b, MRAS  -  muscle ras oncogene homolog, CHRM3  -  cholinergic receptor, muscarinic 3, HELQ  -  helicase, polq-like, CHRM5  -  cholinergic receptor, muscarinic 5, ADPRHL1  -  adp-ribosylhydrolase like 1, SDSL  -  serine dehydratase-like, RPN1  -  ribophorin i, POLR3E  -  polymerase (rna) iii (dna directed) polypeptide e (80kd), RPN2  -  ribophorin ii, PIK3IP1  -  phosphoinositide-3-kinase interacting protein 1, RPS3  -  ribosomal protein s3, TSR1  -  tsr1, 20s rrna accumulation, homolog (s. cerevisiae), DTX2  -  deltex homolog 2 (drosophila), N4BP2  -  nedd4 binding protein 2, CKB  -  creatine kinase, brain, RPS6KA2  -  ribosomal protein s6 kinase, 90kda, polypeptide 2, ATF7IP  -  activating transcription factor 7 interacting protein, TOE1  -  target of egr1, member 1 (nuclear), RPS6KA3  -  ribosomal protein s6 kinase, 90kda, polypeptide 3, RPS6KB1  -  ribosomal protein s6 kinase, 70kda, polypeptide 1, RPS6KB2  -  ribosomal protein s6 kinase, 70kda, polypeptide 2, HHAT  -  hedgehog acyltransferase, PPM1E  -  protein phosphatase, mg2+/mn2+ dependent, 1e, DOLK  -  dolichol kinase, TRIM9  -  tripartite motif containing 9, VASH1  -  vasohibin 1, EDEM2  -  er degradation enhancer, mannosidase alpha-like 2, TXNRD3  -  thioredoxin reductase 3, AAK1  -  ap2 associated kinase 1, CHFR  -  checkpoint with forkhead and ring finger domains, e3 ubiquitin protein ligase, LMTK2  -  lemur tyrosine kinase 2, CNDP2  -  cndp dipeptidase 2 (metallopeptidase m20 family), CHSY1  -  chondroitin sulfate synthase 1, CLC  -  charcot-leyden crystal galectin, AGK  -  acylglycerol kinase, OGDHL  -  oxoglutarate dehydrogenase-like, RNF149  -  ring finger protein 149, DHX32  -  deah (asp-glu-ala-his) box polypeptide 32, CLIC2  -  chloride intracellular channel 2, CLK2  -  cdc-like kinase 2, ENPP4  -  ectonucleotide pyrophosphatase/phosphodiesterase 4 (putative), INPP5F  -  inositol polyphosphate-5-phosphatase f, CLK3  -  cdc-like kinase 3, RRM1  -  ribonucleotide reductase m1, NGLY1  -  n-glycanase 1, RRM2  -  ribonucleotide reductase m2, MORC2  -  morc family cw-type zinc finger 2, CLN5  -  ceroid-lipofuscinosis, neuronal 5, TDP1  -  tyrosyl-dna phosphodiesterase 1, IAH1  -  isoamyl acetate-hydrolyzing esterase 1 homolog (s. cerevisiae), UBOX5  -  u-box domain containing 5, CMTR2  -  cap methyltransferase 2, CYGB  -  cytoglobin, DIS3  -  dis3 mitotic control homolog (s. cerevisiae), CCR5  -  chemokine (c-c motif) receptor 5 (gene/pseudogene), ARSG  -  arylsulfatase g, EOGT  -  egf domain-specific o-linked n-acetylglucosamine (glcnac) transferase, EPHA6  -  eph receptor a6, DHX30  -  deah (asp-glu-ala-his) box helicase 30, ABCC2  -  atp-binding cassette, sub-family c (cftr/mrp), member 2, SACM1L  -  sac1 suppressor of actin mutations 1-like (yeast), FAN1  -  fancd2/fanci-associated nuclease 1, DCP1A  -  decapping mrna 1a, ST6GALNAC1  -  st6 (alpha-n-acetyl-neuraminyl-2,3-beta-galactosyl-1,3)-n-acetylgalactosaminide alpha-2,6-sialyltransferase 1, RABL3  -  rab, member of ras oncogene family-like 3, ESCO1  -  establishment of sister chromatid cohesion n-acetyltransferase 1, MYSM1  -  myb-like, swirm and mpn domains 1, RNF157  -  ring finger protein 157, KDM3A  -  lysine (k)-specific demethylase 3a, GALNT13  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 13 (galnac-t13), RNF130  -  ring finger protein 130, CNP  -  2',3'-cyclic nucleotide 3' phosphodiesterase, SEPHS1  -  selenophosphate synthetase 1, VPS11  -  vacuolar protein sorting 11 homolog (s. cerevisiae), PECR  -  peroxisomal trans-2-enoyl-coa reductase, ACSM3  -  acyl-coa synthetase medium-chain family member 3, RPIA  -  ribose 5-phosphate isomerase a, GLT8D1  -  glycosyltransferase 8 domain containing 1, MAPK12  -  mitogen-activated protein kinase 12, SMYD4  -  set and mynd domain containing 4, SUMF1  -  sulfatase modifying factor 1, SAT1  -  spermidine/spermine n1-acetyltransferase 1, MSMO1  -  methylsterol monooxygenase 1, TRIM32  -  tripartite motif containing 32, ACOT13  -  acyl-coa thioesterase 13, NT5C2  -  5'-nucleotidase, cytosolic ii, ECHDC1  -  enoyl coa hydratase domain containing 1, HDAC8  -  histone deacetylase 8, ASH1L  -  ash1 (absent, small, or homeotic)-like (drosophila), RNF212  -  ring finger protein 212, COMT  -  catechol-o-methyltransferase, MB21D1  -  mab-21 domain containing 1, SCP2  -  sterol carrier protein 2, NT5C3B  -  5'-nucleotidase, cytosolic iiib, CCL2  -  chemokine (c-c motif) ligand 2, CCL3  -  chemokine (c-c motif) ligand 3, MAP3K8  -  mitogen-activated protein kinase kinase kinase 8, OMA1  -  oma1 zinc metallopeptidase, PLCH1  -  phospholipase c, eta 1, RAB21  -  rab21, member ras oncogene family, STK38L  -  serine/threonine kinase 38 like, ACSS2  -  acyl-coa synthetase short-chain family member 2, FBXO21  -  f-box protein 21, RNF114  -  ring finger protein 114, EXOSC7  -  exosome component 7, CMAS  -  cytidine monophosphate n-acetylneuraminic acid synthetase, CNOT1  -  ccr4-not transcription complex, subunit 1, PDZRN3  -  pdz domain containing ring finger 3, COX7A2  -  cytochrome c oxidase subunit viia polypeptide 2 (liver), MYO16  -  myosin xvi, COX7B  -  cytochrome c oxidase subunit viib, COX8A  -  cytochrome c oxidase subunit viiia (ubiquitous), KDM4B  -  lysine (k)-specific demethylase 4b, COX10  -  cytochrome c oxidase assembly homolog 10 (yeast), MAST3  -  microtubule associated serine/threonine kinase 3, MYO5C  -  myosin vc, COX11  -  cytochrome c oxidase assembly homolog 11 (yeast), USP33  -  ubiquitin specific peptidase 33, COX15  -  cytochrome c oxidase assembly homolog 15 (yeast), PHLPP2  -  ph domain and leucine rich repeat protein phosphatase 2, CPA2  -  carboxypeptidase a2 (pancreatic), SULF2  -  sulfatase 2, CPB1  -  carboxypeptidase b1 (tissue), TRMT61A  -  trna methyltransferase 61 homolog a (s. cerevisiae), CPB2  -  carboxypeptidase b2 (plasma), NDUFA12  -  nadh dehydrogenase (ubiquinone) 1 alpha subcomplex, 12, CPD  -  carboxypeptidase d, CPE  -  carboxypeptidase e, DIS3L  -  dis3 mitotic control homolog (s. cerevisiae)-like, PDXDC1  -  pyridoxal-dependent decarboxylase domain containing 1, SDHA  -  succinate dehydrogenase complex, subunit a, flavoprotein (fp), TNIK  -  traf2 and nck interacting kinase, SDHB  -  succinate dehydrogenase complex, subunit b, iron sulfur (ip), KIF21B  -  kinesin family member 21b, CPM  -  carboxypeptidase m, CPN1  -  carboxypeptidase n, polypeptide 1, SMG1  -  smg1 phosphatidylinositol 3-kinase-related kinase, CPOX  -  coproporphyrinogen oxidase, CPS1  -  carbamoyl-phosphate synthase 1, mitochondrial, ENDOD1  -  endonuclease domain containing 1, NMNAT2  -  nicotinamide nucleotide adenylyltransferase 2, SEL1L  -  sel-1 suppressor of lin-12-like (c. elegans), ALG1  -  alg1, chitobiosyldiphosphodolichol beta-mannosyltransferase, CRAT  -  carnitine o-acetyltransferase, SETX  -  senataxin, ATF2  -  activating transcription factor 2, SETD1B  -  set domain containing 1b, CREBBP  -  creb binding protein, CMTR1  -  cap methyltransferase 1, ERP44  -  endoplasmic reticulum protein 44, HECW1  -  hect, c2 and ww domain containing e3 ubiquitin protein ligase 1, MYCBP2  -  myc binding protein 2, e3 ubiquitin protein ligase, VWA8  -  von willebrand factor a domain containing 8, SETMAR  -  set domain and mariner transposase fusion gene, NUS1  -  nuclear undecaprenyl pyrophosphate synthase 1 homolog (s. cerevisiae), TRIM35  -  tripartite motif containing 35, TTLL5  -  tubulin tyrosine ligase-like family, member 5, KIF1B  -  kinesin family member 1b, MOGAT1  -  monoacylglycerol o-acyltransferase 1, SARM1  -  sterile alpha and tir motif containing 1, SGK1  -  serum/glucocorticoid regulated kinase 1, SGSH  -  n-sulfoglucosamine sulfohydrolase, CUL9  -  cullin 9, RAB39B  -  rab39b, member ras oncogene family, CRYM  -  crystallin, mu, CRYZ  -  crystallin, zeta (quinone reductase), MAPK14  -  mitogen-activated protein kinase 14, TSEN15  -  tsen15 trna splicing endonuclease subunit, GALNTL6  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase-like 6, RAD54L2  -  rad54-like 2 (s. cerevisiae), SHH  -  sonic hedgehog, SHMT1  -  serine hydroxymethyltransferase 1 (soluble), TEX14  -  testis expressed 14, CSK  -  c-src tyrosine kinase, MAST2  -  microtubule associated serine/threonine kinase 2, CSNK1A1  -  casein kinase 1, alpha 1, SI  -  sucrase-isomaltase (alpha-glucosidase), CSNK1E  -  casein kinase 1, epsilon, CSNK1G2  -  casein kinase 1, gamma 2, STK31  -  serine/threonine kinase 31, ST6GAL1  -  st6 beta-galactosamide alpha-2,6-sialyltranferase 1, ST3GAL1  -  st3 beta-galactoside alpha-2,3-sialyltransferase 1, CSNK2A1  -  casein kinase 2, alpha 1 polypeptide, ST3GAL4  -  st3 beta-galactoside alpha-2,3-sialyltransferase 4, ST3GAL3  -  st3 beta-galactoside alpha-2,3-sialyltransferase 3, DNAH7  -  dynein, axonemal, heavy chain 7, ST8SIA1  -  st8 alpha-n-acetyl-neuraminide alpha-2,8-sialyltransferase 1, STAB1  -  stabilin 1, AGAP1  -  arfgap with gtpase domain, ankyrin repeat and ph domain 1, AGAP3  -  arfgap with gtpase domain, ankyrin repeat and ph domain 3, SLA  -  src-like-adaptor, DPY19L4  -  dpy-19-like 4 (c. elegans), METAP1  -  methionyl aminopeptidase 1, LPIN1  -  lipin 1, GPCPD1  -  glycerophosphocholine phosphodiesterase gde1 homolog (s. cerevisiae), PASK  -  pas domain containing serine/threonine kinase, CTBP1  -  c-terminal binding protein 1, CTBP2  -  c-terminal binding protein 2, DIP2A  -  dip2 disco-interacting protein 2 homolog a (drosophila), SLC3A1  -  solute carrier family 3 (amino acid transporter heavy chain), member 1, CTH  -  cystathionase (cystathionine gamma-lyase), MDN1  -  mdn1, midasin homolog (yeast), PRMT8  -  protein arginine methyltransferase 8, FTSJ3  -  ftsj homolog 3 (e. coli), GALNT15  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 15, CTSB  -  cathepsin b, CTPS2  -  ctp synthase 2, CTSD  -  cathepsin d, IP6K3  -  inositol hexakisphosphate kinase 3, CTSE  -  cathepsin e, CTSH  -  cathepsin h, ACSBG1  -  acyl-coa synthetase bubblegum family member 1, CTSL  -  cathepsin l, JMJD6  -  jumonji domain containing 6, CYP26B1  -  cytochrome p450, family 26, subfamily b, polypeptide 1, RFFL  -  ring finger and fyve-like domain containing e3 ubiquitin protein ligase, CTSZ  -  cathepsin z, INPP5E  -  inositol polyphosphate-5-phosphatase, 72 kda, ASAH2  -  n-acylsphingosine amidohydrolase (non-lysosomal ceramidase) 2, TMPRSS4  -  transmembrane protease, serine 4, ATP11C  -  atpase, class vi, type 11c, CYB5A  -  cytochrome b5 type a (microsomal), DTX4  -  deltex homolog 4 (drosophila), RHOBTB2  -  rho-related btb domain containing 2, PLCL2  -  phospholipase c-like 2, TRIM39  -  tripartite motif containing 39, CYLD  -  cylindromatosis (turban tumor syndrome), SIK2  -  salt-inducible kinase 2, CYP1B1  -  cytochrome p450, family 1, subfamily b, polypeptide 1, PLCB1  -  phospholipase c, beta 1 (phosphoinositide-specific), PHLPP1  -  ph domain and leucine rich repeat protein phosphatase 1, NRIP3  -  nuclear receptor interacting protein 3, COMTD1  -  catechol-o-methyltransferase domain containing 1, FRA10AC1  -  fragile site, folic acid type, rare, fra(10)(q23.3) or fra(10)(q24.2) candidate 1, CYP2C8  -  cytochrome p450, family 2, subfamily c, polypeptide 8, ATP11A  -  atpase, class vi, type 11a, OTUD3  -  otu domain containing 3, CYP2J2  -  cytochrome p450, family 2, subfamily j, polypeptide 2, CYP4B1  -  cytochrome p450, family 4, subfamily b, polypeptide 1, CYP7A1  -  cytochrome p450, family 7, subfamily a, polypeptide 1, CYP8B1  -  cytochrome p450, family 8, subfamily b, polypeptide 1, TRIM59  -  tripartite motif containing 59, CYP11A1  -  cytochrome p450, family 11, subfamily a, polypeptide 1, UGGT1  -  udp-glucose glycoprotein glucosyltransferase 1, CYP17A1  -  cytochrome p450, family 17, subfamily a, polypeptide 1, SMARCE1  -  swi/snf related, matrix associated, actin dependent regulator of chromatin, subfamily e, member 1, CYP19A1  -  cytochrome p450, family 19, subfamily a, polypeptide 1, POFUT2  -  protein o-fucosyltransferase 2, CYP24A1  -  cytochrome p450, family 24, subfamily a, polypeptide 1, SMPD2  -  sphingomyelin phosphodiesterase 2, neutral membrane (neutral sphingomyelinase), AGPAT3  -  1-acylglycerol-3-phosphate o-acyltransferase 3, SMS  -  spermine synthase, CYP27A1  -  cytochrome p450, family 27, subfamily a, polypeptide 1, CYP51A1  -  cytochrome p450, family 51, subfamily a, polypeptide 1, WRNIP1  -  werner helicase interacting protein 1, FBXW11  -  f-box and wd repeat domain containing 11, SMG6  -  smg6 nonsense mediated mrna decay factor, MGRN1  -  mahogunin ring finger 1, e3 ubiquitin protein ligase, GYLTL1B  -  glycosyltransferase-like 1b, SNCA  -  synuclein, alpha (non a4 component of amyloid precursor), DGKB  -  diacylglycerol kinase, beta 90kda, KIF13B  -  kinesin family member 13b, UBR2  -  ubiquitin protein ligase e3 component n-recognin 2, CYP2R1  -  cytochrome p450, family 2, subfamily r, polypeptide 1, ACSL6  -  acyl-coa synthetase long-chain family member 6, C1GALT1  -  core 1 synthase, glycoprotein-n-acetylgalactosamine 3-beta-galactosyltransferase, 1, FKBP15  -  fk506 binding protein 15, 133kda, SMARCAD1  -  swi/snf-related, matrix-associated actin-dependent regulator of chromatin, subfamily a, containing dead/h box 1, DHX33  -  deah (asp-glu-ala-his) box polypeptide 33, DBH  -  dopamine beta-hydroxylase (dopamine beta-monooxygenase), MCCC1  -  methylcrotonoyl-coa carboxylase 1 (alpha), PAK6  -  p21 protein (cdc42/rac)-activated kinase 6, ZCCHC11  -  zinc finger, cchc domain containing 11, TRIM2  -  tripartite motif containing 2, DBT  -  dihydrolipoamide branched chain transacylase e2, SPPL2B  -  signal peptide peptidase like 2b, ECI1  -  enoyl-coa delta isomerase 1, MAN2B2  -  mannosidase, alpha, class 2b, member 2, DUS3L  -  dihydrouridine synthase 3-like (s. cerevisiae), SOAT1  -  sterol o-acyltransferase 1, USP22  -  ubiquitin specific peptidase 22, SOD1  -  superoxide dismutase 1, soluble, CA10  -  carbonic anhydrase x, DCTD  -  dcmp deaminase, SOD2  -  superoxide dismutase 2, mitochondrial, ACE  -  angiotensin i converting enzyme, DDX51  -  dead (asp-glu-ala-asp) box polypeptide 51, CAPN15  -  calpain 15, DCT  -  dopachrome tautomerase, SORD  -  sorbitol dehydrogenase, DUSP22  -  dual specificity phosphatase 22, LRRK2  -  leucine-rich repeat kinase 2, DPY19L1  -  dpy-19-like 1 (c. elegans), DDB2  -  damage-specific dna binding protein 2, 48kda, DDC  -  dopa decarboxylase (aromatic l-amino acid decarboxylase), PHF15  -  phd finger protein 15, SMCHD1  -  structural maintenance of chromosomes flexible hinge domain containing 1, SMYD2  -  set and mynd domain containing 2, DDT  -  d-dopachrome tautomerase, DDX1  -  dead (asp-glu-ala-asp) box helicase 1, DDX3X  -  dead (asp-glu-ala-asp) box helicase 3, x-linked, NT5M  -  5',3'-nucleotidase, mitochondrial, DDX5  -  dead (asp-glu-ala-asp) box helicase 5, NIT2  -  nitrilase family, member 2, UBR4  -  ubiquitin protein ligase e3 component n-recognin 4, DHX8  -  deah (asp-glu-ala-his) box polypeptide 8, DDX10  -  dead (asp-glu-ala-asp) box polypeptide 10, SPAG1  -  sperm associated antigen 1, TPH2  -  tryptophan hydroxylase 2, DDX11  -  dead/h (asp-glu-ala-asp/his) box helicase 11, PARP6  -  poly (adp-ribose) polymerase family, member 6, UAP1  -  udp-n-acteylglucosamine pyrophosphorylase 1, DHX15  -  deah (asp-glu-ala-his) box helicase 15, DECR1  -  2,4-dienoyl coa reductase 1, mitochondrial, SPAM1  -  sperm adhesion molecule 1 (ph-20 hyaluronidase, zona pellucida binding), SPAST  -  spastin, FAM20C  -  family with sequence similarity 20, member c, SPG7  -  spastic paraplegia 7 (pure and complicated autosomal recessive), PRDM10  -  pr domain containing 10, PRDM11  -  pr domain containing 11, POGLUT1  -  protein o-glucosyltransferase 1, UFL1  -  ufm1-specific ligase 1, DFFB  -  dna fragmentation factor, 40kda, beta polypeptide (caspase-activated dnase), SPR  -  sepiapterin reductase (7,8-dihydrobiopterin:nadp+ oxidoreductase), KIF15  -  kinesin family member 15, CHPT1  -  choline phosphotransferase 1, NCSTN  -  nicastrin, SIK3  -  sik family kinase 3, SPPL3  -  signal peptide peptidase like 3, ZDHHC17  -  zinc finger, dhhc-type containing 17, ADAMTS9  -  adam metallopeptidase with thrombospondin type 1 motif, 9, LARS2  -  leucyl-trna synthetase 2, mitochondrial, PIP5K1C  -  phosphatidylinositol-4-phosphate 5-kinase, type i, gamma, DHCR24  -  24-dehydrocholesterol reductase, ATP13A2  -  atpase type 13a2, SQLE  -  squalene epoxidase, SRC  -  v-src avian sarcoma (schmidt-ruppin a-2) viral oncogene homolog, SRD5A1  -  steroid-5-alpha-reductase, alpha polypeptide 1 (3-oxo-5 alpha-steroid delta 4-dehydrogenase alpha 1), EXOSC2  -  exosome component 2, SRD5A2  -  steroid-5-alpha-reductase, alpha polypeptide 2 (3-oxo-5 alpha-steroid delta 4-dehydrogenase alpha 2), AKR1B10  -  aldo-keto reductase family 1, member b10 (aldose reductase), DICER1  -  dicer 1, ribonuclease type iii, CYB5R3  -  cytochrome b5 reductase 3, AKR1D1  -  aldo-keto reductase family 1, member d1, NQO1  -  nad(p)h dehydrogenase, quinone 1, CIAPIN1  -  cytokine induced apoptosis inhibitor 1, SIRT4  -  sirtuin 4, SIRT3  -  sirtuin 3, PDXP  -  pyridoxal (pyridoxine, vitamin b6) phosphatase, TDRD9  -  tudor domain containing 9, SRMS  -  src-related kinase lacking c-terminal regulatory tyrosine and n-terminal myristylation sites, DIO2  -  deiodinase, iodothyronine, type ii, RARS2  -  arginyl-trna synthetase 2, mitochondrial, AK7  -  adenylate kinase 7, MLYCD  -  malonyl-coa decarboxylase, SRP54  -  signal recognition particle 54kda, DLD  -  dihydrolipoamide dehydrogenase, DLG1  -  discs, large homolog 1 (drosophila), SRPK1  -  srsf protein kinase 1, SRPK2  -  srsf protein kinase 2, DLST  -  dihydrolipoamide s-succinyltransferase (e2 component of 2-oxo-glutarate complex), PLD4  -  phospholipase d family, member 4, DDX24  -  dead (asp-glu-ala-asp) box helicase 24, ENTPD7  -  ectonucleoside triphosphate diphosphohydrolase 7, DNM1  -  dynamin 1, NAA30  -  n(alpha)-acetyltransferase 30, natc catalytic subunit, CPA6  -  carboxypeptidase a6, DNA2  -  dna replication helicase/nuclease 2, DNAH5  -  dynein, axonemal, heavy chain 5, PARP11  -  poly (adp-ribose) polymerase family, member 11, DNAH8  -  dynein, axonemal, heavy chain 8, DNAH9  -  dynein, axonemal, heavy chain 9, C12orf5  -  chromosome 12 open reading frame 5, ABCB10  -  atp-binding cassette, sub-family b (mdr/tap), member 10, PNPLA2  -  patatin-like phospholipase domain containing 2, DNASE1L3  -  deoxyribonuclease i-like 3, ABCB9  -  atp-binding cassette, sub-family b (mdr/tap), member 9, DYNC1H1  -  dynein, cytoplasmic 1, heavy chain 1, ABCA6  -  atp-binding cassette, sub-family a (abc1), member 6, DYNC1I1  -  dynein, cytoplasmic 1, intermediate chain 1, ABCA5  -  atp-binding cassette, sub-family a (abc1), member 5, DYNC1I2  -  dynein, cytoplasmic 1, intermediate chain 2, ST14  -  suppression of tumorigenicity 14 (colon carcinoma), REXO4  -  rex4, rna exonuclease 4 homolog (s. cerevisiae), DYNC1LI2  -  dynein, cytoplasmic 1, light intermediate chain 2, GCAT  -  glycine c-acetyltransferase, DEGS2  -  delta(4)-desaturase, sphingolipid 2, TRDMT1  -  trna aspartic acid methyltransferase 1, SENP8  -  sumo/sentrin specific peptidase family member 8, DNMT3B  -  dna (cytosine-5-)-methyltransferase 3 beta, CAMK1D  -  calcium/calmodulin-dependent protein kinase id, MTFMT  -  mitochondrial methionyl-trna formyltransferase, CAPN7  -  calpain 7, RAB37  -  rab37, member ras oncogene family, MMAB  -  methylmalonic aciduria (cobalamin deficiency) cblb type, DPAGT1  -  dolichyl-phosphate (udp-n-acetylglucosamine) n-acetylglucosaminephosphotransferase 1 (glcnac-1-p transferase), HSPA13  -  heat shoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> protein 70kda family, member 13, TGDS  -  tdp-glucose 4,6-dehydratase, HYKK  -  hydroxylysine kinase, DPH1  -  diphthamide biosynthesis 1, ELOVL4  -  elovl fatty acid elongase 4, DPH2  -  dph2 homolog (s. cerevisiae), NEK4  -  nima-related kinase 4, DPP6  -  dipeptidyl-peptidase 6, PLA2G4E  -  phospholipase a2, group ive, STK3  -  serine/threonine kinase 3, STK4  -  serine/threonine kinase 4, MAN1C1  -  mannosidase, alpha, class 1c, member 1, DPYD  -  dihydropyrimidine dehydrogenase, HAAO  -  3-hydroxyanthranilate 3,4-dioxygenase, DPYS  -  dihydropyrimidinase, APMAP  -  adipocyte plasma membrane associated protein, MACF1  -  microtubule-actin crosslinking factor 1, CDKL5  -  cyclin-dependent kinase-like 5, STK10  -  serine/threonine kinase 10, STK11  -  serine/threonine kinase 11, ADCK1  -  aarf domain containing kinase 1, PAK7  -  p21 protein (cdc42/rac)-activated kinase 7, POFUT1  -  protein o-fucosyltransferase 1, SUZ12  -  suz12 polycomb repressive complex 2 subunit, DRG2  -  developmentally regulated gtp binding protein 2, SMURF1  -  smad specific e3 ubiquitin protein ligase 1, SULT1C2  -  sulfotransferase family, cytosolic, 1c, member 2, PELI2  -  pellino e3 ubiquitin protein ligase family member 2, CDYL2  -  chromodomain protein, y-like 2, PELI1  -  pellino e3 ubiquitin protein ligase 1, ASPHD2  -  aspartate beta-hydroxylase domain containing 2, ZNFX1  -  zinc finger, nfx1-type containing 1, DOLPP1  -  dolichyldiphosphatase 1, EARS2  -  glutamyl-trna synthetase 2, mitochondrial, SUPV3L1  -  suppressor of var1, 3-like 1 (s. cerevisiae), CAMK1G  -  calcium/calmodulin-dependent protein kinase ig, ABCC8  -  atp-binding cassette, sub-family c (cftr/mrp), member 8, SURF1  -  surfeit 1, ADAT1  -  adenosine deaminase, trna-specific 1, CANT1  -  calcium activated nucleotidase 1, DUSP5  -  dual specificity phosphatase 5, ADAMTSL3  -  adamts-like 3, DUSP6  -  dual specificity phosphatase 6, DUSP8  -  dual specificity phosphatase 8, ATP6V0A2  -  atpase, h+ transporting, lysosomal v0 subunit a2, DNPEP  -  aspartyl aminopeptidase, RASD2  -  rasd family, member 2, DYRK1A  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 1a, PIGN  -  phosphatidylinositol glycan anchor biosynthesis, class n, ADAM17  -  adam metallopeptidase domain 17, GTPBP4  -  gtp binding protein 4, TADA2A  -  transcriptional adaptor 2a, CHST5  -  carbohydrate (n-acetylglucosamine 6-o) sulfotransferase 5, TAF1  -  taf1 rna polymerase ii, tata box binding protein (tbp)-associated factor, 250kda, E4F1  -  e4f transcription factor 1, DDAH1  -  dimethylarginine dimethylaminohydrolase 1, ECE1  -  endothelin converting enzyme 1, MAP3K7  -  mitogen-activated protein kinase kinase kinase 7, TALDO1  -  transaldolase 1, CSRP2BP  -  csrp2 binding protein, PDSS1  -  prenyl (decaprenyl) diphosphate synthase, subunit 1, TARBP1  -  tar (hiv-1) rna binding protein 1, SENP7  -  sumo1/sentrin specific peptidase 7, EDNRA  -  endothelin receptor type a, LOXHD1  -  lipoxygenase homology domains 1, ACOT9  -  acyl-coa thioesterase 9, TAT  -  tyrosine aminotransferase, AICDA  -  activation-induced cytidine deaminase, RHOJ  -  ras homolog family member j, CLK4  -  cdc-like kinase 4, EEF1A2  -  eukaryotic translation elongation factor 1 alpha 2, RAB22A  -  rab22a, member ras oncogene family, MKRN1  -  makorin ring finger protein 1, CYP20A1  -  cytochrome p450, family 20, subfamily a, polypeptide 1, MKRN2  -  makorin ring finger protein 2, ABHD6  -  abhydrolase domain containing 6, ACER1  -  alkaline ceramidase 1, ST8SIA6  -  st8 alpha-n-acetyl-neuraminide alpha-2,8-sialyltransferase 6, AS3MT  -  arsenic (+3 oxidation state) methyltransferase, TBXAS1  -  thromboxane a synthase 1 (platelet), RHBDD2  -  rhomboid domain containing 2, DUPD1  -  dual specificity phosphatase and pro isomerase domain containing 1, BIRC6  -  baculoviral iap repeat containing 6, SPO11  -  spo11 meiotic protein covalently bound to dsb, REXO1  -  rex1, rna exonuclease 1 homolog (s. cerevisiae), B4GALNT4  -  beta-1,4-n-acetyl-galactosaminyl transferase 4, EHHADH  -  enoyl-coa, hydratase/3-hydroxyacyl coa dehydrogenase, HHATL  -  hedgehog acyltransferase-like, EIF2S3  -  eukaryotic translation initiation factor 2, subunit 3 gamma, 52kda, EPHA2  -  eph receptor a2, LRRC47  -  leucine rich repeat containing 47, CNOT6  -  ccr4-not transcription complex, subunit 6, PLA2G15  -  phospholipase a2, group xv, USP31  -  ubiquitin specific peptidase 31, RNF150  -  ring finger protein 150, SGK3  -  serum/glucocorticoid regulated kinase family, member 3, RIMKLB  -  ribosomal modification protein rimk-like family member b, METTL2A  -  methyltransferase like 2a, AARS2  -  alanyl-trna synthetase 2, mitochondrial, ENPP7  -  ectonucleotide pyrophosphatase/phosphodiesterase 7, STARD9  -  star-related lipid transfer (start) domain containing 9, HECW2  -  hect, c2 and ww domain containing e3 ubiquitin protein ligase 2, PUSL1  -  pseudouridylate synthase-like 1, ENDOG  -  endonuclease g, SHPK  -  sedoheptulokinase, DYNLT3  -  dynein, light chain, tctex-type 3, WEE2  -  wee1 homolog 2 (s. pombe), TCTE3  -  t-complex-associated-testis-expressed 3, ENO1  -  enolase 1, (alpha), LRRC30  -  leucine rich repeat containing 30, DYNLT1  -  dynein, light chain, tctex-type 1, ENO2  -  enolase 2 (gamma, neuronal), TDG  -  thymine-dna glycosylase, ENPEP  -  glutamyl aminopeptidase (aminopeptidase a), HACE1  -  hect domain and ankyrin repeat containing e3 ubiquitin protein ligase 1, TDO2  -  tryptophan 2,3-dioxygenase, AIPL1  -  aryl hydrocarbon receptor interacting protein-like 1, MIB1  -  mindbomb e3 ubiquitin protein ligase 1, EP300  -  e1a binding protein p300, ADAMTSL5  -  adamts-like 5, LYPLAL1  -  lysophospholipase-like 1, EPB42  -  erythrocyte membrane protein band 4.2, KLHL42  -  kelch-like family member 42, EPHA1  -  eph receptor a1, EPHA3  -  eph receptor a3, PISD  -  phosphatidylserine decarboxylase, EPHA4  -  eph receptor a4, PDP2  -  pyruvate dehyrogenase phosphatase catalytic subunit 2, TERF1  -  telomeric repeat binding factor (nima-interacting) 1, EPHA5  -  eph receptor a5, TERF2  -  telomeric repeat binding factor 2, EPHA7  -  eph receptor a7, TERT  -  telomerase reverse transcriptase, EPHA8  -  eph receptor a8, TAOK1  -  tao kinase 1, TESK1  -  testis-specific kinase 1, EPHB1  -  eph receptor b1, NCEH1  -  neutral cholesterol ester hydrolase 1, EPHB2  -  eph receptor b2, MICAL3  -  microtubule associated monooxygenase, calponin and lim domain containing 3, EPHB3  -  eph receptor b3, TYW3  -  trna-yw synthesizing protein 3 homolog (s. cerevisiae), EPHX1  -  epoxide hydrolase 1, microsomal (xenobiotic), USP35  -  ubiquitin specific peptidase 35, EPHX2  -  epoxide hydrolase 2, cytoplasmic, BRD1  -  bromodomain containing 1, EPRS  -  glutamyl-prolyl-trna synthetase, TRMT5  -  trna methyltransferase 5, ERBB4  -  v-erb-b2 avian erythroblastic leukemia viral oncogene homolog 4, KIF4A  -  kinesin family member 4a, EYA4  -  eyes absent homolog 4 (drosophila), ERCC3  -  excision repair cross-complementing rodent repair deficiency, complementation group 3, ERCC4  -  excision repair cross-complementing rodent repair deficiency, complementation group 4, ERCC5  -  excision repair cross-complementing rodent repair deficiency, complementation group 5, ERCC6  -  excision repair cross-complementing rodent repair deficiency, complementation group 6, TGM4  -  transglutaminase 4, TGFBR2  -  transforming growth factor, beta receptor ii (70/80kda), TGFBR3  -  transforming growth factor, beta receptor iii, ERN1  -  endoplasmic reticulum to nucleus signaling 1, CYP27C1  -  cytochrome p450, family 27, subfamily c, polypeptide 1, TH  -  tyrosine hydroxylase, ESD  -  esterase d, DSTYK  -  dual serine/threonine and tyrosine protein kinase, ETFA  -  electron-transfer-flavoprotein, alpha polypeptide, ETFDH  -  electron-transferring-flavoprotein dehydrogenase, KY  -  kyphoscoliosis peptidase, RAD54B  -  rad54 homolog b (s. cerevisiae), FBXO7  -  f-box protein 7, GADL1  -  glutamate decarboxylase-like 1, VPS18  -  vacuolar protein sorting 18 homolog (s. cerevisiae), QPCT  -  glutaminyl-peptide cyclotransferase, MECOM  -  mds1 and evi1 complex locus, TK2  -  thymidine kinase 2, mitochondrial, TKT  -  transketolase, SH3RF1  -  sh3 domain containing ring finger 1, TTLL1  -  tubulin tyrosine ligase-like family, member 1, EXTL2  -  exostosin-like glycosyltransferase 2, EP400  -  e1a binding protein p400, EXTL3  -  exostosin-like glycosyltransferase 3, TLL1  -  tolloid-like 1, TLL2  -  tolloid-like 2, EYA3  -  eyes absent homolog 3 (drosophila), TATDN3  -  tatd dnase domain containing 3, MYH7B  -  myosin, heavy chain 7b, cardiac muscle, beta, EZH1  -  enhancer of zeste homolog 1 (drosophila), TLR2  -  toll-like receptor 2, EZH2  -  enhancer of zeste homolog 2 (drosophila), USP28  -  ubiquitin specific peptidase 28, ARIH1  -  ariadne homolog, ubiquitin-conjugating enzyme e2 binding protein, 1 (drosophila), F2  -  coagulation factor ii (thrombin), DHX37  -  deah (asp-glu-ala-his) box polypeptide 37, TLR4  -  toll-like receptor 4, ARSI  -  arylsulfatase family, member i, F3  -  coagulation factor iii (thromboplastin, tissue factor), BACE2  -  beta-site app-cleaving enzyme 2, F7  -  coagulation factor vii (serum prothrombin conversion accelerator), TXN2  -  thioredoxin 2, F8  -  coagulation factor viii, procoagulant component, F9  -  coagulation factor ix, F10  -  coagulation factor x, SULT4A1  -  sulfotransferase family 4a, member 1, HECTD1  -  hect domain containing e3 ubiquitin protein ligase 1, F13A1  -  coagulation factor xiii, a1 polypeptide, ZC3H12D  -  zinc finger ccch-type containing 12d, MGAT4C  -  mannosyl (alpha-1,3-)-glycoprotein beta-1,4-n-acetylglucosaminyltransferase, isozyme c (putative), MYLK4  -  myosin light chain kinase family, member 4, TMPRSS2  -  transmembrane protease, serine 2, FAAH  -  fatty acid amide hydrolase, METTL7A  -  methyltransferase like 7a, RNF213  -  ring finger protein 213, GPAM  -  glycerol-3-phosphate acyltransferase, mitochondrial, ACSL1  -  acyl-coa synthetase long-chain family member 1, VAT1L  -  vesicle amine transport protein 1 homolog (t. californica)-like, TNFAIP1  -  tumor necrosis factor, alpha-induced protein 1 (endothelial), ACSL3  -  acyl-coa synthetase long-chain family member 3, ACSL4  -  acyl-coa synthetase long-chain family member 4, TNFAIP3  -  tumor necrosis factor, alpha-induced protein 3, FAH  -  fumarylacetoacetate hydrolase (fumarylacetoacetase), PTK2B  -  protein tyrosine kinase 2 beta, BPTF  -  bromodomain phd finger transcription factor, USP37  -  ubiquitin specific peptidase 37, USP49  -  ubiquitin specific peptidase 49, DDX55  -  dead (asp-glu-ala-asp) box polypeptide 55, FAP  -  fibroblast activation protein, alpha, FANCM  -  fanconi anemia, complementation group m, AGBL3  -  atp/gtp binding protein-like 3, FASN  -  fatty acid synthase, NRBP2  -  nuclear receptor binding protein 2, EFEMP1  -  egf containing fibulin-like extracellular matrix protein 1, MIER1  -  mesoderm induction early response 1, transcriptional regulator, POLR1A  -  polymerase (rna) i polypeptide a, 194kda, TOP1  -  topoisomerase (dna) i, TOP2A  -  topoisomerase (dna) ii alpha 170kda, TOP2B  -  topoisomerase (dna) ii beta 180kda, TOP3A  -  topoisomerase (dna) iii alpha, RNF19A  -  ring finger protein 19a, e3 ubiquitin protein ligase, SDR42E2  -  short chain dehydrogenase/reductase family 42e, member 2, MTHFD1L  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1-like, TPH1  -  tryptophan hydroxylase 1, TPI1  -  triosephosphate isomerase 1, FDFT1  -  farnesyl-diphosphate farnesyltransferase 1, FDPS  -  farnesyl diphosphate synthase, TPMT  -  thiopurine s-methyltransferase, FDX1  -  ferredoxin 1, CMPK2  -  cytidine monophosphate (ump-cmp) kinase 2, mitochondrial, TPO  -  thyroid peroxidase, MBOAT2  -  membrane bound o-acyltransferase domain containing 2, TPP2  -  tripeptidyl peptidase ii, FDXR  -  ferredoxin reductase, FEN1  -  flap structure-specific endonuclease 1, NEU4  -  sialidase 4, LIPM  -  lipase, family member m, SOSTDC1  -  sclerostin domain containing 1, TRAF2  -  tnf receptor-associated factor 2, RAB40C  -  rab40c, member ras oncogene family, TRAF3  -  tnf receptor-associated factor 3, TRAF5  -  tnf receptor-associated factor 5, ACMSD  -  aminocarboxymuconate semialdehyde decarboxylase, G6PC2  -  glucose-6-phosphatase, catalytic, 2, SAMHD1  -  sam domain and hd domain 1, FAM98A  -  family with sequence similarity 98, member a, RAP2C  -  rap2c, member of ras oncogene family, OTOG  -  otogelin, TRIO  -  trio rho guanine nucleotide exchange factor, FGFR1  -  fibroblast growth factor receptor 1, PNKD  -  paroxysmal nonkinesigenic dyskinesia, SGPP2  -  sphingosine-1-phosphate phosphatase 2, ACVR1C  -  activin a receptor, type ic, FGFR3  -  fibroblast growth factor receptor 3, FGFR2  -  fibroblast growth factor receptor 2, FGFR4  -  fibroblast growth factor receptor 4, UBR3  -  ubiquitin protein ligase e3 component n-recognin 3 (putative), HEPHL1  -  hephaestin-like 1, OVCH2  -  ovochymase 2 (gene/pseudogene), FHIT  -  fragile histidine triad, PARS2  -  prolyl-trna synthetase 2, mitochondrial (putative), MMACHC  -  methylmalonic aciduria (cobalamin deficiency) cblc type, with homocystinuria, GALM  -  galactose mutarotase (aldose 1-epimerase), TIPARP  -  tcdd-inducible poly(adp-ribose) polymerase, DHRS7B  -  dehydrogenase/reductase (sdr family) member 7b, CKMT1A  -  creatine kinase, mitochondrial 1a, FKBP1B  -  fk506 binding protein 1b, 12.6 kda, DNAH1  -  dynein, axonemal, heavy chain 1, CPO  -  carboxypeptidase o, MDH1B  -  malate dehydrogenase 1b, nad (soluble), RHOU  -  ras homolog family member u, ULK3  -  unc-51 like kinase 3, FKBP3  -  fk506 binding protein 3, 25kda, FKBP5  -  fk506 binding protein 5, ABHD17C  -  abhydrolase domain containing 17c, RNF167  -  ring finger protein 167, MOXD1  -  monooxygenase, dbh-like 1, TSN  -  translin, RPAP1  -  rna polymerase ii associated protein 1, TRIM71  -  tripartite motif containing 71, e3 ubiquitin protein ligase, KMT2C  -  lysine (k)-specific methyltransferase 2c, CHCHD4  -  coiled-coil-helix-coiled-coil-helix domain containing 4, ACOT11  -  acyl-coa thioesterase 11, DNASE2B  -  deoxyribonuclease ii beta, TST  -  thiosulfate sulfurtransferase (rhodanese), TSTA3  -  tissue specific transplantation antigen p35b, IPCEF1  -  interaction protein for cytohesin exchange factors 1, FLT1  -  fms-related tyrosine kinase 1, FLT3  -  fms-related tyrosine kinase 3, GLCE  -  glucuronic acid epimerase, TTC3  -  tetratricopeptide repeat domain 3, ZNF451  -  zinc finger protein 451, UROC1  -  urocanate hydratase 1, FLT4  -  fms-related tyrosine kinase 4, TTK  -  ttk protein kinase, RRAGD  -  ras-related gtp binding d, FMO3  -  flavin containing monooxygenase 3, TTN  -  titin, GRK7  -  g protein-coupled receptor kinase 7, FMO5  -  flavin containing monooxygenase 5, LTN1  -  listerin e3 ubiquitin protein ligase 1, METTL6  -  methyltransferase like 6, TAMM41  -  tam41, mitochondrial translocator assembly and maintenance protein, homolog (s. cerevisiae), TUBG1  -  tubulin, gamma 1, DNM3  -  dynamin 3, FNTB  -  farnesyltransferase, caax box, beta, SENP6  -  sumo1/sentrin specific peptidase 6, FOLH1  -  folate hydrolase (prostate-specific membrane antigen) 1, GLYCTK  -  glycerate kinase, PPM1M  -  protein phosphatase, mg2+/mn2+ dependent, 1m, ACE2  -  angiotensin i converting enzyme 2, HACL1  -  2-hydroxyacyl-coa lyase 1, DECR2  -  2,4-dienoyl coa reductase 2, peroxisomal, TYMS  -  thymidylate synthetase, TYR  -  tyrosinase, TYRO3  -  tyro3 protein tyrosine kinase, AADACL4  -  arylacetamide deacetylase-like 4, PRDM12  -  pr domain containing 12, SCPEP1  -  serine carboxypeptidase 1, SENP2  -  sumo1/sentrin/smt3 specific peptidase 2, ABHD12  -  abhydrolase domain containing 12, HERC4  -  hect and rld domain containing e3 ubiquitin protein ligase 4, UBA1  -  ubiquitin-like modifier activating enzyme 1, UBE2B  -  ubiquitin-conjugating enzyme e2b, AASDH  -  aminoadipate-semialdehyde dehydrogenase, UBE2D2  -  ubiquitin-conjugating enzyme e2d 2, C12orf10  -  chromosome 12 open reading frame 10, UBE2E2  -  ubiquitin-conjugating enzyme e2e 2, UBE2G1  -  ubiquitin-conjugating enzyme e2g 1, UBE2G2  -  ubiquitin-conjugating enzyme e2g 2, ENPP6  -  ectonucleotide pyrophosphatase/phosphodiesterase 6, UBE2H  -  ubiquitin-conjugating enzyme e2h, UBE2L3  -  ubiquitin-conjugating enzyme e2l 3, UBE2N  -  ubiquitin-conjugating enzyme e2n, UBE3A  -  ubiquitin protein ligase e3a, EPC2  -  enhancer of polycomb homolog 2 (drosophila), TGM6  -  transglutaminase 6, ELOVL5  -  elovl fatty acid elongase 5, UCHL1  -  ubiquitin carboxyl-terminal esterase l1 (ubiquitin thiolesterase), TRMT11  -  trna methyltransferase 11 homolog (s. cerevisiae), PPCDC  -  phosphopantothenoylcysteine decarboxylase, UGDH  -  udp-glucose 6-dehydrogenase, AASDHPPT  -  aminoadipate-semialdehyde dehydrogenase-phosphopantetheinyl transferase, UGP2  -  udp-glucose pyrophosphorylase 2, NAT9  -  n-acetyltransferase 9 (gcn5-related, putative), KIF26A  -  kinesin family member 26a, ABCA12  -  atp-binding cassette, sub-family a (abc1), member 12, ELAC2  -  elac ribonuclease z 2, UGT8  -  udp glycosyltransferase 8, UCK2  -  uridine-cytidine kinase 2, UMPS  -  uridine monophosphate synthetase, MTG2  -  mitochondrial ribosome-associated gtpase 2, SH3RF3  -  sh3 domain containing ring finger 3, USP4  -  ubiquitin specific peptidase 4 (proto-oncogene), DHX35  -  deah (asp-glu-ala-his) box polypeptide 35, UPP1  -  uridine phosphorylase 1, LRRIQ4  -  leucine-rich repeats and iq motif containing 4, UQCRFS1  -  ubiquinol-cytochrome c reductase, rieske iron-sulfur polypeptide 1, UROS  -  uroporphyrinogen iii synthase, UBLCP1  -  ubiquitin-like domain containing ctd phosphatase 1, TMPRSS7  -  transmembrane protease, serine 7, FRK  -  fyn-related kinase, USP1  -  ubiquitin specific peptidase 1, FBXL21  -  f-box and leucine-rich repeat protein 21 (gene/pseudogene), SRR  -  serine racemase, FBXL3  -  f-box and leucine-rich repeat protein 3, KDM6A  -  lysine (k)-specific demethylase 6a, PHGDH  -  phosphoglycerate dehydrogenase, HINT3  -  histidine triad nucleotide binding protein 3, RNF123  -  ring finger protein 123, FBXO2  -  f-box protein 2, VCAM1  -  vascular cell adhesion molecule 1, UBE2O  -  ubiquitin-conjugating enzyme e2o, PM20D2  -  peptidase m20 domain containing 2, NSUN3  -  nop2/sun domain family, member 3, TRIM50  -  tripartite motif containing 50, GALNT11  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 11 (galnac-t11), CHTF18  -  ctf18, chromosome transmission fidelity factor 18 homolog (s. cerevisiae), MTOR  -  mechanistic target of rapamycin (serine/threonine kinase), FBXW8  -  f-box and wd repeat domain containing 8, FBXO25  -  f-box protein 25, FBXO22  -  f-box protein 22, XPNPEP3  -  x-prolyl aminopeptidase (aminopeptidase p) 3, putative, FBXO9  -  f-box protein 9, VRK1  -  vaccinia related kinase 1, VRK2  -  vaccinia related kinase 2, FBXO6  -  f-box protein 6, PCIF1  -  pdx1 c-terminal inhibiting factor 1, FBXO3  -  f-box protein 3, LRGUK  -  leucine-rich repeats and guanylate kinase domain containing, FTH1  -  ferritin, heavy polypeptide 1, HIBCH  -  3-hydroxyisobutyryl-coa hydrolase, IL1RAPL2  -  interleukin 1 receptor accessory protein-like 2, GNAT3  -  guanine nucleotide binding protein, alpha transducing 3, AK5  -  adenylate kinase 5, KIF13A  -  kinesin family member 13a, WEE1  -  wee1 homolog (s. pombe), PRDM16  -  pr domain containing 16, UGT2A2  -  udp glucuronosyltransferase 2 family, polypeptide a2, PRDM15  -  pr domain containing 15, FUCA1  -  fucosidase, alpha-l- 1, tissue, FIGNL1  -  fidgetin-like 1, GBGT1  -  globoside alpha-1,3-n-acetylgalactosaminyltransferase 1, FUCA2  -  fucosidase, alpha-l- 2, plasma, TMEM68  -  transmembrane protein 68, ADHFE1  -  alcohol dehydrogenase, iron containing, 1, FUT4  -  fucosyltransferase 4 (alpha (1,3) fucosyltransferase, myeloid-specific), MMP27  -  matrix metallopeptidase 27, FUT6  -  fucosyltransferase 6 (alpha (1,3) fucosyltransferase), FUT7  -  fucosyltransferase 7 (alpha (1,3) fucosyltransferase), FUT8  -  fucosyltransferase 8 (alpha (1,6) fucosyltransferase), KDSR  -  3-ketodihydrosphingosine reductase, CYB5RL  -  cytochrome b5 reductase-like, FYN  -  fyn oncogene related to src, fgr, yes, HGSNAT  -  heparan-alpha-glucosaminide n-acetyltransferase, RBKS  -  ribokinase, PBLD  -  phenazine biosynthesis-like protein domain containing, MCCC2  -  methylcrotonoyl-coa carboxylase 2 (beta), GAL3ST2  -  galactose-3-o-sulfotransferase 2, XDH  -  xanthine dehydrogenase, XRCC6  -  x-ray repair complementing defective repair in chinese hamster cells 6, GAA  -  glucosidase, alpha; acid, PTPDC1  -  protein tyrosine phosphatase domain containing 1, XPNPEP1  -  x-prolyl aminopeptidase (aminopeptidase p) 1, soluble, XPNPEP2  -  x-prolyl aminopeptidase (aminopeptidase p) 2, membrane-bound, XRCC2  -  x-ray repair complementing defective repair in chinese hamster cells 2, XRCC3  -  x-ray repair complementing defective repair in chinese hamster cells 3, XRCC5  -  x-ray repair complementing defective repair in chinese hamster cells 5 (double-strand-break rejoining), DUS1L  -  dihydrouridine synthase 1-like (s. cerevisiae), YES1  -  v-yes-1 yamaguchi sarcoma viral oncogene homolog 1, RRAGC  -  ras-related gtp binding c, FN3K  -  fructosamine 3 kinase, LATS2  -  large tumor suppressor kinase 2, GAD2  -  glutamate decarboxylase 2 (pancreatic islets and brain, 65kda), XYLT1  -  xylosyltransferase i, ZAP70  -  zeta-chain (tcr) associated protein kinase 70kda, ABCG4  -  atp-binding cassette, sub-family g (white), member 4, KIF9  -  kinesin family member 9, GALE  -  udp-galactose-4-epimerase, GALK1  -  galactokinase 1, GALK2  -  galactokinase 2, GALNS  -  galactosamine (n-acetyl)-6-sulfate sulfatase, GALNT1  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 1 (galnac-t1), DPEP2  -  dipeptidase 2, LEPRE1  -  leucine proline-enriched proteoglycan (leprecan) 1, GAMT  -  guanidinoacetate n-methyltransferase, GANC  -  glucosidase, alpha; neutral c, GAPDH  -  glyceraldehyde-3-phosphate dehydrogenase, TFB2M  -  transcription factor b2, mitochondrial, MRPL46  -  mitochondrial ribosomal protein l46, GART  -  phosphoribosylglycinamide formyltransferase, phosphoribosylglycinamide synthetase, phosphoribosylaminoimidazole synthetase, ATL2  -  atlastin gtpase 2, ABCG5  -  atp-binding cassette, sub-family g (white), member 5, ABCG8  -  atp-binding cassette, sub-family g (white), member 8, GATM  -  glycine amidinotransferase (l-arginine:glycine amidinotransferase), GBE1  -  glucan (1,4-alpha-), branching enzyme 1, CTU2  -  cytosolic thiouridylase subunit 2 homolog (s. pombe), NSD1  -  nuclear receptor binding set domain protein 1, GCH1  -  gtp cyclohydrolase 1, GEN1  -  gen1 holliday junction 5' flap endonuclease, GCNT2  -  glucosaminyl (n-acetyl) transferase 2, i-branching enzyme (i blood group), GCSH  -  glycine cleavage system protein h (aminomethyl carrier), AKTIP  -  akt interacting protein, RGS18  -  regulator of g-protein signaling 18, GEM  -  gtp binding protein overexpressed in skeletal muscle, GFER  -  growth factor, augmenter of liver regeneration, ACOT1  -  acyl-coa thioesterase 1, GFPT1  -  glutamine--fructose-6-phosphate transaminase 1, RPS6KC1  -  ribosomal protein s6 kinase, 52kda, polypeptide 1, DCLRE1C  -  dna cross-link repair 1c, ATG3  -  autophagy related 3, GGT1  -  gamma-glutamyltransferase 1, SUDS3  -  suppressor of defective silencing 3 homolog (s. cerevisiae), GGT7  -  gamma-glutamyltransferase 7, GGT5  -  gamma-glutamyltransferase 5, NMNAT3  -  nicotinamide nucleotide adenylyltransferase 3, DNAI2  -  dynein, axonemal, intermediate chain 2, GCNT7  -  glucosaminyl (n-acetyl) transferase family member 7, ALDH8A1  -  aldehyde dehydrogenase 8 family, member a1, RNF113A  -  ring finger protein 113a, GK  -  glycerol kinase, GLA  -  galactosidase, alpha, GLB1  -  galactosidase, beta 1, GCLC  -  glutamate-cysteine ligase, catalytic subunit, MACROD2  -  macro domain containing 2, DYNLL2  -  dynein, light chain, lc8-type 2, TMPRSS3  -  transmembrane protease, serine 3, HS3ST6  -  heparan sulfate (glucosamine) 3-o-sulfotransferase 6, PDIA2  -  protein disulfide isomerase family a, member 2, GLO1  -  glyoxalase i, GLS  -  glutaminase, GLUD1  -  glutamate dehydrogenase 1, ADAMTS14  -  adam metallopeptidase with thrombospondin type 1 motif, 14, SMURF2  -  smad specific e3 ubiquitin protein ligase 2, SMYD3  -  set and mynd domain containing 3, GLUL  -  glutamate-ammonia ligase, PRDM2  -  pr domain containing 2, with znf domain, DNALI1  -  dynein, axonemal, light intermediate chain 1, PTP4A1  -  protein tyrosine phosphatase type iva, member 1, PARP12  -  poly (adp-ribose) polymerase family, member 12, GMDS  -  gdp-mannose 4,6-dehydratase, IPPK  -  inositol 1,3,4,5,6-pentakisphosphate 2-kinase, MEAF6  -  myst/esa1-associated factor 6, GMPR  -  guanosine monophosphate reductase, GNA11  -  guanine nucleotide binding protein (g protein), alpha 11 (gq class), GNA12  -  guanine nucleotide binding protein (g protein) alpha 12, ENGASE  -  endo-beta-n-acetylglucosaminidase, GNAI1  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 1, GNAI2  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 2, PXDN  -  peroxidasin homolog (drosophila), GNAI3  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 3, GNAL  -  guanine nucleotide binding protein (g protein), alpha activating activity polypeptide, olfactory type, NANP  -  n-acetylneuraminic acid phosphatase, CERK  -  ceramide kinase, AEN  -  apoptosis enhancing nuclease, RNF103  -  ring finger protein 103, GNB1  -  guanine nucleotide binding protein (g protein), beta polypeptide 1, GNB3  -  guanine nucleotide binding protein (g protein), beta polypeptide 3, DDX31  -  dead (asp-glu-ala-asp) box polypeptide 31, BRPF1  -  bromodomain and phd finger containing, 1, RMND5A  -  required for meiotic nuclear division 5 homolog a (s. cerevisiae), MAPKAPK3  -  mitogen-activated protein kinase-activated protein kinase 3, NMNAT1  -  nicotinamide nucleotide adenylyltransferase 1, USP7  -  ubiquitin specific peptidase 7 (herpes virus-associated), KCNAB1  -  potassium voltage-gated channel, shaker-related subfamily, beta member 1, GNS  -  glucosamine (n-acetyl)-6-sulfatase, GNPNAT1  -  glucosamine-phosphate n-acetyltransferase 1, STK35  -  serine/threonine kinase 35, RNF11  -  ring finger protein 11, TRUB2  -  trub pseudouridine (psi) synthase homolog 2 (e. coli), GOT2  -  glutamic-oxaloacetic transaminase 2, mitochondrial, ETNPPL  -  ethanolamine-phosphate phospho-lyase, MIB2  -  mindbomb e3 ubiquitin protein ligase 2, DUSP19  -  dual specificity phosphatase 19, TPK1  -  thiamin pyrophosphokinase 1, GPD1  -  glycerol-3-phosphate dehydrogenase 1 (soluble), ALDH5A1  -  aldehyde dehydrogenase 5 family, member a1, GPD2  -  glycerol-3-phosphate dehydrogenase 2 (mitochondrial), GPI  -  glucose-6-phosphate isomerase, DCLRE1B  -  dna cross-link repair 1b, GPLD1  -  glycosylphosphatidylinositol specific phospholipase d1, ASB12  -  ankyrin repeat and socs box containing 12, METTL4  -  methyltransferase like 4, MLH3  -  mutl homolog 3 (e. coli), HSD17B8  -  hydroxysteroid (17-beta) dehydrogenase 8, ATP2C1  -  atpase, ca++ transporting, type 2c, member 1, TRUB1  -  trub pseudouridine (psi) synthase homolog 1 (e. coli), ACAD8  -  acyl-coa dehydrogenase family, member 8, NOX1  -  nadph oxidase 1, TRMT2A  -  trna methyltransferase 2 homolog a (s. cerevisiae), CASD1  -  cas1 domain containing 1, HECTD2  -  hect domain containing e3 ubiquitin protein ligase 2, PLA2G7  -  phospholipase a2, group vii (platelet-activating factor acetylhydrolase, plasma), PPA2  -  pyrophosphatase (inorganic) 2, NT5DC2  -  5'-nucleotidase domain containing 2, RPUSD2  -  rna pseudouridylate synthase domain containing 2, B3GAT1  -  beta-1,3-glucuronyltransferase 1 (glucuronosyltransferase p), SESN3  -  sestrin 3, GRK4  -  g protein-coupled receptor kinase 4, GRK5  -  g protein-coupled receptor kinase 5, PINK1  -  pten induced putative kinase 1, EIF2AK1  -  eukaryotic translation initiation factor 2-alpha kinase 1, GRK6  -  g protein-coupled receptor kinase 6, CDK15  -  cyclin-dependent kinase 15, KAT6A  -  k(lysine) acetyltransferase 6a, TMEM86A  -  transmembrane protein 86a, GPX7  -  glutathione peroxidase 7, AMDHD1  -  amidohydrolase domain containing 1, MRPL44  -  mitochondrial ribosomal protein l44, INPP5J  -  inositol polyphosphate-5-phosphatase j, BCDIN3D  -  bcdin3 domain containing, JMJD4  -  jumonji domain containing 4, ADAM12  -  adam metallopeptidase domain 12, PALD1  -  phosphatase domain containing, paladin 1, GLT1D1  -  glycosyltransferase 1 domain containing 1, WNK1  -  wnk lysine deficient protein kinase 1, STK36  -  serine/threonine kinase 36, NADK  -  nad kinase, BRPF3  -  bromodomain and phd finger containing, 3, CUL5  -  cullin 5, NDOR1  -  nadph dependent diflavin oxidoreductase 1, PTP4A2  -  protein tyrosine phosphatase type iva, member 2, MPPE1  -  metallophosphoesterase 1, UBE2Z  -  ubiquitin-conjugating enzyme e2z, FBXL14  -  f-box and leucine-rich repeat protein 14, USP5  -  ubiquitin specific peptidase 5 (isopeptidase t), RAD9B  -  rad9 homolog b (s. pombe), LACC1  -  laccase (multicopper oxidoreductase) domain containing 1, PDIA3  -  protein disulfide isomerase family a, member 3, VPS4A  -  vacuolar protein sorting 4 homolog a (s. cerevisiae), AACS  -  acetoacetyl-coa synthetase, B3GALTL  -  beta 1,3-galactosyltransferase-like, GSK3B  -  glycogen synthase kinase 3 beta, RDH12  -  retinol dehydrogenase 12 (all-trans/9-cis/11-cis), GSPT1  -  g1 to s phase transition 1, GSR  -  glutathione reductase, GSS  -  glutathione synthetase, NMRK2  -  nicotinamide riboside kinase 2, GNMT  -  glycine n-methyltransferase, MTMR9  -  myotubularin related protein 9, ST8SIA2  -  st8 alpha-n-acetyl-neuraminide alpha-2,8-sialyltransferase 2, GSTT1  -  glutathione s-transferase theta 1, COQ2  -  coenzyme q2 4-hydroxybenzoate polyprenyltransferase, DUSP26  -  dual specificity phosphatase 26 (putative), PTGR2  -  prostaglandin reductase 2, GSTZ1  -  glutathione s-transferase zeta 1, MSH6  -  muts homolog 6 (e. coli), PCYOX1L  -  prenylcysteine oxidase 1 like, GTF2B  -  general transcription factor iib, TMPRSS9  -  transmembrane protease, serine 9, SESN1  -  sestrin 1, GTF2F2  -  general transcription factor iif, polypeptide 2, 30kda, RND2  -  rho family gtpase 2, GSTK1  -  glutathione s-transferase kappa 1, NDUFS7  -  nadh dehydrogenase (ubiquinone) fe-s protein 7, 20kda (nadh-coenzyme q reductase), CAMKV  -  cam kinase-like vesicle-associated, GUCY1A2  -  guanylate cyclase 1, soluble, alpha 2, TINAG  -  tubulointerstitial nephritis antigen, GALNT18  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 18, GGCT  -  gamma-glutamylcyclotransferase, GID4  -  gid complex subunit 4, GUCY1A3  -  guanylate cyclase 1, soluble, alpha 3, GUCY1B3  -  guanylate cyclase 1, soluble, beta 3, GUCY2C  -  guanylate cyclase 2c (heat stable enterotoxin receptor), GUCY2F  -  guanylate cyclase 2f, retinal, GUK1  -  guanylate kinase 1, PTPRQ  -  protein tyrosine phosphatase, receptor type, q, SPATA5L1  -  spermatogenesis associated 5-like 1, NCOA3  -  nuclear receptor coactivator 3, ERI3  -  eri1 exoribonuclease family member 3, TTBK2  -  tau tubulin kinase 2, ASPG  -  asparaginase homolog (s. cerevisiae), KIF7  -  kinesin family member 7, GYS2  -  glycogen synthase 2 (liver), DDX54  -  dead (asp-glu-ala-asp) box polypeptide 54, GZMB  -  granzyme b (granzyme 2, cytotoxic t-lymphocyte-associated serine esterase 1), RAB30  -  rab30, member ras oncogene family, ALG8  -  alg8, alpha-1,3-glucosyltransferase, PNPLA4  -  patatin-like phospholipase domain containing 4, RPS6KA6  -  ribosomal protein s6 kinase, 90kda, polypeptide 6, USP9X  -  ubiquitin specific peptidase 9, x-linked, METTL16  -  methyltransferase like 16, FTO  -  fat mass and obesity associated, HABP2  -  hyaluronan binding protein 2, HAGH  -  hydroxyacylglutathione hydrolase, DSCC1  -  dna replication and sister chromatid cohesion 1, HADHA  -  hydroxyacyl-coa dehydrogenase/3-ketoacyl-coa thiolase/enoyl-coa hydratase (trifunctional protein), alpha subunit, POLL  -  polymerase (dna directed), lambda, HADHB  -  hydroxyacyl-coa dehydrogenase/3-ketoacyl-coa thiolase/enoyl-coa hydratase (trifunctional protein), beta subunit, HADH  -  hydroxyacyl-coa dehydrogenase, HAL  -  histidine ammonia-lyase, MGAT5B  -  mannosyl (alpha-1,6-)-glycoprotein beta-1,6-n-acetyl-glucosaminyltransferase, isozym</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> b, TOR1B  -  torsin family 1, member b (torsin b), MCAT  -  malonyl coa:acp acyltransferase (mitochondrial), HAS2  -  hyaluronan synthase 2, DESI1  -  desumoylating isopeptidase 1, HAS3  -  hyaluronan synthase 3, ALG12  -  alg12, alpha-1,6-mannosyltransferase, HTRA2  -  htra serine peptidase 2, TOR2A  -  torsin family 2, member a, METTL22  -  methyltransferase like 22, HBB  -  hemoglobin, beta, EPX  -  eosinophil peroxidase, PIK3R6  -  phosphoinositide-3-kinase, regulatory subunit 6, RNF26  -  ring finger protein 26, CERKL  -  ceramide kinase-like, DHX58  -  dexh (asp-glu-x-his) box polypeptide 58, HCK  -  hemopoietic cell kinase, ACOX3  -  acyl-coa oxidase 3, pristanoyl, NDUFAF5  -  nadh dehydrogenase (ubiquinone) complex i, assembly factor 5, BAP1  -  brca1 associated protein-1 (ubiquitin carboxy-terminal hydrolase), BRAP  -  brca1 associated protein, EME1  -  essential meiotic structure-specific endonuclease 1, CDC7  -  cell division cycle 7, HDAC1  -  histone deacetylase 1, HDAC2  -  histone deacetylase 2, HDC  -  histidine decarboxylase, MMP28  -  matrix metallopeptidase 28, NOTUM  -  notum pectinacetylesterase homolog (drosophila), HEXA  -  hexosaminidase a (alpha polypeptide), DHRS11  -  dehydrogenase/reductase (sdr family) member 11, GNPTAB  -  n-acetylglucosamine-1-phosphate transferase, alpha and beta subunits, HGD  -  homogentisate 1,2-dioxygenase, HGF  -  hepatocyte growth factor (hepapoietin a; scatter factor), HGFAC  -  hgf activator, PNPLA7  -  patatin-like phospholipase domain containing 7, HK2  -  hexokinase 2, BRCC3  -  brca1/brca2-containing complex, subunit 3, CA13  -  carbonic anhydrase xiii, ENTPD8  -  ectonucleoside triphosphate diphosphohydrolase 8, MMEL1  -  membrane metallo-endopeptidase-like 1, TMPPE  -  transmembrane protein with metallophosphoesterase domain, NME5  -  nme/nm23 family member 5, HLCS  -  holocarboxylase synthetase (biotin-(proprionyl-coa-carboxylase (atp-hydrolysing)) ligase), PIP4K2B  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, beta, DPY19L3  -  dpy-19-like 3 (c. elegans), HMBS  -  hydroxymethylbilane synthase, PLA2G6  -  phospholipase a2, group vi (cytosolic, calcium-independent), HMGCL  -  3-hydroxymethyl-3-methylglutaryl-coa lyase, ULK1  -  unc-51 like autophagy activating kinase 1, HMOX1  -  heme oxygenase (decycling) 1, HMOX2  -  heme oxygenase (decycling) 2, BBOX1  -  butyrobetaine (gamma), 2-oxoglutarate dioxygenase (gamma-butyrobetaine hydroxylase) 1, B3GNT4  -  udp-glcnac:betagal beta-1,3-n-acetylglucosaminyltransferase 4, HNMT  -  histamine n-methyltransferase, RAD54L  -  rad54-like (s. cerevisiae), GNPAT  -  glyceronephosphate o-acyltransferase, DYRK3  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 3, DYRK2  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 2, DUSP11  -  dual specificity phosphatase 11 (rna/rnp complex 1-interacting), CUL4B  -  cullin 4b, CUL4A  -  cullin 4a, CUL3  -  cullin 3, CUL2  -  cullin 2, CUL1  -  cullin 1, TTF2  -  transcription termination factor, rna polymerase ii, TPST2  -  tyrosylprotein sulfotransferase 2, TPST1  -  tyrosylprotein sulfotransferase 1, B3GALNT2  -  beta-1,3-n-acetylgalactosaminyltransferase 2, PM20D1  -  peptidase m20 domain containing 1, OGT  -  o-linked n-acetylglucosamine (glcnac) transferase, CDC42BPA  -  cdc42 binding protein kinase alpha (dmpk-like), RC3H1  -  ring finger and ccch-type domains 1, MAP4K3  -  mitogen-activated protein kinase kinase kinase kinase 3, PRSS12  -  protease, serine, 12 (neurotrypsin, motopsin), PPM1D  -  protein phosphatase, mg2+/mn2+ dependent, 1d, METTL11B  -  methyltransferase like 11b, ATP13A3  -  atpase type 13a3, PDIK1L  -  pdlim1 interacting kinase 1 like, PARG  -  poly (adp-ribose) glycohydrolase, HPD  -  4-hydroxyphenylpyruvate dioxygenase, NDST2  -  n-deacetylase/n-sulfotransferase (heparan glucosaminyl) 2, CHPF  -  chondroitin polymerizing factor, HPGD  -  hydroxyprostaglandin dehydrogenase 15-(nad), CARS2  -  cysteinyl-trna synthetase 2, mitochondrial (putative), HAT1  -  histone acetyltransferase 1, CERS4  -  ceramide synthase 4, PGBD5  -  piggybac transposable element derived 5, DGKZ  -  diacylglycerol kinase, zeta, DGKE  -  diacylglycerol kinase, epsilon 64kda, HRAS  -  harvey rat sarcoma viral oncogene homolog, DGKD  -  diacylglycerol kinase, delta 130kda, DDO  -  d-aspartate oxidase, ACSS3  -  acyl-coa synthetase short-chain family member 3, NAA16  -  n(alpha)-acetyltransferase 16, nata auxiliary subunit, CPZ  -  carboxypeptidase z, CBX4  -  chromobox homolog 4, GALNT14  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 14 (galnac-t14), NKIRAS2  -  nfkb inhibitor interacting ras-like 2, AGPS  -  alkylglycerone phosphate synthase, NKIRAS1  -  nfkb inhibitor interacting ras-like 1, HSD11B1  -  hydroxysteroid (11-beta) dehydrogenase 1, HSD11B2  -  hydroxysteroid (11-beta) dehydrogenase 2, HSD17B2  -  hydroxysteroid (17-beta) dehydrogenase 2, MAPKAPK5  -  mitogen-activated protein kinase-activated protein kinase 5, ARSJ  -  arylsulfatase family, member j, PIAS1  -  protein inhibitor of activated stat, 1, SRD5A3  -  steroid 5 alpha-reductase 3, AIFM3  -  apoptosis-inducing factor, mitochondrion-associated, 3, CDC14A  -  cell division cycle 14a, PANK3  -  pantothenate kinase 3, NSUN4  -  nop2/sun domain family, member 4, CDK10  -  cyclin-dependent kinase 10, DEGS1  -  delta(4)-desaturase, sphingolipid 1, USB1  -  u6 snrna biogenesis 1, HSPA8  -  heat shock 70kda protein 8, HSPA9  -  heat shock 70kda protein 9 (mortalin), KMO  -  kynurenine 3-monooxygenase (kynurenine 3-hydroxylase), HECTD3  -  hect domain containing e3 ubiquitin protein ligase 3, PDXK  -  pyridoxal (pyridoxine, vitamin b6) kinase, MKNK1  -  map kinase interacting serine/threonine kinase 1, DYNC2H1  -  dynein, cytoplasmic 2, heavy chain 1, NEIL1  -  nei endonuclease viii-like 1 (e. coli), RASL11A  -  ras-like, family 11, member a, CASK  -  calcium/calmodulin-dependent serine protein kinase (maguk family), DHX40  -  deah (asp-glu-ala-his) box polypeptide 40, HSPD1  -  heat shock 60kda protein 1 (chaperonin), STK16  -  serine/threonine kinase 16, TMEM189  -  transmembrane protein 189, TTL  -  tubulin tyrosine ligase, NDST1  -  n-deacetylase/n-sulfotransferase (heparan glucosaminyl) 1, OGFOD2  -  2-oxoglutarate and iron-dependent oxygenase domain containing 2, SMC6  -  structural maintenance of chromosomes 6, SMYD1  -  set and mynd domain containing 1, RGS20  -  regulator of g-protein signaling 20, STEAP4  -  steap family member 4, RUVBL1  -  ruvb-like 1 (e. coli), YRDC  -  yrdc domain containing (e. coli), MANEA  -  mannosidase, endo-alpha, GALNT12  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 12 (galnac-t12), OGFOD3  -  2-oxoglutarate and iron-dependent oxygenase domain containing 3, CDK13  -  cyclin-dependent kinase 13, LRRK1  -  leucine-rich repeat kinase 1, ASMTL  -  acetylserotonin o-methyltransferase-like, NOL9  -  nucleolar protein 9, IARS  -  isoleucyl-trna synthetase, PUS10  -  pseudouridylate synthase 10, NPEPL1  -  aminopeptidase-like 1, DNAH17  -  dynein, axonemal, heavy chain 17, ENO4  -  enolase family member 4, PLB1  -  phospholipase b1, NSUN7  -  nop2/sun domain family, member 7, NARS2  -  asparaginyl-trna synthetase 2, mitochondrial (putative), ABCB11  -  atp-binding cassette, sub-family b (mdr/tap), member 11, NCOA1  -  nuclear receptor coactivator 1, TTLL7  -  tubulin tyrosine ligase-like family, member 7, PDE5A  -  phosphodiesterase 5a, cgmp-specific, TNKS  -  tankyrase, trf1-interacting ankyrin-related adp-ribose polymerase, ALDH4A1  -  aldehyde dehydrogenase 4 family, member a1, ECHDC3  -  enoyl coa hydratase domain containing 3, IDE  -  insulin-degrading enzyme, ADGB  -  androglobin, IDH1  -  isocitrate dehydrogenase 1 (nadp+), soluble, EIF3H  -  eukaryotic translation initiation factor 3, subunit h, IDS  -  iduronate 2-sulfatase, DHRS12  -  dehydrogenase/reductase (sdr family) member 12, CFI  -  complement factor i, SETD8  -  set domain containing (lysine methyltransferase) 8, NHLRC3  -  nhl repeat containing 3, DTX3L  -  deltex 3-like (drosophila), PP2D1  -  protein phosphatase 2c-like domain containing 1, GALNT4  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 4 (galnac-t4), RERGL  -  rerg/ras-like, CDC23  -  cell division cycle 23, DNAH11  -  dynein, axonemal, heavy chain 11, B4GALT4  -  udp-gal:betaglcnac beta 1,4- galactosyltransferase, polypeptide 4, B4GALT3  -  udp-gal:betaglcnac beta 1,4- galactosyltransferase, polypeptide 3, ALG9  -  alg9, alpha-1,2-mannosyltransferase, B3GALT1  -  udp-gal:betaglcnac beta 1,3-galactosyltransferase, polypeptide 1, HHIPL2  -  hhip-like 2, ABCC3  -  atp-binding cassette, sub-family c (cftr/mrp), member 3, VASH2  -  vasohibin 2, MBTPS1  -  membrane-bound transcription factor peptidase, site 1, SBK1  -  sh3-binding domain kinase 1, EHMT1  -  euchromatic histone-lysine n-methyltransferase 1, NEK10  -  nima-related kinase 10, IGF2R  -  insulin-like growth factor 2 receptor, EED  -  embryonic ectoderm development, ADAM19  -  adam metallopeptidase domain 19, RNMT  -  rna (guanine-7-) methyltransferase, RNGTT  -  rna guanylyltransferase and 5'-phosphatase, METTL8  -  methyltransferase like 8, RIPK1  -  receptor (tnfrsf)-interacting serine-threonine kinase 1, PEAK1  -  nkf3 kinase family member, ADAM23  -  adam metallopeptidase domain 23, ADAM21  -  adam metallopeptidase domain 21, ADAM9  -  adam metallopeptidase domain 9, IGHMBP2  -  immunoglobulin mu binding protein 2, RNF122  -  ring finger protein 122, RAB11A  -  rab11a, member ras oncogene family, RIPK2  -  receptor-interacting serine-threonine kinase 2, KLB  -  klotho beta, MTMR1  -  myotubularin related protein 1, RIOK3  -  rio kinase 3, TRMT44  -  trna methyltransferase 44 homolog (s. cerevisiae), ALG13  -  alg13, udp-n-acetylglucosaminyltransferase subunit, RGS9  -  regulator of g-protein signaling 9, RPAP2  -  rna polymerase ii associated protein 2, CBLL1  -  cbl proto-oncogene-like 1, e3 ubiquitin protein ligase, IHH  -  indian hedgehog, UBA5  -  ubiquitin-like modifier activating enzyme 5, DCAKD  -  dephospho-coa kinase domain containing, IKBKB  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase beta, IL1R1  -  interleukin 1 receptor, type i, IL1RAP  -  interleukin 1 receptor accessory protein, HDAC11  -  histone deacetylase 11, SUCLG2  -  succinate-coa ligase, gdp-forming, beta subunit, SUCLG1  -  succinate-coa ligase, alpha subunit, SUCLA2  -  succinate-coa ligase, adp-forming, beta subunit, LPCAT1  -  lysophosphatidylcholine acyltransferase 1, TRIM24  -  tripartite motif containing 24, IL18RAP  -  interleukin 18 receptor accessory protein, IL18R1  -  interleukin 18 receptor 1, CCNK  -  cyclin k, DPM1  -  dolichyl-phosphate mannosyltransferase polypeptide 1, catalytic subunit, CDKL1  -  cyclin-dependent kinase-like 1 (cdc2-related kinase), CYBRD1  -  cytochrome b reductase 1, SH3RF2  -  sh3 domain containing ring finger 2, NAA60  -  n(alpha)-acetyltransferase 60, natf catalytic subunit, RNF145  -  ring finger protein 145, PYROXD1  -  pyridine nucleotide-disulphide oxidoreductase domain 1, ATAD5  -  atpase family, aaa domain containing 5, NRP2  -  neuropilin 2, SETD6  -  set domain containing 6, NRP1  -  neuropilin 1, MRM1  -  mitochondrial rrna methyltransferase 1 homolog (s. cerevisiae), GMPS  -  guanine monphosphate synthase, MBOAT1  -  membrane bound o-acyltransferase domain containing 1, PNLDC1  -  poly(a)-specific ribonuclease (parn)-like domain containing 1, GGH  -  gamma-glutamyl hydrolase (conjugase, folylpolygammaglutamyl hydrolase), RNF217  -  ring finger protein 217, CAPN8  -  calpain 8, HDAC3  -  histone deacetylase 3, KSR1  -  kinase suppressor of ras 1, ALKBH1  -  alkb, alkylation repair homolog 1 (e. coli), ABCA13  -  atp-binding cassette, sub-family a (abc1), member 13, L2HGDH  -  l-2-hydroxyglutarate dehydrogenase, KAT2B  -  k(lysine) acetyltransferase 2b, DHDDS  -  dehydrodolichyl diphosphate synthase, IMPA1  -  inositol(myo)-1(or 4)-monophosphatase 1, IMPA2  -  inositol(myo)-1(or 4)-monophosphatase 2, ALDH1A2  -  aldehyde dehydrogenase 1 family, member a2, VKORC1L1  -  vitamin k epoxide reductase complex, subunit 1-like 1, IMPDH2  -  imp (inosine 5'-monophosphate) dehydrogenase 2, PROZ  -  protein z, vitamin k-dependent plasma glycoprotein, SYNJ1  -  synaptojanin 1, ST3GAL5  -  st3 beta-galactoside alpha-2,3-sialyltransferase 5, SYNJ2  -  synaptojanin 2, INPP4A  -  inositol polyphosphate-4-phosphatase, type i, 107kda, INPP5A  -  inositol polyphosphate-5-phosphatase, 40kda, VNN1  -  vanin 1, INPP5B  -  inositol polyphosphate-5-phosphatase, 75kda, INPP5D  -  inositol polyphosphate-5-phosphatase, 145kda, SQSTM1  -  sequestosome 1, INPPL1  -  inositol polyphosphate phosphatase-like 1, TRMT2B  -  trna methyltransferase 2 homolog b (s. cerevisiae), SGPL1  -  sphingosine-1-phosphate lyase 1, AMZ1  -  archaelysin family metallopeptidase 1, NAE1  -  nedd8 activating enzyme e1 subunit 1, DDX18  -  dead (asp-glu-ala-asp) box polypeptide 18, MCM3AP  -  minichromosome maintenance complex component 3 associated protein, CPNE3  -  copine iii, IRAK2  -  interleukin-1 receptor-associated kinase 2, IREB2  -  iron-responsive element binding protein 2, MTMR3  -  myotubularin related protein 3, MTMR2  -  myotubularin related protein 2, PRPF4B  -  prp4 pre-mrna processing factor 4 homolog b (yeast), GYG2  -  glycogenin 2, ESCO2  -  establishment of sister chromatid cohesion n-acetyltransferase 2, FOXRED2  -  fad-dependent oxidoreductase domain containing 2, TMEM62  -  transmembrane protein 62, HERC3  -  hect and rld domain containing e3 ubiquitin protein ligase 3, PANK2  -  pantothenate kinase 2, HERC2  -  hect and rld domain containing e3 ubiquitin protein ligase 2, HERC1  -  hect and rld domain containing e3 ubiquitin protein ligase family member 1, TDH  -  l-threonine dehydrogenase, MBD4  -  methyl-cpg binding domain protein 4, ITGB3  -  integrin, beta 3 (platelet glycoprotein iiia, antigen cd61), PGAP1  -  post-gpi attachment to proteins 1, GRXCR1  -  glutaredoxin, cysteine rich 1, TOP3B  -  topoisomerase (dna) iii beta, ADAMTS20  -  adam metallopeptidase with thrombospondin type 1 motif, 20, KYNU  -  kynureninase, BTRC  -  beta-transducin repeat containing e3 ubiquitin protein ligase, ITK  -  il2-inducible t-cell kinase, STT3A  -  stt3a, subunit of the oligosaccharyltransferase complex (catalytic), ITPK1  -  inositol-tetrakisphosphate 1-kinase, ITPKA  -  inositol-trisphosphate 3-kinase a, ITPKB  -  inositol-trisphosphate 3-kinase b, P4HA2  -  prolyl 4-hydroxylase, alpha polypeptide ii, USP13  -  ubiquitin specific peptidase 13 (isopeptidase t-3), AK8  -  adenylate kinase 8, IVD  -  isovaleryl-coa dehydrogenase, PIF1  -  pif1 5'-to-3' dna helicase, TTLL11  -  tubulin tyrosine ligase-like family, member 11, JAK1  -  janus kinase 1, VCPIP1  -  valosin containing protein (p97)/p47 complex interacting protein 1, ATP6V0E1  -  atpase, h+ transporting, lysosomal 9kda, v0 subunit e1, JARID2  -  jumonji, at rich interactive domain 2, KALRN  -  kalirin, rhogef kinase, CDKL2  -  cyclin-dependent kinase-like 2 (cdc2-related kinase), PTGES2  -  prostaglandin e synthase 2, UXS1  -  udp-glucuronate decarboxylase 1, ZC3H12A  -  zinc finger ccch-type containing 12a, IYD  -  iodotyrosine deiodinase, MAP3K14  -  mitogen-activated protein kinase kinase kinase 14, ASRGL1  -  asparaginase like 1, EDC3  -  enhancer of mrna decapping 3, BRSK2  -  br serine/threonine kinase 2, NAA15  -  n(alpha)-acetyltransferase 15, nata auxiliary subunit, RNF8  -  ring finger protein 8, e3 ubiquitin protein ligase, BAZ1B  -  bromodomain adjacent to zinc finger domain, 1b, UBA3  -  ubiquitin-like modifier activating enzyme 3, MYO19  -  myosin xix, BTAF1  -  btaf1 rna polymerase ii, b-tfiid transcription factor-associated, 170kda, FAAH2  -  fatty acid amide hydrolase 2, RNF34  -  ring finger protein 34, e3 ubiquitin protein ligase, KCNJ8  -  potassium inwardly-rectifying channel, subfamily j, member 8, HKDC1  -  hexokinase domain containing 1, FBXO11  -  f-box protein 11, CHD9  -  chromodomain helicase dna binding protein 9, NUGGC  -  nuclear gtpase, germinal center associated, PAPSS1  -  3'-phosphoadenosine 5'-phosphosulfate synthase 1, ZDHHC15  -  zinc finger, dhhc-type containing 15, MAP3K6  -  mitogen-activated protein kinase kinase kinase 6, ALPK1  -  alpha-kinase 1, NAA50  -  n(alpha)-acetyltransferase 50, nate catalytic subunit, C11orf54  -  chromosome 11 open reading frame 54, ASH2L  -  ash2 (absent, small, or homeotic)-like (drosophila), KDR  -  kinase insert domain receptor (a type iii receptor tyrosine kinase), TMPRSS11E  -  transmembrane protease, serine 11e, KEL  -  kell blood group, metallo-endopeptidase, PIGZ  -  phosphatidylinositol glycan anchor biosynthesis, class z, USP54  -  ubiquitin specific peptidase 54, KIF2A  -  kinesin heavy chain member 2a, KIF3C  -  kinesin family member 3c, NOB1  -  nin1/rpn12 binding protein 1 homolog (s. cerevisiae), KIF5B  -  kinesin family member 5b, NTMT1  -  n-terminal xaa-pro-lys n-methyltransferase 1, KIF5C  -  kinesin family member 5c, KIFC3  -  kinesin family member c3, PIGQ  -  phosphatidylinositol glycan anchor biosynthesis, class q, EDEM3  -  er degradation enhancer, mannosidase alpha-like 3, HSD3B7  -  hydroxy-delta-5-steroid dehydrogenase, 3 beta- and steroid delta-isomerase 7, TMTC2  -  transmembrane and tetratricopeptide repeat containing 2, USP14  -  ubiquitin specific peptidase 14 (trna-guanine transglycosylase), MAP3K15  -  mitogen-activated protein kinase kinase kinase 15, USP10  -  ubiquitin specific peptidase 10, TMTC3  -  transmembrane and tetratricopeptide repeat containing 3, USP8  -  ubiquitin specific peptidase 8, ALDH1L2  -  aldehyde dehydrogenase 1 family, member l2, KIT  -  v-kit hardy-zuckerman 4 feline sarcoma viral oncogene homolog, RGN  -  regucalcin, MTMR7  -  myotubularin related protein 7, KLKB1  -  kallikrein b, plasma (fletcher factor) 1, MTMR4  -  myotubularin related protein 4, PPTC7  -  ptc7 protein phosphatase homolog (s. cerevisiae), LATS1  -  large tumor suppressor kinase 1, ATP6V0D1  -  atpase, h+ transporting, lysosomal 38kda, v0 subunit d1, DGKH  -  diacylglycerol kinase, eta, EPC1  -  enhancer of polycomb homolog 1 (drosophila), C1GALT1C1  -  c1galt1-specific chaperone 1, KLC1  -  kinesin light chain 1, SETD2  -  set domain containing 2, KIF11  -  kinesin family member 11, KIF25  -  kinesin family member 25, SMC3  -  structural maintenance of chromosomes 3, METTL5  -  methyltransferase like 5, PUS1  -  pseudouridylate synthase 1, PHPT1  -  phosphohistidine phosphatase 1, AIFM1  -  apoptosis-inducing factor, mitochondrion-associated, 1, UBE2T  -  ubiquitin-conjugating enzyme e2t (putative), KRAS  -  kirsten rat sarcoma viral oncogene homolog, WDR82  -  wd repeat domain 82, OTUD7A  -  otu domain containing 7a, DROSHA  -  drosha, ribonuclease type iii, ADAL  -  adenosine deaminase-like, COASY  -  coa synthase, NEURL  -  neuralized homolog (drosophila), N6AMT1  -  n-6 adenine-specific dna methyltransferase 1 (putative), TNKS2  -  tankyrase, trf1-interacting ankyrin-related adp-ribose polymerase 2, CTDP1  -  ctd (carboxy-terminal domain, rna polymerase ii, polypeptide a) phosphatase, subunit 1, TBK1  -  tank-binding kinase 1, EXO1  -  exonuclease 1, PCSK7  -  proprotein convertase subtilisin/kexin type 7, DGKI  -  diacylglycerol kinase, iota, MYLIP  -  myosin regulatory light chain interacting protein, COX7A2L  -  cytochrome c oxidase subunit viia polypeptide 2 like, PHOSPHO1  -  phosphatase, orphan 1, ACAD10  -  acyl-coa dehydrogenase family, member 10, RHBDL3  -  rhomboid, veinlet-like 3 (drosophila), LGALS13  -  lectin, galactoside-binding, soluble, 13, IL1RL1  -  interleukin 1 receptor-like 1, MAP3K13  -  mitogen-activated protein kinase kinase kinase 13, UHRF1  -  ubiquitin-like with phd and ring finger domains 1, USP25  -  ubiquitin specific peptidase 25, THUMPD2  -  thump domain containing 2, TSEN2  -  tsen2 trna splicing endonuclease subunit, AARSD1  -  alanyl-trna synthetase domain containing 1, ZBED1  -  zinc finger, bed-type containing 1, PTPLA  -  protein tyrosine phosphatase-like (proline instead of catalytic arginine), member a, DCLK1  -  doublecortin-like kinase 1, OLA1  -  obg-like atpase 1, UQCR10  -  ubiquinol-cytochrome c reductase, complex iii subunit x, ZDHHC1  -  zinc finger, dhhc-type containing 1, CYB5B  -  cytochrome b5 type b (outer mitochondrial membrane), ZDHHC8  -  zinc finger, dhhc-type containing 8, LBR  -  lamin b receptor, LCAT  -  lecithin-cholesterol acyltransferase, SENP1  -  sumo1/sentrin specific peptidase 1, DDHD1  -  ddhd domain containing 1, LCT  -  lactase, LDHA  -  lactate dehydrogenase a, ALG5  -  alg5, dolichyl-phosphate beta-glucosyltransferase, DUSP16  -  dual specificity phosphatase 16, LDHB  -  lactate dehydrogenase b, GNL2  -  guanine nucleotide binding protein-like 2 (nucleolar), JHDM1D  -  jumonji c domain containing histone demethylase 1 homolog d (s. cerevisiae), SETD7  -  set domain containing (lysine methyltransferase) 7, EEF2K  -  eukaryotic elongation factor-2 kinase, HFM1  -  hfm1, atp-dependent dna helicase homolog (s. cerevisiae), DHRS3  -  dehydrogenase/reductase (sdr family) member 3, ILKAP  -  integrin-linked kinase-associated serine/threonine phosphatase, RPS6KA5  -  ribosomal protein s6 kinase, 90kda, polypeptide 5, UBIAD1  -  ubia prenyltransferase domain containing 1, LIG3  -  ligase iii, dna, atp-dependent, TTLL9  -  tubulin tyrosine ligase-like family, member 9, LIG4  -  ligase iv, dna, atp-dependent, NME7  -  nme/nm23 family member 7, MAPKAPK2  -  mitogen-activated protein kinase-activated protein kinase 2, TMPRSS6  -  transmembrane protease, serine 6, STK17A  -  serine/threonine kinase 17a, LIMK2  -  lim domain kinase 2, LIPC  -  lipase, hepatic, ALG6  -  alg6, alpha-1,3-glucosyltransferase, PIWIL1  -  piwi-like rna-mediated gene silencing 1, FADS1  -  fatty acid desaturase 1, DSE  -  dermatan sulfate epimerase, PADI1  -  peptidyl arginine deiminase, type i, LMO7  -  lim domain 7, ANAPC4  -  anaphase promoting complex subunit 4, RNF168  -  ring finger protein 168, e3 ubiquitin protein ligase, LOXL1  -  lysyl oxidase-like 1, SBK2  -  sh3-binding domain kinase family, member 2, DPP7  -  dipeptidyl-peptidase 7, LOXL2  -  lysyl oxidase-like 2, POMT2  -  protein-o-mannosyltransferase 2, SGMS2  -  sphingomyelin synthase 2, PTER  -  phosphotriesterase related, COPS2  -  cop9 signalosome subunit 2, TRIP13  -  thyroid hormone receptor interactor 13, TRIP12  -  thyroid hormone receptor interactor 12, LSS  -  lanosterol synthase (2,3-oxidosqualene-lanosterol cyclase), LTA4H  -  leukotriene a4 hydrolase, LTBP1  -  latent transforming growth factor beta binding protein 1, GTF3C4  -  general transcription factor iiic, polypeptide 4, 90kda, B4GALT6  -  udp-gal:betaglcnac beta 1,4- galactosyltransferase, polypeptide 6, LTC4S  -  leukotriene c4 synthase, TGM5  -  transglutaminase 5, ERO1L  -  ero1-like (s. cerevisiae), EFTUD2  -  elongation factor tu gtp binding domain containing 2, UBE4A  -  ubiquitination factor e4a, ST6GALNAC6  -  st6 (alpha-n-acetyl-neuraminyl-2,3-beta-galactosyl-1,3)-n-acetylgalactosaminide alpha-2,6-sialyltransferase 6, PPIG  -  peptidylprolyl isomerase g (cyclophilin g), LONP1  -  lon peptidase 1, mitochondrial, RAB28  -  rab28, member ras oncogene family, KL  -  klotho, RAB9A  -  rab9a, member ras oncogene family, QSOX2  -  quiescin q6 sulfhydryl oxidase 2, KIF3B  -  kinesin family member 3b, PIK3R4  -  phosphoinositide-3-kinase, regulatory subunit 4, FUT11  -  fucosyltransferase 11 (alpha (1,3) fucosyltransferase), RRM2B  -  ribonucleotide reductase m2 b (tp53 inducible), SMARCAL1  -  swi/snf related, matrix associated, actin dependent regulator of chromatin, subfamily a-like 1, HS6ST1  -  heparan sulfate 6-o-sulfotransferase 1, NMT2  -  n-myristoyltransferase 2, DUOX2  -  dual oxidase 2, DHX36  -  deah (asp-glu-ala-his) box polypeptide 36, RECQL5  -  recq protein-like 5, NOX4  -  nadph oxidase 4, MAK  -  male germ cell-associated kinase, NOX3  -  nadph oxidase 3, MAN2A2  -  mannosidase, alpha, class 2a, member 2, MAN2C1  -  mannosidase, alpha, class 2c, member 1, CHST11  -  carbohydrate (chondroitin 4) sulfotransferase 11, MANBA  -  mannosidase, beta a, lysosomal, MAOA  -  monoamine oxidase a, MED21  -  mediator complex subunit 21, MAOB  -  monoamine oxidase b, GALNT9  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 9 (galnac-t9), FADS2  -  fatty acid desaturase 2, ATP6V0A4  -  atpase, h+ transporting, lysosomal v0 subunit a4, MARK1  -  map/microtubule affinity-regulating kinase 1, MARK3  -  map/microtubule affinity-regulating kinase 3, CDYL  -  chromodomain protein, y-like, MAT1A  -  methionine adenosyltransferase i, alpha, ABCG2  -  atp-binding cassette, sub-family g (white), member 2, PNPLA8  -  patatin-like phospholipase domain containing 8, CHST2  -  carbohydrate (n-acetylglucosamine-6-o) sulfotransferase 2, MED7  -  mediator complex subunit 7, GSTO1  -  glutathione s-transferase omega 1, EIF2AK3  -  eukaryotic translation initiation factor 2-alpha kinase 3, HM13  -  histocompatibility (minor) 13, NSDHL  -  nad(p) dependent steroid dehydrogenase-like, SGPP1  -  sphingosine-1-phosphate phosphatase 1, MCM2  -  minichromosome maintenance complex component 2, MCM3  -  minichromosome maintenance complex component 3, TMX1  -  thioredoxin-related transmembrane protein 1, MCM4  -  minichromosome maintenance complex component 4, MCM5  -  minichromosome maintenance complex component 5, GDPD5  -  glycerophosphodiester phosphodiesterase domain containing 5, ADAMTS15  -  adam metallopeptidase with thrombospondin type 1 motif, 15, ADAMTS18  -  adam metallopeptidase with thrombospondin type 1 motif, 18, PCYT1B  -  phosphate cytidylyltransferase 1, choline, beta, MDH1  -  malate dehydrogenase 1, nad (soluble), ROCK2  -  rho-associated, coiled-coil containing protein kinase 2, MDH2  -  malate dehydrogenase 2, nad (mitochondrial), MED20  -  mediator complex subunit 20, MDM2  -  mdm2 oncogene, e3 ubiquitin protein ligase, NDEL1  -  nude neurodevelopment protein 1-like 1, TXNDC5  -  thioredoxin domain containing 5 (endoplasmic reticulum), CHST10  -  carbohydrate sulfotransferase 10, RNF141  -  ring finger protein 141, PIGB  -  phosphatidylinositol glycan anchor biosynthesis, class b, PGS1  -  phosphatidylglycerophosphate synthase 1, GFOD2  -  glucose-fructose oxidoreductase domain containing 2, KIF23  -  kinesin family member 23, RHOV  -  ras homolog family member v, CDADC1  -  cytidine and dcmp deaminase domain containing 1, TRIM8  -  tripartite motif containing 8, MAP3K3  -  mitogen-activated protein kinase kinase kinase 3, MAP3K4  -  mitogen-activated protein kinase kinase kinase 4, RAB8A  -  rab8a, member ras oncogene family, FRRS1  -  ferric-chelate reductase 1, ADAMTS3  -  adam metallopeptidase with thrombospondin type 1 motif, 3, ADAMTS2  -  adam metallopeptidase with thrombospondin type 1 motif, 2, MEP1A  -  meprin a, alpha (paba peptide hydrolase), MEP1B  -  meprin a, beta, PMPCB  -  peptidase (mitochondrial processing) beta, MEST  -  mesoderm specific transcript, MET  -  met proto-oncogene, CLYBL  -  citrate lyase beta like, SPTLC2  -  serine palmitoyltransferase, long chain base subunit 2, NPEPPS  -  aminopeptidase puromycin sensitive, TECR  -  trans-2,3-enoyl-coa reductase, VPS4B  -  vacuolar protein sorting 4 homolog b (s. cerevisiae), MGAT2  -  mannosyl (alpha-1,6-)-glycoprotein beta-1,2-n-acetylglucosaminyltransferase, TMEM59  -  transmembrane protein 59, COQ6  -  coenzyme q6 monooxygenase, MGAT3  -  mannosyl (beta-1,4-)-glycoprotein beta-1,4-n-acetylglucosaminyltransferase, MGAT5  -  mannosyl (alpha-1,6-)-glycoprotein beta-1,6-n-acetyl-glucosaminyltransferase, AMDHD2  -  amidohydrolase domain containing 2, POLR1C  -  polymerase (rna) i polypeptide c, 30kda, EXOSC3  -  exosome component 3, MGMT  -  o-6-methylguanine-dna methyltransferase, POLR3H  -  polymerase (rna) iii (dna directed) polypeptide h (22.9kd), PTGES  -  prostaglandin e synthase, MGST1  -  microsomal glutathione s-transferase 1, ABHD3  -  abhydrolase domain containing 3, MGST2  -  microsomal glutathione s-transferase 2, MGST3  -  microsomal glutathione s-transferase 3, PGAM5  -  phosphoglycerate mutase family member 5, TP53I3  -  tumor protein p53 inducible protein 3, CIITA  -  class ii, major histocompatibility complex, transactivator, NUAK2  -  nuak family, snf1-like kinase, 2, HDDC2  -  hd domain containing 2, GLRX2  -  glutaredoxin 2, ATP6V1G1  -  atpase, h+ transporting, lysosomal 13kda, v1 subunit g1, MID1  -  midline 1 (opitz/bbb syndrome), MIF  -  macrophage migration inhibitory factor (glycosylation-inhibiting factor), DESI2  -  desumoylating isopeptidase 2, CHD1L  -  chromodomain helicase dna binding protein 1-like, MIPEP  -  mitochondrial intermediate peptidase, RNF146  -  ring finger protein 146, ATXN3  -  ataxin 3, MINPP1  -  multiple inositol-polyphosphate phosphatase 1, H6PD  -  hexose-6-phosphate dehydrogenase (glucose 1-dehydrogenase), ST6GALNAC5  -  st6 (alpha-n-acetyl-neuraminyl-2,3-beta-galactosyl-1,3)-n-acetylgalactosaminide alpha-2,6-sialyltransferase 5, AGO3  -  argonaute risc catalytic component 3, MLH1  -  mutl homolog 1, colon cancer, nonpolyposis type 2 (e. coli), GTPBP1  -  gtp binding protein 1, MAP3K9  -  mitogen-activated protein kinase kinase kinase 9, LAP3  -  leucine aminopeptidase 3, KMT2A  -  lysine (k)-specific methyltransferase 2a, SDR16C5  -  short chain dehydrogenase/reductase family 16c, member 5, CLOCK  -  clock circadian regulator, ATL1  -  atlastin gtpase 1, PREPL  -  prolyl endopeptidase-like, METTL15  -  methyltransferase like 15, ENTPD4  -  ectonucleoside triphosphate diphosphohydrolase 4, MME  -  membrane metallo-endopeptidase, KIF20B  -  kinesin family member 20b, MMP2  -  matrix metallopeptidase 2 (gelatinase a, 72kda gelatinase, 72kda type iv collagenase), DERA  -  deoxyribose-phosphate aldolase (putative), MMP3  -  matrix metallopeptidase 3 (stromelysin 1, progelatinase), PRDX6  -  peroxiredoxin 6, MMP7  -  matrix metallopeptidase 7 (matrilysin, uterine), FAHD1  -  fumarylacetoacetate hydrolase domain containing 1, DNAH10  -  dynein, axonemal, heavy chain 10, APIP  -  apaf1 interacting protein, MMP9  -  matrix metallopeptidase 9 (gelatinase b, 92kda gelatinase, 92kda type iv collagenase), SULT6B1  -  sulfotransferase family, cytosolic, 6b, member 1, MMP11  -  matrix metallopeptidase 11 (stromelysin 3), MMP13  -  matrix metallopeptidase 13 (collagenase 3), PDIA4  -  protein disulfide isomerase family a, member 4, KIF18A  -  kinesin family member 18a, POLR1D  -  polymerase (rna) i polypeptide d, 16kda, RNF14  -  ring finger protein 14, MMP17  -  matrix metallopeptidase 17 (membrane-inserted), CRYL1  -  crystallin, lambda 1, RAB36  -  rab36, member ras oncogene family, TNNI3K  -  tnni3 interacting kinase, PITPNM3  -  pitpnm family member 3, DCP1B  -  decapping mrna 1b, SEPSECS  -  sep (o-phosphoserine) trna:sec (selenocysteine) trna synthase, RNF7  -  ring finger protein 7, METTL21C  -  methyltransferase like 21c, MOCS1  -  molybdenum cofactor synthesis 1, ADPGK  -  adp-dependent glucokinase, ABCG1  -  atp-binding cassette, sub-family g (white), member 1, TRNT1  -  trna nucleotidyl transferase, cca-adding, 1, MOS  -  v-mos moloney murine sarcoma viral oncogene homolog, SCCPDH  -  saccharopine dehydrogenase (putative), MOV10  -  mov10, moloney leukemia virus 10, homolog (mouse), ABHD5  -  abhydrolase domain containing 5, MPG  -  n-methylpurine-dna glycosylase, MPI  -  mannose phosphate isomerase, PUS7L  -  pseudouridylate synthase 7 homolog (s. cerevisiae)-like, RGS6  -  regulator of g-protein signaling 6, MECR  -  mitochondrial trans-2-enoyl-coa reductase, MPP1  -  membrane protein, palmitoylated 1, 55kda, TFB1M  -  transcription factor b1, mitochondrial, MPST  -  mercaptopyruvate sulfurtransferase, GLT8D2  -  glycosyltransferase 8 domain containing 2, LACTB2  -  lactamase, beta 2, MRE11A  -  mre11 meiotic recombination 11 homolog a (s. cerevisiae), SUV420H1  -  suppressor of variegation 4-20 homolog 1 (drosophila), DOHH  -  deoxyhypusine hydroxylase/monooxygenase, MLKL  -  mixed lineage kinase domain-like, ABCC1  -  atp-binding cassette, sub-family c (cftr/mrp), member 1, ZDHHC9  -  zinc finger, dhhc-type containing 9, DDX59  -  dead (asp-glu-ala-asp) box polypeptide 59, IKBKE  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase epsilon, ACSF3  -  acyl-coa synthetase family member 3, MICAL2  -  microtubule associated monooxygenase, calponin and lim domain containing 2, PPM1F  -  protein phosphatase, mg2+/mn2+ dependent, 1f, </t>
-  </si>
-  <si>
-    <t>SMCE1  -  non-smc element 1 homolog (s. cerevisiae), CHST9  -  carbohydrate (n-acetylgalactosamine 4-0) sulfotransferase 9, HS2ST1  -  heparan sulfate 2-o-sulfotransferase 1, TTLL4  -  tubulin tyrosine ligase-like family, member 4, UCK1  -  uridine-cytidine kinase 1, LPIN2  -  lipin 2, IRAK4  -  interleukin-1 receptor-associated kinase 4, RNFT1  -  ring finger protein, transmembrane 1, COPS4  -  cop9 signalosome subunit 4, EIF5B  -  eukaryotic translation initiation factor 5b, DYNC1LI1  -  dynein, cytoplasmic 1, light intermediate chain 1, HSD17B12  -  hydroxysteroid (17-beta) dehydrogenase 12, A4GNT  -  alpha-1,4-n-acetylglucosaminyltransferase, PPIP5K1  -  diphosphoinositol pentakisphosphate kinase 1, PHF14  -  phd finger protein 14, KDM4A  -  lysine (k)-specific demethylase 4a, DBR1  -  debranching rna lariats 1, MYO1B  -  myosin ib, UBE3C  -  ubiquitin protein ligase e3c, AADAT  -  aminoadipate aminotransferase, KIAA0391  -  kiaa0391, CYB5R4  -  cytochrome b5 reductase 4, MYO15A  -  myosin xva, MSH2  -  muts homolog 2, colon cancer, nonpolyposis type 1 (e. coli), PLD5  -  phospholipase d family, member 5, DYNLRB2  -  dynein, light chain, roadblock-type 2, EDEM1  -  er degradation enhancer, mannosidase alpha-like 1, MSH4  -  muts homolog 4 (e. coli), TUBD1  -  tubulin, delta 1, MSH5  -  muts homolog 5 (e. coli), PARP9  -  poly (adp-ribose) polymerase family, member 9, ESPL1  -  extra spindle pole bodies homolog 1 (s. cerevisiae), HAO2  -  hydroxyacid oxidase 2 (long chain), IBA57  -  iba57, iron-sulfur cluster assembly homolog (s. cerevisiae), HSPA14  -  heat shock 70kda protein 14, GPN3  -  gpn-loop gtpase 3, RNF215  -  ring finger protein 215, ULK2  -  unc-51 like autophagy activating kinase 2, HERC5  -  hect and rld domain containing e3 ubiquitin protein ligase 5, AQR  -  aquarius homolog (mouse), PLCE1  -  phospholipase c, epsilon 1, ECE2  -  endothelin converting enzyme 2, ADAMTSL2  -  adamts-like 2, APLF  -  aprataxin and pnkp like factor, ZDHHC2  -  zinc finger, dhhc-type containing 2, DDX47  -  dead (asp-glu-ala-asp) box polypeptide 47, PIKFYVE  -  phosphoinositide kinase, fyve finger containing, RIOK1  -  rio kinase 1, ITCH  -  itchy e3 ubiquitin protein ligase, DUSP13  -  dual specificity phosphatase 13, VPRBP  -  vpr (hiv-1) binding protein, GLRX5  -  glutaredoxin 5, HDAC9  -  histone deacetylase 9, LONP2  -  lon peptidase 2, peroxisomal, LIPH  -  lipase, member h, USP34  -  ubiquitin specific peptidase 34, PIGP  -  phosphatidylinositol glycan anchor biosynthesis, class p, MTHFD1  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1, methenyltetrahydrofolate cyclohydrolase, formyltetrahydrofolate synthetase, VRK3  -  vaccinia related kinase 3, CRIM1  -  cysteine rich transmembrane bmp regulator 1 (chordin-like), MTHFR  -  methylenetetrahydrofolate reductase (nad(p)h), MTIF2  -  mitochondrial translational initiation factor 2, DHRS7C  -  dehydrogenase/reductase (sdr family) member 7c, SLK  -  ste20-like kinase, SETDB2  -  set domain, bifurcated 2, CENPV  -  centromere protein v, TMTC1  -  transmembrane and tetratricopeptide repeat containing 1, NT5C3A  -  5'-nucleotidase, cytosolic iiia, MTR  -  5-methyltetrahydrofolate-homocysteine methyltransferase, MTRR  -  5-methyltetrahydrofolate-homocysteine methyltransferase reductase, NCF1  -  neutrophil cytosolic factor 1, RAB12  -  rab12, member ras oncogene family, EIF4A3  -  eukaryotic translation initiation factor 4a3, PTPLB  -  protein tyrosine phosphatase-like (proline instead of catalytic arginine), member b, STT3B  -  stt3b, subunit of the oligosaccharyltransferase complex (catalytic), DNAJC27  -  dnaj (hsp40) homolog, subfamily c, member 27, RNF144A  -  ring finger protein 144a, PDE12  -  phosphodiesterase 12, DHX38  -  deah (asp-glu-ala-his) box polypeptide 38, BFAR  -  bifunctional apoptosis regulator, RASL12  -  ras-like, family 12, SPCS2  -  signal peptidase complex subunit 2 homolog (s. cerevisiae), BMS1  -  bms1 ribosome biogenesis factor, PTDSS1  -  phosphatidylserine synthase 1, CKAP5  -  cytoskeleton associated protein 5, TRIM37  -  tripartite motif containing 37, GSG2  -  germ cell associated 2 (haspin), MUTYH  -  muty homolog (e. coli), SPRTN  -  sprt-like n-terminal domain, HDAC10  -  histone deacetylase 10, SCRN1  -  secernin 1, MVK  -  mevalonate kinase, MX1  -  myxovirus (influenza virus) resistance 1, interferon-inducible protein p78 (mouse), IP6K1  -  inositol hexakisphosphate kinase 1, CYP39A1  -  cytochrome p450, family 39, subfamily a, polypeptide 1, TATDN1  -  tatd dnase domain containing 1, ZDHHC3  -  zinc finger, dhhc-type containing 3, TSSK1B  -  testis-specific serine kinase 1b, STK32A  -  serine/threonine kinase 32a, BRIP1  -  brca1 interacting protein c-terminal helicase 1, DNAJC6  -  dnaj (hsp40) homolog, subfamily c, member 6, PRSS55  -  protease, serine, 55, MYH4  -  myosin, heavy chain 4, skeletal muscle, MYH6  -  myosin, heavy chain 6, cardiac muscle, alpha, TMPRSS13  -  transmembrane protease, serine 13, MELK  -  maternal embryonic leucine zipper kinase, MYH9  -  myosin, heavy chain 9, non-muscle, LCMT2  -  leucine carboxyl methyltransferase 2, MYH10  -  myosin, heavy chain 10, non-muscle, MYH11  -  myosin, heavy chain 11, smooth muscle, KATNAL1  -  katanin p60 subunit a-like 1, HEPH  -  hephaestin, MYLK  -  myosin light chain kinase, TAOK3  -  tao kinase 3, MYO1C  -  myosin ic, MYO1D  -  myosin id, MYO1E  -  myosin ie, PLA2G4B  -  phospholipase a2, group ivb (cytosolic), MYO5A  -  myosin va (heavy chain 12, myoxin), JMJD7  -  jumonji domain containing 7, MBTPS2  -  membrane-bound transcription factor peptidase, site 2, MYO6  -  myosin vi, MYO7A  -  myosin viia, MYO9A  -  myosin ixa, CHST15  -  carbohydrate (n-acetylgalactosamine 4-sulfate 6-o) sulfotransferase 15, MYO9B  -  myosin ixb, PLA1A  -  phospholipase a1 member a, MYO10  -  myosin x, UBR5  -  ubiquitin protein ligase e3 component n-recognin 5, CERS3  -  ceramide synthase 3, SETDB1  -  set domain, bifurcated 1, ZRANB3  -  zinc finger, ran-binding domain containing 3, PDILT  -  protein disulfide isomerase-like, testis expressed, FBXO30  -  f-box protein 30, UCHL5  -  ubiquitin carboxyl-terminal hydrolase l5, HIPK1  -  homeodomain interacting protein kinase 1, NAGA  -  n-acetylgalactosaminidase, alpha-, DDX46  -  dead (asp-glu-ala-asp) box polypeptide 46, NAGLU  -  n-acetylglucosaminidase, alpha, SENP5  -  sumo1/sentrin specific peptidase 5, ARL6  -  adp-ribosylation factor-like 6, USP44  -  ubiquitin specific peptidase 44, RHOBTB1  -  rho-related btb domain containing 1, PPME1  -  protein phosphatase methylesterase 1, HEMK1  -  hemk methyltransferase family member 1, FIG4  -  fig4 homolog, sac1 lipid phosphatase domain containing (s. cerevisiae), ACAD11  -  acyl-coa dehydrogenase family, member 11, NCF2  -  neutrophil cytosolic factor 2, NCF4  -  neutrophil cytosolic factor 4, 40kda, DDX41  -  dead (asp-glu-ala-asp) box polypeptide 41, USP42  -  ubiquitin specific peptidase 42, ZNRF3  -  zinc and ring finger 3, USP12  -  ubiquitin specific peptidase 12, NDUFA5  -  nadh dehydrogenase (ubiquinone) 1 alpha subcomplex, 5, NDUFA6  -  nadh dehydrogenase (ubiquinone) 1 alpha subcomplex, 6, 14kda, RNF138  -  ring finger protein 138, e3 ubiquitin protein ligase, IP6K2  -  inositol hexakisphosphate kinase 2, NDUFA8  -  nadh dehydrogenase (ubiquinone) 1 alpha subcomplex, 8, 19kda, PCYOX1  -  prenylcysteine oxidase 1, SUPT7L  -  suppressor of ty 7 (s. cerevisiae)-like, ATP2C2  -  atpase, ca++ transporting, type 2c, member 2, NDUFA9  -  nadh dehydrogenase (ubiquinone) 1 alpha subcomplex, 9, 39kda, LCMT1  -  leucine carboxyl methyltransferase 1, NDUFA10  -  nadh dehydrogenase (ubiquinone) 1 alpha subcomplex, 10, 42kda, FAM20B  -  family with sequence similarity 20, member b, REV1  -  rev1, polymerase (dna directed), RNF10  -  ring finger protein 10, NDUFB4  -  nadh dehydrogenase (ubiquinone) 1 beta subcomplex, 4, 15kda, NDUFB5  -  nadh dehydrogenase (ubiquinone) 1 beta subcomplex, 5, 16kda, POLR1B  -  polymerase (rna) i polypeptide b, 128kda, PAN2  -  pan2 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), NDUFB8  -  nadh dehydrogenase (ubiquinone) 1 beta subcomplex, 8, 19kda, LPGAT1  -  lysophosphatidylglycerol acyltransferase 1, NDUFB9  -  nadh dehydrogenase (ubiquinone) 1 beta subcomplex, 9, 22kda, MFN2  -  mitofusin 2, CHD6  -  chromodomain helicase dna binding protein 6, KIF14  -  kinesin family member 14, HSD17B7  -  hydroxysteroid (17-beta) dehydrogenase 7, JOSD1  -  josephin domain containing 1, HELZ  -  helicase with zinc finger, NDUFS1  -  nadh dehydrogenase (ubiquinone) fe-s protein 1, 75kda (nadh-coenzyme q reductase), FAR1  -  fatty acyl coa reductase 1, NDUFS3  -  nadh dehydrogenase (ubiquinone) fe-s protein 3, 30kda (nadh-coenzyme q reductase), RTCB  -  rna 2',3'-cyclic phosphate and 5'-oh ligase, DCLRE1A  -  dna cross-link repair 1a, PTPLAD1  -  protein tyrosine phosphatase-like a domain containing 1, SETD3  -  set domain containing 3, NDUFS6  -  nadh dehydrogenase (ubiquinone) fe-s protein 6, 13kda (nadh-coenzyme q reductase), USP48  -  ubiquitin specific peptidase 48, NDUFV2  -  nadh dehydrogenase (ubiquinone) flavoprotein 2, 24kda, EXOG  -  endo/exonuclease (5'-3'), endonuclease g-like, XYLB  -  xylulokinase homolog (h. influenzae), NDUFV3  -  nadh dehydrogenase (ubiquinone) flavoprotein 3, 10kda, DRG1  -  developmentally regulated gtp binding protein 1, GFPT2  -  glutamine-fructose-6-phosphate transaminase 2, NEDD4  -  neural precursor cell expressed, developmentally down-regulated 4, e3 ubiquitin protein ligase, CRYZL1  -  crystallin, zeta (quinone reductase)-like 1, DTL  -  denticleless e3 ubiquitin protein ligase homolog (drosophila), HS3ST4  -  heparan sulfate (glucosamine) 3-o-sulfotransferase 4, HS3ST3B1  -  heparan sulfate (glucosamine) 3-o-sulfotransferase 3b1, LARS  -  leucyl-trna synthetase, HS3ST1  -  heparan sulfate (glucosamine) 3-o-sulfotransferase 1, NEK1  -  nima-related kinase 1, USP15  -  ubiquitin specific peptidase 15, NEK2  -  nima-related kinase 2, NEK3  -  nima-related kinase 3, TRAF7  -  tnf receptor-associated factor 7, e3 ubiquitin protein ligase, NEU2  -  sialidase 2 (cytosolic sialidase), RHBDD1  -  rhomboid domain containing 1, SCLY  -  selenocysteine lyase, ZDHHC18  -  zinc finger, dhhc-type containing 18, SIRT6  -  sirtuin 6, RBX1  -  ring-box 1, e3 ubiquitin protein ligase, CAMKK1  -  calcium/calmodulin-dependent protein kinase kinase 1, alpha, NT5DC3  -  5'-nucleotidase domain containing 3, HDAC7  -  histone deacetylase 7, PPP4R1  -  protein phosphatase 4, regulatory subunit 1, HAGHL  -  hydroxyacylglutathione hydrolase-like, GDE1  -  glycerophosphodiester phosphodiesterase 1, NFX1  -  nuclear transcription factor, x-box binding 1, AKT3  -  v-akt murine thymoma viral oncogene homolog 3, AZIN1  -  antizyme inhibitor 1, NAALAD2  -  n-acetylated alpha-linked acidic dipeptidase 2, PIAS4  -  protein inhibitor of activated stat, 4, ACOT8  -  acyl-coa thioesterase 8, COQ5  -  coenzyme q5 homolog, methyltransferase (s. cerevisiae), GNPDA1  -  glucosamine-6-phosphate deaminase 1, LIPT1  -  lipoyltransferase 1, TANK  -  traf family member-associated nfkb activator, TRMT6  -  trna methyltransferase 6 homolog (s. cerevisiae), ATP6V1H  -  atpase, h+ transporting, lysosomal 50/57kda, v1 subunit h, NTPCR  -  nucleoside-triphosphatase, cancer-related, DPH5  -  diphthamide biosynthesis 5, NKTR  -  natural killer-tumor recognition sequence, ZDHHC16  -  zinc finger, dhhc-type containing 16, DYNC2LI1  -  dynein, cytoplasmic 2, light intermediate chain 1, MED16  -  mediator complex subunit 16, PIGK  -  phosphatidylinositol glycan anchor biosynthesis, class k, OTUD6B  -  otu domain containing 6b, DHRS7  -  dehydrogenase/reductase (sdr family) member 7, NME4  -  nme/nm23 nucleoside diphosphate kinase 4, NQO2  -  nad(p)h dehydrogenase, quinone 2, RNF152  -  ring finger protein 152, NMT1  -  n-myristoyltransferase 1, NOS1  -  nitric oxide synthase 1 (neuronal), NOS2  -  nitric oxide synthase 2, inducible, PTRH2  -  peptidyl-trna hydrolase 2, CNOT2  -  ccr4-not transcription complex, subunit 2, CDK5RAP1  -  cdk5 regulatory subunit associated protein 1, CNOT4  -  ccr4-not transcription complex, subunit 4, RASD1  -  ras, dexamethasone-induced 1, STYXL1  -  serine/threonine/tyrosine interacting-like 1, UBA2  -  ubiquitin-like modifier activating enzyme 2, ASB1  -  ankyrin repeat and socs box containing 1, FARSB  -  phenylalanyl-trna synthetase, beta subunit, ASB4  -  ankyrin repeat and socs box containing 4, ABCC5  -  atp-binding cassette, sub-family c (cftr/mrp), member 5, ABCB6  -  atp-binding cassette, sub-family b (mdr/tap), member 6, PNP  -  purine nucleoside phosphorylase, DNM1L  -  dynamin 1-like, JMJD1C  -  jumonji domain containing 1c, CPSF3  -  cleavage and polyadenylation specific factor 3, 73kda, NSUN6  -  nop2/sun domain family, member 6, CYB5R2  -  cytochrome b5 reductase 2, NLK  -  nemo-like kinase, PTPRU  -  protein tyrosine phosphatase, receptor type, u, ALKBH3  -  alkb, alkylation repair homolog 3 (e. coli), ACSL5  -  acyl-coa synthetase long-chain family member 5, NPR2  -  natriuretic peptide receptor b/guanylate cyclase b (atrionatriuretic peptide receptor b), RAB23  -  rab23, member ras oncogene family, CARD11  -  caspase recruitment domain family, member 11, FBXO40  -  f-box protein 40, CMPK1  -  cytidine monophosphate (ump-cmp) kinase 1, cytosolic, AK9  -  adenylate kinase 9, NT5DC1  -  5'-nucleotidase domain containing 1, HHIPL1  -  hhip-like 1, UPB1  -  ureidopropionase, beta, DOT1L  -  dot1-like histone h3k79 methyltransferase, WWOX  -  ww domain containing oxidoreductase, NSF  -  n-ethylmaleimide-sensitive factor, NT5E  -  5'-nucleotidase, ecto (cd73), RTEL1  -  regulator of telomere elongation helicase 1, CDK12  -  cyclin-dependent kinase 12, NTHL1  -  nth endonuclease iii-like 1 (e. coli), RAD50  -  rad50 homolog (s. cerevisiae), ATP8A2  -  atpase, aminophospholipid transporter, class i, type 8a, member 2, KIF20A  -  kinesin family member 20a, NTRK3  -  neurotrophic tyrosine kinase, receptor, type 3, OARD1  -  o-acyl-adp-ribose deacylase 1, RAB8B  -  rab8b, member ras oncogene family, INPP5K  -  inositol polyphosphate-5-phosphatase k, KIF6  -  kinesin family member 6, SLX4  -  slx4 structure-specific endonuclease subunit, DDR2  -  discoidin domain receptor tyrosine kinase 2, KDM3B  -  lysine (k)-specific demethylase 3b, DNAL4  -  dynein, axonemal, light chain 4, NUP98  -  nucleoporin 98kda, COQ3  -  coenzyme q3 methyltransferase, GHDC  -  gh3 domain containing, MCM8  -  minichromosome maintenance complex component 8, NVL  -  nuclear vcp-like, PDIA6  -  protein disulfide isomerase family a, member 6, KDM1B  -  lysine (k)-specific demethylase 1b, GALNT7  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 7 (galnac-t7), CECR1  -  cat eye syndrome chromosome region, candidate 1, RNF182  -  ring finger protein 182, NAMPT  -  nicotinamide phosphoribosyltransferase, ARFRP1  -  adp-ribosylation factor related protein 1, OAT  -  ornithine aminotransferase, ACSS1  -  acyl-coa synthetase short-chain family member 1, G3BP1  -  gtpase activating protein (sh3 domain) binding protein 1, OCRL  -  oculocerebrorenal syndrome of lowe, ODC1  -  ornithine decarboxylase 1, AASS  -  aminoadipate-semialdehyde synthase, OGDH  -  oxoglutarate (alpha-ketoglutarate) dehydrogenase (lipoamide), OGG1  -  8-oxoguanine dna glycosylase, DAGLB  -  diacylglycerol lipase, beta, LPCAT3  -  lysophosphatidylcholine acyltransferase 3, GNPTG  -  n-acetylglucosamine-1-phosphate transferase, gamma subunit, ADAM22  -  adam metallopeptidase domain 22, OPA1  -  optic atrophy 1 (autosomal dominant), BCMO1  -  beta-carotene 15,15'-monooxygenase 1, NT5C1A  -  5'-nucleotidase, cytosolic ia, ST6GAL2  -  st6 beta-galactosamide alpha-2,6-sialyltranferase 2, DHRS9  -  dehydrogenase/reductase (sdr family) member 9, RSBN1L  -  round spermatid basic protein 1-like, NAPEPLD  -  n-acyl phosphatidylethanolamine phospholipase d, TTBK1  -  tau tubulin kinase 1, FGFRL1  -  fibroblast growth factor receptor-like 1, ORC1  -  origin recognition complex, subunit 1, TNK2  -  tyrosine kinase, non-receptor, 2, USP38  -  ubiquitin specific peptidase 38, HS3ST5  -  heparan sulfate (glucosamine) 3-o-sulfotransferase 5, MYO3A  -  myosin iiia, RNF41  -  ring finger protein 41, PLA2G12B  -  phospholipase a2, group xiib, PRMT3  -  protein arginine methyltransferase 3, DGAT2  -  diacylglycerol o-acyltransferase 2, OTC  -  ornithine carbamoyltransferase, NME6  -  nme/nm23 nucleoside diphosphate kinase 6, CSNK1G1  -  casein kinase 1, gamma 1, A4GALT  -  alpha 1,4-galactosyltransferase, USPL1  -  ubiquitin specific peptidase like 1]</t>
-  </si>
-  <si>
     <t>GO:0005524</t>
   </si>
   <si>
     <t>ATP binding</t>
   </si>
   <si>
-    <t>[P2RX4  -  purinergic receptor p2x, ligand-gated ion channel, 4, P2RX5  -  purinergic receptor p2x, ligand-gated ion channel, 5, TRPV1  -  transient receptor potential cation channel, subfamily v, member 1, VRK1  -  vaccinia related kinase 1, VRK2  -  vaccinia related kinase 2, P2RY4  -  pyrimidinergic receptor p2y, g-protein coupled, 4, MAPK15  -  mitogen-activated protein kinase 15, LRGUK  -  leucine-rich repeats and guanylate kinase domain containing, PEBP1  -  phosphatidylethanolamine binding protein 1, ABCA2  -  atp-binding cassette, sub-family a (abc1), member 2, ABCA3  -  atp-binding cassette, sub-family a (abc1), member 3, ABCB7  -  atp-binding cassette, sub-family b (mdr/tap), member 7, ABCA4  -  atp-binding cassette, sub-family a (abc1), member 4, ABL1  -  c-abl oncogene 1, non-receptor tyrosine kinase, AK5  -  adenylate kinase 5, KIF13A  -  kinesin family member 13a, WEE1  -  wee1 homolog (s. pombe), ACACA  -  acetyl-coa carboxylase alpha, ACACB  -  acetyl-coa carboxylase beta, PAK1  -  p21 protein (cdc42/rac)-activated kinase 1, FIGNL1  -  fidgetin-like 1, PAK2  -  p21 protein (cdc42/rac)-activated kinase 2, MYO18B  -  myosin xviiib, PAK3  -  p21 protein (cdc42/rac)-activated kinase 3, ACLY  -  atp citrate lyase, FYN  -  fyn oncogene related to src, fgr, yes, RBKS  -  ribokinase, ABCC4  -  atp-binding cassette, sub-family c (cftr/mrp), member 4, MCCC2  -  methylcrotonoyl-coa carboxylase 2 (beta), ACTA1  -  actin, alpha 1, skeletal muscle, RIPK4  -  receptor-interacting serine-threonine kinase 4, XRCC6  -  x-ray repair complementing defective repair in chinese hamster cells 6, PCCA  -  propionyl coa carboxylase, alpha polypeptide, PCCB  -  propionyl coa carboxylase, beta polypeptide, ACTG2  -  actin, gamma 2, smooth muscle, enteric, XRCC2  -  x-ray repair complementing defective repair in chinese hamster cells 2, XRCC3  -  x-ray repair complementing defective repair in chinese hamster cells 3, XRCC5  -  x-ray repair complementing defective repair in chinese hamster cells 5 (double-strand-break rejoining), YES1  -  v-yes-1 yamaguchi sarcoma viral oncogene homolog 1, FN3K  -  fructosamine 3 kinase, SPEG  -  speg complex locus, ACVR1  -  activin a receptor, type i, LATS2  -  large tumor suppressor kinase 2, DNAJA2  -  dnaj (hsp40) homolog, subfamily a, member 2, ACVR2B  -  activin a receptor, type iib, CDK17  -  cyclin-dependent kinase 17, CDK18  -  cyclin-dependent kinase 18, ZAP70  -  zeta-chain (tcr) associated protein kinase 70kda, ABCG4  -  atp-binding cassette, sub-family g (white), member 4, KIF9  -  kinesin family member 9, GALK1  -  galactokinase 1, GALK2  -  galactokinase 2, ADCY1  -  adenylate cyclase 1 (brain), ADCY2  -  adenylate cyclase 2 (brain), ADCY3  -  adenylate cyclase 3, ADCY5  -  adenylate cyclase 5, ADCY7  -  adenylate cyclase 7, ADCY8  -  adenylate cyclase 8 (brain), ADCY9  -  adenylate cyclase 9, PDGFRA  -  platelet-derived growth factor receptor, alpha polypeptide, GART  -  phosphoribosylglycinamide formyltransferase, phosphoribosylglycinamide synthetase, phosphoribosylaminoimidazole synthetase, PDGFRB  -  platelet-derived growth factor receptor, beta polypeptide, MOV10L1  -  mov10l1, moloney leukemia virus 10-like 1, homolog (mouse), ABCG5  -  atp-binding cassette, sub-family g (white), member 5, PDK3  -  pyruvate dehydrogenase kinase, isozyme 3, ABCG8  -  atp-binding cassette, sub-family g (white), member 8, PDK4  -  pyruvate dehydrogenase kinase, isozyme 4, IPMK  -  inositol polyphosphate multikinase, FBXO18  -  f-box protein, helicase, 18, ADRBK1  -  adrenergic, beta, receptor kinase 1, ATAD1  -  atpase family, aaa domain containing 1, ADRBK2  -  adrenergic, beta, receptor kinase 2, PEX1  -  peroxisomal biogenesis factor 1, PEX6  -  peroxisomal biogenesis factor 6, MPP5  -  membrane protein, palmitoylated 5 (maguk p55 subfamily member 5), PFKFB2  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 2, PFKFB3  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 3, PFKFB4  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 4, NOD1  -  nucleotide-binding oligomerization domain containing 1, PFKL  -  phosphofructokinase, liver, RPS6KC1  -  ribosomal protein s6 kinase, 52kda, polypeptide 1, PFKP  -  phosphofructokinase, platelet, CDK14  -  cyclin-dependent kinase 14, NMNAT3  -  nicotinamide nucleotide adenylyltransferase 3, AK2  -  adenylate kinase 2, AK4  -  adenylate kinase 4, TTLL10  -  tubulin tyrosine ligase-like family, member 10, AKT1  -  v-akt murine thymoma viral oncogene homolog 1, ABCB1  -  atp-binding cassette, sub-family b (mdr/tap), member 1, TESK2  -  testis-specific kinase 2, DDX49  -  dead (asp-glu-ala-asp) box polypeptide 49, GK  -  glycerol kinase, MCM9  -  minichromosome maintenance complex component 9, ABCD2  -  atp-binding cassette, sub-family d (ald), member 2, PHKG1  -  phosphorylase kinase, gamma 1 (muscle), ALK  -  anaplastic lymphoma receptor tyrosine kinase, GCLC  -  glutamate-cysteine ligase, catalytic subunit, INO80  -  ino80 complex subunit, MERTK  -  c-mer proto-oncogene tyrosine kinase, GLUD1  -  glutamate dehydrogenase 1, PIK3C2A  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 alpha, PIK3C2B  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 beta, PIK3C2G  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 gamma, PIK3CA  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit alpha, PIK3CB  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit beta, GLUL  -  glutamate-ammonia ligase, PIK3CD  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit delta, PIK3CG  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit gamma, PI4KB  -  phosphatidylinositol 4-kinase, catalytic, beta, UBE2E3  -  ubiquitin-conjugating enzyme e2e 3, IPPK  -  inositol 1,3,4,5,6-pentakisphosphate 2-kinase, PIP4K2A  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, alpha, CERK  -  ceramide kinase, PKM  -  pyruvate kinase, muscle, STK25  -  serine/threonine kinase 25, DDX31  -  dead (asp-glu-ala-asp) box polypeptide 31, MAPKAPK3  -  mitogen-activated protein kinase-activated protein kinase 3, CHORDC1  -  cysteine and histidine-rich domain (chord) containing 1, NMNAT1  -  nicotinamide nucleotide adenylyltransferase 1, APAF1  -  apoptotic peptidase activating factor 1, DDX17  -  dead (asp-glu-ala-asp) box helicase 17, MYLK2  -  myosin light chain kinase 2, HYOU1  -  hypoxia up-regulated 1, PAN3  -  pan3 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), STK35  -  serine/threonine kinase 35, PLK1  -  polo-like kinase 1, TPK1  -  thiamin pyrophosphokinase 1, MLH3  -  mutl homolog 3 (e. coli), ATP2C1  -  atpase, ca++ transporting, type 2c, member 1, TRIT1  -  trna isopentenyltransferase 1, HELZ2  -  helicase with zinc finger 2, transcriptional coactivator, DCLK3  -  doublecortin-like kinase 3, ERCC6L  -  excision repair cross-complementing rodent repair deficiency, complementation group 6-like, TRPM7  -  transient receptor potential cation channel, subfamily m, member 7, PMS2  -  pms2 postmeiotic segregation increased 2 (s. cerevisiae), ABCC6  -  atp-binding cassette, sub-family c (cftr/mrp), member 6, CCT7  -  chaperonin containing tcp1, subunit 7 (eta), CCT4  -  chaperonin containing tcp1, subunit 4 (delta), CCT2  -  chaperonin containing tcp1, subunit 2 (beta), MTHFS  -  5,10-methenyltetrahydrofolate synthetase (5-formyltetrahydrofolate cyclo-ligase), GRK4  -  g protein-coupled receptor kinase 4, GRK5  -  g protein-coupled receptor kinase 5, PINK1  -  pten induced putative kinase 1, GRK6  -  g protein-coupled receptor kinase 6, EIF2AK1  -  eukaryotic translation initiation factor 2-alpha kinase 1, CDK15  -  cyclin-dependent kinase 15, SHPRH  -  snf2 histone linker phd ring helicase, e3 ubiquitin protein ligase, SNRK  -  snf related kinase, SMC1B  -  structural maintenance of chromosomes 1b, HSPA12A  -  heat shock 70kda protein 12a, WNK1  -  wnk lysine deficient protein kinase 1, STK36  -  serine/threonine kinase 36, NADK  -  nad kinase, NAV3  -  neuron navigator 3, NAV2  -  neuron navigator 2, UBE2Z  -  ubiquitin-conjugating enzyme e2z, ABCC10  -  atp-binding cassette, sub-family c (cftr/mrp), member 10, ASNS  -  asparagine synthetase (glutamine-hydrolyzing), CAMKK2  -  calcium/calmodulin-dependent protein kinase kinase 2, beta, ASS1  -  argininosuccinate synthase 1, VPS4A  -  vacuolar protein sorting 4 homolog a (s. cerevisiae), AACS  -  acetoacetyl-coa synthetase, GSK3B  -  glycogen synthase kinase 3 beta, GSS  -  glutathione synthetase, FARS2  -  phenylalanyl-trna synthetase 2, mitochondrial, ATM  -  ataxia telangiectasia mutated, MAGI3  -  membrane associated guanylate kinase, ww and pdz domain containing 3, NMRK2  -  nicotinamide riboside kinase 2, ATP1A1  -  atpase, na+/k+ transporting, alpha 1 polypeptide, DPH6  -  diphthamine biosynthesis 6, ATP12A  -  atpase, h+/k+ transporting, nongastric, alpha polypeptide, MSH6  -  muts homolog 6 (e. coli), GTF2F2  -  general transcription factor iif, polypeptide 2, 30kda, ATP2A3  -  atpase, ca++ transporting, ubiquitous, ATP2B1  -  atpase, ca++ transporting, plasma membrane 1, CCT8  -  chaperonin containing tcp1, subunit 8 (theta), ATP2B4  -  atpase, ca++ transporting, plasma membrane 4, CAMKV  -  cam kinase-like vesicle-associated, POLQ  -  polymerase (dna directed), theta, UCKL1  -  uridine-cytidine kinase 1-like 1, YME1L1  -  yme1-like 1 atpase, GUCY2C  -  guanylate cyclase 2c (heat stable enterotoxin receptor), GUCY2F  -  guanylate cyclase 2f, retinal, GUK1  -  guanylate kinase 1, MKKS  -  mckusick-kaufman syndrome, ATP6V1A  -  atpase, h+ transporting, lysosomal 70kda, v1 subunit a, SPATA5L1  -  spermatogenesis associated 5-like 1, TTBK2  -  tau tubulin kinase 2, KIF7  -  kinesin family member 7, ATP6AP1  -  atpase, h+ transporting, lysosomal accessory protein 1, ATP7A  -  atpase, cu++ transporting, alpha polypeptide, PRKACB  -  protein kinase, camp-dependent, catalytic, beta, DDX54  -  dead (asp-glu-ala-asp) box polypeptide 54, MAP3K2  -  mitogen-activated protein kinase kinase kinase 2, ATP7B  -  atpase, cu++ transporting, beta polypeptide, ULK4  -  unc-51 like kinase 4, ATR  -  ataxia telangiectasia and rad3 related, SYN3  -  synapsin iii, ATRX  -  alpha thalassemia/mental retardation syndrome x-linked, KIF1A  -  kinesin family member 1a, ATP9B  -  atpase, class ii, type 9b, PRKCA  -  protein kinase c, alpha, PRKCB  -  protein kinase c, beta, PRKCD  -  protein kinase c, delta, PRKCE  -  protein kinase c, epsilon, RPS6KA6  -  ribosomal protein s6 kinase, 90kda, polypeptide 6, PRKCH  -  protein kinase c, eta, PKN2  -  protein kinase n2, PRKCQ  -  protein kinase c, theta, PRKCZ  -  protein kinase c, zeta, PRKDC  -  protein kinase, dna-activated, catalytic polypeptide, PRKG1  -  protein kinase, cgmp-dependent, type i, MAPK1  -  mitogen-activated protein kinase 1, MAPK6  -  mitogen-activated protein kinase 6, TOR1B  -  torsin family 1, member b (torsin b), NEK6  -  nima-related kinase 6, MAPK8  -  mitogen-activated protein kinase 8, MAPK11  -  mitogen-activated protein kinase 11, MAPK9  -  mitogen-activated protein kinase 9, MAPK10  -  mitogen-activated protein kinase 10, MAPK13  -  mitogen-activated protein kinase 13, MAP2K1  -  mitogen-activated protein kinase kinase 1, TOR2A  -  torsin family 2, member a, MAP2K6  -  mitogen-activated protein kinase kinase 6, EIF2AK2  -  eukaryotic translation initiation factor 2-alpha kinase 2, DHX58  -  dexh (asp-glu-x-his) box polypeptide 58, HCK  -  hemopoietic cell kinase, HSPH1  -  heat shock 105kda/110kda protein 1, CDC7  -  cell division cycle 7, BCR  -  breakpoint cluster region, BCS1L  -  bc1 (ubiquinol-cytochrome c reductase) synthesis-like, PRPS1  -  phosphoribosyl pyrophosphate synthetase 1, PRPS2  -  phosphoribosyl pyrophosphate synthetase 2, ADCK2  -  aarf domain containing kinase 2, BLK  -  b lymphoid tyrosine kinase, DHX57  -  deah (asp-glu-ala-asp/his) box polypeptide 57, BLM  -  bloom syndrome, recq helicase-like, CLPX  -  clpx caseinolytic peptidase x homolog (e. coli), HK2  -  hexokinase 2, ENTPD8  -  ectonucleoside triphosphate diphosphohydrolase 8, BMPR1A  -  bone morphogenetic protein receptor, type ia, PSKH1  -  protein serine kinase h1, BMPR2  -  bone morphogenetic protein receptor, type ii (serine/threonine kinase), BRAF  -  v-raf murine sarcoma viral oncogene homolog b, PSMC1  -  proteasome (prosome, macropain) 26s subunit, atpase, 1, PSMC2  -  proteasome (prosome, macropain) 26s subunit, atpase, 2, PSMC3  -  proteasome (prosome, macropain) 26s subunit, atpase, 3, PSMC5  -  proteasome (prosome, macropain) 26s subunit, atpase, 5, FIGN  -  fidgetin, HLCS  -  holocarboxylase synthetase (biotin-(proprionyl-coa-carboxylase (atp-hydrolysing)) ligase), PIP4K2B  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, beta, BTK  -  bruton agammaglobulinemia tyrosine kinase, PKDCC  -  protein kinase domain containing, cytoplasmic, BUB1  -  bub1 mitotic checkpoint serine/threonine kinase, MTPAP  -  mitochondrial poly(a) polymerase, BUB1B  -  bub1 mitotic checkpoint serine/threonine kinase b, ULK1  -  unc-51 like autophagy activating kinase 1, DARS2  -  aspartyl-trna synthetase 2, mitochondrial, PAPOLA  -  poly(a) polymerase alpha, ATP8B3  -  atpase, aminophospholipid transporter, class i, type 8b, member 3, TDRD12  -  tudor domain containing 12, RAD54L  -  rad54-like (s. cerevisiae), PTK2  -  protein tyrosine kinase 2, DYRK3  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 3, DYRK2  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 2, PTK7  -  protein tyrosine kinase 7, TWF1  -  twinfilin actin-binding protein 1, HNRNPU  -  heterogeneous nuclear ribonucleoprotein u (scaffold attachment factor a), NEK9  -  nima-related kinase 9, NADSYN1  -  nad synthetase 1, TTF2  -  transcription termination factor, rna polymerase ii, MYLK3  -  myosin light chain kinase 3, CDC42BPA  -  cdc42 binding protein kinase alpha (dmpk-like), KSR2  -  kinase suppressor of ras 2, CACNA1B  -  calcium channel, voltage-dependent, n type, alpha 1b subunit, GATC  -  glutamyl-trna(gln) amidotransferase, subunit c, ASCC3  -  activating signal cointegrator 1 complex subunit 3, MAP4K3  -  mitogen-activated protein kinase kinase kinase kinase 3, ETNK2  -  ethanolamine kinase 2, NAT10  -  n-acetyltransferase 10 (gcn5-related), PANK4  -  pantothenate kinase 4, ATP13A3  -  atpase type 13a3, PDIK1L  -  pdlim1 interacting kinase 1 like, UBA6  -  ubiquitin-like modifier activating enzyme 6, CARS2  -  cysteinyl-trna synthetase 2, mitochondrial (putative), ABCD4  -  atp-binding cassette, sub-family d (ald), member 4, KIF2C  -  kinesin family member 2c, ALDH18A1  -  aldehyde dehydrogenase 18 family, member a1, TLK2  -  tousled-like kinase 2, STRADA  -  ste20-related kinase adaptor alpha, CAMK4  -  calcium/calmodulin-dependent protein kinase iv, CAMK2A  -  calcium/calmodulin-dependent protein kinase ii alpha, DGKZ  -  diacylglycerol kinase, zeta, CAMK2D  -  calcium/calmodulin-dependent protein kinase ii delta, DGKE  -  diacylglycerol kinase, epsilon 64kda, CAMK2G  -  calcium/calmodulin-dependent protein kinase ii gamma, DGKD  -  diacylglycerol kinase, delta 130kda, ACSS3  -  acyl-coa synthetase short-chain family member 3, CARS  -  cysteinyl-trna synthetase, QRSL1  -  glutaminyl-trna synthase (glutamine-hydrolyzing)-like 1, PIM3  -  pim-3 oncogene, UBE2W  -  ubiquitin-conjugating enzyme e2w (putative), MAPKAPK5  -  mitogen-activated protein kinase-activated protein kinase 5, DNAJA1  -  dnaj (hsp40) homolog, subfamily a, member 1, RAD51  -  rad51 recombinase, RAD51C  -  rad51 paralog c, PANK3  -  pantothenate kinase 3, HSPA4  -  heat shock 70kda protein 4, CDK10  -  cyclin-dependent kinase 10, RAD51D  -  rad51 paralog d, DDX52  -  dead (asp-glu-ala-asp) box polypeptide 52, RUNX2  -  runt-related transcription factor 2, RAF1  -  v-raf-1 murine leukemia viral oncogene homolog 1, RUNX1  -  runt-related transcription factor 1, HSPA8  -  heat shock 70kda protein 8, HELB  -  helicase (dna) b, HSPA9  -  heat shock 70kda protein 9 (mortalin), PI4K2B  -  phosphatidylinositol 4-kinase type 2 beta, PDXK  -  pyridoxal (pyridoxine, vitamin b6) kinase, MKNK1  -  map kinase interacting serine/threonine kinase 1, DYNC2H1  -  dynein, cytoplasmic 2, heavy chain 1, UBE2Q2  -  ubiquitin-conjugating enzyme e2q family member 2, CASK  -  calcium/calmodulin-dependent serine protein kinase (maguk family), MARS2  -  methionyl-trna synthetase 2, mitochondrial, DHX40  -  deah (asp-glu-ala-his) box polypeptide 40, HSPD1  -  heat shock 60kda protein 1 (chaperonin), STK16  -  serine/threonine kinase 16, NLRX1  -  nlr family member x1, TTL  -  tubulin tyrosine ligase, ABCF3  -  atp-binding cassette, sub-family f (gcn20), member 3, SMC6  -  structural maintenance of chromosomes 6, RUVBL1  -  ruvb-like 1 (e. coli), CCT6A  -  chaperonin containing tcp1, subunit 6a (zeta 1), KATNA1  -  katanin p60 (atpase containing) subunit a 1, CDK13  -  cyclin-dependent kinase 13, CIT  -  citron (rho-interacting, serine/threonine kinase 21), LRRK1  -  leucine-rich repeat kinase 1, NOL9  -  nucleolar protein 9, IARS  -  isoleucyl-trna synthetase, DNAH17  -  dynein, axonemal, heavy chain 17, KIF3A  -  kinesin family member 3a, RECQL  -  recq protein-like (dna helicase q1-like), TBCK  -  tbc1 domain containing kinase, ABCB11  -  atp-binding cassette, sub-family b (mdr/tap), member 11, NARS2  -  asparaginyl-trna synthetase 2, mitochondrial (putative), DMC1  -  dna meiotic recombinase 1, UPF1  -  upf1 regulator of nonsense transcripts homolog (yeast), BBS10  -  bardet-biedl syndrome 10, RET  -  ret proto-oncogene, TTLL7  -  tubulin tyrosine ligase-like family, member 7, RFC1  -  replication factor c (activator 1) 1, 145kda, RFC2  -  replication factor c (activator 1) 2, 40kda, STRADB  -  ste20-related kinase adaptor beta, FICD  -  fic domain containing, RFC4  -  replication factor c (activator 1) 4, 37kda, ENTPD1  -  ectonucleoside triphosphate diphosphohydrolase 1, ENTPD2  -  ectonucleoside triphosphate diphosphohydrolase 2, IDE  -  insulin-degrading enzyme, ENTPD3  -  ectonucleoside triphosphate diphosphohydrolase 3, NEK8  -  nima-related kinase 8, DNAJA4  -  dnaj (hsp40) homolog, subfamily a, member 4, EIF2AK4  -  eukaryotic translation initiation factor 2 alpha kinase 4, ETNK1  -  ethanolamine kinase 1, DDX43  -  dead (asp-glu-ala-asp) box polypeptide 43, MAP4K5  -  mitogen-activated protein kinase kinase kinase kinase 5, DNAH11  -  dynein, axonemal, heavy chain 11, ABCC3  -  atp-binding cassette, sub-family c (cftr/mrp), member 3, CHEK2  -  checkpoint kinase 2, DNAH3  -  dynein, axonemal, heavy chain 3, SBK1  -  sh3-binding domain kinase 1, RNASEL  -  ribonuclease l (2',5'-oligoisoadenylate synthetase-dependent), NEK10  -  nima-related kinase 10, DDX20  -  dead (asp-glu-ala-asp) box polypeptide 20, UBE2Q1  -  ubiquitin-conjugating enzyme e2q family member 1, CDK3  -  cyclin-dependent kinase 3, BMP2K  -  bmp2 inducible kinase, CDK5  -  cyclin-dependent kinase 5, RIPK1  -  receptor (tnfrsf)-interacting serine-threonine kinase 1, CDK6  -  cyclin-dependent kinase 6, ABCE1  -  atp-binding cassette, sub-family e (oabp), member 1, CDK8  -  cyclin-dependent kinase 8, CDK9  -  cyclin-dependent kinase 9, KIF21A  -  kinesin family member 21a, IGHMBP2  -  immunoglobulin mu binding protein 2, KIF16B  -  kinesin family member 16b, RIPK2  -  receptor-interacting serine-threonine kinase 2, RIOK3  -  rio kinase 3, ROCK1  -  rho-associated, coiled-coil containing protein kinase 1, CENPE  -  centromere protein e, 312kda, ROS1  -  c-ros oncogene 1 , receptor tyrosine kinase, CHD7  -  chromodomain helicase dna binding protein 7, UBA5  -  ubiquitin-like modifier activating enzyme 5, DCAKD  -  dephospho-coa kinase domain containing, IKBKB  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase beta, CFTR  -  cystic fibrosis transmembrane conductance regulator (atp-binding cassette sub-family c, member 7), SUCLG2  -  succinate-coa ligase, gdp-forming, beta subunit, SUCLA2  -  succinate-coa ligase, adp-forming, beta subunit, DDX27  -  dead (asp-glu-ala-asp) box polypeptide 27, DDX42  -  dead (asp-glu-ala-asp) box helicase 42, CDKL1  -  cyclin-dependent kinase-like 1 (cdc2-related kinase), CHD2  -  chromodomain helicase dna binding protein 2, SCYL2  -  scy1-like 2 (s. cerevisiae), ATAD5  -  atpase family, aaa domain containing 5, CHD4  -  chromodomain helicase dna binding protein 4, TRMU  -  trna 5-methylaminomethyl-2-thiouridylate methyltransferase, TWF2  -  twinfilin actin-binding protein 2, GMPS  -  guanine monphosphate synthase, KIF12  -  kinesin family member 12, CHKA  -  choline kinase alpha, IARS2  -  isoleucyl-trna synthetase 2, mitochondrial, KSR1  -  kinase suppressor of ras 1, ABCA13  -  atp-binding cassette, sub-family a (abc1), member 13, HELQ  -  helicase, polq-like, HSPA4L  -  heat shock 70kda protein 4-like, N4BP2  -  nedd4 binding protein 2, CKB  -  creatine kinase, brain, RPS6KA2  -  ribosomal protein s6 kinase, 90kda, polypeptide 2, RPS6KA3  -  ribosomal protein s6 kinase, 90kda, polypeptide 3, RPS6KB1  -  ribosomal protein s6 kinase, 70kda, polypeptide 1, RPS6KB2  -  ribosomal protein s6 kinase, 70kda, polypeptide 2, DDX18  -  dead (asp-glu-ala-asp) box polypeptide 18, AAK1  -  ap2 associated kinase 1, LMTK2  -  lemur tyrosine kinase 2, AGK  -  acylglycerol kinase, IRAK2  -  interleukin-1 receptor-associated kinase 2, CLCN3  -  chloride channel, voltage-sensitive 3, CLCN4  -  chloride channel, voltage-sensitive 4, PRPF4B  -  prp4 pre-mrna processing factor 4 homolog b (yeast), CLCN5  -  chloride channel, voltage-sensitive 5, CLCN6  -  chloride channel, voltage-sensitive 6, CLCN7  -  chloride channel, voltage-sensitive 7, DHX32  -  deah (asp-glu-ala-his) box polypeptide 32, CLK2  -  cdc-like kinase 2, CLK3  -  cdc-like kinase 3, RRM1  -  ribonucleotide reductase m1, MORC2  -  morc family cw-type zinc finger 2, PANK2  -  pantothenate kinase 2, MCMDC2  -  minichromosome maintenance domain containing 2, EPHA6  -  eph receptor a6, ITK  -  il2-inducible t-cell kinase, ABCC2  -  atp-binding cassette, sub-family c (cftr/mrp), member 2, DHX30  -  deah (asp-glu-ala-his) box helicase 30, ITPK1  -  inositol-tetrakisphosphate 1-kinase, ITPKA  -  inositol-trisphosphate 3-kinase a, ITPKB  -  inositol-trisphosphate 3-kinase b, AK8  -  adenylate kinase 8, PIF1  -  pif1 5'-to-3' dna helicase, MAP3K19  -  mitogen-activated protein kinase kinase kinase 19, TTLL11  -  tubulin tyrosine ligase-like family, member 11, JAK1  -  janus kinase 1, KALRN  -  kalirin, rhogef kinase, SEPHS1  -  selenophosphate synthetase 1, CDKL2  -  cyclin-dependent kinase-like 2 (cdc2-related kinase), ACSM3  -  acyl-coa synthetase medium-chain family member 3, MAPK12  -  mitogen-activated protein kinase 12, MAP3K14  -  mitogen-activated protein kinase kinase kinase 14, BRSK2  -  br serine/threonine kinase 2, CCT5  -  chaperonin containing tcp1, subunit 5 (epsilon), BAZ1B  -  bromodomain adjacent to zinc finger domain, 1b, UBA3  -  ubiquitin-like modifier activating enzyme 3, MYO19  -  myosin xix, KCNJ1  -  potassium inwardly-rectifying channel, subfamily j, member 1, BTAF1  -  btaf1 rna polymerase ii, b-tfiid transcription factor-associated, 170kda, SCN8A  -  sodium channel, voltage gated, type viii, alpha subunit, KCNJ8  -  potassium inwardly-rectifying channel, subfamily j, member 8, HKDC1  -  hexokinase domain containing 1, CHD9  -  chromodomain helicase dna binding protein 9, MB21D1  -  mab-21 domain containing 1, PAPSS1  -  3'-phosphoadenosine 5'-phosphosulfate synthase 1, MAP3K6  -  mitogen-activated protein kinase kinase kinase 6, ALPK1  -  alpha-kinase 1, MAP3K8  -  mitogen-activated protein kinase kinase kinase 8, STK38L  -  serine/threonine kinase 38 like, ACSS2  -  acyl-coa synthetase short-chain family member 2, KDR  -  kinase insert domain receptor (a type iii receptor tyrosine kinase), KIF2A  -  kinesin heavy chain member 2a, KIF3C  -  kinesin family member 3c, LANCL2  -  lanc lantibiotic synthetase component c-like 2 (bacterial), KIF5B  -  kinesin family member 5b, KIF5C  -  kinesin family member 5c, KIFC3  -  kinesin family member c3, MYO16  -  myosin xvi, DNAJA3  -  dnaj (hsp40) homolog, subfamily a, member 3, MAST3  -  microtubule associated serine/threonine kinase 3, MYO5C  -  myosin vc, MAP3K15  -  mitogen-activated protein kinase kinase kinase 15, KIT  -  v-kit hardy-zuckerman 4 feline sarcoma viral oncogene homolog, TNIK  -  traf2 and nck interacting kinase, KIF21B  -  kinesin family member 21b, LATS1  -  large tumor suppressor kinase 1, SMG1  -  smg1 phosphatidylinositol 3-kinase-related kinase, CPS1  -  carbamoyl-phosphate synthase 1, mitochondrial, DGKH  -  diacylglycerol kinase, eta, KIF11  -  kinesin family member 11, NMNAT2  -  nicotinamide nucleotide adenylyltransferase 2, KIF25  -  kinesin family member 25, SMC3  -  structural maintenance of chromosomes 3, P2RX6  -  purinergic receptor p2x, ligand-gated ion channel, 6, SETX  -  senataxin, UBE2T  -  ubiquitin-conjugating enzyme e2t (putative), SWAP70  -  swap switching b-cell complex 70kda subunit, VWA8  -  von willebrand factor a domain containing 8, COASY  -  coa synthase, TTLL5  -  tubulin tyrosine ligase-like family, member 5, KIF1B  -  kinesin family member 1b, TBK1  -  tank-binding kinase 1, DGKI  -  diacylglycerol kinase, iota, SGK1  -  serum/glucocorticoid regulated kinase 1, CUL9  -  cullin 9, MAP3K13  -  mitogen-activated protein kinase kinase kinase 13, MAPK14  -  mitogen-activated protein kinase 14, ATP10B  -  atpase, class v, type 10b, AARSD1  -  alanyl-trna synthetase domain containing 1, RAD54L2  -  rad54-like 2 (s. cerevisiae), TEX14  -  testis expressed 14, CSK  -  c-src tyrosine kinase, MAST2  -  microtubule associated serine/threonine kinase 2, DCLK1  -  doublecortin-like kinase 1, CSNK1A1  -  casein kinase 1, alpha 1, HSPA12B  -  heat shock 70kd protein 12b, CSNK1E  -  casein kinase 1, epsilon, OLA1  -  obg-like atpase 1, CSNK1G2  -  casein kinase 1, gamma 2, STK31  -  serine/threonine kinase 31, CSNK2A1  -  casein kinase 2, alpha 1 polypeptide, DNAH7  -  dynein, axonemal, heavy chain 7, MAGI1  -  membrane associated guanylate kinase, ww and pdz domain containing 1, TTLL12  -  tubulin tyrosine ligase-like family, member 12, PASK  -  pas domain containing serine/threonine kinase, EEF2K  -  eukaryotic elongation factor-2 kinase, HFM1  -  hfm1, atp-dependent dna helicase homolog (s. cerevisiae), RPS6KA5  -  ribosomal protein s6 kinase, 90kda, polypeptide 5, LIG3  -  ligase iii, dna, atp-dependent, LIG4  -  ligase iv, dna, atp-dependent, TTLL9  -  tubulin tyrosine ligase-like family, member 9, MAPKAPK2  -  mitogen-activated protein kinase-activated protein kinase 2, MDN1  -  mdn1, midasin homolog (yeast), NME7  -  nme/nm23 family member 7, STK17A  -  serine/threonine kinase 17a, LIMK2  -  lim domain kinase 2, CTPS2  -  ctp synthase 2, ATP11B  -  atpase, class vi, type 11b, IP6K3  -  inositol hexakisphosphate kinase 3, ACSBG1  -  acyl-coa synthetase bubblegum family member 1, ATP11C  -  atpase, class vi, type 11c, SBK2  -  sh3-binding domain kinase family, member 2, BBS12  -  bardet-biedl syndrome 12, DCLK2  -  doublecortin-like kinase 2, NRBP1  -  nuclear receptor binding protein 1, SIK2  -  salt-inducible kinase 2, TRIP13  -  thyroid hormone receptor interactor 13, ATP11A  -  atpase, class vi, type 11a, SLC22A4  -  solute carrier family 22 (organic cation/zwitterion transporter), member 4, LONP1  -  lon peptidase 1, mitochondrial, WRNIP1  -  werner helicase interacting protein 1, DGKB  -  diacylglycerol kinase, beta 90kda, KIF3B  -  kinesin family member 3b, KIF13B  -  kinesin family member 13b, EHD4  -  eh-domain containing 4, EHD3  -  eh-domain containing 3, ACSL6  -  acyl-coa synthetase long-chain family member 6, PIK3R4  -  phosphoinositide-3-kinase, regulatory subunit 4, SMARCAD1  -  swi/snf-related, matrix-associated actin-dependent regulator of chromatin, subfamily a, containing dead/h box 1, DHX33  -  deah (asp-glu-ala-his) box polypeptide 33, MCCC1  -  methylcrotonoyl-coa carboxylase 1 (alpha), PAK6  -  p21 protein (cdc42/rac)-activated kinase 6, SMARCAL1  -  swi/snf related, matrix associated, actin dependent regulator of chromatin, subfamily a-like 1, RECQL5  -  recq protein-like 5, DHX36  -  deah (asp-glu-ala-his) box polypeptide 36, DDX51  -  dead (asp-glu-ala-asp) box polypeptide 51, MAK  -  male germ cell-associated kinase, LRRK2  -  leucine-rich repeat kinase 2, SMCHD1  -  structural maintenance of chromosomes flexible hinge domain containing 1, DDX1  -  dead (asp-glu-ala-asp) box helicase 1, DDX3X  -  dead (asp-glu-ala-asp) box helicase 3, x-linked, DDX5  -  dead (asp-glu-ala-asp) box helicase 5, MARK1  -  map/microtubule affinity-regulating kinase 1, DHX8  -  deah (asp-glu-ala-his) box polypeptide 8, MARK3  -  map/microtubule affinity-regulating kinase 3, DDX10  -  dead (asp-glu-ala-asp) box polypeptide 10, MAT1A  -  methionine adenosyltransferase i, alpha, DDX11  -  dead/h (asp-glu-ala-asp/his) box helicase 11, DHX15  -  deah (asp-glu-ala-his) box helicase 15, ABCG2  -  atp-binding cassette, sub-family g (white), member 2, PNPLA8  -  patatin-like phospholipase domain containing 8, SPAST  -  spastin, FAM20C  -  family with sequence similarity 20, member c, SPG7  -  spastic paraplegia 7 (pure and complicated autosomal recessive), ITM2B  -  integral membrane protein 2b, KIF15  -  kinesin family member 15, EIF2AK3  -  eukaryotic translation initiation factor 2-alpha kinase 3, SIK3  -  sik family kinase 3, MCM2  -  minichromosome maintenance complex component 2, MCM3  -  minichromosome maintenance complex component 3, MCM4  -  minichromosome maintenance complex component 4, MCM5  -  minichromosome maintenance complex component 5, LARS2  -  leucyl-trna synthetase 2, mitochondrial, PIP5K1C  -  phosphatidylinositol-4-phosphate 5-kinase, type i, gamma, ATP13A2  -  atpase type 13a2, SRC  -  v-src avian sarcoma (schmidt-ruppin a-2) viral oncogene homolog, DICER1  -  dicer 1, ribonuclease type iii, ROCK2  -  rho-associated, coiled-coil containing protein kinase 2, TDRD9  -  tudor domain containing 9, SRMS  -  src-related kinase lacking c-terminal regulatory tyrosine and n-terminal myristylation sites, RARS2  -  arginyl-trna synthetase 2, mitochondrial, AK7  -  adenylate kinase 7, PGS1  -  phosphatidylglycerophosphate synthase 1, SRPK1  -  srsf protein kinase 1, SRPK2  -  srsf protein kinase 2, KIF23  -  kinesin family member 23, MAP3K3  -  mitogen-activated protein kinase kinase kinase 3, MAP3K4  -  mitogen-activated protein kinase kinase kinase 4, DDX24  -  dead (asp-glu-ala-asp) box helicase 24, DNA2  -  dna replication helicase/nuclease 2, MET  -  met proto-oncogene, DNAH5  -  dynein, axonemal, heavy chain 5, DNAH8  -  dynein, axonemal, heavy chain 8, DNAH9  -  dynein, axonemal, heavy chain 9, ABCB10  -  atp-binding cassette, sub-family b (mdr/tap), member 10, ABCB9  -  atp-binding cassette, sub-family b (mdr/tap), member 9, VPS4B  -  vacuolar protein sorting 4 homolog b (s. cerevisiae), DYNC1H1  -  dynein, cytoplasmic 1, heavy chain 1, ABCA6  -  atp-binding cassette, sub-family a (abc1), member 6, ABCA5  -  atp-binding cassette, sub-family a (abc1), member 5, DYNC1LI2  -  dynein, cytoplasmic 1, light intermediate chain 2, CAMK1D  -  calcium/calmodulin-dependent protein kinase id, CIITA  -  class ii, major histocompatibility complex, transactivator, NUAK2  -  nuak family, snf1-like kinase, 2, MMAB  -  methylmalonic aciduria (cobalamin deficiency) cblb type, HSPA13  -  heat shock protein 70kda family, member 13, NEK4  -  nima-related kinase 4, STK3  -  serine/threonine kinase 3, STK4  -  serine/threonine kinase 4, CDKL5  -  cyclin-dependent kinase-like 5, STK10  -  serine/threonine kinase 10, STK11  -  serine/threonine kinase 11, CHD1L  -  chromodomain helicase dna binding protein 1-like, ADCK1  -  aarf domain containing kinase 1, PAK7  -  p21 protein (cdc42/rac)-activated kinase 7, MKI67  -  antigen identified by monoclonal antibody ki-67, SCYL3  -  scy1-like 3 (s. cerevisiae), MLH1  -  mutl homolog 1, colon cancer, nonpolyposis type 2 (e. coli), MAP3K9  -  mitogen-activated protein kinase kinase kinase 9, KIF20B  -  kinesin family member 20b, SUPV3L1  -  suppressor of var1, 3-like 1 (s. cerevisiae), CAMK1G  -  calcium/calmodulin-dependent protein kinase ig, EARS2  -  glutamyl-trna synthetase 2, mitochondrial, ABCC8  -  atp-binding cassette, sub-family c (cftr/mrp), member 8, DNAH10  -  dynein, axonemal, heavy chain 10, ACTR3B  -  arp3 actin-related protein 3 homolog b (yeast), KIF18A  -  kinesin family member 18a, TNNI3K  -  tnni3 interacting kinase, SYN2  -  synapsin ii, ATP10A  -  atpase, class v, type 10a, ATP8B2  -  atpase, aminopho</t>
-  </si>
-  <si>
-    <t>pholipid transporter, class i, type 8b, member 2, ATP10D  -  atpase, class v, type 10d, ABCG1  -  atp-binding cassette, sub-family g (white), member 1, DYRK1A  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 1a, TRNT1  -  trna nucleotidyl transferase, cca-adding, 1, MOS  -  v-mos moloney murine sarcoma viral oncogene homolog, MOV10  -  mov10, moloney leukemia virus 10, homolog (mouse), TAF1  -  taf1 rna polymerase ii, tata box binding protein (tbp)-associated factor, 250kda, ABCC1  -  atp-binding cassette, sub-family c (cftr/mrp), member 1, MLKL  -  mixed lineage kinase domain-like, IKBKE  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase epsilon, DDX59  -  dead (asp-glu-ala-asp) box polypeptide 59, ACSF3  -  acyl-coa synthetase family member 3, MAP3K7  -  mitogen-activated protein kinase kinase kinase 7, NLRC3  -  nlr family, card domain containing 3, TTLL4  -  tubulin tyrosine ligase-like family, member 4, UCK1  -  uridine-cytidine kinase 1, IRAK4  -  interleukin-1 receptor-associated kinase 4, CLK4  -  cdc-like kinase 4, DYNC1LI1  -  dynein, cytoplasmic 1, light intermediate chain 1, PPIP5K1  -  diphosphoinositol pentakisphosphate kinase 1, SPO11  -  spo11 meiotic protein covalently bound to dsb, MYO1B  -  myosin ib, MYO15A  -  myosin xva, MSH2  -  muts homolog 2, colon cancer, nonpolyposis type 1 (e. coli), MSH4  -  muts homolog 4 (e. coli), MSH5  -  muts homolog 5 (e. coli), HSPA14  -  heat shock 70kda protein 14, EPHA2  -  eph receptor a2, ULK2  -  unc-51 like autophagy activating kinase 2, TCP1  -  t-complex 1, AQR  -  aquarius homolog (mouse), EIF4G1  -  eukaryotic translation initiation factor 4 gamma, 1, DDX47  -  dead (asp-glu-ala-asp) box polypeptide 47, RIOK1  -  rio kinase 1, PIKFYVE  -  phosphoinositide kinase, fyve finger containing, SGK3  -  serum/glucocorticoid regulated kinase family, member 3, VPRBP  -  vpr (hiv-1) binding protein, RIMKLB  -  ribosomal modification protein rimk-like family member b, LONP2  -  lon peptidase 2, peroxisomal, AARS2  -  alanyl-trna synthetase 2, mitochondrial, MTHFD1  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1, methenyltetrahydrofolate cyclohydrolase, formyltetrahydrofolate synthetase, VRK3  -  vaccinia related kinase 3, SLK  -  ste20-like kinase, STARD9  -  star-related lipid transfer (start) domain containing 9, SHPK  -  sedoheptulokinase, WEE2  -  wee1 homolog 2 (s. pombe), TDG  -  thymine-dna glycosylase, ALPK3  -  alpha-kinase 3, EPB42  -  erythrocyte membrane protein band 4.2, EIF4A3  -  eukaryotic translation initiation factor 4a3, EPHA1  -  eph receptor a1, EPHA3  -  eph receptor a3, EPHA4  -  eph receptor a4, KIAA0232  -  kiaa0232, EPHA5  -  eph receptor a5, EPHA7  -  eph receptor a7, EPHA8  -  eph receptor a8, TESK1  -  testis-specific kinase 1, TAOK1  -  tao kinase 1, EPHB1  -  eph receptor b1, EPHB2  -  eph receptor b2, EPHB3  -  eph receptor b3, DHX38  -  deah (asp-glu-ala-his) box polypeptide 38, BMS1  -  bms1 ribosome biogenesis factor, EPRS  -  glutamyl-prolyl-trna synthetase, GSG2  -  germ cell associated 2 (haspin), ERBB4  -  v-erb-b2 avian erythroblastic leukemia viral oncogene homolog 4, STK40  -  serine/threonine kinase 40, KIF4A  -  kinesin family member 4a, MVK  -  mevalonate kinase, IP6K1  -  inositol hexakisphosphate kinase 1, ERCC3  -  excision repair cross-complementing rodent repair deficiency, complementation group 3, ERCC6  -  excision repair cross-complementing rodent repair deficiency, complementation group 6, TSSK1B  -  testis-specific serine kinase 1b, TGFBR2  -  transforming growth factor, beta receptor ii (70/80kda), STK32A  -  serine/threonine kinase 32a, ERN1  -  endoplasmic reticulum to nucleus signaling 1, BRIP1  -  brca1 interacting protein c-terminal helicase 1, MYH4  -  myosin, heavy chain 4, skeletal muscle, DSTYK  -  dual serine/threonine and tyrosine protein kinase, MYH6  -  myosin, heavy chain 6, cardiac muscle, alpha, MELK  -  maternal embryonic leucine zipper kinase, OBSCN  -  obscurin, cytoskeletal calmodulin and titin-interacting rhogef, MYH9  -  myosin, heavy chain 9, non-muscle, MYH10  -  myosin, heavy chain 10, non-muscle, MYH11  -  myosin, heavy chain 11, smooth muscle, RAD54B  -  rad54 homolog b (s. cerevisiae), KATNAL1  -  katanin p60 subunit a-like 1, MYLK  -  myosin light chain kinase, TAOK3  -  tao kinase 3, MYO1C  -  myosin ic, MYO1D  -  myosin id, TK2  -  thymidine kinase 2, mitochondrial, MYO1E  -  myosin ie, MYO5A  -  myosin va (heavy chain 12, myoxin), MYO6  -  myosin vi, MYO7A  -  myosin viia, MYO9A  -  myosin ixa, TTLL1  -  tubulin tyrosine ligase-like family, member 1, EP400  -  e1a binding protein p400, MYO9B  -  myosin ixb, MYO10  -  myosin x, MYH7B  -  myosin, heavy chain 7b, cardiac muscle, beta, DHX37  -  deah (asp-glu-ala-his) box polypeptide 37, ZRANB3  -  zinc finger, ran-binding domain containing 3, HIPK1  -  homeodomain interacting protein kinase 1, DDX46  -  dead (asp-glu-ala-asp) box polypeptide 46, MYLK4  -  myosin light chain kinase family, member 4, PRKAG2  -  protein kinase, amp-activated, gamma 2 non-catalytic subunit, ACSL1  -  acyl-coa synthetase long-chain family member 1, DDX41  -  dead (asp-glu-ala-asp) box polypeptide 41, ACSL3  -  acyl-coa synthetase long-chain family member 3, ACSL4  -  acyl-coa synthetase long-chain family member 4, MYO18A  -  myosin xviiia, PTK2B  -  protein tyrosine kinase 2 beta, DDX55  -  dead (asp-glu-ala-asp) box polypeptide 55, FANCM  -  fanconi anemia, complementation group m, IP6K2  -  inositol hexakisphosphate kinase 2, ATP2C2  -  atpase, ca++ transporting, type 2c, member 2, NRBP2  -  nuclear receptor binding protein 2, FAM20B  -  family with sequence similarity 20, member b, NLRC5  -  nlr family, card domain containing 5, TOP1  -  topoisomerase (dna) i, TOP2A  -  topoisomerase (dna) ii alpha 170kda, TOP2B  -  topoisomerase (dna) ii beta 180kda, KIF14  -  kinesin family member 14, CHD6  -  chromodomain helicase dna binding protein 6, HELZ  -  helicase with zinc finger, MTHFD1L  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1-like, XYLB  -  xylulokinase homolog (h. influenzae), CMPK2  -  cytidine monophosphate (ump-cmp) kinase 2, mitochondrial, LARS  -  leucyl-trna synthetase, NEK1  -  nima-related kinase 1, NEK2  -  nima-related kinase 2, HSP90B1  -  heat shock protein 90kda beta (grp94), member 1, NEK3  -  nima-related kinase 3, THRAP3  -  thyroid hormone receptor associated protein 3, TRIO  -  trio rho guanine nucleotide exchange factor, FGFR1  -  fibroblast growth factor receptor 1, FGFR3  -  fibroblast growth factor receptor 3, ACVR1C  -  activin a receptor, type ic, CAMKK1  -  calcium/calmodulin-dependent protein kinase kinase 1, alpha, FGFR2  -  fibroblast growth factor receptor 2, FGFR4  -  fibroblast growth factor receptor 4, PARS2  -  prolyl-trna synthetase 2, mitochondrial (putative), AKT3  -  v-akt murine thymoma viral oncogene homolog 3, CKMT1A  -  creatine kinase, mitochondrial 1a, DNAH1  -  dynein, axonemal, heavy chain 1, ULK3  -  unc-51 like kinase 3, NEK5  -  nima-related kinase 5, NTPCR  -  nucleoside-triphosphatase, cancer-related, NME4  -  nme/nm23 nucleoside diphosphate kinase 4, FLT1  -  fms-related tyrosine kinase 1, FLT3  -  fms-related tyrosine kinase 3, FLT4  -  fms-related tyrosine kinase 4, SMC4  -  structural maintenance of chromosomes 4, TTK  -  ttk protein kinase, TTN  -  titin, UBA2  -  ubiquitin-like modifier activating enzyme 2, GRK7  -  g protein-coupled receptor kinase 7, FARSB  -  phenylalanyl-trna synthetase, beta subunit, ABCC5  -  atp-binding cassette, sub-family c (cftr/mrp), member 5, ABCB6  -  atp-binding cassette, sub-family b (mdr/tap), member 6, GLYCTK  -  glycerate kinase, HACL1  -  2-hydroxyacyl-coa lyase 1, NLK  -  nemo-like kinase, ACSL5  -  acyl-coa synthetase long-chain family member 5, ATP9A  -  atpase, class ii, type 9a, NPR2  -  natriuretic peptide receptor b/guanylate cyclase b (atrionatriuretic peptide receptor b), TYRO3  -  tyro3 protein tyrosine kinase, TRPV4  -  transient receptor potential cation channel, subfamily v, member 4, CMPK1  -  cytidine monophosphate (ump-cmp) kinase 1, cytosolic, AK9  -  adenylate kinase 9, UBA1  -  ubiquitin-like modifier activating enzyme 1, ACTR3  -  arp3 actin-related protein 3 homolog (yeast), ACTR2  -  arp2 actin-related protein 2 homolog (yeast), UBE2B  -  ubiquitin-conjugating enzyme e2b, AASDH  -  aminoadipate-semialdehyde dehydrogenase, NSF  -  n-ethylmaleimide-sensitive factor, UBE2D2  -  ubiquitin-conjugating enzyme e2d 2, UBE2E2  -  ubiquitin-conjugating enzyme e2e 2, RTEL1  -  regulator of telomere elongation helicase 1, UBE2G1  -  ubiquitin-conjugating enzyme e2g 1, UBE2G2  -  ubiquitin-conjugating enzyme e2g 2, UBE2H  -  ubiquitin-conjugating enzyme e2h, KCNT2  -  potassium channel, subfamily t, member 2, CDK12  -  cyclin-dependent kinase 12, UBE2L3  -  ubiquitin-conjugating enzyme e2l 3, RAD50  -  rad50 homolog (s. cerevisiae), UBE2N  -  ubiquitin-conjugating enzyme e2n, KIF20A  -  kinesin family member 20a, ATP8A2  -  atpase, aminophospholipid transporter, class i, type 8a, member 2, NTRK3  -  neurotrophic tyrosine kinase, receptor, type 3, KIF6  -  kinesin family member 6, ROR1  -  receptor tyrosine kinase-like orphan receptor 1, DDR2  -  discoidin domain receptor tyrosine kinase 2, MCM8  -  minichromosome maintenance complex component 8, NVL  -  nuclear vcp-like, TRAP1  -  tnf receptor-associated protein 1, KIF26A  -  kinesin family member 26a, ACSS1  -  acyl-coa synthetase short-chain family member 1, ABCA12  -  atp-binding cassette, sub-family a (abc1), member 12, G3BP1  -  gtpase activating protein (sh3 domain) binding protein 1, UCK2  -  uridine-cytidine kinase 2, DHX35  -  deah (asp-glu-ala-his) box polypeptide 35, FRK  -  fyn-related kinase, SRR  -  serine racemase, TTBK1  -  tau tubulin kinase 1, ORC1  -  origin recognition complex, subunit 1, UBE2O  -  ubiquitin-conjugating enzyme e2o, ORC4  -  origin recognition complex, subunit 4, TNK2  -  tyrosine kinase, non-receptor, 2, ORC5  -  origin recognition complex, subunit 5, MYO3A  -  myosin iiia, NME6  -  nme/nm23 nucleoside diphosphate kinase 6, CSNK1G1  -  casein kinase 1, gamma 1, CHTF18  -  ctf18, chromosome transmission fidelity factor 18 homolog (s. cerevisiae), MTOR  -  mechanistic target of rapamycin (serine/threonine kinase), P2RX1  -  purinergic receptor p2x, ligand-gated ion channel, 1]</t>
-  </si>
-  <si>
     <t>GO:0030554</t>
   </si>
   <si>
     <t>adenyl nucleotide binding</t>
   </si>
   <si>
-    <t>[P2RX4  -  purinergic receptor p2x, ligand-gated ion channel, 4, P2RX5  -  purinergic receptor p2x, ligand-gated ion channel, 5, TRPV1  -  transient receptor potential cation channel, subfamily v, member 1, VRK1  -  vaccinia related kinase 1, VRK2  -  vaccinia related kinase 2, P2RY4  -  pyrimidinergic receptor p2y, g-protein coupled, 4, MAPK15  -  mitogen-activated protein kinase 15, LRGUK  -  leucine-rich repeats and guanylate kinase domain containing, PEBP1  -  phosphatidylethanolamine binding protein 1, ABCA2  -  atp-binding cassette, sub-family a (abc1), member 2, ABCA3  -  atp-binding cassette, sub-family a (abc1), member 3, ABCB7  -  atp-binding cassette, sub-family b (mdr/tap), member 7, ABCA4  -  atp-binding cassette, sub-family a (abc1), member 4, ABL1  -  c-abl oncogene 1, non-receptor tyrosine kinase, AK5  -  adenylate kinase 5, KIF13A  -  kinesin family member 13a, WEE1  -  wee1 homolog (s. pombe), ACACA  -  acetyl-coa carboxylase alpha, ACACB  -  acetyl-coa carboxylase beta, PAK1  -  p21 protein (cdc42/rac)-activated kinase 1, FIGNL1  -  fidgetin-like 1, PAK2  -  p21 protein (cdc42/rac)-activated kinase 2, MYO18B  -  myosin xviiib, ACADL  -  acyl-coa dehydrogenase, long chain, PAK3  -  p21 protein (cdc42/rac)-activated kinase 3, ACLY  -  atp citrate lyase, FYN  -  fyn oncogene related to src, fgr, yes, RBKS  -  ribokinase, ABCC4  -  atp-binding cassette, sub-family c (cftr/mrp), member 4, MCCC2  -  methylcrotonoyl-coa carboxylase 2 (beta), ACTA1  -  actin, alpha 1, skeletal muscle, RIPK4  -  receptor-interacting serine-threonine kinase 4, POPDC2  -  popeye domain containing 2, XRCC6  -  x-ray repair complementing defective repair in chinese hamster cells 6, PCCA  -  propionyl coa carboxylase, alpha polypeptide, PCCB  -  propionyl coa carboxylase, beta polypeptide, ACTG2  -  actin, gamma 2, smooth muscle, enteric, XRCC2  -  x-ray repair complementing defective repair in chinese hamster cells 2, XRCC3  -  x-ray repair complementing defective repair in chinese hamster cells 3, XRCC5  -  x-ray repair complementing defective repair in chinese hamster cells 5 (double-strand-break rejoining), YES1  -  v-yes-1 yamaguchi sarcoma viral oncogene homolog 1, FN3K  -  fructosamine 3 kinase, SPEG  -  speg complex locus, ACVR1  -  activin a receptor, type i, LATS2  -  large tumor suppressor kinase 2, DNAJA2  -  dnaj (hsp40) homolog, subfamily a, member 2, ACVR2B  -  activin a receptor, type iib, CDK17  -  cyclin-dependent kinase 17, CDK18  -  cyclin-dependent kinase 18, ZAP70  -  zeta-chain (tcr) associated protein kinase 70kda, ABCG4  -  atp-binding cassette, sub-family g (white), member 4, KIF9  -  kinesin family member 9, GALK1  -  galactokinase 1, GALK2  -  galactokinase 2, ADCY1  -  adenylate cyclase 1 (brain), ADCY2  -  adenylate cyclase 2 (brain), ADCY3  -  adenylate cyclase 3, PDE4B  -  phosphodiesterase 4b, camp-specific, ADCY5  -  adenylate cyclase 5, PDE4D  -  phosphodiesterase 4d, camp-specific, ADCY7  -  adenylate cyclase 7, ADCY8  -  adenylate cyclase 8 (brain), ADCY9  -  adenylate cyclase 9, PDGFRA  -  platelet-derived growth factor receptor, alpha polypeptide, GART  -  phosphoribosylglycinamide formyltransferase, phosphoribosylglycinamide synthetase, phosphoribosylaminoimidazole synthetase, PDGFRB  -  platelet-derived growth factor receptor, beta polypeptide, MOV10L1  -  mov10l1, moloney leukemia virus 10-like 1, homolog (mouse), ABCG5  -  atp-binding cassette, sub-family g (white), member 5, PDK3  -  pyruvate dehydrogenase kinase, isozyme 3, ABCG8  -  atp-binding cassette, sub-family g (white), member 8, PDK4  -  pyruvate dehydrogenase kinase, isozyme 4, SMCR7L  -  smith-magenis syndrome chromosome region, candidate 7-like, IPMK  -  inositol polyphosphate multikinase, FBXO18  -  f-box protein, helicase, 18, ADRBK1  -  adrenergic, beta, receptor kinase 1, ATAD1  -  atpase family, aaa domain containing 1, ADRBK2  -  adrenergic, beta, receptor kinase 2, SIL1  -  sil1 nucleotide exchange factor, PEX1  -  peroxisomal biogenesis factor 1, PEX6  -  peroxisomal biogenesis factor 6, MPP5  -  membrane protein, palmitoylated 5 (maguk p55 subfamily member 5), PFKFB2  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 2, PFKFB3  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 3, PFKFB4  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 4, NOD1  -  nucleotide-binding oligomerization domain containing 1, PFKL  -  phosphofructokinase, liver, RPS6KC1  -  ribosomal protein s6 kinase, 52kda, polypeptide 1, PFKP  -  phosphofructokinase, platelet, CDK14  -  cyclin-dependent kinase 14, NMNAT3  -  nicotinamide nucleotide adenylyltransferase 3, AK2  -  adenylate kinase 2, AK4  -  adenylate kinase 4, TTLL10  -  tubulin tyrosine ligase-like family, member 10, AKT1  -  v-akt murine thymoma viral oncogene homolog 1, ABCB1  -  atp-binding cassette, sub-family b (mdr/tap), member 1, TESK2  -  testis-specific kinase 2, DDX49  -  dead (asp-glu-ala-asp) box polypeptide 49, GK  -  glycerol kinase, MCM9  -  minichromosome maintenance complex component 9, ABCD2  -  atp-binding cassette, sub-family d (ald), member 2, PHKG1  -  phosphorylase kinase, gamma 1 (muscle), ALK  -  anaplastic lymphoma receptor tyrosine kinase, GCLC  -  glutamate-cysteine ligase, catalytic subunit, ECI2  -  enoyl-coa delta isomerase 2, INO80  -  ino80 complex subunit, MERTK  -  c-mer proto-oncogene tyrosine kinase, ACBD3  -  acyl-coa binding domain containing 3, GLUD1  -  glutamate dehydrogenase 1, PIK3C2A  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 alpha, PIK3C2B  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 beta, PIK3C2G  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 gamma, PIK3CA  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit alpha, PIK3CB  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit beta, GLUL  -  glutamate-ammonia ligase, PIK3CD  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit delta, PIK3CG  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit gamma, PI4KB  -  phosphatidylinositol 4-kinase, catalytic, beta, UBE2E3  -  ubiquitin-conjugating enzyme e2e 3, IPPK  -  inositol 1,3,4,5,6-pentakisphosphate 2-kinase, PIP4K2A  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, alpha, CERK  -  ceramide kinase, PKM  -  pyruvate kinase, muscle, STK25  -  serine/threonine kinase 25, DDX31  -  dead (asp-glu-ala-asp) box polypeptide 31, MAPKAPK3  -  mitogen-activated protein kinase-activated protein kinase 3, CHORDC1  -  cysteine and histidine-rich domain (chord) containing 1, NMNAT1  -  nicotinamide nucleotide adenylyltransferase 1, APAF1  -  apoptotic peptidase activating factor 1, DDX17  -  dead (asp-glu-ala-asp) box helicase 17, MYLK2  -  myosin light chain kinase 2, HYOU1  -  hypoxia up-regulated 1, PAN3  -  pan3 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), STK35  -  serine/threonine kinase 35, PLK1  -  polo-like kinase 1, TPK1  -  thiamin pyrophosphokinase 1, MLH3  -  mutl homolog 3 (e. coli), ATP2C1  -  atpase, ca++ transporting, type 2c, member 1, TRIT1  -  trna isopentenyltransferase 1, HELZ2  -  helicase with zinc finger 2, transcriptional coactivator, APRT  -  adenine phosphoribosyltransferase, DCLK3  -  doublecortin-like kinase 3, ERCC6L  -  excision repair cross-complementing rodent repair deficiency, complementation group 6-like, TRPM7  -  transient receptor potential cation channel, subfamily m, member 7, PMS2  -  pms2 postmeiotic segregation increased 2 (s. cerevisiae), ABCC6  -  atp-binding cassette, sub-family c (cftr/mrp), member 6, CCT7  -  chaperonin containing tcp1, subunit 7 (eta), CCT4  -  chaperonin containing tcp1, subunit 4 (delta), CCT2  -  chaperonin containing tcp1, subunit 2 (beta), MTHFS  -  5,10-methenyltetrahydrofolate synthetase (5-formyltetrahydrofolate cyclo-ligase), GRK4  -  g protein-coupled receptor kinase 4, GRK5  -  g protein-coupled receptor kinase 5, PINK1  -  pten induced putative kinase 1, GRK6  -  g protein-coupled receptor kinase 6, EIF2AK1  -  eukaryotic translation initiation factor 2-alpha kinase 1, CDK15  -  cyclin-dependent kinase 15, SHPRH  -  snf2 histone linker phd ring helicase, e3 ubiquitin protein ligase, SNRK  -  snf related kinase, SMC1B  -  structural maintenance of chromosomes 1b, HSPA12A  -  heat shock 70kda protein 12a, WNK1  -  wnk lysine deficient protein kinase 1, STK36  -  serine/threonine kinase 36, NADK  -  nad kinase, NAV3  -  neuron navigator 3, NAV2  -  neuron navigator 2, UBE2Z  -  ubiquitin-conjugating enzyme e2z, ABCC10  -  atp-binding cassette, sub-family c (cftr/mrp), member 10, ASNS  -  asparagine synthetase (glutamine-hydrolyzing), CAMKK2  -  calcium/calmodulin-dependent protein kinase kinase 2, beta, ASS1  -  argininosuccinate synthase 1, VPS4A  -  vacuolar protein sorting 4 homolog a (s. cerevisiae), AACS  -  acetoacetyl-coa synthetase, GSK3B  -  glycogen synthase kinase 3 beta, GSS  -  glutathione synthetase, FARS2  -  phenylalanyl-trna synthetase 2, mitochondrial, ATM  -  ataxia telangiectasia mutated, MAGI3  -  membrane associated guanylate kinase, ww and pdz domain containing 3, NMRK2  -  nicotinamide riboside kinase 2, ATP1A1  -  atpase, na+/k+ transporting, alpha 1 polypeptide, DPH6  -  diphthamine biosynthesis 6, ATP12A  -  atpase, h+/k+ transporting, nongastric, alpha polypeptide, MSH6  -  muts homolog 6 (e. coli), GTF2F2  -  general transcription factor iif, polypeptide 2, 30kda, ATP2A3  -  atpase, ca++ transporting, ubiquitous, ATP2B1  -  atpase, ca++ transporting, plasma membrane 1, CCT8  -  chaperonin containing tcp1, subunit 8 (theta), ATP2B4  -  atpase, ca++ transporting, plasma membrane 4, CAMKV  -  cam kinase-like vesicle-associated, POLQ  -  polymerase (dna directed), theta, UCKL1  -  uridine-cytidine kinase 1-like 1, YME1L1  -  yme1-like 1 atpase, GUCY2C  -  guanylate cyclase 2c (heat stable enterotoxin receptor), GUCY2F  -  guanylate cyclase 2f, retinal, GUK1  -  guanylate kinase 1, MKKS  -  mckusick-kaufman syndrome, ATP6V1A  -  atpase, h+ transporting, lysosomal 70kda, v1 subunit a, SPATA5L1  -  spermatogenesis associated 5-like 1, TTBK2  -  tau tubulin kinase 2, KIF7  -  kinesin family member 7, ATP6AP1  -  atpase, h+ transporting, lysosomal accessory protein 1, ATP7A  -  atpase, cu++ transporting, alpha polypeptide, PRKACB  -  protein kinase, camp-dependent, catalytic, beta, DDX54  -  dead (asp-glu-ala-asp) box polypeptide 54, MAP3K2  -  mitogen-activated protein kinase kinase kinase 2, ATP7B  -  atpase, cu++ transporting, beta polypeptide, ULK4  -  unc-51 like kinase 4, ATR  -  ataxia telangiectasia and rad3 related, SYN3  -  synapsin iii, ATRX  -  alpha thalassemia/mental retardation syndrome x-linked, PRKAR2A  -  protein kinase, camp-dependent, regulatory, type ii, alpha, KIF1A  -  kinesin family member 1a, ATP9B  -  atpase, class ii, type 9b, PRKAR2B  -  protein kinase, camp-dependent, regulatory, type ii, beta, PRKCA  -  protein kinase c, alpha, PRKCB  -  protein kinase c, beta, PRKCD  -  protein kinase c, delta, PRKCE  -  protein kinase c, epsilon, RPS6KA6  -  ribosomal protein s6 kinase, 90kda, polypeptide 6, PRKCH  -  protein kinase c, eta, PKN2  -  protein kinase n2, PRKCQ  -  protein kinase c, theta, PRKCZ  -  protein kinase c, zeta, PRKDC  -  protein kinase, dna-activated, catalytic polypeptide, PRKG1  -  protein kinase, cgmp-dependent, type i, MAPK1  -  mitogen-activated protein kinase 1, MAPK6  -  mitogen-activated protein kinase 6, TOR1B  -  torsin family 1, member b (torsin b), NEK6  -  nima-related kinase 6, MAPK8  -  mitogen-activated protein kinase 8, MAPK11  -  mitogen-activated protein kinase 11, MAPK9  -  mitogen-activated protein kinase 9, MAPK10  -  mitogen-activated protein kinase 10, MAPK13  -  mitogen-activated protein kinase 13, MAP2K1  -  mitogen-activated protein kinase kinase 1, TOR2A  -  torsin family 2, member a, MAP2K6  -  mitogen-activated protein kinase kinase 6, EIF2AK2  -  eukaryotic translation initiation factor 2-alpha kinase 2, DHX58  -  dexh (asp-glu-x-his) box polypeptide 58, HCK  -  hemopoietic cell kinase, HSPH1  -  heat shock 105kda/110kda protein 1, CDC7  -  cell division cycle 7, HCN2  -  hyperpolarization activated cyclic nucleotide-gated potassium channel 2, BCR  -  breakpoint cluster region, BCS1L  -  bc1 (ubiquinol-cytochrome c reductase) synthesis-like, PRPS1  -  phosphoribosyl pyrophosphate synthetase 1, PRPS2  -  phosphoribosyl pyrophosphate synthetase 2, ADCK2  -  aarf domain containing kinase 2, BLK  -  b lymphoid tyrosine kinase, DHX57  -  deah (asp-glu-ala-asp/his) box polypeptide 57, BLM  -  bloom syndrome, recq helicase-like, CLPX  -  clpx caseinolytic peptidase x homolog (e. coli), HK2  -  hexokinase 2, PDE10A  -  phosphodiesterase 10a, ENTPD8  -  ectonucleoside triphosphate diphosphohydrolase 8, BMPR1A  -  bone morphogenetic protein receptor, type ia, PSKH1  -  protein serine kinase h1, BMPR2  -  bone morphogenetic protein receptor, type ii (serine/threonine kinase), BRAF  -  v-raf murine sarcoma viral oncogene homolog b, PSMC1  -  proteasome (prosome, macropain) 26s subunit, atpase, 1, PSMC2  -  proteasome (prosome, macropain) 26s subunit, atpase, 2, PSMC3  -  proteasome (prosome, macropain) 26s subunit, atpase, 3, PSMC5  -  proteasome (prosome, macropain) 26s subunit, atpase, 5, FIGN  -  fidgetin, HLCS  -  holocarboxylase synthetase (biotin-(proprionyl-coa-carboxylase (atp-hydrolysing)) ligase), PIP4K2B  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, beta, BTK  -  bruton agammaglobulinemia tyrosine kinase, ACBD5  -  acyl-coa binding domain containing 5, PKDCC  -  protein kinase domain containing, cytoplasmic, BUB1  -  bub1 mitotic checkpoint serine/threonine kinase, MTPAP  -  mitochondrial poly(a) polymerase, HMGCL  -  3-hydroxymethyl-3-methylglutaryl-coa lyase, BUB1B  -  bub1 mitotic checkpoint serine/threonine kinase b, ULK1  -  unc-51 like autophagy activating kinase 1, DARS2  -  aspartyl-trna synthetase 2, mitochondrial, PAPOLA  -  poly(a) polymerase alpha, ATP8B3  -  atpase, aminophospholipid transporter, class i, type 8b, member 3, TDRD12  -  tudor domain containing 12, RAD54L  -  rad54-like (s. cerevisiae), PTK2  -  protein tyrosine kinase 2, DYRK3  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 3, DYRK2  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 2, PTK7  -  protein tyrosine kinase 7, TWF1  -  twinfilin actin-binding protein 1, HNRNPU  -  heterogeneous nuclear ribonucleoprotein u (scaffold attachment factor a), MPPED2  -  metallophosphoesterase domain containing 2, NEK9  -  nima-related kinase 9, NADSYN1  -  nad synthetase 1, TTF2  -  transcription termination factor, rna polymerase ii, MYLK3  -  myosin light chain kinase 3, CDC42BPA  -  cdc42 binding protein kinase alpha (dmpk-like), KSR2  -  kinase suppressor of ras 2, CACNA1B  -  calcium channel, voltage-dependent, n type, alpha 1b subunit, GATC  -  glutamyl-trna(gln) amidotransferase, subunit c, ASCC3  -  activating signal cointegrator 1 complex subunit 3, MAP4K3  -  mitogen-activated protein kinase kinase kinase kinase 3, ETNK2  -  ethanolamine kinase 2, NAT10  -  n-acetyltransferase 10 (gcn5-related), PANK4  -  pantothenate kinase 4, ATP13A3  -  atpase type 13a3, PDIK1L  -  pdlim1 interacting kinase 1 like, UBA6  -  ubiquitin-like modifier activating enzyme 6, CARS2  -  cysteinyl-trna synthetase 2, mitochondrial (putative), ABCD4  -  atp-binding cassette, sub-family d (ald), member 4, KIF2C  -  kinesin family member 2c, ALDH18A1  -  aldehyde dehydrogenase 18 family, member a1, TLK2  -  tousled-like kinase 2, STRADA  -  ste20-related kinase adaptor alpha, CAMK4  -  calcium/calmodulin-dependent protein kinase iv, CAMK2A  -  calcium/calmodulin-dependent protein kinase ii alpha, DGKZ  -  diacylglycerol kinase, zeta, CAMK2D  -  calcium/calmodulin-dependent protein kinase ii delta, DGKE  -  diacylglycerol kinase, epsilon 64kda, CAMK2G  -  calcium/calmodulin-dependent protein kinase ii gamma, DGKD  -  diacylglycerol kinase, delta 130kda, ACSS3  -  acyl-coa synthetase short-chain family member 3, CARS  -  cysteinyl-trna synthetase, QRSL1  -  glutaminyl-trna synthase (glutamine-hydrolyzing)-like 1, PIM3  -  pim-3 oncogene, UBE2W  -  ubiquitin-conjugating enzyme e2w (putative), MAPKAPK5  -  mitogen-activated protein kinase-activated protein kinase 5, DNAJA1  -  dnaj (hsp40) homolog, subfamily a, member 1, RAD51  -  rad51 recombinase, RAD51C  -  rad51 paralog c, PANK3  -  pantothenate kinase 3, HSPA4  -  heat shock 70kda protein 4, CDK10  -  cyclin-dependent kinase 10, RAD51D  -  rad51 paralog d, DDX52  -  dead (asp-glu-ala-asp) box polypeptide 52, RUNX2  -  runt-related transcription factor 2, RAF1  -  v-raf-1 murine leukemia viral oncogene homolog 1, RUNX1  -  runt-related transcription factor 1, HSPA8  -  heat shock 70kda protein 8, HELB  -  helicase (dna) b, HSPA9  -  heat shock 70kda protein 9 (mortalin), PI4K2B  -  phosphatidylinositol 4-kinase type 2 beta, PDXK  -  pyridoxal (pyridoxine, vitamin b6) kinase, MKNK1  -  map kinase interacting serine/threonine kinase 1, DYNC2H1  -  dynein, cytoplasmic 2, heavy chain 1, UBE2Q2  -  ubiquitin-conjugating enzyme e2q family member 2, CASK  -  calcium/calmodulin-dependent serine protein kinase (maguk family), MARS2  -  methionyl-trna synthetase 2, mitochondrial, RAPGEF4  -  rap guanine nucleotide exchange factor (gef) 4, DHX40  -  deah (asp-glu-ala-his) box polypeptide 40, HSPD1  -  heat shock 60kda protein 1 (chaperonin), STK16  -  serine/threonine kinase 16, NLRX1  -  nlr family member x1, TTL  -  tubulin tyrosine ligase, ABCF3  -  atp-binding cassette, sub-family f (gcn20), member 3, SMC6  -  structural maintenance of chromosomes 6, RUVBL1  -  ruvb-like 1 (e. coli), CCT6A  -  chaperonin containing tcp1, subunit 6a (zeta 1), KATNA1  -  katanin p60 (atpase containing) subunit a 1, CDK13  -  cyclin-dependent kinase 13, CIT  -  citron (rho-interacting, serine/threonine kinase 21), LRRK1  -  leucine-rich repeat kinase 1, NOL9  -  nucleolar protein 9, IARS  -  isoleucyl-trna synthetase, DNAH17  -  dynein, axonemal, heavy chain 17, KIF3A  -  kinesin family member 3a, RECQL  -  recq protein-like (dna helicase q1-like), TBCK  -  tbc1 domain containing kinase, ABCB11  -  atp-binding cassette, sub-family b (mdr/tap), member 11, NARS2  -  asparaginyl-trna synthetase 2, mitochondrial (putative), DMC1  -  dna meiotic recombinase 1, UPF1  -  upf1 regulator of nonsense transcripts homolog (yeast), BBS10  -  bardet-biedl syndrome 10, RET  -  ret proto-oncogene, TTLL7  -  tubulin tyrosine ligase-like family, member 7, BVES  -  blood vessel epicardial substance, RFC1  -  replication factor c (activator 1) 1, 145kda, RFC2  -  replication factor c (activator 1) 2, 40kda, STRADB  -  ste20-related kinase adaptor beta, FICD  -  fic domain containing, RFC4  -  replication factor c (activator 1) 4, 37kda, ENTPD1  -  ectonucleoside triphosphate diphosphohydrolase 1, ENTPD2  -  ectonucleoside triphosphate diphosphohydrolase 2, IDE  -  insulin-degrading enzyme, ENTPD3  -  ectonucleoside triphosphate diphosphohydrolase 3, NEK8  -  nima-related kinase 8, DNAJA4  -  dnaj (hsp40) homolog, subfamily a, member 4, EIF2AK4  -  eukaryotic translation initiation factor 2 alpha kinase 4, ETNK1  -  ethanolamine kinase 1, CHST12  -  carbohydrate (chondroitin 4) sulfotransferase 12, DDX43  -  dead (asp-glu-ala-asp) box polypeptide 43, MAP4K5  -  mitogen-activated protein kinase kinase kinase kinase 5, DNAH11  -  dynein, axonemal, heavy chain 11, ABCC3  -  atp-binding cassette, sub-family c (cftr/mrp), member 3, CHEK2  -  checkpoint kinase 2, DNAH3  -  dynein, axonemal, heavy chain 3, SBK1  -  sh3-binding domain kinase 1, RNASEL  -  ribonuclease l (2',5'-oligoisoadenylate synthetase-dependent), NEK10  -  nima-related kinase 10, DDX20  -  dead (asp-glu-ala-asp) box polypeptide 20, UBE2Q1  -  ubiquitin-conjugating enzyme e2q family member 1, CDK3  -  cyclin-dependent kinase 3, BMP2K  -  bmp2 inducible kinase, CDK5  -  cyclin-dependent kinase 5, RIPK1  -  receptor (tnfrsf)-interacting serine-threonine kinase 1, CDK6  -  cyclin-dependent kinase 6, ABCE1  -  atp-binding cassette, sub-family e (oabp), member 1, CDK8  -  cyclin-dependent kinase 8, CDK9  -  cyclin-dependent kinase 9, KIF21A  -  kinesin family member 21a, IGHMBP2  -  immunoglobulin mu binding protein 2, KIF16B  -  kinesin family member 16b, RIPK2  -  receptor-interacting serine-threonine kinase 2, RIOK3  -  rio kinase 3, ROCK1  -  rho-associated, coiled-coil containing protein kinase 1, CENPE  -  centromere protein e, 312kda, ROS1  -  c-ros oncogene 1 , receptor tyrosine kinase, CHD7  -  chromodomain helicase dna binding protein 7, UBA5  -  ubiquitin-like modifier activating enzyme 5, DCAKD  -  dephospho-coa kinase domain containing, IKBKB  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase beta, CFTR  -  cystic fibrosis transmembrane conductance regulator (atp-binding cassette sub-family c, member 7), SUCLG2  -  succinate-coa ligase, gdp-forming, beta subunit, SUCLA2  -  succinate-coa ligase, adp-forming, beta subunit, DDX27  -  dead (asp-glu-ala-asp) box polypeptide 27, DDX42  -  dead (asp-glu-ala-asp) box helicase 42, CDKL1  -  cyclin-dependent kinase-like 1 (cdc2-related kinase), CHD2  -  chromodomain helicase dna binding protein 2, SCYL2  -  scy1-like 2 (s. cerevisiae), ATAD5  -  atpase family, aaa domain containing 5, CHD4  -  chromodomain helicase dna binding protein 4, TRMU  -  trna 5-methylaminomethyl-2-thiouridylate methyltransferase, TWF2  -  twinfilin actin-binding protein 2, GMPS  -  guanine monphosphate synthase, KIF12  -  kinesin family member 12, CHKA  -  choline kinase alpha, IARS2  -  isoleucyl-trna synthetase 2, mitochondrial, KSR1  -  kinase suppressor of ras 1, ABCA13  -  atp-binding cassette, sub-family a (abc1), member 13, HELQ  -  helicase, polq-like, HSPA4L  -  heat shock 70kda protein 4-like, N4BP2  -  nedd4 binding protein 2, CKB  -  creatine kinase, brain, RPS6KA2  -  ribosomal protein s6 kinase, 90kda, polypeptide 2, RPS6KA3  -  ribosomal protein s6 kinase, 90kda, polypeptide 3, RPS6KB1  -  ribosomal protein s6 kinase, 70kda, polypeptide 1, RPS6KB2  -  ribosomal protein s6 kinase, 70kda, polypeptide 2, DDX18  -  dead (asp-glu-ala-asp) box polypeptide 18, AAK1  -  ap2 associated kinase 1, LMTK2  -  lemur tyrosine kinase 2, AGK  -  acylglycerol kinase, IRAK2  -  interleukin-1 receptor-associated kinase 2, CLCN3  -  chloride channel, voltage-sensitive 3, CLCN4  -  chloride channel, voltage-sensitive 4, PRPF4B  -  prp4 pre-mrna processing factor 4 homolog b (yeast), CLCN5  -  chloride channel, voltage-sensitive 5, CLCN6  -  chloride channel, voltage-sensitive 6, CLCN7  -  chloride channel, voltage-sensitive 7, DHX32  -  deah (asp-glu-ala-his) box polypeptide 32, CLK2  -  cdc-like kinase 2, CLK3  -  cdc-like kinase 3, RRM1  -  ribonucleotide reductase m1, MORC2  -  morc family cw-type zinc finger 2, PANK2  -  pantothenate kinase 2, MCMDC2  -  minichromosome maintenance domain containing 2, EPHA6  -  eph receptor a6, ITK  -  il2-inducible t-cell kinase, ABCC2  -  atp-binding cassette, sub-family c (cftr/mrp), member 2, DHX30  -  deah (asp-glu-ala-his) box helicase 30, ITPK1  -  inositol-tetrakisphosphate 1-kinase, ITPKA  -  inositol-trisphosphate 3-kinase a, ITPKB  -  inositol-trisphosphate 3-kinase b, AK8  -  adenylate kinase 8, CNGB1  -  cyclic nucleotide gated channel beta 1, PIF1  -  pif1 5'-to-3' dna helicase, MAP3K19  -  mitogen-activated protein kinase kinase kinase 19, TTLL11  -  tubulin tyrosine ligase-like family, member 11, CNGA2  -  cyclic nucleotide gated channel alpha 2, JAK1  -  janus kinase 1, KALRN  -  kalirin, rhogef kinase, SEPHS1  -  selenophosphate synthetase 1, CDKL2  -  cyclin-dependent kinase-like 2 (cdc2-related kinase), ACSM3  -  acyl-coa synthetase medium-chain family member 3, MAPK12  -  mitogen-activated protein kinase 12, MAP3K14  -  mitogen-activated protein kinase kinase kinase 14, BRSK2  -  br serine/threonine kinase 2, CCT5  -  chaperonin containing tcp1, subunit 5 (epsilon), BAZ1B  -  bromodomain adjacent to zinc finger domain, 1b, UBA3  -  ubiquitin-like modifier activating enzyme 3, MYO19  -  myosin xix, KCNJ1  -  potassium inwardly-rectifying channel, subfamily j, member 1, BTAF1  -  btaf1 rna polymerase ii, b-tfiid transcription factor-associated, 170kda, SCN8A  -  sodium channel, voltage gated, type viii, alpha subunit, KCNJ8  -  potassium inwardly-rectifying channel, subfamily j, member 8, HKDC1  -  hexokinase domain containing 1, CHD9  -  chromodomain helicase dna binding protein 9, MB21D1  -  mab-21 domain containing 1, SCP2  -  sterol carrier protein 2, PAPSS1  -  3'-phosphoadenosine 5'-phosphosulfate synthase 1, MAP3K6  -  mitogen-activated protein kinase kinase kinase 6, ALPK1  -  alpha-kinase 1, MAP3K8  -  mitogen-activated protein kinase kinase kinase 8, ACSS2  -  acyl-coa synthetase short-chain family member 2, STK38L  -  serine/threonine kinase 38 like, KDR  -  kinase insert domain receptor (a type iii receptor tyrosine kinase), KIF2A  -  kinesin heavy chain member 2a, KIF3C  -  kinesin family member 3c, LANCL2  -  lanc lantibiotic synthetase component c-like 2 (bacterial), KIF5B  -  kinesin family member 5b, KIF5C  -  kinesin family member 5c, KIFC3  -  kinesin family member c3, MYO16  -  myosin xvi, DNAJA3  -  dnaj (hsp40) homolog, subfamily a, member 3, MAST3  -  microtubule associated serine/threonine kinase 3, MYO5C  -  myosin vc, MAP3K15  -  mitogen-activated protein kinase kinase kinase 15, KIT  -  v-kit hardy-zuckerman 4 feline sarcoma viral oncogene homolog, TNIK  -  traf2 and nck interacting kinase, KIF21B  -  kinesin family member 21b, LATS1  -  large tumor suppressor kinase 1, SMG1  -  smg1 phosphatidylinositol 3-kinase-related kinase, CPS1  -  carbamoyl-phosphate synthase 1, mitochondrial, DGKH  -  diacylglycerol kinase, eta, KIF11  -  kinesin family member 11, NMNAT2  -  nicotinamide nucleotide adenylyltransferase 2, KIF25  -  kinesin family member 25, SMC3  -  structural maintenance of chromosomes 3, P2RX6  -  purinergic receptor p2x, ligand-gated ion channel, 6, SETX  -  senataxin, UBE2T  -  ubiquitin-conjugating enzyme e2t (putative), SWAP70  -  swap switching b-cell complex 70kda subunit, VWA8  -  von willebrand factor a domain containing 8, COASY  -  coa synthase, TTLL5  -  tubulin tyrosine ligase-like family, member 5, KIF1B  -  kinesin family member 1b, TBK1  -  tank-binding kinase 1, DGKI  -  diacylglycerol kinase, iota, SGK1  -  serum/glucocorticoid regulated kinase 1, CUL9  -  cullin 9, MAP3K13  -  mitogen-activated protein kinase kinase kinase 13, MAPK14  -  mitogen-activated protein kinase 14, ATP10B  -  atpase, class v, type 10b, AARSD1  -  alanyl-trna synthetase domain containing 1, RAD54L2  -  rad54-like 2 (s. cerevisiae), TEX14  -  testis expressed 14, CSK  -  c-src tyrosine kinase, MAST2  -  microtubule associated serine/threonine kinase 2, DCLK1  -  doublecortin-like kinase 1, CSNK1A1  -  casein kinase 1, alpha 1, HSPA12B  -  heat shock 70kd protein 12b, CSNK1E  -  casein kinase 1, epsilon, OLA1  -  obg-like atpase 1, CSNK1G2  -  casein kinase 1, gamma 2, STK31  -  serine/threonine kinase 31, CSNK2A1  -  casein kinase 2, alpha 1 polypeptide, DNAH7  -  dynein, axonemal, heavy chain 7, MAGI1  -  membrane associated guanylate kinase, ww and pdz domain containing 1, TTLL12  -  tubulin tyrosine ligase-like family, member 12, PASK  -  pas domain containing serine/threonine kinase, EEF2K  -  eukaryotic elongation factor-2 kinase, HFM1  -  hfm1, atp-dependent dna helicase homolog (s. cerevisiae), RPS6KA5  -  ribosomal protein s6 kinase, 90kda, polypeptide 5, LIG3  -  ligase iii, dna, atp-dependent, LIG4  -  ligase iv, dna, atp-dependent, TTLL9  -  tubulin tyrosine ligase-like family, member 9, MAPKAPK2  -  mitogen-activated protein kinase-activated protein kinase 2, MDN1  -  mdn1, midasin homolog (yeast), NME7  -  nme/nm23 family member 7, STK17A  -  serine/threonine kinase 17a, LIMK2  -  lim domain kinase 2, CTPS2  -  ctp synthase 2, ATP11B  -  atpase, class vi, type 11b, IP6K3  -  inositol hexakisphosphate kinase 3, ACSBG1  -  acyl-coa synthetase bubblegum family member 1, ATP11C  -  atpase, class vi, type 11c, SBK2  -  sh3-binding domain kinase family, member 2, BBS12  -  bardet-biedl syndrome 12, DCLK2  -  doublecortin-like kinase 2, NRBP1  -  nuclear receptor binding protein 1, SIK2  -  salt-inducible kinase 2, SLC19A1  -  solute carrier family 19 (folate transporter), member 1, TRIP13  -  thyroid hormone receptor interactor 13, ATP11A  -  atpase, class vi, type 11a, SLC22A4  -  solute carrier family 22 (organic cation/zwitterion transporter), member 4, LONP1  -  lon peptidase 1, mitochondrial, WRNIP1  -  werner helicase interacting protein 1, DGKB  -  diacylglycerol kinase, beta 90kda, KIF3B  -  kinesin family member 3b, KIF13B  -  kinesin family member 13b, EHD4  -  eh-domain containing 4, EHD3  -  eh-domain containing 3, ACSL6  -  acyl-coa synthetase long-chain family member 6, PIK3R4  -  phosphoinositide-3-kinase, regulatory subunit 4, SMARCAD1  -  swi/snf-related, matrix-associated actin-dependent regulator of chromatin, subfamily a, containing dead/h box 1, DHX33  -  deah (asp-glu-ala-his) box polypeptide 33, MCCC1  -  methylcrotonoyl-coa carboxylase 1 (alpha), PAK6  -  p21 protein (cdc42/rac)-activated kinase 6, SMARCAL1  -  swi/snf related, matrix associated, actin dependent regulator of chromatin, subfamily a-like 1, SOAT1  -  sterol o-acyltransferase 1, RECQL5  -  recq protein-like 5, DHX36  -  deah (asp-glu-ala-his) box polypeptide 36, DDX51  -  dead (asp-glu-ala-asp) box polypeptide 51, MAK  -  male germ cell-associated kinase, LRRK2  -  leucine-rich repeat kinase 2, SMCHD1  -  structural maintenance of chromosomes flexible hinge domain containing 1, DDX1  -  dead (asp-glu-ala-asp) box helicase 1, DDX3X  -  dead (asp-glu-ala-asp) box helicase 3, x-linked, DDX5  -  dead (asp-glu-ala-asp) box helicase 5, MARK1  -  map/microtubule affinity-regulating kinase 1, DHX8  -  deah (asp-glu-ala-his) box polypeptide 8, MARK3  -  map/microtubule affinity-regulating kinase 3, DDX10  -  dead (asp-glu-ala-asp) box polypeptide 10, MAT1A  -  methionine adenosyltransferase i, alpha, DDX11  -  dead/h (asp-glu-ala-asp/his) box helicase 11, DHX15  -  deah (asp-glu-ala-his) box helicase 15, ABCG2  -  atp-binding cassette, sub-family g (white), member 2, PNPLA8  -  patatin-like phospholipase domain containing 8, SPAST  -  spastin, FAM20C  -  family with sequence similarity 20, member c, SPG7  -  spastic paraplegia 7 (pure and complicated autosomal recessive), ITM2B  -  integral membrane protein 2b, KIF15  -  kinesin family member 15, EIF2AK3  -  eukaryotic translation initiation factor 2-alpha kinase 3, SIK3  -  sik family kinase 3, MCM2  -  minichromosome maintenance complex component 2, MCM3  -  minichromosome maintenance complex component 3, MCM4  -  minichromosome maintenance complex component 4, MCM5  -  minichromosome maintenance complex component 5, LARS2  -  leucyl-trna synthetase 2, mitochondrial, PIP5K1C  -  phosphatidylinositol-4-phosphate 5-kinase, type i, gamma, ATP13A2  -  atpase type 13a2, SRC  -  v-src avian sarcoma (schmidt-ruppin a-2) viral oncogene homolog, DICER1  -  dicer 1, ribonuclease type iii, CYB5R3  -  cytochrome b5 reductase 3, ROCK2  -  rho-associated, coiled-coil containing protein kinase 2, TDRD9  -  tudor domain containing 9, SRMS  -  src-related kinase lacking c-terminal regulatory tyrosine and n-terminal myristylation sites, RARS2  -  arginyl-trna synthetase 2, mitochondrial, AK7  -  adenylate kinase 7, PGS1  -  phosphatidylglycerophosphate synthase 1, SRPK1  -  srsf protein kinase 1, SRPK2  -  srsf protein kinase 2, KIF23  -  kinesin family member 23, MAP3K3  -  mitogen-activated protein kinase kinase kinase 3, MAP3K4  -  mitogen-activated protein kinase kinase kinase 4, DDX24  -  dead (asp-glu-ala-asp) box helicase 24, DNA2  -  dna replication helicase/nuclease 2, MET  -  met proto-oncogene, DNAH5  -  dynein, axonemal, heavy chain 5, DNAH8  -  dynein, axonemal, heavy chain 8, DNAH9  -  dynein, axonemal, heavy chain 9, ABCB10  -  atp-binding cassette, sub-family b (mdr/tap), member 10, ABCB9  -  atp-binding cassette, sub-family b (mdr/tap), member 9, VPS4B  -  vacuolar protein sorting 4 homolog b (s. cerevisiae), DYNC1H1  -  dynein, cytoplasmic 1, heavy chain 1, ABCA6  -  atp-binding cassette, sub-family a (abc1), member 6, ST13  -  suppression of tumorigenicity 13 (colon carcinoma) (hsp70 interacting protein), ABCA5  -  atp-binding cassette, sub-family a (abc1), member 5, BAG5  -  bcl2-associated athanogene 5, DYNC1LI2  -  dynein, cytoplasmic 1, light intermediate chain 2, BAG4  -  bcl2-associated athan</t>
-  </si>
-  <si>
-    <t>gene 4, BAG3  -  bcl2-associated athanogene 3, CAMK1D  -  calcium/calmodulin-dependent protein kinase id, CIITA  -  class ii, major histocompatibility complex, transactivator, NUAK2  -  nuak family, snf1-like kinase, 2, MMAB  -  methylmalonic aciduria (cobalamin deficiency) cblb type, HSPA13  -  heat shock protein 70kda family, member 13, NEK4  -  nima-related kinase 4, STK3  -  serine/threonine kinase 3, STK4  -  serine/threonine kinase 4, CDKL5  -  cyclin-dependent kinase-like 5, STK10  -  serine/threonine kinase 10, STK11  -  serine/threonine kinase 11, CHD1L  -  chromodomain helicase dna binding protein 1-like, ADCK1  -  aarf domain containing kinase 1, PAK7  -  p21 protein (cdc42/rac)-activated kinase 7, MKI67  -  antigen identified by monoclonal antibody ki-67, SCYL3  -  scy1-like 3 (s. cerevisiae), MLH1  -  mutl homolog 1, colon cancer, nonpolyposis type 2 (e. coli), MAP3K9  -  mitogen-activated protein kinase kinase kinase 9, KIF20B  -  kinesin family member 20b, SUPV3L1  -  suppressor of var1, 3-like 1 (s. cerevisiae), CAMK1G  -  calcium/calmodulin-dependent protein kinase ig, EARS2  -  glutamyl-trna synthetase 2, mitochondrial, ABCC8  -  atp-binding cassette, sub-family c (cftr/mrp), member 8, DNAH10  -  dynein, axonemal, heavy chain 10, ACTR3B  -  arp3 actin-related protein 3 homolog b (yeast), KIF18A  -  kinesin family member 18a, TNNI3K  -  tnni3 interacting kinase, SYN2  -  synapsin ii, ATP10A  -  atpase, class v, type 10a, ATP8B2  -  atpase, aminophospholipid transporter, class i, type 8b, member 2, ATP10D  -  atpase, class v, type 10d, ABCG1  -  atp-binding cassette, sub-family g (white), member 1, DYRK1A  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 1a, TRNT1  -  trna nucleotidyl transferase, cca-adding, 1, MOS  -  v-mos moloney murine sarcoma viral oncogene homolog, MOV10  -  mov10, moloney leukemia virus 10, homolog (mouse), TAF1  -  taf1 rna polymerase ii, tata box binding protein (tbp)-associated factor, 250kda, ABCC1  -  atp-binding cassette, sub-family c (cftr/mrp), member 1, MLKL  -  mixed lineage kinase domain-like, IKBKE  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase epsilon, DDX59  -  dead (asp-glu-ala-asp) box polypeptide 59, ACSF3  -  acyl-coa synthetase family member 3, MAP3K7  -  mitogen-activated protein kinase kinase kinase 7, NLRC3  -  nlr family, card domain containing 3, TTLL4  -  tubulin tyrosine ligase-like family, member 4, UCK1  -  uridine-cytidine kinase 1, IRAK4  -  interleukin-1 receptor-associated kinase 4, CLK4  -  cdc-like kinase 4, DYNC1LI1  -  dynein, cytoplasmic 1, light intermediate chain 1, PPIP5K1  -  diphosphoinositol pentakisphosphate kinase 1, SPO11  -  spo11 meiotic protein covalently bound to dsb, MYO1B  -  myosin ib, RAPGEF2  -  rap guanine nucleotide exchange factor (gef) 2, MYO15A  -  myosin xva, MSH2  -  muts homolog 2, colon cancer, nonpolyposis type 1 (e. coli), MSH4  -  muts homolog 4 (e. coli), MSH5  -  muts homolog 5 (e. coli), HSPA14  -  heat shock 70kda protein 14, EPHA2  -  eph receptor a2, ULK2  -  unc-51 like autophagy activating kinase 2, TCP1  -  t-complex 1, AQR  -  aquarius homolog (mouse), EIF4G1  -  eukaryotic translation initiation factor 4 gamma, 1, DDX47  -  dead (asp-glu-ala-asp) box polypeptide 47, RIOK1  -  rio kinase 1, PIKFYVE  -  phosphoinositide kinase, fyve finger containing, SGK3  -  serum/glucocorticoid regulated kinase family, member 3, VPRBP  -  vpr (hiv-1) binding protein, RIMKLB  -  ribosomal modification protein rimk-like family member b, LONP2  -  lon peptidase 2, peroxisomal, AARS2  -  alanyl-trna synthetase 2, mitochondrial, MTHFD1  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1, methenyltetrahydrofolate cyclohydrolase, formyltetrahydrofolate synthetase, VRK3  -  vaccinia related kinase 3, SLK  -  ste20-like kinase, STARD9  -  star-related lipid transfer (start) domain containing 9, SHPK  -  sedoheptulokinase, WEE2  -  wee1 homolog 2 (s. pombe), TDG  -  thymine-dna glycosylase, ALPK3  -  alpha-kinase 3, EPB42  -  erythrocyte membrane protein band 4.2, EIF4A3  -  eukaryotic translation initiation factor 4a3, EPHA1  -  eph receptor a1, EPHA3  -  eph receptor a3, EPHA4  -  eph receptor a4, KIAA0232  -  kiaa0232, EPHA5  -  eph receptor a5, EPHA7  -  eph receptor a7, EPHA8  -  eph receptor a8, TESK1  -  testis-specific kinase 1, TAOK1  -  tao kinase 1, EPHB1  -  eph receptor b1, EPHB2  -  eph receptor b2, EPHB3  -  eph receptor b3, DHX38  -  deah (asp-glu-ala-his) box polypeptide 38, BMS1  -  bms1 ribosome biogenesis factor, EPRS  -  glutamyl-prolyl-trna synthetase, GSG2  -  germ cell associated 2 (haspin), ERBB4  -  v-erb-b2 avian erythroblastic leukemia viral oncogene homolog 4, STK40  -  serine/threonine kinase 40, KIF4A  -  kinesin family member 4a, MVK  -  mevalonate kinase, IP6K1  -  inositol hexakisphosphate kinase 1, ERCC3  -  excision repair cross-complementing rodent repair deficiency, complementation group 3, ERCC6  -  excision repair cross-complementing rodent repair deficiency, complementation group 6, TSSK1B  -  testis-specific serine kinase 1b, TGFBR2  -  transforming growth factor, beta receptor ii (70/80kda), STK32A  -  serine/threonine kinase 32a, ERN1  -  endoplasmic reticulum to nucleus signaling 1, BRIP1  -  brca1 interacting protein c-terminal helicase 1, MYH4  -  myosin, heavy chain 4, skeletal muscle, DSTYK  -  dual serine/threonine and tyrosine protein kinase, MYH6  -  myosin, heavy chain 6, cardiac muscle, alpha, MELK  -  maternal embryonic leucine zipper kinase, OBSCN  -  obscurin, cytoskeletal calmodulin and titin-interacting rhogef, MYH9  -  myosin, heavy chain 9, non-muscle, MYH10  -  myosin, heavy chain 10, non-muscle, MYH11  -  myosin, heavy chain 11, smooth muscle, RAD54B  -  rad54 homolog b (s. cerevisiae), KATNAL1  -  katanin p60 subunit a-like 1, MYLK  -  myosin light chain kinase, TAOK3  -  tao kinase 3, MYO1C  -  myosin ic, MYO1D  -  myosin id, TK2  -  thymidine kinase 2, mitochondrial, MYO1E  -  myosin ie, MYO5A  -  myosin va (heavy chain 12, myoxin), MYO6  -  myosin vi, MYO7A  -  myosin viia, MYO9A  -  myosin ixa, TTLL1  -  tubulin tyrosine ligase-like family, member 1, EP400  -  e1a binding protein p400, CHST15  -  carbohydrate (n-acetylgalactosamine 4-sulfate 6-o) sulfotransferase 15, MYO9B  -  myosin ixb, MYO10  -  myosin x, MYH7B  -  myosin, heavy chain 7b, cardiac muscle, beta, DHX37  -  deah (asp-glu-ala-his) box polypeptide 37, ZRANB3  -  zinc finger, ran-binding domain containing 3, HIPK1  -  homeodomain interacting protein kinase 1, DDX46  -  dead (asp-glu-ala-asp) box polypeptide 46, MYLK4  -  myosin light chain kinase family, member 4, PRKAG2  -  protein kinase, amp-activated, gamma 2 non-catalytic subunit, ACSL1  -  acyl-coa synthetase long-chain family member 1, DDX41  -  dead (asp-glu-ala-asp) box polypeptide 41, ACSL3  -  acyl-coa synthetase long-chain family member 3, ACSL4  -  acyl-coa synthetase long-chain family member 4, MYO18A  -  myosin xviiia, PTK2B  -  protein tyrosine kinase 2 beta, DDX55  -  dead (asp-glu-ala-asp) box polypeptide 55, FANCM  -  fanconi anemia, complementation group m, IP6K2  -  inositol hexakisphosphate kinase 2, ATP2C2  -  atpase, ca++ transporting, type 2c, member 2, NRBP2  -  nuclear receptor binding protein 2, FAM20B  -  family with sequence similarity 20, member b, NLRC5  -  nlr family, card domain containing 5, TOP1  -  topoisomerase (dna) i, TOP2A  -  topoisomerase (dna) ii alpha 170kda, TOP2B  -  topoisomerase (dna) ii beta 180kda, KIF14  -  kinesin family member 14, CHD6  -  chromodomain helicase dna binding protein 6, HELZ  -  helicase with zinc finger, MTHFD1L  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1-like, XYLB  -  xylulokinase homolog (h. influenzae), CMPK2  -  cytidine monophosphate (ump-cmp) kinase 2, mitochondrial, LARS  -  leucyl-trna synthetase, NEK1  -  nima-related kinase 1, NEK2  -  nima-related kinase 2, HSP90B1  -  heat shock protein 90kda beta (grp94), member 1, NEK3  -  nima-related kinase 3, THRAP3  -  thyroid hormone receptor associated protein 3, TRIO  -  trio rho guanine nucleotide exchange factor, FGFR1  -  fibroblast growth factor receptor 1, FGFR3  -  fibroblast growth factor receptor 3, ACVR1C  -  activin a receptor, type ic, CAMKK1  -  calcium/calmodulin-dependent protein kinase kinase 1, alpha, FGFR2  -  fibroblast growth factor receptor 2, FGFR4  -  fibroblast growth factor receptor 4, PARS2  -  prolyl-trna synthetase 2, mitochondrial (putative), AKT3  -  v-akt murine thymoma viral oncogene homolog 3, CKMT1A  -  creatine kinase, mitochondrial 1a, DNAH1  -  dynein, axonemal, heavy chain 1, ULK3  -  unc-51 like kinase 3, NEK5  -  nima-related kinase 5, NTPCR  -  nucleoside-triphosphatase, cancer-related, NME4  -  nme/nm23 nucleoside diphosphate kinase 4, ACOT11  -  acyl-coa thioesterase 11, FLT1  -  fms-related tyrosine kinase 1, FLT3  -  fms-related tyrosine kinase 3, FLT4  -  fms-related tyrosine kinase 4, SMC4  -  structural maintenance of chromosomes 4, TTK  -  ttk protein kinase, TTN  -  titin, UBA2  -  ubiquitin-like modifier activating enzyme 2, GRK7  -  g protein-coupled receptor kinase 7, FARSB  -  phenylalanyl-trna synthetase, beta subunit, ABCC5  -  atp-binding cassette, sub-family c (cftr/mrp), member 5, ABCB6  -  atp-binding cassette, sub-family b (mdr/tap), member 6, GLYCTK  -  glycerate kinase, HACL1  -  2-hydroxyacyl-coa lyase 1, NLK  -  nemo-like kinase, ACSL5  -  acyl-coa synthetase long-chain family member 5, ATP9A  -  atpase, class ii, type 9a, NPR2  -  natriuretic peptide receptor b/guanylate cyclase b (atrionatriuretic peptide receptor b), TYRO3  -  tyro3 protein tyrosine kinase, TRPV4  -  transient receptor potential cation channel, subfamily v, member 4, CMPK1  -  cytidine monophosphate (ump-cmp) kinase 1, cytosolic, AK9  -  adenylate kinase 9, UBA1  -  ubiquitin-like modifier activating enzyme 1, ACTR3  -  arp3 actin-related protein 3 homolog (yeast), ACTR2  -  arp2 actin-related protein 2 homolog (yeast), UBE2B  -  ubiquitin-conjugating enzyme e2b, AASDH  -  aminoadipate-semialdehyde dehydrogenase, NSF  -  n-ethylmaleimide-sensitive factor, UBE2D2  -  ubiquitin-conjugating enzyme e2d 2, UBE2E2  -  ubiquitin-conjugating enzyme e2e 2, RTEL1  -  regulator of telomere elongation helicase 1, UBE2G1  -  ubiquitin-conjugating enzyme e2g 1, UBE2G2  -  ubiquitin-conjugating enzyme e2g 2, UBE2H  -  ubiquitin-conjugating enzyme e2h, KCNT2  -  potassium channel, subfamily t, member 2, CDK12  -  cyclin-dependent kinase 12, UBE2L3  -  ubiquitin-conjugating enzyme e2l 3, RAD50  -  rad50 homolog (s. cerevisiae), UBE2N  -  ubiquitin-conjugating enzyme e2n, KIF20A  -  kinesin family member 20a, ATP8A2  -  atpase, aminophospholipid transporter, class i, type 8a, member 2, NTRK3  -  neurotrophic tyrosine kinase, receptor, type 3, KIF6  -  kinesin family member 6, ROR1  -  receptor tyrosine kinase-like orphan receptor 1, DDR2  -  discoidin domain receptor tyrosine kinase 2, MCM8  -  minichromosome maintenance complex component 8, NVL  -  nuclear vcp-like, TRAP1  -  tnf receptor-associated protein 1, ACSS1  -  acyl-coa synthetase short-chain family member 1, KIF26A  -  kinesin family member 26a, ABCA12  -  atp-binding cassette, sub-family a (abc1), member 12, G3BP1  -  gtpase activating protein (sh3 domain) binding protein 1, UCK2  -  uridine-cytidine kinase 2, GRPEL2  -  grpe-like 2, mitochondrial (e. coli), DHX35  -  deah (asp-glu-ala-his) box polypeptide 35, FRK  -  fyn-related kinase, SRR  -  serine racemase, TTBK1  -  tau tubulin kinase 1, ORC1  -  origin recognition complex, subunit 1, UBE2O  -  ubiquitin-conjugating enzyme e2o, ORC4  -  origin recognition complex, subunit 4, TNK2  -  tyrosine kinase, non-receptor, 2, ORC5  -  origin recognition complex, subunit 5, HS3ST5  -  heparan sulfate (glucosamine) 3-o-sulfotransferase 5, MYO3A  -  myosin iiia, NME6  -  nme/nm23 nucleoside diphosphate kinase 6, CSNK1G1  -  casein kinase 1, gamma 1, CHTF18  -  ctf18, chromosome transmission fidelity factor 18 homolog (s. cerevisiae), MTOR  -  mechanistic target of rapamycin (serine/threonine kinase), P2RX1  -  purinergic receptor p2x, ligand-gated ion channel, 1]</t>
-  </si>
-  <si>
     <t>GO:0032559</t>
   </si>
   <si>
     <t>adenyl ribonucleotide binding</t>
   </si>
   <si>
-    <t>[P2RX4  -  purinergic receptor p2x, ligand-gated ion channel, 4, P2RX5  -  purinergic receptor p2x, ligand-gated ion channel, 5, TRPV1  -  transient receptor potential cation channel, subfamily v, member 1, VRK1  -  vaccinia related kinase 1, VRK2  -  vaccinia related kinase 2, P2RY4  -  pyrimidinergic receptor p2y, g-protein coupled, 4, MAPK15  -  mitogen-activated protein kinase 15, LRGUK  -  leucine-rich repeats and guanylate kinase domain containing, PEBP1  -  phosphatidylethanolamine binding protein 1, ABCA2  -  atp-binding cassette, sub-family a (abc1), member 2, ABCA3  -  atp-binding cassette, sub-family a (abc1), member 3, ABCB7  -  atp-binding cassette, sub-family b (mdr/tap), member 7, ABCA4  -  atp-binding cassette, sub-family a (abc1), member 4, ABL1  -  c-abl oncogene 1, non-receptor tyrosine kinase, AK5  -  adenylate kinase 5, KIF13A  -  kinesin family member 13a, WEE1  -  wee1 homolog (s. pombe), ACACA  -  acetyl-coa carboxylase alpha, ACACB  -  acetyl-coa carboxylase beta, PAK1  -  p21 protein (cdc42/rac)-activated kinase 1, FIGNL1  -  fidgetin-like 1, PAK2  -  p21 protein (cdc42/rac)-activated kinase 2, MYO18B  -  myosin xviiib, ACADL  -  acyl-coa dehydrogenase, long chain, PAK3  -  p21 protein (cdc42/rac)-activated kinase 3, ACLY  -  atp citrate lyase, FYN  -  fyn oncogene related to src, fgr, yes, RBKS  -  ribokinase, ABCC4  -  atp-binding cassette, sub-family c (cftr/mrp), member 4, MCCC2  -  methylcrotonoyl-coa carboxylase 2 (beta), ACTA1  -  actin, alpha 1, skeletal muscle, RIPK4  -  receptor-interacting serine-threonine kinase 4, POPDC2  -  popeye domain containing 2, XRCC6  -  x-ray repair complementing defective repair in chinese hamster cells 6, PCCA  -  propionyl coa carboxylase, alpha polypeptide, PCCB  -  propionyl coa carboxylase, beta polypeptide, ACTG2  -  actin, gamma 2, smooth muscle, enteric, XRCC2  -  x-ray repair complementing defective repair in chinese hamster cells 2, XRCC3  -  x-ray repair complementing defective repair in chinese hamster cells 3, XRCC5  -  x-ray repair complementing defective repair in chinese hamster cells 5 (double-strand-break rejoining), YES1  -  v-yes-1 yamaguchi sarcoma viral oncogene homolog 1, FN3K  -  fructosamine 3 kinase, SPEG  -  speg complex locus, ACVR1  -  activin a receptor, type i, LATS2  -  large tumor suppressor kinase 2, DNAJA2  -  dnaj (hsp40) homolog, subfamily a, member 2, ACVR2B  -  activin a receptor, type iib, CDK17  -  cyclin-dependent kinase 17, CDK18  -  cyclin-dependent kinase 18, ZAP70  -  zeta-chain (tcr) associated protein kinase 70kda, ABCG4  -  atp-binding cassette, sub-family g (white), member 4, KIF9  -  kinesin family member 9, GALK1  -  galactokinase 1, GALK2  -  galactokinase 2, ADCY1  -  adenylate cyclase 1 (brain), ADCY2  -  adenylate cyclase 2 (brain), ADCY3  -  adenylate cyclase 3, PDE4B  -  phosphodiesterase 4b, camp-specific, ADCY5  -  adenylate cyclase 5, PDE4D  -  phosphodiesterase 4d, camp-specific, ADCY7  -  adenylate cyclase 7, ADCY8  -  adenylate cyclase 8 (brain), ADCY9  -  adenylate cyclase 9, PDGFRA  -  platelet-derived growth factor receptor, alpha polypeptide, GART  -  phosphoribosylglycinamide formyltransferase, phosphoribosylglycinamide synthetase, phosphoribosylaminoimidazole synthetase, PDGFRB  -  platelet-derived growth factor receptor, beta polypeptide, MOV10L1  -  mov10l1, moloney leukemia virus 10-like 1, homolog (mouse), ABCG5  -  atp-binding cassette, sub-family g (white), member 5, PDK3  -  pyruvate dehydrogenase kinase, isozyme 3, ABCG8  -  atp-binding cassette, sub-family g (white), member 8, PDK4  -  pyruvate dehydrogenase kinase, isozyme 4, SMCR7L  -  smith-magenis syndrome chromosome region, candidate 7-like, IPMK  -  inositol polyphosphate multikinase, FBXO18  -  f-box protein, helicase, 18, ADRBK1  -  adrenergic, beta, receptor kinase 1, ATAD1  -  atpase family, aaa domain containing 1, ADRBK2  -  adrenergic, beta, receptor kinase 2, PEX1  -  peroxisomal biogenesis factor 1, PEX6  -  peroxisomal biogenesis factor 6, MPP5  -  membrane protein, palmitoylated 5 (maguk p55 subfamily member 5), PFKFB2  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 2, PFKFB3  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 3, PFKFB4  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 4, NOD1  -  nucleotide-binding oligomerization domain containing 1, PFKL  -  phosphofructokinase, liver, RPS6KC1  -  ribosomal protein s6 kinase, 52kda, polypeptide 1, PFKP  -  phosphofructokinase, platelet, CDK14  -  cyclin-dependent kinase 14, NMNAT3  -  nicotinamide nucleotide adenylyltransferase 3, AK2  -  adenylate kinase 2, AK4  -  adenylate kinase 4, TTLL10  -  tubulin tyrosine ligase-like family, member 10, AKT1  -  v-akt murine thymoma viral oncogene homolog 1, ABCB1  -  atp-binding cassette, sub-family b (mdr/tap), member 1, TESK2  -  testis-specific kinase 2, DDX49  -  dead (asp-glu-ala-asp) box polypeptide 49, GK  -  glycerol kinase, MCM9  -  minichromosome maintenance complex component 9, ABCD2  -  atp-binding cassette, sub-family d (ald), member 2, PHKG1  -  phosphorylase kinase, gamma 1 (muscle), ALK  -  anaplastic lymphoma receptor tyrosine kinase, GCLC  -  glutamate-cysteine ligase, catalytic subunit, ECI2  -  enoyl-coa delta isomerase 2, INO80  -  ino80 complex subunit, MERTK  -  c-mer proto-oncogene tyrosine kinase, ACBD3  -  acyl-coa binding domain containing 3, GLUD1  -  glutamate dehydrogenase 1, PIK3C2A  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 alpha, PIK3C2B  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 beta, PIK3C2G  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 gamma, PIK3CA  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit alpha, PIK3CB  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit beta, GLUL  -  glutamate-ammonia ligase, PIK3CD  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit delta, PIK3CG  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit gamma, PI4KB  -  phosphatidylinositol 4-kinase, catalytic, beta, UBE2E3  -  ubiquitin-conjugating enzyme e2e 3, IPPK  -  inositol 1,3,4,5,6-pentakisphosphate 2-kinase, PIP4K2A  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, alpha, CERK  -  ceramide kinase, PKM  -  pyruvate kinase, muscle, STK25  -  serine/threonine kinase 25, DDX31  -  dead (asp-glu-ala-asp) box polypeptide 31, MAPKAPK3  -  mitogen-activated protein kinase-activated protein kinase 3, CHORDC1  -  cysteine and histidine-rich domain (chord) containing 1, NMNAT1  -  nicotinamide nucleotide adenylyltransferase 1, APAF1  -  apoptotic peptidase activating factor 1, DDX17  -  dead (asp-glu-ala-asp) box helicase 17, MYLK2  -  myosin light chain kinase 2, HYOU1  -  hypoxia up-regulated 1, PAN3  -  pan3 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), STK35  -  serine/threonine kinase 35, PLK1  -  polo-like kinase 1, TPK1  -  thiamin pyrophosphokinase 1, MLH3  -  mutl homolog 3 (e. coli), ATP2C1  -  atpase, ca++ transporting, type 2c, member 1, TRIT1  -  trna isopentenyltransferase 1, HELZ2  -  helicase with zinc finger 2, transcriptional coactivator, APRT  -  adenine phosphoribosyltransferase, DCLK3  -  doublecortin-like kinase 3, ERCC6L  -  excision repair cross-complementing rodent repair deficiency, complementation group 6-like, TRPM7  -  transient receptor potential cation channel, subfamily m, member 7, PMS2  -  pms2 postmeiotic segregation increased 2 (s. cerevisiae), ABCC6  -  atp-binding cassette, sub-family c (cftr/mrp), member 6, CCT7  -  chaperonin containing tcp1, subunit 7 (eta), CCT4  -  chaperonin containing tcp1, subunit 4 (delta), CCT2  -  chaperonin containing tcp1, subunit 2 (beta), MTHFS  -  5,10-methenyltetrahydrofolate synthetase (5-formyltetrahydrofolate cyclo-ligase), GRK4  -  g protein-coupled receptor kinase 4, GRK5  -  g protein-coupled receptor kinase 5, PINK1  -  pten induced putative kinase 1, GRK6  -  g protein-coupled receptor kinase 6, EIF2AK1  -  eukaryotic translation initiation factor 2-alpha kinase 1, CDK15  -  cyclin-dependent kinase 15, SHPRH  -  snf2 histone linker phd ring helicase, e3 ubiquitin protein ligase, SNRK  -  snf related kinase, SMC1B  -  structural maintenance of chromosomes 1b, HSPA12A  -  heat shock 70kda protein 12a, WNK1  -  wnk lysine deficient protein kinase 1, STK36  -  serine/threonine kinase 36, NADK  -  nad kinase, NAV3  -  neuron navigator 3, NAV2  -  neuron navigator 2, UBE2Z  -  ubiquitin-conjugating enzyme e2z, ABCC10  -  atp-binding cassette, sub-family c (cftr/mrp), member 10, ASNS  -  asparagine synthetase (glutamine-hydrolyzing), CAMKK2  -  calcium/calmodulin-dependent protein kinase kinase 2, beta, ASS1  -  argininosuccinate synthase 1, VPS4A  -  vacuolar protein sorting 4 homolog a (s. cerevisiae), AACS  -  acetoacetyl-coa synthetase, GSK3B  -  glycogen synthase kinase 3 beta, GSS  -  glutathione synthetase, FARS2  -  phenylalanyl-trna synthetase 2, mitochondrial, ATM  -  ataxia telangiectasia mutated, MAGI3  -  membrane associated guanylate kinase, ww and pdz domain containing 3, NMRK2  -  nicotinamide riboside kinase 2, ATP1A1  -  atpase, na+/k+ transporting, alpha 1 polypeptide, DPH6  -  diphthamine biosynthesis 6, ATP12A  -  atpase, h+/k+ transporting, nongastric, alpha polypeptide, MSH6  -  muts homolog 6 (e. coli), GTF2F2  -  general transcription factor iif, polypeptide 2, 30kda, ATP2A3  -  atpase, ca++ transporting, ubiquitous, ATP2B1  -  atpase, ca++ transporting, plasma membrane 1, CCT8  -  chaperonin containing tcp1, subunit 8 (theta), ATP2B4  -  atpase, ca++ transporting, plasma membrane 4, CAMKV  -  cam kinase-like vesicle-associated, POLQ  -  polymerase (dna directed), theta, UCKL1  -  uridine-cytidine kinase 1-like 1, YME1L1  -  yme1-like 1 atpase, GUCY2C  -  guanylate cyclase 2c (heat stable enterotoxin receptor), GUCY2F  -  guanylate cyclase 2f, retinal, GUK1  -  guanylate kinase 1, MKKS  -  mckusick-kaufman syndrome, ATP6V1A  -  atpase, h+ transporting, lysosomal 70kda, v1 subunit a, SPATA5L1  -  spermatogenesis associated 5-like 1, TTBK2  -  tau tubulin kinase 2, KIF7  -  kinesin family member 7, ATP6AP1  -  atpase, h+ transporting, lysosomal accessory protein 1, ATP7A  -  atpase, cu++ transporting, alpha polypeptide, PRKACB  -  protein kinase, camp-dependent, catalytic, beta, DDX54  -  dead (asp-glu-ala-asp) box polypeptide 54, MAP3K2  -  mitogen-activated protein kinase kinase kinase 2, ATP7B  -  atpase, cu++ transporting, beta polypeptide, ULK4  -  unc-51 like kinase 4, ATR  -  ataxia telangiectasia and rad3 related, SYN3  -  synapsin iii, ATRX  -  alpha thalassemia/mental retardation syndrome x-linked, PRKAR2A  -  protein kinase, camp-dependent, regulatory, type ii, alpha, KIF1A  -  kinesin family member 1a, ATP9B  -  atpase, class ii, type 9b, PRKAR2B  -  protein kinase, camp-dependent, regulatory, type ii, beta, PRKCA  -  protein kinase c, alpha, PRKCB  -  protein kinase c, beta, PRKCD  -  protein kinase c, delta, PRKCE  -  protein kinase c, epsilon, RPS6KA6  -  ribosomal protein s6 kinase, 90kda, polypeptide 6, PRKCH  -  protein kinase c, eta, PKN2  -  protein kinase n2, PRKCQ  -  protein kinase c, theta, PRKCZ  -  protein kinase c, zeta, PRKDC  -  protein kinase, dna-activated, catalytic polypeptide, PRKG1  -  protein kinase, cgmp-dependent, type i, MAPK1  -  mitogen-activated protein kinase 1, MAPK6  -  mitogen-activated protein kinase 6, TOR1B  -  torsin family 1, member b (torsin b), NEK6  -  nima-related kinase 6, MAPK8  -  mitogen-activated protein kinase 8, MAPK11  -  mitogen-activated protein kinase 11, MAPK9  -  mitogen-activated protein kinase 9, MAPK10  -  mitogen-activated protein kinase 10, MAPK13  -  mitogen-activated protein kinase 13, MAP2K1  -  mitogen-activated protein kinase kinase 1, TOR2A  -  torsin family 2, member a, MAP2K6  -  mitogen-activated protein kinase kinase 6, EIF2AK2  -  eukaryotic translation initiation factor 2-alpha kinase 2, DHX58  -  dexh (asp-glu-x-his) box polypeptide 58, HCK  -  hemopoietic cell kinase, HSPH1  -  heat shock 105kda/110kda protein 1, CDC7  -  cell division cycle 7, HCN2  -  hyperpolarization activated cyclic nucleotide-gated potassium channel 2, BCR  -  breakpoint cluster region, BCS1L  -  bc1 (ubiquinol-cytochrome c reductase) synthesis-like, PRPS1  -  phosphoribosyl pyrophosphate synthetase 1, PRPS2  -  phosphoribosyl pyrophosphate synthetase 2, ADCK2  -  aarf domain containing kinase 2, BLK  -  b lymphoid tyrosine kinase, DHX57  -  deah (asp-glu-ala-asp/his) box polypeptide 57, BLM  -  bloom syndrome, recq helicase-like, CLPX  -  clpx caseinolytic peptidase x homolog (e. coli), HK2  -  hexokinase 2, PDE10A  -  phosphodiesterase 10a, ENTPD8  -  ectonucleoside triphosphate diphosphohydrolase 8, BMPR1A  -  bone morphogenetic protein receptor, type ia, PSKH1  -  protein serine kinase h1, BMPR2  -  bone morphogenetic protein receptor, type ii (serine/threonine kinase), BRAF  -  v-raf murine sarcoma viral oncogene homolog b, PSMC1  -  proteasome (prosome, macropain) 26s subunit, atpase, 1, PSMC2  -  proteasome (prosome, macropain) 26s subunit, atpase, 2, PSMC3  -  proteasome (prosome, macropain) 26s subunit, atpase, 3, PSMC5  -  proteasome (prosome, macropain) 26s subunit, atpase, 5, FIGN  -  fidgetin, HLCS  -  holocarboxylase synthetase (biotin-(proprionyl-coa-carboxylase (atp-hydrolysing)) ligase), PIP4K2B  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, beta, BTK  -  bruton agammaglobulinemia tyrosine kinase, ACBD5  -  acyl-coa binding domain containing 5, PKDCC  -  protein kinase domain containing, cytoplasmic, BUB1  -  bub1 mitotic checkpoint serine/threonine kinase, MTPAP  -  mitochondrial poly(a) polymerase, HMGCL  -  3-hydroxymethyl-3-methylglutaryl-coa lyase, BUB1B  -  bub1 mitotic checkpoint serine/threonine kinase b, ULK1  -  unc-51 like autophagy activating kinase 1, DARS2  -  aspartyl-trna synthetase 2, mitochondrial, PAPOLA  -  poly(a) polymerase alpha, ATP8B3  -  atpase, aminophospholipid transporter, class i, type 8b, member 3, TDRD12  -  tudor domain containing 12, RAD54L  -  rad54-like (s. cerevisiae), PTK2  -  protein tyrosine kinase 2, DYRK3  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 3, DYRK2  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 2, PTK7  -  protein tyrosine kinase 7, TWF1  -  twinfilin actin-binding protein 1, HNRNPU  -  heterogeneous nuclear ribonucleoprotein u (scaffold attachment factor a), MPPED2  -  metallophosphoesterase domain containing 2, NEK9  -  nima-related kinase 9, NADSYN1  -  nad synthetase 1, TTF2  -  transcription termination factor, rna polymerase ii, MYLK3  -  myosin light chain kinase 3, CDC42BPA  -  cdc42 binding protein kinase alpha (dmpk-like), KSR2  -  kinase suppressor of ras 2, CACNA1B  -  calcium channel, voltage-dependent, n type, alpha 1b subunit, GATC  -  glutamyl-trna(gln) amidotransferase, subunit c, ASCC3  -  activating signal cointegrator 1 complex subunit 3, MAP4K3  -  mitogen-activated protein kinase kinase kinase kinase 3, ETNK2  -  ethanolamine kinase 2, NAT10  -  n-acetyltransferase 10 (gcn5-related), PANK4  -  pantothenate kinase 4, ATP13A3  -  atpase type 13a3, PDIK1L  -  pdlim1 interacting kinase 1 like, UBA6  -  ubiquitin-like modifier activating enzyme 6, CARS2  -  cysteinyl-trna synthetase 2, mitochondrial (putative), ABCD4  -  atp-binding cassette, sub-family d (ald), member 4, KIF2C  -  kinesin family member 2c, ALDH18A1  -  aldehyde dehydrogenase 18 family, member a1, TLK2  -  tousled-like kinase 2, STRADA  -  ste20-related kinase adaptor alpha, CAMK4  -  calcium/calmodulin-dependent protein kinase iv, CAMK2A  -  calcium/calmodulin-dependent protein kinase ii alpha, DGKZ  -  diacylglycerol kinase, zeta, CAMK2D  -  calcium/calmodulin-dependent protein kinase ii delta, DGKE  -  diacylglycerol kinase, epsilon 64kda, CAMK2G  -  calcium/calmodulin-dependent protein kinase ii gamma, DGKD  -  diacylglycerol kinase, delta 130kda, ACSS3  -  acyl-coa synthetase short-chain family member 3, CARS  -  cysteinyl-trna synthetase, QRSL1  -  glutaminyl-trna synthase (glutamine-hydrolyzing)-like 1, PIM3  -  pim-3 oncogene, UBE2W  -  ubiquitin-conjugating enzyme e2w (putative), MAPKAPK5  -  mitogen-activated protein kinase-activated protein kinase 5, DNAJA1  -  dnaj (hsp40) homolog, subfamily a, member 1, RAD51  -  rad51 recombinase, RAD51C  -  rad51 paralog c, PANK3  -  pantothenate kinase 3, HSPA4  -  heat shock 70kda protein 4, CDK10  -  cyclin-dependent kinase 10, RAD51D  -  rad51 paralog d, DDX52  -  dead (asp-glu-ala-asp) box polypeptide 52, RUNX2  -  runt-related transcription factor 2, RAF1  -  v-raf-1 murine leukemia viral oncogene homolog 1, RUNX1  -  runt-related transcription factor 1, HSPA8  -  heat shock 70kda protein 8, HELB  -  helicase (dna) b, HSPA9  -  heat shock 70kda protein 9 (mortalin), PI4K2B  -  phosphatidylinositol 4-kinase type 2 beta, PDXK  -  pyridoxal (pyridoxine, vitamin b6) kinase, MKNK1  -  map kinase interacting serine/threonine kinase 1, DYNC2H1  -  dynein, cytoplasmic 2, heavy chain 1, UBE2Q2  -  ubiquitin-conjugating enzyme e2q family member 2, CASK  -  calcium/calmodulin-dependent serine protein kinase (maguk family), MARS2  -  methionyl-trna synthetase 2, mitochondrial, RAPGEF4  -  rap guanine nucleotide exchange factor (gef) 4, DHX40  -  deah (asp-glu-ala-his) box polypeptide 40, HSPD1  -  heat shock 60kda protein 1 (chaperonin), STK16  -  serine/threonine kinase 16, NLRX1  -  nlr family member x1, TTL  -  tubulin tyrosine ligase, ABCF3  -  atp-binding cassette, sub-family f (gcn20), member 3, SMC6  -  structural maintenance of chromosomes 6, RUVBL1  -  ruvb-like 1 (e. coli), CCT6A  -  chaperonin containing tcp1, subunit 6a (zeta 1), KATNA1  -  katanin p60 (atpase containing) subunit a 1, CDK13  -  cyclin-dependent kinase 13, CIT  -  citron (rho-interacting, serine/threonine kinase 21), LRRK1  -  leucine-rich repeat kinase 1, NOL9  -  nucleolar protein 9, IARS  -  isoleucyl-trna synthetase, DNAH17  -  dynein, axonemal, heavy chain 17, KIF3A  -  kinesin family member 3a, RECQL  -  recq protein-like (dna helicase q1-like), TBCK  -  tbc1 domain containing kinase, ABCB11  -  atp-binding cassette, sub-family b (mdr/tap), member 11, NARS2  -  asparaginyl-trna synthetase 2, mitochondrial (putative), DMC1  -  dna meiotic recombinase 1, UPF1  -  upf1 regulator of nonsense transcripts homolog (yeast), BBS10  -  bardet-biedl syndrome 10, RET  -  ret proto-oncogene, TTLL7  -  tubulin tyrosine ligase-like family, member 7, BVES  -  blood vessel epicardial substance, RFC1  -  replication factor c (activator 1) 1, 145kda, RFC2  -  replication factor c (activator 1) 2, 40kda, STRADB  -  ste20-related kinase adaptor beta, FICD  -  fic domain containing, RFC4  -  replication factor c (activator 1) 4, 37kda, ENTPD1  -  ectonucleoside triphosphate diphosphohydrolase 1, ENTPD2  -  ectonucleoside triphosphate diphosphohydrolase 2, IDE  -  insulin-degrading enzyme, ENTPD3  -  ectonucleoside triphosphate diphosphohydrolase 3, NEK8  -  nima-related kinase 8, DNAJA4  -  dnaj (hsp40) homolog, subfamily a, member 4, EIF2AK4  -  eukaryotic translation initiation factor 2 alpha kinase 4, ETNK1  -  ethanolamine kinase 1, CHST12  -  carbohydrate (chondroitin 4) sulfotransferase 12, DDX43  -  dead (asp-glu-ala-asp) box polypeptide 43, MAP4K5  -  mitogen-activated protein kinase kinase kinase kinase 5, DNAH11  -  dynein, axonemal, heavy chain 11, ABCC3  -  atp-binding cassette, sub-family c (cftr/mrp), member 3, CHEK2  -  checkpoint kinase 2, DNAH3  -  dynein, axonemal, heavy chain 3, SBK1  -  sh3-binding domain kinase 1, RNASEL  -  ribonuclease l (2',5'-oligoisoadenylate synthetase-dependent), NEK10  -  nima-related kinase 10, DDX20  -  dead (asp-glu-ala-asp) box polypeptide 20, UBE2Q1  -  ubiquitin-conjugating enzyme e2q family member 1, CDK3  -  cyclin-dependent kinase 3, BMP2K  -  bmp2 inducible kinase, CDK5  -  cyclin-dependent kinase 5, RIPK1  -  receptor (tnfrsf)-interacting serine-threonine kinase 1, CDK6  -  cyclin-dependent kinase 6, ABCE1  -  atp-binding cassette, sub-family e (oabp), member 1, CDK8  -  cyclin-dependent kinase 8, CDK9  -  cyclin-dependent kinase 9, KIF21A  -  kinesin family member 21a, IGHMBP2  -  immunoglobulin mu binding protein 2, KIF16B  -  kinesin family member 16b, RIPK2  -  receptor-interacting serine-threonine kinase 2, RIOK3  -  rio kinase 3, ROCK1  -  rho-associated, coiled-coil containing protein kinase 1, CENPE  -  centromere protein e, 312kda, ROS1  -  c-ros oncogene 1 , receptor tyrosine kinase, CHD7  -  chromodomain helicase dna binding protein 7, UBA5  -  ubiquitin-like modifier activating enzyme 5, DCAKD  -  dephospho-coa kinase domain containing, IKBKB  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase beta, CFTR  -  cystic fibrosis transmembrane conductance regulator (atp-binding cassette sub-family c, member 7), SUCLG2  -  succinate-coa ligase, gdp-forming, beta subunit, SUCLA2  -  succinate-coa ligase, adp-forming, beta subunit, DDX27  -  dead (asp-glu-ala-asp) box polypeptide 27, DDX42  -  dead (asp-glu-ala-asp) box helicase 42, CDKL1  -  cyclin-dependent kinase-like 1 (cdc2-related kinase), CHD2  -  chromodomain helicase dna binding protein 2, SCYL2  -  scy1-like 2 (s. cerevisiae), ATAD5  -  atpase family, aaa domain containing 5, CHD4  -  chromodomain helicase dna binding protein 4, TRMU  -  trna 5-methylaminomethyl-2-thiouridylate methyltransferase, TWF2  -  twinfilin actin-binding protein 2, GMPS  -  guanine monphosphate synthase, KIF12  -  kinesin family member 12, CHKA  -  choline kinase alpha, IARS2  -  isoleucyl-trna synthetase 2, mitochondrial, KSR1  -  kinase suppressor of ras 1, ABCA13  -  atp-binding cassette, sub-family a (abc1), member 13, HELQ  -  helicase, polq-like, HSPA4L  -  heat shock 70kda protein 4-like, N4BP2  -  nedd4 binding protein 2, CKB  -  creatine kinase, brain, RPS6KA2  -  ribosomal protein s6 kinase, 90kda, polypeptide 2, RPS6KA3  -  ribosomal protein s6 kinase, 90kda, polypeptide 3, RPS6KB1  -  ribosomal protein s6 kinase, 70kda, polypeptide 1, RPS6KB2  -  ribosomal protein s6 kinase, 70kda, polypeptide 2, DDX18  -  dead (asp-glu-ala-asp) box polypeptide 18, AAK1  -  ap2 associated kinase 1, LMTK2  -  lemur tyrosine kinase 2, AGK  -  acylglycerol kinase, IRAK2  -  interleukin-1 receptor-associated kinase 2, CLCN3  -  chloride channel, voltage-sensitive 3, CLCN4  -  chloride channel, voltage-sensitive 4, PRPF4B  -  prp4 pre-mrna processing factor 4 homolog b (yeast), CLCN5  -  chloride channel, voltage-sensitive 5, CLCN6  -  chloride channel, voltage-sensitive 6, CLCN7  -  chloride channel, voltage-sensitive 7, DHX32  -  deah (asp-glu-ala-his) box polypeptide 32, CLK2  -  cdc-like kinase 2, CLK3  -  cdc-like kinase 3, RRM1  -  ribonucleotide reductase m1, MORC2  -  morc family cw-type zinc finger 2, PANK2  -  pantothenate kinase 2, MCMDC2  -  minichromosome maintenance domain containing 2, EPHA6  -  eph receptor a6, ITK  -  il2-inducible t-cell kinase, ABCC2  -  atp-binding cassette, sub-family c (cftr/mrp), member 2, DHX30  -  deah (asp-glu-ala-his) box helicase 30, ITPK1  -  inositol-tetrakisphosphate 1-kinase, ITPKA  -  inositol-trisphosphate 3-kinase a, ITPKB  -  inositol-trisphosphate 3-kinase b, AK8  -  adenylate kinase 8, CNGB1  -  cyclic nucleotide gated channel beta 1, PIF1  -  pif1 5'-to-3' dna helicase, MAP3K19  -  mitogen-activated protein kinase kinase kinase 19, TTLL11  -  tubulin tyrosine ligase-like family, member 11, CNGA2  -  cyclic nucleotide gated channel alpha 2, JAK1  -  janus kinase 1, KALRN  -  kalirin, rhogef kinase, SEPHS1  -  selenophosphate synthetase 1, CDKL2  -  cyclin-dependent kinase-like 2 (cdc2-related kinase), ACSM3  -  acyl-coa synthetase medium-chain family member 3, MAPK12  -  mitogen-activated protein kinase 12, MAP3K14  -  mitogen-activated protein kinase kinase kinase 14, BRSK2  -  br serine/threonine kinase 2, CCT5  -  chaperonin containing tcp1, subunit 5 (epsilon), BAZ1B  -  bromodomain adjacent to zinc finger domain, 1b, UBA3  -  ubiquitin-like modifier activating enzyme 3, MYO19  -  myosin xix, KCNJ1  -  potassium inwardly-rectifying channel, subfamily j, member 1, BTAF1  -  btaf1 rna polymerase ii, b-tfiid transcription factor-associated, 170kda, SCN8A  -  sodium channel, voltage gated, type viii, alpha subunit, KCNJ8  -  potassium inwardly-rectifying channel, subfamily j, member 8, HKDC1  -  hexokinase domain containing 1, CHD9  -  chromodomain helicase dna binding protein 9, MB21D1  -  mab-21 domain containing 1, SCP2  -  sterol carrier protein 2, PAPSS1  -  3'-phosphoadenosine 5'-phosphosulfate synthase 1, MAP3K6  -  mitogen-activated protein kinase kinase kinase 6, ALPK1  -  alpha-kinase 1, MAP3K8  -  mitogen-activated protein kinase kinase kinase 8, ACSS2  -  acyl-coa synthetase short-chain family member 2, STK38L  -  serine/threonine kinase 38 like, KDR  -  kinase insert domain receptor (a type iii receptor tyrosine kinase), KIF2A  -  kinesin heavy chain member 2a, KIF3C  -  kinesin family member 3c, LANCL2  -  lanc lantibiotic synthetase component c-like 2 (bacterial), KIF5B  -  kinesin family member 5b, KIF5C  -  kinesin family member 5c, KIFC3  -  kinesin family member c3, MYO16  -  myosin xvi, DNAJA3  -  dnaj (hsp40) homolog, subfamily a, member 3, MAST3  -  microtubule associated serine/threonine kinase 3, MYO5C  -  myosin vc, MAP3K15  -  mitogen-activated protein kinase kinase kinase 15, KIT  -  v-kit hardy-zuckerman 4 feline sarcoma viral oncogene homolog, TNIK  -  traf2 and nck interacting kinase, KIF21B  -  kinesin family member 21b, LATS1  -  large tumor suppressor kinase 1, SMG1  -  smg1 phosphatidylinositol 3-kinase-related kinase, CPS1  -  carbamoyl-phosphate synthase 1, mitochondrial, DGKH  -  diacylglycerol kinase, eta, KIF11  -  kinesin family member 11, NMNAT2  -  nicotinamide nucleotide adenylyltransferase 2, KIF25  -  kinesin family member 25, SMC3  -  structural maintenance of chromosomes 3, P2RX6  -  purinergic receptor p2x, ligand-gated ion channel, 6, SETX  -  senataxin, UBE2T  -  ubiquitin-conjugating enzyme e2t (putative), SWAP70  -  swap switching b-cell complex 70kda subunit, VWA8  -  von willebrand factor a domain containing 8, COASY  -  coa synthase, TTLL5  -  tubulin tyrosine ligase-like family, member 5, KIF1B  -  kinesin family member 1b, TBK1  -  tank-binding kinase 1, DGKI  -  diacylglycerol kinase, iota, SGK1  -  serum/glucocorticoid regulated kinase 1, CUL9  -  cullin 9, MAP3K13  -  mitogen-activated protein kinase kinase kinase 13, MAPK14  -  mitogen-activated protein kinase 14, ATP10B  -  atpase, class v, type 10b, AARSD1  -  alanyl-trna synthetase domain containing 1, RAD54L2  -  rad54-like 2 (s. cerevisiae), TEX14  -  testis expressed 14, CSK  -  c-src tyrosine kinase, MAST2  -  microtubule associated serine/threonine kinase 2, DCLK1  -  doublecortin-like kinase 1, CSNK1A1  -  casein kinase 1, alpha 1, HSPA12B  -  heat shock 70kd protein 12b, CSNK1E  -  casein kinase 1, epsilon, OLA1  -  obg-like atpase 1, CSNK1G2  -  casein kinase 1, gamma 2, STK31  -  serine/threonine kinase 31, CSNK2A1  -  casein kinase 2, alpha 1 polypeptide, DNAH7  -  dynein, axonemal, heavy chain 7, MAGI1  -  membrane associated guanylate kinase, ww and pdz domain containing 1, TTLL12  -  tubulin tyrosine ligase-like family, member 12, PASK  -  pas domain containing serine/threonine kinase, EEF2K  -  eukaryotic elongation factor-2 kinase, HFM1  -  hfm1, atp-dependent dna helicase homolog (s. cerevisiae), RPS6KA5  -  ribosomal protein s6 kinase, 90kda, polypeptide 5, LIG3  -  ligase iii, dna, atp-dependent, LIG4  -  ligase iv, dna, atp-dependent, TTLL9  -  tubulin tyrosine ligase-like family, member 9, MAPKAPK2  -  mitogen-activated protein kinase-activated protein kinase 2, MDN1  -  mdn1, midasin homolog (yeast), NME7  -  nme/nm23 family member 7, STK17A  -  serine/threonine kinase 17a, LIMK2  -  lim domain kinase 2, CTPS2  -  ctp synthase 2, ATP11B  -  atpase, class vi, type 11b, IP6K3  -  inositol hexakisphosphate kinase 3, ACSBG1  -  acyl-coa synthetase bubblegum family member 1, ATP11C  -  atpase, class vi, type 11c, SBK2  -  sh3-binding domain kinase family, member 2, BBS12  -  bardet-biedl syndrome 12, DCLK2  -  doublecortin-like kinase 2, NRBP1  -  nuclear receptor binding protein 1, SIK2  -  salt-inducible kinase 2, SLC19A1  -  solute carrier family 19 (folate transporter), member 1, TRIP13  -  thyroid hormone receptor interactor 13, ATP11A  -  atpase, class vi, type 11a, SLC22A4  -  solute carrier family 22 (organic cation/zwitterion transporter), member 4, LONP1  -  lon peptidase 1, mitochondrial, WRNIP1  -  werner helicase interacting protein 1, DGKB  -  diacylglycerol kinase, beta 90kda, KIF3B  -  kinesin family member 3b, KIF13B  -  kinesin family member 13b, EHD4  -  eh-domain containing 4, EHD3  -  eh-domain containing 3, ACSL6  -  acyl-coa synthetase long-chain family member 6, PIK3R4  -  phosphoinositide-3-kinase, regulatory subunit 4, SMARCAD1  -  swi/snf-related, matrix-associated actin-dependent regulator of chromatin, subfamily a, containing dead/h box 1, DHX33  -  deah (asp-glu-ala-his) box polypeptide 33, MCCC1  -  methylcrotonoyl-coa carboxylase 1 (alpha), PAK6  -  p21 protein (cdc42/rac)-activated kinase 6, SMARCAL1  -  swi/snf related, matrix associated, actin dependent regulator of chromatin, subfamily a-like 1, SOAT1  -  sterol o-acyltransferase 1, RECQL5  -  recq protein-like 5, DHX36  -  deah (asp-glu-ala-his) box polypeptide 36, DDX51  -  dead (asp-glu-ala-asp) box polypeptide 51, MAK  -  male germ cell-associated kinase, LRRK2  -  leucine-rich repeat kinase 2, SMCHD1  -  structural maintenance of chromosomes flexible hinge domain containing 1, DDX1  -  dead (asp-glu-ala-asp) box helicase 1, DDX3X  -  dead (asp-glu-ala-asp) box helicase 3, x-linked, DDX5  -  dead (asp-glu-ala-asp) box helicase 5, MARK1  -  map/microtubule affinity-regulating kinase 1, DHX8  -  deah (asp-glu-ala-his) box polypeptide 8, MARK3  -  map/microtubule affinity-regulating kinase 3, DDX10  -  dead (asp-glu-ala-asp) box polypeptide 10, MAT1A  -  methionine adenosyltransferase i, alpha, DDX11  -  dead/h (asp-glu-ala-asp/his) box helicase 11, DHX15  -  deah (asp-glu-ala-his) box helicase 15, ABCG2  -  atp-binding cassette, sub-family g (white), member 2, PNPLA8  -  patatin-like phospholipase domain containing 8, SPAST  -  spastin, FAM20C  -  family with sequence similarity 20, member c, SPG7  -  spastic paraplegia 7 (pure and complicated autosomal recessive), ITM2B  -  integral membrane protein 2b, KIF15  -  kinesin family member 15, EIF2AK3  -  eukaryotic translation initiation factor 2-alpha kinase 3, SIK3  -  sik family kinase 3, MCM2  -  minichromosome maintenance complex component 2, MCM3  -  minichromosome maintenance complex component 3, MCM4  -  minichromosome maintenance complex component 4, MCM5  -  minichromosome maintenance complex component 5, LARS2  -  leucyl-trna synthetase 2, mitochondrial, PIP5K1C  -  phosphatidylinositol-4-phosphate 5-kinase, type i, gamma, ATP13A2  -  atpase type 13a2, SRC  -  v-src avian sarcoma (schmidt-ruppin a-2) viral oncogene homolog, DICER1  -  dicer 1, ribonuclease type iii, CYB5R3  -  cytochrome b5 reductase 3, ROCK2  -  rho-associated, coiled-coil containing protein kinase 2, TDRD9  -  tudor domain containing 9, SRMS  -  src-related kinase lacking c-terminal regulatory tyrosine and n-terminal myristylation sites, RARS2  -  arginyl-trna synthetase 2, mitochondrial, AK7  -  adenylate kinase 7, PGS1  -  phosphatidylglycerophosphate synthase 1, SRPK1  -  srsf protein kinase 1, SRPK2  -  srsf protein kinase 2, KIF23  -  kinesin family member 23, MAP3K3  -  mitogen-activated protein kinase kinase kinase 3, MAP3K4  -  mitogen-activated protein kinase kinase kinase 4, DDX24  -  dead (asp-glu-ala-asp) box helicase 24, DNA2  -  dna replication helicase/nuclease 2, MET  -  met proto-oncogene, DNAH5  -  dynein, axonemal, heavy chain 5, DNAH8  -  dynein, axonemal, heavy chain 8, DNAH9  -  dynein, axonemal, heavy chain 9, ABCB10  -  atp-binding cassette, sub-family b (mdr/tap), member 10, ABCB9  -  atp-binding cassette, sub-family b (mdr/tap), member 9, VPS4B  -  vacuolar protein sorting 4 homolog b (s. cerevisiae), DYNC1H1  -  dynein, cytoplasmic 1, heavy chain 1, ABCA6  -  atp-binding cassette, sub-family a (abc1), member 6, ABCA5  -  atp-binding cassette, sub-family a (abc1), member 5, DYNC1LI2  -  dynein, cytoplasmic 1, light intermediate chain 2, CAMK1D  -  calcium/calmodulin-dependent protein kinase id, CIITA  -  class ii, major histocompatibility complex, transactivator, NUAK2  -  nuak family, snf1-like kinase, 2, MMAB  -  methylmalonic acid</t>
-  </si>
-  <si>
-    <t>ria (cobalamin deficiency) cblb type, HSPA13  -  heat shock protein 70kda family, member 13, NEK4  -  nima-related kinase 4, STK3  -  serine/threonine kinase 3, STK4  -  serine/threonine kinase 4, CDKL5  -  cyclin-dependent kinase-like 5, STK10  -  serine/threonine kinase 10, STK11  -  serine/threonine kinase 11, CHD1L  -  chromodomain helicase dna binding protein 1-like, ADCK1  -  aarf domain containing kinase 1, PAK7  -  p21 protein (cdc42/rac)-activated kinase 7, MKI67  -  antigen identified by monoclonal antibody ki-67, SCYL3  -  scy1-like 3 (s. cerevisiae), MLH1  -  mutl homolog 1, colon cancer, nonpolyposis type 2 (e. coli), MAP3K9  -  mitogen-activated protein kinase kinase kinase 9, KIF20B  -  kinesin family member 20b, SUPV3L1  -  suppressor of var1, 3-like 1 (s. cerevisiae), CAMK1G  -  calcium/calmodulin-dependent protein kinase ig, EARS2  -  glutamyl-trna synthetase 2, mitochondrial, ABCC8  -  atp-binding cassette, sub-family c (cftr/mrp), member 8, DNAH10  -  dynein, axonemal, heavy chain 10, ACTR3B  -  arp3 actin-related protein 3 homolog b (yeast), KIF18A  -  kinesin family member 18a, TNNI3K  -  tnni3 interacting kinase, SYN2  -  synapsin ii, ATP10A  -  atpase, class v, type 10a, ATP8B2  -  atpase, aminophospholipid transporter, class i, type 8b, member 2, ATP10D  -  atpase, class v, type 10d, ABCG1  -  atp-binding cassette, sub-family g (white), member 1, DYRK1A  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 1a, TRNT1  -  trna nucleotidyl transferase, cca-adding, 1, MOS  -  v-mos moloney murine sarcoma viral oncogene homolog, MOV10  -  mov10, moloney leukemia virus 10, homolog (mouse), TAF1  -  taf1 rna polymerase ii, tata box binding protein (tbp)-associated factor, 250kda, ABCC1  -  atp-binding cassette, sub-family c (cftr/mrp), member 1, MLKL  -  mixed lineage kinase domain-like, IKBKE  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase epsilon, DDX59  -  dead (asp-glu-ala-asp) box polypeptide 59, ACSF3  -  acyl-coa synthetase family member 3, MAP3K7  -  mitogen-activated protein kinase kinase kinase 7, NLRC3  -  nlr family, card domain containing 3, TTLL4  -  tubulin tyrosine ligase-like family, member 4, UCK1  -  uridine-cytidine kinase 1, IRAK4  -  interleukin-1 receptor-associated kinase 4, CLK4  -  cdc-like kinase 4, DYNC1LI1  -  dynein, cytoplasmic 1, light intermediate chain 1, PPIP5K1  -  diphosphoinositol pentakisphosphate kinase 1, SPO11  -  spo11 meiotic protein covalently bound to dsb, MYO1B  -  myosin ib, RAPGEF2  -  rap guanine nucleotide exchange factor (gef) 2, MYO15A  -  myosin xva, MSH2  -  muts homolog 2, colon cancer, nonpolyposis type 1 (e. coli), MSH4  -  muts homolog 4 (e. coli), MSH5  -  muts homolog 5 (e. coli), HSPA14  -  heat shock 70kda protein 14, EPHA2  -  eph receptor a2, ULK2  -  unc-51 like autophagy activating kinase 2, TCP1  -  t-complex 1, AQR  -  aquarius homolog (mouse), EIF4G1  -  eukaryotic translation initiation factor 4 gamma, 1, DDX47  -  dead (asp-glu-ala-asp) box polypeptide 47, RIOK1  -  rio kinase 1, PIKFYVE  -  phosphoinositide kinase, fyve finger containing, SGK3  -  serum/glucocorticoid regulated kinase family, member 3, VPRBP  -  vpr (hiv-1) binding protein, RIMKLB  -  ribosomal modification protein rimk-like family member b, LONP2  -  lon peptidase 2, peroxisomal, AARS2  -  alanyl-trna synthetase 2, mitochondrial, MTHFD1  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1, methenyltetrahydrofolate cyclohydrolase, formyltetrahydrofolate synthetase, VRK3  -  vaccinia related kinase 3, SLK  -  ste20-like kinase, STARD9  -  star-related lipid transfer (start) domain containing 9, SHPK  -  sedoheptulokinase, WEE2  -  wee1 homolog 2 (s. pombe), TDG  -  thymine-dna glycosylase, ALPK3  -  alpha-kinase 3, EPB42  -  erythrocyte membrane protein band 4.2, EIF4A3  -  eukaryotic translation initiation factor 4a3, EPHA1  -  eph receptor a1, EPHA3  -  eph receptor a3, EPHA4  -  eph receptor a4, KIAA0232  -  kiaa0232, EPHA5  -  eph receptor a5, EPHA7  -  eph receptor a7, EPHA8  -  eph receptor a8, TESK1  -  testis-specific kinase 1, TAOK1  -  tao kinase 1, EPHB1  -  eph receptor b1, EPHB2  -  eph receptor b2, EPHB3  -  eph receptor b3, DHX38  -  deah (asp-glu-ala-his) box polypeptide 38, BMS1  -  bms1 ribosome biogenesis factor, EPRS  -  glutamyl-prolyl-trna synthetase, GSG2  -  germ cell associated 2 (haspin), ERBB4  -  v-erb-b2 avian erythroblastic leukemia viral oncogene homolog 4, STK40  -  serine/threonine kinase 40, KIF4A  -  kinesin family member 4a, MVK  -  mevalonate kinase, IP6K1  -  inositol hexakisphosphate kinase 1, ERCC3  -  excision repair cross-complementing rodent repair deficiency, complementation group 3, ERCC6  -  excision repair cross-complementing rodent repair deficiency, complementation group 6, TSSK1B  -  testis-specific serine kinase 1b, TGFBR2  -  transforming growth factor, beta receptor ii (70/80kda), STK32A  -  serine/threonine kinase 32a, ERN1  -  endoplasmic reticulum to nucleus signaling 1, BRIP1  -  brca1 interacting protein c-terminal helicase 1, MYH4  -  myosin, heavy chain 4, skeletal muscle, DSTYK  -  dual serine/threonine and tyrosine protein kinase, MYH6  -  myosin, heavy chain 6, cardiac muscle, alpha, MELK  -  maternal embryonic leucine zipper kinase, OBSCN  -  obscurin, cytoskeletal calmodulin and titin-interacting rhogef, MYH9  -  myosin, heavy chain 9, non-muscle, MYH10  -  myosin, heavy chain 10, non-muscle, MYH11  -  myosin, heavy chain 11, smooth muscle, RAD54B  -  rad54 homolog b (s. cerevisiae), KATNAL1  -  katanin p60 subunit a-like 1, MYLK  -  myosin light chain kinase, TAOK3  -  tao kinase 3, MYO1C  -  myosin ic, MYO1D  -  myosin id, TK2  -  thymidine kinase 2, mitochondrial, MYO1E  -  myosin ie, MYO5A  -  myosin va (heavy chain 12, myoxin), MYO6  -  myosin vi, MYO7A  -  myosin viia, MYO9A  -  myosin ixa, TTLL1  -  tubulin tyrosine ligase-like family, member 1, EP400  -  e1a binding protein p400, CHST15  -  carbohydrate (n-acetylgalactosamine 4-sulfate 6-o) sulfotransferase 15, MYO9B  -  myosin ixb, MYO10  -  myosin x, MYH7B  -  myosin, heavy chain 7b, cardiac muscle, beta, DHX37  -  deah (asp-glu-ala-his) box polypeptide 37, ZRANB3  -  zinc finger, ran-binding domain containing 3, HIPK1  -  homeodomain interacting protein kinase 1, DDX46  -  dead (asp-glu-ala-asp) box polypeptide 46, MYLK4  -  myosin light chain kinase family, member 4, PRKAG2  -  protein kinase, amp-activated, gamma 2 non-catalytic subunit, ACSL1  -  acyl-coa synthetase long-chain family member 1, DDX41  -  dead (asp-glu-ala-asp) box polypeptide 41, ACSL3  -  acyl-coa synthetase long-chain family member 3, ACSL4  -  acyl-coa synthetase long-chain family member 4, MYO18A  -  myosin xviiia, PTK2B  -  protein tyrosine kinase 2 beta, DDX55  -  dead (asp-glu-ala-asp) box polypeptide 55, FANCM  -  fanconi anemia, complementation group m, IP6K2  -  inositol hexakisphosphate kinase 2, ATP2C2  -  atpase, ca++ transporting, type 2c, member 2, NRBP2  -  nuclear receptor binding protein 2, FAM20B  -  family with sequence similarity 20, member b, NLRC5  -  nlr family, card domain containing 5, TOP1  -  topoisomerase (dna) i, TOP2A  -  topoisomerase (dna) ii alpha 170kda, TOP2B  -  topoisomerase (dna) ii beta 180kda, KIF14  -  kinesin family member 14, CHD6  -  chromodomain helicase dna binding protein 6, HELZ  -  helicase with zinc finger, MTHFD1L  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1-like, XYLB  -  xylulokinase homolog (h. influenzae), CMPK2  -  cytidine monophosphate (ump-cmp) kinase 2, mitochondrial, LARS  -  leucyl-trna synthetase, NEK1  -  nima-related kinase 1, NEK2  -  nima-related kinase 2, HSP90B1  -  heat shock protein 90kda beta (grp94), member 1, NEK3  -  nima-related kinase 3, THRAP3  -  thyroid hormone receptor associated protein 3, TRIO  -  trio rho guanine nucleotide exchange factor, FGFR1  -  fibroblast growth factor receptor 1, FGFR3  -  fibroblast growth factor receptor 3, ACVR1C  -  activin a receptor, type ic, CAMKK1  -  calcium/calmodulin-dependent protein kinase kinase 1, alpha, FGFR2  -  fibroblast growth factor receptor 2, FGFR4  -  fibroblast growth factor receptor 4, PARS2  -  prolyl-trna synthetase 2, mitochondrial (putative), AKT3  -  v-akt murine thymoma viral oncogene homolog 3, CKMT1A  -  creatine kinase, mitochondrial 1a, DNAH1  -  dynein, axonemal, heavy chain 1, ULK3  -  unc-51 like kinase 3, NEK5  -  nima-related kinase 5, NTPCR  -  nucleoside-triphosphatase, cancer-related, NME4  -  nme/nm23 nucleoside diphosphate kinase 4, ACOT11  -  acyl-coa thioesterase 11, FLT1  -  fms-related tyrosine kinase 1, FLT3  -  fms-related tyrosine kinase 3, FLT4  -  fms-related tyrosine kinase 4, SMC4  -  structural maintenance of chromosomes 4, TTK  -  ttk protein kinase, TTN  -  titin, UBA2  -  ubiquitin-like modifier activating enzyme 2, GRK7  -  g protein-coupled receptor kinase 7, FARSB  -  phenylalanyl-trna synthetase, beta subunit, ABCC5  -  atp-binding cassette, sub-family c (cftr/mrp), member 5, ABCB6  -  atp-binding cassette, sub-family b (mdr/tap), member 6, GLYCTK  -  glycerate kinase, HACL1  -  2-hydroxyacyl-coa lyase 1, NLK  -  nemo-like kinase, ACSL5  -  acyl-coa synthetase long-chain family member 5, ATP9A  -  atpase, class ii, type 9a, NPR2  -  natriuretic peptide receptor b/guanylate cyclase b (atrionatriuretic peptide receptor b), TYRO3  -  tyro3 protein tyrosine kinase, TRPV4  -  transient receptor potential cation channel, subfamily v, member 4, CMPK1  -  cytidine monophosphate (ump-cmp) kinase 1, cytosolic, AK9  -  adenylate kinase 9, UBA1  -  ubiquitin-like modifier activating enzyme 1, ACTR3  -  arp3 actin-related protein 3 homolog (yeast), ACTR2  -  arp2 actin-related protein 2 homolog (yeast), UBE2B  -  ubiquitin-conjugating enzyme e2b, AASDH  -  aminoadipate-semialdehyde dehydrogenase, NSF  -  n-ethylmaleimide-sensitive factor, UBE2D2  -  ubiquitin-conjugating enzyme e2d 2, UBE2E2  -  ubiquitin-conjugating enzyme e2e 2, RTEL1  -  regulator of telomere elongation helicase 1, UBE2G1  -  ubiquitin-conjugating enzyme e2g 1, UBE2G2  -  ubiquitin-conjugating enzyme e2g 2, UBE2H  -  ubiquitin-conjugating enzyme e2h, KCNT2  -  potassium channel, subfamily t, member 2, CDK12  -  cyclin-dependent kinase 12, UBE2L3  -  ubiquitin-conjugating enzyme e2l 3, RAD50  -  rad50 homolog (s. cerevisiae), UBE2N  -  ubiquitin-conjugating enzyme e2n, KIF20A  -  kinesin family member 20a, ATP8A2  -  atpase, aminophospholipid transporter, class i, type 8a, member 2, NTRK3  -  neurotrophic tyrosine kinase, receptor, type 3, KIF6  -  kinesin family member 6, ROR1  -  receptor tyrosine kinase-like orphan receptor 1, DDR2  -  discoidin domain receptor tyrosine kinase 2, MCM8  -  minichromosome maintenance complex component 8, NVL  -  nuclear vcp-like, TRAP1  -  tnf receptor-associated protein 1, ACSS1  -  acyl-coa synthetase short-chain family member 1, KIF26A  -  kinesin family member 26a, ABCA12  -  atp-binding cassette, sub-family a (abc1), member 12, G3BP1  -  gtpase activating protein (sh3 domain) binding protein 1, UCK2  -  uridine-cytidine kinase 2, DHX35  -  deah (asp-glu-ala-his) box polypeptide 35, FRK  -  fyn-related kinase, SRR  -  serine racemase, TTBK1  -  tau tubulin kinase 1, ORC1  -  origin recognition complex, subunit 1, UBE2O  -  ubiquitin-conjugating enzyme e2o, ORC4  -  origin recognition complex, subunit 4, TNK2  -  tyrosine kinase, non-receptor, 2, ORC5  -  origin recognition complex, subunit 5, HS3ST5  -  heparan sulfate (glucosamine) 3-o-sulfotransferase 5, MYO3A  -  myosin iiia, NME6  -  nme/nm23 nucleoside diphosphate kinase 6, CSNK1G1  -  casein kinase 1, gamma 1, CHTF18  -  ctf18, chromosome transmission fidelity factor 18 homolog (s. cerevisiae), MTOR  -  mechanistic target of rapamycin (serine/threonine kinase), P2RX1  -  purinergic receptor p2x, ligand-gated ion channel, 1]</t>
-  </si>
-  <si>
     <t>GO:0046872</t>
   </si>
   <si>
     <t>metal ion binding</t>
   </si>
   <si>
-    <t>[P2RX4  -  purinergic receptor p2x, ligand-gated ion channel, 4, USP32  -  ubiquitin specific peptidase 32, PSMD14  -  proteasome (prosome, macropain) 26s subunit, non-atpase, 14, TRIM55  -  tripartite motif containing 55, TRIM63  -  tripartite motif containing 63, e3 ubiquitin protein ligase, P4HA1  -  prolyl 4-hydroxylase, alpha polypeptide i, KDM2B  -  lysine (k)-specific demethylase 2b, ABAT  -  4-aminobutyrate aminotransferase, ABL1  -  c-abl oncogene 1, non-receptor tyrosine kinase, MCEE  -  methylmalonyl coa epimerase, CAPS2  -  calcyphosine 2, ACACA  -  acetyl-coa carboxylase alpha, ACACB  -  acetyl-coa carboxylase beta, PAK3  -  p21 protein (cdc42/rac)-activated kinase 3, CALCOCO2  -  calcium binding and coiled-coil domain 2, LNX1  -  ligand of numb-protein x 1, e3 ubiquitin protein ligase, PARK2  -  parkinson protein 2, e3 ubiquitin protein ligase (parkin), MIS18A  -  mis18 kinetochore protein homolog a (s. pombe), PARN  -  poly(a)-specific ribonuclease, ACLY  -  atp citrate lyase, ACR  -  acrosin, ACO2  -  aconitase 2, mitochondrial, CNDP1  -  carnosine dipeptidase 1 (metallopeptidase m20 family), RNASEH1  -  ribonuclease h1, PCCA  -  propionyl coa carboxylase, alpha polypeptide, PCDH1  -  protocadherin 1, PCDHGC3  -  protocadherin gamma subfamily c, 3, PCDH8  -  protocadherin 8, PCDH9  -  protocadherin 9, PCK1  -  phosphoenolpyruvate carboxykinase 1 (soluble), CYCS  -  cytochrome c, somatic, CHMP1A  -  charged multivesicular body protein 1a, ACTN1  -  actinin, alpha 1, ACTN2  -  actinin, alpha 2, ACVR1  -  activin a receptor, type i, DNAJA2  -  dnaj (hsp40) homolog, subfamily a, member 2, ACVR2B  -  activin a receptor, type iib, RTN4IP1  -  reticulon 4 interacting protein 1, ACY1  -  aminoacylase 1, ADA  -  adenosine deaminase, ADAM10  -  adam metallopeptidase domain 10, PDCD2  -  programmed cell death 2, ADAR  -  adenosine deaminase, rna-specific, ADARB1  -  adenosine deaminase, rna-specific, b1, PDE1C  -  phosphodiesterase 1c, calmodulin-dependent 70kda, ADARB2  -  adenosine deaminase, rna-specific, b2 (non-functional), PDE3A  -  phosphodiesterase 3a, cgmp-inhibited, ADCY1  -  adenylate cyclase 1 (brain), PDE3B  -  phosphodiesterase 3b, cgmp-inhibited, ADCY2  -  adenylate cyclase 2 (brain), ADCY3  -  adenylate cyclase 3, PDE4B  -  phosphodiesterase 4b, camp-specific, ADCY5  -  adenylate cyclase 5, HPDL  -  4-hydroxyphenylpyruvate dioxygenase-like, LANCL1  -  lanc lantibiotic synthetase component c-like 1 (bacterial), PDE4D  -  phosphodiesterase 4d, camp-specific, PHF5A  -  phd finger protein 5a, ADCY7  -  adenylate cyclase 7, ADCY8  -  adenylate cyclase 8 (brain), PDE6C  -  phosphodiesterase 6c, cgmp-specific, cone, alpha prime, ADCY9  -  adenylate cyclase 9, IKZF1  -  ikaros family zinc finger 1 (ikaros), PDE7A  -  phosphodiesterase 7a, PDE8A  -  phosphodiesterase 8a, SMYD5  -  smyd family member 5, PDE9A  -  phosphodiesterase 9a, RBM27  -  rna binding motif protein 27, NEIL2  -  nei endonuclease viii-like 2 (e. coli), MOV10L1  -  mov10l1, moloney leukemia virus 10-like 1, homolog (mouse), AGBL4  -  atp/gtp binding protein-like 4, ENPP2  -  ectonucleotide pyrophosphatase/phosphodiesterase 2, ENPP3  -  ectonucleotide pyrophosphatase/phosphodiesterase 3, ADPRH  -  adp-ribosylarginine hydrolase, PARP1  -  poly (adp-ribose) polymerase 1, ANKIB1  -  ankyrin repeat and ibr domain containing 1, ZFAND6  -  zinc finger, an1-type domain 6, RNF216  -  ring finger protein 216, IPMK  -  inositol polyphosphate multikinase, ZBTB38  -  zinc finger and btb domain containing 38, PEPD  -  peptidase d, TRMT13  -  trna methyltransferase 13 homolog (s. cerevisiae), DGCR8  -  dgcr8 microprocessor complex subunit, KLF2  -  kruppel-like factor 2 (lung), NEURL1B  -  neuralized homolog 1b (drosophila), RNFT2  -  ring finger protein, transmembrane 2, PEX10  -  peroxisomal biogenesis factor 10, PEX12  -  peroxisomal biogenesis factor 12, ZNF341  -  zinc finger protein 341, EBF3  -  early b-cell factor 3, BPNT1  -  3'(2'), 5'-bisphosphate nucleotidase 1, MSRB3  -  methionine sulfoxide reductase b3, ZDHHC20  -  zinc finger, dhhc-type containing 20, AFP  -  alpha-fetoprotein, PCDH18  -  protocadherin 18, ACAN  -  aggrecan, CEPT1  -  choline/ethanolamine phosphotransferase 1, PFKL  -  phosphofructokinase, liver, JAG1  -  jagged 1, PFKP  -  phosphofructokinase, platelet, FIBCD1  -  fibrinogen c domain containing 1, METAP1D  -  methionyl aminopeptidase type 1d (mitochondrial), CPQ  -  carboxypeptidase q, ZFYVE19  -  zinc finger, fyve domain containing 19, RC3H2  -  ring finger and ccch-type domains 2, PGM1  -  phosphoglucomutase 1, PGM3  -  phosphoglucomutase 3, RNF169  -  ring finger protein 169, RNF186  -  ring finger protein 186, ALAD  -  aminolevulinate dehydratase, PGR  -  progesterone receptor, SPON2  -  spondin 2, extracellular matrix protein, NECAB2  -  n-terminal ef-hand calcium binding protein 2, SPON1  -  spondin 1, extracellular matrix protein, ALB  -  albumin, TESK2  -  testis-specific kinase 2, PHYHD1  -  phytanoyl-coa dioxygenase domain containing 1, PHEX  -  phosphate regulating endopeptidase homolog, x-linked, ING3  -  inhibitor of growth family, member 3, ARIH2  -  ariadne homolog 2 (drosophila), PHF2  -  phd finger protein 2, SEC24B  -  sec24 family, member b (s. cerevisiae), DLL4  -  delta-like 4 (drosophila), NUDT8  -  nudix (nucleoside diphosphate linked moiety x)-type motif 8, PHYH  -  phytanoyl-coa 2-hydroxylase, RNF223  -  ring finger protein 223, ALOX5  -  arachidonate 5-lipoxygenase, EGLN1  -  egl-9 family hypoxia-inducible factor 1, ALPI  -  alkaline phosphatase, intestinal, USP45  -  ubiquitin specific peptidase 45, AMFR  -  autocrine motility factor receptor, e3 ubiquitin protein ligase, ZBTB18  -  zinc finger and btb domain containing 18, REPS1  -  ralbp1 associated eps domain containing 1, AMPD2  -  adenosine monophosphate deaminase 2, AMPD3  -  adenosine monophosphate deaminase 3, PLA2G4F  -  phospholipase a2, group ivf, RSBN1  -  round spermatid basic protein 1, SEC23A  -  sec23 homolog a (s. cerevisiae), PDP1  -  pyruvate dehyrogenase phosphatase catalytic subunit 1, PKD2  -  polycystic kidney disease 2 (autosomal dominant), ANGPT2  -  angiopoietin 2, PKM  -  pyruvate kinase, muscle, STK25  -  serine/threonine kinase 25, PLA2G1B  -  phospholipase a2, group ib (pancreas), RNF144B  -  ring finger protein 144b, UNC13B  -  unc-13 homolog b (c. elegans), PLA2G4A  -  phospholipase a2, group iva (cytosolic, calcium-dependent), ANXA2  -  annexin a2, PLAG1  -  pleiomorphic adenoma gene 1, PLAGL1  -  pleiomorphic adenoma gene-like 1, PLAGL2  -  pleiomorphic adenoma gene-like 2, ZBTB8B  -  zinc finger and btb domain containing 8b, ANXA5  -  annexin a5, ANXA6  -  annexin a6, PLCB2  -  phospholipase c, beta 2, ANXA7  -  annexin a7, FBLIM1  -  filamin binding lim protein 1, PLCB4  -  phospholipase c, beta 4, FBLN5  -  fibulin 5, ANXA13  -  annexin a13, PLCD1  -  phospholipase c, delta 1, SHANK3  -  sh3 and multiple ankyrin repeat domains 3, AOAH  -  acyloxyacyl hydrolase (neutrophil), CIB2  -  calcium and integrin binding family member 2, PLCG1  -  phospholipase c, gamma 1, AOX1  -  aldehyde oxidase 1, DEAF1  -  deaf1 transcription factor, PAN3  -  pan3 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), ZRANB1  -  zinc finger, ran-binding domain containing 1, PITRM1  -  pitrilysin metallopeptidase 1, PLK1  -  polo-like kinase 1, MICALL1  -  mical-like 1, RNF111  -  ring finger protein 111, PLOD1  -  procollagen-lysine, 2-oxoglutarate 5-dioxygenase 1, LEPREL2  -  leprecan-like 2, XIAP  -  x-linked inhibitor of apoptosis, ALKBH4  -  alkb, alkylation repair homolog 4 (e. coli), BIRC5  -  baculoviral iap repeat containing 5, GLRX3  -  glutaredoxin 3, TET2  -  tet methylcytosine dioxygenase 2, APLP2  -  amyloid beta (a4) precursor-like protein 2, PLS1  -  plastin 1, PLS3  -  plastin 3, NUDT14  -  nudix (nucleoside diphosphate linked moiety x)-type motif 14, NKD1  -  naked cuticle homolog 1 (drosophila), DCHS2  -  dachsous 2 (drosophila), MBTD1  -  mbt domain containing 1, TRIT1  -  trna isopentenyltransferase 1, ZIC5  -  zic family member 5, ZCRB1  -  zinc finger cchc-type and rna binding motif 1, PML  -  promyelocytic leukemia, APP  -  amyloid beta (a4) precursor protein, PMM1  -  phosphomannomutase 1, HELZ2  -  helicase with zinc finger 2, transcriptional coactivator, PMM2  -  phosphomannomutase 2, GATAD2A  -  gata zinc finger domain containing 2a, ZNF280D  -  zinc finger protein 280d, ZCCHC10  -  zinc finger, cchc domain containing 10, UNK  -  unkempt homolog (drosophila), TRPM7  -  transient receptor potential cation channel, subfamily m, member 7, SLU7  -  slu7 splicing factor homolog (s. cerevisiae), CDHR2  -  cadherin-related family member 2, ASPN  -  asporin, ZNF518B  -  zinc finger protein 518b, PNLIPRP2  -  pancreatic lipase-related protein 2, ZC3H12C  -  zinc finger ccch-type containing 12c, BSPRY  -  b-box and spry domain containing, SCIN  -  scinderin, POLA1  -  polymerase (dna directed), alpha 1, catalytic subunit, POMT1  -  protein-o-mannosyltransferase 1, MTHFS  -  5,10-methenyltetrahydrofolate synthetase (5-formyltetrahydrofolate cyclo-ligase), POLE  -  polymerase (dna directed), epsilon, catalytic subunit, ARG2  -  arginase 2, POLH  -  polymerase (dna directed), eta, RNF214  -  ring finger protein 214, POLR2B  -  polymerase (rna) ii (dna directed) polypeptide b, 140kda, USP16  -  ubiquitin specific peptidase 16, SHPRH  -  snf2 histone linker phd ring helicase, e3 ubiquitin protein ligase, GDPD2  -  glycerophosphodiester phosphodiesterase domain containing 2, POLR2K  -  polymerase (rna) ii (dna directed) polypeptide k, 7.0kda, ARL1  -  adp-ribosylation factor-like 1, POLR2L  -  polymerase (rna) ii (dna directed) polypeptide l, 7.6kda, SNRK  -  snf related kinase, ARL3  -  adp-ribosylation factor-like 3, TAB3  -  tgf-beta activated kinase 1/map3k7 binding protein 3, PON2  -  paraoxonase 2, ARSA  -  arylsulfatase a, STAMBP  -  stam binding protein, ARSD  -  arylsulfatase d, UMODL1  -  uromodulin-like 1, ZCCHC2  -  zinc finger, cchc domain containing 2, PPA1  -  pyrophosphatase (inorganic) 1, POSTN  -  periostin, osteoblast specific factor, PPARA  -  peroxisome proliferator-activated receptor alpha, TBC1D8B  -  tbc1 domain family, member 8b (with gram domain), PPARD  -  peroxisome proliferator-activated receptor delta, PPARG  -  peroxisome proliferator-activated receptor gamma, ALKBH5  -  alkb, alkylation repair homolog 5 (e. coli), PPEF1  -  protein phosphatase, ef-hand calcium binding domain 1, RNF43  -  ring finger protein 43, ZBTB34  -  zinc finger and btb domain containing 34, CASZ1  -  castor zinc finger 1, FGD3  -  fyve, rhogef and ph domain containing 3, CAMKK2  -  calcium/calmodulin-dependent protein kinase kinase 2, beta, ASPA  -  aspartoacylase, CDKAL1  -  cdk5 regulatory subunit associated protein 1-like 1, ASPH  -  aspartate beta-hydroxylase, WHSC1L1  -  wolf-hirschhorn syndrome candidate 1-like 1, CYP2W1  -  cytochrome p450, family 2, subfamily w, polypeptide 1, PLCZ1  -  phospholipase c, zeta 1, PPM1A  -  protein phosphatase, mg2+/mn2+ dependent, 1a, PPM1B  -  protein phosphatase, mg2+/mn2+ dependent, 1b, PPM1G  -  protein phosphatase, mg2+/mn2+ dependent, 1g, PPP1CB  -  protein phosphatase 1, catalytic subunit, beta isozyme, LHX4  -  lim homeobox 4, ZFHX3  -  zinc finger homeobox 3, PPP1CC  -  protein phosphatase 1, catalytic subunit, gamma isozyme, CTCF  -  ccctc-binding factor (zinc finger protein), DNLZ  -  dnl-type zinc finger, CGRRF1  -  cell growth regulator with ring finger domain 1, PPP2CA  -  protein phosphatase 2, catalytic subunit, alpha isozyme, GNA13  -  guanine nucleotide binding protein (g protein), alpha 13, ATP1A1  -  atpase, na+/k+ transporting, alpha 1 polypeptide, EXD3  -  exonuclease 3'-5' domain containing 3, RSPRY1  -  ring finger and spry domain containing 1, ATP12A  -  atpase, h+/k+ transporting, nongastric, alpha polypeptide, STEAP2  -  steap family member 2, metalloreductase, PPP2R3A  -  protein phosphatase 2, regulatory subunit b'', alpha, GMEB1  -  glucocorticoid modulatory element binding protein 1, PPP3CA  -  protein phosphatase 3, catalytic subunit, alpha isozyme, ATP2A3  -  atpase, ca++ transporting, ubiquitous, LPCAT2  -  lysophosphatidylcholine acyltransferase 2, ATP2B1  -  atpase, ca++ transporting, plasma membrane 1, PPP3CC  -  protein phosphatase 3, catalytic subunit, gamma isozyme, PPP3R1  -  protein phosphatase 3, regulatory subunit b, alpha, ATP2B4  -  atpase, ca++ transporting, plasma membrane 4, YME1L1  -  yme1-like 1 atpase, PRIM2  -  primase, dna, polypeptide 2 (58kda), RAI1  -  retinoic acid induced 1, ATP7A  -  atpase, cu++ transporting, alpha polypeptide, PRKACB  -  protein kinase, camp-dependent, catalytic, beta, MAP3K2  -  mitogen-activated protein kinase kinase kinase 2, ATP7B  -  atpase, cu++ transporting, beta polypeptide, MASP2  -  mannan-binding lectin serine peptidase 2, ZNF160  -  zinc finger protein 160, CAPN9  -  calpain 9, ATRX  -  alpha thalassemia/mental retardation syndrome x-linked, ZSCAN2  -  zinc finger and scan domain containing 2, PRKCA  -  protein kinase c, alpha, PRKCB  -  protein kinase c, beta, PRKCD  -  protein kinase c, delta, TESC  -  tescalcin, PRKCE  -  protein kinase c, epsilon, MCFD2  -  multiple coagulation factor deficiency 2, PRKCH  -  protein kinase c, eta, ZMYND11  -  zinc finger, mynd-type containing 11, ZNF622  -  zinc finger protein 622, PRKCQ  -  protein kinase c, theta, PRKCZ  -  protein kinase c, zeta, PPP2R3C  -  protein phosphatase 2, regulatory subunit b'', gamma, NEK6  -  nima-related kinase 6, BAK1  -  bcl2-antagonist/killer 1, BARD1  -  brca1 associated ring domain 1, MTHFD2  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 2, methenyltetrahydrofolate cyclohydrolase, PRKRIR  -  protein-kinase, interferon-inducible double stranded rna dependent inhibitor, repressor of (p58 repressor), MOCOS  -  molybdenum cofactor sulfurase, SEC24A  -  sec24 family, member a (s. cerevisiae), BCL6  -  b-cell cll/lymphoma 6, PROC  -  protein c (inactivator of coagulation factors va and viiia), PROS1  -  protein s (alpha), PRPS1  -  phosphoribosyl pyrophosphate synthetase 1, PRPS2  -  phosphoribosyl pyrophosphate synthetase 2, PRPSAP1  -  phosphoribosyl pyrophosphate synthetase-associated protein 1, PRPSAP2  -  phosphoribosyl pyrophosphate synthetase-associated protein 2, PRRG1  -  proline rich gla (g-carboxyglutamic acid) 1, FAXDC2  -  fatty acid hydroxylase domain containing 2, ZNF598  -  zinc finger protein 598, BGLAP  -  bone gamma-carboxyglutamate (gla) protein, MASP1  -  mannan-binding lectin serine peptidase 1 (c4/c2 activating component of ra-reactive factor), RELN  -  reelin, PRDM1  -  pr domain containing 1, with znf domain, DHX57  -  deah (asp-glu-ala-asp/his) box polypeptide 57, BLM  -  bloom syndrome, recq helicase-like, SOBP  -  sine oculis binding protein homolog (drosophila), BLVRA  -  biliverdin reductase a, CLPX  -  clpx caseinolytic peptidase x homolog (e. coli), RBM20  -  rna binding motif protein 20, PDE10A  -  phosphodiesterase 10a, BNC1  -  basonuclin 1, BMI1  -  bmi1 polycomb ring finger oncogene, TRIM47  -  tripartite motif containing 47, CYP46A1  -  cytochrome p450, family 46, subfamily a, polypeptide 1, BMPR1A  -  bone morphogenetic protein receptor, type ia, ADAM28  -  adam metallopeptidase domain 28, BMPR2  -  bone morphogenetic protein receptor, type ii (serine/threonine kinase), USP20  -  ubiquitin specific peptidase 20, BNIP2  -  bcl2/adenovirus e1b 19kda interacting protein 2, USP19  -  ubiquitin specific peptidase 19, ME3  -  malic enzyme 3, nadp(+)-dependent, mitochondrial, DST  -  dystonin, CRTAC1  -  cartilage acidic protein 1, FANCL  -  fanconi anemia, complementation group l, BRCA1  -  breast cancer 1, early onset, BRAF  -  v-raf murine sarcoma viral oncogene homolog b, MMP24  -  matrix metallopeptidase 24 (membrane-inserted), KLF5  -  kruppel-like factor 5 (intestinal), ANKZF1  -  ankyrin repeat and zinc finger domain containing 1, ELP3  -  elongator acetyltransferase complex subunit 3, CPSF4  -  cleavage and polyadenylation specific factor 4, 30kda, RNF185  -  ring finger protein 185, BTK  -  bruton agammaglobulinemia tyrosine kinase, P4HA3  -  prolyl 4-hydroxylase, alpha polypeptide iii, MTPAP  -  mitochondrial poly(a) polymerase, MAN1A2  -  mannosidase, alpha, class 1a, member 2, TRAFD1  -  traf-type zinc finger domain containing 1, RSAD2  -  radical s-adenosyl methionine domain containing 2, PSPH  -  phosphoserine phosphatase, EFCAB4A  -  ef-hand calcium binding domain 4a, ARMC1  -  armadillo repeat containing 1, RFWD3  -  ring finger and wd repeat domain 3, ZNF830  -  zinc finger protein 830, PAPOLA  -  poly(a) polymerase alpha, C1R  -  complement component 1, r subcomponent, C1S  -  complement component 1, s subcomponent, SMPDL3A  -  sphingomyelin phosphodiesterase, acid-like 3a, DBF4  -  dbf4 homolog (s. cerevisiae), PTGS1  -  prostaglandin-endoperoxide synthase 1 (prostaglandin g/h synthase and cyclooxygenase), SYT12  -  synaptotagmin xii, PTGS2  -  prostaglandin-endoperoxide synthase 2 (prostaglandin g/h synthase and cyclooxygenase), LONRF1  -  lon peptidase n-terminal domain and ring finger 1, RNF220  -  ring finger protein 220, DZANK1  -  double zinc ribbon and ankyrin repeat domains 1, MPPED2  -  metallophosphoesterase domain containing 2, ZNF804A  -  zinc finger protein 804a, NEK9  -  nima-related kinase 9, SF3A3  -  splicing factor 3a, subunit 3, 60kda, DAGLA  -  diacylglycerol lipase, alpha, ALKBH8  -  alkb, alkylation repair homolog 8 (e. coli), PTPN1  -  protein tyrosine phosphatase, non-receptor type 1, CA1  -  carbonic anhydrase i, CA2  -  carbonic anhydrase ii, CA3  -  carbonic anhydrase iii, muscle specific, CA4  -  carbonic anhydrase iv, LMAN2  -  lectin, mannose-binding 2, CA6  -  carbonic anhydrase vi, CA7  -  carbonic anhydrase vii, CA8  -  carbonic anhydrase viii, CA12  -  carbonic anhydrase xii, LEPREL1  -  leprecan-like 1, KSR2  -  kinase suppressor of ras 2, CACNA1B  -  calcium channel, voltage-dependent, n type, alpha 1b subunit, CACNA1C  -  calcium channel, voltage-dependent, l type, alpha 1c subunit, TMLHE  -  trimethyllysine hydroxylase, epsilon, CACNA1D  -  calcium channel, voltage-dependent, l type, alpha 1d subunit, EXD2  -  exonuclease 3'-5' domain containing 2, CACNA1E  -  calcium channel, voltage-dependent, r type, alpha 1e subunit, CACNA1S  -  calcium channel, voltage-dependent, l type, alpha 1s subunit, CACNA2D1  -  calcium channel, voltage-dependent, alpha 2/delta subunit 1, PANK4  -  pantothenate kinase 4, COPS5  -  cop9 signalosome subunit 5, METAP2  -  methionyl aminopeptidase 2, CALB1  -  calbindin 1, 28kda, CHAMP1  -  chromosome alignment maintaining phosphoprotein 1, CDHR1  -  cadherin-related family member 1, OGFOD1  -  2-oxoglutarate and iron-dependent oxygenase domain containing 1, SIAH3  -  siah e3 ubiquitin protein ligase family member 3, CAPN13  -  calpain 13, NEIL3  -  nei endonuclease viii-like 3 (e. coli), PXN  -  paxillin, TMEM129  -  transmembrane protein 129, ASXL2  -  additional sex combs like 2 (drosophila), TYW1  -  trna-yw synthesizing protein 1 homolog (s. cerevisiae), CAMK2A  -  calcium/calmodulin-dependent protein kinase ii alpha, ADI1  -  acireductone dioxygenase 1, LIAS  -  lipoic acid synthetase, CANX  -  calnexin, CAPN2  -  calpain 2, (m/ii) large subunit, CAPN3  -  calpain 3, (p94), OC90  -  otoconin 90, PHF10  -  phd finger protein 10, PGM2  -  phosphoglucomutase 2, ADAP1  -  arfgap with dual ph domains 1, CARS  -  cysteinyl-trna synthetase, ZNF654  -  zinc finger protein 654, DTD1  -  d-tyrosyl-trna deacylase 1, LHX8  -  lim homeobox 8, MID2  -  midline 2, RHOT1  -  ras homolog family member t1, CASQ2  -  calsequestrin 2 (cardiac muscle), BRF2  -  brf2, rna polymerase iii transcription initiation factor 50 kda subunit, CASR  -  calcium-sensing receptor, CAT  -  catalase, DNER  -  delta/notch-like egf repeat containing, RAF1  -  v-raf-1 murine leukemia viral oncogene homolog 1, RAG1  -  recombination activating gene 1, RAG2  -  recombination activating gene 2, RUNX1T1  -  runt-related transcription factor 1; translocated to, 1 (cyclin d-related), ZNF276  -  zinc finger protein 276, RAN  -  ran, member ras oncogene family, CBL  -  cbl proto-oncogene, e3 ubiquitin protein ligase, CBLB  -  cbl proto-oncogene b, e3 ubiquitin protein ligase, RANBP2  -  ran binding protein 2, CPPED1  -  calcineurin-like phosphoesterase domain containing 1, CYB561D2  -  cytochrome b561 family, member d2, CBS  -  cystathionine-beta-synthase, TPPP  -  tubulin polymerization promoting protein, RAPSN  -  receptor-associated protein of the synapse, NT5C1B  -  5'-nucleotidase, cytosolic ib, DIDO1  -  death inducer-obliterator 1, ACER3  -  alkaline ceramidase 3, ADAMTS13  -  adam metallopeptidase with thrombospondin type 1 motif, 13, KDM5A  -  lysine (k)-specific demethylase 5a, ADAMTS8  -  adam metallopeptidase with thrombospondin type 1 motif, 8, ADAMTS5  -  adam metallopeptidase with thrombospondin type 1 motif, 5, RBBP6  -  retinoblastoma binding protein 6, PRDM5  -  pr domain containing 5, PRDM4  -  pr domain containing 4, NUDT7  -  nudix (nucleoside diphosphate linked moiety x)-type motif 7, CIT  -  citron (rho-interacting, serine/threonine kinase 21), CD4  -  cd4 molecule, RCN1  -  reticulocalbin 1, ef-hand calcium binding domain, RCN2  -  reticulocalbin 2, ef-hand calcium binding domain, ZFAND4  -  zinc finger, an1-type domain 4, POLR3A  -  polymerase (rna) iii (dna directed) polypeptide a, 155kda, CACNA2D4  -  calcium channel, voltage-dependent, alpha 2/delta subunit 4, MCM10  -  minichromosome maintenance complex component 10, KAT7  -  k(lysine) acetyltransferase 7, UPF1  -  upf1 regulator of nonsense transcripts homolog (yeast), REST  -  re1-silencing transcription factor, RET  -  ret proto-oncogene, REV3L  -  rev3-like, polymerase (dna directed), zeta, catalytic subunit, RFNG  -  rfng o-fucosylpeptide 3-beta-n-acetylglucosaminyltransferase, CSGALNACT2  -  chondroitin sulfate n-acetylgalactosaminyltransferase 2, NEK8  -  nima-related kinase 8, DNAJA4  -  dnaj (hsp40) homolog, subfamily a, member 4, NUDT5  -  nudix (nucleoside diphosphate linked moiety x)-type motif 5, NUDT3  -  nudix (nucleoside diphosphate linked moiety x)-type motif 3, FSTL1  -  follistatin-like 1, TRPV6  -  transient receptor potential cation channel, subfamily v, member 6, ADAMTS7  -  adam metallopeptidase with thrombospondin type 1 motif, 7, ENDOV  -  endonuclease v, GDPD1  -  glycerophosphodiester phosphodiesterase domain containing 1, BAZ1A  -  bromodomain adjacent to zinc finger domain, 1a, SMPD3  -  sphingomyelin phosphodiesterase 3, neutral membrane (neutral sphingomyelinase ii), ZNF277  -  zinc finger protein 277, RHEB  -  ras homolog enriched in brain, RLF  -  rearranged l-myc fusion, WBP4  -  ww domain binding protein 4, SEC23IP  -  sec23 interacting protein, ANXA10  -  annexin a10, CDH4  -  cadherin 4, type 1, r-cadherin (retinal), CHEK2  -  checkpoint kinase 2, CDH5  -  cadherin 5, type 2 (vascular endothelium), SYTL4  -  synaptotagmin-like 4, CDH6  -  cadherin 6, type 2, k-cadherin (fetal kidney), SYTL5  -  synaptotagmin-like 5, CDH7  -  cadherin 7, type 2, ZNF821  -  zinc finger protein 821, ZADH2  -  zinc binding alcohol dehydrogenase domain containing 2, CDH9  -  cadherin 9, type 2 (t1-cadherin), GALNT10  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 10 (galnac-t10), CDH10  -  cadherin 10, type 2 (t2-cadherin), RNASEL  -  ribonuclease l (2',5'-oligoisoadenylate synthetase-dependent), CDH11  -  cadherin 11, type 2, ob-cadherin (osteoblast), AKAP13  -  a kinase (prka) anchor protein 13, RNF2  -  ring finger protein 2, STAB2  -  stabilin 2, CDH17  -  cadherin 17, li cadherin (liver-intestine), RNF6  -  ring finger protein (c3h2c3 type) 6, CDH18  -  cadherin 18, type 2, RNPEP  -  arginyl aminopeptidase (aminopeptidase b), GALNT5  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 5 (galnac-t5), ZCCHC8  -  zinc finger, cchc domain containing 8, ABCE1  -  atp-binding cassette, sub-family e (oabp), member 1, CDKN1A  -  cyclin-dependent kinase inhibitor 1a (p21, cip1), RNF139  -  ring finger protein 139, CA5B  -  carbonic anhydrase vb, mitochondrial, PADI2  -  peptidyl arginine deiminase, type ii, ZHX1  -  zinc fingers and homeoboxes 1, MAN1B1  -  mannosidase, alpha, class 1b, member 1, CLGN  -  calmegin, POMGNT1  -  protein o-linked mannose n-acetylglucosaminyltransferase 1 (beta 1,2-), CHP1  -  calcineurin-like ef-hand protein 1, SMPD4  -  sphingomyelin phosphodiesterase 4, neutral membrane (neutral sphingomyelinase-3), ZNF407  -  zinc finger protein 407, ROCK1  -  rho-associated, coiled-coil containing protein kinase 1, EGLN3  -  egl-9 family hypoxia-inducible factor 3, RORA  -  rar-related orphan receptor a, RORB  -  rar-related orphan receptor b, G2E3  -  g2/m-phase specific e3 ubiquitin protein ligase, ERI2  -  eri1 exoribonuclease family member 2, RP9  -  retinitis pigmentosa 9 (autosomal dominant), RP2  -  retinitis pigmentosa 2 (x-linked recessive), KLF12  -  kruppel-like factor 12, MGAT4B  -  mannosyl (alpha-1,3-)-glycoprotein beta-1,4-n-acetylglucosaminyltransferase, isozyme b, RPA1  -  replication protein a1, 70kda, B4GALT7  -  xylosylprotein beta 1,4-galactosyltransferase, polypeptide 7, RPE65  -  retinal pigment epithelium-specific protein 65kda, PARK7  -  parkinson protein 7, RNF126  -  ring finger protein 126, MGAT4A  -  mannosyl (alpha-1,3-)-glycoprotein beta-1,4-n-acetylglucosaminyltransferase, isozyme a, CAPN14  -  calpain 14, PHF21B  -  phd finger protein 21b, NPLOC4  -  nuclear protein localization 4 homolog (s. cerevisiae), LIMS2  -  lim and senescent cell antigen-like domains 2, CHD4  -  chromodomain helicase dna binding protein 4, RNF13  -  ring finger protein 13, NID2  -  nidogen 2 (osteonidogen), RBM22  -  rna binding motif protein 22, ITGA11  -  integrin, alpha 11, CHN1  -  chimerin 1, CHN2  -  chimerin 2, XRN2  -  5'-3' exoribonuclease 2, RPL37A  -  ribosomal protein l37a, IKZF3  -  ikaros family zinc finger 3 (aiolos), ZNF326  -  zinc finger protein 326, POLR3B  -  polymerase (rna) iii (dna directed) polypeptide b, ADPRHL1  -  adp-ribosylhydrolase like 1, RASA3  -  ras p21 protein activator 3, MTF2  -  metal response element binding transcription factor 2, DTX2  -  deltex homolog 2 (drosophila), RPS6KA2  -  ribosomal protein s6 kinase, 90kda, polypeptide 2, RPS6KA3  -  ribosomal protein s6 kinase, 90kda, polypeptide 3, TOE1  -  target of egr1, member 1 (nuclear), RNF44  -  ring finger protein 44, ZFP64  -  zfp64 zinc finger protein, PPM1E  -  protein phosphatase, mg2+/mn2+ dependent, 1e, ARFGAP1  -  adp-ribosylation factor gtpase activating protein 1, TRIM9  -  tripartite motif containing 9, EDEM2  -  er degradation enhancer, mannosidase alpha-like 2, ZNF507  -  zinc finger protein 507, CHFR  -  checkpoint with forkhead and ring finger domains, e3 ubiquitin protein ligase, ADNP2  -  adnp homeobox 2, CNDP2  -  cndp dipeptidase 2 (metallopeptidase m20 family), CHSY1  -  chondroitin sulfate synthase 1, OGDHL  -  oxoglutarate dehydrogenase-like, RNF149  -  ring finger protein 149, CLCNKB  -  chloride channel, voltage-sensitive kb, RPS27A  -  ribosomal protein s27a, DZIP1  -  daz interacting zinc finger protein 1, EFHC1  -  ef-hand domain (c-terminal) containing 1, ENPP4  -  ectonucleotide pyrophosphatase/phosphodiesterase 4 (putative), NGLY1  -  n-glycanase 1, RRM2  -  ribonucleotide reductase m2, MORC2  -  morc family cw-type zinc finger 2, ZHX2  -  zinc fingers and homeoboxes 2, CLSTN1  -  calsyntenin 1, CLIP1  -  cap-gly domain containing linker protein 1, ZNF839  -  zinc finger protein 839, UBOX5  -  u-box domain containing 5, RXRA  -  retinoid x receptor, alpha, ZBTB1  -  zinc finger and btb domain containing 1, MCTP2  -  multiple c2 domains, transmembrane 2, CYGB  -  cytoglobin, FGD6  -  fyve, rhogef and ph domain containing 6, RUFY4  -  run and fyve domain containing 4, RPH3A  -  rabphilin 3a homolog (mouse), RYR2  -  ryanodine receptor 2 (cardiac), RYR3  -  ryanodine receptor 3, PKD1L2  -  polycystic kidney disease 1-like 2, ARSG  -  arylsulfatase g, MBNL3  -  muscleblind-like splicing regulator 3, SLC25A25  -  solute carrier family 25 (mitochondrial carrier; phosphate carrier), member 25, FAN1  -  fancd2/fanci-associated nuclease 1, ADAP2  -  arfgap with dual ph domains 2, MMRN1  -  multimerin 1, TRERF1  -  transcriptional regulating factor 1, CD93  -  cd93 molecule, ESCO1  -  establishment of sister chromatid cohesion n-acetyltransferase 1, MYSM1  -  myb-like, swirm and mpn domains 1, KDM3A  -  lysine (k)-specific demethylase 3a, RNF157  -  ring finger protein 157, RNF130  -  ring finger protein 130, GALNT13  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 13 (galnac-t13), SEPHS1  -  selenophosphate synthetase 1, VPS11  -  vacuolar protein sorting 11 homolog (s. cerevisiae), ACSM3  -  acyl-coa synthetase medium-chain family member 3, SALL1  -  sal-like 1 (drosophila), MAPK12  -  mitogen-activated protein kinase 12, COL1A2  -  collagen, type i, alpha 2, SUMF1  -  sulfatase modifying factor 1, SMYD4  -  set and mynd domain containing 4, COL3A1  -  collagen, type iii, alpha 1, KIN  -  kin, antigenic determinant of reca protein homolog (mouse), MSMO1  -  methylsterol monooxygenase 1, COL5A1  -  collagen, type v, alpha 1, TRIM32  -  tripartite motif containing 32, COL5A2  -  collagen, type v, alpha 2, ZC3H15  -  zinc finger ccch-type containing 15, COL9A1  -  collagen, type ix, alpha 1, ACOT13  -  acyl-coa thioesterase 13, NT5C2  -  5'-nucleotidase, cytosolic ii, COL10A1  -  collagen, type x, alpha 1, COL11A1  -  collagen, type xi, alpha 1, NINL  -  ninein-like, HDAC8  -  histone deacetylase 8, ASH1L  -  ash1 (absent, small, or homeotic)-like (drosophila), COMP  -  cartilage oligomeric matrix protein, RNF212  -  ring finger protein 212, COMT  -  catechol-o-methyltransferase, ZNF618  -  zinc finger protein 618, SCO1  -  sco1 cytochrome c oxidase assembly protein, MB21D1  -  mab-21 domain containing 1, NT5C3B  -  5'-nucleotidase, cytosolic iiib, LMO3  -  lim domain only 3 (rhombotin-like 2), LIMCH1  -  lim and calponin homology domains 1, RIMS1  -  regulating synaptic membrane exocytosis 1, MYNN  -  myoneurin, WDFY3  -  wd repeat and fyve domain containing 3, ZNF395  -  zinc finger protein 395, MAP3K8  -  mitogen-activated protein kinase kinase kinase 8, PLCH1  -  phospholipase c, eta 1, OMA1  -  oma1 zinc metallopeptidase, STK38L  -  serine/threonine kinase 38 like, KMT2E  -  lysine (k)-specific methyltransferase 2e, RNF114  -  ring finger protein 114, ZC4H2  -  zinc finger, c4h2 domain containing, PDZRN3  -  pdz domain containing ring finger 3, KDM4B  -  lysine (k)-specific demethylase 4b, MAST3  -  microtubule associated serine/threonine kinase 3, COX11  -  cytochrome c oxidase assembly homolog 11 (yeast), USP33  -  ubiquitin specific peptidase 33, ZMAT5  -  zinc finger, matrin-type 5, PHLPP2  -  ph domain and leucine rich repeat protein phosphatase 2, CPA2  -  carboxypeptidase a2 (pancreatic), SULF2  -  sulfatase 2, ZNF292  -  zinc finger protein 292, CPB1  -  carboxypeptidase b1 (tissue), CPB2  -  carboxypeptidase b2 (plasma), CPD  -  carboxypeptidase d, MYT1L  -  myelin transcription factor 1-like, CPE  -  carboxypeptidase e, SDHB  -  succinate dehydrogenase complex, subunit b, iron sulfur (ip), CPM  -  carboxypeptidase m, CPN1  -  carboxypeptidase n, polypeptide 1, SMG1  -  smg1 phosphatidylinositol 3-kinase-related kinase, ZHX3  -  zinc fingers and homeoboxes 3, CPS1  -  carbamoyl-phosphate synthase 1, mitochondrial, ENDOD1  -  endonuclease domain containing 1, ZSWIM8  -  zinc finger, swim-type containing 8, SELE  -  selectin e, ZNF609  -  zinc finger protein 609, TBC1D9B  -  tbc1 domain family, member 9b (with gram domain), ATF2  -  activating transcription factor 2, CREBBP  -  creb binding protein, PCDHGC5  -  protocadherin gamma subfamily c, 5, FOXP4  -  forkhead box p4, SWAP70  -  swap switching b-cell complex 70kda subunit, MYCBP2  -  myc binding protein 2, e3 ubiquitin protein ligase, SETMAR  -  set domain and mariner transposase fusion gene, NUS1  -  nuclear undecaprenyl pyrophosphate synthase 1 homolog (s. cerevisiae), TRIM35  -  tripartite motif containing 35, ZNF423  -  zinc finger protein 423, ZC3H13  -  zinc finger ccch-type containing 13, CRYAA  -  crystallin, alpha a, CRYAB  -  crystallin, alpha b, FSTL4  -  follistatin-like 4, SGSH  -  n-sulfoglucosamine sulfohydrolase, CUL9  -  cullin 9, CRYZ  -  crystallin, zeta (quinone reductase), PCDHAC2  -  protocadherin alpha subfamily c, 2, TAB2  -  tgf-beta activated kinase 1/map3k7 binding protein 2, HIC2  -  hypermethylated in canc</t>
-  </si>
-  <si>
-    <t>r 2, ATP10B  -  atpase, class v, type 10b, POGZ  -  pogo transposable element with znf domain, GALNTL6  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase-like 6, GPATCH8  -  g patch domain containing 8, SHH  -  sonic hedgehog, SHMT1  -  serine hydroxymethyltransferase 1 (soluble), CSK  -  c-src tyrosine kinase, MAST2  -  microtubule associated serine/threonine kinase 2, ZZEF1  -  zinc finger, zz-type with ef-hand domain 1, ZC3H3  -  zinc finger ccch-type containing 3, RNF17  -  ring finger protein 17, TDRD1  -  tudor domain containing 1, DNAH7  -  dynein, axonemal, heavy chain 7, CSRP1  -  cysteine and glycine-rich protein 1, MICU3  -  mitochondrial calcium uptake family, member 3, TBC1D9  -  tbc1 domain family, member 9 (with gram domain), CSRP2  -  cysteine and glycine-rich protein 2, ACAP3  -  arfgap with coiled-coil, ankyrin repeat and ph domains 3, SKI  -  v-ski avian sarcoma viral oncogene homolog, ARAP2  -  arfgap with rhogap domain, ankyrin repeat and ph domain 2, STAB1  -  stabilin 1, AGAP1  -  arfgap with gtpase domain, ankyrin repeat and ph domain 1, AGAP3  -  arfgap with gtpase domain, ankyrin repeat and ph domain 3, SLC1A2  -  solute carrier family 1 (glial high affinity glutamate transporter), member 2, METAP1  -  methionyl aminopeptidase 1, ZCCHC14  -  zinc finger, cchc domain containing 14, SLC1A6  -  solute carrier family 1 (high affinity aspartate/glutamate transporter), member 6, CRB2  -  crumbs homolog 2 (drosophila), SLC6A1  -  solute carrier family 6 (neurotransmitter transporter), member 1, SLC6A2  -  solute carrier family 6 (neurotransmitter transporter), member 2, SLC6A4  -  solute carrier family 6 (neurotransmitter transporter), member 4, GALNT15  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 15, ATP11B  -  atpase, class vi, type 11b, CIB3  -  calcium and integrin binding family member 3, JMJD6  -  jumonji domain containing 6, CYP26B1  -  cytochrome p450, family 26, subfamily b, polypeptide 1, RFFL  -  ring finger and fyve-like domain containing e3 ubiquitin protein ligase, SLC8A1  -  solute carrier family 8 (sodium/calcium exchanger), member 1, SLC8A3  -  solute carrier family 8 (sodium/calcium exchanger), member 3, ASAH2  -  n-acylsphingosine amidohydrolase (non-lysosomal ceramidase) 2, ATP11C  -  atpase, class vi, type 11c, DTX4  -  deltex homolog 4 (drosophila), CYB5A  -  cytochrome b5 type a (microsomal), TRIM39  -  tripartite motif containing 39, CYLD  -  cylindromatosis (turban tumor syndrome), SIK2  -  salt-inducible kinase 2, CYP1B1  -  cytochrome p450, family 1, subfamily b, polypeptide 1, PLCB1  -  phospholipase c, beta 1 (phosphoinositide-specific), PHLPP1  -  ph domain and leucine rich repeat protein phosphatase 1, ZNF488  -  zinc finger protein 488, ZFYVE27  -  zinc finger, fyve domain containing 27, CYP2C8  -  cytochrome p450, family 2, subfamily c, polypeptide 8, ATP11A  -  atpase, class vi, type 11a, PDZD8  -  pdz domain containing 8, SLIT1  -  slit homolog 1 (drosophila), CYP2J2  -  cytochrome p450, family 2, subfamily j, polypeptide 2, SNAI2  -  snail family zinc finger 2, ZC3H7B  -  zinc finger ccch-type containing 7b, CYP4B1  -  cytochrome p450, family 4, subfamily b, polypeptide 1, CYP7A1  -  cytochrome p450, family 7, subfamily a, polypeptide 1, RAD18  -  rad18 homolog (s. cerevisiae), TRIM59  -  tripartite motif containing 59, CYP8B1  -  cytochrome p450, family 8, subfamily b, polypeptide 1, CYP11A1  -  cytochrome p450, family 11, subfamily a, polypeptide 1, FSTL5  -  follistatin-like 5, CYP17A1  -  cytochrome p450, family 17, subfamily a, polypeptide 1, CYP19A1  -  cytochrome p450, family 19, subfamily a, polypeptide 1, CYP24A1  -  cytochrome p450, family 24, subfamily a, polypeptide 1, SMPD2  -  sphingomyelin phosphodiesterase 2, neutral membrane (neutral sphingomyelinase), CYP27A1  -  cytochrome p450, family 27, subfamily a, polypeptide 1, CYP51A1  -  cytochrome p450, family 51, subfamily a, polypeptide 1, WRNIP1  -  werner helicase interacting protein 1, SMG6  -  smg6 nonsense mediated mrna decay factor, DAG1  -  dystroglycan 1 (dystrophin-associated glycoprotein 1), MGRN1  -  mahogunin ring finger 1, e3 ubiquitin protein ligase, SNCA  -  synuclein, alpha (non a4 component of amyloid precursor), GYLTL1B  -  glycosyltransferase-like 1b, DGKB  -  diacylglycerol kinase, beta 90kda, ATMIN  -  atm interactor, FAT3  -  fat atypical cadherin 3, UBR2  -  ubiquitin protein ligase e3 component n-recognin 2, CYP2R1  -  cytochrome p450, family 2, subfamily r, polypeptide 1, C1GALT1  -  core 1 synthase, glycoprotein-n-acetylgalactosamine 3-beta-galactosyltransferase, 1, DBH  -  dopamine beta-hydroxylase (dopamine beta-monooxygenase), MCCC1  -  methylcrotonoyl-coa carboxylase 1 (alpha), ZCCHC11  -  zinc finger, cchc domain containing 11, TRIM2  -  tripartite motif containing 2, MAN2B2  -  mannosidase, alpha, class 2b, member 2, DUS3L  -  dihydrouridine synthase 3-like (s. cerevisiae), SOD1  -  superoxide dismutase 1, soluble, USP22  -  ubiquitin specific peptidase 22, CA10  -  carbonic anhydrase x, DCTD  -  dcmp deaminase, SOD2  -  superoxide dismutase 2, mitochondrial, ACE  -  angiotensin i converting enzyme, CAPN15  -  calpain 15, DCT  -  dopachrome tautomerase, SORD  -  sorbitol dehydrogenase, LRRK2  -  leucine-rich repeat kinase 2, PHF15  -  phd finger protein 15, SMYD2  -  set and mynd domain containing 2, PRTFDC1  -  phosphoribosyl transferase domain containing 1, NT5M  -  5',3'-nucleotidase, mitochondrial, UBR4  -  ubiquitin protein ligase e3 component n-recognin 4, SP3  -  sp3 transcription factor, SP4  -  sp4 transcription factor, VPS8  -  vacuolar protein sorting 8 homolog (s. cerevisiae), TPH2  -  tryptophan hydroxylase 2, DDX11  -  dead/h (asp-glu-ala-asp/his) box helicase 11, SPARC  -  secreted protein, acidic, cysteine-rich (osteonectin), FAM20C  -  family with sequence similarity 20, member c, SPG7  -  spastic paraplegia 7 (pure and complicated autosomal recessive), ARHGEF18  -  rho/rac guanine nucleotide exchange factor (gef) 18, PRDM10  -  pr domain containing 10, FGD4  -  fyve, rhogef and ph domain containing 4, SPOCK1  -  sparc/osteonectin, cwcv and kazal-like domains proteoglycan (testican) 1, AEBP2  -  ae binding protein 2, CHPT1  -  choline phosphotransferase 1, SIK3  -  sik family kinase 3, ADAMTS9  -  adam metallopeptidase with thrombospondin type 1 motif, 9, ADNP  -  activity-dependent neuroprotector homeobox, SPTAN1  -  spectrin, alpha, non-erythrocytic 1, ATP13A2  -  atpase type 13a2, DICER1  -  dicer 1, ribonuclease type iii, CIAPIN1  -  cytokine induced apoptosis inhibitor 1, SIRT4  -  sirtuin 4, SIRT3  -  sirtuin 3, PDXP  -  pyridoxal (pyridoxine, vitamin b6) phosphatase, ANKMY2  -  ankyrin repeat and mynd domain containing 2, ZFPM2  -  zinc finger protein, fog family member 2, CRB1  -  crumbs homolog 1 (drosophila), PLSCR2  -  phospholipid scramblase 2, SRPK1  -  srsf protein kinase 1, SRPK2  -  srsf protein kinase 2, TROVE2  -  trove domain family, member 2, RYBP  -  ring1 and yy1 binding protein, DMD  -  dystrophin, ENTPD7  -  ectonucleoside triphosphate diphosphohydrolase 7, CPA6  -  carboxypeptidase a6, DNA2  -  dna replication helicase/nuclease 2, DNASE1L3  -  deoxyribonuclease i-like 3, STAC  -  sh3 and cysteine rich domain, PHF3  -  phd finger protein 3, INTS12  -  integrator complex subunit 12, DNMT3B  -  dna (cytosine-5-)-methyltransferase 3 beta, DPAGT1  -  dolichyl-phosphate (udp-n-acetylglucosamine) n-acetylglucosaminephosphotransferase 1 (glcnac-1-p transferase), STIM1  -  stromal interaction molecule 1, NEK4  -  nima-related kinase 4, PLA2G4E  -  phospholipase a2, group ive, STK3  -  serine/threonine kinase 3, MAN1C1  -  mannosidase, alpha, class 1c, member 1, STK4  -  serine/threonine kinase 4, DPYD  -  dihydropyrimidine dehydrogenase, DPYS  -  dihydropyrimidinase, HAAO  -  3-hydroxyanthranilate 3,4-dioxygenase, MACF1  -  microtubule-actin crosslinking factor 1, STK11  -  serine/threonine kinase 11, ZFYVE26  -  zinc finger, fyve domain containing 26, DRD4  -  dopamine receptor d4, DRG2  -  developmentally regulated gtp binding protein 2, SUZ12  -  suz12 polycomb repressive complex 2 subunit, DRP2  -  dystrophin related protein 2, MORC3  -  morc family cw-type zinc finger 3, DSC2  -  desmocollin 2, ZC3H18  -  zinc finger ccch-type containing 18, DSG2  -  desmoglein 2, SALL4  -  sal-like 4 (drosophila), ASPHD2  -  aspartate beta-hydroxylase domain containing 2, ZNFX1  -  zinc finger, nfx1-type containing 1, HMHA1  -  histocompatibility (minor) ha-1, ACAP2  -  arfgap with coiled-coil, ankyrin repeat and ph domains 2, EARS2  -  glutamyl-trna synthetase 2, mitochondrial, ZNF281  -  zinc finger protein 281, DTNA  -  dystrobrevin, alpha, DTNB  -  dystrobrevin, beta, ADAT1  -  adenosine deaminase, trna-specific 1, CANT1  -  calcium activated nucleotidase 1, ATP10A  -  atpase, class v, type 10a, ATP8B2  -  atpase, aminophospholipid transporter, class i, type 8b, member 2, DNPEP  -  aspartyl aminopeptidase, ATP10D  -  atpase, class v, type 10d, SYT1  -  synaptotagmin i, ADAM17  -  adam metallopeptidase domain 17, E4F1  -  e4f transcription factor 1, DDAH1  -  dimethylarginine dimethylaminohydrolase 1, ECE1  -  endothelin converting enzyme 1, MAP3K7  -  mitogen-activated protein kinase kinase kinase 7, ZSWIM7  -  zinc finger, swim-type containing 7, PDSS1  -  prenyl (decaprenyl) diphosphate synthase, subunit 1, PHC1  -  polyhomeotic homolog 1 (drosophila), AICDA  -  activation-induced cytidine deaminase, PATZ1  -  poz (btb) and at hook containing zinc finger 1, CYP20A1  -  cytochrome p450, family 20, subfamily a, polypeptide 1, MKRN1  -  makorin ring finger protein 1, MKRN2  -  makorin ring finger protein 2, ZMYND8  -  zinc finger, mynd-type containing 8, ACER1  -  alkaline ceramidase 1, TBXAS1  -  thromboxane a synthase 1 (platelet), TCEA1  -  transcription elongation factor a (sii), 1, TCEA2  -  transcription elongation factor a (sii), 2, EGF  -  epidermal growth factor, SPO11  -  spo11 meiotic protein covalently bound to dsb, CELSR3  -  cadherin, egf lag seven-pass g-type receptor 3, TENM2  -  teneurin transmembrane protein 2, MEGF6  -  multiple egf-like-domains 6, ZEB1  -  zinc finger e-box binding homeobox 1, TCF20  -  transcription factor 20 (ar1), TRIM29  -  tripartite motif containing 29, CNOT6  -  ccr4-not transcription complex, subunit 6, ZNF512B  -  zinc finger protein 512b, PLA2G15  -  phospholipase a2, group xv, RNF150  -  ring finger protein 150, ESYT2  -  extended synaptotagmin-like protein 2, WTIP  -  wilms tumor 1 interacting protein, HEG1  -  heart development protein with egf-like domains 1, RIMKLB  -  ribosomal modification protein rimk-like family member b, MTA3  -  metastasis associated 1 family, member 3, AARS2  -  alanyl-trna synthetase 2, mitochondrial, EML1  -  echinoderm microtubule associated protein like 1, ENPP7  -  ectonucleotide pyrophosphatase/phosphodiesterase 7, ENDOG  -  endonuclease g, WEE2  -  wee1 homolog 2 (s. pombe), ENO1  -  enolase 1, (alpha), PCDH19  -  protocadherin 19, ENO2  -  enolase 2 (gamma, neuronal), TDG  -  thymine-dna glycosylase, ENPEP  -  glutamyl aminopeptidase (aminopeptidase a), TDO2  -  tryptophan 2,3-dioxygenase, MIB1  -  mindbomb e3 ubiquitin protein ligase 1, EP300  -  e1a binding protein p300, ZNF398  -  zinc finger protein 398, PDP2  -  pyruvate dehyrogenase phosphatase catalytic subunit 2, TERT  -  telomerase reverse transcriptase, TESK1  -  testis-specific kinase 1, MICAL3  -  microtubule associated monooxygenase, calponin and lim domain containing 3, ZBTB8OS  -  zinc finger and btb domain containing 8 opposite strand, EPHX2  -  epoxide hydrolase 2, cytoplasmic, BRD1  -  bromodomain containing 1, NR2F2  -  nuclear receptor subfamily 2, group f, member 2, EPRS  -  glutamyl-prolyl-trna synthetase, EPS15  -  epidermal growth factor receptor pathway substrate 15, KIF4A  -  kinesin family member 4a, PCDH10  -  protocadherin 10, EYA4  -  eyes absent homolog 4 (drosophila), ERCC5  -  excision repair cross-complementing rodent repair deficiency, complementation group 5, TGM4  -  transglutaminase 4, TGFBR2  -  transforming growth factor, beta receptor ii (70/80kda), ZNF318  -  zinc finger protein 318, CYP27C1  -  cytochrome p450, family 27, subfamily c, polypeptide 1, SYT13  -  synaptotagmin xiii, ERN1  -  endoplasmic reticulum to nucleus signaling 1, WDFY1  -  wd repeat and fyve domain containing 1, TH  -  tyrosine hydroxylase, ZNF687  -  zinc finger protein 687, THBS1  -  thrombospondin 1, THBS2  -  thrombospondin 2, ESR1  -  estrogen receptor 1, ESR2  -  estrogen receptor 2 (er beta), SYT2  -  synaptotagmin ii, ESRRB  -  estrogen-related receptor beta, RASGRP3  -  ras guanyl releasing protein 3 (calcium and dag-regulated), THRB  -  thyroid hormone receptor, beta, ETFDH  -  electron-transferring-flavoprotein dehydrogenase, KLF10  -  kruppel-like factor 10, CIZ1  -  cdkn1a interacting zinc finger protein 1, TSHZ3  -  teashirt zinc finger homeobox 3, TIMP3  -  timp metallopeptidase inhibitor 3, VPS18  -  vacuolar protein sorting 18 homolog (s. cerevisiae), QPCT  -  glutaminyl-peptide cyclotransferase, TIMP4  -  timp metallopeptidase inhibitor 4, MECOM  -  mds1 and evi1 complex locus, ZBTB2  -  zinc finger and btb domain containing 2, ZFAT  -  zinc finger and at hook domain containing, TKT  -  transketolase, EWSR1  -  ews rna-binding protein 1, SH3RF1  -  sh3 domain containing ring finger 1, EXTL2  -  exostosin-like glycosyltransferase 2, TLL1  -  tolloid-like 1, EXTL3  -  exostosin-like glycosyltransferase 3, TLL2  -  tolloid-like 2, ZSWIM5  -  zinc finger, swim-type containing 5, EYA3  -  eyes absent homolog 3 (drosophila), TATDN3  -  tatd dnase domain containing 3, ARIH1  -  ariadne homolog, ubiquitin-conjugating enzyme e2 binding protein, 1 (drosophila), F2  -  coagulation factor ii (thrombin), NR2E1  -  nuclear receptor subfamily 2, group e, member 1, PHF12  -  phd finger protein 12, ARSI  -  arylsulfatase family, member i, F5  -  coagulation factor v (proaccelerin, labile factor), F7  -  coagulation factor vii (serum prothrombin conversion accelerator), F8  -  coagulation factor viii, procoagulant component, TSHZ2  -  teashirt zinc finger homeobox 2, F9  -  coagulation factor ix, F10  -  coagulation factor x, PHRF1  -  phd and ring finger domains 1, HECTD1  -  hect domain containing e3 ubiquitin protein ligase 1, ZNF831  -  zinc finger protein 831, F13A1  -  coagulation factor xiii, a1 polypeptide, ZC3H12D  -  zinc finger ccch-type containing 12d, MGAT4C  -  mannosyl (alpha-1,3-)-glycoprotein beta-1,4-n-acetylglucosaminyltransferase, isozyme c (putative), RNF213  -  ring finger protein 213, MOB4  -  mob family member 4, phocein, CLEC3B  -  c-type lectin domain family 3, member b, VAT1L  -  vesicle amine transport protein 1 homolog (t. californica)-like, TNFAIP3  -  tumor necrosis factor, alpha-induced protein 3, FAH  -  fumarylacetoacetate hydrolase (fumarylacetoacetase), BPTF  -  bromodomain phd finger transcription factor, USP49  -  ubiquitin specific peptidase 49, FBLN1  -  fibulin 1, AGBL3  -  atp/gtp binding protein-like 3, SUMF2  -  sulfatase modifying factor 2, FAT1  -  fat atypical cadherin 1, FAT2  -  fat atypical cadherin 2, FBLN2  -  fibulin 2, FBN1  -  fibrillin 1, FBN2  -  fibrillin 2, EFEMP1  -  egf containing fibulin-like extracellular matrix protein 1, POLR1A  -  polymerase (rna) i polypeptide a, 194kda, TOP2A  -  topoisomerase (dna) ii alpha 170kda, PAMR1  -  peptidase domain containing associated with muscle regeneration 1, TOP2B  -  topoisomerase (dna) ii beta 180kda, TOP3A  -  topoisomerase (dna) iii alpha, RNF19A  -  ring finger protein 19a, e3 ubiquitin protein ligase, TP73  -  tumor protein p73, TPD52  -  tumor protein d52, TPH1  -  tryptophan hydroxylase 1, ZFYVE28  -  zinc finger, fyve domain containing 28, FDFT1  -  farnesyl-diphosphate farnesyltransferase 1, FDPS  -  farnesyl diphosphate synthase, TPM4  -  tropomyosin 4, FDX1  -  ferredoxin 1, TPO  -  thyroid peroxidase, TPT1  -  tumor protein, translationally-controlled 1, NR2C1  -  nuclear receptor subfamily 2, group c, member 1, FEN1  -  flap structure-specific endonuclease 1, FBLN7  -  fibulin 7, ZNF521  -  zinc finger protein 521, NR2C2  -  nuclear receptor subfamily 2, group c, member 2, HSP90B1  -  heat shock protein 90kda beta (grp94), member 1, TRAF1  -  tnf receptor-associated factor 1, VWA2  -  von willebrand factor a domain containing 2, TRAF2  -  tnf receptor-associated factor 2, TRAF3  -  tnf receptor-associated factor 3, TRAF5  -  tnf receptor-associated factor 5, ACMSD  -  aminocarboxymuconate semialdehyde decarboxylase, SAMHD1  -  sam domain and hd domain 1, PNKD  -  paroxysmal nonkinesigenic dyskinesia, ACVR1C  -  activin a receptor, type ic, OSR1  -  odd-skipped related 1 (drosophila), HEPHL1  -  hephaestin-like 1, UBR3  -  ubiquitin protein ligase e3 component n-recognin 3 (putative), OVCH2  -  ovochymase 2 (gene/pseudogene), FHL1  -  four and a half lim domains 1, FHL2  -  four and a half lim domains 2, EGFL6  -  egf-like-domain, multiple 6, FHL3  -  four and a half lim domains 3, TIPARP  -  tcdd-inducible poly(adp-ribose) polymerase, ZFAND2B  -  zinc finger, an1-type domain 2b, SYT10  -  synaptotagmin x, TRPM2  -  transient receptor potential cation channel, subfamily m, member 2, TRPS1  -  trichorhinophalangeal syndrome i, CPO  -  carboxypeptidase o, HINFP  -  histone h4 transcription factor, RHOU  -  ras homolog family member u, SNED1  -  sushi, nidogen and egf-like domains 1, FREM2  -  fras1 related extracellular matrix protein 2, NEK5  -  nima-related kinase 5, RNF167  -  ring finger protein 167, MOXD1  -  monooxygenase, dbh-like 1, OVOL2  -  ovo-like 2 (drosophila), OTOL1  -  otolin 1, L3MBTL1  -  l(3)mbt-like 1 (drosophila), PEF1  -  penta-ef-hand domain containing 1, TRIM71  -  tripartite motif containing 71, e3 ubiquitin protein ligase, KMT2C  -  lysine (k)-specific methyltransferase 2c, GLCE  -  glucuronic acid epimerase, TTC3  -  tetratricopeptide repeat domain 3, ZNF451  -  zinc finger protein 451, TTN  -  titin, LTN1  -  listerin e3 ubiquitin protein ligase 1, FNTB  -  farnesyltransferase, caax box, beta, FOLH1  -  folate hydrolase (prostate-specific membrane antigen) 1, HIVEP3  -  human immunodeficiency virus type i enhancer binding protein 3, PPM1M  -  protein phosphatase, mg2+/mn2+ dependent, 1m, ACE2  -  angiotensin i converting enzyme 2, SNTN  -  sentan, cilia apical structure protein, HACL1  -  2-hydroxyacyl-coa lyase 1, TYR  -  tyrosinase, PRDM12  -  pr domain containing 12, U2AF1  -  u2 small nuclear rna auxiliary factor 1, TRPV4  -  transient receptor potential cation channel, subfamily v, member 4, LIN54  -  lin-54 homolog (c. elegans), RXFP1  -  relaxin/insulin-like family peptide receptor 1, ENPP6  -  ectonucleotide pyrophosphatase/phosphodiesterase 6, PYGO1  -  pygopus homolog 1 (drosophila), UBE3A  -  ubiquitin protein ligase e3a, TGM6  -  transglutaminase 6, TES  -  testis derived transcript (3 lim domains), ZBTB20  -  zinc finger and btb domain containing 20, AASDHPPT  -  aminoadipate-semialdehyde dehydrogenase-phosphopantetheinyl transferase, PHF19  -  phd finger protein 19, UGP2  -  udp-glucose pyrophosphorylase 2, ELAC2  -  elac ribonuclease z 2, MTG2  -  mitochondrial ribosome-associated gtpase 2, USP4  -  ubiquitin specific peptidase 4 (proto-oncogene), SH3RF3  -  sh3 domain containing ring finger 3, UQCRC2  -  ubiquinol-cytochrome c reductase core protein ii, UQCRFS1  -  ubiquinol-cytochrome c reductase, rieske iron-sulfur polypeptide 1, GMEB2  -  glucocorticoid modulatory element binding protein 2, UTRN  -  utrophin, SRR  -  serine racemase, KDM6A  -  lysine (k)-specific demethylase 6a, RNF123  -  ring finger protein 123, VDR  -  vitamin d (1,25- dihydroxyvitamin d3) receptor, TRIM50  -  tripartite motif containing 50, VIL1  -  villin 1, GALNT11  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 11 (galnac-t11), CABYR  -  calcium binding tyrosine-(y)-phosphorylation regulated, ZNF335  -  zinc finger protein 335, ANKEF1  -  ankyrin repeat and ef-hand domain containing 1, XPNPEP3  -  x-prolyl aminopeptidase (aminopeptidase p) 3, putative, TRPV1  -  transient receptor potential cation channel, subfamily v, member 1, EYS  -  eyes shut homolog (drosophila), FBXO5  -  f-box protein 5, VSNL1  -  visinin-like 1, NR5A2  -  nuclear receptor subfamily 5, group a, member 2, FTH1  -  ferritin, heavy polypeptide 1, NECAB3  -  n-terminal ef-hand calcium binding protein 3, DMRTB1  -  dmrt-like family b with proline-rich c-terminal, 1, ARFGAP3  -  adp-ribosylation factor gtpase activating protein 3, GNAT3  -  guanine nucleotide binding protein, alpha transducing 3, WEE1  -  wee1 homolog (s. pombe), FTL  -  ferritin, light polypeptide, PRDM16  -  pr domain containing 16, PRDM15  -  pr domain containing 15, FIGNL1  -  fidgetin-like 1, GBGT1  -  globoside alpha-1,3-n-acetylgalactosaminyltransferase 1, RBM26  -  rna binding motif protein 26, ADHFE1  -  alcohol dehydrogenase, iron containing, 1, MMP27  -  matrix metallopeptidase 27, CDH23  -  cadherin-related 23, LHX6  -  lim homeobox 6, FYN  -  fyn oncogene related to src, fgr, yes, RBKS  -  ribokinase, WT1  -  wilms tumor 1, XDH  -  xanthine dehydrogenase, XPNPEP1  -  x-prolyl aminopeptidase (aminopeptidase p) 1, soluble, XPNPEP2  -  x-prolyl aminopeptidase (aminopeptidase p) 2, membrane-bound, MYOF  -  myoferlin, ZNF704  -  zinc finger protein 704, RRAGC  -  ras-related gtp binding c, YY1  -  yy1 transcription factor, LATS2  -  large tumor suppressor kinase 2, XYLT1  -  xylosyltransferase i, ZFX  -  zinc finger protein, x-linked, NECAB1  -  n-terminal ef-hand calcium binding protein 1, ZIC3  -  zic family member 3, GALNS  -  galactosamine (n-acetyl)-6-sulfate sulfatase, ZNF3  -  zinc finger protein 3, GALNT1  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 1 (galnac-t1), DPEP2  -  dipeptidase 2, LEPRE1  -  leucine proline-enriched proteoglycan (leprecan) 1, ZNF711  -  zinc finger protein 711, CNBP  -  cchc-type zinc finger, nucleic acid binding protein, GART  -  phosphoribosylglycinamide formyltransferase, phosphoribosylglycinamide synthetase, phosphoribosylaminoimidazole synthetase, GAS6  -  growth arrest-specific 6, GATA2  -  gata binding protein 2, GATA3  -  gata binding protein 3, ABCG5  -  atp-binding cassette, sub-family g (white), member 5, GATA4  -  gata binding protein 4, ABCG8  -  atp-binding cassette, sub-family g (white), member 8, GATA6  -  gata binding protein 6, NSD1  -  nuclear receptor binding set domain protein 1, ZBTB25  -  zinc finger and btb domain containing 25, GCH1  -  gtp cyclohydrolase 1, GEN1  -  gen1 holliday junction 5' flap endonuclease, ZNF76  -  zinc finger protein 76, NR6A1  -  nuclear receptor subfamily 6, group a, member 1, IKZF5  -  ikaros family zinc finger 5 (pegasus), ZMAT3  -  zinc finger, matrin-type 3, ZNF106  -  zinc finger protein 106, CDH22  -  cadherin 22, type 2, GEM  -  gtp binding protein overexpressed in skeletal muscle, ARAP3  -  arfgap with rhogap domain, ankyrin repeat and ph domain 3, NUFIP1  -  nuclear fragile x mental retardation protein interacting protein 1, GZF1  -  gdnf-inducible zinc finger protein 1, GFI1  -  growth factor independent 1 transcription repressor, ZNF142  -  zinc finger protein 142, ZNF143  -  zinc finger protein 143, ZNF148  -  zinc finger protein 148, ZBTB17  -  zinc finger and btb domain containing 17, ZBTB46  -  zinc finger and btb domain containing 46, VEZF1  -  vascular endothelial zinc finger 1, CPEB1  -  cytoplasmic polyadenylation element binding protein 1, RNF113A  -  ring finger protein 113a, ZNF185  -  zinc finger protein 185 (lim domain), ZMYM2  -  zinc finger, mym-type 2, EBF2  -  early b-cell factor 2, ZNF207  -  zinc finger protein 207, ZNF208  -  zinc finger protein 208, GORASP1  -  golgi reassembly stacking protein 1, 65kda, GCLC  -  glutamate-cysteine ligase, catalytic subunit, ZNF217  -  zinc finger protein 217, GLI1  -  gli family zinc finger 1, GLI2  -  gli family zinc finger 2, GLI3  -  gli family zinc finger 3, GLO1  -  glyoxalase i, ZNF236  -  zinc finger protein 236, GLRA1  -  glycine receptor, alpha 1, GLRA2  -  glycine receptor, alpha 2, SMAP2  -  small arfgap2, ADAMTS14  -  adam metallopeptidase with thrombospondin type 1 motif, 14, ZYX  -  zyxin, SMYD3  -  set and mynd domain containing 3, GLUL  -  glutamate-ammonia ligase, PRDM2  -  pr domain containing 2, with znf domain, PARP12  -  poly (adp-ribose) polymerase family, member 12, GMPR  -  guanosine monophosphate reductase, GNA11  -  guanine nucleotide binding protein (g protein), alpha 11 (gq class), GNA12  -  guanine nucleotide binding protein (g protein) alpha 12, GNAI1  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 1, GNAI2  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 2, PXDN  -  peroxidasin homolog (drosophila), GNAI3  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 3, GNAL  -  guanine nucleotide binding protein (g protein), alpha activating activity polypeptide, olfactory type, CERK  -  ceramide kinase, RNF103  -  ring finger protein 103, BRPF1  -  bromodomain and phd finger containing, 1, RMND5A  -  required for meiotic nuclear division 5 homolog a (s. cerevisiae), CHORDC1  -  cysteine and histidine-rich domain (chord) containing 1, GNS  -  glucosamine (n-acetyl)-6-sulfatase, RNF11  -  ring finger protein 11, MIB2  -  mindbomb e3 ubiquitin protein ligase 2, GPC1  -  glypican 1, GPD2  -  glycerol-3-phosphate dehydrogenase 2 (mitochondrial), PCDH20  -  protocadherin 20, ATP2C1  -  atpase, ca++ transporting, type 2c, member 1, NOX1  -  nadph oxidase 1, BCL11B  -  b-cell cll/lymphoma 11b (zinc finger protein), PPA2  -  pyrophosphatase (inorganic) 2, NT5DC2  -  5'-nucleotidase domain containing 2, VPS41  -  vacuolar protein sorting 41 homolog (s. cerevisiae), FOXP1  -  forkhead box p1, B3GAT1  -  beta-1,3-glucuronyltransferase 1 (glucuronosyltransferase p), GPR39  -  g protein-coupled receptor 39, PINK1  -  pten induced putative kinase 1, ZBTB11  -  zinc finger and btb domain containing 11, KAT6A  -  k(lysine) acetyltransferase 6a, CDK15  -  cyclin-dependent kinase 15, GLRA3  -  glycine receptor, alpha 3, NR4A3  -  nuclear receptor subfamily 4, group a, member 3, PRICKLE1  -  prickle homolog 1 (drosophila), AMDHD1  -  amidohydrolase domain containing 1, JMJD4  -  jumonji domain containing 4, CUBN  -  cubilin (intrinsic factor-cobalamin receptor), CPNE7  -  copine vii, CPNE8  -  copine viii, ADAM12  -  adam metallopeptidase domain 12, PCDH15  -  protocadherin-related 15, CSRP3  -  cysteine and glycine-rich protein 3 (cardiac lim protein), STK36  -  serine/threonine kinase 36, NADK  -  nad kinase, GRIN1  -  glutamate receptor, ionotropic, n-methyl d-aspartate 1, GRIN2A  -  glutamate receptor, ionotropic, n-methyl d-aspartate 2a, GRIN2B  -  glutamate receptor, ionotropic, n-methyl d-aspartate 2b, BRPF3  -  bromodomain and phd finger containing, 3, MPPE1  -  metallophosphoesterase 1, USP5  -  ubiquitin specific peptidase 5 (isopeptidase t), SALL3  -  sal-like 3 (drosophila), ZBTB41  -  zinc finger and btb domain containing 41, LACC1  -  laccase (multicopper oxidoreductase) domain containing 1, CAPRIN2  -  caprin family member 2, DLK2  -  delta-like 2 homolog (drosophila), GSN  -  gelsolin, GSS  -  glutathione synthetase, DPF3  -  d4, zinc and double phd fingers, family 3, NMRK2  -  nicotinamide riboside kinase 2, COLEC11  -  collectin sub-family member 11, MSH6  -  muts homolog 6 (e. coli), GTF2B  -  general transcription factor iib, GTF2E1  -  general transcription factor iie, polypeptide 1, alpha 56kda, NFU1  -  nfu1 iron-sulfur cluster scaffold homolog (s. cerevisiae), PCDH17  -  protocadherin 17, GTF3A  -  general transcription factor iiia, BRF1  -  brf1, rna polymerase iii transcription initiation factor 90 kda subunit, NDUFS7  -  nadh dehydrogenase (ubiquinone) fe-s protein 7, 20kda (nadh-coenzyme q reductase), GUCA1A  -  guanylate cyclase activator 1a (retina), GALNT18  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 18, GUCA1B  -  guanylate cyclase activator 1b (retina), GUCY1B3  -  guanylate cyclase 1, soluble, beta 3, PDLIM3  -  pdz and lim domain 3, ERI3  -  eri1 exoribonuclease family member 3, ZFYVE21  -  zinc finger, fyve domain containing 21, ZNF710  -  zinc finger protein 710, ZNF330  -  zinc finger protein 330, EFCAB5  -  ef-hand calcium binding domain 5, GTPBP6  -  gtp binding protein 6 (putative), ATP9B  -  atpase, class ii, type 9b, PCDH11X  -  protocadherin 11 x-linked, PRRG4  -  proline rich gla (g-carboxyglutamic acid) 4 (transmembrane), RPS6KA6  -  ribosomal protein s6 kinase, 90kda, polypeptide 6, ZRSR2  -  zinc finger (ccch type), rna-binding motif and serine/arginine rich 2, FTO  -  fat mass and obesity associated, HABP2  -  hyaluronan binding protein 2, RABGEF1  -  rab guanine nucleotide exchange factor (gef) 1, HAGH  -  hydroxyacylglutathione hydrolase, POLL  -  polymerase (dna directed), lambda, MGAT5B  -  mannosyl (alpha-1,6-)-glycoprotein beta-1,6-n-acetyl-glucosaminyltransferase, isozyme b, MLPH  -  melanophilin, HBB  -  hemoglobin, beta, EPX  -  eosinophil peroxidase, DYSF  -  dysferlin, limb girdle muscular dystrophy 2b (autosomal recessive), PCLO  -  piccolo presynaptic cytomatrix protein, RNF26  -  ring finger protein 26, PPP2R3B  -  protein phosphatase 2, regulatory subunit b'', beta, DHX58  -  dexh (asp-glu-x-his) box polypeptide 58, BRAP  -  brca1 associated protein, CDC7  -  cell division cycle 7, EME1  -  essential meiotic structure-specific endonuclease 1, MMP28  -  matrix metallopeptidase 28, CDH20  -  cadherin 20, type 2, GFI1B  -  growth factor independent 1b transcription repressor, TNIP2  -  tnfaip3 interacting protein 2, GNPTAB  -  n-acetylglucosamine-1-phosphate transferase, alpha and beta subunits, HGD  -  homogentisate 1,2-dioxygenase, AGRN  -  agrin, DSG4  -  desmoglein 4, HIVEP1  -  human immunodeficiency virus type i enhancer binding protein 1, HIVEP2  -  human immunodeficiency virus type i enhancer binding protein 2, ZBTB48  -  zinc finger and btb domain containing 48, ZC3H6  -  zinc finger ccch-type containing 6, BRCC3  -  brca1/brca2-containing complex, subunit 3, CA13  -  carbonic anhydrase xiii, ENTPD8  -  ectonucleoside triphosphate diphosphohydrolase 8, MMEL1  -  membrane metallo-endopeptidase-like 1, TMPPE  -  transmembrane protein with metallophosphoesterase domain, RNF222  -  ring finger protein 222, SPARCL1  -  sparc-like 1 (hevin), HMGCL  -  3-hydroxymethyl-3-methylglutaryl-coa lyase, EEA1  -  early endosome antigen 1, HMOX1  -  heme oxygenase (decycling) 1, HMOX2  -  heme oxygenase (decycling) 2, ZXDC  -  zxd family zinc finger c, ATP8B3  -  atpase, aminophospholipid transporter, class i, type 8b, member 3, BBOX1  -  butyrobetaine (gamma), 2-oxoglutarate dioxygenase (gamma-butyrobetaine hydroxylase) 1, HNF4A  -  hepatocyte nuclear factor 4, alpha, HNF4G  -  hepatocyte nuclear factor 4, gamma, SYT6  -  synaptotagmin vi, RAD54L  -  rad54-like (s. cerevisiae), FYCO1  -  fyve and coiled-coil domain containing 1, DYRK3  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 3, DYRK2  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 2, PHF13  -  phd finger protein 13, DOC2B  -  double c2-like domains, beta, TTF2  -  transcription termination factor, rna polymerase ii, KLF11  -  kruppel-like factor 11, PM20D1  -  peptidase m20 domain containing 1, CDC42BPA  -  cdc42 binding protein kinase alpha (dmpk-like), MOB3C  -  mob kinase activator 3c, GLIS1  -  glis family zinc finger 1, RC3H1  -  ring finger and ccch-type domains 1, ZNF362  -  zinc finger protein 362, PPM1D  -  protein phosphatase, mg2+/mn2+ dependent, 1d, ATP13A3  -  atpase type 13a3, HPCAL1  -  hippocalcin-like 1, HPD  -  4-hydroxyphenylpyruvate dioxygenase, CHPF  -  chondroitin polymerizing factor, CARS2  -  cysteinyl-trna synthetase 2, mitochondrial (putative), ITGA8  -  integrin, alpha 8, GCM1  -  glial cells missing homolog 1 (drosophila), ADIPOR2  -  adiponectin receptor 2, DGKZ  -  diacylglycerol kinase, zeta, DGKE  -  diacylglycerol kinase, epsilon 64kda, DGKD  -  diacylglycerol kinase, delta 130kda, AGFG1  -  arfgap with fg repeats 1, CPZ  -  carboxypeptidase z, HRG  -  histidine-rich glycoprotein, GALNT14  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 14 (galnac-t14), CDH19  -  cadherin 19, type 2, DLL1  -  delta-like 1 (drosophila), FAT4  -  fat atypical cadherin 4, DNAJA1  -  dnaj (hsp40) homolog, subfamily a, member 1, ARSJ  -  arylsulfatase family, member j, PIAS1  -  pro</t>
-  </si>
-  <si>
-    <t>ein inhibitor of activated stat, 1, EFCAB1  -  ef-hand calcium binding domain 1, AIFM3  -  apoptosis-inducing factor, mitochondrion-associated, 3, PDXK  -  pyridoxal (pyridoxine, vitamin b6) kinase, MKNK1  -  map kinase interacting serine/threonine kinase 1, NEIL1  -  nei endonuclease viii-like 1 (e. coli), PDLIM4  -  pdz and lim domain 4, PLEKHF2  -  pleckstrin homology domain containing, family f (with fyve domain) member 2, HSPG2  -  heparan sulfate proteoglycan 2, OGFOD2  -  2-oxoglutarate and iron-dependent oxygenase domain containing 2, SMYD1  -  set and mynd domain containing 1, STEAP4  -  steap family member 4, COMMD1  -  copper metabolism (murr1) domain containing 1, KLF7  -  kruppel-like factor 7 (ubiquitous), GALNT12  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 12 (galnac-t12), ZC2HC1C  -  zinc finger, c2hc-type containing 1c, ZMAT4  -  zinc finger, matrin-type 4, OGFOD3  -  2-oxoglutarate and iron-dependent oxygenase domain containing 3, CADPS  -  ca++-dependent secretion activator, LRRK1  -  leucine-rich repeat kinase 1, PUS10  -  pseudouridylate synthase 10, NPEPL1  -  aminopeptidase-like 1, ENO4  -  enolase family member 4, ZNF385B  -  zinc finger protein 385b, PDE5A  -  phosphodiesterase 5a, cgmp-specific, TNKS  -  tankyrase, trf1-interacting ankyrin-related adp-ribose polymerase, IDE  -  insulin-degrading enzyme, IDH1  -  isocitrate dehydrogenase 1 (nadp+), soluble, ZFAND1  -  zinc finger, an1-type domain 1, IDS  -  iduronate 2-sulfatase, ZNF750  -  zinc finger protein 750, CFI  -  complement factor i, EFCAB10  -  ef-hand calcium binding domain 10, DTX3L  -  deltex 3-like (drosophila), ZFHX4  -  zinc finger homeobox 4, MICALL2  -  mical-like 2, GALNT4  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 4 (galnac-t4), CPNE9  -  copine family member ix, B4GALT4  -  udp-gal:betaglcnac beta 1,4- galactosyltransferase, polypeptide 4, B4GALT3  -  udp-gal:betaglcnac beta 1,4- galactosyltransferase, polypeptide 3, CMC1  -  cox assembly mitochondrial protein 1 homolog (s. cerevisiae), EHMT1  -  euchromatic histone-lysine n-methyltransferase 1, NEK10  -  nima-related kinase 10, ADAM19  -  adam metallopeptidase domain 19, EFCC1  -  ef-hand and coiled-coil domain containing 1, FGD5  -  fyve, rhogef and ph domain containing 5, ZNF827  -  zinc finger protein 827, LONRF3  -  lon peptidase n-terminal domain and ring finger 3, NFXL1  -  nuclear transcription factor, x-box binding-like 1, ADAM21  -  adam metallopeptidase domain 21, ADAM9  -  adam metallopeptidase domain 9, IGHMBP2  -  immunoglobulin mu binding protein 2, RNF122  -  ring finger protein 122, PPM1K  -  protein phosphatase, mg2+/mn2+ dependent, 1k, RIOK3  -  rio kinase 3, TRMT44  -  trna methyltransferase 44 homolog (s. cerevisiae), MATN4  -  matrilin 4, DLK1  -  delta-like 1 homolog (drosophila), RPAP2  -  rna polymerase ii associated protein 2, CBLL1  -  cbl proto-oncogene-like 1, e3 ubiquitin protein ligase, TNFRSF11A  -  tumor necrosis factor receptor superfamily, member 11a, nfkb activator, UBA5  -  ubiquitin-like modifier activating enzyme 5, IHH  -  indian hedgehog, ZC3H14  -  zinc finger ccch-type containing 14, ZMAT2  -  zinc finger, matrin-type 2, SUCLG2  -  succinate-coa ligase, gdp-forming, beta subunit, SUCLA2  -  succinate-coa ligase, adp-forming, beta subunit, LPCAT1  -  lysophosphatidylcholine acyltransferase 1, TRIM24  -  tripartite motif containing 24, CYBRD1  -  cytochrome b reductase 1, SH3RF2  -  sh3 domain containing ring finger 2, RNF145  -  ring finger protein 145, ZC2HC1B  -  zinc finger, c2hc-type containing 1b, IQGAP1  -  iq motif containing gtpase activating protein 1, SNRNP48  -  small nuclear ribonucleoprotein 48kda (u11/u12), NRP2  -  neuropilin 2, NRP1  -  neuropilin 1, PNLDC1  -  poly(a)-specific ribonuclease (parn)-like domain containing 1, RNF217  -  ring finger protein 217, CAPN8  -  calpain 8, COA6  -  cytochrome c oxidase assembly factor 6 homolog (s. cerevisiae), KSR1  -  kinase suppressor of ras 1, ALKBH1  -  alkb, alkylation repair homolog 1 (e. coli), DHDDS  -  dehydrodolichyl diphosphate synthase, IMPA1  -  inositol(myo)-1(or 4)-monophosphatase 1, IMPA2  -  inositol(myo)-1(or 4)-monophosphatase 2, ASAP2  -  arfgap with sh3 domain, ankyrin repeat and ph domain 2, IMPDH2  -  imp (inosine 5'-monophosphate) dehydrogenase 2, PROZ  -  protein z, vitamin k-dependent plasma glycoprotein, ING1  -  inhibitor of growth family, member 1, PHF17  -  phd finger protein 17, INPP5B  -  inositol polyphosphate-5-phosphatase, 75kda, SQSTM1  -  sequestosome 1, AMZ1  -  archaelysin family metallopeptidase 1, INSM1  -  insulinoma-associated 1, TAX1BP1  -  tax1 (human t-cell leukemia virus type i) binding protein 1, EIF2S2  -  eukaryotic translation initiation factor 2, subunit 2 beta, 38kda, ITGA6  -  integrin, alpha 6, CPNE3  -  copine iii, PLEKHM3  -  pleckstrin homology domain containing, family m, member 3, IREB2  -  iron-responsive element binding protein 2, MTMR3  -  myotubularin related protein 3, PHC3  -  polyhomeotic homolog 3 (drosophila), GYG2  -  glycogenin 2, ESCO2  -  establishment of sister chromatid cohesion n-acetyltransferase 2, CACNA1H  -  calcium channel, voltage-dependent, t type, alpha 1h subunit, HERC2  -  hect and rld domain containing e3 ubiquitin protein ligase 2, ITGA9  -  integrin, alpha 9, BSN  -  bassoon presynaptic cytomatrix protein, ITGAV  -  integrin, alpha v, ITGB1  -  integrin, beta 1 (fibronectin receptor, beta polypeptide, antigen cd29 includes mdf2, msk12), ITGB2  -  integrin, beta 2 (complement component 3 receptor 3 and 4 subunit), ADAMTS20  -  adam metallopeptidase with thrombospondin type 1 motif, 20, ITK  -  il2-inducible t-cell kinase, STT3A  -  stt3a, subunit of the oligosaccharyltransferase complex (catalytic), ITPK1  -  inositol-tetrakisphosphate 1-kinase, P4HA2  -  prolyl 4-hydroxylase, alpha polypeptide ii, USP13  -  ubiquitin specific peptidase 13 (isopeptidase t-3), ITPR1  -  inositol 1,4,5-trisphosphate receptor, type 1, ITPR2  -  inositol 1,4,5-trisphosphate receptor, type 2, PIF1  -  pif1 5'-to-3' dna helicase, JAG2  -  jagged 2, JAK1  -  janus kinase 1, KALRN  -  kalirin, rhogef kinase, FRAS1  -  fraser syndrome 1, TAF1B  -  tata box binding protein (tbp)-associated factor, rna polymerase i, b, 63kda, ZC3H12A  -  zinc finger ccch-type containing 12a, KCNA4  -  potassium voltage-gated channel, shaker-related subfamily, member 4, BRSK2  -  br serine/threonine kinase 2, RNF8  -  ring finger protein 8, e3 ubiquitin protein ligase, BAZ1B  -  bromodomain adjacent to zinc finger domain, 1b, PKD2L1  -  polycystic kidney disease 2-like 1, KCND2  -  potassium voltage-gated channel, shal-related subfamily, member 2, DBF4B  -  dbf4 homolog b (s. cerevisiae), KCND3  -  potassium voltage-gated channel, shal-related subfamily, member 3, FEZF1  -  fez family zinc finger 1, RNF34  -  ring finger protein 34, e3 ubiquitin protein ligase, FBXO11  -  f-box protein 11, ZDHHC15  -  zinc finger, dhhc-type containing 15, MAP3K6  -  mitogen-activated protein kinase kinase kinase 6, SYT7  -  synaptotagmin vii, C11orf54  -  chromosome 11 open reading frame 54, ASH2L  -  ash2 (absent, small, or homeotic)-like (drosophila), RUFY1  -  run and fyve domain containing 1, KEL  -  kell blood group, metallo-endopeptidase, NOB1  -  nin1/rpn12 binding protein 1 homolog (s. cerevisiae), EFHC2  -  ef-hand domain (c-terminal) containing 2, DNAJA3  -  dnaj (hsp40) homolog, subfamily a, member 3, EDEM3  -  er degradation enhancer, mannosidase alpha-like 3, KLF15  -  kruppel-like factor 15, SCUBE1  -  signal peptide, cub domain, egf-like 1, MAP3K15  -  mitogen-activated protein kinase kinase kinase 15, RGN  -  regucalcin, KIT  -  v-kit hardy-zuckerman 4 feline sarcoma viral oncogene homolog, MTMR4  -  myotubularin related protein 4, FER1L4  -  fer-1-like 4 (c. elegans) pseudogene, MTA1  -  metastasis associated 1, PPTC7  -  ptc7 protein phosphatase homolog (s. cerevisiae), LATS1  -  large tumor suppressor kinase 1, ZC3H7A  -  zinc finger ccch-type containing 7a, KNG1  -  kininogen 1, ZBTB44  -  zinc finger and btb domain containing 44, DGKH  -  diacylglycerol kinase, eta, CPEB4  -  cytoplasmic polyadenylation element binding protein 4, SETD2  -  set domain containing 2, PDLIM1  -  pdz and lim domain 1, KPNB1  -  karyopherin (importin) beta 1, GTPBP8  -  gtp-binding protein 8 (putative), CBFA2T2  -  core-binding factor, runt domain, alpha subunit 2; translocated to, 2, OTUD7A  -  otu domain containing 7a, HGS  -  hepatocyte growth factor-regulated tyrosine kinase substrate, DROSHA  -  drosha, ribonuclease type iii, ADAL  -  adenosine deaminase-like, NEURL  -  neuralized homolog (drosophila), TNKS2  -  tankyrase, trf1-interacting ankyrin-related adp-ribose polymerase 2, ZFPM1  -  zinc finger protein, fog family member 1, EXO1  -  exonuclease 1, DGKI  -  diacylglycerol kinase, iota, MYLIP  -  myosin regulatory light chain interacting protein, SCAF11  -  sr-related ctd-associated factor 11, PHOSPHO1  -  phosphatase, orphan 1, RHBDL3  -  rhomboid, veinlet-like 3 (drosophila), MAP3K13  -  mitogen-activated protein kinase kinase kinase 13, RACGAP1  -  rac gtpase activating protein 1, UHRF1  -  ubiquitin-like with phd and ring finger domains 1, REPS2  -  ralbp1 associated eps domain containing 2, AARSD1  -  alanyl-trna synthetase domain containing 1, ZBED1  -  zinc finger, bed-type containing 1, ZMYM4  -  zinc finger, mym-type 4, ZMYM3  -  zinc finger, mym-type 3, OLA1  -  obg-like atpase 1, LIMD2  -  lim domain containing 2, LASP1  -  lim and sh3 protein 1, CYB5B  -  cytochrome b5 type b (outer mitochondrial membrane), COL18A1  -  collagen, type xviii, alpha 1, ASXL3  -  additional sex combs like 3 (drosophila), LCP1  -  lymphocyte cytosolic protein 1 (l-plastin), DDHD1  -  ddhd domain containing 1, LETM1  -  leucine zipper-ef-hand containing transmembrane protein 1, JHDM1D  -  jumonji c domain containing histone demethylase 1 homolog d (s. cerevisiae), EEF2K  -  eukaryotic elongation factor-2 kinase, GCM2  -  glial cells missing homolog 2 (drosophila), ILKAP  -  integrin-linked kinase-associated serine/threonine phosphatase, RPS6KA5  -  ribosomal protein s6 kinase, 90kda, polypeptide 5, CACNA2D2  -  calcium channel, voltage-dependent, alpha 2/delta subunit 2, LIG3  -  ligase iii, dna, atp-dependent, LIG4  -  ligase iv, dna, atp-dependent, PDLIM7  -  pdz and lim domain 7 (enigma), NME7  -  nme/nm23 family member 7, ABLIM1  -  actin binding lim protein 1, COLEC12  -  collectin sub-family member 12, LIMK2  -  lim domain kinase 2, PIWIL1  -  piwi-like rna-mediated gene silencing 1, LMO1  -  lim domain only 1 (rhombotin 1), PADI1  -  peptidyl arginine deiminase, type i, LMO7  -  lim domain 7, LMX1A  -  lim homeobox transcription factor 1, alpha, LMX1B  -  lim homeobox transcription factor 1, beta, RNF168  -  ring finger protein 168, e3 ubiquitin protein ligase, PDZRN4  -  pdz domain containing ring finger 4, LOXL1  -  lysyl oxidase-like 1, PRICKLE2  -  prickle homolog 2 (drosophila), LOXL2  -  lysyl oxidase-like 2, POMT2  -  protein-o-mannosyltransferase 2, SLC25A24  -  solute carrier family 25 (mitochondrial carrier; phosphate carrier), member 24, ZBTB49  -  zinc finger and btb domain containing 49, LRP1  -  low density lipoprotein receptor-related protein 1, LRP2  -  low density lipoprotein receptor-related protein 2, KLF4  -  kruppel-like factor 4 (gut), LRP4  -  low density lipoprotein receptor-related protein 4, PTER  -  phosphotriesterase related, LTA4H  -  leukotriene a4 hydrolase, TRIP4  -  thyroid hormone receptor interactor 4, LTBP1  -  latent transforming growth factor beta binding protein 1, LTBP2  -  latent transforming growth factor beta binding protein 2, B4GALT6  -  udp-gal:betaglcnac beta 1,4- galactosyltransferase, polypeptide 6, TGM5  -  transglutaminase 5, BAZ2B  -  bromodomain adjacent to zinc finger domain, 2b, LMCD1  -  lim and cysteine-rich domains 1, THAP5  -  thap domain containing 5, LHX2  -  lim homeobox 2, ZNF800  -  zinc finger protein 800, NBR1  -  neighbor of brca1 gene 1, SLC30A8  -  solute carrier family 30 (zinc transporter), member 8, KCNIP2  -  kv channel interacting protein 2, KCNIP1  -  kv channel interacting protein 1, SMAD1  -  smad family member 1, SMAD3  -  smad family member 3, SMAD5  -  smad family member 5, SMAD6  -  smad family member 6, ZFYVE9  -  zinc finger, fyve domain containing 9, EHD4  -  eh-domain containing 4, SMAD9  -  smad family member 9, EHD3  -  eh-domain containing 3, NRXN1  -  neurexin 1, OTOF  -  otoferlin, OIT3  -  oncoprotein induced transcript 3, ZBTB21  -  zinc finger and btb domain containing 21, SCAPER  -  s-phase cyclin a-associated protein in the er, CRNN  -  cornulin, RRM2B  -  ribonucleotide reductase m2 b (tp53 inducible), DUOX2  -  dual oxidase 2, DHX36  -  deah (asp-glu-ala-his) box polypeptide 36, MAK  -  male germ cell-associated kinase, MAN2A2  -  mannosidase, alpha, class 2a, member 2, MAN2C1  -  mannosidase, alpha, class 2c, member 1, ZRANB2  -  zinc finger, ran-binding domain containing 2, ARHGAP29  -  rho gtpase activating protein 29, GALNT9  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 9 (galnac-t9), ITSN2  -  intersectin 2, MARK1  -  map/microtubule affinity-regulating kinase 1, MAT1A  -  methionine adenosyltransferase i, alpha, MATN1  -  matrilin 1, cartilage matrix protein, MATN2  -  matrilin 2, MATN3  -  matrilin 3, MB  -  myoglobin, MBNL1  -  muscleblind-like splicing regulator 1, ASAP1  -  arfgap with sh3 domain, ankyrin repeat and ph domain 1, MOB2  -  mob kinase activator 2, MCM2  -  minichromosome maintenance complex component 2, FHL5  -  four and a half lim domains 5, PICK1  -  protein interacting with prkca 1, ADAMTS15  -  adam metallopeptidase with thrombospondin type 1 motif, 15, ADAMTS18  -  adam metallopeptidase with thrombospondin type 1 motif, 18, ROCK2  -  rho-associated, coiled-coil containing protein kinase 2, LMAN2L  -  lectin, mannose-binding 2-like, MDM2  -  mdm2 oncogene, e3 ubiquitin protein ligase, CABP1  -  calcium binding protein 1, MDM4  -  mdm4 p53 binding protein homolog (mouse), ZNF384  -  zinc finger protein 384, RNF141  -  ring finger protein 141, ASXL1  -  additional sex combs like 1 (drosophila), PGS1  -  phosphatidylglycerophosphate synthase 1, CDADC1  -  cytidine and dcmp deaminase domain containing 1, RHOV  -  ras homolog family member v, TRIM8  -  tripartite motif containing 8, MAP3K3  -  mitogen-activated protein kinase kinase kinase 3, RPH3AL  -  rabphilin 3a-like (without c2 domains), MAP3K4  -  mitogen-activated protein kinase kinase kinase 4, FRRS1  -  ferric-chelate reductase 1, ADAMTS3  -  adam metallopeptidase with thrombospondin type 1 motif, 3, ADAMTS2  -  adam metallopeptidase with thrombospondin type 1 motif, 2, TMEM163  -  transmembrane protein 163, MEP1A  -  meprin a, alpha (paba peptide hydrolase), MEP1B  -  meprin a, beta, PMPCB  -  peptidase (mitochondrial processing) beta, LITAF  -  lipopolysaccharide-induced tnf factor, CLYBL  -  citrate lyase beta like, NPEPPS  -  aminopeptidase puromycin sensitive, MGAT2  -  mannosyl (alpha-1,6-)-glycoprotein beta-1,2-n-acetylglucosaminyltransferase, MGAT5  -  mannosyl (alpha-1,6-)-glycoprotein beta-1,6-n-acetyl-glucosaminyltransferase, AMDHD2  -  amidohydrolase domain containing 2, MGMT  -  o-6-methylguanine-dna methyltransferase, MGP  -  matrix gla protein, NUAK2  -  nuak family, snf1-like kinase, 2, HDDC2  -  hd domain containing 2, GLRX2  -  glutaredoxin 2, MID1  -  midline 1 (opitz/bbb syndrome), MIPEP  -  mitochondrial intermediate peptidase, RNF146  -  ring finger protein 146, ZNF593  -  zinc finger protein 593, AGO3  -  argonaute risc catalytic component 3, LAP3  -  leucine aminopeptidase 3, KMT2A  -  lysine (k)-specific methyltransferase 2a, MLLT6  -  myeloid/lymphoid or mixed-lineage leukemia (trithorax homolog, drosophila); translocated to, 6, NR3C2  -  nuclear receptor subfamily 3, group c, member 2, MME  -  membrane metallo-endopeptidase, CREB5  -  camp responsive element binding protein 5, MMP2  -  matrix metallopeptidase 2 (gelatinase a, 72kda gelatinase, 72kda type iv collagenase), MMP3  -  matrix metallopeptidase 3 (stromelysin 1, progelatinase), MMP7  -  matrix metallopeptidase 7 (matrilysin, uterine), FAHD1  -  fumarylacetoacetate hydrolase domain containing 1, MMP9  -  matrix metallopeptidase 9 (gelatinase b, 92kda gelatinase, 92kda type iv collagenase), APIP  -  apaf1 interacting protein, CUTC  -  cutc copper transporter, MMP11  -  matrix metallopeptidase 11 (stromelysin 3), MMP13  -  matrix metallopeptidase 13 (collagenase 3), THAP4  -  thap domain containing 4, ZFC3H1  -  zinc finger, c3h1-type containing, RNF14  -  ring finger protein 14, MMP17  -  matrix metallopeptidase 17 (membrane-inserted), TNNI3K  -  tnni3 interacting kinase, MNAT1  -  mnat cdk-activating kinase assembly factor 1, PITPNM3  -  pitpnm family member 3, ANO6  -  anoctamin 6, RNF7  -  ring finger protein 7, ARID2  -  at rich interactive domain 2 (arid, rfx-like), DYTN  -  dystrotelin, MOCS1  -  molybdenum cofactor synthesis 1, ADPGK  -  adp-dependent glucokinase, ADIPOR1  -  adiponectin receptor 1, CELSR1  -  cadherin, egf lag seven-pass g-type receptor 1, GUCA1C  -  guanylate cyclase activator 1c, MPI  -  mannose phosphate isomerase, SEC24C  -  sec24 family, member c (s. cerevisiae), PHF20L1  -  phd finger protein 20-like 1, LACTB2  -  lactamase, beta 2, MRE11A  -  mre11 meiotic recombination 11 homolog a (s. cerevisiae), DOHH  -  deoxyhypusine hydroxylase/monooxygenase, SUV420H1  -  suppressor of variegation 4-20 homolog 1 (drosophila), ZNF592  -  zinc finger protein 592, DDX59  -  dead (asp-glu-ala-asp) box polypeptide 59, MICAL2  -  microtubule associated monooxygenase, calponin and lim domain containing 2, PPM1F  -  protein phosphatase, mg2+/mn2+ dependent, 1f, NSMCE1  -  non-smc element 1 homolog (s. cerevisiae), ZNF706  -  zinc finger protein 706, AIF1L  -  allograft inflammatory factor 1-like, ZNF516  -  zinc finger protein 516, IRAK4  -  interleukin-1 receptor-associated kinase 4, RNFT1  -  ring finger protein, transmembrane 1, RASSF5  -  ras association (ralgds/af-6) domain family member 5, EIF5B  -  eukaryotic translation initiation factor 5b, ING4  -  inhibitor of growth family, member 4, PHF14  -  phd finger protein 14, KDM4A  -  lysine (k)-specific demethylase 4a, C1orf86  -  chromosome 1 open reading frame 86, EGFL7  -  egf-like-domain, multiple 7, DBR1  -  debranching rna lariats 1, KIAA0391  -  kiaa0391, RAPGEF2  -  rap guanine nucleotide exchange factor (gef) 2, CYB5R4  -  cytochrome b5 reductase 4, EDEM1  -  er degradation enhancer, mannosidase alpha-like 1, MSH2  -  muts homolog 2, colon cancer, nonpolyposis type 1 (e. coli), RIMS2  -  regulating synaptic membrane exocytosis 2, ST18  -  suppression of tumorigenicity 18 (breast carcinoma) (zinc finger protein), CRBN  -  cereblon, RNF215  -  ring finger protein 215, CALN1  -  calneuron 1, ZNF639  -  zinc finger protein 639, ECE2  -  endothelin converting enzyme 2, PLCE1  -  phospholipase c, epsilon 1, ZBTB8A  -  zinc finger and btb domain containing 8a, NIN  -  ninein (gsk3b interacting protein), APLF  -  aprataxin and pnkp like factor, PIKFYVE  -  phosphoinositide kinase, fyve finger containing, RIOK1  -  rio kinase 1, ANXA8  -  annexin a8, RAB11FIP3  -  rab11 family interacting protein 3 (class ii), GLRX5  -  glutaredoxin 5, HDAC9  -  histone deacetylase 9, MTF1  -  metal-regulatory transcription factor 1, PHF20  -  phd finger protein 20, ZNF536  -  zinc finger protein 536, CLSTN3  -  calsyntenin 3, ESYT3  -  extended synaptotagmin-like protein 3, SETDB2  -  set domain, bifurcated 2, CENPV  -  centromere protein v, TAF3  -  taf3 rna polymerase ii, tata box binding protein (tbp)-associated factor, 140kda, NT5C3A  -  5'-nucleotidase, cytosolic iiia, MTR  -  5-methyltetrahydrofolate-homocysteine methyltransferase, TRIM65  -  tripartite motif containing 65, HMCN1  -  hemicentin 1, PHF16  -  phd finger protein 16, UNC13D  -  unc-13 homolog d (c. elegans), KLF3  -  kruppel-like factor 3 (basic), STT3B  -  stt3b, subunit of the oligosaccharyltransferase complex (catalytic), RNF144A  -  ring finger protein 144a, MATR3  -  matrin 3, PDE12  -  phosphodiesterase 12, BFAR  -  bifunctional apoptosis regulator, TRIM37  -  tripartite motif containing 37, PCDH12  -  protocadherin 12, MUTYH  -  muty homolog (e. coli), SPRTN  -  sprt-like n-terminal domain, HDAC10  -  histone deacetylase 10, MVK  -  mevalonate kinase, CYP39A1  -  cytochrome p450, family 39, subfamily a, polypeptide 1, TATDN1  -  tatd dnase domain containing 1, EFCAB14  -  ef-hand calcium binding domain 14, TSSK1B  -  testis-specific serine kinase 1b, GIT2  -  g protein-coupled receptor kinase interacting arfgap 2, STK32A  -  serine/threonine kinase 32a, NCALD  -  neurocalcin delta, PHF21A  -  phd finger protein 21a, BRIP1  -  brca1 interacting protein c-terminal helicase 1, MELK  -  maternal embryonic leucine zipper kinase, OBSCN  -  obscurin, cytoskeletal calmodulin and titin-interacting rhogef, ZEB2  -  zinc finger e-box binding homeobox 2, ZBTB24  -  zinc finger and btb domain containing 24, PLEKHM1  -  pleckstrin homology domain containing, family m (with run domain) member 1, HEPH  -  hephaestin, C2CD5  -  c2 calcium-dependent domain containing 5, MYLK  -  myosin light chain kinase, PLA2G4B  -  phospholipase a2, group ivb (cytosolic), JMJD7  -  jumonji domain containing 7, MBTPS2  -  membrane-bound transcription factor peptidase, site 2, MYO9A  -  myosin ixa, MYO9B  -  myosin ixb, ZMYND10  -  zinc finger, mynd-type containing 10, UBR5  -  ubiquitin protein ligase e3 component n-recognin 5, MYOC  -  myocilin, trabecular meshwork inducible glucocorticoid response, TRIM66  -  tripartite motif containing 66, SETDB1  -  set domain, bifurcated 1, ZRANB3  -  zinc finger, ran-binding domain containing 3, FBXO30  -  f-box protein 30, MYT1  -  myelin transcription factor 1, ZC3H11A  -  zinc finger ccch-type containing 11a, ZBTB39  -  zinc finger and btb domain containing 39, ARL6  -  adp-ribosylation factor-like 6, USP44  -  ubiquitin specific peptidase 44, ZBED4  -  zinc finger, bed-type containing 4, ZIC4  -  zic family member 4, PCGF6  -  polycomb group ring finger 6, DDX41  -  dead (asp-glu-ala-asp) box polypeptide 41, ZNRF3  -  zinc and ring finger 3, USP12  -  ubiquitin specific peptidase 12, HPCAL4  -  hippocalcin like 4, ZNF644  -  zinc finger protein 644, RNF138  -  ring finger protein 138, e3 ubiquitin protein ligase, ATP2C2  -  atpase, ca++ transporting, type 2c, member 2, FAM20B  -  family with sequence similarity 20, member b, REV1  -  rev1, polymerase (dna directed), RNF10  -  ring finger protein 10, ANTXR1  -  anthrax toxin receptor 1, ZBTB40  -  zinc finger and btb domain containing 40, POLR1B  -  polymerase (rna) i polypeptide b, 128kda, PAN2  -  pan2 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), LIMA1  -  lim domain and actin binding 1, HELZ  -  helicase with zinc finger, NDUFS1  -  nadh dehydrogenase (ubiquinone) fe-s protein 1, 75kda (nadh-coenzyme q reductase), ZNF804B  -  zinc finger protein 804b, DCLRE1A  -  dna cross-link repair 1a, RTCB  -  rna 2',3'-cyclic phosphate and 5'-oh ligase, NDUFV2  -  nadh dehydrogenase (ubiquinone) flavoprotein 2, 24kda, EXOG  -  endo/exonuclease (5'-3'), endonuclease g-like, DRG1  -  developmentally regulated gtp binding protein 1, ZMYND12  -  zinc finger, mynd-type containing 12, NELL1  -  nel-like 1 (chicken), CXXC5  -  cxxc finger protein 5, NEK1  -  nima-related kinase 1, NEK2  -  nima-related kinase 2, NEK3  -  nima-related kinase 3, ZC3HC1  -  zinc finger, c3hc-type containing 1, TRAF7  -  tnf receptor-associated factor 7, e3 ubiquitin protein ligase, PHF7  -  phd finger protein 7, ZCCHC17  -  zinc finger, cchc domain containing 17, NR1H4  -  nuclear receptor subfamily 1, group h, member 4, NUP153  -  nucleoporin 153kda, NR1D2  -  nuclear receptor subfamily 1, group d, member 2, SIRT6  -  sirtuin 6, RBX1  -  ring-box 1, e3 ubiquitin protein ligase, NT5DC3  -  5'-nucleotidase domain containing 3, HDAC7  -  histone deacetylase 7, HAGHL  -  hydroxyacylglutathione hydrolase-like, GDE1  -  glycerophosphodiester phosphodiesterase 1, NFX1  -  nuclear transcription factor, x-box binding 1, NR2E3  -  nuclear receptor subfamily 2, group e, member 3, NAALAD2  -  n-acetylated alpha-linked acidic dipeptidase 2, PIAS4  -  protein inhibitor of activated stat, 4, CUTA  -  cuta divalent cation tolerance homolog (e. coli), ZBTB33  -  zinc finger and btb domain containing 33, TANK  -  traf family member-associated nfkb activator, NID1  -  nidogen 1, PDCD6  -  programmed cell death 6, EFCAB2  -  ef-hand calcium binding domain 2, KLF13  -  kruppel-like factor 13, PHF6  -  phd finger protein 6, NME4  -  nme/nm23 nucleoside diphosphate kinase 4, NQO2  -  nad(p)h dehydrogenase, quinone 2, RNF152  -  ring finger protein 152, YPEL5  -  yippee-like 5 (drosophila), NOS1  -  nitric oxide synthase 1 (neuronal), NOS2  -  nitric oxide synthase 2, inducible, CDK5RAP1  -  cdk5 regulatory subunit associated protein 1, CNOT4  -  ccr4-not transcription complex, subunit 4, ZNF438  -  zinc finger protein 438, NOTCH1  -  notch 1, NOTCH2  -  notch 2, NOTCH3  -  notch 3, UBA2  -  ubiquitin-like modifier activating enzyme 2, FARSB  -  phenylalanyl-trna synthetase, beta subunit, NPAS2  -  neuronal pas domain protein 2, COX17  -  cox17 cytochrome c oxidase copper chaperone, JMJD1C  -  jumonji domain containing 1c, CPSF3  -  cleavage and polyadenylation specific factor 3, 73kda, PCGF5  -  polycomb group ring finger 5, NLK  -  nemo-like kinase, ALKBH3  -  alkb, alkylation repair homolog 3 (e. coli), ATP9A  -  atpase, class ii, type 9a, ARFGAP2  -  adp-ribosylation factor gtpase activating protein 2, MICU2  -  mitochondrial calcium uptake 2, NPTX1  -  neuronal pentraxin i, NPTX2  -  neuronal pentraxin ii, CPNE2  -  copine ii, FBXO40  -  f-box protein 40, NRAP  -  nebulin-related anchoring protein, NT5DC1  -  5'-nucleotidase domain containing 1, RAB11FIP4  -  rab11 family interacting protein 4 (class ii), NSF  -  n-ethylmaleimide-sensitive factor, NT5E  -  5'-nucleotidase, ecto (cd73), RTEL1  -  regulator of telomere elongation helicase 1, ZNF512  -  zinc finger protein 512, EFCAB7  -  ef-hand calcium binding domain 7, L3MBTL3  -  l(3)mbt-like 3 (drosophila), NTHL1  -  nth endonuclease iii-like 1 (e. coli), SYT17  -  synaptotagmin xvii, RAD50  -  rad50 homolog (s. cerevisiae), ATP8A2  -  atpase, aminophospholipid transporter, class i, type 8a, member 2, SLX4  -  slx4 structure-specific endonuclease subunit, RSF1  -  remodeling and spacing factor 1, NUCB2  -  nucleobindin 2, KDM3B  -  lysine (k)-specific demethylase 3b, RASGRP1  -  ras guanyl releasing protein 1 (calcium and dag-regulated), KDM1B  -  lysine (k)-specific demethylase 1b, GALNT7  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 7 (galnac-t7), CECR1  -  cat eye syndrome chromosome region, candidate 1, OPTN  -  optineurin, BCL11A  -  b-cell cll/lymphoma 11a (zinc finger protein), RNF182  -  ring finger protein 182, ZFYVE1  -  zinc finger, fyve domain containing 1, LRP1B  -  low density lipoprotein receptor-related protein 1b, MBNL2  -  muscleblind-like splicing regulator 2, JAZF1  -  jazf zinc finger 1, RASA4  -  ras p21 protein activator 4, OGDH  -  oxoglutarate (alpha-ketoglutarate) dehydrogenase (lipoamide), DAGLB  -  diacylglycerol lipase, beta, OPA1  -  optic atrophy 1 (autosomal dominant), ZBTB37  -  zinc finger and btb domain containing 37, BCMO1  -  beta-carotene 15,15'-monooxygenase 1, NT5C1A  -  5'-nucleotidase, cytosolic ia, ZGPAT  -  zinc finger, ccch-type with g patch domain, RSBN1L  -  round spermatid basic protein 1-like, ZNF469  -  zinc finger protein 469, NAPEPLD  -  n-acyl phosphatidylethanolamine phospholipase d, RBM5  -  rna binding motif protein 5, CDHR3  -  cadherin-related family member 3, ORC1  -  origin recognition complex, subunit 1, CDHR5  -  cadherin-related family member 5, TNK2  -  tyrosine kinase, non-receptor, 2, LNX2  -  ligand of numb-protein x 2, RNF41  -  ring finger protein 41, TSHZ1  -  teashirt zinc finger homeobox 1, PLA2G12B  -  phospholipase a2, group xiib, PRMT3  -  protein arginine methyltransferase 3, NME6  -  nme/nm23 nucleoside diphosphate kinase 6, SCUBE3  -  signal peptide, cub domain, egf-like 3, P2RX1  -  purinergic receptor p2x, ligand-gated ion channel, 1]</t>
-  </si>
-  <si>
     <t>GO:0043169</t>
   </si>
   <si>
     <t>cation binding</t>
   </si>
   <si>
-    <t>[P2RX4  -  purinergic receptor p2x, ligand-gated ion channel, 4, USP32  -  ubiquitin specific peptidase 32, PSMD14  -  proteasome (prosome, macropain) 26s subunit, non-atpase, 14, TRIM55  -  tripartite motif containing 55, TRIM63  -  tripartite motif containing 63, e3 ubiquitin protein ligase, P4HA1  -  prolyl 4-hydroxylase, alpha polypeptide i, KDM2B  -  lysine (k)-specific demethylase 2b, ABAT  -  4-aminobutyrate aminotransferase, ABL1  -  c-abl oncogene 1, non-receptor tyrosine kinase, MCEE  -  methylmalonyl coa epimerase, CAPS2  -  calcyphosine 2, ACACA  -  acetyl-coa carboxylase alpha, ACACB  -  acetyl-coa carboxylase beta, PAK3  -  p21 protein (cdc42/rac)-activated kinase 3, CALCOCO2  -  calcium binding and coiled-coil domain 2, LNX1  -  ligand of numb-protein x 1, e3 ubiquitin protein ligase, PARK2  -  parkinson protein 2, e3 ubiquitin protein ligase (parkin), MIS18A  -  mis18 kinetochore protein homolog a (s. pombe), PARN  -  poly(a)-specific ribonuclease, ACLY  -  atp citrate lyase, ACR  -  acrosin, ACO2  -  aconitase 2, mitochondrial, CNDP1  -  carnosine dipeptidase 1 (metallopeptidase m20 family), RNASEH1  -  ribonuclease h1, PCCA  -  propionyl coa carboxylase, alpha polypeptide, PCDH1  -  protocadherin 1, PCDHGC3  -  protocadherin gamma subfamily c, 3, PCDH8  -  protocadherin 8, PCDH9  -  protocadherin 9, PCK1  -  phosphoenolpyruvate carboxykinase 1 (soluble), CYCS  -  cytochrome c, somatic, CHMP1A  -  charged multivesicular body protein 1a, ACTN1  -  actinin, alpha 1, ACTN2  -  actinin, alpha 2, ACVR1  -  activin a receptor, type i, DNAJA2  -  dnaj (hsp40) homolog, subfamily a, member 2, ACVR2B  -  activin a receptor, type iib, RTN4IP1  -  reticulon 4 interacting protein 1, ACY1  -  aminoacylase 1, ADA  -  adenosine deaminase, ADAM10  -  adam metallopeptidase domain 10, PDCD2  -  programmed cell death 2, ADAR  -  adenosine deaminase, rna-specific, ADARB1  -  adenosine deaminase, rna-specific, b1, PDE1C  -  phosphodiesterase 1c, calmodulin-dependent 70kda, ADARB2  -  adenosine deaminase, rna-specific, b2 (non-functional), PDE3A  -  phosphodiesterase 3a, cgmp-inhibited, ADCY1  -  adenylate cyclase 1 (brain), PDE3B  -  phosphodiesterase 3b, cgmp-inhibited, ADCY2  -  adenylate cyclase 2 (brain), ADCY3  -  adenylate cyclase 3, PDE4B  -  phosphodiesterase 4b, camp-specific, ADCY5  -  adenylate cyclase 5, HPDL  -  4-hydroxyphenylpyruvate dioxygenase-like, LANCL1  -  lanc lantibiotic synthetase component c-like 1 (bacterial), PDE4D  -  phosphodiesterase 4d, camp-specific, PHF5A  -  phd finger protein 5a, ADCY7  -  adenylate cyclase 7, ADCY8  -  adenylate cyclase 8 (brain), PDE6C  -  phosphodiesterase 6c, cgmp-specific, cone, alpha prime, ADCY9  -  adenylate cyclase 9, IKZF1  -  ikaros family zinc finger 1 (ikaros), PDE7A  -  phosphodiesterase 7a, PDE8A  -  phosphodiesterase 8a, SMYD5  -  smyd family member 5, PDE9A  -  phosphodiesterase 9a, RBM27  -  rna binding motif protein 27, NEIL2  -  nei endonuclease viii-like 2 (e. coli), MOV10L1  -  mov10l1, moloney leukemia virus 10-like 1, homolog (mouse), AGBL4  -  atp/gtp binding protein-like 4, ENPP2  -  ectonucleotide pyrophosphatase/phosphodiesterase 2, ENPP3  -  ectonucleotide pyrophosphatase/phosphodiesterase 3, ADPRH  -  adp-ribosylarginine hydrolase, PARP1  -  poly (adp-ribose) polymerase 1, ANKIB1  -  ankyrin repeat and ibr domain containing 1, ZFAND6  -  zinc finger, an1-type domain 6, RNF216  -  ring finger protein 216, IPMK  -  inositol polyphosphate multikinase, ZBTB38  -  zinc finger and btb domain containing 38, PEPD  -  peptidase d, TRMT13  -  trna methyltransferase 13 homolog (s. cerevisiae), DGCR8  -  dgcr8 microprocessor complex subunit, KLF2  -  kruppel-like factor 2 (lung), NEURL1B  -  neuralized homolog 1b (drosophila), RNFT2  -  ring finger protein, transmembrane 2, PEX10  -  peroxisomal biogenesis factor 10, PEX12  -  peroxisomal biogenesis factor 12, ZNF341  -  zinc finger protein 341, EBF3  -  early b-cell factor 3, BPNT1  -  3'(2'), 5'-bisphosphate nucleotidase 1, MSRB3  -  methionine sulfoxide reductase b3, ZDHHC20  -  zinc finger, dhhc-type containing 20, AFP  -  alpha-fetoprotein, PCDH18  -  protocadherin 18, ACAN  -  aggrecan, CEPT1  -  choline/ethanolamine phosphotransferase 1, PFKL  -  phosphofructokinase, liver, JAG1  -  jagged 1, PFKP  -  phosphofructokinase, platelet, FIBCD1  -  fibrinogen c domain containing 1, METAP1D  -  methionyl aminopeptidase type 1d (mitochondrial), CPQ  -  carboxypeptidase q, ZFYVE19  -  zinc finger, fyve domain containing 19, RC3H2  -  ring finger and ccch-type domains 2, PGM1  -  phosphoglucomutase 1, PGM3  -  phosphoglucomutase 3, RNF169  -  ring finger protein 169, RNF186  -  ring finger protein 186, ALAD  -  aminolevulinate dehydratase, PGR  -  progesterone receptor, SPON2  -  spondin 2, extracellular matrix protein, NECAB2  -  n-terminal ef-hand calcium binding protein 2, SPON1  -  spondin 1, extracellular matrix protein, ALB  -  albumin, TESK2  -  testis-specific kinase 2, PHYHD1  -  phytanoyl-coa dioxygenase domain containing 1, PHEX  -  phosphate regulating endopeptidase homolog, x-linked, ING3  -  inhibitor of growth family, member 3, ARIH2  -  ariadne homolog 2 (drosophila), PHF2  -  phd finger protein 2, SEC24B  -  sec24 family, member b (s. cerevisiae), DLL4  -  delta-like 4 (drosophila), NUDT8  -  nudix (nucleoside diphosphate linked moiety x)-type motif 8, PHYH  -  phytanoyl-coa 2-hydroxylase, RNF223  -  ring finger protein 223, ALOX5  -  arachidonate 5-lipoxygenase, EGLN1  -  egl-9 family hypoxia-inducible factor 1, ALPI  -  alkaline phosphatase, intestinal, AMD1  -  adenosylmethionine decarboxylase 1, USP45  -  ubiquitin specific peptidase 45, AMFR  -  autocrine motility factor receptor, e3 ubiquitin protein ligase, ZBTB18  -  zinc finger and btb domain containing 18, REPS1  -  ralbp1 associated eps domain containing 1, AMPD2  -  adenosine monophosphate deaminase 2, AMPD3  -  adenosine monophosphate deaminase 3, PLA2G4F  -  phospholipase a2, group ivf, RSBN1  -  round spermatid basic protein 1, PITPNA  -  phosphatidylinositol transfer protein, alpha, SEC23A  -  sec23 homolog a (s. cerevisiae), PDP1  -  pyruvate dehyrogenase phosphatase catalytic subunit 1, PKD2  -  polycystic kidney disease 2 (autosomal dominant), ANGPT2  -  angiopoietin 2, PKM  -  pyruvate kinase, muscle, STK25  -  serine/threonine kinase 25, PLA2G1B  -  phospholipase a2, group ib (pancreas), RNF144B  -  ring finger protein 144b, UNC13B  -  unc-13 homolog b (c. elegans), PLA2G4A  -  phospholipase a2, group iva (cytosolic, calcium-dependent), ANXA2  -  annexin a2, PLAG1  -  pleiomorphic adenoma gene 1, PLAGL1  -  pleiomorphic adenoma gene-like 1, PLAGL2  -  pleiomorphic adenoma gene-like 2, ZBTB8B  -  zinc finger and btb domain containing 8b, ANXA5  -  annexin a5, ANXA6  -  annexin a6, PLCB2  -  phospholipase c, beta 2, ANXA7  -  annexin a7, FBLIM1  -  filamin binding lim protein 1, PLCB4  -  phospholipase c, beta 4, FBLN5  -  fibulin 5, ANXA13  -  annexin a13, PLCD1  -  phospholipase c, delta 1, SHANK3  -  sh3 and multiple ankyrin repeat domains 3, AOAH  -  acyloxyacyl hydrolase (neutrophil), CIB2  -  calcium and integrin binding family member 2, PLCG1  -  phospholipase c, gamma 1, AOX1  -  aldehyde oxidase 1, DEAF1  -  deaf1 transcription factor, PAN3  -  pan3 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), ZRANB1  -  zinc finger, ran-binding domain containing 1, PITRM1  -  pitrilysin metallopeptidase 1, PLK1  -  polo-like kinase 1, MICALL1  -  mical-like 1, RNF111  -  ring finger protein 111, PLOD1  -  procollagen-lysine, 2-oxoglutarate 5-dioxygenase 1, LEPREL2  -  leprecan-like 2, XIAP  -  x-linked inhibitor of apoptosis, ALKBH4  -  alkb, alkylation repair homolog 4 (e. coli), BIRC5  -  baculoviral iap repeat containing 5, GLRX3  -  glutaredoxin 3, TET2  -  tet methylcytosine dioxygenase 2, APLP2  -  amyloid beta (a4) precursor-like protein 2, PLS1  -  plastin 1, PLS3  -  plastin 3, NUDT14  -  nudix (nucleoside diphosphate linked moiety x)-type motif 14, PLTP  -  phospholipid transfer protein, NKD1  -  naked cuticle homolog 1 (drosophila), DCHS2  -  dachsous 2 (drosophila), MBTD1  -  mbt domain containing 1, TRIT1  -  trna isopentenyltransferase 1, ZIC5  -  zic family member 5, ZCRB1  -  zinc finger cchc-type and rna binding motif 1, PML  -  promyelocytic leukemia, APP  -  amyloid beta (a4) precursor protein, PMM1  -  phosphomannomutase 1, HELZ2  -  helicase with zinc finger 2, transcriptional coactivator, APRT  -  adenine phosphoribosyltransferase, PMM2  -  phosphomannomutase 2, GATAD2A  -  gata zinc finger domain containing 2a, ZNF280D  -  zinc finger protein 280d, ZCCHC10  -  zinc finger, cchc domain containing 10, UNK  -  unkempt homolog (drosophila), TRPM7  -  transient receptor potential cation channel, subfamily m, member 7, SLU7  -  slu7 splicing factor homolog (s. cerevisiae), CDHR2  -  cadherin-related family member 2, ASPN  -  asporin, ZNF518B  -  zinc finger protein 518b, PNLIPRP2  -  pancreatic lipase-related protein 2, ZC3H12C  -  zinc finger ccch-type containing 12c, BSPRY  -  b-box and spry domain containing, SCIN  -  scinderin, POLA1  -  polymerase (dna directed), alpha 1, catalytic subunit, POMT1  -  protein-o-mannosyltransferase 1, MTHFS  -  5,10-methenyltetrahydrofolate synthetase (5-formyltetrahydrofolate cyclo-ligase), POLE  -  polymerase (dna directed), epsilon, catalytic subunit, ARG2  -  arginase 2, POLH  -  polymerase (dna directed), eta, RNF214  -  ring finger protein 214, POLR2B  -  polymerase (rna) ii (dna directed) polypeptide b, 140kda, USP16  -  ubiquitin specific peptidase 16, SHPRH  -  snf2 histone linker phd ring helicase, e3 ubiquitin protein ligase, GDPD2  -  glycerophosphodiester phosphodiesterase domain containing 2, POLR2K  -  polymerase (rna) ii (dna directed) polypeptide k, 7.0kda, ARL1  -  adp-ribosylation factor-like 1, POLR2L  -  polymerase (rna) ii (dna directed) polypeptide l, 7.6kda, SNRK  -  snf related kinase, ARL3  -  adp-ribosylation factor-like 3, TAB3  -  tgf-beta activated kinase 1/map3k7 binding protein 3, PON2  -  paraoxonase 2, ARSA  -  arylsulfatase a, STAMBP  -  stam binding protein, ARSD  -  arylsulfatase d, UMODL1  -  uromodulin-like 1, ZCCHC2  -  zinc finger, cchc domain containing 2, PPA1  -  pyrophosphatase (inorganic) 1, POSTN  -  periostin, osteoblast specific factor, PPARA  -  peroxisome proliferator-activated receptor alpha, TBC1D8B  -  tbc1 domain family, member 8b (with gram domain), PPARD  -  peroxisome proliferator-activated receptor delta, PPARG  -  peroxisome proliferator-activated receptor gamma, ALKBH5  -  alkb, alkylation repair homolog 5 (e. coli), PPEF1  -  protein phosphatase, ef-hand calcium binding domain 1, RNF43  -  ring finger protein 43, ZBTB34  -  zinc finger and btb domain containing 34, CASZ1  -  castor zinc finger 1, FGD3  -  fyve, rhogef and ph domain containing 3, CAMKK2  -  calcium/calmodulin-dependent protein kinase kinase 2, beta, ASPA  -  aspartoacylase, CDKAL1  -  cdk5 regulatory subunit associated protein 1-like 1, ASPH  -  aspartate beta-hydroxylase, WHSC1L1  -  wolf-hirschhorn syndrome candidate 1-like 1, CYP2W1  -  cytochrome p450, family 2, subfamily w, polypeptide 1, PLCZ1  -  phospholipase c, zeta 1, PPM1A  -  protein phosphatase, mg2+/mn2+ dependent, 1a, PPM1B  -  protein phosphatase, mg2+/mn2+ dependent, 1b, PPM1G  -  protein phosphatase, mg2+/mn2+ dependent, 1g, PPP1CB  -  protein phosphatase 1, catalytic subunit, beta isozyme, LHX4  -  lim homeobox 4, ZFHX3  -  zinc finger homeobox 3, PPP1CC  -  protein phosphatase 1, catalytic subunit, gamma isozyme, CTCF  -  ccctc-binding factor (zinc finger protein), DNLZ  -  dnl-type zinc finger, CGRRF1  -  cell growth regulator with ring finger domain 1, PPP2CA  -  protein phosphatase 2, catalytic subunit, alpha isozyme, GNA13  -  guanine nucleotide binding protein (g protein), alpha 13, ATP1A1  -  atpase, na+/k+ transporting, alpha 1 polypeptide, EXD3  -  exonuclease 3'-5' domain containing 3, RSPRY1  -  ring finger and spry domain containing 1, ATP12A  -  atpase, h+/k+ transporting, nongastric, alpha polypeptide, STEAP2  -  steap family member 2, metalloreductase, PPP2R3A  -  protein phosphatase 2, regulatory subunit b'', alpha, GMEB1  -  glucocorticoid modulatory element binding protein 1, PPP3CA  -  protein phosphatase 3, catalytic subunit, alpha isozyme, ATP2A3  -  atpase, ca++ transporting, ubiquitous, LPCAT2  -  lysophosphatidylcholine acyltransferase 2, ATP2B1  -  atpase, ca++ transporting, plasma membrane 1, PPP3CC  -  protein phosphatase 3, catalytic subunit, gamma isozyme, PPP3R1  -  protein phosphatase 3, regulatory subunit b, alpha, ATP2B4  -  atpase, ca++ transporting, plasma membrane 4, YME1L1  -  yme1-like 1 atpase, PRIM2  -  primase, dna, polypeptide 2 (58kda), RAI1  -  retinoic acid induced 1, ATP7A  -  atpase, cu++ transporting, alpha polypeptide, PRKACB  -  protein kinase, camp-dependent, catalytic, beta, MAP3K2  -  mitogen-activated protein kinase kinase kinase 2, ATP7B  -  atpase, cu++ transporting, beta polypeptide, MASP2  -  mannan-binding lectin serine peptidase 2, ZNF160  -  zinc finger protein 160, CAPN9  -  calpain 9, ATRX  -  alpha thalassemia/mental retardation syndrome x-linked, ZSCAN2  -  zinc finger and scan domain containing 2, PRKCA  -  protein kinase c, alpha, PRKCB  -  protein kinase c, beta, PRKCD  -  protein kinase c, delta, TESC  -  tescalcin, PRKCE  -  protein kinase c, epsilon, MCFD2  -  multiple coagulation factor deficiency 2, PRKCH  -  protein kinase c, eta, ZMYND11  -  zinc finger, mynd-type containing 11, ZNF622  -  zinc finger protein 622, PRKCQ  -  protein kinase c, theta, PRKCZ  -  protein kinase c, zeta, PPP2R3C  -  protein phosphatase 2, regulatory subunit b'', gamma, NEK6  -  nima-related kinase 6, BAK1  -  bcl2-antagonist/killer 1, BARD1  -  brca1 associated ring domain 1, BCHE  -  butyrylcholinesterase, MTHFD2  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 2, methenyltetrahydrofolate cyclohydrolase, PRKRIR  -  protein-kinase, interferon-inducible double stranded rna dependent inhibitor, repressor of (p58 repressor), MOCOS  -  molybdenum cofactor sulfurase, SEC24A  -  sec24 family, member a (s. cerevisiae), BCL6  -  b-cell cll/lymphoma 6, PROC  -  protein c (inactivator of coagulation factors va and viiia), PROS1  -  protein s (alpha), PRPS1  -  phosphoribosyl pyrophosphate synthetase 1, PRPS2  -  phosphoribosyl pyrophosphate synthetase 2, PRPSAP1  -  phosphoribosyl pyrophosphate synthetase-associated protein 1, PRPSAP2  -  phosphoribosyl pyrophosphate synthetase-associated protein 2, PRRG1  -  proline rich gla (g-carboxyglutamic acid) 1, FAXDC2  -  fatty acid hydroxylase domain containing 2, ZNF598  -  zinc finger protein 598, BGLAP  -  bone gamma-carboxyglutamate (gla) protein, MASP1  -  mannan-binding lectin serine peptidase 1 (c4/c2 activating component of ra-reactive factor), RELN  -  reelin, PRDM1  -  pr domain containing 1, with znf domain, DHX57  -  deah (asp-glu-ala-asp/his) box polypeptide 57, BLM  -  bloom syndrome, recq helicase-like, SOBP  -  sine oculis binding protein homolog (drosophila), BLVRA  -  biliverdin reductase a, CLPX  -  clpx caseinolytic peptidase x homolog (e. coli), RBM20  -  rna binding motif protein 20, PDE10A  -  phosphodiesterase 10a, BNC1  -  basonuclin 1, BMI1  -  bmi1 polycomb ring finger oncogene, TRIM47  -  tripartite motif containing 47, CYP46A1  -  cytochrome p450, family 46, subfamily a, polypeptide 1, BMPR1A  -  bone morphogenetic protein receptor, type ia, ADAM28  -  adam metallopeptidase domain 28, BMPR2  -  bone morphogenetic protein receptor, type ii (serine/threonine kinase), USP20  -  ubiquitin specific peptidase 20, BNIP2  -  bcl2/adenovirus e1b 19kda interacting protein 2, USP19  -  ubiquitin specific peptidase 19, ME3  -  malic enzyme 3, nadp(+)-dependent, mitochondrial, DST  -  dystonin, CRTAC1  -  cartilage acidic protein 1, FANCL  -  fanconi anemia, complementation group l, BRCA1  -  breast cancer 1, early onset, BRAF  -  v-raf murine sarcoma viral oncogene homolog b, MMP24  -  matrix metallopeptidase 24 (membrane-inserted), KLF5  -  kruppel-like factor 5 (intestinal), ANKZF1  -  ankyrin repeat and zinc finger domain containing 1, ELP3  -  elongator acetyltransferase complex subunit 3, CPSF4  -  cleavage and polyadenylation specific factor 4, 30kda, RNF185  -  ring finger protein 185, BTK  -  bruton agammaglobulinemia tyrosine kinase, P4HA3  -  prolyl 4-hydroxylase, alpha polypeptide iii, MTPAP  -  mitochondrial poly(a) polymerase, MAN1A2  -  mannosidase, alpha, class 1a, member 2, TRAFD1  -  traf-type zinc finger domain containing 1, RSAD2  -  radical s-adenosyl methionine domain containing 2, PSPH  -  phosphoserine phosphatase, EFCAB4A  -  ef-hand calcium binding domain 4a, ARMC1  -  armadillo repeat containing 1, RFWD3  -  ring finger and wd repeat domain 3, ZNF830  -  zinc finger protein 830, PAPOLA  -  poly(a) polymerase alpha, C1R  -  complement component 1, r subcomponent, C1S  -  complement component 1, s subcomponent, SMPDL3A  -  sphingomyelin phosphodiesterase, acid-like 3a, DBF4  -  dbf4 homolog (s. cerevisiae), PTGS1  -  prostaglandin-endoperoxide synthase 1 (prostaglandin g/h synthase and cyclooxygenase), SYT12  -  synaptotagmin xii, PTGS2  -  prostaglandin-endoperoxide synthase 2 (prostaglandin g/h synthase and cyclooxygenase), LONRF1  -  lon peptidase n-terminal domain and ring finger 1, RNF220  -  ring finger protein 220, DZANK1  -  double zinc ribbon and ankyrin repeat domains 1, MPPED2  -  metallophosphoesterase domain containing 2, ZNF804A  -  zinc finger protein 804a, NEK9  -  nima-related kinase 9, SF3A3  -  splicing factor 3a, subunit 3, 60kda, DAGLA  -  diacylglycerol lipase, alpha, ALKBH8  -  alkb, alkylation repair homolog 8 (e. coli), PTPN1  -  protein tyrosine phosphatase, non-receptor type 1, CA1  -  carbonic anhydrase i, CA2  -  carbonic anhydrase ii, CA3  -  carbonic anhydrase iii, muscle specific, CA4  -  carbonic anhydrase iv, LMAN2  -  lectin, mannose-binding 2, CA6  -  carbonic anhydrase vi, CA7  -  carbonic anhydrase vii, CA8  -  carbonic anhydrase viii, CA12  -  carbonic anhydrase xii, LEPREL1  -  leprecan-like 1, KSR2  -  kinase suppressor of ras 2, CACNA1B  -  calcium channel, voltage-dependent, n type, alpha 1b subunit, CACNA1C  -  calcium channel, voltage-dependent, l type, alpha 1c subunit, TMLHE  -  trimethyllysine hydroxylase, epsilon, CACNA1D  -  calcium channel, voltage-dependent, l type, alpha 1d subunit, EXD2  -  exonuclease 3'-5' domain containing 2, CACNA1E  -  calcium channel, voltage-dependent, r type, alpha 1e subunit, CACNA1S  -  calcium channel, voltage-dependent, l type, alpha 1s subunit, CACNA2D1  -  calcium channel, voltage-dependent, alpha 2/delta subunit 1, PANK4  -  pantothenate kinase 4, COPS5  -  cop9 signalosome subunit 5, METAP2  -  methionyl aminopeptidase 2, CALB1  -  calbindin 1, 28kda, CHAMP1  -  chromosome alignment maintaining phosphoprotein 1, CDHR1  -  cadherin-related family member 1, OGFOD1  -  2-oxoglutarate and iron-dependent oxygenase domain containing 1, SIAH3  -  siah e3 ubiquitin protein ligase family member 3, CAPN13  -  calpain 13, NEIL3  -  nei endonuclease viii-like 3 (e. coli), PXN  -  paxillin, TMEM129  -  transmembrane protein 129, ASXL2  -  additional sex combs like 2 (drosophila), TYW1  -  trna-yw synthesizing protein 1 homolog (s. cerevisiae), CAMK2A  -  calcium/calmodulin-dependent protein kinase ii alpha, ADI1  -  acireductone dioxygenase 1, THNSL2  -  threonine synthase-like 2 (s. cerevisiae), LIAS  -  lipoic acid synthetase, CANX  -  calnexin, CAPN2  -  calpain 2, (m/ii) large subunit, CAPN3  -  calpain 3, (p94), OC90  -  otoconin 90, PHF10  -  phd finger protein 10, PGM2  -  phosphoglucomutase 2, ADAP1  -  arfgap with dual ph domains 1, CARS  -  cysteinyl-trna synthetase, ZNF654  -  zinc finger protein 654, DTD1  -  d-tyrosyl-trna deacylase 1, LHX8  -  lim homeobox 8, MID2  -  midline 2, RHOT1  -  ras homolog family member t1, CASQ2  -  calsequestrin 2 (cardiac muscle), BRF2  -  brf2, rna polymerase iii transcription initiation factor 50 kda subunit, CASR  -  calcium-sensing receptor, CAT  -  catalase, DNER  -  delta/notch-like egf repeat containing, RAF1  -  v-raf-1 murine leukemia viral oncogene homolog 1, RAG1  -  recombination activating gene 1, RAG2  -  recombination activating gene 2, RUNX1T1  -  runt-related transcription factor 1; translocated to, 1 (cyclin d-related), ZNF276  -  zinc finger protein 276, RAN  -  ran, member ras oncogene family, CBL  -  cbl proto-oncogene, e3 ubiquitin protein ligase, CBLB  -  cbl proto-oncogene b, e3 ubiquitin protein ligase, RANBP2  -  ran binding protein 2, CPPED1  -  calcineurin-like phosphoesterase domain containing 1, CYB561D2  -  cytochrome b561 family, member d2, CBS  -  cystathionine-beta-synthase, TPPP  -  tubulin polymerization promoting protein, RAPSN  -  receptor-associated protein of the synapse, NT5C1B  -  5'-nucleotidase, cytosolic ib, DIDO1  -  death inducer-obliterator 1, ACER3  -  alkaline ceramidase 3, ADAMTS13  -  adam metallopeptidase with thrombospondin type 1 motif, 13, KDM5A  -  lysine (k)-specific demethylase 5a, ADAMTS8  -  adam metallopeptidase with thrombospondin type 1 motif, 8, ADAMTS5  -  adam metallopeptidase with thrombospondin type 1 motif, 5, RBBP6  -  retinoblastoma binding protein 6, PRDM5  -  pr domain containing 5, PRDM4  -  pr domain containing 4, NUDT7  -  nudix (nucleoside diphosphate linked moiety x)-type motif 7, CIT  -  citron (rho-interacting, serine/threonine kinase 21), CD4  -  cd4 molecule, RCN1  -  reticulocalbin 1, ef-hand calcium binding domain, RCN2  -  reticulocalbin 2, ef-hand calcium binding domain, ZFAND4  -  zinc finger, an1-type domain 4, POLR3A  -  polymerase (rna) iii (dna directed) polypeptide a, 155kda, CACNA2D4  -  calcium channel, voltage-dependent, alpha 2/delta subunit 4, MCM10  -  minichromosome maintenance complex component 10, KAT7  -  k(lysine) acetyltransferase 7, UPF1  -  upf1 regulator of nonsense transcripts homolog (yeast), REST  -  re1-silencing transcription factor, RET  -  ret proto-oncogene, REV3L  -  rev3-like, polymerase (dna directed), zeta, catalytic subunit, SCARB2  -  scavenger receptor class b, member 2, RFNG  -  rfng o-fucosylpeptide 3-beta-n-acetylglucosaminyltransferase, CSGALNACT2  -  chondroitin sulfate n-acetylgalactosaminyltransferase 2, NEK8  -  nima-related kinase 8, DNAJA4  -  dnaj (hsp40) homolog, subfamily a, member 4, NUDT5  -  nudix (nucleoside diphosphate linked moiety x)-type motif 5, NUDT3  -  nudix (nucleoside diphosphate linked moiety x)-type motif 3, FSTL1  -  follistatin-like 1, TRPV6  -  transient receptor potential cation channel, subfamily v, member 6, ADAMTS7  -  adam metallopeptidase with thrombospondin type 1 motif, 7, ENDOV  -  endonuclease v, GDPD1  -  glycerophosphodiester phosphodiesterase domain containing 1, BAZ1A  -  bromodomain adjacent to zinc finger domain, 1a, SMPD3  -  sphingomyelin phosphodiesterase 3, neutral membrane (neutral sphingomyelinase ii), ZNF277  -  zinc finger protein 277, RHEB  -  ras homolog enriched in brain, DHTKD1  -  dehydrogenase e1 and transketolase domain containing 1, RLF  -  rearranged l-myc fusion, WBP4  -  ww domain binding protein 4, SEC23IP  -  sec23 interacting protein, ANXA10  -  annexin a10, CDH4  -  cadherin 4, type 1, r-cadherin (retinal), CHEK2  -  checkpoint kinase 2, CDH5  -  cadherin 5, type 2 (vascular endothelium), SYTL4  -  synaptotagmin-like 4, CDH6  -  cadherin 6, type 2, k-cadherin (fetal kidney), SYTL5  -  synaptotagmin-like 5, CDH7  -  cadherin 7, type 2, ZNF821  -  zinc finger protein 821, ZADH2  -  zinc binding alcohol dehydrogenase domain containing 2, CDH9  -  cadherin 9, type 2 (t1-cadherin), GALNT10  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 10 (galnac-t10), CDH10  -  cadherin 10, type 2 (t2-cadherin), RNASEL  -  ribonuclease l (2',5'-oligoisoadenylate synthetase-dependent), CDH11  -  cadherin 11, type 2, ob-cadherin (osteoblast), AKAP13  -  a kinase (prka) anchor protein 13, RNF2  -  ring finger protein 2, STAB2  -  stabilin 2, CDH17  -  cadherin 17, li cadherin (liver-intestine), RNF6  -  ring finger protein (c3h2c3 type) 6, CDH18  -  cadherin 18, type 2, RNPEP  -  arginyl aminopeptidase (aminopeptidase b), GALNT5  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 5 (galnac-t5), ZCCHC8  -  zinc finger, cchc domain containing 8, ABCE1  -  atp-binding cassette, sub-family e (oabp), member 1, CDKN1A  -  cyclin-dependent kinase inhibitor 1a (p21, cip1), RNF139  -  ring finger protein 139, CA5B  -  carbonic anhydrase vb, mitochondrial, PADI2  -  peptidyl arginine deiminase, type ii, ZHX1  -  zinc fingers and homeoboxes 1, MAN1B1  -  mannosidase, alpha, class 1b, member 1, CLGN  -  calmegin, POMGNT1  -  protein o-linked mannose n-acetylglucosaminyltransferase 1 (beta 1,2-), CHP1  -  calcineurin-like ef-hand protein 1, SMPD4  -  sphingomyelin phosphodiesterase 4, neutral membrane (neutral sphingomyelinase-3), ZNF407  -  zinc finger protein 407, ROCK1  -  rho-associated, coiled-coil containing protein kinase 1, EGLN3  -  egl-9 family hypoxia-inducible factor 3, RORA  -  rar-related orphan receptor a, RORB  -  rar-related orphan receptor b, G2E3  -  g2/m-phase specific e3 ubiquitin protein ligase, ERI2  -  eri1 exoribonuclease family member 2, RP9  -  retinitis pigmentosa 9 (autosomal dominant), RP2  -  retinitis pigmentosa 2 (x-linked recessive), KLF12  -  kruppel-like factor 12, MGAT4B  -  mannosyl (alpha-1,3-)-glycoprotein beta-1,4-n-acetylglucosaminyltransferase, isozyme b, RPA1  -  replication protein a1, 70kda, B4GALT7  -  xylosylprotein beta 1,4-galactosyltransferase, polypeptide 7, RPE65  -  retinal pigment epithelium-specific protein 65kda, PARK7  -  parkinson protein 7, RNF126  -  ring finger protein 126, MGAT4A  -  mannosyl (alpha-1,3-)-glycoprotein beta-1,4-n-acetylglucosaminyltransferase, isozyme a, CAPN14  -  calpain 14, PHF21B  -  phd finger protein 21b, NPLOC4  -  nuclear protein localization 4 homolog (s. cerevisiae), LIMS2  -  lim and senescent cell antigen-like domains 2, CHD4  -  chromodomain helicase dna binding protein 4, RNF13  -  ring finger protein 13, NID2  -  nidogen 2 (osteonidogen), CHKA  -  choline kinase alpha, RBM22  -  rna binding motif protein 22, ITGA11  -  integrin, alpha 11, CHN1  -  chimerin 1, CHN2  -  chimerin 2, XRN2  -  5'-3' exoribonuclease 2, RPL37A  -  ribosomal protein l37a, IKZF3  -  ikaros family zinc finger 3 (aiolos), ZNF326  -  zinc finger protein 326, POLR3B  -  polymerase (rna) iii (dna directed) polypeptide b, CHRM3  -  cholinergic receptor, muscarinic 3, CHRNA1  -  cholinergic receptor, nicotinic, alpha 1 (muscle), ADPRHL1  -  adp-ribosylhydrolase like 1, CHRNA3  -  cholinergic receptor, nicotinic, alpha 3 (neuronal), RASA3  -  ras p21 protein activator 3, MTF2  -  metal response element binding transcription factor 2, CHRND  -  cholinergic receptor, nicotinic, delta (muscle), DTX2  -  deltex homolog 2 (drosophila), RPS6KA2  -  ribosomal protein s6 kinase, 90kda, polypeptide 2, RPS6KA3  -  ribosomal protein s6 kinase, 90kda, polypeptide 3, TOE1  -  target of egr1, member 1 (nuclear), RNF44  -  ring finger protein 44, ZFP64  -  zfp64 zinc finger protein, PPM1E  -  protein phosphatase, mg2+/mn2+ dependent, 1e, ARFGAP1  -  adp-ribosylation factor gtpase activating protein 1, TRIM9  -  tripartite motif containing 9, EDEM2  -  er degradation enhancer, mannosidase alpha-like 2, ZNF507  -  zinc finger protein 507, CHFR  -  checkpoint with forkhead and ring finger domains, e3 ubiquitin protein ligase, ADNP2  -  adnp homeobox 2, CNDP2  -  cndp dipeptidase 2 (metallopeptidase m20 family), CHSY1  -  chondroitin sulfate synthase 1, OGDHL  -  oxoglutarate dehydrogenase-like, RNF149  -  ring finger protein 149, CLCNKB  -  chloride channel, voltage-sensitive kb, RPS27A  -  ribosomal protein s27a, DZIP1  -  daz interacting zinc finger protein 1, EFHC1  -  ef-hand domain (c-terminal) containing 1, ENPP4  -  ectonucleotide pyrophosphatase/phosphodiesterase 4 (putative), NGLY1  -  n-glycanase 1, RRM2  -  ribonucleotide reductase m2, MORC2  -  morc family cw-type zinc finger 2, ZHX2  -  zinc fingers and homeoboxes 2, CLSTN1  -  calsyntenin 1, CLIP1  -  cap-gly domain containing linker protein 1, ZNF839  -  zinc finger protein 839, UBOX5  -  u-box domain containing 5, RXRA  -  retinoid x receptor, alpha, ZBTB1  -  zinc finger and btb domain containing 1, MCTP2  -  multiple c2 domains, transmembrane 2, CYGB  -  cytoglobin, FGD6  -  fyve, rhogef and ph domain containing 6, RUFY4  -  run and fyve domain containing 4, RPH3A  -  rabphilin 3a homolog (mouse), RYR2  -  ryanodine receptor 2 (cardiac), RYR3  -  ryanodine receptor 3, PKD1L2  -  polycystic kidney disease 1-like 2, ARSG  -  arylsulfatase g, MBNL3  -  muscleblind-like splicing regulator 3, SLC25A25  -  solute carrier family 25 (mitochondrial carrier; phosphate carrier), member 25, FAN1  -  fancd2/fanci-associated nuclease 1, ADAP2  -  arfgap with dual ph domains 2, MMRN1  -  multimerin 1, TRERF1  -  transcriptional regulating factor 1, CD93  -  cd93 molecule, ESCO1  -  establishment of sister chromatid cohesion n-acetyltransferase 1, MYSM1  -  myb-like, swirm and mpn domains 1, KDM3A  -  lysine (k)-specific demethylase 3a, RNF157  -  ring finger protein 157, RNF130  -  ring finger protein 130, GALNT13  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 13 (galnac-t13), SEPHS1  -  selenophosphate synthetase 1, VPS11  -  vacuolar protein sorting 11 homolog (s. cerevisiae), ACSM3  -  acyl-coa synthetase medium-chain family member 3, SALL1  -  sal-like 1 (drosophila), MAPK12  -  mitogen-activated protein kinase 12, COL1A2  -  collagen, type i, alpha 2, SAT1  -  spermidine/spermine n1-acetyltransferase 1, SUMF1  -  sulfatase modifying factor 1, SMYD4  -  set and mynd domain containing 4, COL3A1  -  collagen, type iii, alpha 1, KIN  -  kin, antigenic determinant of reca protein homolog (mouse), MSMO1  -  methylsterol monooxygenase 1, COL5A1  -  collagen, type v, alpha 1, TRIM32  -  tripartite motif containing 32, COL5A2  -  collagen, type v, alpha 2, ZC3H15  -  zinc finger ccch-type containing 15, COL9A1  -  collagen, type ix, alpha 1, ACOT13  -  acyl-coa thioesterase 13, NT5C2  -  5'-nucleotidase, cytosolic ii, COL10A1  -  collagen, type x, alpha 1, COL11A1  -  collagen, type xi, alpha 1, NINL  -  ninein-like, HDAC8  -  histone deacetylase 8, ASH1L  -  ash1 (absent, small, or homeotic)-like (drosophila), COMP  -  cartilage oligomeric matrix protein, RNF212  -  ring finger protein 212, COMT  -  catechol-o-methyltransferase, ZNF618  -  zinc finger protein 618, SCO1  -  sco1 cytochrome c oxidase assembly protein, MB21D1  -  mab-21 domain containing 1, NT5C3B  -  5'-nucleotidase, cytosolic iiib, LMO3  -  lim domain only 3 (rhombotin-like 2), LIMCH1  -  lim and calponin homology domains 1, RIMS1  -  regulating synaptic membrane exocytosis 1, MYNN  -  myoneurin, WDFY3  -  wd repeat and fyve domain containing 3, ZNF395  -  zinc finger protein 395, MAP3K8  -  mitogen-activated protein kinase kinase kinase 8, PLCH1  -  phospholipase c, eta 1, OMA1  -  oma1 zinc metallopeptidase, ACSS2  -  acyl-coa synthetase short-chain family member 2, STK38L  -  serine/threonine kinase 38 like, KMT2E  -  lysine (k)-specific methyltransferase 2e, RNF114  -  ring finger protein 114, ZC4H2  -  zinc finger, c4h2 domain containing, PDZRN3  -  pdz domain containing ring finger 3, KDM4B  -  lysine (k)-specific demethylase 4b, MAST3  -  microtubule associated serine/threonine kinase 3, COX11  -  cytochrome c oxidase assembly homolog 11 (yeast), USP33  -  ubiquitin specific peptidase 33, ZMAT5  -  zinc finger, matrin-type 5, PHLPP2  -  ph domain and leucine rich repeat protein phosphatase 2, CPA2  -  carboxypeptidase a2 (pancreatic), SULF2  -  sulfatase 2, ZNF292  -  zinc finger protein 292, CPB1  -  carboxypeptidase b1 (tissue), CPB2  -  carboxypeptidase b2 (plasma), CPD  -  carboxypeptidase d, MYT1L  -  myelin transcription factor 1-like, CPE  -  carboxypeptidase e, SDHB  -  succinate dehydrogenase complex, subunit b, iron sulfur (ip), CPM  -  carboxypeptidase m, CPN1  -  carboxypeptidase n, polypeptide 1, SMG1  -  smg1 phosphatidylinositol 3-kinase-related kinase, ZHX3  -  zinc fingers and homeoboxes 3, CPS1  -  carbamoyl-phosphate synthase 1, mitochondrial, ENDOD1  -  endonuclease domain containing 1, ZSWIM8  -  zinc finger, swim-type containing 8, SELE  -  selectin e, ZNF609  -  zinc finger protein 609, TBC1D9B  -  tbc1 domain family, member 9b (with gram domain), ATF2  -  activating transcription factor 2, CREBBP  -  creb binding protein, PCDHGC5  -  protocadherin gamma subfamily c</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5, FOXP4  -  forkhead box p4, SWAP70  -  swap switching b-cell complex 70kda subunit, MYCBP2  -  myc binding protein 2, e3 ubiquitin protein ligase, SETMAR  -  set domain and mariner transposase fusion gene, NUS1  -  nuclear undecaprenyl pyrophosphate synthase 1 homolog (s. cerevisiae), TRIM35  -  tripartite motif containing 35, ZNF423  -  zinc finger protein 423, ZC3H13  -  zinc finger ccch-type containing 13, CRYAA  -  crystallin, alpha a, CRYAB  -  crystallin, alpha b, FSTL4  -  follistatin-like 4, SGSH  -  n-sulfoglucosamine sulfohydrolase, CUL9  -  cullin 9, CRYZ  -  crystallin, zeta (quinone reductase), PCDHAC2  -  protocadherin alpha subfamily c, 2, TAB2  -  tgf-beta activated kinase 1/map3k7 binding protein 2, HIC2  -  hypermethylated in cancer 2, ATP10B  -  atpase, class v, type 10b, POGZ  -  pogo transposable element with znf domain, GALNTL6  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase-like 6, GPATCH8  -  g patch domain containing 8, SHH  -  sonic hedgehog, SHMT1  -  serine hydroxymethyltransferase 1 (soluble), CSK  -  c-src tyrosine kinase, MAST2  -  microtubule associated serine/threonine kinase 2, ZZEF1  -  zinc finger, zz-type with ef-hand domain 1, ZC3H3  -  zinc finger ccch-type containing 3, RNF17  -  ring finger protein 17, TDRD1  -  tudor domain containing 1, DNAH7  -  dynein, axonemal, heavy chain 7, CSRP1  -  cysteine and glycine-rich protein 1, MICU3  -  mitochondrial calcium uptake family, member 3, TBC1D9  -  tbc1 domain family, member 9 (with gram domain), CSRP2  -  cysteine and glycine-rich protein 2, ACAP3  -  arfgap with coiled-coil, ankyrin repeat and ph domains 3, SKI  -  v-ski avian sarcoma viral oncogene homolog, ARAP2  -  arfgap with rhogap domain, ankyrin repeat and ph domain 2, STAB1  -  stabilin 1, AGAP1  -  arfgap with gtpase domain, ankyrin repeat and ph domain 1, AGAP3  -  arfgap with gtpase domain, ankyrin repeat and ph domain 3, SLC1A2  -  solute carrier family 1 (glial high affinity glutamate transporter), member 2, METAP1  -  methionyl aminopeptidase 1, ZCCHC14  -  zinc finger, cchc domain containing 14, SLC1A6  -  solute carrier family 1 (high affinity aspartate/glutamate transporter), member 6, CRB2  -  crumbs homolog 2 (drosophila), SLC6A1  -  solute carrier family 6 (neurotransmitter transporter), member 1, SLC6A2  -  solute carrier family 6 (neurotransmitter transporter), member 2, SLC6A4  -  solute carrier family 6 (neurotransmitter transporter), member 4, GALNT15  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 15, ATP11B  -  atpase, class vi, type 11b, CIB3  -  calcium and integrin binding family member 3, JMJD6  -  jumonji domain containing 6, CYP26B1  -  cytochrome p450, family 26, subfamily b, polypeptide 1, RFFL  -  ring finger and fyve-like domain containing e3 ubiquitin protein ligase, SLC8A1  -  solute carrier family 8 (sodium/calcium exchanger), member 1, SLC8A3  -  solute carrier family 8 (sodium/calcium exchanger), member 3, ASAH2  -  n-acylsphingosine amidohydrolase (non-lysosomal ceramidase) 2, ATP11C  -  atpase, class vi, type 11c, DTX4  -  deltex homolog 4 (drosophila), CYB5A  -  cytochrome b5 type a (microsomal), TRIM39  -  tripartite motif containing 39, CYLD  -  cylindromatosis (turban tumor syndrome), SIK2  -  salt-inducible kinase 2, CYP1B1  -  cytochrome p450, family 1, subfamily b, polypeptide 1, PLCB1  -  phospholipase c, beta 1 (phosphoinositide-specific), PHLPP1  -  ph domain and leucine rich repeat protein phosphatase 1, ZNF488  -  zinc finger protein 488, ZFYVE27  -  zinc finger, fyve domain containing 27, CYP2C8  -  cytochrome p450, family 2, subfamily c, polypeptide 8, ATP11A  -  atpase, class vi, type 11a, PDZD8  -  pdz domain containing 8, SLIT1  -  slit homolog 1 (drosophila), CYP2J2  -  cytochrome p450, family 2, subfamily j, polypeptide 2, SNAI2  -  snail family zinc finger 2, ZC3H7B  -  zinc finger ccch-type containing 7b, CYP4B1  -  cytochrome p450, family 4, subfamily b, polypeptide 1, CYP7A1  -  cytochrome p450, family 7, subfamily a, polypeptide 1, RAD18  -  rad18 homolog (s. cerevisiae), TRIM59  -  tripartite motif containing 59, CYP8B1  -  cytochrome p450, family 8, subfamily b, polypeptide 1, CYP11A1  -  cytochrome p450, family 11, subfamily a, polypeptide 1, FSTL5  -  follistatin-like 5, CYP17A1  -  cytochrome p450, family 17, subfamily a, polypeptide 1, CYP19A1  -  cytochrome p450, family 19, subfamily a, polypeptide 1, CYP24A1  -  cytochrome p450, family 24, subfamily a, polypeptide 1, SMPD2  -  sphingomyelin phosphodiesterase 2, neutral membrane (neutral sphingomyelinase), CYP27A1  -  cytochrome p450, family 27, subfamily a, polypeptide 1, CYP51A1  -  cytochrome p450, family 51, subfamily a, polypeptide 1, WRNIP1  -  werner helicase interacting protein 1, SMG6  -  smg6 nonsense mediated mrna decay factor, DAG1  -  dystroglycan 1 (dystrophin-associated glycoprotein 1), MGRN1  -  mahogunin ring finger 1, e3 ubiquitin protein ligase, SNCA  -  synuclein, alpha (non a4 component of amyloid precursor), GYLTL1B  -  glycosyltransferase-like 1b, DGKB  -  diacylglycerol kinase, beta 90kda, ATMIN  -  atm interactor, FAT3  -  fat atypical cadherin 3, UBR2  -  ubiquitin protein ligase e3 component n-recognin 2, CYP2R1  -  cytochrome p450, family 2, subfamily r, polypeptide 1, C1GALT1  -  core 1 synthase, glycoprotein-n-acetylgalactosamine 3-beta-galactosyltransferase, 1, DBH  -  dopamine beta-hydroxylase (dopamine beta-monooxygenase), MCCC1  -  methylcrotonoyl-coa carboxylase 1 (alpha), ZCCHC11  -  zinc finger, cchc domain containing 11, TRIM2  -  tripartite motif containing 2, MAN2B2  -  mannosidase, alpha, class 2b, member 2, DUS3L  -  dihydrouridine synthase 3-like (s. cerevisiae), SOD1  -  superoxide dismutase 1, soluble, USP22  -  ubiquitin specific peptidase 22, CA10  -  carbonic anhydrase x, DCTD  -  dcmp deaminase, SOD2  -  superoxide dismutase 2, mitochondrial, ACE  -  angiotensin i converting enzyme, CAPN15  -  calpain 15, DCT  -  dopachrome tautomerase, SORD  -  sorbitol dehydrogenase, LRRK2  -  leucine-rich repeat kinase 2, PHF15  -  phd finger protein 15, SMYD2  -  set and mynd domain containing 2, PRTFDC1  -  phosphoribosyl transferase domain containing 1, NT5M  -  5',3'-nucleotidase, mitochondrial, UBR4  -  ubiquitin protein ligase e3 component n-recognin 4, SP3  -  sp3 transcription factor, SP4  -  sp4 transcription factor, VPS8  -  vacuolar protein sorting 8 homolog (s. cerevisiae), TPH2  -  tryptophan hydroxylase 2, DDX11  -  dead/h (asp-glu-ala-asp/his) box helicase 11, SPARC  -  secreted protein, acidic, cysteine-rich (osteonectin), FAM20C  -  family with sequence similarity 20, member c, SPG7  -  spastic paraplegia 7 (pure and complicated autosomal recessive), ARHGEF18  -  rho/rac guanine nucleotide exchange factor (gef) 18, PRDM10  -  pr domain containing 10, FGD4  -  fyve, rhogef and ph domain containing 4, SPOCK1  -  sparc/osteonectin, cwcv and kazal-like domains proteoglycan (testican) 1, AEBP2  -  ae binding protein 2, CHPT1  -  choline phosphotransferase 1, SIK3  -  sik family kinase 3, ADAMTS9  -  adam metallopeptidase with thrombospondin type 1 motif, 9, ADNP  -  activity-dependent neuroprotector homeobox, SPTAN1  -  spectrin, alpha, non-erythrocytic 1, ATP13A2  -  atpase type 13a2, DICER1  -  dicer 1, ribonuclease type iii, CYB5R3  -  cytochrome b5 reductase 3, CIAPIN1  -  cytokine induced apoptosis inhibitor 1, SIRT4  -  sirtuin 4, SIRT3  -  sirtuin 3, PDXP  -  pyridoxal (pyridoxine, vitamin b6) phosphatase, ANKMY2  -  ankyrin repeat and mynd domain containing 2, ZFPM2  -  zinc finger protein, fog family member 2, CRB1  -  crumbs homolog 1 (drosophila), PLSCR2  -  phospholipid scramblase 2, SRPK1  -  srsf protein kinase 1, SRPK2  -  srsf protein kinase 2, TROVE2  -  trove domain family, member 2, RYBP  -  ring1 and yy1 binding protein, DMD  -  dystrophin, ENTPD7  -  ectonucleoside triphosphate diphosphohydrolase 7, CPA6  -  carboxypeptidase a6, DNA2  -  dna replication helicase/nuclease 2, DNASE1L3  -  deoxyribonuclease i-like 3, STAC  -  sh3 and cysteine rich domain, PHF3  -  phd finger protein 3, INTS12  -  integrator complex subunit 12, DNMT3B  -  dna (cytosine-5-)-methyltransferase 3 beta, DPAGT1  -  dolichyl-phosphate (udp-n-acetylglucosamine) n-acetylglucosaminephosphotransferase 1 (glcnac-1-p transferase), STIM1  -  stromal interaction molecule 1, NEK4  -  nima-related kinase 4, PLA2G4E  -  phospholipase a2, group ive, STK3  -  serine/threonine kinase 3, MAN1C1  -  mannosidase, alpha, class 1c, member 1, STK4  -  serine/threonine kinase 4, DPYD  -  dihydropyrimidine dehydrogenase, DPYS  -  dihydropyrimidinase, HAAO  -  3-hydroxyanthranilate 3,4-dioxygenase, MACF1  -  microtubule-actin crosslinking factor 1, STK11  -  serine/threonine kinase 11, ZFYVE26  -  zinc finger, fyve domain containing 26, DRD1  -  dopamine receptor d1, DRD2  -  dopamine receptor d2, DRD4  -  dopamine receptor d4, DRG2  -  developmentally regulated gtp binding protein 2, SUZ12  -  suz12 polycomb repressive complex 2 subunit, DRP2  -  dystrophin related protein 2, MORC3  -  morc family cw-type zinc finger 3, DSC2  -  desmocollin 2, ZC3H18  -  zinc finger ccch-type containing 18, DSG2  -  desmoglein 2, SALL4  -  sal-like 4 (drosophila), ASPHD2  -  aspartate beta-hydroxylase domain containing 2, ZNFX1  -  zinc finger, nfx1-type containing 1, HMHA1  -  histocompatibility (minor) ha-1, ACAP2  -  arfgap with coiled-coil, ankyrin repeat and ph domains 2, EARS2  -  glutamyl-trna synthetase 2, mitochondrial, ZNF281  -  zinc finger protein 281, DTNA  -  dystrobrevin, alpha, DTNB  -  dystrobrevin, beta, ADAT1  -  adenosine deaminase, trna-specific 1, CANT1  -  calcium activated nucleotidase 1, ATP10A  -  atpase, class v, type 10a, ATP8B2  -  atpase, aminophospholipid transporter, class i, type 8b, member 2, DNPEP  -  aspartyl aminopeptidase, ATP10D  -  atpase, class v, type 10d, SYT1  -  synaptotagmin i, ADAM17  -  adam metallopeptidase domain 17, E4F1  -  e4f transcription factor 1, DDAH1  -  dimethylarginine dimethylaminohydrolase 1, ECE1  -  endothelin converting enzyme 1, MAP3K7  -  mitogen-activated protein kinase kinase kinase 7, ZSWIM7  -  zinc finger, swim-type containing 7, PDSS1  -  prenyl (decaprenyl) diphosphate synthase, subunit 1, PHC1  -  polyhomeotic homolog 1 (drosophila), AICDA  -  activation-induced cytidine deaminase, PATZ1  -  poz (btb) and at hook containing zinc finger 1, CYP20A1  -  cytochrome p450, family 20, subfamily a, polypeptide 1, MKRN1  -  makorin ring finger protein 1, MKRN2  -  makorin ring finger protein 2, ZMYND8  -  zinc finger, mynd-type containing 8, ACER1  -  alkaline ceramidase 1, TBXAS1  -  thromboxane a synthase 1 (platelet), TCEA1  -  transcription elongation factor a (sii), 1, TCEA2  -  transcription elongation factor a (sii), 2, EGF  -  epidermal growth factor, SPO11  -  spo11 meiotic protein covalently bound to dsb, CELSR3  -  cadherin, egf lag seven-pass g-type receptor 3, TENM2  -  teneurin transmembrane protein 2, MEGF6  -  multiple egf-like-domains 6, ZEB1  -  zinc finger e-box binding homeobox 1, TCF20  -  transcription factor 20 (ar1), TRIM29  -  tripartite motif containing 29, CNOT6  -  ccr4-not transcription complex, subunit 6, ZNF512B  -  zinc finger protein 512b, PLA2G15  -  phospholipase a2, group xv, RNF150  -  ring finger protein 150, ESYT2  -  extended synaptotagmin-like protein 2, WTIP  -  wilms tumor 1 interacting protein, HEG1  -  heart development protein with egf-like domains 1, RIMKLB  -  ribosomal modification protein rimk-like family member b, MTA3  -  metastasis associated 1 family, member 3, AARS2  -  alanyl-trna synthetase 2, mitochondrial, EML1  -  echinoderm microtubule associated protein like 1, ENPP7  -  ectonucleotide pyrophosphatase/phosphodiesterase 7, ENDOG  -  endonuclease g, WEE2  -  wee1 homolog 2 (s. pombe), ENO1  -  enolase 1, (alpha), PCDH19  -  protocadherin 19, ENO2  -  enolase 2 (gamma, neuronal), TDG  -  thymine-dna glycosylase, ENPEP  -  glutamyl aminopeptidase (aminopeptidase a), TDO2  -  tryptophan 2,3-dioxygenase, MIB1  -  mindbomb e3 ubiquitin protein ligase 1, EP300  -  e1a binding protein p300, ZNF398  -  zinc finger protein 398, PDP2  -  pyruvate dehyrogenase phosphatase catalytic subunit 2, TERT  -  telomerase reverse transcriptase, TESK1  -  testis-specific kinase 1, MICAL3  -  microtubule associated monooxygenase, calponin and lim domain containing 3, ZBTB8OS  -  zinc finger and btb domain containing 8 opposite strand, EPHX2  -  epoxide hydrolase 2, cytoplasmic, BRD1  -  bromodomain containing 1, NR2F2  -  nuclear receptor subfamily 2, group f, member 2, EPRS  -  glutamyl-prolyl-trna synthetase, EPS15  -  epidermal growth factor receptor pathway substrate 15, KIF4A  -  kinesin family member 4a, PCDH10  -  protocadherin 10, EYA4  -  eyes absent homolog 4 (drosophila), ERCC5  -  excision repair cross-complementing rodent repair deficiency, complementation group 5, TGM4  -  transglutaminase 4, TGFBR2  -  transforming growth factor, beta receptor ii (70/80kda), ZNF318  -  zinc finger protein 318, CYP27C1  -  cytochrome p450, family 27, subfamily c, polypeptide 1, SYT13  -  synaptotagmin xiii, ERN1  -  endoplasmic reticulum to nucleus signaling 1, WDFY1  -  wd repeat and fyve domain containing 1, TH  -  tyrosine hydroxylase, ZNF687  -  zinc finger protein 687, THBS1  -  thrombospondin 1, THBS2  -  thrombospondin 2, ESR1  -  estrogen receptor 1, ESR2  -  estrogen receptor 2 (er beta), SYT2  -  synaptotagmin ii, ESRRB  -  estrogen-related receptor beta, RASGRP3  -  ras guanyl releasing protein 3 (calcium and dag-regulated), THRB  -  thyroid hormone receptor, beta, ETFDH  -  electron-transferring-flavoprotein dehydrogenase, KLF10  -  kruppel-like factor 10, CIZ1  -  cdkn1a interacting zinc finger protein 1, TSHZ3  -  teashirt zinc finger homeobox 3, TIMP3  -  timp metallopeptidase inhibitor 3, VPS18  -  vacuolar protein sorting 18 homolog (s. cerevisiae), QPCT  -  glutaminyl-peptide cyclotransferase, TIMP4  -  timp metallopeptidase inhibitor 4, MECOM  -  mds1 and evi1 complex locus, ZBTB2  -  zinc finger and btb domain containing 2, ZFAT  -  zinc finger and at hook domain containing, TKT  -  transketolase, EWSR1  -  ews rna-binding protein 1, SH3RF1  -  sh3 domain containing ring finger 1, EXTL2  -  exostosin-like glycosyltransferase 2, TLL1  -  tolloid-like 1, EXTL3  -  exostosin-like glycosyltransferase 3, TLL2  -  tolloid-like 2, ZSWIM5  -  zinc finger, swim-type containing 5, EYA3  -  eyes absent homolog 3 (drosophila), TATDN3  -  tatd dnase domain containing 3, ARIH1  -  ariadne homolog, ubiquitin-conjugating enzyme e2 binding protein, 1 (drosophila), F2  -  coagulation factor ii (thrombin), NR2E1  -  nuclear receptor subfamily 2, group e, member 1, PHF12  -  phd finger protein 12, ARSI  -  arylsulfatase family, member i, F5  -  coagulation factor v (proaccelerin, labile factor), F7  -  coagulation factor vii (serum prothrombin conversion accelerator), F8  -  coagulation factor viii, procoagulant component, TSHZ2  -  teashirt zinc finger homeobox 2, F9  -  coagulation factor ix, F10  -  coagulation factor x, PHRF1  -  phd and ring finger domains 1, HECTD1  -  hect domain containing e3 ubiquitin protein ligase 1, ZNF831  -  zinc finger protein 831, F13A1  -  coagulation factor xiii, a1 polypeptide, ZC3H12D  -  zinc finger ccch-type containing 12d, MGAT4C  -  mannosyl (alpha-1,3-)-glycoprotein beta-1,4-n-acetylglucosaminyltransferase, isozyme c (putative), RNF213  -  ring finger protein 213, MOB4  -  mob family member 4, phocein, CLEC3B  -  c-type lectin domain family 3, member b, VAT1L  -  vesicle amine transport protein 1 homolog (t. californica)-like, TNFAIP3  -  tumor necrosis factor, alpha-induced protein 3, FAH  -  fumarylacetoacetate hydrolase (fumarylacetoacetase), BPTF  -  bromodomain phd finger transcription factor, USP49  -  ubiquitin specific peptidase 49, FBLN1  -  fibulin 1, AGBL3  -  atp/gtp binding protein-like 3, SUMF2  -  sulfatase modifying factor 2, FAT1  -  fat atypical cadherin 1, FAT2  -  fat atypical cadherin 2, FBLN2  -  fibulin 2, FBN1  -  fibrillin 1, FBN2  -  fibrillin 2, EFEMP1  -  egf containing fibulin-like extracellular matrix protein 1, POLR1A  -  polymerase (rna) i polypeptide a, 194kda, TOP2A  -  topoisomerase (dna) ii alpha 170kda, PAMR1  -  peptidase domain containing associated with muscle regeneration 1, TOP2B  -  topoisomerase (dna) ii beta 180kda, TOP3A  -  topoisomerase (dna) iii alpha, RNF19A  -  ring finger protein 19a, e3 ubiquitin protein ligase, TP73  -  tumor protein p73, TPD52  -  tumor protein d52, TPH1  -  tryptophan hydroxylase 1, ZFYVE28  -  zinc finger, fyve domain containing 28, FDFT1  -  farnesyl-diphosphate farnesyltransferase 1, FDPS  -  farnesyl diphosphate synthase, TPM4  -  tropomyosin 4, FDX1  -  ferredoxin 1, TPO  -  thyroid peroxidase, TPT1  -  tumor protein, translationally-controlled 1, NR2C1  -  nuclear receptor subfamily 2, group c, member 1, FEN1  -  flap structure-specific endonuclease 1, FBLN7  -  fibulin 7, ZNF521  -  zinc finger protein 521, NR2C2  -  nuclear receptor subfamily 2, group c, member 2, HSP90B1  -  heat shock protein 90kda beta (grp94), member 1, TRAF1  -  tnf receptor-associated factor 1, VWA2  -  von willebrand factor a domain containing 2, TRAF2  -  tnf receptor-associated factor 2, TRAF3  -  tnf receptor-associated factor 3, TRAF5  -  tnf receptor-associated factor 5, ACMSD  -  aminocarboxymuconate semialdehyde decarboxylase, SAMHD1  -  sam domain and hd domain 1, PNKD  -  paroxysmal nonkinesigenic dyskinesia, ACVR1C  -  activin a receptor, type ic, OSR1  -  odd-skipped related 1 (drosophila), HEPHL1  -  hephaestin-like 1, UBR3  -  ubiquitin protein ligase e3 component n-recognin 3 (putative), OVCH2  -  ovochymase 2 (gene/pseudogene), FHL1  -  four and a half lim domains 1, FHL2  -  four and a half lim domains 2, EGFL6  -  egf-like-domain, multiple 6, FHL3  -  four and a half lim domains 3, TIPARP  -  tcdd-inducible poly(adp-ribose) polymerase, ZFAND2B  -  zinc finger, an1-type domain 2b, SYT10  -  synaptotagmin x, TRPM2  -  transient receptor potential cation channel, subfamily m, member 2, TRPS1  -  trichorhinophalangeal syndrome i, CPO  -  carboxypeptidase o, HINFP  -  histone h4 transcription factor, RHOU  -  ras homolog family member u, SNED1  -  sushi, nidogen and egf-like domains 1, FREM2  -  fras1 related extracellular matrix protein 2, PCTP  -  phosphatidylcholine transfer protein, NEK5  -  nima-related kinase 5, RNF167  -  ring finger protein 167, MOXD1  -  monooxygenase, dbh-like 1, OVOL2  -  ovo-like 2 (drosophila), OTOL1  -  otolin 1, L3MBTL1  -  l(3)mbt-like 1 (drosophila), PEF1  -  penta-ef-hand domain containing 1, TRIM71  -  tripartite motif containing 71, e3 ubiquitin protein ligase, KMT2C  -  lysine (k)-specific methyltransferase 2c, GLCE  -  glucuronic acid epimerase, TTC3  -  tetratricopeptide repeat domain 3, ZNF451  -  zinc finger protein 451, TTN  -  titin, LTN1  -  listerin e3 ubiquitin protein ligase 1, FNTB  -  farnesyltransferase, caax box, beta, FOLH1  -  folate hydrolase (prostate-specific membrane antigen) 1, HIVEP3  -  human immunodeficiency virus type i enhancer binding protein 3, PPM1M  -  protein phosphatase, mg2+/mn2+ dependent, 1m, ACE2  -  angiotensin i converting enzyme 2, SNTN  -  sentan, cilia apical structure protein, HACL1  -  2-hydroxyacyl-coa lyase 1, TYR  -  tyrosinase, PRDM12  -  pr domain containing 12, U2AF1  -  u2 small nuclear rna auxiliary factor 1, TRPV4  -  transient receptor potential cation channel, subfamily v, member 4, LIN54  -  lin-54 homolog (c. elegans), RXFP1  -  relaxin/insulin-like family peptide receptor 1, ENPP6  -  ectonucleotide pyrophosphatase/phosphodiesterase 6, PYGO1  -  pygopus homolog 1 (drosophila), UBE3A  -  ubiquitin protein ligase e3a, TGM6  -  transglutaminase 6, SLC5A7  -  solute carrier family 5 (sodium/choline cotransporter), member 7, TES  -  testis derived transcript (3 lim domains), ZBTB20  -  zinc finger and btb domain containing 20, AASDHPPT  -  aminoadipate-semialdehyde dehydrogenase-phosphopantetheinyl transferase, PHF19  -  phd finger protein 19, UGP2  -  udp-glucose pyrophosphorylase 2, ELAC2  -  elac ribonuclease z 2, MTG2  -  mitochondrial ribosome-associated gtpase 2, USP4  -  ubiquitin specific peptidase 4 (proto-oncogene), SH3RF3  -  sh3 domain containing ring finger 3, UQCRC2  -  ubiquinol-cytochrome c reductase core protein ii, UQCRFS1  -  ubiquinol-cytochrome c reductase, rieske iron-sulfur polypeptide 1, GMEB2  -  glucocorticoid modulatory element binding protein 2, SRR  -  serine racemase, UTRN  -  utrophin, KDM6A  -  lysine (k)-specific demethylase 6a, RNF123  -  ring finger protein 123, VDAC1  -  voltage-dependent anion channel 1, VDR  -  vitamin d (1,25- dihydroxyvitamin d3) receptor, TRIM50  -  tripartite motif containing 50, VIL1  -  villin 1, GALNT11  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 11 (galnac-t11), CABYR  -  calcium binding tyrosine-(y)-phosphorylation regulated, ZNF335  -  zinc finger protein 335, ANKEF1  -  ankyrin repeat and ef-hand domain containing 1, XPNPEP3  -  x-prolyl aminopeptidase (aminopeptidase p) 3, putative, TRPV1  -  transient receptor potential cation channel, subfamily v, member 1, EYS  -  eyes shut homolog (drosophila), FBXO5  -  f-box protein 5, VSNL1  -  visinin-like 1, NR5A2  -  nuclear receptor subfamily 5, group a, member 2, FTH1  -  ferritin, heavy polypeptide 1, NECAB3  -  n-terminal ef-hand calcium binding protein 3, DMRTB1  -  dmrt-like family b with proline-rich c-terminal, 1, ARFGAP3  -  adp-ribosylation factor gtpase activating protein 3, GNAT3  -  guanine nucleotide binding protein, alpha transducing 3, WEE1  -  wee1 homolog (s. pombe), FTL  -  ferritin, light polypeptide, PRDM16  -  pr domain containing 16, PRDM15  -  pr domain containing 15, FIGNL1  -  fidgetin-like 1, GBGT1  -  globoside alpha-1,3-n-acetylgalactosaminyltransferase 1, RBM26  -  rna binding motif protein 26, ADHFE1  -  alcohol dehydrogenase, iron containing, 1, MMP27  -  matrix metallopeptidase 27, CDH23  -  cadherin-related 23, LHX6  -  lim homeobox 6, FYN  -  fyn oncogene related to src, fgr, yes, RBKS  -  ribokinase, WT1  -  wilms tumor 1, XDH  -  xanthine dehydrogenase, XPNPEP1  -  x-prolyl aminopeptidase (aminopeptidase p) 1, soluble, XPNPEP2  -  x-prolyl aminopeptidase (aminopeptidase p) 2, membrane-bound, MYOF  -  myoferlin, ZNF704  -  zinc finger protein 704, RRAGC  -  ras-related gtp binding c, YY1  -  yy1 transcription factor, LATS2  -  large tumor suppressor kinase 2, XYLT1  -  xylosyltransferase i, ZFX  -  zinc finger protein, x-linked, NECAB1  -  n-terminal ef-hand calcium binding protein 1, ZIC3  -  zic family member 3, GALNS  -  galactosamine (n-acetyl)-6-sulfate sulfatase, ZNF3  -  zinc finger protein 3, GALNT1  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 1 (galnac-t1), DPEP2  -  dipeptidase 2, LEPRE1  -  leucine proline-enriched proteoglycan (leprecan) 1, ZNF711  -  zinc finger protein 711, CNBP  -  cchc-type zinc finger, nucleic acid binding protein, GART  -  phosphoribosylglycinamide formyltransferase, phosphoribosylglycinamide synthetase, phosphoribosylaminoimidazole synthetase, GAS6  -  growth arrest-specific 6, GATA2  -  gata binding protein 2, GATA3  -  gata binding protein 3, ABCG5  -  atp-binding cassette, sub-family g (white), member 5, GATA4  -  gata binding protein 4, ABCG8  -  atp-binding cassette, sub-family g (white), member 8, GATA6  -  gata binding protein 6, GBE1  -  glucan (1,4-alpha-), branching enzyme 1, NSD1  -  nuclear receptor binding set domain protein 1, ZBTB25  -  zinc finger and btb domain containing 25, GCH1  -  gtp cyclohydrolase 1, GEN1  -  gen1 holliday junction 5' flap endonuclease, ZNF76  -  zinc finger protein 76, NR6A1  -  nuclear receptor subfamily 6, group a, member 1, IKZF5  -  ikaros family zinc finger 5 (pegasus), ZMAT3  -  zinc finger, matrin-type 3, ZNF106  -  zinc finger protein 106, CDH22  -  cadherin 22, type 2, GEM  -  gtp binding protein overexpressed in skeletal muscle, ARAP3  -  arfgap with rhogap domain, ankyrin repeat and ph domain 3, NUFIP1  -  nuclear fragile x mental retardation protein interacting protein 1, GZF1  -  gdnf-inducible zinc finger protein 1, GFI1  -  growth factor independent 1 transcription repressor, ZNF142  -  zinc finger protein 142, ZNF143  -  zinc finger protein 143, ZNF148  -  zinc finger protein 148, ZBTB17  -  zinc finger and btb domain containing 17, ZBTB46  -  zinc finger and btb domain containing 46, VEZF1  -  vascular endothelial zinc finger 1, CPEB1  -  cytoplasmic polyadenylation element binding protein 1, RNF113A  -  ring finger protein 113a, ZNF185  -  zinc finger protein 185 (lim domain), ZMYM2  -  zinc finger, mym-type 2, EBF2  -  early b-cell factor 2, ZNF207  -  zinc finger protein 207, ZNF208  -  zinc finger protein 208, GORASP1  -  golgi reassembly stacking protein 1, 65kda, GCLC  -  glutamate-cysteine ligase, catalytic subunit, ZNF217  -  zinc finger protein 217, GLI1  -  gli family zinc finger 1, GLI2  -  gli family zinc finger 2, GLI3  -  gli family zinc finger 3, GLO1  -  glyoxalase i, ZNF236  -  zinc finger protein 236, GLRA1  -  glycine receptor, alpha 1, GLRA2  -  glycine receptor, alpha 2, GLRB  -  glycine receptor, beta, SMAP2  -  small arfgap2, GLUD1  -  glutamate dehydrogenase 1, ADAMTS14  -  adam metallopeptidase with thrombospondin type 1 motif, 14, ZYX  -  zyxin, SMYD3  -  set and mynd domain containing 3, GLUL  -  glutamate-ammonia ligase, PRDM2  -  pr domain containing 2, with znf domain, PARP12  -  poly (adp-ribose) polymerase family, member 12, GMPR  -  guanosine monophosphate reductase, GNA11  -  guanine nucleotide binding protein (g protein), alpha 11 (gq class), GNA12  -  guanine nucleotide binding protein (g protein) alpha 12, GNAI1  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 1, GNAI2  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 2, PXDN  -  peroxidasin homolog (drosophila), GNAI3  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 3, GNAL  -  guanine nucleotide binding protein (g protein), alpha activating activity polypeptide, olfactory type, CERK  -  ceramide kinase, RNF103  -  ring finger protein 103, BRPF1  -  bromodomain and phd finger containing, 1, RMND5A  -  required for meiotic nuclear division 5 homolog a (s. cerevisiae), CHORDC1  -  cysteine and histidine-rich domain (chord) containing 1, GNS  -  glucosamine (n-acetyl)-6-sulfatase, RNF11  -  ring finger protein 11, MIB2  -  mindbomb e3 ubiquitin protein ligase 2, GPC1  -  glypican 1, GPD2  -  glycerol-3-phosphate dehydrogenase 2 (mitochondrial), PCDH20  -  protocadherin 20, ATP2C1  -  atpase, ca++ transporting, type 2c, member 1, NOX1  -  nadph oxidase 1, BCL11B  -  b-cell cll/lymphoma 11b (zinc finger protein), GPR12  -  g protein-coupled receptor 12, PPA2  -  pyrophosphatase (inorganic) 2, NT5DC2  -  5'-nucleotidase domain containing 2, VPS41  -  vacuolar protein sorting 41 homolog (s. cerevisiae), FOXP1  -  forkhead box p1, B3GAT1  -  beta-1,3-glucuronyltransferase 1 (glucuronosyltransferase p), SESN3  -  sestrin 3, GPR39  -  g protein-coupled receptor 39, PINK1  -  pten induced putative kinase 1, ZBTB11  -  zinc finger and btb domain containing 11, KAT6A  -  k(lysine) acetyltransferase 6a, CDK15  -  cyclin-dependent kinase 15, GLRA3  -  glycine receptor, alpha 3, NR4A3  -  nuclear receptor subfamily 4, group a, member 3, PRICKLE1  -  prickle homolog 1 (drosophila), AMDHD1  -  amidohydrolase domain containing 1, JMJD4  -  jumonji domain containing 4, CUBN  -  cubilin (intrinsic factor-cobalamin receptor), CPNE7  -  copine vii, CPNE8  -  copine viii, ADAM12  -  adam metallopeptidase domain 12, PCDH15  -  protocadherin-related 15, CSRP3  -  cysteine and glycine-rich protein 3 (cardiac lim protein), STK36  -  serine/threonine kinase 36, NADK  -  nad kinase, GRIN1  -  glutamate receptor, ionotropic, n-methyl d-aspartate 1, GRIN2A  -  glutamate receptor, ionotropic, n-methyl d-aspartate 2a, GRIN2B  -  glutamate receptor, ionotropic, n-methyl d-aspartate 2b, BRPF3  -  bromodomain and phd finger containing, 3, MPPE1  -  metallophosphoesterase 1, USP5  -  ubiquitin specific peptidase 5 (isopeptidase t), SALL3  -  sal-like 3 (drosophila), ZBTB41  -  zinc finger and btb domain containing 41, GRM7  -  glutamate receptor, metabotropic 7, LACC1  -  laccase (multicopper oxidoreductase) domain containing 1, CAPRIN2  -  caprin family member 2, DLK2  -  delta-like 2 homolog (drosophila), GSN  -  gelsolin, GSS  -  glutathione synthetase, DPF3  -  d4, zinc and double phd fingers, family 3, NMRK2  -  nicotinamide riboside kinase 2, GNMT  -  glycine n-methyltransferase, COLEC11  -  collectin sub-family member 11, MSH6  -  muts homolog 6 (e. coli), GTF2B  -  general transcription factor iib, GTF2E1  -  general transcription factor iie, polypeptide 1, alpha 56kda, SESN1  -  sestrin 1, NFU1  -  nfu1 iron-sulfur cluster scaffold homolog (s. cerevisiae), PCDH17  -  protocadherin 17, GTF3A  -  general transcription factor iiia, BRF1  -  brf1, rna polymerase iii transcription initiation factor 90 kda subunit, NDUFS7  -  nadh dehydrogenase (ubiquinone) fe-s protein 7, 20kda (nadh-coenzyme q reductase), GUCA1A  -  guanylate cyclase activator 1a (retina), GALNT18  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 18, GUCA1B  -  guanylate cyclase activator 1b (retina), GUCY1B3  -  guanylate cyclase 1, soluble, beta 3, PDLIM3  -  pdz and lim domain 3, ERI3  -  eri1 exoribonuclease family member 3, ZFYVE21  -  zinc finger, fyve domain containing 21, ZNF710  -  zinc finger protein 710, ZNF330  -  zinc finger protein 330, EFCAB5  -  ef-hand calcium binding domain 5, GTPBP6  -  gtp binding protein 6 (putative), ATP9B  -  atpase, class ii, type 9b, PCDH11X  -  protocadherin 11 x-linked, PRRG4  -  proline rich gla (g-carboxyglutamic acid) 4 (transmembrane), RPS6KA6  -  ribosomal protein s6 kinase, 90kda, polypeptide 6, ZRSR2  -  zinc finger (ccch type), rna-binding motif and serine/arginine rich 2, FTO  -  fat mass and obesity associated, HABP2  -  hyaluronan binding protein 2, RABGEF1  -  rab guanine nucleotide exchange factor (gef) 1, HAGH  -  hydroxyacylglutathione hydrolase, POLL  -  polymerase (dna directed), lambda, MGAT5B  -  mannosyl (alpha-1,6-)-glycoprotein beta-1,6-n-acetyl-glucosaminyltransferase, isozyme b, MLPH  -  melanophilin, HBB  -  hemoglobin, beta, EPX  -  eosinophil peroxidase, DYSF  -  dysferlin, limb girdle muscular dystrophy 2b (autosomal recessive), PCLO  -  piccolo presynaptic cytomatrix protein, RNF26  -  ring finger protein 26, PPP2R3B  -  protein phosphatase 2, regulatory subunit b'', beta, DHX58  -  dexh (asp-glu-x-his) box polypeptide 58, BRAP  -  brca1 associated protein, CDC7  -  cell division cycle 7, EME1  -  essential meiotic structure-specific endonuclease 1, MMP28  -  matrix metallopeptidase 28, CDH20  -  cadherin 20, type 2, GFI1B  -  growth factor independent 1b transcription repressor, TNIP2  -  tnfaip3 interacting protein 2, GNPTAB  -  n-acetylglucosamine-1-phosphate transferase, alpha and beta subunits, HGD  -  homogentisate 1,2-dioxygenase, AGRN  -  agrin, DSG4  -  desmoglein 4, HIVEP1  -  human immunodeficiency virus type i enhancer binding protein 1, HIVEP2  -  human immunodeficiency virus type i enhancer binding protein 2, ZBTB48  -  zinc finger and btb domain containing 48, ZC3H6  -  zinc finger ccch-type containing 6, BRCC3  -  brca1/brca2-containing complex, subunit 3, CA13  -  carbonic anhydrase xiii, ENTPD8  -  ectonucleoside triphosphate diphosphohydrolase 8, MMEL1  -  membrane metallo-endopeptidase-like 1, TMPPE  -  transmembrane protein with metallophosphoesterase domain, RNF222  -  ring finger protein 222, SPARCL1  -  sparc-like 1 (hevin), HMGCL  -  3-hydroxymethyl-3-methylglutaryl-coa lyase, EEA1  -  early endosome antigen 1, HMOX1  -  heme oxygenase (decycling) 1, HMOX2  -  heme oxygenase (decycling) 2, ZXDC  -  zxd family zinc finger c, ATP8B3  -  atpase, aminophospholipid transporter, class i, type 8b, member 3, BBOX1  -  butyrobetaine (gamma), 2-oxoglutarate dioxygenase (gamma-butyrobetaine hydroxylase) 1, HNF4A  -  hepatocyte nuclear factor 4, alpha, HNF4G  -  hepatocyte nuclear factor 4, gamma, SYT6  -  synaptotagmin vi, RAD54L  -  rad54-like (s. cerevisiae), FYCO1  -  fyve and coiled-coil domain containing 1, DYRK3  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 3, DYRK2  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 2, PHF13  -  phd finger protein 13, DOC2B  -  double c2-l</t>
-  </si>
-  <si>
-    <t>ke domains, beta, TTF2  -  transcription termination factor, rna polymerase ii, KLF11  -  kruppel-like factor 11, PM20D1  -  peptidase m20 domain containing 1, CDC42BPA  -  cdc42 binding protein kinase alpha (dmpk-like), MOB3C  -  mob kinase activator 3c, GLIS1  -  glis family zinc finger 1, RC3H1  -  ring finger and ccch-type domains 1, ZNF362  -  zinc finger protein 362, PPM1D  -  protein phosphatase, mg2+/mn2+ dependent, 1d, ATP13A3  -  atpase type 13a3, HPCAL1  -  hippocalcin-like 1, HPD  -  4-hydroxyphenylpyruvate dioxygenase, CHPF  -  chondroitin polymerizing factor, CARS2  -  cysteinyl-trna synthetase 2, mitochondrial (putative), ITGA8  -  integrin, alpha 8, GCM1  -  glial cells missing homolog 1 (drosophila), ADIPOR2  -  adiponectin receptor 2, DGKZ  -  diacylglycerol kinase, zeta, DGKE  -  diacylglycerol kinase, epsilon 64kda, DGKD  -  diacylglycerol kinase, delta 130kda, AGFG1  -  arfgap with fg repeats 1, CPZ  -  carboxypeptidase z, HRG  -  histidine-rich glycoprotein, GALNT14  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 14 (galnac-t14), CDH19  -  cadherin 19, type 2, DLL1  -  delta-like 1 (drosophila), FAT4  -  fat atypical cadherin 4, DNAJA1  -  dnaj (hsp40) homolog, subfamily a, member 1, ARSJ  -  arylsulfatase family, member j, PIAS1  -  protein inhibitor of activated stat, 1, EFCAB1  -  ef-hand calcium binding domain 1, AIFM3  -  apoptosis-inducing factor, mitochondrion-associated, 3, PDXK  -  pyridoxal (pyridoxine, vitamin b6) kinase, MKNK1  -  map kinase interacting serine/threonine kinase 1, NEIL1  -  nei endonuclease viii-like 1 (e. coli), PDLIM4  -  pdz and lim domain 4, PLEKHF2  -  pleckstrin homology domain containing, family f (with fyve domain) member 2, HSPG2  -  heparan sulfate proteoglycan 2, OGFOD2  -  2-oxoglutarate and iron-dependent oxygenase domain containing 2, SMYD1  -  set and mynd domain containing 1, STEAP4  -  steap family member 4, HTR1F  -  5-hydroxytryptamine (serotonin) receptor 1f, g protein-coupled, HTR2A  -  5-hydroxytryptamine (serotonin) receptor 2a, g protein-coupled, HTR2B  -  5-hydroxytryptamine (serotonin) receptor 2b, g protein-coupled, HTR2C  -  5-hydroxytryptamine (serotonin) receptor 2c, g protein-coupled, COMMD1  -  copper metabolism (murr1) domain containing 1, HTR3A  -  5-hydroxytryptamine (serotonin) receptor 3a, ionotropic, KLF7  -  kruppel-like factor 7 (ubiquitous), HTR4  -  5-hydroxytryptamine (serotonin) receptor 4, g protein-coupled, GALNT12  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 12 (galnac-t12), HTR5A  -  5-hydroxytryptamine (serotonin) receptor 5a, g protein-coupled, ZC2HC1C  -  zinc finger, c2hc-type containing 1c, ZMAT4  -  zinc finger, matrin-type 4, OGFOD3  -  2-oxoglutarate and iron-dependent oxygenase domain containing 3, CADPS  -  ca++-dependent secretion activator, LRRK1  -  leucine-rich repeat kinase 1, PUS10  -  pseudouridylate synthase 10, NPEPL1  -  aminopeptidase-like 1, ENO4  -  enolase family member 4, ZNF385B  -  zinc finger protein 385b, PDE5A  -  phosphodiesterase 5a, cgmp-specific, TNKS  -  tankyrase, trf1-interacting ankyrin-related adp-ribose polymerase, IDE  -  insulin-degrading enzyme, IDH1  -  isocitrate dehydrogenase 1 (nadp+), soluble, ZFAND1  -  zinc finger, an1-type domain 1, IDS  -  iduronate 2-sulfatase, ZNF750  -  zinc finger protein 750, CFI  -  complement factor i, EFCAB10  -  ef-hand calcium binding domain 10, DTX3L  -  deltex 3-like (drosophila), ZFHX4  -  zinc finger homeobox 4, MICALL2  -  mical-like 2, GALNT4  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 4 (galnac-t4), CPNE9  -  copine family member ix, B4GALT4  -  udp-gal:betaglcnac beta 1,4- galactosyltransferase, polypeptide 4, B4GALT3  -  udp-gal:betaglcnac beta 1,4- galactosyltransferase, polypeptide 3, CMC1  -  cox assembly mitochondrial protein 1 homolog (s. cerevisiae), EHMT1  -  euchromatic histone-lysine n-methyltransferase 1, NEK10  -  nima-related kinase 10, ADAM19  -  adam metallopeptidase domain 19, EFCC1  -  ef-hand and coiled-coil domain containing 1, FGD5  -  fyve, rhogef and ph domain containing 5, ZNF827  -  zinc finger protein 827, LONRF3  -  lon peptidase n-terminal domain and ring finger 3, NFXL1  -  nuclear transcription factor, x-box binding-like 1, ADAM21  -  adam metallopeptidase domain 21, ADAM9  -  adam metallopeptidase domain 9, IGHMBP2  -  immunoglobulin mu binding protein 2, RNF122  -  ring finger protein 122, PPM1K  -  protein phosphatase, mg2+/mn2+ dependent, 1k, RIOK3  -  rio kinase 3, TRMT44  -  trna methyltransferase 44 homolog (s. cerevisiae), MATN4  -  matrilin 4, DLK1  -  delta-like 1 homolog (drosophila), RPAP2  -  rna polymerase ii associated protein 2, CBLL1  -  cbl proto-oncogene-like 1, e3 ubiquitin protein ligase, TNFRSF11A  -  tumor necrosis factor receptor superfamily, member 11a, nfkb activator, UBA5  -  ubiquitin-like modifier activating enzyme 5, IHH  -  indian hedgehog, ZC3H14  -  zinc finger ccch-type containing 14, ZMAT2  -  zinc finger, matrin-type 2, SUCLG2  -  succinate-coa ligase, gdp-forming, beta subunit, SUCLA2  -  succinate-coa ligase, adp-forming, beta subunit, LPCAT1  -  lysophosphatidylcholine acyltransferase 1, TRIM24  -  tripartite motif containing 24, CYBRD1  -  cytochrome b reductase 1, SH3RF2  -  sh3 domain containing ring finger 2, RNF145  -  ring finger protein 145, ZC2HC1B  -  zinc finger, c2hc-type containing 1b, IQGAP1  -  iq motif containing gtpase activating protein 1, SNRNP48  -  small nuclear ribonucleoprotein 48kda (u11/u12), NRP2  -  neuropilin 2, NRP1  -  neuropilin 1, PNLDC1  -  poly(a)-specific ribonuclease (parn)-like domain containing 1, RNF217  -  ring finger protein 217, CAPN8  -  calpain 8, COA6  -  cytochrome c oxidase assembly factor 6 homolog (s. cerevisiae), KSR1  -  kinase suppressor of ras 1, ALKBH1  -  alkb, alkylation repair homolog 1 (e. coli), DHDDS  -  dehydrodolichyl diphosphate synthase, IMPA1  -  inositol(myo)-1(or 4)-monophosphatase 1, IMPA2  -  inositol(myo)-1(or 4)-monophosphatase 2, ASAP2  -  arfgap with sh3 domain, ankyrin repeat and ph domain 2, IMPDH2  -  imp (inosine 5'-monophosphate) dehydrogenase 2, PROZ  -  protein z, vitamin k-dependent plasma glycoprotein, ING1  -  inhibitor of growth family, member 1, PHF17  -  phd finger protein 17, INPP5B  -  inositol polyphosphate-5-phosphatase, 75kda, SQSTM1  -  sequestosome 1, AMZ1  -  archaelysin family metallopeptidase 1, INSM1  -  insulinoma-associated 1, TAX1BP1  -  tax1 (human t-cell leukemia virus type i) binding protein 1, EIF2S2  -  eukaryotic translation initiation factor 2, subunit 2 beta, 38kda, ITGA6  -  integrin, alpha 6, CPNE3  -  copine iii, PLEKHM3  -  pleckstrin homology domain containing, family m, member 3, IREB2  -  iron-responsive element binding protein 2, MTMR3  -  myotubularin related protein 3, PHC3  -  polyhomeotic homolog 3 (drosophila), GYG2  -  glycogenin 2, ESCO2  -  establishment of sister chromatid cohesion n-acetyltransferase 2, CACNA1H  -  calcium channel, voltage-dependent, t type, alpha 1h subunit, HERC2  -  hect and rld domain containing e3 ubiquitin protein ligase 2, ITGA9  -  integrin, alpha 9, BSN  -  bassoon presynaptic cytomatrix protein, ITGAV  -  integrin, alpha v, ITGB1  -  integrin, beta 1 (fibronectin receptor, beta polypeptide, antigen cd29 includes mdf2, msk12), ITGB2  -  integrin, beta 2 (complement component 3 receptor 3 and 4 subunit), ADAMTS20  -  adam metallopeptidase with thrombospondin type 1 motif, 20, ITK  -  il2-inducible t-cell kinase, STT3A  -  stt3a, subunit of the oligosaccharyltransferase complex (catalytic), ITPK1  -  inositol-tetrakisphosphate 1-kinase, P4HA2  -  prolyl 4-hydroxylase, alpha polypeptide ii, USP13  -  ubiquitin specific peptidase 13 (isopeptidase t-3), ITPR1  -  inositol 1,4,5-trisphosphate receptor, type 1, ITPR2  -  inositol 1,4,5-trisphosphate receptor, type 2, PIF1  -  pif1 5'-to-3' dna helicase, JAG2  -  jagged 2, JAK1  -  janus kinase 1, KALRN  -  kalirin, rhogef kinase, FRAS1  -  fraser syndrome 1, TAF1B  -  tata box binding protein (tbp)-associated factor, rna polymerase i, b, 63kda, ZC3H12A  -  zinc finger ccch-type containing 12a, KCNA4  -  potassium voltage-gated channel, shaker-related subfamily, member 4, BRSK2  -  br serine/threonine kinase 2, RNF8  -  ring finger protein 8, e3 ubiquitin protein ligase, BAZ1B  -  bromodomain adjacent to zinc finger domain, 1b, PKD2L1  -  polycystic kidney disease 2-like 1, KCND2  -  potassium voltage-gated channel, shal-related subfamily, member 2, DBF4B  -  dbf4 homolog b (s. cerevisiae), KCND3  -  potassium voltage-gated channel, shal-related subfamily, member 3, FEZF1  -  fez family zinc finger 1, RNF34  -  ring finger protein 34, e3 ubiquitin protein ligase, FBXO11  -  f-box protein 11, ZDHHC15  -  zinc finger, dhhc-type containing 15, MAP3K6  -  mitogen-activated protein kinase kinase kinase 6, SYT7  -  synaptotagmin vii, C11orf54  -  chromosome 11 open reading frame 54, ASH2L  -  ash2 (absent, small, or homeotic)-like (drosophila), RUFY1  -  run and fyve domain containing 1, KEL  -  kell blood group, metallo-endopeptidase, NOB1  -  nin1/rpn12 binding protein 1 homolog (s. cerevisiae), EFHC2  -  ef-hand domain (c-terminal) containing 2, DNAJA3  -  dnaj (hsp40) homolog, subfamily a, member 3, EDEM3  -  er degradation enhancer, mannosidase alpha-like 3, KLF15  -  kruppel-like factor 15, SCUBE1  -  signal peptide, cub domain, egf-like 1, MAP3K15  -  mitogen-activated protein kinase kinase kinase 15, RGN  -  regucalcin, KIT  -  v-kit hardy-zuckerman 4 feline sarcoma viral oncogene homolog, MTMR4  -  myotubularin related protein 4, FER1L4  -  fer-1-like 4 (c. elegans) pseudogene, MTA1  -  metastasis associated 1, PPTC7  -  ptc7 protein phosphatase homolog (s. cerevisiae), LATS1  -  large tumor suppressor kinase 1, ZC3H7A  -  zinc finger ccch-type containing 7a, KNG1  -  kininogen 1, ZBTB44  -  zinc finger and btb domain containing 44, DGKH  -  diacylglycerol kinase, eta, CPEB4  -  cytoplasmic polyadenylation element binding protein 4, SETD2  -  set domain containing 2, PDLIM1  -  pdz and lim domain 1, KPNB1  -  karyopherin (importin) beta 1, GTPBP8  -  gtp-binding protein 8 (putative), CBFA2T2  -  core-binding factor, runt domain, alpha subunit 2; translocated to, 2, OTUD7A  -  otu domain containing 7a, HGS  -  hepatocyte growth factor-regulated tyrosine kinase substrate, DROSHA  -  drosha, ribonuclease type iii, ADAL  -  adenosine deaminase-like, NEURL  -  neuralized homolog (drosophila), TNKS2  -  tankyrase, trf1-interacting ankyrin-related adp-ribose polymerase 2, ZFPM1  -  zinc finger protein, fog family member 1, EXO1  -  exonuclease 1, DGKI  -  diacylglycerol kinase, iota, MYLIP  -  myosin regulatory light chain interacting protein, SCAF11  -  sr-related ctd-associated factor 11, PHOSPHO1  -  phosphatase, orphan 1, RHBDL3  -  rhomboid, veinlet-like 3 (drosophila), MAP3K13  -  mitogen-activated protein kinase kinase kinase 13, RACGAP1  -  rac gtpase activating protein 1, UHRF1  -  ubiquitin-like with phd and ring finger domains 1, REPS2  -  ralbp1 associated eps domain containing 2, AARSD1  -  alanyl-trna synthetase domain containing 1, ZBED1  -  zinc finger, bed-type containing 1, ZMYM4  -  zinc finger, mym-type 4, ZMYM3  -  zinc finger, mym-type 3, OLA1  -  obg-like atpase 1, LIMD2  -  lim domain containing 2, LASP1  -  lim and sh3 protein 1, CYB5B  -  cytochrome b5 type b (outer mitochondrial membrane), COL18A1  -  collagen, type xviii, alpha 1, ASXL3  -  additional sex combs like 3 (drosophila), LCP1  -  lymphocyte cytosolic protein 1 (l-plastin), DDHD1  -  ddhd domain containing 1, LETM1  -  leucine zipper-ef-hand containing transmembrane protein 1, JHDM1D  -  jumonji c domain containing histone demethylase 1 homolog d (s. cerevisiae), EEF2K  -  eukaryotic elongation factor-2 kinase, GCM2  -  glial cells missing homolog 2 (drosophila), ILKAP  -  integrin-linked kinase-associated serine/threonine phosphatase, RPS6KA5  -  ribosomal protein s6 kinase, 90kda, polypeptide 5, CACNA2D2  -  calcium channel, voltage-dependent, alpha 2/delta subunit 2, LIG3  -  ligase iii, dna, atp-dependent, LIG4  -  ligase iv, dna, atp-dependent, PDLIM7  -  pdz and lim domain 7 (enigma), NME7  -  nme/nm23 family member 7, ABLIM1  -  actin binding lim protein 1, COLEC12  -  collectin sub-family member 12, LIMK2  -  lim domain kinase 2, PIWIL1  -  piwi-like rna-mediated gene silencing 1, LMO1  -  lim domain only 1 (rhombotin 1), PADI1  -  peptidyl arginine deiminase, type i, LMO7  -  lim domain 7, LMX1A  -  lim homeobox transcription factor 1, alpha, LMX1B  -  lim homeobox transcription factor 1, beta, RNF168  -  ring finger protein 168, e3 ubiquitin protein ligase, PDZRN4  -  pdz domain containing ring finger 4, LOXL1  -  lysyl oxidase-like 1, PRICKLE2  -  prickle homolog 2 (drosophila), LOXL2  -  lysyl oxidase-like 2, POMT2  -  protein-o-mannosyltransferase 2, SLC25A24  -  solute carrier family 25 (mitochondrial carrier; phosphate carrier), member 24, ZBTB49  -  zinc finger and btb domain containing 49, LRP1  -  low density lipoprotein receptor-related protein 1, LRP2  -  low density lipoprotein receptor-related protein 2, KLF4  -  kruppel-like factor 4 (gut), LRP4  -  low density lipoprotein receptor-related protein 4, PTER  -  phosphotriesterase related, LTA4H  -  leukotriene a4 hydrolase, TRIP4  -  thyroid hormone receptor interactor 4, LTBP1  -  latent transforming growth factor beta binding protein 1, LTBP2  -  latent transforming growth factor beta binding protein 2, B4GALT6  -  udp-gal:betaglcnac beta 1,4- galactosyltransferase, polypeptide 6, TGM5  -  transglutaminase 5, BAZ2B  -  bromodomain adjacent to zinc finger domain, 2b, LMCD1  -  lim and cysteine-rich domains 1, THAP5  -  thap domain containing 5, LHX2  -  lim homeobox 2, ZNF800  -  zinc finger protein 800, NBR1  -  neighbor of brca1 gene 1, SLC30A8  -  solute carrier family 30 (zinc transporter), member 8, KCNIP2  -  kv channel interacting protein 2, KCNIP1  -  kv channel interacting protein 1, SMAD1  -  smad family member 1, SMAD3  -  smad family member 3, SMAD5  -  smad family member 5, SMAD6  -  smad family member 6, ZFYVE9  -  zinc finger, fyve domain containing 9, EHD4  -  eh-domain containing 4, SMAD9  -  smad family member 9, EHD3  -  eh-domain containing 3, NRXN1  -  neurexin 1, OTOF  -  otoferlin, OIT3  -  oncoprotein induced transcript 3, ZBTB21  -  zinc finger and btb domain containing 21, SCAPER  -  s-phase cyclin a-associated protein in the er, CRNN  -  cornulin, RRM2B  -  ribonucleotide reductase m2 b (tp53 inducible), DUOX2  -  dual oxidase 2, DHX36  -  deah (asp-glu-ala-his) box polypeptide 36, MAK  -  male germ cell-associated kinase, MAN2A2  -  mannosidase, alpha, class 2a, member 2, MAN2C1  -  mannosidase, alpha, class 2c, member 1, ZRANB2  -  zinc finger, ran-binding domain containing 2, ARHGAP29  -  rho gtpase activating protein 29, GALNT9  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 9 (galnac-t9), ITSN2  -  intersectin 2, MARK1  -  map/microtubule affinity-regulating kinase 1, MAT1A  -  methionine adenosyltransferase i, alpha, MATN1  -  matrilin 1, cartilage matrix protein, MATN2  -  matrilin 2, MATN3  -  matrilin 3, MB  -  myoglobin, MBNL1  -  muscleblind-like splicing regulator 1, ASAP1  -  arfgap with sh3 domain, ankyrin repeat and ph domain 1, MOB2  -  mob kinase activator 2, MCM2  -  minichromosome maintenance complex component 2, FHL5  -  four and a half lim domains 5, PICK1  -  protein interacting with prkca 1, ADAMTS15  -  adam metallopeptidase with thrombospondin type 1 motif, 15, PCYT1B  -  phosphate cytidylyltransferase 1, choline, beta, ADAMTS18  -  adam metallopeptidase with thrombospondin type 1 motif, 18, ROCK2  -  rho-associated, coiled-coil containing protein kinase 2, LMAN2L  -  lectin, mannose-binding 2-like, MDM2  -  mdm2 oncogene, e3 ubiquitin protein ligase, CABP1  -  calcium binding protein 1, MDM4  -  mdm4 p53 binding protein homolog (mouse), ZNF384  -  zinc finger protein 384, RNF141  -  ring finger protein 141, ASXL1  -  additional sex combs like 1 (drosophila), PGS1  -  phosphatidylglycerophosphate synthase 1, CDADC1  -  cytidine and dcmp deaminase domain containing 1, RHOV  -  ras homolog family member v, TRIM8  -  tripartite motif containing 8, MAP3K3  -  mitogen-activated protein kinase kinase kinase 3, RPH3AL  -  rabphilin 3a-like (without c2 domains), MAP3K4  -  mitogen-activated protein kinase kinase kinase 4, FRRS1  -  ferric-chelate reductase 1, ADAMTS3  -  adam metallopeptidase with thrombospondin type 1 motif, 3, ADAMTS2  -  adam metallopeptidase with thrombospondin type 1 motif, 2, TMEM163  -  transmembrane protein 163, MEP1A  -  meprin a, alpha (paba peptide hydrolase), MEP1B  -  meprin a, beta, PMPCB  -  peptidase (mitochondrial processing) beta, LITAF  -  lipopolysaccharide-induced tnf factor, CLYBL  -  citrate lyase beta like, NPEPPS  -  aminopeptidase puromycin sensitive, MGAT2  -  mannosyl (alpha-1,6-)-glycoprotein beta-1,2-n-acetylglucosaminyltransferase, MGAT5  -  mannosyl (alpha-1,6-)-glycoprotein beta-1,6-n-acetyl-glucosaminyltransferase, AMDHD2  -  amidohydrolase domain containing 2, MGMT  -  o-6-methylguanine-dna methyltransferase, MGP  -  matrix gla protein, NUAK2  -  nuak family, snf1-like kinase, 2, HDDC2  -  hd domain containing 2, GLRX2  -  glutaredoxin 2, MID1  -  midline 1 (opitz/bbb syndrome), MIPEP  -  mitochondrial intermediate peptidase, RNF146  -  ring finger protein 146, ZNF593  -  zinc finger protein 593, AGO3  -  argonaute risc catalytic component 3, LAP3  -  leucine aminopeptidase 3, KMT2A  -  lysine (k)-specific methyltransferase 2a, MLLT6  -  myeloid/lymphoid or mixed-lineage leukemia (trithorax homolog, drosophila); translocated to, 6, NR3C2  -  nuclear receptor subfamily 3, group c, member 2, MME  -  membrane metallo-endopeptidase, CREB5  -  camp responsive element binding protein 5, MMP2  -  matrix metallopeptidase 2 (gelatinase a, 72kda gelatinase, 72kda type iv collagenase), MMP3  -  matrix metallopeptidase 3 (stromelysin 1, progelatinase), MMP7  -  matrix metallopeptidase 7 (matrilysin, uterine), FAHD1  -  fumarylacetoacetate hydrolase domain containing 1, MMP9  -  matrix metallopeptidase 9 (gelatinase b, 92kda gelatinase, 92kda type iv collagenase), APIP  -  apaf1 interacting protein, CUTC  -  cutc copper transporter, MMP11  -  matrix metallopeptidase 11 (stromelysin 3), MMP13  -  matrix metallopeptidase 13 (collagenase 3), THAP4  -  thap domain containing 4, ZFC3H1  -  zinc finger, c3h1-type containing, RNF14  -  ring finger protein 14, MMP17  -  matrix metallopeptidase 17 (membrane-inserted), TNNI3K  -  tnni3 interacting kinase, MNAT1  -  mnat cdk-activating kinase assembly factor 1, PITPNM3  -  pitpnm family member 3, ANO6  -  anoctamin 6, RNF7  -  ring finger protein 7, ARID2  -  at rich interactive domain 2 (arid, rfx-like), DYTN  -  dystrotelin, MOCS1  -  molybdenum cofactor synthesis 1, ADPGK  -  adp-dependent glucokinase, ADIPOR1  -  adiponectin receptor 1, CELSR1  -  cadherin, egf lag seven-pass g-type receptor 1, GUCA1C  -  guanylate cyclase activator 1c, MPI  -  mannose phosphate isomerase, SEC24C  -  sec24 family, member c (s. cerevisiae), PHF20L1  -  phd finger protein 20-like 1, LACTB2  -  lactamase, beta 2, MRE11A  -  mre11 meiotic recombination 11 homolog a (s. cerevisiae), DOHH  -  deoxyhypusine hydroxylase/monooxygenase, SUV420H1  -  suppressor of variegation 4-20 homolog 1 (drosophila), ZNF592  -  zinc finger protein 592, DDX59  -  dead (asp-glu-ala-asp) box polypeptide 59, MICAL2  -  microtubule associated monooxygenase, calponin and lim domain containing 2, PPM1F  -  protein phosphatase, mg2+/mn2+ dependent, 1f, NSMCE1  -  non-smc element 1 homolog (s. cerevisiae), ZNF706  -  zinc finger protein 706, AIF1L  -  allograft inflammatory factor 1-like, ZNF516  -  zinc finger protein 516, IRAK4  -  interleukin-1 receptor-associated kinase 4, RNFT1  -  ring finger protein, transmembrane 1, RASSF5  -  ras association (ralgds/af-6) domain family member 5, EIF5B  -  eukaryotic translation initiation factor 5b, ING4  -  inhibitor of growth family, member 4, PHF14  -  phd finger protein 14, KDM4A  -  lysine (k)-specific demethylase 4a, C1orf86  -  chromosome 1 open reading frame 86, EGFL7  -  egf-like-domain, multiple 7, DBR1  -  debranching rna lariats 1, KIAA0391  -  kiaa0391, RAPGEF2  -  rap guanine nucleotide exchange factor (gef) 2, CYB5R4  -  cytochrome b5 reductase 4, EDEM1  -  er degradation enhancer, mannosidase alpha-like 1, MSH2  -  muts homolog 2, colon cancer, nonpolyposis type 1 (e. coli), RIMS2  -  regulating synaptic membrane exocytosis 2, ST18  -  suppression of tumorigenicity 18 (breast carcinoma) (zinc finger protein), CRBN  -  cereblon, RNF215  -  ring finger protein 215, CALN1  -  calneuron 1, ZNF639  -  zinc finger protein 639, ECE2  -  endothelin converting enzyme 2, PLCE1  -  phospholipase c, epsilon 1, ZBTB8A  -  zinc finger and btb domain containing 8a, NIN  -  ninein (gsk3b interacting protein), APLF  -  aprataxin and pnkp like factor, PIKFYVE  -  phosphoinositide kinase, fyve finger containing, RIOK1  -  rio kinase 1, ANXA8  -  annexin a8, RAB11FIP3  -  rab11 family interacting protein 3 (class ii), GLRX5  -  glutaredoxin 5, HDAC9  -  histone deacetylase 9, MTF1  -  metal-regulatory transcription factor 1, PHF20  -  phd finger protein 20, ZNF536  -  zinc finger protein 536, ESYT3  -  extended synaptotagmin-like protein 3, CLSTN3  -  calsyntenin 3, SETDB2  -  set domain, bifurcated 2, CENPV  -  centromere protein v, TAF3  -  taf3 rna polymerase ii, tata box binding protein (tbp)-associated factor, 140kda, NT5C3A  -  5'-nucleotidase, cytosolic iiia, MTR  -  5-methyltetrahydrofolate-homocysteine methyltransferase, TRIM65  -  tripartite motif containing 65, HMCN1  -  hemicentin 1, PHF16  -  phd finger protein 16, UNC13D  -  unc-13 homolog d (c. elegans), KLF3  -  kruppel-like factor 3 (basic), STT3B  -  stt3b, subunit of the oligosaccharyltransferase complex (catalytic), RNF144A  -  ring finger protein 144a, MATR3  -  matrin 3, PDE12  -  phosphodiesterase 12, BFAR  -  bifunctional apoptosis regulator, TRIM37  -  tripartite motif containing 37, PCDH12  -  protocadherin 12, MUTYH  -  muty homolog (e. coli), SPRTN  -  sprt-like n-terminal domain, HDAC10  -  histone deacetylase 10, MVK  -  mevalonate kinase, CYP39A1  -  cytochrome p450, family 39, subfamily a, polypeptide 1, TATDN1  -  tatd dnase domain containing 1, EFCAB14  -  ef-hand calcium binding domain 14, TSSK1B  -  testis-specific serine kinase 1b, GIT2  -  g protein-coupled receptor kinase interacting arfgap 2, STK32A  -  serine/threonine kinase 32a, NCALD  -  neurocalcin delta, PHF21A  -  phd finger protein 21a, BRIP1  -  brca1 interacting protein c-terminal helicase 1, MELK  -  maternal embryonic leucine zipper kinase, OBSCN  -  obscurin, cytoskeletal calmodulin and titin-interacting rhogef, ZEB2  -  zinc finger e-box binding homeobox 2, ZBTB24  -  zinc finger and btb domain containing 24, PLEKHM1  -  pleckstrin homology domain containing, family m (with run domain) member 1, HEPH  -  hephaestin, C2CD5  -  c2 calcium-dependent domain containing 5, MYLK  -  myosin light chain kinase, PLA2G4B  -  phospholipase a2, group ivb (cytosolic), JMJD7  -  jumonji domain containing 7, MBTPS2  -  membrane-bound transcription factor peptidase, site 2, MYO9A  -  myosin ixa, MYO9B  -  myosin ixb, ZMYND10  -  zinc finger, mynd-type containing 10, UBR5  -  ubiquitin protein ligase e3 component n-recognin 5, MYOC  -  myocilin, trabecular meshwork inducible glucocorticoid response, TRIM66  -  tripartite motif containing 66, SETDB1  -  set domain, bifurcated 1, ZRANB3  -  zinc finger, ran-binding domain containing 3, FBXO30  -  f-box protein 30, MYT1  -  myelin transcription factor 1, ZC3H11A  -  zinc finger ccch-type containing 11a, ZBTB39  -  zinc finger and btb domain containing 39, ARL6  -  adp-ribosylation factor-like 6, USP44  -  ubiquitin specific peptidase 44, ZBED4  -  zinc finger, bed-type containing 4, ZIC4  -  zic family member 4, PCGF6  -  polycomb group ring finger 6, PRKAG2  -  protein kinase, amp-activated, gamma 2 non-catalytic subunit, DDX41  -  dead (asp-glu-ala-asp) box polypeptide 41, ZNRF3  -  zinc and ring finger 3, USP12  -  ubiquitin specific peptidase 12, HPCAL4  -  hippocalcin like 4, ZNF644  -  zinc finger protein 644, RNF138  -  ring finger protein 138, e3 ubiquitin protein ligase, ATP2C2  -  atpase, ca++ transporting, type 2c, member 2, FAM20B  -  family with sequence similarity 20, member b, REV1  -  rev1, polymerase (dna directed), RNF10  -  ring finger protein 10, ANTXR1  -  anthrax toxin receptor 1, ZBTB40  -  zinc finger and btb domain containing 40, POLR1B  -  polymerase (rna) i polypeptide b, 128kda, PAN2  -  pan2 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), LIMA1  -  lim domain and actin binding 1, HELZ  -  helicase with zinc finger, NDUFS1  -  nadh dehydrogenase (ubiquinone) fe-s protein 1, 75kda (nadh-coenzyme q reductase), ZNF804B  -  zinc finger protein 804b, DCLRE1A  -  dna cross-link repair 1a, RTCB  -  rna 2',3'-cyclic phosphate and 5'-oh ligase, NDUFV2  -  nadh dehydrogenase (ubiquinone) flavoprotein 2, 24kda, EXOG  -  endo/exonuclease (5'-3'), endonuclease g-like, DRG1  -  developmentally regulated gtp binding protein 1, ZMYND12  -  zinc finger, mynd-type containing 12, NELL1  -  nel-like 1 (chicken), CXXC5  -  cxxc finger protein 5, NEK1  -  nima-related kinase 1, NEK2  -  nima-related kinase 2, NEK3  -  nima-related kinase 3, ZC3HC1  -  zinc finger, c3hc-type containing 1, TRAF7  -  tnf receptor-associated factor 7, e3 ubiquitin protein ligase, PHF7  -  phd finger protein 7, NF1  -  neurofibromin 1, ZCCHC17  -  zinc finger, cchc domain containing 17, NR1H4  -  nuclear receptor subfamily 1, group h, member 4, NUP153  -  nucleoporin 153kda, NR1D2  -  nuclear receptor subfamily 1, group d, member 2, SIRT6  -  sirtuin 6, RBX1  -  ring-box 1, e3 ubiquitin protein ligase, NT5DC3  -  5'-nucleotidase domain containing 3, HDAC7  -  histone deacetylase 7, HAGHL  -  hydroxyacylglutathione hydrolase-like, GDE1  -  glycerophosphodiester phosphodiesterase 1, NFX1  -  nuclear transcription factor, x-box binding 1, NR2E3  -  nuclear receptor subfamily 2, group e, member 3, NAALAD2  -  n-acetylated alpha-linked acidic dipeptidase 2, PIAS4  -  protein inhibitor of activated stat, 4, CUTA  -  cuta divalent cation tolerance homolog (e. coli), ZBTB33  -  zinc finger and btb domain containing 33, TANK  -  traf family member-associated nfkb activator, NID1  -  nidogen 1, PDCD6  -  programmed cell death 6, EFCAB2  -  ef-hand calcium binding domain 2, KLF13  -  kruppel-like factor 13, PHF6  -  phd finger protein 6, NME4  -  nme/nm23 nucleoside diphosphate kinase 4, NQO2  -  nad(p)h dehydrogenase, quinone 2, RNF152  -  ring finger protein 152, YPEL5  -  yippee-like 5 (drosophila), NOS1  -  nitric oxide synthase 1 (neuronal), NOS2  -  nitric oxide synthase 2, inducible, CHMP3  -  charged multivesicular body protein 3, CDK5RAP1  -  cdk5 regulatory subunit associated protein 1, CNOT4  -  ccr4-not transcription complex, subunit 4, ZNF438  -  zinc finger protein 438, NOTCH1  -  notch 1, NOTCH2  -  notch 2, NOTCH3  -  notch 3, UBA2  -  ubiquitin-like modifier activating enzyme 2, FARSB  -  phenylalanyl-trna synthetase, beta subunit, NPAS2  -  neuronal pas domain protein 2, COX17  -  cox17 cytochrome c oxidase copper chaperone, JMJD1C  -  jumonji domain containing 1c, CPSF3  -  cleavage and polyadenylation specific factor 3, 73kda, PCGF5  -  polycomb group ring finger 5, NLK  -  nemo-like kinase, ALKBH3  -  alkb, alkylation repair homolog 3 (e. coli), ATP9A  -  atpase, class ii, type 9a, ARFGAP2  -  adp-ribosylation factor gtpase activating protein 2, MICU2  -  mitochondrial calcium uptake 2, NPTX1  -  neuronal pentraxin i, NPTX2  -  neuronal pentraxin ii, CPNE2  -  copine ii, FBXO40  -  f-box protein 40, NRAP  -  nebulin-related anchoring protein, NT5DC1  -  5'-nucleotidase domain containing 1, RAB11FIP4  -  rab11 family interacting protein 4 (class ii), NSF  -  n-ethylmaleimide-sensitive factor, NT5E  -  5'-nucleotidase, ecto (cd73), RTEL1  -  regulator of telomere elongation helicase 1, ZNF512  -  zinc finger protein 512, EFCAB7  -  ef-hand calcium binding domain 7, L3MBTL3  -  l(3)mbt-like 3 (drosophila), NTHL1  -  nth endonuclease iii-like 1 (e. coli), SYT17  -  synaptotagmin xvii, RAD50  -  rad50 homolog (s. cerevisiae), ATP8A2  -  atpase, aminophospholipid transporter, class i, type 8a, member 2, SLX4  -  slx4 structure-specific endonuclease subunit, RSF1  -  remodeling and spacing factor 1, NUCB2  -  nucleobindin 2, KDM3B  -  lysine (k)-specific demethylase 3b, RASGRP1  -  ras guanyl releasing protein 1 (calcium and dag-regulated), KDM1B  -  lysine (k)-specific demethylase 1b, GALNT7  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 7 (galnac-t7), GPR143  -  g protein-coupled receptor 143, CECR1  -  cat eye syndrome chromosome region, candidate 1, OPTN  -  optineurin, BCL11A  -  b-cell cll/lymphoma 11a (zinc finger protein), RNF182  -  ring finger protein 182, ACSS1  -  acyl-coa synthetase short-chain family member 1, ZFYVE1  -  zinc finger, fyve domain containing 1, LRP1B  -  low density lipoprotein receptor-related protein 1b, MBNL2  -  muscleblind-like splicing regulator 2, JAZF1  -  jazf zinc finger 1, RASA4  -  ras p21 protein activator 4, OGDH  -  oxoglutarate (alpha-ketoglutarate) dehydrogenase (lipoamide), DAGLB  -  diacylglycerol lipase, beta, OPA1  -  optic atrophy 1 (autosomal dominant), ZBTB37  -  zinc finger and btb domain containing 37, BCMO1  -  beta-carotene 15,15'-monooxygenase 1, NT5C1A  -  5'-nucleotidase, cytosolic ia, ZGPAT  -  zinc finger, ccch-type with g patch domain, RSBN1L  -  round spermatid basic protein 1-like, ZNF469  -  zinc finger protein 469, NAPEPLD  -  n-acyl phosphatidylethanolamine phospholipase d, RBM5  -  rna binding motif protein 5, CDHR3  -  cadherin-related family member 3, ORC1  -  origin recognition complex, subunit 1, CDHR5  -  cadherin-related family member 5, TNK2  -  tyrosine kinase, non-receptor, 2, LNX2  -  ligand of numb-protein x 2, RNF41  -  ring finger protein 41, TSHZ1  -  teashirt zinc finger homeobox 1, PLA2G12B  -  phospholipase a2, group xiib, PRMT3  -  protein arginine methyltransferase 3, NME6  -  nme/nm23 nucleoside diphosphate kinase 6, SCUBE3  -  signal peptide, cub domain, egf-like 3, P2RX1  -  purinergic receptor p2x, ligand-gated ion channel, 1]</t>
-  </si>
-  <si>
     <t>GO:0008144</t>
   </si>
   <si>
     <t>drug binding</t>
   </si>
   <si>
-    <t>[P2RX4  -  purinergic receptor p2x, ligand-gated ion channel, 4, P2RX5  -  purinergic receptor p2x, ligand-gated ion channel, 5, TRPV1  -  transient receptor potential cation channel, subfamily v, member 1, VRK1  -  vaccinia related kinase 1, VRK2  -  vaccinia related kinase 2, P2RY4  -  pyrimidinergic receptor p2y, g-protein coupled, 4, PCIF1  -  pdx1 c-terminal inhibiting factor 1, MAPK15  -  mitogen-activated protein kinase 15, LRGUK  -  leucine-rich repeats and guanylate kinase domain containing, PEBP1  -  phosphatidylethanolamine binding protein 1, ABAT  -  4-aminobutyrate aminotransferase, ACCS  -  1-aminocyclopropane-1-carboxylate synthase homolog (arabidopsis)(non-functional), ABCA2  -  atp-binding cassette, sub-family a (abc1), member 2, ABCA3  -  atp-binding cassette, sub-family a (abc1), member 3, ABCB7  -  atp-binding cassette, sub-family b (mdr/tap), member 7, ABCA4  -  atp-binding cassette, sub-family a (abc1), member 4, ABL1  -  c-abl oncogene 1, non-receptor tyrosine kinase, AK5  -  adenylate kinase 5, KIF13A  -  kinesin family member 13a, WEE1  -  wee1 homolog (s. pombe), ACACA  -  acetyl-coa carboxylase alpha, ACACB  -  acetyl-coa carboxylase beta, PAK1  -  p21 protein (cdc42/rac)-activated kinase 1, FIGNL1  -  fidgetin-like 1, PAK2  -  p21 protein (cdc42/rac)-activated kinase 2, MYO18B  -  myosin xviiib, PAK3  -  p21 protein (cdc42/rac)-activated kinase 3, GPT2  -  glutamic pyruvate transaminase (alanine aminotransferase) 2, ACLY  -  atp citrate lyase, FYN  -  fyn oncogene related to src, fgr, yes, RBKS  -  ribokinase, ABCC4  -  atp-binding cassette, sub-family c (cftr/mrp), member 4, MCCC2  -  methylcrotonoyl-coa carboxylase 2 (beta), ACTA1  -  actin, alpha 1, skeletal muscle, RIPK4  -  receptor-interacting serine-threonine kinase 4, XRCC6  -  x-ray repair complementing defective repair in chinese hamster cells 6, PCCA  -  propionyl coa carboxylase, alpha polypeptide, PCCB  -  propionyl coa carboxylase, beta polypeptide, GABRA1  -  gamma-aminobutyric acid (gaba) a receptor, alpha 1, ACTG2  -  actin, gamma 2, smooth muscle, enteric, XRCC2  -  x-ray repair complementing defective repair in chinese hamster cells 2, XRCC3  -  x-ray repair complementing defective repair in chinese hamster cells 3, XRCC5  -  x-ray repair complementing defective repair in chinese hamster cells 5 (double-strand-break rejoining), YES1  -  v-yes-1 yamaguchi sarcoma viral oncogene homolog 1, FN3K  -  fructosamine 3 kinase, SPEG  -  speg complex locus, ACVR1  -  activin a receptor, type i, LATS2  -  large tumor suppressor kinase 2, DNAJA2  -  dnaj (hsp40) homolog, subfamily a, member 2, GAD2  -  glutamate decarboxylase 2 (pancreatic islets and brain, 65kda), ACVR2B  -  activin a receptor, type iib, CDK17  -  cyclin-dependent kinase 17, CDK18  -  cyclin-dependent kinase 18, ZAP70  -  zeta-chain (tcr) associated protein kinase 70kda, ABCG4  -  atp-binding cassette, sub-family g (white), member 4, KIF9  -  kinesin family member 9, GALK1  -  galactokinase 1, GALK2  -  galactokinase 2, ADCY1  -  adenylate cyclase 1 (brain), ADCY2  -  adenylate cyclase 2 (brain), ADCY3  -  adenylate cyclase 3, ADCY5  -  adenylate cyclase 5, ADCY7  -  adenylate cyclase 7, ADCY8  -  adenylate cyclase 8 (brain), ADCY9  -  adenylate cyclase 9, PDGFRA  -  platelet-derived growth factor receptor, alpha polypeptide, GART  -  phosphoribosylglycinamide formyltransferase, phosphoribosylglycinamide synthetase, phosphoribosylaminoimidazole synthetase, PDGFRB  -  platelet-derived growth factor receptor, beta polypeptide, MOV10L1  -  mov10l1, moloney leukemia virus 10-like 1, homolog (mouse), ABCG5  -  atp-binding cassette, sub-family g (white), member 5, PDK3  -  pyruvate dehydrogenase kinase, isozyme 3, ABCG8  -  atp-binding cassette, sub-family g (white), member 8, PDK4  -  pyruvate dehydrogenase kinase, isozyme 4, IPMK  -  inositol polyphosphate multikinase, FBXO18  -  f-box protein, helicase, 18, ADRBK1  -  adrenergic, beta, receptor kinase 1, ATAD1  -  atpase family, aaa domain containing 1, ADRBK2  -  adrenergic, beta, receptor kinase 2, PEX1  -  peroxisomal biogenesis factor 1, PEX6  -  peroxisomal biogenesis factor 6, MPP5  -  membrane protein, palmitoylated 5 (maguk p55 subfamily member 5), PFKFB2  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 2, PFKFB3  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 3, PFKFB4  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 4, NOD1  -  nucleotide-binding oligomerization domain containing 1, PFKL  -  phosphofructokinase, liver, RPS6KC1  -  ribosomal protein s6 kinase, 52kda, polypeptide 1, PFKP  -  phosphofructokinase, platelet, FIBCD1  -  fibrinogen c domain containing 1, CDK14  -  cyclin-dependent kinase 14, NMNAT3  -  nicotinamide nucleotide adenylyltransferase 3, AK2  -  adenylate kinase 2, AK4  -  adenylate kinase 4, TTLL10  -  tubulin tyrosine ligase-like family, member 10, AKT1  -  v-akt murine thymoma viral oncogene homolog 1, ALAS1  -  aminolevulinate, delta-, synthase 1, ABCB1  -  atp-binding cassette, sub-family b (mdr/tap), member 1, TESK2  -  testis-specific kinase 2, ALB  -  albumin, DDX49  -  dead (asp-glu-ala-asp) box polypeptide 49, GK  -  glycerol kinase, MCM9  -  minichromosome maintenance complex component 9, ABCD2  -  atp-binding cassette, sub-family d (ald), member 2, PHKG1  -  phosphorylase kinase, gamma 1 (muscle), ALK  -  anaplastic lymphoma receptor tyrosine kinase, GCLC  -  glutamate-cysteine ligase, catalytic subunit, GLE1  -  gle1 rna export mediator, PPIE  -  peptidylprolyl isomerase e (cyclophilin e), INO80  -  ino80 complex subunit, GLRA1  -  glycine receptor, alpha 1, GLRA2  -  glycine receptor, alpha 2, MERTK  -  c-mer proto-oncogene tyrosine kinase, GLRB  -  glycine receptor, beta, GLUD1  -  glutamate dehydrogenase 1, PIK3C2A  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 alpha, PIK3C2B  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 beta, PHYKPL  -  5-phosphohydroxy-l-lysine phospho-lyase, PIK3C2G  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 gamma, PIK3CA  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit alpha, PIK3CB  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit beta, GLUL  -  glutamate-ammonia ligase, PIK3CD  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit delta, PIK3CG  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit gamma, PI4KB  -  phosphatidylinositol 4-kinase, catalytic, beta, UBE2E3  -  ubiquitin-conjugating enzyme e2e 3, IPPK  -  inositol 1,3,4,5,6-pentakisphosphate 2-kinase, PIP4K2A  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, alpha, CERK  -  ceramide kinase, PKM  -  pyruvate kinase, muscle, STK25  -  serine/threonine kinase 25, DDX31  -  dead (asp-glu-ala-asp) box polypeptide 31, MAPKAPK3  -  mitogen-activated protein kinase-activated protein kinase 3, CHORDC1  -  cysteine and histidine-rich domain (chord) containing 1, NMNAT1  -  nicotinamide nucleotide adenylyltransferase 1, APAF1  -  apoptotic peptidase activating factor 1, DDX17  -  dead (asp-glu-ala-asp) box helicase 17, MYLK2  -  myosin light chain kinase 2, HYOU1  -  hypoxia up-regulated 1, PAN3  -  pan3 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), STK35  -  serine/threonine kinase 35, GOT2  -  glutamic-oxaloacetic transaminase 2, mitochondrial, PLK1  -  polo-like kinase 1, ETNPPL  -  ethanolamine-phosphate phospho-lyase, TPK1  -  thiamin pyrophosphokinase 1, MLH3  -  mutl homolog 3 (e. coli), ATP2C1  -  atpase, ca++ transporting, type 2c, member 1, TRIT1  -  trna isopentenyltransferase 1, HELZ2  -  helicase with zinc finger 2, transcriptional coactivator, APRT  -  adenine phosphoribosyltransferase, DCLK3  -  doublecortin-like kinase 3, ERCC6L  -  excision repair cross-complementing rodent repair deficiency, complementation group 6-like, TRPM7  -  transient receptor potential cation channel, subfamily m, member 7, PMS2  -  pms2 postmeiotic segregation increased 2 (s. cerevisiae), ABCC6  -  atp-binding cassette, sub-family c (cftr/mrp), member 6, CCT7  -  chaperonin containing tcp1, subunit 7 (eta), CCT4  -  chaperonin containing tcp1, subunit 4 (delta), CCT2  -  chaperonin containing tcp1, subunit 2 (beta), MTHFS  -  5,10-methenyltetrahydrofolate synthetase (5-formyltetrahydrofolate cyclo-ligase), GRK4  -  g protein-coupled receptor kinase 4, GRK5  -  g protein-coupled receptor kinase 5, PINK1  -  pten induced putative kinase 1, GRK6  -  g protein-coupled receptor kinase 6, EIF2AK1  -  eukaryotic translation initiation factor 2-alpha kinase 1, CDK15  -  cyclin-dependent kinase 15, SHPRH  -  snf2 histone linker phd ring helicase, e3 ubiquitin protein ligase, GLRA3  -  glycine receptor, alpha 3, SNRK  -  snf related kinase, SMC1B  -  structural maintenance of chromosomes 1b, CUBN  -  cubilin (intrinsic factor-cobalamin receptor), HSPA12A  -  heat shock 70kda protein 12a, WNK1  -  wnk lysine deficient protein kinase 1, STK36  -  serine/threonine kinase 36, NADK  -  nad kinase, GRIN1  -  glutamate receptor, ionotropic, n-methyl d-aspartate 1, GRIN2B  -  glutamate receptor, ionotropic, n-methyl d-aspartate 2b, NAV3  -  neuron navigator 3, PPARA  -  peroxisome proliferator-activated receptor alpha, PPARD  -  peroxisome proliferator-activated receptor delta, NAV2  -  neuron navigator 2, UBE2Z  -  ubiquitin-conjugating enzyme e2z, ABCC10  -  atp-binding cassette, sub-family c (cftr/mrp), member 10, ASNS  -  asparagine synthetase (glutamine-hydrolyzing), PPID  -  peptidylprolyl isomerase d, CAMKK2  -  calcium/calmodulin-dependent protein kinase kinase 2, beta, ASS1  -  argininosuccinate synthase 1, VPS4A  -  vacuolar protein sorting 4 homolog a (s. cerevisiae), AACS  -  acetoacetyl-coa synthetase, GSK3B  -  glycogen synthase kinase 3 beta, GSS  -  glutathione synthetase, FARS2  -  phenylalanyl-trna synthetase 2, mitochondrial, ATM  -  ataxia telangiectasia mutated, CHID1  -  chitinase domain containing 1, MAGI3  -  membrane associated guanylate kinase, ww and pdz domain containing 3, NMRK2  -  nicotinamide riboside kinase 2, GNMT  -  glycine n-methyltransferase, ATP1A1  -  atpase, na+/k+ transporting, alpha 1 polypeptide, DPH6  -  diphthamine biosynthesis 6, ATP12A  -  atpase, h+/k+ transporting, nongastric, alpha polypeptide, MSH6  -  muts homolog 6 (e. coli), GTF2F2  -  general transcription factor iif, polypeptide 2, 30kda, ATP2A3  -  atpase, ca++ transporting, ubiquitous, PPP3CA  -  protein phosphatase 3, catalytic subunit, alpha isozyme, ATP2B1  -  atpase, ca++ transporting, plasma membrane 1, CCT8  -  chaperonin containing tcp1, subunit 8 (theta), ATP2B4  -  atpase, ca++ transporting, plasma membrane 4, PPP3R1  -  protein phosphatase 3, regulatory subunit b, alpha, CAMKV  -  cam kinase-like vesicle-associated, POLQ  -  polymerase (dna directed), theta, UCKL1  -  uridine-cytidine kinase 1-like 1, YME1L1  -  yme1-like 1 atpase, GUCY2C  -  guanylate cyclase 2c (heat stable enterotoxin receptor), GUCY2F  -  guanylate cyclase 2f, retinal, GUK1  -  guanylate kinase 1, MKKS  -  mckusick-kaufman syndrome, ATP6V1A  -  atpase, h+ transporting, lysosomal 70kda, v1 subunit a, SPATA5L1  -  spermatogenesis associated 5-like 1, TTBK2  -  tau tubulin kinase 2, KIF7  -  kinesin family member 7, ATP6AP1  -  atpase, h+ transporting, lysosomal accessory protein 1, ATP7A  -  atpase, cu++ transporting, alpha polypeptide, PRKACB  -  protein kinase, camp-dependent, catalytic, beta, DDX54  -  dead (asp-glu-ala-asp) box polypeptide 54, MAP3K2  -  mitogen-activated protein kinase kinase kinase 2, ATP7B  -  atpase, cu++ transporting, beta polypeptide, ULK4  -  unc-51 like kinase 4, ATR  -  ataxia telangiectasia and rad3 related, SYN3  -  synapsin iii, ATRX  -  alpha thalassemia/mental retardation syndrome x-linked, KIF1A  -  kinesin family member 1a, ATP9B  -  atpase, class ii, type 9b, PRKCA  -  protein kinase c, alpha, PRKCB  -  protein kinase c, beta, PRKCD  -  protein kinase c, delta, PRKCE  -  protein kinase c, epsilon, RPS6KA6  -  ribosomal protein s6 kinase, 90kda, polypeptide 6, PRKCH  -  protein kinase c, eta, PKN2  -  protein kinase n2, PRKCQ  -  protein kinase c, theta, PRKCZ  -  protein kinase c, zeta, PRKDC  -  protein kinase, dna-activated, catalytic polypeptide, PRKG1  -  protein kinase, cgmp-dependent, type i, MAPK1  -  mitogen-activated protein kinase 1, MAPK6  -  mitogen-activated protein kinase 6, TOR1B  -  torsin family 1, member b (torsin b), NEK6  -  nima-related kinase 6, MAPK8  -  mitogen-activated protein kinase 8, MAPK11  -  mitogen-activated protein kinase 11, MAPK9  -  mitogen-activated protein kinase 9, MAPK10  -  mitogen-activated protein kinase 10, MAPK13  -  mitogen-activated protein kinase 13, MAP2K1  -  mitogen-activated protein kinase kinase 1, TOR2A  -  torsin family 2, member a, HBB  -  hemoglobin, beta, MAP2K6  -  mitogen-activated protein kinase kinase 6, EIF2AK2  -  eukaryotic translation initiation factor 2-alpha kinase 2, MOCOS  -  molybdenum cofactor sulfurase, DHX58  -  dexh (asp-glu-x-his) box polypeptide 58, HCK  -  hemopoietic cell kinase, HSPH1  -  heat shock 105kda/110kda protein 1, CDC7  -  cell division cycle 7, BCR  -  breakpoint cluster region, BCS1L  -  bc1 (ubiquinol-cytochrome c reductase) synthesis-like, HDC  -  histidine decarboxylase, PRPS1  -  phosphoribosyl pyrophosphate synthetase 1, PRPS2  -  phosphoribosyl pyrophosphate synthetase 2, ADCK2  -  aarf domain containing kinase 2, BLK  -  b lymphoid tyrosine kinase, DHX57  -  deah (asp-glu-ala-asp/his) box polypeptide 57, BLM  -  bloom syndrome, recq helicase-like, FTCD  -  formimidoyltransferase cyclodeaminase, CLPX  -  clpx caseinolytic peptidase x homolog (e. coli), HK2  -  hexokinase 2, ENTPD8  -  ectonucleoside triphosphate diphosphohydrolase 8, BMPR1A  -  bone morphogenetic protein receptor, type ia, PSKH1  -  protein serine kinase h1, BMPR2  -  bone morphogenetic protein receptor, type ii (serine/threonine kinase), BRAF  -  v-raf murine sarcoma viral oncogene homolog b, PSMC1  -  proteasome (prosome, macropain) 26s subunit, atpase, 1, PSMC2  -  proteasome (prosome, macropain) 26s subunit, atpase, 2, PSMC3  -  proteasome (prosome, macropain) 26s subunit, atpase, 3, PSMC5  -  proteasome (prosome, macropain) 26s subunit, atpase, 5, FIGN  -  fidgetin, HLCS  -  holocarboxylase synthetase (biotin-(proprionyl-coa-carboxylase (atp-hydrolysing)) ligase), PIP4K2B  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, beta, BTK  -  bruton agammaglobulinemia tyrosine kinase, PKDCC  -  protein kinase domain containing, cytoplasmic, BUB1  -  bub1 mitotic checkpoint serine/threonine kinase, MTPAP  -  mitochondrial poly(a) polymerase, BUB1B  -  bub1 mitotic checkpoint serine/threonine kinase b, ULK1  -  unc-51 like autophagy activating kinase 1, DARS2  -  aspartyl-trna synthetase 2, mitochondrial, PAPOLA  -  poly(a) polymerase alpha, ATP8B3  -  atpase, aminophospholipid transporter, class i, type 8b, member 3, TDRD12  -  tudor domain containing 12, RAD54L  -  rad54-like (s. cerevisiae), PTK2  -  protein tyrosine kinase 2, DYRK3  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 3, DYRK2  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 2, PTK7  -  protein tyrosine kinase 7, TWF1  -  twinfilin actin-binding protein 1, HNRNPU  -  heterogeneous nuclear ribonucleoprotein u (scaffold attachment factor a), MPPED2  -  metallophosphoesterase domain containing 2, NEK9  -  nima-related kinase 9, NADSYN1  -  nad synthetase 1, TTF2  -  transcription termination factor, rna polymerase ii, MYLK3  -  myosin light chain kinase 3, CDC42BPA  -  cdc42 binding protein kinase alpha (dmpk-like), KSR2  -  kinase suppressor of ras 2, CACNA1B  -  calcium channel, voltage-dependent, n type, alpha 1b subunit, GATC  -  glutamyl-trna(gln) amidotransferase, subunit c, ASCC3  -  activating signal cointegrator 1 complex subunit 3, MAP4K3  -  mitogen-activated protein kinase kinase kinase kinase 3, ETNK2  -  ethanolamine kinase 2, NAT10  -  n-acetyltransferase 10 (gcn5-related), PANK4  -  pantothenate kinase 4, ATP13A3  -  atpase type 13a3, PDIK1L  -  pdlim1 interacting kinase 1 like, UBA6  -  ubiquitin-like modifier activating enzyme 6, CALCR  -  calcitonin receptor, CARS2  -  cysteinyl-trna synthetase 2, mitochondrial (putative), ABCD4  -  atp-binding cassette, sub-family d (ald), member 4, KIF2C  -  kinesin family member 2c, ALDH18A1  -  aldehyde dehydrogenase 18 family, member a1, TLK2  -  tousled-like kinase 2, STRADA  -  ste20-related kinase adaptor alpha, CAMK4  -  calcium/calmodulin-dependent protein kinase iv, PYGB  -  phosphorylase, glycogen; brain, CAMK2A  -  calcium/calmodulin-dependent protein kinase ii alpha, DGKZ  -  diacylglycerol kinase, zeta, CAMK2D  -  calcium/calmodulin-dependent protein kinase ii delta, DGKE  -  diacylglycerol kinase, epsilon 64kda, CAMK2G  -  calcium/calmodulin-dependent protein kinase ii gamma, DGKD  -  diacylglycerol kinase, delta 130kda, THNSL2  -  threonine synthase-like 2 (s. cerevisiae), ACSS3  -  acyl-coa synthetase short-chain family member 3, CARS  -  cysteinyl-trna synthetase, QRSL1  -  glutaminyl-trna synthase (glutamine-hydrolyzing)-like 1, PIM3  -  pim-3 oncogene, UBE2W  -  ubiquitin-conjugating enzyme e2w (putative), MAPKAPK5  -  mitogen-activated protein kinase-activated protein kinase 5, DNAJA1  -  dnaj (hsp40) homolog, subfamily a, member 1, RAD51  -  rad51 recombinase, RAD51C  -  rad51 paralog c, PANK3  -  pantothenate kinase 3, HSPA4  -  heat shock 70kda protein 4, CDK10  -  cyclin-dependent kinase 10, RAD51D  -  rad51 paralog d, DDX52  -  dead (asp-glu-ala-asp) box polypeptide 52, RUNX2  -  runt-related transcription factor 2, RAF1  -  v-raf-1 murine leukemia viral oncogene homolog 1, RUNX1  -  runt-related transcription factor 1, HSPA8  -  heat shock 70kda protein 8, HELB  -  helicase (dna) b, HSPA9  -  heat shock 70kda protein 9 (mortalin), PI4K2B  -  phosphatidylinositol 4-kinase type 2 beta, PDXK  -  pyridoxal (pyridoxine, vitamin b6) kinase, SPTLC3  -  serine palmitoyltransferase, long chain base subunit 3, MKNK1  -  map kinase interacting serine/threonine kinase 1, DYNC2H1  -  dynein, cytoplasmic 2, heavy chain 1, UBE2Q2  -  ubiquitin-conjugating enzyme e2q family member 2, CASK  -  calcium/calmodulin-dependent serine protein kinase (maguk family), MARS2  -  methionyl-trna synthetase 2, mitochondrial, DHX40  -  deah (asp-glu-ala-his) box polypeptide 40, HSPD1  -  heat shock 60kda protein 1 (chaperonin), STK16  -  serine/threonine kinase 16, CBS  -  cystathionine-beta-synthase, NLRX1  -  nlr family member x1, TTL  -  tubulin tyrosine ligase, ABCF3  -  atp-binding cassette, sub-family f (gcn20), member 3, SMC6  -  structural maintenance of chromosomes 6, HTR2A  -  5-hydroxytryptamine (serotonin) receptor 2a, g protein-coupled, RUVBL1  -  ruvb-like 1 (e. coli), HTR2C  -  5-hydroxytryptamine (serotonin) receptor 2c, g protein-coupled, CCT6A  -  chaperonin containing tcp1, subunit 6a (zeta 1), KATNA1  -  katanin p60 (atpase containing) subunit a 1, CDK13  -  cyclin-dependent kinase 13, CIT  -  citron (rho-interacting, serine/threonine kinase 21), LRRK1  -  leucine-rich repeat kinase 1, NOL9  -  nucleolar protein 9, IARS  -  isoleucyl-trna synthetase, DNAH17  -  dynein, axonemal, heavy chain 17, KIF3A  -  kinesin family member 3a, RECQL  -  recq protein-like (dna helicase q1-like), TBCK  -  tbc1 domain containing kinase, ABCB11  -  atp-binding cassette, sub-family b (mdr/tap), member 11, NARS2  -  asparaginyl-trna synthetase 2, mitochondrial (putative), DMC1  -  dna meiotic recombinase 1, UPF1  -  upf1 regulator of nonsense transcripts homolog (yeast), BBS10  -  bardet-biedl syndrome 10, RET  -  ret proto-oncogene, TTLL7  -  tubulin tyrosine ligase-like family, member 7, RFC1  -  replication factor c (activator 1) 1, 145kda, RFC2  -  replication factor c (activator 1) 2, 40kda, STRADB  -  ste20-related kinase adaptor beta, FICD  -  fic domain containing, RFC4  -  replication factor c (activator 1) 4, 37kda, ENTPD1  -  ectonucleoside triphosphate diphosphohydrolase 1, ENTPD2  -  ectonucleoside triphosphate diphosphohydrolase 2, IDE  -  insulin-degrading enzyme, ADGB  -  androglobin, ENTPD3  -  ectonucleoside triphosphate diphosphohydrolase 3, NEK8  -  nima-related kinase 8, DNAJA4  -  dnaj (hsp40) homolog, subfamily a, member 4, EIF2AK4  -  eukaryotic translation initiation factor 2 alpha kinase 4, ETNK1  -  ethanolamine kinase 1, DDX43  -  dead (asp-glu-ala-asp) box polypeptide 43, MAP4K5  -  mitogen-activated protein kinase kinase kinase kinase 5, DNAH11  -  dynein, axonemal, heavy chain 11, ABCC3  -  atp-binding cassette, sub-family c (cftr/mrp), member 3, CHEK2  -  checkpoint kinase 2, DNAH3  -  dynein, axonemal, heavy chain 3, SBK1  -  sh3-binding domain kinase 1, RNASEL  -  ribonuclease l (2',5'-oligoisoadenylate synthetase-dependent), NEK10  -  nima-related kinase 10, DDX20  -  dead (asp-glu-ala-asp) box polypeptide 20, UBE2Q1  -  ubiquitin-conjugating enzyme e2q family member 1, CDK3  -  cyclin-dependent kinase 3, BMP2K  -  bmp2 inducible kinase, CDK5  -  cyclin-dependent kinase 5, RIPK1  -  receptor (tnfrsf)-interacting serine-threonine kinase 1, CDK6  -  cyclin-dependent kinase 6, ABCE1  -  atp-binding cassette, sub-family e (oabp), member 1, CDK8  -  cyclin-dependent kinase 8, CDK9  -  cyclin-dependent kinase 9, KIF21A  -  kinesin family member 21a, IGHMBP2  -  immunoglobulin mu binding protein 2, KIF16B  -  kinesin family member 16b, RIPK2  -  receptor-interacting serine-threonine kinase 2, RIOK3  -  rio kinase 3, ROCK1  -  rho-associated, coiled-coil containing protein kinase 1, CENPE  -  centromere protein e, 312kda, ROS1  -  c-ros oncogene 1 , receptor tyrosine kinase, CHD7  -  chromodomain helicase dna binding protein 7, UBA5  -  ubiquitin-like modifier activating enzyme 5, DCAKD  -  dephospho-coa kinase domain containing, IKBKB  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase beta, CFTR  -  cystic fibrosis transmembrane conductance regulator (atp-binding cassette sub-family c, member 7), SUCLG2  -  succinate-coa ligase, gdp-forming, beta subunit, SUCLA2  -  succinate-coa ligase, adp-forming, beta subunit, PARK7  -  parkinson protein 7, DDX27  -  dead (asp-glu-ala-asp) box polypeptide 27, DDX42  -  dead (asp-glu-ala-asp) box helicase 42, CDKL1  -  cyclin-dependent kinase-like 1 (cdc2-related kinase), CHD2  -  chromodomain helicase dna binding protein 2, SCYL2  -  scy1-like 2 (s. cerevisiae), ATAD5  -  atpase family, aaa domain containing 5, CHD4  -  chromodomain helicase dna binding protein 4, TRMU  -  trna 5-methylaminomethyl-2-thiouridylate methyltransferase, TWF2  -  twinfilin actin-binding protein 2, GMPS  -  guanine monphosphate synthase, KIF12  -  kinesin family member 12, SLC46A1  -  solute carrier family 46 (folate transporter), member 1, CHKA  -  choline kinase alpha, IARS2  -  isoleucyl-trna synthetase 2, mitochondrial, KSR1  -  kinase suppressor of ras 1, ABCA13  -  atp-binding cassette, sub-family a (abc1), member 13, CHRM3  -  cholinergic receptor, muscarinic 3, HELQ  -  helicase, polq-like, CHRNA1  -  cholinergic receptor, nicotinic, alpha 1 (muscle), CHRNA3  -  cholinergic receptor, nicotinic, alpha 3 (neuronal), SDSL  -  serine dehydratase-like, HSPA4L  -  heat shock 70kda protein 4-like, CHRND  -  cholinergic receptor, nicotinic, delta (muscle), N4BP2  -  nedd4 binding protein 2, CKB  -  creatine kinase, brain, RPS6KA2  -  ribosomal protein s6 kinase, 90kda, polypeptide 2, RPS6KA3  -  ribosomal protein s6 kinase, 90kda, polypeptide 3, RPS6KB1  -  ribosomal protein s6 kinase, 70kda, polypeptide 1, RPS6KB2  -  ribosomal protein s6 kinase, 70kda, polypeptide 2, SGPL1  -  sphingosine-1-phosphate lyase 1, DDX18  -  dead (asp-glu-ala-asp) box polypeptide 18, AAK1  -  ap2 associated kinase 1, LMTK2  -  lemur tyrosine kinase 2, AGK  -  acylglycerol kinase, IRAK2  -  interleukin-1 receptor-associated kinase 2, CLCN3  -  chloride channel, voltage-sensitive 3, CLCN4  -  chloride channel, voltage-sensitive 4, PRPF4B  -  prp4 pre-mrna processing factor 4 homolog b (yeast), CLCN5  -  chloride channel, voltage-sensitive 5, CLCN6  -  chloride channel, voltage-sensitive 6, CLCN7  -  chloride channel, voltage-sensitive 7, DHX32  -  deah (asp-glu-ala-his) box polypeptide 32, CLK2  -  cdc-like kinase 2, CLK3  -  cdc-like kinase 3, RRM1  -  ribonucleotide reductase m1, MORC2  -  morc family cw-type zinc finger 2, PANK2  -  pantothenate kinase 2, MCMDC2  -  minichromosome maintenance domain containing 2, CYGB  -  cytoglobin, RYR2  -  ryanodine receptor 2 (cardiac), KYNU  -  kynureninase, EPHA6  -  eph receptor a6, ITK  -  il2-inducible t-cell kinase, ABCC2  -  atp-binding cassette, sub-family c (cftr/mrp), member 2, DHX30  -  deah (asp-glu-ala-his) box helicase 30, ITPK1  -  inositol-tetrakisphosphate 1-kinase, ITPKA  -  inositol-trisphosphate 3-kinase a, ITPKB  -  inositol-trisphosphate 3-kinase b, AK8  -  adenylate kinase 8, PIF1  -  pif1 5'-to-3' dna helicase, MAP3K19  -  mitogen-activated protein kinase kinase kinase 19, TTLL11  -  tubulin tyrosine ligase-like family, member 11, JAK1  -  janus kinase 1, KALRN  -  kalirin, rhogef kinase, SEPHS1  -  selenophosphate synthetase 1, CNR1  -  cannabinoid receptor 1 (brain), CDKL2  -  cyclin-dependent kinase-like 2 (cdc2-related kinase), ACSM3  -  acyl-coa synthetase medium-chain family member 3, MAPK12  -  mitogen-activated protein kinase 12, MAP3K14  -  mitogen-activated protein kinase kinase kinase 14, BRSK2  -  br serine/threonine kinase 2, CCT5  -  chaperonin containing tcp1, subunit 5 (epsilon), BAZ1B  -  bromodomain adjacent to zinc finger domain, 1b, UBA3  -  ubiquitin-like modifier activating enzyme 3, MYO19  -  myosin xix, KCNJ1  -  potassium inwardly-rectifying channel, subfamily j, member 1, BTAF1  -  btaf1 rna polymerase ii, b-tfiid transcription factor-associated, 170kda, SCN8A  -  sodium channel, voltage gated, type viii, alpha subunit, KCNJ8  -  potassium inwardly-rectifying channel, subfamily j, member 8, HKDC1  -  hexokinase domain containing 1, CHD9  -  chromodomain helicase dna binding protein 9, MB21D1  -  mab-21 domain containing 1, PAPSS1  -  3'-phosphoadenosine 5'-phosphosulfate synthase 1, MAP3K6  -  mitogen-activated protein kinase kinase kinase 6, ALPK1  -  alpha-kinase 1, MAP3K8  -  mitogen-activated protein kinase kinase kinase 8, STK38L  -  serine/threonine kinase 38 like, ACSS2  -  acyl-coa synthetase short-chain family member 2, KDR  -  kinase insert domain receptor (a type iii receptor tyrosine kinase), KIF2A  -  kinesin heavy chain member 2a, KIF3C  -  kinesin family member 3c, LANCL2  -  lanc lantibiotic synthetase component c-like 2 (bacterial), KIF5B  -  kinesin family member 5b, KIF5C  -  kinesin family member 5c, KIFC3  -  kinesin family member c3, MYO16  -  myosin xvi, DNAJA3  -  dnaj (hsp40) homolog, subfamily a, member 3, MAST3  -  microtubule associated serine/threonine kinase 3, MYO5C  -  myosin vc, MAP3K15  -  mitogen-activated protein kinase kinase kinase 15, KIT  -  v-kit hardy-zuckerman 4 feline sarcoma viral oncogene homolog, PDXDC1  -  pyridoxal-dependent decarboxylase domain containing 1, TNIK  -  traf2 and nck interacting kinase, KIF21B  -  kinesin family member 21b, LATS1  -  large tumor suppressor kinase 1, SMG1  -  smg1 phosphatidylinositol 3-kinase-related kinase, CPS1  -  carbamoyl-phosphate synthase 1, mitochondrial, DGKH  -  diacylglycerol kinase, eta, KIF11  -  kinesin family member 11, NMNAT2  -  nicotinamide nucleotide adenylyltransferase 2, KIF25  -  kinesin family member 25, SMC3  -  structural maintenance of chromosomes 3, P2RX6  -  purinergic receptor p2x, ligand-gated ion channel, 6, SETX  -  senataxin, METTL5  -  methyltransferase like 5, UBE2T  -  ubiquitin-conjugating enzyme e2t (putative), SWAP70  -  swap switching b-cell complex 70kda subunit, VWA8  -  von willebrand factor a domain containing 8, COASY  -  coa synthase, N6AMT1  -  n-6 adenine-specific dna methyltransferase 1 (putative), TTLL5  -  tubulin tyrosine ligase-like family, member 5, KIF1B  -  kinesin family member 1b, TBK1  -  tank-binding kinase 1, DGKI  -  diacylglycerol kinase, iota, SGK1  -  serum/glucocorticoid regulated kinase 1, CUL9  -  cullin 9, MAP3K13  -  mitogen-activated protein kinase kinase kinase 13, MAPK14  -  mitogen-activated protein kinase 14, ATP10B  -  atpase, class v, type 10b, AARSD1  -  alanyl-trna synthetase domain containing 1, RAD54L2  -  rad54-like 2 (s. cerevisiae), TEX14  -  testis expressed 14, SHMT1  -  serine hydroxymethyltransferase 1 (soluble), CSK  -  c-src tyrosine kinase, MAST2  -  microtubule associated serine/threonine kinase 2, DCLK1  -  doublecortin-like kinase 1, CSNK1A1  -  casein kinase 1, alpha 1, HSPA12B  -  heat shock 70kd protein 12b, CSNK1E  -  casein kinase 1, epsilon, OLA1  -  obg-like atpase 1, CSNK1G2  -  casein kinase 1, gamma 2, STK31  -  serine/threonine kinase 31, CSNK2A1  -  casein kinase 2, alpha 1 polypeptide, DNAH7  -  dynein, axonemal, heavy chain 7, XPR1  -  xenotropic and polytropic retrovirus receptor 1, MAGI1  -  membrane associated guanylate kinase, ww and pdz domain containing 1, TTLL12  -  tubulin tyrosine ligase-like family, member 12, PASK  -  pas domain containing serine/threonine kinase, EEF2K  -  eukaryotic elongation factor-2 kinase, HFM1  -  hfm1, atp-dependent dna helicase homolog (s. cerevisiae), CTH  -  cystathionase (cystathionine gamma-lyase), RPS6KA5  -  ribosomal protein s6 kinase, 90kda, polypeptide 5, LIG3  -  ligase iii, dna, atp-dependent, LIG4  -  ligase iv, dna, atp-dependent, TTLL9  -  tubulin tyrosine ligase-like family, member 9, MAPKAPK2  -  mitogen-activated protein kinase-activated protein kinase 2, MDN1  -  mdn1, midasin homolog (yeast), NME7  -  nme/nm23 family member 7, PRMT8  -  protein arginine methyltransferase 8, STK17A  -  serine/threonine kinase 17a, LIMK2  -  lim domain kinase 2, CTPS2  -  ctp synthase 2, SLC6A4  -  solute carrier family 6 (neurotransmitter transporter), member 4, ATP11B  -  atpase, class vi, type 11b, IP6K3  -  inositol hexakisphosphate kinase 3, ACSBG1  -  acyl-coa synthetase bubblegum family member 1, ATP11C  -  atpase, class vi, type 11c, SBK2  -  sh3-binding domain kinase family, member 2, BBS12  -  bardet-biedl syndrome 12, DCLK2  -  doublecortin-like kinase 2, NRBP1  -  nuclear receptor binding protein 1, SIK2  -  salt-inducible kinase 2, CYP1B1  -  cytochrome p450, family 1, subfamily b, polypeptide 1, SLC19A1  -  solute carrier family 19 (folate transporter), member 1, TRIP13  -  thyroid hormone receptor interactor 13, ATP11A  -  atpase, class vi, type 11a, SLC22A4  -  solute carrier family 22 (organic cation/zwitterion transporter), member 4, CYP4B1  -  cytochrome p450, family 4, subfamily b, polypeptide 1, CYP8B1  -  cytochrome p450, family 8, subfamily b, polypeptide 1, CYP17A1  -  cytochrome p450, family 17, subfamily a, polypeptide 1, CYP19A1  -  cytochrome p450, family 19, subfamily a, polypeptide 1, PPIG  -  peptidylprolyl isomerase g (cyclophilin g), LONP1  -  lon peptidase 1, mitochondrial, WRNIP1  -  werner helicase interacting protein 1, DGKB  -  diacylglycerol kinase, beta 90kda, KIF3B  -  kinesin family member 3b, KIF13B  -  kinesin family member 13b, EHD4  -  eh-domain containing 4, EHD3  -  eh-domain containing 3, ACSL6  -  acyl-coa synthetase long-chain family member 6, PIK3R4  -  phosphoinositide-3-kinase, regulatory subunit 4, SMARCAD1  -  swi/snf-related, matrix-associated actin-dependent regulator of chromatin, subfamily a, containing dead/h box 1, DHX33  -  deah (asp-glu-ala-his) box polypeptide 33, MCCC1  -  methylcrotonoyl-coa carboxylase 1 (alpha), PAK6  -  p21 protein (cdc42/rac)-activated kinase 6, SMARCAL1  -  swi/snf related, matrix associated, actin dependent regulator of chromatin, subfamily a-like 1, SOD2  -  superoxide dismutase 2, mitochondrial, RECQL5  -  recq protein-like 5, DHX36  -  deah (asp-glu-ala-his) box polypeptide 36, DDX51  -  dead (asp-glu-ala-asp) box polypeptide 51, MAK  -  male germ cell-associated kinase, NOX4  -  nadph oxidase 4, LRRK2  -  leucine-rich repeat kinase 2, DDC  -  dopa decarboxylase (aromatic l-amino acid decarboxylase), SMCHD1  -  structural maintenance of chromosomes flexible hinge domain containing 1, DDX1  -  dead (asp-glu-ala-asp) box helicase 1, DDX3X  -  dead (asp-glu-ala-asp) box helicase 3, x-linked, DDX5  -  dead (asp-glu-ala-asp) box helicase 5, MARK1  -  map/microtubule affinity-regulating kinase 1, DHX8  -  deah (asp-glu-ala-his) box polypeptide 8, MARK3  -  map/microtubule affinity-regulating kinase 3, DDX10  -  dead (asp-glu-ala-asp) box polypeptide 10, MAT1A  -  methionine adenosyltransferase i, alpha, DDX11  -  dead/h (asp-glu-ala-asp/his) box helicase 11, DHX15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -  deah (asp-glu-ala-his) box helicase 15, ABCG2  -  atp-binding cassette, sub-family g (white), member 2, PNPLA8  -  patatin-like phospholipase domain containing 8, SPAST  -  spastin, FAM20C  -  family with sequence similarity 20, member c, SPG7  -  spastic paraplegia 7 (pure and complicated autosomal recessive), MB  -  myoglobin, ITM2B  -  integral membrane protein 2b, KIF15  -  kinesin family member 15, EIF2AK3  -  eukaryotic translation initiation factor 2-alpha kinase 3, SIK3  -  sik family kinase 3, MCM2  -  minichromosome maintenance complex component 2, MCM3  -  minichromosome maintenance complex component 3, MCM4  -  minichromosome maintenance complex component 4, MCM5  -  minichromosome maintenance complex component 5, LARS2  -  leucyl-trna synthetase 2, mitochondrial, PIP5K1C  -  phosphatidylinositol-4-phosphate 5-kinase, type i, gamma, ATP13A2  -  atpase type 13a2, SRC  -  v-src avian sarcoma (schmidt-ruppin a-2) viral oncogene homolog, DICER1  -  dicer 1, ribonuclease type iii, CYB5R3  -  cytochrome b5 reductase 3, ROCK2  -  rho-associated, coiled-coil containing protein kinase 2, TDRD9  -  tudor domain containing 9, SRMS  -  src-related kinase lacking c-terminal regulatory tyrosine and n-terminal myristylation sites, RARS2  -  arginyl-trna synthetase 2, mitochondrial, AK7  -  adenylate kinase 7, PGS1  -  phosphatidylglycerophosphate synthase 1, SRPK1  -  srsf protein kinase 1, SRPK2  -  srsf protein kinase 2, KIF23  -  kinesin family member 23, MAP3K3  -  mitogen-activated protein kinase kinase kinase 3, MAP3K4  -  mitogen-activated protein kinase kinase kinase 4, DDX24  -  dead (asp-glu-ala-asp) box helicase 24, DNA2  -  dna replication helicase/nuclease 2, MET  -  met proto-oncogene, DNAH5  -  dynein, axonemal, heavy chain 5, SPTLC2  -  serine palmitoyltransferase, long chain base subunit 2, DNAH8  -  dynein, axonemal, heavy chain 8, DNAH9  -  dynein, axonemal, heavy chain 9, ABCB10  -  atp-binding cassette, sub-family b (mdr/tap), member 10, ABCB9  -  atp-binding cassette, sub-family b (mdr/tap), member 9, VPS4B  -  vacuolar protein sorting 4 homolog b (s. cerevisiae), DYNC1H1  -  dynein, cytoplasmic 1, heavy chain 1, ABCA6  -  atp-binding cassette, sub-family a (abc1), member 6, ABCA5  -  atp-binding cassette, sub-family a (abc1), member 5, DYNC1LI2  -  dynein, cytoplasmic 1, light intermediate chain 2, GCAT  -  glycine c-acetyltransferase, CAMK1D  -  calcium/calmodulin-dependent protein kinase id, CIITA  -  class ii, major histocompatibility complex, transactivator, NUAK2  -  nuak family, snf1-like kinase, 2, MMAB  -  methylmalonic aciduria (cobalamin deficiency) cblb type, HSPA13  -  heat shock protein 70kda family, member 13, NEK4  -  nima-related kinase 4, STK3  -  serine/threonine kinase 3, STK4  -  serine/threonine kinase 4, DPYD  -  dihydropyrimidine dehydrogenase, DPYS  -  dihydropyrimidinase, CDKL5  -  cyclin-dependent kinase-like 5, STK10  -  serine/threonine kinase 10, STK11  -  serine/threonine kinase 11, CHD1L  -  chromodomain helicase dna binding protein 1-like, ADCK1  -  aarf domain containing kinase 1, PAK7  -  p21 protein (cdc42/rac)-activated kinase 7, DRD1  -  dopamine receptor d1, DRD2  -  dopamine receptor d2, MKI67  -  antigen identified by monoclonal antibody ki-67, SCYL3  -  scy1-like 3 (s. cerevisiae), DRD4  -  dopamine receptor d4, MLH1  -  mutl homolog 1, colon cancer, nonpolyposis type 2 (e. coli), MAP3K9  -  mitogen-activated protein kinase kinase kinase 9, KIF20B  -  kinesin family member 20b, SUPV3L1  -  suppressor of var1, 3-like 1 (s. cerevisiae), CAMK1G  -  calcium/calmodulin-dependent protein kinase ig, EARS2  -  glutamyl-trna synthetase 2, mitochondrial, ABCC8  -  atp-binding cassette, sub-family c (cftr/mrp), member 8, DNAH10  -  dynein, axonemal, heavy chain 10, ACTR3B  -  arp3 actin-related protein 3 homolog b (yeast), KIF18A  -  kinesin family member 18a, TNNI3K  -  tnni3 interacting kinase, SYN2  -  synapsin ii, ATP10A  -  atpase, class v, type 10a, ATP8B2  -  atpase, aminophospholipid transporter, class i, type 8b, member 2, ATP10D  -  atpase, class v, type 10d, ABCG1  -  atp-binding cassette, sub-family g (white), member 1, DYRK1A  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 1a, TRNT1  -  trna nucleotidyl transferase, cca-adding, 1, MOS  -  v-mos moloney murine sarcoma viral oncogene homolog, MOV10  -  mov10, moloney leukemia virus 10, homolog (mouse), TAF1  -  taf1 rna polymerase ii, tata box binding protein (tbp)-associated factor, 250kda, SUV420H1  -  suppressor of variegation 4-20 homolog 1 (drosophila), ABCC1  -  atp-binding cassette, sub-family c (cftr/mrp), member 1, MLKL  -  mixed lineage kinase domain-like, IKBKE  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase epsilon, DDX59  -  dead (asp-glu-ala-asp) box polypeptide 59, ACSF3  -  acyl-coa synthetase family member 3, MAP3K7  -  mitogen-activated protein kinase kinase kinase 7, NLRC3  -  nlr family, card domain containing 3, TTLL4  -  tubulin tyrosine ligase-like family, member 4, UCK1  -  uridine-cytidine kinase 1, TAT  -  tyrosine aminotransferase, IRAK4  -  interleukin-1 receptor-associated kinase 4, CLK4  -  cdc-like kinase 4, DYNC1LI1  -  dynein, cytoplasmic 1, light intermediate chain 1, PPIP5K1  -  diphosphoinositol pentakisphosphate kinase 1, SPO11  -  spo11 meiotic protein covalently bound to dsb, MYO1B  -  myosin ib, AADAT  -  aminoadipate aminotransferase, MYO15A  -  myosin xva, MSH2  -  muts homolog 2, colon cancer, nonpolyposis type 1 (e. coli), MSH4  -  muts homolog 4 (e. coli), MSH5  -  muts homolog 5 (e. coli), HSPA14  -  heat shock 70kda protein 14, EPHA2  -  eph receptor a2, ULK2  -  unc-51 like autophagy activating kinase 2, TCP1  -  t-complex 1, AQR  -  aquarius homolog (mouse), EIF4G1  -  eukaryotic translation initiation factor 4 gamma, 1, DDX47  -  dead (asp-glu-ala-asp) box polypeptide 47, RIOK1  -  rio kinase 1, PIKFYVE  -  phosphoinositide kinase, fyve finger containing, SGK3  -  serum/glucocorticoid regulated kinase family, member 3, VPRBP  -  vpr (hiv-1) binding protein, RIMKLB  -  ribosomal modification protein rimk-like family member b, LONP2  -  lon peptidase 2, peroxisomal, AARS2  -  alanyl-trna synthetase 2, mitochondrial, MTHFD1  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1, methenyltetrahydrofolate cyclohydrolase, formyltetrahydrofolate synthetase, VRK3  -  vaccinia related kinase 3, SLK  -  ste20-like kinase, STARD9  -  star-related lipid transfer (start) domain containing 9, SHPK  -  sedoheptulokinase, WEE2  -  wee1 homolog 2 (s. pombe), TDG  -  thymine-dna glycosylase, MTR  -  5-methyltetrahydrofolate-homocysteine methyltransferase, TDO2  -  tryptophan 2,3-dioxygenase, ALPK3  -  alpha-kinase 3, EPB42  -  erythrocyte membrane protein band 4.2, EIF4A3  -  eukaryotic translation initiation factor 4a3, EPHA1  -  eph receptor a1, EPHA3  -  eph receptor a3, EPHA4  -  eph receptor a4, KIAA0232  -  kiaa0232, EPHA5  -  eph receptor a5, EPHA7  -  eph receptor a7, EPHA8  -  eph receptor a8, TESK1  -  testis-specific kinase 1, TAOK1  -  tao kinase 1, EPHB1  -  eph receptor b1, EPHB2  -  eph receptor b2, EPHB3  -  eph receptor b3, DHX38  -  deah (asp-glu-ala-his) box polypeptide 38, TLR7  -  toll-like receptor 7, BMS1  -  bms1 ribosome biogenesis factor, EPRS  -  glutamyl-prolyl-trna synthetase, GSG2  -  germ cell associated 2 (haspin), ERBB4  -  v-erb-b2 avian erythroblastic leukemia viral oncogene homolog 4, STK40  -  serine/threonine kinase 40, KIF4A  -  kinesin family member 4a, MVK  -  mevalonate kinase, IP6K1  -  inositol hexakisphosphate kinase 1, ERCC3  -  excision repair cross-complementing rodent repair deficiency, complementation group 3, ERCC6  -  excision repair cross-complementing rodent repair deficiency, complementation group 6, TSSK1B  -  testis-specific serine kinase 1b, TGFBR2  -  transforming growth factor, beta receptor ii (70/80kda), STK32A  -  serine/threonine kinase 32a, ERN1  -  endoplasmic reticulum to nucleus signaling 1, TH  -  tyrosine hydroxylase, BRIP1  -  brca1 interacting protein c-terminal helicase 1, MYH4  -  myosin, heavy chain 4, skeletal muscle, DSTYK  -  dual serine/threonine and tyrosine protein kinase, MYH6  -  myosin, heavy chain 6, cardiac muscle, alpha, MELK  -  maternal embryonic leucine zipper kinase, OBSCN  -  obscurin, cytoskeletal calmodulin and titin-interacting rhogef, MYH9  -  myosin, heavy chain 9, non-muscle, MYH10  -  myosin, heavy chain 10, non-muscle, MYH11  -  myosin, heavy chain 11, smooth muscle, RAD54B  -  rad54 homolog b (s. cerevisiae), KATNAL1  -  katanin p60 subunit a-like 1, GADL1  -  glutamate decarboxylase-like 1, MYLK  -  myosin light chain kinase, TAOK3  -  tao kinase 3, MYO1C  -  myosin ic, MYO1D  -  myosin id, TK2  -  thymidine kinase 2, mitochondrial, MYO1E  -  myosin ie, MYO5A  -  myosin va (heavy chain 12, myoxin), MYO6  -  myosin vi, MYO7A  -  myosin viia, MYO9A  -  myosin ixa, TTLL1  -  tubulin tyrosine ligase-like family, member 1, EP400  -  e1a binding protein p400, MYO9B  -  myosin ixb, MYO10  -  myosin x, MYH7B  -  myosin, heavy chain 7b, cardiac muscle, beta, DHX37  -  deah (asp-glu-ala-his) box polypeptide 37, ZRANB3  -  zinc finger, ran-binding domain containing 3, HIPK1  -  homeodomain interacting protein kinase 1, DDX46  -  dead (asp-glu-ala-asp) box polypeptide 46, MYLK4  -  myosin light chain kinase family, member 4, FABP1  -  fatty acid binding protein 1, liver, PRKAG2  -  protein kinase, amp-activated, gamma 2 non-catalytic subunit, ACSL1  -  acyl-coa synthetase long-chain family member 1, DDX41  -  dead (asp-glu-ala-asp) box polypeptide 41, ACSL3  -  acyl-coa synthetase long-chain family member 3, ACSL4  -  acyl-coa synthetase long-chain family member 4, MYO18A  -  myosin xviiia, PTK2B  -  protein tyrosine kinase 2 beta, DDX55  -  dead (asp-glu-ala-asp) box polypeptide 55, FANCM  -  fanconi anemia, complementation group m, IP6K2  -  inositol hexakisphosphate kinase 2, ATP2C2  -  atpase, ca++ transporting, type 2c, member 2, NRBP2  -  nuclear receptor binding protein 2, FAM20B  -  family with sequence similarity 20, member b, NLRC5  -  nlr family, card domain containing 5, TOP1  -  topoisomerase (dna) i, TOP2A  -  topoisomerase (dna) ii alpha 170kda, TOP2B  -  topoisomerase (dna) ii beta 180kda, KIF14  -  kinesin family member 14, CHD6  -  chromodomain helicase dna binding protein 6, HELZ  -  helicase with zinc finger, MTHFD1L  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1-like, XYLB  -  xylulokinase homolog (h. influenzae), TPMT  -  thiopurine s-methyltransferase, CMPK2  -  cytidine monophosphate (ump-cmp) kinase 2, mitochondrial, LARS  -  leucyl-trna synthetase, NEK1  -  nima-related kinase 1, NEK2  -  nima-related kinase 2, HSP90B1  -  heat shock protein 90kda beta (grp94), member 1, NEK3  -  nima-related kinase 3, THRAP3  -  thyroid hormone receptor associated protein 3, NFATC1  -  nuclear factor of activated t-cells, cytoplasmic, calcineurin-dependent 1, TRIO  -  trio rho guanine nucleotide exchange factor, FGFR1  -  fibroblast growth factor receptor 1, FGFR3  -  fibroblast growth factor receptor 3, ACVR1C  -  activin a receptor, type ic, CAMKK1  -  calcium/calmodulin-dependent protein kinase kinase 1, alpha, FGFR2  -  fibroblast growth factor receptor 2, FGFR4  -  fibroblast growth factor receptor 4, PARS2  -  prolyl-trna synthetase 2, mitochondrial (putative), MMACHC  -  methylmalonic aciduria (cobalamin deficiency) cblc type, with homocystinuria, AKT3  -  v-akt murine thymoma viral oncogene homolog 3, CKMT1A  -  creatine kinase, mitochondrial 1a, FKBP1B  -  fk506 binding protein 1b, 12.6 kda, DNAH1  -  dynein, axonemal, heavy chain 1, ULK3  -  unc-51 like kinase 3, FKBP3  -  fk506 binding protein 3, 25kda, FKBP5  -  fk506 binding protein 5, NEK5  -  nima-related kinase 5, NTPCR  -  nucleoside-triphosphatase, cancer-related, NKTR  -  natural killer-tumor recognition sequence, NME4  -  nme/nm23 nucleoside diphosphate kinase 4, NQO2  -  nad(p)h dehydrogenase, quinone 2, NOS1  -  nitric oxide synthase 1 (neuronal), NOS2  -  nitric oxide synthase 2, inducible, FLT1  -  fms-related tyrosine kinase 1, FLT3  -  fms-related tyrosine kinase 3, FLT4  -  fms-related tyrosine kinase 4, SMC4  -  structural maintenance of chromosomes 4, TTK  -  ttk protein kinase, TTN  -  titin, UBA2  -  ubiquitin-like modifier activating enzyme 2, GRK7  -  g protein-coupled receptor kinase 7, FARSB  -  phenylalanyl-trna synthetase, beta subunit, ABCC5  -  atp-binding cassette, sub-family c (cftr/mrp), member 5, ABCB6  -  atp-binding cassette, sub-family b (mdr/tap), member 6, GLYCTK  -  glycerate kinase, HACL1  -  2-hydroxyacyl-coa lyase 1, NLK  -  nemo-like kinase, TYMS  -  thymidylate synthetase, ACSL5  -  acyl-coa synthetase long-chain family member 5, ATP9A  -  atpase, class ii, type 9a, NPR2  -  natriuretic peptide receptor b/guanylate cyclase b (atrionatriuretic peptide receptor b), TYRO3  -  tyro3 protein tyrosine kinase, TRPV4  -  transient receptor potential cation channel, subfamily v, member 4, CMPK1  -  cytidine monophosphate (ump-cmp) kinase 1, cytosolic, AK9  -  adenylate kinase 9, UBA1  -  ubiquitin-like modifier activating enzyme 1, ACTR3  -  arp3 actin-related protein 3 homolog (yeast), ACTR2  -  arp2 actin-related protein 2 homolog (yeast), UBE2B  -  ubiquitin-conjugating enzyme e2b, AASDH  -  aminoadipate-semialdehyde dehydrogenase, NSF  -  n-ethylmaleimide-sensitive factor, UBE2D2  -  ubiquitin-conjugating enzyme e2d 2, UBE2E2  -  ubiquitin-conjugating enzyme e2e 2, RTEL1  -  regulator of telomere elongation helicase 1, UBE2G1  -  ubiquitin-conjugating enzyme e2g 1, UBE2G2  -  ubiquitin-conjugating enzyme e2g 2, UBE2H  -  ubiquitin-conjugating enzyme e2h, KCNT2  -  potassium channel, subfamily t, member 2, CDK12  -  cyclin-dependent kinase 12, UBE2L3  -  ubiquitin-conjugating enzyme e2l 3, RAD50  -  rad50 homolog (s. cerevisiae), UBE2N  -  ubiquitin-conjugating enzyme e2n, KIF20A  -  kinesin family member 20a, ATP8A2  -  atpase, aminophospholipid transporter, class i, type 8a, member 2, NTRK3  -  neurotrophic tyrosine kinase, receptor, type 3, KIF6  -  kinesin family member 6, ROR1  -  receptor tyrosine kinase-like orphan receptor 1, DDR2  -  discoidin domain receptor tyrosine kinase 2, MCM8  -  minichromosome maintenance complex component 8, NVL  -  nuclear vcp-like, TRAP1  -  tnf receptor-associated protein 1, GPR143  -  g protein-coupled receptor 143, OAT  -  ornithine aminotransferase, KIF26A  -  kinesin family member 26a, ACSS1  -  acyl-coa synthetase short-chain family member 1, ABCA12  -  atp-binding cassette, sub-family a (abc1), member 12, G3BP1  -  gtpase activating protein (sh3 domain) binding protein 1, UCK2  -  uridine-cytidine kinase 2, DHX35  -  deah (asp-glu-ala-his) box polypeptide 35, FRK  -  fyn-related kinase, SRR  -  serine racemase, TTBK1  -  tau tubulin kinase 1, ORC1  -  origin recognition complex, subunit 1, UBE2O  -  ubiquitin-conjugating enzyme e2o, ORC4  -  origin recognition complex, subunit 4, TNK2  -  tyrosine kinase, non-receptor, 2, ORC5  -  origin recognition complex, subunit 5, MYO3A  -  myosin iiia, VDR  -  vitamin d (1,25- dihydroxyvitamin d3) receptor, NME6  -  nme/nm23 nucleoside diphosphate kinase 6, CSNK1G1  -  casein kinase 1, gamma 1, CHTF18  -  ctf18, chromosome transmission fidelity factor 18 homolog (s. cerevisiae), MTOR  -  mechanistic target of rapamycin (serine/threonine kinase), P2RX1  -  purinergic receptor p2x, ligand-gated ion channel, 1]</t>
-  </si>
-  <si>
     <t>GO:0043167</t>
   </si>
   <si>
     <t>ion binding</t>
   </si>
   <si>
-    <t>[USP32  -  ubiquitin specific peptidase 32, PSMD14  -  proteasome (prosome, macropain) 26s subunit, non-atpase, 14, TRIM55  -  tripartite motif containing 55, TRIM63  -  tripartite motif containing 63, e3 ubiquitin protein ligase, KDM2B  -  lysine (k)-specific demethylase 2b, ABAT  -  4-aminobutyrate aminotransferase, ACCS  -  1-aminocyclopropane-1-carboxylate synthase homolog (arabidopsis)(non-functional), ABCA2  -  atp-binding cassette, sub-family a (abc1), member 2, ABCA3  -  atp-binding cassette, sub-family a (abc1), member 3, ABCB7  -  atp-binding cassette, sub-family b (mdr/tap), member 7, ABCA4  -  atp-binding cassette, sub-family a (abc1), member 4, ABL1  -  c-abl oncogene 1, non-receptor tyrosine kinase, MCEE  -  methylmalonyl coa epimerase, ACACA  -  acetyl-coa carboxylase alpha, CAPS2  -  calcyphosine 2, ACACB  -  acetyl-coa carboxylase beta, MYO18B  -  myosin xviiib, ACADL  -  acyl-coa dehydrogenase, long chain, CALCOCO2  -  calcium binding and coiled-coil domain 2, GPT2  -  glutamic pyruvate transaminase (alanine aminotransferase) 2, ACADSB  -  acyl-coa dehydrogenase, short/branched chain, LNX1  -  ligand of numb-protein x 1, e3 ubiquitin protein ligase, PLEKHA8  -  pleckstrin homology domain containing, family a (phosphoinositide binding specific) member 8, ACLY  -  atp citrate lyase, ACR  -  acrosin, ACO2  -  aconitase 2, mitochondrial, ACOX1  -  acyl-coa oxidase 1, palmitoyl, CNDP1  -  carnosine dipeptidase 1 (metallopeptidase m20 family), ABCC4  -  atp-binding cassette, sub-family c (cftr/mrp), member 4, ACTA1  -  actin, alpha 1, skeletal muscle, ACTG2  -  actin, gamma 2, smooth muscle, enteric, ACTN1  -  actinin, alpha 1, ACTN2  -  actinin, alpha 2, SPEG  -  speg complex locus, ACVR1  -  activin a receptor, type i, DNAJA2  -  dnaj (hsp40) homolog, subfamily a, member 2, ACVR2B  -  activin a receptor, type iib, RTN4IP1  -  reticulon 4 interacting protein 1, ACY1  -  aminoacylase 1, ADA  -  adenosine deaminase, ADAM10  -  adam metallopeptidase domain 10, ADAR  -  adenosine deaminase, rna-specific, ADARB1  -  adenosine deaminase, rna-specific, b1, ADARB2  -  adenosine deaminase, rna-specific, b2 (non-functional), ADCY1  -  adenylate cyclase 1 (brain), RAB19  -  rab19, member ras oncogene family, ADCY2  -  adenylate cyclase 2 (brain), ADCY3  -  adenylate cyclase 3, ADCY5  -  adenylate cyclase 5, HPDL  -  4-hydroxyphenylpyruvate dioxygenase-like, LANCL1  -  lanc lantibiotic synthetase component c-like 1 (bacterial), ADCY7  -  adenylate cyclase 7, PHF5A  -  phd finger protein 5a, ADCY8  -  adenylate cyclase 8 (brain), ADCY9  -  adenylate cyclase 9, IKZF1  -  ikaros family zinc finger 1 (ikaros), SMYD5  -  smyd family member 5, RSPO3  -  r-spondin 3, AGBL4  -  atp/gtp binding protein-like 4, ADPRH  -  adp-ribosylarginine hydrolase, PARP1  -  poly (adp-ribose) polymerase 1, AIFM2  -  apoptosis-inducing factor, mitochondrion-associated, 2, FBXO18  -  f-box protein, helicase, 18, ADRBK1  -  adrenergic, beta, receptor kinase 1, ATAD1  -  atpase family, aaa domain containing 1, ADRBK2  -  adrenergic, beta, receptor kinase 2, KLF2  -  kruppel-like factor 2 (lung), RNFT2  -  ring finger protein, transmembrane 2, ZNF341  -  zinc finger protein 341, BPNT1  -  3'(2'), 5'-bisphosphate nucleotidase 1, TUBB3  -  tubulin, beta 3 class iii, AFP  -  alpha-fetoprotein, ACAN  -  aggrecan, CEPT1  -  choline/ethanolamine phosphotransferase 1, NOD1  -  nucleotide-binding oligomerization domain containing 1, JAG1  -  jagged 1, FIBCD1  -  fibrinogen c domain containing 1, PEMT  -  phosphatidylethanolamine n-methyltransferase, ZFYVE19  -  zinc finger, fyve domain containing 19, CPQ  -  carboxypeptidase q, AK2  -  adenylate kinase 2, AK4  -  adenylate kinase 4, AKT1  -  v-akt murine thymoma viral oncogene homolog 1, ALAD  -  aminolevulinate dehydratase, SPON2  -  spondin 2, extracellular matrix protein, ALAS1  -  aminolevulinate, delta-, synthase 1, SPON1  -  spondin 1, extracellular matrix protein, TESK2  -  testis-specific kinase 2, ALB  -  albumin, ARIH2  -  ariadne homolog 2 (drosophila), ALDH1A3  -  aldehyde dehydrogenase 1 family, member a3, SEC24B  -  sec24 family, member b (s. cerevisiae), ABCD2  -  atp-binding cassette, sub-family d (ald), member 2, RNF223  -  ring finger protein 223, ALK  -  anaplastic lymphoma receptor tyrosine kinase, ALOX5  -  arachidonate 5-lipoxygenase, ALOX5AP  -  arachidonate 5-lipoxygenase-activating protein, ECI2  -  enoyl-coa delta isomerase 2, ALPI  -  alkaline phosphatase, intestinal, MERTK  -  c-mer proto-oncogene tyrosine kinase, RERG  -  ras-like, estrogen-regulated, growth inhibitor, PHYKPL  -  5-phosphohydroxy-l-lysine phospho-lyase, AMD1  -  adenosylmethionine decarboxylase 1, USP45  -  ubiquitin specific peptidase 45, AMFR  -  autocrine motility factor receptor, e3 ubiquitin protein ligase, ZBTB18  -  zinc finger and btb domain containing 18, REPS1  -  ralbp1 associated eps domain containing 1, AMPD2  -  adenosine monophosphate deaminase 2, AMPD3  -  adenosine monophosphate deaminase 3, AMPH  -  amphiphysin, BIN1  -  bridging integrator 1, UBE2E3  -  ubiquitin-conjugating enzyme e2e 3, SEC23A  -  sec23 homolog a (s. cerevisiae), ANGPT2  -  angiopoietin 2, STK25  -  serine/threonine kinase 25, UNC13B  -  unc-13 homolog b (c. elegans), ANXA2  -  annexin a2, ANXA5  -  annexin a5, ANXA6  -  annexin a6, ANXA7  -  annexin a7, FBLN5  -  fibulin 5, ANXA13  -  annexin a13, SHANK3  -  sh3 and multiple ankyrin repeat domains 3, AOAH  -  acyloxyacyl hydrolase (neutrophil), CIB2  -  calcium and integrin binding family member 2, AOX1  -  aldehyde oxidase 1, APAF1  -  apoptotic peptidase activating factor 1, DDX17  -  dead (asp-glu-ala-asp) box helicase 17, DEAF1  -  deaf1 transcription factor, MYLK2  -  myosin light chain kinase 2, HYOU1  -  hypoxia up-regulated 1, PITRM1  -  pitrilysin metallopeptidase 1, MICALL1  -  mical-like 1, LEPREL2  -  leprecan-like 2, XIAP  -  x-linked inhibitor of apoptosis, BIRC5  -  baculoviral iap repeat containing 5, GLRX3  -  glutaredoxin 3, APLP2  -  amyloid beta (a4) precursor-like protein 2, APOB  -  apolipoprotein b, NKD1  -  naked cuticle homolog 1 (drosophila), ZIC5  -  zic family member 5, ZCRB1  -  zinc finger cchc-type and rna binding motif 1, HELZ2  -  helicase with zinc finger 2, transcriptional coactivator, APP  -  amyloid beta (a4) precursor protein, APRT  -  adenine phosphoribosyltransferase, DCLK3  -  doublecortin-like kinase 3, UNK  -  unkempt homolog (drosophila), SLU7  -  slu7 splicing factor homolog (s. cerevisiae), ABCC6  -  atp-binding cassette, sub-family c (cftr/mrp), member 6, CCT7  -  chaperonin containing tcp1, subunit 7 (eta), CCT4  -  chaperonin containing tcp1, subunit 4 (delta), ZNF518B  -  zinc finger protein 518b, CCT2  -  chaperonin containing tcp1, subunit 2 (beta), ZC3H12C  -  zinc finger ccch-type containing 12c, ARF4  -  adp-ribosylation factor 4, GFM1  -  g elongation factor, mitochondrial 1, SCIN  -  scinderin, POMT1  -  protein-o-mannosyltransferase 1, ARF6  -  adp-ribosylation factor 6, TXNRD2  -  thioredoxin reductase 2, MTHFS  -  5,10-methenyltetrahydrofolate synthetase (5-formyltetrahydrofolate cyclo-ligase), ARG2  -  arginase 2, RHOB  -  ras homolog family member b, RND3  -  rho family gtpase 3, RHOG  -  ras homolog family member g, ARHGAP5  -  rho gtpase activating protein 5, USP16  -  ubiquitin specific peptidase 16, ARL1  -  adp-ribosylation factor-like 1, ARL3  -  adp-ribosylation factor-like 3, ARSA  -  arylsulfatase a, STAMBP  -  stam binding protein, ARSD  -  arylsulfatase d, UMODL1  -  uromodulin-like 1, POSTN  -  periostin, osteoblast specific factor, NAV3  -  neuron navigator 3, NAV2  -  neuron navigator 2, ZBTB34  -  zinc finger and btb domain containing 34, ABCC10  -  atp-binding cassette, sub-family c (cftr/mrp), member 10, FGD3  -  fyve, rhogef and ph domain containing 3, ASNS  -  asparagine synthetase (glutamine-hydrolyzing), CAMKK2  -  calcium/calmodulin-dependent protein kinase kinase 2, beta, ASPA  -  aspartoacylase, ASPH  -  aspartate beta-hydroxylase, ASS1  -  argininosuccinate synthase 1, PLCZ1  -  phospholipase c, zeta 1, SERPINC1  -  serpin peptidase inhibitor, clade c (antithrombin), member 1, LHX4  -  lim homeobox 4, ZFHX3  -  zinc finger homeobox 3, CTCF  -  ccctc-binding factor (zinc finger protein), FARS2  -  phenylalanyl-trna synthetase 2, mitochondrial, CGRRF1  -  cell growth regulator with ring finger domain 1, ATM  -  ataxia telangiectasia mutated, RRAGA  -  ras-related gtp binding a, GNA13  -  guanine nucleotide binding protein (g protein), alpha 13, ATP1A1  -  atpase, na+/k+ transporting, alpha 1 polypeptide, RSPRY1  -  ring finger and spry domain containing 1, DPH6  -  diphthamine biosynthesis 6, ATP12A  -  atpase, h+/k+ transporting, nongastric, alpha polypeptide, GMEB1  -  glucocorticoid modulatory element binding protein 1, ATP2A3  -  atpase, ca++ transporting, ubiquitous, ATP2B1  -  atpase, ca++ transporting, plasma membrane 1, CCT8  -  chaperonin containing tcp1, subunit 8 (theta), ATP2B4  -  atpase, ca++ transporting, plasma membrane 4, POLQ  -  polymerase (dna directed), theta, YME1L1  -  yme1-like 1 atpase, ATP6V1A  -  atpase, h+ transporting, lysosomal 70kda, v1 subunit a, RAI1  -  retinoic acid induced 1, ATP6AP1  -  atpase, h+ transporting, lysosomal accessory protein 1, ATP7A  -  atpase, cu++ transporting, alpha polypeptide, MAP3K2  -  mitogen-activated protein kinase kinase kinase 2, ATP7B  -  atpase, cu++ transporting, beta polypeptide, MASP2  -  mannan-binding lectin serine peptidase 2, ZNF160  -  zinc finger protein 160, ATR  -  ataxia telangiectasia and rad3 related, ATRX  -  alpha thalassemia/mental retardation syndrome x-linked, CAPN9  -  calpain 9, KIF1A  -  kinesin family member 1a, MCFD2  -  multiple coagulation factor deficiency 2, HBS1L  -  hbs1-like (s. cerevisiae), ZMYND11  -  zinc finger, mynd-type containing 11, ZNF622  -  zinc finger protein 622, NEK6  -  nima-related kinase 6, BAK1  -  bcl2-antagonist/killer 1, BARD1  -  brca1 associated ring domain 1, BCHE  -  butyrylcholinesterase, MTHFD2  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 2, methenyltetrahydrofolate cyclohydrolase, SEC24A  -  sec24 family, member a (s. cerevisiae), HSPH1  -  heat shock 105kda/110kda protein 1, BCL6  -  b-cell cll/lymphoma 6, HCN2  -  hyperpolarization activated cyclic nucleotide-gated potassium channel 2, BCR  -  breakpoint cluster region, BCS1L  -  bc1 (ubiquinol-cytochrome c reductase) synthesis-like, FAXDC2  -  fatty acid hydroxylase domain containing 2, ZNF598  -  zinc finger protein 598, BGLAP  -  bone gamma-carboxyglutamate (gla) protein, ADCK2  -  aarf domain containing kinase 2, PRDM1  -  pr domain containing 1, with znf domain, BLK  -  b lymphoid tyrosine kinase, DHX57  -  deah (asp-glu-ala-asp/his) box polypeptide 57, BLM  -  bloom syndrome, recq helicase-like, FTCD  -  formimidoyltransferase cyclodeaminase, CLPX  -  clpx caseinolytic peptidase x homolog (e. coli), BLVRA  -  biliverdin reductase a, PDE10A  -  phosphodiesterase 10a, BNC1  -  basonuclin 1, BMI1  -  bmi1 polycomb ring finger oncogene, BMP4  -  bone morphogenetic protein 4, TRIM47  -  tripartite motif containing 47, CYP46A1  -  cytochrome p450, family 46, subfamily a, polypeptide 1, BMP7  -  bone morphogenetic protein 7, BMPR1A  -  bone morphogenetic protein receptor, type ia, ADAM28  -  adam metallopeptidase domain 28, BMPR2  -  bone morphogenetic protein receptor, type ii (serine/threonine kinase), USP20  -  ubiquitin specific peptidase 20, BNIP2  -  bcl2/adenovirus e1b 19kda interacting protein 2, USP19  -  ubiquitin specific peptidase 19, ME3  -  malic enzyme 3, nadp(+)-dependent, mitochondrial, DST  -  dystonin, BRCA1  -  breast cancer 1, early onset, BRAF  -  v-raf murine sarcoma viral oncogene homolog b, RAB10  -  rab10, member ras oncogene family, SESTD1  -  sec14 and spectrin domains 1, MMP24  -  matrix metallopeptidase 24 (membrane-inserted), LYVE1  -  lymphatic vessel endothelial hyaluronan receptor 1, KLF5  -  kruppel-like factor 5 (intestinal), CPSF4  -  cleavage and polyadenylation specific factor 4, 30kda, RNF185  -  ring finger protein 185, BTK  -  bruton agammaglobulinemia tyrosine kinase, ACBD5  -  acyl-coa binding domain containing 5, PKDCC  -  protein kinase domain containing, cytoplasmic, BUB1  -  bub1 mitotic checkpoint serine/threonine kinase, BUB1B  -  bub1 mitotic checkpoint serine/threonine kinase b, MAN1A2  -  mannosidase, alpha, class 1a, member 2, TRAFD1  -  traf-type zinc finger domain containing 1, RSAD2  -  radical s-adenosyl methionine domain containing 2, PAPOLA  -  poly(a) polymerase alpha, ZNF830  -  zinc finger protein 830, C1R  -  complement component 1, r subcomponent, C1S  -  complement component 1, s subcomponent, TDRD12  -  tudor domain containing 12, SMPDL3A  -  sphingomyelin phosphodiesterase, acid-like 3a, DBF4  -  dbf4 homolog (s. cerevisiae), SYT12  -  synaptotagmin xii, LONRF1  -  lon peptidase n-terminal domain and ring finger 1, MPPED2  -  metallophosphoesterase domain containing 2, ZNF804A  -  zinc finger protein 804a, NEK9  -  nima-related kinase 9, SF3A3  -  splicing factor 3a, subunit 3, 60kda, DAGLA  -  diacylglycerol lipase, alpha, ALKBH8  -  alkb, alkylation repair homolog 8 (e. coli), MYLK3  -  myosin light chain kinase 3, CA1  -  carbonic anhydrase i, CA2  -  carbonic anhydrase ii, CA3  -  carbonic anhydrase iii, muscle specific, CA4  -  carbonic anhydrase iv, LMAN2  -  lectin, mannose-binding 2, CA6  -  carbonic anhydrase vi, CA7  -  carbonic anhydrase vii, CA8  -  carbonic anhydrase viii, CA12  -  carbonic anhydrase xii, CACNA1B  -  calcium channel, voltage-dependent, n type, alpha 1b subunit, CACNA1C  -  calcium channel, voltage-dependent, l type, alpha 1c subunit, ASCC3  -  activating signal cointegrator 1 complex subunit 3, CACNA1D  -  calcium channel, voltage-dependent, l type, alpha 1d subunit, CACNA1E  -  calcium channel, voltage-dependent, r type, alpha 1e subunit, CACNA1S  -  calcium channel, voltage-dependent, l type, alpha 1s subunit, CACNA2D1  -  calcium channel, voltage-dependent, alpha 2/delta subunit 1, RAB32  -  rab32, member ras oncogene family, MTG1  -  mitochondrial ribosome-associated gtpase 1, COPS5  -  cop9 signalosome subunit 5, METAP2  -  methionyl aminopeptidase 2, CALB1  -  calbindin 1, 28kda, CDHR1  -  cadherin-related family member 1, KIF2C  -  kinesin family member 2c, CAPN13  -  calpain 13, TMEM129  -  transmembrane protein 129, TLK2  -  tousled-like kinase 2, STRADA  -  ste20-related kinase adaptor alpha, CAMK4  -  calcium/calmodulin-dependent protein kinase iv, CAMK2A  -  calcium/calmodulin-dependent protein kinase ii alpha, CAMK2D  -  calcium/calmodulin-dependent protein kinase ii delta, CAMK2G  -  calcium/calmodulin-dependent protein kinase ii gamma, LIAS  -  lipoic acid synthetase, IFT27  -  intraflagellar transport 27 homolog (chlamydomonas), CANX  -  calnexin, RAB35  -  rab35, member ras oncogene family, CAPN2  -  calpain 2, (m/ii) large subunit, CAPN3  -  calpain 3, (p94), RAB31  -  rab31, member ras oncogene family, ADAP1  -  arfgap with dual ph domains 1, CARS  -  cysteinyl-trna synthetase, PIM3  -  pim-3 oncogene, DTD1  -  d-tyrosyl-trna deacylase 1, LHX8  -  lim homeobox 8, MID2  -  midline 2, CASQ2  -  calsequestrin 2 (cardiac muscle), CASR  -  calcium-sensing receptor, CAT  -  catalase, DNER  -  delta/notch-like egf repeat containing, DDX52  -  dead (asp-glu-ala-asp) box polypeptide 52, RUNX2  -  runt-related transcription factor 2, RUNX1  -  runt-related transcription factor 1, HELB  -  helicase (dna) b, RUNX1T1  -  runt-related transcription factor 1; translocated to, 1 (cyclin d-related), DUS4L  -  dihydrouridine synthase 4-like (s. cerevisiae), ZNF276  -  zinc finger protein 276, CBL  -  cbl proto-oncogene, e3 ubiquitin protein ligase, CBLB  -  cbl proto-oncogene b, e3 ubiquitin protein ligase, UBE2Q2  -  ubiquitin-conjugating enzyme e2q family member 2, CYB561D2  -  cytochrome b561 family, member d2, RAPGEF4  -  rap guanine nucleotide exchange factor (gef) 4, MARS2  -  methionyl-trna synthetase 2, mitochondrial, CBS  -  cystathionine-beta-synthase, TPPP  -  tubulin polymerization promoting protein, NT5C1B  -  5'-nucleotidase, cytosolic ib, KRIT1  -  krit1, ankyrin repeat containing, DIDO1  -  death inducer-obliterator 1, ADAMTS13  -  adam metallopeptidase with thrombospondin type 1 motif, 13, ADAMTS8  -  adam metallopeptidase with thrombospondin type 1 motif, 8, ADAMTS5  -  adam metallopeptidase with thrombospondin type 1 motif, 5, CCT6A  -  chaperonin containing tcp1, subunit 6a (zeta 1), KATNA1  -  katanin p60 (atpase containing) subunit a 1, PRDM5  -  pr domain containing 5, PRDM4  -  pr domain containing 4, CIT  -  citron (rho-interacting, serine/threonine kinase 21), CD4  -  cd4 molecule, KIF3A  -  kinesin family member 3a, ZFAND4  -  zinc finger, an1-type domain 4, POLR3A  -  polymerase (rna) iii (dna directed) polypeptide a, 155kda, CACNA2D4  -  calcium channel, voltage-dependent, alpha 2/delta subunit 4, TBCK  -  tbc1 domain containing kinase, KAT7  -  k(lysine) acetyltransferase 7, DMC1  -  dna meiotic recombinase 1, CD34  -  cd34 molecule, BVES  -  blood vessel epicardial substance, SCARB1  -  scavenger receptor class b, member 1, SCARB2  -  scavenger receptor class b, member 2, FICD  -  fic domain containing, ENTPD1  -  ectonucleoside triphosphate diphosphohydrolase 1, ENTPD2  -  ectonucleoside triphosphate diphosphohydrolase 2, ENTPD3  -  ectonucleoside triphosphate diphosphohydrolase 3, RABL2A  -  rab, member of ras oncogene family-like 2a, CD44  -  cd44 molecule (indian blood group), EIF2AK4  -  eukaryotic translation initiation factor 2 alpha kinase 4, NUDT5  -  nudix (nucleoside diphosphate linked moiety x)-type motif 5, NUDT3  -  nudix (nucleoside diphosphate linked moiety x)-type motif 3, FSTL1  -  follistatin-like 1, ADAMTS7  -  adam metallopeptidase with thrombospondin type 1 motif, 7, BAZ1A  -  bromodomain adjacent to zinc finger domain, 1a, ZNF277  -  zinc finger protein 277, MAP4K5  -  mitogen-activated protein kinase kinase kinase kinase 5, NISCH  -  nischarin, WBP4  -  ww domain binding protein 4, CDC42  -  cell division cycle 42, SEC23IP  -  sec23 interacting protein, ANXA10  -  annexin a10, SYTL3  -  synaptotagmin-like 3, CHEK2  -  checkpoint kinase 2, CDH4  -  cadherin 4, type 1, r-cadherin (retinal), SYTL4  -  synaptotagmin-like 4, CDH5  -  cadherin 5, type 2 (vascular endothelium), SYTL5  -  synaptotagmin-like 5, CDH6  -  cadherin 6, type 2, k-cadherin (fetal kidney), CDH7  -  cadherin 7, type 2, CDH9  -  cadherin 9, type 2 (t1-cadherin), CDH10  -  cadherin 10, type 2 (t2-cadherin), CDH11  -  cadherin 11, type 2, ob-cadherin (osteoblast), AKAP13  -  a kinase (prka) anchor protein 13, DDX20  -  dead (asp-glu-ala-asp) box polypeptide 20, CDH17  -  cadherin 17, li cadherin (liver-intestine), CDH18  -  cadherin 18, type 2, CDK3  -  cyclin-dependent kinase 3, CDK5  -  cyclin-dependent kinase 5, GALNT5  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 5 (galnac-t5), CDK6  -  cyclin-dependent kinase 6, CDK8  -  cyclin-dependent kinase 8, CDK9  -  cyclin-dependent kinase 9, CDKN1A  -  cyclin-dependent kinase inhibitor 1a (p21, cip1), RNF139  -  ring finger protein 139, CA5B  -  carbonic anhydrase vb, mitochondrial, PADI2  -  peptidyl arginine deiminase, type ii, ZHX1  -  zinc fingers and homeoboxes 1, PACSIN2  -  protein kinase c and casein kinase substrate in neurons 2, MAN1B1  -  mannosidase, alpha, class 1b, member 1, CLGN  -  calmegin, CHP1  -  calcineurin-like ef-hand protein 1, EGLN3  -  egl-9 family hypoxia-inducible factor 3, CENPE  -  centromere protein e, 312kda, ERI2  -  eri1 exoribonuclease family member 2, KLF12  -  kruppel-like factor 12, MGAT4B  -  mannosyl (alpha-1,3-)-glycoprotein beta-1,4-n-acetylglucosaminyltransferase, isozyme b, CTSC  -  cathepsin c, B4GALT7  -  xylosylprotein beta 1,4-galactosyltransferase, polypeptide 7, CFTR  -  cystic fibrosis transmembrane conductance regulator (atp-binding cassette sub-family c, member 7), PARK7  -  parkinson protein 7, MGAT4A  -  mannosyl (alpha-1,3-)-glycoprotein beta-1,4-n-acetylglucosaminyltransferase, isozyme a, GPN1  -  gpn-loop gtpase 1, CAPN14  -  calpain 14, DDX42  -  dead (asp-glu-ala-asp) box helicase 42, PHF21B  -  phd finger protein 21b, RCC1  -  regulator of chromosome condensation 1, CHD2  -  chromodomain helicase dna binding protein 2, CHD4  -  chromodomain helicase dna binding protein 4, RNF13  -  ring finger protein 13, TWF2  -  twinfilin actin-binding protein 2, KIF12  -  kinesin family member 12, NID2  -  nidogen 2 (osteonidogen), SLC46A1  -  solute carrier family 46 (folate transporter), member 1, CHKA  -  choline kinase alpha, ITGA11  -  integrin, alpha 11, CHN1  -  chimerin 1, CHN2  -  chimerin 2, XRN2  -  5'-3' exoribonuclease 2, IKZF3  -  ikaros family zinc finger 3 (aiolos), MRAS  -  muscle ras oncogene homolog, CHRM3  -  cholinergic receptor, muscarinic 3, HELQ  -  helicase, polq-like, CHRNA1  -  cholinergic receptor, nicotinic, alpha 1 (muscle), ADPRHL1  -  adp-ribosylhydrolase like 1, CHRNA3  -  cholinergic receptor, nicotinic, alpha 3 (neuronal), SDSL  -  serine dehydratase-like, RASA3  -  ras p21 protein activator 3, MTF2  -  metal response element binding transcription factor 2, HSPA4L  -  heat shock 70kda protein 4-like, CHRND  -  cholinergic receptor, nicotinic, delta (muscle), DTX2  -  deltex homolog 2 (drosophila), CKB  -  creatine kinase, brain, TOE1  -  target of egr1, member 1 (nuclear), RNF44  -  ring finger protein 44, PPM1E  -  protein phosphatase, mg2+/mn2+ dependent, 1e, TRIM9  -  tripartite motif containing 9, TXNRD3  -  thioredoxin reductase 3, ZNF507  -  zinc finger protein 507, AAK1  -  ap2 associated kinase 1, ADNP2  -  adnp homeobox 2, LMTK2  -  lemur tyrosine kinase 2, CHSY1  -  chondroitin sulfate synthase 1, CLCN3  -  chloride channel, voltage-sensitive 3, CLCN4  -  chloride channel, voltage-sensitive 4, CLCN5  -  chloride channel, voltage-sensitive 5, CLCN6  -  chloride channel, voltage-sensitive 6, CLCN7  -  chloride channel, voltage-sensitive 7, CLCNKB  -  chloride channel, voltage-sensitive kb, DZIP1  -  daz interacting zinc finger protein 1, EFHC1  -  ef-hand domain (c-terminal) containing 1, CLK2  -  cdc-like kinase 2, ENPP4  -  ectonucleotide pyrophosphatase/phosphodiesterase 4 (putative), CLK3  -  cdc-like kinase 3, MORC2  -  morc family cw-type zinc finger 2, ZHX2  -  zinc fingers and homeoboxes 2, CLSTN1  -  calsyntenin 1, UBOX5  -  u-box domain containing 5, ZBTB1  -  zinc finger and btb domain containing 1, CYGB  -  cytoglobin, RPH3A  -  rabphilin 3a homolog (mouse), PKD1L2  -  polycystic kidney disease 1-like 2, ARSG  -  arylsulfatase g, EPN2  -  epsin 2, ABCC2  -  atp-binding cassette, sub-family c (cftr/mrp), member 2, DHX30  -  deah (asp-glu-ala-his) box helicase 30, SLC25A25  -  solute carrier family 25 (mitochondrial carrier; phosphate carrier), member 25, FAN1  -  fancd2/fanci-associated nuclease 1, MMRN1  -  multimerin 1, CNGB1  -  cyclic nucleotide gated channel beta 1, CD93  -  cd93 molecule, CNGA2  -  cyclic nucleotide gated channel alpha 2, ESCO1  -  establishment of sister chromatid cohesion n-acetyltransferase 1, MYSM1  -  myb-like, swirm and mpn domains 1, RNF157  -  ring finger protein 157, GALNT13  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 13 (galnac-t13), SEPHS1  -  selenophosphate synthetase 1, COL1A2  -  collagen, type i, alpha 2, SMYD4  -  set and mynd domain containing 4, COL3A1  -  collagen, type iii, alpha 1, KIN  -  kin, antigenic determinant of reca protein homolog (mouse), OSBPL1A  -  oxysterol binding protein-like 1a, CCT5  -  chaperonin containing tcp1, subunit 5 (epsilon), OSBPL8  -  oxysterol binding protein-like 8, COL5A1  -  collagen, type v, alpha 1, TRIM32  -  tripartite motif containing 32, COL5A2  -  collagen, type v, alpha 2, COL9A1  -  collagen, type ix, alpha 1, NT5C2  -  5'-nucleotidase, cytosolic ii, COL10A1  -  collagen, type x, alpha 1, COL11A1  -  collagen, type xi, alpha 1, NINL  -  ninein-like, COL13A1  -  collagen, type xiii, alpha 1, COMP  -  cartilage oligomeric matrix protein, COMT  -  catechol-o-methyltransferase, ZNF618  -  zinc finger protein 618, MB21D1  -  mab-21 domain containing 1, NT5C3B  -  5'-nucleotidase, cytosolic iiib, LIMCH1  -  lim and calponin homology domains 1, RIMS1  -  regulating synaptic membrane exocytosis 1, WDFY3  -  wd repeat and fyve domain containing 3, MAP3K8  -  mitogen-activated protein kinase kinase kinase 8, PLCH1  -  phospholipase c, eta 1, OMA1  -  oma1 zinc metallopeptidase, RAB21  -  rab21, member ras oncogene family, STK38L  -  serine/threonine kinase 38 like, PDZRN3  -  pdz domain containing ring finger 3, MYO16  -  myosin xvi, KDM4B  -  lysine (k)-specific demethylase 4b, MAST3  -  microtubule associated serine/threonine kinase 3, COX11  -  cytochrome c oxidase assembly homolog 11 (yeast), USP33  -  ubiquitin specific peptidase 33, PHLPP2  -  ph domain and leucine rich repeat protein phosphatase 2, CPA2  -  carboxypeptidase a2 (pancreatic), ZNF292  -  zinc finger protein 292, CPB1  -  carboxypeptidase b1 (tissue), CPB2  -  carboxypeptidase b2 (plasma), CPD  -  carboxypeptidase d, MYT1L  -  myelin transcription factor 1-like, CPE  -  carboxypeptidase e, PDXDC1  -  pyridoxal-dependent decarboxylase domain containing 1, TNIK  -  traf2 and nck interacting kinase, ARL11  -  adp-ribosylation factor-like 11, KIF21B  -  kinesin family member 21b, CPM  -  carboxypeptidase m, CPN1  -  carboxypeptidase n, polypeptide 1, SMG1  -  smg1 phosphatidylinositol 3-kinase-related kinase, ZHX3  -  zinc fingers and homeoboxes 3, CPS1  -  carbamoyl-phosphate synthase 1, mitochondrial, ENDOD1  -  endonuclease domain containing 1, ZSWIM8  -  zinc finger, swim-type containing 8, NMNAT2  -  nicotinamide nucleotide adenylyltransferase 2, ZNF609  -  zinc finger protein 609, TBC1D9B  -  tbc1 domain family, member 9b (with gram domain), SETX  -  senataxin, ATF2  -  activating transcription factor 2, CREBBP  -  creb binding protein, FOXP4  -  forkhead box p4, SWAP70  -  swap switching b-cell complex 70kda subunit, MYCBP2  -  myc binding protein 2, e3 ubiquitin protein ligase, VWA8  -  von willebrand factor a domain containing 8, NUS1  -  nuclear undecaprenyl pyrophosphate synthase 1 homolog (s. cerevisiae), TRIM35  -  tripartite motif containing 35, ZNF423  -  zinc finger protein 423, ZC3H13  -  zinc finger ccch-type containing 13, ARHGAP26  -  rho gtpase activating protein 26, CRY1  -  cryptochrome 1 (photolyase-like), TTLL5  -  tubulin tyrosine ligase-like family, member 5, CRY2  -  cryptochrome 2 (photolyase-like), CRYAA  -  crystallin, alpha a, KIF1B  -  kinesin family member 1b, CRYAB  -  crystallin, alpha b, FSTL4  -  follistatin-like 4, CUL9  -  cullin 9, RAB39B  -  rab39b, member ras oncogene family, CRYZ  -  crystallin, zeta (quinone reductase), TAB2  -  tgf-beta activated kinase 1/map3k7 binding protein 2, HIC2  -  hypermethylated in cancer 2, MAPK14  -  mitogen-activated protein kinase 14, ATP10B  -  atpase, class v, type 10b, POGZ  -  pogo transposable element with znf domain, GALNTL6  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase-like 6, GPATCH8  -  g patch domain containing 8, RAD54L2  -  rad54-like 2 (s. cerevisiae), CSK  -  c-src tyrosine kinase, MAST2  -  microtubule associated serine/threonine kinase 2, ZZEF1  -  zinc finger, zz-type with ef-hand domain 1, CSNK1A1  -  casein kinase 1, alpha 1, HSPA12B  -  heat shock 70kd protein 12b, CSNK1E  -  casein kinase 1, epsilon, ZC3H3  -  zinc finger ccch-type containing 3, CSNK1G2  -  casein kinase 1, gamma 2, CSNK2A1  -  casein kinase 2, alpha 1 polypeptide, CSRP1  -  cysteine and glycine-rich protein 1, TBC1D9  -  tbc1 domain family, member 9 (with gram domain), CSRP2  -  cysteine and glycine-rich protein 2, SNX13  -  sorting nexin 13, ACAP3  -  arfgap with coiled-coil, ankyrin repeat and ph domains 3, ARAP2  -  arfgap with rhogap domain, ankyrin repeat and ph domain 2, AGAP1  -  arfgap with gtpase domain, ankyrin repeat and ph domain 1, STAB1  -  stabilin 1, AGAP3  -  arfgap with gtpase domain, ankyrin repeat and ph domain 3, TTLL12  -  tubulin tyrosine ligase-like family, member 12, METAP1  -  methionyl aminopeptidase 1, ZCCHC14  -  zinc finger, cchc domain containing 14, PASK  -  pas domain containing serine/threonine kinase, CTGF  -  connective tissue growth factor, CTH  -  cystathionase (cystathionine gamma-lyase), MDN1  -  mdn1, midasin homolog (yeast), GALNT15  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 15, ATP11B  -  atpase, class vi, type 11b, IP6K3  -  inositol hexakisphosphate kinase 3, CIB3  -  calcium and integrin binding family member 3, ACSBG1  -  acyl-coa synthetase bubblegum family member 1, PARD3B  -  par-3 partitioning defective 3 homolog b (c. elegans), JMJD6  -  jumonji domain containing 6, RFFL  -  ring finger and fyve-like domain containing e3 ubiquitin protein ligase, DTX4  -  deltex homolog 4 (drosophila), CYB5A  -  cytochrome b5 type a (microsomal), RHOBTB2  -  rho-related btb domain containing 2, PLCL2  -  phospholipase c-like 2, CYLD  -  cylindromatosis (turban tumor syndrome), SIK2  -  salt-inducible kinase 2, PLCB1  -  phospholipase c, beta 1 (phosphoinositide-specific), CYP1B1  -  cytochrome p450, family 1, subfamily b, polypeptide 1, PHLPP1  -  ph domain and leucine rich repeat protein phosphatase 1, ZNF488  -  zinc finger protein 488, ZFYVE27  -  zinc finger, fyve domain containing 27, CYP2C8  -  cytochrome p450, family 2, subfamily c, polypeptide 8, ATP11A  -  atpase, class vi, type 11a, PDZD8  -  pdz domain containing 8, CYP2J2  -  cytochrome p450, family 2, subfamily j, polypeptide 2, MCF2L  -  mcf.2 cell line derived transforming sequence-like, ZC3H7B  -  zinc finger ccch-type containing 7b, CYP4B1  -  cytochrome p450, family 4, subfamily b, polypeptide 1, CYP7A1  -  cytochrome p450, family 7, subfamily a, polypeptide 1, CYP8B1  -  cytochrome p450, family 8, subfamily b, polypeptide 1, CYP11A1  -  cytochrome p450, family 11, subfamily a, polypeptide 1, CYP17A1  -  cytochrome p450, family 17, subfamily a, polypeptide 1, CYP19A1  -  cytochrome p450, family 19, subfamily a, polypeptide 1, CYP24A1  -  cytochrome p450, family 24, subfamily a, polypeptide 1, CYP27A1  -  cytochrome p450, family 27, subfamily a, polypeptide 1, CYP51A1  -  cytochrome p450, family 51, subfamily a, polypeptide 1, SMG6  -  smg6 nonsense mediated mrna decay factor, DAG1  -  dystroglycan 1 (dystrophin-associated glycoprotein 1), MGRN1  -  mahogunin ring finger 1, e3 ubiquitin protein ligase, GYLTL1B  -  glycosyltransferase-like 1b, DGKB  -  diacylglycerol kinase, beta 90kda, ATMIN  -  atm interactor, FAT3  -  fat atypical cadherin 3, KIF13B  -  kinesin family member 13b, UBR2  -  ubiquitin protein ligase e3 component n-recognin 2, ACSL6  -  acyl-coa synthetase long-chain family member 6, CYP2R1  -  cytochrome p450, family 2, subfamily r, polypeptide 1, DBH  -  dopamine beta-hydroxylase (dopamine beta-monooxygenase), ZCCHC11  -  zinc finger, cchc domain containing 11, DBT  -  dihydrolipoamide branched chain transacylase e2, TRIM2  -  tripartite motif containing 2, MAN2B2  -  mannosidase, alpha, class 2b, member 2, USP22  -  ubiquitin specific peptidase 22, DCTD  -  dcmp deaminase, ACE  -  angiotensin i converting enzyme, DCT  -  dopachrome tautomerase, LRRK2  -  leucine-rich repeat kinase 2, DDC  -  dopa decarboxylase (aromatic l-amino acid decarboxylase), PHF15  -  phd finger protein 15, SMCHD1  -  structural maintenance of chromosomes flexible hinge domain containing 1, DDX1  -  dead (asp-glu-ala-asp) box helicase 1, DDX3X  -  dead (asp-glu-ala-asp) box helicase 3, x-linked, DDX5  -  dead (asp-glu-ala-asp) box helicase 5, UBR4  -  ubiquitin protein ligase e3 component n-recognin 4, DHX8  -  deah (asp-glu-ala-his) box polypeptide 8, VPS8  -  vacuolar protein sorting 8 homolog (s. cerevisiae), DDX10  -  dead (asp-glu-ala-asp) box polypeptide 10, DDX11  -  dead/h (asp-glu-ala-asp/his) box helicase 11, TPH2  -  tryptophan hydroxylase 2, DHX15  -  deah (asp-glu-ala-his) box helicase 15, DECR1  -  2,4-dienoyl coa reductase 1, mitochondrial, ARHGEF18  -  rho/rac guanine nucleotide exchange factor (gef) 18, FGD4  -  fyve, rhogef and ph domain containing 4, AEBP2  -  ae binding protein 2, SIK3  -  sik family kinase 3, ADNP  -  activity-dependent neuroprotector homeobox, LARS2  -  leucyl-trna synthetase 2, mitochondrial, PIP5K1C  -  phosphatidylinositol-4-phosphate 5-kinase, type i, gamma, ATP13A2  -  atpase type 13a2, DHCR24  -  24-dehydrocholesterol reductase, DICER1  -  dicer 1, ribonuclease type iii, CYB5R3  -  cytochrome b5 reductase 3, SIRT4  -  sirtuin 4, SIRT3  -  sir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uin 3, TDRD9  -  tudor domain containing 9, ZFPM2  -  zinc finger protein, fog family member 2, AK7  -  adenylate kinase 7, DLD  -  dihydrolipoamide dehydrogenase, CRB1  -  crumbs homolog 1 (drosophila), RYBP  -  ring1 and yy1 binding protein, DMD  -  dystrophin, DNM1  -  dynamin 1, DNA2  -  dna replication helicase/nuclease 2, DNAH5  -  dynein, axonemal, heavy chain 5, DNAH8  -  dynein, axonemal, heavy chain 8, DNAH9  -  dynein, axonemal, heavy chain 9, ABCB10  -  atp-binding cassette, sub-family b (mdr/tap), member 10, ABCB9  -  atp-binding cassette, sub-family b (mdr/tap), member 9, DNASE1L3  -  deoxyribonuclease i-like 3, DYNC1H1  -  dynein, cytoplasmic 1, heavy chain 1, ABCA6  -  atp-binding cassette, sub-family a (abc1), member 6, ABCA5  -  atp-binding cassette, sub-family a (abc1), member 5, DYNC1LI2  -  dynein, cytoplasmic 1, light intermediate chain 2, GCAT  -  glycine c-acetyltransferase, PHF3  -  phd finger protein 3, DNMT3B  -  dna (cytosine-5-)-methyltransferase 3 beta, DPAGT1  -  dolichyl-phosphate (udp-n-acetylglucosamine) n-acetylglucosaminephosphotransferase 1 (glcnac-1-p transferase), PLA2G4E  -  phospholipase a2, group ive, DPYD  -  dihydropyrimidine dehydrogenase, DPYS  -  dihydropyrimidinase, HAAO  -  3-hydroxyanthranilate 3,4-dioxygenase, MACF1  -  microtubule-actin crosslinking factor 1, DPYSL3  -  dihydropyrimidinase-like 3, ZFYVE26  -  zinc finger, fyve domain containing 26, DRD1  -  dopamine receptor d1, DRD2  -  dopamine receptor d2, DRD4  -  dopamine receptor d4, NOXO1  -  nadph oxidase organizer 1, DRG2  -  developmentally regulated gtp binding protein 2, SUZ12  -  suz12 polycomb repressive complex 2 subunit, DRP2  -  dystrophin related protein 2, MORC3  -  morc family cw-type zinc finger 3, DSC2  -  desmocollin 2, ZC3H18  -  zinc finger ccch-type containing 18, DSG2  -  desmoglein 2, HMHA1  -  histocompatibility (minor) ha-1, ACAP2  -  arfgap with coiled-coil, ankyrin repeat and ph domains 2, EARS2  -  glutamyl-trna synthetase 2, mitochondrial, ZNF281  -  zinc finger protein 281, SNX20  -  sorting nexin 20, DTNA  -  dystrobrevin, alpha, DTNB  -  dystrobrevin, beta, ECM2  -  extracellular matrix protein 2, female organ and adipocyte specific, ADAT1  -  adenosine deaminase, trna-specific 1, CANT1  -  calcium activated nucleotidase 1, DNPEP  -  aspartyl aminopeptidase, RASD2  -  rasd family, member 2, DYRK1A  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 1a, GTPBP4  -  gtp binding protein 4, LPAR3  -  lysophosphatidic acid receptor 3, E4F1  -  e4f transcription factor 1, DDAH1  -  dimethylarginine dimethylaminohydrolase 1, ECE1  -  endothelin converting enzyme 1, ZSWIM7  -  zinc finger, swim-type containing 7, PDSS1  -  prenyl (decaprenyl) diphosphate synthase, subunit 1, PHC1  -  polyhomeotic homolog 1 (drosophila), PATZ1  -  poz (btb) and at hook containing zinc finger 1, EEF1A2  -  eukaryotic translation elongation factor 1 alpha 2, MKRN1  -  makorin ring finger protein 1, MKRN2  -  makorin ring finger protein 2, ZMYND8  -  zinc finger, mynd-type containing 8, ACER1  -  alkaline ceramidase 1, SPO11  -  spo11 meiotic protein covalently bound to dsb, EGF  -  epidermal growth factor, CELSR3  -  cadherin, egf lag seven-pass g-type receptor 3, MEGF6  -  multiple egf-like-domains 6, EIF2S3  -  eukaryotic translation initiation factor 2, subunit 3 gamma, 52kda, EPHA2  -  eph receptor a2, TRIM29  -  tripartite motif containing 29, PLA2G15  -  phospholipase a2, group xv, EIF4G1  -  eukaryotic translation initiation factor 4 gamma, 1, EIF5  -  eukaryotic translation initiation factor 5, WTIP  -  wilms tumor 1 interacting protein, SGK3  -  serum/glucocorticoid regulated kinase family, member 3, EML1  -  echinoderm microtubule associated protein like 1, SHPK  -  sedoheptulokinase, ENDOG  -  endonuclease g, WEE2  -  wee1 homolog 2 (s. pombe), ENO1  -  enolase 1, (alpha), ENO2  -  enolase 2 (gamma, neuronal), ENPEP  -  glutamyl aminopeptidase (aminopeptidase a), EP300  -  e1a binding protein p300, EPB41  -  erythrocyte membrane protein band 4.1 (elliptocytosis 1, rh-linked), EPB42  -  erythrocyte membrane protein band 4.2, EPHA1  -  eph receptor a1, EPHA3  -  eph receptor a3, EPHA4  -  eph receptor a4, EPHA5  -  eph receptor a5, EPHA7  -  eph receptor a7, EPHA8  -  eph receptor a8, EPHB1  -  eph receptor b1, EPHB2  -  eph receptor b2, EPHB3  -  eph receptor b3, EPHX2  -  epoxide hydrolase 2, cytoplasmic, BRD1  -  bromodomain containing 1, EPRS  -  glutamyl-prolyl-trna synthetase, EPS15  -  epidermal growth factor receptor pathway substrate 15, ERBB4  -  v-erb-b2 avian erythroblastic leukemia viral oncogene homolog 4, KIF4A  -  kinesin family member 4a, EYA4  -  eyes absent homolog 4 (drosophila), ERCC3  -  excision repair cross-complementing rodent repair deficiency, complementation group 3, ERCC5  -  excision repair cross-complementing rodent repair deficiency, complementation group 5, ERCC6  -  excision repair cross-complementing rodent repair deficiency, complementation group 6, ZNF318  -  zinc finger protein 318, ERN1  -  endoplasmic reticulum to nucleus signaling 1, ESR1  -  estrogen receptor 1, SYT2  -  synaptotagmin ii, ESR2  -  estrogen receptor 2 (er beta), ESRRB  -  estrogen-related receptor beta, DSTYK  -  dual serine/threonine and tyrosine protein kinase, RASGRP3  -  ras guanyl releasing protein 3 (calcium and dag-regulated), ETFA  -  electron-transfer-flavoprotein, alpha polypeptide, ETFDH  -  electron-transferring-flavoprotein dehydrogenase, RAD54B  -  rad54 homolog b (s. cerevisiae), CIZ1  -  cdkn1a interacting zinc finger protein 1, QPCT  -  glutaminyl-peptide cyclotransferase, MECOM  -  mds1 and evi1 complex locus, EWSR1  -  ews rna-binding protein 1, TTLL1  -  tubulin tyrosine ligase-like family, member 1, EXTL2  -  exostosin-like glycosyltransferase 2, EXTL3  -  exostosin-like glycosyltransferase 3, EYA3  -  eyes absent homolog 3 (drosophila), TATDN3  -  tatd dnase domain containing 3, F2  -  coagulation factor ii (thrombin), ARIH1  -  ariadne homolog, ubiquitin-conjugating enzyme e2 binding protein, 1 (drosophila), MTO1  -  mitochondrial trna translation optimization 1, F3  -  coagulation factor iii (thromboplastin, tissue factor), F5  -  coagulation factor v (proaccelerin, labile factor), F7  -  coagulation factor vii (serum prothrombin conversion accelerator), F8  -  coagulation factor viii, procoagulant component, TSHZ2  -  teashirt zinc finger homeobox 2, F9  -  coagulation factor ix, F10  -  coagulation factor x, HECTD1  -  hect domain containing e3 ubiquitin protein ligase 1, ZNF831  -  zinc finger protein 831, F13A1  -  coagulation factor xiii, a1 polypeptide, MGAT4C  -  mannosyl (alpha-1,3-)-glycoprotein beta-1,4-n-acetylglucosaminyltransferase, isozyme c (putative), FABP1  -  fatty acid binding protein 1, liver, FABP2  -  fatty acid binding protein 2, intestinal, FABP3  -  fatty acid binding protein 3, muscle and heart (mammary-derived growth inhibitor), FABP5  -  fatty acid binding protein 5 (psoriasis-associated), MOB4  -  mob family member 4, phocein, TECPR1  -  tectonin beta-propeller repeat containing 1, ACSL1  -  acyl-coa synthetase long-chain family member 1, ACSL3  -  acyl-coa synthetase long-chain family member 3, ACSL4  -  acyl-coa synthetase long-chain family member 4, FAH  -  fumarylacetoacetate hydrolase (fumarylacetoacetase), PTK2B  -  protein tyrosine kinase 2 beta, BPTF  -  bromodomain phd finger transcription factor, USP49  -  ubiquitin specific peptidase 49, FBLN1  -  fibulin 1, SUMF2  -  sulfatase modifying factor 2, FASN  -  fatty acid synthase, FAT1  -  fat atypical cadherin 1, FAT2  -  fat atypical cadherin 2, PIGU  -  phosphatidylinositol glycan anchor biosynthesis, class u, FBLN2  -  fibulin 2, FBN1  -  fibrillin 1, FBN2  -  fibrillin 2, EFEMP1  -  egf containing fibulin-like extracellular matrix protein 1, POLR1A  -  polymerase (rna) i polypeptide a, 194kda, PAMR1  -  peptidase domain containing associated with muscle regeneration 1, RNF19A  -  ring finger protein 19a, e3 ubiquitin protein ligase, NUP35  -  nucleoporin 35kda, MTHFD1L  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1-like, FDFT1  -  farnesyl-diphosphate farnesyltransferase 1, FDPS  -  farnesyl diphosphate synthase, MITD1  -  mit, microtubule interacting and transport, domain containing 1, CMPK2  -  cytidine monophosphate (ump-cmp) kinase 2, mitochondrial, FDX1  -  ferredoxin 1, FBLN7  -  fibulin 7, FEN1  -  flap structure-specific endonuclease 1, ZNF521  -  zinc finger protein 521, BBS5  -  bardet-biedl syndrome 5, FGF1  -  fibroblast growth factor 1 (acidic), FGF2  -  fibroblast growth factor 2 (basic), ACMSD  -  aminocarboxymuconate semialdehyde decarboxylase, SAMHD1  -  sam domain and hd domain 1, FGFR1  -  fibroblast growth factor receptor 1, PNKD  -  paroxysmal nonkinesigenic dyskinesia, FGFR3  -  fibroblast growth factor receptor 3, ACVR1C  -  activin a receptor, type ic, FGFR2  -  fibroblast growth factor receptor 2, OSR1  -  odd-skipped related 1 (drosophila), FGFR4  -  fibroblast growth factor receptor 4, UBR3  -  ubiquitin protein ligase e3 component n-recognin 3 (putative), PARS2  -  prolyl-trna synthetase 2, mitochondrial (putative), FHL1  -  four and a half lim domains 1, MMACHC  -  methylmalonic aciduria (cobalamin deficiency) cblc type, with homocystinuria, FHL2  -  four and a half lim domains 2, EGFL6  -  egf-like-domain, multiple 6, FHL3  -  four and a half lim domains 3, TIPARP  -  tcdd-inducible poly(adp-ribose) polymerase, ZFAND2B  -  zinc finger, an1-type domain 2b, CKMT1A  -  creatine kinase, mitochondrial 1a, DNAH1  -  dynein, axonemal, heavy chain 1, CPO  -  carboxypeptidase o, HINFP  -  histone h4 transcription factor, ULK3  -  unc-51 like kinase 3, SNED1  -  sushi, nidogen and egf-like domains 1, RNF167  -  ring finger protein 167, MOXD1  -  monooxygenase, dbh-like 1, OTOL1  -  otolin 1, L3MBTL1  -  l(3)mbt-like 1 (drosophila), PEF1  -  penta-ef-hand domain containing 1, TRIM71  -  tripartite motif containing 71, e3 ubiquitin protein ligase, FLII  -  flightless i homolog (drosophila), ACOT11  -  acyl-coa thioesterase 11, SUSD5  -  sushi domain containing 5, FLT1  -  fms-related tyrosine kinase 1, FLT3  -  fms-related tyrosine kinase 3, GLCE  -  glucuronic acid epimerase, ZNF451  -  zinc finger protein 451, FLT4  -  fms-related tyrosine kinase 4, FMO3  -  flavin containing monooxygenase 3, GRK7  -  g protein-coupled receptor kinase 7, FMO5  -  flavin containing monooxygenase 5, LTN1  -  listerin e3 ubiquitin protein ligase 1, FN1  -  fibronectin 1, DNM3  -  dynamin 3, FNTB  -  farnesyltransferase, caax box, beta, GLYCTK  -  glycerate kinase, FOLH1  -  folate hydrolase (prostate-specific membrane antigen) 1, PPM1M  -  protein phosphatase, mg2+/mn2+ dependent, 1m, SNTN  -  sentan, cilia apical structure protein, APPL1  -  adaptor protein, phosphotyrosine interaction, ph domain and leucine zipper containing 1, HACL1  -  2-hydroxyacyl-coa lyase 1, LIN54  -  lin-54 homolog (c. elegans), AASDH  -  aminoadipate-semialdehyde dehydrogenase, WIPI2  -  wd repeat domain, phosphoinositide interacting 2, ENPP6  -  ectonucleotide pyrophosphatase/phosphodiesterase 6, PYGO1  -  pygopus homolog 1 (drosophila), LDLRAP1  -  low density lipoprotein receptor adaptor protein 1, TES  -  testis derived transcript (3 lim domains), ZBTB20  -  zinc finger and btb domain containing 20, PHF19  -  phd finger protein 19, KIF26A  -  kinesin family member 26a, ABCA12  -  atp-binding cassette, sub-family a (abc1), member 12, MTG2  -  mitochondrial ribosome-associated gtpase 2, GMEB2  -  glucocorticoid modulatory element binding protein 2, PITPNC1  -  phosphatidylinositol transfer protein, cytoplasmic 1, FRK  -  fyn-related kinase, CLVS2  -  clavesin 2, ARL5A  -  adp-ribosylation factor-like 5a, TRIM50  -  tripartite motif containing 50, CABYR  -  calcium binding tyrosine-(y)-phosphorylation regulated, MTOR  -  mechanistic target of rapamycin (serine/threonine kinase), FBXO5  -  f-box protein 5, NR5A2  -  nuclear receptor subfamily 5, group a, member 2, LRGUK  -  leucine-rich repeats and guanylate kinase domain containing, FTH1  -  ferritin, heavy polypeptide 1, ERAL1  -  era-like 12s mitochondrial rrna chaperone 1, ARFGAP3  -  adp-ribosylation factor gtpase activating protein 3, AK5  -  adenylate kinase 5, FTL  -  ferritin, light polypeptide, GBGT1  -  globoside alpha-1,3-n-acetylgalactosaminyltransferase 1, ADHFE1  -  alcohol dehydrogenase, iron containing, 1, GNL3  -  guanine nucleotide binding protein-like 3 (nucleolar), LHX6  -  lim homeobox 6, FYN  -  fyn oncogene related to src, fgr, yes, XRCC6  -  x-ray repair complementing defective repair in chinese hamster cells 6, MYOF  -  myoferlin, ZNF704  -  zinc finger protein 704, LATS2  -  large tumor suppressor kinase 2, GAD2  -  glutamate decarboxylase 2 (pancreatic islets and brain, 65kda), GALK1  -  galactokinase 1, GALK2  -  galactokinase 2, GALNS  -  galactosamine (n-acetyl)-6-sulfate sulfatase, GALNT1  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 1 (galnac-t1), AMER1  -  apc membrane recruitment protein 1, PCOLCE2  -  procollagen c-endopeptidase enhancer 2, GAP43  -  growth associated protein 43, GART  -  phosphoribosylglycinamide formyltransferase, phosphoribosylglycinamide synthetase, phosphoribosylaminoimidazole synthetase, GAS6  -  growth arrest-specific 6, GATA2  -  gata binding protein 2, GATA3  -  gata binding protein 3, GATA4  -  gata binding protein 4, GATA6  -  gata binding protein 6, GBE1  -  glucan (1,4-alpha-), branching enzyme 1, GCH1  -  gtp cyclohydrolase 1, GCHFR  -  gtp cyclohydrolase i feedback regulator, NR6A1  -  nuclear receptor subfamily 6, group a, member 1, MSTN  -  myostatin, GEM  -  gtp binding protein overexpressed in skeletal muscle, GFER  -  growth factor, augmenter of liver regeneration, NUFIP1  -  nuclear fragile x mental retardation protein interacting protein 1, GFI1  -  growth factor independent 1 transcription repressor, RPS6KC1  -  ribosomal protein s6 kinase, 52kda, polypeptide 1, SH3YL1  -  sh3 domain containing, ysc84-like 1 (s. cerevisiae), ZBTB46  -  zinc finger and btb domain containing 46, GK  -  glycerol kinase, GCLC  -  glutamate-cysteine ligase, catalytic subunit, GLE1  -  gle1 rna export mediator, GLI1  -  gli family zinc finger 1, GLI2  -  gli family zinc finger 2, GLI3  -  gli family zinc finger 3, GLO1  -  glyoxalase i, GLRA1  -  glycine receptor, alpha 1, GLRA2  -  glycine receptor, alpha 2, GLRB  -  glycine receptor, beta, GLUD1  -  glutamate dehydrogenase 1, ADAMTS14  -  adam metallopeptidase with thrombospondin type 1 motif, 14, GLUL  -  glutamate-ammonia ligase, GMDS  -  gdp-mannose 4,6-dehydratase, GMPR  -  guanosine monophosphate reductase, GNA11  -  guanine nucleotide binding protein (g protein), alpha 11 (gq class), GNA12  -  guanine nucleotide binding protein (g protein) alpha 12, GNAI1  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 1, GNAI2  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 2, GNAI3  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 3, GNAL  -  guanine nucleotide binding protein (g protein), alpha activating activity polypeptide, olfactory type, CHORDC1  -  cysteine and histidine-rich domain (chord) containing 1, GNS  -  glucosamine (n-acetyl)-6-sulfatase, STK35  -  serine/threonine kinase 35, RNF11  -  ring finger protein 11, GOT2  -  glutamic-oxaloacetic transaminase 2, mitochondrial, MIB2  -  mindbomb e3 ubiquitin protein ligase 2, TPK1  -  thiamin pyrophosphokinase 1, GPC1  -  glypican 1, GPD2  -  glycerol-3-phosphate dehydrogenase 2 (mitochondrial), MLH3  -  mutl homolog 3 (e. coli), ATP2C1  -  atpase, ca++ transporting, type 2c, member 1, ACAD8  -  acyl-coa dehydrogenase family, member 8, NOX1  -  nadph oxidase 1, FRMPD2  -  ferm and pdz domain containing 2, GPR12  -  g protein-coupled receptor 12, PPA2  -  pyrophosphatase (inorganic) 2, LPAR4  -  lysophosphatidic acid receptor 4, DAPP1  -  dual adaptor of phosphotyrosine and 3-phosphoinositides, VPS41  -  vacuolar protein sorting 41 homolog (s. cerevisiae), FOXP1  -  forkhead box p1, B3GAT1  -  beta-1,3-glucuronyltransferase 1 (glucuronosyltransferase p), SESN3  -  sestrin 3, GPR39  -  g protein-coupled receptor 39, GRK4  -  g protein-coupled receptor kinase 4, GRK5  -  g protein-coupled receptor kinase 5, GRK6  -  g protein-coupled receptor kinase 6, EIF2AK1  -  eukaryotic translation initiation factor 2-alpha kinase 1, ZBTB11  -  zinc finger and btb domain containing 11, PRICKLE1  -  prickle homolog 1 (drosophila), AMDHD1  -  amidohydrolase domain containing 1, SMC1B  -  structural maintenance of chromosomes 1b, SNX5  -  sorting nexin 5, CPNE7  -  copine vii, CPNE8  -  copine viii, STK36  -  serine/threonine kinase 36, GRIN1  -  glutamate receptor, ionotropic, n-methyl d-aspartate 1, GRIN2A  -  glutamate receptor, ionotropic, n-methyl d-aspartate 2a, GRIN2B  -  glutamate receptor, ionotropic, n-methyl d-aspartate 2b, BRPF3  -  bromodomain and phd finger containing, 3, NDOR1  -  nadph dependent diflavin oxidoreductase 1, SALL3  -  sal-like 3 (drosophila), GRM7  -  glutamate receptor, metabotropic 7, LACC1  -  laccase (multicopper oxidoreductase) domain containing 1, VPS4A  -  vacuolar protein sorting 4 homolog a (s. cerevisiae), GSK3B  -  glycogen synthase kinase 3 beta, GSN  -  gelsolin, GSPT1  -  g1 to s phase transition 1, GSR  -  glutathione reductase, GSS  -  glutathione synthetase, NMRK2  -  nicotinamide riboside kinase 2, GNMT  -  glycine n-methyltransferase, ARFIP1  -  adp-ribosylation factor interacting protein 1, MSH6  -  muts homolog 6 (e. coli), GTF2B  -  general transcription factor iib, GTF2E1  -  general transcription factor iie, polypeptide 1, alpha 56kda, SESN1  -  sestrin 1, GTF2F2  -  general transcription factor iif, polypeptide 2, 30kda, NFU1  -  nfu1 iron-sulfur cluster scaffold homolog (s. cerevisiae), PCDH17  -  protocadherin 17, GTF3A  -  general transcription factor iiia, BRF1  -  brf1, rna polymerase iii transcription initiation factor 90 kda subunit, GUCY1A2  -  guanylate cyclase 1, soluble, alpha 2, GUCA1A  -  guanylate cyclase activator 1a (retina), GUCA1B  -  guanylate cyclase activator 1b (retina), GUCY1A3  -  guanylate cyclase 1, soluble, alpha 3, HAPLN3  -  hyaluronan and proteoglycan link protein 3, GUCY1B3  -  guanylate cyclase 1, soluble, beta 3, GUCY2C  -  guanylate cyclase 2c (heat stable enterotoxin receptor), GUCY2F  -  guanylate cyclase 2f, retinal, GUK1  -  guanylate kinase 1, PDLIM3  -  pdz and lim domain 3, TTBK2  -  tau tubulin kinase 2, RLTPR  -  rgd motif, leucine rich repeats, tropomodulin domain and proline-rich containing, ZNF330  -  zinc finger protein 330, RAB30  -  rab30, member ras oncogene family, PCDH11X  -  protocadherin 11 x-linked, ANGPTL3  -  angiopoietin-like 3, RPS6KA6  -  ribosomal protein s6 kinase, 90kda, polypeptide 6, HABP2  -  hyaluronan binding protein 2, RABGEF1  -  rab guanine nucleotide exchange factor (gef) 1, HAGH  -  hydroxyacylglutathione hydrolase, POLL  -  polymerase (dna directed), lambda, HADH  -  hydroxyacyl-coa dehydrogenase, MGAT5B  -  mannosyl (alpha-1,6-)-glycoprotein beta-1,6-n-acetyl-glucosaminyltransferase, isozyme b, TOR1B  -  torsin family 1, member b (torsin b), RTN4RL1  -  reticulon 4 receptor-like 1, TOR2A  -  torsin family 2, member a, HBB  -  hemoglobin, beta, PCLO  -  piccolo presynaptic cytomatrix protein, PPP2R3B  -  protein phosphatase 2, regulatory subunit b'', beta, HCK  -  hemopoietic cell kinase, EME1  -  essential meiotic structure-specific endonuclease 1, HDC  -  histidine decarboxylase, CDH20  -  cadherin 20, type 2, CFH  -  complement factor h, HGD  -  homogentisate 1,2-dioxygenase, HIP1  -  huntingtin interacting protein 1, DSG4  -  desmoglein 4, HIVEP1  -  human immunodeficiency virus type i enhancer binding protein 1, HIVEP2  -  human immunodeficiency virus type i enhancer binding protein 2, HK2  -  hexokinase 2, ZBTB48  -  zinc finger and btb domain containing 48, TMPPE  -  transmembrane protein with metallophosphoesterase domain, HLCS  -  holocarboxylase synthetase (biotin-(proprionyl-coa-carboxylase (atp-hydrolysing)) ligase), RNF222  -  ring finger protein 222, HMGCL  -  3-hydroxymethyl-3-methylglutaryl-coa lyase, HMMR  -  hyaluronan-mediated motility receptor (rhamm), HMOX1  -  heme oxygenase (decycling) 1, HMOX2  -  heme oxygenase (decycling) 2, ATP8B3  -  atpase, aminophospholipid transporter, class i, type 8b, member 3, HNF4A  -  hepatocyte nuclear factor 4, alpha, HNF4G  -  hepatocyte nuclear factor 4, gamma, SYT6  -  synaptotagmin vi, PHF13  -  phd finger protein 13, HNRNPU  -  heterogeneous nuclear ribonucleoprotein u (scaffold attachment factor a), PM20D1  -  peptidase m20 domain containing 1, MOB3C  -  mob kinase activator 3c, GLIS1  -  glis family zinc finger 1, RC3H1  -  ring finger and ccch-type domains 1, ZNF362  -  zinc finger protein 362, PIRT  -  phosphoinositide-interacting regulator of transient receptor potential channels, EXOC8  -  exocyst complex component 8, PDIK1L  -  pdlim1 interacting kinase 1 like, HPCAL1  -  hippocalcin-like 1, HPD  -  4-hydroxyphenylpyruvate dioxygenase, HPGD  -  hydroxyprostaglandin dehydrogenase 15-(nad), HRAS  -  harvey rat sarcoma viral oncogene homolog, AGFG1  -  arfgap with fg repeats 1, HRG  -  histidine-rich glycoprotein, NKIRAS2  -  nfkb inhibitor interacting ras-like 2, NKIRAS1  -  nfkb inhibitor interacting ras-like 1, CDH19  -  cadherin 19, type 2, DLL1  -  delta-like 1 (drosophila), DNAJA1  -  dnaj (hsp40) homolog, subfamily a, member 1, AIFM3  -  apoptosis-inducing factor, mitochondrion-associated, 3, HSPA4  -  heat shock 70kda protein 4, HSPA8  -  heat shock 70kda protein 8, HSPA9  -  heat shock 70kda protein 9 (mortalin), HSPD1  -  heat shock 60kda protein 1 (chaperonin), TTL  -  tubulin tyrosine ligase, HSPG2  -  heparan sulfate proteoglycan 2, SMYD1  -  set and mynd domain containing 1, HTR1F  -  5-hydroxytryptamine (serotonin) receptor 1f, g protein-coupled, HTR2A  -  5-hydroxytryptamine (serotonin) receptor 2a, g protein-coupled, HTR2B  -  5-hydroxytryptamine (serotonin) receptor 2b, g protein-coupled, COMMD1  -  copper metabolism (murr1) domain containing 1, HTR2C  -  5-hydroxytryptamine (serotonin) receptor 2c, g protein-coupled, HTR3A  -  5-hydroxytryptamine (serotonin) receptor 3a, ionotropic, HTR4  -  5-hydroxytryptamine (serotonin) receptor 4, g protein-coupled, HTR5A  -  5-hydroxytryptamine (serotonin) receptor 5a, g protein-coupled, IARS  -  isoleucyl-trna synthetase, PUS10  -  pseudouridylate synthase 10, ZNF385B  -  zinc finger protein 385b, IDE  -  insulin-degrading enzyme, IDH1  -  isocitrate dehydrogenase 1 (nadp+), soluble, IDS  -  iduronate 2-sulfatase, CFI  -  complement factor i, DTX3L  -  deltex 3-like (drosophila), CPNE9  -  copine family member ix, CCDC80  -  coiled-coil domain containing 80, CMC1  -  cox assembly mitochondrial protein 1 homolog (s. cerevisiae), NEK10  -  nima-related kinase 10, IGF2R  -  insulin-like growth factor 2 receptor, FGD5  -  fyve, rhogef and ph domain containing 5, ZNF827  -  zinc finger protein 827, NFXL1  -  nuclear transcription factor, x-box binding-like 1, IGHMBP2  -  immunoglobulin mu binding protein 2, PPM1K  -  protein phosphatase, mg2+/mn2+ dependent, 1k, TRMT44  -  trna methyltransferase 44 homolog (s. cerevisiae), DAB2IP  -  dab2 interacting protein, IHH  -  indian hedgehog, IKBKB  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase beta, ZMAT2  -  zinc finger, matrin-type 2, SH3RF2  -  sh3 domain containing ring finger 2, RNF145  -  ring finger protein 145, ZC2HC1B  -  zinc finger, c2hc-type containing 1b, SNRNP48  -  small nuclear ribonucleoprotein 48kda (u11/u12), PNLDC1  -  poly(a)-specific ribonuclease (parn)-like domain containing 1, RNF217  -  ring finger protein 217, ABCA13  -  atp-binding cassette, sub-family a (abc1), member 13, IMPA1  -  inositol(myo)-1(or 4)-monophosphatase 1, IMPA2  -  inositol(myo)-1(or 4)-monophosphatase 2, IMPDH2  -  imp (inosine 5'-monophosphate) dehydrogenase 2, IMPG1  -  interphotoreceptor matrix proteoglycan 1, ING1  -  inhibitor of growth family, member 1, INPP5B  -  inositol polyphosphate-5-phosphatase, 75kda, AMZ1  -  archaelysin family metallopeptidase 1, INSM1  -  insulinoma-associated 1, ITGA6  -  integrin, alpha 6, IRAK2  -  interleukin-1 receptor-associated kinase 2, IREB2  -  iron-responsive element binding protein 2, ESCO2  -  establishment of sister chromatid cohesion n-acetyltransferase 2, ITGA9  -  integrin, alpha 9, ITGAV  -  integrin, alpha v, ITGB1  -  integrin, beta 1 (fibronectin receptor, beta polypeptide, antigen cd29 includes mdf2, msk12), MCMDC2  -  minichromosome maintenance domain containing 2, ITGB2  -  integrin, beta 2 (complement component 3 receptor 3 and 4 subunit), CLVS1  -  clavesin 1, ITK  -  il2-inducible t-cell kinase, STT3A  -  stt3a, subunit of the oligosaccharyltransferase complex (catalytic), ITPK1  -  inositol-tetrakisphosphate 1-kinase, ITPKA  -  inositol-trisphosphate 3-kinase a, ITPKB  -  inositol-trisphosphate 3-kinase b, ITPR1  -  inositol 1,4,5-trisphosphate receptor, type 1, ITPR2  -  inositol 1,4,5-trisphosphate receptor, type 2, AK8  -  adenylate kinase 8, IVD  -  isovaleryl-coa dehydrogenase, TTLL11  -  tubulin tyrosine ligase-like family, member 11, JAG2  -  jagged 2, JAK1  -  janus kinase 1, KCNA4  -  potassium voltage-gated channel, shaker-related subfamily, member 4, KCND2  -  potassium voltage-gated channel, shal-related subfamily, member 2, KCND3  -  potassium voltage-gated channel, shal-related subfamily, member 3, KCNH1  -  potassium voltage-gated channel, subfamily h (eag-related), member 1, KCNJ1  -  potassium inwardly-rectifying channel, subfamily j, member 1, KCNJ2  -  potassium inwardly-rectifying channel, subfamily j, member 2, KCNJ8  -  potassium inwardly-rectifying channel, subfamily j, member 8, ZDHHC15  -  zinc finger, dhhc-type containing 15, C11orf54  -  chromosome 11 open reading frame 54, KCNQ1  -  potassium voltage-gated channel, kqt-like subfamily, member 1, KDR  -  kinase insert domain receptor (a type iii receptor tyrosine kinase), KEL  -  kell blood group, metallo-endopeptidase, KIF2A  -  kinesin heavy chain member 2a, KIF3C  -  kinesin family member 3c, NOB1  -  nin1/rpn12 binding protein 1 homolog (s. cerevisiae), KIF5B  -  kinesin family member 5b, KIF5C  -  kinesin family member 5c, KIFC3  -  kinesin family member c3, KLF15  -  kruppel-like factor 15, KIT  -  v-kit hardy-zuckerman 4 feline sarcoma viral oncogene homolog, PPTC7  -  ptc7 protein phosphatase homolog (s. cerevisiae), ZC3H7A  -  zinc finger ccch-type containing 7a, DGKH  -  diacylglycerol kinase, eta, KNG1  -  kininogen 1, ZBTB44  -  zinc finger and btb domain containing 44, KIF11  -  kinesin family member 11, SETD2  -  set domain containing 2, KIF25  -  kinesin family member 25, KPNB1  -  karyopherin (importin) beta 1, GTPBP8  -  gtp-binding protein 8 (putative), KRAS  -  kirsten rat sarcoma viral oncogene homolog, UBE2T  -  ubiquitin-conjugating enzyme e2t (putative), OTUD7A  -  otu domain containing 7a, DROSHA  -  drosha, ribonuclease type iii, ADAL  -  adenosine deaminase-like, ZFPM1  -  zinc finger protein, fog family member 1, TBK1  -  tank-binding kinase 1, MYLIP  -  myosin regulatory light chain interacting protein, PHOSPHO1  -  phosphatase, orphan 1, RHBDL3  -  rhomboid, veinlet-like 3 (drosophila), RACGAP1  -  rac gtpase activating protein 1, UHRF1  -  ubiquitin-like with phd and ring finger domains 1, PACSIN3  -  protein kinase c and casein kinase substrate in neurons 3, LAMC2  -  laminin, gamma 2, OLA1  -  obg-like atpase 1, LASP1  -  lim and sh3 protein 1, LBR  -  lamin b receptor, LCP1  -  lymphocyte cytosolic protein 1 (l-plastin), DENND1B  -  denn/madd domain containing 1b, SNX8  -  sorting nexin 8, SNX10  -  sorting nexin 10, GNL2  -  guanine nucleotide binding protein-like 2 (nucleolar), LETM1  -  leucine zipper-ef-hand containing transmembrane protein 1, EEF2K  -  eukaryotic elongation factor-2 kinase, HFM1  -  hfm1, atp-dependent dna helicase homolog (s. cerevisiae), LIG3  -  ligase iii, dna, atp-dependent, LIG4  -  ligase iv, dna, atp-dependent, TTLL9  -  tubulin tyrosine ligase-like family, member 9, NME7  -  nme/nm23 family member 7, ABLIM1  -  actin binding lim protein 1, LIMK2  -  lim domain kinase 2, LIPC  -  lipase, hepatic, SNX12  -  sorting nexin 12, LMO1  -  lim domain only 1 (rhombotin 1), PADI1  -  peptidyl arginine deiminase, type i, LMO7  -  lim domain 7, LMX1A  -  lim homeobox transcription factor 1, alpha, LMX1B  -  lim homeobox transcription factor 1, beta, RNF168  -  ring finger protein 168, e3 ubiquitin protein ligase, PDZRN4  -  pdz domain containing ring finger 4, SBK2  -  sh3-binding domain kinase family, member 2, LOXL1  -  lysyl oxidase-like 1, PRICKLE2  -  prickle homolog 2 (drosophila), LOXL2  -  lysyl oxidase-like 2, POMT2  -  protein-o-mannosyltransferase 2, BBS12  -  bardet-biedl syndrome 12, DCLK2  -  doublecortin-like kinase 2, SLC25A24  -  solute carrier family 25 (mitochondrial carrier; phosphate carrier), member 24, NRBP1  -  nuclear receptor binding protein 1, ZBTB49  -  zinc finger and btb domain containing 49, LRP1  -  low density lipoprotein receptor-related protein 1, LRP2  -  low density lipoprotein receptor-related protein 2, LRP4  -  low density lipoprotein receptor-related protein 4, LRPAP1  -  low density lipoprotein receptor-related protein associated protein 1, LTA4H  -  leukotriene a4 hydrolase, LTBP1  -  latent transforming growth factor beta binding protein 1, LTBP2  -  latent transforming growth factor beta binding protein 2, PACSIN1  -  protein kinase c and casein kinase substrate in neurons 1, BAZ2B  -  bromodomain adjacent to zinc finger domain, 2b, LMCD1  -  lim and cysteine-rich domains 1, THAP5  -  thap domain containing 5, ZNF800  -  zinc finger protein 800, NBR1  -  neighbor of brca1 gene 1, SLC30A8  -  solute carrier family 30 (zinc transporter), member 8, KCNIP2  -  kv channel interacting protein 2, KCNIP1  -  kv channel interacting protein 1, SMAD1  -  smad family member 1, SMAD3  -  smad family member 3, SMAD5  -  smad family member 5, SMAD6  -  smad family member 6, EHD4  -  eh-domain containing 4, SMAD9  -  smad family member 9, EHD3  -  eh-domain containing 3, PIK3R4  -  phosphoinositide-3-kinase, regulatory subunit 4, OIT3  -  oncoprotein induced transcript 3, ZBTB21  -  zinc finger and btb domain containing 21, SCAPER  -  s-phase cyclin a-associated protein in the er, CRNN  -  cornulin, RRM2B  -  ribonucleotide reductase m2 b (tp53 inducible), SMARCAL1  -  swi/snf related, matrix associated, actin dependent regulator of chromatin, subfamily a-like 1, DHX36  -  deah (asp-glu-ala-his) box polypeptide 36, DUOX2  -  dual oxidase 2, MAK  -  male germ cell-associated kinase, NOX4  -  nadph oxidase 4, MAN2A2  -  mannosidase, alpha, class 2a, member 2, MAN2C1  -  mannosidase, alpha, class 2c, member 1, MAOB  -  monoamine oxidase b, MAP1B  -  microtubule-associated protein 1b, GALNT9  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 9 (galnac-t9), MAPT  -  microtubule-associated protein tau, ITSN2  -  intersectin 2, MARK1  -  map/microtubule affinity-regulating kinase 1, MARK3  -  map/microtubule affinity-regulating kinase 3, MAT1A  -  methionine adenosyltransferase i, alpha, MATN1  -  matrilin 1, cartilage matrix protein, PNPLA8  -  patatin-like phospholipase domain containing 8, MATN2  -  matrilin 2, MATN3  -  matrilin 3, MB  -  myoglobin, MBNL1  -  muscleblind-like splicing regulator 1, ASAP1  -  arfgap with sh3 domain, ankyrin repeat and ph domain 1, MCM2  -  minichromosome maintenance complex component 2, MCM3  -  minichromosome maintenance complex component 3, MCM4  -  minichromosome maintenance complex component 4, MCM5  -  minichromosome maintenance complex component 5, ADAMTS15  -  adam metallopeptidase with thrombospondin type 1 motif, 15, ADAMTS18  -  adam metallopeptidase with thrombospondin type 1 motif, 18, MDM2  -  mdm2 oncogene, e3 ubiquitin protein ligase, MDM4  -  mdm4 p53 binding protein homolog (mouse), ZNF384  -  zinc finger protein 384, RNF141  -  ring finger protein 141, ASXL1  -  additional sex combs like 1 (drosophila), IMPG2  -  interphotoreceptor matrix proteoglycan 2, RHOV  -  ras homolog family member v, MAP3K3  -  mitogen-activated protein kinase kinase kinase 3, MAP3K4  -  mitogen-activated protein kinase kinase kinase 4, RAB8A  -  rab8a, member ras oncogene family, MEP1A  -  meprin a, alpha (paba peptide hydrolase), MEP1B  -  meprin a, beta, MET  -  met proto-oncogene, CLYBL  -  citrate lyase beta like, MFGE8  -  milk fat globule-egf factor </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> protein, MGAT2  -  mannosyl (alpha-1,6-)-glycoprotein beta-1,2-n-acetylglucosaminyltransferase, COQ6  -  coenzyme q6 monooxygenase, MGAT5  -  mannosyl (alpha-1,6-)-glycoprotein beta-1,6-n-acetyl-glucosaminyltransferase, AMDHD2  -  amidohydrolase domain containing 2, MGMT  -  o-6-methylguanine-dna methyltransferase, MGP  -  matrix gla protein, MGST1  -  microsomal glutathione s-transferase 1, MGST2  -  microsomal glutathione s-transferase 2, CIITA  -  class ii, major histocompatibility complex, transactivator, HDDC2  -  hd domain containing 2, GLRX2  -  glutaredoxin 2, MID1  -  midline 1 (opitz/bbb syndrome), VPS36  -  vacuolar protein sorting 36 homolog (s. cerevisiae), MIPEP  -  mitochondrial intermediate peptidase, MKI67  -  antigen identified by monoclonal antibody ki-67, ZNF593  -  zinc finger protein 593, AGO3  -  argonaute risc catalytic component 3, MLH1  -  mutl homolog 1, colon cancer, nonpolyposis type 2 (e. coli), MAP3K9  -  mitogen-activated protein kinase kinase kinase 9, LAP3  -  leucine aminopeptidase 3, KMT2A  -  lysine (k)-specific methyltransferase 2a, ATL1  -  atlastin gtpase 1, MLLT6  -  myeloid/lymphoid or mixed-lineage leukemia (trithorax homolog, drosophila); translocated to, 6, NR3C2  -  nuclear receptor subfamily 3, group c, member 2, MME  -  membrane metallo-endopeptidase, MMP2  -  matrix metallopeptidase 2 (gelatinase a, 72kda gelatinase, 72kda type iv collagenase), MMP3  -  matrix metallopeptidase 3 (stromelysin 1, progelatinase), MMP7  -  matrix metallopeptidase 7 (matrilysin, uterine), DNAH10  -  dynein, axonemal, heavy chain 10, MMP9  -  matrix metallopeptidase 9 (gelatinase b, 92kda gelatinase, 92kda type iv collagenase), APIP  -  apaf1 interacting protein, CUTC  -  cutc copper transporter, MMP11  -  matrix metallopeptidase 11 (stromelysin 3), MMP13  -  matrix metallopeptidase 13 (collagenase 3), THAP4  -  thap domain containing 4, ZFC3H1  -  zinc finger, c3h1-type containing, MMP17  -  matrix metallopeptidase 17 (membrane-inserted), CRYL1  -  crystallin, lambda 1, TNNI3K  -  tnni3 interacting kinase, MNAT1  -  mnat cdk-activating kinase assembly factor 1, ANO6  -  anoctamin 6, ARID2  -  at rich interactive domain 2 (arid, rfx-like), MOCS1  -  molybdenum cofactor synthesis 1, ADIPOR1  -  adiponectin receptor 1, TRNT1  -  trna nucleotidyl transferase, cca-adding, 1, MOS  -  v-mos moloney murine sarcoma viral oncogene homolog, MOV10  -  mov10, moloney leukemia virus 10, homolog (mouse), MPI  -  mannose phosphate isomerase, PHF20L1  -  phd finger protein 20-like 1, LACTB2  -  lactamase, beta 2, MRE11A  -  mre11 meiotic recombination 11 homolog a (s. cerevisiae), SUV420H1  -  suppressor of variegation 4-20 homolog 1 (drosophila), ABCC1  -  atp-binding cassette, sub-family c (cftr/mrp), member 1, MLKL  -  mixed lineage kinase domain-like, ACSF3  -  acyl-coa synthetase family member 3, NLRC3  -  nlr family, card domain containing 3, NSMCE1  -  non-smc element 1 homolog (s. cerevisiae), ZNF706  -  zinc finger protein 706, IRAK4  -  interleukin-1 receptor-associated kinase 4, RNFT1  -  ring finger protein, transmembrane 1, DYNC1LI1  -  dynein, cytoplasmic 1, light intermediate chain 1, HSD17B12  -  hydroxysteroid (17-beta) dehydrogenase 12, ING4  -  inhibitor of growth family, member 4, C1orf86  -  chromosome 1 open reading frame 86, SERPINA10  -  serpin peptidase inhibitor, clade a (alpha-1 antiproteinase, antitrypsin), member 10, EGFL7  -  egf-like-domain, multiple 7, MYO1B  -  myosin ib, DBR1  -  debranching rna lariats 1, AADAT  -  aminoadipate aminotransferase, CYB5R4  -  cytochrome b5 reductase 4, MYO15A  -  myosin xva, MSH2  -  muts homolog 2, colon cancer, nonpolyposis type 1 (e. coli), MSH4  -  muts homolog 4 (e. coli), MSH5  -  muts homolog 5 (e. coli), TUBD1  -  tubulin, delta 1, HAO2  -  hydroxyacid oxidase 2 (long chain), HSPA14  -  heat shock 70kda protein 14, GPN3  -  gpn-loop gtpase 3, CRBN  -  cereblon, RNF215  -  ring finger protein 215, ZNF639  -  zinc finger protein 639, PLCE1  -  phospholipase c, epsilon 1, ZBTB8A  -  zinc finger and btb domain containing 8a, NIN  -  ninein (gsk3b interacting protein), APLF  -  aprataxin and pnkp like factor, DDX47  -  dead (asp-glu-ala-asp) box polypeptide 47, PIKFYVE  -  phosphoinositide kinase, fyve finger containing, ANXA8  -  annexin a8, GLRX5  -  glutaredoxin 5, LIPH  -  lipase, member h, ARL13B  -  adp-ribosylation factor-like 13b, MTF1  -  metal-regulatory transcription factor 1, PHF20  -  phd finger protein 20, MTHFD1  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1, methenyltetrahydrofolate cyclohydrolase, formyltetrahydrofolate synthetase, VRK3  -  vaccinia related kinase 3, MTHFR  -  methylenetetrahydrofolate reductase (nad(p)h), MTIF2  -  mitochondrial translational initiation factor 2, CENPV  -  centromere protein v, NT5C3A  -  5'-nucleotidase, cytosolic iiia, MTR  -  5-methyltetrahydrofolate-homocysteine methyltransferase, MTRR  -  5-methyltetrahydrofolate-homocysteine methyltransferase reductase, TRIM65  -  tripartite motif containing 65, UNC13D  -  unc-13 homolog d (c. elegans), NCF1  -  neutrophil cytosolic factor 1, RAB12  -  rab12, member ras oncogene family, KLF3  -  kruppel-like factor 3 (basic), STT3B  -  stt3b, subunit of the oligosaccharyltransferase complex (catalytic), DNAJC27  -  dnaj (hsp40) homolog, subfamily c, member 27, PDE12  -  phosphodiesterase 12, BFAR  -  bifunctional apoptosis regulator, RASL12  -  ras-like, family 12, TRIM37  -  tripartite motif containing 37, PCDH12  -  protocadherin 12, MUTYH  -  muty homolog (e. coli), MVK  -  mevalonate kinase, MX1  -  myxovirus (influenza virus) resistance 1, interferon-inducible protein p78 (mouse), CYP39A1  -  cytochrome p450, family 39, subfamily a, polypeptide 1, STK32A  -  serine/threonine kinase 32a, TMEM184A  -  transmembrane protein 184a, PHF21A  -  phd finger protein 21a, MYH4  -  myosin, heavy chain 4, skeletal muscle, MYH6  -  myosin, heavy chain 6, cardiac muscle, alpha, MYH9  -  myosin, heavy chain 9, non-muscle, MYH10  -  myosin, heavy chain 10, non-muscle, MYH11  -  myosin, heavy chain 11, smooth muscle, MYLK  -  myosin light chain kinase, TAOK3  -  tao kinase 3, MYO1C  -  myosin ic, MYO1D  -  myosin id, MYO1E  -  myosin ie, MYO5A  -  myosin va (heavy chain 12, myoxin), MYO6  -  myosin vi, MBTPS2  -  membrane-bound transcription factor peptidase, site 2, MYO7A  -  myosin viia, MYO9A  -  myosin ixa, CHST15  -  carbohydrate (n-acetylgalactosamine 4-sulfate 6-o) sulfotransferase 15, MYO9B  -  myosin ixb, ZMYND10  -  zinc finger, mynd-type containing 10, MYO10  -  myosin x, UBR5  -  ubiquitin protein ligase e3 component n-recognin 5, MYOC  -  myocilin, trabecular meshwork inducible glucocorticoid response, SNX7  -  sorting nexin 7, MYT1  -  myelin transcription factor 1, HIPK1  -  homeodomain interacting protein kinase 1, AMER3  -  apc membrane recruitment protein 3, PRKAG2  -  protein kinase, amp-activated, gamma 2 non-catalytic subunit, AMER2  -  apc membrane recruitment protein 2, NCF4  -  neutrophil cytosolic factor 4, 40kda, DDX41  -  dead (asp-glu-ala-asp) box polypeptide 41, SNX9  -  sorting nexin 9, USP12  -  ubiquitin specific peptidase 12, HPCAL4  -  hippocalcin like 4, RNF138  -  ring finger protein 138, e3 ubiquitin protein ligase, IP6K2  -  inositol hexakisphosphate kinase 2, REV1  -  rev1, polymerase (dna directed), LRTM2  -  leucine-rich repeats and transmembrane domains 2, LIMA1  -  lim domain and actin binding 1, NDUFS1  -  nadh dehydrogenase (ubiquinone) fe-s protein 1, 75kda (nadh-coenzyme q reductase), ZNF804B  -  zinc finger protein 804b, RTCB  -  rna 2',3'-cyclic phosphate and 5'-oh ligase, NDUFV2  -  nadh dehydrogenase (ubiquinone) flavoprotein 2, 24kda, DRG1  -  developmentally regulated gtp binding protein 1, LARS  -  leucyl-trna synthetase, NELL1  -  nel-like 1 (chicken), CXXC5  -  cxxc finger protein 5, NEK1  -  nima-related kinase 1, NEK2  -  nima-related kinase 2, NEK3  -  nima-related kinase 3, ZC3HC1  -  zinc finger, c3hc-type containing 1, PHF7  -  phd finger protein 7, NF1  -  neurofibromin 1, ZCCHC17  -  zinc finger, cchc domain containing 17, SIRT6  -  sirtuin 6, NT5DC3  -  5'-nucleotidase domain containing 3, HDAC7  -  histone deacetylase 7, GDE1  -  glycerophosphodiester phosphodiesterase 1, NFX1  -  nuclear transcription factor, x-box binding 1, PIAS4  -  protein inhibitor of activated stat, 4, CUTA  -  cuta divalent cation tolerance homolog (e. coli), NID1  -  nidogen 1, KLF13  -  kruppel-like factor 13, NME4  -  nme/nm23 nucleoside diphosphate kinase 4, NQO2  -  nad(p)h dehydrogenase, quinone 2, RNF152  -  ring finger protein 152, YPEL5  -  yippee-like 5 (drosophila), NOS1  -  nitric oxide synthase 1 (neuronal), NOS2  -  nitric oxide synthase 2, inducible, CHMP3  -  charged multivesicular body protein 3, CDK5RAP1  -  cdk5 regulatory subunit associated protein 1, RASD1  -  ras, dexamethasone-induced 1, CNOT4  -  ccr4-not transcription complex, subunit 4, ZNF438  -  zinc finger protein 438, NOTCH1  -  notch 1, NOTCH2  -  notch 2, NOTCH3  -  notch 3, NOV  -  nephroblastoma overexpressed, PNP  -  purine nucleoside phosphorylase, NPAS2  -  neuronal pas domain protein 2, JMJD1C  -  jumonji domain containing 1c, CPSF3  -  cleavage and polyadenylation specific factor 3, 73kda, CYB5R2  -  cytochrome b5 reductase 2, NLK  -  nemo-like kinase, ALKBH3  -  alkb, alkylation repair homolog 3 (e. coli), ACSL5  -  acyl-coa synthetase long-chain family member 5, NPR2  -  natriuretic peptide receptor b/guanylate cyclase b (atrionatriuretic peptide receptor b), MICU2  -  mitochondrial calcium uptake 2, NPTX1  -  neuronal pentraxin i, NPTX2  -  neuronal pentraxin ii, CPNE2  -  copine ii, RAB23  -  rab23, member ras oncogene family, FBXO40  -  f-box protein 40, NRAP  -  nebulin-related anchoring protein, CMPK1  -  cytidine monophosphate (ump-cmp) kinase 1, cytosolic, AK9  -  adenylate kinase 9, NT5DC1  -  5'-nucleotidase domain containing 1, RAPGEF6  -  rap guanine nucleotide exchange factor (gef) 6, NSF  -  n-ethylmaleimide-sensitive factor, NT5E  -  5'-nucleotidase, ecto (cd73), RTEL1  -  regulator of telomere elongation helicase 1, CDK12  -  cyclin-dependent kinase 12, NTHL1  -  nth endonuclease iii-like 1 (e. coli), SYT17  -  synaptotagmin xvii, ATP8A2  -  atpase, aminophospholipid transporter, class i, type 8a, member 2, RAB8B  -  rab8b, member ras oncogene family, NTRK3  -  neurotrophic tyrosine kinase, receptor, type 3, KIF6  -  kinesin family member 6, ROR1  -  receptor tyrosine kinase-like orphan receptor 1, DDR2  -  discoidin domain receptor tyrosine kinase 2, RSF1  -  remodeling and spacing factor 1, NUCB2  -  nucleobindin 2, KDM3B  -  lysine (k)-specific demethylase 3b, NVL  -  nuclear vcp-like, KDM1B  -  lysine (k)-specific demethylase 1b, GALNT7  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 7 (galnac-t7), CECR1  -  cat eye syndrome chromosome region, candidate 1, GPR143  -  g protein-coupled receptor 143, BCL11A  -  b-cell cll/lymphoma 11a (zinc finger protein), RNF182  -  ring finger protein 182, PXDC1  -  px domain containing 1, OAT  -  ornithine aminotransferase, ZFYVE1  -  zinc finger, fyve domain containing 1, LRP1B  -  low density lipoprotein receptor-related protein 1b, JAZF1  -  jazf zinc finger 1, TPCN1  -  two pore segment channel 1, OGDH  -  oxoglutarate (alpha-ketoglutarate) dehydrogenase (lipoamide), DAGLB  -  diacylglycerol lipase, beta, OPA1  -  optic atrophy 1 (autosomal dominant), BCMO1  -  beta-carotene 15,15'-monooxygenase 1, OPHN1  -  oligophrenin 1, RSBN1L  -  round spermatid basic protein 1-like, NAPEPLD  -  n-acyl phosphatidylethanolamine phospholipase d, FGFRL1  -  fibroblast growth factor receptor-like 1, CDHR3  -  cadherin-related family member 3, ORC1  -  origin recognition complex, subunit 1, ORC4  -  origin recognition complex, subunit 4, CDHR5  -  cadherin-related family member 5, LNX2  -  ligand of numb-protein x 2, ORC5  -  origin recognition complex, subunit 5, HS3ST5  -  heparan sulfate (glucosamine) 3-o-sulfotransferase 5, MYO3A  -  myosin iiia, OTC  -  ornithine carbamoyltransferase, CSNK1G1  -  casein kinase 1, gamma 1, SCUBE3  -  signal peptide, cub domain, egf-like 3, P2RX1  -  purinergic receptor p2x, ligand-gated ion channel, 1, P2RX4  -  purinergic receptor p2x, ligand-gated ion channel, 4, P2RX5  -  purinergic receptor p2x, ligand-gated ion channel, 5, P2RY4  -  pyrimidinergic receptor p2y, g-protein coupled, 4, MAPK15  -  mitogen-activated protein kinase 15, P4HA1  -  prolyl 4-hydroxylase, alpha polypeptide i, PEBP1  -  phosphatidylethanolamine binding protein 1, PAFAH1B1  -  platelet-activating factor acetylhydrolase 1b, regulatory subunit 1 (45kda), PAK1  -  p21 protein (cdc42/rac)-activated kinase 1, PAK2  -  p21 protein (cdc42/rac)-activated kinase 2, PAK3  -  p21 protein (cdc42/rac)-activated kinase 3, PARK2  -  parkinson protein 2, e3 ubiquitin protein ligase (parkin), MIS18A  -  mis18 kinetochore protein homolog a (s. pombe), PARN  -  poly(a)-specific ribonuclease, RIPK4  -  receptor-interacting serine-threonine kinase 4, RNASEH1  -  ribonuclease h1, PCCA  -  propionyl coa carboxylase, alpha polypeptide, PCCB  -  propionyl coa carboxylase, beta polypeptide, PCDH1  -  protocadherin 1, PCDHGC3  -  protocadherin gamma subfamily c, 3, PCDH8  -  protocadherin 8, PCDH9  -  protocadherin 9, PCK1  -  phosphoenolpyruvate carboxykinase 1 (soluble), CYCS  -  cytochrome c, somatic, CHMP1A  -  charged multivesicular body protein 1a, CDK17  -  cyclin-dependent kinase 17, CDK18  -  cyclin-dependent kinase 18, PDCD2  -  programmed cell death 2, PDE1C  -  phosphodiesterase 1c, calmodulin-dependent 70kda, HAO1  -  hydroxyacid oxidase (glycolate oxidase) 1, PDE3A  -  phosphodiesterase 3a, cgmp-inhibited, PDE3B  -  phosphodiesterase 3b, cgmp-inhibited, PDE4B  -  phosphodiesterase 4b, camp-specific, PDE4D  -  phosphodiesterase 4d, camp-specific, PDE6C  -  phosphodiesterase 6c, cgmp-specific, cone, alpha prime, PDE6H  -  phosphodiesterase 6h, cgmp-specific, cone, gamma, PDE7A  -  phosphodiesterase 7a, PDE8A  -  phosphodiesterase 8a, PDE9A  -  phosphodiesterase 9a, RBM27  -  rna binding motif protein 27, PDGFRA  -  platelet-derived growth factor receptor, alpha polypeptide, PDGFRB  -  platelet-derived growth factor receptor, beta polypeptide, MOV10L1  -  mov10l1, moloney leukemia virus 10-like 1, homolog (mouse), NEIL2  -  nei endonuclease viii-like 2 (e. coli), PDK3  -  pyruvate dehydrogenase kinase, isozyme 3, PDK4  -  pyruvate dehydrogenase kinase, isozyme 4, ENPP2  -  ectonucleotide pyrophosphatase/phosphodiesterase 2, ENPP3  -  ectonucleotide pyrophosphatase/phosphodiesterase 3, ANKIB1  -  ankyrin repeat and ibr domain containing 1, ZFAND6  -  zinc finger, an1-type domain 6, SMCR7L  -  smith-magenis syndrome chromosome region, candidate 7-like, IPMK  -  inositol polyphosphate multikinase, RNF216  -  ring finger protein 216, PLEKHA5  -  pleckstrin homology domain containing, family a member 5, ZBTB38  -  zinc finger and btb domain containing 38, PEPD  -  peptidase d, TRMT13  -  trna methyltransferase 13 homolog (s. cerevisiae), DGCR8  -  dgcr8 microprocessor complex subunit, PEX1  -  peroxisomal biogenesis factor 1, NEURL1B  -  neuralized homolog 1b (drosophila), PEX6  -  peroxisomal biogenesis factor 6, PEX10  -  peroxisomal biogenesis factor 10, PEX12  -  peroxisomal biogenesis factor 12, EBF3  -  early b-cell factor 3, MSRB3  -  methionine sulfoxide reductase b3, ZDHHC20  -  zinc finger, dhhc-type containing 20, RHOF  -  ras homolog family member f (in filopodia), PCDH18  -  protocadherin 18, PFKFB2  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 2, PFKFB3  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 3, PFKFB4  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 4, PFKL  -  phosphofructokinase, liver, PFKP  -  phosphofructokinase, platelet, METAP1D  -  methionyl aminopeptidase type 1d (mitochondrial), CDK14  -  cyclin-dependent kinase 14, RC3H2  -  ring finger and ccch-type domains 2, TTLL10  -  tubulin tyrosine ligase-like family, member 10, PGM1  -  phosphoglucomutase 1, PGM3  -  phosphoglucomutase 3, RNF169  -  ring finger protein 169, RNF186  -  ring finger protein 186, PGR  -  progesterone receptor, NECAB2  -  n-terminal ef-hand calcium binding protein 2, ABCB1  -  atp-binding cassette, sub-family b (mdr/tap), member 1, PHYHD1  -  phytanoyl-coa dioxygenase domain containing 1, DDX49  -  dead (asp-glu-ala-asp) box polypeptide 49, PHEX  -  phosphate regulating endopeptidase homolog, x-linked, ING3  -  inhibitor of growth family, member 3, MCM9  -  minichromosome maintenance complex component 9, PHF2  -  phd finger protein 2, DLL4  -  delta-like 4 (drosophila), PHKG1  -  phosphorylase kinase, gamma 1 (muscle), NUDT8  -  nudix (nucleoside diphosphate linked moiety x)-type motif 8, PHYH  -  phytanoyl-coa 2-hydroxylase, SERPINE2  -  serpin peptidase inhibitor, clade e (nexin, plasminogen activator inhibitor type 1), member 2, EGLN1  -  egl-9 family hypoxia-inducible factor 1, INO80  -  ino80 complex subunit, PIK3C2A  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 alpha, PIK3C2B  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 beta, PIK3C2G  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 gamma, PIK3CA  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit alpha, PIK3CB  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit beta, UGT1A1  -  udp glucuronosyltransferase 1 family, polypeptide a1, PIK3CD  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit delta, PIK3CG  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit gamma, PLA2G4F  -  phospholipase a2, group ivf, PI4KB  -  phosphatidylinositol 4-kinase, catalytic, beta, RSBN1  -  round spermatid basic protein 1, GTPBP2  -  gtp binding protein 2, PIP4K2A  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, alpha, PITPNA  -  phosphatidylinositol transfer protein, alpha, PDP1  -  pyruvate dehyrogenase phosphatase catalytic subunit 1, GPN2  -  gpn-loop gtpase 2, PKD2  -  polycystic kidney disease 2 (autosomal dominant), CNGB3  -  cyclic nucleotide gated channel beta 3, PKM  -  pyruvate kinase, muscle, PLA2G1B  -  phospholipase a2, group ib (pancreas), RNF144B  -  ring finger protein 144b, PLA2G4A  -  phospholipase a2, group iva (cytosolic, calcium-dependent), RAB39A  -  rab39a, member ras oncogene family, PLAG1  -  pleiomorphic adenoma gene 1, PLAGL1  -  pleiomorphic adenoma gene-like 1, PLAGL2  -  pleiomorphic adenoma gene-like 2, ZBTB8B  -  zinc finger and btb domain containing 8b, PLCB2  -  phospholipase c, beta 2, FBLIM1  -  filamin binding lim protein 1, PLCB4  -  phospholipase c, beta 4, PLCD1  -  phospholipase c, delta 1, PLCL1  -  phospholipase c-like 1, PLCG1  -  phospholipase c, gamma 1, PLD1  -  phospholipase d1, phosphatidylcholine-specific, PLEK  -  pleckstrin, PAN3  -  pan3 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), ZRANB1  -  zinc finger, ran-binding domain containing 1, PLK1  -  polo-like kinase 1, RNF111  -  ring finger protein 111, PLOD1  -  procollagen-lysine, 2-oxoglutarate 5-dioxygenase 1, ALKBH4  -  alkb, alkylation repair homolog 4 (e. coli), TET2  -  tet methylcytosine dioxygenase 2, PLS1  -  plastin 1, PLS3  -  plastin 3, NUDT14  -  nudix (nucleoside diphosphate linked moiety x)-type motif 14, PLTP  -  phospholipid transfer protein, DCHS2  -  dachsous 2 (drosophila), MBTD1  -  mbt domain containing 1, TRIT1  -  trna isopentenyltransferase 1, PML  -  promyelocytic leukemia, PMM1  -  phosphomannomutase 1, PMM2  -  phosphomannomutase 2, PMP2  -  peripheral myelin protein 2, GATAD2A  -  gata zinc finger domain containing 2a, ZNF280D  -  zinc finger protein 280d, ZCCHC10  -  zinc finger, cchc domain containing 10, ERCC6L  -  excision repair cross-complementing rodent repair deficiency, complementation group 6-like, TRPM7  -  transient receptor potential cation channel, subfamily m, member 7, CDHR2  -  cadherin-related family member 2, PMS2  -  pms2 postmeiotic segregation increased 2 (s. cerevisiae), D2HGDH  -  d-2-hydroxyglutarate dehydrogenase, ASPN  -  asporin, PNLIPRP2  -  pancreatic lipase-related protein 2, BSPRY  -  b-box and spry domain containing, POLA1  -  polymerase (dna directed), alpha 1, catalytic subunit, SYTL2  -  synaptotagmin-like 2, POLE  -  polymerase (dna directed), epsilon, catalytic subunit, POLH  -  polymerase (dna directed), eta, RNF214  -  ring finger protein 214, POLR2B  -  polymerase (rna) ii (dna directed) polypeptide b, 140kda, SHPRH  -  snf2 histone linker phd ring helicase, e3 ubiquitin protein ligase, GDPD2  -  glycerophosphodiester phosphodiesterase domain containing 2, POLR2K  -  polymerase (rna) ii (dna directed) polypeptide k, 7.0kda, SNX33  -  sorting nexin 33, SNRK  -  snf related kinase, POLR2L  -  polymerase (rna) ii (dna directed) polypeptide l, 7.6kda, TAB3  -  tgf-beta activated kinase 1/map3k7 binding protein 3, PON2  -  paraoxonase 2, POR  -  p450 (cytochrome) oxidoreductase, HSPA12A  -  heat shock 70kda protein 12a, ZCCHC2  -  zinc finger, cchc domain containing 2, PPA1  -  pyrophosphatase (inorganic) 1, PPARA  -  peroxisome proliferator-activated receptor alpha, TBC1D8B  -  tbc1 domain family, member 8b (with gram domain), PPARD  -  peroxisome proliferator-activated receptor delta, PPARG  -  peroxisome proliferator-activated receptor gamma, ALKBH5  -  alkb, alkylation repair homolog 5 (e. coli), PPEF1  -  protein phosphatase, ef-hand calcium binding domain 1, RNF43  -  ring finger protein 43, CASZ1  -  castor zinc finger 1, PXK  -  px domain containing serine/threonine kinase, CDKAL1  -  cdk5 regulatory subunit associated protein 1-like 1, WHSC1L1  -  wolf-hirschhorn syndrome candidate 1-like 1, CYP2W1  -  cytochrome p450, family 2, subfamily w, polypeptide 1, PPM1A  -  protein phosphatase, mg2+/mn2+ dependent, 1a, PPM1B  -  protein phosphatase, mg2+/mn2+ dependent, 1b, PPM1G  -  protein phosphatase, mg2+/mn2+ dependent, 1g, PPP1CB  -  protein phosphatase 1, catalytic subunit, beta isozyme, PPP1CC  -  protein phosphatase 1, catalytic subunit, gamma isozyme, DUS2  -  dihydrouridine synthase 2, DNLZ  -  dnl-type zinc finger, MAGI3  -  membrane associated guanylate kinase, ww and pdz domain containing 3, PPP2CA  -  protein phosphatase 2, catalytic subunit, alpha isozyme, EXD3  -  exonuclease 3'-5' domain containing 3, STEAP2  -  steap family member 2, metalloreductase, PPP2R3A  -  protein phosphatase 2, regulatory subunit b'', alpha, PPP3CA  -  protein phosphatase 3, catalytic subunit, alpha isozyme, LPCAT2  -  lysophosphatidylcholine acyltransferase 2, PPP3CC  -  protein phosphatase 3, catalytic subunit, gamma isozyme, PPP3R1  -  protein phosphatase 3, regulatory subunit b, alpha, PPT1  -  palmitoyl-protein thioesterase 1, UCKL1  -  uridine-cytidine kinase 1-like 1, PRELP  -  proline/arginine-rich end leucine-rich repeat protein, PRIM2  -  primase, dna, polypeptide 2 (58kda), PRKACB  -  protein kinase, camp-dependent, catalytic, beta, CLN6  -  ceroid-lipofuscinosis, neuronal 6, late infantile, variant, ULK4  -  unc-51 like kinase 4, PRKAR2A  -  protein kinase, camp-dependent, regulatory, type ii, alpha, PRKAR2B  -  protein kinase, camp-dependent, regulatory, type ii, beta, ZSCAN2  -  zinc finger and scan domain containing 2, PRKCA  -  protein kinase c, alpha, PRKCB  -  protein kinase c, beta, PRKCD  -  protein kinase c, delta, PRKCE  -  protein kinase c, epsilon, TESC  -  tescalcin, PRKCH  -  protein kinase c, eta, PKN2  -  protein kinase n2, PRKCQ  -  protein kinase c, theta, PRKCZ  -  protein kinase c, zeta, PRKDC  -  protein kinase, dna-activated, catalytic polypeptide, PRKG1  -  protein kinase, cgmp-dependent, type i, MAPK1  -  mitogen-activated protein kinase 1, PPP2R3C  -  protein phosphatase 2, regulatory subunit b'', gamma, MAPK6  -  mitogen-activated protein kinase 6, MAPK8  -  mitogen-activated protein kinase 8, MAPK11  -  mitogen-activated protein kinase 11, MAPK9  -  mitogen-activated protein kinase 9, MAPK10  -  mitogen-activated protein kinase 10, MAPK13  -  mitogen-activated protein kinase 13, MAP2K1  -  mitogen-activated protein kinase kinase 1, MAP2K6  -  mitogen-activated protein kinase kinase 6, EIF2AK2  -  eukaryotic translation initiation factor 2-alpha kinase 2, PRKRIR  -  protein-kinase, interferon-inducible double stranded rna dependent inhibitor, repressor of (p58 repressor), MOCOS  -  molybdenum cofactor sulfurase, EPN3  -  epsin 3, PLEKHB2  -  pleckstrin homology domain containing, family b (evectins) member 2, PROC  -  protein c (inactivator of coagulation factors va and viiia), PRODH  -  proline dehydrogenase (oxidase) 1, PROS1  -  protein s (alpha), PRPS1  -  phosphoribosyl pyrophosphate synthetase 1, PRPS2  -  phosphoribosyl pyrophosphate synthetase 2, WIPI1  -  wd repeat domain, phosphoinositide interacting 1, PRPSAP1  -  phosphoribosyl pyrophosphate synthetase-associated protein 1, PRPSAP2  -  phosphoribosyl pyrophosphate synthetase-associated protein 2, PRRG1  -  proline rich gla (g-carboxyglutamic acid) 1, MASP1  -  mannan-binding lectin serine peptidase 1 (c4/c2 activating component of ra-reactive factor), RELN  -  reelin, PSAP  -  prosaposin, SOBP  -  sine oculis binding protein homolog (drosophila), PSD  -  pleckstrin and sec7 domain containing, RBM20  -  rna binding motif protein 20, ATG2B  -  autophagy related 2b, PSKH1  -  protein serine kinase h1, CRTAC1  -  cartilage acidic protein 1, FANCL  -  fanconi anemia, complementation group l, PSMC1  -  proteasome (prosome, macropain) 26s subunit, atpase, 1, PSMC2  -  proteasome (prosome, macropain) 26s subunit, atpase, 2, PSMC3  -  proteasome (prosome, macropain) 26s subunit, atpase, 3, PSMC5  -  proteasome (prosome, macropain) 26s subunit, atpase, 5, FIGN  -  fidgetin, ANKZF1  -  ankyrin repeat and zinc finger domain containing 1, ELP3  -  elongator acetyltransferase complex subunit 3, P4HA3  -  prolyl 4-hydroxylase, alpha polypeptide iii, MTPAP  -  mitochondrial poly(a) polymerase, PSPH  -  phosphoserine phosphatase, EFCAB4A  -  ef-hand calcium binding domain 4a, ARMC1  -  armadillo repeat containing 1, DARS2  -  aspartyl-trna synthetase 2, mitochondrial, RFWD3  -  ring finger and wd repeat domain 3, PTGS1  -  prostaglandin-endoperoxide synthase 1 (prostaglandin g/h synthase and cyclooxygenase), PTGS2  -  prostaglandin-endoperoxide synthase 2 (prostaglandin g/h synthase and cyclooxygenase), PTK2  -  protein tyrosine kinase 2, PTK7  -  protein tyrosine kinase 7, RNF220  -  ring finger protein 220, TWF1  -  twinfilin actin-binding protein 1, DZANK1  -  double zinc ribbon and ankyrin repeat domains 1, NADSYN1  -  nad synthetase 1, PTN  -  pleiotrophin, QSOX1  -  quiescin q6 sulfhydryl oxidase 1, PTPN1  -  protein tyrosine phosphatase, non-receptor type 1, APPL2  -  adaptor protein, phosphotyrosine interaction, ph domain and leucine zipper containing 2, KSR2  -  kinase suppressor of ras 2, LEPREL1  -  leprecan-like 1, PTPRF  -  protein tyrosine phosphatase, receptor type, f, GATC  -  glutamyl-trna(gln) amidotransferase, subunit c, TMLHE  -  trimethyllysine hydroxylase, epsilon, EXD2  -  exonuclease 3'-5' domain containing 2, ETNK2  -  ethanolamine kinase 2, PTPRS  -  protein tyrosine phosphatase, receptor type, s, NAT10  -  n-acetyltransferase 10 (gcn5-related), PANK4  -  pantothenate kinase 4, CHAMP1  -  chromosome alignment maintaining phosphoprotein 1, UBA6  -  ubiquitin-like modifier activating enzyme 6, OGFOD1  -  2-oxoglutarate and iron-dependent oxygenase domain containing 1, SIAH3  -  siah e3 ubiquitin protein ligase family member 3, ABCD4  -  atp-binding cassette, sub-family d (ald), member 4, NEIL3  -  nei endonuclease viii-like 3 (e. coli), PXN  -  paxillin, ALDH18A1  -  aldehyde dehydrogenase 18 family, member a1, ASXL2  -  additional sex combs like 2 (drosophila), TYW1  -  trna-yw synthesizing protein 1 homolog (s. cerevisiae), PYGB  -  phosphorylase, glycogen; brain, ADI1  -  acireductone dioxygenase 1, THNSL2  -  threonine synthase-like 2 (s. cerevisiae), QDPR  -  quinoid dihydropteridine reductase, RAB3A  -  rab3a, member ras oncogene family, RAB4A  -  rab4a, member ras oncogene family, OC90  -  otoconin 90, PHF10  -  phd finger protein 10, PGM2  -  phosphoglucomutase 2, QRSL1  -  glutaminyl-trna synthase (glutamine-hydrolyzing)-like 1, ZNF654  -  zinc finger protein 654, RAC1  -  ras-related c3 botulinum toxin substrate 1 (rho family, small gtp binding protein rac1), UBE2W  -  ubiquitin-conjugating enzyme e2w (putative), RAC2  -  ras-related c3 botulinum toxin substrate 2 (rho family, small gtp binding protein rac2), RAC3  -  ras-related c3 botulinum toxin substrate 3 (rho family, small gtp binding protein rac3), RHOT1  -  ras homolog family member t1, BRF2  -  brf2, rna polymerase iii transcription initiation factor 50 kda subunit, RAD51  -  rad51 recombinase, RAD51C  -  rad51 paralog c, RAD51D  -  rad51 paralog d, RAF1  -  v-raf-1 murine leukemia viral oncogene homolog 1, RAG1  -  recombination activating gene 1, RAG2  -  recombination activating gene 2, PI4K2B  -  phosphatidylinositol 4-kinase type 2 beta, RALA  -  v-ral simian leukemia viral oncogene homolog a (ras related), RALB  -  v-ral simian leukemia viral oncogene homolog b, SPTLC3  -  serine palmitoyltransferase, long chain base subunit 3, RAN  -  ran, member ras oncogene family, RANBP2  -  ran binding protein 2, CPPED1  -  calcineurin-like phosphoesterase domain containing 1, RAP1B  -  rap1b, member of ras oncogene family, RAPSN  -  receptor-associated protein of the synapse, ABCF3  -  atp-binding cassette, sub-family f (gcn20), member 3, ACER3  -  alkaline ceramidase 3, KDM5A  -  lysine (k)-specific demethylase 5a, RBBP6  -  retinoblastoma binding protein 6, LSG1  -  large 60s subunit nuclear export gtpase 1, CHDH  -  choline dehydrogenase, NUDT7  -  nudix (nucleoside diphosphate linked moiety x)-type motif 7, LAPTM4B  -  lysosomal protein transmembrane 4 beta, RCN1  -  reticulocalbin 1, ef-hand calcium binding domain, RCN2  -  reticulocalbin 2, ef-hand calcium binding domain, RECQL  -  recq protein-like (dna helicase q1-like), MCM10  -  minichromosome maintenance complex component 10, UPF1  -  upf1 regulator of nonsense transcripts homolog (yeast), REST  -  re1-silencing transcription factor, RET  -  ret proto-oncogene, REV3L  -  rev3-like, polymerase (dna directed), zeta, catalytic subunit, RFC1  -  replication factor c (activator 1) 1, 145kda, RFC2  -  replication factor c (activator 1) 2, 40kda, STRADB  -  ste20-related kinase adaptor beta, RFC4  -  replication factor c (activator 1) 4, 37kda, RFNG  -  rfng o-fucosylpeptide 3-beta-n-acetylglucosaminyltransferase, CSGALNACT2  -  chondroitin sulfate n-acetylgalactosaminyltransferase 2, NEK8  -  nima-related kinase 8, DNAJA4  -  dnaj (hsp40) homolog, subfamily a, member 4, ETNK1  -  ethanolamine kinase 1, CHST12  -  carbohydrate (chondroitin 4) sulfotransferase 12, TRPV6  -  transient receptor potential cation channel, subfamily v, member 6, ENDOV  -  endonuclease v, DDX43  -  dead (asp-glu-ala-asp) box polypeptide 43, GDPD1  -  glycerophosphodiester phosphodiesterase domain containing 1, SMPD3  -  sphingomyelin phosphodiesterase 3, neutral membrane (neutral sphingomyelinase ii), RHEB  -  ras homolog enriched in brain, DHTKD1  -  dehydrogenase e1 and transketolase domain containing 1, RLBP1  -  retinaldehyde binding protein 1, RLF  -  rearranged l-myc fusion, ZNF821  -  zinc finger protein 821, DNAH3  -  dynein, axonemal, heavy chain 3, ZADH2  -  zinc binding alcohol dehydrogenase domain containing 2, GALNT10  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 10 (galnac-t10), RNASEL  -  ribonuclease l (2',5'-oligoisoadenylate synthetase-dependent), STAB2  -  stabilin 2, RNF2  -  ring finger protein 2, RNF6  -  ring finger protein (c3h2c3 type) 6, UBE2Q1  -  ubiquitin-conjugating enzyme e2q family member 1, RNPEP  -  arginyl aminopeptidase (aminopeptidase b), BMP2K  -  bmp2 inducible kinase, ABCE1  -  atp-binding cassette, sub-family e (oabp), member 1, ZCCHC8  -  zinc finger, cchc domain containing 8, KIF21A  -  kinesin family member 21a, KIF16B  -  kinesin family member 16b, POMGNT1  -  protein o-linked mannose n-acetylglucosaminyltransferase 1 (beta 1,2-), SMPD4  -  sphingomyelin phosphodiesterase 4, neutral membrane (neutral sphingomyelinase-3), ZNF407  -  zinc finger protein 407, ROCK1  -  rho-associated, coiled-coil containing protein kinase 1, RORA  -  rar-related orphan receptor a, RORB  -  rar-related orphan receptor b, G2E3  -  g2/m-phase specific e3 ubiquitin protein ligase, ROS1  -  c-ros oncogene 1 , receptor tyrosine kinase, RP9  -  retinitis pigmentosa 9 (autosomal dominant), CHD7  -  chromo</t>
-  </si>
-  <si>
-    <t>omain helicase dna binding protein 7, RP2  -  retinitis pigmentosa 2 (x-linked recessive), RAB20  -  rab20, member ras oncogene family, RPA1  -  replication protein a1, 70kda, RPE65  -  retinal pigment epithelium-specific protein 65kda, RNF126  -  ring finger protein 126, DDX27  -  dead (asp-glu-ala-asp) box polypeptide 27, NPLOC4  -  nuclear protein localization 4 homolog (s. cerevisiae), MFN1  -  mitofusin 1, LIMS2  -  lim and senescent cell antigen-like domains 2, SCYL2  -  scy1-like 2 (s. cerevisiae), RABL6  -  rab, member ras oncogene family-like 6, MREG  -  melanoregulin, TRMU  -  trna 5-methylaminomethyl-2-thiouridylate methyltransferase, RSPO1  -  r-spondin 1, RBM22  -  rna binding motif protein 22, IARS2  -  isoleucyl-trna synthetase 2, mitochondrial, RPL37A  -  ribosomal protein l37a, ZNF326  -  zinc finger protein 326, POLR3B  -  polymerase (rna) iii (dna directed) polypeptide b, CCDC88A  -  coiled-coil domain containing 88a, TSR1  -  tsr1, 20s rrna accumulation, homolog (s. cerevisiae), N4BP2  -  nedd4 binding protein 2, RPS6KA2  -  ribosomal protein s6 kinase, 90kda, polypeptide 2, RPS6KA3  -  ribosomal protein s6 kinase, 90kda, polypeptide 3, RPS6KB1  -  ribosomal protein s6 kinase, 70kda, polypeptide 1, RPS6KB2  -  ribosomal protein s6 kinase, 70kda, polypeptide 2, HHAT  -  hedgehog acyltransferase, ZFP64  -  zfp64 zinc finger protein, ARFGAP1  -  adp-ribosylation factor gtpase activating protein 1, EDEM2  -  er degradation enhancer, mannosidase alpha-like 2, CHFR  -  checkpoint with forkhead and ring finger domains, e3 ubiquitin protein ligase, CNDP2  -  cndp dipeptidase 2 (metallopeptidase m20 family), AGK  -  acylglycerol kinase, OGDHL  -  oxoglutarate dehydrogenase-like, RNF149  -  ring finger protein 149, DHX32  -  deah (asp-glu-ala-his) box polypeptide 32, RPS27A  -  ribosomal protein s27a, EXOC1  -  exocyst complex component 1, RRM1  -  ribonucleotide reductase m1, NGLY1  -  n-glycanase 1, RRM2  -  ribonucleotide reductase m2, RS1  -  retinoschisin 1, CLIP1  -  cap-gly domain containing linker protein 1, ZNF839  -  zinc finger protein 839, RXRA  -  retinoid x receptor, alpha, MCTP2  -  multiple c2 domains, transmembrane 2, FGD6  -  fyve, rhogef and ph domain containing 6, RUFY4  -  run and fyve domain containing 4, RYR2  -  ryanodine receptor 2 (cardiac), RYR3  -  ryanodine receptor 3, MBNL3  -  muscleblind-like splicing regulator 3, EPHA6  -  eph receptor a6, ADAP2  -  arfgap with dual ph domains 2, TRERF1  -  transcriptional regulating factor 1, RABL3  -  rab, member of ras oncogene family-like 3, KDM3A  -  lysine (k)-specific demethylase 3a, RNF130  -  ring finger protein 130, VPS11  -  vacuolar protein sorting 11 homolog (s. cerevisiae), ACSM3  -  acyl-coa synthetase medium-chain family member 3, SALL1  -  sal-like 1 (drosophila), MAPK12  -  mitogen-activated protein kinase 12, SAT1  -  spermidine/spermine n1-acetyltransferase 1, SUMF1  -  sulfatase modifying factor 1, MSMO1  -  methylsterol monooxygenase 1, ZC3H15  -  zinc finger ccch-type containing 15, ACOT13  -  acyl-coa thioesterase 13, SCN8A  -  sodium channel, voltage gated, type viii, alpha subunit, HDAC8  -  histone deacetylase 8, ASH1L  -  ash1 (absent, small, or homeotic)-like (drosophila), RNF212  -  ring finger protein 212, SCO1  -  sco1 cytochrome c oxidase assembly protein, SCP2  -  sterol carrier protein 2, LMO3  -  lim domain only 3 (rhombotin-like 2), SRL  -  sarcalumenin, MYNN  -  myoneurin, ZNF395  -  zinc finger protein 395, ACSS2  -  acyl-coa synthetase short-chain family member 2, KMT2E  -  lysine (k)-specific methyltransferase 2e, SH3PXD2B  -  sh3 and px domains 2b, RNF114  -  ring finger protein 114, ZC4H2  -  zinc finger, c4h2 domain containing, LANCL2  -  lanc lantibiotic synthetase component c-like 2 (bacterial), MYO5C  -  myosin vc, ZMAT5  -  zinc finger, matrin-type 5, SULF2  -  sulfatase 2, SDCBP  -  syndecan binding protein (syntenin), NSFL1C  -  nsfl1 (p97) cofactor (p47), SDHA  -  succinate dehydrogenase complex, subunit a, flavoprotein (fp), SDHB  -  succinate dehydrogenase complex, subunit b, iron sulfur (ip), SELE  -  selectin e, PCDHGC5  -  protocadherin gamma subfamily c, 5, SETMAR  -  set domain and mariner transposase fusion gene, SGK1  -  serum/glucocorticoid regulated kinase 1, SGSH  -  n-sulfoglucosamine sulfohydrolase, PCDHAC2  -  protocadherin alpha subfamily c, 2, SHH  -  sonic hedgehog, TEX14  -  testis expressed 14, SHMT1  -  serine hydroxymethyltransferase 1 (soluble), RNF17  -  ring finger protein 17, STK31  -  serine/threonine kinase 31, TDRD1  -  tudor domain containing 1, DNAH7  -  dynein, axonemal, heavy chain 7, MICU3  -  mitochondrial calcium uptake family, member 3, SKI  -  v-ski avian sarcoma viral oncogene homolog, SLC1A2  -  solute carrier family 1 (glial high affinity glutamate transporter), member 2, SLC1A6  -  solute carrier family 1 (high affinity aspartate/glutamate transporter), member 6, WDR45B  -  wd repeat domain 45b, PARD3  -  par-3 partitioning defective 3 homolog (c. elegans), CRB2  -  crumbs homolog 2 (drosophila), SLC6A1  -  solute carrier family 6 (neurotransmitter transporter), member 1, SLC6A2  -  solute carrier family 6 (neurotransmitter transporter), member 2, CTPS2  -  ctp synthase 2, SLC6A4  -  solute carrier family 6 (neurotransmitter transporter), member 4, CYP26B1  -  cytochrome p450, family 26, subfamily b, polypeptide 1, SLC8A1  -  solute carrier family 8 (sodium/calcium exchanger), member 1, SLC8A3  -  solute carrier family 8 (sodium/calcium exchanger), member 3, SLC9A1  -  solute carrier family 9, subfamily a (nhe1, cation proton antiporter 1), member 1, ASAH2  -  n-acylsphingosine amidohydrolase (non-lysosomal ceramidase) 2, ATP11C  -  atpase, class vi, type 11c, TRIM39  -  tripartite motif containing 39, SLC19A1  -  solute carrier family 19 (folate transporter), member 1, SLC22A4  -  solute carrier family 22 (organic cation/zwitterion transporter), member 4, SLIT1  -  slit homolog 1 (drosophila), SNAI2  -  snail family zinc finger 2, RAD18  -  rad18 homolog (s. cerevisiae), TRIM59  -  tripartite motif containing 59, FSTL5  -  follistatin-like 5, SMPD2  -  sphingomyelin phosphodiesterase 2, neutral membrane (neutral sphingomyelinase), WRNIP1  -  werner helicase interacting protein 1, SNCA  -  synuclein, alpha (non a4 component of amyloid precursor), C1GALT1  -  core 1 synthase, glycoprotein-n-acetylgalactosamine 3-beta-galactosyltransferase, 1, SMARCAD1  -  swi/snf-related, matrix-associated actin-dependent regulator of chromatin, subfamily a, containing dead/h box 1, DHX33  -  deah (asp-glu-ala-his) box polypeptide 33, MCCC1  -  methylcrotonoyl-coa carboxylase 1 (alpha), NMUR2  -  neuromedin u receptor 2, PAK6  -  p21 protein (cdc42/rac)-activated kinase 6, LXN  -  latexin, SNX1  -  sorting nexin 1, SOAT1  -  sterol o-acyltransferase 1, DUS3L  -  dihydrouridine synthase 3-like (s. cerevisiae), SOD1  -  superoxide dismutase 1, soluble, CA10  -  carbonic anhydrase x, SOD2  -  superoxide dismutase 2, mitochondrial, DDX51  -  dead (asp-glu-ala-asp) box polypeptide 51, CAPN15  -  calpain 15, SORD  -  sorbitol dehydrogenase, SMYD2  -  set and mynd domain containing 2, PRTFDC1  -  phosphoribosyl transferase domain containing 1, NT5M  -  5',3'-nucleotidase, mitochondrial, SP3  -  sp3 transcription factor, SP4  -  sp4 transcription factor, SPAG1  -  sperm associated antigen 1, SPARC  -  secreted protein, acidic, cysteine-rich (osteonectin), SPAST  -  spastin, FAM20C  -  family with sequence similarity 20, member c, SPG7  -  spastic paraplegia 7 (pure and complicated autosomal recessive), PRDM10  -  pr domain containing 10, SPOCK1  -  sparc/osteonectin, cwcv and kazal-like domains proteoglycan (testican) 1, KIF15  -  kinesin family member 15, CHPT1  -  choline phosphotransferase 1, ADAMTS9  -  adam metallopeptidase with thrombospondin type 1 motif, 9, SPTAN1  -  spectrin, alpha, non-erythrocytic 1, SPTBN1  -  spectrin, beta, non-erythrocytic 1, SQLE  -  squalene epoxidase, SRC  -  v-src avian sarcoma (schmidt-ruppin a-2) viral oncogene homolog, SRD5A1  -  steroid-5-alpha-reductase, alpha polypeptide 1 (3-oxo-5 alpha-steroid delta 4-dehydrogenase alpha 1), CIAPIN1  -  cytokine induced apoptosis inhibitor 1, PDXP  -  pyridoxal (pyridoxine, vitamin b6) phosphatase, SRMS  -  src-related kinase lacking c-terminal regulatory tyrosine and n-terminal myristylation sites, ANKMY2  -  ankyrin repeat and mynd domain containing 2, RARS2  -  arginyl-trna synthetase 2, mitochondrial, SRP54  -  signal recognition particle 54kda, PLSCR2  -  phospholipid scramblase 2, SRPK1  -  srsf protein kinase 1, SRPK2  -  srsf protein kinase 2, TROVE2  -  trove domain family, member 2, DDX24  -  dead (asp-glu-ala-asp) box helicase 24, ENTPD7  -  ectonucleoside triphosphate diphosphohydrolase 7, CPA6  -  carboxypeptidase a6, ST13  -  suppression of tumorigenicity 13 (colon carcinoma) (hsp70 interacting protein), STAC  -  sh3 and cysteine rich domain, INTS12  -  integrator complex subunit 12, CAMK1D  -  calcium/calmodulin-dependent protein kinase id, RAB37  -  rab37, member ras oncogene family, MMAB  -  methylmalonic aciduria (cobalamin deficiency) cblb type, HSPA13  -  heat shock protein 70kda family, member 13, STIM1  -  stromal interaction molecule 1, NEK4  -  nima-related kinase 4, STK3  -  serine/threonine kinase 3, STK4  -  serine/threonine kinase 4, MAN1C1  -  mannosidase, alpha, class 1c, member 1, CDKL5  -  cyclin-dependent kinase-like 5, STK10  -  serine/threonine kinase 10, STK11  -  serine/threonine kinase 11, ADCK1  -  aarf domain containing kinase 1, PAK7  -  p21 protein (cdc42/rac)-activated kinase 7, SCYL3  -  scy1-like 3 (s. cerevisiae), SMURF1  -  smad specific e3 ubiquitin protein ligase 1, JPH2  -  junctophilin 2, SALL4  -  sal-like 4 (drosophila), ASPHD2  -  aspartate beta-hydroxylase domain containing 2, ZNFX1  -  zinc finger, nfx1-type containing 1, SUPV3L1  -  suppressor of var1, 3-like 1 (s. cerevisiae), CAMK1G  -  calcium/calmodulin-dependent protein kinase ig, ABCC8  -  atp-binding cassette, sub-family c (cftr/mrp), member 8, ACTR3B  -  arp3 actin-related protein 3 homolog b (yeast), SVIL  -  supervillin, SYN2  -  synapsin ii, ATP10A  -  atpase, class v, type 10a, ATP8B2  -  atpase, aminophospholipid transporter, class i, type 8b, member 2, ATP10D  -  atpase, class v, type 10d, SYT1  -  synaptotagmin i, ADAM17  -  adam metallopeptidase domain 17, TAF1  -  taf1 rna polymerase ii, tata box binding protein (tbp)-associated factor, 250kda, SNX14  -  sorting nexin 14, MAP3K7  -  mitogen-activated protein kinase kinase kinase 7, TAT  -  tyrosine aminotransferase, AICDA  -  activation-induced cytidine deaminase, RHOJ  -  ras homolog family member j, CLK4  -  cdc-like kinase 4, RAB22A  -  rab22a, member ras oncogene family, CYP20A1  -  cytochrome p450, family 20, subfamily a, polypeptide 1, FFAR4  -  free fatty acid receptor 4, TBXAS1  -  thromboxane a synthase 1 (platelet), TCEA1  -  transcription elongation factor a (sii), 1, TCEA2  -  transcription elongation factor a (sii), 2, TENM2  -  teneurin transmembrane protein 2, ZEB1  -  zinc finger e-box binding homeobox 1, TCF20  -  transcription factor 20 (ar1), CNOT6  -  ccr4-not transcription complex, subunit 6, ZNF512B  -  zinc finger protein 512b, TCP1  -  t-complex 1, GRAMD1B  -  gram domain containing 1b, RNF150  -  ring finger protein 150, ESYT2  -  extended synaptotagmin-like protein 2, HEG1  -  heart development protein with egf-like domains 1, RIMKLB  -  ribosomal modification protein rimk-like family member b, NLGN4X  -  neuroligin 4, x-linked, MTA3  -  metastasis associated 1 family, member 3, AARS2  -  alanyl-trna synthetase 2, mitochondrial, ENPP7  -  ectonucleotide pyrophosphatase/phosphodiesterase 7, STARD9  -  star-related lipid transfer (start) domain containing 9, PCDH19  -  protocadherin 19, TDG  -  thymine-dna glycosylase, TDO2  -  tryptophan 2,3-dioxygenase, MIB1  -  mindbomb e3 ubiquitin protein ligase 1, ADAMTSL5  -  adamts-like 5, ALPK3  -  alpha-kinase 3, ZNF398  -  zinc finger protein 398, PDP2  -  pyruvate dehyrogenase phosphatase catalytic subunit 2, TERT  -  telomerase reverse transcriptase, TESK1  -  testis-specific kinase 1, TAOK1  -  tao kinase 1, MICAL3  -  microtubule associated monooxygenase, calponin and lim domain containing 3, ZBTB8OS  -  zinc finger and btb domain containing 8 opposite strand, NR2F2  -  nuclear receptor subfamily 2, group f, member 2, PCDH10  -  protocadherin 10, PREX1  -  phosphatidylinositol-3,4,5-trisphosphate-dependent rac exchange factor 1, TGM4  -  transglutaminase 4, TGFBR2  -  transforming growth factor, beta receptor ii (70/80kda), TGFBR3  -  transforming growth factor, beta receptor iii, SYT13  -  synaptotagmin xiii, CYP27C1  -  cytochrome p450, family 27, subfamily c, polypeptide 1, WDFY1  -  wd repeat and fyve domain containing 1, TH  -  tyrosine hydroxylase, ZNF687  -  zinc finger protein 687, THBS1  -  thrombospondin 1, THBS2  -  thrombospondin 2, THRB  -  thyroid hormone receptor, beta, THY1  -  thy-1 cell surface antigen, KLF10  -  kruppel-like factor 10, GADL1  -  glutamate decarboxylase-like 1, TSHZ3  -  teashirt zinc finger homeobox 3, TIMP3  -  timp metallopeptidase inhibitor 3, VPS18  -  vacuolar protein sorting 18 homolog (s. cerevisiae), TIMP4  -  timp metallopeptidase inhibitor 4, ZBTB2  -  zinc finger and btb domain containing 2, TK2  -  thymidine kinase 2, mitochondrial, ZFAT  -  zinc finger and at hook domain containing, TKT  -  transketolase, SH3RF1  -  sh3 domain containing ring finger 1, EP400  -  e1a binding protein p400, TLL1  -  tolloid-like 1, TLL2  -  tolloid-like 2, ZSWIM5  -  zinc finger, swim-type containing 5, MYH7B  -  myosin, heavy chain 7b, cardiac muscle, beta, DHX37  -  deah (asp-glu-ala-his) box polypeptide 37, PHF12  -  phd finger protein 12, NR2E1  -  nuclear receptor subfamily 2, group e, member 1, ARSI  -  arylsulfatase family, member i, PHRF1  -  phd and ring finger domains 1, ZC3H12D  -  zinc finger ccch-type containing 12d, MYLK4  -  myosin light chain kinase family, member 4, RNF213  -  ring finger protein 213, CLEC3B  -  c-type lectin domain family 3, member b, VAT1L  -  vesicle amine transport protein 1 homolog (t. californica)-like, TNFAIP3  -  tumor necrosis factor, alpha-induced protein 3, DDX55  -  dead (asp-glu-ala-asp) box polypeptide 55, FANCM  -  fanconi anemia, complementation group m, AGBL3  -  atp/gtp binding protein-like 3, NRBP2  -  nuclear receptor binding protein 2, DENND1A  -  denn/madd domain containing 1a, TOP1  -  topoisomerase (dna) i, TOP2A  -  topoisomerase (dna) ii alpha 170kda, TOP2B  -  topoisomerase (dna) ii beta 180kda, TOP3A  -  topoisomerase (dna) iii alpha, TP73  -  tumor protein p73, TPD52  -  tumor protein d52, TPH1  -  tryptophan hydroxylase 1, ZFYVE28  -  zinc finger, fyve domain containing 28, TPM4  -  tropomyosin 4, TPO  -  thyroid peroxidase, TPT1  -  tumor protein, translationally-controlled 1, NR2C1  -  nuclear receptor subfamily 2, group c, member 1, NR2C2  -  nuclear receptor subfamily 2, group c, member 2, HSP90B1  -  heat shock protein 90kda beta (grp94), member 1, TRAF1  -  tnf receptor-associated factor 1, VWA2  -  von willebrand factor a domain containing 2, RAB40C  -  rab40c, member ras oncogene family, TRAF2  -  tnf receptor-associated factor 2, TRAF3  -  tnf receptor-associated factor 3, TRAF5  -  tnf receptor-associated factor 5, RAP2C  -  rap2c, member of ras oncogene family, TRIO  -  trio rho guanine nucleotide exchange factor, HEPHL1  -  hephaestin-like 1, OVCH2  -  ovochymase 2 (gene/pseudogene), TRPC1  -  transient receptor potential cation channel, subfamily c, member 1, SYT10  -  synaptotagmin x, TRPC3  -  transient receptor potential cation channel, subfamily c, member 3, TRPC4  -  transient receptor potential cation channel, subfamily c, member 4, TRPC6  -  transient receptor potential cation channel, subfamily c, member 6, TRPM2  -  transient receptor potential cation channel, subfamily m, member 2, TRPS1  -  trichorhinophalangeal syndrome i, RHOU  -  ras homolog family member u, FREM2  -  fras1 related extracellular matrix protein 2, PCTP  -  phosphatidylcholine transfer protein, NEK5  -  nima-related kinase 5, OVOL2  -  ovo-like 2 (drosophila), KMT2C  -  lysine (k)-specific methyltransferase 2c, TTC3  -  tetratricopeptide repeat domain 3, RRAGD  -  ras-related gtp binding d, TTK  -  ttk protein kinase, TTN  -  titin, TTPA  -  tocopherol (alpha) transfer protein, GIMD1  -  gimap family p-loop ntpase domain containing 1, TUBG1  -  tubulin, gamma 1, TULP1  -  tubby like protein 1, HIVEP3  -  human immunodeficiency virus type i enhancer binding protein 3, TULP3  -  tubby like protein 3, EVA1C  -  eva-1 homolog c (c. elegans), ACE2  -  angiotensin i converting enzyme 2, TYMS  -  thymidylate synthetase, TYR  -  tyrosinase, TYRO3  -  tyro3 protein tyrosine kinase, PRDM12  -  pr domain containing 12, PLEKHA1  -  pleckstrin homology domain containing, family a (phosphoinositide binding specific) member 1, PLEKHA2  -  pleckstrin homology domain containing, family a (phosphoinositide binding specific) member 2, U2AF1  -  u2 small nuclear rna auxiliary factor 1, TRPV4  -  transient receptor potential cation channel, subfamily v, member 4, UBA1  -  ubiquitin-like modifier activating enzyme 1, RXFP1  -  relaxin/insulin-like family peptide receptor 1, UBE2B  -  ubiquitin-conjugating enzyme e2b, LGR6  -  leucine-rich repeat containing g protein-coupled receptor 6, UBE2D2  -  ubiquitin-conjugating enzyme e2d 2, UBE2E2  -  ubiquitin-conjugating enzyme e2e 2, UBE2G1  -  ubiquitin-conjugating enzyme e2g 1, UBE2G2  -  ubiquitin-conjugating enzyme e2g 2, UBE2H  -  ubiquitin-conjugating enzyme e2h, KCNT2  -  potassium channel, subfamily t, member 2, UBE2L3  -  ubiquitin-conjugating enzyme e2l 3, UBE2N  -  ubiquitin-conjugating enzyme e2n, UBE3A  -  ubiquitin protein ligase e3a, TGM6  -  transglutaminase 6, SLC5A7  -  solute carrier family 5 (sodium/choline cotransporter), member 7, PPCDC  -  phosphopantothenoylcysteine decarboxylase, AASDHPPT  -  aminoadipate-semialdehyde dehydrogenase-phosphopantetheinyl transferase, UGP2  -  udp-glucose pyrophosphorylase 2, ELAC2  -  elac ribonuclease z 2, UCK2  -  uridine-cytidine kinase 2, USP4  -  ubiquitin specific peptidase 4 (proto-oncogene), SH3RF3  -  sh3 domain containing ring finger 3, DHX35  -  deah (asp-glu-ala-his) box polypeptide 35, UQCRC2  -  ubiquinol-cytochrome c reductase core protein ii, UQCRFS1  -  ubiquinol-cytochrome c reductase, rieske iron-sulfur polypeptide 1, SRR  -  serine racemase, UTRN  -  utrophin, KDM6A  -  lysine (k)-specific demethylase 6a, RNF123  -  ring finger protein 123, UBE2O  -  ubiquitin-conjugating enzyme e2o, VDAC1  -  voltage-dependent anion channel 1, VDR  -  vitamin d (1,25- dihydroxyvitamin d3) receptor, VEGFA  -  vascular endothelial growth factor a, VIL1  -  villin 1, GALNT11  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 11 (galnac-t11), CHTF18  -  ctf18, chromosome transmission fidelity factor 18 homolog (s. cerevisiae), ZNF335  -  zinc finger protein 335, ANKEF1  -  ankyrin repeat and ef-hand domain containing 1, XPNPEP3  -  x-prolyl aminopeptidase (aminopeptidase p) 3, putative, TRPV1  -  transient receptor potential cation channel, subfamily v, member 1, VRK1  -  vaccinia related kinase 1, EYS  -  eyes shut homolog (drosophila), VRK2  -  vaccinia related kinase 2, VSNL1  -  visinin-like 1, VTN  -  vitronectin, NECAB3  -  n-terminal ef-hand calcium binding protein 3, DMRTB1  -  dmrt-like family b with proline-rich c-terminal, 1, GNAT3  -  guanine nucleotide binding protein, alpha transducing 3, KIF13A  -  kinesin family member 13a, WEE1  -  wee1 homolog (s. pombe), PRDM16  -  pr domain containing 16, PRDM15  -  pr domain containing 15, FIGNL1  -  fidgetin-like 1, RBM26  -  rna binding motif protein 26, MMP27  -  matrix metallopeptidase 27, CDH23  -  cadherin-related 23, RBKS  -  ribokinase, WT1  -  wilms tumor 1, MCCC2  -  methylcrotonoyl-coa carboxylase 2 (beta), SNX16  -  sorting nexin 16, POPDC2  -  popeye domain containing 2, XDH  -  xanthine dehydrogenase, XPNPEP1  -  x-prolyl aminopeptidase (aminopeptidase p) 1, soluble, XPNPEP2  -  x-prolyl aminopeptidase (aminopeptidase p) 2, membrane-bound, XRCC2  -  x-ray repair complementing defective repair in chinese hamster cells 2, XRCC3  -  x-ray repair complementing defective repair in chinese hamster cells 3, XRCC5  -  x-ray repair complementing defective repair in chinese hamster cells 5 (double-strand-break rejoining), DUS1L  -  dihydrouridine synthase 1-like (s. cerevisiae), RRAGC  -  ras-related gtp binding c, YES1  -  v-yes-1 yamaguchi sarcoma viral oncogene homolog 1, FN3K  -  fructosamine 3 kinase, YY1  -  yy1 transcription factor, XYLT1  -  xylosyltransferase i, ZAP70  -  zeta-chain (tcr) associated protein kinase 70kda, ABCG4  -  atp-binding cassette, sub-family g (white), member 4, KIF9  -  kinesin family member 9, ZFX  -  zinc finger protein, x-linked, NECAB1  -  n-terminal ef-hand calcium binding protein 1, ZIC3  -  zic family member 3, ZNF3  -  zinc finger protein 3, DPEP2  -  dipeptidase 2, LEPRE1  -  leucine proline-enriched proteoglycan (leprecan) 1, ZNF711  -  zinc finger protein 711, CNBP  -  cchc-type zinc finger, nucleic acid binding protein, ATL2  -  atlastin gtpase 2, ABCG5  -  atp-binding cassette, sub-family g (white), member 5, ABCG8  -  atp-binding cassette, sub-family g (white), member 8, NSD1  -  nuclear receptor binding set domain protein 1, ZBTB25  -  zinc finger and btb domain containing 25, GEN1  -  gen1 holliday junction 5' flap endonuclease, ZNF76  -  zinc finger protein 76, IKZF5  -  ikaros family zinc finger 5 (pegasus), ZMAT3  -  zinc finger, matrin-type 3, ZNF106  -  zinc finger protein 106, MPP5  -  membrane protein, palmitoylated 5 (maguk p55 subfamily member 5), CDH22  -  cadherin 22, type 2, ARAP3  -  arfgap with rhogap domain, ankyrin repeat and ph domain 3, GZF1  -  gdnf-inducible zinc finger protein 1, ZNF142  -  zinc finger protein 142, ZNF143  -  zinc finger protein 143, NMNAT3  -  nicotinamide nucleotide adenylyltransferase 3, ZNF148  -  zinc finger protein 148, ZBTB17  -  zinc finger and btb domain containing 17, VEZF1  -  vascular endothelial zinc finger 1, CPEB1  -  cytoplasmic polyadenylation element binding protein 1, RNF113A  -  ring finger protein 113a, ZNF185  -  zinc finger protein 185 (lim domain), ZMYM2  -  zinc finger, mym-type 2, EBF2  -  early b-cell factor 2, ZNF207  -  zinc finger protein 207, ZNF208  -  zinc finger protein 208, GORASP1  -  golgi reassembly stacking protein 1, 65kda, ZNF217  -  zinc finger protein 217, ZNF236  -  zinc finger protein 236, SMAP2  -  small arfgap2, ACBD3  -  acyl-coa binding domain containing 3, ZYX  -  zyxin, SMYD3  -  set and mynd domain containing 3, PRDM2  -  pr domain containing 2, with znf domain, PARP12  -  poly (adp-ribose) polymerase family, member 12, IPPK  -  inositol 1,3,4,5,6-pentakisphosphate 2-kinase, DAP3  -  death associated protein 3, PXDN  -  peroxidasin homolog (drosophila), CERK  -  ceramide kinase, RNF103  -  ring finger protein 103, DDX31  -  dead (asp-glu-ala-asp) box polypeptide 31, BRPF1  -  bromodomain and phd finger containing, 1, RMND5A  -  required for meiotic nuclear division 5 homolog a (s. cerevisiae), MAPKAPK3  -  mitogen-activated protein kinase-activated protein kinase 3, NMNAT1  -  nicotinamide nucleotide adenylyltransferase 1, KCNAB1  -  potassium voltage-gated channel, shaker-related subfamily, beta member 1, ETNPPL  -  ethanolamine-phosphate phospho-lyase, AIDA  -  axin interactor, dorsalization associated, HSD17B8  -  hydroxysteroid (17-beta) dehydrogenase 8, PCDH20  -  protocadherin 20, BCL11B  -  b-cell cll/lymphoma 11b (zinc finger protein), PLA2G7  -  phospholipase a2, group vii (platelet-activating factor acetylhydrolase, plasma), NT5DC2  -  5'-nucleotidase domain containing 2, ARHGEF5  -  rho guanine nucleotide exchange factor (gef) 5, PINK1  -  pten induced putative kinase 1, CDK15  -  cyclin-dependent kinase 15, KAT6A  -  k(lysine) acetyltransferase 6a, GLRA3  -  glycine receptor, alpha 3, NR4A3  -  nuclear receptor subfamily 4, group a, member 3, RTN4R  -  reticulon 4 receptor, JMJD4  -  jumonji domain containing 4, CUBN  -  cubilin (intrinsic factor-cobalamin receptor), ADAM12  -  adam metallopeptidase domain 12, WNK1  -  wnk lysine deficient protein kinase 1, PCDH15  -  protocadherin-related 15, CSRP3  -  cysteine and glycine-rich protein 3 (cardiac lim protein), NADK  -  nad kinase, MPPE1  -  metallophosphoesterase 1, UBE2Z  -  ubiquitin-conjugating enzyme e2z, USP5  -  ubiquitin specific peptidase 5 (isopeptidase t), ZBTB41  -  zinc finger and btb domain containing 41, PLEKHA3  -  pleckstrin homology domain containing, family a (phosphoinositide binding specific) member 3, CAPRIN2  -  caprin family member 2, AACS  -  acetoacetyl-coa synthetase, DLK2  -  delta-like 2 homolog (drosophila), DPF3  -  d4, zinc and double phd fingers, family 3, ST8SIA2  -  st8 alpha-n-acetyl-neuraminide alpha-2,8-sialyltransferase 2, COLEC11  -  collectin sub-family member 11, RND2  -  rho family gtpase 2, NDUFS7  -  nadh dehydrogenase (ubiquinone) fe-s protein 7, 20kda (nadh-coenzyme q reductase), CAMKV  -  cam kinase-like vesicle-associated, GALNT18  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 18, MKKS  -  mckusick-kaufman syndrome, SPATA5L1  -  spermatogenesis associated 5-like 1, ERI3  -  eri1 exoribonuclease family member 3, KIF7  -  kinesin family member 7, ZFYVE21  -  zinc finger, fyve domain containing 21, ZNF710  -  zinc finger protein 710, DDX54  -  dead (asp-glu-ala-asp) box polypeptide 54, EFCAB5  -  ef-hand calcium binding domain 5, SYN3  -  synapsin iii, GTPBP6  -  gtp binding protein 6 (putative), ATP9B  -  atpase, class ii, type 9b, PRRG4  -  proline rich gla (g-carboxyglutamic acid) 4 (transmembrane), ZRSR2  -  zinc finger (ccch type), rna-binding motif and serine/arginine rich 2, FTO  -  fat mass and obesity associated, MLPH  -  melanophilin, EPX  -  eosinophil peroxidase, DYSF  -  dysferlin, limb girdle muscular dystrophy 2b (autosomal recessive), COLQ  -  collagen-like tail subunit (single strand of homotrimer) of asymmetric acetylcholinesterase, PICALM  -  phosphatidylinositol binding clathrin assembly protein, RNF26  -  ring finger protein 26, MAPKAP1  -  mitogen-activated protein kinase associated protein 1, DHX58  -  dexh (asp-glu-x-his) box polypeptide 58, ACOX3  -  acyl-coa oxidase 3, pristanoyl, BRAP  -  brca1 associated protein, CDC7  -  cell division cycle 7, MMP28  -  matrix metallopeptidase 28, GFI1B  -  growth factor independent 1b transcription repressor, TNIP2  -  tnfaip3 interacting protein 2, GNPTAB  -  n-acetylglucosamine-1-phosphate transferase, alpha and beta subunits, AGRN  -  agrin, ZC3H6  -  zinc finger ccch-type containing 6, TTPAL  -  tocopherol (alpha) transfer protein-like, BRCC3  -  brca1/brca2-containing complex, subunit 3, CA13  -  carbonic anhydrase xiii, ENTPD8  -  ectonucleoside triphosphate diphosphohydrolase 8, MMEL1  -  membrane metallo-endopeptidase-like 1, PIP4K2B  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, beta, SPARCL1  -  sparc-like 1 (hevin), ULK1  -  unc-51 like autophagy activating kinase 1, EEA1  -  early endosome antigen 1, ZXDC  -  zxd family zinc finger c, BBOX1  -  butyrobetaine (gamma), 2-oxoglutarate dioxygenase (gamma-butyrobetaine hydroxylase) 1, SDPR  -  serum deprivation response, RAD54L  -  rad54-like (s. cerevisiae), FYCO1  -  fyve and coiled-coil domain containing 1, DYRK3  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 3, DYRK2  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 2, DOC2B  -  double c2-like domains, beta, TTF2  -  transcription termination factor, rna polymerase ii, KLF11  -  kruppel-like factor 11, OGT  -  o-linked n-acetylglucosamine (glcnac) transferase, CDC42BPA  -  cdc42 binding protein kinase alpha (dmpk-like), MAP4K3  -  mitogen-activated protein kinase kinase kinase kinase 3, PPM1D  -  protein phosphatase, mg2+/mn2+ dependent, 1d, ATP13A3  -  atpase type 13a3, CHPF  -  chondroitin polymerizing factor, CARS2  -  cysteinyl-trna synthetase 2, mitochondrial (putative), ITGA8  -  integrin, alpha 8, GCM1  -  glial cells missing homolog 1 (drosophila), ADIPOR2  -  adiponectin receptor 2, DGKZ  -  diacylglycerol kinase, zeta, DGKE  -  diacylglycerol kinase, epsilon 64kda, DGKD  -  diacylglycerol kinase, delta 130kda, DDO  -  d-aspartate oxidase, ACSS3  -  acyl-coa synthetase short-chain family member 3, CPZ  -  carboxypeptidase z, GALNT14  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 14 (galnac-t14), NDNF  -  neuron-derived neurotrophic factor, AGPS  -  alkylglycerone phosphate synthase, FAT4  -  fat atypical cadherin 4, MAPKAPK5  -  mitogen-activated protein kinase-activated protein kinase 5, ARSJ  -  arylsulfatase family, member j, PIAS1  -  protein inhibitor of activated stat, 1, EFCAB1  -  ef-hand calcium binding domain 1, PANK3  -  pantothenate kinase 3, CDK10  -  cyclin-dependent kinase 10, KMO  -  kynurenine 3-monooxygenase (kynurenine 3-hydroxylase), PDXK  -  pyridoxal (pyridoxine, vitamin b6) kinase, MKNK1  -  map kinase interacting serine/threonine kinase 1, DYNC2H1  -  dynein, cytoplasmic 2, heavy chain 1, RASL11A  -  ras-like, family 11, member a, NEIL1  -  nei endonuclease viii-like 1 (e. coli), PDLIM4  -  pdz and lim domain 4, CASK  -  calcium/calmodulin-dependent serine protein kinase (maguk family), DHX40  -  deah (asp-glu-ala-his) box polypeptide 40, PLEKHF2  -  pleckstrin homology domain containing, family f (with fyve domain) member 2, STK16  -  serine/threonine kinase 16, NLRX1  -  nlr family member x1, VEPH1  -  ventricular zone expressed ph domain-containing 1, OGFOD2  -  2-oxoglutarate and iron-dependent oxygenase domain containing 2, SMC6  -  structural maintenance of chromosomes 6, STEAP4  -  steap family member 4, RUVBL1  -  ruvb-like 1 (e. coli), KLF7  -  kruppel-like factor 7 (ubiquitous), GALNT12  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 12 (galnac-t12), ZC2HC1C  -  zinc finger, c2hc-type containing 1c, ZMAT4  -  zinc finger, matrin-type 4, OGFOD3  -  2-oxoglutarate and iron-dependent oxygenase domain containing 3, CADPS  -  ca++-dependent secretion activator, CDK13  -  cyclin-dependent kinase 13, LRRK1  -  leucine-rich repeat kinase 1, NOL9  -  nucleolar protein 9, DNAH17  -  dynein, axonemal, heavy chain 17, NPEPL1  -  aminopeptidase-like 1, ENO4  -  enolase family member 4, GVINP1  -  gtpase, very large interferon inducible pseudogene 1, ABCB11  -  atp-binding cassette, sub-family b (mdr/tap), member 11, NARS2  -  asparaginyl-trna synthetase 2, mitochondrial (putative), BBS10  -  bardet-biedl syndrome 10, TTLL7  -  tubulin tyrosine ligase-like family, member 7, PDE5A  -  phosphodiesterase 5a, cgmp-specific, TNKS  -  tankyrase, trf1-interacting ankyrin-related adp-ribose polymerase, ZFAND1  -  zinc finger, an1-type domain 1, ZNF750  -  zinc finger protein 750, EFCAB10  -  ef-hand calcium binding domain 10, ZFHX4  -  zinc finger homeobox 4, MICALL2  -  mical-like 2, RERGL  -  rerg/ras-like, GALNT4  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 4 (galnac-t4), DNAH11  -  dynein, axonemal, heavy chain 11, B4GALT4  -  udp-gal:betaglcnac beta 1,4- galactosyltransferase, polypeptide 4, B4GALT3  -  udp-gal:betaglcnac beta 1,4- galactosyltransferase, polypeptide 3, ABCC3  -  atp-binding cassette, sub-family c (cftr/mrp), member 3, SBK1  -  sh3-binding domain kinase 1, SNX4  -  sorting nexin 4, EHMT1  -  euchromatic histone-lysine n-methyltransferase 1, SNX3  -  sorting nexin 3, ADAM19  -  adam metallopeptidase domain 19, GBF1  -  golgi brefeldin a resistant guanine nucleotide exchange factor 1, RNGTT  -  rna guanylyltransferase and 5'-phosphatase, EFCC1  -  ef-hand and coiled-coil domain containing 1, RIPK1  -  receptor (tnfrsf)-interacting serine-threonine kinase 1, LONRF3  -  lon peptidase n-terminal domain and ring finger 3, ADAM21  -  adam metallopeptidase domain 21, ADAM9  -  adam metallopeptidase domain 9, RNF122  -  ring finger protein 122, RAB11A  -  rab11a, member ras oncogene family, RIPK2  -  receptor-interacting serine-threonine kinase 2, SNX22  -  sorting nexin 22, RIOK3  -  rio kinase 3, MATN4  -  matrilin 4, DLK1  -  delta-like 1 homolog (drosophila), RPAP2  -  rna polymerase ii associated protein 2, CBLL1  -  cbl proto-oncogene-like 1, e3 ubiquitin protein ligase, TNFRSF11A  -  tumor necrosis factor receptor superfamily, member 11a, nfkb activator, UBA5  -  ubiquitin-like modifier activating enzyme 5, DCAKD  -  dephospho-coa kinase domain containing, Z</t>
-  </si>
-  <si>
-    <t>3H14  -  zinc finger ccch-type containing 14, SUCLG2  -  succinate-coa ligase, gdp-forming, beta subunit, SUCLA2  -  succinate-coa ligase, adp-forming, beta subunit, LPCAT1  -  lysophosphatidylcholine acyltransferase 1, TRIM24  -  tripartite motif containing 24, CDKL1  -  cyclin-dependent kinase-like 1 (cdc2-related kinase), CYBRD1  -  cytochrome b reductase 1, ATAD5  -  atpase family, aaa domain containing 5, IQGAP1  -  iq motif containing gtpase activating protein 1, NRP2  -  neuropilin 2, NRP1  -  neuropilin 1, GMPS  -  guanine monphosphate synthase, WISP3  -  wnt1 inducible signaling pathway protein 3, WISP1  -  wnt1 inducible signaling pathway protein 1, CAPN8  -  calpain 8, COA6  -  cytochrome c oxidase assembly factor 6 homolog (s. cerevisiae), KSR1  -  kinase suppressor of ras 1, ALKBH1  -  alkb, alkylation repair homolog 1 (e. coli), DHDDS  -  dehydrodolichyl diphosphate synthase, ASAP2  -  arfgap with sh3 domain, ankyrin repeat and ph domain 2, PROZ  -  protein z, vitamin k-dependent plasma glycoprotein, PHF17  -  phd finger protein 17, SQSTM1  -  sequestosome 1, SGPL1  -  sphingosine-1-phosphate lyase 1, DDX18  -  dead (asp-glu-ala-asp) box polypeptide 18, TAX1BP1  -  tax1 (human t-cell leukemia virus type i) binding protein 1, EIF2S2  -  eukaryotic translation initiation factor 2, subunit 2 beta, 38kda, CPNE3  -  copine iii, PLEKHM3  -  pleckstrin homology domain containing, family m, member 3, MTMR3  -  myotubularin related protein 3, PRPF4B  -  prp4 pre-mrna processing factor 4 homolog b (yeast), PHC3  -  polyhomeotic homolog 3 (drosophila), GYG2  -  glycogenin 2, CACNA1H  -  calcium channel, voltage-dependent, t type, alpha 1h subunit, FOXRED2  -  fad-dependent oxidoreductase domain containing 2, PANK2  -  pantothenate kinase 2, HERC2  -  hect and rld domain containing e3 ubiquitin protein ligase 2, BSN  -  bassoon presynaptic cytomatrix protein, KYNU  -  kynureninase, ADAMTS20  -  adam metallopeptidase with thrombospondin type 1 motif, 20, P4HA2  -  prolyl 4-hydroxylase, alpha polypeptide ii, USP13  -  ubiquitin specific peptidase 13 (isopeptidase t-3), BAIAP2L2  -  bai1-associated protein 2-like 2, ARL14  -  adp-ribosylation factor-like 14, PIF1  -  pif1 5'-to-3' dna helicase, MAP3K19  -  mitogen-activated protein kinase kinase kinase 19, KALRN  -  kalirin, rhogef kinase, CDKL2  -  cyclin-dependent kinase-like 2 (cdc2-related kinase), PTGES2  -  prostaglandin e synthase 2, FRAS1  -  fraser syndrome 1, TAF1B  -  tata box binding protein (tbp)-associated factor, rna polymerase i, b, 63kda, UXS1  -  udp-glucuronate decarboxylase 1, ZC3H12A  -  zinc finger ccch-type containing 12a, MAP3K14  -  mitogen-activated protein kinase kinase kinase 14, IYD  -  iodotyrosine deiodinase, BRSK2  -  br serine/threonine kinase 2, RNF8  -  ring finger protein 8, e3 ubiquitin protein ligase, HIP1R  -  huntingtin interacting protein 1 related, BAZ1B  -  bromodomain adjacent to zinc finger domain, 1b, PKD2L1  -  polycystic kidney disease 2-like 1, DBF4B  -  dbf4 homolog b (s. cerevisiae), FEZF1  -  fez family zinc finger 1, UBA3  -  ubiquitin-like modifier activating enzyme 3, MYO19  -  myosin xix, BTAF1  -  btaf1 rna polymerase ii, b-tfiid transcription factor-associated, 170kda, RNF34  -  ring finger protein 34, e3 ubiquitin protein ligase, HKDC1  -  hexokinase domain containing 1, FBXO11  -  f-box protein 11, CHD9  -  chromodomain helicase dna binding protein 9, NUGGC  -  nuclear gtpase, germinal center associated, PAPSS1  -  3'-phosphoadenosine 5'-phosphosulfate synthase 1, MAP3K6  -  mitogen-activated protein kinase kinase kinase 6, ALPK1  -  alpha-kinase 1, SYT7  -  synaptotagmin vii, ASH2L  -  ash2 (absent, small, or homeotic)-like (drosophila), RUFY1  -  run and fyve domain containing 1, EFHC2  -  ef-hand domain (c-terminal) containing 2, DNAJA3  -  dnaj (hsp40) homolog, subfamily a, member 3, EDEM3  -  er degradation enhancer, mannosidase alpha-like 3, SCUBE1  -  signal peptide, cub domain, egf-like 1, MAP3K15  -  mitogen-activated protein kinase kinase kinase 15, RGN  -  regucalcin, MTMR4  -  myotubularin related protein 4, FER1L4  -  fer-1-like 4 (c. elegans) pseudogene, MTA1  -  metastasis associated 1, LATS1  -  large tumor suppressor kinase 1, CPEB4  -  cytoplasmic polyadenylation element binding protein 4, PDLIM1  -  pdz and lim domain 1, SMC3  -  structural maintenance of chromosomes 3, P2RX6  -  purinergic receptor p2x, ligand-gated ion channel, 6, AIFM1  -  apoptosis-inducing factor, mitochondrion-associated, 1, CBFA2T2  -  core-binding factor, runt domain, alpha subunit 2; translocated to, 2, PDCD5  -  programmed cell death 5, HGS  -  hepatocyte growth factor-regulated tyrosine kinase substrate, COASY  -  coa synthase, NEURL  -  neuralized homolog (drosophila), TNKS2  -  tankyrase, trf1-interacting ankyrin-related adp-ribose polymerase 2, EXO1  -  exonuclease 1, DGKI  -  diacylglycerol kinase, iota, ACAD10  -  acyl-coa dehydrogenase family, member 10, SCAF11  -  sr-related ctd-associated factor 11, MAP3K13  -  mitogen-activated protein kinase kinase kinase 13, REPS2  -  ralbp1 associated eps domain containing 2, AARSD1  -  alanyl-trna synthetase domain containing 1, ZBED1  -  zinc finger, bed-type containing 1, STARD5  -  star-related lipid transfer (start) domain containing 5, DCLK1  -  doublecortin-like kinase 1, ZMYM4  -  zinc finger, mym-type 4, ZMYM3  -  zinc finger, mym-type 3, LIMD2  -  lim domain containing 2, CYB5B  -  cytochrome b5 type b (outer mitochondrial membrane), COL18A1  -  collagen, type xviii, alpha 1, XPR1  -  xenotropic and polytropic retrovirus receptor 1, ASXL3  -  additional sex combs like 3 (drosophila), DDHD1  -  ddhd domain containing 1, MAGI1  -  membrane associated guanylate kinase, ww and pdz domain containing 1, JHDM1D  -  jumonji c domain containing histone demethylase 1 homolog d (s. cerevisiae), GCM2  -  glial cells missing homolog 2 (drosophila), ILKAP  -  integrin-linked kinase-associated serine/threonine phosphatase, RPS6KA5  -  ribosomal protein s6 kinase, 90kda, polypeptide 5, CACNA2D2  -  calcium channel, voltage-dependent, alpha 2/delta subunit 2, MFHAS1  -  malignant fibrous histiocytoma amplified sequence 1, PDLIM7  -  pdz and lim domain 7 (enigma), MAPKAPK2  -  mitogen-activated protein kinase-activated protein kinase 2, STK17A  -  serine/threonine kinase 17a, COLEC12  -  collectin sub-family member 12, PIWIL1  -  piwi-like rna-mediated gene silencing 1, KLF4  -  kruppel-like factor 4 (gut), PTER  -  phosphotriesterase related, TRIP13  -  thyroid hormone receptor interactor 13, TRIP4  -  thyroid hormone receptor interactor 4, B4GALT6  -  udp-gal:betaglcnac beta 1,4- galactosyltransferase, polypeptide 6, TGM5  -  transglutaminase 5, EFTUD2  -  elongation factor tu gtp binding domain containing 2, LHX2  -  lim homeobox 2, LONP1  -  lon peptidase 1, mitochondrial, RAB28  -  rab28, member ras oncogene family, RAB9A  -  rab9a, member ras oncogene family, ADIPOQ  -  adiponectin, c1q and collagen domain containing, KIF3B  -  kinesin family member 3b, ZFYVE9  -  zinc finger, fyve domain containing 9, NRXN1  -  neurexin 1, OTOF  -  otoferlin, RECQL5  -  recq protein-like 5, ZRANB2  -  zinc finger, ran-binding domain containing 2, ARHGAP29  -  rho gtpase activating protein 29, ABCG2  -  atp-binding cassette, sub-family g (white), member 2, ITM2B  -  integral membrane protein 2b, EIF2AK3  -  eukaryotic translation initiation factor 2-alpha kinase 3, MOB2  -  mob kinase activator 2, FHL5  -  four and a half lim domains 5, PICK1  -  protein interacting with prkca 1, PCYT1B  -  phosphate cytidylyltransferase 1, choline, beta, ROCK2  -  rho-associated, coiled-coil containing protein kinase 2, LMAN2L  -  lectin, mannose-binding 2-like, CABP1  -  calcium binding protein 1, PGS1  -  phosphatidylglycerophosphate synthase 1, KIF23  -  kinesin family member 23, CDADC1  -  cytidine and dcmp deaminase domain containing 1, TRIM8  -  tripartite motif containing 8, RPH3AL  -  rabphilin 3a-like (without c2 domains), SNX27  -  sorting nexin family member 27, FRRS1  -  ferric-chelate reductase 1, ADAMTS3  -  adam metallopeptidase with thrombospondin type 1 motif, 3, ADAMTS2  -  adam metallopeptidase with thrombospondin type 1 motif, 2, TMEM163  -  transmembrane protein 163, PMPCB  -  peptidase (mitochondrial processing) beta, LITAF  -  lipopolysaccharide-induced tnf factor, SPTLC2  -  serine palmitoyltransferase, long chain base subunit 2, NPEPPS  -  aminopeptidase puromycin sensitive, VPS4B  -  vacuolar protein sorting 4 homolog b (s. cerevisiae), PTGES  -  prostaglandin e synthase, TP53I3  -  tumor protein p53 inducible protein 3, NUAK2  -  nuak family, snf1-like kinase, 2, CHD1L  -  chromodomain helicase dna binding protein 1-like, RNF146  -  ring finger protein 146, GTPBP1  -  gtp binding protein 1, KIF20B  -  kinesin family member 20b, CREB5  -  camp responsive element binding protein 5, FAHD1  -  fumarylacetoacetate hydrolase domain containing 1, KIF18A  -  kinesin family member 18a, RNF14  -  ring finger protein 14, RAB36  -  rab36, member ras oncogene family, PITPNM3  -  pitpnm family member 3, RNF7  -  ring finger protein 7, DYTN  -  dystrotelin, ADPGK  -  adp-dependent glucokinase, ABCG1  -  atp-binding cassette, sub-family g (white), member 1, CELSR1  -  cadherin, egf lag seven-pass g-type receptor 1, GUCA1C  -  guanylate cyclase activator 1c, SEC24C  -  sec24 family, member c (s. cerevisiae), DOHH  -  deoxyhypusine hydroxylase/monooxygenase, ZNF592  -  zinc finger protein 592, IKBKE  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase epsilon, DDX59  -  dead (asp-glu-ala-asp) box polypeptide 59, SH3PXD2A  -  sh3 and px domains 2a, MICAL2  -  microtubule associated monooxygenase, calponin and lim domain containing 2, PPM1F  -  protein phosphatase, mg2+/mn2+ dependent, 1f, AIF1L  -  allograft inflammatory factor 1-like, TTLL4  -  tubulin tyrosine ligase-like family, member 4, UCK1  -  uridine-cytidine kinase 1, ZNF516  -  zinc finger protein 516, RASSF5  -  ras association (ralgds/af-6) domain family member 5, EIF5B  -  eukaryotic translation initiation factor 5b, PPIP5K1  -  diphosphoinositol pentakisphosphate kinase 1, PHF14  -  phd finger protein 14, KDM4A  -  lysine (k)-specific demethylase 4a, CLINT1  -  clathrin interactor 1, KIAA0391  -  kiaa0391, RAPGEF2  -  rap guanine nucleotide exchange factor (gef) 2, EDEM1  -  er degradation enhancer, mannosidase alpha-like 1, RIMS2  -  regulating synaptic membrane exocytosis 2, PARP9  -  poly (adp-ribose) polymerase family, member 9, ST18  -  suppression of tumorigenicity 18 (breast carcinoma) (zinc finger protein), ULK2  -  unc-51 like autophagy activating kinase 2, CALN1  -  calneuron 1, AQR  -  aquarius homolog (mouse), ECE2  -  endothelin converting enzyme 2, CRISPLD2  -  cysteine-rich secretory protein lccl domain containing 2, RIOK1  -  rio kinase 1, RAB11FIP3  -  rab11 family interacting protein 3 (class ii), VPRBP  -  vpr (hiv-1) binding protein, LONP2  -  lon peptidase 2, peroxisomal, HDAC9  -  histone deacetylase 9, ARHGAP32  -  rho gtpase activating protein 32, ZNF536  -  zinc finger protein 536, ESYT3  -  extended synaptotagmin-like protein 3, CLSTN3  -  calsyntenin 3, SLK  -  ste20-like kinase, SETDB2  -  set domain, bifurcated 2, TAF3  -  taf3 rna polymerase ii, tata box binding protein (tbp)-associated factor, 140kda, FRMPD4  -  ferm and pdz domain containing 4, HMCN1  -  hemicentin 1, PHF16  -  phd finger protein 16, EIF4A3  -  eukaryotic translation initiation factor 4a3, KIAA0232  -  kiaa0232, RNF144A  -  ring finger protein 144a, MATR3  -  matrin 3, SNX17  -  sorting nexin 17, DHX38  -  deah (asp-glu-ala-his) box polypeptide 38, SNX25  -  sorting nexin 25, BMS1  -  bms1 ribosome biogenesis factor, GSG2  -  germ cell associated 2 (haspin), STK40  -  serine/threonine kinase 40, SPRTN  -  sprt-like n-terminal domain, HDAC10  -  histone deacetylase 10, IP6K1  -  inositol hexakisphosphate kinase 1, TATDN1  -  tatd dnase domain containing 1, TSSK1B  -  testis-specific serine kinase 1b, EFCAB14  -  ef-hand calcium binding domain 14, GIT2  -  g protein-coupled receptor kinase interacting arfgap 2, NCALD  -  neurocalcin delta, BRIP1  -  brca1 interacting protein c-terminal helicase 1, MELK  -  maternal embryonic leucine zipper kinase, OBSCN  -  obscurin, cytoskeletal calmodulin and titin-interacting rhogef, ZEB2  -  zinc finger e-box binding homeobox 2, KATNAL1  -  katanin p60 subunit a-like 1, ZBTB24  -  zinc finger and btb domain containing 24, PLEKHM1  -  pleckstrin homology domain containing, family m (with run domain) member 1, HEPH  -  hephaestin, GAB2  -  grb2-associated binding protein 2, C2CD5  -  c2 calcium-dependent domain containing 5, C2CD2L  -  c2cd2-like, PLA2G4B  -  phospholipase a2, group ivb (cytosolic), PLEKHN1  -  pleckstrin homology domain containing, family n member 1, JMJD7  -  jumonji domain containing 7, TRIM66  -  tripartite motif containing 66, ZRANB3  -  zinc finger, ran-binding domain containing 3, SETDB1  -  set domain, bifurcated 1, FBXO30  -  f-box protein 30, FCHSD2  -  fch and double sh3 domains 2, ZC3H11A  -  zinc finger ccch-type containing 11a, DDX46  -  dead (asp-glu-ala-asp) box polypeptide 46, ZBTB39  -  zinc finger and btb domain containing 39, ARL6  -  adp-ribosylation factor-like 6, USP44  -  ubiquitin specific peptidase 44, OSBPL2  -  oxysterol binding protein-like 2, RHOBTB1  -  rho-related btb domain containing 1, ZBED4  -  zinc finger, bed-type containing 4, ZIC4  -  zic family member 4, PCGF6  -  polycomb group ring finger 6, SNAP91  -  synaptosomal-associated protein, 91kda, ACAD11  -  acyl-coa dehydrogenase family, member 11, ZNRF3  -  zinc and ring finger 3, MYO18A  -  myosin xviiia, ZNF644  -  zinc finger protein 644, ATP2C2  -  atpase, ca++ transporting, type 2c, member 2, FAM20B  -  family with sequence similarity 20, member b, NLRC5  -  nlr family, card domain containing 5, RNF10  -  ring finger protein 10, ANTXR1  -  anthrax toxin receptor 1, ZBTB40  -  zinc finger and btb domain containing 40, POLR1B  -  polymerase (rna) i polypeptide b, 128kda, PAN2  -  pan2 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), MFN2  -  mitofusin 2, KIF14  -  kinesin family member 14, CHD6  -  chromodomain helicase dna binding protein 6, HELZ  -  helicase with zinc finger, DCLRE1A  -  dna cross-link repair 1a, EXOG  -  endo/exonuclease (5'-3'), endonuclease g-like, XYLB  -  xylulokinase homolog (h. influenzae), ZMYND12  -  zinc finger, mynd-type containing 12, TRAF7  -  tnf receptor-associated factor 7, e3 ubiquitin protein ligase, SNX19  -  sorting nexin 19, THRAP3  -  thyroid hormone receptor associated protein 3, NR1H4  -  nuclear receptor subfamily 1, group h, member 4, NUP153  -  nucleoporin 153kda, NR1D2  -  nuclear receptor subfamily 1, group d, member 2, RBX1  -  ring-box 1, e3 ubiquitin protein ligase, SGIP1  -  sh3-domain grb2-like (endophilin) interacting protein 1, CAMKK1  -  calcium/calmodulin-dependent protein kinase kinase 1, alpha, HAGHL  -  hydroxyacylglutathione hydrolase-like, AKT3  -  v-akt murine thymoma viral oncogene homolog 3, NR2E3  -  nuclear receptor subfamily 2, group e, member 3, NAALAD2  -  n-acetylated alpha-linked acidic dipeptidase 2, NOA1  -  nitric oxide associated 1, ZBTB33  -  zinc finger and btb domain containing 33, TANK  -  traf family member-associated nfkb activator, PDCD6  -  programmed cell death 6, NTPCR  -  nucleoside-triphosphatase, cancer-related, EFCAB2  -  ef-hand calcium binding domain 2, PIGK  -  phosphatidylinositol glycan anchor biosynthesis, class k, PHF6  -  phd finger protein 6, SMC4  -  structural maintenance of chromosomes 4, UBA2  -  ubiquitin-like modifier activating enzyme 2, FARSB  -  phenylalanyl-trna synthetase, beta subunit, ABCC5  -  atp-binding cassette, sub-family c (cftr/mrp), member 5, ABCB6  -  atp-binding cassette, sub-family b (mdr/tap), member 6, DNM1L  -  dynamin 1-like, COX17  -  cox17 cytochrome c oxidase copper chaperone, PCGF5  -  polycomb group ring finger 5, ATP9A  -  atpase, class ii, type 9a, ARFGAP2  -  adp-ribosylation factor gtpase activating protein 2, ACTR3  -  arp3 actin-related protein 3 homolog (yeast), RAB11FIP4  -  rab11 family interacting protein 4 (class ii), ACTR2  -  arp2 actin-related protein 2 homolog (yeast), ZNF512  -  zinc finger protein 512, EFCAB7  -  ef-hand calcium binding domain 7, L3MBTL3  -  l(3)mbt-like 3 (drosophila), RAD50  -  rad50 homolog (s. cerevisiae), KIF20A  -  kinesin family member 20a, SLX4  -  slx4 structure-specific endonuclease subunit, RASGRP1  -  ras guanyl releasing protein 1 (calcium and dag-regulated), MCM8  -  minichromosome maintenance complex component 8, TRAP1  -  tnf receptor-associated protein 1, OPTN  -  optineurin, ARFRP1  -  adp-ribosylation factor related protein 1, ACSS1  -  acyl-coa synthetase short-chain family member 1, G3BP1  -  gtpase activating protein (sh3 domain) binding protein 1, MBNL2  -  muscleblind-like splicing regulator 2, RASA4  -  ras p21 protein activator 4, COL25A1  -  collagen, type xxv, alpha 1, ZBTB37  -  zinc finger and btb domain containing 37, NT5C1A  -  5'-nucleotidase, cytosolic ia, ZGPAT  -  zinc finger, ccch-type with g patch domain, ZNF469  -  zinc finger protein 469, TENM1  -  teneurin transmembrane protein 1, TTBK1  -  tau tubulin kinase 1, RBM5  -  rna binding motif protein 5, TNK2  -  tyrosine kinase, non-receptor, 2, RNF41  -  ring finger protein 41, TSHZ1  -  teashirt zinc finger homeobox 1, PLA2G12B  -  phospholipase a2, group xiib, PRMT3  -  protein arginine methyltransferase 3, NME6  -  nme/nm23 nucleoside diphosphate kinase 6]</t>
-  </si>
-  <si>
     <t>GO:0140096</t>
   </si>
   <si>
     <t>catalytic activity, acting on a protein</t>
   </si>
   <si>
-    <t>[FBXO22  -  f-box protein 22, XPNPEP3  -  x-prolyl aminopeptidase (aminopeptidase p) 3, putative, PSMD14  -  proteasome (prosome, macropain) 26s subunit, non-atpase, 14, USP32  -  ubiquitin specific peptidase 32, VRK1  -  vaccinia related kinase 1, FBXO9  -  f-box protein 9, VRK2  -  vaccinia related kinase 2, FBXO6  -  f-box protein 6, MAPK15  -  mitogen-activated protein kinase 15, TRIM55  -  tripartite motif containing 55, TRIM63  -  tripartite motif containing 63, e3 ubiquitin protein ligase, FBXO3  -  f-box protein 3, P4HA1  -  prolyl 4-hydroxylase, alpha polypeptide i, P4HB  -  prolyl 4-hydroxylase, beta polypeptide, KDM2B  -  lysine (k)-specific demethylase 2b, ABL1  -  c-abl oncogene 1, non-receptor tyrosine kinase, WEE1  -  wee1 homolog (s. pombe), PRDM16  -  pr domain containing 16, PAK1  -  p21 protein (cdc42/rac)-activated kinase 1, FIGNL1  -  fidgetin-like 1, PAK2  -  p21 protein (cdc42/rac)-activated kinase 2, PAK3  -  p21 protein (cdc42/rac)-activated kinase 3, LNX1  -  ligand of numb-protein x 1, e3 ubiquitin protein ligase, PARK2  -  parkinson protein 2, e3 ubiquitin protein ligase (parkin), MMP27  -  matrix metallopeptidase 27, FUT8  -  fucosyltransferase 8 (alpha (1,6) fucosyltransferase), ACR  -  acrosin, FYN  -  fyn oncogene related to src, fgr, yes, CNDP1  -  carnosine dipeptidase 1 (metallopeptidase m20 family), ACP1  -  acid phosphatase 1, soluble, SETD4  -  set domain containing 4, USP30  -  ubiquitin specific peptidase 30, ACPP  -  acid phosphatase, prostate, PTPDC1  -  protein tyrosine phosphatase domain containing 1, UBE4B  -  ubiquitination factor e4b, XPNPEP1  -  x-prolyl aminopeptidase (aminopeptidase p) 1, soluble, XPNPEP2  -  x-prolyl aminopeptidase (aminopeptidase p) 2, membrane-bound, PCMT1  -  protein-l-isoaspartate (d-aspartate) o-methyltransferase, CYCS  -  cytochrome c, somatic, YES1  -  v-yes-1 yamaguchi sarcoma viral oncogene homolog 1, CHMP1A  -  charged multivesicular body protein 1a, FN3K  -  fructosamine 3 kinase, SPEG  -  speg complex locus, ACVR1  -  activin a receptor, type i, LATS2  -  large tumor suppressor kinase 2, PCSK2  -  proprotein convertase subtilisin/kexin type 2, ACVR2B  -  activin a receptor, type iib, XYLT1  -  xylosyltransferase i, CDK17  -  cyclin-dependent kinase 17, CDK18  -  cyclin-dependent kinase 18, ZAP70  -  zeta-chain (tcr) associated protein kinase 70kda, ADAM10  -  adam metallopeptidase domain 10, GALNT1  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 1 (galnac-t1), DPEP2  -  dipeptidase 2, LEPRE1  -  leucine proline-enriched proteoglycan (leprecan) 1, SSH1  -  slingshot protein phosphatase 1, GAPDH  -  glyceraldehyde-3-phosphate dehydrogenase, PDGFRA  -  platelet-derived growth factor receptor, alpha polypeptide, PDGFRL  -  platelet-derived growth factor receptor-like, PDGFRB  -  platelet-derived growth factor receptor, beta polypeptide, PTPN5  -  protein tyrosine phosphatase, non-receptor type 5 (striatum-enriched), AGBL4  -  atp/gtp binding protein-like 4, PDK3  -  pyruvate dehydrogenase kinase, isozyme 3, PDK4  -  pyruvate dehydrogenase kinase, isozyme 4, PARP1  -  poly (adp-ribose) polymerase 1, ANKIB1  -  ankyrin repeat and ibr domain containing 1, ZDHHC12  -  zinc finger, dhhc-type containing 12, NSD1  -  nuclear receptor binding set domain protein 1, SPPL2A  -  signal peptide peptidase like 2a, RNF216  -  ring finger protein 216, PEPD  -  peptidase d, ADRBK1  -  adrenergic, beta, receptor kinase 1, ADRBK2  -  adrenergic, beta, receptor kinase 2, NEURL1B  -  neuralized homolog 1b (drosophila), RNFT2  -  ring finger protein, transmembrane 2, TMX3  -  thioredoxin-related transmembrane protein 3, PRMT7  -  protein arginine methyltransferase 7, PEX12  -  peroxisomal biogenesis factor 12, ZDHHC20  -  zinc finger, dhhc-type containing 20, AKTIP  -  akt interacting protein, AGA  -  aspartylglucosaminidase, RPS6KC1  -  ribosomal protein s6 kinase, 52kda, polypeptide 1, ATG3  -  autophagy related 3, GGT1  -  gamma-glutamyltransferase 1, METAP1D  -  methionyl aminopeptidase type 1d (mitochondrial), MIER2  -  mesoderm induction early response 1, family member 2, CDK14  -  cyclin-dependent kinase 14, SUDS3  -  suppressor of defective silencing 3 homolog (s. cerevisiae), GGT7  -  gamma-glutamyltransferase 7, GGT5  -  gamma-glutamyltransferase 5, CPQ  -  carboxypeptidase q, ATG4C  -  autophagy related 4c, cysteine peptidase, RC3H2  -  ring finger and ccch-type domains 2, AKT1  -  v-akt murine thymoma viral oncogene homolog 1, RNF186  -  ring finger protein 186, TESK2  -  testis-specific kinase 2, RNF113A  -  ring finger protein 113a, PHEX  -  phosphate regulating endopeptidase homolog, x-linked, ARIH2  -  ariadne homolog 2 (drosophila), PHF2  -  phd finger protein 2, UBASH3B  -  ubiquitin associated and sh3 domain containing b, PHKA2  -  phosphorylase kinase, alpha 2 (liver), LYPLA1  -  lysophospholipase i, PHKG1  -  phosphorylase kinase, gamma 1 (muscle), ALK  -  anaplastic lymphoma receptor tyrosine kinase, TMPRSS3  -  transmembrane protease, serine 3, EGLN1  -  egl-9 family hypoxia-inducible factor 1, ZDHHC23  -  zinc finger, dhhc-type containing 23, PPIE  -  peptidylprolyl isomerase e (cyclophilin e), PDIA2  -  protein disulfide isomerase family a, member 2, MERTK  -  c-mer proto-oncogene tyrosine kinase, PARP14  -  poly (adp-ribose) polymerase family, member 14, SMURF2  -  smad specific e3 ubiquitin protein ligase 2, ADAMTS14  -  adam metallopeptidase with thrombospondin type 1 motif, 14, SMYD3  -  set and mynd domain containing 3, GLUL  -  glutamate-ammonia ligase, AMFR  -  autocrine motility factor receptor, e3 ubiquitin protein ligase, USP45  -  ubiquitin specific peptidase 45, PIK3CG  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit gamma, PTP4A1  -  protein tyrosine phosphatase type iva, member 1, PARP12  -  poly (adp-ribose) polymerase family, member 12, UBE2E3  -  ubiquitin-conjugating enzyme e2e 3, PDP1  -  pyruvate dehyrogenase phosphatase catalytic subunit 1, PPIL4  -  peptidylprolyl isomerase (cyclophilin)-like 4, RNF103  -  ring finger protein 103, STK25  -  serine/threonine kinase 25, OTUD4  -  otu domain containing 4, RNF144B  -  ring finger protein 144b, RMND5A  -  required for meiotic nuclear division 5 homolog a (s. cerevisiae), PLAT  -  plasminogen activator, tissue, MAPKAPK3  -  mitogen-activated protein kinase-activated protein kinase 3, PCSK9  -  proprotein convertase subtilisin/kexin type 9, USP7  -  ubiquitin specific peptidase 7 (herpes virus-associated), MYLK2  -  myosin light chain kinase 2, PLG  -  plasminogen, PAN3  -  pan3 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), STK35  -  serine/threonine kinase 35, RNF11  -  ring finger protein 11, ZRANB1  -  zinc finger, ran-binding domain containing 1, PLK1  -  polo-like kinase 1, PITRM1  -  pitrilysin metallopeptidase 1, RNF111  -  ring finger protein 111, PLOD1  -  procollagen-lysine, 2-oxoglutarate 5-dioxygenase 1, MIB2  -  mindbomb e3 ubiquitin protein ligase 2, LEPREL2  -  leprecan-like 2, XIAP  -  x-linked inhibitor of apoptosis, DUSP19  -  dual specificity phosphatase 19, ASB12  -  ankyrin repeat and socs box containing 12, PML  -  promyelocytic leukemia, DCLK3  -  doublecortin-like kinase 3, HECTD2  -  hect domain containing e3 ubiquitin protein ligase 2, PPA2  -  pyrophosphatase (inorganic) 2, SSH2  -  slingshot protein phosphatase 2, BSPRY  -  b-box and spry domain containing, GRK4  -  g protein-coupled receptor kinase 4, PINK1  -  pten induced putative kinase 1, GRK5  -  g protein-coupled receptor kinase 5, EIF2AK1  -  eukaryotic translation initiation factor 2-alpha kinase 1, GRK6  -  g protein-coupled receptor kinase 6, RNF214  -  ring finger protein 214, PRPF8  -  pre-mrna processing factor 8, CDK15  -  cyclin-dependent kinase 15, SHPRH  -  snf2 histone linker phd ring helicase, e3 ubiquitin protein ligase, USP16  -  ubiquitin specific peptidase 16, PGPEP1  -  pyroglutamyl-peptidase i, SNRK  -  snf related kinase, STAMBP  -  stam binding protein, ADAM12  -  adam metallopeptidase domain 12, PALD1  -  phosphatase domain containing, paladin 1, WNK1  -  wnk lysine deficient protein kinase 1, DPP8  -  dipeptidyl-peptidase 8, STK36  -  serine/threonine kinase 36, BCOR  -  bcl6 corepressor, CUL5  -  cullin 5, PTP4A2  -  protein tyrosine phosphatase type iva, member 2, MED1  -  mediator complex subunit 1, UBE2Z  -  ubiquitin-conjugating enzyme e2z, FBXL14  -  f-box and leucine-rich repeat protein 14, USP5  -  ubiquitin specific peptidase 5 (isopeptidase t), PPEF1  -  protein phosphatase, ef-hand calcium binding domain 1, RNF43  -  ring finger protein 43, NPRL2  -  nitrogen permease regulator-like 2 (s. cerevisiae), PPID  -  peptidylprolyl isomerase d, CAMKK2  -  calcium/calmodulin-dependent protein kinase kinase 2, beta, ASPH  -  aspartate beta-hydroxylase, PDIA3  -  protein disulfide isomerase family a, member 3, WHSC1L1  -  wolf-hirschhorn syndrome candidate 1-like 1, PPM1A  -  protein phosphatase, mg2+/mn2+ dependent, 1a, GSK3B  -  glycogen synthase kinase 3 beta, PPM1B  -  protein phosphatase, mg2+/mn2+ dependent, 1b, PPM1G  -  protein phosphatase, mg2+/mn2+ dependent, 1g, PPP1CB  -  protein phosphatase 1, catalytic subunit, beta isozyme, PPP1CC  -  protein phosphatase 1, catalytic subunit, gamma isozyme, PPP1R3C  -  protein phosphatase 1, regulatory subunit 3c, PPP1R3D  -  protein phosphatase 1, regulatory subunit 3d, UBE3B  -  ubiquitin protein ligase e3b, ATM  -  ataxia telangiectasia mutated, PAPLN  -  papilin, proteoglycan-like sulfated glycoprotein, PPP2CA  -  protein phosphatase 2, catalytic subunit, alpha isozyme, RSPRY1  -  ring finger and spry domain containing 1, DUSP26  -  dual specificity phosphatase 26 (putative), UBE3D  -  ubiquitin protein ligase e3d, TMPRSS9  -  transmembrane protease, serine 9, PPP2R5A  -  protein phosphatase 2, regulatory subunit b', alpha, PPP2R5D  -  protein phosphatase 2, regulatory subunit b', delta, PPP3CA  -  protein phosphatase 3, catalytic subunit, alpha isozyme, CORIN  -  corin, serine peptidase, PPP3CC  -  protein phosphatase 3, catalytic subunit, gamma isozyme, PPP3R1  -  protein phosphatase 3, regulatory subunit b, alpha, PPT1  -  palmitoyl-protein thioesterase 1, PARP16  -  poly (adp-ribose) polymerase family, member 16, CAMKV  -  cam kinase-like vesicle-associated, TINAG  -  tubulointerstitial nephritis antigen, GALNT18  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 18, GID4  -  gid complex subunit 4, PRCP  -  prolylcarboxypeptidase (angiotensinase c), YME1L1  -  yme1-like 1 atpase, GUCY2C  -  guanylate cyclase 2c (heat stable enterotoxin receptor), PREP  -  prolyl endopeptidase, GUCY2F  -  guanylate cyclase 2f, retinal, PTPRQ  -  protein tyrosine phosphatase, receptor type, q, KLHL13  -  kelch-like family member 13, TTBK2  -  tau tubulin kinase 2, PRKAB2  -  protein kinase, amp-activated, beta 2 non-catalytic subunit, PRKACB  -  protein kinase, camp-dependent, catalytic, beta, MAP3K2  -  mitogen-activated protein kinase kinase kinase 2, MASP2  -  mannan-binding lectin serine peptidase 2, GZMB  -  granzyme b (granzyme 2, cytotoxic t-lymphocyte-associated serine esterase 1), ATR  -  ataxia telangiectasia and rad3 related, CAPN9  -  calpain 9, PRKCA  -  protein kinase c, alpha, TRAF3IP2  -  traf3 interacting protein 2, PRKCB  -  protein kinase c, beta, MED30  -  mediator complex subunit 30, PRKCD  -  protein kinase c, delta, PRKCE  -  protein kinase c, epsilon, RPS6KA6  -  ribosomal protein s6 kinase, 90kda, polypeptide 6, PRKCH  -  protein kinase c, eta, USP9X  -  ubiquitin specific peptidase 9, x-linked, PKN2  -  protein kinase n2, PRKCQ  -  protein kinase c, theta, HABP2  -  hyaluronan binding protein 2, PRKCZ  -  protein kinase c, zeta, PRKDC  -  protein kinase, dna-activated, catalytic polypeptide, PRKG1  -  protein kinase, cgmp-dependent, type i, MAPK1  -  mitogen-activated protein kinase 1, MGAT5B  -  mannosyl (alpha-1,6-)-glycoprotein beta-1,6-n-acetyl-glucosaminyltransferase, isozyme b, MAPK6  -  mitogen-activated protein kinase 6, NEK6  -  nima-related kinase 6, MAPK8  -  mitogen-activated protein kinase 8, MAPK11  -  mitogen-activated protein kinase 11, BARD1  -  brca1 associated ring domain 1, DESI1  -  desumoylating isopeptidase 1, MAPK9  -  mitogen-activated protein kinase 9, MAPK10  -  mitogen-activated protein kinase 10, HTRA2  -  htra serine peptidase 2, MAPK13  -  mitogen-activated protein kinase 13, MAP2K1  -  mitogen-activated protein kinase kinase 1, METTL22  -  methyltransferase like 22, MAP2K6  -  mitogen-activated protein kinase kinase 6, EIF2AK2  -  eukaryotic translation initiation factor 2-alpha kinase 2, CCND1  -  cyclin d1, USP47  -  ubiquitin specific peptidase 47, RNF26  -  ring finger protein 26, HCK  -  hemopoietic cell kinase, BAP1  -  brca1 associated protein-1 (ubiquitin carboxy-terminal hydrolase), BRAP  -  brca1 associated protein, CDC7  -  cell division cycle 7, PROC  -  protein c (inactivator of coagulation factors va and viiia), HDAC1  -  histone deacetylase 1, BCR  -  breakpoint cluster region, ATG16L1  -  autophagy related 16-like 1 (s. cerevisiae), HDAC2  -  histone deacetylase 2, MMP28  -  matrix metallopeptidase 28, LGMN  -  legumain, ZNF598  -  zinc finger protein 598, HGF  -  hepatocyte growth factor (hepapoietin a; scatter factor), HGFAC  -  hgf activator, MASP1  -  mannan-binding lectin serine peptidase 1 (c4/c2 activating component of ra-reactive factor), RELN  -  reelin, TMPRSS15  -  transmembrane protease, serine 15, ADCK2  -  aarf domain containing kinase 2, BLK  -  b lymphoid tyrosine kinase, BLMH  -  bleomycin hydrolase, CLPX  -  clpx caseinolytic peptidase x homolog (e. coli), PSEN1  -  presenilin 1, PSEN2  -  presenilin 2 (alzheimer disease 4), DPP9  -  dipeptidyl-peptidase 9, TRIM47  -  tripartite motif containing 47, BRCC3  -  brca1/brca2-containing complex, subunit 3, BMPR1A  -  bone morphogenetic protein receptor, type ia, ADAM28  -  adam metallopeptidase domain 28, PSMA1  -  proteasome (prosome, macropain) subunit, alpha type, 1, BMPR2  -  bone morphogenetic protein receptor, type ii (serine/threonine kinase), PSMA2  -  proteasome (prosome, macropain) subunit, alpha type, 2, PSMA3  -  proteasome (prosome, macropain) subunit, alpha type, 3, USP20  -  ubiquitin specific peptidase 20, MMEL1  -  membrane metallo-endopeptidase-like 1, PSMA5  -  proteasome (prosome, macropain) subunit, alpha type, 5, USP19  -  ubiquitin specific peptidase 19, PSMB1  -  proteasome (prosome, macropain) subunit, beta type, 1, PSMB2  -  proteasome (prosome, macropain) subunit, beta type, 2, PSMB3  -  proteasome (prosome, macropain) subunit, beta type, 3, PSMB4  -  proteasome (prosome, macropain) subunit, beta type, 4, FGL2  -  fibrinogen-like 2, FANCL  -  fanconi anemia, complementation group l, BRCA1  -  breast cancer 1, early onset, BRAF  -  v-raf murine sarcoma viral oncogene homolog b, MALT1  -  mucosa associated lymphoid tissue lymphoma translocation gene 1, FIGN  -  fidgetin, PSMD1  -  proteasome (prosome, macropain) 26s subunit, non-atpase, 1, HLCS  -  holocarboxylase synthetase (biotin-(proprionyl-coa-carboxylase (atp-hydrolysing)) ligase), MMP24  -  matrix metallopeptidase 24 (membrane-inserted), PSMD2  -  proteasome (prosome, macropain) 26s subunit, non-atpase, 2, PSMD7  -  proteasome (prosome, macropain) 26s subunit, non-atpase, 7, RNF185  -  ring finger protein 185, BTK  -  bruton agammaglobulinemia tyrosine kinase, ZDHHC4  -  zinc finger, dhhc-type containing 4, PKDCC  -  protein kinase domain containing, cytoplasmic, P4HA3  -  prolyl 4-hydroxylase, alpha polypeptide iii, BUB1  -  bub1 mitotic checkpoint serine/threonine kinase, BUB1B  -  bub1 mitotic checkpoint serine/threonine kinase b, ULK1  -  unc-51 like autophagy activating kinase 1, RFWD3  -  ring finger and wd repeat domain 3, PTEN  -  phosphatase and tensin homolog, C1R  -  complement component 1, r subcomponent, C1S  -  complement component 1, s subcomponent, CAPN5  -  calpain 5, DYRK3  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 3, PTK2  -  protein tyrosine kinase 2, DYRK2  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 2, PTK7  -  protein tyrosine kinase 7, RNF220  -  ring finger protein 220, DUSP11  -  dual specificity phosphatase 11 (rna/rnp complex 1-interacting), B4GALNT3  -  beta-1,4-n-acetyl-galactosaminyl transferase 3, CUL4B  -  cullin 4b, CUL4A  -  cullin 4a, CUL3  -  cullin 3, MYRF  -  myelin regulatory factor, CUL2  -  cullin 2, CUL1  -  cullin 1, QSOX1  -  quiescin q6 sulfhydryl oxidase 1, MYLK3  -  myosin light chain kinase 3, TPST2  -  tyrosylprotein sulfotransferase 2, TPST1  -  tyrosylprotein sulfotransferase 1, PTPN1  -  protein tyrosine phosphatase, non-receptor type 1, PTPN2  -  protein tyrosine phosphatase, non-receptor type 2, PTPN3  -  protein tyrosine phosphatase, non-receptor type 3, PDIA5  -  protein disulfide isomerase family a, member 5, PM20D1  -  peptidase m20 domain containing 1, PTPN4  -  protein tyrosine phosphatase, non-receptor type 4 (megakaryocyte), PTPN6  -  protein tyrosine phosphatase, non-receptor type 6, PTPN7  -  protein tyrosine phosphatase, non-receptor type 7, PTPN9  -  protein tyrosine phosphatase, non-receptor type 9, PTPN11  -  protein tyrosine phosphatase, non-receptor type 11, PTPN12  -  protein tyrosine phosphatase, non-receptor type 12, OGT  -  o-linked n-acetylglucosamine (glcnac) transferase, PTPN13  -  protein tyrosine phosphatase, non-receptor type 13 (apo-1/cd95 (fas)-associated phosphatase), CDC42BPA  -  cdc42 binding protein kinase alpha (dmpk-like), SETD5  -  set domain containing 5, PTPRA  -  protein tyrosine phosphatase, receptor type, a, PTPRB  -  protein tyrosine phosphatase, receptor type, b, HECTD4  -  hect domain containing e3 ubiquitin protein ligase 4, RC3H1  -  ring finger and ccch-type domains 1, KSR2  -  kinase suppressor of ras 2, LEPREL1  -  leprecan-like 1, PTPRE  -  protein tyrosine phosphatase, receptor type, e, PTPRF  -  protein tyrosine phosphatase, receptor type, f, PTPRG  -  protein tyrosine phosphatase, receptor type, g, PTPRJ  -  protein tyrosine phosphatase, receptor type, j, PTPRK  -  protein tyrosine phosphatase, receptor type, k, MAP4K3  -  mitogen-activated protein kinase kinase kinase kinase 3, PTPRM  -  protein tyrosine phosphatase, receptor type, m, PRSS12  -  protease, serine, 12 (neurotrypsin, motopsin), TMPRSS12  -  transmembrane (c-terminal) protease, serine 12, PPM1D  -  protein phosphatase, mg2+/mn2+ dependent, 1d, PTPRN2  -  protein tyrosine phosphatase, receptor type, n polypeptide 2, PTPRO  -  protein tyrosine phosphatase, receptor type, o, PTPRR  -  protein tyrosine phosphatase, receptor type, r, METTL11B  -  methyltransferase like 11b, PTPRS  -  protein tyrosine phosphatase, receptor type, s, PTPRZ1  -  protein tyrosine phosphatase, receptor-type, z polypeptide 1, COPS5  -  cop9 signalosome subunit 5, USP40  -  ubiquitin specific peptidase 40, METAP2  -  methionyl aminopeptidase 2, PDIK1L  -  pdlim1 interacting kinase 1 like, DUSP27  -  dual specificity phosphatase 27 (putative), SIAH3  -  siah e3 ubiquitin protein ligase family member 3, OGFOD1  -  2-oxoglutarate and iron-dependent oxygenase domain containing 1, CAPN13  -  calpain 13, TMEM129  -  transmembrane protein 129, PCMTD2  -  protein-l-isoaspartate (d-aspartate) o-methyltransferase domain containing 2, TLK2  -  tousled-like kinase 2, CAMK4  -  calcium/calmodulin-dependent protein kinase iv, ZDHHC22  -  zinc finger, dhhc-type containing 22, CAMK2A  -  calcium/calmodulin-dependent protein kinase ii alpha, CAMK2D  -  calcium/calmodulin-dependent protein kinase ii delta, CAMK2G  -  calcium/calmodulin-dependent protein kinase ii gamma, CPZ  -  carboxypeptidase z, CAPN2  -  calpain 2, (m/ii) large subunit, CAPN3  -  calpain 3, (p94), CBX4  -  chromobox homolog 4, GALNT14  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 14 (galnac-t14), PIM3  -  pim-3 oncogene, CASP2  -  caspase 2, apoptosis-related cysteine peptidase, CASP3  -  caspase 3, apoptosis-related cysteine peptidase, UBE2W  -  ubiquitin-conjugating enzyme e2w (putative), CASP6  -  caspase 6, apoptosis-related cysteine peptidase, CASP7  -  caspase 7, apoptosis-related cysteine peptidase, MAPKAPK5  -  mitogen-activated protein kinase-activated protein kinase 5, CASP8  -  caspase 8, apoptosis-related cysteine peptidase, CASP9  -  caspase 9, apoptosis-related cysteine peptidase, PIAS1  -  protein inhibitor of activated stat, 1, CDC14A  -  cell division cycle 14a, CDK10  -  cyclin-dependent kinase 10, RAF1  -  v-raf-1 murine leukemia viral oncogene homolog 1, RAG1  -  recombination activating gene 1, WWP1  -  ww domain containing e3 ubiquitin protein ligase 1, RAG2  -  recombination activating gene 2, WWP2  -  ww domain containing e3 ubiquitin protein ligase 2, HECTD3  -  hect domain containing e3 ubiquitin protein ligase 3, MKNK1  -  map kinase interacting serine/threonine kinase 1, CBL  -  cbl proto-oncogene, e3 ubiquitin protein ligase, RANBP2  -  ran binding protein 2, CBLB  -  cbl proto-oncogene b, e3 ubiquitin protein ligase, UBE2Q2  -  ubiquitin-conjugating enzyme e2q family member 2, FAM98B  -  family with sequence similarity 98, member b, CASK  -  calcium/calmodulin-dependent serine protein kinase (maguk family), STK16  -  serine/threonine kinase 16, DUSP14  -  dual specificity phosphatase 14, TTL  -  tubulin tyrosine ligase, UFSP2  -  ufm1-specific peptidase 2, FBXL22  -  f-box and leucine-rich repeat protein 22, WDR5  -  wd repeat domain 5, SMYD1  -  set and mynd domain containing 1, ADAMTS13  -  adam metallopeptidase with thrombospondin type 1 motif, 13, KDM5A  -  lysine (k)-specific demethylase 5a, ADAMTS8  -  adam metallopeptidase with thrombospondin type 1 motif, 8, ADAMTS5  -  adam metallopeptidase with thrombospondin type 1 motif, 5, RBBP5  -  retinoblastoma binding protein 5, RBBP6  -  retinoblastoma binding protein 6, PRSS23  -  protease, serine, 23, ATE1  -  arginyltransferase 1, GALNT12  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 12 (galnac-t12), KATNA1  -  katanin p60 (atpase containing) subunit a 1, ABHD10  -  abhydrolase domain containing 10, CDK13  -  cyclin-dependent kinase 13, CIT  -  citron (rho-interacting, serine/threonine kinase 21), LRRK1  -  leucine-rich repeat kinase 1, RBP3  -  retinol binding protein 3, interstitial, PTPRT  -  protein tyrosine phosphatase, receptor type, t, NPEPL1  -  aminopeptidase-like 1, TPTE2  -  transmembrane phosphoinositide 3-phosphatase and tensin homolog 2, CAPN10  -  calpain 10, TBCK  -  tbc1 domain containing kinase, RET  -  ret proto-oncogene, TTLL7  -  tubulin tyrosine ligase-like family, member 7, TNKS  -  tankyrase, trf1-interacting ankyrin-related adp-ribose polymerase, FICD  -  fic domain containing, ADGB  -  androglobin, IDE  -  insulin-degrading enzyme, PTP4A3  -  protein tyrosine phosphatase type iva, member 3, NEK8  -  nima-related kinase 8, EIF3H  -  eukaryotic translation initiation factor 3, subunit h, NDUFAF7  -  nadh dehydrogenase (ubiquinone) complex i, assembly factor 7, EIF2AK4  -  eukaryotic translation initiation factor 2 alpha kinase 4, PARL  -  presenilin associated, rhomboid-like, SETD8  -  set domain containing (lysine methyltransferase) 8, CFI  -  complement factor i, NHLRC3  -  nhl repeat containing 3, DTX3L  -  deltex 3-like (drosophila), ADAMTS7  -  adam metallopeptidase with thrombospondin type 1 motif, 7, PP2D1  -  protein phosphatase 2c-like domain containing 1, MAP4K5  -  mitogen-activated protein kinase kinase kinase kinase 5, GALNT4  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 4 (galnac-t4), CDC23  -  cell division cycle 23, HTRA3  -  htra serine peptidase 3, CDC25A  -  cell division cycle 25a, CDC42  -  cell division cycle 42, CHEK2  -  checkpoint kinase 2, VASH2  -  vasohibin 2, MBTPS1  -  membrane-bound transcription factor peptidase, site 1, SBK1  -  sh3-binding domain kinase 1, GALNT10  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 10 (galnac-t10), RNASEL  -  ribonuclease l (2',5'-oligoisoadenylate synthetase-dependent), EHMT1  -  euchromatic histone-lysine n-methyltransferase 1, AKAP13  -  a kinase (prka) anchor protein 13, NEK10  -  nima-related kinase 10, IGF2R  -  insulin-like growth factor 2 receptor, RNF2  -  ring finger protein 2, EED  -  embryonic ectoderm development, ADAM19  -  adam metallopeptidase domain 19, RNF6  -  ring finger protein (c3h2c3 type) 6, DUSP10  -  dual specificity phosphatase 10, UBE2Q1  -  ubiquitin-conjugating enzyme e2q family member 1, RNGTT  -  rna guanylyltransferase and 5'-phosphatase, RNPEP  -  arginyl aminopeptidase (aminopeptidase b), CDK3  -  cyclin-dependent kinase 3, BMP2K  -  bmp2 inducible kinase, CDK5  -  cyclin-dependent kinase 5, RIPK1  -  receptor (tnfrsf)-interacting serine-threonine kinase 1, GALNT5  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 5 (galnac-t5), CDK6  -  cyclin-dependent kinase 6, CDK8  -  cyclin-dependent kinase 8, CDK9  -  cyclin-dependent kinase 9, CDKN1A  -  cyclin-dependent kinase inhibitor 1a (p21, cip1), PEAK1  -  nkf3 kinase family member, RNF139  -  ring finger protein 139, ADAM23  -  adam metallopeptidase domain 23, ADAM21  -  adam metallopeptidase domain 21, ADAM9  -  adam metallopeptidase domain 9, RNF122  -  ring finger protein 122, MTMR8  -  myotubularin related protein 8, TASP1  -  taspase, threonine aspartase, 1, RIPK2  -  receptor-interacting serine-threonine kinase 2, POMGNT1  -  protein o-linked mannose n-acetylglucosaminyltransferase 1 (beta 1,2-), ZDHHC7  -  zinc finger, dhhc-type containing 7, MTMR1  -  myotubularin related protein 1, RIOK3  -  rio kinase 3, ROCK1  -  rho-associated, coiled-coil containing protein kinase 1, EGLN3  -  egl-9 family hypoxia-inducible factor 3, LRRC40  -  leucine rich repeat containing 40, G2E3  -  g2/m-phase specific e3 ubiquitin protein ligase, USP18  -  ubiquitin specific peptidase 18, ALG13  -  alg13, udp-n-acetylglucosaminyltransferase subunit, ROS1  -  c-ros oncogene 1 , receptor tyrosine kinase, RPAP2  -  rna polymerase ii associated protein 2, CBLL1  -  cbl proto-oncogene-like 1, e3 ubiquitin protein ligase, MGAT4B  -  mannosyl (alpha-1,3-)-glycoprotein beta-1,4-n-acetylglucosaminyltransferase, isozyme b, IHH  -  indian hedgehog, IKBKB  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase beta, B4GALT7  -  xylosylprotein beta 1,4-galactosyltransferase, polypeptide 7, CTSC  -  cathepsin c, HDAC11  -  histone deacetylase 11, LYPLA2  -  lysophospholipase ii, PARK7  -  parkinson protein 7, TRIM24  -  tripartite motif containing 24, RNF126  -  ring finger protein 126, MGAT4A  -  mannosyl (alpha-1,3-)-glycoprotein beta-1,4-n-acetylglucosaminyltransferase, isozyme a, CAPN14  -  calpain 14, CCNK  -  cyclin k, CDKL1  -  cyclin-dependent kinase-like 1 (cdc2-related kinase), SH3RF2  -  sh3 domain containing ring finger 2, RNF145  -  ring finger protein 145, SCYL2  -  scy1-like 2 (s. cerevisiae), NRP2  -  neuropilin 2, SETD6  -  set domain containing 6, NRP1  -  neuropilin 1, RNF13  -  ring finger protein 13, GGH  -  gamma-glutamyl hydrolase (conjugase, folylpolygammaglutamyl hydrolase), RNF217  -  ring finger protein 217, CHM  -  choroideremia (rab escort protein 1), CAPN8  -  calpain 8, HDAC3  -  histone deacetylase 3, KSR1  -  kinase suppressor of ras 1, PROZ  -  protein z, vitamin k-dependent plasma glycoprotein, PIK3IP1  -  phosphoinositide-3-kinase interacting protein 1, DTX2  -  deltex homolog 2 (drosophila), RPS6KA2  -  ribosomal protein s6 kinase, 90kda, polypeptide 2, RPS6KA3  -  ribosomal protein s6 kinase, 90kda, polypeptide 3, RPS6KB1  -  ribosomal protein s6 kinase, 70kda, polypeptide 1, RPS6KB2  -  ribosomal protein s6 kinase, 70kda, polypeptide 2, SQSTM1  -  sequestosome 1, AMZ1  -  archaelysin family metallopeptidase 1, PPM1E  -  protein phosphatase, mg2+/mn2+ dependent, 1e, TRIM9  -  tripartite motif containing 9, VASH1  -  vasohibin 1, AAK1  -  ap2 associated kinase 1, CHFR  -  checkpoint with forkhead and ring finger domains, e3 ubiquitin protein ligase, LMTK2  -  lemur tyrosine kinase 2, CNDP2  -  cndp dipeptidase 2 (metallopeptidase m20 family), CLC  -  charcot-leyden crystal galectin, CPNE3  -  copine iii, IRAK2  -  interleukin-1 receptor-associated kinase 2, RNF149  -  ring finger protein 149, MTMR3  -  myotubularin related protein 3, MTMR2  -  myotubularin related protein 2, PRPF4B  -  prp4 pre-mrna processing factor 4 homolog b (yeast), CLK2  -  cdc-like kinase 2, CLK3  -  cdc-like kinase 3, HERC3  -  hect and rld domain containing e3 ubiquitin protein ligase 3, HERC2  -  hect and rld domain containing e3 ubiquitin protein ligase 2, HERC1  -  hect and rld domain containing e3 ubiquitin protein ligase family member 1, UBOX5  -  u-box domain containing 5, ITGB3  -  integrin, beta 3 (platelet glycoprotein iiia, antigen cd61), ADAMTS20  -  adam metallopeptidase with thrombospondin type 1 motif, 20, EOGT  -  egf domain-specific o-linked n-acetylglucosamine (glcnac) transferase, BTRC  -  beta-transducin repeat containing e3 ubiquitin protein ligase, EPHA6  -  eph receptor a6, ITK  -  il2-inducible t-cell kinase, ITPKA  -  inositol-trisphosphate 3-kinase a, P4HA2  -  prolyl 4-hydroxylase, alpha polypeptide ii, USP13  -  ubiquitin specific peptidase 13 (isopeptidase t-3), TTLL11  -  tubulin tyrosine ligase-like family, member 11, JAK1  -  janus kinase 1, VCPIP1  -  valosin containing protein (p97)/p47 complex interacting protein 1, MYSM1  -  myb-like, swirm and mpn domains 1, KDM3A  -  lysine (k)-specific demethylase 3a, JARID2  -  jumonji, at rich interactive domain 2, RNF157  -  ring finger protein 157, RNF130  -  ring finger protein 130, GALNT13  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 13 (galnac-t13), KALRN  -  kalirin, rhogef kinase, VPS11  -  vacuolar protein sorting 11 homolog (s. cerevisiae), CDKL2  -  cyclin-dependent kinase-like 2 (cdc2-related kinase), MAPK12  -  mitogen-activated protein kinase 12, ZC3H12A  -  zinc finger ccch-type containing 12a, MAP3K14  -  mitogen-activated protein kinase kinase kinase 14, ASRGL1  -  asparaginase like 1, BRSK2  -  br serine/threonine kinase 2, RNF8  -  ring finger protein 8, e3 ubiquitin protein ligase, BAZ1B  -  bromodomain adjacent to zinc finger domain, 1b, TRIM32  -  tripartite motif containing 32, UBA3  -  ubiquitin-like modifier activating enzyme 3, RNF34  -  ring finger protein 34, e3 ubiquitin protein ligase, HDAC8  -  histone deacetylase 8, FBXO11  -  f-box protein 11, ASH1L  -  ash1 (absent, small, or homeotic)-like (drosophila), RNF212  -  ring finger protein 212, ZDHHC15  -  zinc finger, dhhc-type containing 15, MAP3K6  -  mitogen-activated protein kinase kinase kinase 6, ALPK1  -  alpha-kinase 1, CCL2  -  chemokine (c-c motif) ligand 2, CCL3  -  chemokine (c-c motif) ligand 3, MAP3K8  -  mitogen-activated protein kinase kinase kinase 8, ASH2L  -  ash2 (absent, small, or homeotic)-like (drosophila), OMA1  -  oma1 zinc metallopeptidase, STK38L  -  serine/threonine kinase 38 like, RNF114  -  ring finger protein 114, FBXO21  -  f-box protein 21, KDR  -  kinase insert domain receptor (a type iii receptor tyrosine kinase), TMPRSS11E  -  transmembrane protease, serine 11e, KEL  -  kell blood group, metallo-endopeptidase, USP54  -  ubiquitin specific peptidase 54, PDZRN3  -  pdz domain containing ring finger 3, NTMT1  -  n-terminal xaa-pro-lys n-methyltransferase 1, KDM4B  -  lysine (k)-specific demethylase 4b, MAST3  -  microtubule associated serine/threonine kinase 3, USP33  -  ubiquitin specific peptidase 33, USP14  -  ubiquitin specific peptidase 14 (trna-guanine transglycosylase), PHLPP2  -  ph domain and leucine rich repeat protein phosphatase 2, MAP3K15  -  mitogen-activated protein kinase kinase kinase 15, CPA2  -  carboxypeptidase a2 (pancreatic), USP10  -  ubiquitin specific peptidase 10, USP8  -  ubiquitin specific peptidase 8, CPB1  -  carboxypeptidase b1 (tissue), CPB2  -  carboxypeptidase b2 (plasma), KIT  -  v-kit hardy-zuckerman 4 feline sarcoma viral oncogene homolog, CPD  -  carboxypeptidase d, CPE  -  carboxypeptidase e, MTMR7  -  myotubularin related protein 7, TNIK  -  traf2 and nck interacting kinase, KLKB1  -  kallikrein b, plasma (fletcher factor) 1, MTMR4  -  myotubularin related protein 4, CPM  -  carboxypeptidase m, PPTC7  -  ptc7 protein phosphatase homolog (s. cerevisiae), LATS1  -  large tumor suppressor kinase 1, CPN1  -  carboxypeptidase n, polypeptide 1, SMG1  -  smg1 phosphatidylinositol 3-kinase-related kinase, CPS1  -  carbamoyl-phosphate synthase 1, mitochondrial, C1GALT1C1  -  c1galt1-</t>
-  </si>
-  <si>
-    <t>pecific chaperone 1, SEL1L  -  sel-1 suppressor of lin-12-like (c. elegans), SETD2  -  set domain containing 2, SETD1B  -  set domain containing 1b, PHPT1  -  phosphohistidine phosphatase 1, ERP44  -  endoplasmic reticulum protein 44, HECW1  -  hect, c2 and ww domain containing e3 ubiquitin protein ligase 1, UBE2T  -  ubiquitin-conjugating enzyme e2t (putative), MYCBP2  -  myc binding protein 2, e3 ubiquitin protein ligase, WDR82  -  wd repeat domain 82, SETMAR  -  set domain and mariner transposase fusion gene, OTUD7A  -  otu domain containing 7a, TRIM35  -  tripartite motif containing 35, NEURL  -  neuralized homolog (drosophila), N6AMT1  -  n-6 adenine-specific dna methyltransferase 1 (putative), TNKS2  -  tankyrase, trf1-interacting ankyrin-related adp-ribose polymerase 2, TTLL5  -  tubulin tyrosine ligase-like family, member 5, CTDP1  -  ctd (carboxy-terminal domain, rna polymerase ii, polypeptide a) phosphatase, subunit 1, TBK1  -  tank-binding kinase 1, PCSK7  -  proprotein convertase subtilisin/kexin type 7, MYLIP  -  myosin regulatory light chain interacting protein, SGK1  -  serum/glucocorticoid regulated kinase 1, RHBDL3  -  rhomboid, veinlet-like 3 (drosophila), MAP3K13  -  mitogen-activated protein kinase kinase kinase 13, UHRF1  -  ubiquitin-like with phd and ring finger domains 1, MAPK14  -  mitogen-activated protein kinase 14, USP25  -  ubiquitin specific peptidase 25, GALNTL6  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase-like 6, ZBED1  -  zinc finger, bed-type containing 1, SHH  -  sonic hedgehog, TEX14  -  testis expressed 14, CSK  -  c-src tyrosine kinase, MAST2  -  microtubule associated serine/threonine kinase 2, DCLK1  -  doublecortin-like kinase 1, CSNK1A1  -  casein kinase 1, alpha 1, CSNK1E  -  casein kinase 1, epsilon, CSNK1G2  -  casein kinase 1, gamma 2, CSNK2A1  -  casein kinase 2, alpha 1 polypeptide, ZDHHC1  -  zinc finger, dhhc-type containing 1, ZDHHC8  -  zinc finger, dhhc-type containing 8, SENP1  -  sumo1/sentrin specific peptidase 1, DUSP16  -  dual specificity phosphatase 16, SLA  -  src-like-adaptor, METAP1  -  methionyl aminopeptidase 1, JHDM1D  -  jumonji c domain containing histone demethylase 1 homolog d (s. cerevisiae), SETD7  -  set domain containing (lysine methyltransferase) 7, PASK  -  pas domain containing serine/threonine kinase, EEF2K  -  eukaryotic elongation factor-2 kinase, ILKAP  -  integrin-linked kinase-associated serine/threonine phosphatase, RPS6KA5  -  ribosomal protein s6 kinase, 90kda, polypeptide 5, TTLL9  -  tubulin tyrosine ligase-like family, member 9, MAPKAPK2  -  mitogen-activated protein kinase-activated protein kinase 2, PRMT8  -  protein arginine methyltransferase 8, STK17A  -  serine/threonine kinase 17a, TMPRSS6  -  transmembrane protease, serine 6, LIMK2  -  lim domain kinase 2, GALNT15  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 15, CTSB  -  cathepsin b, CTSD  -  cathepsin d, CTSE  -  cathepsin e, CTSH  -  cathepsin h, CTSL  -  cathepsin l, JMJD6  -  jumonji domain containing 6, RFFL  -  ring finger and fyve-like domain containing e3 ubiquitin protein ligase, CTSZ  -  cathepsin z, LMO7  -  lim domain 7, ANAPC4  -  anaphase promoting complex subunit 4, TMPRSS4  -  transmembrane protease, serine 4, DTX4  -  deltex homolog 4 (drosophila), RNF168  -  ring finger protein 168, e3 ubiquitin protein ligase, LOXL1  -  lysyl oxidase-like 1, SBK2  -  sh3-binding domain kinase family, member 2, DPP7  -  dipeptidyl-peptidase 7, LOXL2  -  lysyl oxidase-like 2, TRIM39  -  tripartite motif containing 39, CYLD  -  cylindromatosis (turban tumor syndrome), SIK2  -  salt-inducible kinase 2, PHLPP1  -  ph domain and leucine rich repeat protein phosphatase 1, NRIP3  -  nuclear receptor interacting protein 3, COPS2  -  cop9 signalosome subunit 2, TRIP12  -  thyroid hormone receptor interactor 12, LTA4H  -  leukotriene a4 hydrolase, OTUD3  -  otu domain containing 3, LTBP1  -  latent transforming growth factor beta binding protein 1, TGM5  -  transglutaminase 5, ERO1L  -  ero1-like (s. cerevisiae), TRIM59  -  tripartite motif containing 59, POFUT2  -  protein o-fucosyltransferase 2, UBE4A  -  ubiquitination factor e4a, PPIG  -  peptidylprolyl isomerase g (cyclophilin g), LONP1  -  lon peptidase 1, mitochondrial, FBXW11  -  f-box and wd repeat domain containing 11, MGRN1  -  mahogunin ring finger 1, e3 ubiquitin protein ligase, QSOX2  -  quiescin q6 sulfhydryl oxidase 2, UBR2  -  ubiquitin protein ligase e3 component n-recognin 2, C1GALT1  -  core 1 synthase, glycoprotein-n-acetylgalactosamine 3-beta-galactosyltransferase, 1, FKBP15  -  fk506 binding protein 15, 133kda, PIK3R4  -  phosphoinositide-3-kinase, regulatory subunit 4, PAK6  -  p21 protein (cdc42/rac)-activated kinase 6, TRIM2  -  tripartite motif containing 2, SPPL2B  -  signal peptide peptidase like 2b, USP22  -  ubiquitin specific peptidase 22, ACE  -  angiotensin i converting enzyme, CAPN15  -  calpain 15, MAK  -  male germ cell-associated kinase, DUSP22  -  dual specificity phosphatase 22, LRRK2  -  leucine-rich repeat kinase 2, DDB2  -  damage-specific dna binding protein 2, 48kda, SMYD2  -  set and mynd domain containing 2, GALNT9  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 9 (galnac-t9), UBR4  -  ubiquitin protein ligase e3 component n-recognin 4, MARK1  -  map/microtubule affinity-regulating kinase 1, MARK3  -  map/microtubule affinity-regulating kinase 3, PARP6  -  poly (adp-ribose) polymerase family, member 6, SPAST  -  spastin, FAM20C  -  family with sequence similarity 20, member c, SPG7  -  spastic paraplegia 7 (pure and complicated autosomal recessive), MED7  -  mediator complex subunit 7, UFL1  -  ufm1-specific ligase 1, EIF2AK3  -  eukaryotic translation initiation factor 2-alpha kinase 3, HM13  -  histocompatibility (minor) 13, NCSTN  -  nicastrin, SIK3  -  sik family kinase 3, SPPL3  -  signal peptide peptidase like 3, ZDHHC17  -  zinc finger, dhhc-type containing 17, ADAMTS9  -  adam metallopeptidase with thrombospondin type 1 motif, 9, ADAMTS15  -  adam metallopeptidase with thrombospondin type 1 motif, 15, ADAMTS18  -  adam metallopeptidase with thrombospondin type 1 motif, 18, SRC  -  v-src avian sarcoma (schmidt-ruppin a-2) viral oncogene homolog, ROCK2  -  rho-associated, coiled-coil containing protein kinase 2, SIRT3  -  sirtuin 3, MED20  -  mediator complex subunit 20, PDXP  -  pyridoxal (pyridoxine, vitamin b6) phosphatase, MDM2  -  mdm2 oncogene, e3 ubiquitin protein ligase, NDEL1  -  nude neurodevelopment protein 1-like 1, TXNDC5  -  thioredoxin domain containing 5 (endoplasmic reticulum), SRMS  -  src-related kinase lacking c-terminal regulatory tyrosine and n-terminal myristylation sites, RNF141  -  ring finger protein 141, DLG1  -  discs, large homolog 1 (drosophila), SRPK1  -  srsf protein kinase 1, SRPK2  -  srsf protein kinase 2, DLST  -  dihydrolipoamide s-succinyltransferase (e2 component of 2-oxo-glutarate complex), MAP3K3  -  mitogen-activated protein kinase kinase kinase 3, MAP3K4  -  mitogen-activated protein kinase kinase kinase 4, ADAMTS3  -  adam metallopeptidase with thrombospondin type 1 motif, 3, ADAMTS2  -  adam metallopeptidase with thrombospondin type 1 motif, 2, MEP1A  -  meprin a, alpha (paba peptide hydrolase), MEP1B  -  meprin a, beta, PMPCB  -  peptidase (mitochondrial processing) beta, CPA6  -  carboxypeptidase a6, MET  -  met proto-oncogene, PARP11  -  poly (adp-ribose) polymerase family, member 11, NPEPPS  -  aminopeptidase puromycin sensitive, VPS4B  -  vacuolar protein sorting 4 homolog b (s. cerevisiae), MGAT2  -  mannosyl (alpha-1,6-)-glycoprotein beta-1,2-n-acetylglucosaminyltransferase, ST14  -  suppression of tumorigenicity 14 (colon carcinoma), TMEM59  -  transmembrane protein 59, MGAT3  -  mannosyl (beta-1,4-)-glycoprotein beta-1,4-n-acetylglucosaminyltransferase, MGAT5  -  mannosyl (alpha-1,6-)-glycoprotein beta-1,6-n-acetyl-glucosaminyltransferase, CAMK1D  -  calcium/calmodulin-dependent protein kinase id, SENP8  -  sumo/sentrin specific peptidase family member 8, CAPN7  -  calpain 7, PGAM5  -  phosphoglycerate mutase family member 5, NUAK2  -  nuak family, snf1-like kinase, 2, GLRX2  -  glutaredoxin 2, NEK4  -  nima-related kinase 4, STK3  -  serine/threonine kinase 3, DPP6  -  dipeptidyl-peptidase 6, STK4  -  serine/threonine kinase 4, CDKL5  -  cyclin-dependent kinase-like 5, STK10  -  serine/threonine kinase 10, DESI2  -  desumoylating isopeptidase 2, STK11  -  serine/threonine kinase 11, ADCK1  -  aarf domain containing kinase 1, MIPEP  -  mitochondrial intermediate peptidase, PAK7  -  p21 protein (cdc42/rac)-activated kinase 7, RNF146  -  ring finger protein 146, ATXN3  -  ataxin 3, MINPP1  -  multiple inositol-polyphosphate phosphatase 1, POFUT1  -  protein o-fucosyltransferase 1, MAP3K9  -  mitogen-activated protein kinase kinase kinase 9, SUZ12  -  suz12 polycomb repressive complex 2 subunit, SMURF1  -  smad specific e3 ubiquitin protein ligase 1, LAP3  -  leucine aminopeptidase 3, KMT2A  -  lysine (k)-specific methyltransferase 2a, PELI2  -  pellino e3 ubiquitin protein ligase family member 2, PELI1  -  pellino e3 ubiquitin protein ligase 1, PREPL  -  prolyl endopeptidase-like, MME  -  membrane metallo-endopeptidase, CAMK1G  -  calcium/calmodulin-dependent protein kinase ig, MMP2  -  matrix metallopeptidase 2 (gelatinase a, 72kda gelatinase, 72kda type iv collagenase), MMP3  -  matrix metallopeptidase 3 (stromelysin 1, progelatinase), MMP7  -  matrix metallopeptidase 7 (matrilysin, uterine), MMP9  -  matrix metallopeptidase 9 (gelatinase b, 92kda gelatinase, 92kda type iv collagenase), MMP11  -  matrix metallopeptidase 11 (stromelysin 3), MMP13  -  matrix metallopeptidase 13 (collagenase 3), PDIA4  -  protein disulfide isomerase family a, member 4, RNF14  -  ring finger protein 14, MMP17  -  matrix metallopeptidase 17 (membrane-inserted), ADAMTSL3  -  adamts-like 3, DUSP5  -  dual specificity phosphatase 5, DUSP6  -  dual specificity phosphatase 6, TNNI3K  -  tnni3 interacting kinase, DUSP8  -  dual specificity phosphatase 8, RNF7  -  ring finger protein 7, DNPEP  -  aspartyl aminopeptidase, METTL21C  -  methyltransferase like 21c, DYRK1A  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 1a, MOS  -  v-mos moloney murine sarcoma viral oncogene homolog, ADAM17  -  adam metallopeptidase domain 17, TAF1  -  taf1 rna polymerase ii, tata box binding protein (tbp)-associated factor, 250kda, SUV420H1  -  suppressor of variegation 4-20 homolog 1 (drosophila), MLKL  -  mixed lineage kinase domain-like, ZDHHC9  -  zinc finger, dhhc-type containing 9, IKBKE  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase epsilon, ECE1  -  endothelin converting enzyme 1, MAP3K7  -  mitogen-activated protein kinase kinase kinase 7, PPM1F  -  protein phosphatase, mg2+/mn2+ dependent, 1f, NSMCE1  -  non-smc element 1 homolog (s. cerevisiae), TTLL4  -  tubulin tyrosine ligase-like family, member 4, SENP7  -  sumo1/sentrin specific peptidase 7, IRAK4  -  interleukin-1 receptor-associated kinase 4, RNFT1  -  ring finger protein, transmembrane 1, CLK4  -  cdc-like kinase 4, COPS4  -  cop9 signalosome subunit 4, MKRN1  -  makorin ring finger protein 1, MKRN2  -  makorin ring finger protein 2, RHBDD2  -  rhomboid domain containing 2, KDM4A  -  lysine (k)-specific demethylase 4a, DUPD1  -  dual specificity phosphatase and pro isomerase domain containing 1, BIRC6  -  baculoviral iap repeat containing 6, UBE3C  -  ubiquitin protein ligase e3c, B4GALNT4  -  beta-1,4-n-acetyl-galactosaminyl transferase 4, PARP9  -  poly (adp-ribose) polymerase family, member 9, ESPL1  -  extra spindle pole bodies homolog 1 (s. cerevisiae), ULK2  -  unc-51 like autophagy activating kinase 2, EPHA2  -  eph receptor a2, RNF215  -  ring finger protein 215, HERC5  -  hect and rld domain containing e3 ubiquitin protein ligase 5, USP31  -  ubiquitin specific peptidase 31, ECE2  -  endothelin converting enzyme 2, ADAMTSL2  -  adamts-like 2, ZDHHC2  -  zinc finger, dhhc-type containing 2, RIOK1  -  rio kinase 1, PIKFYVE  -  phosphoinositide kinase, fyve finger containing, RNF150  -  ring finger protein 150, ITCH  -  itchy e3 ubiquitin protein ligase, SGK3  -  serum/glucocorticoid regulated kinase family, member 3, DUSP13  -  dual specificity phosphatase 13, VPRBP  -  vpr (hiv-1) binding protein, HDAC9  -  histone deacetylase 9, LONP2  -  lon peptidase 2, peroxisomal, USP34  -  ubiquitin specific peptidase 34, VRK3  -  vaccinia related kinase 3, CRIM1  -  cysteine rich transmembrane bmp regulator 1 (chordin-like), SLK  -  ste20-like kinase, SETDB2  -  set domain, bifurcated 2, HECW2  -  hect, c2 and ww domain containing e3 ubiquitin protein ligase 2, WEE2  -  wee1 homolog 2 (s. pombe), LRRC30  -  leucine rich repeat containing 30, ENPEP  -  glutamyl aminopeptidase (aminopeptidase a), HACE1  -  hect domain and ankyrin repeat containing e3 ubiquitin protein ligase 1, AIPL1  -  aryl hydrocarbon receptor interacting protein-like 1, MIB1  -  mindbomb e3 ubiquitin protein ligase 1, ADAMTSL5  -  adamts-like 5, LYPLAL1  -  lysophospholipase-like 1, EPB42  -  erythrocyte membrane protein band 4.2, KLHL42  -  kelch-like family member 42, EPHA1  -  eph receptor a1, EPHA3  -  eph receptor a3, EPHA4  -  eph receptor a4, PDP2  -  pyruvate dehyrogenase phosphatase catalytic subunit 2, EPHA5  -  eph receptor a5, EPHA7  -  eph receptor a7, TAOK1  -  tao kinase 1, TESK1  -  testis-specific kinase 1, EPHA8  -  eph receptor a8, RNF144A  -  ring finger protein 144a, EPHB1  -  eph receptor b1, EPHB2  -  eph receptor b2, EPHB3  -  eph receptor b3, BFAR  -  bifunctional apoptosis regulator, USP35  -  ubiquitin specific peptidase 35, SPCS2  -  signal peptidase complex subunit 2 homolog (s. cerevisiae), CKAP5  -  cytoskeleton associated protein 5, GSG2  -  germ cell associated 2 (haspin), TRIM37  -  tripartite motif containing 37, ERBB4  -  v-erb-b2 avian erythroblastic leukemia viral oncogene homolog 4, SPRTN  -  sprt-like n-terminal domain, HDAC10  -  histone deacetylase 10, SCRN1  -  secernin 1, EYA4  -  eyes absent homolog 4 (drosophila), ZDHHC3  -  zinc finger, dhhc-type containing 3, TSSK1B  -  testis-specific serine kinase 1b, TGM4  -  transglutaminase 4, TGFBR2  -  transforming growth factor, beta receptor ii (70/80kda), TGFBR3  -  transforming growth factor, beta receptor iii, STK32A  -  serine/threonine kinase 32a, ERN1  -  endoplasmic reticulum to nucleus signaling 1, DNAJC6  -  dnaj (hsp40) homolog, subfamily c, member 6, DSTYK  -  dual serine/threonine and tyrosine protein kinase, PRSS55  -  protease, serine, 55, TMPRSS13  -  transmembrane protease, serine 13, MYH6  -  myosin, heavy chain 6, cardiac muscle, alpha, MELK  -  maternal embryonic leucine zipper kinase, KY  -  kyphoscoliosis peptidase, KATNAL1  -  katanin p60 subunit a-like 1, FBXO7  -  f-box protein 7, VPS18  -  vacuolar protein sorting 18 homolog (s. cerevisiae), QPCT  -  glutaminyl-peptide cyclotransferase, MYLK  -  myosin light chain kinase, MECOM  -  mds1 and evi1 complex locus, TAOK3  -  tao kinase 3, JMJD7  -  jumonji domain containing 7, SH3RF1  -  sh3 domain containing ring finger 1, MBTPS2  -  membrane-bound transcription factor peptidase, site 2, TTLL1  -  tubulin tyrosine ligase-like family, member 1, TLL1  -  tolloid-like 1, TLL2  -  tolloid-like 2, UBR5  -  ubiquitin protein ligase e3 component n-recognin 5, EYA3  -  eyes absent homolog 3 (drosophila), EZH1  -  enhancer of zeste homolog 1 (drosophila), USP28  -  ubiquitin specific peptidase 28, EZH2  -  enhancer of zeste homolog 2 (drosophila), ARIH1  -  ariadne homolog, ubiquitin-conjugating enzyme e2 binding protein, 1 (drosophila), SETDB1  -  set domain, bifurcated 1, F2  -  coagulation factor ii (thrombin), PDILT  -  protein disulfide isomerase-like, testis expressed, FBXO30  -  f-box protein 30, UCHL5  -  ubiquitin carboxyl-terminal hydrolase l5, F3  -  coagulation factor iii (thromboplastin, tissue factor), HIPK1  -  homeodomain interacting protein kinase 1, BACE2  -  beta-site app-cleaving enzyme 2, F7  -  coagulation factor vii (serum prothrombin conversion accelerator), F9  -  coagulation factor ix, F10  -  coagulation factor x, HECTD1  -  hect domain containing e3 ubiquitin protein ligase 1, SENP5  -  sumo1/sentrin specific peptidase 5, F13A1  -  coagulation factor xiii, a1 polypeptide, USP44  -  ubiquitin specific peptidase 44, MGAT4C  -  mannosyl (alpha-1,3-)-glycoprotein beta-1,4-n-acetylglucosaminyltransferase, isozyme c (putative), MYLK4  -  myosin light chain kinase family, member 4, TMPRSS2  -  transmembrane protease, serine 2, PPME1  -  protein phosphatase methylesterase 1, RNF213  -  ring finger protein 213, HEMK1  -  hemk methyltransferase family member 1, TNFAIP1  -  tumor necrosis factor, alpha-induced protein 1 (endothelial), USP42  -  ubiquitin specific peptidase 42, ZNRF3  -  zinc and ring finger 3, TNFAIP3  -  tumor necrosis factor, alpha-induced protein 3, USP12  -  ubiquitin specific peptidase 12, PTK2B  -  protein tyrosine kinase 2 beta, USP37  -  ubiquitin specific peptidase 37, USP49  -  ubiquitin specific peptidase 49, FAP  -  fibroblast activation protein, alpha, RNF138  -  ring finger protein 138, e3 ubiquitin protein ligase, AGBL3  -  atp/gtp binding protein-like 3, NRBP2  -  nuclear receptor binding protein 2, LCMT1  -  leucine carboxyl methyltransferase 1, MIER1  -  mesoderm induction early response 1, transcriptional regulator, EFEMP1  -  egf containing fibulin-like extracellular matrix protein 1, RNF10  -  ring finger protein 10, TOP1  -  topoisomerase (dna) i, JOSD1  -  josephin domain containing 1, RNF19A  -  ring finger protein 19a, e3 ubiquitin protein ligase, SETD3  -  set domain containing 3, USP48  -  ubiquitin specific peptidase 48, NEDD4  -  neural precursor cell expressed, developmentally down-regulated 4, e3 ubiquitin protein ligase, TPP2  -  tripeptidyl peptidase ii, DTL  -  denticleless e3 ubiquitin protein ligase homolog (drosophila), NEK1  -  nima-related kinase 1, USP15  -  ubiquitin specific peptidase 15, SOSTDC1  -  sclerostin domain containing 1, NEK2  -  nima-related kinase 2, NEK3  -  nima-related kinase 3, TRAF2  -  tnf receptor-associated factor 2, TRAF3  -  tnf receptor-associated factor 3, TRAF5  -  tnf receptor-associated factor 5, TRAF7  -  tnf receptor-associated factor 7, e3 ubiquitin protein ligase, RHBDD1  -  rhomboid domain containing 1, FAM98A  -  family with sequence similarity 98, member a, ZDHHC18  -  zinc finger, dhhc-type containing 18, SIRT6  -  sirtuin 6, TRIO  -  trio rho guanine nucleotide exchange factor, RBX1  -  ring-box 1, e3 ubiquitin protein ligase, FGFR1  -  fibroblast growth factor receptor 1, ACVR1C  -  activin a receptor, type ic, FGFR3  -  fibroblast growth factor receptor 3, CAMKK1  -  calcium/calmodulin-dependent protein kinase kinase 1, alpha, FGFR2  -  fibroblast growth factor receptor 2, FGFR4  -  fibroblast growth factor receptor 4, UBR3  -  ubiquitin protein ligase e3 component n-recognin 3 (putative), HDAC7  -  histone deacetylase 7, PPP4R1  -  protein phosphatase 4, regulatory subunit 1, OVCH2  -  ovochymase 2 (gene/pseudogene), TIPARP  -  tcdd-inducible poly(adp-ribose) polymerase, AKT3  -  v-akt murine thymoma viral oncogene homolog 3, NFX1  -  nuclear transcription factor, x-box binding 1, NAALAD2  -  n-acetylated alpha-linked acidic dipeptidase 2, FKBP1B  -  fk506 binding protein 1b, 12.6 kda, PIAS4  -  protein inhibitor of activated stat, 4, CPO  -  carboxypeptidase o, ULK3  -  unc-51 like kinase 3, FKBP3  -  fk506 binding protein 3, 25kda, TANK  -  traf family member-associated nfkb activator, FKBP5  -  fk506 binding protein 5, ABHD17C  -  abhydrolase domain containing 17c, RNF167  -  ring finger protein 167, ZDHHC16  -  zinc finger, dhhc-type containing 16, NKTR  -  natural killer-tumor recognition sequence, PIGK  -  phosphatidylinositol glycan anchor biosynthesis, class k, OTUD6B  -  otu domain containing 6b, TRIM71  -  tripartite motif containing 71, e3 ubiquitin protein ligase, KMT2C  -  lysine (k)-specific methyltransferase 2c, RNF152  -  ring finger protein 152, FLT1  -  fms-related tyrosine kinase 1, FLT3  -  fms-related tyrosine kinase 3, TTC3  -  tetratricopeptide repeat domain 3, ZNF451  -  zinc finger protein 451, FLT4  -  fms-related tyrosine kinase 4, CNOT4  -  ccr4-not transcription complex, subunit 4, STYXL1  -  serine/threonine/tyrosine interacting-like 1, TTK  -  ttk protein kinase, TTN  -  titin, GRK7  -  g protein-coupled receptor kinase 7, LTN1  -  listerin e3 ubiquitin protein ligase 1, ASB1  -  ankyrin repeat and socs box containing 1, ASB4  -  ankyrin repeat and socs box containing 4, FNTB  -  farnesyltransferase, caax box, beta, SENP6  -  sumo1/sentrin specific peptidase 6, FOLH1  -  folate hydrolase (prostate-specific membrane antigen) 1, JMJD1C  -  jumonji domain containing 1c, PPM1M  -  protein phosphatase, mg2+/mn2+ dependent, 1m, ACE2  -  angiotensin i converting enzyme 2, NLK  -  nemo-like kinase, PTPRU  -  protein tyrosine phosphatase, receptor type, u, TYRO3  -  tyro3 protein tyrosine kinase, NPR2  -  natriuretic peptide receptor b/guanylate cyclase b (atrionatriuretic peptide receptor b), SCPEP1  -  serine carboxypeptidase 1, FBXO40  -  f-box protein 40, SENP2  -  sumo1/sentrin/smt3 specific peptidase 2, ABHD12  -  abhydrolase domain containing 12, HERC4  -  hect and rld domain containing e3 ubiquitin protein ligase 4, UBE2B  -  ubiquitin-conjugating enzyme e2b, DOT1L  -  dot1-like histone h3k79 methyltransferase, UBE2D2  -  ubiquitin-conjugating enzyme e2d 2, UBE2E2  -  ubiquitin-conjugating enzyme e2e 2, UBE2G1  -  ubiquitin-conjugating enzyme e2g 1, UBE2G2  -  ubiquitin-conjugating enzyme e2g 2, UBE2H  -  ubiquitin-conjugating enzyme e2h, CDK12  -  cyclin-dependent kinase 12, UBE2L3  -  ubiquitin-conjugating enzyme e2l 3, UBE2N  -  ubiquitin-conjugating enzyme e2n, NTRK3  -  neurotrophic tyrosine kinase, receptor, type 3, UBE3A  -  ubiquitin protein ligase e3a, DDR2  -  discoidin domain receptor tyrosine kinase 2, TGM6  -  transglutaminase 6, KDM3B  -  lysine (k)-specific demethylase 3b, UCHL1  -  ubiquitin carboxyl-terminal esterase l1 (ubiquitin thiolesterase), NUP98  -  nucleoporin 98kda, PDIA6  -  protein disulfide isomerase family a, member 6, KDM1B  -  lysine (k)-specific demethylase 1b, GALNT7  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 7 (galnac-t7), RNF182  -  ring finger protein 182, SH3RF3  -  sh3 domain containing ring finger 3, USP4  -  ubiquitin specific peptidase 4 (proto-oncogene), LRRIQ4  -  leucine-rich repeats and iq motif containing 4, UBLCP1  -  ubiquitin-like domain containing ctd phosphatase 1, ADAM22  -  adam metallopeptidase domain 22, TMPRSS7  -  transmembrane protease, serine 7, FRK  -  fyn-related kinase, USP1  -  ubiquitin specific peptidase 1, FBXL21  -  f-box and leucine-rich repeat protein 21 (gene/pseudogene), KDM6A  -  lysine (k)-specific demethylase 6a, FBXL3  -  f-box and leucine-rich repeat protein 3, TTBK1  -  tau tubulin kinase 1, FGFRL1  -  fibroblast growth factor receptor-like 1, RNF123  -  ring finger protein 123, FBXO2  -  f-box protein 2, UBE2O  -  ubiquitin-conjugating enzyme e2o, TNK2  -  tyrosine kinase, non-receptor, 2, USP38  -  ubiquitin specific peptidase 38, MYO3A  -  myosin iiia, RNF41  -  ring finger protein 41, PM20D2  -  peptidase m20 domain containing 2, PRMT3  -  protein arginine methyltransferase 3, TRIM50  -  tripartite motif containing 50, CSNK1G1  -  casein kinase 1, gamma 1, GALNT11  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 11 (galnac-t11), MTOR  -  mechanistic target of rapamycin (serine/threonine kinase), FBXW8  -  f-box and wd repeat domain containing 8, FBXO25  -  f-box protein 25, USPL1  -  ubiquitin specific peptidase like 1]</t>
-  </si>
-  <si>
     <t>GO:0032553</t>
   </si>
   <si>
     <t>ribonucleotide binding</t>
   </si>
   <si>
-    <t>[P2RX4  -  purinergic receptor p2x, ligand-gated ion channel, 4, P2RX5  -  purinergic receptor p2x, ligand-gated ion channel, 5, TRPV1  -  transient receptor potential cation channel, subfamily v, member 1, VRK1  -  vaccinia related kinase 1, VRK2  -  vaccinia related kinase 2, P2RY4  -  pyrimidinergic receptor p2y, g-protein coupled, 4, MAPK15  -  mitogen-activated protein kinase 15, LRGUK  -  leucine-rich repeats and guanylate kinase domain containing, PEBP1  -  phosphatidylethanolamine binding protein 1, ABCA2  -  atp-binding cassette, sub-family a (abc1), member 2, ABCA3  -  atp-binding cassette, sub-family a (abc1), member 3, ERAL1  -  era-like 12s mitochondrial rrna chaperone 1, ABCB7  -  atp-binding cassette, sub-family b (mdr/tap), member 7, GNAT3  -  guanine nucleotide binding protein, alpha transducing 3, ABCA4  -  atp-binding cassette, sub-family a (abc1), member 4, ABL1  -  c-abl oncogene 1, non-receptor tyrosine kinase, AK5  -  adenylate kinase 5, KIF13A  -  kinesin family member 13a, WEE1  -  wee1 homolog (s. pombe), ACACA  -  acetyl-coa carboxylase alpha, ACACB  -  acetyl-coa carboxylase beta, PAK1  -  p21 protein (cdc42/rac)-activated kinase 1, FIGNL1  -  fidgetin-like 1, PAK2  -  p21 protein (cdc42/rac)-activated kinase 2, MYO18B  -  myosin xviiib, ACADL  -  acyl-coa dehydrogenase, long chain, PAK3  -  p21 protein (cdc42/rac)-activated kinase 3, GNL3  -  guanine nucleotide binding protein-like 3 (nucleolar), ACLY  -  atp citrate lyase, FYN  -  fyn oncogene related to src, fgr, yes, RBKS  -  ribokinase, ABCC4  -  atp-binding cassette, sub-family c (cftr/mrp), member 4, MCCC2  -  methylcrotonoyl-coa carboxylase 2 (beta), ACTA1  -  actin, alpha 1, skeletal muscle, RIPK4  -  receptor-interacting serine-threonine kinase 4, POPDC2  -  popeye domain containing 2, XRCC6  -  x-ray repair complementing defective repair in chinese hamster cells 6, PCCA  -  propionyl coa carboxylase, alpha polypeptide, PCCB  -  propionyl coa carboxylase, beta polypeptide, ACTG2  -  actin, gamma 2, smooth muscle, enteric, PCK1  -  phosphoenolpyruvate carboxykinase 1 (soluble), XRCC2  -  x-ray repair complementing defective repair in chinese hamster cells 2, XRCC3  -  x-ray repair complementing defective repair in chinese hamster cells 3, XRCC5  -  x-ray repair complementing defective repair in chinese hamster cells 5 (double-strand-break rejoining), RRAGC  -  ras-related gtp binding c, YES1  -  v-yes-1 yamaguchi sarcoma viral oncogene homolog 1, FN3K  -  fructosamine 3 kinase, SPEG  -  speg complex locus, ACVR1  -  activin a receptor, type i, LATS2  -  large tumor suppressor kinase 2, DNAJA2  -  dnaj (hsp40) homolog, subfamily a, member 2, ACVR2B  -  activin a receptor, type iib, CDK17  -  cyclin-dependent kinase 17, CDK18  -  cyclin-dependent kinase 18, ZAP70  -  zeta-chain (tcr) associated protein kinase 70kda, ABCG4  -  atp-binding cassette, sub-family g (white), member 4, KIF9  -  kinesin family member 9, HAO1  -  hydroxyacid oxidase (glycolate oxidase) 1, GALK1  -  galactokinase 1, GALK2  -  galactokinase 2, RAB19  -  rab19, member ras oncogene family, ADCY1  -  adenylate cyclase 1 (brain), ADCY2  -  adenylate cyclase 2 (brain), ADCY3  -  adenylate cyclase 3, PDE4B  -  phosphodiesterase 4b, camp-specific, ADCY5  -  adenylate cyclase 5, PDE4D  -  phosphodiesterase 4d, camp-specific, ADCY7  -  adenylate cyclase 7, PDE6C  -  phosphodiesterase 6c, cgmp-specific, cone, alpha prime, ADCY8  -  adenylate cyclase 8 (brain), ADCY9  -  adenylate cyclase 9, PDE6H  -  phosphodiesterase 6h, cgmp-specific, cone, gamma, PDGFRA  -  platelet-derived growth factor receptor, alpha polypeptide, GART  -  phosphoribosylglycinamide formyltransferase, phosphoribosylglycinamide synthetase, phosphoribosylaminoimidazole synthetase, ATL2  -  atlastin gtpase 2, PDGFRB  -  platelet-derived growth factor receptor, beta polypeptide, MOV10L1  -  mov10l1, moloney leukemia virus 10-like 1, homolog (mouse), ABCG5  -  atp-binding cassette, sub-family g (white), member 5, PDK3  -  pyruvate dehydrogenase kinase, isozyme 3, ABCG8  -  atp-binding cassette, sub-family g (white), member 8, PDK4  -  pyruvate dehydrogenase kinase, isozyme 4, SMCR7L  -  smith-magenis syndrome chromosome region, candidate 7-like, IPMK  -  inositol polyphosphate multikinase, FBXO18  -  f-box protein, helicase, 18, GCH1  -  gtp cyclohydrolase 1, ADRBK1  -  adrenergic, beta, receptor kinase 1, ATAD1  -  atpase family, aaa domain containing 1, ADRBK2  -  adrenergic, beta, receptor kinase 2, PEX1  -  peroxisomal biogenesis factor 1, PEX6  -  peroxisomal biogenesis factor 6, TUBB3  -  tubulin, beta 3 class iii, MPP5  -  membrane protein, palmitoylated 5 (maguk p55 subfamily member 5), RHOF  -  ras homolog family member f (in filopodia), GEM  -  gtp binding protein overexpressed in skeletal muscle, PFKFB2  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 2, PFKFB3  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 3, PFKFB4  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 4, NOD1  -  nucleotide-binding oligomerization domain containing 1, PFKL  -  phosphofructokinase, liver, RPS6KC1  -  ribosomal protein s6 kinase, 52kda, polypeptide 1, PFKP  -  phosphofructokinase, platelet, CDK14  -  cyclin-dependent kinase 14, NMNAT3  -  nicotinamide nucleotide adenylyltransferase 3, AK2  -  adenylate kinase 2, AK4  -  adenylate kinase 4, TTLL10  -  tubulin tyrosine ligase-like family, member 10, AKT1  -  v-akt murine thymoma viral oncogene homolog 1, ABCB1  -  atp-binding cassette, sub-family b (mdr/tap), member 1, TESK2  -  testis-specific kinase 2, DDX49  -  dead (asp-glu-ala-asp) box polypeptide 49, GK  -  glycerol kinase, MCM9  -  minichromosome maintenance complex component 9, ABCD2  -  atp-binding cassette, sub-family d (ald), member 2, PHKG1  -  phosphorylase kinase, gamma 1 (muscle), ALK  -  anaplastic lymphoma receptor tyrosine kinase, GCLC  -  glutamate-cysteine ligase, catalytic subunit, ECI2  -  enoyl-coa delta isomerase 2, INO80  -  ino80 complex subunit, MERTK  -  c-mer proto-oncogene tyrosine kinase, ACBD3  -  acyl-coa binding domain containing 3, RERG  -  ras-like, estrogen-regulated, growth inhibitor, GLUD1  -  glutamate dehydrogenase 1, PIK3C2A  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 alpha, PIK3C2B  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 beta, PIK3C2G  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 gamma, PIK3CA  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit alpha, PIK3CB  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit beta, GLUL  -  glutamate-ammonia ligase, PIK3CD  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit delta, PIK3CG  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit gamma, PI4KB  -  phosphatidylinositol 4-kinase, catalytic, beta, UBE2E3  -  ubiquitin-conjugating enzyme e2e 3, IPPK  -  inositol 1,3,4,5,6-pentakisphosphate 2-kinase, DAP3  -  death associated protein 3, GTPBP2  -  gtp binding protein 2, PIP4K2A  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, alpha, GNA11  -  guanine nucleotide binding protein (g protein), alpha 11 (gq class), GNA12  -  guanine nucleotide binding protein (g protein) alpha 12, GNAI1  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 1, GNAI2  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 2, GPN2  -  gpn-loop gtpase 2, GNAI3  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 3, CNGB3  -  cyclic nucleotide gated channel beta 3, GNAL  -  guanine nucleotide binding protein (g protein), alpha activating activity polypeptide, olfactory type, CERK  -  ceramide kinase, PKM  -  pyruvate kinase, muscle, STK25  -  serine/threonine kinase 25, RAB39A  -  rab39a, member ras oncogene family, DDX31  -  dead (asp-glu-ala-asp) box polypeptide 31, MAPKAPK3  -  mitogen-activated protein kinase-activated protein kinase 3, ANXA6  -  annexin a6, CHORDC1  -  cysteine and histidine-rich domain (chord) containing 1, NMNAT1  -  nicotinamide nucleotide adenylyltransferase 1, APAF1  -  apoptotic peptidase activating factor 1, DDX17  -  dead (asp-glu-ala-asp) box helicase 17, MYLK2  -  myosin light chain kinase 2, HYOU1  -  hypoxia up-regulated 1, PAN3  -  pan3 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), STK35  -  serine/threonine kinase 35, PLK1  -  polo-like kinase 1, TPK1  -  thiamin pyrophosphokinase 1, MLH3  -  mutl homolog 3 (e. coli), ATP2C1  -  atpase, ca++ transporting, type 2c, member 1, TRIT1  -  trna isopentenyltransferase 1, HELZ2  -  helicase with zinc finger 2, transcriptional coactivator, APRT  -  adenine phosphoribosyltransferase, DCLK3  -  doublecortin-like kinase 3, ERCC6L  -  excision repair cross-complementing rodent repair deficiency, complementation group 6-like, TRPM7  -  transient receptor potential cation channel, subfamily m, member 7, PMS2  -  pms2 postmeiotic segregation increased 2 (s. cerevisiae), ABCC6  -  atp-binding cassette, sub-family c (cftr/mrp), member 6, CCT7  -  chaperonin containing tcp1, subunit 7 (eta), CCT4  -  chaperonin containing tcp1, subunit 4 (delta), CCT2  -  chaperonin containing tcp1, subunit 2 (beta), ARF4  -  adp-ribosylation factor 4, GFM1  -  g elongation factor, mitochondrial 1, ARF6  -  adp-ribosylation factor 6, MTHFS  -  5,10-methenyltetrahydrofolate synthetase (5-formyltetrahydrofolate cyclo-ligase), ARHGEF5  -  rho guanine nucleotide exchange factor (gef) 5, GRK4  -  g protein-coupled receptor kinase 4, RHOB  -  ras homolog family member b, GRK5  -  g protein-coupled receptor kinase 5, PINK1  -  pten induced putative kinase 1, GRK6  -  g protein-coupled receptor kinase 6, EIF2AK1  -  eukaryotic translation initiation factor 2-alpha kinase 1, RND3  -  rho family gtpase 3, RHOG  -  ras homolog family member g, CDK15  -  cyclin-dependent kinase 15, ARHGAP5  -  rho gtpase activating protein 5, SHPRH  -  snf2 histone linker phd ring helicase, e3 ubiquitin protein ligase, ARL1  -  adp-ribosylation factor-like 1, SNRK  -  snf related kinase, ARL3  -  adp-ribosylation factor-like 3, SMC1B  -  structural maintenance of chromosomes 1b, POR  -  p450 (cytochrome) oxidoreductase, HSPA12A  -  heat shock 70kda protein 12a, WNK1  -  wnk lysine deficient protein kinase 1, STK36  -  serine/threonine kinase 36, NADK  -  nad kinase, NDOR1  -  nadph dependent diflavin oxidoreductase 1, NAV3  -  neuron navigator 3, NAV2  -  neuron navigator 2, UBE2Z  -  ubiquitin-conjugating enzyme e2z, ABCC10  -  atp-binding cassette, sub-family c (cftr/mrp), member 10, ASNS  -  asparagine synthetase (glutamine-hydrolyzing), CAMKK2  -  calcium/calmodulin-dependent protein kinase kinase 2, beta, ASS1  -  argininosuccinate synthase 1, VPS4A  -  vacuolar protein sorting 4 homolog a (s. cerevisiae), AACS  -  acetoacetyl-coa synthetase, GSK3B  -  glycogen synthase kinase 3 beta, GSPT1  -  g1 to s phase transition 1, GSS  -  glutathione synthetase, DUS2  -  dihydrouridine synthase 2, FARS2  -  phenylalanyl-trna synthetase 2, mitochondrial, RRAGA  -  ras-related gtp binding a, ATM  -  ataxia telangiectasia mutated, MAGI3  -  membrane associated guanylate kinase, ww and pdz domain containing 3, GNA13  -  guanine nucleotide binding protein (g protein), alpha 13, NMRK2  -  nicotinamide riboside kinase 2, ATP1A1  -  atpase, na+/k+ transporting, alpha 1 polypeptide, DPH6  -  diphthamine biosynthesis 6, ATP12A  -  atpase, h+/k+ transporting, nongastric, alpha polypeptide, MSH6  -  muts homolog 6 (e. coli), GTF2F2  -  general transcription factor iif, polypeptide 2, 30kda, RND2  -  rho family gtpase 2, ATP2A3  -  atpase, ca++ transporting, ubiquitous, ATP2B1  -  atpase, ca++ transporting, plasma membrane 1, CCT8  -  chaperonin containing tcp1, subunit 8 (theta), ATP2B4  -  atpase, ca++ transporting, plasma membrane 4, CAMKV  -  cam kinase-like vesicle-associated, GUCY1A2  -  guanylate cyclase 1, soluble, alpha 2, POLQ  -  polymerase (dna directed), theta, UCKL1  -  uridine-cytidine kinase 1-like 1, GUCY1A3  -  guanylate cyclase 1, soluble, alpha 3, GUCY1B3  -  guanylate cyclase 1, soluble, beta 3, YME1L1  -  yme1-like 1 atpase, GUCY2C  -  guanylate cyclase 2c (heat stable enterotoxin receptor), GUCY2F  -  guanylate cyclase 2f, retinal, GUK1  -  guanylate kinase 1, MKKS  -  mckusick-kaufman syndrome, ATP6V1A  -  atpase, h+ transporting, lysosomal 70kda, v1 subunit a, SPATA5L1  -  spermatogenesis associated 5-like 1, TTBK2  -  tau tubulin kinase 2, KIF7  -  kinesin family member 7, ATP6AP1  -  atpase, h+ transporting, lysosomal accessory protein 1, ATP7A  -  atpase, cu++ transporting, alpha polypeptide, PRKACB  -  protein kinase, camp-dependent, catalytic, beta, DDX54  -  dead (asp-glu-ala-asp) box polypeptide 54, MAP3K2  -  mitogen-activated protein kinase kinase kinase 2, ATP7B  -  atpase, cu++ transporting, beta polypeptide, RAB30  -  rab30, member ras oncogene family, ULK4  -  unc-51 like kinase 4, ATR  -  ataxia telangiectasia and rad3 related, SYN3  -  synapsin iii, GTPBP6  -  gtp binding protein 6 (putative), ATRX  -  alpha thalassemia/mental retardation syndrome x-linked, PRKAR2A  -  protein kinase, camp-dependent, regulatory, type ii, alpha, KIF1A  -  kinesin family member 1a, ATP9B  -  atpase, class ii, type 9b, PRKAR2B  -  protein kinase, camp-dependent, regulatory, type ii, beta, PRKCA  -  protein kinase c, alpha, PRKCB  -  protein kinase c, beta, PRKCD  -  protein kinase c, delta, PRKCE  -  protein kinase c, epsilon, RPS6KA6  -  ribosomal protein s6 kinase, 90kda, polypeptide 6, PRKCH  -  protein kinase c, eta, HBS1L  -  hbs1-like (s. cerevisiae), PKN2  -  protein kinase n2, PRKCQ  -  protein kinase c, theta, PRKCZ  -  protein kinase c, zeta, PRKDC  -  protein kinase, dna-activated, catalytic polypeptide, PRKG1  -  protein kinase, cgmp-dependent, type i, MAPK1  -  mitogen-activated protein kinase 1, MAPK6  -  mitogen-activated protein kinase 6, TOR1B  -  torsin family 1, member b (torsin b), NEK6  -  nima-related kinase 6, MAPK8  -  mitogen-activated protein kinase 8, MAPK11  -  mitogen-activated protein kinase 11, MAPK9  -  mitogen-activated protein kinase 9, MAPK10  -  mitogen-activated protein kinase 10, MAPK13  -  mitogen-activated protein kinase 13, MAP2K1  -  mitogen-activated protein kinase kinase 1, TOR2A  -  torsin family 2, member a, MAP2K6  -  mitogen-activated protein kinase kinase 6, EIF2AK2  -  eukaryotic translation initiation factor 2-alpha kinase 2, DHX58  -  dexh (asp-glu-x-his) box polypeptide 58, HCK  -  hemopoietic cell kinase, HSPH1  -  heat shock 105kda/110kda protein 1, CDC7  -  cell division cycle 7, HCN2  -  hyperpolarization activated cyclic nucleotide-gated potassium channel 2, BCR  -  breakpoint cluster region, BCS1L  -  bc1 (ubiquinol-cytochrome c reductase) synthesis-like, PRPS1  -  phosphoribosyl pyrophosphate synthetase 1, PRPS2  -  phosphoribosyl pyrophosphate synthetase 2, ADCK2  -  aarf domain containing kinase 2, BLK  -  b lymphoid tyrosine kinase, DHX57  -  deah (asp-glu-ala-asp/his) box polypeptide 57, BLM  -  bloom syndrome, recq helicase-like, CLPX  -  clpx caseinolytic peptidase x homolog (e. coli), PDE10A  -  phosphodiesterase 10a, HK2  -  hexokinase 2, ENTPD8  -  ectonucleoside triphosphate diphosphohydrolase 8, BMPR1A  -  bone morphogenetic protein receptor, type ia, PSKH1  -  protein serine kinase h1, BMPR2  -  bone morphogenetic protein receptor, type ii (serine/threonine kinase), BRAF  -  v-raf murine sarcoma viral oncogene homolog b, PSMC1  -  proteasome (prosome, macropain) 26s subunit, atpase, 1, PSMC2  -  proteasome (prosome, macropain) 26s subunit, atpase, 2, PSMC3  -  proteasome (prosome, macropain) 26s subunit, atpase, 3, RAB10  -  rab10, member ras oncogene family, PSMC5  -  proteasome (prosome, macropain) 26s subunit, atpase, 5, FIGN  -  fidgetin, HLCS  -  holocarboxylase synthetase (biotin-(proprionyl-coa-carboxylase (atp-hydrolysing)) ligase), PIP4K2B  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, beta, BTK  -  bruton agammaglobulinemia tyrosine kinase, ACBD5  -  acyl-coa binding domain containing 5, PKDCC  -  protein kinase domain containing, cytoplasmic, BUB1  -  bub1 mitotic checkpoint serine/threonine kinase, MTPAP  -  mitochondrial poly(a) polymerase, HMGCL  -  3-hydroxymethyl-3-methylglutaryl-coa lyase, BUB1B  -  bub1 mitotic checkpoint serine/threonine kinase b, ULK1  -  unc-51 like autophagy activating kinase 1, DARS2  -  aspartyl-trna synthetase 2, mitochondrial, PAPOLA  -  poly(a) polymerase alpha, ATP8B3  -  atpase, aminophospholipid transporter, class i, type 8b, member 3, TDRD12  -  tudor domain containing 12, RAD54L  -  rad54-like (s. cerevisiae), PTK2  -  protein tyrosine kinase 2, DYRK3  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 3, DYRK2  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 2, PTK7  -  protein tyrosine kinase 7, TWF1  -  twinfilin actin-binding protein 1, HNRNPU  -  heterogeneous nuclear ribonucleoprotein u (scaffold attachment factor a), MPPED2  -  metallophosphoesterase domain containing 2, NEK9  -  nima-related kinase 9, NADSYN1  -  nad synthetase 1, TTF2  -  transcription termination factor, rna polymerase ii, MYLK3  -  myosin light chain kinase 3, CDC42BPA  -  cdc42 binding protein kinase alpha (dmpk-like), KSR2  -  kinase suppressor of ras 2, CACNA1B  -  calcium channel, voltage-dependent, n type, alpha 1b subunit, GATC  -  glutamyl-trna(gln) amidotransferase, subunit c, ASCC3  -  activating signal cointegrator 1 complex subunit 3, MAP4K3  -  mitogen-activated protein kinase kinase kinase kinase 3, RAB32  -  rab32, member ras oncogene family, ETNK2  -  ethanolamine kinase 2, NAT10  -  n-acetyltransferase 10 (gcn5-related), PANK4  -  pantothenate kinase 4, MTG1  -  mitochondrial ribosome-associated gtpase 1, ATP13A3  -  atpase type 13a3, PDIK1L  -  pdlim1 interacting kinase 1 like, UBA6  -  ubiquitin-like modifier activating enzyme 6, CARS2  -  cysteinyl-trna synthetase 2, mitochondrial (putative), ABCD4  -  atp-binding cassette, sub-family d (ald), member 4, KIF2C  -  kinesin family member 2c, ALDH18A1  -  aldehyde dehydrogenase 18 family, member a1, TLK2  -  tousled-like kinase 2, STRADA  -  ste20-related kinase adaptor alpha, TYW1  -  trna-yw synthesizing protein 1 homolog (s. cerevisiae), CAMK4  -  calcium/calmodulin-dependent protein kinase iv, CAMK2A  -  calcium/calmodulin-dependent protein kinase ii alpha, DGKZ  -  diacylglycerol kinase, zeta, CAMK2D  -  calcium/calmodulin-dependent protein kinase ii delta, DGKE  -  diacylglycerol kinase, epsilon 64kda, HRAS  -  harvey rat sarcoma viral oncogene homolog, CAMK2G  -  calcium/calmodulin-dependent protein kinase ii gamma, DGKD  -  diacylglycerol kinase, delta 130kda, ACSS3  -  acyl-coa synthetase short-chain family member 3, IFT27  -  intraflagellar transport 27 homolog (chlamydomonas), RAB35  -  rab35, member ras oncogene family, RAB3A  -  rab3a, member ras oncogene family, RAB4A  -  rab4a, member ras oncogene family, RAB31  -  rab31, member ras oncogene family, NKIRAS2  -  nfkb inhibitor interacting ras-like 2, NKIRAS1  -  nfkb inhibitor interacting ras-like 1, CARS  -  cysteinyl-trna synthetase, QRSL1  -  glutaminyl-trna synthase (glutamine-hydrolyzing)-like 1, PIM3  -  pim-3 oncogene, RAC1  -  ras-related c3 botulinum toxin substrate 1 (rho family, small gtp binding protein rac1), RAC2  -  ras-related c3 botulinum toxin substrate 2 (rho family, small gtp binding protein rac2), UBE2W  -  ubiquitin-conjugating enzyme e2w (putative), RAC3  -  ras-related c3 botulinum toxin substrate 3 (rho family, small gtp binding protein rac3), MAPKAPK5  -  mitogen-activated protein kinase-activated protein kinase 5, RHOT1  -  ras homolog family member t1, DNAJA1  -  dnaj (hsp40) homolog, subfamily a, member 1, RAD51  -  rad51 recombinase, RAD51C  -  rad51 paralog c, PANK3  -  pantothenate kinase 3, HSPA4  -  heat shock 70kda protein 4, CDK10  -  cyclin-dependent kinase 10, RAD51D  -  rad51 paralog d, DDX52  -  dead (asp-glu-ala-asp) box polypeptide 52, RUNX2  -  runt-related transcription factor 2, RAF1  -  v-raf-1 murine leukemia viral oncogene homolog 1, RUNX1  -  runt-related transcription factor 1, HSPA8  -  heat shock 70kda protein 8, HELB  -  helicase (dna) b, HSPA9  -  heat shock 70kda protein 9 (mortalin), PI4K2B  -  phosphatidylinositol 4-kinase type 2 beta, RALA  -  v-ral simian leukemia viral oncogene homolog a (ras related), RALB  -  v-ral simian leukemia viral oncogene homolog b, PDXK  -  pyridoxal (pyridoxine, vitamin b6) kinase, RAN  -  ran, member ras oncogene family, MKNK1  -  map kinase interacting serine/threonine kinase 1, DYNC2H1  -  dynein, cytoplasmic 2, heavy chain 1, RASL11A  -  ras-like, family 11, member a, UBE2Q2  -  ubiquitin-conjugating enzyme e2q family member 2, CASK  -  calcium/calmodulin-dependent serine protein kinase (maguk family), MARS2  -  methionyl-trna synthetase 2, mitochondrial, RAPGEF4  -  rap guanine nucleotide exchange factor (gef) 4, RAP1B  -  rap1b, member of ras oncogene family, DHX40  -  deah (asp-glu-ala-his) box polypeptide 40, HSPD1  -  heat shock 60kda protein 1 (chaperonin), STK16  -  serine/threonine kinase 16, NLRX1  -  nlr family member x1, TTL  -  tubulin tyrosine ligase, ABCF3  -  atp-binding cassette, sub-family f (gcn20), member 3, SMC6  -  structural maintenance of chromosomes 6, RUVBL1  -  ruvb-like 1 (e. coli), LSG1  -  large 60s subunit nuclear export gtpase 1, CCT6A  -  chaperonin containing tcp1, subunit 6a (zeta 1), KATNA1  -  katanin p60 (atpase containing) subunit a 1, LRRK1  -  leucine-rich repeat kinase 1, CDK13  -  cyclin-dependent kinase 13, CIT  -  citron (rho-interacting, serine/threonine kinase 21), NOL9  -  nucleolar protein 9, IARS  -  isoleucyl-trna synthetase, DNAH17  -  dynein, axonemal, heavy chain 17, KIF3A  -  kinesin family member 3a, RECQL  -  recq protein-like (dna helicase q1-like), TBCK  -  tbc1 domain containing kinase, GVINP1  -  gtpase, very large interferon inducible pseudogene 1, ABCB11  -  atp-binding cassette, sub-family b (mdr/tap), member 11, NARS2  -  asparaginyl-trna synthetase 2, mitochondrial (putative), DMC1  -  dna meiotic recombinase 1, UPF1  -  upf1 regulator of nonsense transcripts homolog (yeast), BBS10  -  bardet-biedl syndrome 10, PDE5A  -  phosphodiesterase 5a, cgmp-specific, RET  -  ret proto-oncogene, TTLL7  -  tubulin tyrosine ligase-like family, member 7, BVES  -  blood vessel epicardial substance, RFC1  -  replication factor c (activator 1) 1, 145kda, RFC2  -  replication factor c (activator 1) 2, 40kda, STRADB  -  ste20-related kinase adaptor beta, FICD  -  fic domain containing, RFC4  -  replication factor c (activator 1) 4, 37kda, ENTPD1  -  ectonucleoside triphosphate diphosphohydrolase 1, ENTPD2  -  ectonucleoside triphosphate diphosphohydrolase 2, IDE  -  insulin-degrading enzyme, ENTPD3  -  ectonucleoside triphosphate diphosphohydrolase 3, RABL2A  -  rab, member of ras oncogene family-like 2a, NEK8  -  nima-related kinase 8, DNAJA4  -  dnaj (hsp40) homolog, subfamily a, member 4, EIF2AK4  -  eukaryotic translation initiation factor 2 alpha kinase 4, ETNK1  -  ethanolamine kinase 1, CHST12  -  carbohydrate (chondroitin 4) sulfotransferase 12, DDX43  -  dead (asp-glu-ala-asp) box polypeptide 43, RHEB  -  ras homolog enriched in brain, RERGL  -  rerg/ras-like, MAP4K5  -  mitogen-activated protein kinase kinase kinase kinase 5, DNAH11  -  dynein, axonemal, heavy chain 11, CDC42  -  cell division cycle 42, ABCC3  -  atp-binding cassette, sub-family c (cftr/mrp), member 3, CHEK2  -  checkpoint kinase 2, DNAH3  -  dynein, axonemal, heavy chain 3, SBK1  -  sh3-binding domain kinase 1, RNASEL  -  ribonuclease l (2',5'-oligoisoadenylate synthetase-dependent), NEK10  -  nima-related kinase 10, DDX20  -  dead (asp-glu-ala-asp) box polypeptide 20, RNGTT  -  rna guanylyltransferase and 5'-phosphatase, UBE2Q1  -  ubiquitin-conjugating enzyme e2q family member 1, CDK3  -  cyclin-dependent kinase 3, BMP2K  -  bmp2 inducible kinase, CDK5  -  cyclin-dependent kinase 5, RIPK1  -  receptor (tnfrsf)-interacting serine-threonine kinase 1, CDK6  -  cyclin-dependent kinase 6, ABCE1  -  atp-binding cassette, sub-family e (oabp), member 1, CDK8  -  cyclin-dependent kinase 8, CDK9  -  cyclin-dependent kinase 9, KIF21A  -  kinesin family member 21a, IGHMBP2  -  immunoglobulin mu binding protein 2, KIF16B  -  kinesin family member 16b, RAB11A  -  rab11a, member ras oncogene family, RIPK2  -  receptor-interacting serine-threonine kinase 2, RIOK3  -  rio kinase 3, ROCK1  -  rho-associated, coiled-coil containing protein kinase 1, CENPE  -  centromere protein e, 312kda, ROS1  -  c-ros oncogene 1 , receptor tyrosine kinase, CHD7  -  chromodomain helicase dna binding protein 7, RP2  -  retinitis pigmentosa 2 (x-linked recessive), UBA5  -  ubiquitin-like modifier activating enzyme 5, RAB20  -  rab20, member ras oncogene family, DCAKD  -  dephospho-coa kinase domain containing, IKBKB  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase beta, CFTR  -  cystic fibrosis transmembrane conductance regulator (atp-binding cassette sub-family c, member 7), SUCLG2  -  succinate-coa ligase, gdp-forming, beta subunit, SUCLA2  -  succinate-coa ligase, adp-forming, beta subunit, DDX27  -  dead (asp-glu-ala-asp) box polypeptide 27, GPN1  -  gpn-loop gtpase 1, DDX42  -  dead (asp-glu-ala-asp) box helicase 42, CDKL1  -  cyclin-dependent kinase-like 1 (cdc2-related kinase), MFN1  -  mitofusin 1, CHD2  -  chromodomain helicase dna binding protein 2, SCYL2  -  scy1-like 2 (s. cerevisiae), ATAD5  -  atpase family, aaa domain containing 5, CHD4  -  chromodomain helicase dna binding protein 4, RABL6  -  rab, member ras oncogene family-like 6, TRMU  -  trna 5-methylaminomethyl-2-thiouridylate methyltransferase, TWF2  -  twinfilin actin-binding protein 2, GMPS  -  guanine monphosphate synthase, KIF12  -  kinesin family member 12, CHKA  -  choline kinase alpha, IARS2  -  isoleucyl-trna synthetase 2, mitochondrial, KSR1  -  kinase suppressor of ras 1, MRAS  -  muscle ras oncogene homolog, ABCA13  -  atp-binding cassette, sub-family a (abc1), member 13, HELQ  -  helicase, polq-like, TSR1  -  tsr1, 20s rrna accumulation, homolog (s. cerevisiae), HSPA4L  -  heat shock 70kda protein 4-like, N4BP2  -  nedd4 binding protein 2, CKB  -  creatine kinase, brain, RPS6KA2  -  ribosomal protein s6 kinase, 90kda, polypeptide 2, RPS6KA3  -  ribosomal protein s6 kinase, 90kda, polypeptide 3, RPS6KB1  -  ribosomal protein s6 kinase, 70kda, polypeptide 1, HHAT  -  hedgehog acyltransferase, RPS6KB2  -  ribosomal protein s6 kinase, 70kda, polypeptide 2, DDX18  -  dead (asp-glu-ala-asp) box polypeptide 18, AAK1  -  ap2 associated kinase 1, LMTK2  -  lemur tyrosine kinase 2, AGK  -  acylglycerol kinase, IRAK2  -  interleukin-1 receptor-associated kinase 2, CLCN3  -  chloride channel, voltage-sensitive 3, CLCN4  -  chloride channel, voltage-sensitive 4, PRPF4B  -  prp4 pre-mrna processing factor 4 homolog b (yeast), CLCN5  -  chloride channel, voltage-sensitive 5, CLCN6  -  chloride channel, voltage-sensitive 6, CLCN7  -  chloride channel, voltage-sensitive 7, DHX32  -  deah (asp-glu-ala-his) box polypeptide 32, CLK2  -  cdc-like kinase 2, CLK3  -  cdc-like kinase 3, RRM1  -  ribonucleotide reductase m1, MORC2  -  morc family cw-type zinc finger 2, PANK2  -  pantothenate kinase 2, MCMDC2  -  minichromosome maintenance domain containing 2, EPHA6  -  eph receptor a6, ITK  -  il2-inducible t-cell kinase, ABCC2  -  atp-binding cassette, sub-family c (cftr/mrp), member 2, DHX30  -  deah (asp-glu-ala-his) box helicase 30, ITPK1  -  inositol-tetrakisphosphate 1-kinase, ITPKA  -  inositol-trisphosphate 3-kinase a, ITPKB  -  inositol-trisphosphate 3-kinase b, AK8  -  adenylate kinase 8, CNGB1  -  cyclic nucleotide gated channel beta 1, ARL14  -  adp-ribosylation factor-like 14, RABL3  -  rab, member of ras oncogene family-like 3, PIF1  -  pif1 5'-to-3' dna helicase, CNGA2  -  cyclic nucleotide gated channel alpha 2, MAP3K19  -  mitogen-activated protein kinase kinase kinase 19, TTLL11  -  tubulin tyrosine ligase-like family, member 11, JAK1  -  janus kinase 1, SEPHS1  -  selenophosphate synthetase 1, KALRN  -  kalirin, rhogef kinase, CDKL2  -  cyclin-dependent kinase-like 2 (cdc2-related kinase), ACSM3  -  acyl-coa synthetase medium-chain family member 3, MAPK12  -  mitogen-activated protein kinase 12, IYD  -  iodotyrosine deiodinase, MAP3K14  -  mitogen-activated protein kinase kinase kinase 14, BRSK2  -  br serine/threonine kinase 2, CCT5  -  chaperonin containing tcp1, subunit 5 (epsilon), BAZ1B  -  bromodomain adjacent to zinc finger domain, 1b, UBA3  -  ubiquitin-like modifier activating enzyme 3, MYO19  -  myosin xix, KCNJ1  -  potassium inwardly-rectifying channel, subfamily j, member 1, BTAF1  -  btaf1 rna polymerase ii, b-tfiid transcription factor-associated, 170kda, SCN8A  -  sodium channel, voltage gated, type viii, alpha subunit, KCNJ8  -  potassium inwardly-rectifying channel, subfamily j, member 8, HKDC1  -  hexokinase domain containing 1, NUGGC  -  nuclear gtpase, germinal center associated, CHD9  -  chromodomain helicase dna binding protein 9, MB21D1  -  mab-21 domain containing 1, SCP2  -  sterol carrier protein 2, SRL  -  sarcalumenin, PAPSS1  -  3'-phosphoadenosine 5'-phosphosulfate synthase 1, MAP3K6  -  mitogen-activated protein kinase kinase kinase 6, ALPK1  -  alpha-kinase 1, MAP3K8  -  mitogen-activated protein kinase kinase kinase 8, RAB21  -  rab21, member ras oncogene family, ACSS2  -  acyl-coa synthetase short-chain family member 2, STK38L  -  serine/threonine kinase 38 like, KDR  -  kinase insert domain receptor (a type iii receptor tyrosine kinase), KIF2A  -  kinesin heavy chain member 2a, KIF3C  -  kinesin family member 3c, LANCL2  -  lanc lantibiotic synthetase component c-like 2 (bacterial), KIF5B  -  kinesin family member 5b, KIF5C  -  kinesin family member 5c, KIFC3  -  kinesin family member c3, MYO16  -  myosin xvi, DNAJA3  -  dnaj (hsp40) homolog, subfamily a, member 3, MAST3  -  microtubule associated serine/threonine kinase 3, MYO5C  -  myosin vc, MAP3K15  -  mitogen-activated protein kinase kinase kinase 15, KIT  -  v-kit hardy-zuckerman 4 feline sarcoma viral oncogene homolog, ARL11  -  adp-ribosylation factor-like 11, TNIK  -  traf2 and nck interacting kinase, KIF21B  -  kinesin family member 21b, LATS1  -  large tumor suppressor kinase 1, SMG1  -  smg1 phosphatidylinositol 3-kinase-related kinase, CPS1  -  carbamoyl-phosphate synthase 1, mitochondrial, DGKH  -  diacylglycerol kinase, eta, KIF11  -  kinesin family member 11, NMNAT2  -  nicotinamide nucleotide adenylyltransferase 2, KIF25  -  kinesin family member 25, SMC3  -  structural maintenance of chromosomes 3, P2RX6  -  purinergic receptor p2x, ligand-gated ion channel, 6, SETX  -  senataxin, GTPBP8  -  gtp-binding protein 8 (putative), KRAS  -  kirsten rat sarcoma viral oncogene homolog, UBE2T  -  ubiquitin-conjugating enzyme e2t (putative), SWAP70  -  swap switching b-cell complex 70kda subunit, VWA8  -  von willebrand factor a domain containing 8, COASY  -  coa synthase, TTLL5  -  tubulin tyrosine ligase-like family, member 5, KIF1B  -  kinesin family member 1b, TBK1  -  tank-binding kinase 1, DGKI  -  diacylglycerol kinase, iota, SGK1  -  serum/glucocorticoid regulated kinase 1, CUL9  -  cullin 9, RAB39B  -  rab39b, member ras oncogene family, MAP3K13  -  mitogen-activated protein kinase kinase kinase 13, MAPK14  -  mitogen-activated protein kinase 14, ATP10B  -  atpase, class v, type 10b, AARSD1  -  alanyl-trna synthetase domain containing 1, RAD54L2  -  rad54-like 2 (s. cerevisiae), TEX14  -  testis expressed 14, CSK  -  c-src tyrosine kinase, MAST2  -  microtubule associated serine/threonine kinase 2, DCLK1  -  doublecortin-like kinase 1, CSNK1A1  -  casein kinase 1, alpha 1, HSPA12B  -  heat shock 70kd protein 12b, OLA1  -  obg-like atpase 1, CSNK1E  -  casein kinase 1, epsilon, CSNK1G2  -  casein kinase 1, gamma 2, STK31  -  serine/threonine kinase 31, CSNK2A1  -  casein kinase 2, alpha 1 polypeptide, DNAH7  -  dynein, axonemal, heavy chain 7, AGAP1  -  arfgap with gtpase domain, ankyrin repeat and ph domain 1, MAGI1  -  membrane associated guanylate kinase, ww and pdz domain containing 1, AGAP3  -  arfgap with gtpase domain, ankyrin repeat and ph domain 3, TTLL12  -  tubulin tyrosine ligase-like family, member 12, GNL2  -  guanine nucleotide binding protein-like 2 (nucleolar), PASK  -  pas domain containing serine/threonine kinase, EEF2K  -  eukaryotic elongation factor-2 kinase, HFM1  -  hfm1, atp-dependent dna helicase homolog (s. cerevisiae), RPS6KA5  -  ribosomal protein s6 kinase, 90kda,</t>
-  </si>
-  <si>
-    <t>polypeptide 5, MFHAS1  -  malignant fibrous histiocytoma amplified sequence 1, LIG3  -  ligase iii, dna, atp-dependent, LIG4  -  ligase iv, dna, atp-dependent, TTLL9  -  tubulin tyrosine ligase-like family, member 9, MAPKAPK2  -  mitogen-activated protein kinase-activated protein kinase 2, MDN1  -  mdn1, midasin homolog (yeast), NME7  -  nme/nm23 family member 7, STK17A  -  serine/threonine kinase 17a, LIMK2  -  lim domain kinase 2, CTPS2  -  ctp synthase 2, ATP11B  -  atpase, class vi, type 11b, IP6K3  -  inositol hexakisphosphate kinase 3, ACSBG1  -  acyl-coa synthetase bubblegum family member 1, ATP11C  -  atpase, class vi, type 11c, RHOBTB2  -  rho-related btb domain containing 2, SBK2  -  sh3-binding domain kinase family, member 2, BBS12  -  bardet-biedl syndrome 12, DCLK2  -  doublecortin-like kinase 2, NRBP1  -  nuclear receptor binding protein 1, SIK2  -  salt-inducible kinase 2, SLC19A1  -  solute carrier family 19 (folate transporter), member 1, TRIP13  -  thyroid hormone receptor interactor 13, ATP11A  -  atpase, class vi, type 11a, SLC22A4  -  solute carrier family 22 (organic cation/zwitterion transporter), member 4, EFTUD2  -  elongation factor tu gtp binding domain containing 2, LONP1  -  lon peptidase 1, mitochondrial, WRNIP1  -  werner helicase interacting protein 1, RAB28  -  rab28, member ras oncogene family, RAB9A  -  rab9a, member ras oncogene family, DGKB  -  diacylglycerol kinase, beta 90kda, KIF3B  -  kinesin family member 3b, EHD4  -  eh-domain containing 4, KIF13B  -  kinesin family member 13b, EHD3  -  eh-domain containing 3, ACSL6  -  acyl-coa synthetase long-chain family member 6, PIK3R4  -  phosphoinositide-3-kinase, regulatory subunit 4, SMARCAD1  -  swi/snf-related, matrix-associated actin-dependent regulator of chromatin, subfamily a, containing dead/h box 1, DHX33  -  deah (asp-glu-ala-his) box polypeptide 33, MCCC1  -  methylcrotonoyl-coa carboxylase 1 (alpha), NMUR2  -  neuromedin u receptor 2, PAK6  -  p21 protein (cdc42/rac)-activated kinase 6, SMARCAL1  -  swi/snf related, matrix associated, actin dependent regulator of chromatin, subfamily a-like 1, SOAT1  -  sterol o-acyltransferase 1, RECQL5  -  recq protein-like 5, DHX36  -  deah (asp-glu-ala-his) box polypeptide 36, DDX51  -  dead (asp-glu-ala-asp) box polypeptide 51, MAK  -  male germ cell-associated kinase, LRRK2  -  leucine-rich repeat kinase 2, SMCHD1  -  structural maintenance of chromosomes flexible hinge domain containing 1, DDX1  -  dead (asp-glu-ala-asp) box helicase 1, DDX3X  -  dead (asp-glu-ala-asp) box helicase 3, x-linked, DDX5  -  dead (asp-glu-ala-asp) box helicase 5, MARK1  -  map/microtubule affinity-regulating kinase 1, DHX8  -  deah (asp-glu-ala-his) box polypeptide 8, MARK3  -  map/microtubule affinity-regulating kinase 3, SPAG1  -  sperm associated antigen 1, DDX10  -  dead (asp-glu-ala-asp) box polypeptide 10, MAT1A  -  methionine adenosyltransferase i, alpha, DDX11  -  dead/h (asp-glu-ala-asp/his) box helicase 11, DHX15  -  deah (asp-glu-ala-his) box helicase 15, ABCG2  -  atp-binding cassette, sub-family g (white), member 2, PNPLA8  -  patatin-like phospholipase domain containing 8, SPAST  -  spastin, FAM20C  -  family with sequence similarity 20, member c, SPG7  -  spastic paraplegia 7 (pure and complicated autosomal recessive), ITM2B  -  integral membrane protein 2b, KIF15  -  kinesin family member 15, EIF2AK3  -  eukaryotic translation initiation factor 2-alpha kinase 3, SIK3  -  sik family kinase 3, MCM2  -  minichromosome maintenance complex component 2, MCM3  -  minichromosome maintenance complex component 3, MCM4  -  minichromosome maintenance complex component 4, MCM5  -  minichromosome maintenance complex component 5, LARS2  -  leucyl-trna synthetase 2, mitochondrial, PIP5K1C  -  phosphatidylinositol-4-phosphate 5-kinase, type i, gamma, ATP13A2  -  atpase type 13a2, SRC  -  v-src avian sarcoma (schmidt-ruppin a-2) viral oncogene homolog, DICER1  -  dicer 1, ribonuclease type iii, CYB5R3  -  cytochrome b5 reductase 3, ROCK2  -  rho-associated, coiled-coil containing protein kinase 2, TDRD9  -  tudor domain containing 9, SRMS  -  src-related kinase lacking c-terminal regulatory tyrosine and n-terminal myristylation sites, RARS2  -  arginyl-trna synthetase 2, mitochondrial, AK7  -  adenylate kinase 7, SRP54  -  signal recognition particle 54kda, PGS1  -  phosphatidylglycerophosphate synthase 1, SRPK1  -  srsf protein kinase 1, SRPK2  -  srsf protein kinase 2, KIF23  -  kinesin family member 23, RHOV  -  ras homolog family member v, MAP3K3  -  mitogen-activated protein kinase kinase kinase 3, MAP3K4  -  mitogen-activated protein kinase kinase kinase 4, DDX24  -  dead (asp-glu-ala-asp) box helicase 24, RAB8A  -  rab8a, member ras oncogene family, DNM1  -  dynamin 1, DNA2  -  dna replication helicase/nuclease 2, MET  -  met proto-oncogene, DNAH5  -  dynein, axonemal, heavy chain 5, DNAH8  -  dynein, axonemal, heavy chain 8, DNAH9  -  dynein, axonemal, heavy chain 9, ABCB10  -  atp-binding cassette, sub-family b (mdr/tap), member 10, ABCB9  -  atp-binding cassette, sub-family b (mdr/tap), member 9, VPS4B  -  vacuolar protein sorting 4 homolog b (s. cerevisiae), DYNC1H1  -  dynein, cytoplasmic 1, heavy chain 1, ABCA6  -  atp-binding cassette, sub-family a (abc1), member 6, ABCA5  -  atp-binding cassette, sub-family a (abc1), member 5, DYNC1LI2  -  dynein, cytoplasmic 1, light intermediate chain 2, CAMK1D  -  calcium/calmodulin-dependent protein kinase id, CIITA  -  class ii, major histocompatibility complex, transactivator, RAB37  -  rab37, member ras oncogene family, NUAK2  -  nuak family, snf1-like kinase, 2, MMAB  -  methylmalonic aciduria (cobalamin deficiency) cblb type, HSPA13  -  heat shock protein 70kda family, member 13, NEK4  -  nima-related kinase 4, STK3  -  serine/threonine kinase 3, STK4  -  serine/threonine kinase 4, CDKL5  -  cyclin-dependent kinase-like 5, STK10  -  serine/threonine kinase 10, STK11  -  serine/threonine kinase 11, CHD1L  -  chromodomain helicase dna binding protein 1-like, ADCK1  -  aarf domain containing kinase 1, PAK7  -  p21 protein (cdc42/rac)-activated kinase 7, MKI67  -  antigen identified by monoclonal antibody ki-67, SCYL3  -  scy1-like 3 (s. cerevisiae), GTPBP1  -  gtp binding protein 1, MLH1  -  mutl homolog 1, colon cancer, nonpolyposis type 2 (e. coli), MAP3K9  -  mitogen-activated protein kinase kinase kinase 9, DRG2  -  developmentally regulated gtp binding protein 2, ATL1  -  atlastin gtpase 1, KIF20B  -  kinesin family member 20b, SUPV3L1  -  suppressor of var1, 3-like 1 (s. cerevisiae), CAMK1G  -  calcium/calmodulin-dependent protein kinase ig, EARS2  -  glutamyl-trna synthetase 2, mitochondrial, ABCC8  -  atp-binding cassette, sub-family c (cftr/mrp), member 8, DNAH10  -  dynein, axonemal, heavy chain 10, ACTR3B  -  arp3 actin-related protein 3 homolog b (yeast), KIF18A  -  kinesin family member 18a, RAB36  -  rab36, member ras oncogene family, TNNI3K  -  tnni3 interacting kinase, SYN2  -  synapsin ii, ATP10A  -  atpase, class v, type 10a, ATP8B2  -  atpase, aminophospholipid transporter, class i, type 8b, member 2, ATP10D  -  atpase, class v, type 10d, MOCS1  -  molybdenum cofactor synthesis 1, RASD2  -  rasd family, member 2, ABCG1  -  atp-binding cassette, sub-family g (white), member 1, DYRK1A  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 1a, TRNT1  -  trna nucleotidyl transferase, cca-adding, 1, MOS  -  v-mos moloney murine sarcoma viral oncogene homolog, MOV10  -  mov10, moloney leukemia virus 10, homolog (mouse), GTPBP4  -  gtp binding protein 4, TAF1  -  taf1 rna polymerase ii, tata box binding protein (tbp)-associated factor, 250kda, ABCC1  -  atp-binding cassette, sub-family c (cftr/mrp), member 1, MLKL  -  mixed lineage kinase domain-like, IKBKE  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase epsilon, DDX59  -  dead (asp-glu-ala-asp) box polypeptide 59, ACSF3  -  acyl-coa synthetase family member 3, MAP3K7  -  mitogen-activated protein kinase kinase kinase 7, NLRC3  -  nlr family, card domain containing 3, TTLL4  -  tubulin tyrosine ligase-like family, member 4, UCK1  -  uridine-cytidine kinase 1, RHOJ  -  ras homolog family member j, IRAK4  -  interleukin-1 receptor-associated kinase 4, CLK4  -  cdc-like kinase 4, EEF1A2  -  eukaryotic translation elongation factor 1 alpha 2, EIF5B  -  eukaryotic translation initiation factor 5b, DYNC1LI1  -  dynein, cytoplasmic 1, light intermediate chain 1, RAB22A  -  rab22a, member ras oncogene family, PPIP5K1  -  diphosphoinositol pentakisphosphate kinase 1, SPO11  -  spo11 meiotic protein covalently bound to dsb, MYO1B  -  myosin ib, RAPGEF2  -  rap guanine nucleotide exchange factor (gef) 2, MYO15A  -  myosin xva, MSH2  -  muts homolog 2, colon cancer, nonpolyposis type 1 (e. coli), MSH4  -  muts homolog 4 (e. coli), TUBD1  -  tubulin, delta 1, MSH5  -  muts homolog 5 (e. coli), HAO2  -  hydroxyacid oxidase 2 (long chain), HSPA14  -  heat shock 70kda protein 14, EIF2S3  -  eukaryotic translation initiation factor 2, subunit 3 gamma, 52kda, GPN3  -  gpn-loop gtpase 3, EPHA2  -  eph receptor a2, ULK2  -  unc-51 like autophagy activating kinase 2, TCP1  -  t-complex 1, AQR  -  aquarius homolog (mouse), EIF4G1  -  eukaryotic translation initiation factor 4 gamma, 1, EIF5  -  eukaryotic translation initiation factor 5, NIN  -  ninein (gsk3b interacting protein), DDX47  -  dead (asp-glu-ala-asp) box polypeptide 47, RIOK1  -  rio kinase 1, PIKFYVE  -  phosphoinositide kinase, fyve finger containing, SGK3  -  serum/glucocorticoid regulated kinase family, member 3, VPRBP  -  vpr (hiv-1) binding protein, RIMKLB  -  ribosomal modification protein rimk-like family member b, LONP2  -  lon peptidase 2, peroxisomal, ARL13B  -  adp-ribosylation factor-like 13b, AARS2  -  alanyl-trna synthetase 2, mitochondrial, MTHFD1  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1, methenyltetrahydrofolate cyclohydrolase, formyltetrahydrofolate synthetase, VRK3  -  vaccinia related kinase 3, MTIF2  -  mitochondrial translational initiation factor 2, SLK  -  ste20-like kinase, STARD9  -  star-related lipid transfer (start) domain containing 9, SHPK  -  sedoheptulokinase, WEE2  -  wee1 homolog 2 (s. pombe), TDG  -  thymine-dna glycosylase, MTRR  -  5-methyltetrahydrofolate-homocysteine methyltransferase reductase, ALPK3  -  alpha-kinase 3, EPB42  -  erythrocyte membrane protein band 4.2, RAB12  -  rab12, member ras oncogene family, EIF4A3  -  eukaryotic translation initiation factor 4a3, EPHA1  -  eph receptor a1, EPHA3  -  eph receptor a3, EPHA4  -  eph receptor a4, KIAA0232  -  kiaa0232, EPHA5  -  eph receptor a5, EPHA7  -  eph receptor a7, DNAJC27  -  dnaj (hsp40) homolog, subfamily c, member 27, EPHA8  -  eph receptor a8, TESK1  -  testis-specific kinase 1, TAOK1  -  tao kinase 1, EPHB1  -  eph receptor b1, EPHB2  -  eph receptor b2, EPHB3  -  eph receptor b3, DHX38  -  deah (asp-glu-ala-his) box polypeptide 38, RASL12  -  ras-like, family 12, BMS1  -  bms1 ribosome biogenesis factor, EPRS  -  glutamyl-prolyl-trna synthetase, GSG2  -  germ cell associated 2 (haspin), ERBB4  -  v-erb-b2 avian erythroblastic leukemia viral oncogene homolog 4, STK40  -  serine/threonine kinase 40, KIF4A  -  kinesin family member 4a, MVK  -  mevalonate kinase, MX1  -  myxovirus (influenza virus) resistance 1, interferon-inducible protein p78 (mouse), IP6K1  -  inositol hexakisphosphate kinase 1, ERCC3  -  excision repair cross-complementing rodent repair deficiency, complementation group 3, ERCC6  -  excision repair cross-complementing rodent repair deficiency, complementation group 6, TSSK1B  -  testis-specific serine kinase 1b, TGFBR2  -  transforming growth factor, beta receptor ii (70/80kda), STK32A  -  serine/threonine kinase 32a, ERN1  -  endoplasmic reticulum to nucleus signaling 1, BRIP1  -  brca1 interacting protein c-terminal helicase 1, MYH4  -  myosin, heavy chain 4, skeletal muscle, DSTYK  -  dual serine/threonine and tyrosine protein kinase, MYH6  -  myosin, heavy chain 6, cardiac muscle, alpha, MELK  -  maternal embryonic leucine zipper kinase, OBSCN  -  obscurin, cytoskeletal calmodulin and titin-interacting rhogef, MYH9  -  myosin, heavy chain 9, non-muscle, MYH10  -  myosin, heavy chain 10, non-muscle, MYH11  -  myosin, heavy chain 11, smooth muscle, RAD54B  -  rad54 homolog b (s. cerevisiae), KATNAL1  -  katanin p60 subunit a-like 1, MYLK  -  myosin light chain kinase, TAOK3  -  tao kinase 3, MYO1C  -  myosin ic, MYO1D  -  myosin id, TK2  -  thymidine kinase 2, mitochondrial, MYO1E  -  myosin ie, MYO5A  -  myosin va (heavy chain 12, myoxin), MYO6  -  myosin vi, MYO7A  -  myosin viia, MYO9A  -  myosin ixa, TTLL1  -  tubulin tyrosine ligase-like family, member 1, EP400  -  e1a binding protein p400, CHST15  -  carbohydrate (n-acetylgalactosamine 4-sulfate 6-o) sulfotransferase 15, MYO9B  -  myosin ixb, MYO10  -  myosin x, MYH7B  -  myosin, heavy chain 7b, cardiac muscle, beta, DHX37  -  deah (asp-glu-ala-his) box polypeptide 37, ZRANB3  -  zinc finger, ran-binding domain containing 3, HIPK1  -  homeodomain interacting protein kinase 1, DDX46  -  dead (asp-glu-ala-asp) box polypeptide 46, ARL6  -  adp-ribosylation factor-like 6, MYLK4  -  myosin light chain kinase family, member 4, RHOBTB1  -  rho-related btb domain containing 1, PRKAG2  -  protein kinase, amp-activated, gamma 2 non-catalytic subunit, ACSL1  -  acyl-coa synthetase long-chain family member 1, DDX41  -  dead (asp-glu-ala-asp) box polypeptide 41, ACSL3  -  acyl-coa synthetase long-chain family member 3, ACSL4  -  acyl-coa synthetase long-chain family member 4, MYO18A  -  myosin xviiia, PTK2B  -  protein tyrosine kinase 2 beta, DDX55  -  dead (asp-glu-ala-asp) box polypeptide 55, FANCM  -  fanconi anemia, complementation group m, IP6K2  -  inositol hexakisphosphate kinase 2, ATP2C2  -  atpase, ca++ transporting, type 2c, member 2, NRBP2  -  nuclear receptor binding protein 2, FAM20B  -  family with sequence similarity 20, member b, NLRC5  -  nlr family, card domain containing 5, TOP1  -  topoisomerase (dna) i, TOP2A  -  topoisomerase (dna) ii alpha 170kda, MFN2  -  mitofusin 2, TOP2B  -  topoisomerase (dna) ii beta 180kda, KIF14  -  kinesin family member 14, CHD6  -  chromodomain helicase dna binding protein 6, HELZ  -  helicase with zinc finger, RTCB  -  rna 2',3'-cyclic phosphate and 5'-oh ligase, MTHFD1L  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1-like, XYLB  -  xylulokinase homolog (h. influenzae), DRG1  -  developmentally regulated gtp binding protein 1, CMPK2  -  cytidine monophosphate (ump-cmp) kinase 2, mitochondrial, LARS  -  leucyl-trna synthetase, NEK1  -  nima-related kinase 1, NEK2  -  nima-related kinase 2, HSP90B1  -  heat shock protein 90kda beta (grp94), member 1, NEK3  -  nima-related kinase 3, RAB40C  -  rab40c, member ras oncogene family, SAMHD1  -  sam domain and hd domain 1, THRAP3  -  thyroid hormone receptor associated protein 3, RAP2C  -  rap2c, member of ras oncogene family, TRIO  -  trio rho guanine nucleotide exchange factor, FGFR1  -  fibroblast growth factor receptor 1, FGFR3  -  fibroblast growth factor receptor 3, ACVR1C  -  activin a receptor, type ic, CAMKK1  -  calcium/calmodulin-dependent protein kinase kinase 1, alpha, FGFR2  -  fibroblast growth factor receptor 2, FGFR4  -  fibroblast growth factor receptor 4, PARS2  -  prolyl-trna synthetase 2, mitochondrial (putative), AKT3  -  v-akt murine thymoma viral oncogene homolog 3, CKMT1A  -  creatine kinase, mitochondrial 1a, DNAH1  -  dynein, axonemal, heavy chain 1, NOA1  -  nitric oxide associated 1, RHOU  -  ras homolog family member u, ULK3  -  unc-51 like kinase 3, NEK5  -  nima-related kinase 5, NTPCR  -  nucleoside-triphosphatase, cancer-related, NME4  -  nme/nm23 nucleoside diphosphate kinase 4, ACOT11  -  acyl-coa thioesterase 11, NOS1  -  nitric oxide synthase 1 (neuronal), NOS2  -  nitric oxide synthase 2, inducible, FLT1  -  fms-related tyrosine kinase 1, FLT3  -  fms-related tyrosine kinase 3, RASD1  -  ras, dexamethasone-induced 1, FLT4  -  fms-related tyrosine kinase 4, SMC4  -  structural maintenance of chromosomes 4, RRAGD  -  ras-related gtp binding d, TTK  -  ttk protein kinase, TTN  -  titin, UBA2  -  ubiquitin-like modifier activating enzyme 2, GRK7  -  g protein-coupled receptor kinase 7, FARSB  -  phenylalanyl-trna synthetase, beta subunit, ABCC5  -  atp-binding cassette, sub-family c (cftr/mrp), member 5, ABCB6  -  atp-binding cassette, sub-family b (mdr/tap), member 6, DNM1L  -  dynamin 1-like, GIMD1  -  gimap family p-loop ntpase domain containing 1, TUBG1  -  tubulin, gamma 1, DNM3  -  dynamin 3, GLYCTK  -  glycerate kinase, HACL1  -  2-hydroxyacyl-coa lyase 1, NLK  -  nemo-like kinase, ACSL5  -  acyl-coa synthetase long-chain family member 5, ATP9A  -  atpase, class ii, type 9a, NPR2  -  natriuretic peptide receptor b/guanylate cyclase b (atrionatriuretic peptide receptor b), TYRO3  -  tyro3 protein tyrosine kinase, RAB23  -  rab23, member ras oncogene family, TRPV4  -  transient receptor potential cation channel, subfamily v, member 4, CMPK1  -  cytidine monophosphate (ump-cmp) kinase 1, cytosolic, AK9  -  adenylate kinase 9, UBA1  -  ubiquitin-like modifier activating enzyme 1, ACTR3  -  arp3 actin-related protein 3 homolog (yeast), ACTR2  -  arp2 actin-related protein 2 homolog (yeast), UBE2B  -  ubiquitin-conjugating enzyme e2b, AASDH  -  aminoadipate-semialdehyde dehydrogenase, NSF  -  n-ethylmaleimide-sensitive factor, UBE2D2  -  ubiquitin-conjugating enzyme e2d 2, UBE2E2  -  ubiquitin-conjugating enzyme e2e 2, RTEL1  -  regulator of telomere elongation helicase 1, UBE2G1  -  ubiquitin-conjugating enzyme e2g 1, UBE2G2  -  ubiquitin-conjugating enzyme e2g 2, UBE2H  -  ubiquitin-conjugating enzyme e2h, KCNT2  -  potassium channel, subfamily t, member 2, CDK12  -  cyclin-dependent kinase 12, UBE2L3  -  ubiquitin-conjugating enzyme e2l 3, RAD50  -  rad50 homolog (s. cerevisiae), UBE2N  -  ubiquitin-conjugating enzyme e2n, KIF20A  -  kinesin family member 20a, ATP8A2  -  atpase, aminophospholipid transporter, class i, type 8a, member 2, RAB8B  -  rab8b, member ras oncogene family, NTRK3  -  neurotrophic tyrosine kinase, receptor, type 3, KIF6  -  kinesin family member 6, ROR1  -  receptor tyrosine kinase-like orphan receptor 1, DDR2  -  discoidin domain receptor tyrosine kinase 2, MCM8  -  minichromosome maintenance complex component 8, PPCDC  -  phosphopantothenoylcysteine decarboxylase, NVL  -  nuclear vcp-like, TRAP1  -  tnf receptor-associated protein 1, ARFRP1  -  adp-ribosylation factor related protein 1, ACSS1  -  acyl-coa synthetase short-chain family member 1, KIF26A  -  kinesin family member 26a, ABCA12  -  atp-binding cassette, sub-family a (abc1), member 12, G3BP1  -  gtpase activating protein (sh3 domain) binding protein 1, UCK2  -  uridine-cytidine kinase 2, MTG2  -  mitochondrial ribosome-associated gtpase 2, DHX35  -  deah (asp-glu-ala-his) box polypeptide 35, OPA1  -  optic atrophy 1 (autosomal dominant), FRK  -  fyn-related kinase, SRR  -  serine racemase, ARL5A  -  adp-ribosylation factor-like 5a, TTBK1  -  tau tubulin kinase 1, ORC1  -  origin recognition complex, subunit 1, UBE2O  -  ubiquitin-conjugating enzyme e2o, ORC4  -  origin recognition complex, subunit 4, TNK2  -  tyrosine kinase, non-receptor, 2, ORC5  -  origin recognition complex, subunit 5, HS3ST5  -  heparan sulfate (glucosamine) 3-o-sulfotransferase 5, MYO3A  -  myosin iiia, NME6  -  nme/nm23 nucleoside diphosphate kinase 6, CSNK1G1  -  casein kinase 1, gamma 1, CHTF18  -  ctf18, chromosome transmission fidelity factor 18 homolog (s. cerevisiae), MTOR  -  mechanistic target of rapamycin (serine/threonine kinase), P2RX1  -  purinergic receptor p2x, ligand-gated ion channel, 1]</t>
-  </si>
-  <si>
     <t>GO:0043168</t>
   </si>
   <si>
     <t>anion binding</t>
   </si>
   <si>
-    <t xml:space="preserve">[P2RX4  -  purinergic receptor p2x, ligand-gated ion channel, 4, P2RX5  -  purinergic receptor p2x, ligand-gated ion channel, 5, P2RY4  -  pyrimidinergic receptor p2y, g-protein coupled, 4, MAPK15  -  mitogen-activated protein kinase 15, P4HA1  -  prolyl 4-hydroxylase, alpha polypeptide i, PEBP1  -  phosphatidylethanolamine binding protein 1, ABAT  -  4-aminobutyrate aminotransferase, ACCS  -  1-aminocyclopropane-1-carboxylate synthase homolog (arabidopsis)(non-functional), ABCA2  -  atp-binding cassette, sub-family a (abc1), member 2, ABCA3  -  atp-binding cassette, sub-family a (abc1), member 3, ABCB7  -  atp-binding cassette, sub-family b (mdr/tap), member 7, ABCA4  -  atp-binding cassette, sub-family a (abc1), member 4, PAFAH1B1  -  platelet-activating factor acetylhydrolase 1b, regulatory subunit 1 (45kda), ABL1  -  c-abl oncogene 1, non-receptor tyrosine kinase, ACACA  -  acetyl-coa carboxylase alpha, ACACB  -  acetyl-coa carboxylase beta, PAK1  -  p21 protein (cdc42/rac)-activated kinase 1, PAK2  -  p21 protein (cdc42/rac)-activated kinase 2, MYO18B  -  myosin xviiib, ACADL  -  acyl-coa dehydrogenase, long chain, PAK3  -  p21 protein (cdc42/rac)-activated kinase 3, GPT2  -  glutamic pyruvate transaminase (alanine aminotransferase) 2, ACADSB  -  acyl-coa dehydrogenase, short/branched chain, PLEKHA8  -  pleckstrin homology domain containing, family a (phosphoinositide binding specific) member 8, ACLY  -  atp citrate lyase, ACOX1  -  acyl-coa oxidase 1, palmitoyl, ABCC4  -  atp-binding cassette, sub-family c (cftr/mrp), member 4, ACTA1  -  actin, alpha 1, skeletal muscle, RIPK4  -  receptor-interacting serine-threonine kinase 4, PCCA  -  propionyl coa carboxylase, alpha polypeptide, PCCB  -  propionyl coa carboxylase, beta polypeptide, ACTG2  -  actin, gamma 2, smooth muscle, enteric, PCK1  -  phosphoenolpyruvate carboxykinase 1 (soluble), ACTN2  -  actinin, alpha 2, SPEG  -  speg complex locus, ACVR1  -  activin a receptor, type i, DNAJA2  -  dnaj (hsp40) homolog, subfamily a, member 2, ACVR2B  -  activin a receptor, type iib, CDK17  -  cyclin-dependent kinase 17, CDK18  -  cyclin-dependent kinase 18, HAO1  -  hydroxyacid oxidase (glycolate oxidase) 1, ADCY1  -  adenylate cyclase 1 (brain), RAB19  -  rab19, member ras oncogene family, ADCY2  -  adenylate cyclase 2 (brain), PDE4B  -  phosphodiesterase 4b, camp-specific, ADCY3  -  adenylate cyclase 3, ADCY5  -  adenylate cyclase 5, PDE4D  -  phosphodiesterase 4d, camp-specific, LANCL1  -  lanc lantibiotic synthetase component c-like 1 (bacterial), ADCY7  -  adenylate cyclase 7, ADCY8  -  adenylate cyclase 8 (brain), PDE6C  -  phosphodiesterase 6c, cgmp-specific, cone, alpha prime, ADCY9  -  adenylate cyclase 9, PDE6H  -  phosphodiesterase 6h, cgmp-specific, cone, gamma, PDGFRA  -  platelet-derived growth factor receptor, alpha polypeptide, PDGFRB  -  platelet-derived growth factor receptor, beta polypeptide, MOV10L1  -  mov10l1, moloney leukemia virus 10-like 1, homolog (mouse), RSPO3  -  r-spondin 3, PDK3  -  pyruvate dehydrogenase kinase, isozyme 3, PDK4  -  pyruvate dehydrogenase kinase, isozyme 4, AIFM2  -  apoptosis-inducing factor, mitochondrion-associated, 2, SMCR7L  -  smith-magenis syndrome chromosome region, candidate 7-like, IPMK  -  inositol polyphosphate multikinase, PLEKHA5  -  pleckstrin homology domain containing, family a member 5, FBXO18  -  f-box protein, helicase, 18, ADRBK1  -  adrenergic, beta, receptor kinase 1, ATAD1  -  atpase family, aaa domain containing 1, ADRBK2  -  adrenergic, beta, receptor kinase 2, PEX1  -  peroxisomal biogenesis factor 1, PEX6  -  peroxisomal biogenesis factor 6, TUBB3  -  tubulin, beta 3 class iii, RHOF  -  ras homolog family member f (in filopodia), AFP  -  alpha-fetoprotein, ACAN  -  aggrecan, PFKFB2  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 2, PFKFB3  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 3, PFKFB4  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 4, NOD1  -  nucleotide-binding oligomerization domain containing 1, PFKL  -  phosphofructokinase, liver, JAG1  -  jagged 1, PFKP  -  phosphofructokinase, platelet, CDK14  -  cyclin-dependent kinase 14, PEMT  -  phosphatidylethanolamine n-methyltransferase, ZFYVE19  -  zinc finger, fyve domain containing 19, AK2  -  adenylate kinase 2, AK4  -  adenylate kinase 4, TTLL10  -  tubulin tyrosine ligase-like family, member 10, AKT1  -  v-akt murine thymoma viral oncogene homolog 1, ALAS1  -  aminolevulinate, delta-, synthase 1, ABCB1  -  atp-binding cassette, sub-family b (mdr/tap), member 1, TESK2  -  testis-specific kinase 2, ALB  -  albumin, DDX49  -  dead (asp-glu-ala-asp) box polypeptide 49, MCM9  -  minichromosome maintenance complex component 9, ALDH1A3  -  aldehyde dehydrogenase 1 family, member a3, ABCD2  -  atp-binding cassette, sub-family d (ald), member 2, PHKG1  -  phosphorylase kinase, gamma 1 (muscle), PHYH  -  phytanoyl-coa 2-hydroxylase, ALK  -  anaplastic lymphoma receptor tyrosine kinase, SERPINE2  -  serpin peptidase inhibitor, clade e (nexin, plasminogen activator inhibitor type 1), member 2, ALOX5AP  -  arachidonate 5-lipoxygenase-activating protein, EGLN1  -  egl-9 family hypoxia-inducible factor 1, ECI2  -  enoyl-coa delta isomerase 2, INO80  -  ino80 complex subunit, MERTK  -  c-mer proto-oncogene tyrosine kinase, PIK3C2A  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 alpha, RERG  -  ras-like, estrogen-regulated, growth inhibitor, PIK3C2B  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 beta, PHYKPL  -  5-phosphohydroxy-l-lysine phospho-lyase, PIK3C2G  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 gamma, PIK3CA  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit alpha, PIK3CB  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit beta, UGT1A1  -  udp glucuronosyltransferase 1 family, polypeptide a1, PIK3CD  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit delta, PIK3CG  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit gamma, PLA2G4F  -  phospholipase a2, group ivf, AMPH  -  amphiphysin, PI4KB  -  phosphatidylinositol 4-kinase, catalytic, beta, BIN1  -  bridging integrator 1, UBE2E3  -  ubiquitin-conjugating enzyme e2e 3, GTPBP2  -  gtp binding protein 2, PIP4K2A  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, alpha, PITPNA  -  phosphatidylinositol transfer protein, alpha, GPN2  -  gpn-loop gtpase 2, CNGB3  -  cyclic nucleotide gated channel beta 3, PKM  -  pyruvate kinase, muscle, STK25  -  serine/threonine kinase 25, PLA2G1B  -  phospholipase a2, group ib (pancreas), UNC13B  -  unc-13 homolog b (c. elegans), PLA2G4A  -  phospholipase a2, group iva (cytosolic, calcium-dependent), ANXA2  -  annexin a2, RAB39A  -  rab39a, member ras oncogene family, ANXA5  -  annexin a5, ANXA6  -  annexin a6, ANXA7  -  annexin a7, PLCD1  -  phospholipase c, delta 1, ANXA13  -  annexin a13, PLCL1  -  phospholipase c-like 1, AOX1  -  aldehyde oxidase 1, PLD1  -  phospholipase d1, phosphatidylcholine-specific, APAF1  -  apoptotic peptidase activating factor 1, DDX17  -  dead (asp-glu-ala-asp) box helicase 17, MYLK2  -  myosin light chain kinase 2, PLEK  -  pleckstrin, HYOU1  -  hypoxia up-regulated 1, PAN3  -  pan3 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), PLK1  -  polo-like kinase 1, MICALL1  -  mical-like 1, PLOD1  -  procollagen-lysine, 2-oxoglutarate 5-dioxygenase 1, LEPREL2  -  leprecan-like 2, APLP2  -  amyloid beta (a4) precursor-like protein 2, PLTP  -  phospholipid transfer protein, APOB  -  apolipoprotein b, TRIT1  -  trna isopentenyltransferase 1, HELZ2  -  helicase with zinc finger 2, transcriptional coactivator, APP  -  amyloid beta (a4) precursor protein, APRT  -  adenine phosphoribosyltransferase, DCLK3  -  doublecortin-like kinase 3, PMP2  -  peripheral myelin protein 2, ERCC6L  -  excision repair cross-complementing rodent repair deficiency, complementation group 6-like, TRPM7  -  transient receptor potential cation channel, subfamily m, member 7, PMS2  -  pms2 postmeiotic segregation increased 2 (s. cerevisiae), ABCC6  -  atp-binding cassette, sub-family c (cftr/mrp), member 6, CCT7  -  chaperonin containing tcp1, subunit 7 (eta), D2HGDH  -  d-2-hydroxyglutarate dehydrogenase, CCT4  -  chaperonin containing tcp1, subunit 4 (delta), CCT2  -  chaperonin containing tcp1, subunit 2 (beta), ARF4  -  adp-ribosylation factor 4, GFM1  -  g elongation factor, mitochondrial 1, SCIN  -  scinderin, ARF6  -  adp-ribosylation factor 6, TXNRD2  -  thioredoxin reductase 2, SYTL2  -  synaptotagmin-like 2, MTHFS  -  5,10-methenyltetrahydrofolate synthetase (5-formyltetrahydrofolate cyclo-ligase), RHOB  -  ras homolog family member b, RND3  -  rho family gtpase 3, RHOG  -  ras homolog family member g, ARHGAP5  -  rho gtpase activating protein 5, SHPRH  -  snf2 histone linker phd ring helicase, e3 ubiquitin protein ligase, ARL1  -  adp-ribosylation factor-like 1, SNX33  -  sorting nexin 33, SNRK  -  snf related kinase, ARL3  -  adp-ribosylation factor-like 3, POR  -  p450 (cytochrome) oxidoreductase, HSPA12A  -  heat shock 70kda protein 12a, ZCCHC2  -  zinc finger, cchc domain containing 2, POSTN  -  periostin, osteoblast specific factor, NAV3  -  neuron navigator 3, PPARD  -  peroxisome proliferator-activated receptor delta, NAV2  -  neuron navigator 2, PPARG  -  peroxisome proliferator-activated receptor gamma, ABCC10  -  atp-binding cassette, sub-family c (cftr/mrp), member 10, PXK  -  px domain containing serine/threonine kinase, ASNS  -  asparagine synthetase (glutamine-hydrolyzing), CAMKK2  -  calcium/calmodulin-dependent protein kinase kinase 2, beta, ASS1  -  argininosuccinate synthase 1, PLCZ1  -  phospholipase c, zeta 1, CYP2W1  -  cytochrome p450, family 2, subfamily w, polypeptide 1, SERPINC1  -  serpin peptidase inhibitor, clade c (antithrombin), member 1, DUS2  -  dihydrouridine synthase 2, FARS2  -  phenylalanyl-trna synthetase 2, mitochondrial, ATM  -  ataxia telangiectasia mutated, RRAGA  -  ras-related gtp binding a, MAGI3  -  membrane associated guanylate kinase, ww and pdz domain containing 3, GNA13  -  guanine nucleotide binding protein (g protein), alpha 13, ATP1A1  -  atpase, na+/k+ transporting, alpha 1 polypeptide, DPH6  -  diphthamine biosynthesis 6, ATP12A  -  atpase, h+/k+ transporting, nongastric, alpha polypeptide, ATP2A3  -  atpase, ca++ transporting, ubiquitous, ATP2B1  -  atpase, ca++ transporting, plasma membrane 1, CCT8  -  chaperonin containing tcp1, subunit 8 (theta), ATP2B4  -  atpase, ca++ transporting, plasma membrane 4, PPT1  -  palmitoyl-protein thioesterase 1, POLQ  -  polymerase (dna directed), theta, UCKL1  -  uridine-cytidine kinase 1-like 1, YME1L1  -  yme1-like 1 atpase, PRELP  -  proline/arginine-rich end leucine-rich repeat protein, ATP6V1A  -  atpase, h+ transporting, lysosomal 70kda, v1 subunit a, ATP6AP1  -  atpase, h+ transporting, lysosomal accessory protein 1, ATP7A  -  atpase, cu++ transporting, alpha polypeptide, PRKACB  -  protein kinase, camp-dependent, catalytic, beta, CLN6  -  ceroid-lipofuscinosis, neuronal 6, late infantile, variant, MAP3K2  -  mitogen-activated protein kinase kinase kinase 2, ATP7B  -  atpase, cu++ transporting, beta polypeptide, ULK4  -  unc-51 like kinase 4, ATR  -  ataxia telangiectasia and rad3 related, PRKAR2A  -  protein kinase, camp-dependent, regulatory, type ii, alpha, ATRX  -  alpha thalassemia/mental retardation syndrome x-linked, PRKAR2B  -  protein kinase, camp-dependent, regulatory, type ii, beta, KIF1A  -  kinesin family member 1a, PRKCA  -  protein kinase c, alpha, PRKCB  -  protein kinase c, beta, PRKCD  -  protein kinase c, delta, PRKCE  -  protein kinase c, epsilon, PRKCH  -  protein kinase c, eta, HBS1L  -  hbs1-like (s. cerevisiae), PKN2  -  protein kinase n2, PRKCQ  -  protein kinase c, theta, PRKCZ  -  protein kinase c, zeta, PRKDC  -  protein kinase, dna-activated, catalytic polypeptide, PRKG1  -  protein kinase, cgmp-dependent, type i, MAPK1  -  mitogen-activated protein kinase 1, MAPK6  -  mitogen-activated protein kinase 6, NEK6  -  nima-related kinase 6, MAPK8  -  mitogen-activated protein kinase 8, MAPK11  -  mitogen-activated protein kinase 11, MAPK9  -  mitogen-activated protein kinase 9, MAPK10  -  mitogen-activated protein kinase 10, MAPK13  -  mitogen-activated protein kinase 13, MAP2K1  -  mitogen-activated protein kinase kinase 1, MAP2K6  -  mitogen-activated protein kinase kinase 6, MTHFD2  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 2, methenyltetrahydrofolate cyclohydrolase, EIF2AK2  -  eukaryotic translation initiation factor 2-alpha kinase 2, MOCOS  -  molybdenum cofactor sulfurase, HSPH1  -  heat shock 105kda/110kda protein 1, EPN3  -  epsin 3, PLEKHB2  -  pleckstrin homology domain containing, family b (evectins) member 2, PRODH  -  proline dehydrogenase (oxidase) 1, HCN2  -  hyperpolarization activated cyclic nucleotide-gated potassium channel 2, BCR  -  breakpoint cluster region, BCS1L  -  bc1 (ubiquinol-cytochrome c reductase) synthesis-like, PRPS1  -  phosphoribosyl pyrophosphate synthetase 1, PRPS2  -  phosphoribosyl pyrophosphate synthetase 2, WIPI1  -  wd repeat domain, phosphoinositide interacting 1, ADCK2  -  aarf domain containing kinase 2, BLK  -  b lymphoid tyrosine kinase, DHX57  -  deah (asp-glu-ala-asp/his) box polypeptide 57, BLM  -  bloom syndrome, recq helicase-like, FTCD  -  formimidoyltransferase cyclodeaminase, PSAP  -  prosaposin, PSD  -  pleckstrin and sec7 domain containing, CLPX  -  clpx caseinolytic peptidase x homolog (e. coli), PDE10A  -  phosphodiesterase 10a, BMP4  -  bone morphogenetic protein 4, ATG2B  -  autophagy related 2b, BMP7  -  bone morphogenetic protein 7, BMPR1A  -  bone morphogenetic protein receptor, type ia, PSKH1  -  protein serine kinase h1, BMPR2  -  bone morphogenetic protein receptor, type ii (serine/threonine kinase), ME3  -  malic enzyme 3, nadp(+)-dependent, mitochondrial, BRAF  -  v-raf murine sarcoma viral oncogene homolog b, PSMC1  -  proteasome (prosome, macropain) 26s subunit, atpase, 1, PSMC2  -  proteasome (prosome, macropain) 26s subunit, atpase, 2, PSMC3  -  proteasome (prosome, macropain) 26s subunit, atpase, 3, RAB10  -  rab10, member ras oncogene family, PSMC5  -  proteasome (prosome, macropain) 26s subunit, atpase, 5, SESTD1  -  sec14 and spectrin domains 1, FIGN  -  fidgetin, LYVE1  -  lymphatic vessel endothelial hyaluronan receptor 1, BTK  -  bruton agammaglobulinemia tyrosine kinase, ACBD5  -  acyl-coa binding domain containing 5, PKDCC  -  protein kinase domain containing, cytoplasmic, P4HA3  -  prolyl 4-hydroxylase, alpha polypeptide iii, BUB1  -  bub1 mitotic checkpoint serine/threonine kinase, MTPAP  -  mitochondrial poly(a) polymerase, BUB1B  -  bub1 mitotic checkpoint serine/threonine kinase b, DARS2  -  aspartyl-trna synthetase 2, mitochondrial, PAPOLA  -  poly(a) polymerase alpha, TDRD12  -  tudor domain containing 12, SYT12  -  synaptotagmin xii, PTK2  -  protein tyrosine kinase 2, PTK7  -  protein tyrosine kinase 7, TWF1  -  twinfilin actin-binding protein 1, MPPED2  -  metallophosphoesterase domain containing 2, NEK9  -  nima-related kinase 9, NADSYN1  -  nad synthetase 1, PTN  -  pleiotrophin, MYLK3  -  myosin light chain kinase 3, QSOX1  -  quiescin q6 sulfhydryl oxidase 1, APPL2  -  adaptor protein, phosphotyrosine interaction, ph domain and leucine zipper containing 2, KSR2  -  kinase suppressor of ras 2, LEPREL1  -  leprecan-like 1, CACNA1B  -  calcium channel, voltage-dependent, n type, alpha 1b subunit, PTPRF  -  protein tyrosine phosphatase, receptor type, f, GATC  -  glutamyl-trna(gln) amidotransferase, subunit c, ASCC3  -  activating signal cointegrator 1 complex subunit 3, ETNK2  -  ethanolamine kinase 2, RAB32  -  rab32, member ras oncogene family, PTPRS  -  protein tyrosine phosphatase, receptor type, s, NAT10  -  n-acetyltransferase 10 (gcn5-related), PANK4  -  pantothenate kinase 4, MTG1  -  mitochondrial ribosome-associated gtpase 1, UBA6  -  ubiquitin-like modifier activating enzyme 6, OGFOD1  -  2-oxoglutarate and iron-dependent oxygenase domain containing 1, ABCD4  -  atp-binding cassette, sub-family d (ald), member 4, KIF2C  -  kinesin family member 2c, ALDH18A1  -  aldehyde dehydrogenase 18 family, member a1, TLK2  -  tousled-like kinase 2, STRADA  -  ste20-related kinase adaptor alpha, TYW1  -  trna-yw synthesizing protein 1 homolog (s. cerevisiae), CAMK4  -  calcium/calmodulin-dependent protein kinase iv, PYGB  -  phosphorylase, glycogen; brain, CAMK2A  -  calcium/calmodulin-dependent protein kinase ii alpha, CAMK2D  -  calcium/calmodulin-dependent protein kinase ii delta, CAMK2G  -  calcium/calmodulin-dependent protein kinase ii gamma, THNSL2  -  threonine synthase-like 2 (s. cerevisiae), QDPR  -  quinoid dihydropteridine reductase, IFT27  -  intraflagellar transport 27 homolog (chlamydomonas), RAB35  -  rab35, member ras oncogene family, RAB3A  -  rab3a, member ras oncogene family, RAB4A  -  rab4a, member ras oncogene family, RAB31  -  rab31, member ras oncogene family, ADAP1  -  arfgap with dual ph domains 1, CARS  -  cysteinyl-trna synthetase, QRSL1  -  glutaminyl-trna synthase (glutamine-hydrolyzing)-like 1, PIM3  -  pim-3 oncogene, RAC1  -  ras-related c3 botulinum toxin substrate 1 (rho family, small gtp binding protein rac1), UBE2W  -  ubiquitin-conjugating enzyme e2w (putative), RAC2  -  ras-related c3 botulinum toxin substrate 2 (rho family, small gtp binding protein rac2), RAC3  -  ras-related c3 botulinum toxin substrate 3 (rho family, small gtp binding protein rac3), RHOT1  -  ras homolog family member t1, RAD51  -  rad51 recombinase, CASR  -  calcium-sensing receptor, RAD51C  -  rad51 paralog c, RAD51D  -  rad51 paralog d, DDX52  -  dead (asp-glu-ala-asp) box polypeptide 52, RUNX2  -  runt-related transcription factor 2, RAF1  -  v-raf-1 murine leukemia viral oncogene homolog 1, RUNX1  -  runt-related transcription factor 1, HELB  -  helicase (dna) b, RAG2  -  recombination activating gene 2, PI4K2B  -  phosphatidylinositol 4-kinase type 2 beta, RALA  -  v-ral simian leukemia viral oncogene homolog a (ras related), RALB  -  v-ral simian leukemia viral oncogene homolog b, DUS4L  -  dihydrouridine synthase 4-like (s. cerevisiae), SPTLC3  -  serine palmitoyltransferase, long chain base subunit 3, RAN  -  ran, member ras oncogene family, UBE2Q2  -  ubiquitin-conjugating enzyme e2q family member 2, RAPGEF4  -  rap guanine nucleotide exchange factor (gef) 4, MARS2  -  methionyl-trna synthetase 2, mitochondrial, RAP1B  -  rap1b, member of ras oncogene family, CBS  -  cystathionine-beta-synthase, ABCF3  -  atp-binding cassette, sub-family f (gcn20), member 3, KRIT1  -  krit1, ankyrin repeat containing, ADAMTS8  -  adam metallopeptidase with thrombospondin type 1 motif, 8, ADAMTS5  -  adam metallopeptidase with thrombospondin type 1 motif, 5, LSG1  -  large 60s subunit nuclear export gtpase 1, CCT6A  -  chaperonin containing tcp1, subunit 6a (zeta 1), KATNA1  -  katanin p60 (atpase containing) subunit a 1, CHDH  -  choline dehydrogenase, CIT  -  citron (rho-interacting, serine/threonine kinase 21), LAPTM4B  -  lysosomal protein transmembrane 4 beta, KIF3A  -  kinesin family member 3a, RECQL  -  recq protein-like (dna helicase q1-like), TBCK  -  tbc1 domain containing kinase, DMC1  -  dna meiotic recombinase 1, UPF1  -  upf1 regulator of nonsense transcripts homolog (yeast), RET  -  ret proto-oncogene, CD34  -  cd34 molecule, BVES  -  blood vessel epicardial substance, SCARB1  -  scavenger receptor class b, member 1, RFC1  -  replication factor c (activator 1) 1, 145kda, SCARB2  -  scavenger receptor class b, member 2, RFC2  -  replication factor c (activator 1) 2, 40kda, STRADB  -  ste20-related kinase adaptor beta, FICD  -  fic domain containing, RFC4  -  replication factor c (activator 1) 4, 37kda, ENTPD1  -  ectonucleoside triphosphate diphosphohydrolase 1, ENTPD2  -  ectonucleoside triphosphate diphosphohydrolase 2, ENTPD3  -  ectonucleoside triphosphate diphosphohydrolase 3, NEK8  -  nima-related kinase 8, RABL2A  -  rab, member of ras oncogene family-like 2a, DNAJA4  -  dnaj (hsp40) homolog, subfamily a, member 4, CD44  -  cd44 molecule (indian blood group), EIF2AK4  -  eukaryotic translation initiation factor 2 alpha kinase 4, ETNK1  -  ethanolamine kinase 1, CHST12  -  carbohydrate (chondroitin 4) sulfotransferase 12, FSTL1  -  follistatin-like 1, DDX43  -  dead (asp-glu-ala-asp) box polypeptide 43, SMPD3  -  sphingomyelin phosphodiesterase 3, neutral membrane (neutral sphingomyelinase ii), RHEB  -  ras homolog enriched in brain, DHTKD1  -  dehydrogenase e1 and transketolase domain containing 1, MAP4K5  -  mitogen-activated protein kinase kinase kinase kinase 5, RLBP1  -  retinaldehyde binding protein 1, NISCH  -  nischarin, CDC42  -  cell division cycle 42, ANXA10  -  annexin a10, SYTL3  -  synaptotagmin-like 3, CHEK2  -  checkpoint kinase 2, SYTL4  -  synaptotagmin-like 4, SYTL5  -  synaptotagmin-like 5, DNAH3  -  dynein, axonemal, heavy chain 3, RNASEL  -  ribonuclease l (2',5'-oligoisoadenylate synthetase-dependent), STAB2  -  stabilin 2, DDX20  -  dead (asp-glu-ala-asp) box polypeptide 20, UBE2Q1  -  ubiquitin-conjugating enzyme e2q family member 1, CDK3  -  cyclin-dependent kinase 3, BMP2K  -  bmp2 inducible kinase, CDK5  -  cyclin-dependent kinase 5, CDK6  -  cyclin-dependent kinase 6, ABCE1  -  atp-binding cassette, sub-family e (oabp), member 1, CDK8  -  cyclin-dependent kinase 8, CDK9  -  cyclin-dependent kinase 9, KIF21A  -  kinesin family member 21a, KIF16B  -  kinesin family member 16b, PACSIN2  -  protein kinase c and casein kinase substrate in neurons 2, ROCK1  -  rho-associated, coiled-coil containing protein kinase 1, EGLN3  -  egl-9 family hypoxia-inducible factor 3, CENPE  -  centromere protein e, 312kda, ROS1  -  c-ros oncogene 1 , receptor tyrosine kinase, CHD7  -  chromodomain helicase dna binding protein 7, RP2  -  retinitis pigmentosa 2 (x-linked recessive), RAB20  -  rab20, member ras oncogene family, CTSC  -  cathepsin c, CFTR  -  cystic fibrosis transmembrane conductance regulator (atp-binding cassette sub-family c, member 7), RPE65  -  retinal pigment epithelium-specific protein 65kda, DDX27  -  dead (asp-glu-ala-asp) box polypeptide 27, GPN1  -  gpn-loop gtpase 1, DDX42  -  dead (asp-glu-ala-asp) box helicase 42, MFN1  -  mitofusin 1, RCC1  -  regulator of chromosome condensation 1, CHD2  -  chromodomain helicase dna binding protein 2, SCYL2  -  scy1-like 2 (s. cerevisiae), CHD4  -  chromodomain helicase dna binding protein 4, RABL6  -  rab, member ras oncogene family-like 6, MREG  -  melanoregulin, TRMU  -  trna 5-methylaminomethyl-2-thiouridylate methyltransferase, TWF2  -  twinfilin actin-binding protein 2, KIF12  -  kinesin family member 12, RSPO1  -  r-spondin 1, SLC46A1  -  solute carrier family 46 (folate transporter), member 1, CHKA  -  choline kinase alpha, IARS2  -  isoleucyl-trna synthetase 2, mitochondrial, CCDC88A  -  coiled-coil domain containing 88a, MRAS  -  muscle ras oncogene homolog, HELQ  -  helicase, polq-like, SDSL  -  serine dehydratase-like, HSPA4L  -  heat shock 70kda protein 4-like, TSR1  -  tsr1, 20s rrna accumulation, homolog (s. cerevisiae), N4BP2  -  nedd4 binding protein 2, CKB  -  creatine kinase, brain, RPS6KA2  -  ribosomal protein s6 kinase, 90kda, polypeptide 2, RPS6KA3  -  ribosomal protein s6 kinase, 90kda, polypeptide 3, RPS6KB1  -  ribosomal protein s6 kinase, 70kda, polypeptide 1, RPS6KB2  -  ribosomal protein s6 kinase, 70kda, polypeptide 2, HHAT  -  hedgehog acyltransferase, TXNRD3  -  thioredoxin reductase 3, AAK1  -  ap2 associated kinase 1, LMTK2  -  lemur tyrosine kinase 2, AGK  -  acylglycerol kinase, OGDHL  -  oxoglutarate dehydrogenase-like, CLCN3  -  chloride channel, voltage-sensitive 3, CLCN4  -  chloride channel, voltage-sensitive 4, CLCN5  -  chloride channel, voltage-sensitive 5, CLCN6  -  chloride channel, voltage-sensitive 6, CLCN7  -  chloride channel, voltage-sensitive 7, DHX32  -  deah (asp-glu-ala-his) box polypeptide 32, EXOC1  -  exocyst complex component 1, CLK2  -  cdc-like kinase 2, CLK3  -  cdc-like kinase 3, RRM1  -  ribonucleotide reductase m1, MORC2  -  morc family cw-type zinc finger 2, RS1  -  retinoschisin 1, RXRA  -  retinoid x receptor, alpha, RUFY4  -  run and fyve domain containing 4, RPH3A  -  rabphilin 3a homolog (mouse), RYR2  -  ryanodine receptor 2 (cardiac), EPN2  -  epsin 2, EPHA6  -  eph receptor a6, ABCC2  -  atp-binding cassette, sub-family c (cftr/mrp), member 2, DHX30  -  deah (asp-glu-ala-his) box helicase 30, ADAP2  -  arfgap with dual ph domains 2, CNGB1  -  cyclic nucleotide gated channel beta 1, RABL3  -  rab, member of ras oncogene family-like 3, CNGA2  -  cyclic nucleotide gated channel alpha 2, SEPHS1  -  selenophosphate synthetase 1, ACSM3  -  acyl-coa synthetase medium-chain family member 3, MAPK12  -  mitogen-activated protein kinase 12, OSBPL1A  -  oxysterol binding protein-like 1a, CCT5  -  chaperonin containing tcp1, subunit 5 (epsilon), OSBPL8  -  oxysterol binding protein-like 8, COL5A1  -  collagen, type v, alpha 1, COL11A1  -  collagen, type xi, alpha 1, SCN8A  -  sodium channel, voltage gated, type viii, alpha subunit, COL13A1  -  collagen, type xiii, alpha 1, COMP  -  cartilage oligomeric matrix protein, MB21D1  -  mab-21 domain containing 1, SCP2  -  sterol carrier protein 2, SRL  -  sarcalumenin, WDFY3  -  wd repeat and fyve domain containing 3, MAP3K8  -  mitogen-activated protein kinase kinase kinase 8, RAB21  -  rab21, member ras oncogene family, ACSS2  -  acyl-coa synthetase short-chain family member 2, STK38L  -  serine/threonine kinase 38 like, SH3PXD2B  -  sh3 and px domains 2b, LANCL2  -  lanc lantibiotic synthetase component c-like 2 (bacterial), MYO16  -  myosin xvi, MAST3  -  microtubule associated serine/threonine kinase 3, MYO5C  -  myosin vc, SDCBP  -  syndecan binding protein (syntenin), NSFL1C  -  nsfl1 (p97) cofactor (p47), PDXDC1  -  pyridoxal-dependent decarboxylase domain containing 1, SDHA  -  succinate dehydrogenase complex, subunit a, flavoprotein (fp), TNIK  -  traf2 and nck interacting kinase, ARL11  -  adp-ribosylation factor-like 11, KIF21B  -  kinesin family member 21b, SMG1  -  smg1 phosphatidylinositol 3-kinase-related kinase, CPS1  -  carbamoyl-phosphate synthase 1, mitochondrial, NMNAT2  -  nicotinamide nucleotide adenylyltransferase 2, SELE  -  selectin e, SETX  -  senataxin, SWAP70  -  swap switching b-cell complex 70kda subunit, VWA8  -  von willebrand factor a domain containing 8, ARHGAP26  -  rho gtpase activating protein 26, CRY1  -  cryptochrome 1 (photolyase-like), TTLL5  -  tubulin tyrosine ligase-like family, member 5, CRY2  -  cryptochrome 2 (photolyase-like), KIF1B  -  kinesin family member 1b, SGK1  -  serum/glucocorticoid regulated kinase 1, CUL9  -  cullin 9, RAB39B  -  rab39b, member ras oncogene family, CRYZ  -  crystallin, zeta (quinone reductase), MAPK14  -  mitogen-activated protein kinase 14, ATP10B  -  atpase, class v, type 10b, RAD54L2  -  rad54-like 2 (s. cerevisiae), TEX14  -  testis expressed 14, SHMT1  -  serine hydroxymethyltransferase 1 (soluble), CSK  -  c-src tyrosine kinase, MAST2  -  microtubule associated serine/threonine kinase 2, CSNK1A1  -  casein kinase 1, alpha 1, HSPA12B  -  heat shock 70kd protein 12b, CSNK1E  -  casein kinase 1, epsilon, CSNK1G2  -  casein kinase 1, gamma 2, STK31  -  serine/threonine kinase 31, CSNK2A1  -  casein kinase 2, alpha 1 polypeptide, DNAH7  -  dynein, axonemal, heavy chain 7, SNX13  -  sorting nexin 13, ARAP2  -  arfgap with rhogap domain, ankyrin repeat and ph domain 2, AGAP1  -  arfgap with gtpase domain, ankyrin repeat and ph domain 1, STAB1  -  stabilin 1, AGAP3  -  arfgap with gtpase domain, ankyrin repeat and ph domain 3, TTLL12  -  tubulin tyrosine ligase-like family, member 12, ZCCHC14  -  zinc finger, cchc domain containing 14, PASK  -  pas domain containing serine/threonine kinase, WDR45B  -  wd repeat domain 45b, CTGF  -  connective tissue growth factor, CTH  -  cystathionase (cystathionine gamma-lyase), PARD3  -  par-3 partitioning defective 3 homolog (c. elegans), MDN1  -  mdn1, midasin homolog (yeast), CTPS2  -  ctp synthase 2, ATP11B  -  atpase, class vi, type 11b, IP6K3  -  inositol hexakisphosphate kinase 3, ACSBG1  -  acyl-coa synthetase bubblegum family member 1, PARD3B  -  par-3 partitioning defective 3 homolog b (c. elegans), CYP26B1  -  cytochrome p450, family 26, subfamily b, polypeptide 1, SLC9A1  -  solute carrier family 9, subfamily a (nhe1, cation proton antiporter 1), member 1, ATP11C  -  atpase, class vi, type 11c, RHOBTB2  -  rho-related btb domain containing 2, PLCL2  -  phospholipase c-like 2, SIK2  -  salt-inducible kinase 2, PLCB1  -  phospholipase c, beta 1 (phosphoinositide-specific), SLC19A1  -  solute carrier family 19 (folate transporter), member 1, ATP11A  -  atpase, class vi, type 11a, SLC22A4  -  solute carrier family 22 (organic cation/zwitterion transporter), member 4, SLIT1  -  slit homolog 1 (drosophila), MCF2L  -  mcf.2 cell line derived transforming sequence-like, WRNIP1  -  werner helicase interacting protein 1, SNCA  -  synuclein, alpha (non a4 component of amyloid precursor), DGKB  -  diacylglycerol kinase, beta 90kda, KIF13B  -  kinesin family member 13b, UBR2  -  ubiquitin protein ligase e3 component n-recognin 2, ACSL6  -  acyl-coa synthetase long-chain family member 6, SMARCAD1  -  swi/snf-related, matrix-associated actin-dependent regulator of chromatin, subfamily a, containing dead/h box 1, DHX33  -  deah (asp-glu-ala-his) box polypeptide 33, DBH  -  dopamine beta-hydroxylase (dopamine beta-monooxygenase), MCCC1  -  methylcrotonoyl-coa carboxylase 1 (alpha), NMUR2  -  neuromedin u receptor 2, PAK6  -  p21 protein (cdc42/rac)-activated kinase 6, LXN  -  latexin, SNX1  -  sorting nexin 1, DBT  -  dihydrolipoamide branched chain transacylase e2, SOAT1  -  sterol o-acyltransferase 1, DUS3L  -  dihydrouridine synthase 3-like (s. cerevisiae), ACE  -  angiotensin i converting enzyme, DDX51  -  dead (asp-glu-ala-asp) box polypeptide 51, LRRK2  -  leucine-rich repeat kinase 2, DDC  -  dopa decarboxylase (aromatic l-amino acid decarboxylase), SMCHD1  -  structural maintenance of chromosomes flexible hinge domain containing 1, DDX1  -  dead (asp-glu-ala-asp) box helicase 1, DDX3X  -  dead (asp-glu-ala-asp) box helicase 3, x-linked, DDX5  -  dead (asp-glu-ala-asp) box helicase 5, DHX8  -  deah (asp-glu-ala-his) box polypeptide 8, DDX10  -  dead (asp-glu-ala-asp) box polypeptide 10, SPAG1  -  sperm associated antigen 1, DDX11  -  dead/h (asp-glu-ala-asp/his) box helicase 11, DHX15  -  deah (asp-glu-ala-his) box helicase 15, DECR1  -  2,4-dienoyl coa reductase 1, mitochondrial, SPAST  -  spastin, FAM20C  -  family with sequence similarity 20, member c, SPG7  -  spastic paraplegia 7 (pure and complicated autosomal recessive), KIF15  -  kinesin family member 15, SIK3  -  sik family kinase 3, LARS2  -  leucyl-trna synthetase 2, mitochondrial, PIP5K1C  -  phosphatidylinositol-4-phosphate 5-kinase, type i, gamma, SPTBN1  -  spectrin, beta, non-erythrocytic 1, ATP13A2  -  atpase type 13a2, DHCR24  -  24-dehydrocholesterol reductase, SQLE  -  squalene epoxidase, SRC  -  v-src avian sarcoma (schmidt-ruppin a-2) viral oncogene homolog, SRD5A1  -  steroid-5-alpha-reductase, alpha polypeptide 1 (3-oxo-5 alpha-steroid delta 4-dehydrogenase alpha 1), DICER1  -  dicer 1, ribonuclease type iii, CYB5R3  -  cytochrome b5 reductase 3, SIRT4  -  sirtuin 4, SIRT3  -  sirtuin 3, TDRD9  -  tudor domain containing 9, SRMS  -  src-related kinase lacking c-terminal regulatory tyrosine and n-terminal myristylation sites, RARS2  -  arginyl-trna synthetase 2, mitochondrial, AK7  -  adenylate kinase 7, SRP54  -  signal recognition particle 54kda, DLD  -  dihydrolipoamide dehydrogenase, SRPK1  -  srsf protein kinase 1, SRPK2  -  srsf protein kinase 2, DDX24  -  dead (asp-glu-ala-asp) box helicase 24, DNM1  -  dynamin 1, DNA2  -  dna replication helicase/nuclease 2, DNAH5  -  dynein, axonemal, heavy chain 5, DNAH8  -  dynein, axonemal, heavy chain 8, DNAH9  -  dynein, axonemal, heavy chain 9, ABCB10  -  atp-binding cassette, sub-family b (mdr/tap), member 10, ABCB9  -  atp-binding cassette, sub-family b (mdr/tap), member 9, DYNC1H1  -  dynein, cytoplasmic 1, heavy chain 1, ABCA6  -  atp-binding cassette, sub-family a (abc1), member 6, ABCA5  -  atp-binding cassette, sub-family a (abc1), member 5, ST13  -  suppression of tumorigenicity 13 (colon carcinoma) (hsp70 interacting protein), DYNC1LI2  -  dynein, cytoplasmic 1, light intermediate chain 2, GCAT  -  glycine c-acetyltransferase, CAMK1D  -  calcium/calmodulin-dependent protein kinase id, RAB37  -  rab37, member </t>
-  </si>
-  <si>
-    <t>as oncogene family, MMAB  -  methylmalonic aciduria (cobalamin deficiency) cblb type, HSPA13  -  heat shock protein 70kda family, member 13, NEK4  -  nima-related kinase 4, PLA2G4E  -  phospholipase a2, group ive, STK3  -  serine/threonine kinase 3, STK4  -  serine/threonine kinase 4, DPYD  -  dihydropyrimidine dehydrogenase, DPYS  -  dihydropyrimidinase, CDKL5  -  cyclin-dependent kinase-like 5, DPYSL3  -  dihydropyrimidinase-like 3, STK10  -  serine/threonine kinase 10, ZFYVE26  -  zinc finger, fyve domain containing 26, STK11  -  serine/threonine kinase 11, ADCK1  -  aarf domain containing kinase 1, PAK7  -  p21 protein (cdc42/rac)-activated kinase 7, SCYL3  -  scy1-like 3 (s. cerevisiae), NOXO1  -  nadph oxidase organizer 1, DRG2  -  developmentally regulated gtp binding protein 2, SMURF1  -  smad specific e3 ubiquitin protein ligase 1, JPH2  -  junctophilin 2, SUPV3L1  -  suppressor of var1, 3-like 1 (s. cerevisiae), CAMK1G  -  calcium/calmodulin-dependent protein kinase ig, EARS2  -  glutamyl-trna synthetase 2, mitochondrial, SNX20  -  sorting nexin 20, ABCC8  -  atp-binding cassette, sub-family c (cftr/mrp), member 8, ACTR3B  -  arp3 actin-related protein 3 homolog b (yeast), ECM2  -  extracellular matrix protein 2, female organ and adipocyte specific, SVIL  -  supervillin, SYN2  -  synapsin ii, ATP10A  -  atpase, class v, type 10a, ATP8B2  -  atpase, aminophospholipid transporter, class i, type 8b, member 2, ATP10D  -  atpase, class v, type 10d, SYT1  -  synaptotagmin i, RASD2  -  rasd family, member 2, DYRK1A  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 1a, GTPBP4  -  gtp binding protein 4, TAF1  -  taf1 rna polymerase ii, tata box binding protein (tbp)-associated factor, 250kda, LPAR3  -  lysophosphatidic acid receptor 3, SNX14  -  sorting nexin 14, DDAH1  -  dimethylarginine dimethylaminohydrolase 1, MAP3K7  -  mitogen-activated protein kinase kinase kinase 7, TAT  -  tyrosine aminotransferase, RHOJ  -  ras homolog family member j, CLK4  -  cdc-like kinase 4, EEF1A2  -  eukaryotic translation elongation factor 1 alpha 2, RAB22A  -  rab22a, member ras oncogene family, FFAR4  -  free fatty acid receptor 4, SPO11  -  spo11 meiotic protein covalently bound to dsb, EIF2S3  -  eukaryotic translation initiation factor 2, subunit 3 gamma, 52kda, EPHA2  -  eph receptor a2, TCP1  -  t-complex 1, GRAMD1B  -  gram domain containing 1b, PLA2G15  -  phospholipase a2, group xv, EIF4G1  -  eukaryotic translation initiation factor 4 gamma, 1, EIF5  -  eukaryotic translation initiation factor 5, ESYT2  -  extended synaptotagmin-like protein 2, SGK3  -  serum/glucocorticoid regulated kinase family, member 3, RIMKLB  -  ribosomal modification protein rimk-like family member b, NLGN4X  -  neuroligin 4, x-linked, AARS2  -  alanyl-trna synthetase 2, mitochondrial, STARD9  -  star-related lipid transfer (start) domain containing 9, SHPK  -  sedoheptulokinase, WEE2  -  wee1 homolog 2 (s. pombe), TDG  -  thymine-dna glycosylase, TDO2  -  tryptophan 2,3-dioxygenase, ADAMTSL5  -  adamts-like 5, EPB41  -  erythrocyte membrane protein band 4.1 (elliptocytosis 1, rh-linked), ALPK3  -  alpha-kinase 3, EPB42  -  erythrocyte membrane protein band 4.2, EPHA1  -  eph receptor a1, EPHA3  -  eph receptor a3, EPHA4  -  eph receptor a4, EPHA5  -  eph receptor a5, EPHA7  -  eph receptor a7, EPHA8  -  eph receptor a8, TESK1  -  testis-specific kinase 1, TAOK1  -  tao kinase 1, EPHB1  -  eph receptor b1, EPHB2  -  eph receptor b2, MICAL3  -  microtubule associated monooxygenase, calponin and lim domain containing 3, EPHB3  -  eph receptor b3, NR2F2  -  nuclear receptor subfamily 2, group f, member 2, EPRS  -  glutamyl-prolyl-trna synthetase, ERBB4  -  v-erb-b2 avian erythroblastic leukemia viral oncogene homolog 4, KIF4A  -  kinesin family member 4a, ERCC3  -  excision repair cross-complementing rodent repair deficiency, complementation group 3, PREX1  -  phosphatidylinositol-3,4,5-trisphosphate-dependent rac exchange factor 1, ERCC6  -  excision repair cross-complementing rodent repair deficiency, complementation group 6, TGFBR2  -  transforming growth factor, beta receptor ii (70/80kda), TGFBR3  -  transforming growth factor, beta receptor iii, SYT13  -  synaptotagmin xiii, ERN1  -  endoplasmic reticulum to nucleus signaling 1, CYP27C1  -  cytochrome p450, family 27, subfamily c, polypeptide 1, WDFY1  -  wd repeat and fyve domain containing 1, TH  -  tyrosine hydroxylase, THBS1  -  thrombospondin 1, THBS2  -  thrombospondin 2, SYT2  -  synaptotagmin ii, DSTYK  -  dual serine/threonine and tyrosine protein kinase, ETFA  -  electron-transfer-flavoprotein, alpha polypeptide, ETFDH  -  electron-transferring-flavoprotein dehydrogenase, THY1  -  thy-1 cell surface antigen, RAD54B  -  rad54 homolog b (s. cerevisiae), GADL1  -  glutamate decarboxylase-like 1, TK2  -  thymidine kinase 2, mitochondrial, TKT  -  transketolase, TTLL1  -  tubulin tyrosine ligase-like family, member 1, EP400  -  e1a binding protein p400, MYH7B  -  myosin, heavy chain 7b, cardiac muscle, beta, DHX37  -  deah (asp-glu-ala-his) box polypeptide 37, F2  -  coagulation factor ii (thrombin), MTO1  -  mitochondrial trna translation optimization 1, PHF12  -  phd finger protein 12, F3  -  coagulation factor iii (thromboplastin, tissue factor), F10  -  coagulation factor x, MYLK4  -  myosin light chain kinase family, member 4, FABP1  -  fatty acid binding protein 1, liver, FABP2  -  fatty acid binding protein 2, intestinal, FABP3  -  fatty acid binding protein 3, muscle and heart (mammary-derived growth inhibitor), FABP5  -  fatty acid binding protein 5 (psoriasis-associated), CLEC3B  -  c-type lectin domain family 3, member b, TECPR1  -  tectonin beta-propeller repeat containing 1, ACSL1  -  acyl-coa synthetase long-chain family member 1, ACSL3  -  acyl-coa synthetase long-chain family member 3, ACSL4  -  acyl-coa synthetase long-chain family member 4, PTK2B  -  protein tyrosine kinase 2 beta, DDX55  -  dead (asp-glu-ala-asp) box polypeptide 55, FANCM  -  fanconi anemia, complementation group m, FASN  -  fatty acid synthase, NRBP2  -  nuclear receptor binding protein 2, PIGU  -  phosphatidylinositol glycan anchor biosynthesis, class u, DENND1A  -  denn/madd domain containing 1a, FBN1  -  fibrillin 1, TOP1  -  topoisomerase (dna) i, TOP2A  -  topoisomerase (dna) ii alpha 170kda, TOP2B  -  topoisomerase (dna) ii beta 180kda, NUP35  -  nucleoporin 35kda, MTHFD1L  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1-like, ZFYVE28  -  zinc finger, fyve domain containing 28, MITD1  -  mit, microtubule interacting and transport, domain containing 1, CMPK2  -  cytidine monophosphate (ump-cmp) kinase 2, mitochondrial, FBLN7  -  fibulin 7, HSP90B1  -  heat shock protein 90kda beta (grp94), member 1, RAB40C  -  rab40c, member ras oncogene family, BBS5  -  bardet-biedl syndrome 5, FGF1  -  fibroblast growth factor 1 (acidic), FGF2  -  fibroblast growth factor 2 (basic), SAMHD1  -  sam domain and hd domain 1, RAP2C  -  rap2c, member of ras oncogene family, TRIO  -  trio rho guanine nucleotide exchange factor, FGFR1  -  fibroblast growth factor receptor 1, FGFR3  -  fibroblast growth factor receptor 3, ACVR1C  -  activin a receptor, type ic, FGFR2  -  fibroblast growth factor receptor 2, FGFR4  -  fibroblast growth factor receptor 4, PARS2  -  prolyl-trna synthetase 2, mitochondrial (putative), MMACHC  -  methylmalonic aciduria (cobalamin deficiency) cblc type, with homocystinuria, TRPC1  -  transient receptor potential cation channel, subfamily c, member 1, SYT10  -  synaptotagmin x, TRPC3  -  transient receptor potential cation channel, subfamily c, member 3, TRPC4  -  transient receptor potential cation channel, subfamily c, member 4, CKMT1A  -  creatine kinase, mitochondrial 1a, TRPC6  -  transient receptor potential cation channel, subfamily c, member 6, DNAH1  -  dynein, axonemal, heavy chain 1, TRPM2  -  transient receptor potential cation channel, subfamily m, member 2, RHOU  -  ras homolog family member u, ULK3  -  unc-51 like kinase 3, PCTP  -  phosphatidylcholine transfer protein, NEK5  -  nima-related kinase 5, FLII  -  flightless i homolog (drosophila), ACOT11  -  acyl-coa thioesterase 11, SUSD5  -  sushi domain containing 5, FLT1  -  fms-related tyrosine kinase 1, FLT3  -  fms-related tyrosine kinase 3, FLT4  -  fms-related tyrosine kinase 4, RRAGD  -  ras-related gtp binding d, TTK  -  ttk protein kinase, TTN  -  titin, FMO3  -  flavin containing monooxygenase 3, TTPA  -  tocopherol (alpha) transfer protein, GRK7  -  g protein-coupled receptor kinase 7, FMO5  -  flavin containing monooxygenase 5, GIMD1  -  gimap family p-loop ntpase domain containing 1, FN1  -  fibronectin 1, TUBG1  -  tubulin, gamma 1, DNM3  -  dynamin 3, TULP1  -  tubby like protein 1, GLYCTK  -  glycerate kinase, FOLH1  -  folate hydrolase (prostate-specific membrane antigen) 1, TULP3  -  tubby like protein 3, EVA1C  -  eva-1 homolog c (c. elegans), APPL1  -  adaptor protein, phosphotyrosine interaction, ph domain and leucine zipper containing 1, HACL1  -  2-hydroxyacyl-coa lyase 1, TYMS  -  thymidylate synthetase, TYRO3  -  tyro3 protein tyrosine kinase, PLEKHA1  -  pleckstrin homology domain containing, family a (phosphoinositide binding specific) member 1, PLEKHA2  -  pleckstrin homology domain containing, family a (phosphoinositide binding specific) member 2, TRPV4  -  transient receptor potential cation channel, subfamily v, member 4, UBA1  -  ubiquitin-like modifier activating enzyme 1, UBE2B  -  ubiquitin-conjugating enzyme e2b, LGR6  -  leucine-rich repeat containing g protein-coupled receptor 6, AASDH  -  aminoadipate-semialdehyde dehydrogenase, UBE2D2  -  ubiquitin-conjugating enzyme e2d 2, WIPI2  -  wd repeat domain, phosphoinositide interacting 2, UBE2E2  -  ubiquitin-conjugating enzyme e2e 2, UBE2G1  -  ubiquitin-conjugating enzyme e2g 1, UBE2G2  -  ubiquitin-conjugating enzyme e2g 2, UBE2H  -  ubiquitin-conjugating enzyme e2h, KCNT2  -  potassium channel, subfamily t, member 2, UBE2L3  -  ubiquitin-conjugating enzyme e2l 3, UBE2N  -  ubiquitin-conjugating enzyme e2n, LDLRAP1  -  low density lipoprotein receptor adaptor protein 1, PPCDC  -  phosphopantothenoylcysteine decarboxylase, KIF26A  -  kinesin family member 26a, ABCA12  -  atp-binding cassette, sub-family a (abc1), member 12, UCK2  -  uridine-cytidine kinase 2, MTG2  -  mitochondrial ribosome-associated gtpase 2, DHX35  -  deah (asp-glu-ala-his) box polypeptide 35, PITPNC1  -  phosphatidylinositol transfer protein, cytoplasmic 1, FRK  -  fyn-related kinase, SRR  -  serine racemase, CLVS2  -  clavesin 2, ARL5A  -  adp-ribosylation factor-like 5a, UBE2O  -  ubiquitin-conjugating enzyme e2o, VDAC1  -  voltage-dependent anion channel 1, VDR  -  vitamin d (1,25- dihydroxyvitamin d3) receptor, VEGFA  -  vascular endothelial growth factor a, VIL1  -  villin 1, CHTF18  -  ctf18, chromosome transmission fidelity factor 18 homolog (s. cerevisiae), MTOR  -  mechanistic target of rapamycin (serine/threonine kinase), TRPV1  -  transient receptor potential cation channel, subfamily v, member 1, VRK1  -  vaccinia related kinase 1, VRK2  -  vaccinia related kinase 2, NR5A2  -  nuclear receptor subfamily 5, group a, member 2, LRGUK  -  leucine-rich repeats and guanylate kinase domain containing, VTN  -  vitronectin, ERAL1  -  era-like 12s mitochondrial rrna chaperone 1, GNAT3  -  guanine nucleotide binding protein, alpha transducing 3, AK5  -  adenylate kinase 5, KIF13A  -  kinesin family member 13a, WEE1  -  wee1 homolog (s. pombe), FIGNL1  -  fidgetin-like 1, GNL3  -  guanine nucleotide binding protein-like 3 (nucleolar), FYN  -  fyn oncogene related to src, fgr, yes, RBKS  -  ribokinase, MCCC2  -  methylcrotonoyl-coa carboxylase 2 (beta), SNX16  -  sorting nexin 16, POPDC2  -  popeye domain containing 2, XDH  -  xanthine dehydrogenase, XRCC6  -  x-ray repair complementing defective repair in chinese hamster cells 6, MYOF  -  myoferlin, XRCC2  -  x-ray repair complementing defective repair in chinese hamster cells 2, XRCC3  -  x-ray repair complementing defective repair in chinese hamster cells 3, XRCC5  -  x-ray repair complementing defective repair in chinese hamster cells 5 (double-strand-break rejoining), DUS1L  -  dihydrouridine synthase 1-like (s. cerevisiae), RRAGC  -  ras-related gtp binding c, YES1  -  v-yes-1 yamaguchi sarcoma viral oncogene homolog 1, FN3K  -  fructosamine 3 kinase, LATS2  -  large tumor suppressor kinase 2, GAD2  -  glutamate decarboxylase 2 (pancreatic islets and brain, 65kda), ZAP70  -  zeta-chain (tcr) associated protein kinase 70kda, ABCG4  -  atp-binding cassette, sub-family g (white), member 4, KIF9  -  kinesin family member 9, GALK1  -  galactokinase 1, GALK2  -  galactokinase 2, LEPRE1  -  leucine proline-enriched proteoglycan (leprecan) 1, AMER1  -  apc membrane recruitment protein 1, PCOLCE2  -  procollagen c-endopeptidase enhancer 2, GAP43  -  growth associated protein 43, GART  -  phosphoribosylglycinamide formyltransferase, phosphoribosylglycinamide synthetase, phosphoribosylaminoimidazole synthetase, ATL2  -  atlastin gtpase 2, GAS6  -  growth arrest-specific 6, ABCG5  -  atp-binding cassette, sub-family g (white), member 5, ABCG8  -  atp-binding cassette, sub-family g (white), member 8, GCH1  -  gtp cyclohydrolase 1, GCHFR  -  gtp cyclohydrolase i feedback regulator, MPP5  -  membrane protein, palmitoylated 5 (maguk p55 subfamily member 5), MSTN  -  myostatin, GEM  -  gtp binding protein overexpressed in skeletal muscle, ARAP3  -  arfgap with rhogap domain, ankyrin repeat and ph domain 3, GFER  -  growth factor, augmenter of liver regeneration, RPS6KC1  -  ribosomal protein s6 kinase, 52kda, polypeptide 1, SH3YL1  -  sh3 domain containing, ysc84-like 1 (s. cerevisiae), NMNAT3  -  nicotinamide nucleotide adenylyltransferase 3, GK  -  glycerol kinase, GCLC  -  glutamate-cysteine ligase, catalytic subunit, GLE1  -  gle1 rna export mediator, GLRA1  -  glycine receptor, alpha 1, GLRA2  -  glycine receptor, alpha 2, GLRB  -  glycine receptor, beta, ACBD3  -  acyl-coa binding domain containing 3, GLUD1  -  glutamate dehydrogenase 1, GLUL  -  glutamate-ammonia ligase, GMDS  -  gdp-mannose 4,6-dehydratase, IPPK  -  inositol 1,3,4,5,6-pentakisphosphate 2-kinase, DAP3  -  death associated protein 3, GNA11  -  guanine nucleotide binding protein (g protein), alpha 11 (gq class), GNA12  -  guanine nucleotide binding protein (g protein) alpha 12, GNAI1  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 1, GNAI2  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 2, GNAI3  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 3, GNAL  -  guanine nucleotide binding protein (g protein), alpha activating activity polypeptide, olfactory type, CERK  -  ceramide kinase, DDX31  -  dead (asp-glu-ala-asp) box polypeptide 31, MAPKAPK3  -  mitogen-activated protein kinase-activated protein kinase 3, CHORDC1  -  cysteine and histidine-rich domain (chord) containing 1, NMNAT1  -  nicotinamide nucleotide adenylyltransferase 1, KCNAB1  -  potassium voltage-gated channel, shaker-related subfamily, beta member 1, STK35  -  serine/threonine kinase 35, GOT2  -  glutamic-oxaloacetic transaminase 2, mitochondrial, ETNPPL  -  ethanolamine-phosphate phospho-lyase, AIDA  -  axin interactor, dorsalization associated, TPK1  -  thiamin pyrophosphokinase 1, MLH3  -  mutl homolog 3 (e. coli), HSD17B8  -  hydroxysteroid (17-beta) dehydrogenase 8, ATP2C1  -  atpase, ca++ transporting, type 2c, member 1, ACAD8  -  acyl-coa dehydrogenase family, member 8, FRMPD2  -  ferm and pdz domain containing 2, GPR12  -  g protein-coupled receptor 12, PLA2G7  -  phospholipase a2, group vii (platelet-activating factor acetylhydrolase, plasma), LPAR4  -  lysophosphatidic acid receptor 4, DAPP1  -  dual adaptor of phosphotyrosine and 3-phosphoinositides, SESN3  -  sestrin 3, GRK4  -  g protein-coupled receptor kinase 4, ARHGEF5  -  rho guanine nucleotide exchange factor (gef) 5, GRK5  -  g protein-coupled receptor kinase 5, PINK1  -  pten induced putative kinase 1, GRK6  -  g protein-coupled receptor kinase 6, EIF2AK1  -  eukaryotic translation initiation factor 2-alpha kinase 1, CDK15  -  cyclin-dependent kinase 15, GLRA3  -  glycine receptor, alpha 3, RTN4R  -  reticulon 4 receptor, SMC1B  -  structural maintenance of chromosomes 1b, SNX5  -  sorting nexin 5, CPNE7  -  copine vii, CPNE8  -  copine viii, WNK1  -  wnk lysine deficient protein kinase 1, STK36  -  serine/threonine kinase 36, NADK  -  nad kinase, GRIN1  -  glutamate receptor, ionotropic, n-methyl d-aspartate 1, GRIN2B  -  glutamate receptor, ionotropic, n-methyl d-aspartate 2b, NDOR1  -  nadph dependent diflavin oxidoreductase 1, MPPE1  -  metallophosphoesterase 1, UBE2Z  -  ubiquitin-conjugating enzyme e2z, PLEKHA3  -  pleckstrin homology domain containing, family a (phosphoinositide binding specific) member 3, GRM7  -  glutamate receptor, metabotropic 7, VPS4A  -  vacuolar protein sorting 4 homolog a (s. cerevisiae), AACS  -  acetoacetyl-coa synthetase, GSK3B  -  glycogen synthase kinase 3 beta, GSN  -  gelsolin, GSPT1  -  g1 to s phase transition 1, GSR  -  glutathione reductase, GSS  -  glutathione synthetase, NMRK2  -  nicotinamide riboside kinase 2, GNMT  -  glycine n-methyltransferase, ST8SIA2  -  st8 alpha-n-acetyl-neuraminide alpha-2,8-sialyltransferase 2, ARFIP1  -  adp-ribosylation factor interacting protein 1, MSH6  -  muts homolog 6 (e. coli), SESN1  -  sestrin 1, GTF2F2  -  general transcription factor iif, polypeptide 2, 30kda, RND2  -  rho family gtpase 2, CAMKV  -  cam kinase-like vesicle-associated, GUCY1A2  -  guanylate cyclase 1, soluble, alpha 2, GUCY1A3  -  guanylate cyclase 1, soluble, alpha 3, HAPLN3  -  hyaluronan and proteoglycan link protein 3, GUCY1B3  -  guanylate cyclase 1, soluble, beta 3, GUCY2C  -  guanylate cyclase 2c (heat stable enterotoxin receptor), GUCY2F  -  guanylate cyclase 2f, retinal, GUK1  -  guanylate kinase 1, MKKS  -  mckusick-kaufman syndrome, SPATA5L1  -  spermatogenesis associated 5-like 1, TTBK2  -  tau tubulin kinase 2, KIF7  -  kinesin family member 7, DDX54  -  dead (asp-glu-ala-asp) box polypeptide 54, RLTPR  -  rgd motif, leucine rich repeats, tropomodulin domain and proline-rich containing, RAB30  -  rab30, member ras oncogene family, SYN3  -  synapsin iii, GTPBP6  -  gtp binding protein 6 (putative), ATP9B  -  atpase, class ii, type 9b, ANGPTL3  -  angiopoietin-like 3, RPS6KA6  -  ribosomal protein s6 kinase, 90kda, polypeptide 6, HADH  -  hydroxyacyl-coa dehydrogenase, TOR1B  -  torsin family 1, member b (torsin b), RTN4RL1  -  reticulon 4 receptor-like 1, TOR2A  -  torsin family 2, member a, DYSF  -  dysferlin, limb girdle muscular dystrophy 2b (autosomal recessive), COLQ  -  collagen-like tail subunit (single strand of homotrimer) of asymmetric acetylcholinesterase, PCLO  -  piccolo presynaptic cytomatrix protein, PICALM  -  phosphatidylinositol binding clathrin assembly protein, MAPKAP1  -  mitogen-activated protein kinase associated protein 1, DHX58  -  dexh (asp-glu-x-his) box polypeptide 58, HCK  -  hemopoietic cell kinase, ACOX3  -  acyl-coa oxidase 3, pristanoyl, CDC7  -  cell division cycle 7, HDC  -  histidine decarboxylase, CFH  -  complement factor h, AGRN  -  agrin, HIP1  -  huntingtin interacting protein 1, HK2  -  hexokinase 2, TTPAL  -  tocopherol (alpha) transfer protein-like, ENTPD8  -  ectonucleoside triphosphate diphosphohydrolase 8, HLCS  -  holocarboxylase synthetase (biotin-(proprionyl-coa-carboxylase (atp-hydrolysing)) ligase), PIP4K2B  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, beta, HMGCL  -  3-hydroxymethyl-3-methylglutaryl-coa lyase, ULK1  -  unc-51 like autophagy activating kinase 1, EEA1  -  early endosome antigen 1, HMMR  -  hyaluronan-mediated motility receptor (rhamm), ATP8B3  -  atpase, aminophospholipid transporter, class i, type 8b, member 3, HNF4A  -  hepatocyte nuclear factor 4, alpha, SYT6  -  synaptotagmin vi, SDPR  -  serum deprivation response, RAD54L  -  rad54-like (s. cerevisiae), DYRK3  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 3, DYRK2  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 2, DOC2B  -  double c2-like domains, beta, HNRNPU  -  heterogeneous nuclear ribonucleoprotein u (scaffold attachment factor a), TTF2  -  transcription termination factor, rna polymerase ii, OGT  -  o-linked n-acetylglucosamine (glcnac) transferase, CDC42BPA  -  cdc42 binding protein kinase alpha (dmpk-like), PIRT  -  phosphoinositide-interacting regulator of transient receptor potential channels, MAP4K3  -  mitogen-activated protein kinase kinase kinase kinase 3, EXOC8  -  exocyst complex component 8, ATP13A3  -  atpase type 13a3, PDIK1L  -  pdlim1 interacting kinase 1 like, CARS2  -  cysteinyl-trna synthetase 2, mitochondrial (putative), HPGD  -  hydroxyprostaglandin dehydrogenase 15-(nad), DGKZ  -  diacylglycerol kinase, zeta, DGKE  -  diacylglycerol kinase, epsilon 64kda, HRAS  -  harvey rat sarcoma viral oncogene homolog, DGKD  -  diacylglycerol kinase, delta 130kda, DDO  -  d-aspartate oxidase, ACSS3  -  acyl-coa synthetase short-chain family member 3, HRG  -  histidine-rich glycoprotein, NDNF  -  neuron-derived neurotrophic factor, NKIRAS2  -  nfkb inhibitor interacting ras-like 2, AGPS  -  alkylglycerone phosphate synthase, NKIRAS1  -  nfkb inhibitor interacting ras-like 1, MAPKAPK5  -  mitogen-activated protein kinase-activated protein kinase 5, DNAJA1  -  dnaj (hsp40) homolog, subfamily a, member 1, AIFM3  -  apoptosis-inducing factor, mitochondrion-associated, 3, PANK3  -  pantothenate kinase 3, HSPA4  -  heat shock 70kda protein 4, CDK10  -  cyclin-dependent kinase 10, HSPA8  -  heat shock 70kda protein 8, HSPA9  -  heat shock 70kda protein 9 (mortalin), KMO  -  kynurenine 3-monooxygenase (kynurenine 3-hydroxylase), PDXK  -  pyridoxal (pyridoxine, vitamin b6) kinase, MKNK1  -  map kinase interacting serine/threonine kinase 1, DYNC2H1  -  dynein, cytoplasmic 2, heavy chain 1, RASL11A  -  ras-like, family 11, member a, CASK  -  calcium/calmodulin-dependent serine protein kinase (maguk family), DHX40  -  deah (asp-glu-ala-his) box polypeptide 40, PLEKHF2  -  pleckstrin homology domain containing, family f (with fyve domain) member 2, HSPD1  -  heat shock 60kda protein 1 (chaperonin), STK16  -  serine/threonine kinase 16, NLRX1  -  nlr family member x1, TTL  -  tubulin tyrosine ligase, VEPH1  -  ventricular zone expressed ph domain-containing 1, OGFOD2  -  2-oxoglutarate and iron-dependent oxygenase domain containing 2, SMC6  -  structural maintenance of chromosomes 6, STEAP4  -  steap family member 4, RUVBL1  -  ruvb-like 1 (e. coli), COMMD1  -  copper metabolism (murr1) domain containing 1, OGFOD3  -  2-oxoglutarate and iron-dependent oxygenase domain containing 3, CDK13  -  cyclin-dependent kinase 13, LRRK1  -  leucine-rich repeat kinase 1, NOL9  -  nucleolar protein 9, IARS  -  isoleucyl-trna synthetase, DNAH17  -  dynein, axonemal, heavy chain 17, GVINP1  -  gtpase, very large interferon inducible pseudogene 1, ABCB11  -  atp-binding cassette, sub-family b (mdr/tap), member 11, NARS2  -  asparaginyl-trna synthetase 2, mitochondrial (putative), BBS10  -  bardet-biedl syndrome 10, TTLL7  -  tubulin tyrosine ligase-like family, member 7, PDE5A  -  phosphodiesterase 5a, cgmp-specific, IDE  -  insulin-degrading enzyme, RERGL  -  rerg/ras-like, CPNE9  -  copine family member ix, DNAH11  -  dynein, axonemal, heavy chain 11, CCDC80  -  coiled-coil domain containing 80, ABCC3  -  atp-binding cassette, sub-family c (cftr/mrp), member 3, SBK1  -  sh3-binding domain kinase 1, SNX4  -  sorting nexin 4, SNX3  -  sorting nexin 3, NEK10  -  nima-related kinase 10, IGF2R  -  insulin-like growth factor 2 receptor, GBF1  -  golgi brefeldin a resistant guanine nucleotide exchange factor 1, RNGTT  -  rna guanylyltransferase and 5'-phosphatase, RIPK1  -  receptor (tnfrsf)-interacting serine-threonine kinase 1, IGHMBP2  -  immunoglobulin mu binding protein 2, RAB11A  -  rab11a, member ras oncogene family, RIPK2  -  receptor-interacting serine-threonine kinase 2, SNX22  -  sorting nexin 22, RIOK3  -  rio kinase 3, DAB2IP  -  dab2 interacting protein, UBA5  -  ubiquitin-like modifier activating enzyme 5, DCAKD  -  dephospho-coa kinase domain containing, IKBKB  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase beta, SUCLG2  -  succinate-coa ligase, gdp-forming, beta subunit, SUCLA2  -  succinate-coa ligase, adp-forming, beta subunit, CDKL1  -  cyclin-dependent kinase-like 1 (cdc2-related kinase), ATAD5  -  atpase family, aaa domain containing 5, IQGAP1  -  iq motif containing gtpase activating protein 1, NRP2  -  neuropilin 2, NRP1  -  neuropilin 1, GMPS  -  guanine monphosphate synthase, WISP3  -  wnt1 inducible signaling pathway protein 3, WISP1  -  wnt1 inducible signaling pathway protein 1, KSR1  -  kinase suppressor of ras 1, ABCA13  -  atp-binding cassette, sub-family a (abc1), member 13, IMPG1  -  interphotoreceptor matrix proteoglycan 1, SGPL1  -  sphingosine-1-phosphate lyase 1, DDX18  -  dead (asp-glu-ala-asp) box polypeptide 18, CPNE3  -  copine iii, IRAK2  -  interleukin-1 receptor-associated kinase 2, PRPF4B  -  prp4 pre-mrna processing factor 4 homolog b (yeast), FOXRED2  -  fad-dependent oxidoreductase domain containing 2, PANK2  -  pantothenate kinase 2, MCMDC2  -  minichromosome maintenance domain containing 2, CLVS1  -  clavesin 1, KYNU  -  kynureninase, ITK  -  il2-inducible t-cell kinase, ITPK1  -  inositol-tetrakisphosphate 1-kinase, ITPKA  -  inositol-trisphosphate 3-kinase a, ITPKB  -  inositol-trisphosphate 3-kinase b, P4HA2  -  prolyl 4-hydroxylase, alpha polypeptide ii, ITPR1  -  inositol 1,4,5-trisphosphate receptor, type 1, ITPR2  -  inositol 1,4,5-trisphosphate receptor, type 2, AK8  -  adenylate kinase 8, BAIAP2L2  -  bai1-associated protein 2-like 2, ARL14  -  adp-ribosylation factor-like 14, IVD  -  isovaleryl-coa dehydrogenase, PIF1  -  pif1 5'-to-3' dna helicase, MAP3K19  -  mitogen-activated protein kinase kinase kinase 19, TTLL11  -  tubulin tyrosine ligase-like family, member 11, JAK1  -  janus kinase 1, KALRN  -  kalirin, rhogef kinase, CDKL2  -  cyclin-dependent kinase-like 2 (cdc2-related kinase), PTGES2  -  prostaglandin e synthase 2, UXS1  -  udp-glucuronate decarboxylase 1, MAP3K14  -  mitogen-activated protein kinase kinase kinase 14, IYD  -  iodotyrosine deiodinase, BRSK2  -  br serine/threonine kinase 2, HIP1R  -  huntingtin interacting protein 1 related, BAZ1B  -  bromodomain adjacent to zinc finger domain, 1b, UBA3  -  ubiquitin-like modifier activating enzyme 3, KCNH1  -  potassium voltage-gated channel, subfamily h (eag-related), member 1, MYO19  -  myosin xix, KCNJ1  -  potassium inwardly-rectifying channel, subfamily j, member 1, BTAF1  -  btaf1 rna polymerase ii, b-tfiid transcription factor-associated, 170kda, KCNJ2  -  potassium inwardly-rectifying channel, subfamily j, member 2, RNF34  -  ring finger protein 34, e3 ubiquitin protein ligase, KCNJ8  -  potassium inwardly-rectifying channel, subfamily j, member 8, HKDC1  -  hexokinase domain containing 1, CHD9  -  chromodomain helicase dna binding protein 9, NUGGC  -  nuclear gtpase, germinal center associated, PAPSS1  -  3'-phosphoadenosine 5'-phosphosulfate synthase 1, MAP3K6  -  mitogen-activated protein kinase kinase kinase 6, ALPK1  -  alpha-kinase 1, SYT7  -  synaptotagmin vii, KCNQ1  -  potassium voltage-gated channel, kqt-like subfamily, member 1, KDR  -  kinase insert domain receptor (a type iii receptor tyrosine kinase), KIF2A  -  kinesin heavy chain member 2a, KIF3C  -  kinesin family member 3c, KIF5B  -  kinesin family member 5b, KIF5C  -  kinesin family member 5c, KIFC3  -  kinesin family member c3, DNAJA3  -  dnaj (hsp40) homolog, subfamily a, member 3, MAP3K15  -  mitogen-activated protein kinase kinase kinase 15, KIT  -  v-kit hardy-zuckerman 4 feline sarcoma viral oncogene homolog, LATS1  -  large tumor suppressor kinase 1, DGKH  -  diacylglycerol kinase, eta, KNG1  -  kininogen 1, KIF11  -  kinesin family member 11, KIF25  -  kinesin family member 25, SMC3  -  structural maintenance of chromosomes 3, P2RX6  -  purinergic receptor p2x, ligand-gated ion channel, 6, GTPBP8  -  gtp-binding protein 8 (putative), AIFM1  -  apoptosis-inducing factor, mitochondrion-associated, 1, KRAS  -  kirsten rat sarcoma viral oncogene homolog, UBE2T  -  ubiquitin-conjugating enzyme e2t (putative), PDCD5  -  programmed cell death 5, COASY  -  coa synthase, TBK1  -  tank-binding kinase 1, DGKI  -  diacylglycerol kinase, iota, ACAD10  -  acyl-coa dehydrogenase family, member 10, MAP3K13  -  mitogen-activated protein kinase kinase kinase 13, RACGAP1  -  rac gtpase activating protein 1, PACSIN3  -  protein kinase c and casein kinase substrate in neurons 3, AARSD1  -  alanyl-trna synthetase domain containing 1, STARD5  -  star-related lipid transfer (start) domain containing 5, DCLK1  -  doublecortin-like kinase 1, LAMC2  -  laminin, gamma 2, OLA1  -  obg-like atpase 1, LBR  -  lamin b receptor, XPR1  -  xenotropic and polytropic retrovirus receptor 1, DENND1B  -  denn/madd domain containing 1b, MAGI1  -  membrane associated guanylate kinase, ww and pdz domain containing 1, SNX8  -  sorting nexin 8, SNX10  -  sorting nexin 10, GNL2  -  guanine nucleotide binding protein-like 2 (nucleolar), EEF2K  -  eukaryotic elongation factor-2 kinase, HFM1  -  hfm1, atp-dependent dna helicase homolog (s. cerevisiae), RPS6KA5  -  ribosomal protein s6 kinase, 90kda, polypeptide 5, LIG3  -  ligase iii, dna, atp-dependent, MFHAS1  -  malignant fibrous histiocytoma amplified sequence 1, LIG4  -  ligase iv, dna, atp-dependent, TTLL9  -  tubulin tyrosine ligase-like family, member 9, MAPKAPK2  -  mitogen-activated protein kinase-activated protein kinase 2, NME7  -  nme/nm23 family member 7, STK17A  -  serine/threonine kinase 17a, LIMK2  -  lim domain kinase 2, LIPC  -  lipase, hepatic, SNX12  -  sorting nexin 12, SBK2  -  sh3-binding domain kinase family, member 2, BBS12  -  bardet-biedl syndrome 12, DCLK2  -  doublecortin-like kinase 2, NRBP1  -  nuclear receptor binding protein 1, LRP1  -  low density lipoprotein receptor-related protein 1, TRIP13  -  thyroid hormone receptor interactor 13, LRPAP1  -  low density lipoprotein receptor-related protein associated protein 1, LTBP2  -  latent transforming growth factor beta binding protein 2, PACSIN1  -  protein kinase c and casein kinase substrate in neurons 1, EFTUD2  -  elongation factor tu gtp binding domain containing 2, LONP1  -  lon peptidase 1, mitochondrial, RAB28  -  rab28, member ras oncogene family, RAB9A  -  rab9a, member ras oncogene family, ADIPOQ  -  adiponectin, c1q and collagen domain containing, KIF3B  -  kinesin family member 3b, ZFYVE9  -  zinc finger, fyve domain containing 9, EHD4  -  eh-domain containing 4, EHD3  -  eh-domain containing 3, PIK3R4  -  phosphoinositide-3-kinase, regulatory subunit 4, SMARCAL1  -  swi/snf related, matrix associated, actin dependent regulator of chromatin, subfamily a-like 1, RECQL5  -  recq protein-like 5, DHX36  -  deah (asp-glu-ala-his) box polypeptide 36, MAK  -  male germ cell-associated kinase, NOX4  -  nadph oxidase 4, MAOB  -  monoamine oxidase b, MAP1B  -  microtubule-associated protein 1b, MAPT  -  microtubule-associated protein tau, MARK1  -  map/microtubule affinity-regulating kinase 1, MARK3  -  map/microtubule affinity-regulating kinase 3, MAT1A  -  methionine adenosyltransferase i, alpha, ABCG2  -  atp-binding cassette, sub-family g (white), member 2, PNPLA8  -  patatin-like phospholipase domain containing 8, ITM2B  -  integral membrane protein 2b, ASAP1  -  arfgap with sh3 domain, ankyrin repeat and ph domain 1, EIF2AK3  -  eukaryotic translation initiation factor 2-alpha kinase 3, MCM2  -  minichromosome maintenance complex component 2, MCM3  -  minichromosome maintenance complex component 3, MCM4  -  minichromosome maintenance complex component 4, PICK1  -  protein interacting with prkca 1, MCM5  -  minichromosome maintenance complex component 5, ADAMTS15  -  adam metallopeptidase with thrombospondin type 1 motif, 15, PCYT1B  -  phosphate cytidylyltransferase 1, choline, beta, ROCK2  -  rho-associated, coiled-coil containing protein kinase 2, PGS1  -  phosphatidylglycerophosphate synthase 1, KIF23  -  kinesin family member 23, IMPG2  -  interphotoreceptor matrix proteoglycan 2, RHOV  -  ras homolog family member v, MAP3K3  -  mitogen-activated protein kinase kinase kinase 3, MAP3K4  -  mitogen-activated protein kinase kinase kinase 4, SNX27  -  sorting nexin family member 27, RAB8A  -  rab8a, member ras oncogene family, ADAMTS3  -  adam metall</t>
-  </si>
-  <si>
-    <t>peptidase with thrombospondin type 1 motif, 3, MET  -  met proto-oncogene, SPTLC2  -  serine palmitoyltransferase, long chain base subunit 2, MFGE8  -  milk fat globule-egf factor 8 protein, VPS4B  -  vacuolar protein sorting 4 homolog b (s. cerevisiae), COQ6  -  coenzyme q6 monooxygenase, PTGES  -  prostaglandin e synthase, MGST1  -  microsomal glutathione s-transferase 1, MGST2  -  microsomal glutathione s-transferase 2, TP53I3  -  tumor protein p53 inducible protein 3, CIITA  -  class ii, major histocompatibility complex, transactivator, NUAK2  -  nuak family, snf1-like kinase, 2, VPS36  -  vacuolar protein sorting 36 homolog (s. cerevisiae), CHD1L  -  chromodomain helicase dna binding protein 1-like, MKI67  -  antigen identified by monoclonal antibody ki-67, MLH1  -  mutl homolog 1, colon cancer, nonpolyposis type 2 (e. coli), GTPBP1  -  gtp binding protein 1, MAP3K9  -  mitogen-activated protein kinase kinase kinase 9, ATL1  -  atlastin gtpase 1, MME  -  membrane metallo-endopeptidase, KIF20B  -  kinesin family member 20b, MMP7  -  matrix metallopeptidase 7 (matrilysin, uterine), DNAH10  -  dynein, axonemal, heavy chain 10, KIF18A  -  kinesin family member 18a, CRYL1  -  crystallin, lambda 1, RAB36  -  rab36, member ras oncogene family, TNNI3K  -  tnni3 interacting kinase, MOCS1  -  molybdenum cofactor synthesis 1, ABCG1  -  atp-binding cassette, sub-family g (white), member 1, TRNT1  -  trna nucleotidyl transferase, cca-adding, 1, MOS  -  v-mos moloney murine sarcoma viral oncogene homolog, MOV10  -  mov10, moloney leukemia virus 10, homolog (mouse), ABCC1  -  atp-binding cassette, sub-family c (cftr/mrp), member 1, MLKL  -  mixed lineage kinase domain-like, IKBKE  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase epsilon, DDX59  -  dead (asp-glu-ala-asp) box polypeptide 59, ACSF3  -  acyl-coa synthetase family member 3, SH3PXD2A  -  sh3 and px domains 2a, MICAL2  -  microtubule associated monooxygenase, calponin and lim domain containing 2, NLRC3  -  nlr family, card domain containing 3, TTLL4  -  tubulin tyrosine ligase-like family, member 4, UCK1  -  uridine-cytidine kinase 1, IRAK4  -  interleukin-1 receptor-associated kinase 4, EIF5B  -  eukaryotic translation initiation factor 5b, DYNC1LI1  -  dynein, cytoplasmic 1, light intermediate chain 1, HSD17B12  -  hydroxysteroid (17-beta) dehydrogenase 12, PPIP5K1  -  diphosphoinositol pentakisphosphate kinase 1, SERPINA10  -  serpin peptidase inhibitor, clade a (alpha-1 antiproteinase, antitrypsin), member 10, CLINT1  -  clathrin interactor 1, MYO1B  -  myosin ib, AADAT  -  aminoadipate aminotransferase, RAPGEF2  -  rap guanine nucleotide exchange factor (gef) 2, MYO15A  -  myosin xva, MSH2  -  muts homolog 2, colon cancer, nonpolyposis type 1 (e. coli), MSH4  -  muts homolog 4 (e. coli), MSH5  -  muts homolog 5 (e. coli), TUBD1  -  tubulin, delta 1, PARP9  -  poly (adp-ribose) polymerase family, member 9, HAO2  -  hydroxyacid oxidase 2 (long chain), HSPA14  -  heat shock 70kda protein 14, GPN3  -  gpn-loop gtpase 3, ULK2  -  unc-51 like autophagy activating kinase 2, AQR  -  aquarius homolog (mouse), CRISPLD2  -  cysteine-rich secretory protein lccl domain containing 2, NIN  -  ninein (gsk3b interacting protein), DDX47  -  dead (asp-glu-ala-asp) box polypeptide 47, RIOK1  -  rio kinase 1, PIKFYVE  -  phosphoinositide kinase, fyve finger containing, ANXA8  -  annexin a8, VPRBP  -  vpr (hiv-1) binding protein, LONP2  -  lon peptidase 2, peroxisomal, LIPH  -  lipase, member h, ARL13B  -  adp-ribosylation factor-like 13b, MTHFD1  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1, methenyltetrahydrofolate cyclohydrolase, formyltetrahydrofolate synthetase, VRK3  -  vaccinia related kinase 3, ARHGAP32  -  rho gtpase activating protein 32, MTHFR  -  methylenetetrahydrofolate reductase (nad(p)h), MTIF2  -  mitochondrial translational initiation factor 2, ESYT3  -  extended synaptotagmin-like protein 3, SLK  -  ste20-like kinase, FRMPD4  -  ferm and pdz domain containing 4, MTRR  -  5-methyltetrahydrofolate-homocysteine methyltransferase reductase, NCF1  -  neutrophil cytosolic factor 1, RAB12  -  rab12, member ras oncogene family, EIF4A3  -  eukaryotic translation initiation factor 4a3, KIAA0232  -  kiaa0232, DNAJC27  -  dnaj (hsp40) homolog, subfamily c, member 27, SNX17  -  sorting nexin 17, DHX38  -  deah (asp-glu-ala-his) box polypeptide 38, SNX25  -  sorting nexin 25, RASL12  -  ras-like, family 12, BMS1  -  bms1 ribosome biogenesis factor, GSG2  -  germ cell associated 2 (haspin), STK40  -  serine/threonine kinase 40, MVK  -  mevalonate kinase, IP6K1  -  inositol hexakisphosphate kinase 1, MX1  -  myxovirus (influenza virus) resistance 1, interferon-inducible protein p78 (mouse), TSSK1B  -  testis-specific serine kinase 1b, STK32A  -  serine/threonine kinase 32a, TMEM184A  -  transmembrane protein 184a, BRIP1  -  brca1 interacting protein c-terminal helicase 1, MYH4  -  myosin, heavy chain 4, skeletal muscle, MYH6  -  myosin, heavy chain 6, cardiac muscle, alpha, MELK  -  maternal embryonic leucine zipper kinase, OBSCN  -  obscurin, cytoskeletal calmodulin and titin-interacting rhogef, MYH9  -  myosin, heavy chain 9, non-muscle, MYH10  -  myosin, heavy chain 10, non-muscle, MYH11  -  myosin, heavy chain 11, smooth muscle, KATNAL1  -  katanin p60 subunit a-like 1, GAB2  -  grb2-associated binding protein 2, C2CD5  -  c2 calcium-dependent domain containing 5, MYLK  -  myosin light chain kinase, TAOK3  -  tao kinase 3, MYO1C  -  myosin ic, MYO1D  -  myosin id, MYO1E  -  myosin ie, C2CD2L  -  c2cd2-like, PLA2G4B  -  phospholipase a2, group ivb (cytosolic), PLEKHN1  -  pleckstrin homology domain containing, family n member 1, MYO5A  -  myosin va (heavy chain 12, myoxin), MYO6  -  myosin vi, MYO7A  -  myosin viia, MYO9A  -  myosin ixa, CHST15  -  carbohydrate (n-acetylgalactosamine 4-sulfate 6-o) sulfotransferase 15, MYO9B  -  myosin ixb, MYO10  -  myosin x, ZRANB3  -  zinc finger, ran-binding domain containing 3, SNX7  -  sorting nexin 7, FCHSD2  -  fch and double sh3 domains 2, HIPK1  -  homeodomain interacting protein kinase 1, AMER3  -  apc membrane recruitment protein 3, DDX46  -  dead (asp-glu-ala-asp) box polypeptide 46, ARL6  -  adp-ribosylation factor-like 6, OSBPL2  -  oxysterol binding protein-like 2, RHOBTB1  -  rho-related btb domain containing 1, SNAP91  -  synaptosomal-associated protein, 91kda, PRKAG2  -  protein kinase, amp-activated, gamma 2 non-catalytic subunit, ACAD11  -  acyl-coa dehydrogenase family, member 11, AMER2  -  apc membrane recruitment protein 2, NCF4  -  neutrophil cytosolic factor 4, 40kda, DDX41  -  dead (asp-glu-ala-asp) box polypeptide 41, SNX9  -  sorting nexin 9, MYO18A  -  myosin xviiia, IP6K2  -  inositol hexakisphosphate kinase 2, ATP2C2  -  atpase, ca++ transporting, type 2c, member 2, FAM20B  -  family with sequence similarity 20, member b, NLRC5  -  nlr family, card domain containing 5, LRTM2  -  leucine-rich repeats and transmembrane domains 2, MFN2  -  mitofusin 2, KIF14  -  kinesin family member 14, CHD6  -  chromodomain helicase dna binding protein 6, HELZ  -  helicase with zinc finger, RTCB  -  rna 2',3'-cyclic phosphate and 5'-oh ligase, XYLB  -  xylulokinase homolog (h. influenzae), DRG1  -  developmentally regulated gtp binding protein 1, LARS  -  leucyl-trna synthetase, NELL1  -  nel-like 1 (chicken), NEK1  -  nima-related kinase 1, NEK2  -  nima-related kinase 2, NEK3  -  nima-related kinase 3, SNX19  -  sorting nexin 19, THRAP3  -  thyroid hormone receptor associated protein 3, NF1  -  neurofibromin 1, NR1H4  -  nuclear receptor subfamily 1, group h, member 4, SIRT6  -  sirtuin 6, SGIP1  -  sh3-domain grb2-like (endophilin) interacting protein 1, CAMKK1  -  calcium/calmodulin-dependent protein kinase kinase 1, alpha, AKT3  -  v-akt murine thymoma viral oncogene homolog 3, NOA1  -  nitric oxide associated 1, NTPCR  -  nucleoside-triphosphatase, cancer-related, PIGK  -  phosphatidylinositol glycan anchor biosynthesis, class k, NME4  -  nme/nm23 nucleoside diphosphate kinase 4, NQO2  -  nad(p)h dehydrogenase, quinone 2, NOS1  -  nitric oxide synthase 1 (neuronal), NOS2  -  nitric oxide synthase 2, inducible, CHMP3  -  charged multivesicular body protein 3, RASD1  -  ras, dexamethasone-induced 1, SMC4  -  structural maintenance of chromosomes 4, UBA2  -  ubiquitin-like modifier activating enzyme 2, FARSB  -  phenylalanyl-trna synthetase, beta subunit, NOV  -  nephroblastoma overexpressed, ABCC5  -  atp-binding cassette, sub-family c (cftr/mrp), member 5, ABCB6  -  atp-binding cassette, sub-family b (mdr/tap), member 6, PNP  -  purine nucleoside phosphorylase, DNM1L  -  dynamin 1-like, CYB5R2  -  cytochrome b5 reductase 2, NLK  -  nemo-like kinase, ALKBH3  -  alkb, alkylation repair homolog 3 (e. coli), ACSL5  -  acyl-coa synthetase long-chain family member 5, ATP9A  -  atpase, class ii, type 9a, NPR2  -  natriuretic peptide receptor b/guanylate cyclase b (atrionatriuretic peptide receptor b), CPNE2  -  copine ii, RAB23  -  rab23, member ras oncogene family, CMPK1  -  cytidine monophosphate (ump-cmp) kinase 1, cytosolic, AK9  -  adenylate kinase 9, ACTR3  -  arp3 actin-related protein 3 homolog (yeast), ACTR2  -  arp2 actin-related protein 2 homolog (yeast), RAPGEF6  -  rap guanine nucleotide exchange factor (gef) 6, NSF  -  n-ethylmaleimide-sensitive factor, RTEL1  -  regulator of telomere elongation helicase 1, CDK12  -  cyclin-dependent kinase 12, SYT17  -  synaptotagmin xvii, RAD50  -  rad50 homolog (s. cerevisiae), KIF20A  -  kinesin family member 20a, ATP8A2  -  atpase, aminophospholipid transporter, class i, type 8a, member 2, RAB8B  -  rab8b, member ras oncogene family, NTRK3  -  neurotrophic tyrosine kinase, receptor, type 3, KIF6  -  kinesin family member 6, ROR1  -  receptor tyrosine kinase-like orphan receptor 1, DDR2  -  discoidin domain receptor tyrosine kinase 2, RASGRP1  -  ras guanyl releasing protein 1 (calcium and dag-regulated), MCM8  -  minichromosome maintenance complex component 8, NVL  -  nuclear vcp-like, TRAP1  -  tnf receptor-associated protein 1, KDM1B  -  lysine (k)-specific demethylase 1b, CECR1  -  cat eye syndrome chromosome region, candidate 1, GPR143  -  g protein-coupled receptor 143, ARFRP1  -  adp-ribosylation factor related protein 1, PXDC1  -  px domain containing 1, OAT  -  ornithine aminotransferase, ACSS1  -  acyl-coa synthetase short-chain family member 1, G3BP1  -  gtpase activating protein (sh3 domain) binding protein 1, ZFYVE1  -  zinc finger, fyve domain containing 1, TPCN1  -  two pore segment channel 1, RASA4  -  ras p21 protein activator 4, OGDH  -  oxoglutarate (alpha-ketoglutarate) dehydrogenase (lipoamide), COL25A1  -  collagen, type xxv, alpha 1, OPA1  -  optic atrophy 1 (autosomal dominant), OPHN1  -  oligophrenin 1, TENM1  -  teneurin transmembrane protein 1, TTBK1  -  tau tubulin kinase 1, NAPEPLD  -  n-acyl phosphatidylethanolamine phospholipase d, FGFRL1  -  fibroblast growth factor receptor-like 1, ORC1  -  origin recognition complex, subunit 1, ORC4  -  origin recognition complex, subunit 4, TNK2  -  tyrosine kinase, non-receptor, 2, ORC5  -  origin recognition complex, subunit 5, HS3ST5  -  heparan sulfate (glucosamine) 3-o-sulfotransferase 5, MYO3A  -  myosin iiia, OTC  -  ornithine carbamoyltransferase, NME6  -  nme/nm23 nucleoside diphosphate kinase 6, CSNK1G1  -  casein kinase 1, gamma 1, P2RX1  -  purinergic receptor p2x, ligand-gated ion channel, 1]</t>
-  </si>
-  <si>
     <t>GO:0000166</t>
   </si>
   <si>
     <t>nucleotide binding</t>
   </si>
   <si>
-    <t>[P2RX4  -  purinergic receptor p2x, ligand-gated ion channel, 4, P2RX5  -  purinergic receptor p2x, ligand-gated ion channel, 5, TRPV1  -  transient receptor potential cation channel, subfamily v, member 1, VRK1  -  vaccinia related kinase 1, VRK2  -  vaccinia related kinase 2, P2RY4  -  pyrimidinergic receptor p2y, g-protein coupled, 4, MAPK15  -  mitogen-activated protein kinase 15, LRGUK  -  leucine-rich repeats and guanylate kinase domain containing, PEBP1  -  phosphatidylethanolamine binding protein 1, ABCA2  -  atp-binding cassette, sub-family a (abc1), member 2, ABCA3  -  atp-binding cassette, sub-family a (abc1), member 3, ERAL1  -  era-like 12s mitochondrial rrna chaperone 1, ABCB7  -  atp-binding cassette, sub-family b (mdr/tap), member 7, GNAT3  -  guanine nucleotide binding protein, alpha transducing 3, ABCA4  -  atp-binding cassette, sub-family a (abc1), member 4, ABL1  -  c-abl oncogene 1, non-receptor tyrosine kinase, AK5  -  adenylate kinase 5, KIF13A  -  kinesin family member 13a, WEE1  -  wee1 homolog (s. pombe), ACACA  -  acetyl-coa carboxylase alpha, ACACB  -  acetyl-coa carboxylase beta, PAK1  -  p21 protein (cdc42/rac)-activated kinase 1, FIGNL1  -  fidgetin-like 1, PAK2  -  p21 protein (cdc42/rac)-activated kinase 2, MYO18B  -  myosin xviiib, ACADL  -  acyl-coa dehydrogenase, long chain, PAK3  -  p21 protein (cdc42/rac)-activated kinase 3, ACADSB  -  acyl-coa dehydrogenase, short/branched chain, GNL3  -  guanine nucleotide binding protein-like 3 (nucleolar), ACLY  -  atp citrate lyase, ACOX1  -  acyl-coa oxidase 1, palmitoyl, FYN  -  fyn oncogene related to src, fgr, yes, RBKS  -  ribokinase, ABCC4  -  atp-binding cassette, sub-family c (cftr/mrp), member 4, MCCC2  -  methylcrotonoyl-coa carboxylase 2 (beta), ACTA1  -  actin, alpha 1, skeletal muscle, RIPK4  -  receptor-interacting serine-threonine kinase 4, POPDC2  -  popeye domain containing 2, XDH  -  xanthine dehydrogenase, XRCC6  -  x-ray repair complementing defective repair in chinese hamster cells 6, PCCA  -  propionyl coa carboxylase, alpha polypeptide, PCCB  -  propionyl coa carboxylase, beta polypeptide, ACTG2  -  actin, gamma 2, smooth muscle, enteric, PCK1  -  phosphoenolpyruvate carboxykinase 1 (soluble), XRCC2  -  x-ray repair complementing defective repair in chinese hamster cells 2, XRCC3  -  x-ray repair complementing defective repair in chinese hamster cells 3, MRPL39  -  mitochondrial ribosomal protein l39, XRCC5  -  x-ray repair complementing defective repair in chinese hamster cells 5 (double-strand-break rejoining), DUS1L  -  dihydrouridine synthase 1-like (s. cerevisiae), RRAGC  -  ras-related gtp binding c, YES1  -  v-yes-1 yamaguchi sarcoma viral oncogene homolog 1, FN3K  -  fructosamine 3 kinase, SPEG  -  speg complex locus, ACVR1  -  activin a receptor, type i, LATS2  -  large tumor suppressor kinase 2, DNAJA2  -  dnaj (hsp40) homolog, subfamily a, member 2, ACVR2B  -  activin a receptor, type iib, CDK17  -  cyclin-dependent kinase 17, CDK18  -  cyclin-dependent kinase 18, ZAP70  -  zeta-chain (tcr) associated protein kinase 70kda, ABCG4  -  atp-binding cassette, sub-family g (white), member 4, KIF9  -  kinesin family member 9, GALK1  -  galactokinase 1, HAO1  -  hydroxyacid oxidase (glycolate oxidase) 1, GALK2  -  galactokinase 2, RAB19  -  rab19, member ras oncogene family, ADCY1  -  adenylate cyclase 1 (brain), ADCY2  -  adenylate cyclase 2 (brain), ADCY3  -  adenylate cyclase 3, PDE4B  -  phosphodiesterase 4b, camp-specific, ADCY5  -  adenylate cyclase 5, PDE4D  -  phosphodiesterase 4d, camp-specific, ADCY7  -  adenylate cyclase 7, PDE6C  -  phosphodiesterase 6c, cgmp-specific, cone, alpha prime, ADCY8  -  adenylate cyclase 8 (brain), ADCY9  -  adenylate cyclase 9, PDE6H  -  phosphodiesterase 6h, cgmp-specific, cone, gamma, GAPDH  -  glyceraldehyde-3-phosphate dehydrogenase, PDGFRA  -  platelet-derived growth factor receptor, alpha polypeptide, GART  -  phosphoribosylglycinamide formyltransferase, phosphoribosylglycinamide synthetase, phosphoribosylaminoimidazole synthetase, ATL2  -  atlastin gtpase 2, PDGFRB  -  platelet-derived growth factor receptor, beta polypeptide, MOV10L1  -  mov10l1, moloney leukemia virus 10-like 1, homolog (mouse), ABCG5  -  atp-binding cassette, sub-family g (white), member 5, PDK3  -  pyruvate dehydrogenase kinase, isozyme 3, ABCG8  -  atp-binding cassette, sub-family g (white), member 8, PDK4  -  pyruvate dehydrogenase kinase, isozyme 4, PARP1  -  poly (adp-ribose) polymerase 1, AIFM2  -  apoptosis-inducing factor, mitochondrion-associated, 2, SMCR7L  -  smith-magenis syndrome chromosome region, candidate 7-like, IPMK  -  inositol polyphosphate multikinase, ZBTB38  -  zinc finger and btb domain containing 38, FBXO18  -  f-box protein, helicase, 18, GCH1  -  gtp cyclohydrolase 1, ADRBK1  -  adrenergic, beta, receptor kinase 1, ATAD1  -  atpase family, aaa domain containing 1, ADRBK2  -  adrenergic, beta, receptor kinase 2, SIL1  -  sil1 nucleotide exchange factor, PEX1  -  peroxisomal biogenesis factor 1, PEX6  -  peroxisomal biogenesis factor 6, TUBB3  -  tubulin, beta 3 class iii, MPP5  -  membrane protein, palmitoylated 5 (maguk p55 subfamily member 5), RHOF  -  ras homolog family member f (in filopodia), GEM  -  gtp binding protein overexpressed in skeletal muscle, PFKFB2  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 2, PFKFB3  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 3, GFER  -  growth factor, augmenter of liver regeneration, PFKFB4  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 4, NOD1  -  nucleotide-binding oligomerization domain containing 1, PFKL  -  phosphofructokinase, liver, RPS6KC1  -  ribosomal protein s6 kinase, 52kda, polypeptide 1, PFKP  -  phosphofructokinase, platelet, CDK14  -  cyclin-dependent kinase 14, PGD  -  phosphogluconate dehydrogenase, NMNAT3  -  nicotinamide nucleotide adenylyltransferase 3, AK2  -  adenylate kinase 2, AK4  -  adenylate kinase 4, TTLL10  -  tubulin tyrosine ligase-like family, member 10, AKT1  -  v-akt murine thymoma viral oncogene homolog 1, ABCB1  -  atp-binding cassette, sub-family b (mdr/tap), member 1, TESK2  -  testis-specific kinase 2, DDX49  -  dead (asp-glu-ala-asp) box polypeptide 49, ALDH2  -  aldehyde dehydrogenase 2 family (mitochondrial), GK  -  glycerol kinase, MCM9  -  minichromosome maintenance complex component 9, ALDH1A3  -  aldehyde dehydrogenase 1 family, member a3, ABCD2  -  atp-binding cassette, sub-family d (ald), member 2, PHKG1  -  phosphorylase kinase, gamma 1 (muscle), ALK  -  anaplastic lymphoma receptor tyrosine kinase, GCLC  -  glutamate-cysteine ligase, catalytic subunit, ECI2  -  enoyl-coa delta isomerase 2, INO80  -  ino80 complex subunit, MERTK  -  c-mer proto-oncogene tyrosine kinase, ACBD3  -  acyl-coa binding domain containing 3, RERG  -  ras-like, estrogen-regulated, growth inhibitor, GLUD1  -  glutamate dehydrogenase 1, PIK3C2A  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 alpha, PIK3C2B  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 beta, PIK3C2G  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 gamma, PIK3CA  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit alpha, PIK3CB  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit beta, GLUL  -  glutamate-ammonia ligase, PIK3CD  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit delta, PIK3CG  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit gamma, PI4KB  -  phosphatidylinositol 4-kinase, catalytic, beta, UBE2E3  -  ubiquitin-conjugating enzyme e2e 3, GMDS  -  gdp-mannose 4,6-dehydratase, IPPK  -  inositol 1,3,4,5,6-pentakisphosphate 2-kinase, DAP3  -  death associated protein 3, GTPBP2  -  gtp binding protein 2, PIP4K2A  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, alpha, GNA11  -  guanine nucleotide binding protein (g protein), alpha 11 (gq class), GNA12  -  guanine nucleotide binding protein (g protein) alpha 12, GNAI1  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 1, GNAI2  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 2, GPN2  -  gpn-loop gtpase 2, GNAI3  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 3, CNGB3  -  cyclic nucleotide gated channel beta 3, GNAL  -  guanine nucleotide binding protein (g protein), alpha activating activity polypeptide, olfactory type, CERK  -  ceramide kinase, PKM  -  pyruvate kinase, muscle, STK25  -  serine/threonine kinase 25, RAB39A  -  rab39a, member ras oncogene family, DDX31  -  dead (asp-glu-ala-asp) box polypeptide 31, MAPKAPK3  -  mitogen-activated protein kinase-activated protein kinase 3, ANXA6  -  annexin a6, CHORDC1  -  cysteine and histidine-rich domain (chord) containing 1, NMNAT1  -  nicotinamide nucleotide adenylyltransferase 1, AOX1  -  aldehyde oxidase 1, APAF1  -  apoptotic peptidase activating factor 1, DDX17  -  dead (asp-glu-ala-asp) box helicase 17, KCNAB1  -  potassium voltage-gated channel, shaker-related subfamily, beta member 1, MYLK2  -  myosin light chain kinase 2, HYOU1  -  hypoxia up-regulated 1, PAN3  -  pan3 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), STK35  -  serine/threonine kinase 35, PLK1  -  polo-like kinase 1, TPK1  -  thiamin pyrophosphokinase 1, GPD1  -  glycerol-3-phosphate dehydrogenase 1 (soluble), MLH3  -  mutl homolog 3 (e. coli), HSD17B8  -  hydroxysteroid (17-beta) dehydrogenase 8, ATP2C1  -  atpase, ca++ transporting, type 2c, member 1, TRIT1  -  trna isopentenyltransferase 1, ACAD8  -  acyl-coa dehydrogenase family, member 8, NOX1  -  nadph oxidase 1, HELZ2  -  helicase with zinc finger 2, transcriptional coactivator, APRT  -  adenine phosphoribosyltransferase, DCLK3  -  doublecortin-like kinase 3, ERCC6L  -  excision repair cross-complementing rodent repair deficiency, complementation group 6-like, TRPM7  -  transient receptor potential cation channel, subfamily m, member 7, EXOSC10  -  exosome component 10, PMS2  -  pms2 postmeiotic segregation increased 2 (s. cerevisiae), ABCC6  -  atp-binding cassette, sub-family c (cftr/mrp), member 6, CCT7  -  chaperonin containing tcp1, subunit 7 (eta), D2HGDH  -  d-2-hydroxyglutarate dehydrogenase, CCT4  -  chaperonin containing tcp1, subunit 4 (delta), CCT2  -  chaperonin containing tcp1, subunit 2 (beta), ARF4  -  adp-ribosylation factor 4, GFM1  -  g elongation factor, mitochondrial 1, POLA1  -  polymerase (dna directed), alpha 1, catalytic subunit, ARF6  -  adp-ribosylation factor 6, TXNRD2  -  thioredoxin reductase 2, MTHFS  -  5,10-methenyltetrahydrofolate synthetase (5-formyltetrahydrofolate cyclo-ligase), POLE  -  polymerase (dna directed), epsilon, catalytic subunit, ARHGEF5  -  rho guanine nucleotide exchange factor (gef) 5, GRK4  -  g protein-coupled receptor kinase 4, RHOB  -  ras homolog family member b, GRK5  -  g protein-coupled receptor kinase 5, PINK1  -  pten induced putative kinase 1, GRK6  -  g protein-coupled receptor kinase 6, EIF2AK1  -  eukaryotic translation initiation factor 2-alpha kinase 1, RND3  -  rho family gtpase 3, RHOG  -  ras homolog family member g, CDK15  -  cyclin-dependent kinase 15, POLR2D  -  polymerase (rna) ii (dna directed) polypeptide d, ARHGAP5  -  rho gtpase activating protein 5, SHPRH  -  snf2 histone linker phd ring helicase, e3 ubiquitin protein ligase, ARL1  -  adp-ribosylation factor-like 1, SNRK  -  snf related kinase, ARL3  -  adp-ribosylation factor-like 3, SMC1B  -  structural maintenance of chromosomes 1b, POR  -  p450 (cytochrome) oxidoreductase, HSPA12A  -  heat shock 70kda protein 12a, WNK1  -  wnk lysine deficient protein kinase 1, STK36  -  serine/threonine kinase 36, NADK  -  nad kinase, NAV3  -  neuron navigator 3, NDOR1  -  nadph dependent diflavin oxidoreductase 1, NAV2  -  neuron navigator 2, UBE2Z  -  ubiquitin-conjugating enzyme e2z, ABCC10  -  atp-binding cassette, sub-family c (cftr/mrp), member 10, ASNS  -  asparagine synthetase (glutamine-hydrolyzing), CAMKK2  -  calcium/calmodulin-dependent protein kinase kinase 2, beta, ASS1  -  argininosuccinate synthase 1, VPS4A  -  vacuolar protein sorting 4 homolog a (s. cerevisiae), AACS  -  acetoacetyl-coa synthetase, GSK3B  -  glycogen synthase kinase 3 beta, GSPT1  -  g1 to s phase transition 1, LHX4  -  lim homeobox 4, GSR  -  glutathione reductase, GSS  -  glutathione synthetase, DUS2  -  dihydrouridine synthase 2, FARS2  -  phenylalanyl-trna synthetase 2, mitochondrial, RRAGA  -  ras-related gtp binding a, ATM  -  ataxia telangiectasia mutated, MAGI3  -  membrane associated guanylate kinase, ww and pdz domain containing 3, GNA13  -  guanine nucleotide binding protein (g protein), alpha 13, NMRK2  -  nicotinamide riboside kinase 2, ATP1A1  -  atpase, na+/k+ transporting, alpha 1 polypeptide, DPH6  -  diphthamine biosynthesis 6, ATP12A  -  atpase, h+/k+ transporting, nongastric, alpha polypeptide, MSH6  -  muts homolog 6 (e. coli), GTF2F2  -  general transcription factor iif, polypeptide 2, 30kda, RND2  -  rho family gtpase 2, ATP2A3  -  atpase, ca++ transporting, ubiquitous, ATP2B1  -  atpase, ca++ transporting, plasma membrane 1, CCT8  -  chaperonin containing tcp1, subunit 8 (theta), ATP2B4  -  atpase, ca++ transporting, plasma membrane 4, CAMKV  -  cam kinase-like vesicle-associated, GUCY1A2  -  guanylate cyclase 1, soluble, alpha 2, POLQ  -  polymerase (dna directed), theta, TINAG  -  tubulointerstitial nephritis antigen, UCKL1  -  uridine-cytidine kinase 1-like 1, GUCY1A3  -  guanylate cyclase 1, soluble, alpha 3, GUCY1B3  -  guanylate cyclase 1, soluble, beta 3, YME1L1  -  yme1-like 1 atpase, GUCY2C  -  guanylate cyclase 2c (heat stable enterotoxin receptor), GUCY2F  -  guanylate cyclase 2f, retinal, GUK1  -  guanylate kinase 1, MKKS  -  mckusick-kaufman syndrome, ATP6V1A  -  atpase, h+ transporting, lysosomal 70kda, v1 subunit a, SPATA5L1  -  spermatogenesis associated 5-like 1, TTBK2  -  tau tubulin kinase 2, KIF7  -  kinesin family member 7, ATP6AP1  -  atpase, h+ transporting, lysosomal accessory protein 1, ATP7A  -  atpase, cu++ transporting, alpha polypeptide, PRKACB  -  protein kinase, camp-dependent, catalytic, beta, DDX54  -  dead (asp-glu-ala-asp) box polypeptide 54, MAP3K2  -  mitogen-activated protein kinase kinase kinase 2, ATP7B  -  atpase, cu++ transporting, beta polypeptide, RAB30  -  rab30, member ras oncogene family, ULK4  -  unc-51 like kinase 4, ATR  -  ataxia telangiectasia and rad3 related, SYN3  -  synapsin iii, GTPBP6  -  gtp binding protein 6 (putative), ATRX  -  alpha thalassemia/mental retardation syndrome x-linked, PRKAR2A  -  protein kinase, camp-dependent, regulatory, type ii, alpha, KIF1A  -  kinesin family member 1a, ATP9B  -  atpase, class ii, type 9b, PRKAR2B  -  protein kinase, camp-dependent, regulatory, type ii, beta, PRKCA  -  protein kinase c, alpha, PRKCB  -  protein kinase c, beta, PRKCD  -  protein kinase c, delta, PRKCE  -  protein kinase c, epsilon, RPS6KA6  -  ribosomal protein s6 kinase, 90kda, polypeptide 6, PRKCH  -  protein kinase c, eta, HBS1L  -  hbs1-like (s. cerevisiae), PKN2  -  protein kinase n2, PRKCQ  -  protein kinase c, theta, PRKCZ  -  protein kinase c, zeta, PRKDC  -  protein kinase, dna-activated, catalytic polypeptide, PRKG1  -  protein kinase, cgmp-dependent, type i, MAPK1  -  mitogen-activated protein kinase 1, HADH  -  hydroxyacyl-coa dehydrogenase, MAPK6  -  mitogen-activated protein kinase 6, TOR1B  -  torsin family 1, member b (torsin b), WDR77  -  wd repeat domain 77, NEK6  -  nima-related kinase 6, MAPK8  -  mitogen-activated protein kinase 8, MAPK11  -  mitogen-activated protein kinase 11, MAPK9  -  mitogen-activated protein kinase 9, MAPK10  -  mitogen-activated protein kinase 10, MAPK13  -  mitogen-activated protein kinase 13, MAP2K1  -  mitogen-activated protein kinase kinase 1, TOR2A  -  torsin family 2, member a, MAP2K6  -  mitogen-activated protein kinase kinase 6, EIF2AK2  -  eukaryotic translation initiation factor 2-alpha kinase 2, DHX58  -  dexh (asp-glu-x-his) box polypeptide 58, HCK  -  hemopoietic cell kinase, ACOX3  -  acyl-coa oxidase 3, pristanoyl, HSPH1  -  heat shock 105kda/110kda protein 1, CDC7  -  cell division cycle 7, PRODH  -  proline dehydrogenase (oxidase) 1, HCN2  -  hyperpolarization activated cyclic nucleotide-gated potassium channel 2, BCR  -  breakpoint cluster region, BCS1L  -  bc1 (ubiquinol-cytochrome c reductase) synthesis-like, PRPS1  -  phosphoribosyl pyrophosphate synthetase 1, PRPS2  -  phosphoribosyl pyrophosphate synthetase 2, DHRS11  -  dehydrogenase/reductase (sdr family) member 11, FAM114A2  -  family with sequence similarity 114, member a2, ADCK2  -  aarf domain containing kinase 2, BLK  -  b lymphoid tyrosine kinase, DHX57  -  deah (asp-glu-ala-asp/his) box polypeptide 57, BLM  -  bloom syndrome, recq helicase-like, CLPX  -  clpx caseinolytic peptidase x homolog (e. coli), PDE10A  -  phosphodiesterase 10a, HK2  -  hexokinase 2, ENTPD8  -  ectonucleoside triphosphate diphosphohydrolase 8, BMPR1A  -  bone morphogenetic protein receptor, type ia, PSKH1  -  protein serine kinase h1, BMPR2  -  bone morphogenetic protein receptor, type ii (serine/threonine kinase), ME3  -  malic enzyme 3, nadp(+)-dependent, mitochondrial, BRAF  -  v-raf murine sarcoma viral oncogene homolog b, PSMC1  -  proteasome (prosome, macropain) 26s subunit, atpase, 1, PSMC2  -  proteasome (prosome, macropain) 26s subunit, atpase, 2, PSMC3  -  proteasome (prosome, macropain) 26s subunit, atpase, 3, RAB10  -  rab10, member ras oncogene family, PSMC5  -  proteasome (prosome, macropain) 26s subunit, atpase, 5, FIGN  -  fidgetin, HLCS  -  holocarboxylase synthetase (biotin-(proprionyl-coa-carboxylase (atp-hydrolysing)) ligase), PIP4K2B  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, beta, BTK  -  bruton agammaglobulinemia tyrosine kinase, ACBD5  -  acyl-coa binding domain containing 5, PKDCC  -  protein kinase domain containing, cytoplasmic, BUB1  -  bub1 mitotic checkpoint serine/threonine kinase, MTPAP  -  mitochondrial poly(a) polymerase, HMGCL  -  3-hydroxymethyl-3-methylglutaryl-coa lyase, BUB1B  -  bub1 mitotic checkpoint serine/threonine kinase b, ULK1  -  unc-51 like autophagy activating kinase 1, DARS2  -  aspartyl-trna synthetase 2, mitochondrial, PAPOLA  -  poly(a) polymerase alpha, ATP8B3  -  atpase, aminophospholipid transporter, class i, type 8b, member 3, TDRD12  -  tudor domain containing 12, RAD54L  -  rad54-like (s. cerevisiae), PTK2  -  protein tyrosine kinase 2, DYRK3  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 3, DYRK2  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 2, PTK7  -  protein tyrosine kinase 7, TWF1  -  twinfilin actin-binding protein 1, HNRNPU  -  heterogeneous nuclear ribonucleoprotein u (scaffold attachment factor a), MPPED2  -  metallophosphoesterase domain containing 2, NEK9  -  nima-related kinase 9, NADSYN1  -  nad synthetase 1, TTF2  -  transcription termination factor, rna polymerase ii, MYLK3  -  myosin light chain kinase 3, QSOX1  -  quiescin q6 sulfhydryl oxidase 1, CDC42BPA  -  cdc42 binding protein kinase alpha (dmpk-like), KSR2  -  kinase suppressor of ras 2, CACNA1B  -  calcium channel, voltage-dependent, n type, alpha 1b subunit, GATC  -  glutamyl-trna(gln) amidotransferase, subunit c, ASCC3  -  activating signal cointegrator 1 complex subunit 3, MAP4K3  -  mitogen-activated protein kinase kinase kinase kinase 3, RAB32  -  rab32, member ras oncogene family, ETNK2  -  ethanolamine kinase 2, NAT10  -  n-acetyltransferase 10 (gcn5-related), PANK4  -  pantothenate kinase 4, MTG1  -  mitochondrial ribosome-associated gtpase 1, ATP13A3  -  atpase type 13a3, PDIK1L  -  pdlim1 interacting kinase 1 like, UBA6  -  ubiquitin-like modifier activating enzyme 6, SLC27A4  -  solute carrier family 27 (fatty acid transporter), member 4, CARS2  -  cysteinyl-trna synthetase 2, mitochondrial (putative), HPGD  -  hydroxyprostaglandin dehydrogenase 15-(nad), ABCD4  -  atp-binding cassette, sub-family d (ald), member 4, KIF2C  -  kinesin family member 2c, ALDH18A1  -  aldehyde dehydrogenase 18 family, member a1, TLK2  -  tousled-like kinase 2, STRADA  -  ste20-related kinase adaptor alpha, TYW1  -  trna-yw synthesizing protein 1 homolog (s. cerevisiae), CAMK4  -  calcium/calmodulin-dependent protein kinase iv, CAMK2A  -  calcium/calmodulin-dependent protein kinase ii alpha, DGKZ  -  diacylglycerol kinase, zeta, CAMK2D  -  calcium/calmodulin-dependent protein kinase ii delta, DGKE  -  diacylglycerol kinase, epsilon 64kda, HRAS  -  harvey rat sarcoma viral oncogene homolog, CAMK2G  -  calcium/calmodulin-dependent protein kinase ii gamma, DGKD  -  diacylglycerol kinase, delta 130kda, QDPR  -  quinoid dihydropteridine reductase, DDO  -  d-aspartate oxidase, ACSS3  -  acyl-coa synthetase short-chain family member 3, IFT27  -  intraflagellar transport 27 homolog (chlamydomonas), RAB35  -  rab35, member ras oncogene family, RAB3A  -  rab3a, member ras oncogene family, RAB4A  -  rab4a, member ras oncogene family, RAB31  -  rab31, member ras oncogene family, NKIRAS2  -  nfkb inhibitor interacting ras-like 2, AGPS  -  alkylglycerone phosphate synthase, NKIRAS1  -  nfkb inhibitor interacting ras-like 1, CARS  -  cysteinyl-trna synthetase, QRSL1  -  glutaminyl-trna synthase (glutamine-hydrolyzing)-like 1, PIM3  -  pim-3 oncogene, HSD11B1  -  hydroxysteroid (11-beta) dehydrogenase 1, HSD11B2  -  hydroxysteroid (11-beta) dehydrogenase 2, RAC1  -  ras-related c3 botulinum toxin substrate 1 (rho family, small gtp binding protein rac1), RAC2  -  ras-related c3 botulinum toxin substrate 2 (rho family, small gtp binding protein rac2), UBE2W  -  ubiquitin-conjugating enzyme e2w (putative), RAC3  -  ras-related c3 botulinum toxin substrate 3 (rho family, small gtp binding protein rac3), MAPKAPK5  -  mitogen-activated protein kinase-activated protein kinase 5, RHOT1  -  ras homolog family member t1, DNAJA1  -  dnaj (hsp40) homolog, subfamily a, member 1, RAD51  -  rad51 recombinase, RAD51C  -  rad51 paralog c, CAT  -  catalase, AIFM3  -  apoptosis-inducing factor, mitochondrion-associated, 3, PANK3  -  pantothenate kinase 3, HSPA4  -  heat shock 70kda protein 4, CDK10  -  cyclin-dependent kinase 10, RAD51D  -  rad51 paralog d, DDX52  -  dead (asp-glu-ala-asp) box polypeptide 52, RUNX2  -  runt-related transcription factor 2, RAF1  -  v-raf-1 murine leukemia viral oncogene homolog 1, RUNX1  -  runt-related transcription factor 1, HSPA8  -  heat shock 70kda protein 8, HELB  -  helicase (dna) b, HSPA9  -  heat shock 70kda protein 9 (mortalin), PI4K2B  -  phosphatidylinositol 4-kinase type 2 beta, KMO  -  kynurenine 3-monooxygenase (kynurenine 3-hydroxylase), RALA  -  v-ral simian leukemia viral oncogene homolog a (ras related), RALB  -  v-ral simian leukemia viral oncogene homolog b, PDXK  -  pyridoxal (pyridoxine, vitamin b6) kinase, DUS4L  -  dihydrouridine synthase 4-like (s. cerevisiae), RAN  -  ran, member ras oncogene family, MKNK1  -  map kinase interacting serine/threonine kinase 1, DYNC2H1  -  dynein, cytoplasmic 2, heavy chain 1, RASL11A  -  ras-like, family 11, member a, UBE2Q2  -  ubiquitin-conjugating enzyme e2q family member 2, CASK  -  calcium/calmodulin-dependent serine protein kinase (maguk family), MARS2  -  methionyl-trna synthetase 2, mitochondrial, RAPGEF4  -  rap guanine nucleotide exchange factor (gef) 4, RAP1B  -  rap1b, member of ras oncogene family, DHX40  -  deah (asp-glu-ala-his) box polypeptide 40, HSPD1  -  heat shock 60kda protein 1 (chaperonin), STK16  -  serine/threonine kinase 16, NLRX1  -  nlr family member x1, TTL  -  tubulin tyrosine ligase, NT5C1B  -  5'-nucleotidase, cytosolic ib, ABCF3  -  atp-binding cassette, sub-family f (gcn20), member 3, SMC6  -  structural maintenance of chromosomes 6, STEAP4  -  steap family member 4, RUVBL1  -  ruvb-like 1 (e. coli), LSG1  -  large 60s subunit nuclear export gtpase 1, CCT6A  -  chaperonin containing tcp1, subunit 6a (zeta 1), KATNA1  -  katanin p60 (atpase containing) subunit a 1, CHDH  -  choline dehydrogenase, HIBADH  -  3-hydroxyisobutyrate dehydrogenase, LRRK1  -  leucine-rich repeat kinase 1, CDK13  -  cyclin-dependent kinase 13, CIT  -  citron (rho-interacting, serine/threonine kinase 21), NOL9  -  nucleolar protein 9, IARS  -  isoleucyl-trna synthetase, DNAH17  -  dynein, axonemal, heavy chain 17, KIF3A  -  kinesin family member 3a, RECQL  -  recq protein-like (dna helicase q1-like), TBCK  -  tbc1 domain containing kinase, GVINP1  -  gtpase, very large interferon inducible pseudogene 1, ABCB11  -  atp-binding cassette, sub-family b (mdr/tap), member 11, NARS2  -  asparaginyl-trna synthetase 2, mitochondrial (putative), DMC1  -  dna meiotic recombinase 1, UPF1  -  upf1 regulator of nonsense transcripts homolog (yeast), BBS10  -  bardet-biedl syndrome 10, PDE5A  -  phosphodiesterase 5a, cgmp-specific, RET  -  ret proto-oncogene, TTLL7  -  tubulin tyrosine ligase-like family, member 7, BVES  -  blood vessel epicardial substance, REV3L  -  rev3-like, polymerase (dna directed), zeta, catalytic subunit, RFC1  -  replication factor c (activator 1) 1, 145kda, RFC2  -  replication factor c (activator 1) 2, 40kda, STRADB  -  ste20-related kinase adaptor beta, FICD  -  fic domain containing, RFC4  -  replication factor c (activator 1) 4, 37kda, ENTPD1  -  ectonucleoside triphosphate diphosphohydrolase 1, ENTPD2  -  ectonucleoside triphosphate diphosphohydrolase 2, IDE  -  insulin-degrading enzyme, IDH1  -  isocitrate dehydrogenase 1 (nadp+), soluble, ENTPD3  -  ectonucleoside triphosphate diphosphohydrolase 3, RABL2A  -  rab, member of ras oncogene family-like 2a, NEK8  -  nima-related kinase 8, DNAJA4  -  dnaj (hsp40) homolog, subfamily a, member 4, NUDT6  -  nudix (nucleoside diphosphate linked moiety x)-type motif 6, EIF2AK4  -  eukaryotic translation initiation factor 2 alpha kinase 4, ETNK1  -  ethanolamine kinase 1, CHST12  -  carbohydrate (chondroitin 4) sulfotransferase 12, DDX43  -  dead (asp-glu-ala-asp) box polypeptide 43, RHEB  -  ras homolog enriched in brain, RERGL  -  rerg/ras-like, MAP4K5  -  mitogen-activated protein kinase kinase kinase kinase 5, DNAH11  -  dynein, axonemal, heavy chain 11, CDC42  -  cell division cycle 42, ABCC3  -  atp-binding cassette, sub-family c (cftr/mrp), member 3, CHEK2  -  checkpoint kinase 2, DNAH3  -  dynein, axonemal, heavy chain 3, SBK1  -  sh3-binding domain kinase 1, RNASEL  -  ribonuclease l (2',5'-oligoisoadenylate synthetase-dependent), NEK10  -  nima-related kinase 10, DDX20  -  dead (asp-glu-ala-asp) box polypeptide 20, RNGTT  -  rna guanylyltransferase and 5'-phosphatase, UBE2Q1  -  ubiquitin-conjugating enzyme e2q family member 1, CDK3  -  cyclin-dependent kinase 3, BMP2K  -  bmp2 inducible kinase, CDK5  -  cyclin-dependent kinase 5, RIPK1  -  receptor (tnfrsf)-interacting serine-threonine kinase 1, CDK6  -  cyclin-dependent kinase 6, ABCE1  -  atp-binding cassette, sub-family e (oabp), member 1, CDK8  -  cyclin-dependent kinase 8, CDK9  -  cyclin-dependent kinase 9, KIF21A  -  kinesin family member 21a, IGHMBP2  -  immunoglobulin mu binding protein 2, KIF16B  -  kinesin family member 16b, CDX1  -  caudal type homeobox 1, RAB11A  -  rab11a, member ras oncogene family, RIPK2  -  receptor-interacting serine-threonine kinase 2, RIOK3  -  rio kinase 3, ROCK1  -  rho-associated, coiled-coil containing protein kinase 1, CENPE  -  centromere protein e, 312kda, ROS1  -  c-ros oncogene 1 , receptor tyrosine kinase, CHD7  -  chromodomain helicase dna binding protein 7, RP2  -  retinitis pigmentosa 2 (x-linked recessive), UBA5  -  ubiquitin-like modifier activating enzyme 5, RAB20  -  rab20, member ras oncogene family, DCAKD  -  dephospho-coa kinase domain containing, IKBKB  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase beta, CFTR  -  cystic fibrosis transmembrane conductance regulator (atp-binding cassette sub-family c, member 7), SUCLG2  -  succinate-coa ligase, gdp-forming, beta subunit, SUCLG1  -  succinate-coa ligase, alpha subunit, SUCLA2  -  succinate-coa ligase, adp-forming, beta subunit, DDX27  -  dead (asp-glu-ala-asp) box polypeptide 27, GPN1  -  gpn-loop gtpase 1, DDX42  -  dead (asp-glu-ala-asp) box helicase 42, CDKL1  -  cyclin-dependent kinase-like 1 (cdc2-related kinase), MFN1  -  mitofusin 1, CHD2  -  chromodomain helicase dna binding protein 2, SCYL2  -  scy1-like 2 (s. cerevisiae), ATAD5  -  atpase family, aaa domain containing 5, CHD4  -  chromodomain helicase dna binding protein 4, RABL6  -  rab, member ras oncogene family-like 6, TRMU  -  trna 5-methylaminomethyl-2-thiouridylate methyltransferase, TWF2  -  twinfilin actin-binding protein 2, GMPS  -  guanine monphosphate synthase, KIF12  -  kinesin family member 12, CHKA  -  choline kinase alpha, IARS2  -  isoleucyl-trna synthetase 2, mitochondrial, KSR1  -  kinase suppressor of ras 1, MRAS  -  muscle ras oncogene homolog, ABCA13  -  atp-binding cassette, sub-family a (abc1), member 13, HELQ  -  helicase, polq-like, IMPDH2  -  imp (inosine 5'-monophosphate) dehydrogenase 2, TSR1  -  tsr1, 20s rrna accumulation, homolog (s. cerevisiae), HSPA4L  -  heat shock 70kda protein 4-like, N4BP2  -  nedd4 binding protein 2, CKB  -  creatine kinase, brain, RPS6KA2  -  ribosomal protein s6 kinase, 90kda, polypeptide 2, RPS6KA3  -  ribosomal protein s6 kinase, 90kda, polypeptide 3, RPS6KB1  -  ribosomal protein s6 kinase, 70kda, polypeptide 1, HHAT  -  hedgehog acyltransferase, RPS6KB2  -  ribosomal protein s6 kinase, 70kda, polypeptide 2, TXNRD3  -  thioredoxin reductase 3, DDX18  -  dead (asp-glu-ala-asp) box polypeptide 18, AAK1  -  ap2 associated kinase 1, CHFR  -  checkpoint with forkhead and ring finger domains, e3 ubiquitin protein ligase, LMTK2  -  lemur tyrosine kinase 2, AGK  -  acylglycerol kinase, IRAK2  -  interleukin-1 receptor-associated kinase 2, CLCN3  -  chloride channel, voltage-sensitive 3, CLCN4  -  chloride channel, voltage-sensitive 4, PRPF4B  -  prp4 pre-mrna processing factor 4 homolog b (yeast), CLCN5  -  chloride channel, voltage-sensitive 5, CLCN6  -  chloride channel, voltage-sensitive 6, CLCN7  -  chloride channel, voltage-sensitive 7, DHX32  -  deah (asp-glu-ala-his) box polypeptide 32, CLK2  -  cdc-like kinase 2, FOXRED2  -  fad-dependent oxidoreductase domain containing 2, CLK3  -  cdc-like kinase 3, RRM1  -  ribonucleotide reductase m1, MORC2  -  morc family cw-type zinc finger 2, PANK2  -  pantothenate kinase 2, MCMDC2  -  minichromosome maintenance domain containing 2, EPHA6  -  eph receptor a6, ITK  -  il2-inducible t-cell kinase, ABCC2  -  atp-binding cassette, sub-family c (cftr/mrp), member 2, DHX30  -  deah (asp-glu-ala-his) box helicase 30, ITPK1  -  inositol-tetrakisphosphate 1-kinase, ITPKA  -  inositol-trisphosphate 3-kinase a, ITPKB  -  inositol-trisphosphate 3-kinase b, AK8  -  adenylate kinase 8, CNGB1  -  cyclic nucleotide gated channel beta 1, ARL14  -  adp-ribosylation factor-like 14, RABL3  -  rab, member of ras oncogene family-like 3, IVD  -  isovaleryl-coa dehydrogenase, PIF1  -  pif1 5'-to-3' dna helicase, CNGA2  -  cyclic nucleotide gated channel alpha 2, MAP3K19  -  mitogen-activated protein kinase kinase kinase 19, TTLL11  -  tubulin tyrosine ligase-like family, member 11, JAK1  -  janus kinase 1, CNP  -  2',3'-cyclic nucleotide 3' phosphodiesterase, SEPHS1  -  selenophosphate synthetase 1, KALRN  -  kalirin, rhogef kinase, VPS11  -  vacuolar protein sorting 11 homolog (s. cerevisiae), CDKL2  -  cyclin-dependent kinase-like 2 (cdc2-related kinase), ACSM3  -  acyl-coa synthetase medium-chain family member 3, MAPK12  -  mitogen-activated protein kinase 12, UXS1  -  udp-glucuronate decarboxylase 1, MAP3K14  -  mitogen-activated protein kinase kinase kinase 14, IYD  -  iodotyrosine deiodinase, BRSK2  -  br serine/threonine kinase 2, CCT5  -  chaperonin containing tcp1, subunit 5 (epsilon), BAZ1B  -  bromodomain adjacent to zinc finger domain, 1b, UBA3  -  ubiquitin-like modifier activating enzyme 3, MYO19  -  myosin xix, KCNJ1  -  potassium inwardly-rectifying channel, subfamily j, member 1, BTAF1  -  btaf1 rna polymerase ii, b-tfiid transcription factor-associated, 170kda, NT5C2  -  5'-nucleotidase, cytosolic ii, SCN8A  -  sodium channel, voltage gated, type viii, alpha subunit, KCNJ8  -  potassium inwardly-rectifying channel, subfamily j, member 8, HKDC1  -  hexokinase domain containing 1, NUGGC  -  nuclear gtpase, germinal center associated, CHD9  -  chromodomain helicase dna binding protein 9, MB21D1  -  mab-21 domain containing 1, SCP2  -  sterol carrier protein 2, NT5C3B  -  5'-nucleotidase, cytosolic iiib, SRL  -  sarcalumenin, PAPSS1  -  3'-phosphoadenosine 5'-phosphosulfate synthase 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MAP3K6  -  mitogen-activated protein kinase kinase kinase 6, ALPK1  -  alpha-kinase 1, MAP3K8  -  mitogen-activated protein kinase kinase kinase 8, RAB21  -  rab21, member ras oncogene family, ACSS2  -  acyl-coa synthetase short-chain family member 2, STK38L  -  serine/threonine kinase 38 like, KDR  -  kinase insert domain receptor (a type iii receptor tyrosine kinase), KIF2A  -  kinesin heavy chain member 2a, KIF3C  -  kinesin family member 3c, LANCL2  -  lanc lantibiotic synthetase component c-like 2 (bacterial), KIF5B  -  kinesin family member 5b, KIF5C  -  kinesin family member 5c, KIFC3  -  kinesin family member c3, MYO16  -  myosin xvi, DNAJA3  -  dnaj (hsp40) homolog, subfamily a, member 3, MAST3  -  microtubule associated serine/threonine kinase 3, MYO5C  -  myosin vc, MAP3K15  -  mitogen-activated protein kinase kinase kinase 15, KIT  -  v-kit hardy-zuckerman 4 feline sarcoma viral oncogene homolog, SDHA  -  succinate dehydrogenase complex, subunit a, flavoprotein (fp), ARL11  -  adp-ribosylation factor-like 11, TNIK  -  traf2 and nck interacting kinase, KIF21B  -  kinesin family member 21b, LATS1  -  large tumor suppressor kinase 1, SMG1  -  smg1 phosphatidylinositol 3-kinase-related kinase, CPS1  -  carbamoyl-phosphate synthase 1, mitochondrial, DGKH  -  diacylglycerol kinase, eta, KIF11  -  kinesin family member 11, NMNAT2  -  nicotinamide nucleotide adenylyltransferase 2, KIF25  -  kinesin family member 25, SMC3  -  structural maintenance of chromosomes 3, P2RX6  -  purinergic receptor p2x, ligand-gated ion channel, 6, SETX  -  senataxin, GTPBP8  -  gtp-binding protein 8 (putative), AIFM1  -  apoptosis-inducing factor, mitochondrion-associated, 1, KRAS  -  kirsten rat sarcoma viral oncogene homolog, UBE2T  -  ubiquitin-conjugating enzyme e2t (putative), SWAP70  -  swap switching b-cell complex 70kda subunit, VWA8  -  von willebrand factor a domain containing 8, COASY  -  coa synthase, CRY1  -  cryptochrome 1 (photolyase-like), TTLL5  -  tubulin tyrosine ligase-like family, member 5, CRY2  -  cryptochrome 2 (photolyase-like), KIF1B  -  kinesin family member 1b, TBK1  -  tank-binding kinase 1, DGKI  -  diacylglycerol kinase, iota, SGK1  -  serum/glucocorticoid regulated kinase 1, ACAD10  -  acyl-coa dehydrogenase family, member 10, CUL9  -  cullin 9, RAB39B  -  rab39b, member ras oncogene family, MAP3K13  -  mitogen-activated protein kinase kinase kinase 13, CRYM  -  crystallin, mu, CRYZ  -  crystallin, zeta (quinone reductase), UHRF1  -  ubiquitin-like with phd and ring finger domains 1, MAPK14  -  mitogen-activated protein kinase 14, ATP10B  -  atpase, class v, type 10b, AARSD1  -  alanyl-trna synthetase domain containing 1, RAD54L2  -  rad54-like 2 (s. cerevisiae), TEX14  -  testis expressed 14, CSK  -  c-src tyrosine kinase, MAST2  -  microtubule associated serine/threonine kinase 2, DCLK1  -  doublecortin-like kinase 1, CSNK1A1  -  casein kinase 1, alpha 1, HSPA12B  -  heat shock 70kd protein 12b, OLA1  -  obg-like atpase 1, CSNK1E  -  casein kinase 1, epsilon, CSNK1G2  -  casein kinase 1, gamma 2, STK31  -  serine/threonine kinase 31, CSNK2A1  -  casein kinase 2, alpha 1 polypeptide, DNAH7  -  dynein, axonemal, heavy chain 7, LBR  -  lamin b receptor, LDHA  -  lactate dehydrogenase a, AGAP1  -  arfgap with gtpase domain, ankyrin repeat and ph domain 1, MAGI1  -  membrane associated guanylate kinase, ww and pdz domain containing 1, AGAP3  -  arfgap with gtpase domain, ankyrin repeat and ph domain 3, TTLL12  -  tubulin tyrosine ligase-like family, member 12, GPD1L  -  glycerol-3-phosphate dehydrogenase 1-like, GNL2  -  guanine nucleotide binding protein-like 2 (nucleolar), PASK  -  pas domain containing serine/threonine kinase, GPSM2  -  g-protein signaling modulator 2, CTBP1  -  c-terminal binding protein 1, CTBP2  -  c-terminal binding protein 2, EEF2K  -  eukaryotic elongation factor-2 kinase, HFM1  -  hfm1, atp-dependent dna helicase homolog (s. cerevisiae), DHRS3  -  dehydrogenase/reductase (sdr family) member 3, RPS6KA5  -  ribosomal protein s6 kinase, 90kda, polypeptide 5, MFHAS1  -  malignant fibrous histiocytoma amplified sequence 1, LIG3  -  ligase iii, dna, atp-dependent, LIG4  -  ligase iv, dna, atp-dependent, TTLL9  -  tubulin tyrosine ligase-like family, member 9, MAPKAPK2  -  mitogen-activated protein kinase-activated protein kinase 2, MDN1  -  mdn1, midasin homolog (yeast), NME7  -  nme/nm23 family member 7, STK17A  -  serine/threonine kinase 17a, LIMK2  -  lim domain kinase 2, CTPS2  -  ctp synthase 2, ATP11B  -  atpase, class vi, type 11b, IP6K3  -  inositol hexakisphosphate kinase 3, ACSBG1  -  acyl-coa synthetase bubblegum family member 1, ATP11C  -  atpase, class vi, type 11c, RHOBTB2  -  rho-related btb domain containing 2, SBK2  -  sh3-binding domain kinase family, member 2, BBS12  -  bardet-biedl syndrome 12, DCLK2  -  doublecortin-like kinase 2, NRBP1  -  nuclear receptor binding protein 1, SIK2  -  salt-inducible kinase 2, SLC19A1  -  solute carrier family 19 (folate transporter), member 1, TRIP13  -  thyroid hormone receptor interactor 13, ATP11A  -  atpase, class vi, type 11a, SLC22A4  -  solute carrier family 22 (organic cation/zwitterion transporter), member 4, EFTUD2  -  elongation factor tu gtp binding domain containing 2, LONP1  -  lon peptidase 1, mitochondrial, WRNIP1  -  werner helicase interacting protein 1, RAB28  -  rab28, member ras oncogene family, RAB9A  -  rab9a, member ras oncogene family, DGKB  -  diacylglycerol kinase, beta 90kda, KIF3B  -  kinesin family member 3b, EHD4  -  eh-domain containing 4, KIF13B  -  kinesin family member 13b, EHD3  -  eh-domain containing 3, ACSL6  -  acyl-coa synthetase long-chain family member 6, PIK3R4  -  phosphoinositide-3-kinase, regulatory subunit 4, SMARCAD1  -  swi/snf-related, matrix-associated actin-dependent regulator of chromatin, subfamily a, containing dead/h box 1, DHX33  -  deah (asp-glu-ala-his) box polypeptide 33, MCCC1  -  methylcrotonoyl-coa carboxylase 1 (alpha), NMUR2  -  neuromedin u receptor 2, ZBTB21  -  zinc finger and btb domain containing 21, PAK6  -  p21 protein (cdc42/rac)-activated kinase 6, SMARCAL1  -  swi/snf related, matrix associated, actin dependent regulator of chromatin, subfamily a-like 1, SOAT1  -  sterol o-acyltransferase 1, DUS3L  -  dihydrouridine synthase 3-like (s. cerevisiae), RECQL5  -  recq protein-like 5, DHX36  -  deah (asp-glu-ala-his) box polypeptide 36, DDX51  -  dead (asp-glu-ala-asp) box polypeptide 51, MAK  -  male germ cell-associated kinase, NOX4  -  nadph oxidase 4, SORD  -  sorbitol dehydrogenase, LRRK2  -  leucine-rich repeat kinase 2, MAOB  -  monoamine oxidase b, SMCHD1  -  structural maintenance of chromosomes flexible hinge domain containing 1, DDX1  -  dead (asp-glu-ala-asp) box helicase 1, PRTFDC1  -  phosphoribosyl transferase domain containing 1, DDX3X  -  dead (asp-glu-ala-asp) box helicase 3, x-linked, NT5M  -  5',3'-nucleotidase, mitochondrial, DDX5  -  dead (asp-glu-ala-asp) box helicase 5, MARK1  -  map/microtubule affinity-regulating kinase 1, DHX8  -  deah (asp-glu-ala-his) box polypeptide 8, MARK3  -  map/microtubule affinity-regulating kinase 3, SPAG1  -  sperm associated antigen 1, DDX10  -  dead (asp-glu-ala-asp) box polypeptide 10, MAT1A  -  methionine adenosyltransferase i, alpha, DDX11  -  dead/h (asp-glu-ala-asp/his) box helicase 11, DHX15  -  deah (asp-glu-ala-his) box helicase 15, ABCG2  -  atp-binding cassette, sub-family g (white), member 2, DECR1  -  2,4-dienoyl coa reductase 1, mitochondrial, PNPLA8  -  patatin-like phospholipase domain containing 8, SPAST  -  spastin, FAM20C  -  family with sequence similarity 20, member c, SPG7  -  spastic paraplegia 7 (pure and complicated autosomal recessive), ITM2B  -  integral membrane protein 2b, SPR  -  sepiapterin reductase (7,8-dihydrobiopterin:nadp+ oxidoreductase), KIF15  -  kinesin family member 15, EIF2AK3  -  eukaryotic translation initiation factor 2-alpha kinase 3, SIK3  -  sik family kinase 3, MCM2  -  minichromosome maintenance complex component 2, MCM3  -  minichromosome maintenance complex component 3, MCM4  -  minichromosome maintenance complex component 4, MCM5  -  minichromosome maintenance complex component 5, LARS2  -  leucyl-trna synthetase 2, mitochondrial, PIP5K1C  -  phosphatidylinositol-4-phosphate 5-kinase, type i, gamma, AKAP7  -  a kinase (prka) anchor protein 7, ATP13A2  -  atpase type 13a2, DHCR24  -  24-dehydrocholesterol reductase, SQLE  -  squalene epoxidase, SRC  -  v-src avian sarcoma (schmidt-ruppin a-2) viral oncogene homolog, SRD5A1  -  steroid-5-alpha-reductase, alpha polypeptide 1 (3-oxo-5 alpha-steroid delta 4-dehydrogenase alpha 1), DICER1  -  dicer 1, ribonuclease type iii, CYB5R3  -  cytochrome b5 reductase 3, ROCK2  -  rho-associated, coiled-coil containing protein kinase 2, SIRT4  -  sirtuin 4, SIRT3  -  sirtuin 3, TDRD9  -  tudor domain containing 9, SRMS  -  src-related kinase lacking c-terminal regulatory tyrosine and n-terminal myristylation sites, RARS2  -  arginyl-trna synthetase 2, mitochondrial, AK7  -  adenylate kinase 7, SRP54  -  signal recognition particle 54kda, DLD  -  dihydrolipoamide dehydrogenase, PGS1  -  phosphatidylglycerophosphate synthase 1, SRPK1  -  srsf protein kinase 1, SRPK2  -  srsf protein kinase 2, KIF23  -  kinesin family member 23, RHOV  -  ras homolog family member v, MAP3K3  -  mitogen-activated protein kinase kinase kinase 3, MAP3K4  -  mitogen-activated protein kinase kinase kinase 4, DDX24  -  dead (asp-glu-ala-asp) box helicase 24, RAB8A  -  rab8a, member ras oncogene family, DNM1  -  dynamin 1, DNA2  -  dna replication helicase/nuclease 2, MET  -  met proto-oncogene, DNAH5  -  dynein, axonemal, heavy chain 5, DNAH8  -  dynein, axonemal, heavy chain 8, DNAH9  -  dynein, axonemal, heavy chain 9, ABCB10  -  atp-binding cassette, sub-family b (mdr/tap), member 10, ABCB9  -  atp-binding cassette, sub-family b (mdr/tap), member 9, VPS4B  -  vacuolar protein sorting 4 homolog b (s. cerevisiae), DYNC1H1  -  dynein, cytoplasmic 1, heavy chain 1, ABCA6  -  atp-binding cassette, sub-family a (abc1), member 6, ST13  -  suppression of tumorigenicity 13 (colon carcinoma) (hsp70 interacting protein), ABCA5  -  atp-binding cassette, sub-family a (abc1), member 5, BAG5  -  bcl2-associated athanogene 5, DYNC1LI2  -  dynein, cytoplasmic 1, light intermediate chain 2, COQ6  -  coenzyme q6 monooxygenase, BAG4  -  bcl2-associated athanogene 4, BAG3  -  bcl2-associated athanogene 3, CAMK1D  -  calcium/calmodulin-dependent protein kinase id, TP53I3  -  tumor protein p53 inducible protein 3, CIITA  -  class ii, major histocompatibility complex, transactivator, RAB37  -  rab37, member ras oncogene family, NUAK2  -  nuak family, snf1-like kinase, 2, MMAB  -  methylmalonic aciduria (cobalamin deficiency) cblb type, HSPA13  -  heat shock protein 70kda family, member 13, NEK4  -  nima-related kinase 4, STK3  -  serine/threonine kinase 3, STK4  -  serine/threonine kinase 4, DPYD  -  dihydropyrimidine dehydrogenase, CDKL5  -  cyclin-dependent kinase-like 5, STK10  -  serine/threonine kinase 10, STK11  -  serine/threonine kinase 11, CHD1L  -  chromodomain helicase dna binding protein 1-like, ADCK1  -  aarf domain containing kinase 1, PAK7  -  p21 protein (cdc42/rac)-activated kinase 7, MKI67  -  antigen identified by monoclonal antibody ki-67, SCYL3  -  scy1-like 3 (s. cerevisiae), H6PD  -  hexose-6-phosphate dehydrogenase (glucose 1-dehydrogenase), GTPBP1  -  gtp binding protein 1, MLH1  -  mutl homolog 1, colon cancer, nonpolyposis type 2 (e. coli), MAP3K9  -  mitogen-activated protein kinase kinase kinase 9, DRG2  -  developmentally regulated gtp binding protein 2, ATL1  -  atlastin gtpase 1, KIF20B  -  kinesin family member 20b, SUPV3L1  -  suppressor of var1, 3-like 1 (s. cerevisiae), CAMK1G  -  calcium/calmodulin-dependent protein kinase ig, EARS2  -  glutamyl-trna synthetase 2, mitochondrial, ABCC8  -  atp-binding cassette, sub-family c (cftr/mrp), member 8, DNAH10  -  dynein, axonemal, heavy chain 10, ACTR3B  -  arp3 actin-related protein 3 homolog b (yeast), KIF18A  -  kinesin family member 18a, CRYL1  -  crystallin, lambda 1, RAB36  -  rab36, member ras oncogene family, TNNI3K  -  tnni3 interacting kinase, SYN2  -  synapsin ii, ATP10A  -  atpase, class v, type 10a, ATP8B2  -  atpase, aminophospholipid transporter, class i, type 8b, member 2, ATP10D  -  atpase, class v, type 10d, MOCS1  -  molybdenum cofactor synthesis 1, RASD2  -  rasd family, member 2, ABCG1  -  atp-binding cassette, sub-family g (white), member 1, DYRK1A  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 1a, TRNT1  -  trna nucleotidyl transferase, cca-adding, 1, MOS  -  v-mos moloney murine sarcoma viral oncogene homolog, MOV10  -  mov10, moloney leukemia virus 10, homolog (mouse), GTPBP4  -  gtp binding protein 4, TAF1  -  taf1 rna polymerase ii, tata box binding protein (tbp)-associated factor, 250kda, ABCC1  -  atp-binding cassette, sub-family c (cftr/mrp), member 1, MLKL  -  mixed lineage kinase domain-like, IKBKE  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase epsilon, DDX59  -  dead (asp-glu-ala-asp) box polypeptide 59, ACSF3  -  acyl-coa synthetase family member 3, MICAL2  -  microtubule associated monooxygenase, calponin and lim domain containing 2, MAP3K7  -  mitogen-activated protein kinase kinase kinase 7, NLRC3  -  nlr family, card domain containing 3, TTLL4  -  tubulin tyrosine ligase-like family, member 4, UCK1  -  uridine-cytidine kinase 1, RHOJ  -  ras homolog family member j, IRAK4  -  interleukin-1 receptor-associated kinase 4, CLK4  -  cdc-like kinase 4, EEF1A2  -  eukaryotic translation elongation factor 1 alpha 2, EIF5B  -  eukaryotic translation initiation factor 5b, DYNC1LI1  -  dynein, cytoplasmic 1, light intermediate chain 1, RAB22A  -  rab22a, member ras oncogene family, PPIP5K1  -  diphosphoinositol pentakisphosphate kinase 1, SPO11  -  spo11 meiotic protein covalently bound to dsb, MYO1B  -  myosin ib, RAPGEF2  -  rap guanine nucleotide exchange factor (gef) 2, MYO15A  -  myosin xva, MSH2  -  muts homolog 2, colon cancer, nonpolyposis type 1 (e. coli), MSH4  -  muts homolog 4 (e. coli), TUBD1  -  tubulin, delta 1, MSH5  -  muts homolog 5 (e. coli), HAO2  -  hydroxyacid oxidase 2 (long chain), HSPA14  -  heat shock 70kda protein 14, EIF2S3  -  eukaryotic translation initiation factor 2, subunit 3 gamma, 52kda, GPN3  -  gpn-loop gtpase 3, EPHA2  -  eph receptor a2, ULK2  -  unc-51 like autophagy activating kinase 2, TCP1  -  t-complex 1, AQR  -  aquarius homolog (mouse), EIF4G1  -  eukaryotic translation initiation factor 4 gamma, 1, EIF5  -  eukaryotic translation initiation factor 5, NIN  -  ninein (gsk3b interacting protein), APLF  -  aprataxin and pnkp like factor, DDX47  -  dead (asp-glu-ala-asp) box polypeptide 47, RIOK1  -  rio kinase 1, PIKFYVE  -  phosphoinositide kinase, fyve finger containing, SGK3  -  serum/glucocorticoid regulated kinase family, member 3, VPRBP  -  vpr (hiv-1) binding protein, RIMKLB  -  ribosomal modification protein rimk-like family member b, LONP2  -  lon peptidase 2, peroxisomal, ARL13B  -  adp-ribosylation factor-like 13b, AARS2  -  alanyl-trna synthetase 2, mitochondrial, MTHFD1  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1, methenyltetrahydrofolate cyclohydrolase, formyltetrahydrofolate synthetase, VRK3  -  vaccinia related kinase 3, MTHFR  -  methylenetetrahydrofolate reductase (nad(p)h), MTIF2  -  mitochondrial translational initiation factor 2, SLK  -  ste20-like kinase, STARD9  -  star-related lipid transfer (start) domain containing 9, SHPK  -  sedoheptulokinase, WEE2  -  wee1 homolog 2 (s. pombe), NT5C3A  -  5'-nucleotidase, cytosolic iiia, TDG  -  thymine-dna glycosylase, MTRR  -  5-methyltetrahydrofolate-homocysteine methyltransferase reductase, ALPK3  -  alpha-kinase 3, EPB42  -  erythrocyte membrane protein band 4.2, RAB12  -  rab12, member ras oncogene family, EIF4A3  -  eukaryotic translation initiation factor 4a3, EPHA1  -  eph receptor a1, EPHA3  -  eph receptor a3, EPHA4  -  eph receptor a4, KIAA0232  -  kiaa0232, EPHA5  -  eph receptor a5, EPHA7  -  eph receptor a7, DNAJC27  -  dnaj (hsp40) homolog, subfamily c, member 27, EPHA8  -  eph receptor a8, TESK1  -  testis-specific kinase 1, TAOK1  -  tao kinase 1, EPHB1  -  eph receptor b1, EPHB2  -  eph receptor b2, MICAL3  -  microtubule associated monooxygenase, calponin and lim domain containing 3, EPHB3  -  eph receptor b3, DHX38  -  deah (asp-glu-ala-his) box polypeptide 38, RASL12  -  ras-like, family 12, BMS1  -  bms1 ribosome biogenesis factor, EPRS  -  glutamyl-prolyl-trna synthetase, GSG2  -  germ cell associated 2 (haspin), ERBB4  -  v-erb-b2 avian erythroblastic leukemia viral oncogene homolog 4, STK40  -  serine/threonine kinase 40, KIF4A  -  kinesin family member 4a, MVK  -  mevalonate kinase, MX1  -  myxovirus (influenza virus) resistance 1, interferon-inducible protein p78 (mouse), IP6K1  -  inositol hexakisphosphate kinase 1, ERCC3  -  excision repair cross-complementing rodent repair deficiency, complementation group 3, ERCC6  -  excision repair cross-complementing rodent repair deficiency, complementation group 6, TSSK1B  -  testis-specific serine kinase 1b, TGFBR2  -  transforming growth factor, beta receptor ii (70/80kda), STK32A  -  serine/threonine kinase 32a, ERN1  -  endoplasmic reticulum to nucleus signaling 1, BRIP1  -  brca1 interacting protein c-terminal helicase 1, MYH4  -  myosin, heavy chain 4, skeletal muscle, DSTYK  -  dual serine/threonine and tyrosine protein kinase, MYH6  -  myosin, heavy chain 6, cardiac muscle, alpha, MELK  -  maternal embryonic leucine zipper kinase, ETFA  -  electron-transfer-flavoprotein, alpha polypeptide, OBSCN  -  obscurin, cytoskeletal calmodulin and titin-interacting rhogef, MYH9  -  myosin, heavy chain 9, non-muscle, ETFDH  -  electron-transferring-flavoprotein dehydrogenase, MYH10  -  myosin, heavy chain 10, non-muscle, MYH11  -  myosin, heavy chain 11, smooth muscle, RAD54B  -  rad54 homolog b (s. cerevisiae), KATNAL1  -  katanin p60 subunit a-like 1, MYLK  -  myosin light chain kinase, TAOK3  -  tao kinase 3, MYO1C  -  myosin ic, MYO1D  -  myosin id, TK2  -  thymidine kinase 2, mitochondrial, MYO1E  -  myosin ie, MYO5A  -  myosin va (heavy chain 12, myoxin), MYO6  -  myosin vi, MYO7A  -  myosin viia, MYO9A  -  myosin ixa, TTLL1  -  tubulin tyrosine ligase-like family, member 1, EP400  -  e1a binding protein p400, CHST15  -  carbohydrate (n-acetylgalactosamine 4-sulfate 6-o) sulfotransferase 15, MYO9B  -  myosin ixb, MYO10  -  myosin x, MYH7B  -  myosin, heavy chain 7b, cardiac muscle, beta, DHX37  -  deah (asp-glu-ala-his) box polypeptide 37, ZRANB3  -  zinc finger, ran-binding domain containing 3, MTO1  -  mitochondrial trna translation optimization 1, HIPK1  -  homeodomain interacting protein kinase 1, DDX46  -  dead (asp-glu-ala-asp) box polypeptide 46, ARL6  -  adp-ribosylation factor-like 6, MYLK4  -  myosin light chain kinase family, member 4, RHOBTB1  -  rho-related btb domain containing 1, PRKAG2  -  protein kinase, amp-activated, gamma 2 non-catalytic subunit, ACAD11  -  acyl-coa dehydrogenase family, member 11, ACSL1  -  acyl-coa synthetase long-chain family member 1, DDX41  -  dead (asp-glu-ala-asp) box polypeptide 41, ACSL3  -  acyl-coa synthetase long-chain family member 3, ACSL4  -  acyl-coa synthetase long-chain family member 4, MYO18A  -  myosin xviiia, PTK2B  -  protein tyrosine kinase 2 beta, DDX55  -  dead (asp-glu-ala-asp) box polypeptide 55, FANCM  -  fanconi anemia, complementation group m, IP6K2  -  inositol hexakisphosphate kinase 2, ATP2C2  -  atpase, ca++ transporting, type 2c, member 2, NRBP2  -  nuclear receptor binding protein 2, FAM20B  -  family with sequence similarity 20, member b, NLRC5  -  nlr family, card domain containing 5, TOP1  -  topoisomerase (dna) i, TOP2A  -  topoisomerase (dna) ii alpha 170kda, MFN2  -  mitofusin 2, TOP2B  -  topoisomerase (dna) ii beta 180kda, KIF14  -  kinesin family member 14, CHD6  -  chromodomain helicase dna binding protein 6, HELZ  -  helicase with zinc finger, RTCB  -  rna 2',3'-cyclic phosphate and 5'-oh ligase, MTHFD1L  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1-like, XYLB  -  xylulokinase homolog (h. influenzae), DRG1  -  developmentally regulated gtp binding protein 1, CRYZL1  -  crystallin, zeta (quinone reductase)-like 1, CMPK2  -  cytidine monophosphate (ump-cmp) kinase 2, mitochondrial, LARS  -  leucyl-trna synthetase, CXXC5  -  cxxc finger protein 5, NEK1  -  nima-related kinase 1, NEK2  -  nima-related kinase 2, HSP90B1  -  heat shock protein 90kda beta (grp94), member 1, NEK3  -  nima-related kinase 3, RAB40C  -  rab40c, member ras oncogene family, SAMHD1  -  sam domain and hd domain 1, THRAP3  -  thyroid hormone receptor associated protein 3, RAP2C  -  rap2c, member of ras oncogene family, SIRT6  -  sirtuin 6, TRIO  -  trio rho guanine nucleotide exchange factor, FGFR1  -  fibroblast growth factor receptor 1, FGFR3  -  fibroblast growth factor receptor 3, ACVR1C  -  activin a receptor, type ic, CAMKK1  -  calcium/calmodulin-dependent protein kinase kinase 1, alpha, FGFR2  -  fibroblast growth factor receptor 2, FGFR4  -  fibroblast growth factor receptor 4, FHIT  -  fragile histidine triad, PARS2  -  prolyl-trna synthetase 2, mitochondrial (putative), MMACHC  -  methylmalonic aciduria (cobalamin deficiency) cblc type, with homocystinuria, AKT3  -  v-akt murine thymoma viral oncogene homolog 3, CKMT1A  -  creatine kinase, mitochondrial 1a, FKBP1B  -  fk506 binding protein 1b, 12.6 kda, DNAH1  -  dynein, axonemal, heavy chain 1, NOA1  -  nitric oxide associated 1, RHOU  -  ras homolog family member u, ULK3  -  unc-51 like kinase 3, ZBTB33  -  zinc finger and btb domain containing 33, NEK5  -  nima-related kinase 5, NTPCR  -  nucleoside-triphosphatase, cancer-related, NME4  -  nme/nm23 nucleoside diphosphate kinase 4, NQO2  -  nad(p)h dehydrogenase, quinone 2, ACOT11  -  acyl-coa thioesterase 11, NOS1  -  nitric oxide synthase 1 (neuronal), NOS2  -  nitric oxide synthase 2, inducible, FLT1  -  fms-related tyrosine kinase 1, FLT3  -  fms-related tyrosine kinase 3, RASD1  -  ras, dexamethasone-induced 1, FLT4  -  fms-related tyrosine kinase 4, SMC4  -  structural maintenance of chromosomes 4, RRAGD  -  ras-related gtp binding d, TTK  -  ttk protein kinase, TTN  -  titin, FMO3  -  flavin containing monooxygenase 3, UBA2  -  ubiquitin-like modifier activating enzyme 2, GRK7  -  g protein-coupled receptor kinase 7, FMO5  -  flavin containing monooxygenase 5, FARSB  -  phenylalanyl-trna synthetase, beta subunit, ABCC5  -  atp-binding cassette, sub-family c (cftr/mrp), member 5, ABCB6  -  atp-binding cassette, sub-family b (mdr/tap), member 6, DNM1L  -  dynamin 1-like, GIMD1  -  gimap family p-loop ntpase domain containing 1, TUBG1  -  tubulin, gamma 1, DNM3  -  dynamin 3, GLYCTK  -  glycerate kinase, HACL1  -  2-hydroxyacyl-coa lyase 1, CYB5R2  -  cytochrome b5 reductase 2, NLK  -  nemo-like kinase, ACSL5  -  acyl-coa synthetase long-chain family member 5, ATP9A  -  atpase, class ii, type 9a, NPR2  -  natriuretic peptide receptor b/guanylate cyclase b (atrionatriuretic peptide receptor b), TYRO3  -  tyro3 protein tyrosine kinase, RAB23  -  rab23, member ras oncogene family, TRPV4  -  transient receptor potential cation channel, subfamily v, member 4, CMPK1  -  cytidine monophosphate (ump-cmp) kinase 1, cytosolic, AK9  -  adenylate kinase 9, UBA1  -  ubiquitin-like modifier activating enzyme 1, ACTR3  -  arp3 actin-related protein 3 homolog (yeast), ACTR2  -  arp2 actin-related protein 2 homolog (yeast), UBE2B  -  ubiquitin-conjugating enzyme e2b, AASDH  -  aminoadipate-semialdehyde dehydrogenase, NSF  -  n-ethylmaleimide-sensitive factor, UBE2D2  -  ubiquitin-conjugating enzyme e2d 2, NT5E  -  5'-nucleotidase, ecto (cd73), UBE2E2  -  ubiquitin-conjugating enzyme e2e 2, RTEL1  -  regulator of telomere elongation helicase 1, UBE2G1  -  ubiquitin-conjugating enzyme e2g 1, UBE2G2  -  ubiquitin-conjugating enzyme e2g 2, UBE2H  -  ubiquitin-conjugating enzyme e2h, KCNT2  -  potassium channel, subfamily t, member 2, CDK12  -  cyclin-dependent kinase 12, UBE2L3  -  ubiquitin-conjugating enzyme e2l 3, RAD50  -  rad50 homolog (s. cerevisiae), UBE2N  -  ubiquitin-conjugating enzyme e2n, KIF20A  -  kinesin family member 20a, ATP8A2  -  atpase, aminophospholipid transporter, class i, type 8a, member 2, RAB8B  -  rab8b, member ras oncogene family, NTRK3  -  neurotrophic tyrosine kinase, receptor, type 3, KIF6  -  kinesin family member 6, ROR1  -  receptor tyrosine kinase-like orphan receptor 1, DDR2  -  discoidin domain receptor tyrosine kinase 2, MCM8  -  minichromosome maintenance complex component 8, NVL  -  nuclear vcp-like, PPCDC  -  phosphopantothenoylcysteine decarboxylase, TRAP1  -  tnf receptor-associated protein 1, KDM1B  -  lysine (k)-specific demethylase 1b, UGDH  -  udp-glucose 6-dehydrogenase, ARFRP1  -  adp-ribosylation factor related protein 1, ACSS1  -  acyl-coa synthetase short-chain family member 1, KIF26A  -  kinesin family member 26a, ABCA12  -  atp-binding cassette, sub-family a (abc1), member 12, G3BP1  -  gtpase activating protein (sh3 domain) binding protein 1, UCK2  -  uridine-cytidine kinase 2, MTG2  -  mitochondrial ribosome-associated gtpase 2, GRPEL2  -  grpe-like 2, mitochondrial (e. coli), DHX35  -  deah (asp-glu-ala-his) box polypeptide 35, OPA1  -  optic atrophy 1 (autosomal dominant), FRK  -  fyn-related kinase, NT5C1A  -  5'-nucleotidase, cytosolic ia, SRR  -  serine racemase, ARL5A  -  adp-ribosylation factor-like 5a, LRWD1  -  leucine-rich repeats and wd repeat domain containing 1, PHGDH  -  phosphoglycerate dehydrogenase, TTBK1  -  tau tubulin kinase 1, HINT3  -  histidine triad nucleotide binding protein 3, ORC1  -  origin recognition complex, subunit 1, UBE2O  -  ubiquitin-conjugating enzyme e2o, ORC4  -  origin recognition complex, subunit 4, TNK2  -  tyrosine kinase, non-receptor, 2, ORC5  -  origin recognition complex, subunit 5, HS3ST5  -  heparan sulfate (glucosamine) 3-o-sulfotransferase 5, MYO3A  -  myosin iiia, NME6  -  nme/nm23 nucleoside diphosphate kinase 6, GLYR1  -  glyoxylate reductase 1 homolog (arabidopsis), CSNK1G1  -  casein kinase 1, gamma 1, CHTF18  -  ctf18, chromosome transmission fidelity factor 18 homolog (s. cerevisiae), MTOR  -  mechanistic target of rapamycin (serine/threonine kinase), P2RX1  -  purinergic receptor p2x, ligand-gated ion channel, 1]</t>
-  </si>
-  <si>
     <t>GO:0017076</t>
   </si>
   <si>
     <t>purine nucleotide binding</t>
   </si>
   <si>
-    <t>[P2RX4  -  purinergic receptor p2x, ligand-gated ion channel, 4, P2RX5  -  purinergic receptor p2x, ligand-gated ion channel, 5, TRPV1  -  transient receptor potential cation channel, subfamily v, member 1, VRK1  -  vaccinia related kinase 1, VRK2  -  vaccinia related kinase 2, P2RY4  -  pyrimidinergic receptor p2y, g-protein coupled, 4, MAPK15  -  mitogen-activated protein kinase 15, LRGUK  -  leucine-rich repeats and guanylate kinase domain containing, PEBP1  -  phosphatidylethanolamine binding protein 1, ABCA2  -  atp-binding cassette, sub-family a (abc1), member 2, ABCA3  -  atp-binding cassette, sub-family a (abc1), member 3, ERAL1  -  era-like 12s mitochondrial rrna chaperone 1, ABCB7  -  atp-binding cassette, sub-family b (mdr/tap), member 7, GNAT3  -  guanine nucleotide binding protein, alpha transducing 3, ABCA4  -  atp-binding cassette, sub-family a (abc1), member 4, ABL1  -  c-abl oncogene 1, non-receptor tyrosine kinase, AK5  -  adenylate kinase 5, KIF13A  -  kinesin family member 13a, WEE1  -  wee1 homolog (s. pombe), ACACA  -  acetyl-coa carboxylase alpha, ACACB  -  acetyl-coa carboxylase beta, PAK1  -  p21 protein (cdc42/rac)-activated kinase 1, FIGNL1  -  fidgetin-like 1, PAK2  -  p21 protein (cdc42/rac)-activated kinase 2, MYO18B  -  myosin xviiib, ACADL  -  acyl-coa dehydrogenase, long chain, PAK3  -  p21 protein (cdc42/rac)-activated kinase 3, GNL3  -  guanine nucleotide binding protein-like 3 (nucleolar), ACLY  -  atp citrate lyase, FYN  -  fyn oncogene related to src, fgr, yes, RBKS  -  ribokinase, ABCC4  -  atp-binding cassette, sub-family c (cftr/mrp), member 4, MCCC2  -  methylcrotonoyl-coa carboxylase 2 (beta), ACTA1  -  actin, alpha 1, skeletal muscle, RIPK4  -  receptor-interacting serine-threonine kinase 4, POPDC2  -  popeye domain containing 2, XRCC6  -  x-ray repair complementing defective repair in chinese hamster cells 6, PCCA  -  propionyl coa carboxylase, alpha polypeptide, PCCB  -  propionyl coa carboxylase, beta polypeptide, ACTG2  -  actin, gamma 2, smooth muscle, enteric, PCK1  -  phosphoenolpyruvate carboxykinase 1 (soluble), XRCC2  -  x-ray repair complementing defective repair in chinese hamster cells 2, XRCC3  -  x-ray repair complementing defective repair in chinese hamster cells 3, XRCC5  -  x-ray repair complementing defective repair in chinese hamster cells 5 (double-strand-break rejoining), RRAGC  -  ras-related gtp binding c, YES1  -  v-yes-1 yamaguchi sarcoma viral oncogene homolog 1, FN3K  -  fructosamine 3 kinase, SPEG  -  speg complex locus, ACVR1  -  activin a receptor, type i, LATS2  -  large tumor suppressor kinase 2, DNAJA2  -  dnaj (hsp40) homolog, subfamily a, member 2, ACVR2B  -  activin a receptor, type iib, CDK17  -  cyclin-dependent kinase 17, CDK18  -  cyclin-dependent kinase 18, ZAP70  -  zeta-chain (tcr) associated protein kinase 70kda, ABCG4  -  atp-binding cassette, sub-family g (white), member 4, KIF9  -  kinesin family member 9, GALK1  -  galactokinase 1, GALK2  -  galactokinase 2, RAB19  -  rab19, member ras oncogene family, ADCY1  -  adenylate cyclase 1 (brain), ADCY2  -  adenylate cyclase 2 (brain), ADCY3  -  adenylate cyclase 3, PDE4B  -  phosphodiesterase 4b, camp-specific, ADCY5  -  adenylate cyclase 5, PDE4D  -  phosphodiesterase 4d, camp-specific, ADCY7  -  adenylate cyclase 7, PDE6C  -  phosphodiesterase 6c, cgmp-specific, cone, alpha prime, ADCY8  -  adenylate cyclase 8 (brain), ADCY9  -  adenylate cyclase 9, PDE6H  -  phosphodiesterase 6h, cgmp-specific, cone, gamma, PDGFRA  -  platelet-derived growth factor receptor, alpha polypeptide, GART  -  phosphoribosylglycinamide formyltransferase, phosphoribosylglycinamide synthetase, phosphoribosylaminoimidazole synthetase, ATL2  -  atlastin gtpase 2, PDGFRB  -  platelet-derived growth factor receptor, beta polypeptide, MOV10L1  -  mov10l1, moloney leukemia virus 10-like 1, homolog (mouse), ABCG5  -  atp-binding cassette, sub-family g (white), member 5, PDK3  -  pyruvate dehydrogenase kinase, isozyme 3, ABCG8  -  atp-binding cassette, sub-family g (white), member 8, PDK4  -  pyruvate dehydrogenase kinase, isozyme 4, SMCR7L  -  smith-magenis syndrome chromosome region, candidate 7-like, IPMK  -  inositol polyphosphate multikinase, FBXO18  -  f-box protein, helicase, 18, GCH1  -  gtp cyclohydrolase 1, ADRBK1  -  adrenergic, beta, receptor kinase 1, ATAD1  -  atpase family, aaa domain containing 1, ADRBK2  -  adrenergic, beta, receptor kinase 2, SIL1  -  sil1 nucleotide exchange factor, PEX1  -  peroxisomal biogenesis factor 1, PEX6  -  peroxisomal biogenesis factor 6, TUBB3  -  tubulin, beta 3 class iii, MPP5  -  membrane protein, palmitoylated 5 (maguk p55 subfamily member 5), RHOF  -  ras homolog family member f (in filopodia), GEM  -  gtp binding protein overexpressed in skeletal muscle, PFKFB2  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 2, PFKFB3  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 3, PFKFB4  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 4, NOD1  -  nucleotide-binding oligomerization domain containing 1, PFKL  -  phosphofructokinase, liver, RPS6KC1  -  ribosomal protein s6 kinase, 52kda, polypeptide 1, PFKP  -  phosphofructokinase, platelet, CDK14  -  cyclin-dependent kinase 14, NMNAT3  -  nicotinamide nucleotide adenylyltransferase 3, AK2  -  adenylate kinase 2, AK4  -  adenylate kinase 4, TTLL10  -  tubulin tyrosine ligase-like family, member 10, AKT1  -  v-akt murine thymoma viral oncogene homolog 1, ABCB1  -  atp-binding cassette, sub-family b (mdr/tap), member 1, TESK2  -  testis-specific kinase 2, DDX49  -  dead (asp-glu-ala-asp) box polypeptide 49, GK  -  glycerol kinase, MCM9  -  minichromosome maintenance complex component 9, ABCD2  -  atp-binding cassette, sub-family d (ald), member 2, PHKG1  -  phosphorylase kinase, gamma 1 (muscle), ALK  -  anaplastic lymphoma receptor tyrosine kinase, GCLC  -  glutamate-cysteine ligase, catalytic subunit, ECI2  -  enoyl-coa delta isomerase 2, INO80  -  ino80 complex subunit, MERTK  -  c-mer proto-oncogene tyrosine kinase, ACBD3  -  acyl-coa binding domain containing 3, RERG  -  ras-like, estrogen-regulated, growth inhibitor, GLUD1  -  glutamate dehydrogenase 1, PIK3C2A  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 alpha, PIK3C2B  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 beta, PIK3C2G  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 gamma, PIK3CA  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit alpha, PIK3CB  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit beta, GLUL  -  glutamate-ammonia ligase, PIK3CD  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit delta, PIK3CG  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit gamma, PI4KB  -  phosphatidylinositol 4-kinase, catalytic, beta, UBE2E3  -  ubiquitin-conjugating enzyme e2e 3, IPPK  -  inositol 1,3,4,5,6-pentakisphosphate 2-kinase, DAP3  -  death associated protein 3, GTPBP2  -  gtp binding protein 2, PIP4K2A  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, alpha, GNA11  -  guanine nucleotide binding protein (g protein), alpha 11 (gq class), GNA12  -  guanine nucleotide binding protein (g protein) alpha 12, GNAI1  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 1, GNAI2  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 2, GPN2  -  gpn-loop gtpase 2, GNAI3  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 3, CNGB3  -  cyclic nucleotide gated channel beta 3, GNAL  -  guanine nucleotide binding protein (g protein), alpha activating activity polypeptide, olfactory type, CERK  -  ceramide kinase, PKM  -  pyruvate kinase, muscle, STK25  -  serine/threonine kinase 25, RAB39A  -  rab39a, member ras oncogene family, DDX31  -  dead (asp-glu-ala-asp) box polypeptide 31, MAPKAPK3  -  mitogen-activated protein kinase-activated protein kinase 3, ANXA6  -  annexin a6, CHORDC1  -  cysteine and histidine-rich domain (chord) containing 1, NMNAT1  -  nicotinamide nucleotide adenylyltransferase 1, APAF1  -  apoptotic peptidase activating factor 1, DDX17  -  dead (asp-glu-ala-asp) box helicase 17, MYLK2  -  myosin light chain kinase 2, HYOU1  -  hypoxia up-regulated 1, PAN3  -  pan3 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), STK35  -  serine/threonine kinase 35, PLK1  -  polo-like kinase 1, TPK1  -  thiamin pyrophosphokinase 1, MLH3  -  mutl homolog 3 (e. coli), ATP2C1  -  atpase, ca++ transporting, type 2c, member 1, TRIT1  -  trna isopentenyltransferase 1, HELZ2  -  helicase with zinc finger 2, transcriptional coactivator, APRT  -  adenine phosphoribosyltransferase, DCLK3  -  doublecortin-like kinase 3, ERCC6L  -  excision repair cross-complementing rodent repair deficiency, complementation group 6-like, TRPM7  -  transient receptor potential cation channel, subfamily m, member 7, PMS2  -  pms2 postmeiotic segregation increased 2 (s. cerevisiae), ABCC6  -  atp-binding cassette, sub-family c (cftr/mrp), member 6, CCT7  -  chaperonin containing tcp1, subunit 7 (eta), CCT4  -  chaperonin containing tcp1, subunit 4 (delta), CCT2  -  chaperonin containing tcp1, subunit 2 (beta), ARF4  -  adp-ribosylation factor 4, GFM1  -  g elongation factor, mitochondrial 1, POLA1  -  polymerase (dna directed), alpha 1, catalytic subunit, ARF6  -  adp-ribosylation factor 6, MTHFS  -  5,10-methenyltetrahydrofolate synthetase (5-formyltetrahydrofolate cyclo-ligase), ARHGEF5  -  rho guanine nucleotide exchange factor (gef) 5, GRK4  -  g protein-coupled receptor kinase 4, RHOB  -  ras homolog family member b, GRK5  -  g protein-coupled receptor kinase 5, PINK1  -  pten induced putative kinase 1, GRK6  -  g protein-coupled receptor kinase 6, EIF2AK1  -  eukaryotic translation initiation factor 2-alpha kinase 1, RND3  -  rho family gtpase 3, RHOG  -  ras homolog family member g, CDK15  -  cyclin-dependent kinase 15, ARHGAP5  -  rho gtpase activating protein 5, SHPRH  -  snf2 histone linker phd ring helicase, e3 ubiquitin protein ligase, ARL1  -  adp-ribosylation factor-like 1, SNRK  -  snf related kinase, ARL3  -  adp-ribosylation factor-like 3, SMC1B  -  structural maintenance of chromosomes 1b, HSPA12A  -  heat shock 70kda protein 12a, WNK1  -  wnk lysine deficient protein kinase 1, STK36  -  serine/threonine kinase 36, NADK  -  nad kinase, NAV3  -  neuron navigator 3, NAV2  -  neuron navigator 2, UBE2Z  -  ubiquitin-conjugating enzyme e2z, ABCC10  -  atp-binding cassette, sub-family c (cftr/mrp), member 10, ASNS  -  asparagine synthetase (glutamine-hydrolyzing), CAMKK2  -  calcium/calmodulin-dependent protein kinase kinase 2, beta, ASS1  -  argininosuccinate synthase 1, VPS4A  -  vacuolar protein sorting 4 homolog a (s. cerevisiae), AACS  -  acetoacetyl-coa synthetase, GSK3B  -  glycogen synthase kinase 3 beta, GSPT1  -  g1 to s phase transition 1, GSS  -  glutathione synthetase, FARS2  -  phenylalanyl-trna synthetase 2, mitochondrial, RRAGA  -  ras-related gtp binding a, ATM  -  ataxia telangiectasia mutated, MAGI3  -  membrane associated guanylate kinase, ww and pdz domain containing 3, GNA13  -  guanine nucleotide binding protein (g protein), alpha 13, NMRK2  -  nicotinamide riboside kinase 2, ATP1A1  -  atpase, na+/k+ transporting, alpha 1 polypeptide, DPH6  -  diphthamine biosynthesis 6, ATP12A  -  atpase, h+/k+ transporting, nongastric, alpha polypeptide, MSH6  -  muts homolog 6 (e. coli), GTF2F2  -  general transcription factor iif, polypeptide 2, 30kda, RND2  -  rho family gtpase 2, ATP2A3  -  atpase, ca++ transporting, ubiquitous, ATP2B1  -  atpase, ca++ transporting, plasma membrane 1, CCT8  -  chaperonin containing tcp1, subunit 8 (theta), ATP2B4  -  atpase, ca++ transporting, plasma membrane 4, CAMKV  -  cam kinase-like vesicle-associated, GUCY1A2  -  guanylate cyclase 1, soluble, alpha 2, POLQ  -  polymerase (dna directed), theta, UCKL1  -  uridine-cytidine kinase 1-like 1, GUCY1A3  -  guanylate cyclase 1, soluble, alpha 3, GUCY1B3  -  guanylate cyclase 1, soluble, beta 3, YME1L1  -  yme1-like 1 atpase, GUCY2C  -  guanylate cyclase 2c (heat stable enterotoxin receptor), GUCY2F  -  guanylate cyclase 2f, retinal, GUK1  -  guanylate kinase 1, MKKS  -  mckusick-kaufman syndrome, ATP6V1A  -  atpase, h+ transporting, lysosomal 70kda, v1 subunit a, SPATA5L1  -  spermatogenesis associated 5-like 1, TTBK2  -  tau tubulin kinase 2, KIF7  -  kinesin family member 7, ATP6AP1  -  atpase, h+ transporting, lysosomal accessory protein 1, ATP7A  -  atpase, cu++ transporting, alpha polypeptide, PRKACB  -  protein kinase, camp-dependent, catalytic, beta, DDX54  -  dead (asp-glu-ala-asp) box polypeptide 54, MAP3K2  -  mitogen-activated protein kinase kinase kinase 2, ATP7B  -  atpase, cu++ transporting, beta polypeptide, RAB30  -  rab30, member ras oncogene family, ULK4  -  unc-51 like kinase 4, ATR  -  ataxia telangiectasia and rad3 related, SYN3  -  synapsin iii, GTPBP6  -  gtp binding protein 6 (putative), ATRX  -  alpha thalassemia/mental retardation syndrome x-linked, PRKAR2A  -  protein kinase, camp-dependent, regulatory, type ii, alpha, KIF1A  -  kinesin family member 1a, ATP9B  -  atpase, class ii, type 9b, PRKAR2B  -  protein kinase, camp-dependent, regulatory, type ii, beta, PRKCA  -  protein kinase c, alpha, PRKCB  -  protein kinase c, beta, PRKCD  -  protein kinase c, delta, PRKCE  -  protein kinase c, epsilon, RPS6KA6  -  ribosomal protein s6 kinase, 90kda, polypeptide 6, PRKCH  -  protein kinase c, eta, HBS1L  -  hbs1-like (s. cerevisiae), PKN2  -  protein kinase n2, PRKCQ  -  protein kinase c, theta, PRKCZ  -  protein kinase c, zeta, PRKDC  -  protein kinase, dna-activated, catalytic polypeptide, PRKG1  -  protein kinase, cgmp-dependent, type i, MAPK1  -  mitogen-activated protein kinase 1, MAPK6  -  mitogen-activated protein kinase 6, TOR1B  -  torsin family 1, member b (torsin b), NEK6  -  nima-related kinase 6, MAPK8  -  mitogen-activated protein kinase 8, MAPK11  -  mitogen-activated protein kinase 11, MAPK9  -  mitogen-activated protein kinase 9, MAPK10  -  mitogen-activated protein kinase 10, MAPK13  -  mitogen-activated protein kinase 13, MAP2K1  -  mitogen-activated protein kinase kinase 1, TOR2A  -  torsin family 2, member a, MAP2K6  -  mitogen-activated protein kinase kinase 6, EIF2AK2  -  eukaryotic translation initiation factor 2-alpha kinase 2, DHX58  -  dexh (asp-glu-x-his) box polypeptide 58, HCK  -  hemopoietic cell kinase, HSPH1  -  heat shock 105kda/110kda protein 1, CDC7  -  cell division cycle 7, HCN2  -  hyperpolarization activated cyclic nucleotide-gated potassium channel 2, BCR  -  breakpoint cluster region, BCS1L  -  bc1 (ubiquinol-cytochrome c reductase) synthesis-like, PRPS1  -  phosphoribosyl pyrophosphate synthetase 1, PRPS2  -  phosphoribosyl pyrophosphate synthetase 2, FAM114A2  -  family with sequence similarity 114, member a2, ADCK2  -  aarf domain containing kinase 2, BLK  -  b lymphoid tyrosine kinase, DHX57  -  deah (asp-glu-ala-asp/his) box polypeptide 57, BLM  -  bloom syndrome, recq helicase-like, CLPX  -  clpx caseinolytic peptidase x homolog (e. coli), PDE10A  -  phosphodiesterase 10a, HK2  -  hexokinase 2, ENTPD8  -  ectonucleoside triphosphate diphosphohydrolase 8, BMPR1A  -  bone morphogenetic protein receptor, type ia, PSKH1  -  protein serine kinase h1, BMPR2  -  bone morphogenetic protein receptor, type ii (serine/threonine kinase), BRAF  -  v-raf murine sarcoma viral oncogene homolog b, PSMC1  -  proteasome (prosome, macropain) 26s subunit, atpase, 1, PSMC2  -  proteasome (prosome, macropain) 26s subunit, atpase, 2, PSMC3  -  proteasome (prosome, macropain) 26s subunit, atpase, 3, RAB10  -  rab10, member ras oncogene family, PSMC5  -  proteasome (prosome, macropain) 26s subunit, atpase, 5, FIGN  -  fidgetin, HLCS  -  holocarboxylase synthetase (biotin-(proprionyl-coa-carboxylase (atp-hydrolysing)) ligase), PIP4K2B  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, beta, BTK  -  bruton agammaglobulinemia tyrosine kinase, ACBD5  -  acyl-coa binding domain containing 5, PKDCC  -  protein kinase domain containing, cytoplasmic, BUB1  -  bub1 mitotic checkpoint serine/threonine kinase, MTPAP  -  mitochondrial poly(a) polymerase, HMGCL  -  3-hydroxymethyl-3-methylglutaryl-coa lyase, BUB1B  -  bub1 mitotic checkpoint serine/threonine kinase b, ULK1  -  unc-51 like autophagy activating kinase 1, DARS2  -  aspartyl-trna synthetase 2, mitochondrial, PAPOLA  -  poly(a) polymerase alpha, ATP8B3  -  atpase, aminophospholipid transporter, class i, type 8b, member 3, TDRD12  -  tudor domain containing 12, RAD54L  -  rad54-like (s. cerevisiae), PTK2  -  protein tyrosine kinase 2, DYRK3  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 3, DYRK2  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 2, PTK7  -  protein tyrosine kinase 7, TWF1  -  twinfilin actin-binding protein 1, HNRNPU  -  heterogeneous nuclear ribonucleoprotein u (scaffold attachment factor a), MPPED2  -  metallophosphoesterase domain containing 2, NEK9  -  nima-related kinase 9, NADSYN1  -  nad synthetase 1, TTF2  -  transcription termination factor, rna polymerase ii, MYLK3  -  myosin light chain kinase 3, CDC42BPA  -  cdc42 binding protein kinase alpha (dmpk-like), KSR2  -  kinase suppressor of ras 2, CACNA1B  -  calcium channel, voltage-dependent, n type, alpha 1b subunit, GATC  -  glutamyl-trna(gln) amidotransferase, subunit c, ASCC3  -  activating signal cointegrator 1 complex subunit 3, MAP4K3  -  mitogen-activated protein kinase kinase kinase kinase 3, RAB32  -  rab32, member ras oncogene family, ETNK2  -  ethanolamine kinase 2, NAT10  -  n-acetyltransferase 10 (gcn5-related), PANK4  -  pantothenate kinase 4, MTG1  -  mitochondrial ribosome-associated gtpase 1, ATP13A3  -  atpase type 13a3, PDIK1L  -  pdlim1 interacting kinase 1 like, UBA6  -  ubiquitin-like modifier activating enzyme 6, CARS2  -  cysteinyl-trna synthetase 2, mitochondrial (putative), ABCD4  -  atp-binding cassette, sub-family d (ald), member 4, KIF2C  -  kinesin family member 2c, ALDH18A1  -  aldehyde dehydrogenase 18 family, member a1, TLK2  -  tousled-like kinase 2, STRADA  -  ste20-related kinase adaptor alpha, CAMK4  -  calcium/calmodulin-dependent protein kinase iv, CAMK2A  -  calcium/calmodulin-dependent protein kinase ii alpha, DGKZ  -  diacylglycerol kinase, zeta, CAMK2D  -  calcium/calmodulin-dependent protein kinase ii delta, DGKE  -  diacylglycerol kinase, epsilon 64kda, HRAS  -  harvey rat sarcoma viral oncogene homolog, CAMK2G  -  calcium/calmodulin-dependent protein kinase ii gamma, DGKD  -  diacylglycerol kinase, delta 130kda, ACSS3  -  acyl-coa synthetase short-chain family member 3, IFT27  -  intraflagellar transport 27 homolog (chlamydomonas), RAB35  -  rab35, member ras oncogene family, RAB3A  -  rab3a, member ras oncogene family, RAB4A  -  rab4a, member ras oncogene family, RAB31  -  rab31, member ras oncogene family, NKIRAS2  -  nfkb inhibitor interacting ras-like 2, NKIRAS1  -  nfkb inhibitor interacting ras-like 1, CARS  -  cysteinyl-trna synthetase, QRSL1  -  glutaminyl-trna synthase (glutamine-hydrolyzing)-like 1, PIM3  -  pim-3 oncogene, RAC1  -  ras-related c3 botulinum toxin substrate 1 (rho family, small gtp binding protein rac1), RAC2  -  ras-related c3 botulinum toxin substrate 2 (rho family, small gtp binding protein rac2), UBE2W  -  ubiquitin-conjugating enzyme e2w (putative), RAC3  -  ras-related c3 botulinum toxin substrate 3 (rho family, small gtp binding protein rac3), MAPKAPK5  -  mitogen-activated protein kinase-activated protein kinase 5, RHOT1  -  ras homolog family member t1, DNAJA1  -  dnaj (hsp40) homolog, subfamily a, member 1, RAD51  -  rad51 recombinase, RAD51C  -  rad51 paralog c, PANK3  -  pantothenate kinase 3, HSPA4  -  heat shock 70kda protein 4, CDK10  -  cyclin-dependent kinase 10, RAD51D  -  rad51 paralog d, DDX52  -  dead (asp-glu-ala-asp) box polypeptide 52, RUNX2  -  runt-related transcription factor 2, RAF1  -  v-raf-1 murine leukemia viral oncogene homolog 1, RUNX1  -  runt-related transcription factor 1, HSPA8  -  heat shock 70kda protein 8, HELB  -  helicase (dna) b, HSPA9  -  heat shock 70kda protein 9 (mortalin), PI4K2B  -  phosphatidylinositol 4-kinase type 2 beta, RALA  -  v-ral simian leukemia viral oncogene homolog a (ras related), RALB  -  v-ral simian leukemia viral oncogene homolog b, PDXK  -  pyridoxal (pyridoxine, vitamin b6) kinase, RAN  -  ran, member ras oncogene family, MKNK1  -  map kinase interacting serine/threonine kinase 1, DYNC2H1  -  dynein, cytoplasmic 2, heavy chain 1, RASL11A  -  ras-like, family 11, member a, UBE2Q2  -  ubiquitin-conjugating enzyme e2q family member 2, CASK  -  calcium/calmodulin-dependent serine protein kinase (maguk family), MARS2  -  methionyl-trna synthetase 2, mitochondrial, RAPGEF4  -  rap guanine nucleotide exchange factor (gef) 4, RAP1B  -  rap1b, member of ras oncogene family, DHX40  -  deah (asp-glu-ala-his) box polypeptide 40, HSPD1  -  heat shock 60kda protein 1 (chaperonin), STK16  -  serine/threonine kinase 16, NLRX1  -  nlr family member x1, TTL  -  tubulin tyrosine ligase, ABCF3  -  atp-binding cassette, sub-family f (gcn20), member 3, SMC6  -  structural maintenance of chromosomes 6, RUVBL1  -  ruvb-like 1 (e. coli), LSG1  -  large 60s subunit nuclear export gtpase 1, CCT6A  -  chaperonin containing tcp1, subunit 6a (zeta 1), KATNA1  -  katanin p60 (atpase containing) subunit a 1, LRRK1  -  leucine-rich repeat kinase 1, CDK13  -  cyclin-dependent kinase 13, CIT  -  citron (rho-interacting, serine/threonine kinase 21), NOL9  -  nucleolar protein 9, IARS  -  isoleucyl-trna synthetase, DNAH17  -  dynein, axonemal, heavy chain 17, KIF3A  -  kinesin family member 3a, RECQL  -  recq protein-like (dna helicase q1-like), TBCK  -  tbc1 domain containing kinase, GVINP1  -  gtpase, very large interferon inducible pseudogene 1, ABCB11  -  atp-binding cassette, sub-family b (mdr/tap), member 11, NARS2  -  asparaginyl-trna synthetase 2, mitochondrial (putative), DMC1  -  dna meiotic recombinase 1, UPF1  -  upf1 regulator of nonsense transcripts homolog (yeast), BBS10  -  bardet-biedl syndrome 10, PDE5A  -  phosphodiesterase 5a, cgmp-specific, RET  -  ret proto-oncogene, TTLL7  -  tubulin tyrosine ligase-like family, member 7, BVES  -  blood vessel epicardial substance, RFC1  -  replication factor c (activator 1) 1, 145kda, RFC2  -  replication factor c (activator 1) 2, 40kda, STRADB  -  ste20-related kinase adaptor beta, FICD  -  fic domain containing, RFC4  -  replication factor c (activator 1) 4, 37kda, ENTPD1  -  ectonucleoside triphosphate diphosphohydrolase 1, ENTPD2  -  ectonucleoside triphosphate diphosphohydrolase 2, IDE  -  insulin-degrading enzyme, ENTPD3  -  ectonucleoside triphosphate diphosphohydrolase 3, RABL2A  -  rab, member of ras oncogene family-like 2a, NEK8  -  nima-related kinase 8, DNAJA4  -  dnaj (hsp40) homolog, subfamily a, member 4, EIF2AK4  -  eukaryotic translation initiation factor 2 alpha kinase 4, ETNK1  -  ethanolamine kinase 1, CHST12  -  carbohydrate (chondroitin 4) sulfotransferase 12, DDX43  -  dead (asp-glu-ala-asp) box polypeptide 43, RHEB  -  ras homolog enriched in brain, RERGL  -  rerg/ras-like, MAP4K5  -  mitogen-activated protein kinase kinase kinase kinase 5, DNAH11  -  dynein, axonemal, heavy chain 11, CDC42  -  cell division cycle 42, ABCC3  -  atp-binding cassette, sub-family c (cftr/mrp), member 3, CHEK2  -  checkpoint kinase 2, DNAH3  -  dynein, axonemal, heavy chain 3, SBK1  -  sh3-binding domain kinase 1, RNASEL  -  ribonuclease l (2',5'-oligoisoadenylate synthetase-dependent), NEK10  -  nima-related kinase 10, DDX20  -  dead (asp-glu-ala-asp) box polypeptide 20, RNGTT  -  rna guanylyltransferase and 5'-phosphatase, UBE2Q1  -  ubiquitin-conjugating enzyme e2q family member 1, CDK3  -  cyclin-dependent kinase 3, BMP2K  -  bmp2 inducible kinase, CDK5  -  cyclin-dependent kinase 5, RIPK1  -  receptor (tnfrsf)-interacting serine-threonine kinase 1, CDK6  -  cyclin-dependent kinase 6, ABCE1  -  atp-binding cassette, sub-family e (oabp), member 1, CDK8  -  cyclin-dependent kinase 8, CDK9  -  cyclin-dependent kinase 9, KIF21A  -  kinesin family member 21a, IGHMBP2  -  immunoglobulin mu binding protein 2, KIF16B  -  kinesin family member 16b, RAB11A  -  rab11a, member ras oncogene family, RIPK2  -  receptor-interacting serine-threonine kinase 2, RIOK3  -  rio kinase 3, ROCK1  -  rho-associated, coiled-coil containing protein kinase 1, CENPE  -  centromere protein e, 312kda, ROS1  -  c-ros oncogene 1 , receptor tyrosine kinase, CHD7  -  chromodomain helicase dna binding protein 7, RP2  -  retinitis pigmentosa 2 (x-linked recessive), UBA5  -  ubiquitin-like modifier activating enzyme 5, RAB20  -  rab20, member ras oncogene family, DCAKD  -  dephospho-coa kinase domain containing, IKBKB  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase beta, CFTR  -  cystic fibrosis transmembrane conductance regulator (atp-binding cassette sub-family c, member 7), SUCLG2  -  succinate-coa ligase, gdp-forming, beta subunit, SUCLA2  -  succinate-coa ligase, adp-forming, beta subunit, DDX27  -  dead (asp-glu-ala-asp) box polypeptide 27, GPN1  -  gpn-loop gtpase 1, DDX42  -  dead (asp-glu-ala-asp) box helicase 42, CDKL1  -  cyclin-dependent kinase-like 1 (cdc2-related kinase), MFN1  -  mitofusin 1, CHD2  -  chromodomain helicase dna binding protein 2, SCYL2  -  scy1-like 2 (s. cerevisiae), ATAD5  -  atpase family, aaa domain containing 5, CHD4  -  chromodomain helicase dna binding protein 4, RABL6  -  rab, member ras oncogene family-like 6, TRMU  -  trna 5-methylaminomethyl-2-thiouridylate methyltransferase, TWF2  -  twinfilin actin-binding protein 2, GMPS  -  guanine monphosphate synthase, KIF12  -  kinesin family member 12, CHKA  -  choline kinase alpha, IARS2  -  isoleucyl-trna synthetase 2, mitochondrial, KSR1  -  kinase suppressor of ras 1, MRAS  -  muscle ras oncogene homolog, ABCA13  -  atp-binding cassette, sub-family a (abc1), member 13, HELQ  -  helicase, polq-like, TSR1  -  tsr1, 20s rrna accumulation, homolog (s. cerevisiae), HSPA4L  -  heat shock 70kda protein 4-like, N4BP2  -  nedd4 binding protein 2, CKB  -  creatine kinase, brain, RPS6KA2  -  ribosomal protein s6 kinase, 90kda, polypeptide 2, RPS6KA3  -  ribosomal protein s6 kinase, 90kda, polypeptide 3, RPS6KB1  -  ribosomal protein s6 kinase, 70kda, polypeptide 1, HHAT  -  hedgehog acyltransferase, RPS6KB2  -  ribosomal protein s6 kinase, 70kda, polypeptide 2, DDX18  -  dead (asp-glu-ala-asp) box polypeptide 18, AAK1  -  ap2 associated kinase 1, LMTK2  -  lemur tyrosine kinase 2, AGK  -  acylglycerol kinase, IRAK2  -  interleukin-1 receptor-associated kinase 2, CLCN3  -  chloride channel, voltage-sensitive 3, CLCN4  -  chloride channel, voltage-sensitive 4, PRPF4B  -  prp4 pre-mrna processing factor 4 homolog b (yeast), CLCN5  -  chloride channel, voltage-sensitive 5, CLCN6  -  chloride channel, voltage-sensitive 6, CLCN7  -  chloride channel, voltage-sensitive 7, DHX32  -  deah (asp-glu-ala-his) box polypeptide 32, CLK2  -  cdc-like kinase 2, CLK3  -  cdc-like kinase 3, RRM1  -  ribonucleotide reductase m1, MORC2  -  morc family cw-type zinc finger 2, PANK2  -  pantothenate kinase 2, MCMDC2  -  minichromosome maintenance domain containing 2, EPHA6  -  eph receptor a6, ITK  -  il2-inducible t-cell kinase, ABCC2  -  atp-binding cassette, sub-family c (cftr/mrp), member 2, DHX30  -  deah (asp-glu-ala-his) box helicase 30, ITPK1  -  inositol-tetrakisphosphate 1-kinase, ITPKA  -  inositol-trisphosphate 3-kinase a, ITPKB  -  inositol-trisphosphate 3-kinase b, AK8  -  adenylate kinase 8, CNGB1  -  cyclic nucleotide gated channel beta 1, ARL14  -  adp-ribosylation factor-like 14, RABL3  -  rab, member of ras oncogene family-like 3, PIF1  -  pif1 5'-to-3' dna helicase, CNGA2  -  cyclic nucleotide gated channel alpha 2, MAP3K19  -  mitogen-activated protein kinase kinase kinase 19, TTLL11  -  tubulin tyrosine ligase-like family, member 11, JAK1  -  janus kinase 1, SEPHS1  -  selenophosphate synthetase 1, KALRN  -  kalirin, rhogef kinase, CDKL2  -  cyclin-dependent kinase-like 2 (cdc2-related kinase), ACSM3  -  acyl-coa synthetase medium-chain family member 3, MAPK12  -  mitogen-activated protein kinase 12, MAP3K14  -  mitogen-activated protein kinase kinase kinase 14, BRSK2  -  br serine/threonine kinase 2, CCT5  -  chaperonin containing tcp1, subunit 5 (epsilon), BAZ1B  -  bromodomain adjacent to zinc finger domain, 1b, UBA3  -  ubiquitin-like modifier activating enzyme 3, MYO19  -  myosin xix, KCNJ1  -  potassium inwardly-rectifying channel, subfamily j, member 1, BTAF1  -  btaf1 rna polymerase ii, b-tfiid transcription factor-associated, 170kda, SCN8A  -  sodium channel, voltage gated, type viii, alpha subunit, KCNJ8  -  potassium inwardly-rectifying channel, subfamily j, member 8, HKDC1  -  hexokinase domain containing 1, NUGGC  -  nuclear gtpase, germinal center associated, CHD9  -  chromodomain helicase dna binding protein 9, MB21D1  -  mab-21 domain containing 1, SCP2  -  sterol carrier protein 2, SRL  -  sarcalumenin, PAPSS1  -  3'-phosphoadenosine 5'-phosphosulfate synthase 1, MAP3K6  -  mitogen-activated protein kinase kinase kinase 6, ALPK1  -  alpha-kinase 1, MAP3K8  -  mitogen-activated protein kinase kinase kinase 8, RAB21  -  rab21, member ras oncogene family, ACSS2  -  acyl-coa synthetase short-chain family member 2, STK38L  -  serine/threonine kinase 38 like, KDR  -  kinase insert domain receptor (a type iii receptor tyrosine kinase), KIF2A  -  kinesin heavy chain member 2a, KIF3C  -  kinesin family member 3c, LANCL2  -  lanc lantibiotic synthetase component c-like 2 (bacterial), KIF5B  -  kinesin family member 5b, KIF5C  -  kinesin family member 5c, KIFC3  -  kinesin family member c3, MYO16  -  myosin xvi, DNAJA3  -  dnaj (hsp40) homolog, subfamily a, member 3, MAST3  -  microtubule associated serine/threonine kinase 3, MYO5C  -  myosin vc, MAP3K15  -  mitogen-activated protein kinase kinase kinase 15, KIT  -  v-kit hardy-zuckerman 4 feline sarcoma viral oncogene homolog, ARL11  -  adp-ribosylation factor-like 11, TNIK  -  traf2 and nck interacting kinase, KIF21B  -  kinesin family member 21b, LATS1  -  large tumor suppressor kinase 1, SMG1  -  smg1 phosphatidylinositol 3-kinase-related kinase, CPS1  -  carbamoyl-phosphate synthase 1, mitochondrial, DGKH  -  diacylglycerol kinase, eta, KIF11  -  kinesin family member 11, NMNAT2  -  nicotinamide nucleotide adenylyltransferase 2, KIF25  -  kinesin family member 25, SMC3  -  structural maintenance of chromosomes 3, P2RX6  -  purinergic receptor p2x, ligand-gated ion channel, 6, SETX  -  senataxin, GTPBP8  -  gtp-binding protein 8 (putative), KRAS  -  kirsten rat sarcoma viral oncogene homolog, UBE2T  -  ubiquitin-conjugating enzyme e2t (putative), SWAP70  -  swap switching b-cell complex 70kda subunit, VWA8  -  von willebrand factor a domain containing 8, COASY  -  coa synthase, TTLL5  -  tubulin tyrosine ligase-like family, member 5, KIF1B  -  kinesin family member 1b, TBK1  -  tank-binding kinase 1, DGKI  -  diacylglycerol kinase, iota, SGK1  -  serum/glucocorticoid regulated kinase 1, CUL9  -  cullin 9, RAB39B  -  rab39b, member ras oncogene family, MAP3K13  -  mitogen-activated protein kinase kinase kinase 13, MAPK14  -  mitogen-activated protein kinase 14, ATP10B  -  atpase, class v, type 10b, AARSD1  -  alanyl-trna synthetase domain containing 1, RAD54L2  -  rad54-like 2 (s. cerevisiae), TEX14  -  testis expressed 14, CSK  -  c-src tyrosine kinase, MAST2  -  microtubule associated serine/threonine kinase 2, DCLK1  -  doublecortin-like kinase 1, CSNK1A1  -  casein kinase 1, alpha 1, HSPA12B  -  heat shock 70kd protein 12b, OLA1  -  obg-like atpase 1, CSNK1E  -  casein kinase 1, epsilon, CSNK1G2  -  casein kinase 1, gamma 2, STK31  -  serine/threonine kinase 31, CSNK2A1  -  casein kinase 2, alpha 1 polypeptide, DNAH7  -  dynein, axonemal, heavy chain 7, AGAP1  -  arfgap with gtpase domain, ankyrin repeat and ph domain 1, MAGI1  -  membrane associated guanylate kinase, ww and pdz domain containing 1, AGAP3  -  arfgap with gtpase domain, ankyrin repeat and ph domain 3, TTLL12  -  tubulin tyrosine ligase-like family, member 12, GNL2  -  guanine nucleotide binding protein-like 2 (nucleolar), PASK  -  pas domain containing serine/threonine kinase, EEF2K  -  eukaryotic elongation factor-2 kinase, HFM1  -  hfm1, atp-dependent dna helicase homolog (s. cerevisiae), RPS6KA5  -  ribosomal protein s6 kinase, 90kda, polypeptide 5, MFHAS1  -  malignant fibrous histiocytoma amplified sequence 1, LIG3  -  ligase iii, dna, atp-dep</t>
-  </si>
-  <si>
-    <t>ndent, LIG4  -  ligase iv, dna, atp-dependent, TTLL9  -  tubulin tyrosine ligase-like family, member 9, MAPKAPK2  -  mitogen-activated protein kinase-activated protein kinase 2, MDN1  -  mdn1, midasin homolog (yeast), NME7  -  nme/nm23 family member 7, STK17A  -  serine/threonine kinase 17a, LIMK2  -  lim domain kinase 2, CTPS2  -  ctp synthase 2, ATP11B  -  atpase, class vi, type 11b, IP6K3  -  inositol hexakisphosphate kinase 3, ACSBG1  -  acyl-coa synthetase bubblegum family member 1, ATP11C  -  atpase, class vi, type 11c, RHOBTB2  -  rho-related btb domain containing 2, SBK2  -  sh3-binding domain kinase family, member 2, BBS12  -  bardet-biedl syndrome 12, DCLK2  -  doublecortin-like kinase 2, NRBP1  -  nuclear receptor binding protein 1, SIK2  -  salt-inducible kinase 2, SLC19A1  -  solute carrier family 19 (folate transporter), member 1, TRIP13  -  thyroid hormone receptor interactor 13, ATP11A  -  atpase, class vi, type 11a, SLC22A4  -  solute carrier family 22 (organic cation/zwitterion transporter), member 4, EFTUD2  -  elongation factor tu gtp binding domain containing 2, LONP1  -  lon peptidase 1, mitochondrial, WRNIP1  -  werner helicase interacting protein 1, RAB28  -  rab28, member ras oncogene family, RAB9A  -  rab9a, member ras oncogene family, DGKB  -  diacylglycerol kinase, beta 90kda, KIF3B  -  kinesin family member 3b, EHD4  -  eh-domain containing 4, KIF13B  -  kinesin family member 13b, EHD3  -  eh-domain containing 3, ACSL6  -  acyl-coa synthetase long-chain family member 6, PIK3R4  -  phosphoinositide-3-kinase, regulatory subunit 4, SMARCAD1  -  swi/snf-related, matrix-associated actin-dependent regulator of chromatin, subfamily a, containing dead/h box 1, DHX33  -  deah (asp-glu-ala-his) box polypeptide 33, MCCC1  -  methylcrotonoyl-coa carboxylase 1 (alpha), NMUR2  -  neuromedin u receptor 2, PAK6  -  p21 protein (cdc42/rac)-activated kinase 6, SMARCAL1  -  swi/snf related, matrix associated, actin dependent regulator of chromatin, subfamily a-like 1, SOAT1  -  sterol o-acyltransferase 1, RECQL5  -  recq protein-like 5, DHX36  -  deah (asp-glu-ala-his) box polypeptide 36, DDX51  -  dead (asp-glu-ala-asp) box polypeptide 51, MAK  -  male germ cell-associated kinase, LRRK2  -  leucine-rich repeat kinase 2, SMCHD1  -  structural maintenance of chromosomes flexible hinge domain containing 1, DDX1  -  dead (asp-glu-ala-asp) box helicase 1, DDX3X  -  dead (asp-glu-ala-asp) box helicase 3, x-linked, DDX5  -  dead (asp-glu-ala-asp) box helicase 5, MARK1  -  map/microtubule affinity-regulating kinase 1, DHX8  -  deah (asp-glu-ala-his) box polypeptide 8, MARK3  -  map/microtubule affinity-regulating kinase 3, SPAG1  -  sperm associated antigen 1, DDX10  -  dead (asp-glu-ala-asp) box polypeptide 10, MAT1A  -  methionine adenosyltransferase i, alpha, DDX11  -  dead/h (asp-glu-ala-asp/his) box helicase 11, DHX15  -  deah (asp-glu-ala-his) box helicase 15, ABCG2  -  atp-binding cassette, sub-family g (white), member 2, PNPLA8  -  patatin-like phospholipase domain containing 8, SPAST  -  spastin, FAM20C  -  family with sequence similarity 20, member c, SPG7  -  spastic paraplegia 7 (pure and complicated autosomal recessive), ITM2B  -  integral membrane protein 2b, KIF15  -  kinesin family member 15, EIF2AK3  -  eukaryotic translation initiation factor 2-alpha kinase 3, SIK3  -  sik family kinase 3, MCM2  -  minichromosome maintenance complex component 2, MCM3  -  minichromosome maintenance complex component 3, MCM4  -  minichromosome maintenance complex component 4, MCM5  -  minichromosome maintenance complex component 5, LARS2  -  leucyl-trna synthetase 2, mitochondrial, PIP5K1C  -  phosphatidylinositol-4-phosphate 5-kinase, type i, gamma, ATP13A2  -  atpase type 13a2, SRC  -  v-src avian sarcoma (schmidt-ruppin a-2) viral oncogene homolog, DICER1  -  dicer 1, ribonuclease type iii, CYB5R3  -  cytochrome b5 reductase 3, ROCK2  -  rho-associated, coiled-coil containing protein kinase 2, TDRD9  -  tudor domain containing 9, SRMS  -  src-related kinase lacking c-terminal regulatory tyrosine and n-terminal myristylation sites, RARS2  -  arginyl-trna synthetase 2, mitochondrial, AK7  -  adenylate kinase 7, SRP54  -  signal recognition particle 54kda, PGS1  -  phosphatidylglycerophosphate synthase 1, SRPK1  -  srsf protein kinase 1, SRPK2  -  srsf protein kinase 2, KIF23  -  kinesin family member 23, RHOV  -  ras homolog family member v, MAP3K3  -  mitogen-activated protein kinase kinase kinase 3, MAP3K4  -  mitogen-activated protein kinase kinase kinase 4, DDX24  -  dead (asp-glu-ala-asp) box helicase 24, RAB8A  -  rab8a, member ras oncogene family, DNM1  -  dynamin 1, DNA2  -  dna replication helicase/nuclease 2, MET  -  met proto-oncogene, DNAH5  -  dynein, axonemal, heavy chain 5, DNAH8  -  dynein, axonemal, heavy chain 8, DNAH9  -  dynein, axonemal, heavy chain 9, ABCB10  -  atp-binding cassette, sub-family b (mdr/tap), member 10, ABCB9  -  atp-binding cassette, sub-family b (mdr/tap), member 9, VPS4B  -  vacuolar protein sorting 4 homolog b (s. cerevisiae), DYNC1H1  -  dynein, cytoplasmic 1, heavy chain 1, ABCA6  -  atp-binding cassette, sub-family a (abc1), member 6, ST13  -  suppression of tumorigenicity 13 (colon carcinoma) (hsp70 interacting protein), ABCA5  -  atp-binding cassette, sub-family a (abc1), member 5, BAG5  -  bcl2-associated athanogene 5, DYNC1LI2  -  dynein, cytoplasmic 1, light intermediate chain 2, BAG4  -  bcl2-associated athanogene 4, BAG3  -  bcl2-associated athanogene 3, CAMK1D  -  calcium/calmodulin-dependent protein kinase id, CIITA  -  class ii, major histocompatibility complex, transactivator, RAB37  -  rab37, member ras oncogene family, NUAK2  -  nuak family, snf1-like kinase, 2, MMAB  -  methylmalonic aciduria (cobalamin deficiency) cblb type, HSPA13  -  heat shock protein 70kda family, member 13, NEK4  -  nima-related kinase 4, STK3  -  serine/threonine kinase 3, STK4  -  serine/threonine kinase 4, CDKL5  -  cyclin-dependent kinase-like 5, STK10  -  serine/threonine kinase 10, STK11  -  serine/threonine kinase 11, CHD1L  -  chromodomain helicase dna binding protein 1-like, ADCK1  -  aarf domain containing kinase 1, PAK7  -  p21 protein (cdc42/rac)-activated kinase 7, MKI67  -  antigen identified by monoclonal antibody ki-67, SCYL3  -  scy1-like 3 (s. cerevisiae), GTPBP1  -  gtp binding protein 1, MLH1  -  mutl homolog 1, colon cancer, nonpolyposis type 2 (e. coli), MAP3K9  -  mitogen-activated protein kinase kinase kinase 9, DRG2  -  developmentally regulated gtp binding protein 2, ATL1  -  atlastin gtpase 1, KIF20B  -  kinesin family member 20b, SUPV3L1  -  suppressor of var1, 3-like 1 (s. cerevisiae), CAMK1G  -  calcium/calmodulin-dependent protein kinase ig, EARS2  -  glutamyl-trna synthetase 2, mitochondrial, ABCC8  -  atp-binding cassette, sub-family c (cftr/mrp), member 8, DNAH10  -  dynein, axonemal, heavy chain 10, ACTR3B  -  arp3 actin-related protein 3 homolog b (yeast), KIF18A  -  kinesin family member 18a, RAB36  -  rab36, member ras oncogene family, TNNI3K  -  tnni3 interacting kinase, SYN2  -  synapsin ii, ATP10A  -  atpase, class v, type 10a, ATP8B2  -  atpase, aminophospholipid transporter, class i, type 8b, member 2, ATP10D  -  atpase, class v, type 10d, MOCS1  -  molybdenum cofactor synthesis 1, RASD2  -  rasd family, member 2, ABCG1  -  atp-binding cassette, sub-family g (white), member 1, DYRK1A  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 1a, TRNT1  -  trna nucleotidyl transferase, cca-adding, 1, MOS  -  v-mos moloney murine sarcoma viral oncogene homolog, MOV10  -  mov10, moloney leukemia virus 10, homolog (mouse), GTPBP4  -  gtp binding protein 4, TAF1  -  taf1 rna polymerase ii, tata box binding protein (tbp)-associated factor, 250kda, ABCC1  -  atp-binding cassette, sub-family c (cftr/mrp), member 1, MLKL  -  mixed lineage kinase domain-like, IKBKE  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase epsilon, DDX59  -  dead (asp-glu-ala-asp) box polypeptide 59, ACSF3  -  acyl-coa synthetase family member 3, MAP3K7  -  mitogen-activated protein kinase kinase kinase 7, NLRC3  -  nlr family, card domain containing 3, TTLL4  -  tubulin tyrosine ligase-like family, member 4, UCK1  -  uridine-cytidine kinase 1, RHOJ  -  ras homolog family member j, IRAK4  -  interleukin-1 receptor-associated kinase 4, CLK4  -  cdc-like kinase 4, EEF1A2  -  eukaryotic translation elongation factor 1 alpha 2, EIF5B  -  eukaryotic translation initiation factor 5b, DYNC1LI1  -  dynein, cytoplasmic 1, light intermediate chain 1, RAB22A  -  rab22a, member ras oncogene family, PPIP5K1  -  diphosphoinositol pentakisphosphate kinase 1, SPO11  -  spo11 meiotic protein covalently bound to dsb, MYO1B  -  myosin ib, RAPGEF2  -  rap guanine nucleotide exchange factor (gef) 2, MYO15A  -  myosin xva, MSH2  -  muts homolog 2, colon cancer, nonpolyposis type 1 (e. coli), MSH4  -  muts homolog 4 (e. coli), TUBD1  -  tubulin, delta 1, MSH5  -  muts homolog 5 (e. coli), HSPA14  -  heat shock 70kda protein 14, EIF2S3  -  eukaryotic translation initiation factor 2, subunit 3 gamma, 52kda, GPN3  -  gpn-loop gtpase 3, EPHA2  -  eph receptor a2, ULK2  -  unc-51 like autophagy activating kinase 2, TCP1  -  t-complex 1, AQR  -  aquarius homolog (mouse), EIF4G1  -  eukaryotic translation initiation factor 4 gamma, 1, EIF5  -  eukaryotic translation initiation factor 5, NIN  -  ninein (gsk3b interacting protein), DDX47  -  dead (asp-glu-ala-asp) box polypeptide 47, RIOK1  -  rio kinase 1, PIKFYVE  -  phosphoinositide kinase, fyve finger containing, SGK3  -  serum/glucocorticoid regulated kinase family, member 3, VPRBP  -  vpr (hiv-1) binding protein, RIMKLB  -  ribosomal modification protein rimk-like family member b, LONP2  -  lon peptidase 2, peroxisomal, ARL13B  -  adp-ribosylation factor-like 13b, AARS2  -  alanyl-trna synthetase 2, mitochondrial, MTHFD1  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1, methenyltetrahydrofolate cyclohydrolase, formyltetrahydrofolate synthetase, VRK3  -  vaccinia related kinase 3, MTIF2  -  mitochondrial translational initiation factor 2, SLK  -  ste20-like kinase, STARD9  -  star-related lipid transfer (start) domain containing 9, SHPK  -  sedoheptulokinase, WEE2  -  wee1 homolog 2 (s. pombe), TDG  -  thymine-dna glycosylase, ALPK3  -  alpha-kinase 3, EPB42  -  erythrocyte membrane protein band 4.2, RAB12  -  rab12, member ras oncogene family, EIF4A3  -  eukaryotic translation initiation factor 4a3, EPHA1  -  eph receptor a1, EPHA3  -  eph receptor a3, EPHA4  -  eph receptor a4, KIAA0232  -  kiaa0232, EPHA5  -  eph receptor a5, EPHA7  -  eph receptor a7, DNAJC27  -  dnaj (hsp40) homolog, subfamily c, member 27, EPHA8  -  eph receptor a8, TESK1  -  testis-specific kinase 1, TAOK1  -  tao kinase 1, EPHB1  -  eph receptor b1, EPHB2  -  eph receptor b2, EPHB3  -  eph receptor b3, DHX38  -  deah (asp-glu-ala-his) box polypeptide 38, RASL12  -  ras-like, family 12, BMS1  -  bms1 ribosome biogenesis factor, EPRS  -  glutamyl-prolyl-trna synthetase, GSG2  -  germ cell associated 2 (haspin), ERBB4  -  v-erb-b2 avian erythroblastic leukemia viral oncogene homolog 4, STK40  -  serine/threonine kinase 40, KIF4A  -  kinesin family member 4a, MVK  -  mevalonate kinase, MX1  -  myxovirus (influenza virus) resistance 1, interferon-inducible protein p78 (mouse), IP6K1  -  inositol hexakisphosphate kinase 1, ERCC3  -  excision repair cross-complementing rodent repair deficiency, complementation group 3, ERCC6  -  excision repair cross-complementing rodent repair deficiency, complementation group 6, TSSK1B  -  testis-specific serine kinase 1b, TGFBR2  -  transforming growth factor, beta receptor ii (70/80kda), STK32A  -  serine/threonine kinase 32a, ERN1  -  endoplasmic reticulum to nucleus signaling 1, BRIP1  -  brca1 interacting protein c-terminal helicase 1, MYH4  -  myosin, heavy chain 4, skeletal muscle, DSTYK  -  dual serine/threonine and tyrosine protein kinase, MYH6  -  myosin, heavy chain 6, cardiac muscle, alpha, MELK  -  maternal embryonic leucine zipper kinase, OBSCN  -  obscurin, cytoskeletal calmodulin and titin-interacting rhogef, MYH9  -  myosin, heavy chain 9, non-muscle, MYH10  -  myosin, heavy chain 10, non-muscle, MYH11  -  myosin, heavy chain 11, smooth muscle, RAD54B  -  rad54 homolog b (s. cerevisiae), KATNAL1  -  katanin p60 subunit a-like 1, MYLK  -  myosin light chain kinase, TAOK3  -  tao kinase 3, MYO1C  -  myosin ic, MYO1D  -  myosin id, TK2  -  thymidine kinase 2, mitochondrial, MYO1E  -  myosin ie, MYO5A  -  myosin va (heavy chain 12, myoxin), MYO6  -  myosin vi, MYO7A  -  myosin viia, MYO9A  -  myosin ixa, TTLL1  -  tubulin tyrosine ligase-like family, member 1, EP400  -  e1a binding protein p400, CHST15  -  carbohydrate (n-acetylgalactosamine 4-sulfate 6-o) sulfotransferase 15, MYO9B  -  myosin ixb, MYO10  -  myosin x, MYH7B  -  myosin, heavy chain 7b, cardiac muscle, beta, DHX37  -  deah (asp-glu-ala-his) box polypeptide 37, ZRANB3  -  zinc finger, ran-binding domain containing 3, HIPK1  -  homeodomain interacting protein kinase 1, DDX46  -  dead (asp-glu-ala-asp) box polypeptide 46, ARL6  -  adp-ribosylation factor-like 6, MYLK4  -  myosin light chain kinase family, member 4, RHOBTB1  -  rho-related btb domain containing 1, PRKAG2  -  protein kinase, amp-activated, gamma 2 non-catalytic subunit, ACSL1  -  acyl-coa synthetase long-chain family member 1, DDX41  -  dead (asp-glu-ala-asp) box polypeptide 41, ACSL3  -  acyl-coa synthetase long-chain family member 3, ACSL4  -  acyl-coa synthetase long-chain family member 4, MYO18A  -  myosin xviiia, PTK2B  -  protein tyrosine kinase 2 beta, DDX55  -  dead (asp-glu-ala-asp) box polypeptide 55, FANCM  -  fanconi anemia, complementation group m, IP6K2  -  inositol hexakisphosphate kinase 2, ATP2C2  -  atpase, ca++ transporting, type 2c, member 2, NRBP2  -  nuclear receptor binding protein 2, FAM20B  -  family with sequence similarity 20, member b, NLRC5  -  nlr family, card domain containing 5, TOP1  -  topoisomerase (dna) i, TOP2A  -  topoisomerase (dna) ii alpha 170kda, MFN2  -  mitofusin 2, TOP2B  -  topoisomerase (dna) ii beta 180kda, KIF14  -  kinesin family member 14, CHD6  -  chromodomain helicase dna binding protein 6, HELZ  -  helicase with zinc finger, RTCB  -  rna 2',3'-cyclic phosphate and 5'-oh ligase, MTHFD1L  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1-like, XYLB  -  xylulokinase homolog (h. influenzae), DRG1  -  developmentally regulated gtp binding protein 1, CMPK2  -  cytidine monophosphate (ump-cmp) kinase 2, mitochondrial, LARS  -  leucyl-trna synthetase, NEK1  -  nima-related kinase 1, NEK2  -  nima-related kinase 2, HSP90B1  -  heat shock protein 90kda beta (grp94), member 1, NEK3  -  nima-related kinase 3, RAB40C  -  rab40c, member ras oncogene family, SAMHD1  -  sam domain and hd domain 1, THRAP3  -  thyroid hormone receptor associated protein 3, RAP2C  -  rap2c, member of ras oncogene family, TRIO  -  trio rho guanine nucleotide exchange factor, FGFR1  -  fibroblast growth factor receptor 1, FGFR3  -  fibroblast growth factor receptor 3, ACVR1C  -  activin a receptor, type ic, CAMKK1  -  calcium/calmodulin-dependent protein kinase kinase 1, alpha, FGFR2  -  fibroblast growth factor receptor 2, FGFR4  -  fibroblast growth factor receptor 4, PARS2  -  prolyl-trna synthetase 2, mitochondrial (putative), AKT3  -  v-akt murine thymoma viral oncogene homolog 3, CKMT1A  -  creatine kinase, mitochondrial 1a, DNAH1  -  dynein, axonemal, heavy chain 1, NOA1  -  nitric oxide associated 1, RHOU  -  ras homolog family member u, ULK3  -  unc-51 like kinase 3, NEK5  -  nima-related kinase 5, NTPCR  -  nucleoside-triphosphatase, cancer-related, NME4  -  nme/nm23 nucleoside diphosphate kinase 4, ACOT11  -  acyl-coa thioesterase 11, FLT1  -  fms-related tyrosine kinase 1, FLT3  -  fms-related tyrosine kinase 3, RASD1  -  ras, dexamethasone-induced 1, FLT4  -  fms-related tyrosine kinase 4, SMC4  -  structural maintenance of chromosomes 4, RRAGD  -  ras-related gtp binding d, TTK  -  ttk protein kinase, TTN  -  titin, UBA2  -  ubiquitin-like modifier activating enzyme 2, GRK7  -  g protein-coupled receptor kinase 7, FARSB  -  phenylalanyl-trna synthetase, beta subunit, ABCC5  -  atp-binding cassette, sub-family c (cftr/mrp), member 5, ABCB6  -  atp-binding cassette, sub-family b (mdr/tap), member 6, DNM1L  -  dynamin 1-like, GIMD1  -  gimap family p-loop ntpase domain containing 1, TUBG1  -  tubulin, gamma 1, DNM3  -  dynamin 3, GLYCTK  -  glycerate kinase, HACL1  -  2-hydroxyacyl-coa lyase 1, NLK  -  nemo-like kinase, ACSL5  -  acyl-coa synthetase long-chain family member 5, ATP9A  -  atpase, class ii, type 9a, NPR2  -  natriuretic peptide receptor b/guanylate cyclase b (atrionatriuretic peptide receptor b), TYRO3  -  tyro3 protein tyrosine kinase, RAB23  -  rab23, member ras oncogene family, TRPV4  -  transient receptor potential cation channel, subfamily v, member 4, CMPK1  -  cytidine monophosphate (ump-cmp) kinase 1, cytosolic, AK9  -  adenylate kinase 9, UBA1  -  ubiquitin-like modifier activating enzyme 1, ACTR3  -  arp3 actin-related protein 3 homolog (yeast), ACTR2  -  arp2 actin-related protein 2 homolog (yeast), UBE2B  -  ubiquitin-conjugating enzyme e2b, AASDH  -  aminoadipate-semialdehyde dehydrogenase, NSF  -  n-ethylmaleimide-sensitive factor, UBE2D2  -  ubiquitin-conjugating enzyme e2d 2, UBE2E2  -  ubiquitin-conjugating enzyme e2e 2, RTEL1  -  regulator of telomere elongation helicase 1, UBE2G1  -  ubiquitin-conjugating enzyme e2g 1, UBE2G2  -  ubiquitin-conjugating enzyme e2g 2, UBE2H  -  ubiquitin-conjugating enzyme e2h, KCNT2  -  potassium channel, subfamily t, member 2, CDK12  -  cyclin-dependent kinase 12, UBE2L3  -  ubiquitin-conjugating enzyme e2l 3, RAD50  -  rad50 homolog (s. cerevisiae), UBE2N  -  ubiquitin-conjugating enzyme e2n, KIF20A  -  kinesin family member 20a, ATP8A2  -  atpase, aminophospholipid transporter, class i, type 8a, member 2, RAB8B  -  rab8b, member ras oncogene family, NTRK3  -  neurotrophic tyrosine kinase, receptor, type 3, KIF6  -  kinesin family member 6, ROR1  -  receptor tyrosine kinase-like orphan receptor 1, DDR2  -  discoidin domain receptor tyrosine kinase 2, MCM8  -  minichromosome maintenance complex component 8, NVL  -  nuclear vcp-like, TRAP1  -  tnf receptor-associated protein 1, ARFRP1  -  adp-ribosylation factor related protein 1, ACSS1  -  acyl-coa synthetase short-chain family member 1, KIF26A  -  kinesin family member 26a, ABCA12  -  atp-binding cassette, sub-family a (abc1), member 12, G3BP1  -  gtpase activating protein (sh3 domain) binding protein 1, UCK2  -  uridine-cytidine kinase 2, MTG2  -  mitochondrial ribosome-associated gtpase 2, GRPEL2  -  grpe-like 2, mitochondrial (e. coli), DHX35  -  deah (asp-glu-ala-his) box polypeptide 35, OPA1  -  optic atrophy 1 (autosomal dominant), FRK  -  fyn-related kinase, SRR  -  serine racemase, ARL5A  -  adp-ribosylation factor-like 5a, TTBK1  -  tau tubulin kinase 1, ORC1  -  origin recognition complex, subunit 1, UBE2O  -  ubiquitin-conjugating enzyme e2o, ORC4  -  origin recognition complex, subunit 4, TNK2  -  tyrosine kinase, non-receptor, 2, ORC5  -  origin recognition complex, subunit 5, HS3ST5  -  heparan sulfate (glucosamine) 3-o-sulfotransferase 5, MYO3A  -  myosin iiia, NME6  -  nme/nm23 nucleoside diphosphate kinase 6, CSNK1G1  -  casein kinase 1, gamma 1, CHTF18  -  ctf18, chromosome transmission fidelity factor 18 homolog (s. cerevisiae), MTOR  -  mechanistic target of rapamycin (serine/threonine kinase), P2RX1  -  purinergic receptor p2x, ligand-gated ion channel, 1]</t>
-  </si>
-  <si>
     <t>GO:0032555</t>
   </si>
   <si>
     <t>purine ribonucleotide binding</t>
   </si>
   <si>
-    <t>[P2RX4  -  purinergic receptor p2x, ligand-gated ion channel, 4, P2RX5  -  purinergic receptor p2x, ligand-gated ion channel, 5, TRPV1  -  transient receptor potential cation channel, subfamily v, member 1, VRK1  -  vaccinia related kinase 1, VRK2  -  vaccinia related kinase 2, P2RY4  -  pyrimidinergic receptor p2y, g-protein coupled, 4, MAPK15  -  mitogen-activated protein kinase 15, LRGUK  -  leucine-rich repeats and guanylate kinase domain containing, PEBP1  -  phosphatidylethanolamine binding protein 1, ABCA2  -  atp-binding cassette, sub-family a (abc1), member 2, ABCA3  -  atp-binding cassette, sub-family a (abc1), member 3, ERAL1  -  era-like 12s mitochondrial rrna chaperone 1, ABCB7  -  atp-binding cassette, sub-family b (mdr/tap), member 7, GNAT3  -  guanine nucleotide binding protein, alpha transducing 3, ABCA4  -  atp-binding cassette, sub-family a (abc1), member 4, ABL1  -  c-abl oncogene 1, non-receptor tyrosine kinase, AK5  -  adenylate kinase 5, KIF13A  -  kinesin family member 13a, WEE1  -  wee1 homolog (s. pombe), ACACA  -  acetyl-coa carboxylase alpha, ACACB  -  acetyl-coa carboxylase beta, PAK1  -  p21 protein (cdc42/rac)-activated kinase 1, FIGNL1  -  fidgetin-like 1, PAK2  -  p21 protein (cdc42/rac)-activated kinase 2, MYO18B  -  myosin xviiib, ACADL  -  acyl-coa dehydrogenase, long chain, PAK3  -  p21 protein (cdc42/rac)-activated kinase 3, GNL3  -  guanine nucleotide binding protein-like 3 (nucleolar), ACLY  -  atp citrate lyase, FYN  -  fyn oncogene related to src, fgr, yes, RBKS  -  ribokinase, ABCC4  -  atp-binding cassette, sub-family c (cftr/mrp), member 4, MCCC2  -  methylcrotonoyl-coa carboxylase 2 (beta), ACTA1  -  actin, alpha 1, skeletal muscle, RIPK4  -  receptor-interacting serine-threonine kinase 4, POPDC2  -  popeye domain containing 2, XRCC6  -  x-ray repair complementing defective repair in chinese hamster cells 6, PCCA  -  propionyl coa carboxylase, alpha polypeptide, PCCB  -  propionyl coa carboxylase, beta polypeptide, ACTG2  -  actin, gamma 2, smooth muscle, enteric, PCK1  -  phosphoenolpyruvate carboxykinase 1 (soluble), XRCC2  -  x-ray repair complementing defective repair in chinese hamster cells 2, XRCC3  -  x-ray repair complementing defective repair in chinese hamster cells 3, XRCC5  -  x-ray repair complementing defective repair in chinese hamster cells 5 (double-strand-break rejoining), RRAGC  -  ras-related gtp binding c, YES1  -  v-yes-1 yamaguchi sarcoma viral oncogene homolog 1, FN3K  -  fructosamine 3 kinase, SPEG  -  speg complex locus, ACVR1  -  activin a receptor, type i, LATS2  -  large tumor suppressor kinase 2, DNAJA2  -  dnaj (hsp40) homolog, subfamily a, member 2, ACVR2B  -  activin a receptor, type iib, CDK17  -  cyclin-dependent kinase 17, CDK18  -  cyclin-dependent kinase 18, ZAP70  -  zeta-chain (tcr) associated protein kinase 70kda, ABCG4  -  atp-binding cassette, sub-family g (white), member 4, KIF9  -  kinesin family member 9, GALK1  -  galactokinase 1, GALK2  -  galactokinase 2, RAB19  -  rab19, member ras oncogene family, ADCY1  -  adenylate cyclase 1 (brain), ADCY2  -  adenylate cyclase 2 (brain), ADCY3  -  adenylate cyclase 3, PDE4B  -  phosphodiesterase 4b, camp-specific, ADCY5  -  adenylate cyclase 5, PDE4D  -  phosphodiesterase 4d, camp-specific, ADCY7  -  adenylate cyclase 7, PDE6C  -  phosphodiesterase 6c, cgmp-specific, cone, alpha prime, ADCY8  -  adenylate cyclase 8 (brain), ADCY9  -  adenylate cyclase 9, PDE6H  -  phosphodiesterase 6h, cgmp-specific, cone, gamma, PDGFRA  -  platelet-derived growth factor receptor, alpha polypeptide, GART  -  phosphoribosylglycinamide formyltransferase, phosphoribosylglycinamide synthetase, phosphoribosylaminoimidazole synthetase, ATL2  -  atlastin gtpase 2, PDGFRB  -  platelet-derived growth factor receptor, beta polypeptide, MOV10L1  -  mov10l1, moloney leukemia virus 10-like 1, homolog (mouse), ABCG5  -  atp-binding cassette, sub-family g (white), member 5, PDK3  -  pyruvate dehydrogenase kinase, isozyme 3, ABCG8  -  atp-binding cassette, sub-family g (white), member 8, PDK4  -  pyruvate dehydrogenase kinase, isozyme 4, SMCR7L  -  smith-magenis syndrome chromosome region, candidate 7-like, IPMK  -  inositol polyphosphate multikinase, FBXO18  -  f-box protein, helicase, 18, GCH1  -  gtp cyclohydrolase 1, ADRBK1  -  adrenergic, beta, receptor kinase 1, ATAD1  -  atpase family, aaa domain containing 1, ADRBK2  -  adrenergic, beta, receptor kinase 2, PEX1  -  peroxisomal biogenesis factor 1, PEX6  -  peroxisomal biogenesis factor 6, TUBB3  -  tubulin, beta 3 class iii, MPP5  -  membrane protein, palmitoylated 5 (maguk p55 subfamily member 5), RHOF  -  ras homolog family member f (in filopodia), GEM  -  gtp binding protein overexpressed in skeletal muscle, PFKFB2  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 2, PFKFB3  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 3, PFKFB4  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 4, NOD1  -  nucleotide-binding oligomerization domain containing 1, PFKL  -  phosphofructokinase, liver, RPS6KC1  -  ribosomal protein s6 kinase, 52kda, polypeptide 1, PFKP  -  phosphofructokinase, platelet, CDK14  -  cyclin-dependent kinase 14, NMNAT3  -  nicotinamide nucleotide adenylyltransferase 3, AK2  -  adenylate kinase 2, AK4  -  adenylate kinase 4, TTLL10  -  tubulin tyrosine ligase-like family, member 10, AKT1  -  v-akt murine thymoma viral oncogene homolog 1, ABCB1  -  atp-binding cassette, sub-family b (mdr/tap), member 1, TESK2  -  testis-specific kinase 2, DDX49  -  dead (asp-glu-ala-asp) box polypeptide 49, GK  -  glycerol kinase, MCM9  -  minichromosome maintenance complex component 9, ABCD2  -  atp-binding cassette, sub-family d (ald), member 2, PHKG1  -  phosphorylase kinase, gamma 1 (muscle), ALK  -  anaplastic lymphoma receptor tyrosine kinase, GCLC  -  glutamate-cysteine ligase, catalytic subunit, ECI2  -  enoyl-coa delta isomerase 2, INO80  -  ino80 complex subunit, MERTK  -  c-mer proto-oncogene tyrosine kinase, ACBD3  -  acyl-coa binding domain containing 3, RERG  -  ras-like, estrogen-regulated, growth inhibitor, GLUD1  -  glutamate dehydrogenase 1, PIK3C2A  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 alpha, PIK3C2B  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 beta, PIK3C2G  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 gamma, PIK3CA  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit alpha, PIK3CB  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit beta, GLUL  -  glutamate-ammonia ligase, PIK3CD  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit delta, PIK3CG  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit gamma, PI4KB  -  phosphatidylinositol 4-kinase, catalytic, beta, UBE2E3  -  ubiquitin-conjugating enzyme e2e 3, IPPK  -  inositol 1,3,4,5,6-pentakisphosphate 2-kinase, DAP3  -  death associated protein 3, GTPBP2  -  gtp binding protein 2, PIP4K2A  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, alpha, GNA11  -  guanine nucleotide binding protein (g protein), alpha 11 (gq class), GNA12  -  guanine nucleotide binding protein (g protein) alpha 12, GNAI1  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 1, GNAI2  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 2, GPN2  -  gpn-loop gtpase 2, GNAI3  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 3, CNGB3  -  cyclic nucleotide gated channel beta 3, GNAL  -  guanine nucleotide binding protein (g protein), alpha activating activity polypeptide, olfactory type, CERK  -  ceramide kinase, PKM  -  pyruvate kinase, muscle, STK25  -  serine/threonine kinase 25, RAB39A  -  rab39a, member ras oncogene family, DDX31  -  dead (asp-glu-ala-asp) box polypeptide 31, MAPKAPK3  -  mitogen-activated protein kinase-activated protein kinase 3, ANXA6  -  annexin a6, CHORDC1  -  cysteine and histidine-rich domain (chord) containing 1, NMNAT1  -  nicotinamide nucleotide adenylyltransferase 1, APAF1  -  apoptotic peptidase activating factor 1, DDX17  -  dead (asp-glu-ala-asp) box helicase 17, MYLK2  -  myosin light chain kinase 2, HYOU1  -  hypoxia up-regulated 1, PAN3  -  pan3 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), STK35  -  serine/threonine kinase 35, PLK1  -  polo-like kinase 1, TPK1  -  thiamin pyrophosphokinase 1, MLH3  -  mutl homolog 3 (e. coli), ATP2C1  -  atpase, ca++ transporting, type 2c, member 1, TRIT1  -  trna isopentenyltransferase 1, HELZ2  -  helicase with zinc finger 2, transcriptional coactivator, APRT  -  adenine phosphoribosyltransferase, DCLK3  -  doublecortin-like kinase 3, ERCC6L  -  excision repair cross-complementing rodent repair deficiency, complementation group 6-like, TRPM7  -  transient receptor potential cation channel, subfamily m, member 7, PMS2  -  pms2 postmeiotic segregation increased 2 (s. cerevisiae), ABCC6  -  atp-binding cassette, sub-family c (cftr/mrp), member 6, CCT7  -  chaperonin containing tcp1, subunit 7 (eta), CCT4  -  chaperonin containing tcp1, subunit 4 (delta), CCT2  -  chaperonin containing tcp1, subunit 2 (beta), ARF4  -  adp-ribosylation factor 4, GFM1  -  g elongation factor, mitochondrial 1, ARF6  -  adp-ribosylation factor 6, MTHFS  -  5,10-methenyltetrahydrofolate synthetase (5-formyltetrahydrofolate cyclo-ligase), ARHGEF5  -  rho guanine nucleotide exchange factor (gef) 5, GRK4  -  g protein-coupled receptor kinase 4, RHOB  -  ras homolog family member b, GRK5  -  g protein-coupled receptor kinase 5, PINK1  -  pten induced putative kinase 1, GRK6  -  g protein-coupled receptor kinase 6, EIF2AK1  -  eukaryotic translation initiation factor 2-alpha kinase 1, RND3  -  rho family gtpase 3, RHOG  -  ras homolog family member g, CDK15  -  cyclin-dependent kinase 15, ARHGAP5  -  rho gtpase activating protein 5, SHPRH  -  snf2 histone linker phd ring helicase, e3 ubiquitin protein ligase, ARL1  -  adp-ribosylation factor-like 1, SNRK  -  snf related kinase, ARL3  -  adp-ribosylation factor-like 3, SMC1B  -  structural maintenance of chromosomes 1b, HSPA12A  -  heat shock 70kda protein 12a, WNK1  -  wnk lysine deficient protein kinase 1, STK36  -  serine/threonine kinase 36, NADK  -  nad kinase, NAV3  -  neuron navigator 3, NAV2  -  neuron navigator 2, UBE2Z  -  ubiquitin-conjugating enzyme e2z, ABCC10  -  atp-binding cassette, sub-family c (cftr/mrp), member 10, ASNS  -  asparagine synthetase (glutamine-hydrolyzing), CAMKK2  -  calcium/calmodulin-dependent protein kinase kinase 2, beta, ASS1  -  argininosuccinate synthase 1, VPS4A  -  vacuolar protein sorting 4 homolog a (s. cerevisiae), AACS  -  acetoacetyl-coa synthetase, GSK3B  -  glycogen synthase kinase 3 beta, GSPT1  -  g1 to s phase transition 1, GSS  -  glutathione synthetase, FARS2  -  phenylalanyl-trna synthetase 2, mitochondrial, RRAGA  -  ras-related gtp binding a, ATM  -  ataxia telangiectasia mutated, MAGI3  -  membrane associated guanylate kinase, ww and pdz domain containing 3, GNA13  -  guanine nucleotide binding protein (g protein), alpha 13, NMRK2  -  nicotinamide riboside kinase 2, ATP1A1  -  atpase, na+/k+ transporting, alpha 1 polypeptide, DPH6  -  diphthamine biosynthesis 6, ATP12A  -  atpase, h+/k+ transporting, nongastric, alpha polypeptide, MSH6  -  muts homolog 6 (e. coli), GTF2F2  -  general transcription factor iif, polypeptide 2, 30kda, RND2  -  rho family gtpase 2, ATP2A3  -  atpase, ca++ transporting, ubiquitous, ATP2B1  -  atpase, ca++ transporting, plasma membrane 1, CCT8  -  chaperonin containing tcp1, subunit 8 (theta), ATP2B4  -  atpase, ca++ transporting, plasma membrane 4, CAMKV  -  cam kinase-like vesicle-associated, GUCY1A2  -  guanylate cyclase 1, soluble, alpha 2, POLQ  -  polymerase (dna directed), theta, UCKL1  -  uridine-cytidine kinase 1-like 1, GUCY1A3  -  guanylate cyclase 1, soluble, alpha 3, GUCY1B3  -  guanylate cyclase 1, soluble, beta 3, YME1L1  -  yme1-like 1 atpase, GUCY2C  -  guanylate cyclase 2c (heat stable enterotoxin receptor), GUCY2F  -  guanylate cyclase 2f, retinal, GUK1  -  guanylate kinase 1, MKKS  -  mckusick-kaufman syndrome, ATP6V1A  -  atpase, h+ transporting, lysosomal 70kda, v1 subunit a, SPATA5L1  -  spermatogenesis associated 5-like 1, TTBK2  -  tau tubulin kinase 2, KIF7  -  kinesin family member 7, ATP6AP1  -  atpase, h+ transporting, lysosomal accessory protein 1, ATP7A  -  atpase, cu++ transporting, alpha polypeptide, PRKACB  -  protein kinase, camp-dependent, catalytic, beta, DDX54  -  dead (asp-glu-ala-asp) box polypeptide 54, MAP3K2  -  mitogen-activated protein kinase kinase kinase 2, ATP7B  -  atpase, cu++ transporting, beta polypeptide, RAB30  -  rab30, member ras oncogene family, ULK4  -  unc-51 like kinase 4, ATR  -  ataxia telangiectasia and rad3 related, SYN3  -  synapsin iii, GTPBP6  -  gtp binding protein 6 (putative), ATRX  -  alpha thalassemia/mental retardation syndrome x-linked, PRKAR2A  -  protein kinase, camp-dependent, regulatory, type ii, alpha, KIF1A  -  kinesin family member 1a, ATP9B  -  atpase, class ii, type 9b, PRKAR2B  -  protein kinase, camp-dependent, regulatory, type ii, beta, PRKCA  -  protein kinase c, alpha, PRKCB  -  protein kinase c, beta, PRKCD  -  protein kinase c, delta, PRKCE  -  protein kinase c, epsilon, RPS6KA6  -  ribosomal protein s6 kinase, 90kda, polypeptide 6, PRKCH  -  protein kinase c, eta, HBS1L  -  hbs1-like (s. cerevisiae), PKN2  -  protein kinase n2, PRKCQ  -  protein kinase c, theta, PRKCZ  -  protein kinase c, zeta, PRKDC  -  protein kinase, dna-activated, catalytic polypeptide, PRKG1  -  protein kinase, cgmp-dependent, type i, MAPK1  -  mitogen-activated protein kinase 1, MAPK6  -  mitogen-activated protein kinase 6, TOR1B  -  torsin family 1, member b (torsin b), NEK6  -  nima-related kinase 6, MAPK8  -  mitogen-activated protein kinase 8, MAPK11  -  mitogen-activated protein kinase 11, MAPK9  -  mitogen-activated protein kinase 9, MAPK10  -  mitogen-activated protein kinase 10, MAPK13  -  mitogen-activated protein kinase 13, MAP2K1  -  mitogen-activated protein kinase kinase 1, TOR2A  -  torsin family 2, member a, MAP2K6  -  mitogen-activated protein kinase kinase 6, EIF2AK2  -  eukaryotic translation initiation factor 2-alpha kinase 2, DHX58  -  dexh (asp-glu-x-his) box polypeptide 58, HCK  -  hemopoietic cell kinase, HSPH1  -  heat shock 105kda/110kda protein 1, CDC7  -  cell division cycle 7, HCN2  -  hyperpolarization activated cyclic nucleotide-gated potassium channel 2, BCR  -  breakpoint cluster region, BCS1L  -  bc1 (ubiquinol-cytochrome c reductase) synthesis-like, PRPS1  -  phosphoribosyl pyrophosphate synthetase 1, PRPS2  -  phosphoribosyl pyrophosphate synthetase 2, ADCK2  -  aarf domain containing kinase 2, BLK  -  b lymphoid tyrosine kinase, DHX57  -  deah (asp-glu-ala-asp/his) box polypeptide 57, BLM  -  bloom syndrome, recq helicase-like, CLPX  -  clpx caseinolytic peptidase x homolog (e. coli), PDE10A  -  phosphodiesterase 10a, HK2  -  hexokinase 2, ENTPD8  -  ectonucleoside triphosphate diphosphohydrolase 8, BMPR1A  -  bone morphogenetic protein receptor, type ia, PSKH1  -  protein serine kinase h1, BMPR2  -  bone morphogenetic protein receptor, type ii (serine/threonine kinase), BRAF  -  v-raf murine sarcoma viral oncogene homolog b, PSMC1  -  proteasome (prosome, macropain) 26s subunit, atpase, 1, PSMC2  -  proteasome (prosome, macropain) 26s subunit, atpase, 2, PSMC3  -  proteasome (prosome, macropain) 26s subunit, atpase, 3, RAB10  -  rab10, member ras oncogene family, PSMC5  -  proteasome (prosome, macropain) 26s subunit, atpase, 5, FIGN  -  fidgetin, HLCS  -  holocarboxylase synthetase (biotin-(proprionyl-coa-carboxylase (atp-hydrolysing)) ligase), PIP4K2B  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, beta, BTK  -  bruton agammaglobulinemia tyrosine kinase, ACBD5  -  acyl-coa binding domain containing 5, PKDCC  -  protein kinase domain containing, cytoplasmic, BUB1  -  bub1 mitotic checkpoint serine/threonine kinase, MTPAP  -  mitochondrial poly(a) polymerase, HMGCL  -  3-hydroxymethyl-3-methylglutaryl-coa lyase, BUB1B  -  bub1 mitotic checkpoint serine/threonine kinase b, ULK1  -  unc-51 like autophagy activating kinase 1, DARS2  -  aspartyl-trna synthetase 2, mitochondrial, PAPOLA  -  poly(a) polymerase alpha, ATP8B3  -  atpase, aminophospholipid transporter, class i, type 8b, member 3, TDRD12  -  tudor domain containing 12, RAD54L  -  rad54-like (s. cerevisiae), PTK2  -  protein tyrosine kinase 2, DYRK3  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 3, DYRK2  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 2, PTK7  -  protein tyrosine kinase 7, TWF1  -  twinfilin actin-binding protein 1, HNRNPU  -  heterogeneous nuclear ribonucleoprotein u (scaffold attachment factor a), MPPED2  -  metallophosphoesterase domain containing 2, NEK9  -  nima-related kinase 9, NADSYN1  -  nad synthetase 1, TTF2  -  transcription termination factor, rna polymerase ii, MYLK3  -  myosin light chain kinase 3, CDC42BPA  -  cdc42 binding protein kinase alpha (dmpk-like), KSR2  -  kinase suppressor of ras 2, CACNA1B  -  calcium channel, voltage-dependent, n type, alpha 1b subunit, GATC  -  glutamyl-trna(gln) amidotransferase, subunit c, ASCC3  -  activating signal cointegrator 1 complex subunit 3, MAP4K3  -  mitogen-activated protein kinase kinase kinase kinase 3, RAB32  -  rab32, member ras oncogene family, ETNK2  -  ethanolamine kinase 2, NAT10  -  n-acetyltransferase 10 (gcn5-related), PANK4  -  pantothenate kinase 4, MTG1  -  mitochondrial ribosome-associated gtpase 1, ATP13A3  -  atpase type 13a3, PDIK1L  -  pdlim1 interacting kinase 1 like, UBA6  -  ubiquitin-like modifier activating enzyme 6, CARS2  -  cysteinyl-trna synthetase 2, mitochondrial (putative), ABCD4  -  atp-binding cassette, sub-family d (ald), member 4, KIF2C  -  kinesin family member 2c, ALDH18A1  -  aldehyde dehydrogenase 18 family, member a1, TLK2  -  tousled-like kinase 2, STRADA  -  ste20-related kinase adaptor alpha, CAMK4  -  calcium/calmodulin-dependent protein kinase iv, CAMK2A  -  calcium/calmodulin-dependent protein kinase ii alpha, DGKZ  -  diacylglycerol kinase, zeta, CAMK2D  -  calcium/calmodulin-dependent protein kinase ii delta, DGKE  -  diacylglycerol kinase, epsilon 64kda, HRAS  -  harvey rat sarcoma viral oncogene homolog, CAMK2G  -  calcium/calmodulin-dependent protein kinase ii gamma, DGKD  -  diacylglycerol kinase, delta 130kda, ACSS3  -  acyl-coa synthetase short-chain family member 3, IFT27  -  intraflagellar transport 27 homolog (chlamydomonas), RAB35  -  rab35, member ras oncogene family, RAB3A  -  rab3a, member ras oncogene family, RAB4A  -  rab4a, member ras oncogene family, RAB31  -  rab31, member ras oncogene family, NKIRAS2  -  nfkb inhibitor interacting ras-like 2, NKIRAS1  -  nfkb inhibitor interacting ras-like 1, CARS  -  cysteinyl-trna synthetase, QRSL1  -  glutaminyl-trna synthase (glutamine-hydrolyzing)-like 1, PIM3  -  pim-3 oncogene, RAC1  -  ras-related c3 botulinum toxin substrate 1 (rho family, small gtp binding protein rac1), RAC2  -  ras-related c3 botulinum toxin substrate 2 (rho family, small gtp binding protein rac2), UBE2W  -  ubiquitin-conjugating enzyme e2w (putative), RAC3  -  ras-related c3 botulinum toxin substrate 3 (rho family, small gtp binding protein rac3), MAPKAPK5  -  mitogen-activated protein kinase-activated protein kinase 5, RHOT1  -  ras homolog family member t1, DNAJA1  -  dnaj (hsp40) homolog, subfamily a, member 1, RAD51  -  rad51 recombinase, RAD51C  -  rad51 paralog c, PANK3  -  pantothenate kinase 3, HSPA4  -  heat shock 70kda protein 4, CDK10  -  cyclin-dependent kinase 10, RAD51D  -  rad51 paralog d, DDX52  -  dead (asp-glu-ala-asp) box polypeptide 52, RUNX2  -  runt-related transcription factor 2, RAF1  -  v-raf-1 murine leukemia viral oncogene homolog 1, RUNX1  -  runt-related transcription factor 1, HSPA8  -  heat shock 70kda protein 8, HELB  -  helicase (dna) b, HSPA9  -  heat shock 70kda protein 9 (mortalin), PI4K2B  -  phosphatidylinositol 4-kinase type 2 beta, RALA  -  v-ral simian leukemia viral oncogene homolog a (ras related), RALB  -  v-ral simian leukemia viral oncogene homolog b, PDXK  -  pyridoxal (pyridoxine, vitamin b6) kinase, RAN  -  ran, member ras oncogene family, MKNK1  -  map kinase interacting serine/threonine kinase 1, DYNC2H1  -  dynein, cytoplasmic 2, heavy chain 1, RASL11A  -  ras-like, family 11, member a, UBE2Q2  -  ubiquitin-conjugating enzyme e2q family member 2, CASK  -  calcium/calmodulin-dependent serine protein kinase (maguk family), MARS2  -  methionyl-trna synthetase 2, mitochondrial, RAPGEF4  -  rap guanine nucleotide exchange factor (gef) 4, RAP1B  -  rap1b, member of ras oncogene family, DHX40  -  deah (asp-glu-ala-his) box polypeptide 40, HSPD1  -  heat shock 60kda protein 1 (chaperonin), STK16  -  serine/threonine kinase 16, NLRX1  -  nlr family member x1, TTL  -  tubulin tyrosine ligase, ABCF3  -  atp-binding cassette, sub-family f (gcn20), member 3, SMC6  -  structural maintenance of chromosomes 6, RUVBL1  -  ruvb-like 1 (e. coli), LSG1  -  large 60s subunit nuclear export gtpase 1, CCT6A  -  chaperonin containing tcp1, subunit 6a (zeta 1), KATNA1  -  katanin p60 (atpase containing) subunit a 1, LRRK1  -  leucine-rich repeat kinase 1, CDK13  -  cyclin-dependent kinase 13, CIT  -  citron (rho-interacting, serine/threonine kinase 21), NOL9  -  nucleolar protein 9, IARS  -  isoleucyl-trna synthetase, DNAH17  -  dynein, axonemal, heavy chain 17, KIF3A  -  kinesin family member 3a, RECQL  -  recq protein-like (dna helicase q1-like), TBCK  -  tbc1 domain containing kinase, GVINP1  -  gtpase, very large interferon inducible pseudogene 1, ABCB11  -  atp-binding cassette, sub-family b (mdr/tap), member 11, NARS2  -  asparaginyl-trna synthetase 2, mitochondrial (putative), DMC1  -  dna meiotic recombinase 1, UPF1  -  upf1 regulator of nonsense transcripts homolog (yeast), BBS10  -  bardet-biedl syndrome 10, PDE5A  -  phosphodiesterase 5a, cgmp-specific, RET  -  ret proto-oncogene, TTLL7  -  tubulin tyrosine ligase-like family, member 7, BVES  -  blood vessel epicardial substance, RFC1  -  replication factor c (activator 1) 1, 145kda, RFC2  -  replication factor c (activator 1) 2, 40kda, STRADB  -  ste20-related kinase adaptor beta, FICD  -  fic domain containing, RFC4  -  replication factor c (activator 1) 4, 37kda, ENTPD1  -  ectonucleoside triphosphate diphosphohydrolase 1, ENTPD2  -  ectonucleoside triphosphate diphosphohydrolase 2, IDE  -  insulin-degrading enzyme, ENTPD3  -  ectonucleoside triphosphate diphosphohydrolase 3, RABL2A  -  rab, member of ras oncogene family-like 2a, NEK8  -  nima-related kinase 8, DNAJA4  -  dnaj (hsp40) homolog, subfamily a, member 4, EIF2AK4  -  eukaryotic translation initiation factor 2 alpha kinase 4, ETNK1  -  ethanolamine kinase 1, CHST12  -  carbohydrate (chondroitin 4) sulfotransferase 12, DDX43  -  dead (asp-glu-ala-asp) box polypeptide 43, RHEB  -  ras homolog enriched in brain, RERGL  -  rerg/ras-like, MAP4K5  -  mitogen-activated protein kinase kinase kinase kinase 5, DNAH11  -  dynein, axonemal, heavy chain 11, CDC42  -  cell division cycle 42, ABCC3  -  atp-binding cassette, sub-family c (cftr/mrp), member 3, CHEK2  -  checkpoint kinase 2, DNAH3  -  dynein, axonemal, heavy chain 3, SBK1  -  sh3-binding domain kinase 1, RNASEL  -  ribonuclease l (2',5'-oligoisoadenylate synthetase-dependent), NEK10  -  nima-related kinase 10, DDX20  -  dead (asp-glu-ala-asp) box polypeptide 20, RNGTT  -  rna guanylyltransferase and 5'-phosphatase, UBE2Q1  -  ubiquitin-conjugating enzyme e2q family member 1, CDK3  -  cyclin-dependent kinase 3, BMP2K  -  bmp2 inducible kinase, CDK5  -  cyclin-dependent kinase 5, RIPK1  -  receptor (tnfrsf)-interacting serine-threonine kinase 1, CDK6  -  cyclin-dependent kinase 6, ABCE1  -  atp-binding cassette, sub-family e (oabp), member 1, CDK8  -  cyclin-dependent kinase 8, CDK9  -  cyclin-dependent kinase 9, KIF21A  -  kinesin family member 21a, IGHMBP2  -  immunoglobulin mu binding protein 2, KIF16B  -  kinesin family member 16b, RAB11A  -  rab11a, member ras oncogene family, RIPK2  -  receptor-interacting serine-threonine kinase 2, RIOK3  -  rio kinase 3, ROCK1  -  rho-associated, coiled-coil containing protein kinase 1, CENPE  -  centromere protein e, 312kda, ROS1  -  c-ros oncogene 1 , receptor tyrosine kinase, CHD7  -  chromodomain helicase dna binding protein 7, RP2  -  retinitis pigmentosa 2 (x-linked recessive), UBA5  -  ubiquitin-like modifier activating enzyme 5, RAB20  -  rab20, member ras oncogene family, DCAKD  -  dephospho-coa kinase domain containing, IKBKB  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase beta, CFTR  -  cystic fibrosis transmembrane conductance regulator (atp-binding cassette sub-family c, member 7), SUCLG2  -  succinate-coa ligase, gdp-forming, beta subunit, SUCLA2  -  succinate-coa ligase, adp-forming, beta subunit, DDX27  -  dead (asp-glu-ala-asp) box polypeptide 27, GPN1  -  gpn-loop gtpase 1, DDX42  -  dead (asp-glu-ala-asp) box helicase 42, CDKL1  -  cyclin-dependent kinase-like 1 (cdc2-related kinase), MFN1  -  mitofusin 1, CHD2  -  chromodomain helicase dna binding protein 2, SCYL2  -  scy1-like 2 (s. cerevisiae), ATAD5  -  atpase family, aaa domain containing 5, CHD4  -  chromodomain helicase dna binding protein 4, RABL6  -  rab, member ras oncogene family-like 6, TRMU  -  trna 5-methylaminomethyl-2-thiouridylate methyltransferase, TWF2  -  twinfilin actin-binding protein 2, GMPS  -  guanine monphosphate synthase, KIF12  -  kinesin family member 12, CHKA  -  choline kinase alpha, IARS2  -  isoleucyl-trna synthetase 2, mitochondrial, KSR1  -  kinase suppressor of ras 1, MRAS  -  muscle ras oncogene homolog, ABCA13  -  atp-binding cassette, sub-family a (abc1), member 13, HELQ  -  helicase, polq-like, TSR1  -  tsr1, 20s rrna accumulation, homolog (s. cerevisiae), HSPA4L  -  heat shock 70kda protein 4-like, N4BP2  -  nedd4 binding protein 2, CKB  -  creatine kinase, brain, RPS6KA2  -  ribosomal protein s6 kinase, 90kda, polypeptide 2, RPS6KA3  -  ribosomal protein s6 kinase, 90kda, polypeptide 3, RPS6KB1  -  ribosomal protein s6 kinase, 70kda, polypeptide 1, HHAT  -  hedgehog acyltransferase, RPS6KB2  -  ribosomal protein s6 kinase, 70kda, polypeptide 2, DDX18  -  dead (asp-glu-ala-asp) box polypeptide 18, AAK1  -  ap2 associated kinase 1, LMTK2  -  lemur tyrosine kinase 2, AGK  -  acylglycerol kinase, IRAK2  -  interleukin-1 receptor-associated kinase 2, CLCN3  -  chloride channel, voltage-sensitive 3, CLCN4  -  chloride channel, voltage-sensitive 4, PRPF4B  -  prp4 pre-mrna processing factor 4 homolog b (yeast), CLCN5  -  chloride channel, voltage-sensitive 5, CLCN6  -  chloride channel, voltage-sensitive 6, CLCN7  -  chloride channel, voltage-sensitive 7, DHX32  -  deah (asp-glu-ala-his) box polypeptide 32, CLK2  -  cdc-like kinase 2, CLK3  -  cdc-like kinase 3, RRM1  -  ribonucleotide reductase m1, MORC2  -  morc family cw-type zinc finger 2, PANK2  -  pantothenate kinase 2, MCMDC2  -  minichromosome maintenance domain containing 2, EPHA6  -  eph receptor a6, ITK  -  il2-inducible t-cell kinase, ABCC2  -  atp-binding cassette, sub-family c (cftr/mrp), member 2, DHX30  -  deah (asp-glu-ala-his) box helicase 30, ITPK1  -  inositol-tetrakisphosphate 1-kinase, ITPKA  -  inositol-trisphosphate 3-kinase a, ITPKB  -  inositol-trisphosphate 3-kinase b, AK8  -  adenylate kinase 8, CNGB1  -  cyclic nucleotide gated channel beta 1, ARL14  -  adp-ribosylation factor-like 14, RABL3  -  rab, member of ras oncogene family-like 3, PIF1  -  pif1 5'-to-3' dna helicase, CNGA2  -  cyclic nucleotide gated channel alpha 2, MAP3K19  -  mitogen-activated protein kinase kinase kinase 19, TTLL11  -  tubulin tyrosine ligase-like family, member 11, JAK1  -  janus kinase 1, SEPHS1  -  selenophosphate synthetase 1, KALRN  -  kalirin, rhogef kinase, CDKL2  -  cyclin-dependent kinase-like 2 (cdc2-related kinase), ACSM3  -  acyl-coa synthetase medium-chain family member 3, MAPK12  -  mitogen-activated protein kinase 12, MAP3K14  -  mitogen-activated protein kinase kinase kinase 14, BRSK2  -  br serine/threonine kinase 2, CCT5  -  chaperonin containing tcp1, subunit 5 (epsilon), BAZ1B  -  bromodomain adjacent to zinc finger domain, 1b, UBA3  -  ubiquitin-like modifier activating enzyme 3, MYO19  -  myosin xix, KCNJ1  -  potassium inwardly-rectifying channel, subfamily j, member 1, BTAF1  -  btaf1 rna polymerase ii, b-tfiid transcription factor-associated, 170kda, SCN8A  -  sodium channel, voltage gated, type viii, alpha subunit, KCNJ8  -  potassium inwardly-rectifying channel, subfamily j, member 8, HKDC1  -  hexokinase domain containing 1, NUGGC  -  nuclear gtpase, germinal center associated, CHD9  -  chromodomain helicase dna binding protein 9, MB21D1  -  mab-21 domain containing 1, SCP2  -  sterol carrier protein 2, SRL  -  sarcalumenin, PAPSS1  -  3'-phosphoadenosine 5'-phosphosulfate synthase 1, MAP3K6  -  mitogen-activated protein kinase kinase kinase 6, ALPK1  -  alpha-kinase 1, MAP3K8  -  mitogen-activated protein kinase kinase kinase 8, RAB21  -  rab21, member ras oncogene family, ACSS2  -  acyl-coa synthetase short-chain family member 2, STK38L  -  serine/threonine kinase 38 like, KDR  -  kinase insert domain receptor (a type iii receptor tyrosine kinase), KIF2A  -  kinesin heavy chain member 2a, KIF3C  -  kinesin family member 3c, LANCL2  -  lanc lantibiotic synthetase component c-like 2 (bacterial), KIF5B  -  kinesin family member 5b, KIF5C  -  kinesin family member 5c, KIFC3  -  kinesin family member c3, MYO16  -  myosin xvi, DNAJA3  -  dnaj (hsp40) homolog, subfamily a, member 3, MAST3  -  microtubule associated serine/threonine kinase 3, MYO5C  -  myosin vc, MAP3K15  -  mitogen-activated protein kinase kinase kinase 15, KIT  -  v-kit hardy-zuckerman 4 feline sarcoma viral oncogene homolog, ARL11  -  adp-ribosylation factor-like 11, TNIK  -  traf2 and nck interacting kinase, KIF21B  -  kinesin family member 21b, LATS1  -  large tumor suppressor kinase 1, SMG1  -  smg1 phosphatidylinositol 3-kinase-related kinase, CPS1  -  carbamoyl-phosphate synthase 1, mitochondrial, DGKH  -  diacylglycerol kinase, eta, KIF11  -  kinesin family member 11, NMNAT2  -  nicotinamide nucleotide adenylyltransferase 2, KIF25  -  kinesin family member 25, SMC3  -  structural maintenance of chromosomes 3, P2RX6  -  purinergic receptor p2x, ligand-gated ion channel, 6, SETX  -  senataxin, GTPBP8  -  gtp-binding protein 8 (putative), KRAS  -  kirsten rat sarcoma viral oncogene homolog, UBE2T  -  ubiquitin-conjugating enzyme e2t (putative), SWAP70  -  swap switching b-cell complex 70kda subunit, VWA8  -  von willebrand factor a domain containing 8, COASY  -  coa synthase, TTLL5  -  tubulin tyrosine ligase-like family, member 5, KIF1B  -  kinesin family member 1b, TBK1  -  tank-binding kinase 1, DGKI  -  diacylglycerol kinase, iota, SGK1  -  serum/glucocorticoid regulated kinase 1, CUL9  -  cullin 9, RAB39B  -  rab39b, member ras oncogene family, MAP3K13  -  mitogen-activated protein kinase kinase kinase 13, MAPK14  -  mitogen-activated protein kinase 14, ATP10B  -  atpase, class v, type 10b, AARSD1  -  alanyl-trna synthetase domain containing 1, RAD54L2  -  rad54-like 2 (s. cerevisiae), TEX14  -  testis expressed 14, CSK  -  c-src tyrosine kinase, MAST2  -  microtubule associated serine/threonine kinase 2, DCLK1  -  doublecortin-like kinase 1, CSNK1A1  -  casein kinase 1, alpha 1, HSPA12B  -  heat shock 70kd protein 12b, OLA1  -  obg-like atpase 1, CSNK1E  -  casein kinase 1, epsilon, CSNK1G2  -  casein kinase 1, gamma 2, STK31  -  serine/threonine kinase 31, CSNK2A1  -  casein kinase 2, alpha 1 polypeptide, DNAH7  -  dynein, axonemal, heavy chain 7, AGAP1  -  arfgap with gtpase domain, ankyrin repeat and ph domain 1, MAGI1  -  membrane associated guanylate kinase, ww and pdz domain containing 1, AGAP3  -  arfgap with gtpase domain, ankyrin repeat and ph domain 3, TTLL12  -  tubulin tyrosine ligase-like family, member 12, GNL2  -  guanine nucleotide binding protein-like 2 (nucleolar), PASK  -  pas domain containing serine/threonine kinase, EEF2K  -  eukaryotic elongation factor-2 kinase, HFM1  -  hfm1, atp-dependent dna helicase homolog (s. cerevisiae), RPS6KA5  -  ribosomal protein s6 kinase, 90kda, polypeptide 5, MFHAS1  -  malignant fibrous histiocytoma amplified sequence 1, LIG3  -  ligase iii, dna, atp-dependent, LIG4  -  ligase iv, dna, atp-dependent, TTLL9  -  tubulin tyrosine ligase-like family, member 9, MAPKAPK2  -  mitogen-activated protein kinase-activated protein</t>
-  </si>
-  <si>
-    <t>kinase 2, MDN1  -  mdn1, midasin homolog (yeast), NME7  -  nme/nm23 family member 7, STK17A  -  serine/threonine kinase 17a, LIMK2  -  lim domain kinase 2, CTPS2  -  ctp synthase 2, ATP11B  -  atpase, class vi, type 11b, IP6K3  -  inositol hexakisphosphate kinase 3, ACSBG1  -  acyl-coa synthetase bubblegum family member 1, ATP11C  -  atpase, class vi, type 11c, RHOBTB2  -  rho-related btb domain containing 2, SBK2  -  sh3-binding domain kinase family, member 2, BBS12  -  bardet-biedl syndrome 12, DCLK2  -  doublecortin-like kinase 2, NRBP1  -  nuclear receptor binding protein 1, SIK2  -  salt-inducible kinase 2, SLC19A1  -  solute carrier family 19 (folate transporter), member 1, TRIP13  -  thyroid hormone receptor interactor 13, ATP11A  -  atpase, class vi, type 11a, SLC22A4  -  solute carrier family 22 (organic cation/zwitterion transporter), member 4, EFTUD2  -  elongation factor tu gtp binding domain containing 2, LONP1  -  lon peptidase 1, mitochondrial, WRNIP1  -  werner helicase interacting protein 1, RAB28  -  rab28, member ras oncogene family, RAB9A  -  rab9a, member ras oncogene family, DGKB  -  diacylglycerol kinase, beta 90kda, KIF3B  -  kinesin family member 3b, EHD4  -  eh-domain containing 4, KIF13B  -  kinesin family member 13b, EHD3  -  eh-domain containing 3, ACSL6  -  acyl-coa synthetase long-chain family member 6, PIK3R4  -  phosphoinositide-3-kinase, regulatory subunit 4, SMARCAD1  -  swi/snf-related, matrix-associated actin-dependent regulator of chromatin, subfamily a, containing dead/h box 1, DHX33  -  deah (asp-glu-ala-his) box polypeptide 33, MCCC1  -  methylcrotonoyl-coa carboxylase 1 (alpha), NMUR2  -  neuromedin u receptor 2, PAK6  -  p21 protein (cdc42/rac)-activated kinase 6, SMARCAL1  -  swi/snf related, matrix associated, actin dependent regulator of chromatin, subfamily a-like 1, SOAT1  -  sterol o-acyltransferase 1, RECQL5  -  recq protein-like 5, DHX36  -  deah (asp-glu-ala-his) box polypeptide 36, DDX51  -  dead (asp-glu-ala-asp) box polypeptide 51, MAK  -  male germ cell-associated kinase, LRRK2  -  leucine-rich repeat kinase 2, SMCHD1  -  structural maintenance of chromosomes flexible hinge domain containing 1, DDX1  -  dead (asp-glu-ala-asp) box helicase 1, DDX3X  -  dead (asp-glu-ala-asp) box helicase 3, x-linked, DDX5  -  dead (asp-glu-ala-asp) box helicase 5, MARK1  -  map/microtubule affinity-regulating kinase 1, DHX8  -  deah (asp-glu-ala-his) box polypeptide 8, MARK3  -  map/microtubule affinity-regulating kinase 3, SPAG1  -  sperm associated antigen 1, DDX10  -  dead (asp-glu-ala-asp) box polypeptide 10, MAT1A  -  methionine adenosyltransferase i, alpha, DDX11  -  dead/h (asp-glu-ala-asp/his) box helicase 11, DHX15  -  deah (asp-glu-ala-his) box helicase 15, ABCG2  -  atp-binding cassette, sub-family g (white), member 2, PNPLA8  -  patatin-like phospholipase domain containing 8, SPAST  -  spastin, FAM20C  -  family with sequence similarity 20, member c, SPG7  -  spastic paraplegia 7 (pure and complicated autosomal recessive), ITM2B  -  integral membrane protein 2b, KIF15  -  kinesin family member 15, EIF2AK3  -  eukaryotic translation initiation factor 2-alpha kinase 3, SIK3  -  sik family kinase 3, MCM2  -  minichromosome maintenance complex component 2, MCM3  -  minichromosome maintenance complex component 3, MCM4  -  minichromosome maintenance complex component 4, MCM5  -  minichromosome maintenance complex component 5, LARS2  -  leucyl-trna synthetase 2, mitochondrial, PIP5K1C  -  phosphatidylinositol-4-phosphate 5-kinase, type i, gamma, ATP13A2  -  atpase type 13a2, SRC  -  v-src avian sarcoma (schmidt-ruppin a-2) viral oncogene homolog, DICER1  -  dicer 1, ribonuclease type iii, CYB5R3  -  cytochrome b5 reductase 3, ROCK2  -  rho-associated, coiled-coil containing protein kinase 2, TDRD9  -  tudor domain containing 9, SRMS  -  src-related kinase lacking c-terminal regulatory tyrosine and n-terminal myristylation sites, RARS2  -  arginyl-trna synthetase 2, mitochondrial, AK7  -  adenylate kinase 7, SRP54  -  signal recognition particle 54kda, PGS1  -  phosphatidylglycerophosphate synthase 1, SRPK1  -  srsf protein kinase 1, SRPK2  -  srsf protein kinase 2, KIF23  -  kinesin family member 23, RHOV  -  ras homolog family member v, MAP3K3  -  mitogen-activated protein kinase kinase kinase 3, MAP3K4  -  mitogen-activated protein kinase kinase kinase 4, DDX24  -  dead (asp-glu-ala-asp) box helicase 24, RAB8A  -  rab8a, member ras oncogene family, DNM1  -  dynamin 1, DNA2  -  dna replication helicase/nuclease 2, MET  -  met proto-oncogene, DNAH5  -  dynein, axonemal, heavy chain 5, DNAH8  -  dynein, axonemal, heavy chain 8, DNAH9  -  dynein, axonemal, heavy chain 9, ABCB10  -  atp-binding cassette, sub-family b (mdr/tap), member 10, ABCB9  -  atp-binding cassette, sub-family b (mdr/tap), member 9, VPS4B  -  vacuolar protein sorting 4 homolog b (s. cerevisiae), DYNC1H1  -  dynein, cytoplasmic 1, heavy chain 1, ABCA6  -  atp-binding cassette, sub-family a (abc1), member 6, ABCA5  -  atp-binding cassette, sub-family a (abc1), member 5, DYNC1LI2  -  dynein, cytoplasmic 1, light intermediate chain 2, CAMK1D  -  calcium/calmodulin-dependent protein kinase id, CIITA  -  class ii, major histocompatibility complex, transactivator, RAB37  -  rab37, member ras oncogene family, NUAK2  -  nuak family, snf1-like kinase, 2, MMAB  -  methylmalonic aciduria (cobalamin deficiency) cblb type, HSPA13  -  heat shock protein 70kda family, member 13, NEK4  -  nima-related kinase 4, STK3  -  serine/threonine kinase 3, STK4  -  serine/threonine kinase 4, CDKL5  -  cyclin-dependent kinase-like 5, STK10  -  serine/threonine kinase 10, STK11  -  serine/threonine kinase 11, CHD1L  -  chromodomain helicase dna binding protein 1-like, ADCK1  -  aarf domain containing kinase 1, PAK7  -  p21 protein (cdc42/rac)-activated kinase 7, MKI67  -  antigen identified by monoclonal antibody ki-67, SCYL3  -  scy1-like 3 (s. cerevisiae), GTPBP1  -  gtp binding protein 1, MLH1  -  mutl homolog 1, colon cancer, nonpolyposis type 2 (e. coli), MAP3K9  -  mitogen-activated protein kinase kinase kinase 9, DRG2  -  developmentally regulated gtp binding protein 2, ATL1  -  atlastin gtpase 1, KIF20B  -  kinesin family member 20b, SUPV3L1  -  suppressor of var1, 3-like 1 (s. cerevisiae), CAMK1G  -  calcium/calmodulin-dependent protein kinase ig, EARS2  -  glutamyl-trna synthetase 2, mitochondrial, ABCC8  -  atp-binding cassette, sub-family c (cftr/mrp), member 8, DNAH10  -  dynein, axonemal, heavy chain 10, ACTR3B  -  arp3 actin-related protein 3 homolog b (yeast), KIF18A  -  kinesin family member 18a, RAB36  -  rab36, member ras oncogene family, TNNI3K  -  tnni3 interacting kinase, SYN2  -  synapsin ii, ATP10A  -  atpase, class v, type 10a, ATP8B2  -  atpase, aminophospholipid transporter, class i, type 8b, member 2, ATP10D  -  atpase, class v, type 10d, MOCS1  -  molybdenum cofactor synthesis 1, RASD2  -  rasd family, member 2, ABCG1  -  atp-binding cassette, sub-family g (white), member 1, DYRK1A  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 1a, TRNT1  -  trna nucleotidyl transferase, cca-adding, 1, MOS  -  v-mos moloney murine sarcoma viral oncogene homolog, MOV10  -  mov10, moloney leukemia virus 10, homolog (mouse), GTPBP4  -  gtp binding protein 4, TAF1  -  taf1 rna polymerase ii, tata box binding protein (tbp)-associated factor, 250kda, ABCC1  -  atp-binding cassette, sub-family c (cftr/mrp), member 1, MLKL  -  mixed lineage kinase domain-like, IKBKE  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase epsilon, DDX59  -  dead (asp-glu-ala-asp) box polypeptide 59, ACSF3  -  acyl-coa synthetase family member 3, MAP3K7  -  mitogen-activated protein kinase kinase kinase 7, NLRC3  -  nlr family, card domain containing 3, TTLL4  -  tubulin tyrosine ligase-like family, member 4, UCK1  -  uridine-cytidine kinase 1, RHOJ  -  ras homolog family member j, IRAK4  -  interleukin-1 receptor-associated kinase 4, CLK4  -  cdc-like kinase 4, EEF1A2  -  eukaryotic translation elongation factor 1 alpha 2, EIF5B  -  eukaryotic translation initiation factor 5b, DYNC1LI1  -  dynein, cytoplasmic 1, light intermediate chain 1, RAB22A  -  rab22a, member ras oncogene family, PPIP5K1  -  diphosphoinositol pentakisphosphate kinase 1, SPO11  -  spo11 meiotic protein covalently bound to dsb, MYO1B  -  myosin ib, RAPGEF2  -  rap guanine nucleotide exchange factor (gef) 2, MYO15A  -  myosin xva, MSH2  -  muts homolog 2, colon cancer, nonpolyposis type 1 (e. coli), MSH4  -  muts homolog 4 (e. coli), TUBD1  -  tubulin, delta 1, MSH5  -  muts homolog 5 (e. coli), HSPA14  -  heat shock 70kda protein 14, EIF2S3  -  eukaryotic translation initiation factor 2, subunit 3 gamma, 52kda, GPN3  -  gpn-loop gtpase 3, EPHA2  -  eph receptor a2, ULK2  -  unc-51 like autophagy activating kinase 2, TCP1  -  t-complex 1, AQR  -  aquarius homolog (mouse), EIF4G1  -  eukaryotic translation initiation factor 4 gamma, 1, EIF5  -  eukaryotic translation initiation factor 5, NIN  -  ninein (gsk3b interacting protein), DDX47  -  dead (asp-glu-ala-asp) box polypeptide 47, RIOK1  -  rio kinase 1, PIKFYVE  -  phosphoinositide kinase, fyve finger containing, SGK3  -  serum/glucocorticoid regulated kinase family, member 3, VPRBP  -  vpr (hiv-1) binding protein, RIMKLB  -  ribosomal modification protein rimk-like family member b, LONP2  -  lon peptidase 2, peroxisomal, ARL13B  -  adp-ribosylation factor-like 13b, AARS2  -  alanyl-trna synthetase 2, mitochondrial, MTHFD1  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1, methenyltetrahydrofolate cyclohydrolase, formyltetrahydrofolate synthetase, VRK3  -  vaccinia related kinase 3, MTIF2  -  mitochondrial translational initiation factor 2, SLK  -  ste20-like kinase, STARD9  -  star-related lipid transfer (start) domain containing 9, SHPK  -  sedoheptulokinase, WEE2  -  wee1 homolog 2 (s. pombe), TDG  -  thymine-dna glycosylase, ALPK3  -  alpha-kinase 3, EPB42  -  erythrocyte membrane protein band 4.2, RAB12  -  rab12, member ras oncogene family, EIF4A3  -  eukaryotic translation initiation factor 4a3, EPHA1  -  eph receptor a1, EPHA3  -  eph receptor a3, EPHA4  -  eph receptor a4, KIAA0232  -  kiaa0232, EPHA5  -  eph receptor a5, EPHA7  -  eph receptor a7, DNAJC27  -  dnaj (hsp40) homolog, subfamily c, member 27, EPHA8  -  eph receptor a8, TESK1  -  testis-specific kinase 1, TAOK1  -  tao kinase 1, EPHB1  -  eph receptor b1, EPHB2  -  eph receptor b2, EPHB3  -  eph receptor b3, DHX38  -  deah (asp-glu-ala-his) box polypeptide 38, RASL12  -  ras-like, family 12, BMS1  -  bms1 ribosome biogenesis factor, EPRS  -  glutamyl-prolyl-trna synthetase, GSG2  -  germ cell associated 2 (haspin), ERBB4  -  v-erb-b2 avian erythroblastic leukemia viral oncogene homolog 4, STK40  -  serine/threonine kinase 40, KIF4A  -  kinesin family member 4a, MVK  -  mevalonate kinase, MX1  -  myxovirus (influenza virus) resistance 1, interferon-inducible protein p78 (mouse), IP6K1  -  inositol hexakisphosphate kinase 1, ERCC3  -  excision repair cross-complementing rodent repair deficiency, complementation group 3, ERCC6  -  excision repair cross-complementing rodent repair deficiency, complementation group 6, TSSK1B  -  testis-specific serine kinase 1b, TGFBR2  -  transforming growth factor, beta receptor ii (70/80kda), STK32A  -  serine/threonine kinase 32a, ERN1  -  endoplasmic reticulum to nucleus signaling 1, BRIP1  -  brca1 interacting protein c-terminal helicase 1, MYH4  -  myosin, heavy chain 4, skeletal muscle, DSTYK  -  dual serine/threonine and tyrosine protein kinase, MYH6  -  myosin, heavy chain 6, cardiac muscle, alpha, MELK  -  maternal embryonic leucine zipper kinase, OBSCN  -  obscurin, cytoskeletal calmodulin and titin-interacting rhogef, MYH9  -  myosin, heavy chain 9, non-muscle, MYH10  -  myosin, heavy chain 10, non-muscle, MYH11  -  myosin, heavy chain 11, smooth muscle, RAD54B  -  rad54 homolog b (s. cerevisiae), KATNAL1  -  katanin p60 subunit a-like 1, MYLK  -  myosin light chain kinase, TAOK3  -  tao kinase 3, MYO1C  -  myosin ic, MYO1D  -  myosin id, TK2  -  thymidine kinase 2, mitochondrial, MYO1E  -  myosin ie, MYO5A  -  myosin va (heavy chain 12, myoxin), MYO6  -  myosin vi, MYO7A  -  myosin viia, MYO9A  -  myosin ixa, TTLL1  -  tubulin tyrosine ligase-like family, member 1, EP400  -  e1a binding protein p400, CHST15  -  carbohydrate (n-acetylgalactosamine 4-sulfate 6-o) sulfotransferase 15, MYO9B  -  myosin ixb, MYO10  -  myosin x, MYH7B  -  myosin, heavy chain 7b, cardiac muscle, beta, DHX37  -  deah (asp-glu-ala-his) box polypeptide 37, ZRANB3  -  zinc finger, ran-binding domain containing 3, HIPK1  -  homeodomain interacting protein kinase 1, DDX46  -  dead (asp-glu-ala-asp) box polypeptide 46, ARL6  -  adp-ribosylation factor-like 6, MYLK4  -  myosin light chain kinase family, member 4, RHOBTB1  -  rho-related btb domain containing 1, PRKAG2  -  protein kinase, amp-activated, gamma 2 non-catalytic subunit, ACSL1  -  acyl-coa synthetase long-chain family member 1, DDX41  -  dead (asp-glu-ala-asp) box polypeptide 41, ACSL3  -  acyl-coa synthetase long-chain family member 3, ACSL4  -  acyl-coa synthetase long-chain family member 4, MYO18A  -  myosin xviiia, PTK2B  -  protein tyrosine kinase 2 beta, DDX55  -  dead (asp-glu-ala-asp) box polypeptide 55, FANCM  -  fanconi anemia, complementation group m, IP6K2  -  inositol hexakisphosphate kinase 2, ATP2C2  -  atpase, ca++ transporting, type 2c, member 2, NRBP2  -  nuclear receptor binding protein 2, FAM20B  -  family with sequence similarity 20, member b, NLRC5  -  nlr family, card domain containing 5, TOP1  -  topoisomerase (dna) i, TOP2A  -  topoisomerase (dna) ii alpha 170kda, MFN2  -  mitofusin 2, TOP2B  -  topoisomerase (dna) ii beta 180kda, KIF14  -  kinesin family member 14, CHD6  -  chromodomain helicase dna binding protein 6, HELZ  -  helicase with zinc finger, RTCB  -  rna 2',3'-cyclic phosphate and 5'-oh ligase, MTHFD1L  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1-like, XYLB  -  xylulokinase homolog (h. influenzae), DRG1  -  developmentally regulated gtp binding protein 1, CMPK2  -  cytidine monophosphate (ump-cmp) kinase 2, mitochondrial, LARS  -  leucyl-trna synthetase, NEK1  -  nima-related kinase 1, NEK2  -  nima-related kinase 2, HSP90B1  -  heat shock protein 90kda beta (grp94), member 1, NEK3  -  nima-related kinase 3, RAB40C  -  rab40c, member ras oncogene family, SAMHD1  -  sam domain and hd domain 1, THRAP3  -  thyroid hormone receptor associated protein 3, RAP2C  -  rap2c, member of ras oncogene family, TRIO  -  trio rho guanine nucleotide exchange factor, FGFR1  -  fibroblast growth factor receptor 1, FGFR3  -  fibroblast growth factor receptor 3, ACVR1C  -  activin a receptor, type ic, CAMKK1  -  calcium/calmodulin-dependent protein kinase kinase 1, alpha, FGFR2  -  fibroblast growth factor receptor 2, FGFR4  -  fibroblast growth factor receptor 4, PARS2  -  prolyl-trna synthetase 2, mitochondrial (putative), AKT3  -  v-akt murine thymoma viral oncogene homolog 3, CKMT1A  -  creatine kinase, mitochondrial 1a, DNAH1  -  dynein, axonemal, heavy chain 1, NOA1  -  nitric oxide associated 1, RHOU  -  ras homolog family member u, ULK3  -  unc-51 like kinase 3, NEK5  -  nima-related kinase 5, NTPCR  -  nucleoside-triphosphatase, cancer-related, NME4  -  nme/nm23 nucleoside diphosphate kinase 4, ACOT11  -  acyl-coa thioesterase 11, FLT1  -  fms-related tyrosine kinase 1, FLT3  -  fms-related tyrosine kinase 3, RASD1  -  ras, dexamethasone-induced 1, FLT4  -  fms-related tyrosine kinase 4, SMC4  -  structural maintenance of chromosomes 4, RRAGD  -  ras-related gtp binding d, TTK  -  ttk protein kinase, TTN  -  titin, UBA2  -  ubiquitin-like modifier activating enzyme 2, GRK7  -  g protein-coupled receptor kinase 7, FARSB  -  phenylalanyl-trna synthetase, beta subunit, ABCC5  -  atp-binding cassette, sub-family c (cftr/mrp), member 5, ABCB6  -  atp-binding cassette, sub-family b (mdr/tap), member 6, DNM1L  -  dynamin 1-like, GIMD1  -  gimap family p-loop ntpase domain containing 1, TUBG1  -  tubulin, gamma 1, DNM3  -  dynamin 3, GLYCTK  -  glycerate kinase, HACL1  -  2-hydroxyacyl-coa lyase 1, NLK  -  nemo-like kinase, ACSL5  -  acyl-coa synthetase long-chain family member 5, ATP9A  -  atpase, class ii, type 9a, NPR2  -  natriuretic peptide receptor b/guanylate cyclase b (atrionatriuretic peptide receptor b), TYRO3  -  tyro3 protein tyrosine kinase, RAB23  -  rab23, member ras oncogene family, TRPV4  -  transient receptor potential cation channel, subfamily v, member 4, CMPK1  -  cytidine monophosphate (ump-cmp) kinase 1, cytosolic, AK9  -  adenylate kinase 9, UBA1  -  ubiquitin-like modifier activating enzyme 1, ACTR3  -  arp3 actin-related protein 3 homolog (yeast), ACTR2  -  arp2 actin-related protein 2 homolog (yeast), UBE2B  -  ubiquitin-conjugating enzyme e2b, AASDH  -  aminoadipate-semialdehyde dehydrogenase, NSF  -  n-ethylmaleimide-sensitive factor, UBE2D2  -  ubiquitin-conjugating enzyme e2d 2, UBE2E2  -  ubiquitin-conjugating enzyme e2e 2, RTEL1  -  regulator of telomere elongation helicase 1, UBE2G1  -  ubiquitin-conjugating enzyme e2g 1, UBE2G2  -  ubiquitin-conjugating enzyme e2g 2, UBE2H  -  ubiquitin-conjugating enzyme e2h, KCNT2  -  potassium channel, subfamily t, member 2, CDK12  -  cyclin-dependent kinase 12, UBE2L3  -  ubiquitin-conjugating enzyme e2l 3, RAD50  -  rad50 homolog (s. cerevisiae), UBE2N  -  ubiquitin-conjugating enzyme e2n, KIF20A  -  kinesin family member 20a, ATP8A2  -  atpase, aminophospholipid transporter, class i, type 8a, member 2, RAB8B  -  rab8b, member ras oncogene family, NTRK3  -  neurotrophic tyrosine kinase, receptor, type 3, KIF6  -  kinesin family member 6, ROR1  -  receptor tyrosine kinase-like orphan receptor 1, DDR2  -  discoidin domain receptor tyrosine kinase 2, MCM8  -  minichromosome maintenance complex component 8, NVL  -  nuclear vcp-like, TRAP1  -  tnf receptor-associated protein 1, ARFRP1  -  adp-ribosylation factor related protein 1, ACSS1  -  acyl-coa synthetase short-chain family member 1, KIF26A  -  kinesin family member 26a, ABCA12  -  atp-binding cassette, sub-family a (abc1), member 12, G3BP1  -  gtpase activating protein (sh3 domain) binding protein 1, UCK2  -  uridine-cytidine kinase 2, MTG2  -  mitochondrial ribosome-associated gtpase 2, DHX35  -  deah (asp-glu-ala-his) box polypeptide 35, OPA1  -  optic atrophy 1 (autosomal dominant), FRK  -  fyn-related kinase, SRR  -  serine racemase, ARL5A  -  adp-ribosylation factor-like 5a, TTBK1  -  tau tubulin kinase 1, ORC1  -  origin recognition complex, subunit 1, UBE2O  -  ubiquitin-conjugating enzyme e2o, ORC4  -  origin recognition complex, subunit 4, TNK2  -  tyrosine kinase, non-receptor, 2, ORC5  -  origin recognition complex, subunit 5, HS3ST5  -  heparan sulfate (glucosamine) 3-o-sulfotransferase 5, MYO3A  -  myosin iiia, NME6  -  nme/nm23 nucleoside diphosphate kinase 6, CSNK1G1  -  casein kinase 1, gamma 1, CHTF18  -  ctf18, chromosome transmission fidelity factor 18 homolog (s. cerevisiae), MTOR  -  mechanistic target of rapamycin (serine/threonine kinase), P2RX1  -  purinergic receptor p2x, ligand-gated ion channel, 1]</t>
-  </si>
-  <si>
     <t>GO:1901265</t>
   </si>
   <si>
     <t>nucleoside phosphate binding</t>
   </si>
   <si>
-    <t>[P2RX4  -  purinergic receptor p2x, ligand-gated ion channel, 4, P2RX5  -  purinergic receptor p2x, ligand-gated ion channel, 5, TRPV1  -  transient receptor potential cation channel, subfamily v, member 1, VRK1  -  vaccinia related kinase 1, VRK2  -  vaccinia related kinase 2, P2RY4  -  pyrimidinergic receptor p2y, g-protein coupled, 4, MAPK15  -  mitogen-activated protein kinase 15, LRGUK  -  leucine-rich repeats and guanylate kinase domain containing, PEBP1  -  phosphatidylethanolamine binding protein 1, ABCA2  -  atp-binding cassette, sub-family a (abc1), member 2, ABCA3  -  atp-binding cassette, sub-family a (abc1), member 3, ABCB7  -  atp-binding cassette, sub-family b (mdr/tap), member 7, ERAL1  -  era-like 12s mitochondrial rrna chaperone 1, ABCA4  -  atp-binding cassette, sub-family a (abc1), member 4, GNAT3  -  guanine nucleotide binding protein, alpha transducing 3, ABL1  -  c-abl oncogene 1, non-receptor tyrosine kinase, AK5  -  adenylate kinase 5, KIF13A  -  kinesin family member 13a, WEE1  -  wee1 homolog (s. pombe), ACACA  -  acetyl-coa carboxylase alpha, ACACB  -  acetyl-coa carboxylase beta, PAK1  -  p21 protein (cdc42/rac)-activated kinase 1, FIGNL1  -  fidgetin-like 1, PAK2  -  p21 protein (cdc42/rac)-activated kinase 2, MYO18B  -  myosin xviiib, ACADL  -  acyl-coa dehydrogenase, long chain, PAK3  -  p21 protein (cdc42/rac)-activated kinase 3, ACADSB  -  acyl-coa dehydrogenase, short/branched chain, ACLY  -  atp citrate lyase, GNL3  -  guanine nucleotide binding protein-like 3 (nucleolar), ACOX1  -  acyl-coa oxidase 1, palmitoyl, FYN  -  fyn oncogene related to src, fgr, yes, RBKS  -  ribokinase, ABCC4  -  atp-binding cassette, sub-family c (cftr/mrp), member 4, MCCC2  -  methylcrotonoyl-coa carboxylase 2 (beta), ACTA1  -  actin, alpha 1, skeletal muscle, RIPK4  -  receptor-interacting serine-threonine kinase 4, POPDC2  -  popeye domain containing 2, XDH  -  xanthine dehydrogenase, XRCC6  -  x-ray repair complementing defective repair in chinese hamster cells 6, PCCA  -  propionyl coa carboxylase, alpha polypeptide, PCCB  -  propionyl coa carboxylase, beta polypeptide, ACTG2  -  actin, gamma 2, smooth muscle, enteric, XRCC2  -  x-ray repair complementing defective repair in chinese hamster cells 2, PCK1  -  phosphoenolpyruvate carboxykinase 1 (soluble), XRCC3  -  x-ray repair complementing defective repair in chinese hamster cells 3, MRPL39  -  mitochondrial ribosomal protein l39, XRCC5  -  x-ray repair complementing defective repair in chinese hamster cells 5 (double-strand-break rejoining), DUS1L  -  dihydrouridine synthase 1-like (s. cerevisiae), YES1  -  v-yes-1 yamaguchi sarcoma viral oncogene homolog 1, RRAGC  -  ras-related gtp binding c, FN3K  -  fructosamine 3 kinase, SPEG  -  speg complex locus, ACVR1  -  activin a receptor, type i, LATS2  -  large tumor suppressor kinase 2, DNAJA2  -  dnaj (hsp40) homolog, subfamily a, member 2, ACVR2B  -  activin a receptor, type iib, CDK17  -  cyclin-dependent kinase 17, CDK18  -  cyclin-dependent kinase 18, ZAP70  -  zeta-chain (tcr) associated protein kinase 70kda, ABCG4  -  atp-binding cassette, sub-family g (white), member 4, KIF9  -  kinesin family member 9, GALK1  -  galactokinase 1, HAO1  -  hydroxyacid oxidase (glycolate oxidase) 1, GALK2  -  galactokinase 2, ADCY1  -  adenylate cyclase 1 (brain), RAB19  -  rab19, member ras oncogene family, ADCY2  -  adenylate cyclase 2 (brain), ADCY3  -  adenylate cyclase 3, PDE4B  -  phosphodiesterase 4b, camp-specific, ADCY5  -  adenylate cyclase 5, PDE4D  -  phosphodiesterase 4d, camp-specific, ADCY7  -  adenylate cyclase 7, ADCY8  -  adenylate cyclase 8 (brain), PDE6C  -  phosphodiesterase 6c, cgmp-specific, cone, alpha prime, ADCY9  -  adenylate cyclase 9, PDE6H  -  phosphodiesterase 6h, cgmp-specific, cone, gamma, GAPDH  -  glyceraldehyde-3-phosphate dehydrogenase, PDGFRA  -  platelet-derived growth factor receptor, alpha polypeptide, GART  -  phosphoribosylglycinamide formyltransferase, phosphoribosylglycinamide synthetase, phosphoribosylaminoimidazole synthetase, PDGFRB  -  platelet-derived growth factor receptor, beta polypeptide, ATL2  -  atlastin gtpase 2, MOV10L1  -  mov10l1, moloney leukemia virus 10-like 1, homolog (mouse), ABCG5  -  atp-binding cassette, sub-family g (white), member 5, PDK3  -  pyruvate dehydrogenase kinase, isozyme 3, ABCG8  -  atp-binding cassette, sub-family g (white), member 8, PDK4  -  pyruvate dehydrogenase kinase, isozyme 4, PARP1  -  poly (adp-ribose) polymerase 1, AIFM2  -  apoptosis-inducing factor, mitochondrion-associated, 2, SMCR7L  -  smith-magenis syndrome chromosome region, candidate 7-like, IPMK  -  inositol polyphosphate multikinase, ZBTB38  -  zinc finger and btb domain containing 38, FBXO18  -  f-box protein, helicase, 18, GCH1  -  gtp cyclohydrolase 1, ADRBK1  -  adrenergic, beta, receptor kinase 1, ATAD1  -  atpase family, aaa domain containing 1, ADRBK2  -  adrenergic, beta, receptor kinase 2, SIL1  -  sil1 nucleotide exchange factor, PEX1  -  peroxisomal biogenesis factor 1, PEX6  -  peroxisomal biogenesis factor 6, MPP5  -  membrane protein, palmitoylated 5 (maguk p55 subfamily member 5), TUBB3  -  tubulin, beta 3 class iii, RHOF  -  ras homolog family member f (in filopodia), GEM  -  gtp binding protein overexpressed in skeletal muscle, PFKFB2  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 2, PFKFB3  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 3, GFER  -  growth factor, augmenter of liver regeneration, PFKFB4  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 4, NOD1  -  nucleotide-binding oligomerization domain containing 1, PFKL  -  phosphofructokinase, liver, RPS6KC1  -  ribosomal protein s6 kinase, 52kda, polypeptide 1, PFKP  -  phosphofructokinase, platelet, CDK14  -  cyclin-dependent kinase 14, PGD  -  phosphogluconate dehydrogenase, NMNAT3  -  nicotinamide nucleotide adenylyltransferase 3, AK2  -  adenylate kinase 2, AK4  -  adenylate kinase 4, TTLL10  -  tubulin tyrosine ligase-like family, member 10, AKT1  -  v-akt murine thymoma viral oncogene homolog 1, ABCB1  -  atp-binding cassette, sub-family b (mdr/tap), member 1, TESK2  -  testis-specific kinase 2, DDX49  -  dead (asp-glu-ala-asp) box polypeptide 49, ALDH2  -  aldehyde dehydrogenase 2 family (mitochondrial), GK  -  glycerol kinase, MCM9  -  minichromosome maintenance complex component 9, ALDH1A3  -  aldehyde dehydrogenase 1 family, member a3, ABCD2  -  atp-binding cassette, sub-family d (ald), member 2, PHKG1  -  phosphorylase kinase, gamma 1 (muscle), ALK  -  anaplastic lymphoma receptor tyrosine kinase, GCLC  -  glutamate-cysteine ligase, catalytic subunit, ECI2  -  enoyl-coa delta isomerase 2, INO80  -  ino80 complex subunit, MERTK  -  c-mer proto-oncogene tyrosine kinase, ACBD3  -  acyl-coa binding domain containing 3, GLUD1  -  glutamate dehydrogenase 1, PIK3C2A  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 alpha, RERG  -  ras-like, estrogen-regulated, growth inhibitor, PIK3C2B  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 beta, PIK3C2G  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 gamma, PIK3CA  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit alpha, PIK3CB  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit beta, GLUL  -  glutamate-ammonia ligase, PIK3CD  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit delta, PIK3CG  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit gamma, PI4KB  -  phosphatidylinositol 4-kinase, catalytic, beta, UBE2E3  -  ubiquitin-conjugating enzyme e2e 3, GMDS  -  gdp-mannose 4,6-dehydratase, IPPK  -  inositol 1,3,4,5,6-pentakisphosphate 2-kinase, DAP3  -  death associated protein 3, GTPBP2  -  gtp binding protein 2, PIP4K2A  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, alpha, GNA11  -  guanine nucleotide binding protein (g protein), alpha 11 (gq class), GNA12  -  guanine nucleotide binding protein (g protein) alpha 12, GNAI1  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 1, GNAI2  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 2, GPN2  -  gpn-loop gtpase 2, GNAI3  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 3, GNAL  -  guanine nucleotide binding protein (g protein), alpha activating activity polypeptide, olfactory type, CNGB3  -  cyclic nucleotide gated channel beta 3, CERK  -  ceramide kinase, PKM  -  pyruvate kinase, muscle, STK25  -  serine/threonine kinase 25, RAB39A  -  rab39a, member ras oncogene family, DDX31  -  dead (asp-glu-ala-asp) box polypeptide 31, MAPKAPK3  -  mitogen-activated protein kinase-activated protein kinase 3, ANXA6  -  annexin a6, CHORDC1  -  cysteine and histidine-rich domain (chord) containing 1, NMNAT1  -  nicotinamide nucleotide adenylyltransferase 1, AOX1  -  aldehyde oxidase 1, APAF1  -  apoptotic peptidase activating factor 1, DDX17  -  dead (asp-glu-ala-asp) box helicase 17, KCNAB1  -  potassium voltage-gated channel, shaker-related subfamily, beta member 1, MYLK2  -  myosin light chain kinase 2, HYOU1  -  hypoxia up-regulated 1, PAN3  -  pan3 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), STK35  -  serine/threonine kinase 35, PLK1  -  polo-like kinase 1, TPK1  -  thiamin pyrophosphokinase 1, GPD1  -  glycerol-3-phosphate dehydrogenase 1 (soluble), MLH3  -  mutl homolog 3 (e. coli), HSD17B8  -  hydroxysteroid (17-beta) dehydrogenase 8, ATP2C1  -  atpase, ca++ transporting, type 2c, member 1, TRIT1  -  trna isopentenyltransferase 1, ACAD8  -  acyl-coa dehydrogenase family, member 8, NOX1  -  nadph oxidase 1, HELZ2  -  helicase with zinc finger 2, transcriptional coactivator, APRT  -  adenine phosphoribosyltransferase, DCLK3  -  doublecortin-like kinase 3, ERCC6L  -  excision repair cross-complementing rodent repair deficiency, complementation group 6-like, TRPM7  -  transient receptor potential cation channel, subfamily m, member 7, EXOSC10  -  exosome component 10, PMS2  -  pms2 postmeiotic segregation increased 2 (s. cerevisiae), ABCC6  -  atp-binding cassette, sub-family c (cftr/mrp), member 6, CCT7  -  chaperonin containing tcp1, subunit 7 (eta), D2HGDH  -  d-2-hydroxyglutarate dehydrogenase, CCT4  -  chaperonin containing tcp1, subunit 4 (delta), CCT2  -  chaperonin containing tcp1, subunit 2 (beta), ARF4  -  adp-ribosylation factor 4, GFM1  -  g elongation factor, mitochondrial 1, POLA1  -  polymerase (dna directed), alpha 1, catalytic subunit, ARF6  -  adp-ribosylation factor 6, TXNRD2  -  thioredoxin reductase 2, MTHFS  -  5,10-methenyltetrahydrofolate synthetase (5-formyltetrahydrofolate cyclo-ligase), POLE  -  polymerase (dna directed), epsilon, catalytic subunit, GRK4  -  g protein-coupled receptor kinase 4, ARHGEF5  -  rho guanine nucleotide exchange factor (gef) 5, GRK5  -  g protein-coupled receptor kinase 5, PINK1  -  pten induced putative kinase 1, RHOB  -  ras homolog family member b, GRK6  -  g protein-coupled receptor kinase 6, EIF2AK1  -  eukaryotic translation initiation factor 2-alpha kinase 1, RND3  -  rho family gtpase 3, RHOG  -  ras homolog family member g, CDK15  -  cyclin-dependent kinase 15, POLR2D  -  polymerase (rna) ii (dna directed) polypeptide d, ARHGAP5  -  rho gtpase activating protein 5, SHPRH  -  snf2 histone linker phd ring helicase, e3 ubiquitin protein ligase, ARL1  -  adp-ribosylation factor-like 1, SNRK  -  snf related kinase, SMC1B  -  structural maintenance of chromosomes 1b, ARL3  -  adp-ribosylation factor-like 3, POR  -  p450 (cytochrome) oxidoreductase, HSPA12A  -  heat shock 70kda protein 12a, WNK1  -  wnk lysine deficient protein kinase 1, STK36  -  serine/threonine kinase 36, NADK  -  nad kinase, NAV3  -  neuron navigator 3, NDOR1  -  nadph dependent diflavin oxidoreductase 1, NAV2  -  neuron navigator 2, UBE2Z  -  ubiquitin-conjugating enzyme e2z, ABCC10  -  atp-binding cassette, sub-family c (cftr/mrp), member 10, ASNS  -  asparagine synthetase (glutamine-hydrolyzing), CAMKK2  -  calcium/calmodulin-dependent protein kinase kinase 2, beta, ASS1  -  argininosuccinate synthase 1, VPS4A  -  vacuolar protein sorting 4 homolog a (s. cerevisiae), AACS  -  acetoacetyl-coa synthetase, GSK3B  -  glycogen synthase kinase 3 beta, GSPT1  -  g1 to s phase transition 1, LHX4  -  lim homeobox 4, GSR  -  glutathione reductase, GSS  -  glutathione synthetase, DUS2  -  dihydrouridine synthase 2, FARS2  -  phenylalanyl-trna synthetase 2, mitochondrial, ATM  -  ataxia telangiectasia mutated, RRAGA  -  ras-related gtp binding a, MAGI3  -  membrane associated guanylate kinase, ww and pdz domain containing 3, NMRK2  -  nicotinamide riboside kinase 2, GNA13  -  guanine nucleotide binding protein (g protein), alpha 13, ATP1A1  -  atpase, na+/k+ transporting, alpha 1 polypeptide, DPH6  -  diphthamine biosynthesis 6, ATP12A  -  atpase, h+/k+ transporting, nongastric, alpha polypeptide, MSH6  -  muts homolog 6 (e. coli), GTF2F2  -  general transcription factor iif, polypeptide 2, 30kda, ATP2A3  -  atpase, ca++ transporting, ubiquitous, RND2  -  rho family gtpase 2, ATP2B1  -  atpase, ca++ transporting, plasma membrane 1, CCT8  -  chaperonin containing tcp1, subunit 8 (theta), ATP2B4  -  atpase, ca++ transporting, plasma membrane 4, CAMKV  -  cam kinase-like vesicle-associated, POLQ  -  polymerase (dna directed), theta, GUCY1A2  -  guanylate cyclase 1, soluble, alpha 2, TINAG  -  tubulointerstitial nephritis antigen, UCKL1  -  uridine-cytidine kinase 1-like 1, GUCY1A3  -  guanylate cyclase 1, soluble, alpha 3, YME1L1  -  yme1-like 1 atpase, GUCY1B3  -  guanylate cyclase 1, soluble, beta 3, GUCY2C  -  guanylate cyclase 2c (heat stable enterotoxin receptor), GUCY2F  -  guanylate cyclase 2f, retinal, GUK1  -  guanylate kinase 1, MKKS  -  mckusick-kaufman syndrome, ATP6V1A  -  atpase, h+ transporting, lysosomal 70kda, v1 subunit a, SPATA5L1  -  spermatogenesis associated 5-like 1, TTBK2  -  tau tubulin kinase 2, KIF7  -  kinesin family member 7, ATP6AP1  -  atpase, h+ transporting, lysosomal accessory protein 1, ATP7A  -  atpase, cu++ transporting, alpha polypeptide, PRKACB  -  protein kinase, camp-dependent, catalytic, beta, DDX54  -  dead (asp-glu-ala-asp) box polypeptide 54, MAP3K2  -  mitogen-activated protein kinase kinase kinase 2, ATP7B  -  atpase, cu++ transporting, beta polypeptide, RAB30  -  rab30, member ras oncogene family, ULK4  -  unc-51 like kinase 4, ATR  -  ataxia telangiectasia and rad3 related, SYN3  -  synapsin iii, ATRX  -  alpha thalassemia/mental retardation syndrome x-linked, GTPBP6  -  gtp binding protein 6 (putative), PRKAR2A  -  protein kinase, camp-dependent, regulatory, type ii, alpha, KIF1A  -  kinesin family member 1a, ATP9B  -  atpase, class ii, type 9b, PRKAR2B  -  protein kinase, camp-dependent, regulatory, type ii, beta, PRKCA  -  protein kinase c, alpha, PRKCB  -  protein kinase c, beta, PRKCD  -  protein kinase c, delta, PRKCE  -  protein kinase c, epsilon, RPS6KA6  -  ribosomal protein s6 kinase, 90kda, polypeptide 6, PRKCH  -  protein kinase c, eta, HBS1L  -  hbs1-like (s. cerevisiae), PKN2  -  protein kinase n2, PRKCQ  -  protein kinase c, theta, PRKCZ  -  protein kinase c, zeta, PRKDC  -  protein kinase, dna-activated, catalytic polypeptide, PRKG1  -  protein kinase, cgmp-dependent, type i, MAPK1  -  mitogen-activated protein kinase 1, HADH  -  hydroxyacyl-coa dehydrogenase, MAPK6  -  mitogen-activated protein kinase 6, TOR1B  -  torsin family 1, member b (torsin b), WDR77  -  wd repeat domain 77, NEK6  -  nima-related kinase 6, MAPK8  -  mitogen-activated protein kinase 8, MAPK11  -  mitogen-activated protein kinase 11, MAPK9  -  mitogen-activated protein kinase 9, MAPK10  -  mitogen-activated protein kinase 10, MAPK13  -  mitogen-activated protein kinase 13, MAP2K1  -  mitogen-activated protein kinase kinase 1, TOR2A  -  torsin family 2, member a, MAP2K6  -  mitogen-activated protein kinase kinase 6, EIF2AK2  -  eukaryotic translation initiation factor 2-alpha kinase 2, DHX58  -  dexh (asp-glu-x-his) box polypeptide 58, HCK  -  hemopoietic cell kinase, ACOX3  -  acyl-coa oxidase 3, pristanoyl, HSPH1  -  heat shock 105kda/110kda protein 1, CDC7  -  cell division cycle 7, PRODH  -  proline dehydrogenase (oxidase) 1, HCN2  -  hyperpolarization activated cyclic nucleotide-gated potassium channel 2, BCR  -  breakpoint cluster region, BCS1L  -  bc1 (ubiquinol-cytochrome c reductase) synthesis-like, PRPS1  -  phosphoribosyl pyrophosphate synthetase 1, PRPS2  -  phosphoribosyl pyrophosphate synthetase 2, DHRS11  -  dehydrogenase/reductase (sdr family) member 11, FAM114A2  -  family with sequence similarity 114, member a2, ADCK2  -  aarf domain containing kinase 2, BLK  -  b lymphoid tyrosine kinase, DHX57  -  deah (asp-glu-ala-asp/his) box polypeptide 57, BLM  -  bloom syndrome, recq helicase-like, CLPX  -  clpx caseinolytic peptidase x homolog (e. coli), HK2  -  hexokinase 2, PDE10A  -  phosphodiesterase 10a, ENTPD8  -  ectonucleoside triphosphate diphosphohydrolase 8, BMPR1A  -  bone morphogenetic protein receptor, type ia, PSKH1  -  protein serine kinase h1, BMPR2  -  bone morphogenetic protein receptor, type ii (serine/threonine kinase), ME3  -  malic enzyme 3, nadp(+)-dependent, mitochondrial, BRAF  -  v-raf murine sarcoma viral oncogene homolog b, PSMC1  -  proteasome (prosome, macropain) 26s subunit, atpase, 1, PSMC2  -  proteasome (prosome, macropain) 26s subunit, atpase, 2, PSMC3  -  proteasome (prosome, macropain) 26s subunit, atpase, 3, PSMC5  -  proteasome (prosome, macropain) 26s subunit, atpase, 5, RAB10  -  rab10, member ras oncogene family, FIGN  -  fidgetin, HLCS  -  holocarboxylase synthetase (biotin-(proprionyl-coa-carboxylase (atp-hydrolysing)) ligase), PIP4K2B  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, beta, BTK  -  bruton agammaglobulinemia tyrosine kinase, ACBD5  -  acyl-coa binding domain containing 5, PKDCC  -  protein kinase domain containing, cytoplasmic, BUB1  -  bub1 mitotic checkpoint serine/threonine kinase, MTPAP  -  mitochondrial poly(a) polymerase, HMGCL  -  3-hydroxymethyl-3-methylglutaryl-coa lyase, BUB1B  -  bub1 mitotic checkpoint serine/threonine kinase b, ULK1  -  unc-51 like autophagy activating kinase 1, DARS2  -  aspartyl-trna synthetase 2, mitochondrial, PAPOLA  -  poly(a) polymerase alpha, ATP8B3  -  atpase, aminophospholipid transporter, class i, type 8b, member 3, TDRD12  -  tudor domain containing 12, RAD54L  -  rad54-like (s. cerevisiae), PTK2  -  protein tyrosine kinase 2, DYRK3  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 3, DYRK2  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 2, PTK7  -  protein tyrosine kinase 7, TWF1  -  twinfilin actin-binding protein 1, HNRNPU  -  heterogeneous nuclear ribonucleoprotein u (scaffold attachment factor a), MPPED2  -  metallophosphoesterase domain containing 2, NEK9  -  nima-related kinase 9, NADSYN1  -  nad synthetase 1, TTF2  -  transcription termination factor, rna polymerase ii, MYLK3  -  myosin light chain kinase 3, QSOX1  -  quiescin q6 sulfhydryl oxidase 1, CDC42BPA  -  cdc42 binding protein kinase alpha (dmpk-like), KSR2  -  kinase suppressor of ras 2, CACNA1B  -  calcium channel, voltage-dependent, n type, alpha 1b subunit, GATC  -  glutamyl-trna(gln) amidotransferase, subunit c, ASCC3  -  activating signal cointegrator 1 complex subunit 3, MAP4K3  -  mitogen-activated protein kinase kinase kinase kinase 3, ETNK2  -  ethanolamine kinase 2, RAB32  -  rab32, member ras oncogene family, NAT10  -  n-acetyltransferase 10 (gcn5-related), PANK4  -  pantothenate kinase 4, ATP13A3  -  atpase type 13a3, MTG1  -  mitochondrial ribosome-associated gtpase 1, PDIK1L  -  pdlim1 interacting kinase 1 like, UBA6  -  ubiquitin-like modifier activating enzyme 6, SLC27A4  -  solute carrier family 27 (fatty acid transporter), member 4, CARS2  -  cysteinyl-trna synthetase 2, mitochondrial (putative), HPGD  -  hydroxyprostaglandin dehydrogenase 15-(nad), ABCD4  -  atp-binding cassette, sub-family d (ald), member 4, KIF2C  -  kinesin family member 2c, ALDH18A1  -  aldehyde dehydrogenase 18 family, member a1, TLK2  -  tousled-like kinase 2, STRADA  -  ste20-related kinase adaptor alpha, TYW1  -  trna-yw synthesizing protein 1 homolog (s. cerevisiae), CAMK4  -  calcium/calmodulin-dependent protein kinase iv, CAMK2A  -  calcium/calmodulin-dependent protein kinase ii alpha, DGKZ  -  diacylglycerol kinase, zeta, CAMK2D  -  calcium/calmodulin-dependent protein kinase ii delta, DGKE  -  diacylglycerol kinase, epsilon 64kda, CAMK2G  -  calcium/calmodulin-dependent protein kinase ii gamma, DGKD  -  diacylglycerol kinase, delta 130kda, HRAS  -  harvey rat sarcoma viral oncogene homolog, QDPR  -  quinoid dihydropteridine reductase, DDO  -  d-aspartate oxidase, ACSS3  -  acyl-coa synthetase short-chain family member 3, IFT27  -  intraflagellar transport 27 homolog (chlamydomonas), RAB35  -  rab35, member ras oncogene family, RAB3A  -  rab3a, member ras oncogene family, RAB4A  -  rab4a, member ras oncogene family, RAB31  -  rab31, member ras oncogene family, NKIRAS2  -  nfkb inhibitor interacting ras-like 2, AGPS  -  alkylglycerone phosphate synthase, NKIRAS1  -  nfkb inhibitor interacting ras-like 1, CARS  -  cysteinyl-trna synthetase, QRSL1  -  glutaminyl-trna synthase (glutamine-hydrolyzing)-like 1, PIM3  -  pim-3 oncogene, HSD11B1  -  hydroxysteroid (11-beta) dehydrogenase 1, HSD11B2  -  hydroxysteroid (11-beta) dehydrogenase 2, RAC1  -  ras-related c3 botulinum toxin substrate 1 (rho family, small gtp binding protein rac1), UBE2W  -  ubiquitin-conjugating enzyme e2w (putative), RAC2  -  ras-related c3 botulinum toxin substrate 2 (rho family, small gtp binding protein rac2), RAC3  -  ras-related c3 botulinum toxin substrate 3 (rho family, small gtp binding protein rac3), MAPKAPK5  -  mitogen-activated protein kinase-activated protein kinase 5, RHOT1  -  ras homolog family member t1, DNAJA1  -  dnaj (hsp40) homolog, subfamily a, member 1, RAD51  -  rad51 recombinase, RAD51C  -  rad51 paralog c, CAT  -  catalase, AIFM3  -  apoptosis-inducing factor, mitochondrion-associated, 3, PANK3  -  pantothenate kinase 3, HSPA4  -  heat shock 70kda protein 4, CDK10  -  cyclin-dependent kinase 10, RAD51D  -  rad51 paralog d, DDX52  -  dead (asp-glu-ala-asp) box polypeptide 52, RUNX2  -  runt-related transcription factor 2, RAF1  -  v-raf-1 murine leukemia viral oncogene homolog 1, RUNX1  -  runt-related transcription factor 1, HSPA8  -  heat shock 70kda protein 8, HELB  -  helicase (dna) b, HSPA9  -  heat shock 70kda protein 9 (mortalin), PI4K2B  -  phosphatidylinositol 4-kinase type 2 beta, KMO  -  kynurenine 3-monooxygenase (kynurenine 3-hydroxylase), RALA  -  v-ral simian leukemia viral oncogene homolog a (ras related), PDXK  -  pyridoxal (pyridoxine, vitamin b6) kinase, RALB  -  v-ral simian leukemia viral oncogene homolog b, DUS4L  -  dihydrouridine synthase 4-like (s. cerevisiae), RAN  -  ran, member ras oncogene family, MKNK1  -  map kinase interacting serine/threonine kinase 1, DYNC2H1  -  dynein, cytoplasmic 2, heavy chain 1, UBE2Q2  -  ubiquitin-conjugating enzyme e2q family member 2, RASL11A  -  ras-like, family 11, member a, CASK  -  calcium/calmodulin-dependent serine protein kinase (maguk family), MARS2  -  methionyl-trna synthetase 2, mitochondrial, RAPGEF4  -  rap guanine nucleotide exchange factor (gef) 4, DHX40  -  deah (asp-glu-ala-his) box polypeptide 40, RAP1B  -  rap1b, member of ras oncogene family, HSPD1  -  heat shock 60kda protein 1 (chaperonin), STK16  -  serine/threonine kinase 16, NLRX1  -  nlr family member x1, TTL  -  tubulin tyrosine ligase, NT5C1B  -  5'-nucleotidase, cytosolic ib, ABCF3  -  atp-binding cassette, sub-family f (gcn20), member 3, SMC6  -  structural maintenance of chromosomes 6, STEAP4  -  steap family member 4, RUVBL1  -  ruvb-like 1 (e. coli), LSG1  -  large 60s subunit nuclear export gtpase 1, CCT6A  -  chaperonin containing tcp1, subunit 6a (zeta 1), KATNA1  -  katanin p60 (atpase containing) subunit a 1, CHDH  -  choline dehydrogenase, HIBADH  -  3-hydroxyisobutyrate dehydrogenase, CDK13  -  cyclin-dependent kinase 13, CIT  -  citron (rho-interacting, serine/threonine kinase 21), LRRK1  -  leucine-rich repeat kinase 1, NOL9  -  nucleolar protein 9, IARS  -  isoleucyl-trna synthetase, DNAH17  -  dynein, axonemal, heavy chain 17, KIF3A  -  kinesin family member 3a, RECQL  -  recq protein-like (dna helicase q1-like), TBCK  -  tbc1 domain containing kinase, GVINP1  -  gtpase, very large interferon inducible pseudogene 1, ABCB11  -  atp-binding cassette, sub-family b (mdr/tap), member 11, NARS2  -  asparaginyl-trna synthetase 2, mitochondrial (putative), DMC1  -  dna meiotic recombinase 1, UPF1  -  upf1 regulator of nonsense transcripts homolog (yeast), BBS10  -  bardet-biedl syndrome 10, RET  -  ret proto-oncogene, TTLL7  -  tubulin tyrosine ligase-like family, member 7, PDE5A  -  phosphodiesterase 5a, cgmp-specific, BVES  -  blood vessel epicardial substance, REV3L  -  rev3-like, polymerase (dna directed), zeta, catalytic subunit, RFC1  -  replication factor c (activator 1) 1, 145kda, RFC2  -  replication factor c (activator 1) 2, 40kda, STRADB  -  ste20-related kinase adaptor beta, FICD  -  fic domain containing, RFC4  -  replication factor c (activator 1) 4, 37kda, ENTPD1  -  ectonucleoside triphosphate diphosphohydrolase 1, ENTPD2  -  ectonucleoside triphosphate diphosphohydrolase 2, IDE  -  insulin-degrading enzyme, IDH1  -  isocitrate dehydrogenase 1 (nadp+), soluble, ENTPD3  -  ectonucleoside triphosphate diphosphohydrolase 3, NEK8  -  nima-related kinase 8, RABL2A  -  rab, member of ras oncogene family-like 2a, DNAJA4  -  dnaj (hsp40) homolog, subfamily a, member 4, NUDT6  -  nudix (nucleoside diphosphate linked moiety x)-type motif 6, EIF2AK4  -  eukaryotic translation initiation factor 2 alpha kinase 4, ETNK1  -  ethanolamine kinase 1, CHST12  -  carbohydrate (chondroitin 4) sulfotransferase 12, DDX43  -  dead (asp-glu-ala-asp) box polypeptide 43, RHEB  -  ras homolog enriched in brain, MAP4K5  -  mitogen-activated protein kinase kinase kinase kinase 5, RERGL  -  rerg/ras-like, DNAH11  -  dynein, axonemal, heavy chain 11, CDC42  -  cell division cycle 42, ABCC3  -  atp-binding cassette, sub-family c (cftr/mrp), member 3, CHEK2  -  checkpoint kinase 2, DNAH3  -  dynein, axonemal, heavy chain 3, SBK1  -  sh3-binding domain kinase 1, RNASEL  -  ribonuclease l (2',5'-oligoisoadenylate synthetase-dependent), NEK10  -  nima-related kinase 10, DDX20  -  dead (asp-glu-ala-asp) box polypeptide 20, UBE2Q1  -  ubiquitin-conjugating enzyme e2q family member 1, RNGTT  -  rna guanylyltransferase and 5'-phosphatase, CDK3  -  cyclin-dependent kinase 3, BMP2K  -  bmp2 inducible kinase, CDK5  -  cyclin-dependent kinase 5, RIPK1  -  receptor (tnfrsf)-interacting serine-threonine kinase 1, CDK6  -  cyclin-dependent kinase 6, ABCE1  -  atp-binding cassette, sub-family e (oabp), member 1, CDK8  -  cyclin-dependent kinase 8, CDK9  -  cyclin-dependent kinase 9, KIF21A  -  kinesin family member 21a, IGHMBP2  -  immunoglobulin mu binding protein 2, KIF16B  -  kinesin family member 16b, CDX1  -  caudal type homeobox 1, RAB11A  -  rab11a, member ras oncogene family, RIPK2  -  receptor-interacting serine-threonine kinase 2, RIOK3  -  rio kinase 3, ROCK1  -  rho-associated, coiled-coil containing protein kinase 1, CENPE  -  centromere protein e, 312kda, ROS1  -  c-ros oncogene 1 , receptor tyrosine kinase, CHD7  -  chromodomain helicase dna binding protein 7, RP2  -  retinitis pigmentosa 2 (x-linked recessive), UBA5  -  ubiquitin-like modifier activating enzyme 5, DCAKD  -  dephospho-coa kinase domain containing, RAB20  -  rab20, member ras oncogene family, IKBKB  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase beta, CFTR  -  cystic fibrosis transmembrane conductance regulator (atp-binding cassette sub-family c, member 7), SUCLG2  -  succinate-coa ligase, gdp-forming, beta subunit, SUCLG1  -  succinate-coa ligase, alpha subunit, SUCLA2  -  succinate-coa ligase, adp-forming, beta subunit, DDX27  -  dead (asp-glu-ala-asp) box polypeptide 27, GPN1  -  gpn-loop gtpase 1, DDX42  -  dead (asp-glu-ala-asp) box helicase 42, CDKL1  -  cyclin-dependent kinase-like 1 (cdc2-related kinase), MFN1  -  mitofusin 1, CHD2  -  chromodomain helicase dna binding protein 2, SCYL2  -  scy1-like 2 (s. cerevisiae), ATAD5  -  atpase family, aaa domain containing 5, CHD4  -  chromodomain helicase dna binding protein 4, RABL6  -  rab, member ras oncogene family-like 6, TRMU  -  trna 5-methylaminomethyl-2-thiouridylate methyltransferase, TWF2  -  twinfilin actin-binding protein 2, GMPS  -  guanine monphosphate synthase, KIF12  -  kinesin family member 12, CHKA  -  choline kinase alpha, IARS2  -  isoleucyl-trna synthetase 2, mitochondrial, KSR1  -  kinase suppressor of ras 1, MRAS  -  muscle ras oncogene homolog, ABCA13  -  atp-binding cassette, sub-family a (abc1), member 13, HELQ  -  helicase, polq-like, IMPDH2  -  imp (inosine 5'-monophosphate) dehydrogenase 2, HSPA4L  -  heat shock 70kda protein 4-like, TSR1  -  tsr1, 20s rrna accumulation, homolog (s. cerevisiae), N4BP2  -  nedd4 binding protein 2, CKB  -  creatine kinase, brain, RPS6KA2  -  ribosomal protein s6 kinase, 90kda, polypeptide 2, RPS6KA3  -  ribosomal protein s6 kinase, 90kda, polypeptide 3, RPS6KB1  -  ribosomal protein s6 kinase, 70kda, polypeptide 1, RPS6KB2  -  ribosomal protein s6 kinase, 70kda, polypeptide 2, HHAT  -  hedgehog acyltransferase, TXNRD3  -  thioredoxin reductase 3, DDX18  -  dead (asp-glu-ala-asp) box polypeptide 18, AAK1  -  ap2 associated kinase 1, CHFR  -  checkpoint with forkhead and ring finger domains, e3 ubiquitin protein ligase, LMTK2  -  lemur tyrosine kinase 2, AGK  -  acylglycerol kinase, IRAK2  -  interleukin-1 receptor-associated kinase 2, CLCN3  -  chloride channel, voltage-sensitive 3, CLCN4  -  chloride channel, voltage-sensitive 4, PRPF4B  -  prp4 pre-mrna processing factor 4 homolog b (yeast), CLCN5  -  chloride channel, voltage-sensitive 5, CLCN6  -  chloride channel, voltage-sensitive 6, CLCN7  -  chloride channel, voltage-sensitive 7, DHX32  -  deah (asp-glu-ala-his) box polypeptide 32, CLK2  -  cdc-like kinase 2, FOXRED2  -  fad-dependent oxidoreductase domain containing 2, CLK3  -  cdc-like kinase 3, RRM1  -  ribonucleotide reductase m1, MORC2  -  morc family cw-type zinc finger 2, PANK2  -  pantothenate kinase 2, MCMDC2  -  minichromosome maintenance domain containing 2, EPHA6  -  eph receptor a6, ITK  -  il2-inducible t-cell kinase, ABCC2  -  atp-binding cassette, sub-family c (cftr/mrp), member 2, DHX30  -  deah (asp-glu-ala-his) box helicase 30, ITPK1  -  inositol-tetrakisphosphate 1-kinase, ITPKA  -  inositol-trisphosphate 3-kinase a, ITPKB  -  inositol-trisphosphate 3-kinase b, AK8  -  adenylate kinase 8, ARL14  -  adp-ribosylation factor-like 14, RABL3  -  rab, member of ras oncogene family-like 3, CNGB1  -  cyclic nucleotide gated channel beta 1, IVD  -  isovaleryl-coa dehydrogenase, PIF1  -  pif1 5'-to-3' dna helicase, MAP3K19  -  mitogen-activated protein kinase kinase kinase 19, TTLL11  -  tubulin tyrosine ligase-like family, member 11, CNGA2  -  cyclic nucleotide gated channel alpha 2, JAK1  -  janus kinase 1, CNP  -  2',3'-cyclic nucleotide 3' phosphodiesterase, KALRN  -  kalirin, rhogef kinase, SEPHS1  -  selenophosphate synthetase 1, VPS11  -  vacuolar protein sorting 11 homolog (s. cerevisiae), CDKL2  -  cyclin-dependent kinase-like 2 (cdc2-related kinase), ACSM3  -  acyl-coa synthetase medium-chain family member 3, MAPK12  -  mitogen-activated protein kinase 12, UXS1  -  udp-glucuronate decarboxylase 1, MAP3K14  -  mitogen-activated protein kinase kinase kinase 14, IYD  -  iodotyrosine deiodinase, BRSK2  -  br serine/threonine kinase 2, CCT5  -  chaperonin containing tcp1, subunit 5 (epsilon), BAZ1B  -  bromodomain adjacent to zinc finger domain, 1b, UBA3  -  ubiquitin-like modifier activating enzyme 3, MYO19  -  myosin xix, KCNJ1  -  potassium inwardly-rectifying channel, subfamily j, member 1, BTAF1  -  btaf1 rna polymerase ii, b-tfiid transcription factor-associated, 170kda, NT5C2  -  5'-nucleotidase, cytosolic ii, SCN8A  -  sodium channel, voltage gated, type viii, alpha subunit, KCNJ8  -  potassium inwardly-rectifying channel, subfamily j, member 8, HKDC1  -  hexokinase domain containing 1, CHD9  -  chromodomain helicase dna binding protein 9, NUGGC  -  nuclear gtpase, germinal center associated, MB21D1  -  mab-21 domain containing 1, SCP2  -  sterol carrier protein 2, NT5C3B  -  5'-nucleotidase, cytosolic iiib, PAPSS1  -  3'-phosphoadenosine 5'-phosphosulfate synthase 1, SRL  -  sarcalumenin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MAP3K6  -  mitogen-activated protein kinase kinase kinase 6, ALPK1  -  alpha-kinase 1, MAP3K8  -  mitogen-activated protein kinase kinase kinase 8, RAB21  -  rab21, member ras oncogene family, STK38L  -  serine/threonine kinase 38 like, ACSS2  -  acyl-coa synthetase short-chain family member 2, KDR  -  kinase insert domain receptor (a type iii receptor tyrosine kinase), KIF2A  -  kinesin heavy chain member 2a, KIF3C  -  kinesin family member 3c, LANCL2  -  lanc lantibiotic synthetase component c-like 2 (bacterial), KIF5B  -  kinesin family member 5b, KIF5C  -  kinesin family member 5c, KIFC3  -  kinesin family member c3, MYO16  -  myosin xvi, DNAJA3  -  dnaj (hsp40) homolog, subfamily a, member 3, MAST3  -  microtubule associated serine/threonine kinase 3, MYO5C  -  myosin vc, MAP3K15  -  mitogen-activated protein kinase kinase kinase 15, KIT  -  v-kit hardy-zuckerman 4 feline sarcoma viral oncogene homolog, SDHA  -  succinate dehydrogenase complex, subunit a, flavoprotein (fp), TNIK  -  traf2 and nck interacting kinase, ARL11  -  adp-ribosylation factor-like 11, KIF21B  -  kinesin family member 21b, LATS1  -  large tumor suppressor kinase 1, SMG1  -  smg1 phosphatidylinositol 3-kinase-related kinase, CPS1  -  carbamoyl-phosphate synthase 1, mitochondrial, DGKH  -  diacylglycerol kinase, eta, KIF11  -  kinesin family member 11, NMNAT2  -  nicotinamide nucleotide adenylyltransferase 2, KIF25  -  kinesin family member 25, SMC3  -  structural maintenance of chromosomes 3, P2RX6  -  purinergic receptor p2x, ligand-gated ion channel, 6, SETX  -  senataxin, GTPBP8  -  gtp-binding protein 8 (putative), AIFM1  -  apoptosis-inducing factor, mitochondrion-associated, 1, UBE2T  -  ubiquitin-conjugating enzyme e2t (putative), KRAS  -  kirsten rat sarcoma viral oncogene homolog, SWAP70  -  swap switching b-cell complex 70kda subunit, VWA8  -  von willebrand factor a domain containing 8, COASY  -  coa synthase, CRY1  -  cryptochrome 1 (photolyase-like), TTLL5  -  tubulin tyrosine ligase-like family, member 5, CRY2  -  cryptochrome 2 (photolyase-like), KIF1B  -  kinesin family member 1b, TBK1  -  tank-binding kinase 1, DGKI  -  diacylglycerol kinase, iota, SGK1  -  serum/glucocorticoid regulated kinase 1, ACAD10  -  acyl-coa dehydrogenase family, member 10, CUL9  -  cullin 9, RAB39B  -  rab39b, member ras oncogene family, MAP3K13  -  mitogen-activated protein kinase kinase kinase 13, CRYM  -  crystallin, mu, CRYZ  -  crystallin, zeta (quinone reductase), UHRF1  -  ubiquitin-like with phd and ring finger domains 1, MAPK14  -  mitogen-activated protein kinase 14, ATP10B  -  atpase, class v, type 10b, AARSD1  -  alanyl-trna synthetase domain containing 1, RAD54L2  -  rad54-like 2 (s. cerevisiae), TEX14  -  testis expressed 14, CSK  -  c-src tyrosine kinase, MAST2  -  microtubule associated serine/threonine kinase 2, DCLK1  -  doublecortin-like kinase 1, CSNK1A1  -  casein kinase 1, alpha 1, HSPA12B  -  heat shock 70kd protein 12b, CSNK1E  -  casein kinase 1, epsilon, OLA1  -  obg-like atpase 1, CSNK1G2  -  casein kinase 1, gamma 2, STK31  -  serine/threonine kinase 31, CSNK2A1  -  casein kinase 2, alpha 1 polypeptide, DNAH7  -  dynein, axonemal, heavy chain 7, LBR  -  lamin b receptor, LDHA  -  lactate dehydrogenase a, MAGI1  -  membrane associated guanylate kinase, ww and pdz domain containing 1, AGAP1  -  arfgap with gtpase domain, ankyrin repeat and ph domain 1, AGAP3  -  arfgap with gtpase domain, ankyrin repeat and ph domain 3, TTLL12  -  tubulin tyrosine ligase-like family, member 12, GPD1L  -  glycerol-3-phosphate dehydrogenase 1-like, GNL2  -  guanine nucleotide binding protein-like 2 (nucleolar), PASK  -  pas domain containing serine/threonine kinase, GPSM2  -  g-protein signaling modulator 2, CTBP1  -  c-terminal binding protein 1, CTBP2  -  c-terminal binding protein 2, EEF2K  -  eukaryotic elongation factor-2 kinase, HFM1  -  hfm1, atp-dependent dna helicase homolog (s. cerevisiae), DHRS3  -  dehydrogenase/reductase (sdr family) member 3, RPS6KA5  -  ribosomal protein s6 kinase, 90kda, polypeptide 5, LIG3  -  ligase iii, dna, atp-dependent, MFHAS1  -  malignant fibrous histiocytoma amplified sequence 1, LIG4  -  ligase iv, dna, atp-dependent, TTLL9  -  tubulin tyrosine ligase-like family, member 9, MAPKAPK2  -  mitogen-activated protein kinase-activated protein kinase 2, MDN1  -  mdn1, midasin homolog (yeast), NME7  -  nme/nm23 family member 7, STK17A  -  serine/threonine kinase 17a, LIMK2  -  lim domain kinase 2, CTPS2  -  ctp synthase 2, ATP11B  -  atpase, class vi, type 11b, IP6K3  -  inositol hexakisphosphate kinase 3, ACSBG1  -  acyl-coa synthetase bubblegum family member 1, ATP11C  -  atpase, class vi, type 11c, RHOBTB2  -  rho-related btb domain containing 2, SBK2  -  sh3-binding domain kinase family, member 2, BBS12  -  bardet-biedl syndrome 12, DCLK2  -  doublecortin-like kinase 2, NRBP1  -  nuclear receptor binding protein 1, SIK2  -  salt-inducible kinase 2, SLC19A1  -  solute carrier family 19 (folate transporter), member 1, TRIP13  -  thyroid hormone receptor interactor 13, ATP11A  -  atpase, class vi, type 11a, SLC22A4  -  solute carrier family 22 (organic cation/zwitterion transporter), member 4, EFTUD2  -  elongation factor tu gtp binding domain containing 2, LONP1  -  lon peptidase 1, mitochondrial, WRNIP1  -  werner helicase interacting protein 1, RAB28  -  rab28, member ras oncogene family, RAB9A  -  rab9a, member ras oncogene family, DGKB  -  diacylglycerol kinase, beta 90kda, KIF3B  -  kinesin family member 3b, KIF13B  -  kinesin family member 13b, EHD4  -  eh-domain containing 4, EHD3  -  eh-domain containing 3, ACSL6  -  acyl-coa synthetase long-chain family member 6, PIK3R4  -  phosphoinositide-3-kinase, regulatory subunit 4, SMARCAD1  -  swi/snf-related, matrix-associated actin-dependent regulator of chromatin, subfamily a, containing dead/h box 1, DHX33  -  deah (asp-glu-ala-his) box polypeptide 33, MCCC1  -  methylcrotonoyl-coa carboxylase 1 (alpha), NMUR2  -  neuromedin u receptor 2, ZBTB21  -  zinc finger and btb domain containing 21, PAK6  -  p21 protein (cdc42/rac)-activated kinase 6, SMARCAL1  -  swi/snf related, matrix associated, actin dependent regulator of chromatin, subfamily a-like 1, SOAT1  -  sterol o-acyltransferase 1, DUS3L  -  dihydrouridine synthase 3-like (s. cerevisiae), RECQL5  -  recq protein-like 5, DHX36  -  deah (asp-glu-ala-his) box polypeptide 36, DDX51  -  dead (asp-glu-ala-asp) box polypeptide 51, MAK  -  male germ cell-associated kinase, NOX4  -  nadph oxidase 4, SORD  -  sorbitol dehydrogenase, LRRK2  -  leucine-rich repeat kinase 2, MAOB  -  monoamine oxidase b, SMCHD1  -  structural maintenance of chromosomes flexible hinge domain containing 1, DDX1  -  dead (asp-glu-ala-asp) box helicase 1, PRTFDC1  -  phosphoribosyl transferase domain containing 1, DDX3X  -  dead (asp-glu-ala-asp) box helicase 3, x-linked, NT5M  -  5',3'-nucleotidase, mitochondrial, DDX5  -  dead (asp-glu-ala-asp) box helicase 5, MARK1  -  map/microtubule affinity-regulating kinase 1, DHX8  -  deah (asp-glu-ala-his) box polypeptide 8, MARK3  -  map/microtubule affinity-regulating kinase 3, DDX10  -  dead (asp-glu-ala-asp) box polypeptide 10, MAT1A  -  methionine adenosyltransferase i, alpha, SPAG1  -  sperm associated antigen 1, DDX11  -  dead/h (asp-glu-ala-asp/his) box helicase 11, DHX15  -  deah (asp-glu-ala-his) box helicase 15, ABCG2  -  atp-binding cassette, sub-family g (white), member 2, DECR1  -  2,4-dienoyl coa reductase 1, mitochondrial, PNPLA8  -  patatin-like phospholipase domain containing 8, SPAST  -  spastin, FAM20C  -  family with sequence similarity 20, member c, SPG7  -  spastic paraplegia 7 (pure and complicated autosomal recessive), ITM2B  -  integral membrane protein 2b, SPR  -  sepiapterin reductase (7,8-dihydrobiopterin:nadp+ oxidoreductase), KIF15  -  kinesin family member 15, EIF2AK3  -  eukaryotic translation initiation factor 2-alpha kinase 3, SIK3  -  sik family kinase 3, MCM2  -  minichromosome maintenance complex component 2, MCM3  -  minichromosome maintenance complex component 3, MCM4  -  minichromosome maintenance complex component 4, MCM5  -  minichromosome maintenance complex component 5, LARS2  -  leucyl-trna synthetase 2, mitochondrial, PIP5K1C  -  phosphatidylinositol-4-phosphate 5-kinase, type i, gamma, AKAP7  -  a kinase (prka) anchor protein 7, ATP13A2  -  atpase type 13a2, DHCR24  -  24-dehydrocholesterol reductase, SQLE  -  squalene epoxidase, SRC  -  v-src avian sarcoma (schmidt-ruppin a-2) viral oncogene homolog, SRD5A1  -  steroid-5-alpha-reductase, alpha polypeptide 1 (3-oxo-5 alpha-steroid delta 4-dehydrogenase alpha 1), DICER1  -  dicer 1, ribonuclease type iii, CYB5R3  -  cytochrome b5 reductase 3, ROCK2  -  rho-associated, coiled-coil containing protein kinase 2, SIRT4  -  sirtuin 4, SIRT3  -  sirtuin 3, TDRD9  -  tudor domain containing 9, SRMS  -  src-related kinase lacking c-terminal regulatory tyrosine and n-terminal myristylation sites, RARS2  -  arginyl-trna synthetase 2, mitochondrial, AK7  -  adenylate kinase 7, SRP54  -  signal recognition particle 54kda, DLD  -  dihydrolipoamide dehydrogenase, PGS1  -  phosphatidylglycerophosphate synthase 1, SRPK1  -  srsf protein kinase 1, SRPK2  -  srsf protein kinase 2, KIF23  -  kinesin family member 23, RHOV  -  ras homolog family member v, MAP3K3  -  mitogen-activated protein kinase kinase kinase 3, MAP3K4  -  mitogen-activated protein kinase kinase kinase 4, DDX24  -  dead (asp-glu-ala-asp) box helicase 24, RAB8A  -  rab8a, member ras oncogene family, DNM1  -  dynamin 1, DNA2  -  dna replication helicase/nuclease 2, MET  -  met proto-oncogene, DNAH5  -  dynein, axonemal, heavy chain 5, DNAH8  -  dynein, axonemal, heavy chain 8, DNAH9  -  dynein, axonemal, heavy chain 9, ABCB10  -  atp-binding cassette, sub-family b (mdr/tap), member 10, ABCB9  -  atp-binding cassette, sub-family b (mdr/tap), member 9, VPS4B  -  vacuolar protein sorting 4 homolog b (s. cerevisiae), DYNC1H1  -  dynein, cytoplasmic 1, heavy chain 1, ABCA6  -  atp-binding cassette, sub-family a (abc1), member 6, ABCA5  -  atp-binding cassette, sub-family a (abc1), member 5, ST13  -  suppression of tumorigenicity 13 (colon carcinoma) (hsp70 interacting protein), DYNC1LI2  -  dynein, cytoplasmic 1, light intermediate chain 2, BAG5  -  bcl2-associated athanogene 5, COQ6  -  coenzyme q6 monooxygenase, BAG4  -  bcl2-associated athanogene 4, BAG3  -  bcl2-associated athanogene 3, CAMK1D  -  calcium/calmodulin-dependent protein kinase id, TP53I3  -  tumor protein p53 inducible protein 3, CIITA  -  class ii, major histocompatibility complex, transactivator, RAB37  -  rab37, member ras oncogene family, NUAK2  -  nuak family, snf1-like kinase, 2, MMAB  -  methylmalonic aciduria (cobalamin deficiency) cblb type, HSPA13  -  heat shock protein 70kda family, member 13, NEK4  -  nima-related kinase 4, STK3  -  serine/threonine kinase 3, STK4  -  serine/threonine kinase 4, DPYD  -  dihydropyrimidine dehydrogenase, CDKL5  -  cyclin-dependent kinase-like 5, STK10  -  serine/threonine kinase 10, STK11  -  serine/threonine kinase 11, CHD1L  -  chromodomain helicase dna binding protein 1-like, ADCK1  -  aarf domain containing kinase 1, PAK7  -  p21 protein (cdc42/rac)-activated kinase 7, MKI67  -  antigen identified by monoclonal antibody ki-67, SCYL3  -  scy1-like 3 (s. cerevisiae), H6PD  -  hexose-6-phosphate dehydrogenase (glucose 1-dehydrogenase), MLH1  -  mutl homolog 1, colon cancer, nonpolyposis type 2 (e. coli), GTPBP1  -  gtp binding protein 1, MAP3K9  -  mitogen-activated protein kinase kinase kinase 9, DRG2  -  developmentally regulated gtp binding protein 2, ATL1  -  atlastin gtpase 1, KIF20B  -  kinesin family member 20b, SUPV3L1  -  suppressor of var1, 3-like 1 (s. cerevisiae), CAMK1G  -  calcium/calmodulin-dependent protein kinase ig, EARS2  -  glutamyl-trna synthetase 2, mitochondrial, ABCC8  -  atp-binding cassette, sub-family c (cftr/mrp), member 8, DNAH10  -  dynein, axonemal, heavy chain 10, ACTR3B  -  arp3 actin-related protein 3 homolog b (yeast), KIF18A  -  kinesin family member 18a, CRYL1  -  crystallin, lambda 1, RAB36  -  rab36, member ras oncogene family, TNNI3K  -  tnni3 interacting kinase, SYN2  -  synapsin ii, ATP10A  -  atpase, class v, type 10a, ATP8B2  -  atpase, aminophospholipid transporter, class i, type 8b, member 2, ATP10D  -  atpase, class v, type 10d, MOCS1  -  molybdenum cofactor synthesis 1, RASD2  -  rasd family, member 2, ABCG1  -  atp-binding cassette, sub-family g (white), member 1, DYRK1A  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 1a, TRNT1  -  trna nucleotidyl transferase, cca-adding, 1, MOS  -  v-mos moloney murine sarcoma viral oncogene homolog, MOV10  -  mov10, moloney leukemia virus 10, homolog (mouse), GTPBP4  -  gtp binding protein 4, TAF1  -  taf1 rna polymerase ii, tata box binding protein (tbp)-associated factor, 250kda, ABCC1  -  atp-binding cassette, sub-family c (cftr/mrp), member 1, MLKL  -  mixed lineage kinase domain-like, IKBKE  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase epsilon, DDX59  -  dead (asp-glu-ala-asp) box polypeptide 59, ACSF3  -  acyl-coa synthetase family member 3, MICAL2  -  microtubule associated monooxygenase, calponin and lim domain containing 2, MAP3K7  -  mitogen-activated protein kinase kinase kinase 7, NLRC3  -  nlr family, card domain containing 3, TTLL4  -  tubulin tyrosine ligase-like family, member 4, UCK1  -  uridine-cytidine kinase 1, IRAK4  -  interleukin-1 receptor-associated kinase 4, RHOJ  -  ras homolog family member j, CLK4  -  cdc-like kinase 4, EEF1A2  -  eukaryotic translation elongation factor 1 alpha 2, EIF5B  -  eukaryotic translation initiation factor 5b, DYNC1LI1  -  dynein, cytoplasmic 1, light intermediate chain 1, RAB22A  -  rab22a, member ras oncogene family, PPIP5K1  -  diphosphoinositol pentakisphosphate kinase 1, SPO11  -  spo11 meiotic protein covalently bound to dsb, MYO1B  -  myosin ib, RAPGEF2  -  rap guanine nucleotide exchange factor (gef) 2, MYO15A  -  myosin xva, MSH2  -  muts homolog 2, colon cancer, nonpolyposis type 1 (e. coli), MSH4  -  muts homolog 4 (e. coli), MSH5  -  muts homolog 5 (e. coli), TUBD1  -  tubulin, delta 1, HAO2  -  hydroxyacid oxidase 2 (long chain), HSPA14  -  heat shock 70kda protein 14, EIF2S3  -  eukaryotic translation initiation factor 2, subunit 3 gamma, 52kda, GPN3  -  gpn-loop gtpase 3, EPHA2  -  eph receptor a2, ULK2  -  unc-51 like autophagy activating kinase 2, TCP1  -  t-complex 1, AQR  -  aquarius homolog (mouse), EIF4G1  -  eukaryotic translation initiation factor 4 gamma, 1, EIF5  -  eukaryotic translation initiation factor 5, NIN  -  ninein (gsk3b interacting protein), APLF  -  aprataxin and pnkp like factor, DDX47  -  dead (asp-glu-ala-asp) box polypeptide 47, RIOK1  -  rio kinase 1, PIKFYVE  -  phosphoinositide kinase, fyve finger containing, SGK3  -  serum/glucocorticoid regulated kinase family, member 3, VPRBP  -  vpr (hiv-1) binding protein, RIMKLB  -  ribosomal modification protein rimk-like family member b, LONP2  -  lon peptidase 2, peroxisomal, ARL13B  -  adp-ribosylation factor-like 13b, AARS2  -  alanyl-trna synthetase 2, mitochondrial, MTHFD1  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1, methenyltetrahydrofolate cyclohydrolase, formyltetrahydrofolate synthetase, VRK3  -  vaccinia related kinase 3, MTHFR  -  methylenetetrahydrofolate reductase (nad(p)h), MTIF2  -  mitochondrial translational initiation factor 2, SLK  -  ste20-like kinase, STARD9  -  star-related lipid transfer (start) domain containing 9, SHPK  -  sedoheptulokinase, WEE2  -  wee1 homolog 2 (s. pombe), NT5C3A  -  5'-nucleotidase, cytosolic iiia, TDG  -  thymine-dna glycosylase, MTRR  -  5-methyltetrahydrofolate-homocysteine methyltransferase reductase, ALPK3  -  alpha-kinase 3, EPB42  -  erythrocyte membrane protein band 4.2, RAB12  -  rab12, member ras oncogene family, EIF4A3  -  eukaryotic translation initiation factor 4a3, EPHA1  -  eph receptor a1, EPHA3  -  eph receptor a3, EPHA4  -  eph receptor a4, KIAA0232  -  kiaa0232, EPHA5  -  eph receptor a5, EPHA7  -  eph receptor a7, EPHA8  -  eph receptor a8, TESK1  -  testis-specific kinase 1, TAOK1  -  tao kinase 1, DNAJC27  -  dnaj (hsp40) homolog, subfamily c, member 27, EPHB1  -  eph receptor b1, EPHB2  -  eph receptor b2, MICAL3  -  microtubule associated monooxygenase, calponin and lim domain containing 3, EPHB3  -  eph receptor b3, DHX38  -  deah (asp-glu-ala-his) box polypeptide 38, RASL12  -  ras-like, family 12, BMS1  -  bms1 ribosome biogenesis factor, EPRS  -  glutamyl-prolyl-trna synthetase, GSG2  -  germ cell associated 2 (haspin), ERBB4  -  v-erb-b2 avian erythroblastic leukemia viral oncogene homolog 4, STK40  -  serine/threonine kinase 40, KIF4A  -  kinesin family member 4a, MVK  -  mevalonate kinase, IP6K1  -  inositol hexakisphosphate kinase 1, MX1  -  myxovirus (influenza virus) resistance 1, interferon-inducible protein p78 (mouse), ERCC3  -  excision repair cross-complementing rodent repair deficiency, complementation group 3, ERCC6  -  excision repair cross-complementing rodent repair deficiency, complementation group 6, TSSK1B  -  testis-specific serine kinase 1b, TGFBR2  -  transforming growth factor, beta receptor ii (70/80kda), STK32A  -  serine/threonine kinase 32a, ERN1  -  endoplasmic reticulum to nucleus signaling 1, BRIP1  -  brca1 interacting protein c-terminal helicase 1, MYH4  -  myosin, heavy chain 4, skeletal muscle, DSTYK  -  dual serine/threonine and tyrosine protein kinase, MYH6  -  myosin, heavy chain 6, cardiac muscle, alpha, MELK  -  maternal embryonic leucine zipper kinase, ETFA  -  electron-transfer-flavoprotein, alpha polypeptide, OBSCN  -  obscurin, cytoskeletal calmodulin and titin-interacting rhogef, MYH9  -  myosin, heavy chain 9, non-muscle, ETFDH  -  electron-transferring-flavoprotein dehydrogenase, MYH10  -  myosin, heavy chain 10, non-muscle, MYH11  -  myosin, heavy chain 11, smooth muscle, RAD54B  -  rad54 homolog b (s. cerevisiae), KATNAL1  -  katanin p60 subunit a-like 1, MYLK  -  myosin light chain kinase, TAOK3  -  tao kinase 3, MYO1C  -  myosin ic, MYO1D  -  myosin id, TK2  -  thymidine kinase 2, mitochondrial, MYO1E  -  myosin ie, MYO5A  -  myosin va (heavy chain 12, myoxin), MYO6  -  myosin vi, MYO7A  -  myosin viia, MYO9A  -  myosin ixa, TTLL1  -  tubulin tyrosine ligase-like family, member 1, EP400  -  e1a binding protein p400, CHST15  -  carbohydrate (n-acetylgalactosamine 4-sulfate 6-o) sulfotransferase 15, MYO9B  -  myosin ixb, MYO10  -  myosin x, MYH7B  -  myosin, heavy chain 7b, cardiac muscle, beta, DHX37  -  deah (asp-glu-ala-his) box polypeptide 37, ZRANB3  -  zinc finger, ran-binding domain containing 3, MTO1  -  mitochondrial trna translation optimization 1, HIPK1  -  homeodomain interacting protein kinase 1, DDX46  -  dead (asp-glu-ala-asp) box polypeptide 46, ARL6  -  adp-ribosylation factor-like 6, MYLK4  -  myosin light chain kinase family, member 4, RHOBTB1  -  rho-related btb domain containing 1, PRKAG2  -  protein kinase, amp-activated, gamma 2 non-catalytic subunit, ACAD11  -  acyl-coa dehydrogenase family, member 11, ACSL1  -  acyl-coa synthetase long-chain family member 1, DDX41  -  dead (asp-glu-ala-asp) box polypeptide 41, ACSL3  -  acyl-coa synthetase long-chain family member 3, ACSL4  -  acyl-coa synthetase long-chain family member 4, MYO18A  -  myosin xviiia, PTK2B  -  protein tyrosine kinase 2 beta, DDX55  -  dead (asp-glu-ala-asp) box polypeptide 55, FANCM  -  fanconi anemia, complementation group m, IP6K2  -  inositol hexakisphosphate kinase 2, ATP2C2  -  atpase, ca++ transporting, type 2c, member 2, NRBP2  -  nuclear receptor binding protein 2, FAM20B  -  family with sequence similarity 20, member b, NLRC5  -  nlr family, card domain containing 5, TOP1  -  topoisomerase (dna) i, TOP2A  -  topoisomerase (dna) ii alpha 170kda, TOP2B  -  topoisomerase (dna) ii beta 180kda, MFN2  -  mitofusin 2, KIF14  -  kinesin family member 14, CHD6  -  chromodomain helicase dna binding protein 6, HELZ  -  helicase with zinc finger, MTHFD1L  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1-like, RTCB  -  rna 2',3'-cyclic phosphate and 5'-oh ligase, XYLB  -  xylulokinase homolog (h. influenzae), DRG1  -  developmentally regulated gtp binding protein 1, CRYZL1  -  crystallin, zeta (quinone reductase)-like 1, CMPK2  -  cytidine monophosphate (ump-cmp) kinase 2, mitochondrial, LARS  -  leucyl-trna synthetase, CXXC5  -  cxxc finger protein 5, NEK1  -  nima-related kinase 1, NEK2  -  nima-related kinase 2, HSP90B1  -  heat shock protein 90kda beta (grp94), member 1, NEK3  -  nima-related kinase 3, RAB40C  -  rab40c, member ras oncogene family, THRAP3  -  thyroid hormone receptor associated protein 3, SAMHD1  -  sam domain and hd domain 1, RAP2C  -  rap2c, member of ras oncogene family, SIRT6  -  sirtuin 6, TRIO  -  trio rho guanine nucleotide exchange factor, FGFR1  -  fibroblast growth factor receptor 1, FGFR3  -  fibroblast growth factor receptor 3, ACVR1C  -  activin a receptor, type ic, CAMKK1  -  calcium/calmodulin-dependent protein kinase kinase 1, alpha, FGFR2  -  fibroblast growth factor receptor 2, FGFR4  -  fibroblast growth factor receptor 4, FHIT  -  fragile histidine triad, PARS2  -  prolyl-trna synthetase 2, mitochondrial (putative), MMACHC  -  methylmalonic aciduria (cobalamin deficiency) cblc type, with homocystinuria, AKT3  -  v-akt murine thymoma viral oncogene homolog 3, CKMT1A  -  creatine kinase, mitochondrial 1a, FKBP1B  -  fk506 binding protein 1b, 12.6 kda, DNAH1  -  dynein, axonemal, heavy chain 1, NOA1  -  nitric oxide associated 1, RHOU  -  ras homolog family member u, ULK3  -  unc-51 like kinase 3, ZBTB33  -  zinc finger and btb domain containing 33, NEK5  -  nima-related kinase 5, NTPCR  -  nucleoside-triphosphatase, cancer-related, NME4  -  nme/nm23 nucleoside diphosphate kinase 4, NQO2  -  nad(p)h dehydrogenase, quinone 2, ACOT11  -  acyl-coa thioesterase 11, NOS1  -  nitric oxide synthase 1 (neuronal), NOS2  -  nitric oxide synthase 2, inducible, FLT1  -  fms-related tyrosine kinase 1, FLT3  -  fms-related tyrosine kinase 3, FLT4  -  fms-related tyrosine kinase 4, RASD1  -  ras, dexamethasone-induced 1, SMC4  -  structural maintenance of chromosomes 4, TTK  -  ttk protein kinase, RRAGD  -  ras-related gtp binding d, TTN  -  titin, FMO3  -  flavin containing monooxygenase 3, UBA2  -  ubiquitin-like modifier activating enzyme 2, GRK7  -  g protein-coupled receptor kinase 7, FMO5  -  flavin containing monooxygenase 5, FARSB  -  phenylalanyl-trna synthetase, beta subunit, ABCC5  -  atp-binding cassette, sub-family c (cftr/mrp), member 5, ABCB6  -  atp-binding cassette, sub-family b (mdr/tap), member 6, DNM1L  -  dynamin 1-like, GIMD1  -  gimap family p-loop ntpase domain containing 1, TUBG1  -  tubulin, gamma 1, DNM3  -  dynamin 3, GLYCTK  -  glycerate kinase, HACL1  -  2-hydroxyacyl-coa lyase 1, CYB5R2  -  cytochrome b5 reductase 2, NLK  -  nemo-like kinase, ACSL5  -  acyl-coa synthetase long-chain family member 5, ATP9A  -  atpase, class ii, type 9a, NPR2  -  natriuretic peptide receptor b/guanylate cyclase b (atrionatriuretic peptide receptor b), TYRO3  -  tyro3 protein tyrosine kinase, RAB23  -  rab23, member ras oncogene family, TRPV4  -  transient receptor potential cation channel, subfamily v, member 4, CMPK1  -  cytidine monophosphate (ump-cmp) kinase 1, cytosolic, AK9  -  adenylate kinase 9, UBA1  -  ubiquitin-like modifier activating enzyme 1, ACTR3  -  arp3 actin-related protein 3 homolog (yeast), ACTR2  -  arp2 actin-related protein 2 homolog (yeast), UBE2B  -  ubiquitin-conjugating enzyme e2b, AASDH  -  aminoadipate-semialdehyde dehydrogenase, NSF  -  n-ethylmaleimide-sensitive factor, UBE2D2  -  ubiquitin-conjugating enzyme e2d 2, NT5E  -  5'-nucleotidase, ecto (cd73), UBE2E2  -  ubiquitin-conjugating enzyme e2e 2, RTEL1  -  regulator of telomere elongation helicase 1, UBE2G1  -  ubiquitin-conjugating enzyme e2g 1, UBE2G2  -  ubiquitin-conjugating enzyme e2g 2, UBE2H  -  ubiquitin-conjugating enzyme e2h, KCNT2  -  potassium channel, subfamily t, member 2, CDK12  -  cyclin-dependent kinase 12, UBE2L3  -  ubiquitin-conjugating enzyme e2l 3, RAD50  -  rad50 homolog (s. cerevisiae), UBE2N  -  ubiquitin-conjugating enzyme e2n, KIF20A  -  kinesin family member 20a, ATP8A2  -  atpase, aminophospholipid transporter, class i, type 8a, member 2, NTRK3  -  neurotrophic tyrosine kinase, receptor, type 3, RAB8B  -  rab8b, member ras oncogene family, KIF6  -  kinesin family member 6, ROR1  -  receptor tyrosine kinase-like orphan receptor 1, DDR2  -  discoidin domain receptor tyrosine kinase 2, MCM8  -  minichromosome maintenance complex component 8, NVL  -  nuclear vcp-like, PPCDC  -  phosphopantothenoylcysteine decarboxylase, TRAP1  -  tnf receptor-associated protein 1, KDM1B  -  lysine (k)-specific demethylase 1b, UGDH  -  udp-glucose 6-dehydrogenase, ARFRP1  -  adp-ribosylation factor related protein 1, KIF26A  -  kinesin family member 26a, ACSS1  -  acyl-coa synthetase short-chain family member 1, ABCA12  -  atp-binding cassette, sub-family a (abc1), member 12, G3BP1  -  gtpase activating protein (sh3 domain) binding protein 1, UCK2  -  uridine-cytidine kinase 2, MTG2  -  mitochondrial ribosome-associated gtpase 2, GRPEL2  -  grpe-like 2, mitochondrial (e. coli), DHX35  -  deah (asp-glu-ala-his) box polypeptide 35, OPA1  -  optic atrophy 1 (autosomal dominant), FRK  -  fyn-related kinase, NT5C1A  -  5'-nucleotidase, cytosolic ia, SRR  -  serine racemase, ARL5A  -  adp-ribosylation factor-like 5a, LRWD1  -  leucine-rich repeats and wd repeat domain containing 1, PHGDH  -  phosphoglycerate dehydrogenase, TTBK1  -  tau tubulin kinase 1, HINT3  -  histidine triad nucleotide binding protein 3, ORC1  -  origin recognition complex, subunit 1, UBE2O  -  ubiquitin-conjugating enzyme e2o, ORC4  -  origin recognition complex, subunit 4, TNK2  -  tyrosine kinase, non-receptor, 2, ORC5  -  origin recognition complex, subunit 5, HS3ST5  -  heparan sulfate (glucosamine) 3-o-sulfotransferase 5, MYO3A  -  myosin iiia, NME6  -  nme/nm23 nucleoside diphosphate kinase 6, GLYR1  -  glyoxylate reductase 1 homolog (arabidopsis), CSNK1G1  -  casein kinase 1, gamma 1, CHTF18  -  ctf18, chromosome transmission fidelity factor 18 homolog (s. cerevisiae), MTOR  -  mechanistic target of rapamycin (serine/threonine kinase), P2RX1  -  purinergic receptor p2x, ligand-gated ion channel, 1]</t>
-  </si>
-  <si>
     <t>GO:0035639</t>
   </si>
   <si>
     <t>purine ribonucleoside triphosphate binding</t>
   </si>
   <si>
-    <t>[P2RX4  -  purinergic receptor p2x, ligand-gated ion channel, 4, P2RX5  -  purinergic receptor p2x, ligand-gated ion channel, 5, TRPV1  -  transient receptor potential cation channel, subfamily v, member 1, VRK1  -  vaccinia related kinase 1, VRK2  -  vaccinia related kinase 2, P2RY4  -  pyrimidinergic receptor p2y, g-protein coupled, 4, MAPK15  -  mitogen-activated protein kinase 15, LRGUK  -  leucine-rich repeats and guanylate kinase domain containing, PEBP1  -  phosphatidylethanolamine binding protein 1, ABCA2  -  atp-binding cassette, sub-family a (abc1), member 2, ABCA3  -  atp-binding cassette, sub-family a (abc1), member 3, ABCB7  -  atp-binding cassette, sub-family b (mdr/tap), member 7, ERAL1  -  era-like 12s mitochondrial rrna chaperone 1, ABCA4  -  atp-binding cassette, sub-family a (abc1), member 4, GNAT3  -  guanine nucleotide binding protein, alpha transducing 3, ABL1  -  c-abl oncogene 1, non-receptor tyrosine kinase, AK5  -  adenylate kinase 5, KIF13A  -  kinesin family member 13a, WEE1  -  wee1 homolog (s. pombe), ACACA  -  acetyl-coa carboxylase alpha, ACACB  -  acetyl-coa carboxylase beta, PAK1  -  p21 protein (cdc42/rac)-activated kinase 1, FIGNL1  -  fidgetin-like 1, PAK2  -  p21 protein (cdc42/rac)-activated kinase 2, MYO18B  -  myosin xviiib, PAK3  -  p21 protein (cdc42/rac)-activated kinase 3, ACLY  -  atp citrate lyase, GNL3  -  guanine nucleotide binding protein-like 3 (nucleolar), FYN  -  fyn oncogene related to src, fgr, yes, RBKS  -  ribokinase, ABCC4  -  atp-binding cassette, sub-family c (cftr/mrp), member 4, MCCC2  -  methylcrotonoyl-coa carboxylase 2 (beta), ACTA1  -  actin, alpha 1, skeletal muscle, RIPK4  -  receptor-interacting serine-threonine kinase 4, XRCC6  -  x-ray repair complementing defective repair in chinese hamster cells 6, PCCA  -  propionyl coa carboxylase, alpha polypeptide, PCCB  -  propionyl coa carboxylase, beta polypeptide, ACTG2  -  actin, gamma 2, smooth muscle, enteric, XRCC2  -  x-ray repair complementing defective repair in chinese hamster cells 2, PCK1  -  phosphoenolpyruvate carboxykinase 1 (soluble), XRCC3  -  x-ray repair complementing defective repair in chinese hamster cells 3, XRCC5  -  x-ray repair complementing defective repair in chinese hamster cells 5 (double-strand-break rejoining), YES1  -  v-yes-1 yamaguchi sarcoma viral oncogene homolog 1, RRAGC  -  ras-related gtp binding c, FN3K  -  fructosamine 3 kinase, SPEG  -  speg complex locus, ACVR1  -  activin a receptor, type i, LATS2  -  large tumor suppressor kinase 2, DNAJA2  -  dnaj (hsp40) homolog, subfamily a, member 2, ACVR2B  -  activin a receptor, type iib, CDK17  -  cyclin-dependent kinase 17, CDK18  -  cyclin-dependent kinase 18, ZAP70  -  zeta-chain (tcr) associated protein kinase 70kda, ABCG4  -  atp-binding cassette, sub-family g (white), member 4, KIF9  -  kinesin family member 9, GALK1  -  galactokinase 1, GALK2  -  galactokinase 2, ADCY1  -  adenylate cyclase 1 (brain), RAB19  -  rab19, member ras oncogene family, ADCY2  -  adenylate cyclase 2 (brain), ADCY3  -  adenylate cyclase 3, ADCY5  -  adenylate cyclase 5, ADCY7  -  adenylate cyclase 7, ADCY8  -  adenylate cyclase 8 (brain), ADCY9  -  adenylate cyclase 9, PDGFRA  -  platelet-derived growth factor receptor, alpha polypeptide, GART  -  phosphoribosylglycinamide formyltransferase, phosphoribosylglycinamide synthetase, phosphoribosylaminoimidazole synthetase, PDGFRB  -  platelet-derived growth factor receptor, beta polypeptide, ATL2  -  atlastin gtpase 2, MOV10L1  -  mov10l1, moloney leukemia virus 10-like 1, homolog (mouse), ABCG5  -  atp-binding cassette, sub-family g (white), member 5, PDK3  -  pyruvate dehydrogenase kinase, isozyme 3, ABCG8  -  atp-binding cassette, sub-family g (white), member 8, PDK4  -  pyruvate dehydrogenase kinase, isozyme 4, IPMK  -  inositol polyphosphate multikinase, FBXO18  -  f-box protein, helicase, 18, GCH1  -  gtp cyclohydrolase 1, ADRBK1  -  adrenergic, beta, receptor kinase 1, ATAD1  -  atpase family, aaa domain containing 1, ADRBK2  -  adrenergic, beta, receptor kinase 2, PEX1  -  peroxisomal biogenesis factor 1, PEX6  -  peroxisomal biogenesis factor 6, MPP5  -  membrane protein, palmitoylated 5 (maguk p55 subfamily member 5), TUBB3  -  tubulin, beta 3 class iii, RHOF  -  ras homolog family member f (in filopodia), GEM  -  gtp binding protein overexpressed in skeletal muscle, PFKFB2  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 2, PFKFB3  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 3, PFKFB4  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 4, NOD1  -  nucleotide-binding oligomerization domain containing 1, PFKL  -  phosphofructokinase, liver, RPS6KC1  -  ribosomal protein s6 kinase, 52kda, polypeptide 1, PFKP  -  phosphofructokinase, platelet, CDK14  -  cyclin-dependent kinase 14, NMNAT3  -  nicotinamide nucleotide adenylyltransferase 3, AK2  -  adenylate kinase 2, AK4  -  adenylate kinase 4, TTLL10  -  tubulin tyrosine ligase-like family, member 10, AKT1  -  v-akt murine thymoma viral oncogene homolog 1, ABCB1  -  atp-binding cassette, sub-family b (mdr/tap), member 1, TESK2  -  testis-specific kinase 2, DDX49  -  dead (asp-glu-ala-asp) box polypeptide 49, GK  -  glycerol kinase, MCM9  -  minichromosome maintenance complex component 9, ABCD2  -  atp-binding cassette, sub-family d (ald), member 2, PHKG1  -  phosphorylase kinase, gamma 1 (muscle), ALK  -  anaplastic lymphoma receptor tyrosine kinase, GCLC  -  glutamate-cysteine ligase, catalytic subunit, INO80  -  ino80 complex subunit, MERTK  -  c-mer proto-oncogene tyrosine kinase, GLUD1  -  glutamate dehydrogenase 1, PIK3C2A  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 alpha, RERG  -  ras-like, estrogen-regulated, growth inhibitor, PIK3C2B  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 beta, PIK3C2G  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 gamma, PIK3CA  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit alpha, PIK3CB  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit beta, GLUL  -  glutamate-ammonia ligase, PIK3CD  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit delta, PIK3CG  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit gamma, PI4KB  -  phosphatidylinositol 4-kinase, catalytic, beta, UBE2E3  -  ubiquitin-conjugating enzyme e2e 3, IPPK  -  inositol 1,3,4,5,6-pentakisphosphate 2-kinase, DAP3  -  death associated protein 3, GTPBP2  -  gtp binding protein 2, PIP4K2A  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, alpha, GNA11  -  guanine nucleotide binding protein (g protein), alpha 11 (gq class), GNA12  -  guanine nucleotide binding protein (g protein) alpha 12, GNAI1  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 1, GNAI2  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 2, GPN2  -  gpn-loop gtpase 2, GNAI3  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 3, GNAL  -  guanine nucleotide binding protein (g protein), alpha activating activity polypeptide, olfactory type, CERK  -  ceramide kinase, PKM  -  pyruvate kinase, muscle, STK25  -  serine/threonine kinase 25, RAB39A  -  rab39a, member ras oncogene family, DDX31  -  dead (asp-glu-ala-asp) box polypeptide 31, MAPKAPK3  -  mitogen-activated protein kinase-activated protein kinase 3, ANXA6  -  annexin a6, CHORDC1  -  cysteine and histidine-rich domain (chord) containing 1, NMNAT1  -  nicotinamide nucleotide adenylyltransferase 1, APAF1  -  apoptotic peptidase activating factor 1, DDX17  -  dead (asp-glu-ala-asp) box helicase 17, MYLK2  -  myosin light chain kinase 2, HYOU1  -  hypoxia up-regulated 1, PAN3  -  pan3 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), STK35  -  serine/threonine kinase 35, PLK1  -  polo-like kinase 1, TPK1  -  thiamin pyrophosphokinase 1, MLH3  -  mutl homolog 3 (e. coli), ATP2C1  -  atpase, ca++ transporting, type 2c, member 1, TRIT1  -  trna isopentenyltransferase 1, HELZ2  -  helicase with zinc finger 2, transcriptional coactivator, DCLK3  -  doublecortin-like kinase 3, ERCC6L  -  excision repair cross-complementing rodent repair deficiency, complementation group 6-like, TRPM7  -  transient receptor potential cation channel, subfamily m, member 7, PMS2  -  pms2 postmeiotic segregation increased 2 (s. cerevisiae), ABCC6  -  atp-binding cassette, sub-family c (cftr/mrp), member 6, CCT7  -  chaperonin containing tcp1, subunit 7 (eta), CCT4  -  chaperonin containing tcp1, subunit 4 (delta), CCT2  -  chaperonin containing tcp1, subunit 2 (beta), ARF4  -  adp-ribosylation factor 4, GFM1  -  g elongation factor, mitochondrial 1, ARF6  -  adp-ribosylation factor 6, MTHFS  -  5,10-methenyltetrahydrofolate synthetase (5-formyltetrahydrofolate cyclo-ligase), GRK4  -  g protein-coupled receptor kinase 4, ARHGEF5  -  rho guanine nucleotide exchange factor (gef) 5, GRK5  -  g protein-coupled receptor kinase 5, PINK1  -  pten induced putative kinase 1, RHOB  -  ras homolog family member b, GRK6  -  g protein-coupled receptor kinase 6, EIF2AK1  -  eukaryotic translation initiation factor 2-alpha kinase 1, RND3  -  rho family gtpase 3, RHOG  -  ras homolog family member g, CDK15  -  cyclin-dependent kinase 15, ARHGAP5  -  rho gtpase activating protein 5, SHPRH  -  snf2 histone linker phd ring helicase, e3 ubiquitin protein ligase, ARL1  -  adp-ribosylation factor-like 1, SNRK  -  snf related kinase, SMC1B  -  structural maintenance of chromosomes 1b, ARL3  -  adp-ribosylation factor-like 3, HSPA12A  -  heat shock 70kda protein 12a, WNK1  -  wnk lysine deficient protein kinase 1, STK36  -  serine/threonine kinase 36, NADK  -  nad kinase, NAV3  -  neuron navigator 3, NAV2  -  neuron navigator 2, UBE2Z  -  ubiquitin-conjugating enzyme e2z, ABCC10  -  atp-binding cassette, sub-family c (cftr/mrp), member 10, ASNS  -  asparagine synthetase (glutamine-hydrolyzing), CAMKK2  -  calcium/calmodulin-dependent protein kinase kinase 2, beta, ASS1  -  argininosuccinate synthase 1, VPS4A  -  vacuolar protein sorting 4 homolog a (s. cerevisiae), AACS  -  acetoacetyl-coa synthetase, GSK3B  -  glycogen synthase kinase 3 beta, GSPT1  -  g1 to s phase transition 1, GSS  -  glutathione synthetase, FARS2  -  phenylalanyl-trna synthetase 2, mitochondrial, ATM  -  ataxia telangiectasia mutated, RRAGA  -  ras-related gtp binding a, MAGI3  -  membrane associated guanylate kinase, ww and pdz domain containing 3, NMRK2  -  nicotinamide riboside kinase 2, GNA13  -  guanine nucleotide binding protein (g protein), alpha 13, ATP1A1  -  atpase, na+/k+ transporting, alpha 1 polypeptide, DPH6  -  diphthamine biosynthesis 6, ATP12A  -  atpase, h+/k+ transporting, nongastric, alpha polypeptide, MSH6  -  muts homolog 6 (e. coli), GTF2F2  -  general transcription factor iif, polypeptide 2, 30kda, ATP2A3  -  atpase, ca++ transporting, ubiquitous, RND2  -  rho family gtpase 2, ATP2B1  -  atpase, ca++ transporting, plasma membrane 1, CCT8  -  chaperonin containing tcp1, subunit 8 (theta), ATP2B4  -  atpase, ca++ transporting, plasma membrane 4, CAMKV  -  cam kinase-like vesicle-associated, POLQ  -  polymerase (dna directed), theta, GUCY1A2  -  guanylate cyclase 1, soluble, alpha 2, UCKL1  -  uridine-cytidine kinase 1-like 1, GUCY1A3  -  guanylate cyclase 1, soluble, alpha 3, YME1L1  -  yme1-like 1 atpase, GUCY1B3  -  guanylate cyclase 1, soluble, beta 3, GUCY2C  -  guanylate cyclase 2c (heat stable enterotoxin receptor), GUCY2F  -  guanylate cyclase 2f, retinal, GUK1  -  guanylate kinase 1, MKKS  -  mckusick-kaufman syndrome, ATP6V1A  -  atpase, h+ transporting, lysosomal 70kda, v1 subunit a, SPATA5L1  -  spermatogenesis associated 5-like 1, TTBK2  -  tau tubulin kinase 2, KIF7  -  kinesin family member 7, ATP6AP1  -  atpase, h+ transporting, lysosomal accessory protein 1, ATP7A  -  atpase, cu++ transporting, alpha polypeptide, PRKACB  -  protein kinase, camp-dependent, catalytic, beta, DDX54  -  dead (asp-glu-ala-asp) box polypeptide 54, MAP3K2  -  mitogen-activated protein kinase kinase kinase 2, ATP7B  -  atpase, cu++ transporting, beta polypeptide, RAB30  -  rab30, member ras oncogene family, ULK4  -  unc-51 like kinase 4, ATR  -  ataxia telangiectasia and rad3 related, SYN3  -  synapsin iii, ATRX  -  alpha thalassemia/mental retardation syndrome x-linked, GTPBP6  -  gtp binding protein 6 (putative), KIF1A  -  kinesin family member 1a, ATP9B  -  atpase, class ii, type 9b, PRKCA  -  protein kinase c, alpha, PRKCB  -  protein kinase c, beta, PRKCD  -  protein kinase c, delta, PRKCE  -  protein kinase c, epsilon, RPS6KA6  -  ribosomal protein s6 kinase, 90kda, polypeptide 6, PRKCH  -  protein kinase c, eta, HBS1L  -  hbs1-like (s. cerevisiae), PKN2  -  protein kinase n2, PRKCQ  -  protein kinase c, theta, PRKCZ  -  protein kinase c, zeta, PRKDC  -  protein kinase, dna-activated, catalytic polypeptide, PRKG1  -  protein kinase, cgmp-dependent, type i, MAPK1  -  mitogen-activated protein kinase 1, MAPK6  -  mitogen-activated protein kinase 6, TOR1B  -  torsin family 1, member b (torsin b), NEK6  -  nima-related kinase 6, MAPK8  -  mitogen-activated protein kinase 8, MAPK11  -  mitogen-activated protein kinase 11, MAPK9  -  mitogen-activated protein kinase 9, MAPK10  -  mitogen-activated protein kinase 10, MAPK13  -  mitogen-activated protein kinase 13, MAP2K1  -  mitogen-activated protein kinase kinase 1, TOR2A  -  torsin family 2, member a, MAP2K6  -  mitogen-activated protein kinase kinase 6, EIF2AK2  -  eukaryotic translation initiation factor 2-alpha kinase 2, DHX58  -  dexh (asp-glu-x-his) box polypeptide 58, HCK  -  hemopoietic cell kinase, HSPH1  -  heat shock 105kda/110kda protein 1, CDC7  -  cell division cycle 7, BCR  -  breakpoint cluster region, BCS1L  -  bc1 (ubiquinol-cytochrome c reductase) synthesis-like, PRPS1  -  phosphoribosyl pyrophosphate synthetase 1, PRPS2  -  phosphoribosyl pyrophosphate synthetase 2, ADCK2  -  aarf domain containing kinase 2, BLK  -  b lymphoid tyrosine kinase, DHX57  -  deah (asp-glu-ala-asp/his) box polypeptide 57, BLM  -  bloom syndrome, recq helicase-like, CLPX  -  clpx caseinolytic peptidase x homolog (e. coli), HK2  -  hexokinase 2, ENTPD8  -  ectonucleoside triphosphate diphosphohydrolase 8, BMPR1A  -  bone morphogenetic protein receptor, type ia, PSKH1  -  protein serine kinase h1, BMPR2  -  bone morphogenetic protein receptor, type ii (serine/threonine kinase), BRAF  -  v-raf murine sarcoma viral oncogene homolog b, PSMC1  -  proteasome (prosome, macropain) 26s subunit, atpase, 1, PSMC2  -  proteasome (prosome, macropain) 26s subunit, atpase, 2, PSMC3  -  proteasome (prosome, macropain) 26s subunit, atpase, 3, PSMC5  -  proteasome (prosome, macropain) 26s subunit, atpase, 5, RAB10  -  rab10, member ras oncogene family, FIGN  -  fidgetin, HLCS  -  holocarboxylase synthetase (biotin-(proprionyl-coa-carboxylase (atp-hydrolysing)) ligase), PIP4K2B  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, beta, BTK  -  bruton agammaglobulinemia tyrosine kinase, PKDCC  -  protein kinase domain containing, cytoplasmic, BUB1  -  bub1 mitotic checkpoint serine/threonine kinase, MTPAP  -  mitochondrial poly(a) polymerase, BUB1B  -  bub1 mitotic checkpoint serine/threonine kinase b, ULK1  -  unc-51 like autophagy activating kinase 1, DARS2  -  aspartyl-trna synthetase 2, mitochondrial, PAPOLA  -  poly(a) polymerase alpha, ATP8B3  -  atpase, aminophospholipid transporter, class i, type 8b, member 3, TDRD12  -  tudor domain containing 12, RAD54L  -  rad54-like (s. cerevisiae), PTK2  -  protein tyrosine kinase 2, DYRK3  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 3, DYRK2  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 2, PTK7  -  protein tyrosine kinase 7, TWF1  -  twinfilin actin-binding protein 1, HNRNPU  -  heterogeneous nuclear ribonucleoprotein u (scaffold attachment factor a), NEK9  -  nima-related kinase 9, NADSYN1  -  nad synthetase 1, TTF2  -  transcription termination factor, rna polymerase ii, MYLK3  -  myosin light chain kinase 3, CDC42BPA  -  cdc42 binding protein kinase alpha (dmpk-like), KSR2  -  kinase suppressor of ras 2, CACNA1B  -  calcium channel, voltage-dependent, n type, alpha 1b subunit, GATC  -  glutamyl-trna(gln) amidotransferase, subunit c, ASCC3  -  activating signal cointegrator 1 complex subunit 3, MAP4K3  -  mitogen-activated protein kinase kinase kinase kinase 3, ETNK2  -  ethanolamine kinase 2, RAB32  -  rab32, member ras oncogene family, NAT10  -  n-acetyltransferase 10 (gcn5-related), PANK4  -  pantothenate kinase 4, ATP13A3  -  atpase type 13a3, MTG1  -  mitochondrial ribosome-associated gtpase 1, PDIK1L  -  pdlim1 interacting kinase 1 like, UBA6  -  ubiquitin-like modifier activating enzyme 6, CARS2  -  cysteinyl-trna synthetase 2, mitochondrial (putative), ABCD4  -  atp-binding cassette, sub-family d (ald), member 4, KIF2C  -  kinesin family member 2c, ALDH18A1  -  aldehyde dehydrogenase 18 family, member a1, TLK2  -  tousled-like kinase 2, STRADA  -  ste20-related kinase adaptor alpha, CAMK4  -  calcium/calmodulin-dependent protein kinase iv, CAMK2A  -  calcium/calmodulin-dependent protein kinase ii alpha, DGKZ  -  diacylglycerol kinase, zeta, CAMK2D  -  calcium/calmodulin-dependent protein kinase ii delta, DGKE  -  diacylglycerol kinase, epsilon 64kda, CAMK2G  -  calcium/calmodulin-dependent protein kinase ii gamma, DGKD  -  diacylglycerol kinase, delta 130kda, HRAS  -  harvey rat sarcoma viral oncogene homolog, ACSS3  -  acyl-coa synthetase short-chain family member 3, IFT27  -  intraflagellar transport 27 homolog (chlamydomonas), RAB35  -  rab35, member ras oncogene family, RAB3A  -  rab3a, member ras oncogene family, RAB4A  -  rab4a, member ras oncogene family, RAB31  -  rab31, member ras oncogene family, NKIRAS2  -  nfkb inhibitor interacting ras-like 2, NKIRAS1  -  nfkb inhibitor interacting ras-like 1, CARS  -  cysteinyl-trna synthetase, QRSL1  -  glutaminyl-trna synthase (glutamine-hydrolyzing)-like 1, PIM3  -  pim-3 oncogene, RAC1  -  ras-related c3 botulinum toxin substrate 1 (rho family, small gtp binding protein rac1), UBE2W  -  ubiquitin-conjugating enzyme e2w (putative), RAC2  -  ras-related c3 botulinum toxin substrate 2 (rho family, small gtp binding protein rac2), RAC3  -  ras-related c3 botulinum toxin substrate 3 (rho family, small gtp binding protein rac3), MAPKAPK5  -  mitogen-activated protein kinase-activated protein kinase 5, RHOT1  -  ras homolog family member t1, DNAJA1  -  dnaj (hsp40) homolog, subfamily a, member 1, RAD51  -  rad51 recombinase, RAD51C  -  rad51 paralog c, PANK3  -  pantothenate kinase 3, HSPA4  -  heat shock 70kda protein 4, CDK10  -  cyclin-dependent kinase 10, RAD51D  -  rad51 paralog d, DDX52  -  dead (asp-glu-ala-asp) box polypeptide 52, RUNX2  -  runt-related transcription factor 2, RAF1  -  v-raf-1 murine leukemia viral oncogene homolog 1, RUNX1  -  runt-related transcription factor 1, HSPA8  -  heat shock 70kda protein 8, HELB  -  helicase (dna) b, HSPA9  -  heat shock 70kda protein 9 (mortalin), PI4K2B  -  phosphatidylinositol 4-kinase type 2 beta, RALA  -  v-ral simian leukemia viral oncogene homolog a (ras related), PDXK  -  pyridoxal (pyridoxine, vitamin b6) kinase, RALB  -  v-ral simian leukemia viral oncogene homolog b, RAN  -  ran, member ras oncogene family, MKNK1  -  map kinase interacting serine/threonine kinase 1, DYNC2H1  -  dynein, cytoplasmic 2, heavy chain 1, UBE2Q2  -  ubiquitin-conjugating enzyme e2q family member 2, RASL11A  -  ras-like, family 11, member a, CASK  -  calcium/calmodulin-dependent serine protein kinase (maguk family), MARS2  -  methionyl-trna synthetase 2, mitochondrial, DHX40  -  deah (asp-glu-ala-his) box polypeptide 40, RAP1B  -  rap1b, member of ras oncogene family, HSPD1  -  heat shock 60kda protein 1 (chaperonin), STK16  -  serine/threonine kinase 16, NLRX1  -  nlr family member x1, TTL  -  tubulin tyrosine ligase, ABCF3  -  atp-binding cassette, sub-family f (gcn20), member 3, SMC6  -  structural maintenance of chromosomes 6, RUVBL1  -  ruvb-like 1 (e. coli), LSG1  -  large 60s subunit nuclear export gtpase 1, CCT6A  -  chaperonin containing tcp1, subunit 6a (zeta 1), KATNA1  -  katanin p60 (atpase containing) subunit a 1, CDK13  -  cyclin-dependent kinase 13, CIT  -  citron (rho-interacting, serine/threonine kinase 21), LRRK1  -  leucine-rich repeat kinase 1, NOL9  -  nucleolar protein 9, IARS  -  isoleucyl-trna synthetase, DNAH17  -  dynein, axonemal, heavy chain 17, KIF3A  -  kinesin family member 3a, RECQL  -  recq protein-like (dna helicase q1-like), TBCK  -  tbc1 domain containing kinase, GVINP1  -  gtpase, very large interferon inducible pseudogene 1, ABCB11  -  atp-binding cassette, sub-family b (mdr/tap), member 11, NARS2  -  asparaginyl-trna synthetase 2, mitochondrial (putative), DMC1  -  dna meiotic recombinase 1, UPF1  -  upf1 regulator of nonsense transcripts homolog (yeast), BBS10  -  bardet-biedl syndrome 10, RET  -  ret proto-oncogene, TTLL7  -  tubulin tyrosine ligase-like family, member 7, RFC1  -  replication factor c (activator 1) 1, 145kda, RFC2  -  replication factor c (activator 1) 2, 40kda, STRADB  -  ste20-related kinase adaptor beta, FICD  -  fic domain containing, RFC4  -  replication factor c (activator 1) 4, 37kda, ENTPD1  -  ectonucleoside triphosphate diphosphohydrolase 1, ENTPD2  -  ectonucleoside triphosphate diphosphohydrolase 2, IDE  -  insulin-degrading enzyme, ENTPD3  -  ectonucleoside triphosphate diphosphohydrolase 3, NEK8  -  nima-related kinase 8, RABL2A  -  rab, member of ras oncogene family-like 2a, DNAJA4  -  dnaj (hsp40) homolog, subfamily a, member 4, EIF2AK4  -  eukaryotic translation initiation factor 2 alpha kinase 4, ETNK1  -  ethanolamine kinase 1, DDX43  -  dead (asp-glu-ala-asp) box polypeptide 43, RHEB  -  ras homolog enriched in brain, MAP4K5  -  mitogen-activated protein kinase kinase kinase kinase 5, RERGL  -  rerg/ras-like, DNAH11  -  dynein, axonemal, heavy chain 11, CDC42  -  cell division cycle 42, ABCC3  -  atp-binding cassette, sub-family c (cftr/mrp), member 3, CHEK2  -  checkpoint kinase 2, DNAH3  -  dynein, axonemal, heavy chain 3, SBK1  -  sh3-binding domain kinase 1, RNASEL  -  ribonuclease l (2',5'-oligoisoadenylate synthetase-dependent), NEK10  -  nima-related kinase 10, DDX20  -  dead (asp-glu-ala-asp) box polypeptide 20, UBE2Q1  -  ubiquitin-conjugating enzyme e2q family member 1, RNGTT  -  rna guanylyltransferase and 5'-phosphatase, CDK3  -  cyclin-dependent kinase 3, BMP2K  -  bmp2 inducible kinase, CDK5  -  cyclin-dependent kinase 5, RIPK1  -  receptor (tnfrsf)-interacting serine-threonine kinase 1, CDK6  -  cyclin-dependent kinase 6, ABCE1  -  atp-binding cassette, sub-family e (oabp), member 1, CDK8  -  cyclin-dependent kinase 8, CDK9  -  cyclin-dependent kinase 9, KIF21A  -  kinesin family member 21a, IGHMBP2  -  immunoglobulin mu binding protein 2, KIF16B  -  kinesin family member 16b, RAB11A  -  rab11a, member ras oncogene family, RIPK2  -  receptor-interacting serine-threonine kinase 2, RIOK3  -  rio kinase 3, ROCK1  -  rho-associated, coiled-coil containing protein kinase 1, CENPE  -  centromere protein e, 312kda, ROS1  -  c-ros oncogene 1 , receptor tyrosine kinase, CHD7  -  chromodomain helicase dna binding protein 7, RP2  -  retinitis pigmentosa 2 (x-linked recessive), UBA5  -  ubiquitin-like modifier activating enzyme 5, DCAKD  -  dephospho-coa kinase domain containing, RAB20  -  rab20, member ras oncogene family, IKBKB  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase beta, CFTR  -  cystic fibrosis transmembrane conductance regulator (atp-binding cassette sub-family c, member 7), SUCLG2  -  succinate-coa ligase, gdp-forming, beta subunit, SUCLA2  -  succinate-coa ligase, adp-forming, beta subunit, DDX27  -  dead (asp-glu-ala-asp) box polypeptide 27, GPN1  -  gpn-loop gtpase 1, DDX42  -  dead (asp-glu-ala-asp) box helicase 42, CDKL1  -  cyclin-dependent kinase-like 1 (cdc2-related kinase), MFN1  -  mitofusin 1, CHD2  -  chromodomain helicase dna binding protein 2, SCYL2  -  scy1-like 2 (s. cerevisiae), ATAD5  -  atpase family, aaa domain containing 5, CHD4  -  chromodomain helicase dna binding protein 4, RABL6  -  rab, member ras oncogene family-like 6, TRMU  -  trna 5-methylaminomethyl-2-thiouridylate methyltransferase, TWF2  -  twinfilin actin-binding protein 2, GMPS  -  guanine monphosphate synthase, KIF12  -  kinesin family member 12, CHKA  -  choline kinase alpha, IARS2  -  isoleucyl-trna synthetase 2, mitochondrial, KSR1  -  kinase suppressor of ras 1, MRAS  -  muscle ras oncogene homolog, ABCA13  -  atp-binding cassette, sub-family a (abc1), member 13, HELQ  -  helicase, polq-like, HSPA4L  -  heat shock 70kda protein 4-like, TSR1  -  tsr1, 20s rrna accumulation, homolog (s. cerevisiae), N4BP2  -  nedd4 binding protein 2, CKB  -  creatine kinase, brain, RPS6KA2  -  ribosomal protein s6 kinase, 90kda, polypeptide 2, RPS6KA3  -  ribosomal protein s6 kinase, 90kda, polypeptide 3, RPS6KB1  -  ribosomal protein s6 kinase, 70kda, polypeptide 1, RPS6KB2  -  ribosomal protein s6 kinase, 70kda, polypeptide 2, HHAT  -  hedgehog acyltransferase, DDX18  -  dead (asp-glu-ala-asp) box polypeptide 18, AAK1  -  ap2 associated kinase 1, LMTK2  -  lemur tyrosine kinase 2, AGK  -  acylglycerol kinase, IRAK2  -  interleukin-1 receptor-associated kinase 2, CLCN3  -  chloride channel, voltage-sensitive 3, CLCN4  -  chloride channel, voltage-sensitive 4, PRPF4B  -  prp4 pre-mrna processing factor 4 homolog b (yeast), CLCN5  -  chloride channel, voltage-sensitive 5, CLCN6  -  chloride channel, voltage-sensitive 6, CLCN7  -  chloride channel, voltage-sensitive 7, DHX32  -  deah (asp-glu-ala-his) box polypeptide 32, CLK2  -  cdc-like kinase 2, CLK3  -  cdc-like kinase 3, RRM1  -  ribonucleotide reductase m1, MORC2  -  morc family cw-type zinc finger 2, PANK2  -  pantothenate kinase 2, MCMDC2  -  minichromosome maintenance domain containing 2, EPHA6  -  eph receptor a6, ITK  -  il2-inducible t-cell kinase, ABCC2  -  atp-binding cassette, sub-family c (cftr/mrp), member 2, DHX30  -  deah (asp-glu-ala-his) box helicase 30, ITPK1  -  inositol-tetrakisphosphate 1-kinase, ITPKA  -  inositol-trisphosphate 3-kinase a, ITPKB  -  inositol-trisphosphate 3-kinase b, AK8  -  adenylate kinase 8, ARL14  -  adp-ribosylation factor-like 14, RABL3  -  rab, member of ras oncogene family-like 3, PIF1  -  pif1 5'-to-3' dna helicase, MAP3K19  -  mitogen-activated protein kinase kinase kinase 19, TTLL11  -  tubulin tyrosine ligase-like family, member 11, JAK1  -  janus kinase 1, KALRN  -  kalirin, rhogef kinase, SEPHS1  -  selenophosphate synthetase 1, CDKL2  -  cyclin-dependent kinase-like 2 (cdc2-related kinase), ACSM3  -  acyl-coa synthetase medium-chain family member 3, MAPK12  -  mitogen-activated protein kinase 12, MAP3K14  -  mitogen-activated protein kinase kinase kinase 14, BRSK2  -  br serine/threonine kinase 2, CCT5  -  chaperonin containing tcp1, subunit 5 (epsilon), BAZ1B  -  bromodomain adjacent to zinc finger domain, 1b, UBA3  -  ubiquitin-like modifier activating enzyme 3, MYO19  -  myosin xix, KCNJ1  -  potassium inwardly-rectifying channel, subfamily j, member 1, BTAF1  -  btaf1 rna polymerase ii, b-tfiid transcription factor-associated, 170kda, SCN8A  -  sodium channel, voltage gated, type viii, alpha subunit, KCNJ8  -  potassium inwardly-rectifying channel, subfamily j, member 8, HKDC1  -  hexokinase domain containing 1, CHD9  -  chromodomain helicase dna binding protein 9, NUGGC  -  nuclear gtpase, germinal center associated, MB21D1  -  mab-21 domain containing 1, PAPSS1  -  3'-phosphoadenosine 5'-phosphosulfate synthase 1, SRL  -  sarcalumenin, MAP3K6  -  mitogen-activated protein kinase kinase kinase 6, ALPK1  -  alpha-kinase 1, MAP3K8  -  mitogen-activated protein kinase kinase kinase 8, RAB21  -  rab21, member ras oncogene family, STK38L  -  serine/threonine kinase 38 like, ACSS2  -  acyl-coa synthetase short-chain family member 2, KDR  -  kinase insert domain receptor (a type iii receptor tyrosine kinase), KIF2A  -  kinesin heavy chain member 2a, KIF3C  -  kinesin family member 3c, LANCL2  -  lanc lantibiotic synthetase component c-like 2 (bacterial), KIF5B  -  kinesin family member 5b, KIF5C  -  kinesin family member 5c, KIFC3  -  kinesin family member c3, MYO16  -  myosin xvi, DNAJA3  -  dnaj (hsp40) homolog, subfamily a, member 3, MAST3  -  microtubule associated serine/threonine kinase 3, MYO5C  -  myosin vc, MAP3K15  -  mitogen-activated protein kinase kinase kinase 15, KIT  -  v-kit hardy-zuckerman 4 feline sarcoma viral oncogene homolog, TNIK  -  traf2 and nck interacting kinase, ARL11  -  adp-ribosylation factor-like 11, KIF21B  -  kinesin family member 21b, LATS1  -  large tumor suppressor kinase 1, SMG1  -  smg1 phosphatidylinositol 3-kinase-related kinase, CPS1  -  carbamoyl-phosphate synthase 1, mitochondrial, DGKH  -  diacylglycerol kinase, eta, KIF11  -  kinesin family member 11, NMNAT2  -  nicotinamide nucleotide adenylyltransferase 2, KIF25  -  kinesin family member 25, SMC3  -  structural maintenance of chromosomes 3, P2RX6  -  purinergic receptor p2x, ligand-gated ion channel, 6, SETX  -  senataxin, GTPBP8  -  gtp-binding protein 8 (putative), UBE2T  -  ubiquitin-conjugating enzyme e2t (putative), KRAS  -  kirsten rat sarcoma viral oncogene homolog, SWAP70  -  swap switching b-cell complex 70kda subunit, VWA8  -  von willebrand factor a domain containing 8, COASY  -  coa synthase, TTLL5  -  tubulin tyrosine ligase-like family, member 5, KIF1B  -  kinesin family member 1b, TBK1  -  tank-binding kinase 1, DGKI  -  diacylglycerol kinase, iota, SGK1  -  serum/glucocorticoid regulated kinase 1, CUL9  -  cullin 9, RAB39B  -  rab39b, member ras oncogene family, MAP3K13  -  mitogen-activated protein kinase kinase kinase 13, MAPK14  -  mitogen-activated protein kinase 14, ATP10B  -  atpase, class v, type 10b, AARSD1  -  alanyl-trna synthetase domain containing 1, RAD54L2  -  rad54-like 2 (s. cerevisiae), TEX14  -  testis expressed 14, CSK  -  c-src tyrosine kinase, MAST2  -  microtubule associated serine/threonine kinase 2, DCLK1  -  doublecortin-like kinase 1, CSNK1A1  -  casein kinase 1, alpha 1, HSPA12B  -  heat shock 70kd protein 12b, CSNK1E  -  casein kinase 1, epsilon, OLA1  -  obg-like atpase 1, CSNK1G2  -  casein kinase 1, gamma 2, STK31  -  serine/threonine kinase 31, CSNK2A1  -  casein kinase 2, alpha 1 polypeptide, DNAH7  -  dynein, axonemal, heavy chain 7, MAGI1  -  membrane associated guanylate kinase, ww and pdz domain containing 1, AGAP1  -  arfgap with gtpase domain, ankyrin repeat and ph domain 1, AGAP3  -  arfgap with gtpase domain, ankyrin repeat and ph domain 3, TTLL12  -  tubulin tyrosine ligase-like family, member 12, GNL2  -  guanine nucleotide binding protein-like 2 (nucleolar), PASK  -  pas domain containing serine/threonine kinase, EEF2K  -  eukaryotic elongation factor-2 kinase, HFM1  -  hfm1, atp-dependent dna helicase homolog (s. cerevisiae), RPS6KA5  -  ribosomal protein s6 kinase, 90kda, polypeptide 5, LIG3  -  ligase iii, dna, atp-dependent, MFHAS1  -  malignant fibrous histiocytoma amplified sequence 1, LIG4  -  ligase iv, dna, atp-dependent, TTLL9  -  tubulin tyrosine ligase-like family, member 9, MAPKAPK2  -  mitogen-activated protein kinase-activated protein kinase 2, MDN1  -  mdn1, midasin homolog (yeast), NME7  -  nme/nm23 family member 7, STK17A  -  serine/threonine kinase 17a, LIMK2  -  lim domain kinase 2, CTPS2  -  ctp synthase 2, ATP11B  -  atpase, class vi, type 11b, IP6K3  -  inositol hexakisphosphate kinase 3, ACSBG1  -  acyl-coa synthetase bubblegum family member 1, ATP11C  -  atpase, class vi, type 11c, RHOBTB2  -  rho-related btb domain containing 2, SBK2  -  sh3-binding domain kinase family, member 2, BBS12  -  bardet-biedl syndrome 12, DCLK2  -  doublecortin-like kinase 2, NRBP1  -  nuclear receptor binding protein 1, SIK2  -  salt-inducible kinase 2, TRIP13  -  thyroid hormone receptor interactor 13, ATP11A  -  atpase, class vi, type 11a, SLC22A4  -  solute carrier family 22 (organic cation/zwitterion transporter), member 4, EFTUD2  -  elongation factor tu gtp binding domain containing 2, LONP1  -  lon peptidase 1, mitochondrial, WRNIP1  -  werner helicase interacting protein 1, RAB28  -  rab28, member ras oncogene family, RAB9A  -  rab9a, member ras oncogene family, DGKB  -  diacylglycerol kinase, beta 90kda, KIF3B  -  kinesin family member 3b, KIF13B  -  kinesin family member 13b, EHD4  -  eh-domain containing 4, EHD3  -  eh-domain containing 3, ACSL6  -  acyl-coa synthetase long-chain family member 6, PIK3R4  -  phosphoinositide-3-ki</t>
-  </si>
-  <si>
-    <t>ase, regulatory subunit 4, SMARCAD1  -  swi/snf-related, matrix-associated actin-dependent regulator of chromatin, subfamily a, containing dead/h box 1, DHX33  -  deah (asp-glu-ala-his) box polypeptide 33, MCCC1  -  methylcrotonoyl-coa carboxylase 1 (alpha), NMUR2  -  neuromedin u receptor 2, PAK6  -  p21 protein (cdc42/rac)-activated kinase 6, SMARCAL1  -  swi/snf related, matrix associated, actin dependent regulator of chromatin, subfamily a-like 1, RECQL5  -  recq protein-like 5, DHX36  -  deah (asp-glu-ala-his) box polypeptide 36, DDX51  -  dead (asp-glu-ala-asp) box polypeptide 51, MAK  -  male germ cell-associated kinase, LRRK2  -  leucine-rich repeat kinase 2, SMCHD1  -  structural maintenance of chromosomes flexible hinge domain containing 1, DDX1  -  dead (asp-glu-ala-asp) box helicase 1, DDX3X  -  dead (asp-glu-ala-asp) box helicase 3, x-linked, DDX5  -  dead (asp-glu-ala-asp) box helicase 5, MARK1  -  map/microtubule affinity-regulating kinase 1, DHX8  -  deah (asp-glu-ala-his) box polypeptide 8, MARK3  -  map/microtubule affinity-regulating kinase 3, DDX10  -  dead (asp-glu-ala-asp) box polypeptide 10, MAT1A  -  methionine adenosyltransferase i, alpha, SPAG1  -  sperm associated antigen 1, DDX11  -  dead/h (asp-glu-ala-asp/his) box helicase 11, DHX15  -  deah (asp-glu-ala-his) box helicase 15, ABCG2  -  atp-binding cassette, sub-family g (white), member 2, PNPLA8  -  patatin-like phospholipase domain containing 8, SPAST  -  spastin, FAM20C  -  family with sequence similarity 20, member c, SPG7  -  spastic paraplegia 7 (pure and complicated autosomal recessive), ITM2B  -  integral membrane protein 2b, KIF15  -  kinesin family member 15, EIF2AK3  -  eukaryotic translation initiation factor 2-alpha kinase 3, SIK3  -  sik family kinase 3, MCM2  -  minichromosome maintenance complex component 2, MCM3  -  minichromosome maintenance complex component 3, MCM4  -  minichromosome maintenance complex component 4, MCM5  -  minichromosome maintenance complex component 5, LARS2  -  leucyl-trna synthetase 2, mitochondrial, PIP5K1C  -  phosphatidylinositol-4-phosphate 5-kinase, type i, gamma, ATP13A2  -  atpase type 13a2, SRC  -  v-src avian sarcoma (schmidt-ruppin a-2) viral oncogene homolog, DICER1  -  dicer 1, ribonuclease type iii, ROCK2  -  rho-associated, coiled-coil containing protein kinase 2, TDRD9  -  tudor domain containing 9, SRMS  -  src-related kinase lacking c-terminal regulatory tyrosine and n-terminal myristylation sites, RARS2  -  arginyl-trna synthetase 2, mitochondrial, AK7  -  adenylate kinase 7, SRP54  -  signal recognition particle 54kda, PGS1  -  phosphatidylglycerophosphate synthase 1, SRPK1  -  srsf protein kinase 1, SRPK2  -  srsf protein kinase 2, KIF23  -  kinesin family member 23, RHOV  -  ras homolog family member v, MAP3K3  -  mitogen-activated protein kinase kinase kinase 3, MAP3K4  -  mitogen-activated protein kinase kinase kinase 4, DDX24  -  dead (asp-glu-ala-asp) box helicase 24, RAB8A  -  rab8a, member ras oncogene family, DNM1  -  dynamin 1, DNA2  -  dna replication helicase/nuclease 2, MET  -  met proto-oncogene, DNAH5  -  dynein, axonemal, heavy chain 5, DNAH8  -  dynein, axonemal, heavy chain 8, DNAH9  -  dynein, axonemal, heavy chain 9, ABCB10  -  atp-binding cassette, sub-family b (mdr/tap), member 10, ABCB9  -  atp-binding cassette, sub-family b (mdr/tap), member 9, VPS4B  -  vacuolar protein sorting 4 homolog b (s. cerevisiae), DYNC1H1  -  dynein, cytoplasmic 1, heavy chain 1, ABCA6  -  atp-binding cassette, sub-family a (abc1), member 6, ABCA5  -  atp-binding cassette, sub-family a (abc1), member 5, DYNC1LI2  -  dynein, cytoplasmic 1, light intermediate chain 2, CAMK1D  -  calcium/calmodulin-dependent protein kinase id, CIITA  -  class ii, major histocompatibility complex, transactivator, RAB37  -  rab37, member ras oncogene family, NUAK2  -  nuak family, snf1-like kinase, 2, MMAB  -  methylmalonic aciduria (cobalamin deficiency) cblb type, HSPA13  -  heat shock protein 70kda family, member 13, NEK4  -  nima-related kinase 4, STK3  -  serine/threonine kinase 3, STK4  -  serine/threonine kinase 4, CDKL5  -  cyclin-dependent kinase-like 5, STK10  -  serine/threonine kinase 10, STK11  -  serine/threonine kinase 11, CHD1L  -  chromodomain helicase dna binding protein 1-like, ADCK1  -  aarf domain containing kinase 1, PAK7  -  p21 protein (cdc42/rac)-activated kinase 7, MKI67  -  antigen identified by monoclonal antibody ki-67, SCYL3  -  scy1-like 3 (s. cerevisiae), MLH1  -  mutl homolog 1, colon cancer, nonpolyposis type 2 (e. coli), GTPBP1  -  gtp binding protein 1, MAP3K9  -  mitogen-activated protein kinase kinase kinase 9, DRG2  -  developmentally regulated gtp binding protein 2, ATL1  -  atlastin gtpase 1, KIF20B  -  kinesin family member 20b, SUPV3L1  -  suppressor of var1, 3-like 1 (s. cerevisiae), CAMK1G  -  calcium/calmodulin-dependent protein kinase ig, EARS2  -  glutamyl-trna synthetase 2, mitochondrial, ABCC8  -  atp-binding cassette, sub-family c (cftr/mrp), member 8, DNAH10  -  dynein, axonemal, heavy chain 10, ACTR3B  -  arp3 actin-related protein 3 homolog b (yeast), KIF18A  -  kinesin family member 18a, RAB36  -  rab36, member ras oncogene family, TNNI3K  -  tnni3 interacting kinase, SYN2  -  synapsin ii, ATP10A  -  atpase, class v, type 10a, ATP8B2  -  atpase, aminophospholipid transporter, class i, type 8b, member 2, ATP10D  -  atpase, class v, type 10d, MOCS1  -  molybdenum cofactor synthesis 1, RASD2  -  rasd family, member 2, ABCG1  -  atp-binding cassette, sub-family g (white), member 1, DYRK1A  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 1a, TRNT1  -  trna nucleotidyl transferase, cca-adding, 1, MOS  -  v-mos moloney murine sarcoma viral oncogene homolog, MOV10  -  mov10, moloney leukemia virus 10, homolog (mouse), GTPBP4  -  gtp binding protein 4, TAF1  -  taf1 rna polymerase ii, tata box binding protein (tbp)-associated factor, 250kda, ABCC1  -  atp-binding cassette, sub-family c (cftr/mrp), member 1, MLKL  -  mixed lineage kinase domain-like, IKBKE  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase epsilon, DDX59  -  dead (asp-glu-ala-asp) box polypeptide 59, ACSF3  -  acyl-coa synthetase family member 3, MAP3K7  -  mitogen-activated protein kinase kinase kinase 7, NLRC3  -  nlr family, card domain containing 3, TTLL4  -  tubulin tyrosine ligase-like family, member 4, UCK1  -  uridine-cytidine kinase 1, IRAK4  -  interleukin-1 receptor-associated kinase 4, RHOJ  -  ras homolog family member j, CLK4  -  cdc-like kinase 4, EEF1A2  -  eukaryotic translation elongation factor 1 alpha 2, EIF5B  -  eukaryotic translation initiation factor 5b, DYNC1LI1  -  dynein, cytoplasmic 1, light intermediate chain 1, RAB22A  -  rab22a, member ras oncogene family, PPIP5K1  -  diphosphoinositol pentakisphosphate kinase 1, SPO11  -  spo11 meiotic protein covalently bound to dsb, MYO1B  -  myosin ib, MYO15A  -  myosin xva, MSH2  -  muts homolog 2, colon cancer, nonpolyposis type 1 (e. coli), MSH4  -  muts homolog 4 (e. coli), MSH5  -  muts homolog 5 (e. coli), TUBD1  -  tubulin, delta 1, HSPA14  -  heat shock 70kda protein 14, EIF2S3  -  eukaryotic translation initiation factor 2, subunit 3 gamma, 52kda, GPN3  -  gpn-loop gtpase 3, EPHA2  -  eph receptor a2, ULK2  -  unc-51 like autophagy activating kinase 2, TCP1  -  t-complex 1, AQR  -  aquarius homolog (mouse), EIF4G1  -  eukaryotic translation initiation factor 4 gamma, 1, EIF5  -  eukaryotic translation initiation factor 5, NIN  -  ninein (gsk3b interacting protein), DDX47  -  dead (asp-glu-ala-asp) box polypeptide 47, RIOK1  -  rio kinase 1, PIKFYVE  -  phosphoinositide kinase, fyve finger containing, SGK3  -  serum/glucocorticoid regulated kinase family, member 3, VPRBP  -  vpr (hiv-1) binding protein, RIMKLB  -  ribosomal modification protein rimk-like family member b, LONP2  -  lon peptidase 2, peroxisomal, ARL13B  -  adp-ribosylation factor-like 13b, AARS2  -  alanyl-trna synthetase 2, mitochondrial, MTHFD1  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1, methenyltetrahydrofolate cyclohydrolase, formyltetrahydrofolate synthetase, VRK3  -  vaccinia related kinase 3, MTIF2  -  mitochondrial translational initiation factor 2, SLK  -  ste20-like kinase, STARD9  -  star-related lipid transfer (start) domain containing 9, SHPK  -  sedoheptulokinase, WEE2  -  wee1 homolog 2 (s. pombe), TDG  -  thymine-dna glycosylase, ALPK3  -  alpha-kinase 3, EPB42  -  erythrocyte membrane protein band 4.2, RAB12  -  rab12, member ras oncogene family, EIF4A3  -  eukaryotic translation initiation factor 4a3, EPHA1  -  eph receptor a1, EPHA3  -  eph receptor a3, EPHA4  -  eph receptor a4, KIAA0232  -  kiaa0232, EPHA5  -  eph receptor a5, EPHA7  -  eph receptor a7, EPHA8  -  eph receptor a8, TESK1  -  testis-specific kinase 1, TAOK1  -  tao kinase 1, DNAJC27  -  dnaj (hsp40) homolog, subfamily c, member 27, EPHB1  -  eph receptor b1, EPHB2  -  eph receptor b2, EPHB3  -  eph receptor b3, DHX38  -  deah (asp-glu-ala-his) box polypeptide 38, RASL12  -  ras-like, family 12, BMS1  -  bms1 ribosome biogenesis factor, EPRS  -  glutamyl-prolyl-trna synthetase, GSG2  -  germ cell associated 2 (haspin), ERBB4  -  v-erb-b2 avian erythroblastic leukemia viral oncogene homolog 4, STK40  -  serine/threonine kinase 40, KIF4A  -  kinesin family member 4a, MVK  -  mevalonate kinase, IP6K1  -  inositol hexakisphosphate kinase 1, MX1  -  myxovirus (influenza virus) resistance 1, interferon-inducible protein p78 (mouse), ERCC3  -  excision repair cross-complementing rodent repair deficiency, complementation group 3, ERCC6  -  excision repair cross-complementing rodent repair deficiency, complementation group 6, TSSK1B  -  testis-specific serine kinase 1b, TGFBR2  -  transforming growth factor, beta receptor ii (70/80kda), STK32A  -  serine/threonine kinase 32a, ERN1  -  endoplasmic reticulum to nucleus signaling 1, BRIP1  -  brca1 interacting protein c-terminal helicase 1, MYH4  -  myosin, heavy chain 4, skeletal muscle, DSTYK  -  dual serine/threonine and tyrosine protein kinase, MYH6  -  myosin, heavy chain 6, cardiac muscle, alpha, MELK  -  maternal embryonic leucine zipper kinase, OBSCN  -  obscurin, cytoskeletal calmodulin and titin-interacting rhogef, MYH9  -  myosin, heavy chain 9, non-muscle, MYH10  -  myosin, heavy chain 10, non-muscle, MYH11  -  myosin, heavy chain 11, smooth muscle, RAD54B  -  rad54 homolog b (s. cerevisiae), KATNAL1  -  katanin p60 subunit a-like 1, MYLK  -  myosin light chain kinase, TAOK3  -  tao kinase 3, MYO1C  -  myosin ic, MYO1D  -  myosin id, TK2  -  thymidine kinase 2, mitochondrial, MYO1E  -  myosin ie, MYO5A  -  myosin va (heavy chain 12, myoxin), MYO6  -  myosin vi, MYO7A  -  myosin viia, MYO9A  -  myosin ixa, TTLL1  -  tubulin tyrosine ligase-like family, member 1, EP400  -  e1a binding protein p400, MYO9B  -  myosin ixb, MYO10  -  myosin x, MYH7B  -  myosin, heavy chain 7b, cardiac muscle, beta, DHX37  -  deah (asp-glu-ala-his) box polypeptide 37, ZRANB3  -  zinc finger, ran-binding domain containing 3, HIPK1  -  homeodomain interacting protein kinase 1, DDX46  -  dead (asp-glu-ala-asp) box polypeptide 46, ARL6  -  adp-ribosylation factor-like 6, MYLK4  -  myosin light chain kinase family, member 4, RHOBTB1  -  rho-related btb domain containing 1, PRKAG2  -  protein kinase, amp-activated, gamma 2 non-catalytic subunit, ACSL1  -  acyl-coa synthetase long-chain family member 1, DDX41  -  dead (asp-glu-ala-asp) box polypeptide 41, ACSL3  -  acyl-coa synthetase long-chain family member 3, ACSL4  -  acyl-coa synthetase long-chain family member 4, MYO18A  -  myosin xviiia, PTK2B  -  protein tyrosine kinase 2 beta, DDX55  -  dead (asp-glu-ala-asp) box polypeptide 55, FANCM  -  fanconi anemia, complementation group m, IP6K2  -  inositol hexakisphosphate kinase 2, ATP2C2  -  atpase, ca++ transporting, type 2c, member 2, NRBP2  -  nuclear receptor binding protein 2, FAM20B  -  family with sequence similarity 20, member b, NLRC5  -  nlr family, card domain containing 5, TOP1  -  topoisomerase (dna) i, TOP2A  -  topoisomerase (dna) ii alpha 170kda, TOP2B  -  topoisomerase (dna) ii beta 180kda, MFN2  -  mitofusin 2, KIF14  -  kinesin family member 14, CHD6  -  chromodomain helicase dna binding protein 6, HELZ  -  helicase with zinc finger, MTHFD1L  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1-like, RTCB  -  rna 2',3'-cyclic phosphate and 5'-oh ligase, XYLB  -  xylulokinase homolog (h. influenzae), DRG1  -  developmentally regulated gtp binding protein 1, CMPK2  -  cytidine monophosphate (ump-cmp) kinase 2, mitochondrial, LARS  -  leucyl-trna synthetase, NEK1  -  nima-related kinase 1, NEK2  -  nima-related kinase 2, HSP90B1  -  heat shock protein 90kda beta (grp94), member 1, NEK3  -  nima-related kinase 3, RAB40C  -  rab40c, member ras oncogene family, THRAP3  -  thyroid hormone receptor associated protein 3, SAMHD1  -  sam domain and hd domain 1, RAP2C  -  rap2c, member of ras oncogene family, TRIO  -  trio rho guanine nucleotide exchange factor, FGFR1  -  fibroblast growth factor receptor 1, FGFR3  -  fibroblast growth factor receptor 3, ACVR1C  -  activin a receptor, type ic, CAMKK1  -  calcium/calmodulin-dependent protein kinase kinase 1, alpha, FGFR2  -  fibroblast growth factor receptor 2, FGFR4  -  fibroblast growth factor receptor 4, PARS2  -  prolyl-trna synthetase 2, mitochondrial (putative), AKT3  -  v-akt murine thymoma viral oncogene homolog 3, CKMT1A  -  creatine kinase, mitochondrial 1a, DNAH1  -  dynein, axonemal, heavy chain 1, NOA1  -  nitric oxide associated 1, RHOU  -  ras homolog family member u, ULK3  -  unc-51 like kinase 3, NEK5  -  nima-related kinase 5, NTPCR  -  nucleoside-triphosphatase, cancer-related, NME4  -  nme/nm23 nucleoside diphosphate kinase 4, FLT1  -  fms-related tyrosine kinase 1, FLT3  -  fms-related tyrosine kinase 3, FLT4  -  fms-related tyrosine kinase 4, RASD1  -  ras, dexamethasone-induced 1, SMC4  -  structural maintenance of chromosomes 4, TTK  -  ttk protein kinase, RRAGD  -  ras-related gtp binding d, TTN  -  titin, UBA2  -  ubiquitin-like modifier activating enzyme 2, GRK7  -  g protein-coupled receptor kinase 7, FARSB  -  phenylalanyl-trna synthetase, beta subunit, ABCC5  -  atp-binding cassette, sub-family c (cftr/mrp), member 5, ABCB6  -  atp-binding cassette, sub-family b (mdr/tap), member 6, DNM1L  -  dynamin 1-like, GIMD1  -  gimap family p-loop ntpase domain containing 1, TUBG1  -  tubulin, gamma 1, DNM3  -  dynamin 3, GLYCTK  -  glycerate kinase, HACL1  -  2-hydroxyacyl-coa lyase 1, NLK  -  nemo-like kinase, ACSL5  -  acyl-coa synthetase long-chain family member 5, ATP9A  -  atpase, class ii, type 9a, NPR2  -  natriuretic peptide receptor b/guanylate cyclase b (atrionatriuretic peptide receptor b), TYRO3  -  tyro3 protein tyrosine kinase, RAB23  -  rab23, member ras oncogene family, TRPV4  -  transient receptor potential cation channel, subfamily v, member 4, CMPK1  -  cytidine monophosphate (ump-cmp) kinase 1, cytosolic, AK9  -  adenylate kinase 9, UBA1  -  ubiquitin-like modifier activating enzyme 1, ACTR3  -  arp3 actin-related protein 3 homolog (yeast), ACTR2  -  arp2 actin-related protein 2 homolog (yeast), UBE2B  -  ubiquitin-conjugating enzyme e2b, AASDH  -  aminoadipate-semialdehyde dehydrogenase, NSF  -  n-ethylmaleimide-sensitive factor, UBE2D2  -  ubiquitin-conjugating enzyme e2d 2, UBE2E2  -  ubiquitin-conjugating enzyme e2e 2, RTEL1  -  regulator of telomere elongation helicase 1, UBE2G1  -  ubiquitin-conjugating enzyme e2g 1, UBE2G2  -  ubiquitin-conjugating enzyme e2g 2, UBE2H  -  ubiquitin-conjugating enzyme e2h, KCNT2  -  potassium channel, subfamily t, member 2, CDK12  -  cyclin-dependent kinase 12, UBE2L3  -  ubiquitin-conjugating enzyme e2l 3, RAD50  -  rad50 homolog (s. cerevisiae), UBE2N  -  ubiquitin-conjugating enzyme e2n, KIF20A  -  kinesin family member 20a, ATP8A2  -  atpase, aminophospholipid transporter, class i, type 8a, member 2, NTRK3  -  neurotrophic tyrosine kinase, receptor, type 3, RAB8B  -  rab8b, member ras oncogene family, KIF6  -  kinesin family member 6, ROR1  -  receptor tyrosine kinase-like orphan receptor 1, DDR2  -  discoidin domain receptor tyrosine kinase 2, MCM8  -  minichromosome maintenance complex component 8, NVL  -  nuclear vcp-like, TRAP1  -  tnf receptor-associated protein 1, ARFRP1  -  adp-ribosylation factor related protein 1, KIF26A  -  kinesin family member 26a, ACSS1  -  acyl-coa synthetase short-chain family member 1, ABCA12  -  atp-binding cassette, sub-family a (abc1), member 12, G3BP1  -  gtpase activating protein (sh3 domain) binding protein 1, UCK2  -  uridine-cytidine kinase 2, MTG2  -  mitochondrial ribosome-associated gtpase 2, DHX35  -  deah (asp-glu-ala-his) box polypeptide 35, OPA1  -  optic atrophy 1 (autosomal dominant), FRK  -  fyn-related kinase, SRR  -  serine racemase, ARL5A  -  adp-ribosylation factor-like 5a, TTBK1  -  tau tubulin kinase 1, ORC1  -  origin recognition complex, subunit 1, UBE2O  -  ubiquitin-conjugating enzyme e2o, ORC4  -  origin recognition complex, subunit 4, TNK2  -  tyrosine kinase, non-receptor, 2, ORC5  -  origin recognition complex, subunit 5, MYO3A  -  myosin iiia, NME6  -  nme/nm23 nucleoside diphosphate kinase 6, CSNK1G1  -  casein kinase 1, gamma 1, CHTF18  -  ctf18, chromosome transmission fidelity factor 18 homolog (s. cerevisiae), MTOR  -  mechanistic target of rapamycin (serine/threonine kinase), P2RX1  -  purinergic receptor p2x, ligand-gated ion channel, 1]</t>
-  </si>
-  <si>
     <t>GO:0016301</t>
   </si>
   <si>
     <t>kinase activity</t>
   </si>
   <si>
-    <t>[ITK  -  il2-inducible t-cell kinase, ITPK1  -  inositol-tetrakisphosphate 1-kinase, VRK1  -  vaccinia related kinase 1, ITPKA  -  inositol-trisphosphate 3-kinase a, VRK2  -  vaccinia related kinase 2, ITPKB  -  inositol-trisphosphate 3-kinase b, MAPK15  -  mitogen-activated protein kinase 15, AK8  -  adenylate kinase 8, LRGUK  -  leucine-rich repeats and guanylate kinase domain containing, JAK1  -  janus kinase 1, KALRN  -  kalirin, rhogef kinase, ABL1  -  c-abl oncogene 1, non-receptor tyrosine kinase, SEPHS1  -  selenophosphate synthetase 1, CDKL2  -  cyclin-dependent kinase-like 2 (cdc2-related kinase), AK5  -  adenylate kinase 5, WEE1  -  wee1 homolog (s. pombe), MAPK12  -  mitogen-activated protein kinase 12, PAK1  -  p21 protein (cdc42/rac)-activated kinase 1, PAK2  -  p21 protein (cdc42/rac)-activated kinase 2, MAP3K14  -  mitogen-activated protein kinase kinase kinase 14, PAK3  -  p21 protein (cdc42/rac)-activated kinase 3, BRSK2  -  br serine/threonine kinase 2, BAZ1B  -  bromodomain adjacent to zinc finger domain, 1b, RBKS  -  ribokinase, FYN  -  fyn oncogene related to src, fgr, yes, HKDC1  -  hexokinase domain containing 1, PAPSS1  -  3'-phosphoadenosine 5'-phosphosulfate synthase 1, MAP3K6  -  mitogen-activated protein kinase kinase kinase 6, ALPK1  -  alpha-kinase 1, CCL2  -  chemokine (c-c motif) ligand 2, CCL3  -  chemokine (c-c motif) ligand 3, MAP3K8  -  mitogen-activated protein kinase kinase kinase 8, YES1  -  v-yes-1 yamaguchi sarcoma viral oncogene homolog 1, FN3K  -  fructosamine 3 kinase, STK38L  -  serine/threonine kinase 38 like, SPEG  -  speg complex locus, ACVR1  -  activin a receptor, type i, LATS2  -  large tumor suppressor kinase 2, ACVR2B  -  activin a receptor, type iib, KDR  -  kinase insert domain receptor (a type iii receptor tyrosine kinase), CDK17  -  cyclin-dependent kinase 17, CDK18  -  cyclin-dependent kinase 18, ZAP70  -  zeta-chain (tcr) associated protein kinase 70kda, GALK1  -  galactokinase 1, GALK2  -  galactokinase 2, MAST3  -  microtubule associated serine/threonine kinase 3, MAP3K15  -  mitogen-activated protein kinase kinase kinase 15, KIT  -  v-kit hardy-zuckerman 4 feline sarcoma viral oncogene homolog, TNIK  -  traf2 and nck interacting kinase, LATS1  -  large tumor suppressor kinase 1, SMG1  -  smg1 phosphatidylinositol 3-kinase-related kinase, PDGFRA  -  platelet-derived growth factor receptor, alpha polypeptide, PDGFRL  -  platelet-derived growth factor receptor-like, DGKH  -  diacylglycerol kinase, eta, PDGFRB  -  platelet-derived growth factor receptor, beta polypeptide, PDK3  -  pyruvate dehydrogenase kinase, isozyme 3, PDK4  -  pyruvate dehydrogenase kinase, isozyme 4, IPMK  -  inositol polyphosphate multikinase, ADRBK1  -  adrenergic, beta, receptor kinase 1, ADRBK2  -  adrenergic, beta, receptor kinase 2, COASY  -  coa synthase, TBK1  -  tank-binding kinase 1, DGKI  -  diacylglycerol kinase, iota, SGK1  -  serum/glucocorticoid regulated kinase 1, PFKFB2  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 2, PFKFB3  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 3, PFKFB4  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 4, PFKL  -  phosphofructokinase, liver, MAP3K13  -  mitogen-activated protein kinase kinase kinase 13, RPS6KC1  -  ribosomal protein s6 kinase, 52kda, polypeptide 1, PFKP  -  phosphofructokinase, platelet, MAPK14  -  mitogen-activated protein kinase 14, CDK14  -  cyclin-dependent kinase 14, TEX14  -  testis expressed 14, AK2  -  adenylate kinase 2, CSK  -  c-src tyrosine kinase, AK4  -  adenylate kinase 4, MAST2  -  microtubule associated serine/threonine kinase 2, AKT1  -  v-akt murine thymoma viral oncogene homolog 1, DCLK1  -  doublecortin-like kinase 1, CSNK1A1  -  casein kinase 1, alpha 1, CSNK1E  -  casein kinase 1, epsilon, CSNK1G2  -  casein kinase 1, gamma 2, TESK2  -  testis-specific kinase 2, CSNK2A1  -  casein kinase 2, alpha 1 polypeptide, GK  -  glycerol kinase, PHKA2  -  phosphorylase kinase, alpha 2 (liver), PHKG1  -  phosphorylase kinase, gamma 1 (muscle), SLA  -  src-like-adaptor, ALK  -  anaplastic lymphoma receptor tyrosine kinase, PASK  -  pas domain containing serine/threonine kinase, EEF2K  -  eukaryotic elongation factor-2 kinase, MERTK  -  c-mer proto-oncogene tyrosine kinase, RPS6KA5  -  ribosomal protein s6 kinase, 90kda, polypeptide 5, PIK3C2A  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 alpha, PIK3C2B  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 beta, PIK3C2G  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 gamma, PIK3CA  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit alpha, MAPKAPK2  -  mitogen-activated protein kinase-activated protein kinase 2, PIK3CB  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit beta, NME7  -  nme/nm23 family member 7, STK17A  -  serine/threonine kinase 17a, PIK3CD  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit delta, LIMK2  -  lim domain kinase 2, PIK3CG  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit gamma, IP6K3  -  inositol hexakisphosphate kinase 3, PI4KB  -  phosphatidylinositol 4-kinase, catalytic, beta, IPPK  -  inositol 1,3,4,5,6-pentakisphosphate 2-kinase, PIP4K2A  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, alpha, CERK  -  ceramide kinase, PKM  -  pyruvate kinase, muscle, STK25  -  serine/threonine kinase 25, SBK2  -  sh3-binding domain kinase family, member 2, MAPKAPK3  -  mitogen-activated protein kinase-activated protein kinase 3, SIK2  -  salt-inducible kinase 2, SGMS2  -  sphingomyelin synthase 2, MYLK2  -  myosin light chain kinase 2, PAN3  -  pan3 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), STK35  -  serine/threonine kinase 35, LTBP1  -  latent transforming growth factor beta binding protein 1, PLK1  -  polo-like kinase 1, TPK1  -  thiamin pyrophosphokinase 1, DCLK3  -  doublecortin-like kinase 3, DGKB  -  diacylglycerol kinase, beta 90kda, PIK3R4  -  phosphoinositide-3-kinase, regulatory subunit 4, PAK6  -  p21 protein (cdc42/rac)-activated kinase 6, GRK4  -  g protein-coupled receptor kinase 4, PINK1  -  pten induced putative kinase 1, GRK5  -  g protein-coupled receptor kinase 5, EIF2AK1  -  eukaryotic translation initiation factor 2-alpha kinase 1, GRK6  -  g protein-coupled receptor kinase 6, CDK15  -  cyclin-dependent kinase 15, MAK  -  male germ cell-associated kinase, LRRK2  -  leucine-rich repeat kinase 2, SNRK  -  snf related kinase, MARK1  -  map/microtubule affinity-regulating kinase 1, MARK3  -  map/microtubule affinity-regulating kinase 3, WNK1  -  wnk lysine deficient protein kinase 1, NADK  -  nad kinase, STK36  -  serine/threonine kinase 36, FAM20C  -  family with sequence similarity 20, member c, NPRL2  -  nitrogen permease regulator-like 2 (s. cerevisiae), EIF2AK3  -  eukaryotic translation initiation factor 2-alpha kinase 3, CAMKK2  -  calcium/calmodulin-dependent protein kinase kinase 2, beta, SIK3  -  sik family kinase 3, GSK3B  -  glycogen synthase kinase 3 beta, PIP5K1C  -  phosphatidylinositol-4-phosphate 5-kinase, type i, gamma, SRC  -  v-src avian sarcoma (schmidt-ruppin a-2) viral oncogene homolog, ROCK2  -  rho-associated, coiled-coil containing protein kinase 2, ATM  -  ataxia telangiectasia mutated, MAGI3  -  membrane associated guanylate kinase, ww and pdz domain containing 3, SRMS  -  src-related kinase lacking c-terminal regulatory tyrosine and n-terminal myristylation sites, NMRK2  -  nicotinamide riboside kinase 2, AK7  -  adenylate kinase 7, DLG1  -  discs, large homolog 1 (drosophila), SRPK1  -  srsf protein kinase 1, SRPK2  -  srsf protein kinase 2, MAP3K3  -  mitogen-activated protein kinase kinase kinase 3, MAP3K4  -  mitogen-activated protein kinase kinase kinase 4, CAMKV  -  cam kinase-like vesicle-associated, MET  -  met proto-oncogene, UCKL1  -  uridine-cytidine kinase 1-like 1, GUCY2C  -  guanylate cyclase 2c (heat stable enterotoxin receptor), GUCY2F  -  guanylate cyclase 2f, retinal, GUK1  -  guanylate kinase 1, TTBK2  -  tau tubulin kinase 2, CAMK1D  -  calcium/calmodulin-dependent protein kinase id, PRKAB2  -  protein kinase, amp-activated, beta 2 non-catalytic subunit, PRKACB  -  protein kinase, camp-dependent, catalytic, beta, MAP3K2  -  mitogen-activated protein kinase kinase kinase 2, NUAK2  -  nuak family, snf1-like kinase, 2, ATR  -  ataxia telangiectasia and rad3 related, HYKK  -  hydroxylysine kinase, NEK4  -  nima-related kinase 4, PRKCA  -  protein kinase c, alpha, STK3  -  serine/threonine kinase 3, PRKCB  -  protein kinase c, beta, STK4  -  serine/threonine kinase 4, PRKCD  -  protein kinase c, delta, PRKCE  -  protein kinase c, epsilon, RPS6KA6  -  ribosomal protein s6 kinase, 90kda, polypeptide 6, CDKL5  -  cyclin-dependent kinase-like 5, PRKCH  -  protein kinase c, eta, STK10  -  serine/threonine kinase 10, STK11  -  serine/threonine kinase 11, ADCK1  -  aarf domain containing kinase 1, PKN2  -  protein kinase n2, PAK7  -  p21 protein (cdc42/rac)-activated kinase 7, PRKCQ  -  protein kinase c, theta, PRKCZ  -  protein kinase c, zeta, PRKDC  -  protein kinase, dna-activated, catalytic polypeptide, PRKG1  -  protein kinase, cgmp-dependent, type i, MAP3K9  -  mitogen-activated protein kinase kinase kinase 9, MAPK1  -  mitogen-activated protein kinase 1, MAPK6  -  mitogen-activated protein kinase 6, NEK6  -  nima-related kinase 6, MAPK8  -  mitogen-activated protein kinase 8, MAPK11  -  mitogen-activated protein kinase 11, MAPK9  -  mitogen-activated protein kinase 9, MAPK10  -  mitogen-activated protein kinase 10, MAPK13  -  mitogen-activated protein kinase 13, MAP2K1  -  mitogen-activated protein kinase kinase 1, CAMK1G  -  calcium/calmodulin-dependent protein kinase ig, MAP2K6  -  mitogen-activated protein kinase kinase 6, EIF2AK2  -  eukaryotic translation initiation factor 2-alpha kinase 2, CCND1  -  cyclin d1, PIK3R6  -  phosphoinositide-3-kinase, regulatory subunit 6, CERKL  -  ceramide kinase-like, HCK  -  hemopoietic cell kinase, CDC7  -  cell division cycle 7, TNNI3K  -  tnni3 interacting kinase, BCR  -  breakpoint cluster region, ADPGK  -  adp-dependent glucokinase, PRPS1  -  phosphoribosyl pyrophosphate synthetase 1, PRPS2  -  phosphoribosyl pyrophosphate synthetase 2, DYRK1A  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 1a, MOS  -  v-mos moloney murine sarcoma viral oncogene homolog, MPP1  -  membrane protein, palmitoylated 1, 55kda, TAF1  -  taf1 rna polymerase ii, tata box binding protein (tbp)-associated factor, 250kda, ADCK2  -  aarf domain containing kinase 2, MLKL  -  mixed lineage kinase domain-like, BLK  -  b lymphoid tyrosine kinase, IKBKE  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase epsilon, HK2  -  hexokinase 2, MAP3K7  -  mitogen-activated protein kinase kinase kinase 7, BMPR1A  -  bone morphogenetic protein receptor, type ia, UCK1  -  uridine-cytidine kinase 1, BMPR2  -  bone morphogenetic protein receptor, type ii (serine/threonine kinase), IRAK4  -  interleukin-1 receptor-associated kinase 4, CLK4  -  cdc-like kinase 4, PPIP5K1  -  diphosphoinositol pentakisphosphate kinase 1, BRAF  -  v-raf murine sarcoma viral oncogene homolog b, NME5  -  nme/nm23 family member 5, PIP4K2B  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, beta, BTK  -  bruton agammaglobulinemia tyrosine kinase, PKDCC  -  protein kinase domain containing, cytoplasmic, BUB1  -  bub1 mitotic checkpoint serine/threonine kinase, BUB1B  -  bub1 mitotic checkpoint serine/threonine kinase b, ULK1  -  unc-51 like autophagy activating kinase 1, ULK2  -  unc-51 like autophagy activating kinase 2, EPHA2  -  eph receptor a2, RIOK1  -  rio kinase 1, PIKFYVE  -  phosphoinositide kinase, fyve finger containing, SGK3  -  serum/glucocorticoid regulated kinase family, member 3, VPRBP  -  vpr (hiv-1) binding protein, DYRK3  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 3, PTK2  -  protein tyrosine kinase 2, DYRK2  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 2, PTK7  -  protein tyrosine kinase 7, VRK3  -  vaccinia related kinase 3, CRIM1  -  cysteine rich transmembrane bmp regulator 1 (chordin-like), MYLK3  -  myosin light chain kinase 3, SLK  -  ste20-like kinase, SHPK  -  sedoheptulokinase, WEE2  -  wee1 homolog 2 (s. pombe), CDC42BPA  -  cdc42 binding protein kinase alpha (dmpk-like), KSR2  -  kinase suppressor of ras 2, MAP4K3  -  mitogen-activated protein kinase kinase kinase kinase 3, PPM1D  -  protein phosphatase, mg2+/mn2+ dependent, 1d, ETNK2  -  ethanolamine kinase 2, EPHA1  -  eph receptor a1, EPHA3  -  eph receptor a3, EPHA4  -  eph receptor a4, EPHA5  -  eph receptor a5, EPHA7  -  eph receptor a7, TAOK1  -  tao kinase 1, TESK1  -  testis-specific kinase 1, EPHA8  -  eph receptor a8, EPHB1  -  eph receptor b1, EPHB2  -  eph receptor b2, PDIK1L  -  pdlim1 interacting kinase 1 like, EPHB3  -  eph receptor b3, GSG2  -  germ cell associated 2 (haspin), TLK2  -  tousled-like kinase 2, ERBB4  -  v-erb-b2 avian erythroblastic leukemia viral oncogene homolog 4, ALDH18A1  -  aldehyde dehydrogenase 18 family, member a1, CAMK4  -  calcium/calmodulin-dependent protein kinase iv, CAMK2A  -  calcium/calmodulin-dependent protein kinase ii alpha, MVK  -  mevalonate kinase, DGKZ  -  diacylglycerol kinase, zeta, IP6K1  -  inositol hexakisphosphate kinase 1, DGKE  -  diacylglycerol kinase, epsilon 64kda, CAMK2D  -  calcium/calmodulin-dependent protein kinase ii delta, DGKD  -  diacylglycerol kinase, delta 130kda, CAMK2G  -  calcium/calmodulin-dependent protein kinase ii gamma, TSSK1B  -  testis-specific serine kinase 1b, TGFBR2  -  transforming growth factor, beta receptor ii (70/80kda), TGFBR3  -  transforming growth factor, beta receptor iii, STK32A  -  serine/threonine kinase 32a, ERN1  -  endoplasmic reticulum to nucleus signaling 1, PIM3  -  pim-3 oncogene, DSTYK  -  dual serine/threonine and tyrosine protein kinase, MELK  -  maternal embryonic leucine zipper kinase, MAPKAPK5  -  mitogen-activated protein kinase-activated protein kinase 5, PANK3  -  pantothenate kinase 3, CDK10  -  cyclin-dependent kinase 10, MYLK  -  myosin light chain kinase, RAF1  -  v-raf-1 murine leukemia viral oncogene homolog 1, TAOK3  -  tao kinase 3, PI4K2B  -  phosphatidylinositol 4-kinase type 2 beta, TK2  -  thymidine kinase 2, mitochondrial, PDXK  -  pyridoxal (pyridoxine, vitamin b6) kinase, MKNK1  -  map kinase interacting serine/threonine kinase 1, CASK  -  calcium/calmodulin-dependent serine protein kinase (maguk family), STK16  -  serine/threonine kinase 16, HIPK1  -  homeodomain interacting protein kinase 1, CCNE1  -  cyclin e1, MYLK4  -  myosin light chain kinase family, member 4, CDK13  -  cyclin-dependent kinase 13, CIT  -  citron (rho-interacting, serine/threonine kinase 21), NOL9  -  nucleolar protein 9, PTK2B  -  protein tyrosine kinase 2 beta, IP6K2  -  inositol hexakisphosphate kinase 2, NRBP2  -  nuclear receptor binding protein 2, FAM20B  -  family with sequence similarity 20, member b, EFEMP1  -  egf containing fibulin-like extracellular matrix protein 1, TBCK  -  tbc1 domain containing kinase, TOP1  -  topoisomerase (dna) i, RET  -  ret proto-oncogene, NEK8  -  nima-related kinase 8, XYLB  -  xylulokinase homolog (h. influenzae), EIF2AK4  -  eukaryotic translation initiation factor 2 alpha kinase 4, CMPK2  -  cytidine monophosphate (ump-cmp) kinase 2, mitochondrial, ETNK1  -  ethanolamine kinase 1, NEK1  -  nima-related kinase 1, SOSTDC1  -  sclerostin domain containing 1, NEK2  -  nima-related kinase 2, NEK3  -  nima-related kinase 3, MAP4K5  -  mitogen-activated protein kinase kinase kinase kinase 5, TRIO  -  trio rho guanine nucleotide exchange factor, FGFR1  -  fibroblast growth factor receptor 1, ACVR1C  -  activin a receptor, type ic, FGFR3  -  fibroblast growth factor receptor 3, CAMKK1  -  calcium/calmodulin-dependent protein kinase kinase 1, alpha, FGFR2  -  fibroblast growth factor receptor 2, FGFR4  -  fibroblast growth factor receptor 4, CHEK2  -  checkpoint kinase 2, SBK1  -  sh3-binding domain kinase 1, RNASEL  -  ribonuclease l (2',5'-oligoisoadenylate synthetase-dependent), AKAP13  -  a kinase (prka) anchor protein 13, NEK10  -  nima-related kinase 10, IGF2R  -  insulin-like growth factor 2 receptor, AKT3  -  v-akt murine thymoma viral oncogene homolog 3, CKMT1A  -  creatine kinase, mitochondrial 1a, CDK3  -  cyclin-dependent kinase 3, BMP2K  -  bmp2 inducible kinase, CDK5  -  cyclin-dependent kinase 5, RIPK1  -  receptor (tnfrsf)-interacting serine-threonine kinase 1, ULK3  -  unc-51 like kinase 3, CDK6  -  cyclin-dependent kinase 6, CDK8  -  cyclin-dependent kinase 8, CDK9  -  cyclin-dependent kinase 9, CDKN1A  -  cyclin-dependent kinase inhibitor 1a (p21, cip1), PEAK1  -  nkf3 kinase family member, NME4  -  nme/nm23 nucleoside diphosphate kinase 4, RIPK2  -  receptor-interacting serine-threonine kinase 2, FLT1  -  fms-related tyrosine kinase 1, RIOK3  -  rio kinase 3, FLT3  -  fms-related tyrosine kinase 3, ROCK1  -  rho-associated, coiled-coil containing protein kinase 1, FLT4  -  fms-related tyrosine kinase 4, TTK  -  ttk protein kinase, TTN  -  titin, GRK7  -  g protein-coupled receptor kinase 7, ROS1  -  c-ros oncogene 1 , receptor tyrosine kinase, DCAKD  -  dephospho-coa kinase domain containing, IKBKB  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase beta, GLYCTK  -  glycerate kinase, TRIM24  -  tripartite motif containing 24, NLK  -  nemo-like kinase, CCNK  -  cyclin k, TYRO3  -  tyro3 protein tyrosine kinase, NPR2  -  natriuretic peptide receptor b/guanylate cyclase b (atrionatriuretic peptide receptor b), CDKL1  -  cyclin-dependent kinase-like 1 (cdc2-related kinase), CARD11  -  caspase recruitment domain family, member 11, CMPK1  -  cytidine monophosphate (ump-cmp) kinase 1, cytosolic, AK9  -  adenylate kinase 9, SCYL2  -  scy1-like 2 (s. cerevisiae), NRP2  -  neuropilin 2, NRP1  -  neuropilin 1, CHKA  -  choline kinase alpha, CDK12  -  cyclin-dependent kinase 12, NTRK3  -  neurotrophic tyrosine kinase, receptor, type 3, KSR1  -  kinase suppressor of ras 1, DDR2  -  discoidin domain receptor tyrosine kinase 2, N4BP2  -  nedd4 binding protein 2, CKB  -  creatine kinase, brain, RPS6KA2  -  ribosomal protein s6 kinase, 90kda, polypeptide 2, RPS6KA3  -  ribosomal protein s6 kinase, 90kda, polypeptide 3, RPS6KB1  -  ribosomal protein s6 kinase, 70kda, polypeptide 1, RPS6KB2  -  ribosomal protein s6 kinase, 70kda, polypeptide 2, SQSTM1  -  sequestosome 1, UCK2  -  uridine-cytidine kinase 2, DOLK  -  dolichol kinase, AAK1  -  ap2 associated kinase 1, LMTK2  -  lemur tyrosine kinase 2, AGK  -  acylglycerol kinase, CPNE3  -  copine iii, IRAK2  -  interleukin-1 receptor-associated kinase 2, PRPF4B  -  prp4 pre-mrna processing factor 4 homolog b (yeast), FRK  -  fyn-related kinase, CLK2  -  cdc-like kinase 2, TTBK1  -  tau tubulin kinase 1, CLK3  -  cdc-like kinase 3, FGFRL1  -  fibroblast growth factor receptor-like 1, PANK2  -  pantothenate kinase 2, TNK2  -  tyrosine kinase, non-receptor, 2, MYO3A  -  myosin iiia, NME6  -  nme/nm23 nucleoside diphosphate kinase 6, CSNK1G1  -  casein kinase 1, gamma 1, MTOR  -  mechanistic target of rapamycin (serine/threonine kinase), EPHA6  -  eph receptor a6]</t>
-  </si>
-  <si>
     <t>GO:0016740</t>
   </si>
   <si>
     <t>transferase activity</t>
   </si>
   <si>
-    <t>[FBXO22  -  f-box protein 22, VRK1  -  vaccinia related kinase 1, FBXO9  -  f-box protein 9, VRK2  -  vaccinia related kinase 2, FBXO6  -  f-box protein 6, PCIF1  -  pdx1 c-terminal inhibiting factor 1, MAPK15  -  mitogen-activated protein kinase 15, TRIM55  -  tripartite motif containing 55, LRGUK  -  leucine-rich repeats and guanylate kinase domain containing, TRIM63  -  tripartite motif containing 63, e3 ubiquitin protein ligase, FBXO3  -  f-box protein 3, ABAT  -  4-aminobutyrate aminotransferase, ABL1  -  c-abl oncogene 1, non-receptor tyrosine kinase, AK5  -  adenylate kinase 5, WEE1  -  wee1 homolog (s. pombe), PRDM16  -  pr domain containing 16, UGT2A2  -  udp glucuronosyltransferase 2 family, polypeptide a2, PRDM15  -  pr domain containing 15, PAK1  -  p21 protein (cdc42/rac)-activated kinase 1, GBGT1  -  globoside alpha-1,3-n-acetylgalactosaminyltransferase 1, PAK2  -  p21 protein (cdc42/rac)-activated kinase 2, PAK3  -  p21 protein (cdc42/rac)-activated kinase 3, TMEM68  -  transmembrane protein 68, GPT2  -  glutamic pyruvate transaminase (alanine aminotransferase) 2, LNX1  -  ligand of numb-protein x 1, e3 ubiquitin protein ligase, ACAT2  -  acetyl-coa acetyltransferase 2, PARK2  -  parkinson protein 2, e3 ubiquitin protein ligase (parkin), FUT4  -  fucosyltransferase 4 (alpha (1,3) fucosyltransferase, myeloid-specific), FUT6  -  fucosyltransferase 6 (alpha (1,3) fucosyltransferase), ACLY  -  atp citrate lyase, FUT7  -  fucosyltransferase 7 (alpha (1,3) fucosyltransferase), FUT8  -  fucosyltransferase 8 (alpha (1,6) fucosyltransferase), HGSNAT  -  heparan-alpha-glucosaminide n-acetyltransferase, FYN  -  fyn oncogene related to src, fgr, yes, RBKS  -  ribokinase, SETD4  -  set domain containing 4, B3GNT9  -  udp-glcnac:betagal beta-1,3-n-acetylglucosaminyltransferase 9, GAL3ST2  -  galactose-3-o-sulfotransferase 2, CHRAC1  -  chromatin accessibility complex 1, UBE4B  -  ubiquitination factor e4b, PCMT1  -  protein-l-isoaspartate (d-aspartate) o-methyltransferase, AGPAT9  -  1-acylglycerol-3-phosphate o-acyltransferase 9, YES1  -  v-yes-1 yamaguchi sarcoma viral oncogene homolog 1, FN3K  -  fructosamine 3 kinase, SPEG  -  speg complex locus, ACVR1  -  activin a receptor, type i, LATS2  -  large tumor suppressor kinase 2, XYLT1  -  xylosyltransferase i, ACVR2B  -  activin a receptor, type iib, CDK17  -  cyclin-dependent kinase 17, CDK18  -  cyclin-dependent kinase 18, ZAP70  -  zeta-chain (tcr) associated protein kinase 70kda, GALK1  -  galactokinase 1, GALK2  -  galactokinase 2, GALNT1  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 1 (galnac-t1), LANCL1  -  lanc lantibiotic synthetase component c-like 1 (bacterial), GAMT  -  guanidinoacetate n-methyltransferase, GAPDH  -  glyceraldehyde-3-phosphate dehydrogenase, TFB2M  -  transcription factor b2, mitochondrial, SMYD5  -  smyd family member 5, PDGFRA  -  platelet-derived growth factor receptor, alpha polypeptide, PDGFRL  -  platelet-derived growth factor receptor-like, GART  -  phosphoribosylglycinamide formyltransferase, phosphoribosylglycinamide synthetase, phosphoribosylaminoimidazole synthetase, PDGFRB  -  platelet-derived growth factor receptor, beta polypeptide, PDK3  -  pyruvate dehydrogenase kinase, isozyme 3, PDK4  -  pyruvate dehydrogenase kinase, isozyme 4, GATM  -  glycine amidinotransferase (l-arginine:glycine amidinotransferase), PARP1  -  poly (adp-ribose) polymerase 1, ANKIB1  -  ankyrin repeat and ibr domain containing 1, GBE1  -  glucan (1,4-alpha-), branching enzyme 1, ZDHHC12  -  zinc finger, dhhc-type containing 12, CTU2  -  cytosolic thiouridylase subunit 2 homolog (s. pombe), NSD1  -  nuclear receptor binding set domain protein 1, IPMK  -  inositol polyphosphate multikinase, RNF216  -  ring finger protein 216, LCLAT1  -  lysocardiolipin acyltransferase 1, CHPF2  -  chondroitin polymerizing factor 2, TRMT13  -  trna methyltransferase 13 homolog (s. cerevisiae), ADRBK1  -  adrenergic, beta, receptor kinase 1, ADRBK2  -  adrenergic, beta, receptor kinase 2, TMTC4  -  transmembrane and tetratricopeptide repeat containing 4, NEURL1B  -  neuralized homolog 1b (drosophila), RNFT2  -  ring finger protein, transmembrane 2, GCNT2  -  glucosaminyl (n-acetyl) transferase 2, i-branching enzyme (i blood group), PRMT7  -  protein arginine methyltransferase 7, PEX12  -  peroxisomal biogenesis factor 12, GCSH  -  glycine cleavage system protein h (aminomethyl carrier), ZDHHC20  -  zinc finger, dhhc-type containing 20, AKTIP  -  akt interacting protein, ALG10  -  alg10, alpha-1,2-glucosyltransferase, PFKFB2  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 2, CEPT1  -  choline/ethanolamine phosphotransferase 1, AGL  -  amylo-alpha-1, 6-glucosidase, 4-alpha-glucanotransferase, PFKFB3  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 3, PFKFB4  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 4, PFKL  -  phosphofructokinase, liver, GFPT1  -  glutamine--fructose-6-phosphate transaminase 1, RPS6KC1  -  ribosomal protein s6 kinase, 52kda, polypeptide 1, PFKP  -  phosphofructokinase, platelet, ATG3  -  autophagy related 3, GGT1  -  gamma-glutamyltransferase 1, CDK14  -  cyclin-dependent kinase 14, PEMT  -  phosphatidylethanolamine n-methyltransferase, GGT7  -  gamma-glutamyltransferase 7, ST3GAL6  -  st3 beta-galactoside alpha-2,3-sialyltransferase 6, GGT5  -  gamma-glutamyltransferase 5, NMNAT3  -  nicotinamide nucleotide adenylyltransferase 3, AK2  -  adenylate kinase 2, RC3H2  -  ring finger and ccch-type domains 2, AK4  -  adenylate kinase 4, GCNT7  -  glucosaminyl (n-acetyl) transferase family member 7, AKT1  -  v-akt murine thymoma viral oncogene homolog 1, RNF169  -  ring finger protein 169, RNF186  -  ring finger protein 186, ALAS1  -  aminolevulinate, delta-, synthase 1, TESK2  -  testis-specific kinase 2, RNF113A  -  ring finger protein 113a, GXYLT2  -  glucoside xylosyltransferase 2, ARIH2  -  ariadne homolog 2 (drosophila), GK  -  glycerol kinase, PHKA2  -  phosphorylase kinase, alpha 2 (liver), PHKG1  -  phosphorylase kinase, gamma 1 (muscle), EMG1  -  emg1 n1-specific pseudouridine methyltransferase, ALK  -  anaplastic lymphoma receptor tyrosine kinase, ALOX5AP  -  arachidonate 5-lipoxygenase-activating protein, ZDHHC23  -  zinc finger, dhhc-type containing 23, HS3ST6  -  heparan sulfate (glucosamine) 3-o-sulfotransferase 6, PIGA  -  phosphatidylinositol glycan anchor biosynthesis, class a, PIGC  -  phosphatidylinositol glycan anchor biosynthesis, class c, PIGY  -  phosphatidylinositol glycan anchor biosynthesis, class y, PIGH  -  phosphatidylinositol glycan anchor biosynthesis, class h, MERTK  -  c-mer proto-oncogene tyrosine kinase, PIK3C2A  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 alpha, PARP14  -  poly (adp-ribose) polymerase family, member 14, PIK3C2B  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 beta, PHYKPL  -  5-phosphohydroxy-l-lysine phospho-lyase, PIK3C2G  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 gamma, SMURF2  -  smad specific e3 ubiquitin protein ligase 2, PIK3CA  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit alpha, SMYD3  -  set and mynd domain containing 3, PIK3CB  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit beta, GLUL  -  glutamate-ammonia ligase, UGT1A1  -  udp glucuronosyltransferase 1 family, polypeptide a1, AMFR  -  autocrine motility factor receptor, e3 ubiquitin protein ligase, PIK3CD  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit delta, PRDM2  -  pr domain containing 2, with znf domain, PIK3CG  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit gamma, PARP12  -  poly (adp-ribose) polymerase family, member 12, PI4KB  -  phosphatidylinositol 4-kinase, catalytic, beta, UBE2E3  -  ubiquitin-conjugating enzyme e2e 3, AMT  -  aminomethyltransferase, CRLS1  -  cardiolipin synthase 1, IPPK  -  inositol 1,3,4,5,6-pentakisphosphate 2-kinase, MEAF6  -  myst/esa1-associated factor 6, CROT  -  carnitine o-octanoyltransferase, PIP4K2A  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, alpha, CERK  -  ceramide kinase, PKM  -  pyruvate kinase, muscle, RNF103  -  ring finger protein 103, STK25  -  serine/threonine kinase 25, RNF144B  -  ring finger protein 144b, PLA2G4A  -  phospholipase a2, group iva (cytosolic, calcium-dependent), BRPF1  -  bromodomain and phd finger containing, 1, RMND5A  -  required for meiotic nuclear division 5 homolog a (s. cerevisiae), MAPKAPK3  -  mitogen-activated protein kinase-activated protein kinase 3, NMNAT1  -  nicotinamide nucleotide adenylyltransferase 1, ALG2  -  alg2, alpha-1,3/1,6-mannosyltransferase, MYLK2  -  myosin light chain kinase 2, GNPNAT1  -  glucosamine-phosphate n-acetyltransferase 1, PAN3  -  pan3 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), STK35  -  serine/threonine kinase 35, RNF11  -  ring finger protein 11, GOT2  -  glutamic-oxaloacetic transaminase 2, mitochondrial, PLK1  -  polo-like kinase 1, ATG7  -  autophagy related 7, ETNPPL  -  ethanolamine-phosphate phospho-lyase, RNF111  -  ring finger protein 111, MIB2  -  mindbomb e3 ubiquitin protein ligase 2, XIAP  -  x-linked inhibitor of apoptosis, TPK1  -  thiamin pyrophosphokinase 1, ASB12  -  ankyrin repeat and socs box containing 12, METTL4  -  methyltransferase like 4, TRIT1  -  trna isopentenyltransferase 1, AGPAT1  -  1-acylglycerol-3-phosphate o-acyltransferase 1, AGPAT2  -  1-acylglycerol-3-phosphate o-acyltransferase 2, TRMT2A  -  trna methyltransferase 2 homolog a (s. cerevisiae), CASD1  -  cas1 domain containing 1, PML  -  promyelocytic leukemia, APRT  -  adenine phosphoribosyltransferase, DCLK3  -  doublecortin-like kinase 3, HECTD2  -  hect domain containing e3 ubiquitin protein ligase 2, B3GAT1  -  beta-1,3-glucuronyltransferase 1 (glucuronosyltransferase p), BSPRY  -  b-box and spry domain containing, POMT1  -  protein-o-mannosyltransferase 1, POLA1  -  polymerase (dna directed), alpha 1, catalytic subunit, POLE  -  polymerase (dna directed), epsilon, catalytic subunit, GRK4  -  g protein-coupled receptor kinase 4, POLE2  -  polymerase (dna directed), epsilon 2, accessory subunit, PINK1  -  pten induced putative kinase 1, GRK5  -  g protein-coupled receptor kinase 5, POLG  -  polymerase (dna directed), gamma, EIF2AK1  -  eukaryotic translation initiation factor 2-alpha kinase 1, GRK6  -  g protein-coupled receptor kinase 6, POLH  -  polymerase (dna directed), eta, RNF214  -  ring finger protein 214, POLR2B  -  polymerase (rna) ii (dna directed) polypeptide b, 140kda, POLR2C  -  polymerase (rna) ii (dna directed) polypeptide c, 33kda, KAT6A  -  k(lysine) acetyltransferase 6a, CDK15  -  cyclin-dependent kinase 15, POLR2D  -  polymerase (rna) ii (dna directed) polypeptide d, POLR2F  -  polymerase (rna) ii (dna directed) polypeptide f, SHPRH  -  snf2 histone linker phd ring helicase, e3 ubiquitin protein ligase, POLR2H  -  polymerase (rna) ii (dna directed) polypeptide h, POLR2J  -  polymerase (rna) ii (dna directed) polypeptide j, 13.3kda, POLR2K  -  polymerase (rna) ii (dna directed) polypeptide k, 7.0kda, SNRK  -  snf related kinase, POLR2L  -  polymerase (rna) ii (dna directed) polypeptide l, 7.6kda, POLRMT  -  polymerase (rna) mitochondrial (dna directed), BCDIN3D  -  bcdin3 domain containing, PNPT1  -  polyribonucleotide nucleotidyltransferase 1, POLR3F  -  polymerase (rna) iii (dna directed) polypeptide f, 39 kda, GLT1D1  -  glycosyltransferase 1 domain containing 1, WNK1  -  wnk lysine deficient protein kinase 1, NADK  -  nad kinase, STK36  -  serine/threonine kinase 36, BCOR  -  bcl6 corepressor, BRPF3  -  bromodomain and phd finger containing, 3, CUL5  -  cullin 5, MED1  -  mediator complex subunit 1, NSUN2  -  nop2/sun rna methyltransferase family, member 2, UBE2Z  -  ubiquitin-conjugating enzyme e2z, FBXL14  -  f-box and leucine-rich repeat protein 14, RNF43  -  ring finger protein 43, NPRL2  -  nitrogen permease regulator-like 2 (s. cerevisiae), ASMT  -  acetylserotonin o-methyltransferase, ELOVL2  -  elovl fatty acid elongase 2, LACC1  -  laccase (multicopper oxidoreductase) domain containing 1, CAMKK2  -  calcium/calmodulin-dependent protein kinase kinase 2, beta, CDKAL1  -  cdk5 regulatory subunit associated protein 1-like 1, WHSC1L1  -  wolf-hirschhorn syndrome candidate 1-like 1, B3GALTL  -  beta 1,3-galactosyltransferase-like, GSK3B  -  glycogen synthase kinase 3 beta, UBE3B  -  ubiquitin protein ligase e3b, ATIC  -  5-aminoimidazole-4-carboxamide ribonucleotide formyltransferase/imp cyclohydrolase, ATM  -  ataxia telangiectasia mutated, MAGI3  -  membrane associated guanylate kinase, ww and pdz domain containing 3, NMRK2  -  nicotinamide riboside kinase 2, TRMT10C  -  trna methyltransferase 10 homolog c (s. cerevisiae), GNMT  -  glycine n-methyltransferase, ST8SIA2  -  st8 alpha-n-acetyl-neuraminide alpha-2,8-sialyltransferase 2, RSPRY1  -  ring finger and spry domain containing 1, COQ2  -  coenzyme q2 4-hydroxybenzoate polyprenyltransferase, GSTT1  -  glutathione s-transferase theta 1, B3GNT2  -  udp-glcnac:betagal beta-1,3-n-acetylglucosaminyltransferase 2, GSTZ1  -  glutathione s-transferase zeta 1, GTF2B  -  general transcription factor iib, UBE3D  -  ubiquitin protein ligase e3d, FUT9  -  fucosyltransferase 9 (alpha (1,3) fucosyltransferase), LPCAT2  -  lysophosphatidylcholine acyltransferase 2, GSTK1  -  glutathione s-transferase kappa 1, POLD3  -  polymerase (dna-directed), delta 3, accessory subunit, CERS1  -  ceramide synthase 1, HS6ST2  -  heparan sulfate 6-o-sulfotransferase 2, PARP16  -  poly (adp-ribose) polymerase family, member 16, CAMKV  -  cam kinase-like vesicle-associated, POLQ  -  polymerase (dna directed), theta, GALNT18  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 18, GID4  -  gid complex subunit 4, UCKL1  -  uridine-cytidine kinase 1-like 1, GUCY2C  -  guanylate cyclase 2c (heat stable enterotoxin receptor), GUCY2F  -  guanylate cyclase 2f, retinal, GUK1  -  guanylate kinase 1, NCOA3  -  nuclear receptor coactivator 3, KLHL13  -  kelch-like family member 13, ASPG  -  asparaginase homolog (s. cerevisiae), TTBK2  -  tau tubulin kinase 2, HS6ST3  -  heparan sulfate 6-o-sulfotransferase 3, PRKAB2  -  protein kinase, amp-activated, beta 2 non-catalytic subunit, GYS2  -  glycogen synthase 2 (liver), PRKACB  -  protein kinase, camp-dependent, catalytic, beta, MAP3K2  -  mitogen-activated protein kinase kinase kinase 2, ATR  -  ataxia telangiectasia and rad3 related, ALG8  -  alg8, alpha-1,3-glucosyltransferase, PRKCA  -  protein kinase c, alpha, TRAF3IP2  -  traf3 interacting protein 2, OXSM  -  3-oxoacyl-acp synthase, mitochondrial, PRKCB  -  protein kinase c, beta, MED30  -  mediator complex subunit 30, PRKCD  -  protein kinase c, delta, PRKCE  -  protein kinase c, epsilon, RPS6KA6  -  ribosomal protein s6 kinase, 90kda, polypeptide 6, PRKCH  -  protein kinase c, eta, METTL16  -  methyltransferase like 16, FTO  -  fat mass and obesity associated, PKN2  -  protein kinase n2, PRKCQ  -  protein kinase c, theta, TRMT61B  -  trna methyltransferase 61 homolog b (s. cerevisiae), PRKCZ  -  protein kinase c, zeta, PRKDC  -  protein kinase, dna-activated, catalytic polypeptide, HADHA  -  hydroxyacyl-coa dehydrogenase/3-ketoacyl-coa thiolase/enoyl-coa hydratase (trifunctional protein), alpha subunit, PRKG1  -  protein kinase, cgmp-dependent, type i, POLL  -  polymerase (dna directed), lambda, HADHB  -  hydroxyacyl-coa dehydrogenase/3-ketoacyl-coa thiolase/enoyl-coa hydratase (trifunctional protein), beta subunit, MAPK1  -  mitogen-activated protein kinase 1, HADH  -  hydroxyacyl-coa dehydrogenase, MGAT5B  -  mannosyl (alpha-1,6-)-glycoprotein beta-1,6-n-acetyl-glucosaminyltransferase, isozyme b, MAPK6  -  mitogen-activated protein kinase 6, MCAT  -  malonyl coa:acp acyltransferase (mitochondrial), NEK6  -  nima-related kinase 6, HAS2  -  hyaluronan synthase 2, MAPK8  -  mitogen-activated protein kinase 8, WDR4  -  wd repeat domain 4, HAS3  -  hyaluronan synthase 3, ALG12  -  alg12, alpha-1,6-mannosyltransferase, MAPK11  -  mitogen-activated protein kinase 11, BARD1  -  brca1 associated ring domain 1, MAPK9  -  mitogen-activated protein kinase 9, MAPK10  -  mitogen-activated protein kinase 10, MAPK13  -  mitogen-activated protein kinase 13, MAP2K1  -  mitogen-activated protein kinase kinase 1, METTL22  -  methyltransferase like 22, BCAT1  -  branched chain amino-acid transaminase 1, cytosolic, MAP2K6  -  mitogen-activated protein kinase kinase 6, EIF2AK2  -  eukaryotic translation initiation factor 2-alpha kinase 2, CCND1  -  cyclin d1, PIK3R6  -  phosphoinositide-3-kinase, regulatory subunit 6, CERKL  -  ceramide kinase-like, RNF26  -  ring finger protein 26, MOCOS  -  molybdenum cofactor sulfurase, HCK  -  hemopoietic cell kinase, NDUFAF5  -  nadh dehydrogenase (ubiquinone) complex i, assembly factor 5, BRAP  -  brca1 associated protein, CDC7  -  cell division cycle 7, BCR  -  breakpoint cluster region, ATG16L1  -  autophagy related 16-like 1 (s. cerevisiae), PRPS1  -  phosphoribosyl pyrophosphate synthetase 1, PRPS2  -  phosphoribosyl pyrophosphate synthetase 2, PRPSAP1  -  phosphoribosyl pyrophosphate synthetase-associated protein 1, PRPSAP2  -  phosphoribosyl pyrophosphate synthetase-associated protein 2, HEXA  -  hexosaminidase a (alpha polypeptide), ZNF598  -  zinc finger protein 598, GNPTAB  -  n-acetylglucosamine-1-phosphate transferase, alpha and beta subunits, ADCK2  -  aarf domain containing kinase 2, PRDM1  -  pr domain containing 1, with znf domain, BLK  -  b lymphoid tyrosine kinase, FTCD  -  formimidoyltransferase cyclodeaminase, CERS5  -  ceramide synthase 5, HK2  -  hexokinase 2, TRIM47  -  tripartite motif containing 47, BMPR1A  -  bone morphogenetic protein receptor, type ia, BMPR2  -  bone morphogenetic protein receptor, type ii (serine/threonine kinase), FANCL  -  fanconi anemia, complementation group l, BRCA1  -  breast cancer 1, early onset, BRAF  -  v-raf murine sarcoma viral oncogene homolog b, NME5  -  nme/nm23 family member 5, BRCA2  -  breast cancer 2, early onset, UAP1L1  -  udp-n-acteylglucosamine pyrophosphorylase 1-like 1, BST1  -  bone marrow stromal cell antigen 1, MALT1  -  mucosa associated lymphoid tissue lymphoma translocation gene 1, PIP4K2B  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, beta, ELP3  -  elongator acetyltransferase complex subunit 3, DPY19L3  -  dpy-19-like 3 (c. elegans), HMBS  -  hydroxymethylbilane synthase, RNF185  -  ring finger protein 185, BTK  -  bruton agammaglobulinemia tyrosine kinase, ZDHHC4  -  zinc finger, dhhc-type containing 4, PKDCC  -  protein kinase domain containing, cytoplasmic, BUB1  -  bub1 mitotic checkpoint serine/threonine kinase, MTPAP  -  mitochondrial poly(a) polymerase, BUB1B  -  bub1 mitotic checkpoint serine/threonine kinase b, ULK1  -  unc-51 like autophagy activating kinase 1, RFWD3  -  ring finger and wd repeat domain 3, PAPOLA  -  poly(a) polymerase alpha, B3GNT4  -  udp-glcnac:betagal beta-1,3-n-acetylglucosaminyltransferase 4, HNMT  -  histamine n-methyltransferase, GNPAT  -  glyceronephosphate o-acyltransferase, DYRK3  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 3, PTK2  -  protein tyrosine kinase 2, DYRK2  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 2, PTK7  -  protein tyrosine kinase 7, RNF220  -  ring finger protein 220, B4GALNT3  -  beta-1,4-n-acetyl-galactosaminyl transferase 3, CUL4B  -  cullin 4b, MSL3  -  male-specific lethal 3 homolog (drosophila), CUL4A  -  cullin 4a, CUL3  -  cullin 3, CUL2  -  cullin 2, CUL1  -  cullin 1, ALKBH8  -  alkb, alkylation repair homolog 8 (e. coli), MYLK3  -  myosin light chain kinase 3, TPST2  -  tyrosylprotein sulfotransferase 2, TPST1  -  tyrosylprotein sulfotransferase 1, B3GALNT2  -  beta-1,3-n-acetylgalactosaminyltransferase 2, OGT  -  o-linked n-acetylglucosamine (glcnac) transferase, CDC42BPA  -  cdc42 binding protein kinase alpha (dmpk-like), SETD5  -  set domain containing 5, HECTD4  -  hect domain containing e3 ubiquitin protein ligase 4, RC3H1  -  ring finger and ccch-type domains 1, KSR2  -  kinase suppressor of ras 2, GXYLT1  -  glucoside xylosyltransferase 1, MAP4K3  -  mitogen-activated protein kinase kinase kinase kinase 3, PPM1D  -  protein phosphatase, mg2+/mn2+ dependent, 1d, ETNK2  -  ethanolamine kinase 2, NAT10  -  n-acetyltransferase 10 (gcn5-related), METTL11B  -  methyltransferase like 11b, PDIK1L  -  pdlim1 interacting kinase 1 like, SIAH3  -  siah e3 ubiquitin protein ligase family member 3, NDST2  -  n-deacetylase/n-sulfotransferase (heparan glucosaminyl) 2, CHPF  -  chondroitin polymerizing factor, TMEM129  -  transmembrane protein 129, PCMTD2  -  protein-l-isoaspartate (d-aspartate) o-methyltransferase domain containing 2, TLK2  -  tousled-like kinase 2, ALDH18A1  -  aldehyde dehydrogenase 18 family, member a1, HAT1  -  histone acetyltransferase 1, PCYT2  -  phosphate cytidylyltransferase 2, ethanolamine, PYGB  -  phosphorylase, glycogen; brain, CAMK4  -  calcium/calmodulin-dependent protein kinase iv, METTL18  -  methyltransferase like 18, CERS4  -  ceramide synthase 4, ZDHHC22  -  zinc finger, dhhc-type containing 22, CAMK2A  -  calcium/calmodulin-dependent protein kinase ii alpha, DGKZ  -  diacylglycerol kinase, zeta, DGKE  -  diacylglycerol kinase, epsilon 64kda, CAMK2D  -  calcium/calmodulin-dependent protein kinase ii delta, DGKD  -  diacylglycerol kinase, delta 130kda, CAMK2G  -  calcium/calmodulin-dependent protein kinase ii gamma, LIAS  -  lipoic acid synthetase, NAA16  -  n(alpha)-acetyltransferase 16, nata auxiliary subunit, CBX4  -  chromobox homolog 4, GALNT14  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 14 (galnac-t14), AGPS  -  alkylglycerone phosphate synthase, PIM3  -  pim-3 oncogene, UBE2W  -  ubiquitin-conjugating enzyme e2w (putative), MAPKAPK5  -  mitogen-activated protein kinase-activated protein kinase 5, MID2  -  midline 2, PIAS1  -  protein inhibitor of activated stat, 1, PANK3  -  pantothenate kinase 3, CDK10  -  cyclin-dependent kinase 10, NSUN4  -  nop2/sun domain family, member 4, RAF1  -  v-raf-1 murine leukemia viral oncogene homolog 1, RAG1  -  recombination activating gene 1, WWP1  -  ww domain containing e3 ubiquitin protein ligase 1, PI4K2B  -  phosphatidylinositol 4-kinase type 2 beta, RAG2  -  recombination activating gene 2, WWP2  -  ww domain containing e3 ubiquitin protein ligase 2, HECTD3  -  hect domain containing e3 ubiquitin protein ligase 3, PDXK  -  pyridoxal (pyridoxine, vitamin b6) kinase, SPTLC3  -  serine palmitoyltransferase, long chain base subunit 3, MKNK1  -  map kinase interacting serine/threonine kinase 1, CBL  -  cbl proto-oncogene, e3 ubiquitin protein ligase, RANBP2  -  ran binding protein 2, CBLB  -  cbl proto-oncogene b, e3 ubiquitin protein ligase, UBE2Q2  -  ubiquitin-conjugating enzyme e2q family member 2, FAM98B  -  family with sequence similarity 98, member b, CASK  -  calcium/calmodulin-dependent serine protein kinase (maguk family), STK16  -  serine/threonine kinase 16, B3GNT7  -  udp-glcnac:betagal beta-1,3-n-acetylglucosaminyltransferase 7, NDST1  -  n-deacetylase/n-sulfotransferase (heparan glucosaminyl) 1, AGPAT5  -  1-acylglycerol-3-phosphate o-acyltransferase 5, FBXL22  -  f-box and leucine-rich repeat protein 22, WDR5  -  wd repeat domain 5, SMYD1  -  set and mynd domain containing 1, CCNE1  -  cyclin e1, PIGM  -  phosphatidylinositol glycan anchor biosynthesis, class m, RBBP5  -  retinoblastoma binding protein 5, RBBP6  -  retinoblastoma binding protein 6, YRDC  -  yrdc domain containing (e. coli), ATE1  -  arginyltransferase 1, GALNT12  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 12 (galnac-t12), PRDM5  -  pr domain containing 5, PRDM4  -  pr domain containing 4, CDK13  -  cyclin-dependent kinase 13, CIT  -  citron (rho-interacting, serine/threonine kinase 21), NOL9  -  nucleolar protein 9, ASMTL  -  acetylserotonin o-methyltransferase-like, POLR3A  -  polymerase (rna) iii (dna directed) polypeptide a, 155kda, TRMT10A  -  trna methyltransferase 10 homolog a (s. cerevisiae), ALG11  -  alg11, alpha-1,2-mannosyltransferase, TBCK  -  tbc1 domain containing kinase, NSUN7  -  nop2/sun domain family, member 7, NCOA1  -  nuclear receptor coactivator 1, KAT7  -  k(lysine) acetyltransferase 7, RET  -  ret proto-oncogene, REV3L  -  rev3-like, polymerase (dna directed), zeta, catalytic subunit, TNKS  -  tankyrase, trf1-interacting ankyrin-related adp-ribose polymerase, FICD  -  fic domain containing, RFNG  -  rfng o-fucosylpeptide 3-beta-n-acetylglucosaminyltransferase, CSGALNACT2  -  chondroitin sulfate n-acetylgalactosaminyltransferase 2, NEK8  -  nima-related kinase 8, PIGW  -  phosphatidylinositol glycan anchor biosynthesis, class w, NDUFAF7  -  nadh dehydrogenase (ubiquinone) complex i, assembly factor 7, EIF2AK4  -  eukaryotic translation initiation factor 2 alpha kinase 4, NUDT5  -  nudix (nucleoside diphosphate linked moiety x)-type motif 5, ETNK1  -  ethanolamine kinase 1, CHST12  -  carbohydrate (chondroitin 4) sulfotransferase 12, SETD8  -  set domain containing (lysine methyltransferase) 8, NHLRC3  -  nhl repeat containing 3, DTX3L  -  deltex 3-like (drosophila), GALNT4  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 4 (galnac-t4), MAP4K5  -  mitogen-activated protein kinase kinase kinase kinase 5, CDC23  -  cell division cycle 23, B4GALT4  -  udp-gal:betaglcnac beta 1,4- galactosyltransferase, polypeptide 4, B4GALT3  -  udp-gal:betaglcnac beta 1,4- galactosyltransferase, polypeptide 3, ALG9  -  alg9, alpha-1,2-mannosyltransferase, B3GALT1  -  udp-gal:betaglcnac beta 1,3-galactosyltransferase, polypeptide 1, CDC42  -  cell division cycle 42, CHEK2  -  checkpoint kinase 2, SBK1  -  sh3-binding domain kinase 1, GALNT10  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 10 (galnac-t10), RNASEL  -  ribonuclease l (2',5'-oligoisoadenylate synthetase-dependent), EHMT1  -  euchromatic histone-lysine n-methyltransferase 1, AKAP13  -  a kinase (prka) anchor protein 13, NEK10  -  nima-related kinase 10, IGF2R  -  insulin-like growth factor 2 receptor, RNF2  -  ring finger protein 2, EED  -  embryonic ectoderm development, RNF6  -  ring finger protein (c3h2c3 type) 6, RNMT  -  rna (guanine-7-) methyltransferase, RNGTT  -  rna guanylyltransferase and 5'-phosphatase, UBE2Q1  -  ubiquitin-conjugating enzyme e2q family member 1, CDK3  -  cyclin-dependent kinase 3, BMP2K  -  bmp2 inducible kinase, GALNT5  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 5 (galnac-t5), CDK5  -  cyclin-dependent kinase 5, RIPK1  -  receptor (tnfrsf)-interacting serine-threonine kinase 1, METTL8  -  methyltransferase like 8, CDK6  -  cyclin-dependent kinase 6, CDK8  -  cyclin-dependent kinase 8, POLG2  -  polymerase (dna directed), gamma 2, accessory subunit, CDK9  -  cyclin-dependent kinase 9, CDKN1A  -  cyclin-dependent kinase inhibitor 1a (p21, cip1), PEAK1  -  nkf3 kinase family member, RNF139  -  ring finger protein 139, RNF122  -  ring finger protein 122, RIPK2  -  receptor-interacting serine-threonine kinase 2, POMGNT1  -  protein o-linked mannose n-acetylglucosaminyltransferase 1 (beta 1,2-), TGS1  -  trimethylguanosine synthase 1, ZDHHC7  -  zinc finger, dhhc-type containing 7, RIOK3  -  rio kinase 3, ROCK1  -  rho-associated, coiled-coil containing protein kinase 1, TRMT44  -  trna methyltransferase 44 homolog (s. cerevisiae), G2E3  -  g2/m-phase specific e3 ubiquitin protein ligase, ALG13  -  alg13, udp-n-acetylglucosaminyltransferase subunit, ROS1  -  c-ros oncogene 1 , receptor tyrosine kinase, CBLL1  -  cbl proto-oncogene-like 1, e3 ubiquitin protein ligase, MGAT4B  -  mannosyl (alpha-1,3-)-glycoprotein beta-1,4-n-acetylglucosaminyltransferase, isozyme b, DCAKD  -  dephospho-coa kinase domain containing, PIGV  -  phosphatidylinositol glycan anchor biosynthesis, class v, IKBKB  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase beta, B4GALT7  -  xylosylprotein beta 1,4-galactosyltransferase, polypeptide 7, LPCAT1  -  lysophosphatidylcholine acyltransferase 1, TRIM24  -  tripartite motif containing 24, RNF126  -  ring finger protein 126, MGAT4A  -  mannosyl (alpha-1,3-)-glycoprotein beta-1,4-n-acetylglucosaminyltransferase, isozyme a, CCNK  -  cyclin k, DPM1  -  dolichyl-phosphate mannosyltransferase polypeptide 1, catalytic subunit, CDKL1  -  cyclin-dependent kinase-like 1 (cdc2-related kinase), SH3RF2  -  sh3 domain containing ring finger 2, NAA60  -  n(alpha)-acetyltransferase 60, natf catalytic subunit, RNF145  -  ring finger protein 145, CHAT  -  choline o-acetyltransferase, SCYL2  -  scy1-like 2 (s. cerevisiae), NRP2  -  neuropilin 2, SETD6  -  set domain containing 6, NRP1  -  neuropilin 1, RNF13  -  ring finger protein 13, TRMU  -  trna 5-methylaminomethyl-2-thiouridylate methyltransferase, MRM1  -  mitochondrial rrna methyltransferase 1 homolog (s. cerevisiae), MBOAT1  -  membrane bound o-acyltransferase domain containing 1, NSUN5  -  nop2/sun domain family, member 5, CHKA  -  choline kinase alpha, RNF217  -  ring finger protein 217, CHM  -  choroideremia (rab escort protein 1), KSR1  -  kinase suppressor of ras 1, POLR3B  -  polymerase (rna) iii (dna directed) polypeptide b, KAT2B  -  k(lysine) acetyltransferase 2b, DHDDS  -  dehydrodolichyl diphosphate synthase, RPN1  -  ribophorin i, RPN2  -  ribophorin ii, POLR3E  -  polymerase (rna) iii (dna directed) polypeptide e (80kd), ST3GAL5  -  st3 beta-galactoside alpha-2,3-sialyltransferase 5, N4BP2  -  nedd4 binding protein 2, DTX2  -  deltex homolog 2 (drosophila), CKB  -  creatine kinase, brain, RPS6KA2  -  ribosomal protein s6 kinase, 90kda, polypeptide 2, RPS6KA3  -  ribosomal protein s6 kinase, 90kda, polypeptide 3, RPS6KB1  -  ribosomal protein s6 kinase, 70kda, polypeptide 1, HHAT  -  hedgehog acyltransferase, RPS6KB2  -  ribosomal protein s6 kinase, 70kda, polypeptide 2, SQSTM1  -  sequestosome 1, TRMT2B  -  trna methyltransferase 2 homolog b (s. cerevisiae), DOLK  -  dolichol kinase, TRIM9  -  tripartite motif containing 9, AAK1  -  ap2 associated kinase 1, CHFR  -  checkpoint with forkhead and ring finger domains, e3 ubiquitin protein ligase, MCM3AP  -  minichromosome maintenance complex component 3 associated protein, LMTK2  -  lemur tyrosine kinase 2, CHSY1  -  chondroitin sulfate synthase 1, AGK  -  acylglycerol kinase, CPNE3  -  copine iii, IRAK2  -  interleukin-1 receptor-associated kinase 2, RNF149  -  ring finger protein 149, PRPF4B  -  prp4 pre-mrna processing factor 4 homolog b (yeast), GYG2  -  glycogenin 2, ESCO2  -  establishment of sister chromatid cohesion n-acetyltransferase 2, CLK2  -  cdc-like kinase 2, CLK3  -  cdc-like kinase 3, HERC3  -  hect and rld domain containing e3 ubiquitin protein ligase 3, PANK2  -  pantothenate kinase 2, HERC2  -  hect and rld domain containing e3 ubiquitin protein ligase 2, HERC1  -  hect and rld domain containing e3 ubiquitin protein ligase family member 1, UBOX5  -  u-box domain containing 5, CMTR2  -  cap methyltransferase 2, EOGT  -  egf domain-specific o-linked n-acetylglucosamine (glcnac) transferase, BTRC  -  beta-transducin repeat containing e3 ubiquitin protein ligase, EPHA6  -  eph receptor a6, ITK  -  il2-inducible t-cell kinase, STT3A  -  stt3a, subunit of the oligosaccharyltransferase complex (catalytic), ITPK1  -  inositol-tetrakisphosphate 1-kinase, ITPKA  -  inositol-trisphosphate 3-kinase a, ITPKB  -  inositol-trisphosphate 3-kinase b, ST6GALNAC1  -  st6 (alpha-n-acetyl-neuraminyl-2,3-beta-galactosyl-1,3)-n-acetylgalactosaminide alpha-2,6-sialyltransferase 1, AK8  -  adenylate kinase 8, ESCO1  -  establishment of sister chromatid cohesion n-acetyltransferase 1, JAK1  -  janus kinase 1, RNF157  -  ring finger protein 157, GALNT13  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 13 (galnac-t13), RNF130  -  ring finger protein 130, KALRN  -  kalirin, rhogef kinase, SEPHS1  -  selenophosphate synthetase 1, VPS11  -  vacuolar protein sorting 11 homolog (s. cerevisiae), CDKL2  -  cyclin-dependent kinase-like 2 (cdc2-related kinase), ACSM3  -  acyl-coa synthetase medium-chain family member 3, GLT8D1  -  glycosyltransferase 8 domain containing 1, MAPK12  -  mitogen-activated protein kinase 12, SAT1  -  spermidine/spermine n1-acetyltransferase 1, MAP3K14  -  mitogen-activated protein kinase kinase kinase 14, SMYD4  -  set and mynd domain containing 4, NAA15  -  n(alpha)-acetyltransferase 15, nata auxiliary subunit, BRSK2  -  br serine/threonine kinase 2, RNF8  -  ring finger protein 8, e3</t>
-  </si>
-  <si>
-    <t>ubiquitin protein ligase, BAZ1B  -  bromodomain adjacent to zinc finger domain, 1b, TRIM32  -  tripartite motif containing 32, UBA3  -  ubiquitin-like modifier activating enzyme 3, RNF34  -  ring finger protein 34, e3 ubiquitin protein ligase, HKDC1  -  hexokinase domain containing 1, FBXO11  -  f-box protein 11, ASH1L  -  ash1 (absent, small, or homeotic)-like (drosophila), RNF212  -  ring finger protein 212, COMT  -  catechol-o-methyltransferase, MB21D1  -  mab-21 domain containing 1, SCP2  -  sterol carrier protein 2, PAPSS1  -  3'-phosphoadenosine 5'-phosphosulfate synthase 1, ZDHHC15  -  zinc finger, dhhc-type containing 15, MAP3K6  -  mitogen-activated protein kinase kinase kinase 6, ALPK1  -  alpha-kinase 1, CCL2  -  chemokine (c-c motif) ligand 2, CCL3  -  chemokine (c-c motif) ligand 3, NAA50  -  n(alpha)-acetyltransferase 50, nate catalytic subunit, MAP3K8  -  mitogen-activated protein kinase kinase kinase 8, ASH2L  -  ash2 (absent, small, or homeotic)-like (drosophila), STK38L  -  serine/threonine kinase 38 like, RNF114  -  ring finger protein 114, FBXO21  -  f-box protein 21, KDR  -  kinase insert domain receptor (a type iii receptor tyrosine kinase), CMAS  -  cytidine monophosphate n-acetylneuraminic acid synthetase, PIGZ  -  phosphatidylinositol glycan anchor biosynthesis, class z, PDZRN3  -  pdz domain containing ring finger 3, NTMT1  -  n-terminal xaa-pro-lys n-methyltransferase 1, PIGQ  -  phosphatidylinositol glycan anchor biosynthesis, class q, MAST3  -  microtubule associated serine/threonine kinase 3, COX10  -  cytochrome c oxidase assembly homolog 10 (yeast), TMTC2  -  transmembrane and tetratricopeptide repeat containing 2, MAP3K15  -  mitogen-activated protein kinase kinase kinase 15, TMTC3  -  transmembrane and tetratricopeptide repeat containing 3, TRMT61A  -  trna methyltransferase 61 homolog a (s. cerevisiae), KIT  -  v-kit hardy-zuckerman 4 feline sarcoma viral oncogene homolog, ALDH1L2  -  aldehyde dehydrogenase 1 family, member l2, TNIK  -  traf2 and nck interacting kinase, LATS1  -  large tumor suppressor kinase 1, SMG1  -  smg1 phosphatidylinositol 3-kinase-related kinase, DGKH  -  diacylglycerol kinase, eta, EPC1  -  enhancer of polycomb homolog 1 (drosophila), C1GALT1C1  -  c1galt1-specific chaperone 1, NMNAT2  -  nicotinamide nucleotide adenylyltransferase 2, SEL1L  -  sel-1 suppressor of lin-12-like (c. elegans), SETD2  -  set domain containing 2, ALG1  -  alg1, chitobiosyldiphosphodolichol beta-mannosyltransferase, CRAT  -  carnitine o-acetyltransferase, METTL5  -  methyltransferase like 5, ATF2  -  activating transcription factor 2, CREBBP  -  creb binding protein, SETD1B  -  set domain containing 1b, CMTR1  -  cap methyltransferase 1, HECW1  -  hect, c2 and ww domain containing e3 ubiquitin protein ligase 1, UBE2T  -  ubiquitin-conjugating enzyme e2t (putative), MYCBP2  -  myc binding protein 2, e3 ubiquitin protein ligase, WDR82  -  wd repeat domain 82, SETMAR  -  set domain and mariner transposase fusion gene, NUS1  -  nuclear undecaprenyl pyrophosphate synthase 1 homolog (s. cerevisiae), TRIM35  -  tripartite motif containing 35, COASY  -  coa synthase, NEURL  -  neuralized homolog (drosophila), N6AMT1  -  n-6 adenine-specific dna methyltransferase 1 (putative), TNKS2  -  tankyrase, trf1-interacting ankyrin-related adp-ribose polymerase 2, MOGAT1  -  monoacylglycerol o-acyltransferase 1, TBK1  -  tank-binding kinase 1, DGKI  -  diacylglycerol kinase, iota, MYLIP  -  myosin regulatory light chain interacting protein, SGK1  -  serum/glucocorticoid regulated kinase 1, CUL9  -  cullin 9, MAP3K13  -  mitogen-activated protein kinase kinase kinase 13, UHRF1  -  ubiquitin-like with phd and ring finger domains 1, MAPK14  -  mitogen-activated protein kinase 14, THUMPD2  -  thump domain containing 2, GALNTL6  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase-like 6, ZBED1  -  zinc finger, bed-type containing 1, TEX14  -  testis expressed 14, SHMT1  -  serine hydroxymethyltransferase 1 (soluble), CSK  -  c-src tyrosine kinase, MAST2  -  microtubule associated serine/threonine kinase 2, DCLK1  -  doublecortin-like kinase 1, CSNK1A1  -  casein kinase 1, alpha 1, CSNK1E  -  casein kinase 1, epsilon, ST6GAL1  -  st6 beta-galactosamide alpha-2,6-sialyltranferase 1, CSNK1G2  -  casein kinase 1, gamma 2, ST3GAL1  -  st3 beta-galactoside alpha-2,3-sialyltransferase 1, CSNK2A1  -  casein kinase 2, alpha 1 polypeptide, ST3GAL4  -  st3 beta-galactoside alpha-2,3-sialyltransferase 4, ZDHHC1  -  zinc finger, dhhc-type containing 1, ST3GAL3  -  st3 beta-galactoside alpha-2,3-sialyltransferase 3, ZDHHC8  -  zinc finger, dhhc-type containing 8, ST8SIA1  -  st8 alpha-n-acetyl-neuraminide alpha-2,8-sialyltransferase 1, LCAT  -  lecithin-cholesterol acyltransferase, ALG5  -  alg5, dolichyl-phosphate beta-glucosyltransferase, SLA  -  src-like-adaptor, DPY19L4  -  dpy-19-like 4 (c. elegans), SETD7  -  set domain containing (lysine methyltransferase) 7, PASK  -  pas domain containing serine/threonine kinase, EEF2K  -  eukaryotic elongation factor-2 kinase, RPS6KA5  -  ribosomal protein s6 kinase, 90kda, polypeptide 5, UBIAD1  -  ubia prenyltransferase domain containing 1, MAPKAPK2  -  mitogen-activated protein kinase-activated protein kinase 2, NME7  -  nme/nm23 family member 7, PRMT8  -  protein arginine methyltransferase 8, STK17A  -  serine/threonine kinase 17a, FTSJ3  -  ftsj homolog 3 (e. coli), LIMK2  -  lim domain kinase 2, GALNT15  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 15, IP6K3  -  inositol hexakisphosphate kinase 3, ALG6  -  alg6, alpha-1,3-glucosyltransferase, RFFL  -  ring finger and fyve-like domain containing e3 ubiquitin protein ligase, LMO7  -  lim domain 7, ANAPC4  -  anaphase promoting complex subunit 4, DTX4  -  deltex homolog 4 (drosophila), RNF168  -  ring finger protein 168, e3 ubiquitin protein ligase, SBK2  -  sh3-binding domain kinase family, member 2, POMT2  -  protein-o-mannosyltransferase 2, TRIM39  -  tripartite motif containing 39, SIK2  -  salt-inducible kinase 2, SGMS2  -  sphingomyelin synthase 2, TRIP12  -  thyroid hormone receptor interactor 12, COMTD1  -  catechol-o-methyltransferase domain containing 1, GTF3C4  -  general transcription factor iiic, polypeptide 4, 90kda, LTBP1  -  latent transforming growth factor beta binding protein 1, B4GALT6  -  udp-gal:betaglcnac beta 1,4- galactosyltransferase, polypeptide 6, TGM5  -  transglutaminase 5, LTC4S  -  leukotriene c4 synthase, TRIM59  -  tripartite motif containing 59, UGGT1  -  udp-glucose glycoprotein glucosyltransferase 1, SMARCE1  -  swi/snf related, matrix associated, actin dependent regulator of chromatin, subfamily e, member 1, POFUT2  -  protein o-fucosyltransferase 2, UBE4A  -  ubiquitination factor e4a, AGPAT3  -  1-acylglycerol-3-phosphate o-acyltransferase 3, SMS  -  spermine synthase, ST6GALNAC6  -  st6 (alpha-n-acetyl-neuraminyl-2,3-beta-galactosyl-1,3)-n-acetylgalactosaminide alpha-2,6-sialyltransferase 6, FBXW11  -  f-box and wd repeat domain containing 11, MGRN1  -  mahogunin ring finger 1, e3 ubiquitin protein ligase, GYLTL1B  -  glycosyltransferase-like 1b, DGKB  -  diacylglycerol kinase, beta 90kda, UBR2  -  ubiquitin protein ligase e3 component n-recognin 2, C1GALT1  -  core 1 synthase, glycoprotein-n-acetylgalactosamine 3-beta-galactosyltransferase, 1, PIK3R4  -  phosphoinositide-3-kinase, regulatory subunit 4, FUT11  -  fucosyltransferase 11 (alpha (1,3) fucosyltransferase), PAK6  -  p21 protein (cdc42/rac)-activated kinase 6, ZCCHC11  -  zinc finger, cchc domain containing 11, DBT  -  dihydrolipoamide branched chain transacylase e2, TRIM2  -  tripartite motif containing 2, SOAT1  -  sterol o-acyltransferase 1, HS6ST1  -  heparan sulfate 6-o-sulfotransferase 1, NMT2  -  n-myristoyltransferase 2, USP22  -  ubiquitin specific peptidase 22, MAK  -  male germ cell-associated kinase, DPY19L1  -  dpy-19-like 1 (c. elegans), LRRK2  -  leucine-rich repeat kinase 2, DDB2  -  damage-specific dna binding protein 2, 48kda, CHST11  -  carbohydrate (chondroitin 4) sulfotransferase 11, PHF15  -  phd finger protein 15, MED21  -  mediator complex subunit 21, SMYD2  -  set and mynd domain containing 2, GALNT9  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 9 (galnac-t9), UBR4  -  ubiquitin protein ligase e3 component n-recognin 4, MARK1  -  map/microtubule affinity-regulating kinase 1, MARK3  -  map/microtubule affinity-regulating kinase 3, MAT1A  -  methionine adenosyltransferase i, alpha, PARP6  -  poly (adp-ribose) polymerase family, member 6, UAP1  -  udp-n-acteylglucosamine pyrophosphorylase 1, CHST2  -  carbohydrate (n-acetylglucosamine-6-o) sulfotransferase 2, FAM20C  -  family with sequence similarity 20, member c, PRDM10  -  pr domain containing 10, PRDM11  -  pr domain containing 11, POGLUT1  -  protein o-glucosyltransferase 1, MED7  -  mediator complex subunit 7, UFL1  -  ufm1-specific ligase 1, GSTO1  -  glutathione s-transferase omega 1, EIF2AK3  -  eukaryotic translation initiation factor 2-alpha kinase 3, CHPT1  -  choline phosphotransferase 1, SIK3  -  sik family kinase 3, ZDHHC17  -  zinc finger, dhhc-type containing 17, PIP5K1C  -  phosphatidylinositol-4-phosphate 5-kinase, type i, gamma, PCYT1B  -  phosphate cytidylyltransferase 1, choline, beta, SRC  -  v-src avian sarcoma (schmidt-ruppin a-2) viral oncogene homolog, ROCK2  -  rho-associated, coiled-coil containing protein kinase 2, CIAPIN1  -  cytokine induced apoptosis inhibitor 1, SIRT4  -  sirtuin 4, MED20  -  mediator complex subunit 20, MDM2  -  mdm2 oncogene, e3 ubiquitin protein ligase, SRMS  -  src-related kinase lacking c-terminal regulatory tyrosine and n-terminal myristylation sites, AK7  -  adenylate kinase 7, CHST10  -  carbohydrate sulfotransferase 10, RNF141  -  ring finger protein 141, PIGB  -  phosphatidylinositol glycan anchor biosynthesis, class b, DLG1  -  discs, large homolog 1 (drosophila), PGS1  -  phosphatidylglycerophosphate synthase 1, SRPK1  -  srsf protein kinase 1, SRPK2  -  srsf protein kinase 2, DLST  -  dihydrolipoamide s-succinyltransferase (e2 component of 2-oxo-glutarate complex), TRIM8  -  tripartite motif containing 8, MAP3K3  -  mitogen-activated protein kinase kinase kinase 3, MAP3K4  -  mitogen-activated protein kinase kinase kinase 4, NAA30  -  n(alpha)-acetyltransferase 30, natc catalytic subunit, MET  -  met proto-oncogene, CLYBL  -  citrate lyase beta like, SPTLC2  -  serine palmitoyltransferase, long chain base subunit 2, PARP11  -  poly (adp-ribose) polymerase family, member 11, MGAT2  -  mannosyl (alpha-1,6-)-glycoprotein beta-1,2-n-acetylglucosaminyltransferase, MGAT3  -  mannosyl (beta-1,4-)-glycoprotein beta-1,4-n-acetylglucosaminyltransferase, GCAT  -  glycine c-acetyltransferase, MGAT5  -  mannosyl (alpha-1,6-)-glycoprotein beta-1,6-n-acetyl-glucosaminyltransferase, POLR1C  -  polymerase (rna) i polypeptide c, 30kda, TRDMT1  -  trna aspartic acid methyltransferase 1, CAMK1D  -  calcium/calmodulin-dependent protein kinase id, DNMT3B  -  dna (cytosine-5-)-methyltransferase 3 beta, MGMT  -  o-6-methylguanine-dna methyltransferase, POLR3H  -  polymerase (rna) iii (dna directed) polypeptide h (22.9kd), MTFMT  -  mitochondrial methionyl-trna formyltransferase, PTGES  -  prostaglandin e synthase, MGST1  -  microsomal glutathione s-transferase 1, MGST2  -  microsomal glutathione s-transferase 2, CIITA  -  class ii, major histocompatibility complex, transactivator, NUAK2  -  nuak family, snf1-like kinase, 2, MMAB  -  methylmalonic aciduria (cobalamin deficiency) cblb type, DPAGT1  -  dolichyl-phosphate (udp-n-acetylglucosamine) n-acetylglucosaminephosphotransferase 1 (glcnac-1-p transferase), ELOVL4  -  elovl fatty acid elongase 4, HYKK  -  hydroxylysine kinase, DPH1  -  diphthamide biosynthesis 1, DPH2  -  dph2 homolog (s. cerevisiae), NEK4  -  nima-related kinase 4, PLA2G4E  -  phospholipase a2, group ive, STK3  -  serine/threonine kinase 3, STK4  -  serine/threonine kinase 4, MID1  -  midline 1 (opitz/bbb syndrome), CDKL5  -  cyclin-dependent kinase-like 5, STK10  -  serine/threonine kinase 10, STK11  -  serine/threonine kinase 11, ADCK1  -  aarf domain containing kinase 1, PAK7  -  p21 protein (cdc42/rac)-activated kinase 7, RNF146  -  ring finger protein 146, ST6GALNAC5  -  st6 (alpha-n-acetyl-neuraminyl-2,3-beta-galactosyl-1,3)-n-acetylgalactosaminide alpha-2,6-sialyltransferase 5, POFUT1  -  protein o-fucosyltransferase 1, MAP3K9  -  mitogen-activated protein kinase kinase kinase 9, SUZ12  -  suz12 polycomb repressive complex 2 subunit, SMURF1  -  smad specific e3 ubiquitin protein ligase 1, KMT2A  -  lysine (k)-specific methyltransferase 2a, CLOCK  -  clock circadian regulator, SULT1C2  -  sulfotransferase family, cytosolic, 1c, member 2, PELI2  -  pellino e3 ubiquitin protein ligase family member 2, PELI1  -  pellino e3 ubiquitin protein ligase 1, METTL15  -  methyltransferase like 15, CAMK1G  -  calcium/calmodulin-dependent protein kinase ig, PRDX6  -  peroxiredoxin 6, SULT6B1  -  sulfotransferase family, cytosolic, 6b, member 1, POLR1D  -  polymerase (rna) i polypeptide d, 16kda, RNF14  -  ring finger protein 14, TNNI3K  -  tnni3 interacting kinase, SEPSECS  -  sep (o-phosphoserine) trna:sec (selenocysteine) trna synthase, RNF7  -  ring finger protein 7, METTL21C  -  methyltransferase like 21c, ADPGK  -  adp-dependent glucokinase, DYRK1A  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 1a, TRNT1  -  trna nucleotidyl transferase, cca-adding, 1, MOS  -  v-mos moloney murine sarcoma viral oncogene homolog, PIGN  -  phosphatidylinositol glycan anchor biosynthesis, class n, ABHD5  -  abhydrolase domain containing 5, TADA2A  -  transcriptional adaptor 2a, MPP1  -  membrane protein, palmitoylated 1, 55kda, TAF1  -  taf1 rna polymerase ii, tata box binding protein (tbp)-associated factor, 250kda, CHST5  -  carbohydrate (n-acetylglucosamine 6-o) sulfotransferase 5, MPST  -  mercaptopyruvate sulfurtransferase, TFB1M  -  transcription factor b1, mitochondrial, E4F1  -  e4f transcription factor 1, GLT8D2  -  glycosyltransferase 8 domain containing 2, SUV420H1  -  suppressor of variegation 4-20 homolog 1 (drosophila), MLKL  -  mixed lineage kinase domain-like, ZDHHC9  -  zinc finger, dhhc-type containing 9, IKBKE  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase epsilon, MAP3K7  -  mitogen-activated protein kinase kinase kinase 7, TALDO1  -  transaldolase 1, CSRP2BP  -  csrp2 binding protein, NSMCE1  -  non-smc element 1 homolog (s. cerevisiae), CHST9  -  carbohydrate (n-acetylgalactosamine 4-0) sulfotransferase 9, PDSS1  -  prenyl (decaprenyl) diphosphate synthase, subunit 1, HS2ST1  -  heparan sulfate 2-o-sulfotransferase 1, TARBP1  -  tar (hiv-1) rna binding protein 1, UCK1  -  uridine-cytidine kinase 1, TAT  -  tyrosine aminotransferase, IRAK4  -  interleukin-1 receptor-associated kinase 4, RNFT1  -  ring finger protein, transmembrane 1, CLK4  -  cdc-like kinase 4, MKRN1  -  makorin ring finger protein 1, MKRN2  -  makorin ring finger protein 2, A4GNT  -  alpha-1,4-n-acetylglucosaminyltransferase, PPIP5K1  -  diphosphoinositol pentakisphosphate kinase 1, PHF14  -  phd finger protein 14, ST8SIA6  -  st8 alpha-n-acetyl-neuraminide alpha-2,8-sialyltransferase 6, AS3MT  -  arsenic (+3 oxidation state) methyltransferase, BIRC6  -  baculoviral iap repeat containing 6, UBE3C  -  ubiquitin protein ligase e3c, AADAT  -  aminoadipate aminotransferase, B4GALNT4  -  beta-1,4-n-acetyl-galactosaminyl transferase 4, PARP9  -  poly (adp-ribose) polymerase family, member 9, IBA57  -  iba57, iron-sulfur cluster assembly homolog (s. cerevisiae), HHATL  -  hedgehog acyltransferase-like, ULK2  -  unc-51 like autophagy activating kinase 2, EPHA2  -  eph receptor a2, RNF215  -  ring finger protein 215, HERC5  -  hect and rld domain containing e3 ubiquitin protein ligase 5, PLA2G15  -  phospholipase a2, group xv, ECE2  -  endothelin converting enzyme 2, ZDHHC2  -  zinc finger, dhhc-type containing 2, RIOK1  -  rio kinase 1, PIKFYVE  -  phosphoinositide kinase, fyve finger containing, RNF150  -  ring finger protein 150, ITCH  -  itchy e3 ubiquitin protein ligase, SGK3  -  serum/glucocorticoid regulated kinase family, member 3, VPRBP  -  vpr (hiv-1) binding protein, METTL2A  -  methyltransferase like 2a, PIGP  -  phosphatidylinositol glycan anchor biosynthesis, class p, VRK3  -  vaccinia related kinase 3, CRIM1  -  cysteine rich transmembrane bmp regulator 1 (chordin-like), SLK  -  ste20-like kinase, SETDB2  -  set domain, bifurcated 2, HECW2  -  hect, c2 and ww domain containing e3 ubiquitin protein ligase 2, TMTC1  -  transmembrane and tetratricopeptide repeat containing 1, SHPK  -  sedoheptulokinase, WEE2  -  wee1 homolog 2 (s. pombe), NT5C3A  -  5'-nucleotidase, cytosolic iiia, MTR  -  5-methyltetrahydrofolate-homocysteine methyltransferase, HACE1  -  hect domain and ankyrin repeat containing e3 ubiquitin protein ligase 1, MIB1  -  mindbomb e3 ubiquitin protein ligase 1, EP300  -  e1a binding protein p300, EPB42  -  erythrocyte membrane protein band 4.2, KLHL42  -  kelch-like family member 42, EPHA1  -  eph receptor a1, EPHA3  -  eph receptor a3, EPHA4  -  eph receptor a4, TERF1  -  telomeric repeat binding factor (nima-interacting) 1, EPHA5  -  eph receptor a5, TERF2  -  telomeric repeat binding factor 2, STT3B  -  stt3b, subunit of the oligosaccharyltransferase complex (catalytic), EPHA7  -  eph receptor a7, TERT  -  telomerase reverse transcriptase, TAOK1  -  tao kinase 1, TESK1  -  testis-specific kinase 1, EPHA8  -  eph receptor a8, RNF144A  -  ring finger protein 144a, EPHB1  -  eph receptor b1, EPHB2  -  eph receptor b2, EPHB3  -  eph receptor b3, TYW3  -  trna-yw synthesizing protein 3 homolog (s. cerevisiae), BFAR  -  bifunctional apoptosis regulator, BRD1  -  bromodomain containing 1, PTDSS1  -  phosphatidylserine synthase 1, CKAP5  -  cytoskeleton associated protein 5, GSG2  -  germ cell associated 2 (haspin), TRIM37  -  tripartite motif containing 37, TRMT5  -  trna methyltransferase 5, ERBB4  -  v-erb-b2 avian erythroblastic leukemia viral oncogene homolog 4, MVK  -  mevalonate kinase, IP6K1  -  inositol hexakisphosphate kinase 1, ZDHHC3  -  zinc finger, dhhc-type containing 3, TSSK1B  -  testis-specific serine kinase 1b, TGM4  -  transglutaminase 4, TGFBR2  -  transforming growth factor, beta receptor ii (70/80kda), TGFBR3  -  transforming growth factor, beta receptor iii, STK32A  -  serine/threonine kinase 32a, ERN1  -  endoplasmic reticulum to nucleus signaling 1, DSTYK  -  dual serine/threonine and tyrosine protein kinase, MELK  -  maternal embryonic leucine zipper kinase, LCMT2  -  leucine carboxyl methyltransferase 2, FBXO7  -  f-box protein 7, VPS18  -  vacuolar protein sorting 18 homolog (s. cerevisiae), QPCT  -  glutaminyl-peptide cyclotransferase, MYLK  -  myosin light chain kinase, MECOM  -  mds1 and evi1 complex locus, TAOK3  -  tao kinase 3, TK2  -  thymidine kinase 2, mitochondrial, TKT  -  transketolase, SH3RF1  -  sh3 domain containing ring finger 1, EXTL2  -  exostosin-like glycosyltransferase 2, CHST15  -  carbohydrate (n-acetylgalactosamine 4-sulfate 6-o) sulfotransferase 15, EXTL3  -  exostosin-like glycosyltransferase 3, UBR5  -  ubiquitin protein ligase e3 component n-recognin 5, EZH1  -  enhancer of zeste homolog 1 (drosophila), EZH2  -  enhancer of zeste homolog 2 (drosophila), CERS3  -  ceramide synthase 3, ARIH1  -  ariadne homolog, ubiquitin-conjugating enzyme e2 binding protein, 1 (drosophila), SETDB1  -  set domain, bifurcated 1, FBXO30  -  f-box protein 30, HIPK1  -  homeodomain interacting protein kinase 1, SULT4A1  -  sulfotransferase family 4a, member 1, HECTD1  -  hect domain containing e3 ubiquitin protein ligase 1, F13A1  -  coagulation factor xiii, a1 polypeptide, MGAT4C  -  mannosyl (alpha-1,3-)-glycoprotein beta-1,4-n-acetylglucosaminyltransferase, isozyme c (putative), MYLK4  -  myosin light chain kinase family, member 4, METTL7A  -  methyltransferase like 7a, RNF213  -  ring finger protein 213, HEMK1  -  hemk methyltransferase family member 1, GPAM  -  glycerol-3-phosphate acyltransferase, mitochondrial, TNFAIP1  -  tumor necrosis factor, alpha-induced protein 1 (endothelial), ZNRF3  -  zinc and ring finger 3, TNFAIP3  -  tumor necrosis factor, alpha-induced protein 3, PTK2B  -  protein tyrosine kinase 2 beta, RNF138  -  ring finger protein 138, e3 ubiquitin protein ligase, FASN  -  fatty acid synthase, IP6K2  -  inositol hexakisphosphate kinase 2, SUPT7L  -  suppressor of ty 7 (s. cerevisiae)-like, NRBP2  -  nuclear receptor binding protein 2, LCMT1  -  leucine carboxyl methyltransferase 1, FAM20B  -  family with sequence similarity 20, member b, REV1  -  rev1, polymerase (dna directed), EFEMP1  -  egf containing fibulin-like extracellular matrix protein 1, RNF10  -  ring finger protein 10, TOP1  -  topoisomerase (dna) i, POLR1A  -  polymerase (rna) i polypeptide a, 194kda, POLR1B  -  polymerase (rna) i polypeptide b, 128kda, LPGAT1  -  lysophosphatidylglycerol acyltransferase 1, RNF19A  -  ring finger protein 19a, e3 ubiquitin protein ligase, SETD3  -  set domain containing 3, FDFT1  -  farnesyl-diphosphate farnesyltransferase 1, XYLB  -  xylulokinase homolog (h. influenzae), FDPS  -  farnesyl diphosphate synthase, GFPT2  -  glutamine-fructose-6-phosphate transaminase 2, NEDD4  -  neural precursor cell expressed, developmentally down-regulated 4, e3 ubiquitin protein ligase, TPMT  -  thiopurine s-methyltransferase, CMPK2  -  cytidine monophosphate (ump-cmp) kinase 2, mitochondrial, MBOAT2  -  membrane bound o-acyltransferase domain containing 2, DTL  -  denticleless e3 ubiquitin protein ligase homolog (drosophila), HS3ST4  -  heparan sulfate (glucosamine) 3-o-sulfotransferase 4, HS3ST3B1  -  heparan sulfate (glucosamine) 3-o-sulfotransferase 3b1, HS3ST1  -  heparan sulfate (glucosamine) 3-o-sulfotransferase 1, NEK1  -  nima-related kinase 1, SOSTDC1  -  sclerostin domain containing 1, NEK2  -  nima-related kinase 2, NEK3  -  nima-related kinase 3, TRAF2  -  tnf receptor-associated factor 2, TRAF3  -  tnf receptor-associated factor 3, TRAF5  -  tnf receptor-associated factor 5, TRAF7  -  tnf receptor-associated factor 7, e3 ubiquitin protein ligase, FAM98A  -  family with sequence similarity 98, member a, ZDHHC18  -  zinc finger, dhhc-type containing 18, SCLY  -  selenocysteine lyase, SIRT6  -  sirtuin 6, TRIO  -  trio rho guanine nucleotide exchange factor, RBX1  -  ring-box 1, e3 ubiquitin protein ligase, FGFR1  -  fibroblast growth factor receptor 1, ACVR1C  -  activin a receptor, type ic, FGFR3  -  fibroblast growth factor receptor 3, CAMKK1  -  calcium/calmodulin-dependent protein kinase kinase 1, alpha, FGFR2  -  fibroblast growth factor receptor 2, FGFR4  -  fibroblast growth factor receptor 4, UBR3  -  ubiquitin protein ligase e3 component n-recognin 3 (putative), MMACHC  -  methylmalonic aciduria (cobalamin deficiency) cblc type, with homocystinuria, TIPARP  -  tcdd-inducible poly(adp-ribose) polymerase, AKT3  -  v-akt murine thymoma viral oncogene homolog 3, NFX1  -  nuclear transcription factor, x-box binding 1, CKMT1A  -  creatine kinase, mitochondrial 1a, PIAS4  -  protein inhibitor of activated stat, 4, COQ5  -  coenzyme q5 homolog, methyltransferase (s. cerevisiae), ULK3  -  unc-51 like kinase 3, LIPT1  -  lipoyltransferase 1, TRMT6  -  trna methyltransferase 6 homolog (s. cerevisiae), RNF167  -  ring finger protein 167, DPH5  -  diphthamide biosynthesis 5, ZDHHC16  -  zinc finger, dhhc-type containing 16, RPAP1  -  rna polymerase ii associated protein 1, NME4  -  nme/nm23 nucleoside diphosphate kinase 4, TRIM71  -  tripartite motif containing 71, e3 ubiquitin protein ligase, KMT2C  -  lysine (k)-specific methyltransferase 2c, NMT1  -  n-myristoyltransferase 1, RNF152  -  ring finger protein 152, TST  -  thiosulfate sulfurtransferase (rhodanese), FLT1  -  fms-related tyrosine kinase 1, FLT3  -  fms-related tyrosine kinase 3, TTC3  -  tetratricopeptide repeat domain 3, ZNF451  -  zinc finger protein 451, CDK5RAP1  -  cdk5 regulatory subunit associated protein 1, FLT4  -  fms-related tyrosine kinase 4, CNOT4  -  ccr4-not transcription complex, subunit 4, TTK  -  ttk protein kinase, TTN  -  titin, GRK7  -  g protein-coupled receptor kinase 7, UBA2  -  ubiquitin-like modifier activating enzyme 2, LTN1  -  listerin e3 ubiquitin protein ligase 1, ASB1  -  ankyrin repeat and socs box containing 1, ASB4  -  ankyrin repeat and socs box containing 4, METTL6  -  methyltransferase like 6, PNP  -  purine nucleoside phosphorylase, TAMM41  -  tam41, mitochondrial translocator assembly and maintenance protein, homolog (s. cerevisiae), FNTB  -  farnesyltransferase, caax box, beta, GLYCTK  -  glycerate kinase, NSUN6  -  nop2/sun domain family, member 6, NLK  -  nemo-like kinase, TYMS  -  thymidylate synthetase, TYRO3  -  tyro3 protein tyrosine kinase, NPR2  -  natriuretic peptide receptor b/guanylate cyclase b (atrionatriuretic peptide receptor b), PRDM12  -  pr domain containing 12, CARD11  -  caspase recruitment domain family, member 11, FBXO40  -  f-box protein 40, CMPK1  -  cytidine monophosphate (ump-cmp) kinase 1, cytosolic, AK9  -  adenylate kinase 9, HERC4  -  hect and rld domain containing e3 ubiquitin protein ligase 4, UBE2B  -  ubiquitin-conjugating enzyme e2b, DOT1L  -  dot1-like histone h3k79 methyltransferase, UBE2D2  -  ubiquitin-conjugating enzyme e2d 2, UBE2E2  -  ubiquitin-conjugating enzyme e2e 2, UBE2G1  -  ubiquitin-conjugating enzyme e2g 1, UBE2G2  -  ubiquitin-conjugating enzyme e2g 2, UBE2H  -  ubiquitin-conjugating enzyme e2h, CDK12  -  cyclin-dependent kinase 12, UBE2L3  -  ubiquitin-conjugating enzyme e2l 3, UBE2N  -  ubiquitin-conjugating enzyme e2n, NTRK3  -  neurotrophic tyrosine kinase, receptor, type 3, UBE3A  -  ubiquitin protein ligase e3a, DDR2  -  discoidin domain receptor tyrosine kinase 2, EPC2  -  enhancer of polycomb homolog 2 (drosophila), ELOVL5  -  elovl fatty acid elongase 5, TGM6  -  transglutaminase 6, TRMT11  -  trna methyltransferase 11 homolog (s. cerevisiae), COQ3  -  coenzyme q3 methyltransferase, GALNT7  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 7 (galnac-t7), RNF182  -  ring finger protein 182, NAMPT  -  nicotinamide phosphoribosyltransferase, AASDHPPT  -  aminoadipate-semialdehyde dehydrogenase-phosphopantetheinyl transferase, UGP2  -  udp-glucose pyrophosphorylase 2, NAT9  -  n-acetyltransferase 9 (gcn5-related, putative), OAT  -  ornithine aminotransferase, UGT8  -  udp glycosyltransferase 8, UCK2  -  uridine-cytidine kinase 2, UMPS  -  uridine monophosphate synthetase, SH3RF3  -  sh3 domain containing ring finger 3, UPP1  -  uridine phosphorylase 1, LPCAT3  -  lysophosphatidylcholine acyltransferase 3, GNPTG  -  n-acetylglucosamine-1-phosphate transferase, gamma subunit, FRK  -  fyn-related kinase, ST6GAL2  -  st6 beta-galactosamide alpha-2,6-sialyltranferase 2, FBXL21  -  f-box and leucine-rich repeat protein 21 (gene/pseudogene), FBXL3  -  f-box and leucine-rich repeat protein 3, TTBK1  -  tau tubulin kinase 1, FGFRL1  -  fibroblast growth factor receptor-like 1, RNF123  -  ring finger protein 123, FBXO2  -  f-box protein 2, UBE2O  -  ubiquitin-conjugating enzyme e2o, TNK2  -  tyrosine kinase, non-receptor, 2, HS3ST5  -  heparan sulfate (glucosamine) 3-o-sulfotransferase 5, MYO3A  -  myosin iiia, RNF41  -  ring finger protein 41, NSUN3  -  nop2/sun domain family, member 3, PRMT3  -  protein arginine methyltransferase 3, DGAT2  -  diacylglycerol o-acyltransferase 2, OTC  -  ornithine carbamoyltransferase, TRIM50  -  tripartite motif containing 50, NME6  -  nme/nm23 nucleoside diphosphate kinase 6, CSNK1G1  -  casein kinase 1, gamma 1, A4GALT  -  alpha 1,4-galactosyltransferase, GALNT11  -  udp-n-acetyl-alpha-d-galactosamine:polypeptide n-acetylgalactosaminyltransferase 11 (galnac-t11), MTOR  -  mechanistic target of rapamycin (serine/threonine kinase), FBXW8  -  f-box and wd repeat domain containing 8, FBXO25  -  f-box protein 25]</t>
-  </si>
-  <si>
     <t>GO:0016773</t>
   </si>
   <si>
     <t>phosphotransferase activity, alcohol group as acceptor</t>
   </si>
   <si>
-    <t>[ITK  -  il2-inducible t-cell kinase, ITPK1  -  inositol-tetrakisphosphate 1-kinase, VRK1  -  vaccinia related kinase 1, ITPKA  -  inositol-trisphosphate 3-kinase a, VRK2  -  vaccinia related kinase 2, ITPKB  -  inositol-trisphosphate 3-kinase b, TAF1  -  taf1 rna polymerase ii, tata box binding protein (tbp)-associated factor, 250kda, MAPK15  -  mitogen-activated protein kinase 15, JAK1  -  janus kinase 1, ADCK2  -  aarf domain containing kinase 2, MLKL  -  mixed lineage kinase domain-like, BLK  -  b lymphoid tyrosine kinase, IKBKE  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase epsilon, HK2  -  hexokinase 2, MAP3K7  -  mitogen-activated protein kinase kinase kinase 7, KALRN  -  kalirin, rhogef kinase, ABL1  -  c-abl oncogene 1, non-receptor tyrosine kinase, CDKL2  -  cyclin-dependent kinase-like 2 (cdc2-related kinase), WEE1  -  wee1 homolog (s. pombe), MAPK12  -  mitogen-activated protein kinase 12, PAK1  -  p21 protein (cdc42/rac)-activated kinase 1, PAK2  -  p21 protein (cdc42/rac)-activated kinase 2, MAP3K14  -  mitogen-activated protein kinase kinase kinase 14, PAK3  -  p21 protein (cdc42/rac)-activated kinase 3, BMPR1A  -  bone morphogenetic protein receptor, type ia, BMPR2  -  bone morphogenetic protein receptor, type ii (serine/threonine kinase), BRSK2  -  br serine/threonine kinase 2, IRAK4  -  interleukin-1 receptor-associated kinase 4, CLK4  -  cdc-like kinase 4, BAZ1B  -  bromodomain adjacent to zinc finger domain, 1b, FYN  -  fyn oncogene related to src, fgr, yes, RBKS  -  ribokinase, BRAF  -  v-raf murine sarcoma viral oncogene homolog b, HKDC1  -  hexokinase domain containing 1, PIP4K2B  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, beta, BTK  -  bruton agammaglobulinemia tyrosine kinase, PAPSS1  -  3'-phosphoadenosine 5'-phosphosulfate synthase 1, PKDCC  -  protein kinase domain containing, cytoplasmic, MAP3K6  -  mitogen-activated protein kinase kinase kinase 6, ALPK1  -  alpha-kinase 1, CCL2  -  chemokine (c-c motif) ligand 2, BUB1  -  bub1 mitotic checkpoint serine/threonine kinase, CCL3  -  chemokine (c-c motif) ligand 3, BUB1B  -  bub1 mitotic checkpoint serine/threonine kinase b, MAP3K8  -  mitogen-activated protein kinase kinase kinase 8, ULK1  -  unc-51 like autophagy activating kinase 1, YES1  -  v-yes-1 yamaguchi sarcoma viral oncogene homolog 1, FN3K  -  fructosamine 3 kinase, ULK2  -  unc-51 like autophagy activating kinase 2, EPHA2  -  eph receptor a2, STK38L  -  serine/threonine kinase 38 like, SPEG  -  speg complex locus, ACVR1  -  activin a receptor, type i, LATS2  -  large tumor suppressor kinase 2, ACVR2B  -  activin a receptor, type iib, KDR  -  kinase insert domain receptor (a type iii receptor tyrosine kinase), CDK17  -  cyclin-dependent kinase 17, CDK18  -  cyclin-dependent kinase 18, ZAP70  -  zeta-chain (tcr) associated protein kinase 70kda, RIOK1  -  rio kinase 1, PIKFYVE  -  phosphoinositide kinase, fyve finger containing, GALK1  -  galactokinase 1, GALK2  -  galactokinase 2, MAST3  -  microtubule associated serine/threonine kinase 3, SGK3  -  serum/glucocorticoid regulated kinase family, member 3, VPRBP  -  vpr (hiv-1) binding protein, DYRK3  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 3, PTK2  -  protein tyrosine kinase 2, MAP3K15  -  mitogen-activated protein kinase kinase kinase 15, DYRK2  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 2, PTK7  -  protein tyrosine kinase 7, KIT  -  v-kit hardy-zuckerman 4 feline sarcoma viral oncogene homolog, TNIK  -  traf2 and nck interacting kinase, LATS1  -  large tumor suppressor kinase 1, VRK3  -  vaccinia related kinase 3, SMG1  -  smg1 phosphatidylinositol 3-kinase-related kinase, PDGFRA  -  platelet-derived growth factor receptor, alpha polypeptide, CRIM1  -  cysteine rich transmembrane bmp regulator 1 (chordin-like), PDGFRL  -  platelet-derived growth factor receptor-like, MYLK3  -  myosin light chain kinase 3, DGKH  -  diacylglycerol kinase, eta, PDGFRB  -  platelet-derived growth factor receptor, beta polypeptide, SLK  -  ste20-like kinase, PDK3  -  pyruvate dehydrogenase kinase, isozyme 3, PDK4  -  pyruvate dehydrogenase kinase, isozyme 4, SHPK  -  sedoheptulokinase, WEE2  -  wee1 homolog 2 (s. pombe), CDC42BPA  -  cdc42 binding protein kinase alpha (dmpk-like), NT5C3A  -  5'-nucleotidase, cytosolic iiia, KSR2  -  kinase suppressor of ras 2, IPMK  -  inositol polyphosphate multikinase, MAP4K3  -  mitogen-activated protein kinase kinase kinase kinase 3, ADRBK1  -  adrenergic, beta, receptor kinase 1, PPM1D  -  protein phosphatase, mg2+/mn2+ dependent, 1d, ADRBK2  -  adrenergic, beta, receptor kinase 2, ETNK2  -  ethanolamine kinase 2, EPHA1  -  eph receptor a1, COASY  -  coa synthase, EPHA3  -  eph receptor a3, EPHA4  -  eph receptor a4, EPHA5  -  eph receptor a5, EPHA7  -  eph receptor a7, TAOK1  -  tao kinase 1, TESK1  -  testis-specific kinase 1, EPHA8  -  eph receptor a8, EPHB1  -  eph receptor b1, EPHB2  -  eph receptor b2, PDIK1L  -  pdlim1 interacting kinase 1 like, EPHB3  -  eph receptor b3, TBK1  -  tank-binding kinase 1, DGKI  -  diacylglycerol kinase, iota, SGK1  -  serum/glucocorticoid regulated kinase 1, PFKFB2  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 2, PFKFB3  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 3, PFKFB4  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 4, MAP3K13  -  mitogen-activated protein kinase kinase kinase 13, PFKL  -  phosphofructokinase, liver, GSG2  -  germ cell associated 2 (haspin), RPS6KC1  -  ribosomal protein s6 kinase, 52kda, polypeptide 1, TLK2  -  tousled-like kinase 2, ERBB4  -  v-erb-b2 avian erythroblastic leukemia viral oncogene homolog 4, PFKP  -  phosphofructokinase, platelet, MAPK14  -  mitogen-activated protein kinase 14, CAMK4  -  calcium/calmodulin-dependent protein kinase iv, CAMK2A  -  calcium/calmodulin-dependent protein kinase ii alpha, MVK  -  mevalonate kinase, CDK14  -  cyclin-dependent kinase 14, DGKZ  -  diacylglycerol kinase, zeta, DGKE  -  diacylglycerol kinase, epsilon 64kda, CAMK2D  -  calcium/calmodulin-dependent protein kinase ii delta, DGKD  -  diacylglycerol kinase, delta 130kda, CAMK2G  -  calcium/calmodulin-dependent protein kinase ii gamma, TSSK1B  -  testis-specific serine kinase 1b, TGFBR2  -  transforming growth factor, beta receptor ii (70/80kda), TGFBR3  -  transforming growth factor, beta receptor iii, STK32A  -  serine/threonine kinase 32a, ERN1  -  endoplasmic reticulum to nucleus signaling 1, TEX14  -  testis expressed 14, CSK  -  c-src tyrosine kinase, MAST2  -  microtubule associated serine/threonine kinase 2, AKT1  -  v-akt murine thymoma viral oncogene homolog 1, DCLK1  -  doublecortin-like kinase 1, CSNK1A1  -  casein kinase 1, alpha 1, CSNK1E  -  casein kinase 1, epsilon, CSNK1G2  -  casein kinase 1, gamma 2, TESK2  -  testis-specific kinase 2, PIM3  -  pim-3 oncogene, CSNK2A1  -  casein kinase 2, alpha 1 polypeptide, DSTYK  -  dual serine/threonine and tyrosine protein kinase, GK  -  glycerol kinase, MELK  -  maternal embryonic leucine zipper kinase, MAPKAPK5  -  mitogen-activated protein kinase-activated protein kinase 5, PHKA2  -  phosphorylase kinase, alpha 2 (liver), PHKG1  -  phosphorylase kinase, gamma 1 (muscle), PANK3  -  pantothenate kinase 3, CDK10  -  cyclin-dependent kinase 10, SLA  -  src-like-adaptor, MYLK  -  myosin light chain kinase, RAF1  -  v-raf-1 murine leukemia viral oncogene homolog 1, ALK  -  anaplastic lymphoma receptor tyrosine kinase, TAOK3  -  tao kinase 3, PI4K2B  -  phosphatidylinositol 4-kinase type 2 beta, PDXK  -  pyridoxal (pyridoxine, vitamin b6) kinase, MKNK1  -  map kinase interacting serine/threonine kinase 1, PASK  -  pas domain containing serine/threonine kinase, CASK  -  calcium/calmodulin-dependent serine protein kinase (maguk family), STK16  -  serine/threonine kinase 16, EEF2K  -  eukaryotic elongation factor-2 kinase, MERTK  -  c-mer proto-oncogene tyrosine kinase, RPS6KA5  -  ribosomal protein s6 kinase, 90kda, polypeptide 5, PIK3C2A  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 alpha, PIK3C2B  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 beta, PIK3C2G  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 gamma, PIK3CA  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit alpha, MAPKAPK2  -  mitogen-activated protein kinase-activated protein kinase 2, PIK3CB  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit beta, HIPK1  -  homeodomain interacting protein kinase 1, STK17A  -  serine/threonine kinase 17a, PIK3CD  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit delta, LIMK2  -  lim domain kinase 2, PIK3CG  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit gamma, PI4KB  -  phosphatidylinositol 4-kinase, catalytic, beta, MYLK4  -  myosin light chain kinase family, member 4, IPPK  -  inositol 1,3,4,5,6-pentakisphosphate 2-kinase, PIP4K2A  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, alpha, CERK  -  ceramide kinase, CDK13  -  cyclin-dependent kinase 13, CIT  -  citron (rho-interacting, serine/threonine kinase 21), PKM  -  pyruvate kinase, muscle, NOL9  -  nucleolar protein 9, STK25  -  serine/threonine kinase 25, SBK2  -  sh3-binding domain kinase family, member 2, PTK2B  -  protein tyrosine kinase 2 beta, MAPKAPK3  -  mitogen-activated protein kinase-activated protein kinase 3, SIK2  -  salt-inducible kinase 2, NRBP2  -  nuclear receptor binding protein 2, FAM20B  -  family with sequence similarity 20, member b, EFEMP1  -  egf containing fibulin-like extracellular matrix protein 1, TBCK  -  tbc1 domain containing kinase, TOP1  -  topoisomerase (dna) i, MYLK2  -  myosin light chain kinase 2, PAN3  -  pan3 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), STK35  -  serine/threonine kinase 35, RET  -  ret proto-oncogene, LTBP1  -  latent transforming growth factor beta binding protein 1, PLK1  -  polo-like kinase 1, NEK8  -  nima-related kinase 8, XYLB  -  xylulokinase homolog (h. influenzae), EIF2AK4  -  eukaryotic translation initiation factor 2 alpha kinase 4, ETNK1  -  ethanolamine kinase 1, NEK1  -  nima-related kinase 1, SOSTDC1  -  sclerostin domain containing 1, NEK2  -  nima-related kinase 2, NEK3  -  nima-related kinase 3, DCLK3  -  doublecortin-like kinase 3, MAP4K5  -  mitogen-activated protein kinase kinase kinase kinase 5, DGKB  -  diacylglycerol kinase, beta 90kda, TRIO  -  trio rho guanine nucleotide exchange factor, PIK3R4  -  phosphoinositide-3-kinase, regulatory subunit 4, FGFR1  -  fibroblast growth factor receptor 1, ACVR1C  -  activin a receptor, type ic, FGFR3  -  fibroblast growth factor receptor 3, CAMKK1  -  calcium/calmodulin-dependent protein kinase kinase 1, alpha, FGFR2  -  fibroblast growth factor receptor 2, FGFR4  -  fibroblast growth factor receptor 4, CHEK2  -  checkpoint kinase 2, PAK6  -  p21 protein (cdc42/rac)-activated kinase 6, SBK1  -  sh3-binding domain kinase 1, GRK4  -  g protein-coupled receptor kinase 4, PINK1  -  pten induced putative kinase 1, GRK5  -  g protein-coupled receptor kinase 5, RNASEL  -  ribonuclease l (2',5'-oligoisoadenylate synthetase-dependent), EIF2AK1  -  eukaryotic translation initiation factor 2-alpha kinase 1, GRK6  -  g protein-coupled receptor kinase 6, AKAP13  -  a kinase (prka) anchor protein 13, NEK10  -  nima-related kinase 10, IGF2R  -  insulin-like growth factor 2 receptor, AKT3  -  v-akt murine thymoma viral oncogene homolog 3, CDK15  -  cyclin-dependent kinase 15, MAK  -  male germ cell-associated kinase, LRRK2  -  leucine-rich repeat kinase 2, CDK3  -  cyclin-dependent kinase 3, BMP2K  -  bmp2 inducible kinase, CDK5  -  cyclin-dependent kinase 5, RIPK1  -  receptor (tnfrsf)-interacting serine-threonine kinase 1, ULK3  -  unc-51 like kinase 3, SNRK  -  snf related kinase, CDK6  -  cyclin-dependent kinase 6, CDK8  -  cyclin-dependent kinase 8, CDK9  -  cyclin-dependent kinase 9, CDKN1A  -  cyclin-dependent kinase inhibitor 1a (p21, cip1), PEAK1  -  nkf3 kinase family member, MARK1  -  map/microtubule affinity-regulating kinase 1, MARK3  -  map/microtubule affinity-regulating kinase 3, WNK1  -  wnk lysine deficient protein kinase 1, NADK  -  nad kinase, STK36  -  serine/threonine kinase 36, FAM20C  -  family with sequence similarity 20, member c, RIPK2  -  receptor-interacting serine-threonine kinase 2, FLT1  -  fms-related tyrosine kinase 1, RIOK3  -  rio kinase 3, FLT3  -  fms-related tyrosine kinase 3, NPRL2  -  nitrogen permease regulator-like 2 (s. cerevisiae), ROCK1  -  rho-associated, coiled-coil containing protein kinase 1, FLT4  -  fms-related tyrosine kinase 4, EIF2AK3  -  eukaryotic translation initiation factor 2-alpha kinase 3, TTK  -  ttk protein kinase, CAMKK2  -  calcium/calmodulin-dependent protein kinase kinase 2, beta, TTN  -  titin, GRK7  -  g protein-coupled receptor kinase 7, ROS1  -  c-ros oncogene 1 , receptor tyrosine kinase, SIK3  -  sik family kinase 3, GSK3B  -  glycogen synthase kinase 3 beta, PIP5K1C  -  phosphatidylinositol-4-phosphate 5-kinase, type i, gamma, DCAKD  -  dephospho-coa kinase domain containing, IKBKB  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase beta, GLYCTK  -  glycerate kinase, SRC  -  v-src avian sarcoma (schmidt-ruppin a-2) viral oncogene homolog, TRIM24  -  tripartite motif containing 24, ROCK2  -  rho-associated, coiled-coil containing protein kinase 2, NLK  -  nemo-like kinase, ATM  -  ataxia telangiectasia mutated, SRMS  -  src-related kinase lacking c-terminal regulatory tyrosine and n-terminal myristylation sites, NMRK2  -  nicotinamide riboside kinase 2, CCNK  -  cyclin k, TYRO3  -  tyro3 protein tyrosine kinase, NPR2  -  natriuretic peptide receptor b/guanylate cyclase b (atrionatriuretic peptide receptor b), CDKL1  -  cyclin-dependent kinase-like 1 (cdc2-related kinase), SRPK1  -  srsf protein kinase 1, SRPK2  -  srsf protein kinase 2, SCYL2  -  scy1-like 2 (s. cerevisiae), MAP3K3  -  mitogen-activated protein kinase kinase kinase 3, NRP2  -  neuropilin 2, MAP3K4  -  mitogen-activated protein kinase kinase kinase 4, NRP1  -  neuropilin 1, CHKA  -  choline kinase alpha, CDK12  -  cyclin-dependent kinase 12, CAMKV  -  cam kinase-like vesicle-associated, MET  -  met proto-oncogene, NTRK3  -  neurotrophic tyrosine kinase, receptor, type 3, KSR1  -  kinase suppressor of ras 1, DDR2  -  discoidin domain receptor tyrosine kinase 2, GUCY2C  -  guanylate cyclase 2c (heat stable enterotoxin receptor), GUCY2F  -  guanylate cyclase 2f, retinal, TTBK2  -  tau tubulin kinase 2, CAMK1D  -  calcium/calmodulin-dependent protein kinase id, PRKAB2  -  protein kinase, amp-activated, beta 2 non-catalytic subunit, PRKACB  -  protein kinase, camp-dependent, catalytic, beta, MAP3K2  -  mitogen-activated protein kinase kinase kinase 2, NUAK2  -  nuak family, snf1-like kinase, 2, N4BP2  -  nedd4 binding protein 2, RPS6KA2  -  ribosomal protein s6 kinase, 90kda, polypeptide 2, RPS6KA3  -  ribosomal protein s6 kinase, 90kda, polypeptide 3, ATR  -  ataxia telangiectasia and rad3 related, HYKK  -  hydroxylysine kinase, RPS6KB1  -  ribosomal protein s6 kinase, 70kda, polypeptide 1, RPS6KB2  -  ribosomal protein s6 kinase, 70kda, polypeptide 2, NEK4  -  nima-related kinase 4, PRKCA  -  protein kinase c, alpha, STK3  -  serine/threonine kinase 3, SQSTM1  -  sequestosome 1, PRKCB  -  protein kinase c, beta, STK4  -  serine/threonine kinase 4, PRKCD  -  protein kinase c, delta, PRKCE  -  protein kinase c, epsilon, RPS6KA6  -  ribosomal protein s6 kinase, 90kda, polypeptide 6, CDKL5  -  cyclin-dependent kinase-like 5, DOLK  -  dolichol kinase, PRKCH  -  protein kinase c, eta, STK10  -  serine/threonine kinase 10, STK11  -  serine/threonine kinase 11, ADCK1  -  aarf domain containing kinase 1, AAK1  -  ap2 associated kinase 1, PKN2  -  protein kinase n2, PAK7  -  p21 protein (cdc42/rac)-activated kinase 7, PRKCQ  -  protein kinase c, theta, LMTK2  -  lemur tyrosine kinase 2, PRKCZ  -  protein kinase c, zeta, PRKDC  -  protein kinase, dna-activated, catalytic polypeptide, PRKG1  -  protein kinase, cgmp-dependent, type i, MAP3K9  -  mitogen-activated protein kinase kinase kinase 9, AGK  -  acylglycerol kinase, CPNE3  -  copine iii, MAPK1  -  mitogen-activated protein kinase 1, IRAK2  -  interleukin-1 receptor-associated kinase 2, MAPK6  -  mitogen-activated protein kinase 6, PRPF4B  -  prp4 pre-mrna processing factor 4 homolog b (yeast), NEK6  -  nima-related kinase 6, MAPK8  -  mitogen-activated protein kinase 8, FRK  -  fyn-related kinase, MAPK11  -  mitogen-activated protein kinase 11, MAPK9  -  mitogen-activated protein kinase 9, MAPK10  -  mitogen-activated protein kinase 10, MAPK13  -  mitogen-activated protein kinase 13, MAP2K1  -  mitogen-activated protein kinase kinase 1, CLK2  -  cdc-like kinase 2, CAMK1G  -  calcium/calmodulin-dependent protein kinase ig, MAP2K6  -  mitogen-activated protein kinase kinase 6, TTBK1  -  tau tubulin kinase 1, CLK3  -  cdc-like kinase 3, EIF2AK2  -  eukaryotic translation initiation factor 2-alpha kinase 2, CCND1  -  cyclin d1, FGFRL1  -  fibroblast growth factor receptor-like 1, PIK3R6  -  phosphoinositide-3-kinase, regulatory subunit 6, CERKL  -  ceramide kinase-like, PANK2  -  pantothenate kinase 2, TNK2  -  tyrosine kinase, non-receptor, 2, HCK  -  hemopoietic cell kinase, MYO3A  -  myosin iiia, CDC7  -  cell division cycle 7, TNNI3K  -  tnni3 interacting kinase, BCR  -  breakpoint cluster region, CSNK1G1  -  casein kinase 1, gamma 1, ADPGK  -  adp-dependent glucokinase, MTOR  -  mechanistic target of rapamycin (serine/threonine kinase), DYRK1A  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 1a, MOS  -  v-mos moloney murine sarcoma viral oncogene homolog, EPHA6  -  eph receptor a6]</t>
-  </si>
-  <si>
     <t>GO:0036094</t>
   </si>
   <si>
     <t>small molecule binding</t>
   </si>
   <si>
-    <t>[P2RX4  -  purinergic receptor p2x, ligand-gated ion channel, 4, P2RX5  -  purinergic receptor p2x, ligand-gated ion channel, 5, TRPV1  -  transient receptor potential cation channel, subfamily v, member 1, VRK1  -  vaccinia related kinase 1, VRK2  -  vaccinia related kinase 2, P2RY4  -  pyrimidinergic receptor p2y, g-protein coupled, 4, MAPK15  -  mitogen-activated protein kinase 15, P4HA1  -  prolyl 4-hydroxylase, alpha polypeptide i, LRGUK  -  leucine-rich repeats and guanylate kinase domain containing, PEBP1  -  phosphatidylethanolamine binding protein 1, ABAT  -  4-aminobutyrate aminotransferase, ACCS  -  1-aminocyclopropane-1-carboxylate synthase homolog (arabidopsis)(non-functional), ABCA2  -  atp-binding cassette, sub-family a (abc1), member 2, ABCA3  -  atp-binding cassette, sub-family a (abc1), member 3, ABCB7  -  atp-binding cassette, sub-family b (mdr/tap), member 7, ERAL1  -  era-like 12s mitochondrial rrna chaperone 1, ABCA4  -  atp-binding cassette, sub-family a (abc1), member 4, GNAT3  -  guanine nucleotide binding protein, alpha transducing 3, ABL1  -  c-abl oncogene 1, non-receptor tyrosine kinase, AK5  -  adenylate kinase 5, KIF13A  -  kinesin family member 13a, WEE1  -  wee1 homolog (s. pombe), ACACA  -  acetyl-coa carboxylase alpha, ACACB  -  acetyl-coa carboxylase beta, PAK1  -  p21 protein (cdc42/rac)-activated kinase 1, FIGNL1  -  fidgetin-like 1, PAK2  -  p21 protein (cdc42/rac)-activated kinase 2, MYO18B  -  myosin xviiib, ACADL  -  acyl-coa dehydrogenase, long chain, PAK3  -  p21 protein (cdc42/rac)-activated kinase 3, ACADSB  -  acyl-coa dehydrogenase, short/branched chain, GPT2  -  glutamic pyruvate transaminase (alanine aminotransferase) 2, ACLY  -  atp citrate lyase, GNL3  -  guanine nucleotide binding protein-like 3 (nucleolar), ACR  -  acrosin, ACOX1  -  acyl-coa oxidase 1, palmitoyl, FYN  -  fyn oncogene related to src, fgr, yes, RBKS  -  ribokinase, ABCC4  -  atp-binding cassette, sub-family c (cftr/mrp), member 4, MCCC2  -  methylcrotonoyl-coa carboxylase 2 (beta), ACTA1  -  actin, alpha 1, skeletal muscle, RIPK4  -  receptor-interacting serine-threonine kinase 4, POPDC2  -  popeye domain containing 2, XDH  -  xanthine dehydrogenase, XRCC6  -  x-ray repair complementing defective repair in chinese hamster cells 6, PCCA  -  propionyl coa carboxylase, alpha polypeptide, PCCB  -  propionyl coa carboxylase, beta polypeptide, ACTG2  -  actin, gamma 2, smooth muscle, enteric, PCK1  -  phosphoenolpyruvate carboxykinase 1 (soluble), XRCC2  -  x-ray repair complementing defective repair in chinese hamster cells 2, XRCC3  -  x-ray repair complementing defective repair in chinese hamster cells 3, MRPL39  -  mitochondrial ribosomal protein l39, XRCC5  -  x-ray repair complementing defective repair in chinese hamster cells 5 (double-strand-break rejoining), DUS1L  -  dihydrouridine synthase 1-like (s. cerevisiae), RRAGC  -  ras-related gtp binding c, YES1  -  v-yes-1 yamaguchi sarcoma viral oncogene homolog 1, FN3K  -  fructosamine 3 kinase, SPEG  -  speg complex locus, ACVR1  -  activin a receptor, type i, LATS2  -  large tumor suppressor kinase 2, DNAJA2  -  dnaj (hsp40) homolog, subfamily a, member 2, GAD2  -  glutamate decarboxylase 2 (pancreatic islets and brain, 65kda), ACVR2B  -  activin a receptor, type iib, CDK17  -  cyclin-dependent kinase 17, CDK18  -  cyclin-dependent kinase 18, ZAP70  -  zeta-chain (tcr) associated protein kinase 70kda, ABCG4  -  atp-binding cassette, sub-family g (white), member 4, ADA  -  adenosine deaminase, KIF9  -  kinesin family member 9, HAO1  -  hydroxyacid oxidase (glycolate oxidase) 1, GALK1  -  galactokinase 1, GALK2  -  galactokinase 2, RAB19  -  rab19, member ras oncogene family, ADCY1  -  adenylate cyclase 1 (brain), ADCY2  -  adenylate cyclase 2 (brain), ADCY3  -  adenylate cyclase 3, PDE4B  -  phosphodiesterase 4b, camp-specific, ADCY5  -  adenylate cyclase 5, LEPRE1  -  leucine proline-enriched proteoglycan (leprecan) 1, PDE4D  -  phosphodiesterase 4d, camp-specific, ADCY7  -  adenylate cyclase 7, PDE6C  -  phosphodiesterase 6c, cgmp-specific, cone, alpha prime, ADCY8  -  adenylate cyclase 8 (brain), ADCY9  -  adenylate cyclase 9, PDE6H  -  phosphodiesterase 6h, cgmp-specific, cone, gamma, GAPDH  -  glyceraldehyde-3-phosphate dehydrogenase, STRA6  -  stimulated by retinoic acid 6, PDGFRA  -  platelet-derived growth factor receptor, alpha polypeptide, GART  -  phosphoribosylglycinamide formyltransferase, phosphoribosylglycinamide synthetase, phosphoribosylaminoimidazole synthetase, PDGFRB  -  platelet-derived growth factor receptor, beta polypeptide, ATL2  -  atlastin gtpase 2, MOV10L1  -  mov10l1, moloney leukemia virus 10-like 1, homolog (mouse), ABCG5  -  atp-binding cassette, sub-family g (white), member 5, PDK3  -  pyruvate dehydrogenase kinase, isozyme 3, ABCG8  -  atp-binding cassette, sub-family g (white), member 8, PDK4  -  pyruvate dehydrogenase kinase, isozyme 4, PARP1  -  poly (adp-ribose) polymerase 1, AIFM2  -  apoptosis-inducing factor, mitochondrion-associated, 2, SMCR7L  -  smith-magenis syndrome chromosome region, candidate 7-like, IPMK  -  inositol polyphosphate multikinase, ZBTB38  -  zinc finger and btb domain containing 38, FBXO18  -  f-box protein, helicase, 18, GCH1  -  gtp cyclohydrolase 1, GCHFR  -  gtp cyclohydrolase i feedback regulator, ADRBK1  -  adrenergic, beta, receptor kinase 1, ATAD1  -  atpase family, aaa domain containing 1, ADRBK2  -  adrenergic, beta, receptor kinase 2, SIL1  -  sil1 nucleotide exchange factor, PEX1  -  peroxisomal biogenesis factor 1, PEX6  -  peroxisomal biogenesis factor 6, TUBB3  -  tubulin, beta 3 class iii, MPP5  -  membrane protein, palmitoylated 5 (maguk p55 subfamily member 5), AFP  -  alpha-fetoprotein, RHOF  -  ras homolog family member f (in filopodia), ACAN  -  aggrecan, GEM  -  gtp binding protein overexpressed in skeletal muscle, PFKFB2  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 2, PFKFB3  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 3, GFER  -  growth factor, augmenter of liver regeneration, PFKFB4  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 4, NOD1  -  nucleotide-binding oligomerization domain containing 1, PFKL  -  phosphofructokinase, liver, RPS6KC1  -  ribosomal protein s6 kinase, 52kda, polypeptide 1, PFKP  -  phosphofructokinase, platelet, CDK14  -  cyclin-dependent kinase 14, PGD  -  phosphogluconate dehydrogenase, NMNAT3  -  nicotinamide nucleotide adenylyltransferase 3, AK2  -  adenylate kinase 2, AK4  -  adenylate kinase 4, TTLL10  -  tubulin tyrosine ligase-like family, member 10, AKT1  -  v-akt murine thymoma viral oncogene homolog 1, ALAS1  -  aminolevulinate, delta-, synthase 1, ABCB1  -  atp-binding cassette, sub-family b (mdr/tap), member 1, ALB  -  albumin, TESK2  -  testis-specific kinase 2, DDX49  -  dead (asp-glu-ala-asp) box polypeptide 49, ALDH2  -  aldehyde dehydrogenase 2 family (mitochondrial), MCM9  -  minichromosome maintenance complex component 9, GK  -  glycerol kinase, ALDH1A3  -  aldehyde dehydrogenase 1 family, member a3, ABCD2  -  atp-binding cassette, sub-family d (ald), member 2, PHKG1  -  phosphorylase kinase, gamma 1 (muscle), PHYH  -  phytanoyl-coa 2-hydroxylase, ALK  -  anaplastic lymphoma receptor tyrosine kinase, GCLC  -  glutamate-cysteine ligase, catalytic subunit, ALOX5AP  -  arachidonate 5-lipoxygenase-activating protein, EGLN1  -  egl-9 family hypoxia-inducible factor 1, GLE1  -  gle1 rna export mediator, ECI2  -  enoyl-coa delta isomerase 2, INO80  -  ino80 complex subunit, GLRA1  -  glycine receptor, alpha 1, GLRA2  -  glycine receptor, alpha 2, MERTK  -  c-mer proto-oncogene tyrosine kinase, GLRB  -  glycine receptor, beta, ACBD3  -  acyl-coa binding domain containing 3, RERG  -  ras-like, estrogen-regulated, growth inhibitor, PIK3C2A  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 alpha, GLUD1  -  glutamate dehydrogenase 1, PIK3C2B  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 beta, PHYKPL  -  5-phosphohydroxy-l-lysine phospho-lyase, PIK3C2G  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 gamma, PIK3CA  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit alpha, PIK3CB  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit beta, UGT1A1  -  udp glucuronosyltransferase 1 family, polypeptide a1, GLUL  -  glutamate-ammonia ligase, PIK3CD  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit delta, PIK3CG  -  phosphatidylinositol-4,5-bisphosphate 3-kinase, catalytic subunit gamma, PI4KB  -  phosphatidylinositol 4-kinase, catalytic, beta, UBE2E3  -  ubiquitin-conjugating enzyme e2e 3, GMDS  -  gdp-mannose 4,6-dehydratase, IPPK  -  inositol 1,3,4,5,6-pentakisphosphate 2-kinase, GTPBP2  -  gtp binding protein 2, DAP3  -  death associated protein 3, PIP4K2A  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, alpha, GNA11  -  guanine nucleotide binding protein (g protein), alpha 11 (gq class), GNA12  -  guanine nucleotide binding protein (g protein) alpha 12, GNAI1  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 1, GNAI2  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 2, GPN2  -  gpn-loop gtpase 2, GNAI3  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 3, CNGB3  -  cyclic nucleotide gated channel beta 3, GNAL  -  guanine nucleotide binding protein (g protein), alpha activating activity polypeptide, olfactory type, CERK  -  ceramide kinase, PKM  -  pyruvate kinase, muscle, STK25  -  serine/threonine kinase 25, PLA2G1B  -  phospholipase a2, group ib (pancreas), RAB39A  -  rab39a, member ras oncogene family, DDX31  -  dead (asp-glu-ala-asp) box polypeptide 31, MAPKAPK3  -  mitogen-activated protein kinase-activated protein kinase 3, ANXA6  -  annexin a6, CHORDC1  -  cysteine and histidine-rich domain (chord) containing 1, NMNAT1  -  nicotinamide nucleotide adenylyltransferase 1, PLCL1  -  phospholipase c-like 1, AOX1  -  aldehyde oxidase 1, APAF1  -  apoptotic peptidase activating factor 1, DDX17  -  dead (asp-glu-ala-asp) box helicase 17, KCNAB1  -  potassium voltage-gated channel, shaker-related subfamily, beta member 1, MYLK2  -  myosin light chain kinase 2, GRAMD1C  -  gram domain containing 1c, HYOU1  -  hypoxia up-regulated 1, PAN3  -  pan3 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), GNPNAT1  -  glucosamine-phosphate n-acetyltransferase 1, STK35  -  serine/threonine kinase 35, GOT2  -  glutamic-oxaloacetic transaminase 2, mitochondrial, PLK1  -  polo-like kinase 1, ETNPPL  -  ethanolamine-phosphate phospho-lyase, PLOD1  -  procollagen-lysine, 2-oxoglutarate 5-dioxygenase 1, LEPREL2  -  leprecan-like 2, TPK1  -  thiamin pyrophosphokinase 1, GPD1  -  glycerol-3-phosphate dehydrogenase 1 (soluble), GPI  -  glucose-6-phosphate isomerase, MLH3  -  mutl homolog 3 (e. coli), HSD17B8  -  hydroxysteroid (17-beta) dehydrogenase 8, ATP2C1  -  atpase, ca++ transporting, type 2c, member 1, TRIT1  -  trna isopentenyltransferase 1, ACAD8  -  acyl-coa dehydrogenase family, member 8, NOX1  -  nadph oxidase 1, APOD  -  apolipoprotein d, HELZ2  -  helicase with zinc finger 2, transcriptional coactivator, APRT  -  adenine phosphoribosyltransferase, PMP2  -  peripheral myelin protein 2, DCLK3  -  doublecortin-like kinase 3, ERCC6L  -  excision repair cross-complementing rodent repair deficiency, complementation group 6-like, TRPM7  -  transient receptor potential cation channel, subfamily m, member 7, EXOSC10  -  exosome component 10, PMS2  -  pms2 postmeiotic segregation increased 2 (s. cerevisiae), ABCC6  -  atp-binding cassette, sub-family c (cftr/mrp), member 6, CCT7  -  chaperonin containing tcp1, subunit 7 (eta), D2HGDH  -  d-2-hydroxyglutarate dehydrogenase, CCT4  -  chaperonin containing tcp1, subunit 4 (delta), CCT2  -  chaperonin containing tcp1, subunit 2 (beta), ARF4  -  adp-ribosylation factor 4, GFM1  -  g elongation factor, mitochondrial 1, COLEC10  -  collectin sub-family member 10 (c-type lectin), POLA1  -  polymerase (dna directed), alpha 1, catalytic subunit, SESN3  -  sestrin 3, ARF6  -  adp-ribosylation factor 6, TXNRD2  -  thioredoxin reductase 2, MTHFS  -  5,10-methenyltetrahydrofolate synthetase (5-formyltetrahydrofolate cyclo-ligase), POLE  -  polymerase (dna directed), epsilon, catalytic subunit, SIDT1  -  sid1 transmembrane family, member 1, ARHGEF5  -  rho guanine nucleotide exchange factor (gef) 5, GRK4  -  g protein-coupled receptor kinase 4, RHOB  -  ras homolog family member b, GRK5  -  g protein-coupled receptor kinase 5, PINK1  -  pten induced putative kinase 1, GRK6  -  g protein-coupled receptor kinase 6, EIF2AK1  -  eukaryotic translation initiation factor 2-alpha kinase 1, RND3  -  rho family gtpase 3, RHOG  -  ras homolog family member g, POLR2B  -  polymerase (rna) ii (dna directed) polypeptide b, 140kda, POLR2D  -  polymerase (rna) ii (dna directed) polypeptide d, CDK15  -  cyclin-dependent kinase 15, ARHGAP5  -  rho gtpase activating protein 5, SHPRH  -  snf2 histone linker phd ring helicase, e3 ubiquitin protein ligase, GLRA3  -  glycine receptor, alpha 3, RTN4R  -  reticulon 4 receptor, ARL1  -  adp-ribosylation factor-like 1, SNRK  -  snf related kinase, ARL3  -  adp-ribosylation factor-like 3, SMC1B  -  structural maintenance of chromosomes 1b, POR  -  p450 (cytochrome) oxidoreductase, CUBN  -  cubilin (intrinsic factor-cobalamin receptor), HSPA12A  -  heat shock 70kda protein 12a, WNK1  -  wnk lysine deficient protein kinase 1, STK36  -  serine/threonine kinase 36, NADK  -  nad kinase, GRIN1  -  glutamate receptor, ionotropic, n-methyl d-aspartate 1, GRIN2B  -  glutamate receptor, ionotropic, n-methyl d-aspartate 2b, NAV3  -  neuron navigator 3, NDOR1  -  nadph dependent diflavin oxidoreductase 1, PPARD  -  peroxisome proliferator-activated receptor delta, PPARG  -  peroxisome proliferator-activated receptor gamma, NAV2  -  neuron navigator 2, UBE2Z  -  ubiquitin-conjugating enzyme e2z, ABCC10  -  atp-binding cassette, sub-family c (cftr/mrp), member 10, GRM7  -  glutamate receptor, metabotropic 7, ASNS  -  asparagine synthetase (glutamine-hydrolyzing), CAMKK2  -  calcium/calmodulin-dependent protein kinase kinase 2, beta, ASS1  -  argininosuccinate synthase 1, CYP2W1  -  cytochrome p450, family 2, subfamily w, polypeptide 1, VPS4A  -  vacuolar protein sorting 4 homolog a (s. cerevisiae), AACS  -  acetoacetyl-coa synthetase, GSK3B  -  glycogen synthase kinase 3 beta, GSPT1  -  g1 to s phase transition 1, LHX4  -  lim homeobox 4, GSR  -  glutathione reductase, GSS  -  glutathione synthetase, DUS2  -  dihydrouridine synthase 2, FARS2  -  phenylalanyl-trna synthetase 2, mitochondrial, RRAGA  -  ras-related gtp binding a, ATM  -  ataxia telangiectasia mutated, MAGI3  -  membrane associated guanylate kinase, ww and pdz domain containing 3, GNA13  -  guanine nucleotide binding protein (g protein), alpha 13, NMRK2  -  nicotinamide riboside kinase 2, GNMT  -  glycine n-methyltransferase, ATP1A1  -  atpase, na+/k+ transporting, alpha 1 polypeptide, ST8SIA2  -  st8 alpha-n-acetyl-neuraminide alpha-2,8-sialyltransferase 2, DPH6  -  diphthamine biosynthesis 6, ATP12A  -  atpase, h+/k+ transporting, nongastric, alpha polypeptide, MSH6  -  muts homolog 6 (e. coli), COLEC11  -  collectin sub-family member 11, SESN1  -  sestrin 1, GTF2F2  -  general transcription factor iif, polypeptide 2, 30kda, ATP2A3  -  atpase, ca++ transporting, ubiquitous, RND2  -  rho family gtpase 2, ATP2B1  -  atpase, ca++ transporting, plasma membrane 1, CCT8  -  chaperonin containing tcp1, subunit 8 (theta), ATP2B4  -  atpase, ca++ transporting, plasma membrane 4, CAMKV  -  cam kinase-like vesicle-associated, POLQ  -  polymerase (dna directed), theta, GUCY1A2  -  guanylate cyclase 1, soluble, alpha 2, TINAG  -  tubulointerstitial nephritis antigen, UCKL1  -  uridine-cytidine kinase 1-like 1, HAPLN3  -  hyaluronan and proteoglycan link protein 3, GUCY1A3  -  guanylate cyclase 1, soluble, alpha 3, YME1L1  -  yme1-like 1 atpase, GUCY1B3  -  guanylate cyclase 1, soluble, beta 3, GUCY2C  -  guanylate cyclase 2c (heat stable enterotoxin receptor), GUCY2F  -  guanylate cyclase 2f, retinal, GUK1  -  guanylate kinase 1, MKKS  -  mckusick-kaufman syndrome, ATP6V1A  -  atpase, h+ transporting, lysosomal 70kda, v1 subunit a, SPATA5L1  -  spermatogenesis associated 5-like 1, TTBK2  -  tau tubulin kinase 2, KIF7  -  kinesin family member 7, ATP6AP1  -  atpase, h+ transporting, lysosomal accessory protein 1, ATP7A  -  atpase, cu++ transporting, alpha polypeptide, PRKACB  -  protein kinase, camp-dependent, catalytic, beta, DDX54  -  dead (asp-glu-ala-asp) box polypeptide 54, MAP3K2  -  mitogen-activated protein kinase kinase kinase 2, ATP7B  -  atpase, cu++ transporting, beta polypeptide, RAB30  -  rab30, member ras oncogene family, ULK4  -  unc-51 like kinase 4, ATR  -  ataxia telangiectasia and rad3 related, SYN3  -  synapsin iii, ATRX  -  alpha thalassemia/mental retardation syndrome x-linked, PRKAR2A  -  protein kinase, camp-dependent, regulatory, type ii, alpha, GTPBP6  -  gtp binding protein 6 (putative), KIF1A  -  kinesin family member 1a, PRKAR2B  -  protein kinase, camp-dependent, regulatory, type ii, beta, ATP9B  -  atpase, class ii, type 9b, PRKCA  -  protein kinase c, alpha, PRKCB  -  protein kinase c, beta, PRKCD  -  protein kinase c, delta, PRKCE  -  protein kinase c, epsilon, RPS6KA6  -  ribosomal protein s6 kinase, 90kda, polypeptide 6, PRKCH  -  protein kinase c, eta, HBS1L  -  hbs1-like (s. cerevisiae), PKN2  -  protein kinase n2, PRKCQ  -  protein kinase c, theta, PRKCZ  -  protein kinase c, zeta, PRKDC  -  protein kinase, dna-activated, catalytic polypeptide, PRKG1  -  protein kinase, cgmp-dependent, type i, MAPK1  -  mitogen-activated protein kinase 1, HADH  -  hydroxyacyl-coa dehydrogenase, MAPK6  -  mitogen-activated protein kinase 6, TOR1B  -  torsin family 1, member b (torsin b), WDR77  -  wd repeat domain 77, NEK6  -  nima-related kinase 6, MAPK8  -  mitogen-activated protein kinase 8, MAPK11  -  mitogen-activated protein kinase 11, MAPK9  -  mitogen-activated protein kinase 9, MAPK10  -  mitogen-activated protein kinase 10, MAPK13  -  mitogen-activated protein kinase 13, MAP2K1  -  mitogen-activated protein kinase kinase 1, TOR2A  -  torsin family 2, member a, HBB  -  hemoglobin, beta, MAP2K6  -  mitogen-activated protein kinase kinase 6, EIF2AK2  -  eukaryotic translation initiation factor 2-alpha kinase 2, MOCOS  -  molybdenum cofactor sulfurase, DHX58  -  dexh (asp-glu-x-his) box polypeptide 58, ACOX3  -  acyl-coa oxidase 3, pristanoyl, HCK  -  hemopoietic cell kinase, HSPH1  -  heat shock 105kda/110kda protein 1, CDC7  -  cell division cycle 7, PRODH  -  proline dehydrogenase (oxidase) 1, HCN2  -  hyperpolarization activated cyclic nucleotide-gated potassium channel 2, BCR  -  breakpoint cluster region, BCS1L  -  bc1 (ubiquinol-cytochrome c reductase) synthesis-like, HDC  -  histidine decarboxylase, PRPS1  -  phosphoribosyl pyrophosphate synthetase 1, PRPS2  -  phosphoribosyl pyrophosphate synthetase 2, DHRS11  -  dehydrogenase/reductase (sdr family) member 11, FAM114A2  -  family with sequence similarity 114, member a2, AGRN  -  agrin, ADCK2  -  aarf domain containing kinase 2, BLK  -  b lymphoid tyrosine kinase, DHX57  -  deah (asp-glu-ala-asp/his) box polypeptide 57, FTCD  -  formimidoyltransferase cyclodeaminase, BLM  -  bloom syndrome, recq helicase-like, PSAP  -  prosaposin, CLPX  -  clpx caseinolytic peptidase x homolog (e. coli), PDE10A  -  phosphodiesterase 10a, HK2  -  hexokinase 2, ENTPD8  -  ectonucleoside triphosphate diphosphohydrolase 8, BMPR1A  -  bone morphogenetic protein receptor, type ia, PSKH1  -  protein serine kinase h1, BMPR2  -  bone morphogenetic protein receptor, type ii (serine/threonine kinase), ME3  -  malic enzyme 3, nadp(+)-dependent, mitochondrial, BRAF  -  v-raf murine sarcoma viral oncogene homolog b, PSMC1  -  proteasome (prosome, macropain) 26s subunit, atpase, 1, PSMC2  -  proteasome (prosome, macropain) 26s subunit, atpase, 2, PSMC3  -  proteasome (prosome, macropain) 26s subunit, atpase, 3, BSG  -  basigin (ok blood group), RAB10  -  rab10, member ras oncogene family, PSMC5  -  proteasome (prosome, macropain) 26s subunit, atpase, 5, FIGN  -  fidgetin, HLCS  -  holocarboxylase synthetase (biotin-(proprionyl-coa-carboxylase (atp-hydrolysing)) ligase), LYVE1  -  lymphatic vessel endothelial hyaluronan receptor 1, PIP4K2B  -  phosphatidylinositol-5-phosphate 4-kinase, type ii, beta, BTK  -  bruton agammaglobulinemia tyrosine kinase, ACBD5  -  acyl-coa binding domain containing 5, P4HA3  -  prolyl 4-hydroxylase, alpha polypeptide iii, PKDCC  -  protein kinase domain containing, cytoplasmic, BUB1  -  bub1 mitotic checkpoint serine/threonine kinase, MTPAP  -  mitochondrial poly(a) polymerase, HMGCL  -  3-hydroxymethyl-3-methylglutaryl-coa lyase, BUB1B  -  bub1 mitotic checkpoint serine/threonine kinase b, ULK1  -  unc-51 like autophagy activating kinase 1, TSPO  -  translocator protein (18kda), HMMR  -  hyaluronan-mediated motility receptor (rhamm), DARS2  -  aspartyl-trna synthetase 2, mitochondrial, PAPOLA  -  poly(a) polymerase alpha, ATP8B3  -  atpase, aminophospholipid transporter, class i, type 8b, member 3, HNF4A  -  hepatocyte nuclear factor 4, alpha, TDRD12  -  tudor domain containing 12, RAD54L  -  rad54-like (s. cerevisiae), PTK2  -  protein tyrosine kinase 2, DYRK3  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 3, DYRK2  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 2, PTK7  -  protein tyrosine kinase 7, TWF1  -  twinfilin actin-binding protein 1, HNRNPU  -  heterogeneous nuclear ribonucleoprotein u (scaffold attachment factor a), MPPED2  -  metallophosphoesterase domain containing 2, NEK9  -  nima-related kinase 9, NADSYN1  -  nad synthetase 1, STARD3  -  star-related lipid transfer (start) domain containing 3, MYLK3  -  myosin light chain kinase 3, QSOX1  -  quiescin q6 sulfhydryl oxidase 1, TTF2  -  transcription termination factor, rna polymerase ii, LMAN2  -  lectin, mannose-binding 2, CDC42BPA  -  cdc42 binding protein kinase alpha (dmpk-like), LEPREL1  -  leprecan-like 1, KSR2  -  kinase suppressor of ras 2, CACNA1B  -  calcium channel, voltage-dependent, n type, alpha 1b subunit, GATC  -  glutamyl-trna(gln) amidotransferase, subunit c, ASCC3  -  activating signal cointegrator 1 complex subunit 3, MAP4K3  -  mitogen-activated protein kinase kinase kinase kinase 3, RAB32  -  rab32, member ras oncogene family, ETNK2  -  ethanolamine kinase 2, NAT10  -  n-acetyltransferase 10 (gcn5-related), PANK4  -  pantothenate kinase 4, MTG1  -  mitochondrial ribosome-associated gtpase 1, ATP13A3  -  atpase type 13a3, CALB1  -  calbindin 1, 28kda, PDIK1L  -  pdlim1 interacting kinase 1 like, UBA6  -  ubiquitin-like modifier activating enzyme 6, OGFOD1  -  2-oxoglutarate and iron-dependent oxygenase domain containing 1, SLC27A4  -  solute carrier family 27 (fatty acid transporter), member 4, CARS2  -  cysteinyl-trna synthetase 2, mitochondrial (putative), HPGD  -  hydroxyprostaglandin dehydrogenase 15-(nad), ABCD4  -  atp-binding cassette, sub-family d (ald), member 4, KIF2C  -  kinesin family member 2c, ALDH18A1  -  aldehyde dehydrogenase 18 family, member a1, TLK2  -  tousled-like kinase 2, STRADA  -  ste20-related kinase adaptor alpha, TYW1  -  trna-yw synthesizing protein 1 homolog (s. cerevisiae), CAMK4  -  calcium/calmodulin-dependent protein kinase iv, PYGB  -  phosphorylase, glycogen; brain, CAMK2A  -  calcium/calmodulin-dependent protein kinase ii alpha, DGKZ  -  diacylglycerol kinase, zeta, CAMK2D  -  calcium/calmodulin-dependent protein kinase ii delta, DGKE  -  diacylglycerol kinase, epsilon 64kda, THNSL2  -  threonine synthase-like 2 (s. cerevisiae), CAMK2G  -  calcium/calmodulin-dependent protein kinase ii gamma, HRAS  -  harvey rat sarcoma viral oncogene homolog, DGKD  -  diacylglycerol kinase, delta 130kda, QDPR  -  quinoid dihydropteridine reductase, DDO  -  d-aspartate oxidase, ACSS3  -  acyl-coa synthetase short-chain family member 3, IFT27  -  intraflagellar transport 27 homolog (chlamydomonas), RAB35  -  rab35, member ras oncogene family, RAB3A  -  rab3a, member ras oncogene family, RAB4A  -  rab4a, member ras oncogene family, RAB31  -  rab31, member ras oncogene family, NKIRAS2  -  nfkb inhibitor interacting ras-like 2, AGPS  -  alkylglycerone phosphate synthase, ADAP1  -  arfgap with dual ph domains 1, NKIRAS1  -  nfkb inhibitor interacting ras-like 1, CARS  -  cysteinyl-trna synthetase, QRSL1  -  glutaminyl-trna synthase (glutamine-hydrolyzing)-like 1, PIM3  -  pim-3 oncogene, HSD11B1  -  hydroxysteroid (11-beta) dehydrogenase 1, HSD11B2  -  hydroxysteroid (11-beta) dehydrogenase 2, RAC1  -  ras-related c3 botulinum toxin substrate 1 (rho family, small gtp binding protein rac1), RAC2  -  ras-related c3 botulinum toxin substrate 2 (rho family, small gtp binding protein rac2), UBE2W  -  ubiquitin-conjugating enzyme e2w (putative), RAC3  -  ras-related c3 botulinum toxin substrate 3 (rho family, small gtp binding protein rac3), MAPKAPK5  -  mitogen-activated protein kinase-activated protein kinase 5, RHOT1  -  ras homolog family member t1, DNAJA1  -  dnaj (hsp40) homolog, subfamily a, member 1, CASR  -  calcium-sensing receptor, RAD51  -  rad51 recombinase, RAD51C  -  rad51 paralog c, CAT  -  catalase, AIFM3  -  apoptosis-inducing factor, mitochondrion-associated, 3, PANK3  -  pantothenate kinase 3, HSPA4  -  heat shock 70kda protein 4, CDK10  -  cyclin-dependent kinase 10, RAD51D  -  rad51 paralog d, DDX52  -  dead (asp-glu-ala-asp) box polypeptide 52, RUNX2  -  runt-related transcription factor 2, RAF1  -  v-raf-1 murine leukemia viral oncogene homolog 1, RUNX1  -  runt-related transcription factor 1, HELB  -  helicase (dna) b, HSPA8  -  heat shock 70kda protein 8, PI4K2B  -  phosphatidylinositol 4-kinase type 2 beta, HSPA9  -  heat shock 70kda protein 9 (mortalin), KMO  -  kynurenine 3-monooxygenase (kynurenine 3-hydroxylase), RALA  -  v-ral simian leukemia viral oncogene homolog a (ras related), RALB  -  v-ral simian leukemia viral oncogene homolog b, DUS4L  -  dihydrouridine synthase 4-like (s. cerevisiae), PDXK  -  pyridoxal (pyridoxine, vitamin b6) kinase, SPTLC3  -  serine palmitoyltransferase, long chain base subunit 3, RAN  -  ran, member ras oncogene family, MKNK1  -  map kinase interacting serine/threonine kinase 1, DYNC2H1  -  dynein, cytoplasmic 2, heavy chain 1, UBE2Q2  -  ubiquitin-conjugating enzyme e2q family member 2, RASL11A  -  ras-like, family 11, member a, CASK  -  calcium/calmodulin-dependent serine protein kinase (maguk family), MARS2  -  methionyl-trna synthetase 2, mitochondrial, RAPGEF4  -  rap guanine nucleotide exchange factor (gef) 4, RAP1B  -  rap1b, member of ras oncogene family, DHX40  -  deah (asp-glu-ala-his) box polypeptide 40, CBS  -  cystathionine-beta-synthase, HSPD1  -  heat shock 60kda protein 1 (chaperonin), STK16  -  serine/threonine kinase 16, NT5C1B  -  5'-nucleotidase, cytosolic ib, NLRX1  -  nlr family member x1, TTL  -  tubulin tyrosine ligase, ABCF3  -  atp-binding cassette, sub-family f (gcn20), member 3, OGFOD2  -  2-oxoglutarate and iron-dependent oxygenase domain containing 2, SMC6  -  structural maintenance of chromosomes 6, STEAP4  -  steap family member 4, RUVBL1  -  ruvb-like 1 (e. coli), LSG1  -  large 60s subunit nuclear export gtpase 1, CCT6A  -  chaperonin containing tcp1, subunit 6a (zeta 1), KATNA1  -  katanin p60 (atpase containing) subunit a 1, CHDH  -  choline dehydrogenase, OGFOD3  -  2-oxoglutarate and iron-dependent oxygenase domain containing 3, HIBADH  -  3-hydroxyisobutyrate dehydrogenase, CIT  -  citron (rho-interacting, serine/threonine kinase 21), LRRK1  -  leucine-rich repeat kinase 1, CDK13  -  cyclin-dependent kinase 13, NOL9  -  nucleolar protein 9, RBP2  -  retinol binding protein 2, cellular, IARS  -  isoleucyl-trna synthetase, RBP3  -  retinol binding protein 3, interstitial, RBP4  -  retinol binding protein 4, plasma, DNAH17  -  dynein, axonemal, heavy chain 17, KIF3A  -  kinesin family member 3a, RECQL  -  recq protein-like (dna helicase q1-like), TBCK  -  tbc1 domain containing kinase, GVINP1  -  gtpase, very large interferon inducible pseudogene 1, ABCB11  -  atp-binding cassette, sub-family b (mdr/tap), member 11, NARS2  -  asparaginyl-trna synthetase 2, mitochondrial (putative), DMC1  -  dna meiotic recombinase 1, UPF1  -  upf1 regulator of nonsense transcripts homolog (yeast), BBS10  -  bardet-biedl syndrome 10, RET  -  ret proto-oncogene, PDE5A  -  phosphodiesterase 5a, cgmp-specific, TTLL7  -  tubulin tyrosine ligase-like family, member 7, BVES  -  blood vessel epicardial substance, REV3L  -  rev3-like, polymerase (dna directed), zeta, catalytic subunit, RFC1  -  replication factor c (activator 1) 1, 145kda, RFC2  -  replication factor c (activator 1) 2, 40kda, STRADB  -  ste20-related kinase adaptor beta, SCARB2  -  scavenger receptor class b, member 2, FICD  -  fic domain containing, RFC4  -  replication factor c (activator 1) 4, 37kda, ENTPD1  -  ectonucleoside triphosphate diphosphohydrolase 1, ENTPD2  -  ectonucleoside triphosphate diphosphohydrolase 2, IDE  -  insulin-degrading enzyme, ADGB  -  androglobin, IDH1  -  isocitrate dehydrogenase 1 (nadp+), soluble, ENTPD3  -  ectonucleoside triphosphate diphosphohydrolase 3, RABL2A  -  rab, member of ras oncogene family-like 2a, NEK8  -  nima-related kinase 8, DNAJA4  -  dnaj (hsp40) homolog, subfamily a, member 4, ERLIN2  -  er lipid raft associated 2, CD44  -  cd44 molecule (indian blood group), NUDT6  -  nudix (nucleoside diphosphate linked moiety x)-type motif 6, EIF2AK4  -  eukaryotic translation initiation factor 2 alpha kinase 4, ETNK1  -  ethanolamine kinase 1, CHST12  -  carbohydrate (chondroitin 4) sulfotransferase 12, DDX43  -  dead (asp-glu-ala-asp) box polypeptide 43, CD81  -  cd81 molecule, RHEB  -  ras homolog enriched in brain, DHTKD1  -  dehydrogenase e1 and transketolase domain containing 1, MAP4K5  -  mitogen-activated protein kinase kinase kinase kinase 5, RERGL  -  rerg/ras-like, DNAH11  -  dynein, axonemal, heavy chain 11, RLBP1  -  retinaldehyde binding protein 1, CDC42  -  cell division cycle 42, ABCC3  -  atp-binding cassette, sub-family c (cftr/mrp), member 3, CHEK2  -  checkpoint kinase 2, DNAH3  -  dynein, axonemal, heavy chain 3, SBK1  -  sh3-binding domain kinase 1, RNASEL  -  ribonuclease l (2',5'-oligoisoadenylate synthetase-dependent), NEK10  -  nima-related kinase 10, IGF2R  -  insulin-like growth factor 2 receptor, STAB2  -  stabilin 2, DDX20  -  dead (asp-glu-ala-asp) box polypeptide 20, UBE2Q1  -  ubiquitin-conjugating enzyme e2q family member 1, RNGTT  -  rna guanylyltransferase and 5'-phosphatase, CDK3  -  cyclin-dependent kinase 3, BMP2K  -  bmp2 inducible kinase, CDK5  -  cyclin-dependent kinase 5, RIPK1  -  receptor (tnfrsf)-interacting serine-threonine kinase 1, CDK6  -  cyclin-dependent kinase 6, ABCE1  -  atp-binding cassette, sub-family e (oabp), member 1, CDK8  -  cyclin-dependent kinase 8, CDK9  -  cyclin-dependent kinase 9, OPN4  -  opsin 4, KIF21A  -  kinesin family member 21a, IGHMBP2  -  immunoglobulin mu binding protein 2, KIF16B  -  kinesin family member 16b, CDX1  -  caudal type homeobox 1, RAB11A  -  rab11a, member ras oncogene family, RIPK2  -  receptor-interacting serine-threonine kinase 2, RIOK3  -  rio kinase 3, ROCK1  -  rho-associated, coiled-coil containing protein kinase 1, EGLN3  -  egl-9 family hypoxia-inducible factor 3, CENPE  -  centromere protein e, 312kda, ROS1  -  c-ros oncogene 1 , receptor tyrosine kinase, CHD7  -  chromodomain helicase dna binding protein 7, RP2  -  retinitis pigmentosa 2 (x-linked recessive), UBA5  -  ubiquitin-like modifier activating enzyme 5, RAB20  -  rab20, member ras oncogene family, DCAKD  -  dephospho-coa kinase domain containing, IKBKB  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase beta, CFTR  -  cystic fibrosis transmembrane conductance regulator (atp-binding cassette sub-family c, member 7), SUCLG2  -  succinate-coa ligase, gdp-forming, beta subunit, SUCLG1  -  succinate-coa ligase, alpha subunit, PARK7  -  parkinson protein 7, SUCLA2  -  succinate-coa ligase, adp-forming, beta subunit, DDX27  -  dead (asp-glu-ala-asp) box polypeptide 27, GPN1  -  gpn-loop gtpase 1, DDX42  -  dead (asp-glu-ala-asp) box helicase 42, CDKL1  -  cyclin-dependent kinase-like 1 (cdc2-related kinase), MFN1  -  mitofusin 1, CHD2  -  chromodomain helicase dna binding protein 2, SCYL2  -  scy1-like 2 (s. cerevisiae), ATAD5  -  atpase family, aaa domain containing 5, CHD4  -  chromodomain helicase dna bin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ing protein 4, RABL6  -  rab, member ras oncogene family-like 6, TRMU  -  trna 5-methylaminomethyl-2-thiouridylate methyltransferase, TWF2  -  twinfilin actin-binding protein 2, GMPS  -  guanine monphosphate synthase, KIF12  -  kinesin family member 12, SLC46A1  -  solute carrier family 46 (folate transporter), member 1, CHKA  -  choline kinase alpha, IARS2  -  isoleucyl-trna synthetase 2, mitochondrial, POLR3B  -  polymerase (rna) iii (dna directed) polypeptide b, KSR1  -  kinase suppressor of ras 1, MRAS  -  muscle ras oncogene homolog, ABCA13  -  atp-binding cassette, sub-family a (abc1), member 13, HELQ  -  helicase, polq-like, ALDH1A2  -  aldehyde dehydrogenase 1 family, member a2, SDSL  -  serine dehydratase-like, IMPDH2  -  imp (inosine 5'-monophosphate) dehydrogenase 2, IMPG1  -  interphotoreceptor matrix proteoglycan 1, TSR1  -  tsr1, 20s rrna accumulation, homolog (s. cerevisiae), HSPA4L  -  heat shock 70kda protein 4-like, N4BP2  -  nedd4 binding protein 2, CKB  -  creatine kinase, brain, RPS6KA2  -  ribosomal protein s6 kinase, 90kda, polypeptide 2, RPS6KA3  -  ribosomal protein s6 kinase, 90kda, polypeptide 3, RPS6KB1  -  ribosomal protein s6 kinase, 70kda, polypeptide 1, HHAT  -  hedgehog acyltransferase, RPS6KB2  -  ribosomal protein s6 kinase, 70kda, polypeptide 2, SGPL1  -  sphingosine-1-phosphate lyase 1, TXNRD3  -  thioredoxin reductase 3, AAK1  -  ap2 associated kinase 1, CHFR  -  checkpoint with forkhead and ring finger domains, e3 ubiquitin protein ligase, DDX18  -  dead (asp-glu-ala-asp) box polypeptide 18, LMTK2  -  lemur tyrosine kinase 2, AGK  -  acylglycerol kinase, IRAK2  -  interleukin-1 receptor-associated kinase 2, OGDHL  -  oxoglutarate dehydrogenase-like, CLCN3  -  chloride channel, voltage-sensitive 3, CLCN4  -  chloride channel, voltage-sensitive 4, PRPF4B  -  prp4 pre-mrna processing factor 4 homolog b (yeast), CLCN5  -  chloride channel, voltage-sensitive 5, CLCN6  -  chloride channel, voltage-sensitive 6, CLCN7  -  chloride channel, voltage-sensitive 7, DHX32  -  deah (asp-glu-ala-his) box polypeptide 32, CLK2  -  cdc-like kinase 2, FOXRED2  -  fad-dependent oxidoreductase domain containing 2, CLK3  -  cdc-like kinase 3, RRM1  -  ribonucleotide reductase m1, MORC2  -  morc family cw-type zinc finger 2, CLN5  -  ceroid-lipofuscinosis, neuronal 5, PANK2  -  pantothenate kinase 2, RXRA  -  retinoid x receptor, alpha, CYGB  -  cytoglobin, MCMDC2  -  minichromosome maintenance domain containing 2, RPH3A  -  rabphilin 3a homolog (mouse), RYR2  -  ryanodine receptor 2 (cardiac), KYNU  -  kynureninase, EPHA6  -  eph receptor a6, ITK  -  il2-inducible t-cell kinase, ABCC2  -  atp-binding cassette, sub-family c (cftr/mrp), member 2, DHX30  -  deah (asp-glu-ala-his) box helicase 30, ITPK1  -  inositol-tetrakisphosphate 1-kinase, ADAP2  -  arfgap with dual ph domains 2, ITPKA  -  inositol-trisphosphate 3-kinase a, P4HA2  -  prolyl 4-hydroxylase, alpha polypeptide ii, ITPKB  -  inositol-trisphosphate 3-kinase b, ITPR1  -  inositol 1,4,5-trisphosphate receptor, type 1, AK8  -  adenylate kinase 8, ITPR2  -  inositol 1,4,5-trisphosphate receptor, type 2, RABL3  -  rab, member of ras oncogene family-like 3, CNGB1  -  cyclic nucleotide gated channel beta 1, ARL14  -  adp-ribosylation factor-like 14, IVD  -  isovaleryl-coa dehydrogenase, PIF1  -  pif1 5'-to-3' dna helicase, CNGA2  -  cyclic nucleotide gated channel alpha 2, MAP3K19  -  mitogen-activated protein kinase kinase kinase 19, TTLL11  -  tubulin tyrosine ligase-like family, member 11, JAK1  -  janus kinase 1, CNP  -  2',3'-cyclic nucleotide 3' phosphodiesterase, SEPHS1  -  selenophosphate synthetase 1, VPS11  -  vacuolar protein sorting 11 homolog (s. cerevisiae), KALRN  -  kalirin, rhogef kinase, CDKL2  -  cyclin-dependent kinase-like 2 (cdc2-related kinase), ACSM3  -  acyl-coa synthetase medium-chain family member 3, RPIA  -  ribose 5-phosphate isomerase a, MAPK12  -  mitogen-activated protein kinase 12, UXS1  -  udp-glucuronate decarboxylase 1, MAP3K14  -  mitogen-activated protein kinase kinase kinase 14, IYD  -  iodotyrosine deiodinase, OSBPL1A  -  oxysterol binding protein-like 1a, BRSK2  -  br serine/threonine kinase 2, CCT5  -  chaperonin containing tcp1, subunit 5 (epsilon), OSBPL6  -  oxysterol binding protein-like 6, OSBPL8  -  oxysterol binding protein-like 8, BAZ1B  -  bromodomain adjacent to zinc finger domain, 1b, UBA3  -  ubiquitin-like modifier activating enzyme 3, MYO19  -  myosin xix, NT5C2  -  5'-nucleotidase, cytosolic ii, KCNJ1  -  potassium inwardly-rectifying channel, subfamily j, member 1, BTAF1  -  btaf1 rna polymerase ii, b-tfiid transcription factor-associated, 170kda, SCN8A  -  sodium channel, voltage gated, type viii, alpha subunit, KCNJ8  -  potassium inwardly-rectifying channel, subfamily j, member 8, HKDC1  -  hexokinase domain containing 1, NUGGC  -  nuclear gtpase, germinal center associated, CHD9  -  chromodomain helicase dna binding protein 9, MB21D1  -  mab-21 domain containing 1, SCP2  -  sterol carrier protein 2, NT5C3B  -  5'-nucleotidase, cytosolic iiib, SRL  -  sarcalumenin, PAPSS1  -  3'-phosphoadenosine 5'-phosphosulfate synthase 1, MAP3K6  -  mitogen-activated protein kinase kinase kinase 6, ALPK1  -  alpha-kinase 1, MAP3K8  -  mitogen-activated protein kinase kinase kinase 8, RAB21  -  rab21, member ras oncogene family, ACSS2  -  acyl-coa synthetase short-chain family member 2, STK38L  -  serine/threonine kinase 38 like, KDR  -  kinase insert domain receptor (a type iii receptor tyrosine kinase), KIF2A  -  kinesin heavy chain member 2a, KIF3C  -  kinesin family member 3c, LANCL2  -  lanc lantibiotic synthetase component c-like 2 (bacterial), KIF5B  -  kinesin family member 5b, KIF5C  -  kinesin family member 5c, MYO16  -  myosin xvi, KIFC3  -  kinesin family member c3, DNAJA3  -  dnaj (hsp40) homolog, subfamily a, member 3, MAST3  -  microtubule associated serine/threonine kinase 3, MYO5C  -  myosin vc, MAP3K15  -  mitogen-activated protein kinase kinase kinase 15, KIT  -  v-kit hardy-zuckerman 4 feline sarcoma viral oncogene homolog, SDHA  -  succinate dehydrogenase complex, subunit a, flavoprotein (fp), PDXDC1  -  pyridoxal-dependent decarboxylase domain containing 1, ARL11  -  adp-ribosylation factor-like 11, TNIK  -  traf2 and nck interacting kinase, KIF21B  -  kinesin family member 21b, LATS1  -  large tumor suppressor kinase 1, SMG1  -  smg1 phosphatidylinositol 3-kinase-related kinase, CPS1  -  carbamoyl-phosphate synthase 1, mitochondrial, DGKH  -  diacylglycerol kinase, eta, NMNAT2  -  nicotinamide nucleotide adenylyltransferase 2, KIF11  -  kinesin family member 11, SELE  -  selectin e, KIF25  -  kinesin family member 25, SMC3  -  structural maintenance of chromosomes 3, SETX  -  senataxin, P2RX6  -  purinergic receptor p2x, ligand-gated ion channel, 6, GTPBP8  -  gtp-binding protein 8 (putative), AIFM1  -  apoptosis-inducing factor, mitochondrion-associated, 1, KRAS  -  kirsten rat sarcoma viral oncogene homolog, UBE2T  -  ubiquitin-conjugating enzyme e2t (putative), SWAP70  -  swap switching b-cell complex 70kda subunit, VWA8  -  von willebrand factor a domain containing 8, COASY  -  coa synthase, CRY1  -  cryptochrome 1 (photolyase-like), TTLL5  -  tubulin tyrosine ligase-like family, member 5, CRY2  -  cryptochrome 2 (photolyase-like), KIF1B  -  kinesin family member 1b, TBK1  -  tank-binding kinase 1, DGKI  -  diacylglycerol kinase, iota, RBP7  -  retinol binding protein 7, cellular, SGK1  -  serum/glucocorticoid regulated kinase 1, ACAD10  -  acyl-coa dehydrogenase family, member 10, CUL9  -  cullin 9, RAB39B  -  rab39b, member ras oncogene family, CRYM  -  crystallin, mu, MAP3K13  -  mitogen-activated protein kinase kinase kinase 13, CRYZ  -  crystallin, zeta (quinone reductase), UHRF1  -  ubiquitin-like with phd and ring finger domains 1, MAPK14  -  mitogen-activated protein kinase 14, ATP10B  -  atpase, class v, type 10b, AARSD1  -  alanyl-trna synthetase domain containing 1, RAD54L2  -  rad54-like 2 (s. cerevisiae), SHMT1  -  serine hydroxymethyltransferase 1 (soluble), TEX14  -  testis expressed 14, CSK  -  c-src tyrosine kinase, MAST2  -  microtubule associated serine/threonine kinase 2, STARD5  -  star-related lipid transfer (start) domain containing 5, DCLK1  -  doublecortin-like kinase 1, CSNK1A1  -  casein kinase 1, alpha 1, HSPA12B  -  heat shock 70kd protein 12b, CSNK1E  -  casein kinase 1, epsilon, OLA1  -  obg-like atpase 1, CSNK1G2  -  casein kinase 1, gamma 2, STK31  -  serine/threonine kinase 31, CSNK2A1  -  casein kinase 2, alpha 1 polypeptide, DNAH7  -  dynein, axonemal, heavy chain 7, LBR  -  lamin b receptor, XPR1  -  xenotropic and polytropic retrovirus receptor 1, LDHA  -  lactate dehydrogenase a, STAB1  -  stabilin 1, AGAP1  -  arfgap with gtpase domain, ankyrin repeat and ph domain 1, MAGI1  -  membrane associated guanylate kinase, ww and pdz domain containing 1, AGAP3  -  arfgap with gtpase domain, ankyrin repeat and ph domain 3, TTLL12  -  tubulin tyrosine ligase-like family, member 12, GPD1L  -  glycerol-3-phosphate dehydrogenase 1-like, GNL2  -  guanine nucleotide binding protein-like 2 (nucleolar), PASK  -  pas domain containing serine/threonine kinase, GPSM2  -  g-protein signaling modulator 2, CTBP1  -  c-terminal binding protein 1, SLC2A3  -  solute carrier family 2 (facilitated glucose transporter), member 3, CTBP2  -  c-terminal binding protein 2, SLC2A5  -  solute carrier family 2 (facilitated glucose/fructose transporter), member 5, EEF2K  -  eukaryotic elongation factor-2 kinase, HFM1  -  hfm1, atp-dependent dna helicase homolog (s. cerevisiae), CTH  -  cystathionase (cystathionine gamma-lyase), DHRS3  -  dehydrogenase/reductase (sdr family) member 3, RPS6KA5  -  ribosomal protein s6 kinase, 90kda, polypeptide 5, MFHAS1  -  malignant fibrous histiocytoma amplified sequence 1, LIG3  -  ligase iii, dna, atp-dependent, LIG4  -  ligase iv, dna, atp-dependent, TTLL9  -  tubulin tyrosine ligase-like family, member 9, MDN1  -  mdn1, midasin homolog (yeast), MAPKAPK2  -  mitogen-activated protein kinase-activated protein kinase 2, NME7  -  nme/nm23 family member 7, STK17A  -  serine/threonine kinase 17a, COLEC12  -  collectin sub-family member 12, LIMK2  -  lim domain kinase 2, CTPS2  -  ctp synthase 2, ATP11B  -  atpase, class vi, type 11b, IP6K3  -  inositol hexakisphosphate kinase 3, ACSBG1  -  acyl-coa synthetase bubblegum family member 1, CYP26B1  -  cytochrome p450, family 26, subfamily b, polypeptide 1, ATP11C  -  atpase, class vi, type 11c, RHOBTB2  -  rho-related btb domain containing 2, SBK2  -  sh3-binding domain kinase family, member 2, PLCL2  -  phospholipase c-like 2, BBS12  -  bardet-biedl syndrome 12, DCLK2  -  doublecortin-like kinase 2, NRBP1  -  nuclear receptor binding protein 1, SIK2  -  salt-inducible kinase 2, CYP1B1  -  cytochrome p450, family 1, subfamily b, polypeptide 1, SLC19A1  -  solute carrier family 19 (folate transporter), member 1, TRIP13  -  thyroid hormone receptor interactor 13, ATP11A  -  atpase, class vi, type 11a, SLC2A8  -  solute carrier family 2 (facilitated glucose transporter), member 8, SLC22A4  -  solute carrier family 22 (organic cation/zwitterion transporter), member 4, CYP4B1  -  cytochrome p450, family 4, subfamily b, polypeptide 1, EFTUD2  -  elongation factor tu gtp binding domain containing 2, CYP8B1  -  cytochrome p450, family 8, subfamily b, polypeptide 1, CYP17A1  -  cytochrome p450, family 17, subfamily a, polypeptide 1, CYP19A1  -  cytochrome p450, family 19, subfamily a, polypeptide 1, LONP1  -  lon peptidase 1, mitochondrial, WRNIP1  -  werner helicase interacting protein 1, RAB28  -  rab28, member ras oncogene family, KL  -  klotho, RAB9A  -  rab9a, member ras oncogene family, ADIPOQ  -  adiponectin, c1q and collagen domain containing, DGKB  -  diacylglycerol kinase, beta 90kda, KIF3B  -  kinesin family member 3b, KIF13B  -  kinesin family member 13b, EHD4  -  eh-domain containing 4, UBR2  -  ubiquitin protein ligase e3 component n-recognin 2, EHD3  -  eh-domain containing 3, ACSL6  -  acyl-coa synthetase long-chain family member 6, CYP2R1  -  cytochrome p450, family 2, subfamily r, polypeptide 1, SMARCAD1  -  swi/snf-related, matrix-associated actin-dependent regulator of chromatin, subfamily a, containing dead/h box 1, PIK3R4  -  phosphoinositide-3-kinase, regulatory subunit 4, DHX33  -  deah (asp-glu-ala-his) box polypeptide 33, DBH  -  dopamine beta-hydroxylase (dopamine beta-monooxygenase), MCCC1  -  methylcrotonoyl-coa carboxylase 1 (alpha), NMUR2  -  neuromedin u receptor 2, ZBTB21  -  zinc finger and btb domain containing 21, PAK6  -  p21 protein (cdc42/rac)-activated kinase 6, DBT  -  dihydrolipoamide branched chain transacylase e2, SMARCAL1  -  swi/snf related, matrix associated, actin dependent regulator of chromatin, subfamily a-like 1, SOAT1  -  sterol o-acyltransferase 1, DUS3L  -  dihydrouridine synthase 3-like (s. cerevisiae), SOD2  -  superoxide dismutase 2, mitochondrial, DDX51  -  dead (asp-glu-ala-asp) box polypeptide 51, RECQL5  -  recq protein-like 5, DHX36  -  deah (asp-glu-ala-his) box polypeptide 36, MAK  -  male germ cell-associated kinase, NOX4  -  nadph oxidase 4, SORD  -  sorbitol dehydrogenase, LRRK2  -  leucine-rich repeat kinase 2, DDC  -  dopa decarboxylase (aromatic l-amino acid decarboxylase), MAOB  -  monoamine oxidase b, SMCHD1  -  structural maintenance of chromosomes flexible hinge domain containing 1, DDX1  -  dead (asp-glu-ala-asp) box helicase 1, PRTFDC1  -  phosphoribosyl transferase domain containing 1, DDX3X  -  dead (asp-glu-ala-asp) box helicase 3, x-linked, NT5M  -  5',3'-nucleotidase, mitochondrial, DDX5  -  dead (asp-glu-ala-asp) box helicase 5, MARK1  -  map/microtubule affinity-regulating kinase 1, DHX8  -  deah (asp-glu-ala-his) box polypeptide 8, MARK3  -  map/microtubule affinity-regulating kinase 3, SPAG1  -  sperm associated antigen 1, DDX10  -  dead (asp-glu-ala-asp) box polypeptide 10, MAT1A  -  methionine adenosyltransferase i, alpha, DDX11  -  dead/h (asp-glu-ala-asp/his) box helicase 11, DHX15  -  deah (asp-glu-ala-his) box helicase 15, ABCG2  -  atp-binding cassette, sub-family g (white), member 2, DECR1  -  2,4-dienoyl coa reductase 1, mitochondrial, PNPLA8  -  patatin-like phospholipase domain containing 8, SPAST  -  spastin, FAM20C  -  family with sequence similarity 20, member c, SPG7  -  spastic paraplegia 7 (pure and complicated autosomal recessive), MB  -  myoglobin, ITM2B  -  integral membrane protein 2b, SPR  -  sepiapterin reductase (7,8-dihydrobiopterin:nadp+ oxidoreductase), KIF15  -  kinesin family member 15, EIF2AK3  -  eukaryotic translation initiation factor 2-alpha kinase 3, SIK3  -  sik family kinase 3, MCM2  -  minichromosome maintenance complex component 2, MCM3  -  minichromosome maintenance complex component 3, MCM4  -  minichromosome maintenance complex component 4, LARS2  -  leucyl-trna synthetase 2, mitochondrial, MCM5  -  minichromosome maintenance complex component 5, PIP5K1C  -  phosphatidylinositol-4-phosphate 5-kinase, type i, gamma, AKAP7  -  a kinase (prka) anchor protein 7, ATP13A2  -  atpase type 13a2, DHCR24  -  24-dehydrocholesterol reductase, SQLE  -  squalene epoxidase, SRC  -  v-src avian sarcoma (schmidt-ruppin a-2) viral oncogene homolog, SRD5A1  -  steroid-5-alpha-reductase, alpha polypeptide 1 (3-oxo-5 alpha-steroid delta 4-dehydrogenase alpha 1), DICER1  -  dicer 1, ribonuclease type iii, CYB5R3  -  cytochrome b5 reductase 3, ROCK2  -  rho-associated, coiled-coil containing protein kinase 2, SIRT4  -  sirtuin 4, LMAN2L  -  lectin, mannose-binding 2-like, SIRT3  -  sirtuin 3, TDRD9  -  tudor domain containing 9, SRMS  -  src-related kinase lacking c-terminal regulatory tyrosine and n-terminal myristylation sites, RARS2  -  arginyl-trna synthetase 2, mitochondrial, AK7  -  adenylate kinase 7, SRP54  -  signal recognition particle 54kda, DLD  -  dihydrolipoamide dehydrogenase, PGS1  -  phosphatidylglycerophosphate synthase 1, SRPK1  -  srsf protein kinase 1, SRPK2  -  srsf protein kinase 2, IMPG2  -  interphotoreceptor matrix proteoglycan 2, KIF23  -  kinesin family member 23, RHOV  -  ras homolog family member v, MAP3K3  -  mitogen-activated protein kinase kinase kinase 3, DDX24  -  dead (asp-glu-ala-asp) box helicase 24, MAP3K4  -  mitogen-activated protein kinase kinase kinase 4, RAB8A  -  rab8a, member ras oncogene family, DNM1  -  dynamin 1, DNA2  -  dna replication helicase/nuclease 2, MET  -  met proto-oncogene, DNAH5  -  dynein, axonemal, heavy chain 5, SPTLC2  -  serine palmitoyltransferase, long chain base subunit 2, DNAH8  -  dynein, axonemal, heavy chain 8, DNAH9  -  dynein, axonemal, heavy chain 9, ABCB10  -  atp-binding cassette, sub-family b (mdr/tap), member 10, ABCB9  -  atp-binding cassette, sub-family b (mdr/tap), member 9, VPS4B  -  vacuolar protein sorting 4 homolog b (s. cerevisiae), DYNC1H1  -  dynein, cytoplasmic 1, heavy chain 1, ABCA6  -  atp-binding cassette, sub-family a (abc1), member 6, ST13  -  suppression of tumorigenicity 13 (colon carcinoma) (hsp70 interacting protein), ABCA5  -  atp-binding cassette, sub-family a (abc1), member 5, DYNC1LI2  -  dynein, cytoplasmic 1, light intermediate chain 2, BAG5  -  bcl2-associated athanogene 5, COQ6  -  coenzyme q6 monooxygenase, GCAT  -  glycine c-acetyltransferase, STAR  -  steroidogenic acute regulatory protein, BAG4  -  bcl2-associated athanogene 4, BAG3  -  bcl2-associated athanogene 3, CAMK1D  -  calcium/calmodulin-dependent protein kinase id, TP53I3  -  tumor protein p53 inducible protein 3, RAB37  -  rab37, member ras oncogene family, CIITA  -  class ii, major histocompatibility complex, transactivator, MMAB  -  methylmalonic aciduria (cobalamin deficiency) cblb type, NUAK2  -  nuak family, snf1-like kinase, 2, HSPA13  -  heat shock protein 70kda family, member 13, NEK4  -  nima-related kinase 4, STK3  -  serine/threonine kinase 3, STK4  -  serine/threonine kinase 4, DPYD  -  dihydropyrimidine dehydrogenase, DPYS  -  dihydropyrimidinase, CDKL5  -  cyclin-dependent kinase-like 5, STK10  -  serine/threonine kinase 10, STK11  -  serine/threonine kinase 11, CHD1L  -  chromodomain helicase dna binding protein 1-like, ADCK1  -  aarf domain containing kinase 1, PAK7  -  p21 protein (cdc42/rac)-activated kinase 7, SCYL3  -  scy1-like 3 (s. cerevisiae), MKI67  -  antigen identified by monoclonal antibody ki-67, H6PD  -  hexose-6-phosphate dehydrogenase (glucose 1-dehydrogenase), GTPBP1  -  gtp binding protein 1, MLH1  -  mutl homolog 1, colon cancer, nonpolyposis type 2 (e. coli), MAP3K9  -  mitogen-activated protein kinase kinase kinase 9, DRG2  -  developmentally regulated gtp binding protein 2, ATL1  -  atlastin gtpase 1, KIF20B  -  kinesin family member 20b, SUPV3L1  -  suppressor of var1, 3-like 1 (s. cerevisiae), CAMK1G  -  calcium/calmodulin-dependent protein kinase ig, EARS2  -  glutamyl-trna synthetase 2, mitochondrial, ABCC8  -  atp-binding cassette, sub-family c (cftr/mrp), member 8, DNAH10  -  dynein, axonemal, heavy chain 10, ACTR3B  -  arp3 actin-related protein 3 homolog b (yeast), KIF18A  -  kinesin family member 18a, CRYL1  -  crystallin, lambda 1, RAB36  -  rab36, member ras oncogene family, TNNI3K  -  tnni3 interacting kinase, SYN2  -  synapsin ii, ATP10A  -  atpase, class v, type 10a, ATP8B2  -  atpase, aminophospholipid transporter, class i, type 8b, member 2, ATP10D  -  atpase, class v, type 10d, RASD2  -  rasd family, member 2, MOCS1  -  molybdenum cofactor synthesis 1, ABCG1  -  atp-binding cassette, sub-family g (white), member 1, DYRK1A  -  dual-specificity tyrosine-(y)-phosphorylation regulated kinase 1a, TRNT1  -  trna nucleotidyl transferase, cca-adding, 1, MOS  -  v-mos moloney murine sarcoma viral oncogene homolog, MOV10  -  mov10, moloney leukemia virus 10, homolog (mouse), GTPBP4  -  gtp binding protein 4, TAF1  -  taf1 rna polymerase ii, tata box binding protein (tbp)-associated factor, 250kda, MRC1  -  mannose receptor, c type 1, DDAH1  -  dimethylarginine dimethylaminohydrolase 1, ABCC1  -  atp-binding cassette, sub-family c (cftr/mrp), member 1, MLKL  -  mixed lineage kinase domain-like, IKBKE  -  inhibitor of kappa light polypeptide gene enhancer in b-cells, kinase epsilon, DDX59  -  dead (asp-glu-ala-asp) box polypeptide 59, ACSF3  -  acyl-coa synthetase family member 3, MICAL2  -  microtubule associated monooxygenase, calponin and lim domain containing 2, MAP3K7  -  mitogen-activated protein kinase kinase kinase 7, NLRC3  -  nlr family, card domain containing 3, TALDO1  -  transaldolase 1, TTLL4  -  tubulin tyrosine ligase-like family, member 4, OPN3  -  opsin 3, UCK1  -  uridine-cytidine kinase 1, TAT  -  tyrosine aminotransferase, RHOJ  -  ras homolog family member j, IRAK4  -  interleukin-1 receptor-associated kinase 4, CLK4  -  cdc-like kinase 4, EEF1A2  -  eukaryotic translation elongation factor 1 alpha 2, EIF5B  -  eukaryotic translation initiation factor 5b, RAB22A  -  rab22a, member ras oncogene family, DYNC1LI1  -  dynein, cytoplasmic 1, light intermediate chain 1, FFAR4  -  free fatty acid receptor 4, PPIP5K1  -  diphosphoinositol pentakisphosphate kinase 1, SPO11  -  spo11 meiotic protein covalently bound to dsb, MYO1B  -  myosin ib, AADAT  -  aminoadipate aminotransferase, RAPGEF2  -  rap guanine nucleotide exchange factor (gef) 2, MYO15A  -  myosin xva, MSH2  -  muts homolog 2, colon cancer, nonpolyposis type 1 (e. coli), MSH4  -  muts homolog 4 (e. coli), TUBD1  -  tubulin, delta 1, MSH5  -  muts homolog 5 (e. coli), HAO2  -  hydroxyacid oxidase 2 (long chain), HSPA14  -  heat shock 70kda protein 14, EIF2S3  -  eukaryotic translation initiation factor 2, subunit 3 gamma, 52kda, GPN3  -  gpn-loop gtpase 3, EPHA2  -  eph receptor a2, ULK2  -  unc-51 like autophagy activating kinase 2, TCP1  -  t-complex 1, GRAMD1B  -  gram domain containing 1b, AQR  -  aquarius homolog (mouse), EIF4G1  -  eukaryotic translation initiation factor 4 gamma, 1, EIF5  -  eukaryotic translation initiation factor 5, NIN  -  ninein (gsk3b interacting protein), APLF  -  aprataxin and pnkp like factor, DDX47  -  dead (asp-glu-ala-asp) box polypeptide 47, RIOK1  -  rio kinase 1, PIKFYVE  -  phosphoinositide kinase, fyve finger containing, SGK3  -  serum/glucocorticoid regulated kinase family, member 3, RIMKLB  -  ribosomal modification protein rimk-like family member b, VPRBP  -  vpr (hiv-1) binding protein, LONP2  -  lon peptidase 2, peroxisomal, ARL13B  -  adp-ribosylation factor-like 13b, AARS2  -  alanyl-trna synthetase 2, mitochondrial, RBP5  -  retinol binding protein 5, cellular, MTHFD1  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1, methenyltetrahydrofolate cyclohydrolase, formyltetrahydrofolate synthetase, VRK3  -  vaccinia related kinase 3, MTHFR  -  methylenetetrahydrofolate reductase (nad(p)h), MTIF2  -  mitochondrial translational initiation factor 2, SLK  -  ste20-like kinase, STARD9  -  star-related lipid transfer (start) domain containing 9, SHPK  -  sedoheptulokinase, WEE2  -  wee1 homolog 2 (s. pombe), NT5C3A  -  5'-nucleotidase, cytosolic iiia, TDG  -  thymine-dna glycosylase, MTR  -  5-methyltetrahydrofolate-homocysteine methyltransferase, TDO2  -  tryptophan 2,3-dioxygenase, MTRR  -  5-methyltetrahydrofolate-homocysteine methyltransferase reductase, ALPK3  -  alpha-kinase 3, EPB42  -  erythrocyte membrane protein band 4.2, RAB12  -  rab12, member ras oncogene family, EIF4A3  -  eukaryotic translation initiation factor 4a3, EPHA1  -  eph receptor a1, EPHA3  -  eph receptor a3, EPHA4  -  eph receptor a4, KIAA0232  -  kiaa0232, EPHA5  -  eph receptor a5, OSBP2  -  oxysterol binding protein 2, EPHA7  -  eph receptor a7, EPHA8  -  eph receptor a8, TESK1  -  testis-specific kinase 1, TAOK1  -  tao kinase 1, DNAJC27  -  dnaj (hsp40) homolog, subfamily c, member 27, EPHB1  -  eph receptor b1, EPHB2  -  eph receptor b2, MICAL3  -  microtubule associated monooxygenase, calponin and lim domain containing 3, EPHB3  -  eph receptor b3, DHX38  -  deah (asp-glu-ala-his) box polypeptide 38, RASL12  -  ras-like, family 12, NR2F2  -  nuclear receptor subfamily 2, group f, member 2, BMS1  -  bms1 ribosome biogenesis factor, EPRS  -  glutamyl-prolyl-trna synthetase, GSG2  -  germ cell associated 2 (haspin), STARD3NL  -  stard3 n-terminal like, ERBB4  -  v-erb-b2 avian erythroblastic leukemia viral oncogene homolog 4, STK40  -  serine/threonine kinase 40, KIF4A  -  kinesin family member 4a, MVK  -  mevalonate kinase, MX1  -  myxovirus (influenza virus) resistance 1, interferon-inducible protein p78 (mouse), IP6K1  -  inositol hexakisphosphate kinase 1, ERCC3  -  excision repair cross-complementing rodent repair deficiency, complementation group 3, ERCC6  -  excision repair cross-complementing rodent repair deficiency, complementation group 6, TSSK1B  -  testis-specific serine kinase 1b, TGFBR2  -  transforming growth factor, beta receptor ii (70/80kda), STK32A  -  serine/threonine kinase 32a, CYP27C1  -  cytochrome p450, family 27, subfamily c, polypeptide 1, ERN1  -  endoplasmic reticulum to nucleus signaling 1, TH  -  tyrosine hydroxylase, SYT2  -  synaptotagmin ii, BRIP1  -  brca1 interacting protein c-terminal helicase 1, DSTYK  -  dual serine/threonine and tyrosine protein kinase, MYH4  -  myosin, heavy chain 4, skeletal muscle, MYH6  -  myosin, heavy chain 6, cardiac muscle, alpha, ETFA  -  electron-transfer-flavoprotein, alpha polypeptide, MELK  -  maternal embryonic leucine zipper kinase, OBSCN  -  obscurin, cytoskeletal calmodulin and titin-interacting rhogef, ETFDH  -  electron-transferring-flavoprotein dehydrogenase, MYH9  -  myosin, heavy chain 9, non-muscle, MYH10  -  myosin, heavy chain 10, non-muscle, RAD54B  -  rad54 homolog b (s. cerevisiae), MYH11  -  myosin, heavy chain 11, smooth muscle, KATNAL1  -  katanin p60 subunit a-like 1, GADL1  -  glutamate decarboxylase-like 1, MYLK  -  myosin light chain kinase, TAOK3  -  tao kinase 3, MYO1C  -  myosin ic, TK2  -  thymidine kinase 2, mitochondrial, MYO1D  -  myosin id, MYO1E  -  myosin ie, TKT  -  transketolase, MYO5A  -  myosin va (heavy chain 12, myoxin), MYO6  -  myosin vi, MYO7A  -  myosin viia, TTLL1  -  tubulin tyrosine ligase-like family, member 1, EP400  -  e1a binding protein p400, MYO9A  -  myosin ixa, CHST15  -  carbohydrate (n-acetylgalactosamine 4-sulfate 6-o) sulfotransferase 15, MYO9B  -  myosin ixb, MYO10  -  myosin x, MYH7B  -  myosin, heavy chain 7b, cardiac muscle, beta, DHX37  -  deah (asp-glu-ala-his) box polypeptide 37, ZRANB3  -  zinc finger, ran-binding domain containing 3, MTO1  -  mitochondrial trna translation optimization 1, HIPK1  -  homeodomain interacting protein kinase 1, DDX46  -  dead (asp-glu-ala-asp) box polypeptide 46, ARL6  -  adp-ribosylation factor-like 6, MYLK4  -  myosin light chain kinase family, member 4, OSBPL2  -  oxysterol binding protein-like 2, RHOBTB1  -  rho-related btb domain containing 1, FABP1  -  fatty acid binding protein 1, liver, FABP2  -  fatty acid binding protein 2, intestinal, FABP3  -  fatty acid binding protein 3, muscle and heart (mammary-derived growth inhibitor), FABP5  -  fatty acid binding protein 5 (psoriasis-associated), PRKAG2  -  protein kinase, amp-activated, gamma 2 non-catalytic subunit, ACAD11  -  acyl-coa dehydrogenase family, member 11, ACSL1  -  acyl-coa synthetase long-chain family member 1, DDX41  -  dead (asp-glu-ala-asp) box polypeptide 41, ACSL3  -  acyl-coa synthetase long-chain family member 3, ACSL4  -  acyl-coa synthetase long-chain family member 4, MYO18A  -  myosin xviiia, PTK2B  -  protein tyrosine kinase 2 beta, DDX55  -  dead (asp-glu-ala-asp) box polypeptide 55, FANCM  -  fanconi anemia, complementation group m, FASN  -  fatty acid synthase, IP6K2  -  inositol hexakisphosphate kinase 2, NRBP2  -  nuclear receptor binding protein 2, ATP2C2  -  atpase, ca++ transporting, type 2c, member 2, FAM20B  -  family with sequence similarity 20, member b, NLRC5  -  nlr family, card domain containing 5, TOP1  -  topoisomerase (dna) i, POLR1B  -  polymerase (rna) i polypeptide b, 128kda, TOP2A  -  topoisomerase (dna) ii alpha 170kda, TOP2B  -  topoisomerase (dna) ii beta 180kda, MFN2  -  mitofusin 2, KIF14  -  kinesin family member 14, CHD6  -  chromodomain helicase dna binding protein 6, HELZ  -  helicase with zinc finger, MTHFD1L  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1-like, RTCB  -  rna 2',3'-cyclic phosphate and 5'-oh ligase, XYLB  -  xylulokinase homolog (h. influenzae), DRG1  -  developmentally regulated gtp binding protein 1, CRYZL1  -  crystallin, zeta (quinone reductase)-like 1, CMPK2  -  cytidine monophosphate (ump-cmp) kinase 2, mitochondrial, LARS  -  leucyl-trna synthetase, CXXC5  -  cxxc finger protein 5, NEK1  -  nima-related kinase 1, HSP90B1  -  heat shock protein 90kda beta (grp94), member 1, NEK2  -  nima-related kinase 2, NEK3  -  nima-related kinase 3, RAB40C  -  rab40c, member ras oncogene family, SAMHD1  -  sam domain and hd domain 1, THRAP3  -  thyroid hormone receptor associated protein 3, NR1H4  -  nuclear receptor subfamily 1, group h, member 4, RAP2C  -  rap2c, member of ras oncogene family, SIRT6  -  sirtuin 6, TRIO  -  trio rho guanine nucleotide exchange factor, FGFR1  -  fibroblast growth factor receptor 1, FGFR3  -  fibroblast growth factor receptor 3, ACVR1C  -  activin a receptor, type ic, CAMKK1  -  calcium/calmodulin-dependent protein kinase kinase 1, alpha, FGFR2  -  fibroblast growth factor receptor 2, FGFR4  -  fibroblast growth factor receptor 4, FHIT  -  fragile histidine triad, PARS2  -  prolyl-trna synthetase 2, mitochondrial (putative), MMACHC  -  methylmalonic aciduria (cobalamin deficiency) cblc type, with homocystinuria, TRPC1  -  transient receptor potential cation channel, subfamily c, member 1, TRPC3  -  transient receptor potential cation channel, subfamily c, member 3, AKT3  -  v-akt murine thymoma viral oncogene homolog 3, TRPC4  -  transient receptor potential cation channel, subfamily c, member 4, CKMT1A  -  creatine kinase, mitochondrial 1a, FKBP1B  -  fk506 binding protein 1b, 12.6 kda, TRPC6  -  transient receptor potential cation channel, subfamily c, member 6, DNAH1  -  dynein, axonemal, heavy chain 1, NOA1  -  nitric oxide associated 1, RHOU  -  ras homolog family member u, ULK3  -  unc-51 like kinase 3, ZBTB33  -  zinc finger and btb domain containing 33, NEK5  -  nima-related kinase 5, NTPCR  -  nucleoside-triphosphatase, cancer-related, NME4  -  nme/nm23 nucleoside diphosphate kinase 4, NQO2  -  nad(p)h dehydrogenase, quinone 2, ACOT11  -  acyl-coa thioesterase 11, OSBPL3  -  oxysterol binding protein-like 3, SUSD5  -  sushi domain containing 5, NOS1  -  nitric oxide synthase 1 (neuronal), NOS2  -  nitric oxide synthase 2, inducible, FLT1  -  fms-related tyrosine kinase 1, FLT3  -  fms-related tyrosine kinase 3, FLT4  -  fms-related tyrosine kinase 4, RASD1  -  ras, dexamethasone-induced 1, SMC4  -  structural maintenance of chromosomes 4, RRAGD  -  ras-related gtp binding d, TTK  -  ttk protein kinase, TTN  -  titin, FMO3  -  flavin containing monooxygenase 3, GRK7  -  g protein-coupled receptor kinase 7, TTPA  -  tocopherol (alpha) transfer protein, UBA2  -  ubiquitin-like modifier activating enzyme 2, FMO5  -  flavin containing monooxygenase 5, FARSB  -  phenylalanyl-trna synthetase, beta subunit, ABCC5  -  atp-binding cassette, sub-family c (cftr/mrp), member 5, ABCB6  -  atp-binding cassette, sub-family b (mdr/tap), member 6, GIMD1  -  gimap family p-loop ntpase domain containing 1, DNM1L  -  dynamin 1-like, PNP  -  purine nucleoside phosphorylase, TUBG1  -  tubulin, gamma 1, DNM3  -  dynamin 3, NPC1  -  niemann-pick disease, type c1, GLYCTK  -  glycerate kinase, HACL1  -  2-hydroxyacyl-coa lyase 1, CYB5R2  -  cytochrome b5 reductase 2, NLK  -  nemo-like kinase, TYMS  -  thymidylate synthetase, ALKBH3  -  alkb, alkylation repair homolog 3 (e. coli), ACSL5  -  acyl-coa synthetase long-chain family member 5, ATP9A  -  atpase, class ii, type 9a, TYRO3  -  tyro3 protein tyrosine kinase, NPR2  -  natriuretic peptide receptor b/guanylate cyclase b (atrionatriuretic peptide receptor b), RAB23  -  rab23, member ras oncogene family, TRPV4  -  transient receptor potential cation channel, subfamily v, member 4, CMPK1  -  cytidine monophosphate (ump-cmp) kinase 1, cytosolic, AK9  -  adenylate kinase 9, UBA1  -  ubiquitin-like modifier activating enzyme 1, ACTR3  -  arp3 actin-related protein 3 homolog (yeast), ACTR2  -  arp2 actin-related protein 2 homolog (yeast), UBE2B  -  ubiquitin-conjugating enzyme e2b, AASDH  -  aminoadipate-semialdehyde dehydrogenase, UBE2D2  -  ubiquitin-conjugating enzyme e2d 2, NSF  -  n-ethylmaleimide-sensitive factor, OPN5  -  opsin 5, NT5E  -  5'-nucleotidase, ecto (cd73), UBE2E2  -  ubiquitin-conjugating enzyme e2e 2, RTEL1  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  regulator of telomere elongation helicase 1, UBE2G1  -  ubiquitin-conjugating enzyme e2g 1, UBE2G2  -  ubiquitin-conjugating enzyme e2g 2, UBE2H  -  ubiquitin-conjugating enzyme e2h, KCNT2  -  potassium channel, subfamily t, member 2, CDK12  -  cyclin-dependent kinase 12, UBE2L3  -  ubiquitin-conjugating enzyme e2l 3, RAD50  -  rad50 homolog (s. cerevisiae), UBE2N  -  ubiquitin-conjugating enzyme e2n, KIF20A  -  kinesin family member 20a, ATP8A2  -  atpase, aminophospholipid transporter, class i, type 8a, member 2, RAB8B  -  rab8b, member ras oncogene family, OARD1  -  o-acyl-adp-ribose deacylase 1, NTRK3  -  neurotrophic tyrosine kinase, receptor, type 3, KIF6  -  kinesin family member 6, ROR1  -  receptor tyrosine kinase-like orphan receptor 1, DDR2  -  discoidin domain receptor tyrosine kinase 2, MCM8  -  minichromosome maintenance complex component 8, PPCDC  -  phosphopantothenoylcysteine decarboxylase, NVL  -  nuclear vcp-like, TRAP1  -  tnf receptor-associated protein 1, KDM1B  -  lysine (k)-specific demethylase 1b, GPR143  -  g protein-coupled receptor 143, UGDH  -  udp-glucose 6-dehydrogenase, ARFRP1  -  adp-ribosylation factor related protein 1, OAT  -  ornithine aminotransferase, KIF26A  -  kinesin family member 26a, ACSS1  -  acyl-coa synthetase short-chain family member 1, ABCA12  -  atp-binding cassette, sub-family a (abc1), member 12, G3BP1  -  gtpase activating protein (sh3 domain) binding protein 1, UCK2  -  uridine-cytidine kinase 2, MTG2  -  mitochondrial ribosome-associated gtpase 2, GRPEL2  -  grpe-like 2, mitochondrial (e. coli), DHX35  -  deah (asp-glu-ala-his) box polypeptide 35, OGDH  -  oxoglutarate (alpha-ketoglutarate) dehydrogenase (lipoamide), OPA1  -  optic atrophy 1 (autosomal dominant), FRK  -  fyn-related kinase, NT5C1A  -  5'-nucleotidase, cytosolic ia, SRR  -  serine racemase, ARL5A  -  adp-ribosylation factor-like 5a, PHGDH  -  phosphoglycerate dehydrogenase, LRWD1  -  leucine-rich repeats and wd repeat domain containing 1, NAPEPLD  -  n-acyl phosphatidylethanolamine phospholipase d, TTBK1  -  tau tubulin kinase 1, HINT3  -  histidine triad nucleotide binding protein 3, UBE2O  -  ubiquitin-conjugating enzyme e2o, ORC1  -  origin recognition complex, subunit 1, ORC4  -  origin recognition complex, subunit 4, TNK2  -  tyrosine kinase, non-receptor, 2, VDAC1  -  voltage-dependent anion channel 1, ORC5  -  origin recognition complex, subunit 5, HS3ST5  -  heparan sulfate (glucosamine) 3-o-sulfotransferase 5, MYO3A  -  myosin iiia, VDR  -  vitamin d (1,25- dihydroxyvitamin d3) receptor, OTC  -  ornithine carbamoyltransferase, NME6  -  nme/nm23 nucleoside diphosphate kinase 6, GLYR1  -  glyoxylate reductase 1 homolog (arabidopsis), CSNK1G1  -  casein kinase 1, gamma 1, CHTF18  -  ctf18, chromosome transmission fidelity factor 18 homolog (s. cerevisiae), MTOR  -  mechanistic target of rapamycin (serine/threonine kinase), P2RX1  -  purinergic receptor p2x, ligand-gated ion channel, 1]</t>
-  </si>
-  <si>
     <t>GO:0035091</t>
   </si>
   <si>
     <t>phosphatidylinositol binding</t>
   </si>
   <si>
-    <t>[PLCB1  -  phospholipase c, beta 1 (phosphoinositide-specific), TRPV1  -  transient receptor potential cation channel, subfamily v, member 1, PIGU  -  phosphatidylinositol glycan anchor biosynthesis, class u, ADAP2  -  arfgap with dual ph domains 2, PLCD1  -  phospholipase c, delta 1, DENND1A  -  denn/madd domain containing 1a, ITPR1  -  inositol 1,4,5-trisphosphate receptor, type 1, ITPR2  -  inositol 1,4,5-trisphosphate receptor, type 2, SNX14  -  sorting nexin 14, PLD1  -  phospholipase d1, phosphatidylcholine-specific, HIP1  -  huntingtin interacting protein 1, PLEK  -  pleckstrin, SH3PXD2A  -  sh3 and px domains 2a, SCARB1  -  scavenger receptor class b, member 1, AIDA  -  axin interactor, dorsalization associated, TTPAL  -  tocopherol (alpha) transfer protein-like, ZFYVE28  -  zinc finger, fyve domain containing 28, MCF2L  -  mcf.2 cell line derived transforming sequence-like, ATG2B  -  autophagy related 2b, MITD1  -  mit, microtubule interacting and transport, domain containing 1, HIP1R  -  huntingtin interacting protein 1 related, OSBPL8  -  oxysterol binding protein-like 8, FRMPD2  -  ferm and pdz domain containing 2, PLEKHA8  -  pleckstrin homology domain containing, family a (phosphoinositide binding specific) member 8, BBS5  -  bardet-biedl syndrome 5, KCNH1  -  potassium voltage-gated channel, subfamily h (eag-related), member 1, SNX19  -  sorting nexin 19, KCNJ1  -  potassium inwardly-rectifying channel, subfamily j, member 1, KCNJ2  -  potassium inwardly-rectifying channel, subfamily j, member 2, SNX16  -  sorting nexin 16, DAPP1  -  dual adaptor of phosphotyrosine and 3-phosphoinositides, RNF34  -  ring finger protein 34, e3 ubiquitin protein ligase, ZFYVE9  -  zinc finger, fyve domain containing 9, RLBP1  -  retinaldehyde binding protein 1, NISCH  -  nischarin, SESTD1  -  sec14 and spectrin domains 1, MYO1B  -  myosin ib, MB21D1  -  mab-21 domain containing 1, BTK  -  bruton agammaglobulinemia tyrosine kinase, SCIN  -  scinderin, SYT7  -  synaptotagmin vii, WDFY3  -  wd repeat and fyve domain containing 3, SYTL2  -  synaptotagmin-like 2, SNX1  -  sorting nexin 1, SNX4  -  sorting nexin 4, EEA1  -  early endosome antigen 1, KCNQ1  -  potassium voltage-gated channel, kqt-like subfamily, member 1, SNX3  -  sorting nexin 3, ACTN2  -  actinin, alpha 2, SH3PXD2B  -  sh3 and px domains 2b, GBF1  -  golgi brefeldin a resistant guanine nucleotide exchange factor 1, LANCL2  -  lanc lantibiotic synthetase component c-like 2 (bacterial), SNX33  -  sorting nexin 33, ANXA8  -  annexin a8, ESYT2  -  extended synaptotagmin-like protein 2, SNX5  -  sorting nexin 5, SGK3  -  serum/glucocorticoid regulated kinase family, member 3, MAPT  -  microtubule-associated protein tau, AMER1  -  apc membrane recruitment protein 1, MARK1  -  map/microtubule affinity-regulating kinase 1, TWF1  -  twinfilin actin-binding protein 1, SDCBP  -  syndecan binding protein (syntenin), GAP43  -  growth associated protein 43, ZCCHC2  -  zinc finger, cchc domain containing 2, PIGK  -  phosphatidylinositol glycan anchor biosynthesis, class k, KIF16B  -  kinesin family member 16b, ARHGAP32  -  rho gtpase activating protein 32, MPPE1  -  metallophosphoesterase 1, FLII  -  flightless i homolog (drosophila), SNX22  -  sorting nexin 22, ESYT3  -  extended synaptotagmin-like protein 3, APPL2  -  adaptor protein, phosphotyrosine interaction, ph domain and leucine zipper containing 2, PLEKHA3  -  pleckstrin homology domain containing, family a (phosphoinositide binding specific) member 3, ASAP1  -  arfgap with sh3 domain, ankyrin repeat and ph domain 1, OGT  -  o-linked n-acetylglucosamine (glcnac) transferase, DAB2IP  -  dab2 interacting protein, PXK  -  px domain containing serine/threonine kinase, FRMPD4  -  ferm and pdz domain containing 4, TTPA  -  tocopherol (alpha) transfer protein, PLCZ1  -  phospholipase c, zeta 1, EPB41  -  erythrocyte membrane protein band 4.1 (elliptocytosis 1, rh-linked), PLEKHA5  -  pleckstrin homology domain containing, family a member 5, PIRT  -  phosphoinositide-interacting regulator of transient receptor potential channels, TULP1  -  tubby like protein 1, GSN  -  gelsolin, NCF1  -  neutrophil cytosolic factor 1, TULP3  -  tubby like protein 3, ATP13A2  -  atpase type 13a2, APPL1  -  adaptor protein, phosphotyrosine interaction, ph domain and leucine zipper containing 1, EXOC8  -  exocyst complex component 8, SNX17  -  sorting nexin 17, SNX25  -  sorting nexin 25, PLEKHA1  -  pleckstrin homology domain containing, family a (phosphoinositide binding specific) member 1, ARFIP1  -  adp-ribosylation factor interacting protein 1, PLEKHA2  -  pleckstrin homology domain containing, family a (phosphoinositide binding specific) member 2, ARAP3  -  arfgap with rhogap domain, ankyrin repeat and ph domain 3, RPS6KC1  -  ribosomal protein s6 kinase, 52kda, polypeptide 1, IQGAP1  -  iq motif containing gtpase activating protein 1, RACGAP1  -  rac gtpase activating protein 1, SH3YL1  -  sh3 domain containing, ysc84-like 1 (s. cerevisiae), MREG  -  melanoregulin, SNX27  -  sorting nexin family member 27, TWF2  -  twinfilin actin-binding protein 2, WIPI2  -  wd repeat domain, phosphoinositide interacting 2, ZFYVE19  -  zinc finger, fyve domain containing 19, RAB35  -  rab35, member ras oncogene family, WDFY1  -  wd repeat and fyve domain containing 1, LDLRAP1  -  low density lipoprotein receptor adaptor protein 1, AKT1  -  v-akt murine thymoma viral oncogene homolog 1, CCDC88A  -  coiled-coil domain containing 88a, ADAP1  -  arfgap with dual ph domains 1, OBSCN  -  obscurin, cytoskeletal calmodulin and titin-interacting rhogef, THY1  -  thy-1 cell surface antigen, SNX13  -  sorting nexin 13, ARAP2  -  arfgap with rhogap domain, ankyrin repeat and ph domain 2, PXDC1  -  px domain containing 1, GAB2  -  grb2-associated binding protein 2, DENND1B  -  denn/madd domain containing 1b, SNX8  -  sorting nexin 8, SNX10  -  sorting nexin 10, RAG2  -  recombination activating gene 2, PLA2G4E  -  phospholipase a2, group ive, ZFYVE1  -  zinc finger, fyve domain containing 1, MYO1E  -  myosin ie, C2CD2L  -  c2cd2-like, PLEKHN1  -  pleckstrin homology domain containing, family n member 1, ZCCHC14  -  zinc finger, cchc domain containing 14, VPS36  -  vacuolar protein sorting 36 homolog (s. cerevisiae), ZFYVE26  -  zinc finger, fyve domain containing 26, PASK  -  pas domain containing serine/threonine kinase, TPCN1  -  two pore segment channel 1, MYO10  -  myosin x, PLEKHF2  -  pleckstrin homology domain containing, family f (with fyve domain) member 2, WDR45B  -  wd repeat domain 45b, PARD3  -  par-3 partitioning defective 3 homolog (c. elegans), PIK3C2A  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 alpha, PIK3C2B  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 beta, PITPNC1  -  phosphatidylinositol transfer protein, cytoplasmic 1, KRIT1  -  krit1, ankyrin repeat containing, VEPH1  -  ventricular zone expressed ph domain-containing 1, PIK3C2G  -  phosphatidylinositol-4-phosphate 3-kinase, catalytic subunit type 2 gamma, SNX7  -  sorting nexin 7, PHF12  -  phd finger protein 12, FCHSD2  -  fch and double sh3 domains 2, JPH2  -  junctophilin 2, AMER3  -  apc membrane recruitment protein 3, CLVS2  -  clavesin 2, EXOC1  -  exocyst complex component 1, OSBPL2  -  oxysterol binding protein-like 2, SNX20  -  sorting nexin 20, SNX12  -  sorting nexin 12, COMMD1  -  copper metabolism (murr1) domain containing 1, PITPNA  -  phosphatidylinositol transfer protein, alpha, PARD3B  -  par-3 partitioning defective 3 homolog b (c. elegans), PICALM  -  phosphatidylinositol binding clathrin assembly protein, RS1  -  retinoschisin 1, SNAP91  -  synaptosomal-associated protein, 91kda, MAPKAP1  -  mitogen-activated protein kinase associated protein 1, SVIL  -  supervillin, SLC9A1  -  solute carrier family 9, subfamily a (nhe1, cation proton antiporter 1), member 1, PLEKHB2  -  pleckstrin homology domain containing, family b (evectins) member 2, AMER2  -  apc membrane recruitment protein 2, NCF4  -  neutrophil cytosolic factor 4, 40kda, TECPR1  -  tectonin beta-propeller repeat containing 1, SNX9  -  sorting nexin 9, LAPTM4B  -  lysosomal protein transmembrane 4 beta, CLVS1  -  clavesin 1, RUFY4  -  run and fyve domain containing 4, RPH3A  -  rabphilin 3a homolog (mouse), VIL1  -  villin 1, PLA2G4A  -  phospholipase a2, group iva (cytosolic, calcium-dependent), SYT1  -  synaptotagmin i, ANXA2  -  annexin a2, WIPI1  -  wd repeat domain, phosphoinositide interacting 1]</t>
-  </si>
-  <si>
     <t>GO:0015631</t>
   </si>
   <si>
     <t>tubulin binding</t>
   </si>
   <si>
-    <t>[TUBGCP5  -  tubulin, gamma complex associated protein 5, MAPRE1  -  microtubule-associated protein, rp/eb family, member 1, TTLL11  -  tubulin tyrosine ligase-like family, member 11, JAKMIP3  -  janus kinase and microtubule interacting protein 3, FTCD  -  formimidoyltransferase cyclodeaminase, RMDN1  -  regulator of microtubule dynamics 1, CCDC170  -  coiled-coil domain containing 170, PAFAH1B1  -  platelet-activating factor acetylhydrolase 1b, regulatory subunit 1 (45kda), CLIP2  -  cap-gly domain containing linker protein 2, SBDS  -  shwachman-bodian-diamond syndrome, KIF13A  -  kinesin family member 13a, CCDC66  -  coiled-coil domain containing 66, TTLL4  -  tubulin tyrosine ligase-like family, member 4, CENPJ  -  centromere protein j, CCT5  -  chaperonin containing tcp1, subunit 5 (epsilon), PARK2  -  parkinson protein 2, e3 ubiquitin protein ligase (parkin), TBCD  -  tubulin folding cofactor d, TBCE  -  tubulin folding cofactor e, DST  -  dystonin, FYN  -  fyn oncogene related to src, fgr, yes, BRCA1  -  breast cancer 1, early onset, BRCA2  -  breast cancer 2, early onset, STMND1  -  stathmin domain containing 1, PPARGC1A  -  peroxisome proliferator-activated receptor gamma, coactivator 1 alpha, RABGAP1  -  rab gtpase activating protein 1, CEP57  -  centrosomal protein 57kda, IFT81  -  intraflagellar transport 81 homolog (chlamydomonas), APC2  -  adenomatosis polyposis coli 2, KIF2A  -  kinesin heavy chain member 2a, KIF3C  -  kinesin family member 3c, KATNB1  -  katanin p80 (wd repeat containing) subunit b 1, KIF5B  -  kinesin family member 5b, NIN  -  ninein (gsk3b interacting protein), KIF9  -  kinesin family member 9, KIF5C  -  kinesin family member 5c, KIFC3  -  kinesin family member c3, EFHC2  -  ef-hand domain (c-terminal) containing 2, PDE4B  -  phosphodiesterase 4b, camp-specific, GAPDH  -  glyceraldehyde-3-phosphate dehydrogenase, KIF21B  -  kinesin family member 21b, EML1  -  echinoderm microtubule associated protein like 1, MTUS1  -  microtubule associated tumor suppressor 1, GABARAPL1  -  gaba(a) receptor-associated protein like 1, NEIL2  -  nei endonuclease viii-like 2 (e. coli), GAS8  -  growth arrest-specific 8, KIF11  -  kinesin family member 11, SETD2  -  set domain containing 2, KIF25  -  kinesin family member 25, STARD9  -  star-related lipid transfer (start) domain containing 9, AGBL4  -  atp/gtp binding protein-like 4, CEP57L1  -  centrosomal protein 57kda-like 1, SNPH  -  syntaphilin, CCSER2  -  coiled-coil serine-rich protein 2, SMC3  -  structural maintenance of chromosomes 3, CEP70  -  centrosomal protein 70kda, GAS2L3  -  growth arrest-specific 2 like 3, RAE1  -  rae1 rna export 1 homolog (s. pombe), OFD1  -  oral-facial-digital syndrome 1, PDCD5  -  programmed cell death 5, MAPRE2  -  microtubule-associated protein, rp/eb family, member 2, TERF1  -  telomeric repeat binding factor (nima-interacting) 1, TTLL5  -  tubulin tyrosine ligase-like family, member 5, TAOK1  -  tao kinase 1, CRYAB  -  crystallin, alpha b, KIF1B  -  kinesin family member 1b, PEX14  -  peroxisomal biogenesis factor 14, DLGAP5  -  discs, large (drosophila) homolog-associated protein 5, KIF2C  -  kinesin family member 2c, CKAP5  -  cytoskeleton associated protein 5, RACGAP1  -  rac gtpase activating protein 1, KIF4A  -  kinesin family member 4a, NDRG1  -  n-myc downstream regulated 1, CLASP2  -  cytoplasmic linker associated protein 2, MX1  -  myxovirus (influenza virus) resistance 1, interferon-inducible protein p78 (mouse), REEP2  -  receptor accessory protein 2, MAST2  -  microtubule associated serine/threonine kinase 2, NME8  -  nme/nm23 family member 8, GJA1  -  gap junction protein, alpha 1, 43kda, NCALD  -  neurocalcin delta, SUN2  -  sad1 and unc84 domain containing 2, JAKMIP2  -  janus kinase and microtubule interacting protein 2, MID2  -  midline 2, DIP2B  -  dip2 disco-interacting protein 2 homolog b (drosophila), CEP44  -  centrosomal protein 44kda, VAPB  -  vamp (vesicle-associated membrane protein)-associated protein b and c, KATNAL1  -  katanin p60 subunit a-like 1, VAPA  -  vamp (vesicle-associated membrane protein)-associated protein a, 33kda, TIAM1  -  t-cell lymphoma invasion and metastasis 1, ZNF207  -  zinc finger protein 207, RAD51D  -  rad51 paralog d, TTLL12  -  tubulin tyrosine ligase-like family, member 12, PIFO  -  primary cilia formation, GLI1  -  gli family zinc finger 1, CEP350  -  centrosomal protein 350kda, HOOK1  -  hook microtubule-tethering protein 1, FAM110C  -  family with sequence similarity 110, member c, TTLL1  -  tubulin tyrosine ligase-like family, member 1, INO80  -  ino80 complex subunit, PPP1R42  -  protein phosphatase 1, regulatory subunit 42, TPPP  -  tubulin polymerization promoting protein, KRIT1  -  krit1, ankyrin repeat containing, MAP10  -  microtubule-associated protein 10, TTLL9  -  tubulin tyrosine ligase-like family, member 9, SLC6A2  -  solute carrier family 6 (neurotransmitter transporter), member 2, STRBP  -  spermatid perinuclear rna binding protein, KATNA1  -  katanin p60 (atpase containing) subunit a 1, HAUS8  -  haus augmin-like complex, subunit 8, ALMS1  -  alstrom syndrome 1, FAM161A  -  family with sequence similarity 161, member a, KIF3A  -  kinesin family member 3a, GOLGA2  -  golgin a2, KIF14  -  kinesin family member 14, TTLL7  -  tubulin tyrosine ligase-like family, member 7, PLK1  -  polo-like kinase 1, TUBGCP6  -  tubulin, gamma complex associated protein 6, CCDC88C  -  coiled-coil domain containing 88c, CLIP4  -  cap-gly domain containing linker protein family, member 4, BIRC5  -  baculoviral iap repeat containing 5, RMDN2  -  regulator of microtubule dynamics 2, DRG1  -  developmentally regulated gtp binding protein 1, CAMSAP2  -  calmodulin regulated spectrin-associated protein family, member 2, GTSE1  -  g-2 and s-phase expressed 1, TPR  -  translocated promoter region, nuclear basket protein, NEFM  -  neurofilament, medium polypeptide, MDM1  -  mdm1 nuclear protein homolog (mouse), KATNBL1  -  katanin p80 subunit b-like 1, MTUS2  -  microtubule associated tumor suppressor candidate 2, LZTS1  -  leucine zipper, putative tumor suppressor 1, FBXW11  -  f-box and wd repeat domain containing 11, NDE1  -  nude neurodevelopment protein 1, DAG1  -  dystroglycan 1 (dystrophin-associated glycoprotein 1), SNCA  -  synuclein, alpha (non a4 component of amyloid precursor), KIF3B  -  kinesin family member 3b, CCDC181  -  coiled-coil domain containing 181, VPS41  -  vacuolar protein sorting 41 homolog (s. cerevisiae), TBCEL  -  tubulin folding cofactor e-like, KIF13B  -  kinesin family member 13b, DIXDC1  -  dix domain containing 1, BCAS3  -  breast carcinoma amplified sequence 3, FGF13  -  fibroblast growth factor 13, SGIP1  -  sh3-domain grb2-like (endophilin) interacting protein 1, FHDC1  -  fh2 domain containing 1, VASH2  -  vasohibin 2, CACYBP  -  calcyclin binding protein, REEP1  -  receptor accessory protein 1, CLASP1  -  cytoplasmic linker associated protein 1, DCX  -  doublecortin, LRRK2  -  leucine-rich repeat kinase 2, ARL3  -  adp-ribosylation factor-like 3, MAP1A  -  microtubule-associated protein 1a, MAP1B  -  microtubule-associated protein 1b, DDX3X  -  dead (asp-glu-ala-asp) box helicase 3, x-linked, MAP4  -  microtubule-associated protein 4, BCL2L11  -  bcl2-like 11 (apoptosis facilitator), MAP6  -  microtubule-associated protein 6, MAPT  -  microtubule-associated protein tau, KIF21A  -  kinesin family member 21a, PHF6  -  phd finger protein 6, KIF16B  -  kinesin family member 16b, SPAST  -  spastin, RAB11A  -  rab11a, member ras oncogene family, NAV3  -  neuron navigator 3, JAKMIP1  -  janus kinase and microtubule interacting protein 1, RGS14  -  regulator of g-protein signaling 14, CHP1  -  calcineurin-like ef-hand protein 1, KIF15  -  kinesin family member 15, CENPE  -  centromere protein e, 312kda, CENPF  -  centromere protein f, 350/400kda, RP1  -  retinitis pigmentosa 1 (autosomal dominant), SYBU  -  syntabulin (syntaxin-interacting), DNM1L  -  dynamin 1-like, TPPP3  -  tubulin polymerization-promoting protein family member 3, DNM3  -  dynamin 3, MAP1LC3C  -  microtubule-associated protein 1 light chain 3 gamma, REEP3  -  receptor accessory protein 3, STMN4  -  stathmin-like 4, RAB11FIP5  -  rab11 family interacting protein 5 (class i), MAP9  -  microtubule-associated protein 9, APPL1  -  adaptor protein, phosphotyrosine interaction, ph domain and leucine zipper containing 1, NDEL1  -  nude neurodevelopment protein 1-like 1, TUBGCP4  -  tubulin, gamma complex associated protein 4, STMN3  -  stathmin-like 3, TRPV4  -  transient receptor potential cation channel, subfamily v, member 4, KIF23  -  kinesin family member 23, FAM83D  -  family with sequence similarity 83, member d, GABARAPL2  -  gaba(a) receptor-associated protein-like 2, KIF12  -  kinesin family member 12, DNM1  -  dynamin 1, KIF20A  -  kinesin family member 20a, CCDC69  -  coiled-coil domain containing 69, KIF6  -  kinesin family member 6, CCDC88A  -  coiled-coil domain containing 88a, MAP1LC3B  -  microtubule-associated protein 1 light chain 3 beta, DYNC1I1  -  dynein, cytoplasmic 1, intermediate chain 1, LRPPRC  -  leucine-rich pentatricopeptide repeat containing, TTBK2  -  tau tubulin kinase 2, RPS3  -  ribosomal protein s3, KIF7  -  kinesin family member 7, TRAF3IP1  -  tnf receptor-associated factor 3 interacting protein 1, KIF26A  -  kinesin family member 26a, STIM1  -  stromal interaction molecule 1, WHAMM  -  was protein homolog associated with actin, golgi membranes and microtubules, KIF1A  -  kinesin family member 1a, MID1  -  midline 1 (opitz/bbb syndrome), MACF1  -  microtubule-actin crosslinking factor 1, DPYSL2  -  dihydropyrimidinase-like 2, KNSTRN  -  kinetochore-localized astrin/spag5 binding protein, OGG1  -  8-oxoguanine dna glycosylase, OPA1  -  optic atrophy 1 (autosomal dominant), CDK5RAP2  -  cdk5 regulatory subunit associated protein 2, BBS4  -  bardet-biedl syndrome 4, KIF20B  -  kinesin family member 20b, EFHC1  -  ef-hand domain (c-terminal) containing 1, VBP1  -  von hippel-lindau binding protein 1, PACRG  -  park2 co-regulated, GJB6  -  gap junction protein, beta 6, 30kda, CLIP1  -  cap-gly domain containing linker protein 1, KIF18A  -  kinesin family member 18a, HSPH1  -  heat shock 105kda/110kda protein 1, HTT  -  huntingtin, EZR  -  ezrin, CAMSAP1  -  calmodulin regulated spectrin-associated protein 1]</t>
-  </si>
-  <si>
     <t>GO:0016787</t>
   </si>
   <si>
     <t>hydrolase activity</t>
-  </si>
-  <si>
-    <t>[XPNPEP3  -  x-prolyl aminopeptidase (aminopeptidase p) 3, putative, PSMD14  -  proteasome (prosome, macropain) 26s subunit, non-atpase, 14, USP32  -  ubiquitin specific peptidase 32, AADAC  -  arylacetamide deacetylase, HIBCH  -  3-hydroxyisobutyryl-coa hydrolase, ABCA2  -  atp-binding cassette, sub-family a (abc1), member 2, IL1RAPL2  -  interleukin 1 receptor accessory protein-like 2, ABCA3  -  atp-binding cassette, sub-family a (abc1), member 3, ABCB7  -  atp-binding cassette, sub-family b (mdr/tap), member 7, GNAT3  -  guanine nucleotide binding protein, alpha transducing 3, ABCA4  -  atp-binding cassette, sub-family a (abc1), member 4, KIF13A  -  kinesin family member 13a, FIGNL1  -  fidgetin-like 1, FUCA1  -  fucosidase, alpha-l- 1, tissue, MYO18B  -  myosin xviiib, FUCA2  -  fucosidase, alpha-l- 2, plasma, ATP6V0D2  -  atpase, h+ transporting, lysosomal 38kda, v0 subunit d2, ATP6V1C2  -  atpase, h+ transporting, lysosomal 42kda, v1 subunit c2, PARN  -  poly(a)-specific ribonuclease, MMP27  -  matrix metallopeptidase 27, ACR  -  acrosin, ACP1  -  acid phosphatase 1, soluble, CNDP1  -  carnosine dipeptidase 1 (metallopeptidase m20 family), ACP2  -  acid phosphatase 2, lysosomal, ABCC4  -  atp-binding cassette, sub-family c (cftr/mrp), member 4, ACPP  -  acid phosphatase, prostate, USP30  -  ubiquitin specific peptidase 30, RNASEH1  -  ribonuclease h1, XRCC6  -  x-ray repair complementing defective repair in chinese hamster cells 6, GAA  -  glucosidase, alpha; acid, PTPDC1  -  protein tyrosine phosphatase domain containing 1, XPNPEP1  -  x-prolyl aminopeptidase (aminopeptidase p) 1, soluble, XPNPEP2  -  x-prolyl aminopeptidase (aminopeptidase p) 2, membrane-bound, XRCC2  -  x-ray repair complementing defective repair in chinese hamster cells 2, XRCC3  -  x-ray repair complementing defective repair in chinese hamster cells 3, XRCC5  -  x-ray repair complementing defective repair in chinese hamster cells 5 (double-strand-break rejoining), CYCS  -  cytochrome c, somatic, RRAGC  -  ras-related gtp binding c, CHMP1A  -  charged multivesicular body protein 1a, PCSK2  -  proprotein convertase subtilisin/kexin type 2, ACY1  -  aminoacylase 1, ABCG4  -  atp-binding cassette, sub-family g (white), member 4, ACYP2  -  acylphosphatase 2, muscle type, ADA  -  adenosine deaminase, KIF9  -  kinesin family member 9, ADAM10  -  adam metallopeptidase domain 10, ADAR  -  adenosine deaminase, rna-specific, PDE1C  -  phosphodiesterase 1c, calmodulin-dependent 70kda, ADARB1  -  adenosine deaminase, rna-specific, b1, ADARB2  -  adenosine deaminase, rna-specific, b2 (non-functional), PDE3A  -  phosphodiesterase 3a, cgmp-inhibited, ABHD14B  -  abhydrolase domain containing 14b, PDE3B  -  phosphodiesterase 3b, cgmp-inhibited, RAB19  -  rab19, member ras oncogene family, GALNS  -  galactosamine (n-acetyl)-6-sulfate sulfatase, PDE4B  -  phosphodiesterase 4b, camp-specific, TCIRG1  -  t-cell, immune regulator 1, atpase, h+ transporting, lysosomal v0 subunit a3, DPEP2  -  dipeptidase 2, PDE4D  -  phosphodiesterase 4d, camp-specific, PDE6C  -  phosphodiesterase 6c, cgmp-specific, cone, alpha prime, SSH1  -  slingshot protein phosphatase 1, GANC  -  glucosidase, alpha; neutral c, PDE6H  -  phosphodiesterase 6h, cgmp-specific, cone, gamma, PDE7A  -  phosphodiesterase 7a, PDE8A  -  phosphodiesterase 8a, PDE9A  -  phosphodiesterase 9a, MRPL46  -  mitochondrial ribosomal protein l46, PTPN5  -  protein tyrosine phosphatase, non-receptor type 5 (striatum-enriched), ATL2  -  atlastin gtpase 2, MOV10L1  -  mov10l1, moloney leukemia virus 10-like 1, homolog (mouse), NEIL2  -  nei endonuclease viii-like 2 (e. coli), AGBL4  -  atp/gtp binding protein-like 4, ABCG5  -  atp-binding cassette, sub-family g (white), member 5, ABCG8  -  atp-binding cassette, sub-family g (white), member 8, XRN1  -  5'-3' exoribonuclease 1, ENPP2  -  ectonucleotide pyrophosphatase/phosphodiesterase 2, ENPP3  -  ectonucleotide pyrophosphatase/phosphodiesterase 3, ADPRH  -  adp-ribosylarginine hydrolase, GBE1  -  glucan (1,4-alpha-), branching enzyme 1, SERHL2  -  serine hydrolase-like 2, SPPL2A  -  signal peptide peptidase like 2a, FBXO18  -  f-box protein, helicase, 18, GCH1  -  gtp cyclohydrolase 1, PEPD  -  peptidase d, ATAD1  -  atpase family, aaa domain containing 1, GEN1  -  gen1 holliday junction 5' flap endonuclease, PEX1  -  peroxisomal biogenesis factor 1, PEX6  -  peroxisomal biogenesis factor 6, BPNT1  -  3'(2'), 5'-bisphosphate nucleotidase 1, TUBB3  -  tubulin, beta 3 class iii, RHOF  -  ras homolog family member f (in filopodia), RGS18  -  regulator of g-protein signaling 18, AGA  -  aspartylglucosaminidase, GEM  -  gtp binding protein overexpressed in skeletal muscle, PFKFB2  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 2, PFKFB3  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 3, AGL  -  amylo-alpha-1, 6-glucosidase, 4-alpha-glucanotransferase, ACOT1  -  acyl-coa thioesterase 1, PFKFB4  -  6-phosphofructo-2-kinase/fructose-2,6-biphosphatase 4, DCLRE1C  -  dna cross-link repair 1c, GGT1  -  gamma-glutamyltransferase 1, METAP1D  -  methionyl aminopeptidase type 1d (mitochondrial), MIER2  -  mesoderm induction early response 1, family member 2, SUDS3  -  suppressor of defective silencing 3 homolog (s. cerevisiae), PGAM1  -  phosphoglycerate mutase 1 (brain), GGT7  -  gamma-glutamyltransferase 7, GGT5  -  gamma-glutamyltransferase 5, CPQ  -  carboxypeptidase q, ATG4C  -  autophagy related 4c, cysteine peptidase, DNAI2  -  dynein, axonemal, intermediate chain 2, ABCB1  -  atp-binding cassette, sub-family b (mdr/tap), member 1, CGNL1  -  cingulin-like 1, DDX49  -  dead (asp-glu-ala-asp) box polypeptide 49, PHEX  -  phosphate regulating endopeptidase homolog, x-linked, MCM9  -  minichromosome maintenance complex component 9, UBASH3B  -  ubiquitin associated and sh3 domain containing b, GLA  -  galactosidase, alpha, LYPLA1  -  lysophospholipase i, MEIOB  -  meiosis specific with ob domains, ABCD2  -  atp-binding cassette, sub-family d (ald), member 2, GLB1  -  galactosidase, beta 1, NUDT8  -  nudix (nucleoside diphosphate linked moiety x)-type motif 8, MACROD2  -  macro domain containing 2, ALOX5  -  arachidonate 5-lipoxygenase, DYNLL2  -  dynein, light chain, lc8-type 2, TMPRSS3  -  transmembrane protease, serine 3, ALPI  -  alkaline phosphatase, intestinal, INO80  -  ino80 complex subunit, GLS  -  glutaminase, RERG  -  ras-like, estrogen-regulated, growth inhibitor, ADAMTS14  -  adam metallopeptidase with thrombospondin type 1 motif, 14, USP45  -  ubiquitin specific peptidase 45, DNALI1  -  dynein, axonemal, light intermediate chain 1, PTP4A1  -  protein tyrosine phosphatase type iva, member 1, AMPD2  -  adenosine monophosphate deaminase 2, AMPD3  -  adenosine monophosphate deaminase 3, PLA2G4F  -  phospholipase a2, group ivf, GTPBP2  -  gtp binding protein 2, GNA11  -  guanine nucleotide binding protein (g protein), alpha 11 (gq class), GNA12  -  guanine nucleotide binding protein (g protein) alpha 12, ENGASE  -  endo-beta-n-acetylglucosaminidase, GNAI1  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 1, PDP1  -  pyruvate dehyrogenase phosphatase catalytic subunit 1, GNAI2  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 2, ATCAY  -  ataxia, cerebellar, cayman type, GPN2  -  gpn-loop gtpase 2, GNAI3  -  guanine nucleotide binding protein (g protein), alpha inhibiting activity polypeptide 3, GNAL  -  guanine nucleotide binding protein (g protein), alpha activating activity polypeptide, olfactory type, NANP  -  n-acetylneuraminic acid phosphatase, AEN  -  apoptosis enhancing nuclease, OTUD4  -  otu domain containing 4, PLA2G1B  -  phospholipase a2, group ib (pancreas), PLA2G4A  -  phospholipase a2, group iva (cytosolic, calcium-dependent), GNB1  -  guanine nucleotide binding protein (g protein), beta polypeptide 1, RAB39A  -  rab39a, member ras oncogene family, GNB3  -  guanine nucleotide binding protein (g protein), beta polypeptide 3, DDX31  -  dead (asp-glu-ala-asp) box polypeptide 31, PLAT  -  plasminogen activator, tissue, PCSK9  -  proprotein convertase subtilisin/kexin type 9, PLCB2  -  phospholipase c, beta 2, APPBP2  -  amyloid beta precursor protein (cytoplasmic tail) binding protein 2, PLCB4  -  phospholipase c, beta 4, PLCD1  -  phospholipase c, delta 1, AOAH  -  acyloxyacyl hydrolase (neutrophil), PLCL1  -  phospholipase c-like 1, USP7  -  ubiquitin specific peptidase 7 (herpes virus-associated), PLCG1  -  phospholipase c, gamma 1, PLCG2  -  phospholipase c, gamma 2 (phosphatidylinositol-specific), PLD1  -  phospholipase d1, phosphatidylcholine-specific, DDX17  -  dead (asp-glu-ala-asp) box helicase 17, GNS  -  glucosamine (n-acetyl)-6-sulfatase, PLG  -  plasminogen, PAN3  -  pan3 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), ZRANB1  -  zinc finger, ran-binding domain containing 1, PITRM1  -  pitrilysin metallopeptidase 1, DUSP19  -  dual specificity phosphatase 19, DCLRE1B  -  dna cross-link repair 1b, RGS8  -  regulator of g-protein signaling 8, GPLD1  -  glycosylphosphatidylinositol specific phospholipase d1, NUDT14  -  nudix (nucleoside diphosphate linked moiety x)-type motif 14, MLH3  -  mutl homolog 3 (e. coli), ATP2C1  -  atpase, ca++ transporting, type 2c, member 1, RPP30  -  ribonuclease p/mrp 30kda subunit, RPP38  -  ribonuclease p/mrp 38kda subunit, HELZ2  -  helicase with zinc finger 2, transcriptional coactivator, PLA2G7  -  phospholipase a2, group vii (platelet-activating factor acetylhydrolase, plasma), NT5DC2  -  5'-nucleotidase domain containing 2, PPA2  -  pyrophosphatase (inorganic) 2, ERCC6L  -  excision repair cross-complementing rodent repair deficiency, complementation group 6-like, EXOSC10  -  exosome component 10, PMS2  -  pms2 postmeiotic segregation increased 2 (s. cerevisiae), ABCC6  -  atp-binding cassette, sub-family c (cftr/mrp), member 6, PNLIPRP2  -  pancreatic lipase-related protein 2, ZC3H12C  -  zinc finger ccch-type containing 12c, SSH2  -  slingshot protein phosphatase 2, ARF4  -  adp-ribosylation factor 4, GFM1  -  g elongation factor, mitochondrial 1, PLCXD2  -  phosphatidylinositol-specific phospholipase c, x domain containing 2, ARF6  -  adp-ribosylation factor 6, POLE  -  polymerase (dna directed), epsilon, catalytic subunit, ARG2  -  arginase 2, POLG  -  polymerase (dna directed), gamma, RHOB  -  ras homolog family member b, RND3  -  rho family gtpase 3, PRPF8  -  pre-mrna processing factor 8, RHOG  -  ras homolog family member g, ARHGAP5  -  rho gtpase activating protein 5, TMEM86A  -  transmembrane protein 86a, SHPRH  -  snf2 histone linker phd ring helicase, e3 ubiquitin protein ligase, USP16  -  ubiquitin specific peptidase 16, GDPD2  -  glycerophosphodiester phosphodiesterase domain containing 2, ARHGDIB  -  rho gdp dissociation inhibitor (gdi) beta, PGPEP1  -  pyroglutamyl-peptidase i, MRPL44  -  mitochondrial ribosomal protein l44, ARL1  -  adp-ribosylation factor-like 1, AMDHD1  -  amidohydrolase domain containing 1, INPP5J  -  inositol polyphosphate-5-phosphatase j, ARL3  -  adp-ribosylation factor-like 3, PNPT1  -  polyribonucleotide nucleotidyltransferase 1, PON2  -  paraoxonase 2, ARSA  -  arylsulfatase a, STAMBP  -  stam binding protein, ADAM12  -  adam metallopeptidase domain 12, PALD1  -  phosphatase domain containing, paladin 1, ARSD  -  arylsulfatase d, DPP8  -  dipeptidyl-peptidase 8, PPA1  -  pyrophosphatase (inorganic) 1, NAV3  -  neuron navigator 3, PTP4A2  -  protein tyrosine phosphatase type iva, member 2, MPPE1  -  metallophosphoesterase 1, NAV2  -  neuron navigator 2, RGS14  -  regulator of g-protein signaling 14, USP5  -  ubiquitin specific peptidase 5 (isopeptidase t), RAD9B  -  rad9 homolog b (s. pombe), MTMR10  -  myotubularin related protein 10, PPEF1  -  protein phosphatase, ef-hand calcium binding domain 1, ABCC10  -  atp-binding cassette, sub-family c (cftr/mrp), member 10, LACC1  -  laccase (multicopper oxidoreductase) domain containing 1, ASPA  -  aspartoacylase, PDIA3  -  protein disulfide isomerase family a, member 3, PLCZ1  -  phospholipase c, zeta 1, VPS4A  -  vacuolar protein sorting 4 homolog a (s. cerevisiae), PPM1A  -  protein phosphatase, mg2+/mn2+ dependent, 1a, PPM1B  -  protein phosphatase, mg2+/mn2+ dependent, 1b, PPM1G  -  protein phosphatase, mg2+/mn2+ dependent, 1g, GSPT1  -  g1 to s phase transition 1, PPP1CB  -  protein phosphatase 1, catalytic subunit, beta isozyme, PPP1CC  -  protein phosphatase 1, catalytic subunit, gamma isozyme, PPP1R3C  -  protein phosphatase 1, regulatory subunit 3c, PPP1R3D  -  protein phosphatase 1, regulatory subunit 3d, PPP1R8  -  protein phosphatase 1, regulatory subunit 8, ATIC  -  5-aminoimidazole-4-carboxamide ribonucleotide formyltransferase/imp cyclohydrolase, RRAGA  -  ras-related gtp binding a, PAPLN  -  papilin, proteoglycan-like sulfated glycoprotein, PPP2CA  -  protein phosphatase 2, catalytic subunit, alpha isozyme, GNA13  -  guanine nucleotide binding protein (g protein), alpha 13, GLB1L2  -  galactosidase, beta 1-like 2, MTMR9  -  myotubularin related protein 9, EXD3  -  exonuclease 3'-5' domain containing 3, ATP1A1  -  atpase, na+/k+ transporting, alpha 1 polypeptide, DUSP26  -  dual specificity phosphatase 26 (putative), ATP12A  -  atpase, h+/k+ transporting, nongastric, alpha polypeptide, GNB5  -  guanine nucleotide binding protein (g protein), beta 5, MSH6  -  muts homolog 6 (e. coli), TMPRSS9  -  transmembrane protease, serine 9, PPP2R5A  -  protein phosphatase 2, regulatory subunit b', alpha, PPP2R5D  -  protein phosphatase 2, regulatory subunit b', delta, GTF2F2  -  general transcription factor iif, polypeptide 2, 30kda, PPP3CA  -  protein phosphatase 3, catalytic subunit, alpha isozyme, RND2  -  rho family gtpase 2, ATP2A3  -  atpase, ca++ transporting, ubiquitous, ATP2B1  -  atpase, ca++ transporting, plasma membrane 1, CCT8  -  chaperonin containing tcp1, subunit 8 (theta), PPP3CC  -  protein phosphatase 3, catalytic subunit, gamma isozyme, CORIN  -  corin, serine peptidase, PPP3R1  -  protein phosphatase 3, regulatory subunit b, alpha, ATP2B4  -  atpase, ca++ transporting, plasma membrane 4, ATP4B  -  atpase, h+/k+ exchanging, beta polypeptide, PPT1  -  palmitoyl-protein thioesterase 1, POLQ  -  polymerase (dna directed), theta, TINAG  -  tubulointerstitial nephritis antigen, MGEA5  -  meningioma expressed antigen 5 (hyaluronidase), PRCP  -  prolylcarboxypeptidase (angiotensinase c), YME1L1  -  yme1-like 1 atpase, PREP  -  prolyl endopeptidase, PTPRQ  -  protein tyrosine phosphatase, receptor type, q, ATP6V1A  -  atpase, h+ transporting, lysosomal 70kda, v1 subunit a, SPATA5L1  -  spermatogenesis associated 5-like 1, CPSF3L  -  cleavage and polyadenylation specific factor 3-like, ERI3  -  eri1 exoribonuclease family member 3, ATP6V1C1  -  atpase, h+ transporting, lysosomal 42kda, v1 subunit c1, ASPG  -  asparaginase homolog (s. cerevisiae), ATP6V1E1  -  atpase, h+ transporting, lysosomal 31kda, v1 subunit e1, ATP6V0B  -  atpase, h+ transporting, lysosomal 21kda, v0 subunit b, KIF7  -  kinesin family member 7, ATP6V0A1  -  atpase, h+ transporting, lysosomal v0 subunit a1, DDX54  -  dead (asp-glu-ala-asp) box polypeptide 54, ATP7A  -  atpase, cu++ transporting, alpha polypeptide, ATP7B  -  atpase, cu++ transporting, beta polypeptide, MASP2  -  mannan-binding lectin serine peptidase 2, RAB30  -  rab30, member ras oncogene family, GZMB  -  granzyme b (granzyme 2, cytotoxic t-lymphocyte-associated serine esterase 1), ATRX  -  alpha thalassemia/mental retardation syndrome x-linked, CAPN9  -  calpain 9, KIF1A  -  kinesin family member 1a, PNPLA4  -  patatin-like phospholipase domain containing 4, USP9X  -  ubiquitin specific peptidase 9, x-linked, HBS1L  -  hbs1-like (s. cerevisiae), HABP2  -  hyaluronan binding protein 2, HAGH  -  hydroxyacylglutathione hydrolase, POP4  -  processing of precursor 4, ribonuclease p/mrp subunit (s. cerevisiae), DSCC1  -  dna replication and sister chromatid cohesion 1, TOR1B  -  torsin family 1, member b (torsin b), DESI1  -  desumoylating isopeptidase 1, HTRA2  -  htra serine peptidase 2, TOR2A  -  torsin family 2, member a, BCHE  -  butyrylcholinesterase, MTHFD2  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 2, methenyltetrahydrofolate cyclohydrolase, RPP40  -  ribonuclease p/mrp 40kda subunit, USP47  -  ubiquitin specific peptidase 47, DHX58  -  dexh (asp-glu-x-his) box polypeptide 58, BAP1  -  brca1 associated protein-1 (ubiquitin carboxy-terminal hydrolase), EME1  -  essential meiotic structure-specific endonuclease 1, PROC  -  protein c (inactivator of coagulation factors va and viiia), HDAC1  -  histone deacetylase 1, HDAC2  -  histone deacetylase 2, BCS1L  -  bc1 (ubiquinol-cytochrome c reductase) synthesis-like, MMP28  -  matrix metallopeptidase 28, NOTUM  -  notum pectinacetylesterase homolog (drosophila), ANGEL2  -  angel homolog 2 (drosophila), HEXA  -  hexosaminidase a (alpha polypeptide), BDKRB2  -  bradykinin receptor b2, LGMN  -  legumain, HGF  -  hepatocyte growth factor (hepapoietin a; scatter factor), HGFAC  -  hgf activator, MASP1  -  mannan-binding lectin serine peptidase 1 (c4/c2 activating component of ra-reactive factor), RELN  -  reelin, PNPLA7  -  patatin-like phospholipase domain containing 7, TMPRSS15  -  transmembrane protease, serine 15, DHX57  -  deah (asp-glu-ala-asp/his) box polypeptide 57, BLM  -  bloom syndrome, recq helicase-like, PSAP  -  prosaposin, BLMH  -  bleomycin hydrolase, CLPX  -  clpx caseinolytic peptidase x homolog (e. coli), PDE10A  -  phosphodiesterase 10a, PSEN1  -  presenilin 1, PSEN2  -  presenilin 2 (alzheimer disease 4), DPP9  -  dipeptidyl-peptidase 9, BRCC3  -  brca1/brca2-containing complex, subunit 3, ENTPD8  -  ectonucleoside triphosphate diphosphohydrolase 8, ADAM28  -  adam metallopeptidase domain 28, PSMA1  -  proteasome (prosome, macropain) subunit, alpha type, 1, PSMA2  -  proteasome (prosome, macropain) subunit, alpha type, 2, PSMA3  -  proteasome (prosome, macropain) subunit, alpha type, 3, USP20  -  ubiquitin specific peptidase 20, MMEL1  -  membrane metallo-endopeptidase-like 1, PSMA5  -  proteasome (prosome, macropain) subunit, alpha type, 5, BNIP2  -  bcl2/adenovirus e1b 19kda interacting protein 2, USP19  -  ubiquitin specific peptidase 19, PSMB1  -  proteasome (prosome, macropain) subunit, beta type, 1, TMPPE  -  transmembrane protein with metallophosphoesterase domain, PSMB2  -  proteasome (prosome, macropain) subunit, beta type, 2, PSMB3  -  proteasome (prosome, macropain) subunit, beta type, 3, PSMB4  -  proteasome (prosome, macropain) subunit, beta type, 4, FGL2  -  fibrinogen-like 2, BPGM  -  2,3-bisphosphoglycerate mutase, BPHL  -  biphenyl hydrolase-like (serine hydrolase), PSMC1  -  proteasome (prosome, macropain) 26s subunit, atpase, 1, PSMC2  -  proteasome (prosome, macropain) 26s subunit, atpase, 2, PSMC3  -  proteasome (prosome, macropain) 26s subunit, atpase, 3, BST1  -  bone marrow stromal cell antigen 1, RAB10  -  rab10, member ras oncogene family, PSMC5  -  proteasome (prosome, macropain) 26s subunit, atpase, 5, FIGN  -  fidgetin, MALT1  -  mucosa associated lymphoid tissue lymphoma translocation gene 1, PSMD1  -  proteasome (prosome, macropain) 26s subunit, non-atpase, 1, MMP24  -  matrix metallopeptidase 24 (membrane-inserted), PSMD2  -  proteasome (prosome, macropain) 26s subunit, non-atpase, 2, PLA2G6  -  phospholipase a2, group vi (cytosolic, calcium-independent), PSMD7  -  proteasome (prosome, macropain) 26s subunit, non-atpase, 7, MAN1A2  -  mannosidase, alpha, class 1a, member 2, PSPH  -  phosphoserine phosphatase, HMOX1  -  heme oxygenase (decycling) 1, PTEN  -  phosphatase and tensin homolog, C1R  -  complement component 1, r subcomponent, C1S  -  complement component 1, s subcomponent, TDRD12  -  tudor domain containing 12, SMPDL3A  -  sphingomyelin phosphodiesterase, acid-like 3a, CAPN5  -  calpain 5, RALBP1  -  rala binding protein 1, RAD54L  -  rad54-like (s. cerevisiae), DUSP11  -  dual specificity phosphatase 11 (rna/rnp complex 1-interacting), POP1  -  processing of precursor 1, ribonuclease p/mrp subunit (s. cerevisiae), MPPED2  -  metallophosphoesterase domain containing 2, MYRF  -  myelin regulatory factor, NADSYN1  -  nad synthetase 1, DAGLA  -  diacylglycerol lipase, alpha, TTF2  -  transcription termination factor, rna polymerase ii, PTPN1  -  protein tyrosine phosphatase, non-receptor type 1, PTPN2  -  protein tyrosine phosphatase, non-receptor type 2, PTPN3  -  protein tyrosine phosphatase, non-receptor type 3, MPPED1  -  metallophosphoesterase domain containing 1, CA1  -  carbonic anhydrase i, PTPN4  -  protein tyrosine phosphatase, non-receptor type 4 (megakaryocyte), PM20D1  -  peptidase m20 domain containing 1, CA2  -  carbonic anhydrase ii, PTPN6  -  protein tyrosine phosphatase, non-receptor type 6, PTPN7  -  protein tyrosine phosphatase, non-receptor type 7, CA3  -  carbonic anhydrase iii, muscle specific, PTPN9  -  protein tyrosine phosphatase, non-receptor type 9, PTPN11  -  protein tyrosine phosphatase, non-receptor type 11, PTPN12  -  protein tyrosine phosphatase, non-receptor type 12, PTPN13  -  protein tyrosine phosphatase, non-receptor type 13 (apo-1/cd95 (fas)-associated phosphatase), PTPRA  -  protein tyrosine phosphatase, receptor type, a, PTPRB  -  protein tyrosine phosphatase, receptor type, b, PTPRE  -  protein tyrosine phosphatase, receptor type, e, PTPRF  -  protein tyrosine phosphatase, receptor type, f, PTPRG  -  protein tyrosine phosphatase, receptor type, g, ASCC3  -  activating signal cointegrator 1 complex subunit 3, EXD2  -  exonuclease 3'-5' domain containing 2, PTPRJ  -  protein tyrosine phosphatase, receptor type, j, PTPRK  -  protein tyrosine phosphatase, receptor type, k, PTPRM  -  protein tyrosine phosphatase, receptor type, m, PRSS12  -  protease, serine, 12 (neurotrypsin, motopsin), TMPRSS12  -  transmembrane (c-terminal) protease, serine 12, PTPRN2  -  protein tyrosine phosphatase, receptor type, n polypeptide 2, PPM1D  -  protein phosphatase, mg2+/mn2+ dependent, 1d, PTPRO  -  protein tyrosine phosphatase, receptor type, o, RAB32  -  rab32, member ras oncogene family, PTPRR  -  protein tyrosine phosphatase, receptor type, r, PTPRS  -  protein tyrosine phosphatase, receptor type, s, PTPRZ1  -  protein tyrosine phosphatase, receptor-type, z polypeptide 1, PANK4  -  pantothenate kinase 4, MTG1  -  mitochondrial ribosome-associated gtpase 1, ATP13A3  -  atpase type 13a3, COPS5  -  cop9 signalosome subunit 5, USP40  -  ubiquitin specific peptidase 40, METAP2  -  methionyl aminopeptidase 2, DUSP27  -  dual specificity phosphatase 27 (putative), PARG  -  poly (adp-ribose) glycohydrolase, NDST2  -  n-deacetylase/n-sulfotransferase (heparan glucosaminyl) 2, KIF2C  -  kinesin family member 2c, ABCD4  -  atp-binding cassette, sub-family d (ald), member 4, CAPN13  -  calpain 13, NEIL3  -  nei endonuclease viii-like 3 (e. coli), PGBD5  -  piggybac transposable element derived 5, CAMK2G  -  calcium/calmodulin-dependent protein kinase ii gamma, HRAS  -  harvey rat sarcoma viral oncogene homolog, IFT27  -  intraflagellar transport 27 homolog (chlamydomonas), RAB35  -  rab35, member ras oncogene family, RAB3A  -  rab3a, member ras oncogene family, CPZ  -  carboxypeptidase z, CAPN2  -  calpain 2, (m/ii) large subunit, CAPN3  -  calpain 3, (p94), RAB4A  -  rab4a, member ras oncogene family, OC90  -  otoconin 90, RAB31  -  rab31, member ras oncogene family, NKIRAS2  -  nfkb inhibitor interacting ras-like 2, NKIRAS1  -  nfkb inhibitor interacting ras-like 1, QRSL1  -  glutaminyl-trna synthase (glutamine-hydrolyzing)-like 1, CASP2  -  caspase 2, apoptosis-related cysteine peptidase, CASP3  -  caspase 3, apoptosis-related cysteine peptidase, RAC1  -  ras-related c3 botulinum toxin substrate 1 (rho family, small gtp binding protein rac1), MGME1  -  mitochondrial genome maintenance exonuclease 1, RAC2  -  ras-related c3 botulinum toxin substrate 2 (rho family, small gtp binding protein rac2), CASP6  -  caspase 6, apoptosis-related cysteine peptidase, DTD1  -  d-tyrosyl-trna deacylase 1, RAC3  -  ras-related c3 botulinum toxin substrate 3 (rho family, small gtp binding protein rac3), CASP7  -  caspase 7, apoptosis-related cysteine peptidase, CASP8  -  caspase 8, apoptosis-related cysteine peptidase, CASP9  -  caspase 9, apoptosis-related cysteine peptidase, RHOT1  -  ras homolog family member t1, ARSJ  -  arylsulfatase family, member j, DPH7  -  diphthamide biosynthesis 7, CASR  -  calcium-sensing receptor, RAD51  -  rad51 recombinase, RAD51C  -  rad51 paralog c, CDC14A  -  cell division cycle 14a, CAT  -  catalase, NUDT21  -  nudix (nucleoside diphosphate linked moiety x)-type motif 21, RAD51D  -  rad51 paralog d, DDX52  -  dead (asp-glu-ala-asp) box polypeptide 52, ABHD2  -  abhydrolase domain containing 2, USB1  -  u6 snrna biogenesis 1, RAG1  -  recombination activating gene 1, HELB  -  helicase (dna) b, HSPA8  -  heat shock 70kda protein 8, HSPA9  -  heat shock 70kda protein 9 (mortalin), RALA  -  v-ral simian leukemia viral oncogene homolog a (ras related), RALB  -  v-ral simian leukemia viral oncogene homolog b, RAN  -  ran, member ras oncogene family, DYNC2H1  -  dynein, cytoplasmic 2, heavy chain 1, RASL11A  -  ras-like, family 11, member a, NEIL1  -  nei endonuclease viii-like 1 (e. coli), DHX40  -  deah (asp-glu-ala-his) box polypeptide 40, RAP1B  -  rap1b, member of ras oncogene family, DUSP14  -  dual specificity phosphatase 14, RAP1GAP  -  rap1 gtpase activating protein, HSPD1  -  heat shock 60kda protein 1 (chaperonin), TPPP  -  tubulin polymerization promoting protein, NT5C1B  -  5'-nucleotidase, cytosolic ib, NDST1  -  n-deacetylase/n-sulfotransferase (heparan glucosaminyl) 1, ABCF3  -  atp-binding cassette, sub-family f (gcn20), member 3, UFSP2  -  ufm1-specific peptidase 2, TEX30  -  testis expressed 30, SMC6  -  structural maintenance of chromosomes 6, ACER3  -  alkaline ceramidase 3, ADAMTS13  -  adam metallopeptidase with thrombospondin type 1 motif, 13, RGS20  -  regulator of g-protein signaling 20, ADAMTS8  -  adam metallopeptidase with thrombospondin type 1 motif, 8, RBBP4  -  retinoblastoma binding protein 4, ADAMTS5  -  adam metallopeptidase with thrombospondin type 1 motif, 5, PRSS23  -  protease, serine, 23, RUVBL1  -  ruvb-like 1 (e. coli), RBBP8  -  retinoblastoma binding protein 8, LSG1  -  large 60s subunit nuclear export gtpase 1, MANEA  -  mannosidase, endo-alpha, PLCXD1  -  phosphatidylinositol-specific phospholipase c, x domain containing 1, KATNA1  -  katanin p60 (atpase containing) subunit a 1, ABHD10  -  abhydrolase domain containing 10, NUDT7  -  nudix (nucleoside diphosphate linked moiety x)-type motif 7, LRRK1  -  leucine-rich repeat kinase 1, ASMTL  -  acetylserotonin o-methyltransferase-like, IARS  -  isoleucyl-trna synthetase, RBP3  -  retinol binding protein 3, interstitial, PTPRT  -  protein tyrosine phosphatase, receptor type, t, TPTE2  -  transmembrane phosphoinositide 3-phosphatase and tensin homolog 2, DNAH17  -  dynein, axonemal, heavy chain 17, NPEPL1  -  aminopeptidase-like 1, KIF3A  -  kinesin family member 3a, PLB1  -  phospholipase b1, CAPN10  -  calpain 10, RECQL  -  recq protein-like (dna helicase q1-like), IL1RAPL1  -  interleukin 1 receptor accessory protein-like 1, ABCB11  -  atp-binding cassette, sub-family b (mdr/tap), member 11, DMC1  -  dna meiotic recombinase 1, UPF1  -  upf1 regulator of nonsense transcripts homolog (yeast), PDE5A  -  phosphodiesterase 5a, cgmp-specific, RFC1  -  replication factor c (activator 1) 1, 145kda, RFC2  -  replication factor c (activator 1) 2, 40kda, FICD  -  fic domain containing, RFC3  -  replication factor c (activator 1) 3, 38kda, RFC4  -  replication factor c (activator 1) 4, 37kda, ENTPD1  -  ectonucleoside triphosphate diphosphohydrolase 1, PTP4A3  -  protein tyrosine phosphatase type iva, member 3, IDE  -  insulin-degrading enzyme, ENTPD2  -  ectonucleoside triphosphate diphosphohydrolase 2, ADGB  -  androglobin, ENTPD6  -  ectonucleoside triphosphate diphosphohydrolase 6 (putative), ENTPD3  -  ectonucleoside triphosphate diphosphohydrolase 3, RABL2A  -  rab, member of ras oncogene family-like 2a, ENTPD5  -  ectonucleoside triphosphate diphosphohydrolase 5, EIF3H  -  eukaryotic translation initiation factor 3, subunit h, NUDT6  -  nudix (nucleoside diphosphate linked moiety x)-type motif 6, IDS  -  iduronate 2-sulfatase, NUDT5  -  nudix (nucleoside diphosphate linked moiety x)-type motif 5, PARL  -  presenilin associated, rhomboid-like, NUDT3  -  nudix (nucleoside diphosphate linked moiety x)-type motif 3, RGS1  -  regulator of g-protein signaling 1, CFI  -  complement factor i, RGS3  -  regulator of g-protein signaling 3, RGS4  -  regulator of g-protein signaling 4, RGS7  -  regulator of g-protein signaling 7, RGS10  -  regulator of g-protein signaling 10, RGS12  -  regulator of g-protein signaling 12, ADAMTS7  -  adam metallopeptidase with thrombospondin type 1 motif, 7, ENDOV  -  endonuclease v, RGS16  -  regulator of g-protein signaling 16, GDPD1  -  glycerophosphodiester phosphodiesterase domain containing 1, DDX43  -  dead (asp-glu-ala-asp) box polypeptide 43, PP2D1  -  protein phosphatase 2c-like domain containing 1, SMPD3  -  sphingomyelin phosphodiesterase 3, neutral membrane (neutral sphingomyelinase ii), RHEB  -  ras homolog enriched in brain, RERGL  -  rerg/ras-like, HTRA3  -  htra serine peptidase 3, DNAH11  -  dynein, axonemal, heavy chain 11, CDC25A  -  cell division cycle 25a, SEC23IP  -  sec23 interacting protein, CDC42  -  cell division cycle 42, ABCC3  -  atp-binding cassette, sub-family c (cftr/mrp), member 3, VASH2  -  vasohibin 2, MBTPS1  -  membrane-bound transcription factor peptidase, site 1, DNAH3  -  dynein, axonemal, heavy chain 3, RNASEL  -  ribonuclease l (2',5'-oligoisoadenylate synthetase-dependent), DDX20  -  dead (asp-glu-ala-asp) box polypeptide 20, ADAM19  -  adam metallopeptidase domain 19, DUSP10  -  dual specificity phosphatase 10, RNGTT  -  rna guanylyltransferase and 5'-phosphatase, RNPEP  -  arginyl aminopeptidase (aminopeptidase b), ABCE1  -  atp-binding cassette, sub-family e (oabp), member 1, ADAM23  -  adam metallopeptidase domain 23, ADAM21  -  adam metallopeptidase domain 21, KIF21A  -  kinesin family member 21a, PADI2  -  peptidyl arginine deiminase, type ii, ADAM9  -  adam metallopeptidase domain 9, IGHMBP2  -  immunoglobulin mu binding protein 2, MTMR8  -  myotubularin related protein 8, KIF16B  -  kinesin family member 16b, MAN1B1  -  mannosidase, alpha, class 1b, member 1, RAB11A  -  rab11a, member ras oncogene family, TASP1  -  taspase, threonine aspartase, 1, KLB  -  klotho beta, MTMR1  -  myotubularin related protein 1, SMPD4  -  sphingomyelin phosphodiesterase 4, neutral membrane (neutral sphingomyelinase-3), LRRC40  -  leucine rich repeat containing 40, USP18  -  ubiquitin specific peptidase 18, ALG13  -  alg13, udp-n-acetylglucosaminyltransferase subunit, ERI2  -  eri1 exoribonuclease family member 2, RGS9  -  regulator of g-protein signaling 9, CENPE  -  centromere protein e, 312kda, DTD2  -  d-tyrosyl-trna deacylase 2 (putative), RPAP2  -  rna polymerase ii associated protein 2, CHD7  -  chromodomain helicase dna binding protein 7, SLC25A42  -  solute carrier family 25, member 42, IHH  -  indian hedgehog, RAB20  -  rab20, member ras oncogene family, CTSC  -  cathepsin c, CFTR  -  cystic fibrosis transmembrane conductance regulator (atp-binding cassette sub-family c, member 7), IL1R1  -  interleukin 1 receptor, type i, LYPLA2  -  lysophospholipase ii, HDAC11  -  histone deacetylase 11, RPE65  -  retinal pigment epithelium-specific protein 65kda, IL1RAP  -  interleukin 1 receptor accessory protein, PARK7  -  parkinson protein 7, IL18RAP  -  interleukin 18 receptor accessory protein, DDX27  -  dead (asp-glu-ala-asp) box polypeptide 27, GPN1  -  gpn-loop gtpase 1, IL18R1  -  interleukin 18 receptor 1, CAPN14  -  calpain 14, DDX42  -  dead (asp-glu-ala-asp) box helicase 42, MFN1  -  mitofusin 1, CHD2  -  chromodomain helicase dna binding protein 2, ATAD5  -  atpase family, aaa domain containing 5, CHD4  -  chromodomain helicase dna binding protein 4, MGLL  -  monoglyceride lipase, GMPS  -  guanine monphosphate synthase, KIF12  -  kinesin family member 12, PNLDC1  -  poly(a)-specific ribonuclease (parn)-like domain containing 1, GGH  -  gamma-glutamyl hydrolase (conjugase, folylpolygammaglutamyl hydrolase), CHKA  -  choline kinase alpha, IARS2  -  isoleucyl-trna synthetase 2, mitochondrial, CAPN8  -  calpain 8, HDAC3  -  histone deacetylase 3, XRN2  -  5'-3' exoribonuclease 2, MTHFD2L  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 2-like, MRAS  -  muscle ras oncog</t>
-  </si>
-  <si>
-    <t>ne homolog, ABCA13  -  atp-binding cassette, sub-family a (abc1), member 13, CHRM3  -  cholinergic receptor, muscarinic 3, HELQ  -  helicase, polq-like, CHRM5  -  cholinergic receptor, muscarinic 5, IMPA1  -  inositol(myo)-1(or 4)-monophosphatase 1, IMPA2  -  inositol(myo)-1(or 4)-monophosphatase 2, ADPRHL1  -  adp-ribosylhydrolase like 1, PROZ  -  protein z, vitamin k-dependent plasma glycoprotein, RPS3  -  ribosomal protein s3, TSR1  -  tsr1, 20s rrna accumulation, homolog (s. cerevisiae), PIK3IP1  -  phosphoinositide-3-kinase interacting protein 1, SYNJ1  -  synaptojanin 1, N4BP2  -  nedd4 binding protein 2, SYNJ2  -  synaptojanin 2, ATF7IP  -  activating transcription factor 7 interacting protein, TOE1  -  target of egr1, member 1 (nuclear), INPP4A  -  inositol polyphosphate-4-phosphatase, type i, 107kda, INPP5A  -  inositol polyphosphate-5-phosphatase, 40kda, VNN1  -  vanin 1, INPP5B  -  inositol polyphosphate-5-phosphatase, 75kda, INPP5D  -  inositol polyphosphate-5-phosphatase, 145kda, INPPL1  -  inositol polyphosphate phosphatase-like 1, PPM1E  -  protein phosphatase, mg2+/mn2+ dependent, 1e, AMZ1  -  archaelysin family metallopeptidase 1, EDEM2  -  er degradation enhancer, mannosidase alpha-like 2, VASH1  -  vasohibin 1, DDX18  -  dead (asp-glu-ala-asp) box polypeptide 18, CNDP2  -  cndp dipeptidase 2 (metallopeptidase m20 family), CLC  -  charcot-leyden crystal galectin, MTMR3  -  myotubularin related protein 3, MTMR2  -  myotubularin related protein 2, DHX32  -  deah (asp-glu-ala-his) box polypeptide 32, ENPP4  -  ectonucleotide pyrophosphatase/phosphodiesterase 4 (putative), INPP5F  -  inositol polyphosphate-5-phosphatase f, NGLY1  -  n-glycanase 1, TMEM62  -  transmembrane protein 62, MORC2  -  morc family cw-type zinc finger 2, CLN5  -  ceroid-lipofuscinosis, neuronal 5, TDP1  -  tyrosyl-dna phosphodiesterase 1, IAH1  -  isoamyl acetate-hydrolyzing esterase 1 homolog (s. cerevisiae), MBD4  -  methyl-cpg binding domain protein 4, PGAP1  -  post-gpi attachment to proteins 1, DIS3  -  dis3 mitotic control homolog (s. cerevisiae), CCR5  -  chemokine (c-c motif) receptor 5 (gene/pseudogene), ARSG  -  arylsulfatase g, KYNU  -  kynureninase, ADAMTS20  -  adam metallopeptidase with thrombospondin type 1 motif, 20, DHX30  -  deah (asp-glu-ala-his) box helicase 30, ABCC2  -  atp-binding cassette, sub-family c (cftr/mrp), member 2, SACM1L  -  sac1 suppressor of actin mutations 1-like (yeast), FAN1  -  fancd2/fanci-associated nuclease 1, ITPK1  -  inositol-tetrakisphosphate 1-kinase, DCP1A  -  decapping mrna 1a, USP13  -  ubiquitin specific peptidase 13 (isopeptidase t-3), RABL3  -  rab, member of ras oncogene family-like 3, PIF1  -  pif1 5'-to-3' dna helicase, VCPIP1  -  valosin containing protein (p97)/p47 complex interacting protein 1, ATP6V0E1  -  atpase, h+ transporting, lysosomal 9kda, v0 subunit e1, MYSM1  -  myb-like, swirm and mpn domains 1, CNP  -  2',3'-cyclic nucleotide 3' phosphodiesterase, ZC3H12A  -  zinc finger ccch-type containing 12a, ASRGL1  -  asparaginase like 1, EDC3  -  enhancer of mrna decapping 3, ACOT13  -  acyl-coa thioesterase 13, MYO19  -  myosin xix, NT5C2  -  5'-nucleotidase, cytosolic ii, BTAF1  -  btaf1 rna polymerase ii, b-tfiid transcription factor-associated, 170kda, FAAH2  -  fatty acid amide hydrolase 2, KCNJ8  -  potassium inwardly-rectifying channel, subfamily j, member 8, HDAC8  -  histone deacetylase 8, CHD9  -  chromodomain helicase dna binding protein 9, NUGGC  -  nuclear gtpase, germinal center associated, NT5C3B  -  5'-nucleotidase, cytosolic iiib, C11orf54  -  chromosome 11 open reading frame 54, PLCH1  -  phospholipase c, eta 1, OMA1  -  oma1 zinc metallopeptidase, RAB21  -  rab21, member ras oncogene family, EXOSC7  -  exosome component 7, TMPRSS11E  -  transmembrane protease, serine 11e, KEL  -  kell blood group, metallo-endopeptidase, CNOT1  -  ccr4-not transcription complex, subunit 1, KIF2A  -  kinesin heavy chain member 2a, USP54  -  ubiquitin specific peptidase 54, KIF3C  -  kinesin family member 3c, NOB1  -  nin1/rpn12 binding protein 1 homolog (s. cerevisiae), KIF5B  -  kinesin family member 5b, KIF5C  -  kinesin family member 5c, KIFC3  -  kinesin family member c3, MYO16  -  myosin xvi, MYO5C  -  myosin vc, EDEM3  -  er degradation enhancer, mannosidase alpha-like 3, USP33  -  ubiquitin specific peptidase 33, USP14  -  ubiquitin specific peptidase 14 (trna-guanine transglycosylase), PHLPP2  -  ph domain and leucine rich repeat protein phosphatase 2, SULF2  -  sulfatase 2, CPA2  -  carboxypeptidase a2 (pancreatic), USP10  -  ubiquitin specific peptidase 10, USP8  -  ubiquitin specific peptidase 8, CPB1  -  carboxypeptidase b1 (tissue), CPB2  -  carboxypeptidase b2 (plasma), RGN  -  regucalcin, CPD  -  carboxypeptidase d, CPE  -  carboxypeptidase e, DIS3L  -  dis3 mitotic control homolog (s. cerevisiae)-like, MTMR7  -  myotubularin related protein 7, MTMR4  -  myotubularin related protein 4, KLKB1  -  kallikrein b, plasma (fletcher factor) 1, KIF21B  -  kinesin family member 21b, PPTC7  -  ptc7 protein phosphatase homolog (s. cerevisiae), CPM  -  carboxypeptidase m, CPN1  -  carboxypeptidase n, polypeptide 1, ATP6V0D1  -  atpase, h+ transporting, lysosomal 38kda, v0 subunit d1, ENDOD1  -  endonuclease domain containing 1, CPS1  -  carbamoyl-phosphate synthase 1, mitochondrial, KLC1  -  kinesin light chain 1, KIF11  -  kinesin family member 11, KIF25  -  kinesin family member 25, SMC3  -  structural maintenance of chromosomes 3, SETX  -  senataxin, PHPT1  -  phosphohistidine phosphatase 1, KRAS  -  kirsten rat sarcoma viral oncogene homolog, SETMAR  -  set domain and mariner transposase fusion gene, VWA8  -  von willebrand factor a domain containing 8, OTUD7A  -  otu domain containing 7a, DROSHA  -  drosha, ribonuclease type iii, ADAL  -  adenosine deaminase-like, CTDP1  -  ctd (carboxy-terminal domain, rna polymerase ii, polypeptide a) phosphatase, subunit 1, KIF1B  -  kinesin family member 1b, EXO1  -  exonuclease 1, SARM1  -  sterile alpha and tir motif containing 1, PCSK7  -  proprotein convertase subtilisin/kexin type 7, PHOSPHO1  -  phosphatase, orphan 1, ACAD10  -  acyl-coa dehydrogenase family, member 10, SGSH  -  n-sulfoglucosamine sulfohydrolase, RHBDL3  -  rhomboid, veinlet-like 3 (drosophila), LGALS13  -  lectin, galactoside-binding, soluble, 13, RAB39B  -  rab39b, member ras oncogene family, IL1RL1  -  interleukin 1 receptor-like 1, TSEN15  -  tsen15 trna splicing endonuclease subunit, USP25  -  ubiquitin specific peptidase 25, TSEN2  -  tsen2 trna splicing endonuclease subunit, AARSD1  -  alanyl-trna synthetase domain containing 1, RAD54L2  -  rad54-like 2 (s. cerevisiae), SHH  -  sonic hedgehog, SI  -  sucrase-isomaltase (alpha-glucosidase), OLA1  -  obg-like atpase 1, STK31  -  serine/threonine kinase 31, DNAH7  -  dynein, axonemal, heavy chain 7, LCAT  -  lecithin-cholesterol acyltransferase, SENP1  -  sumo1/sentrin specific peptidase 1, DDHD1  -  ddhd domain containing 1, LCT  -  lactase, DUSP16  -  dual specificity phosphatase 16, AGAP1  -  arfgap with gtpase domain, ankyrin repeat and ph domain 1, AGAP3  -  arfgap with gtpase domain, ankyrin repeat and ph domain 3, GNL2  -  guanine nucleotide binding protein-like 2 (nucleolar), METAP1  -  methionyl aminopeptidase 1, LPIN1  -  lipin 1, GPCPD1  -  glycerophosphocholine phosphodiesterase gde1 homolog (s. cerevisiae), HFM1  -  hfm1, atp-dependent dna helicase homolog (s. cerevisiae), ILKAP  -  integrin-linked kinase-associated serine/threonine phosphatase, MDN1  -  mdn1, midasin homolog (yeast), TMPRSS6  -  transmembrane protease, serine 6, CTSB  -  cathepsin b, CTSD  -  cathepsin d, CTSE  -  cathepsin e, LIPC  -  lipase, hepatic, PIWIL1  -  piwi-like rna-mediated gene silencing 1, CTSH  -  cathepsin h, CTSL  -  cathepsin l, PADI1  -  peptidyl arginine deiminase, type i, CTSZ  -  cathepsin z, INPP5E  -  inositol polyphosphate-5-phosphatase, 72 kda, ASAH2  -  n-acylsphingosine amidohydrolase (non-lysosomal ceramidase) 2, ATP11C  -  atpase, class vi, type 11c, TMPRSS4  -  transmembrane protease, serine 4, RHOBTB2  -  rho-related btb domain containing 2, DPP7  -  dipeptidyl-peptidase 7, PLCL2  -  phospholipase c-like 2, CYLD  -  cylindromatosis (turban tumor syndrome), PLCB1  -  phospholipase c, beta 1 (phosphoinositide-specific), PHLPP1  -  ph domain and leucine rich repeat protein phosphatase 1, PTER  -  phosphotriesterase related, NRIP3  -  nuclear receptor interacting protein 3, COPS2  -  cop9 signalosome subunit 2, TRIP13  -  thyroid hormone receptor interactor 13, FRA10AC1  -  fragile site, folic acid type, rare, fra(10)(q23.3) or fra(10)(q24.2) candidate 1, LTA4H  -  leukotriene a4 hydrolase, ATP11A  -  atpase, class vi, type 11a, OTUD3  -  otu domain containing 3, EFTUD2  -  elongation factor tu gtp binding domain containing 2, SMPD2  -  sphingomyelin phosphodiesterase 2, neutral membrane (neutral sphingomyelinase), LONP1  -  lon peptidase 1, mitochondrial, WRNIP1  -  werner helicase interacting protein 1, RAB28  -  rab28, member ras oncogene family, KL  -  klotho, SMG6  -  smg6 nonsense mediated mrna decay factor, RAB9A  -  rab9a, member ras oncogene family, KIF3B  -  kinesin family member 3b, KIF13B  -  kinesin family member 13b, SMARCAD1  -  swi/snf-related, matrix-associated actin-dependent regulator of chromatin, subfamily a, containing dead/h box 1, DHX33  -  deah (asp-glu-ala-his) box polypeptide 33, SPPL2B  -  signal peptide peptidase like 2b, SMARCAL1  -  swi/snf related, matrix associated, actin dependent regulator of chromatin, subfamily a-like 1, MAN2B2  -  mannosidase, alpha, class 2b, member 2, USP22  -  ubiquitin specific peptidase 22, DCTD  -  dcmp deaminase, ACE  -  angiotensin i converting enzyme, DHX36  -  deah (asp-glu-ala-his) box polypeptide 36, DDX51  -  dead (asp-glu-ala-asp) box polypeptide 51, RECQL5  -  recq protein-like 5, CAPN15  -  calpain 15, DUSP22  -  dual specificity phosphatase 22, LRRK2  -  leucine-rich repeat kinase 2, MAN2A2  -  mannosidase, alpha, class 2a, member 2, MAN2C1  -  mannosidase, alpha, class 2c, member 1, MANBA  -  mannosidase, beta a, lysosomal, SMCHD1  -  structural maintenance of chromosomes flexible hinge domain containing 1, DDX1  -  dead (asp-glu-ala-asp) box helicase 1, NT5M  -  5',3'-nucleotidase, mitochondrial, DDX3X  -  dead (asp-glu-ala-asp) box helicase 3, x-linked, DDX5  -  dead (asp-glu-ala-asp) box helicase 5, ATP6V0A4  -  atpase, h+ transporting, lysosomal v0 subunit a4, NIT2  -  nitrilase family, member 2, DHX8  -  deah (asp-glu-ala-his) box polypeptide 8, DDX10  -  dead (asp-glu-ala-asp) box polypeptide 10, SPAG1  -  sperm associated antigen 1, DDX11  -  dead/h (asp-glu-ala-asp/his) box helicase 11, DHX15  -  deah (asp-glu-ala-his) box helicase 15, ABCG2  -  atp-binding cassette, sub-family g (white), member 2, SPAM1  -  sperm adhesion molecule 1 (ph-20 hyaluronidase, zona pellucida binding), PNPLA8  -  patatin-like phospholipase domain containing 8, SPAST  -  spastin, SPG7  -  spastic paraplegia 7 (pure and complicated autosomal recessive), DFFB  -  dna fragmentation factor, 40kda, beta polypeptide (caspase-activated dnase), KIF15  -  kinesin family member 15, HM13  -  histocompatibility (minor) 13, NCSTN  -  nicastrin, SPPL3  -  signal peptide peptidase like 3, SGPP1  -  sphingosine-1-phosphate phosphatase 1, MCM2  -  minichromosome maintenance complex component 2, ADAMTS9  -  adam metallopeptidase with thrombospondin type 1 motif, 9, MCM3  -  minichromosome maintenance complex component 3, MCM4  -  minichromosome maintenance complex component 4, LARS2  -  leucyl-trna synthetase 2, mitochondrial, GDPD5  -  glycerophosphodiester phosphodiesterase domain containing 5, MCM5  -  minichromosome maintenance complex component 5, ADAMTS15  -  adam metallopeptidase with thrombospondin type 1 motif, 15, ATP13A2  -  atpase type 13a2, ADAMTS18  -  adam metallopeptidase with thrombospondin type 1 motif, 18, EXOSC2  -  exosome component 2, DICER1  -  dicer 1, ribonuclease type iii, SIRT4  -  sirtuin 4, SIRT3  -  sirtuin 3, PDXP  -  pyridoxal (pyridoxine, vitamin b6) phosphatase, TDRD9  -  tudor domain containing 9, NDEL1  -  nude neurodevelopment protein 1-like 1, SRP54  -  signal recognition particle 54kda, DLG1  -  discs, large homolog 1 (drosophila), KIF23  -  kinesin family member 23, PLD4  -  phospholipase d family, member 4, RHOV  -  ras homolog family member v, CDADC1  -  cytidine and dcmp deaminase domain containing 1, DDX24  -  dead (asp-glu-ala-asp) box helicase 24, RAB8A  -  rab8a, member ras oncogene family, ADAMTS3  -  adam metallopeptidase with thrombospondin type 1 motif, 3, ENTPD7  -  ectonucleoside triphosphate diphosphohydrolase 7, ADAMTS2  -  adam metallopeptidase with thrombospondin type 1 motif, 2, DNM1  -  dynamin 1, MEP1A  -  meprin a, alpha (paba peptide hydrolase), MEP1B  -  meprin a, beta, PMPCB  -  peptidase (mitochondrial processing) beta, CPA6  -  carboxypeptidase a6, MEST  -  mesoderm specific transcript, DNA2  -  dna replication helicase/nuclease 2, DNAH5  -  dynein, axonemal, heavy chain 5, CLYBL  -  citrate lyase beta like, DNAH8  -  dynein, axonemal, heavy chain 8, DNAH9  -  dynein, axonemal, heavy chain 9, NPEPPS  -  aminopeptidase puromycin sensitive, C12orf5  -  chromosome 12 open reading frame 5, PNPLA2  -  patatin-like phospholipase domain containing 2, ABCB10  -  atp-binding cassette, sub-family b (mdr/tap), member 10, DNASE1L3  -  deoxyribonuclease i-like 3, ABCB9  -  atp-binding cassette, sub-family b (mdr/tap), member 9, VPS4B  -  vacuolar protein sorting 4 homolog b (s. cerevisiae), DYNC1H1  -  dynein, cytoplasmic 1, heavy chain 1, ABCA6  -  atp-binding cassette, sub-family a (abc1), member 6, DYNC1I1  -  dynein, cytoplasmic 1, intermediate chain 1, ABCA5  -  atp-binding cassette, sub-family a (abc1), member 5, REXO4  -  rex4, rna exonuclease 4 homolog (s. cerevisiae), DYNC1I2  -  dynein, cytoplasmic 1, intermediate chain 2, ST14  -  suppression of tumorigenicity 14 (colon carcinoma), TMEM59  -  transmembrane protein 59, DYNC1LI2  -  dynein, cytoplasmic 1, light intermediate chain 2, AMDHD2  -  amidohydrolase domain containing 2, EXOSC3  -  exosome component 3, SENP8  -  sumo/sentrin specific peptidase family member 8, CAPN7  -  calpain 7, ABHD3  -  abhydrolase domain containing 3, PGAM5  -  phosphoglycerate mutase family member 5, RAB37  -  rab37, member ras oncogene family, HSPA13  -  heat shock protein 70kda family, member 13, HDDC2  -  hd domain containing 2, ATP6V1G1  -  atpase, h+ transporting, lysosomal 13kda, v1 subunit g1, PLA2G4E  -  phospholipase a2, group ive, DPP6  -  dipeptidyl-peptidase 6, MAN1C1  -  mannosidase, alpha, class 1c, member 1, APMAP  -  adipocyte plasma membrane associated protein, DPYS  -  dihydropyrimidinase, MACF1  -  microtubule-actin crosslinking factor 1, DESI2  -  desumoylating isopeptidase 2, CHD1L  -  chromodomain helicase dna binding protein 1-like, MIPEP  -  mitochondrial intermediate peptidase, MINPP1  -  multiple inositol-polyphosphate phosphatase 1, ATXN3  -  ataxin 3, H6PD  -  hexose-6-phosphate dehydrogenase (glucose 1-dehydrogenase), AGO3  -  argonaute risc catalytic component 3, GTPBP1  -  gtp binding protein 1, MLH1  -  mutl homolog 1, colon cancer, nonpolyposis type 2 (e. coli), DRG2  -  developmentally regulated gtp binding protein 2, LAP3  -  leucine aminopeptidase 3, ATL1  -  atlastin gtpase 1, PREPL  -  prolyl endopeptidase-like, ENTPD4  -  ectonucleoside triphosphate diphosphohydrolase 4, ZNFX1  -  zinc finger, nfx1-type containing 1, KIF20B  -  kinesin family member 20b, MME  -  membrane metallo-endopeptidase, DOLPP1  -  dolichyldiphosphatase 1, SUPV3L1  -  suppressor of var1, 3-like 1 (s. cerevisiae), MMP2  -  matrix metallopeptidase 2 (gelatinase a, 72kda gelatinase, 72kda type iv collagenase), PRDX6  -  peroxiredoxin 6, ABCC8  -  atp-binding cassette, sub-family c (cftr/mrp), member 8, MMP3  -  matrix metallopeptidase 3 (stromelysin 1, progelatinase), FAHD1  -  fumarylacetoacetate hydrolase domain containing 1, MMP7  -  matrix metallopeptidase 7 (matrilysin, uterine), DNAH10  -  dynein, axonemal, heavy chain 10, MMP9  -  matrix metallopeptidase 9 (gelatinase b, 92kda gelatinase, 92kda type iv collagenase), MMP11  -  matrix metallopeptidase 11 (stromelysin 3), ADAT1  -  adenosine deaminase, trna-specific 1, MMP13  -  matrix metallopeptidase 13 (collagenase 3), CANT1  -  calcium activated nucleotidase 1, KIF18A  -  kinesin family member 18a, DUSP5  -  dual specificity phosphatase 5, MMP17  -  matrix metallopeptidase 17 (membrane-inserted), ADAMTSL3  -  adamts-like 3, DUSP6  -  dual specificity phosphatase 6, RAB36  -  rab36, member ras oncogene family, DUSP8  -  dual specificity phosphatase 8, ATP6V0A2  -  atpase, h+ transporting, lysosomal v0 subunit a2, PITPNM3  -  pitpnm family member 3, DCP1B  -  decapping mrna 1b, DNPEP  -  aspartyl aminopeptidase, RASD2  -  rasd family, member 2, ABCG1  -  atp-binding cassette, sub-family g (white), member 1, MOV10  -  mov10, moloney leukemia virus 10, homolog (mouse), ABHD5  -  abhydrolase domain containing 5, MPG  -  n-methylpurine-dna glycosylase, ADAM17  -  adam metallopeptidase domain 17, RGS6  -  regulator of g-protein signaling 6, GTPBP4  -  gtp binding protein 4, MRE11A  -  mre11 meiotic recombination 11 homolog a (s. cerevisiae), LACTB2  -  lactamase, beta 2, ABCC1  -  atp-binding cassette, sub-family c (cftr/mrp), member 1, DDAH1  -  dimethylarginine dimethylaminohydrolase 1, DDX59  -  dead (asp-glu-ala-asp) box polypeptide 59, ECE1  -  endothelin converting enzyme 1, PPM1F  -  protein phosphatase, mg2+/mn2+ dependent, 1f, SENP7  -  sumo1/sentrin specific peptidase 7, EDNRA  -  endothelin receptor type a, ACOT9  -  acyl-coa thioesterase 9, AICDA  -  activation-induced cytidine deaminase, LPIN2  -  lipin 2, RHOJ  -  ras homolog family member j, COPS4  -  cop9 signalosome subunit 4, EEF1A2  -  eukaryotic translation elongation factor 1 alpha 2, EIF5B  -  eukaryotic translation initiation factor 5b, RAB22A  -  rab22a, member ras oncogene family, DYNC1LI1  -  dynein, cytoplasmic 1, light intermediate chain 1, ABHD6  -  abhydrolase domain containing 6, ACER1  -  alkaline ceramidase 1, RHBDD2  -  rhomboid domain containing 2, DUPD1  -  dual specificity phosphatase and pro isomerase domain containing 1, SPO11  -  spo11 meiotic protein covalently bound to dsb, DBR1  -  debranching rna lariats 1, MYO1B  -  myosin ib, KIAA0391  -  kiaa0391, REXO1  -  rex1, rna exonuclease 1 homolog (s. cerevisiae), MYO15A  -  myosin xva, DYNLRB2  -  dynein, light chain, roadblock-type 2, MSH2  -  muts homolog 2, colon cancer, nonpolyposis type 1 (e. coli), EDEM1  -  er degradation enhancer, mannosidase alpha-like 1, MSH4  -  muts homolog 4 (e. coli), TUBD1  -  tubulin, delta 1, MSH5  -  muts homolog 5 (e. coli), ESPL1  -  extra spindle pole bodies homolog 1 (s. cerevisiae), HSPA14  -  heat shock 70kda protein 14, EIF2S3  -  eukaryotic translation initiation factor 2, subunit 3 gamma, 52kda, GPN3  -  gpn-loop gtpase 3, CNOT6  -  ccr4-not transcription complex, subunit 6, PLA2G15  -  phospholipase a2, group xv, AQR  -  aquarius homolog (mouse), PLCE1  -  phospholipase c, epsilon 1, ECE2  -  endothelin converting enzyme 2, USP31  -  ubiquitin specific peptidase 31, ADAMTSL2  -  adamts-like 2, APLF  -  aprataxin and pnkp like factor, PIKFYVE  -  phosphoinositide kinase, fyve finger containing, DDX47  -  dead (asp-glu-ala-asp) box polypeptide 47, RIOK1  -  rio kinase 1, DUSP13  -  dual specificity phosphatase 13, HDAC9  -  histone deacetylase 9, LONP2  -  lon peptidase 2, peroxisomal, LIPH  -  lipase, member h, USP34  -  ubiquitin specific peptidase 34, AARS2  -  alanyl-trna synthetase 2, mitochondrial, ENPP7  -  ectonucleotide pyrophosphatase/phosphodiesterase 7, MTHFD1  -  methylenetetrahydrofolate dehydrogenase (nadp+ dependent) 1, methenyltetrahydrofolate cyclohydrolase, formyltetrahydrofolate synthetase, MTIF2  -  mitochondrial translational initiation factor 2, STARD9  -  star-related lipid transfer (start) domain containing 9, ENDOG  -  endonuclease g, DYNLT3  -  dynein, light chain, tctex-type 3, TCTE3  -  t-complex-associated-testis-expressed 3, NT5C3A  -  5'-nucleotidase, cytosolic iiia, LRRC30  -  leucine rich repeat containing 30, DYNLT1  -  dynein, light chain, tctex-type 1, TDG  -  thymine-dna glycosylase, ENPEP  -  glutamyl aminopeptidase (aminopeptidase a), ADAMTSL5  -  adamts-like 5, LYPLAL1  -  lysophospholipase-like 1, RAB12  -  rab12, member ras oncogene family, EIF4A3  -  eukaryotic translation initiation factor 4a3, PDP2  -  pyruvate dehyrogenase phosphatase catalytic subunit 2, DNAJC27  -  dnaj (hsp40) homolog, subfamily c, member 27, NCEH1  -  neutral cholesterol ester hydrolase 1, PDE12  -  phosphodiesterase 12, DHX38  -  deah (asp-glu-ala-his) box polypeptide 38, EPHX1  -  epoxide hydrolase 1, microsomal (xenobiotic), USP35  -  ubiquitin specific peptidase 35, EPHX2  -  epoxide hydrolase 2, cytoplasmic, RASL12  -  ras-like, family 12, SPCS2  -  signal peptidase complex subunit 2 homolog (s. cerevisiae), BMS1  -  bms1 ribosome biogenesis factor, KIF4A  -  kinesin family member 4a, MUTYH  -  muty homolog (e. coli), SPRTN  -  sprt-like n-terminal domain, HDAC10  -  histone deacetylase 10, SCRN1  -  secernin 1, EYA4  -  eyes absent homolog 4 (drosophila), MX1  -  myxovirus (influenza virus) resistance 1, interferon-inducible protein p78 (mouse), ERCC3  -  excision repair cross-complementing rodent repair deficiency, complementation group 3, ERCC4  -  excision repair cross-complementing rodent repair deficiency, complementation group 4, TATDN1  -  tatd dnase domain containing 1, ERCC5  -  excision repair cross-complementing rodent repair deficiency, complementation group 5, ERCC6  -  excision repair cross-complementing rodent repair deficiency, complementation group 6, ERN1  -  endoplasmic reticulum to nucleus signaling 1, ESD  -  esterase d, BRIP1  -  brca1 interacting protein c-terminal helicase 1, DNAJC6  -  dnaj (hsp40) homolog, subfamily c, member 6, MYH4  -  myosin, heavy chain 4, skeletal muscle, PRSS55  -  protease, serine, 55, MYH6  -  myosin, heavy chain 6, cardiac muscle, alpha, TMPRSS13  -  transmembrane protease, serine 13, MYH9  -  myosin, heavy chain 9, non-muscle, KY  -  kyphoscoliosis peptidase, MYH10  -  myosin, heavy chain 10, non-muscle, RAD54B  -  rad54 homolog b (s. cerevisiae), MYH11  -  myosin, heavy chain 11, smooth muscle, KATNAL1  -  katanin p60 subunit a-like 1, MYO1C  -  myosin ic, MYO1D  -  myosin id, PLA2G4B  -  phospholipase a2, group ivb (cytosolic), MYO1E  -  myosin ie, MYO5A  -  myosin va (heavy chain 12, myoxin), JMJD7  -  jumonji domain containing 7, MYO6  -  myosin vi, MBTPS2  -  membrane-bound transcription factor peptidase, site 2, MYO7A  -  myosin viia, EP400  -  e1a binding protein p400, MYO9A  -  myosin ixa, MYO9B  -  myosin ixb, TLL1  -  tolloid-like 1, PLA1A  -  phospholipase a1 member a, MYO10  -  myosin x, TLL2  -  tolloid-like 2, TATDN3  -  tatd dnase domain containing 3, EYA3  -  eyes absent homolog 3 (drosophila), MYH7B  -  myosin, heavy chain 7b, cardiac muscle, beta, TLR2  -  toll-like receptor 2, USP28  -  ubiquitin specific peptidase 28, ZRANB3  -  zinc finger, ran-binding domain containing 3, DHX37  -  deah (asp-glu-ala-his) box polypeptide 37, TLR4  -  toll-like receptor 4, F2  -  coagulation factor ii (thrombin), ARSI  -  arylsulfatase family, member i, UCHL5  -  ubiquitin carboxyl-terminal hydrolase l5, F3  -  coagulation factor iii (thromboplastin, tissue factor), BACE2  -  beta-site app-cleaving enzyme 2, F7  -  coagulation factor vii (serum prothrombin conversion accelerator), DDX46  -  dead (asp-glu-ala-asp) box polypeptide 46, NAGA  -  n-acetylgalactosaminidase, alpha-, NAGLU  -  n-acetylglucosaminidase, alpha, F9  -  coagulation factor ix, F10  -  coagulation factor x, ARL6  -  adp-ribosylation factor-like 6, SENP5  -  sumo1/sentrin specific peptidase 5, ZC3H12D  -  zinc finger ccch-type containing 12d, USP44  -  ubiquitin specific peptidase 44, TMPRSS2  -  transmembrane protease, serine 2, FAAH  -  fatty acid amide hydrolase, RHOBTB1  -  rho-related btb domain containing 1, PPME1  -  protein phosphatase methylesterase 1, RNF213  -  ring finger protein 213, FIG4  -  fig4 homolog, sac1 lipid phosphatase domain containing (s. cerevisiae), DDX41  -  dead (asp-glu-ala-asp) box polypeptide 41, USP42  -  ubiquitin specific peptidase 42, USP12  -  ubiquitin specific peptidase 12, TNFAIP3  -  tumor necrosis factor, alpha-induced protein 3, FAH  -  fumarylacetoacetate hydrolase (fumarylacetoacetase), BPTF  -  bromodomain phd finger transcription factor, USP37  -  ubiquitin specific peptidase 37, DDX55  -  dead (asp-glu-ala-asp) box polypeptide 55, USP49  -  ubiquitin specific peptidase 49, FANCM  -  fanconi anemia, complementation group m, FAP  -  fibroblast activation protein, alpha, AGBL3  -  atp/gtp binding protein-like 3, FASN  -  fatty acid synthase, PCYOX1  -  prenylcysteine oxidase 1, ATP2C2  -  atpase, ca++ transporting, type 2c, member 2, MIER1  -  mesoderm induction early response 1, transcriptional regulator, PAN2  -  pan2 poly(a) specific ribonuclease subunit homolog (s. cerevisiae), TOP2A  -  topoisomerase (dna) ii alpha 170kda, MFN2  -  mitofusin 2, TOP2B  -  topoisomerase (dna) ii beta 180kda, CHD6  -  chromodomain helicase dna binding protein 6, KIF14  -  kinesin family member 14, JOSD1  -  josephin domain containing 1, HELZ  -  helicase with zinc finger, DCLRE1A  -  dna cross-link repair 1a, USP48  -  ubiquitin specific peptidase 48, EXOG  -  endo/exonuclease (5'-3'), endonuclease g-like, DRG1  -  developmentally regulated gtp binding protein 1, TPP2  -  tripeptidyl peptidase ii, LARS  -  leucyl-trna synthetase, FEN1  -  flap structure-specific endonuclease 1, NEU4  -  sialidase 4, LIPM  -  lipase, family member m, USP15  -  ubiquitin specific peptidase 15, RAB40C  -  rab40c, member ras oncogene family, NEU2  -  sialidase 2 (cytosolic sialidase), ACMSD  -  aminocarboxymuconate semialdehyde decarboxylase, G6PC2  -  glucose-6-phosphatase, catalytic, 2, RHBDD1  -  rhomboid domain containing 1, SAMHD1  -  sam domain and hd domain 1, RAP2C  -  rap2c, member of ras oncogene family, SIRT6  -  sirtuin 6, OTOG  -  otogelin, PNKD  -  paroxysmal nonkinesigenic dyskinesia, SGPP2  -  sphingosine-1-phosphate phosphatase 2, NT5DC3  -  5'-nucleotidase domain containing 3, HDAC7  -  histone deacetylase 7, PPP4R1  -  protein phosphatase 4, regulatory subunit 1, OVCH2  -  ovochymase 2 (gene/pseudogene), FHIT  -  fragile histidine triad, HAGHL  -  hydroxyacylglutathione hydrolase-like, GDE1  -  glycerophosphodiester phosphodiesterase 1, NAALAD2  -  n-acetylated alpha-linked acidic dipeptidase 2, DNAH1  -  dynein, axonemal, heavy chain 1, ACOT8  -  acyl-coa thioesterase 8, CPO  -  carboxypeptidase o, GNPDA1  -  glucosamine-6-phosphate deaminase 1, RHOU  -  ras homolog family member u, TANK  -  traf family member-associated nfkb activator, ABHD17C  -  abhydrolase domain containing 17c, ATP6V1H  -  atpase, h+ transporting, lysosomal 50/57kda, v1 subunit h, NTPCR  -  nucleoside-triphosphatase, cancer-related, TSN  -  translin, DYNC2LI1  -  dynein, cytoplasmic 2, light intermediate chain 1, PIGK  -  phosphatidylinositol glycan anchor biosynthesis, class k, OTUD6B  -  otu domain containing 6b, ACOT11  -  acyl-coa thioesterase 11, DNASE2B  -  deoxyribonuclease ii beta, PTRH2  -  peptidyl-trna hydrolase 2, CNOT2  -  ccr4-not transcription complex, subunit 2, RASD1  -  ras, dexamethasone-induced 1, STYXL1  -  serine/threonine/tyrosine interacting-like 1, RRAGD  -  ras-related gtp binding d, ABCC5  -  atp-binding cassette, sub-family c (cftr/mrp), member 5, ABCB6  -  atp-binding cassette, sub-family b (mdr/tap), member 6, DNM1L  -  dynamin 1-like, TUBG1  -  tubulin, gamma 1, DNM3  -  dynamin 3, SENP6  -  sumo1/sentrin specific peptidase 6, FOLH1  -  folate hydrolase (prostate-specific membrane antigen) 1, PPM1M  -  protein phosphatase, mg2+/mn2+ dependent, 1m, ACE2  -  angiotensin i converting enzyme 2, CPSF3  -  cleavage and polyadenylation specific factor 3, 73kda, PTPRU  -  protein tyrosine phosphatase, receptor type, u, AADACL4  -  arylacetamide deacetylase-like 4, RAB23  -  rab23, member ras oncogene family, SCPEP1  -  serine carboxypeptidase 1, SENP2  -  sumo1/sentrin/smt3 specific peptidase 2, ABHD12  -  abhydrolase domain containing 12, NT5DC1  -  5'-nucleotidase domain containing 1, UPB1  -  ureidopropionase, beta, NSF  -  n-ethylmaleimide-sensitive factor, C12orf10  -  chromosome 12 open reading frame 10, NT5E  -  5'-nucleotidase, ecto (cd73), RTEL1  -  regulator of telomere elongation helicase 1, ENPP6  -  ectonucleotide pyrophosphatase/phosphodiesterase 6, NTHL1  -  nth endonuclease iii-like 1 (e. coli), RAD50  -  rad50 homolog (s. cerevisiae), KIF20A  -  kinesin family member 20a, ATP8A2  -  atpase, aminophospholipid transporter, class i, type 8a, member 2, OARD1  -  o-acyl-adp-ribose deacylase 1, RAB8B  -  rab8b, member ras oncogene family, SLX4  -  slx4 structure-specific endonuclease subunit, INPP5K  -  inositol polyphosphate-5-phosphatase k, KIF6  -  kinesin family member 6, UCHL1  -  ubiquitin carboxyl-terminal esterase l1 (ubiquitin thiolesterase), DNAL4  -  dynein, axonemal, light chain 4, NUP98  -  nucleoporin 98kda, MCM8  -  minichromosome maintenance complex component 8, NVL  -  nuclear vcp-like, CECR1  -  cat eye syndrome chromosome region, candidate 1, ARFRP1  -  adp-ribosylation factor related protein 1, KIF26A  -  kinesin family member 26a, ELAC2  -  elac ribonuclease z 2, ABCA12  -  atp-binding cassette, sub-family a (abc1), member 12, G3BP1  -  gtpase activating protein (sh3 domain) binding protein 1, OCRL  -  oculocerebrorenal syndrome of lowe, MTG2  -  mitochondrial ribosome-associated gtpase 2, USP4  -  ubiquitin specific peptidase 4 (proto-oncogene), DHX35  -  deah (asp-glu-ala-his) box polypeptide 35, LRRIQ4  -  leucine-rich repeats and iq motif containing 4, OGG1  -  8-oxoguanine dna glycosylase, DAGLB  -  diacylglycerol lipase, beta, UBLCP1  -  ubiquitin-like domain containing ctd phosphatase 1, OPA1  -  optic atrophy 1 (autosomal dominant), ADAM22  -  adam metallopeptidase domain 22, TMPRSS7  -  transmembrane protease, serine 7, NT5C1A  -  5'-nucleotidase, cytosolic ia, USP1  -  ubiquitin specific peptidase 1, NAPEPLD  -  n-acyl phosphatidylethanolamine phospholipase d, HINT3  -  histidine triad nucleotide binding protein 3, ORC1  -  origin recognition complex, subunit 1, USP38  -  ubiquitin specific peptidase 38, MYO3A  -  myosin iiia, PM20D2  -  peptidase m20 domain containing 2, PLA2G12B  -  phospholipase a2, group xiib, CHTF18  -  ctf18, chromosome transmission fidelity factor 18 homolog (s. cerevisiae), USPL1  -  ubiquitin specific peptidase like 1]</t>
   </si>
 </sst>
 </file>
@@ -1205,13 +1046,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F686EFB9-20EE-B948-88F9-1B4D1200F30F}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1239,16 +1082,13 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>2.2700000000000001E-7</v>
@@ -1271,153 +1111,309 @@
       <c r="I2">
         <v>2963</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C3" s="1">
+        <v>2.9299999999999999E-7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.0499999999999996E-4</v>
+      </c>
+      <c r="E3">
+        <v>1.07</v>
+      </c>
+      <c r="F3">
+        <v>10365</v>
+      </c>
+      <c r="G3">
+        <v>1001</v>
+      </c>
+      <c r="H3">
+        <v>8466</v>
+      </c>
+      <c r="I3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C4" s="1">
+        <v>3.8200000000000001E-7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.2599999999999999E-4</v>
+      </c>
+      <c r="E4">
+        <v>1.07</v>
+      </c>
+      <c r="F4">
+        <v>10365</v>
+      </c>
+      <c r="G4">
+        <v>1042</v>
+      </c>
+      <c r="H4">
+        <v>8466</v>
+      </c>
+      <c r="I4">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.01E-7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.1399999999999998E-4</v>
+      </c>
+      <c r="E5">
+        <v>1.07</v>
+      </c>
+      <c r="F5">
+        <v>10365</v>
+      </c>
+      <c r="G5">
+        <v>1035</v>
+      </c>
+      <c r="H5">
+        <v>8466</v>
+      </c>
+      <c r="I5">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.33E-6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E6">
+        <v>1.04</v>
+      </c>
+      <c r="F6">
+        <v>10365</v>
+      </c>
+      <c r="G6">
+        <v>2333</v>
+      </c>
+      <c r="H6">
+        <v>8466</v>
+      </c>
+      <c r="I6">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>2.9299999999999999E-7</v>
+        <v>1.8500000000000001E-6</v>
       </c>
       <c r="D7" s="1">
-        <v>6.0499999999999996E-4</v>
+        <v>1.2700000000000001E-3</v>
       </c>
       <c r="E7">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="F7">
         <v>10365</v>
       </c>
       <c r="G7">
-        <v>1001</v>
+        <v>2385</v>
       </c>
       <c r="H7">
         <v>8466</v>
       </c>
       <c r="I7">
-        <v>874</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.2400000000000002E-6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.32E-3</v>
+      </c>
+      <c r="E8">
+        <v>1.06</v>
+      </c>
+      <c r="F8">
+        <v>10365</v>
+      </c>
+      <c r="G8">
+        <v>1130</v>
+      </c>
+      <c r="H8">
+        <v>8466</v>
+      </c>
+      <c r="I8">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
-        <v>3.8200000000000001E-7</v>
+        <v>3.1300000000000001E-6</v>
       </c>
       <c r="D9" s="1">
-        <v>5.2599999999999999E-4</v>
+        <v>1.6199999999999999E-3</v>
       </c>
       <c r="E9">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="F9">
         <v>10365</v>
       </c>
       <c r="G9">
-        <v>1042</v>
+        <v>3673</v>
       </c>
       <c r="H9">
         <v>8466</v>
       </c>
       <c r="I9">
-        <v>908</v>
-      </c>
-      <c r="J9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.9699999999999996E-6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.7399999999999998E-3</v>
+      </c>
+      <c r="E10">
+        <v>1.05</v>
+      </c>
+      <c r="F10">
+        <v>10365</v>
+      </c>
+      <c r="G10">
+        <v>1342</v>
+      </c>
+      <c r="H10">
+        <v>8466</v>
+      </c>
+      <c r="I10">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1">
-        <v>4.01E-7</v>
+        <v>9.7600000000000001E-5</v>
       </c>
       <c r="D11" s="1">
-        <v>4.1399999999999998E-4</v>
+        <v>4.0300000000000002E-2</v>
       </c>
       <c r="E11">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="F11">
         <v>10365</v>
       </c>
       <c r="G11">
-        <v>1035</v>
+        <v>1245</v>
       </c>
       <c r="H11">
         <v>8466</v>
       </c>
       <c r="I11">
-        <v>902</v>
-      </c>
-      <c r="J11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.2E-4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.04</v>
+      </c>
+      <c r="F12">
+        <v>10365</v>
+      </c>
+      <c r="G12">
+        <v>1862</v>
+      </c>
+      <c r="H12">
+        <v>8466</v>
+      </c>
+      <c r="I12">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1">
-        <v>1.33E-6</v>
+        <v>1.4300000000000001E-4</v>
       </c>
       <c r="D13" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>4.9099999999999998E-2</v>
       </c>
       <c r="E13">
         <v>1.04</v>
@@ -1426,40 +1422,85 @@
         <v>10365</v>
       </c>
       <c r="G13">
-        <v>2333</v>
+        <v>1411</v>
       </c>
       <c r="H13">
         <v>8466</v>
       </c>
       <c r="I13">
-        <v>1982</v>
-      </c>
-      <c r="J13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="E14">
+        <v>1.05</v>
+      </c>
+      <c r="F14">
+        <v>10365</v>
+      </c>
+      <c r="G14">
+        <v>1243</v>
+      </c>
+      <c r="H14">
+        <v>8466</v>
+      </c>
+      <c r="I14">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.76E-4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="E15">
+        <v>1.04</v>
+      </c>
+      <c r="F15">
+        <v>10365</v>
+      </c>
+      <c r="G15">
+        <v>1234</v>
+      </c>
+      <c r="H15">
+        <v>8466</v>
+      </c>
+      <c r="I15">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1">
-        <v>1.8500000000000001E-6</v>
+        <v>1.83E-4</v>
       </c>
       <c r="D16" s="1">
-        <v>1.2700000000000001E-3</v>
+        <v>5.0299999999999997E-2</v>
       </c>
       <c r="E16">
         <v>1.04</v>
@@ -1468,660 +1509,245 @@
         <v>10365</v>
       </c>
       <c r="G16">
-        <v>2385</v>
+        <v>1412</v>
       </c>
       <c r="H16">
         <v>8466</v>
       </c>
       <c r="I16">
-        <v>2024</v>
-      </c>
-      <c r="J16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.9599999999999999E-4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="E17">
+        <v>1.05</v>
+      </c>
+      <c r="F17">
+        <v>10365</v>
+      </c>
+      <c r="G17">
+        <v>1196</v>
+      </c>
+      <c r="H17">
+        <v>8466</v>
+      </c>
+      <c r="I17">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.2100000000000001E-4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="E18">
+        <v>1.07</v>
+      </c>
+      <c r="F18">
+        <v>10365</v>
+      </c>
+      <c r="G18">
+        <v>470</v>
+      </c>
+      <c r="H18">
+        <v>8466</v>
+      </c>
+      <c r="I18">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1">
-        <v>2.2400000000000002E-6</v>
+        <v>3.2600000000000001E-4</v>
       </c>
       <c r="D19" s="1">
-        <v>1.32E-3</v>
+        <v>7.4800000000000005E-2</v>
       </c>
       <c r="E19">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="F19">
         <v>10365</v>
       </c>
       <c r="G19">
-        <v>1130</v>
+        <v>1412</v>
       </c>
       <c r="H19">
         <v>8466</v>
       </c>
       <c r="I19">
-        <v>978</v>
-      </c>
-      <c r="J19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.6499999999999998E-4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="E20">
+        <v>1.07</v>
+      </c>
+      <c r="F20">
+        <v>10365</v>
+      </c>
+      <c r="G20">
+        <v>431</v>
+      </c>
+      <c r="H20">
+        <v>8466</v>
+      </c>
+      <c r="I20">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1">
-        <v>3.1300000000000001E-6</v>
+        <v>3.8999999999999999E-4</v>
       </c>
       <c r="D21" s="1">
-        <v>1.6199999999999999E-3</v>
+        <v>8.0600000000000005E-2</v>
       </c>
       <c r="E21">
+        <v>1.04</v>
+      </c>
+      <c r="F21">
+        <v>10365</v>
+      </c>
+      <c r="G21">
+        <v>1649</v>
+      </c>
+      <c r="H21">
+        <v>8466</v>
+      </c>
+      <c r="I21">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7.5100000000000004E-4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="E22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F22">
+        <v>10365</v>
+      </c>
+      <c r="G22">
+        <v>193</v>
+      </c>
+      <c r="H22">
+        <v>8466</v>
+      </c>
+      <c r="I22">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7.5600000000000005E-4</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="E23">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F23">
+        <v>10365</v>
+      </c>
+      <c r="G23">
+        <v>249</v>
+      </c>
+      <c r="H23">
+        <v>8466</v>
+      </c>
+      <c r="I23">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1">
+        <v>9.1799999999999998E-4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E24">
         <v>1.03</v>
       </c>
-      <c r="F21">
-        <v>10365</v>
-      </c>
-      <c r="G21">
-        <v>3673</v>
-      </c>
-      <c r="H21">
-        <v>8466</v>
-      </c>
-      <c r="I21">
-        <v>3085</v>
-      </c>
-      <c r="J21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="1">
-        <v>5.9699999999999996E-6</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2.7399999999999998E-3</v>
-      </c>
-      <c r="E26">
-        <v>1.05</v>
-      </c>
-      <c r="F26">
-        <v>10365</v>
-      </c>
-      <c r="G26">
-        <v>1342</v>
-      </c>
-      <c r="H26">
-        <v>8466</v>
-      </c>
-      <c r="I26">
-        <v>1153</v>
-      </c>
-      <c r="J26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="1">
-        <v>9.7600000000000001E-5</v>
-      </c>
-      <c r="D28" s="1">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="E28">
-        <v>1.05</v>
-      </c>
-      <c r="F28">
-        <v>10365</v>
-      </c>
-      <c r="G28">
-        <v>1245</v>
-      </c>
-      <c r="H28">
-        <v>8466</v>
-      </c>
-      <c r="I28">
-        <v>1064</v>
-      </c>
-      <c r="J28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1.2E-4</v>
-      </c>
-      <c r="D30" s="1">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E30">
-        <v>1.04</v>
-      </c>
-      <c r="F30">
-        <v>10365</v>
-      </c>
-      <c r="G30">
-        <v>1862</v>
-      </c>
-      <c r="H30">
-        <v>8466</v>
-      </c>
-      <c r="I30">
-        <v>1576</v>
-      </c>
-      <c r="J30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1.4300000000000001E-4</v>
-      </c>
-      <c r="D33" s="1">
-        <v>4.9099999999999998E-2</v>
-      </c>
-      <c r="E33">
-        <v>1.04</v>
-      </c>
-      <c r="F33">
-        <v>10365</v>
-      </c>
-      <c r="G33">
-        <v>1411</v>
-      </c>
-      <c r="H33">
-        <v>8466</v>
-      </c>
-      <c r="I33">
-        <v>1201</v>
-      </c>
-      <c r="J33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1.4999999999999999E-4</v>
-      </c>
-      <c r="D35" s="1">
-        <v>4.7600000000000003E-2</v>
-      </c>
-      <c r="E35">
-        <v>1.05</v>
-      </c>
-      <c r="F35">
-        <v>10365</v>
-      </c>
-      <c r="G35">
-        <v>1243</v>
-      </c>
-      <c r="H35">
-        <v>8466</v>
-      </c>
-      <c r="I35">
-        <v>1061</v>
-      </c>
-      <c r="J35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1.76E-4</v>
-      </c>
-      <c r="D37" s="1">
-        <v>5.1799999999999999E-2</v>
-      </c>
-      <c r="E37">
-        <v>1.04</v>
-      </c>
-      <c r="F37">
-        <v>10365</v>
-      </c>
-      <c r="G37">
-        <v>1234</v>
-      </c>
-      <c r="H37">
-        <v>8466</v>
-      </c>
-      <c r="I37">
-        <v>1053</v>
-      </c>
-      <c r="J37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1.83E-4</v>
-      </c>
-      <c r="D39" s="1">
-        <v>5.0299999999999997E-2</v>
-      </c>
-      <c r="E39">
-        <v>1.04</v>
-      </c>
-      <c r="F39">
-        <v>10365</v>
-      </c>
-      <c r="G39">
-        <v>1412</v>
-      </c>
-      <c r="H39">
-        <v>8466</v>
-      </c>
-      <c r="I39">
-        <v>1201</v>
-      </c>
-      <c r="J39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1.9599999999999999E-4</v>
-      </c>
-      <c r="D41" s="1">
-        <v>5.0500000000000003E-2</v>
-      </c>
-      <c r="E41">
-        <v>1.05</v>
-      </c>
-      <c r="F41">
-        <v>10365</v>
-      </c>
-      <c r="G41">
-        <v>1196</v>
-      </c>
-      <c r="H41">
-        <v>8466</v>
-      </c>
-      <c r="I41">
-        <v>1021</v>
-      </c>
-      <c r="J41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="1">
-        <v>2.2100000000000001E-4</v>
-      </c>
-      <c r="D43" s="1">
-        <v>5.3600000000000002E-2</v>
-      </c>
-      <c r="E43">
-        <v>1.07</v>
-      </c>
-      <c r="F43">
-        <v>10365</v>
-      </c>
-      <c r="G43">
-        <v>470</v>
-      </c>
-      <c r="H43">
-        <v>8466</v>
-      </c>
-      <c r="I43">
-        <v>412</v>
-      </c>
-      <c r="J43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="1">
-        <v>3.2600000000000001E-4</v>
-      </c>
-      <c r="D44" s="1">
-        <v>7.4800000000000005E-2</v>
-      </c>
-      <c r="E44">
-        <v>1.04</v>
-      </c>
-      <c r="F44">
-        <v>10365</v>
-      </c>
-      <c r="G44">
-        <v>1412</v>
-      </c>
-      <c r="H44">
-        <v>8466</v>
-      </c>
-      <c r="I44">
-        <v>1199</v>
-      </c>
-      <c r="J44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="1">
-        <v>3.6499999999999998E-4</v>
-      </c>
-      <c r="D46" s="1">
-        <v>7.9299999999999995E-2</v>
-      </c>
-      <c r="E46">
-        <v>1.07</v>
-      </c>
-      <c r="F46">
-        <v>10365</v>
-      </c>
-      <c r="G46">
-        <v>431</v>
-      </c>
-      <c r="H46">
-        <v>8466</v>
-      </c>
-      <c r="I46">
-        <v>378</v>
-      </c>
-      <c r="J46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="1">
-        <v>3.8999999999999999E-4</v>
-      </c>
-      <c r="D47" s="1">
-        <v>8.0600000000000005E-2</v>
-      </c>
-      <c r="E47">
-        <v>1.04</v>
-      </c>
-      <c r="F47">
-        <v>10365</v>
-      </c>
-      <c r="G47">
-        <v>1649</v>
-      </c>
-      <c r="H47">
-        <v>8466</v>
-      </c>
-      <c r="I47">
-        <v>1395</v>
-      </c>
-      <c r="J47" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="1">
-        <v>7.5100000000000004E-4</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="E50">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F50">
-        <v>10365</v>
-      </c>
-      <c r="G50">
-        <v>193</v>
-      </c>
-      <c r="H50">
-        <v>8466</v>
-      </c>
-      <c r="I50">
-        <v>174</v>
-      </c>
-      <c r="J50" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" s="1">
-        <v>7.5600000000000005E-4</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="E51">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="F51">
-        <v>10365</v>
-      </c>
-      <c r="G51">
-        <v>249</v>
-      </c>
-      <c r="H51">
-        <v>8466</v>
-      </c>
-      <c r="I51">
-        <v>222</v>
-      </c>
-      <c r="J51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>104</v>
-      </c>
-      <c r="B52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52" s="1">
-        <v>9.1799999999999998E-4</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="E52">
-        <v>1.03</v>
-      </c>
-      <c r="F52">
-        <v>10365</v>
-      </c>
-      <c r="G52">
+      <c r="F24">
+        <v>10365</v>
+      </c>
+      <c r="G24">
         <v>1536</v>
       </c>
-      <c r="H52">
-        <v>8466</v>
-      </c>
-      <c r="I52">
+      <c r="H24">
+        <v>8466</v>
+      </c>
+      <c r="I24">
         <v>1298</v>
-      </c>
-      <c r="J52" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
